--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -40,72 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2017/03/27</t>
-  </si>
-  <si>
-    <t>2017/03/28</t>
-  </si>
-  <si>
-    <t>2017/03/29</t>
-  </si>
-  <si>
-    <t>2017/03/30</t>
-  </si>
-  <si>
-    <t>2017/03/31</t>
-  </si>
-  <si>
-    <t>2017/04/05</t>
-  </si>
-  <si>
-    <t>2017/04/06</t>
-  </si>
-  <si>
-    <t>2017/04/07</t>
-  </si>
-  <si>
-    <t>2017/04/10</t>
-  </si>
-  <si>
-    <t>2017/04/11</t>
-  </si>
-  <si>
-    <t>2017/04/12</t>
-  </si>
-  <si>
-    <t>2017/04/13</t>
-  </si>
-  <si>
-    <t>2017/04/14</t>
-  </si>
-  <si>
-    <t>2017/04/17</t>
-  </si>
-  <si>
-    <t>2017/04/18</t>
-  </si>
-  <si>
-    <t>2017/04/19</t>
-  </si>
-  <si>
-    <t>2017/04/20</t>
-  </si>
-  <si>
-    <t>2017/04/21</t>
-  </si>
-  <si>
-    <t>2017/04/24</t>
-  </si>
-  <si>
-    <t>2017/04/25</t>
-  </si>
-  <si>
-    <t>2017/04/26</t>
-  </si>
-  <si>
-    <t>2017/04/27</t>
-  </si>
-  <si>
     <t>2017/04/28</t>
   </si>
   <si>
@@ -848,6 +782,72 @@
   </si>
   <si>
     <t>2018/04/30</t>
+  </si>
+  <si>
+    <t>2018/05/02</t>
+  </si>
+  <si>
+    <t>2018/05/03</t>
+  </si>
+  <si>
+    <t>2018/05/04</t>
+  </si>
+  <si>
+    <t>2018/05/07</t>
+  </si>
+  <si>
+    <t>2018/05/08</t>
+  </si>
+  <si>
+    <t>2018/05/09</t>
+  </si>
+  <si>
+    <t>2018/05/10</t>
+  </si>
+  <si>
+    <t>2018/05/11</t>
+  </si>
+  <si>
+    <t>2018/05/14</t>
+  </si>
+  <si>
+    <t>2018/05/15</t>
+  </si>
+  <si>
+    <t>2018/05/16</t>
+  </si>
+  <si>
+    <t>2018/05/17</t>
+  </si>
+  <si>
+    <t>2018/05/18</t>
+  </si>
+  <si>
+    <t>2018/05/21</t>
+  </si>
+  <si>
+    <t>2018/05/22</t>
+  </si>
+  <si>
+    <t>2018/05/23</t>
+  </si>
+  <si>
+    <t>2018/05/24</t>
+  </si>
+  <si>
+    <t>2018/05/25</t>
+  </si>
+  <si>
+    <t>2018/05/28</t>
+  </si>
+  <si>
+    <t>2018/05/29</t>
+  </si>
+  <si>
+    <t>2018/05/30</t>
+  </si>
+  <si>
+    <t>2018/05/31</t>
   </si>
 </sst>
 </file>
@@ -1752,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>9907.6</v>
+        <v>9868.379999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9917.85</v>
+        <v>9897.040000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>9859.530000000001</v>
+        <v>9845.84</v>
       </c>
       <c r="E2" t="n">
-        <v>9876.77</v>
+        <v>9872</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1769,16 +1769,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>9909.99</v>
+        <v>9926.440000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>9924.139999999999</v>
+        <v>9951.139999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>9799.280000000001</v>
+        <v>9925.75</v>
       </c>
       <c r="E3" t="n">
-        <v>9876.450000000001</v>
+        <v>9941.27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1786,16 +1786,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>9887</v>
+        <v>9957.620000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>9906.76</v>
+        <v>9979.91</v>
       </c>
       <c r="D4" t="n">
-        <v>9831.629999999999</v>
+        <v>9937.99</v>
       </c>
       <c r="E4" t="n">
-        <v>9856.25</v>
+        <v>9955.33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1803,16 +1803,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>9869.280000000001</v>
+        <v>9962.73</v>
       </c>
       <c r="C5" t="n">
-        <v>9878.620000000001</v>
+        <v>9973.76</v>
       </c>
       <c r="D5" t="n">
-        <v>9836.33</v>
+        <v>9938.959999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>9848.15</v>
+        <v>9967.639999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1820,16 +1820,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>9846.379999999999</v>
+        <v>9954.940000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9869.65</v>
+        <v>9960.99</v>
       </c>
       <c r="D6" t="n">
-        <v>9811.52</v>
+        <v>9899.940000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>9811.52</v>
+        <v>9899.940000000001</v>
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(E2:E6)</f>
@@ -1841,16 +1841,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>9856.440000000001</v>
+        <v>9934.129999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>9949.48</v>
+        <v>9964.860000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>9856.440000000001</v>
+        <v>9900.07</v>
       </c>
       <c r="E7" t="n">
-        <v>9949.48</v>
+        <v>9937.25</v>
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(E3:E7)</f>
@@ -1862,16 +1862,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>9946.66</v>
+        <v>9967.01</v>
       </c>
       <c r="C8" t="n">
-        <v>9946.66</v>
+        <v>10001.94</v>
       </c>
       <c r="D8" t="n">
-        <v>9879.85</v>
+        <v>9899.08</v>
       </c>
       <c r="E8" t="n">
-        <v>9897.799999999999</v>
+        <v>9915.48</v>
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(E4:E8)</f>
@@ -1883,16 +1883,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>9892.98</v>
+        <v>9935.219999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>9900.879999999999</v>
+        <v>9971.98</v>
       </c>
       <c r="D9" t="n">
-        <v>9788.52</v>
+        <v>9932.17</v>
       </c>
       <c r="E9" t="n">
-        <v>9873.370000000001</v>
+        <v>9968.32</v>
       </c>
       <c r="G9" s="1">
         <f>AVERAGE(E5:E9)</f>
@@ -1904,16 +1904,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>9880.290000000001</v>
+        <v>9968.51</v>
       </c>
       <c r="C10" t="n">
-        <v>9898.639999999999</v>
+        <v>10018.79</v>
       </c>
       <c r="D10" t="n">
-        <v>9859.030000000001</v>
+        <v>9964.299999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>9882.540000000001</v>
+        <v>10001.48</v>
       </c>
       <c r="G10" s="1">
         <f>AVERAGE(E6:E10)</f>
@@ -1925,16 +1925,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>9881.530000000001</v>
+        <v>9981.77</v>
       </c>
       <c r="C11" t="n">
-        <v>9896.59</v>
+        <v>10008.25</v>
       </c>
       <c r="D11" t="n">
-        <v>9820.41</v>
+        <v>9961.370000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>9832.42</v>
+        <v>9986.82</v>
       </c>
       <c r="G11" s="1">
         <f>AVERAGE(E7:E11)</f>
@@ -1946,16 +1946,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>9831.559999999999</v>
+        <v>9978.280000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>9837.190000000001</v>
+        <v>10036.82</v>
       </c>
       <c r="D12" t="n">
-        <v>9789.59</v>
+        <v>9978.280000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>9817.68</v>
+        <v>10036.82</v>
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(E8:E12)</f>
@@ -1967,16 +1967,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>9808.83</v>
+        <v>10037.58</v>
       </c>
       <c r="C13" t="n">
-        <v>9868.450000000001</v>
+        <v>10058.59</v>
       </c>
       <c r="D13" t="n">
-        <v>9800.799999999999</v>
+        <v>9991.08</v>
       </c>
       <c r="E13" t="n">
-        <v>9836.68</v>
+        <v>10031.49</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(E9:E13)</f>
@@ -1988,16 +1988,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>9806.15</v>
+        <v>10019.62</v>
       </c>
       <c r="C14" t="n">
-        <v>9808.33</v>
+        <v>10029.62</v>
       </c>
       <c r="D14" t="n">
-        <v>9730.940000000001</v>
+        <v>9967.969999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>9732.93</v>
+        <v>10013.67</v>
       </c>
       <c r="G14" s="1">
         <f>AVERAGE(E10:E14)</f>
@@ -2009,16 +2009,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>9740.809999999999</v>
+        <v>9952.639999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>9762.469999999999</v>
+        <v>9969.450000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>9670.110000000001</v>
+        <v>9895.65</v>
       </c>
       <c r="E15" t="n">
-        <v>9716.4</v>
+        <v>9969.450000000001</v>
       </c>
       <c r="G15" s="1">
         <f>AVERAGE(E11:E15)</f>
@@ -2030,16 +2030,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>9735.76</v>
+        <v>9970.4</v>
       </c>
       <c r="C16" t="n">
-        <v>9771.07</v>
+        <v>9979.73</v>
       </c>
       <c r="D16" t="n">
-        <v>9727.26</v>
+        <v>9947.139999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>9746.559999999999</v>
+        <v>9947.620000000001</v>
       </c>
       <c r="G16" s="1">
         <f>AVERAGE(E12:E16)</f>
@@ -2051,16 +2051,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>9725.389999999999</v>
+        <v>9965.08</v>
       </c>
       <c r="C17" t="n">
-        <v>9725.389999999999</v>
+        <v>9997.26</v>
       </c>
       <c r="D17" t="n">
-        <v>9631.639999999999</v>
+        <v>9960.940000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>9639.940000000001</v>
+        <v>9997.26</v>
       </c>
       <c r="G17" s="1">
         <f>AVERAGE(E13:E17)</f>
@@ -2072,16 +2072,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>9639.93</v>
+        <v>9994.68</v>
       </c>
       <c r="C18" t="n">
-        <v>9664.24</v>
+        <v>10038.2</v>
       </c>
       <c r="D18" t="n">
-        <v>9622.25</v>
+        <v>9992.58</v>
       </c>
       <c r="E18" t="n">
-        <v>9632.690000000001</v>
+        <v>10007.84</v>
       </c>
       <c r="G18" s="1">
         <f>AVERAGE(E14:E18)</f>
@@ -2093,16 +2093,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>9657.049999999999</v>
+        <v>10014.15</v>
       </c>
       <c r="C19" t="n">
-        <v>9718.82</v>
+        <v>10059.74</v>
       </c>
       <c r="D19" t="n">
-        <v>9657.049999999999</v>
+        <v>10014.15</v>
       </c>
       <c r="E19" t="n">
-        <v>9717.41</v>
+        <v>10044.42</v>
       </c>
       <c r="G19" s="1">
         <f>AVERAGE(E15:E19)</f>
@@ -2114,16 +2114,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>9742.91</v>
+        <v>10059.91</v>
       </c>
       <c r="C20" t="n">
-        <v>9772.959999999999</v>
+        <v>10108.49</v>
       </c>
       <c r="D20" t="n">
-        <v>9683.700000000001</v>
+        <v>10059.2</v>
       </c>
       <c r="E20" t="n">
-        <v>9717.950000000001</v>
+        <v>10108.49</v>
       </c>
       <c r="G20" s="1">
         <f>AVERAGE(E16:E20)</f>
@@ -2135,16 +2135,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>9737.82</v>
+        <v>10090.18</v>
       </c>
       <c r="C21" t="n">
-        <v>9841.709999999999</v>
+        <v>10121.88</v>
       </c>
       <c r="D21" t="n">
-        <v>9737.82</v>
+        <v>10072.84</v>
       </c>
       <c r="E21" t="n">
-        <v>9841.709999999999</v>
+        <v>10101.95</v>
       </c>
       <c r="G21" s="1">
         <f>AVERAGE(E17:E21)</f>
@@ -2156,16 +2156,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>9859.110000000001</v>
+        <v>10095.95</v>
       </c>
       <c r="C22" t="n">
-        <v>9865.879999999999</v>
+        <v>10116.13</v>
       </c>
       <c r="D22" t="n">
-        <v>9827.469999999999</v>
+        <v>10025.88</v>
       </c>
       <c r="E22" t="n">
-        <v>9856.450000000001</v>
+        <v>10040.72</v>
       </c>
       <c r="G22" s="1">
         <f>AVERAGE(E18:E22)</f>
@@ -2177,16 +2177,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>9859.450000000001</v>
+        <v>10064.44</v>
       </c>
       <c r="C23" t="n">
-        <v>9863.52</v>
+        <v>10100.37</v>
       </c>
       <c r="D23" t="n">
-        <v>9823.85</v>
+        <v>10059.93</v>
       </c>
       <c r="E23" t="n">
-        <v>9860.620000000001</v>
+        <v>10087.42</v>
       </c>
       <c r="G23" s="1">
         <f>AVERAGE(E19:E23)</f>
@@ -2198,16 +2198,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>9868.379999999999</v>
+        <v>10117.76</v>
       </c>
       <c r="C24" t="n">
-        <v>9897.040000000001</v>
+        <v>10152.53</v>
       </c>
       <c r="D24" t="n">
-        <v>9845.84</v>
+        <v>10117.06</v>
       </c>
       <c r="E24" t="n">
-        <v>9872</v>
+        <v>10152.53</v>
       </c>
       <c r="G24" s="1">
         <f>AVERAGE(E20:E24)</f>
@@ -2219,16 +2219,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>9926.440000000001</v>
+        <v>10155.56</v>
       </c>
       <c r="C25" t="n">
-        <v>9951.139999999999</v>
+        <v>10164.98</v>
       </c>
       <c r="D25" t="n">
-        <v>9925.75</v>
+        <v>10140.28</v>
       </c>
       <c r="E25" t="n">
-        <v>9941.27</v>
+        <v>10158.15</v>
       </c>
       <c r="G25" s="1">
         <f>AVERAGE(E21:E25)</f>
@@ -2240,16 +2240,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>9957.620000000001</v>
+        <v>10164.89</v>
       </c>
       <c r="C26" t="n">
-        <v>9979.91</v>
+        <v>10226.84</v>
       </c>
       <c r="D26" t="n">
-        <v>9937.99</v>
+        <v>10164.89</v>
       </c>
       <c r="E26" t="n">
-        <v>9955.33</v>
+        <v>10226.84</v>
       </c>
       <c r="G26" s="1">
         <f>AVERAGE(E22:E26)</f>
@@ -2261,16 +2261,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>9962.73</v>
+        <v>10213.17</v>
       </c>
       <c r="C27" t="n">
-        <v>9973.76</v>
+        <v>10221.64</v>
       </c>
       <c r="D27" t="n">
-        <v>9938.959999999999</v>
+        <v>10190.39</v>
       </c>
       <c r="E27" t="n">
-        <v>9967.639999999999</v>
+        <v>10206.18</v>
       </c>
       <c r="G27" s="1">
         <f>AVERAGE(E23:E27)</f>
@@ -2282,16 +2282,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>9954.940000000001</v>
+        <v>10216.14</v>
       </c>
       <c r="C28" t="n">
-        <v>9960.99</v>
+        <v>10242.39</v>
       </c>
       <c r="D28" t="n">
-        <v>9899.940000000001</v>
+        <v>10183.15</v>
       </c>
       <c r="E28" t="n">
-        <v>9899.940000000001</v>
+        <v>10209.99</v>
       </c>
       <c r="G28" s="1">
         <f>AVERAGE(E24:E28)</f>
@@ -2303,16 +2303,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>9934.129999999999</v>
+        <v>10215.93</v>
       </c>
       <c r="C29" t="n">
-        <v>9964.860000000001</v>
+        <v>10235.7</v>
       </c>
       <c r="D29" t="n">
-        <v>9900.07</v>
+        <v>10211</v>
       </c>
       <c r="E29" t="n">
-        <v>9937.25</v>
+        <v>10225.78</v>
       </c>
       <c r="G29" s="1">
         <f>AVERAGE(E25:E29)</f>
@@ -2324,16 +2324,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>9967.01</v>
+        <v>10238.55</v>
       </c>
       <c r="C30" t="n">
-        <v>10001.94</v>
+        <v>10268.37</v>
       </c>
       <c r="D30" t="n">
-        <v>9899.08</v>
+        <v>10198.8</v>
       </c>
       <c r="E30" t="n">
-        <v>9915.48</v>
+        <v>10199.65</v>
       </c>
       <c r="G30" s="1">
         <f>AVERAGE(E26:E30)</f>
@@ -2345,16 +2345,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>9935.219999999999</v>
+        <v>10137.04</v>
       </c>
       <c r="C31" t="n">
-        <v>9971.98</v>
+        <v>10158.64</v>
       </c>
       <c r="D31" t="n">
-        <v>9932.17</v>
+        <v>10109.96</v>
       </c>
       <c r="E31" t="n">
-        <v>9968.32</v>
+        <v>10109.96</v>
       </c>
       <c r="G31" s="1">
         <f>AVERAGE(E27:E31)</f>
@@ -2374,16 +2374,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>9968.51</v>
+        <v>10109.7</v>
       </c>
       <c r="C32" t="n">
-        <v>10018.79</v>
+        <v>10146.67</v>
       </c>
       <c r="D32" t="n">
-        <v>9964.299999999999</v>
+        <v>10109.7</v>
       </c>
       <c r="E32" t="n">
-        <v>10001.48</v>
+        <v>10128.15</v>
       </c>
       <c r="G32" s="1">
         <f>AVERAGE(E28:E32)</f>
@@ -2403,16 +2403,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>9981.77</v>
+        <v>10142.8</v>
       </c>
       <c r="C33" t="n">
-        <v>10008.25</v>
+        <v>10165.31</v>
       </c>
       <c r="D33" t="n">
-        <v>9961.370000000001</v>
+        <v>10033.25</v>
       </c>
       <c r="E33" t="n">
-        <v>9986.82</v>
+        <v>10072.46</v>
       </c>
       <c r="G33" s="1">
         <f>AVERAGE(E29:E33)</f>
@@ -2432,16 +2432,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>9978.280000000001</v>
+        <v>10079.14</v>
       </c>
       <c r="C34" t="n">
-        <v>10036.82</v>
+        <v>10089.07</v>
       </c>
       <c r="D34" t="n">
-        <v>9978.280000000001</v>
+        <v>10046.8</v>
       </c>
       <c r="E34" t="n">
-        <v>10036.82</v>
+        <v>10088.35</v>
       </c>
       <c r="G34" s="1">
         <f>AVERAGE(E30:E34)</f>
@@ -2461,16 +2461,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10037.58</v>
+        <v>10078.69</v>
       </c>
       <c r="C35" t="n">
-        <v>10058.59</v>
+        <v>10159.47</v>
       </c>
       <c r="D35" t="n">
-        <v>9991.08</v>
+        <v>10073.12</v>
       </c>
       <c r="E35" t="n">
-        <v>10031.49</v>
+        <v>10156.73</v>
       </c>
       <c r="G35" s="1">
         <f>AVERAGE(E31:E35)</f>
@@ -2490,16 +2490,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10019.62</v>
+        <v>10162.22</v>
       </c>
       <c r="C36" t="n">
-        <v>10029.62</v>
+        <v>10250.6</v>
       </c>
       <c r="D36" t="n">
-        <v>9967.969999999999</v>
+        <v>10162.22</v>
       </c>
       <c r="E36" t="n">
-        <v>10013.67</v>
+        <v>10250.6</v>
       </c>
       <c r="G36" s="1">
         <f>AVERAGE(E32:E36)</f>
@@ -2519,16 +2519,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>9952.639999999999</v>
+        <v>10286.79</v>
       </c>
       <c r="C37" t="n">
-        <v>9969.450000000001</v>
+        <v>10354.37</v>
       </c>
       <c r="D37" t="n">
-        <v>9895.65</v>
+        <v>10286.79</v>
       </c>
       <c r="E37" t="n">
-        <v>9969.450000000001</v>
+        <v>10324.46</v>
       </c>
       <c r="G37" s="1">
         <f>AVERAGE(E33:E37)</f>
@@ -2548,16 +2548,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>9970.4</v>
+        <v>10310.97</v>
       </c>
       <c r="C38" t="n">
-        <v>9979.73</v>
+        <v>10379.82</v>
       </c>
       <c r="D38" t="n">
-        <v>9947.139999999999</v>
+        <v>10274.75</v>
       </c>
       <c r="E38" t="n">
-        <v>9947.620000000001</v>
+        <v>10349.72</v>
       </c>
       <c r="G38" s="1">
         <f>AVERAGE(E34:E38)</f>
@@ -2577,16 +2577,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>9965.08</v>
+        <v>10369.08</v>
       </c>
       <c r="C39" t="n">
-        <v>9997.26</v>
+        <v>10403.36</v>
       </c>
       <c r="D39" t="n">
-        <v>9960.940000000001</v>
+        <v>10368.93</v>
       </c>
       <c r="E39" t="n">
-        <v>9997.26</v>
+        <v>10399.06</v>
       </c>
       <c r="G39" s="1">
         <f>AVERAGE(E35:E39)</f>
@@ -2606,16 +2606,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>9994.68</v>
+        <v>10403.56</v>
       </c>
       <c r="C40" t="n">
-        <v>10038.2</v>
+        <v>10422.33</v>
       </c>
       <c r="D40" t="n">
-        <v>9992.58</v>
+        <v>10374.01</v>
       </c>
       <c r="E40" t="n">
-        <v>10007.84</v>
+        <v>10377.7</v>
       </c>
       <c r="G40" s="1">
         <f>AVERAGE(E36:E40)</f>
@@ -2635,16 +2635,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10014.15</v>
+        <v>10341.86</v>
       </c>
       <c r="C41" t="n">
-        <v>10059.74</v>
+        <v>10513.96</v>
       </c>
       <c r="D41" t="n">
-        <v>10014.15</v>
+        <v>10341.86</v>
       </c>
       <c r="E41" t="n">
-        <v>10044.42</v>
+        <v>10513.96</v>
       </c>
       <c r="G41" s="1">
         <f>AVERAGE(E37:E41)</f>
@@ -2664,16 +2664,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10059.91</v>
+        <v>10513</v>
       </c>
       <c r="C42" t="n">
-        <v>10108.49</v>
+        <v>10545.7</v>
       </c>
       <c r="D42" t="n">
-        <v>10059.2</v>
+        <v>10489.1</v>
       </c>
       <c r="E42" t="n">
-        <v>10108.49</v>
+        <v>10512.06</v>
       </c>
       <c r="G42" s="1">
         <f>AVERAGE(E38:E42)</f>
@@ -2693,16 +2693,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10090.18</v>
+        <v>10459.17</v>
       </c>
       <c r="C43" t="n">
-        <v>10121.88</v>
+        <v>10459.17</v>
       </c>
       <c r="D43" t="n">
-        <v>10072.84</v>
+        <v>10382.81</v>
       </c>
       <c r="E43" t="n">
-        <v>10101.95</v>
+        <v>10390.55</v>
       </c>
       <c r="G43" s="1">
         <f>AVERAGE(E39:E43)</f>
@@ -2722,16 +2722,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10095.95</v>
+        <v>10442.18</v>
       </c>
       <c r="C44" t="n">
-        <v>10116.13</v>
+        <v>10476.51</v>
       </c>
       <c r="D44" t="n">
-        <v>10025.88</v>
+        <v>10390.9</v>
       </c>
       <c r="E44" t="n">
-        <v>10040.72</v>
+        <v>10421.65</v>
       </c>
       <c r="G44" s="1">
         <f>AVERAGE(E40:E44)</f>
@@ -2751,16 +2751,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10064.44</v>
+        <v>10367.26</v>
       </c>
       <c r="C45" t="n">
-        <v>10100.37</v>
+        <v>10395.07</v>
       </c>
       <c r="D45" t="n">
-        <v>10059.93</v>
+        <v>10329.84</v>
       </c>
       <c r="E45" t="n">
-        <v>10087.42</v>
+        <v>10395.07</v>
       </c>
       <c r="G45" s="1">
         <f>AVERAGE(E41:E45)</f>
@@ -2780,16 +2780,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10117.76</v>
+        <v>10368.99</v>
       </c>
       <c r="C46" t="n">
-        <v>10152.53</v>
+        <v>10412.79</v>
       </c>
       <c r="D46" t="n">
-        <v>10117.06</v>
+        <v>10363.5</v>
       </c>
       <c r="E46" t="n">
-        <v>10152.53</v>
+        <v>10412.79</v>
       </c>
       <c r="G46" s="1">
         <f>AVERAGE(E42:E46)</f>
@@ -2809,16 +2809,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10155.56</v>
+        <v>10397.93</v>
       </c>
       <c r="C47" t="n">
-        <v>10164.98</v>
+        <v>10421.72</v>
       </c>
       <c r="D47" t="n">
-        <v>10140.28</v>
+        <v>10347.78</v>
       </c>
       <c r="E47" t="n">
-        <v>10158.15</v>
+        <v>10347.78</v>
       </c>
       <c r="G47" s="1">
         <f>AVERAGE(E43:E47)</f>
@@ -2838,16 +2838,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>10164.89</v>
+        <v>10352.39</v>
       </c>
       <c r="C48" t="n">
-        <v>10226.84</v>
+        <v>10404.79</v>
       </c>
       <c r="D48" t="n">
-        <v>10164.89</v>
+        <v>10304.74</v>
       </c>
       <c r="E48" t="n">
-        <v>10226.84</v>
+        <v>10404.79</v>
       </c>
       <c r="G48" s="1">
         <f>AVERAGE(E44:E48)</f>
@@ -2867,16 +2867,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10213.17</v>
+        <v>10380.66</v>
       </c>
       <c r="C49" t="n">
-        <v>10221.64</v>
+        <v>10381.2</v>
       </c>
       <c r="D49" t="n">
-        <v>10190.39</v>
+        <v>10336.32</v>
       </c>
       <c r="E49" t="n">
-        <v>10206.18</v>
+        <v>10368.2</v>
       </c>
       <c r="G49" s="1">
         <f>AVERAGE(E45:E49)</f>
@@ -2896,16 +2896,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10216.14</v>
+        <v>10343.3</v>
       </c>
       <c r="C50" t="n">
-        <v>10242.39</v>
+        <v>10343.3</v>
       </c>
       <c r="D50" t="n">
-        <v>10183.15</v>
+        <v>10294.69</v>
       </c>
       <c r="E50" t="n">
-        <v>10209.99</v>
+        <v>10297.25</v>
       </c>
       <c r="G50" s="1">
         <f>AVERAGE(E46:E50)</f>
@@ -2925,16 +2925,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10215.93</v>
+        <v>10310.74</v>
       </c>
       <c r="C51" t="n">
-        <v>10235.7</v>
+        <v>10331.11</v>
       </c>
       <c r="D51" t="n">
-        <v>10211</v>
+        <v>10283.95</v>
       </c>
       <c r="E51" t="n">
-        <v>10225.78</v>
+        <v>10289.91</v>
       </c>
       <c r="G51" s="1">
         <f>AVERAGE(E47:E51)</f>
@@ -2954,16 +2954,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10238.55</v>
+        <v>10313.08</v>
       </c>
       <c r="C52" t="n">
-        <v>10268.37</v>
+        <v>10415.57</v>
       </c>
       <c r="D52" t="n">
-        <v>10198.8</v>
+        <v>10313.08</v>
       </c>
       <c r="E52" t="n">
-        <v>10199.65</v>
+        <v>10415.57</v>
       </c>
       <c r="G52" s="1">
         <f>AVERAGE(E48:E52)</f>
@@ -2983,16 +2983,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10137.04</v>
+        <v>10396.97</v>
       </c>
       <c r="C53" t="n">
-        <v>10158.64</v>
+        <v>10450.87</v>
       </c>
       <c r="D53" t="n">
-        <v>10109.96</v>
+        <v>10393.54</v>
       </c>
       <c r="E53" t="n">
-        <v>10109.96</v>
+        <v>10420.68</v>
       </c>
       <c r="G53" s="1">
         <f>AVERAGE(E49:E53)</f>
@@ -3012,16 +3012,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10109.7</v>
+        <v>10418.74</v>
       </c>
       <c r="C54" t="n">
-        <v>10146.67</v>
+        <v>10485.28</v>
       </c>
       <c r="D54" t="n">
-        <v>10109.7</v>
+        <v>10418.74</v>
       </c>
       <c r="E54" t="n">
-        <v>10128.15</v>
+        <v>10460.15</v>
       </c>
       <c r="G54" s="1">
         <f>AVERAGE(E50:E54)</f>
@@ -3041,16 +3041,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10142.8</v>
+        <v>10450.92</v>
       </c>
       <c r="C55" t="n">
-        <v>10165.31</v>
+        <v>10466.34</v>
       </c>
       <c r="D55" t="n">
-        <v>10033.25</v>
+        <v>10423.4</v>
       </c>
       <c r="E55" t="n">
-        <v>10072.46</v>
+        <v>10443.91</v>
       </c>
       <c r="G55" s="1">
         <f>AVERAGE(E51:E55)</f>
@@ -3070,16 +3070,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10079.14</v>
+        <v>10467.27</v>
       </c>
       <c r="C56" t="n">
-        <v>10089.07</v>
+        <v>10490.05</v>
       </c>
       <c r="D56" t="n">
-        <v>10046.8</v>
+        <v>10436.31</v>
       </c>
       <c r="E56" t="n">
-        <v>10088.35</v>
+        <v>10457.54</v>
       </c>
       <c r="G56" s="1">
         <f>AVERAGE(E52:E56)</f>
@@ -3099,16 +3099,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10078.69</v>
+        <v>10447.47</v>
       </c>
       <c r="C57" t="n">
-        <v>10159.47</v>
+        <v>10481.26</v>
       </c>
       <c r="D57" t="n">
-        <v>10073.12</v>
+        <v>10429.85</v>
       </c>
       <c r="E57" t="n">
-        <v>10156.73</v>
+        <v>10481.26</v>
       </c>
       <c r="G57" s="1">
         <f>AVERAGE(E53:E57)</f>
@@ -3128,16 +3128,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10162.22</v>
+        <v>10472.81</v>
       </c>
       <c r="C58" t="n">
-        <v>10250.6</v>
+        <v>10537.42</v>
       </c>
       <c r="D58" t="n">
-        <v>10162.22</v>
+        <v>10472.81</v>
       </c>
       <c r="E58" t="n">
-        <v>10250.6</v>
+        <v>10506.1</v>
       </c>
       <c r="G58" s="1">
         <f>AVERAGE(E54:E58)</f>
@@ -3157,16 +3157,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10286.79</v>
+        <v>10513.12</v>
       </c>
       <c r="C59" t="n">
-        <v>10354.37</v>
+        <v>10534.52</v>
       </c>
       <c r="D59" t="n">
-        <v>10286.79</v>
+        <v>10483.54</v>
       </c>
       <c r="E59" t="n">
-        <v>10324.46</v>
+        <v>10499.36</v>
       </c>
       <c r="G59" s="1">
         <f>AVERAGE(E55:E59)</f>
@@ -3186,16 +3186,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10310.97</v>
+        <v>10468.47</v>
       </c>
       <c r="C60" t="n">
-        <v>10379.82</v>
+        <v>10477.72</v>
       </c>
       <c r="D60" t="n">
-        <v>10274.75</v>
+        <v>10428.56</v>
       </c>
       <c r="E60" t="n">
-        <v>10349.72</v>
+        <v>10436.7</v>
       </c>
       <c r="G60" s="1">
         <f>AVERAGE(E56:E60)</f>
@@ -3215,16 +3215,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10369.08</v>
+        <v>10426.13</v>
       </c>
       <c r="C61" t="n">
-        <v>10403.36</v>
+        <v>10461.28</v>
       </c>
       <c r="D61" t="n">
-        <v>10368.93</v>
+        <v>10406.81</v>
       </c>
       <c r="E61" t="n">
-        <v>10399.06</v>
+        <v>10461.28</v>
       </c>
       <c r="G61" s="1">
         <f>AVERAGE(E57:E61)</f>
@@ -3244,16 +3244,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10403.56</v>
+        <v>10455.14</v>
       </c>
       <c r="C62" t="n">
-        <v>10422.33</v>
+        <v>10473.98</v>
       </c>
       <c r="D62" t="n">
-        <v>10374.01</v>
+        <v>10442.85</v>
       </c>
       <c r="E62" t="n">
-        <v>10377.7</v>
+        <v>10463.15</v>
       </c>
       <c r="G62" s="1">
         <f>AVERAGE(E58:E62)</f>
@@ -3273,16 +3273,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10341.86</v>
+        <v>10477.15</v>
       </c>
       <c r="C63" t="n">
-        <v>10513.96</v>
+        <v>10500.11</v>
       </c>
       <c r="D63" t="n">
-        <v>10341.86</v>
+        <v>10416.57</v>
       </c>
       <c r="E63" t="n">
-        <v>10513.96</v>
+        <v>10419.11</v>
       </c>
       <c r="G63" s="1">
         <f>AVERAGE(E59:E63)</f>
@@ -3302,16 +3302,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10513</v>
+        <v>10427.83</v>
       </c>
       <c r="C64" t="n">
-        <v>10545.7</v>
+        <v>10516.23</v>
       </c>
       <c r="D64" t="n">
-        <v>10489.1</v>
+        <v>10427.83</v>
       </c>
       <c r="E64" t="n">
-        <v>10512.06</v>
+        <v>10508.37</v>
       </c>
       <c r="G64" s="1">
         <f>AVERAGE(E60:E64)</f>
@@ -3331,16 +3331,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10459.17</v>
+        <v>10480.67</v>
       </c>
       <c r="C65" t="n">
-        <v>10459.17</v>
+        <v>10480.67</v>
       </c>
       <c r="D65" t="n">
-        <v>10382.81</v>
+        <v>10410.53</v>
       </c>
       <c r="E65" t="n">
-        <v>10390.55</v>
+        <v>10423.05</v>
       </c>
       <c r="G65" s="1">
         <f>AVERAGE(E61:E65)</f>
@@ -3360,16 +3360,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10442.18</v>
+        <v>10396.76</v>
       </c>
       <c r="C66" t="n">
-        <v>10476.51</v>
+        <v>10427.33</v>
       </c>
       <c r="D66" t="n">
-        <v>10390.9</v>
+        <v>10366.17</v>
       </c>
       <c r="E66" t="n">
-        <v>10421.65</v>
+        <v>10427.33</v>
       </c>
       <c r="G66" s="1">
         <f>AVERAGE(E62:E66)</f>
@@ -3389,16 +3389,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10367.26</v>
+        <v>10408.53</v>
       </c>
       <c r="C67" t="n">
-        <v>10395.07</v>
+        <v>10470.03</v>
       </c>
       <c r="D67" t="n">
-        <v>10329.84</v>
+        <v>10408.53</v>
       </c>
       <c r="E67" t="n">
-        <v>10395.07</v>
+        <v>10437.29</v>
       </c>
       <c r="G67" s="1">
         <f>AVERAGE(E63:E67)</f>
@@ -3418,16 +3418,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>10368.99</v>
+        <v>10479.26</v>
       </c>
       <c r="C68" t="n">
-        <v>10412.79</v>
+        <v>10519.27</v>
       </c>
       <c r="D68" t="n">
-        <v>10363.5</v>
+        <v>10479.26</v>
       </c>
       <c r="E68" t="n">
-        <v>10412.79</v>
+        <v>10519.27</v>
       </c>
       <c r="G68" s="1">
         <f>AVERAGE(E64:E68)</f>
@@ -3447,16 +3447,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>10397.93</v>
+        <v>10464.1</v>
       </c>
       <c r="C69" t="n">
-        <v>10421.72</v>
+        <v>10478.62</v>
       </c>
       <c r="D69" t="n">
-        <v>10347.78</v>
+        <v>10427.72</v>
       </c>
       <c r="E69" t="n">
-        <v>10347.78</v>
+        <v>10469.88</v>
       </c>
       <c r="G69" s="1">
         <f>AVERAGE(E65:E69)</f>
@@ -3476,16 +3476,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>10352.39</v>
+        <v>10470.96</v>
       </c>
       <c r="C70" t="n">
-        <v>10404.79</v>
+        <v>10510.7</v>
       </c>
       <c r="D70" t="n">
-        <v>10304.74</v>
+        <v>10466.25</v>
       </c>
       <c r="E70" t="n">
-        <v>10404.79</v>
+        <v>10506.56</v>
       </c>
       <c r="G70" s="1">
         <f>AVERAGE(E66:E70)</f>
@@ -3505,16 +3505,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>10380.66</v>
+        <v>10521.69</v>
       </c>
       <c r="C71" t="n">
-        <v>10381.2</v>
+        <v>10592.31</v>
       </c>
       <c r="D71" t="n">
-        <v>10336.32</v>
+        <v>10521.69</v>
       </c>
       <c r="E71" t="n">
-        <v>10368.2</v>
+        <v>10579.38</v>
       </c>
       <c r="G71" s="1">
         <f>AVERAGE(E67:E71)</f>
@@ -3534,16 +3534,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>10343.3</v>
+        <v>10598.59</v>
       </c>
       <c r="C72" t="n">
-        <v>10343.3</v>
+        <v>10619.42</v>
       </c>
       <c r="D72" t="n">
-        <v>10294.69</v>
+        <v>10533.72</v>
       </c>
       <c r="E72" t="n">
-        <v>10297.25</v>
+        <v>10568.97</v>
       </c>
       <c r="G72" s="1">
         <f>AVERAGE(E68:E72)</f>
@@ -3563,16 +3563,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>10310.74</v>
+        <v>10523.51</v>
       </c>
       <c r="C73" t="n">
-        <v>10331.11</v>
+        <v>10536.19</v>
       </c>
       <c r="D73" t="n">
-        <v>10283.95</v>
+        <v>10457.52</v>
       </c>
       <c r="E73" t="n">
-        <v>10289.91</v>
+        <v>10470.38</v>
       </c>
       <c r="G73" s="1">
         <f>AVERAGE(E69:E73)</f>
@@ -3592,16 +3592,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10313.08</v>
+        <v>10470.03</v>
       </c>
       <c r="C74" t="n">
-        <v>10415.57</v>
+        <v>10477.79</v>
       </c>
       <c r="D74" t="n">
-        <v>10313.08</v>
+        <v>10303.47</v>
       </c>
       <c r="E74" t="n">
-        <v>10415.57</v>
+        <v>10329.74</v>
       </c>
       <c r="G74" s="1">
         <f>AVERAGE(E70:E74)</f>
@@ -3621,16 +3621,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10396.97</v>
+        <v>10267.05</v>
       </c>
       <c r="C75" t="n">
-        <v>10450.87</v>
+        <v>10338.06</v>
       </c>
       <c r="D75" t="n">
-        <v>10393.54</v>
+        <v>10238.5</v>
       </c>
       <c r="E75" t="n">
-        <v>10420.68</v>
+        <v>10329.57</v>
       </c>
       <c r="G75" s="1">
         <f>AVERAGE(E71:E75)</f>
@@ -3650,16 +3650,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10418.74</v>
+        <v>10347.66</v>
       </c>
       <c r="C76" t="n">
-        <v>10485.28</v>
+        <v>10365.22</v>
       </c>
       <c r="D76" t="n">
-        <v>10418.74</v>
+        <v>10225.28</v>
       </c>
       <c r="E76" t="n">
-        <v>10460.15</v>
+        <v>10225.28</v>
       </c>
       <c r="G76" s="1">
         <f>AVERAGE(E72:E76)</f>
@@ -3679,16 +3679,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10450.92</v>
+        <v>10271.03</v>
       </c>
       <c r="C77" t="n">
-        <v>10466.34</v>
+        <v>10336.22</v>
       </c>
       <c r="D77" t="n">
-        <v>10423.4</v>
+        <v>10271.03</v>
       </c>
       <c r="E77" t="n">
-        <v>10443.91</v>
+        <v>10311.16</v>
       </c>
       <c r="G77" s="1">
         <f>AVERAGE(E73:E77)</f>
@@ -3708,16 +3708,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10467.27</v>
+        <v>10302.83</v>
       </c>
       <c r="C78" t="n">
-        <v>10490.05</v>
+        <v>10322.38</v>
       </c>
       <c r="D78" t="n">
-        <v>10436.31</v>
+        <v>10245.72</v>
       </c>
       <c r="E78" t="n">
-        <v>10457.54</v>
+        <v>10290.39</v>
       </c>
       <c r="G78" s="1">
         <f>AVERAGE(E74:E78)</f>
@@ -3737,16 +3737,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10447.47</v>
+        <v>10302.54</v>
       </c>
       <c r="C79" t="n">
-        <v>10481.26</v>
+        <v>10372.41</v>
       </c>
       <c r="D79" t="n">
-        <v>10429.85</v>
+        <v>10302.54</v>
       </c>
       <c r="E79" t="n">
-        <v>10481.26</v>
+        <v>10369.37</v>
       </c>
       <c r="G79" s="1">
         <f>AVERAGE(E75:E79)</f>
@@ -3766,16 +3766,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>10472.81</v>
+        <v>10324.83</v>
       </c>
       <c r="C80" t="n">
-        <v>10537.42</v>
+        <v>10330.39</v>
       </c>
       <c r="D80" t="n">
-        <v>10472.81</v>
+        <v>10259.83</v>
       </c>
       <c r="E80" t="n">
-        <v>10506.1</v>
+        <v>10321.33</v>
       </c>
       <c r="G80" s="1">
         <f>AVERAGE(E76:E80)</f>
@@ -3795,16 +3795,16 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10513.12</v>
+        <v>10316.09</v>
       </c>
       <c r="C81" t="n">
-        <v>10534.52</v>
+        <v>10336.37</v>
       </c>
       <c r="D81" t="n">
-        <v>10483.54</v>
+        <v>10282.72</v>
       </c>
       <c r="E81" t="n">
-        <v>10499.36</v>
+        <v>10326.39</v>
       </c>
       <c r="G81" s="1">
         <f>AVERAGE(E77:E81)</f>
@@ -3824,16 +3824,16 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10468.47</v>
+        <v>10353.37</v>
       </c>
       <c r="C82" t="n">
-        <v>10477.72</v>
+        <v>10410.47</v>
       </c>
       <c r="D82" t="n">
-        <v>10428.56</v>
+        <v>10353.37</v>
       </c>
       <c r="E82" t="n">
-        <v>10436.7</v>
+        <v>10392.07</v>
       </c>
       <c r="G82" s="1">
         <f>AVERAGE(E78:E82)</f>
@@ -3853,16 +3853,16 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10426.13</v>
+        <v>10418.32</v>
       </c>
       <c r="C83" t="n">
-        <v>10461.28</v>
+        <v>10458.91</v>
       </c>
       <c r="D83" t="n">
+        <v>10378.01</v>
+      </c>
+      <c r="E83" t="n">
         <v>10406.81</v>
-      </c>
-      <c r="E83" t="n">
-        <v>10461.28</v>
       </c>
       <c r="G83" s="1">
         <f>AVERAGE(E79:E83)</f>
@@ -3882,16 +3882,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10455.14</v>
+        <v>10414.66</v>
       </c>
       <c r="C84" t="n">
-        <v>10473.98</v>
+        <v>10488.96</v>
       </c>
       <c r="D84" t="n">
-        <v>10442.85</v>
+        <v>10410.73</v>
       </c>
       <c r="E84" t="n">
-        <v>10463.15</v>
+        <v>10488.96</v>
       </c>
       <c r="G84" s="1">
         <f>AVERAGE(E80:E84)</f>
@@ -3911,16 +3911,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10477.15</v>
+        <v>10497.86</v>
       </c>
       <c r="C85" t="n">
-        <v>10500.11</v>
+        <v>10519.84</v>
       </c>
       <c r="D85" t="n">
-        <v>10416.57</v>
+        <v>10478.72</v>
       </c>
       <c r="E85" t="n">
-        <v>10419.11</v>
+        <v>10515.51</v>
       </c>
       <c r="G85" s="1">
         <f>AVERAGE(E81:E85)</f>
@@ -3940,16 +3940,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10427.83</v>
+        <v>10502.8</v>
       </c>
       <c r="C86" t="n">
-        <v>10516.23</v>
+        <v>10542.37</v>
       </c>
       <c r="D86" t="n">
-        <v>10427.83</v>
+        <v>10498.88</v>
       </c>
       <c r="E86" t="n">
-        <v>10508.37</v>
+        <v>10525.98</v>
       </c>
       <c r="G86" s="1">
         <f>AVERAGE(E82:E86)</f>
@@ -3969,16 +3969,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10480.67</v>
+        <v>10518.69</v>
       </c>
       <c r="C87" t="n">
-        <v>10480.67</v>
+        <v>10518.69</v>
       </c>
       <c r="D87" t="n">
-        <v>10410.53</v>
+        <v>10463.22</v>
       </c>
       <c r="E87" t="n">
-        <v>10423.05</v>
+        <v>10496.57</v>
       </c>
       <c r="G87" s="1">
         <f>AVERAGE(E83:E87)</f>
@@ -3998,16 +3998,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10396.76</v>
+        <v>10511.59</v>
       </c>
       <c r="C88" t="n">
-        <v>10427.33</v>
+        <v>10574.53</v>
       </c>
       <c r="D88" t="n">
-        <v>10366.17</v>
+        <v>10511.59</v>
       </c>
       <c r="E88" t="n">
-        <v>10427.33</v>
+        <v>10569.4</v>
       </c>
       <c r="G88" s="1">
         <f>AVERAGE(E84:E88)</f>
@@ -4027,16 +4027,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>10408.53</v>
+        <v>10586.65</v>
       </c>
       <c r="C89" t="n">
-        <v>10470.03</v>
+        <v>10609.48</v>
       </c>
       <c r="D89" t="n">
-        <v>10408.53</v>
+        <v>10551.95</v>
       </c>
       <c r="E89" t="n">
-        <v>10437.29</v>
+        <v>10585.78</v>
       </c>
       <c r="G89" s="1">
         <f>AVERAGE(E85:E89)</f>
@@ -4056,16 +4056,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>10479.26</v>
+        <v>10576.27</v>
       </c>
       <c r="C90" t="n">
-        <v>10519.27</v>
+        <v>10619.52</v>
       </c>
       <c r="D90" t="n">
-        <v>10479.26</v>
+        <v>10568.72</v>
       </c>
       <c r="E90" t="n">
-        <v>10519.27</v>
+        <v>10594.82</v>
       </c>
       <c r="G90" s="1">
         <f>AVERAGE(E86:E90)</f>
@@ -4085,16 +4085,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>10464.1</v>
+        <v>10585.44</v>
       </c>
       <c r="C91" t="n">
-        <v>10478.62</v>
+        <v>10610.04</v>
       </c>
       <c r="D91" t="n">
-        <v>10427.72</v>
+        <v>10555.34</v>
       </c>
       <c r="E91" t="n">
-        <v>10469.88</v>
+        <v>10569.87</v>
       </c>
       <c r="G91" s="1">
         <f>AVERAGE(E87:E91)</f>
@@ -4114,16 +4114,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>10470.96</v>
+        <v>10584.1</v>
       </c>
       <c r="C92" t="n">
-        <v>10510.7</v>
+        <v>10617.84</v>
       </c>
       <c r="D92" t="n">
-        <v>10466.25</v>
+        <v>10564.26</v>
       </c>
       <c r="E92" t="n">
-        <v>10506.56</v>
+        <v>10617.84</v>
       </c>
       <c r="G92" s="1">
         <f>AVERAGE(E88:E92)</f>
@@ -4143,16 +4143,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>10521.69</v>
+        <v>10593.87</v>
       </c>
       <c r="C93" t="n">
-        <v>10592.31</v>
+        <v>10604.92</v>
       </c>
       <c r="D93" t="n">
-        <v>10521.69</v>
+        <v>10519.71</v>
       </c>
       <c r="E93" t="n">
-        <v>10579.38</v>
+        <v>10547.86</v>
       </c>
       <c r="G93" s="1">
         <f>AVERAGE(E89:E93)</f>
@@ -4172,16 +4172,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>10598.59</v>
+        <v>10564.79</v>
       </c>
       <c r="C94" t="n">
-        <v>10619.42</v>
+        <v>10604.02</v>
       </c>
       <c r="D94" t="n">
-        <v>10533.72</v>
+        <v>10509.91</v>
       </c>
       <c r="E94" t="n">
-        <v>10568.97</v>
+        <v>10538.51</v>
       </c>
       <c r="G94" s="1">
         <f>AVERAGE(E90:E94)</f>
@@ -4201,16 +4201,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>10523.51</v>
+        <v>10553.9</v>
       </c>
       <c r="C95" t="n">
-        <v>10536.19</v>
+        <v>10609.95</v>
       </c>
       <c r="D95" t="n">
-        <v>10457.52</v>
+        <v>10550.72</v>
       </c>
       <c r="E95" t="n">
-        <v>10470.38</v>
+        <v>10609.95</v>
       </c>
       <c r="G95" s="1">
         <f>AVERAGE(E91:E95)</f>
@@ -4230,16 +4230,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>10470.03</v>
+        <v>10630.16</v>
       </c>
       <c r="C96" t="n">
-        <v>10477.79</v>
+        <v>10656.25</v>
       </c>
       <c r="D96" t="n">
-        <v>10303.47</v>
+        <v>10565.78</v>
       </c>
       <c r="E96" t="n">
-        <v>10329.74</v>
+        <v>10572.16</v>
       </c>
       <c r="G96" s="1">
         <f>AVERAGE(E92:E96)</f>
@@ -4259,16 +4259,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10267.05</v>
+        <v>10610.33</v>
       </c>
       <c r="C97" t="n">
-        <v>10338.06</v>
+        <v>10646.55</v>
       </c>
       <c r="D97" t="n">
-        <v>10238.5</v>
+        <v>10586.28</v>
       </c>
       <c r="E97" t="n">
-        <v>10329.57</v>
+        <v>10610.35</v>
       </c>
       <c r="G97" s="1">
         <f>AVERAGE(E93:E97)</f>
@@ -4288,16 +4288,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10347.66</v>
+        <v>10596.36</v>
       </c>
       <c r="C98" t="n">
-        <v>10365.22</v>
+        <v>10620.31</v>
       </c>
       <c r="D98" t="n">
-        <v>10225.28</v>
+        <v>10532.88</v>
       </c>
       <c r="E98" t="n">
-        <v>10225.28</v>
+        <v>10532.88</v>
       </c>
       <c r="G98" s="1">
         <f>AVERAGE(E94:E98)</f>
@@ -4317,16 +4317,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10271.03</v>
+        <v>10533.99</v>
       </c>
       <c r="C99" t="n">
-        <v>10336.22</v>
+        <v>10572.71</v>
       </c>
       <c r="D99" t="n">
-        <v>10271.03</v>
+        <v>10508.72</v>
       </c>
       <c r="E99" t="n">
-        <v>10311.16</v>
+        <v>10553.57</v>
       </c>
       <c r="G99" s="1">
         <f>AVERAGE(E95:E99)</f>
@@ -4346,16 +4346,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10302.83</v>
+        <v>10556.82</v>
       </c>
       <c r="C100" t="n">
-        <v>10322.38</v>
+        <v>10580.78</v>
       </c>
       <c r="D100" t="n">
-        <v>10245.72</v>
+        <v>10520.15</v>
       </c>
       <c r="E100" t="n">
-        <v>10290.39</v>
+        <v>10580.41</v>
       </c>
       <c r="G100" s="1">
         <f>AVERAGE(E96:E100)</f>
@@ -4375,16 +4375,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10302.54</v>
+        <v>10590.8</v>
       </c>
       <c r="C101" t="n">
-        <v>10372.41</v>
+        <v>10642.4</v>
       </c>
       <c r="D101" t="n">
-        <v>10302.54</v>
+        <v>10581.81</v>
       </c>
       <c r="E101" t="n">
-        <v>10369.37</v>
+        <v>10631.57</v>
       </c>
       <c r="G101" s="1">
         <f>AVERAGE(E97:E101)</f>
@@ -4404,16 +4404,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10324.83</v>
+        <v>10653.34</v>
       </c>
       <c r="C102" t="n">
-        <v>10330.39</v>
+        <v>10664.18</v>
       </c>
       <c r="D102" t="n">
-        <v>10259.83</v>
+        <v>10561.21</v>
       </c>
       <c r="E102" t="n">
-        <v>10321.33</v>
+        <v>10576.14</v>
       </c>
       <c r="G102" s="1">
         <f>AVERAGE(E98:E102)</f>
@@ -4433,16 +4433,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>10316.09</v>
+        <v>10568.58</v>
       </c>
       <c r="C103" t="n">
-        <v>10336.37</v>
+        <v>10589.19</v>
       </c>
       <c r="D103" t="n">
-        <v>10282.72</v>
+        <v>10490.71</v>
       </c>
       <c r="E103" t="n">
-        <v>10326.39</v>
+        <v>10519.17</v>
       </c>
       <c r="G103" s="1">
         <f>AVERAGE(E99:E103)</f>
@@ -4462,16 +4462,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>10353.37</v>
+        <v>10506.85</v>
       </c>
       <c r="C104" t="n">
-        <v>10410.47</v>
+        <v>10603.08</v>
       </c>
       <c r="D104" t="n">
-        <v>10353.37</v>
+        <v>10493.95</v>
       </c>
       <c r="E104" t="n">
-        <v>10392.07</v>
+        <v>10578.44</v>
       </c>
       <c r="G104" s="1">
         <f>AVERAGE(E100:E104)</f>
@@ -4491,16 +4491,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>10418.32</v>
+        <v>10571.65</v>
       </c>
       <c r="C105" t="n">
-        <v>10458.91</v>
+        <v>10579.02</v>
       </c>
       <c r="D105" t="n">
-        <v>10378.01</v>
+        <v>10446.45</v>
       </c>
       <c r="E105" t="n">
-        <v>10406.81</v>
+        <v>10449.68</v>
       </c>
       <c r="G105" s="1">
         <f>AVERAGE(E101:E105)</f>
@@ -4520,16 +4520,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>10414.66</v>
+        <v>10442.05</v>
       </c>
       <c r="C106" t="n">
-        <v>10488.96</v>
+        <v>10447.09</v>
       </c>
       <c r="D106" t="n">
-        <v>10410.73</v>
+        <v>10322.1</v>
       </c>
       <c r="E106" t="n">
-        <v>10488.96</v>
+        <v>10335.89</v>
       </c>
       <c r="G106" s="1">
         <f>AVERAGE(E102:E106)</f>
@@ -4549,16 +4549,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>10497.86</v>
+        <v>10333.44</v>
       </c>
       <c r="C107" t="n">
-        <v>10519.84</v>
+        <v>10374.54</v>
       </c>
       <c r="D107" t="n">
-        <v>10478.72</v>
+        <v>10257.02</v>
       </c>
       <c r="E107" t="n">
-        <v>10515.51</v>
+        <v>10257.02</v>
       </c>
       <c r="G107" s="1">
         <f>AVERAGE(E103:E107)</f>
@@ -4578,16 +4578,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>10502.8</v>
+        <v>10322.44</v>
       </c>
       <c r="C108" t="n">
-        <v>10542.37</v>
+        <v>10357.23</v>
       </c>
       <c r="D108" t="n">
-        <v>10498.88</v>
+        <v>10315.97</v>
       </c>
       <c r="E108" t="n">
-        <v>10525.98</v>
+        <v>10326.68</v>
       </c>
       <c r="G108" s="1">
         <f>AVERAGE(E104:E108)</f>
@@ -4607,16 +4607,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>10518.69</v>
+        <v>10351.42</v>
       </c>
       <c r="C109" t="n">
-        <v>10518.69</v>
+        <v>10365.59</v>
       </c>
       <c r="D109" t="n">
-        <v>10463.22</v>
+        <v>10288.24</v>
       </c>
       <c r="E109" t="n">
-        <v>10496.57</v>
+        <v>10296.45</v>
       </c>
       <c r="G109" s="1">
         <f>AVERAGE(E105:E109)</f>
@@ -4636,16 +4636,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>10511.59</v>
+        <v>10319.69</v>
       </c>
       <c r="C110" t="n">
-        <v>10574.53</v>
+        <v>10338.95</v>
       </c>
       <c r="D110" t="n">
-        <v>10511.59</v>
+        <v>10273.6</v>
       </c>
       <c r="E110" t="n">
-        <v>10569.4</v>
+        <v>10329.94</v>
       </c>
       <c r="G110" s="1">
         <f>AVERAGE(E106:E110)</f>
@@ -4665,16 +4665,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>10586.65</v>
+        <v>10362.55</v>
       </c>
       <c r="C111" t="n">
-        <v>10609.48</v>
+        <v>10400.4</v>
       </c>
       <c r="D111" t="n">
-        <v>10551.95</v>
+        <v>10362.55</v>
       </c>
       <c r="E111" t="n">
-        <v>10585.78</v>
+        <v>10383.94</v>
       </c>
       <c r="G111" s="1">
         <f>AVERAGE(E107:E111)</f>
@@ -4694,16 +4694,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>10576.27</v>
+        <v>10425.1</v>
       </c>
       <c r="C112" t="n">
-        <v>10619.52</v>
+        <v>10472.81</v>
       </c>
       <c r="D112" t="n">
-        <v>10568.72</v>
+        <v>10414.53</v>
       </c>
       <c r="E112" t="n">
-        <v>10594.82</v>
+        <v>10465.16</v>
       </c>
       <c r="G112" s="1">
         <f>AVERAGE(E108:E112)</f>
@@ -4723,16 +4723,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>10585.44</v>
+        <v>10462.7</v>
       </c>
       <c r="C113" t="n">
-        <v>10610.04</v>
+        <v>10495.34</v>
       </c>
       <c r="D113" t="n">
-        <v>10555.34</v>
+        <v>10445.86</v>
       </c>
       <c r="E113" t="n">
-        <v>10569.87</v>
+        <v>10469.35</v>
       </c>
       <c r="G113" s="1">
         <f>AVERAGE(E109:E113)</f>
@@ -4752,16 +4752,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10584.1</v>
+        <v>10473.28</v>
       </c>
       <c r="C114" t="n">
-        <v>10617.84</v>
+        <v>10530.93</v>
       </c>
       <c r="D114" t="n">
-        <v>10564.26</v>
+        <v>10473.28</v>
       </c>
       <c r="E114" t="n">
-        <v>10617.84</v>
+        <v>10518.27</v>
       </c>
       <c r="G114" s="1">
         <f>AVERAGE(E110:E114)</f>
@@ -4781,16 +4781,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>10593.87</v>
+        <v>10538.21</v>
       </c>
       <c r="C115" t="n">
-        <v>10604.92</v>
+        <v>10557.67</v>
       </c>
       <c r="D115" t="n">
-        <v>10519.71</v>
+        <v>10511.5</v>
       </c>
       <c r="E115" t="n">
-        <v>10547.86</v>
+        <v>10532.81</v>
       </c>
       <c r="G115" s="1">
         <f>AVERAGE(E111:E115)</f>
@@ -4810,16 +4810,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>10564.79</v>
+        <v>10576.12</v>
       </c>
       <c r="C116" t="n">
-        <v>10604.02</v>
+        <v>10668.49</v>
       </c>
       <c r="D116" t="n">
-        <v>10509.91</v>
+        <v>10576.12</v>
       </c>
       <c r="E116" t="n">
-        <v>10538.51</v>
+        <v>10641.19</v>
       </c>
       <c r="G116" s="1">
         <f>AVERAGE(E112:E116)</f>
@@ -4839,16 +4839,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>10553.9</v>
+        <v>10668.39</v>
       </c>
       <c r="C117" t="n">
-        <v>10609.95</v>
+        <v>10711.44</v>
       </c>
       <c r="D117" t="n">
-        <v>10550.72</v>
+        <v>10668.39</v>
       </c>
       <c r="E117" t="n">
-        <v>10609.95</v>
+        <v>10711.44</v>
       </c>
       <c r="G117" s="1">
         <f>AVERAGE(E113:E117)</f>
@@ -4868,16 +4868,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>10630.16</v>
+        <v>10712.48</v>
       </c>
       <c r="C118" t="n">
-        <v>10656.25</v>
+        <v>10724.09</v>
       </c>
       <c r="D118" t="n">
-        <v>10565.78</v>
+        <v>10675.83</v>
       </c>
       <c r="E118" t="n">
-        <v>10572.16</v>
+        <v>10724.09</v>
       </c>
       <c r="G118" s="1">
         <f>AVERAGE(E114:E118)</f>
@@ -4897,16 +4897,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10610.33</v>
+        <v>10735.14</v>
       </c>
       <c r="C119" t="n">
-        <v>10646.55</v>
+        <v>10774.21</v>
       </c>
       <c r="D119" t="n">
-        <v>10586.28</v>
+        <v>10723.37</v>
       </c>
       <c r="E119" t="n">
-        <v>10610.35</v>
+        <v>10774.21</v>
       </c>
       <c r="G119" s="1">
         <f>AVERAGE(E115:E119)</f>
@@ -4926,16 +4926,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10596.36</v>
+        <v>10790.35</v>
       </c>
       <c r="C120" t="n">
-        <v>10620.31</v>
+        <v>10798.52</v>
       </c>
       <c r="D120" t="n">
-        <v>10532.88</v>
+        <v>10723.15</v>
       </c>
       <c r="E120" t="n">
-        <v>10532.88</v>
+        <v>10723.15</v>
       </c>
       <c r="G120" s="1">
         <f>AVERAGE(E116:E120)</f>
@@ -4955,16 +4955,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10533.99</v>
+        <v>10773.85</v>
       </c>
       <c r="C121" t="n">
-        <v>10572.71</v>
+        <v>10790.31</v>
       </c>
       <c r="D121" t="n">
-        <v>10508.72</v>
+        <v>10684.32</v>
       </c>
       <c r="E121" t="n">
-        <v>10553.57</v>
+        <v>10720.28</v>
       </c>
       <c r="G121" s="1">
         <f>AVERAGE(E117:E121)</f>
@@ -4984,16 +4984,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10556.82</v>
+        <v>10745.77</v>
       </c>
       <c r="C122" t="n">
-        <v>10580.78</v>
+        <v>10798.54</v>
       </c>
       <c r="D122" t="n">
-        <v>10520.15</v>
+        <v>10745.77</v>
       </c>
       <c r="E122" t="n">
-        <v>10580.41</v>
+        <v>10760.29</v>
       </c>
       <c r="G122" s="1">
         <f>AVERAGE(E118:E122)</f>
@@ -5013,16 +5013,16 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10590.8</v>
+        <v>10737.87</v>
       </c>
       <c r="C123" t="n">
-        <v>10642.4</v>
+        <v>10753.77</v>
       </c>
       <c r="D123" t="n">
-        <v>10581.81</v>
+        <v>10702.56</v>
       </c>
       <c r="E123" t="n">
-        <v>10631.57</v>
+        <v>10728.88</v>
       </c>
       <c r="G123" s="1">
         <f>AVERAGE(E119:E123)</f>
@@ -5042,16 +5042,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>10653.34</v>
+        <v>10759.47</v>
       </c>
       <c r="C124" t="n">
-        <v>10664.18</v>
+        <v>10792.27</v>
       </c>
       <c r="D124" t="n">
-        <v>10561.21</v>
+        <v>10731.9</v>
       </c>
       <c r="E124" t="n">
-        <v>10576.14</v>
+        <v>10735.21</v>
       </c>
       <c r="G124" s="1">
         <f>AVERAGE(E120:E124)</f>
@@ -5071,16 +5071,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>10568.58</v>
+        <v>10749.9</v>
       </c>
       <c r="C125" t="n">
-        <v>10589.19</v>
+        <v>10766.64</v>
       </c>
       <c r="D125" t="n">
-        <v>10490.71</v>
+        <v>10726.25</v>
       </c>
       <c r="E125" t="n">
-        <v>10519.17</v>
+        <v>10743.78</v>
       </c>
       <c r="G125" s="1">
         <f>AVERAGE(E121:E125)</f>
@@ -5100,16 +5100,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>10506.85</v>
+        <v>10771.4</v>
       </c>
       <c r="C126" t="n">
-        <v>10603.08</v>
+        <v>10794.55</v>
       </c>
       <c r="D126" t="n">
-        <v>10493.95</v>
+        <v>10740.07</v>
       </c>
       <c r="E126" t="n">
-        <v>10578.44</v>
+        <v>10750.57</v>
       </c>
       <c r="G126" s="1">
         <f>AVERAGE(E122:E126)</f>
@@ -5129,16 +5129,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>10571.65</v>
+        <v>10735.35</v>
       </c>
       <c r="C127" t="n">
-        <v>10579.02</v>
+        <v>10756.51</v>
       </c>
       <c r="D127" t="n">
-        <v>10446.45</v>
+        <v>10716.52</v>
       </c>
       <c r="E127" t="n">
-        <v>10449.68</v>
+        <v>10734.76</v>
       </c>
       <c r="G127" s="1">
         <f>AVERAGE(E123:E127)</f>
@@ -5158,16 +5158,16 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>10442.05</v>
+        <v>10757.35</v>
       </c>
       <c r="C128" t="n">
-        <v>10447.09</v>
+        <v>10803.6</v>
       </c>
       <c r="D128" t="n">
-        <v>10322.1</v>
+        <v>10701.08</v>
       </c>
       <c r="E128" t="n">
-        <v>10335.89</v>
+        <v>10709.11</v>
       </c>
       <c r="G128" s="1">
         <f>AVERAGE(E124:E128)</f>
@@ -5187,16 +5187,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>10333.44</v>
+        <v>10777.6</v>
       </c>
       <c r="C129" t="n">
-        <v>10374.54</v>
+        <v>10842.25</v>
       </c>
       <c r="D129" t="n">
-        <v>10257.02</v>
+        <v>10743.13</v>
       </c>
       <c r="E129" t="n">
-        <v>10257.02</v>
+        <v>10756.87</v>
       </c>
       <c r="G129" s="1">
         <f>AVERAGE(E125:E129)</f>
@@ -5216,16 +5216,16 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>10322.44</v>
+        <v>10768.9</v>
       </c>
       <c r="C130" t="n">
-        <v>10357.23</v>
+        <v>10829.33</v>
       </c>
       <c r="D130" t="n">
-        <v>10315.97</v>
+        <v>10747.37</v>
       </c>
       <c r="E130" t="n">
-        <v>10326.68</v>
+        <v>10793.8</v>
       </c>
       <c r="G130" s="1">
         <f>AVERAGE(E126:E130)</f>
@@ -5245,16 +5245,16 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>10351.42</v>
+        <v>10816.04</v>
       </c>
       <c r="C131" t="n">
-        <v>10365.59</v>
+        <v>10843.41</v>
       </c>
       <c r="D131" t="n">
-        <v>10288.24</v>
+        <v>10785.32</v>
       </c>
       <c r="E131" t="n">
-        <v>10296.45</v>
+        <v>10806.36</v>
       </c>
       <c r="G131" s="1">
         <f>AVERAGE(E127:E131)</f>
@@ -5274,16 +5274,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>10319.69</v>
+        <v>10797.63</v>
       </c>
       <c r="C132" t="n">
-        <v>10338.95</v>
+        <v>10827.67</v>
       </c>
       <c r="D132" t="n">
-        <v>10273.6</v>
+        <v>10788.51</v>
       </c>
       <c r="E132" t="n">
-        <v>10329.94</v>
+        <v>10788.51</v>
       </c>
       <c r="G132" s="1">
         <f>AVERAGE(E128:E132)</f>
@@ -5303,16 +5303,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>10362.55</v>
+        <v>10797.91</v>
       </c>
       <c r="C133" t="n">
-        <v>10400.4</v>
+        <v>10835.7</v>
       </c>
       <c r="D133" t="n">
-        <v>10362.55</v>
+        <v>10765.31</v>
       </c>
       <c r="E133" t="n">
-        <v>10383.94</v>
+        <v>10800.77</v>
       </c>
       <c r="G133" s="1">
         <f>AVERAGE(E129:E133)</f>
@@ -5332,16 +5332,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>10425.1</v>
+        <v>10856.56</v>
       </c>
       <c r="C134" t="n">
-        <v>10472.81</v>
+        <v>10858.5</v>
       </c>
       <c r="D134" t="n">
-        <v>10414.53</v>
+        <v>10769.19</v>
       </c>
       <c r="E134" t="n">
-        <v>10465.16</v>
+        <v>10786.19</v>
       </c>
       <c r="G134" s="1">
         <f>AVERAGE(E130:E134)</f>
@@ -5361,16 +5361,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>10462.7</v>
+        <v>10820.83</v>
       </c>
       <c r="C135" t="n">
-        <v>10495.34</v>
+        <v>10842.61</v>
       </c>
       <c r="D135" t="n">
-        <v>10445.86</v>
+        <v>10807.89</v>
       </c>
       <c r="E135" t="n">
-        <v>10469.35</v>
+        <v>10840.34</v>
       </c>
       <c r="G135" s="1">
         <f>AVERAGE(E131:E135)</f>
@@ -5390,16 +5390,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>10473.28</v>
+        <v>10839.44</v>
       </c>
       <c r="C136" t="n">
-        <v>10530.93</v>
+        <v>10844.74</v>
       </c>
       <c r="D136" t="n">
-        <v>10473.28</v>
+        <v>10806.01</v>
       </c>
       <c r="E136" t="n">
-        <v>10518.27</v>
+        <v>10818.99</v>
       </c>
       <c r="G136" s="1">
         <f>AVERAGE(E132:E136)</f>
@@ -5419,16 +5419,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>10538.21</v>
+        <v>10802.95</v>
       </c>
       <c r="C137" t="n">
-        <v>10557.67</v>
+        <v>10831.38</v>
       </c>
       <c r="D137" t="n">
-        <v>10511.5</v>
+        <v>10721.87</v>
       </c>
       <c r="E137" t="n">
-        <v>10532.81</v>
+        <v>10743.27</v>
       </c>
       <c r="G137" s="1">
         <f>AVERAGE(E133:E137)</f>
@@ -5448,16 +5448,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>10576.12</v>
+        <v>10713.67</v>
       </c>
       <c r="C138" t="n">
-        <v>10668.49</v>
+        <v>10742.61</v>
       </c>
       <c r="D138" t="n">
-        <v>10576.12</v>
+        <v>10659.29</v>
       </c>
       <c r="E138" t="n">
-        <v>10641.19</v>
+        <v>10732.67</v>
       </c>
       <c r="G138" s="1">
         <f>AVERAGE(E134:E138)</f>
@@ -5477,16 +5477,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10668.39</v>
+        <v>10728.22</v>
       </c>
       <c r="C139" t="n">
-        <v>10711.44</v>
+        <v>10749.39</v>
       </c>
       <c r="D139" t="n">
-        <v>10668.39</v>
+        <v>10683.92</v>
       </c>
       <c r="E139" t="n">
-        <v>10711.44</v>
+        <v>10683.92</v>
       </c>
       <c r="G139" s="1">
         <f>AVERAGE(E135:E139)</f>
@@ -5506,16 +5506,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10712.48</v>
+        <v>10716.59</v>
       </c>
       <c r="C140" t="n">
-        <v>10724.09</v>
+        <v>10735.08</v>
       </c>
       <c r="D140" t="n">
-        <v>10675.83</v>
+        <v>10654.58</v>
       </c>
       <c r="E140" t="n">
-        <v>10724.09</v>
+        <v>10687.18</v>
       </c>
       <c r="G140" s="1">
         <f>AVERAGE(E136:E140)</f>
@@ -5535,16 +5535,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10735.14</v>
+        <v>10662.08</v>
       </c>
       <c r="C141" t="n">
-        <v>10774.21</v>
+        <v>10669.59</v>
       </c>
       <c r="D141" t="n">
-        <v>10723.37</v>
+        <v>10600.26</v>
       </c>
       <c r="E141" t="n">
-        <v>10774.21</v>
+        <v>10630.65</v>
       </c>
       <c r="G141" s="1">
         <f>AVERAGE(E137:E141)</f>
@@ -5564,16 +5564,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10790.35</v>
+        <v>10629.16</v>
       </c>
       <c r="C142" t="n">
-        <v>10798.52</v>
+        <v>10666.66</v>
       </c>
       <c r="D142" t="n">
-        <v>10723.15</v>
+        <v>10609.23</v>
       </c>
       <c r="E142" t="n">
-        <v>10723.15</v>
+        <v>10625.04</v>
       </c>
       <c r="G142" s="1">
         <f>AVERAGE(E138:E142)</f>
@@ -5593,16 +5593,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10773.85</v>
+        <v>10673.43</v>
       </c>
       <c r="C143" t="n">
-        <v>10790.31</v>
+        <v>10729.45</v>
       </c>
       <c r="D143" t="n">
-        <v>10684.32</v>
+        <v>10673.43</v>
       </c>
       <c r="E143" t="n">
-        <v>10720.28</v>
+        <v>10701.64</v>
       </c>
       <c r="G143" s="1">
         <f>AVERAGE(E139:E143)</f>
@@ -5622,16 +5622,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>10745.77</v>
+        <v>10706.79</v>
       </c>
       <c r="C144" t="n">
-        <v>10798.54</v>
+        <v>10728.39</v>
       </c>
       <c r="D144" t="n">
-        <v>10745.77</v>
+        <v>10656.18</v>
       </c>
       <c r="E144" t="n">
-        <v>10760.29</v>
+        <v>10664.55</v>
       </c>
       <c r="G144" s="1">
         <f>AVERAGE(E140:E144)</f>
@@ -5651,16 +5651,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>10737.87</v>
+        <v>10688.22</v>
       </c>
       <c r="C145" t="n">
-        <v>10753.77</v>
+        <v>10787.58</v>
       </c>
       <c r="D145" t="n">
-        <v>10702.56</v>
+        <v>10687.26</v>
       </c>
       <c r="E145" t="n">
-        <v>10728.88</v>
+        <v>10779.24</v>
       </c>
       <c r="G145" s="1">
         <f>AVERAGE(E141:E145)</f>
@@ -5680,16 +5680,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>10759.47</v>
+        <v>10815.4</v>
       </c>
       <c r="C146" t="n">
-        <v>10792.27</v>
+        <v>10882.65</v>
       </c>
       <c r="D146" t="n">
-        <v>10731.9</v>
+        <v>10801.1</v>
       </c>
       <c r="E146" t="n">
-        <v>10735.21</v>
+        <v>10822.59</v>
       </c>
       <c r="G146" s="1">
         <f>AVERAGE(E142:E146)</f>
@@ -5709,16 +5709,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>10749.9</v>
+        <v>10837.61</v>
       </c>
       <c r="C147" t="n">
-        <v>10766.64</v>
+        <v>10872.29</v>
       </c>
       <c r="D147" t="n">
-        <v>10726.25</v>
+        <v>10809.09</v>
       </c>
       <c r="E147" t="n">
-        <v>10743.78</v>
+        <v>10854.57</v>
       </c>
       <c r="G147" s="1">
         <f>AVERAGE(E143:E147)</f>
@@ -5738,16 +5738,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>10771.4</v>
+        <v>10847.79</v>
       </c>
       <c r="C148" t="n">
-        <v>10794.55</v>
+        <v>10873.91</v>
       </c>
       <c r="D148" t="n">
-        <v>10740.07</v>
+        <v>10833.78</v>
       </c>
       <c r="E148" t="n">
-        <v>10750.57</v>
+        <v>10854.09</v>
       </c>
       <c r="G148" s="1">
         <f>AVERAGE(E144:E148)</f>
@@ -5767,16 +5767,16 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>10735.35</v>
+        <v>10836.82</v>
       </c>
       <c r="C149" t="n">
-        <v>10756.51</v>
+        <v>10856</v>
       </c>
       <c r="D149" t="n">
-        <v>10716.52</v>
+        <v>10746.74</v>
       </c>
       <c r="E149" t="n">
-        <v>10734.76</v>
+        <v>10750.93</v>
       </c>
       <c r="G149" s="1">
         <f>AVERAGE(E145:E149)</f>
@@ -5796,16 +5796,16 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>10757.35</v>
+        <v>10733.56</v>
       </c>
       <c r="C150" t="n">
-        <v>10803.6</v>
+        <v>10752.58</v>
       </c>
       <c r="D150" t="n">
-        <v>10701.08</v>
+        <v>10692.53</v>
       </c>
       <c r="E150" t="n">
-        <v>10709.11</v>
+        <v>10707.07</v>
       </c>
       <c r="G150" s="1">
         <f>AVERAGE(E146:E150)</f>
@@ -5825,16 +5825,16 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>10777.6</v>
+        <v>10735.24</v>
       </c>
       <c r="C151" t="n">
-        <v>10842.25</v>
+        <v>10762.91</v>
       </c>
       <c r="D151" t="n">
-        <v>10743.13</v>
+        <v>10697.62</v>
       </c>
       <c r="E151" t="n">
-        <v>10756.87</v>
+        <v>10713.55</v>
       </c>
       <c r="G151" s="1">
         <f>AVERAGE(E147:E151)</f>
@@ -5854,16 +5854,16 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>10768.9</v>
+        <v>10623.2</v>
       </c>
       <c r="C152" t="n">
-        <v>10829.33</v>
+        <v>10650.18</v>
       </c>
       <c r="D152" t="n">
-        <v>10747.37</v>
+        <v>10560.44</v>
       </c>
       <c r="E152" t="n">
-        <v>10793.8</v>
+        <v>10560.44</v>
       </c>
       <c r="G152" s="1">
         <f>AVERAGE(E148:E152)</f>
@@ -5883,16 +5883,16 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>10816.04</v>
+        <v>10591.62</v>
       </c>
       <c r="C153" t="n">
-        <v>10843.41</v>
+        <v>10665.92</v>
       </c>
       <c r="D153" t="n">
-        <v>10785.32</v>
+        <v>10495.15</v>
       </c>
       <c r="E153" t="n">
-        <v>10806.36</v>
+        <v>10600.37</v>
       </c>
       <c r="G153" s="1">
         <f>AVERAGE(E149:E153)</f>
@@ -5912,16 +5912,16 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>10797.63</v>
+        <v>10617.27</v>
       </c>
       <c r="C154" t="n">
-        <v>10827.67</v>
+        <v>10665.43</v>
       </c>
       <c r="D154" t="n">
-        <v>10788.51</v>
+        <v>10565.68</v>
       </c>
       <c r="E154" t="n">
-        <v>10788.51</v>
+        <v>10651.11</v>
       </c>
       <c r="G154" s="1">
         <f>AVERAGE(E150:E154)</f>
@@ -5941,16 +5941,16 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>10797.91</v>
+        <v>10607.62</v>
       </c>
       <c r="C155" t="n">
-        <v>10835.7</v>
+        <v>10635.71</v>
       </c>
       <c r="D155" t="n">
-        <v>10765.31</v>
+        <v>10540.74</v>
       </c>
       <c r="E155" t="n">
-        <v>10800.77</v>
+        <v>10566.85</v>
       </c>
       <c r="G155" s="1">
         <f>AVERAGE(E151:E155)</f>
@@ -5970,16 +5970,16 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>10856.56</v>
+        <v>10541.03</v>
       </c>
       <c r="C156" t="n">
-        <v>10858.5</v>
+        <v>10541.03</v>
       </c>
       <c r="D156" t="n">
-        <v>10769.19</v>
+        <v>10376.65</v>
       </c>
       <c r="E156" t="n">
-        <v>10786.19</v>
+        <v>10393.92</v>
       </c>
       <c r="G156" s="1">
         <f>AVERAGE(E152:E156)</f>
@@ -5999,16 +5999,16 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>10820.83</v>
+        <v>10404.42</v>
       </c>
       <c r="C157" t="n">
-        <v>10842.61</v>
+        <v>10418.97</v>
       </c>
       <c r="D157" t="n">
-        <v>10807.89</v>
+        <v>10322.76</v>
       </c>
       <c r="E157" t="n">
-        <v>10840.34</v>
+        <v>10355.76</v>
       </c>
       <c r="G157" s="1">
         <f>AVERAGE(E153:E157)</f>
@@ -6028,16 +6028,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10839.44</v>
+        <v>10406.35</v>
       </c>
       <c r="C158" t="n">
-        <v>10844.74</v>
+        <v>10419.28</v>
       </c>
       <c r="D158" t="n">
-        <v>10806.01</v>
+        <v>10336.26</v>
       </c>
       <c r="E158" t="n">
-        <v>10818.99</v>
+        <v>10398.62</v>
       </c>
       <c r="G158" s="1">
         <f>AVERAGE(E154:E158)</f>
@@ -6057,16 +6057,16 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10802.95</v>
+        <v>10438.33</v>
       </c>
       <c r="C159" t="n">
-        <v>10831.38</v>
+        <v>10504.67</v>
       </c>
       <c r="D159" t="n">
-        <v>10721.87</v>
+        <v>10438.33</v>
       </c>
       <c r="E159" t="n">
-        <v>10743.27</v>
+        <v>10473.09</v>
       </c>
       <c r="G159" s="1">
         <f>AVERAGE(E155:E159)</f>
@@ -6086,16 +6086,16 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10713.67</v>
+        <v>10488.73</v>
       </c>
       <c r="C160" t="n">
-        <v>10742.61</v>
+        <v>10495.24</v>
       </c>
       <c r="D160" t="n">
-        <v>10659.29</v>
+        <v>10408.06</v>
       </c>
       <c r="E160" t="n">
-        <v>10732.67</v>
+        <v>10443.28</v>
       </c>
       <c r="G160" s="1">
         <f>AVERAGE(E156:E160)</f>
@@ -6115,16 +6115,16 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10728.22</v>
+        <v>10447.11</v>
       </c>
       <c r="C161" t="n">
-        <v>10749.39</v>
+        <v>10489.17</v>
       </c>
       <c r="D161" t="n">
-        <v>10683.92</v>
+        <v>10444.7</v>
       </c>
       <c r="E161" t="n">
-        <v>10683.92</v>
+        <v>10470.7</v>
       </c>
       <c r="G161" s="1">
         <f>AVERAGE(E157:E161)</f>
@@ -6144,16 +6144,16 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>10716.59</v>
+        <v>10494.6</v>
       </c>
       <c r="C162" t="n">
-        <v>10735.08</v>
+        <v>10577.53</v>
       </c>
       <c r="D162" t="n">
-        <v>10654.58</v>
+        <v>10494.6</v>
       </c>
       <c r="E162" t="n">
-        <v>10687.18</v>
+        <v>10538.01</v>
       </c>
       <c r="G162" s="1">
         <f>AVERAGE(E158:E162)</f>
@@ -6173,16 +6173,16 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>10662.08</v>
+        <v>10517.21</v>
       </c>
       <c r="C163" t="n">
-        <v>10669.59</v>
+        <v>10520.66</v>
       </c>
       <c r="D163" t="n">
-        <v>10600.26</v>
+        <v>10436.11</v>
       </c>
       <c r="E163" t="n">
-        <v>10630.65</v>
+        <v>10491.44</v>
       </c>
       <c r="G163" s="1">
         <f>AVERAGE(E159:E163)</f>
@@ -6202,16 +6202,16 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10629.16</v>
+        <v>10478.74</v>
       </c>
       <c r="C164" t="n">
-        <v>10666.66</v>
+        <v>10526.41</v>
       </c>
       <c r="D164" t="n">
-        <v>10609.23</v>
+        <v>10472.39</v>
       </c>
       <c r="E164" t="n">
-        <v>10625.04</v>
+        <v>10506.52</v>
       </c>
       <c r="G164" s="1">
         <f>AVERAGE(E160:E164)</f>
@@ -6231,16 +6231,16 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>10673.43</v>
+        <v>10508.33</v>
       </c>
       <c r="C165" t="n">
-        <v>10729.45</v>
+        <v>10544</v>
       </c>
       <c r="D165" t="n">
-        <v>10673.43</v>
+        <v>10452.08</v>
       </c>
       <c r="E165" t="n">
-        <v>10701.64</v>
+        <v>10467.34</v>
       </c>
       <c r="G165" s="1">
         <f>AVERAGE(E161:E165)</f>
@@ -6260,16 +6260,16 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>10706.79</v>
+        <v>10470.36</v>
       </c>
       <c r="C166" t="n">
-        <v>10728.39</v>
+        <v>10514.31</v>
       </c>
       <c r="D166" t="n">
-        <v>10656.18</v>
+        <v>10470.36</v>
       </c>
       <c r="E166" t="n">
-        <v>10664.55</v>
+        <v>10504.52</v>
       </c>
       <c r="G166" s="1">
         <f>AVERAGE(E162:E166)</f>
@@ -6289,16 +6289,16 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>10688.22</v>
+        <v>10526.97</v>
       </c>
       <c r="C167" t="n">
-        <v>10787.58</v>
+        <v>10545.78</v>
       </c>
       <c r="D167" t="n">
-        <v>10687.26</v>
+        <v>10488.97</v>
       </c>
       <c r="E167" t="n">
-        <v>10779.24</v>
+        <v>10488.97</v>
       </c>
       <c r="G167" s="1">
         <f>AVERAGE(E163:E167)</f>
@@ -6318,16 +6318,16 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>10815.4</v>
+        <v>10503.1</v>
       </c>
       <c r="C168" t="n">
-        <v>10882.65</v>
+        <v>10537.27</v>
       </c>
       <c r="D168" t="n">
-        <v>10801.1</v>
+        <v>10486.52</v>
       </c>
       <c r="E168" t="n">
-        <v>10822.59</v>
+        <v>10537.27</v>
       </c>
       <c r="G168" s="1">
         <f>AVERAGE(E164:E168)</f>
@@ -6347,16 +6347,16 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>10837.61</v>
+        <v>10546.64</v>
       </c>
       <c r="C169" t="n">
-        <v>10872.29</v>
+        <v>10556.65</v>
       </c>
       <c r="D169" t="n">
-        <v>10809.09</v>
+        <v>10514.54</v>
       </c>
       <c r="E169" t="n">
-        <v>10854.57</v>
+        <v>10522.49</v>
       </c>
       <c r="G169" s="1">
         <f>AVERAGE(E165:E169)</f>
@@ -6376,16 +6376,16 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>10847.79</v>
+        <v>10526.14</v>
       </c>
       <c r="C170" t="n">
-        <v>10873.91</v>
+        <v>10528.92</v>
       </c>
       <c r="D170" t="n">
-        <v>10833.78</v>
+        <v>10408.12</v>
       </c>
       <c r="E170" t="n">
-        <v>10854.09</v>
+        <v>10421.91</v>
       </c>
       <c r="G170" s="1">
         <f>AVERAGE(E166:E170)</f>
@@ -6405,16 +6405,16 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>10836.82</v>
+        <v>10419.81</v>
       </c>
       <c r="C171" t="n">
-        <v>10856</v>
+        <v>10497.77</v>
       </c>
       <c r="D171" t="n">
-        <v>10746.74</v>
+        <v>10419.81</v>
       </c>
       <c r="E171" t="n">
-        <v>10750.93</v>
+        <v>10486.67</v>
       </c>
       <c r="G171" s="1">
         <f>AVERAGE(E167:E171)</f>
@@ -6434,16 +6434,16 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>10733.56</v>
+        <v>10513.29</v>
       </c>
       <c r="C172" t="n">
-        <v>10752.58</v>
+        <v>10592.04</v>
       </c>
       <c r="D172" t="n">
-        <v>10692.53</v>
+        <v>10513.29</v>
       </c>
       <c r="E172" t="n">
-        <v>10707.07</v>
+        <v>10567.64</v>
       </c>
       <c r="G172" s="1">
         <f>AVERAGE(E168:E172)</f>
@@ -6463,16 +6463,16 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>10735.24</v>
+        <v>10590.95</v>
       </c>
       <c r="C173" t="n">
-        <v>10762.91</v>
+        <v>10659.98</v>
       </c>
       <c r="D173" t="n">
-        <v>10697.62</v>
+        <v>10590.95</v>
       </c>
       <c r="E173" t="n">
-        <v>10713.55</v>
+        <v>10642.86</v>
       </c>
       <c r="G173" s="1">
         <f>AVERAGE(E169:E173)</f>
@@ -6492,16 +6492,16 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>10623.2</v>
+        <v>10664.82</v>
       </c>
       <c r="C174" t="n">
-        <v>10650.18</v>
+        <v>10710.73</v>
       </c>
       <c r="D174" t="n">
-        <v>10560.44</v>
+        <v>10650.77</v>
       </c>
       <c r="E174" t="n">
-        <v>10560.44</v>
+        <v>10710.73</v>
       </c>
       <c r="G174" s="1">
         <f>AVERAGE(E170:E174)</f>
@@ -6521,16 +6521,16 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>10591.62</v>
+        <v>10759.61</v>
       </c>
       <c r="C175" t="n">
-        <v>10665.92</v>
+        <v>10813.16</v>
       </c>
       <c r="D175" t="n">
-        <v>10495.15</v>
+        <v>10759.61</v>
       </c>
       <c r="E175" t="n">
-        <v>10600.37</v>
+        <v>10801.57</v>
       </c>
       <c r="G175" s="1">
         <f>AVERAGE(E171:E175)</f>
@@ -6550,16 +6550,16 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>10617.27</v>
+        <v>10834.58</v>
       </c>
       <c r="C176" t="n">
-        <v>10665.43</v>
+        <v>10853.46</v>
       </c>
       <c r="D176" t="n">
-        <v>10565.68</v>
+        <v>10794.25</v>
       </c>
       <c r="E176" t="n">
-        <v>10651.11</v>
+        <v>10848.63</v>
       </c>
       <c r="G176" s="1">
         <f>AVERAGE(E172:E176)</f>
@@ -6579,16 +6579,16 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>10607.62</v>
+        <v>10856.92</v>
       </c>
       <c r="C177" t="n">
-        <v>10635.71</v>
+        <v>10879.8</v>
       </c>
       <c r="D177" t="n">
-        <v>10540.74</v>
+        <v>10815.68</v>
       </c>
       <c r="E177" t="n">
-        <v>10566.85</v>
+        <v>10879.8</v>
       </c>
       <c r="G177" s="1">
         <f>AVERAGE(E173:E177)</f>
@@ -6608,16 +6608,16 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>10541.03</v>
+        <v>10899.09</v>
       </c>
       <c r="C178" t="n">
-        <v>10541.03</v>
+        <v>10918.47</v>
       </c>
       <c r="D178" t="n">
-        <v>10376.65</v>
+        <v>10869.12</v>
       </c>
       <c r="E178" t="n">
-        <v>10393.92</v>
+        <v>10915.75</v>
       </c>
       <c r="G178" s="1">
         <f>AVERAGE(E174:E178)</f>
@@ -6637,16 +6637,16 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>10404.42</v>
+        <v>10922.35</v>
       </c>
       <c r="C179" t="n">
-        <v>10418.97</v>
+        <v>10931</v>
       </c>
       <c r="D179" t="n">
-        <v>10322.76</v>
+        <v>10860.77</v>
       </c>
       <c r="E179" t="n">
-        <v>10355.76</v>
+        <v>10914.89</v>
       </c>
       <c r="G179" s="1">
         <f>AVERAGE(E175:E179)</f>
@@ -6666,16 +6666,16 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>10406.35</v>
+        <v>10915.32</v>
       </c>
       <c r="C180" t="n">
-        <v>10419.28</v>
+        <v>10934.75</v>
       </c>
       <c r="D180" t="n">
-        <v>10336.26</v>
+        <v>10819.25</v>
       </c>
       <c r="E180" t="n">
-        <v>10398.62</v>
+        <v>10831.09</v>
       </c>
       <c r="G180" s="1">
         <f>AVERAGE(E176:E180)</f>
@@ -6695,16 +6695,16 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>10438.33</v>
+        <v>10824.54</v>
       </c>
       <c r="C181" t="n">
-        <v>10504.67</v>
+        <v>10844.08</v>
       </c>
       <c r="D181" t="n">
-        <v>10438.33</v>
+        <v>10770.1</v>
       </c>
       <c r="E181" t="n">
-        <v>10473.09</v>
+        <v>10810.06</v>
       </c>
       <c r="G181" s="1">
         <f>AVERAGE(E177:E181)</f>
@@ -6724,16 +6724,16 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>10488.73</v>
+        <v>10818.24</v>
       </c>
       <c r="C182" t="n">
-        <v>10495.24</v>
+        <v>10899.98</v>
       </c>
       <c r="D182" t="n">
-        <v>10408.06</v>
+        <v>10818.24</v>
       </c>
       <c r="E182" t="n">
-        <v>10443.28</v>
+        <v>10883.96</v>
       </c>
       <c r="G182" s="1">
         <f>AVERAGE(E178:E182)</f>
@@ -6753,16 +6753,16 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>10447.11</v>
+        <v>10932.37</v>
       </c>
       <c r="C183" t="n">
-        <v>10489.17</v>
+        <v>10962.55</v>
       </c>
       <c r="D183" t="n">
-        <v>10444.7</v>
+        <v>10911.89</v>
       </c>
       <c r="E183" t="n">
-        <v>10470.7</v>
+        <v>10956.31</v>
       </c>
       <c r="G183" s="1">
         <f>AVERAGE(E179:E183)</f>
@@ -6782,16 +6782,16 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>10494.6</v>
+        <v>10955.81</v>
       </c>
       <c r="C184" t="n">
-        <v>10577.53</v>
+        <v>10986.11</v>
       </c>
       <c r="D184" t="n">
-        <v>10494.6</v>
+        <v>10920.5</v>
       </c>
       <c r="E184" t="n">
-        <v>10538.01</v>
+        <v>10986.11</v>
       </c>
       <c r="G184" s="1">
         <f>AVERAGE(E180:E184)</f>
@@ -6811,16 +6811,16 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>10517.21</v>
+        <v>10976.13</v>
       </c>
       <c r="C185" t="n">
-        <v>10520.66</v>
+        <v>11030.22</v>
       </c>
       <c r="D185" t="n">
-        <v>10436.11</v>
+        <v>10942.95</v>
       </c>
       <c r="E185" t="n">
-        <v>10491.44</v>
+        <v>11004.8</v>
       </c>
       <c r="G185" s="1">
         <f>AVERAGE(E181:E185)</f>
@@ -6840,16 +6840,16 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>10478.74</v>
+        <v>11048.06</v>
       </c>
       <c r="C186" t="n">
-        <v>10526.41</v>
+        <v>11122.82</v>
       </c>
       <c r="D186" t="n">
-        <v>10472.39</v>
+        <v>11048.06</v>
       </c>
       <c r="E186" t="n">
-        <v>10506.52</v>
+        <v>11071.57</v>
       </c>
       <c r="G186" s="1">
         <f>AVERAGE(E182:E186)</f>
@@ -6869,16 +6869,16 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>10508.33</v>
+        <v>11123.58</v>
       </c>
       <c r="C187" t="n">
-        <v>10544</v>
+        <v>11150.85</v>
       </c>
       <c r="D187" t="n">
-        <v>10452.08</v>
+        <v>11095.85</v>
       </c>
       <c r="E187" t="n">
-        <v>10467.34</v>
+        <v>11150.85</v>
       </c>
       <c r="G187" s="1">
         <f>AVERAGE(E183:E187)</f>
@@ -6898,16 +6898,16 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>10470.36</v>
+        <v>11169.79</v>
       </c>
       <c r="C188" t="n">
-        <v>10514.31</v>
+        <v>11231.46</v>
       </c>
       <c r="D188" t="n">
-        <v>10470.36</v>
+        <v>11142.38</v>
       </c>
       <c r="E188" t="n">
-        <v>10504.52</v>
+        <v>11231.46</v>
       </c>
       <c r="G188" s="1">
         <f>AVERAGE(E184:E188)</f>
@@ -6927,16 +6927,16 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>10526.97</v>
+        <v>11243.49</v>
       </c>
       <c r="C189" t="n">
-        <v>10545.78</v>
+        <v>11270.18</v>
       </c>
       <c r="D189" t="n">
-        <v>10488.97</v>
+        <v>11201.52</v>
       </c>
       <c r="E189" t="n">
-        <v>10488.97</v>
+        <v>11253.11</v>
       </c>
       <c r="G189" s="1">
         <f>AVERAGE(E185:E189)</f>
@@ -6956,16 +6956,16 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>10503.1</v>
+        <v>11228.71</v>
       </c>
       <c r="C190" t="n">
-        <v>10537.27</v>
+        <v>11228.71</v>
       </c>
       <c r="D190" t="n">
-        <v>10486.52</v>
+        <v>11107.32</v>
       </c>
       <c r="E190" t="n">
-        <v>10537.27</v>
+        <v>11152.16</v>
       </c>
       <c r="G190" s="1">
         <f>AVERAGE(E186:E190)</f>
@@ -6985,16 +6985,16 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>10546.64</v>
+        <v>11154.36</v>
       </c>
       <c r="C191" t="n">
-        <v>10556.65</v>
+        <v>11268.61</v>
       </c>
       <c r="D191" t="n">
-        <v>10514.54</v>
+        <v>11131.85</v>
       </c>
       <c r="E191" t="n">
-        <v>10522.49</v>
+        <v>11165.95</v>
       </c>
       <c r="G191" s="1">
         <f>AVERAGE(E187:E191)</f>
@@ -7014,16 +7014,16 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>10526.14</v>
+        <v>11152.53</v>
       </c>
       <c r="C192" t="n">
-        <v>10528.92</v>
+        <v>11178.3</v>
       </c>
       <c r="D192" t="n">
-        <v>10408.12</v>
+        <v>11089.48</v>
       </c>
       <c r="E192" t="n">
-        <v>10421.91</v>
+        <v>11147.1</v>
       </c>
       <c r="G192" s="1">
         <f>AVERAGE(E188:E192)</f>
@@ -7043,16 +7043,16 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>10419.81</v>
+        <v>11202.27</v>
       </c>
       <c r="C193" t="n">
-        <v>10497.77</v>
+        <v>11246.18</v>
       </c>
       <c r="D193" t="n">
-        <v>10419.81</v>
+        <v>11161.83</v>
       </c>
       <c r="E193" t="n">
-        <v>10486.67</v>
+        <v>11221.81</v>
       </c>
       <c r="G193" s="1">
         <f>AVERAGE(E189:E193)</f>
@@ -7072,16 +7072,16 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>10513.29</v>
+        <v>11189.57</v>
       </c>
       <c r="C194" t="n">
-        <v>10592.04</v>
+        <v>11189.57</v>
       </c>
       <c r="D194" t="n">
-        <v>10513.29</v>
+        <v>11076.78</v>
       </c>
       <c r="E194" t="n">
-        <v>10567.64</v>
+        <v>11076.78</v>
       </c>
       <c r="G194" s="1">
         <f>AVERAGE(E190:E194)</f>
@@ -7101,16 +7101,16 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>10590.95</v>
+        <v>11054.36</v>
       </c>
       <c r="C195" t="n">
-        <v>10659.98</v>
+        <v>11158.29</v>
       </c>
       <c r="D195" t="n">
-        <v>10590.95</v>
+        <v>11007.89</v>
       </c>
       <c r="E195" t="n">
-        <v>10642.86</v>
+        <v>11103.79</v>
       </c>
       <c r="G195" s="1">
         <f>AVERAGE(E191:E195)</f>
@@ -7130,16 +7130,16 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>10664.82</v>
+        <v>11139.4</v>
       </c>
       <c r="C196" t="n">
-        <v>10710.73</v>
+        <v>11212.1</v>
       </c>
       <c r="D196" t="n">
-        <v>10650.77</v>
+        <v>11139.4</v>
       </c>
       <c r="E196" t="n">
-        <v>10710.73</v>
+        <v>11160.25</v>
       </c>
       <c r="G196" s="1">
         <f>AVERAGE(E192:E196)</f>
@@ -7159,16 +7159,16 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>10759.61</v>
+        <v>11151.65</v>
       </c>
       <c r="C197" t="n">
-        <v>10813.16</v>
+        <v>11153.32</v>
       </c>
       <c r="D197" t="n">
-        <v>10759.61</v>
+        <v>11070.43</v>
       </c>
       <c r="E197" t="n">
-        <v>10801.57</v>
+        <v>11126.23</v>
       </c>
       <c r="G197" s="1">
         <f>AVERAGE(E193:E197)</f>
@@ -7188,16 +7188,16 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>10834.58</v>
+        <v>10970.3</v>
       </c>
       <c r="C198" t="n">
-        <v>10853.46</v>
+        <v>10970.3</v>
       </c>
       <c r="D198" t="n">
-        <v>10794.25</v>
+        <v>10855.43</v>
       </c>
       <c r="E198" t="n">
-        <v>10848.63</v>
+        <v>10946.25</v>
       </c>
       <c r="G198" s="1">
         <f>AVERAGE(E194:E198)</f>
@@ -7217,16 +7217,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>10856.92</v>
+        <v>10761.01</v>
       </c>
       <c r="C199" t="n">
-        <v>10879.8</v>
+        <v>10761.01</v>
       </c>
       <c r="D199" t="n">
-        <v>10815.68</v>
+        <v>10300.4</v>
       </c>
       <c r="E199" t="n">
-        <v>10879.8</v>
+        <v>10404</v>
       </c>
       <c r="G199" s="1">
         <f>AVERAGE(E195:E199)</f>
@@ -7246,16 +7246,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>10899.09</v>
+        <v>10547.64</v>
       </c>
       <c r="C200" t="n">
-        <v>10918.47</v>
+        <v>10697.82</v>
       </c>
       <c r="D200" t="n">
-        <v>10869.12</v>
+        <v>10547.64</v>
       </c>
       <c r="E200" t="n">
-        <v>10915.75</v>
+        <v>10551.54</v>
       </c>
       <c r="G200" s="1">
         <f>AVERAGE(E196:E200)</f>
@@ -7275,16 +7275,16 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>10922.35</v>
+        <v>10559.44</v>
       </c>
       <c r="C201" t="n">
-        <v>10931</v>
+        <v>10609.5</v>
       </c>
       <c r="D201" t="n">
-        <v>10860.77</v>
+        <v>10512.93</v>
       </c>
       <c r="E201" t="n">
-        <v>10914.89</v>
+        <v>10528.52</v>
       </c>
       <c r="G201" s="1">
         <f>AVERAGE(E197:E201)</f>
@@ -7304,16 +7304,16 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>10915.32</v>
+        <v>10371.01</v>
       </c>
       <c r="C202" t="n">
-        <v>10934.75</v>
+        <v>10392.31</v>
       </c>
       <c r="D202" t="n">
-        <v>10819.25</v>
+        <v>10189.04</v>
       </c>
       <c r="E202" t="n">
-        <v>10831.09</v>
+        <v>10371.75</v>
       </c>
       <c r="G202" s="1">
         <f>AVERAGE(E198:E202)</f>
@@ -7333,16 +7333,16 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>10824.54</v>
+        <v>10429.09</v>
       </c>
       <c r="C203" t="n">
-        <v>10844.08</v>
+        <v>10473.51</v>
       </c>
       <c r="D203" t="n">
-        <v>10770.1</v>
+        <v>10416.01</v>
       </c>
       <c r="E203" t="n">
-        <v>10810.06</v>
+        <v>10421.09</v>
       </c>
       <c r="G203" s="1">
         <f>AVERAGE(E199:E203)</f>
@@ -7362,16 +7362,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>10818.24</v>
+        <v>10559.79</v>
       </c>
       <c r="C204" t="n">
-        <v>10899.98</v>
+        <v>10720.48</v>
       </c>
       <c r="D204" t="n">
-        <v>10818.24</v>
+        <v>10559.79</v>
       </c>
       <c r="E204" t="n">
-        <v>10883.96</v>
+        <v>10714.44</v>
       </c>
       <c r="G204" s="1">
         <f>AVERAGE(E200:E204)</f>
@@ -7391,16 +7391,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>10932.37</v>
+        <v>10698.47</v>
       </c>
       <c r="C205" t="n">
-        <v>10962.55</v>
+        <v>10698.47</v>
       </c>
       <c r="D205" t="n">
-        <v>10911.89</v>
+        <v>10620.8</v>
       </c>
       <c r="E205" t="n">
-        <v>10956.31</v>
+        <v>10662.38</v>
       </c>
       <c r="G205" s="1">
         <f>AVERAGE(E201:E205)</f>
@@ -7420,16 +7420,16 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>10955.81</v>
+        <v>10688.97</v>
       </c>
       <c r="C206" t="n">
-        <v>10986.11</v>
+        <v>10799.29</v>
       </c>
       <c r="D206" t="n">
-        <v>10920.5</v>
+        <v>10688.97</v>
       </c>
       <c r="E206" t="n">
-        <v>10986.11</v>
+        <v>10794.55</v>
       </c>
       <c r="G206" s="1">
         <f>AVERAGE(E202:E206)</f>
@@ -7449,16 +7449,16 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>10976.13</v>
+        <v>10827.98</v>
       </c>
       <c r="C207" t="n">
-        <v>11030.22</v>
+        <v>10890.69</v>
       </c>
       <c r="D207" t="n">
-        <v>10942.95</v>
+        <v>10827.98</v>
       </c>
       <c r="E207" t="n">
-        <v>11004.8</v>
+        <v>10836.7</v>
       </c>
       <c r="G207" s="1">
         <f>AVERAGE(E203:E207)</f>
@@ -7478,16 +7478,16 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>11048.06</v>
+        <v>10896.16</v>
       </c>
       <c r="C208" t="n">
-        <v>11122.82</v>
+        <v>10937.9</v>
       </c>
       <c r="D208" t="n">
-        <v>11048.06</v>
+        <v>10815.47</v>
       </c>
       <c r="E208" t="n">
-        <v>11071.57</v>
+        <v>10815.47</v>
       </c>
       <c r="G208" s="1">
         <f>AVERAGE(E204:E208)</f>
@@ -7507,16 +7507,16 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>11123.58</v>
+        <v>10779.1</v>
       </c>
       <c r="C209" t="n">
-        <v>11150.85</v>
+        <v>10805.55</v>
       </c>
       <c r="D209" t="n">
-        <v>11095.85</v>
+        <v>10709.69</v>
       </c>
       <c r="E209" t="n">
-        <v>11150.85</v>
+        <v>10785.79</v>
       </c>
       <c r="G209" s="1">
         <f>AVERAGE(E205:E209)</f>
@@ -7536,16 +7536,16 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>11169.79</v>
+        <v>10719.29</v>
       </c>
       <c r="C210" t="n">
-        <v>11231.46</v>
+        <v>10719.29</v>
       </c>
       <c r="D210" t="n">
-        <v>11142.38</v>
+        <v>10638.98</v>
       </c>
       <c r="E210" t="n">
-        <v>11231.46</v>
+        <v>10698.17</v>
       </c>
       <c r="G210" s="1">
         <f>AVERAGE(E206:E210)</f>
@@ -7565,16 +7565,16 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>11243.49</v>
+        <v>10727.45</v>
       </c>
       <c r="C211" t="n">
-        <v>11270.18</v>
+        <v>10756.37</v>
       </c>
       <c r="D211" t="n">
-        <v>11201.52</v>
+        <v>10642.9</v>
       </c>
       <c r="E211" t="n">
-        <v>11253.11</v>
+        <v>10642.9</v>
       </c>
       <c r="G211" s="1">
         <f>AVERAGE(E207:E211)</f>
@@ -7594,16 +7594,16 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>11228.71</v>
+        <v>10711.15</v>
       </c>
       <c r="C212" t="n">
-        <v>11228.71</v>
+        <v>10784.34</v>
       </c>
       <c r="D212" t="n">
-        <v>11107.32</v>
+        <v>10711.15</v>
       </c>
       <c r="E212" t="n">
-        <v>11152.16</v>
+        <v>10784.34</v>
       </c>
       <c r="G212" s="1">
         <f>AVERAGE(E208:E212)</f>
@@ -7623,16 +7623,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>11154.36</v>
+        <v>10762.99</v>
       </c>
       <c r="C213" t="n">
-        <v>11268.61</v>
+        <v>10818.05</v>
       </c>
       <c r="D213" t="n">
-        <v>11131.85</v>
+        <v>10745.32</v>
       </c>
       <c r="E213" t="n">
-        <v>11165.95</v>
+        <v>10745.32</v>
       </c>
       <c r="G213" s="1">
         <f>AVERAGE(E209:E213)</f>
@@ -7652,16 +7652,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>11152.53</v>
+        <v>10788.43</v>
       </c>
       <c r="C214" t="n">
-        <v>11178.3</v>
+        <v>10852.33</v>
       </c>
       <c r="D214" t="n">
-        <v>11089.48</v>
+        <v>10788.43</v>
       </c>
       <c r="E214" t="n">
-        <v>11147.1</v>
+        <v>10823.24</v>
       </c>
       <c r="G214" s="1">
         <f>AVERAGE(E210:E214)</f>
@@ -7681,16 +7681,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>11202.27</v>
+        <v>10847.74</v>
       </c>
       <c r="C215" t="n">
-        <v>11246.18</v>
+        <v>10882.76</v>
       </c>
       <c r="D215" t="n">
-        <v>11161.83</v>
+        <v>10845.38</v>
       </c>
       <c r="E215" t="n">
-        <v>11221.81</v>
+        <v>10864.82</v>
       </c>
       <c r="G215" s="1">
         <f>AVERAGE(E211:E215)</f>
@@ -7710,16 +7710,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>11189.57</v>
+        <v>10908.99</v>
       </c>
       <c r="C216" t="n">
-        <v>11189.57</v>
+        <v>11016.56</v>
       </c>
       <c r="D216" t="n">
-        <v>11076.78</v>
+        <v>10908.99</v>
       </c>
       <c r="E216" t="n">
-        <v>11076.78</v>
+        <v>11002.1</v>
       </c>
       <c r="G216" s="1">
         <f>AVERAGE(E212:E216)</f>
@@ -7739,16 +7739,16 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>11054.36</v>
+        <v>11022.15</v>
       </c>
       <c r="C217" t="n">
-        <v>11158.29</v>
+        <v>11095.63</v>
       </c>
       <c r="D217" t="n">
-        <v>11007.89</v>
+        <v>11014.87</v>
       </c>
       <c r="E217" t="n">
-        <v>11103.79</v>
+        <v>11095.63</v>
       </c>
       <c r="G217" s="1">
         <f>AVERAGE(E213:E217)</f>
@@ -7768,16 +7768,16 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>11139.4</v>
+        <v>11063.73</v>
       </c>
       <c r="C218" t="n">
-        <v>11212.1</v>
+        <v>11070.29</v>
       </c>
       <c r="D218" t="n">
-        <v>11139.4</v>
+        <v>11015.47</v>
       </c>
       <c r="E218" t="n">
-        <v>11160.25</v>
+        <v>11038.8</v>
       </c>
       <c r="G218" s="1">
         <f>AVERAGE(E214:E218)</f>
@@ -7797,16 +7797,16 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>11151.65</v>
+        <v>11039.6</v>
       </c>
       <c r="C219" t="n">
-        <v>11153.32</v>
+        <v>11052.11</v>
       </c>
       <c r="D219" t="n">
-        <v>11070.43</v>
+        <v>11008.18</v>
       </c>
       <c r="E219" t="n">
-        <v>11126.23</v>
+        <v>11018.45</v>
       </c>
       <c r="G219" s="1">
         <f>AVERAGE(E215:E219)</f>
@@ -7826,16 +7826,16 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>10970.3</v>
+        <v>11010.24</v>
       </c>
       <c r="C220" t="n">
-        <v>10970.3</v>
+        <v>11054.86</v>
       </c>
       <c r="D220" t="n">
-        <v>10855.43</v>
+        <v>10933.46</v>
       </c>
       <c r="E220" t="n">
-        <v>10946.25</v>
+        <v>11027.7</v>
       </c>
       <c r="G220" s="1">
         <f>AVERAGE(E216:E220)</f>
@@ -7855,16 +7855,16 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>10761.01</v>
+        <v>11004.81</v>
       </c>
       <c r="C221" t="n">
-        <v>10761.01</v>
+        <v>11066</v>
       </c>
       <c r="D221" t="n">
-        <v>10300.4</v>
+        <v>10983.25</v>
       </c>
       <c r="E221" t="n">
-        <v>10404</v>
+        <v>11046.9</v>
       </c>
       <c r="G221" s="1">
         <f>AVERAGE(E217:E221)</f>
@@ -7884,16 +7884,16 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>10547.64</v>
+        <v>11016.85</v>
       </c>
       <c r="C222" t="n">
-        <v>10697.82</v>
+        <v>11020.78</v>
       </c>
       <c r="D222" t="n">
-        <v>10547.64</v>
+        <v>10981.04</v>
       </c>
       <c r="E222" t="n">
-        <v>10551.54</v>
+        <v>11010.84</v>
       </c>
       <c r="G222" s="1">
         <f>AVERAGE(E218:E222)</f>
@@ -7913,16 +7913,16 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>10559.44</v>
+        <v>11037.35</v>
       </c>
       <c r="C223" t="n">
-        <v>10609.5</v>
+        <v>11072.31</v>
       </c>
       <c r="D223" t="n">
-        <v>10512.93</v>
+        <v>11011.07</v>
       </c>
       <c r="E223" t="n">
-        <v>10528.52</v>
+        <v>11011.07</v>
       </c>
       <c r="G223" s="1">
         <f>AVERAGE(E219:E223)</f>
@@ -7942,16 +7942,16 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>10371.01</v>
+        <v>11045.9</v>
       </c>
       <c r="C224" t="n">
-        <v>10392.31</v>
+        <v>11120.2</v>
       </c>
       <c r="D224" t="n">
-        <v>10189.04</v>
+        <v>10975.33</v>
       </c>
       <c r="E224" t="n">
-        <v>10371.75</v>
+        <v>11005.84</v>
       </c>
       <c r="G224" s="1">
         <f>AVERAGE(E220:E224)</f>
@@ -7971,16 +7971,16 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>10429.09</v>
+        <v>10863.67</v>
       </c>
       <c r="C225" t="n">
-        <v>10473.51</v>
+        <v>10863.67</v>
       </c>
       <c r="D225" t="n">
-        <v>10416.01</v>
+        <v>10758.06</v>
       </c>
       <c r="E225" t="n">
-        <v>10421.09</v>
+        <v>10823.33</v>
       </c>
       <c r="G225" s="1">
         <f>AVERAGE(E221:E225)</f>
@@ -8000,16 +8000,16 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>10559.79</v>
+        <v>10783.57</v>
       </c>
       <c r="C226" t="n">
-        <v>10720.48</v>
+        <v>10840.05</v>
       </c>
       <c r="D226" t="n">
-        <v>10559.79</v>
+        <v>10781.43</v>
       </c>
       <c r="E226" t="n">
-        <v>10714.44</v>
+        <v>10840.05</v>
       </c>
       <c r="G226" s="1">
         <f>AVERAGE(E222:E226)</f>
@@ -8029,16 +8029,16 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>10698.47</v>
+        <v>10901.69</v>
       </c>
       <c r="C227" t="n">
-        <v>10698.47</v>
+        <v>10986.79</v>
       </c>
       <c r="D227" t="n">
-        <v>10620.8</v>
+        <v>10901.69</v>
       </c>
       <c r="E227" t="n">
-        <v>10662.38</v>
+        <v>10986.79</v>
       </c>
       <c r="G227" s="1">
         <f>AVERAGE(E223:E227)</f>
@@ -8058,16 +8058,16 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>10688.97</v>
+        <v>10939.97</v>
       </c>
       <c r="C228" t="n">
-        <v>10799.29</v>
+        <v>10939.97</v>
       </c>
       <c r="D228" t="n">
-        <v>10688.97</v>
+        <v>10853.48</v>
       </c>
       <c r="E228" t="n">
-        <v>10794.55</v>
+        <v>10865.66</v>
       </c>
       <c r="G228" s="1">
         <f>AVERAGE(E224:E228)</f>
@@ -8087,16 +8087,16 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>10827.98</v>
+        <v>10855.66</v>
       </c>
       <c r="C229" t="n">
-        <v>10890.69</v>
+        <v>10889.6</v>
       </c>
       <c r="D229" t="n">
-        <v>10827.98</v>
+        <v>10815.46</v>
       </c>
       <c r="E229" t="n">
-        <v>10836.7</v>
+        <v>10845.92</v>
       </c>
       <c r="G229" s="1">
         <f>AVERAGE(E225:E229)</f>
@@ -8116,16 +8116,16 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>10896.16</v>
+        <v>10905.3</v>
       </c>
       <c r="C230" t="n">
-        <v>10937.9</v>
+        <v>10969.22</v>
       </c>
       <c r="D230" t="n">
-        <v>10815.47</v>
+        <v>10905.3</v>
       </c>
       <c r="E230" t="n">
-        <v>10815.47</v>
+        <v>10906.22</v>
       </c>
       <c r="G230" s="1">
         <f>AVERAGE(E226:E230)</f>
@@ -8145,16 +8145,16 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>10779.1</v>
+        <v>10925.71</v>
       </c>
       <c r="C231" t="n">
-        <v>10805.55</v>
+        <v>10947.16</v>
       </c>
       <c r="D231" t="n">
-        <v>10709.69</v>
+        <v>10905.69</v>
       </c>
       <c r="E231" t="n">
-        <v>10785.79</v>
+        <v>10919.49</v>
       </c>
       <c r="G231" s="1">
         <f>AVERAGE(E227:E231)</f>
@@ -8174,16 +8174,16 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>10719.29</v>
+        <v>10936.26</v>
       </c>
       <c r="C232" t="n">
-        <v>10719.29</v>
+        <v>10969.88</v>
       </c>
       <c r="D232" t="n">
-        <v>10638.98</v>
+        <v>10882.05</v>
       </c>
       <c r="E232" t="n">
-        <v>10698.17</v>
+        <v>10888.27</v>
       </c>
       <c r="G232" s="1">
         <f>AVERAGE(E228:E232)</f>
@@ -8203,16 +8203,16 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>10727.45</v>
+        <v>10837.54</v>
       </c>
       <c r="C233" t="n">
-        <v>10756.37</v>
+        <v>10837.54</v>
       </c>
       <c r="D233" t="n">
-        <v>10642.9</v>
+        <v>10775.45</v>
       </c>
       <c r="E233" t="n">
-        <v>10642.9</v>
+        <v>10821.53</v>
       </c>
       <c r="G233" s="1">
         <f>AVERAGE(E229:E233)</f>
@@ -8232,16 +8232,16 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>10711.15</v>
+        <v>10880.14</v>
       </c>
       <c r="C234" t="n">
-        <v>10784.34</v>
+        <v>10904.75</v>
       </c>
       <c r="D234" t="n">
-        <v>10711.15</v>
+        <v>10829.02</v>
       </c>
       <c r="E234" t="n">
-        <v>10784.34</v>
+        <v>10893.53</v>
       </c>
       <c r="G234" s="1">
         <f>AVERAGE(E230:E234)</f>
@@ -8261,16 +8261,16 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>10762.99</v>
+        <v>10885.64</v>
       </c>
       <c r="C235" t="n">
-        <v>10818.05</v>
+        <v>10975.67</v>
       </c>
       <c r="D235" t="n">
-        <v>10745.32</v>
+        <v>10874.83</v>
       </c>
       <c r="E235" t="n">
-        <v>10745.32</v>
+        <v>10927.18</v>
       </c>
       <c r="G235" s="1">
         <f>AVERAGE(E231:E235)</f>
@@ -8290,16 +8290,16 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>10788.43</v>
+        <v>10961.7</v>
       </c>
       <c r="C236" t="n">
-        <v>10852.33</v>
+        <v>11016.35</v>
       </c>
       <c r="D236" t="n">
-        <v>10788.43</v>
+        <v>10953.31</v>
       </c>
       <c r="E236" t="n">
-        <v>10823.24</v>
+        <v>10974.02</v>
       </c>
       <c r="G236" s="1">
         <f>AVERAGE(E232:E236)</f>
@@ -8319,16 +8319,16 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>10847.74</v>
+        <v>10984.12</v>
       </c>
       <c r="C237" t="n">
-        <v>10882.76</v>
+        <v>11008.2</v>
       </c>
       <c r="D237" t="n">
-        <v>10845.38</v>
+        <v>10920.62</v>
       </c>
       <c r="E237" t="n">
-        <v>10864.82</v>
+        <v>10955.29</v>
       </c>
       <c r="G237" s="1">
         <f>AVERAGE(E233:E237)</f>
@@ -8348,16 +8348,16 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>10908.99</v>
+        <v>10975.58</v>
       </c>
       <c r="C238" t="n">
-        <v>11016.56</v>
+        <v>10988.23</v>
       </c>
       <c r="D238" t="n">
-        <v>10908.99</v>
+        <v>10938.37</v>
       </c>
       <c r="E238" t="n">
-        <v>11002.1</v>
+        <v>10965.39</v>
       </c>
       <c r="G238" s="1">
         <f>AVERAGE(E234:E238)</f>
@@ -8377,16 +8377,16 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>11022.15</v>
+        <v>10962.36</v>
       </c>
       <c r="C239" t="n">
-        <v>11095.63</v>
+        <v>10974.94</v>
       </c>
       <c r="D239" t="n">
-        <v>11014.87</v>
+        <v>10921.17</v>
       </c>
       <c r="E239" t="n">
-        <v>11095.63</v>
+        <v>10954.55</v>
       </c>
       <c r="G239" s="1">
         <f>AVERAGE(E235:E239)</f>
@@ -8406,16 +8406,16 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>11063.73</v>
+        <v>10953.51</v>
       </c>
       <c r="C240" t="n">
-        <v>11070.29</v>
+        <v>10965.2</v>
       </c>
       <c r="D240" t="n">
-        <v>11015.47</v>
+        <v>10799.07</v>
       </c>
       <c r="E240" t="n">
-        <v>11038.8</v>
+        <v>10810.45</v>
       </c>
       <c r="G240" s="1">
         <f>AVERAGE(E236:E240)</f>
@@ -8435,16 +8435,16 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>11039.6</v>
+        <v>10842.88</v>
       </c>
       <c r="C241" t="n">
-        <v>11052.11</v>
+        <v>10917.6</v>
       </c>
       <c r="D241" t="n">
-        <v>11008.18</v>
+        <v>10809.89</v>
       </c>
       <c r="E241" t="n">
-        <v>11018.45</v>
+        <v>10847.89</v>
       </c>
       <c r="G241" s="1">
         <f>AVERAGE(E237:E241)</f>
@@ -8464,16 +8464,16 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>11010.24</v>
+        <v>10891.66</v>
       </c>
       <c r="C242" t="n">
-        <v>11054.86</v>
+        <v>10983.96</v>
       </c>
       <c r="D242" t="n">
-        <v>10933.46</v>
+        <v>10889.71</v>
       </c>
       <c r="E242" t="n">
-        <v>11027.7</v>
+        <v>10971.22</v>
       </c>
       <c r="G242" s="1">
         <f>AVERAGE(E238:E242)</f>
@@ -8493,16 +8493,16 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>11004.81</v>
+        <v>10802.42</v>
       </c>
       <c r="C243" t="n">
-        <v>11066</v>
+        <v>10831.56</v>
       </c>
       <c r="D243" t="n">
-        <v>10983.25</v>
+        <v>10770.05</v>
       </c>
       <c r="E243" t="n">
-        <v>11046.9</v>
+        <v>10779.38</v>
       </c>
       <c r="G243" s="1">
         <f>AVERAGE(E239:E243)</f>
@@ -8522,16 +8522,16 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>11016.85</v>
+        <v>10756.89</v>
       </c>
       <c r="C244" t="n">
-        <v>11020.78</v>
+        <v>10774.73</v>
       </c>
       <c r="D244" t="n">
-        <v>10981.04</v>
+        <v>10687.25</v>
       </c>
       <c r="E244" t="n">
-        <v>11010.84</v>
+        <v>10697.13</v>
       </c>
       <c r="G244" s="1">
         <f>AVERAGE(E240:E244)</f>
@@ -8551,16 +8551,16 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>11037.35</v>
+        <v>10680.38</v>
       </c>
       <c r="C245" t="n">
-        <v>11072.31</v>
+        <v>10692.19</v>
       </c>
       <c r="D245" t="n">
-        <v>11011.07</v>
+        <v>10540.15</v>
       </c>
       <c r="E245" t="n">
-        <v>11011.07</v>
+        <v>10579.5</v>
       </c>
       <c r="G245" s="1">
         <f>AVERAGE(E241:E245)</f>
@@ -8580,16 +8580,16 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>11045.9</v>
+        <v>10541.83</v>
       </c>
       <c r="C246" t="n">
-        <v>11120.2</v>
+        <v>10573.73</v>
       </c>
       <c r="D246" t="n">
-        <v>10975.33</v>
+        <v>10489.2</v>
       </c>
       <c r="E246" t="n">
-        <v>11005.84</v>
+        <v>10559.97</v>
       </c>
       <c r="G246" s="1">
         <f>AVERAGE(E242:E246)</f>
@@ -8609,16 +8609,16 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>10863.67</v>
+        <v>10583.08</v>
       </c>
       <c r="C247" t="n">
-        <v>10863.67</v>
+        <v>10618.68</v>
       </c>
       <c r="D247" t="n">
-        <v>10758.06</v>
+        <v>10478.98</v>
       </c>
       <c r="E247" t="n">
-        <v>10823.33</v>
+        <v>10488.58</v>
       </c>
       <c r="G247" s="1">
         <f>AVERAGE(E243:E247)</f>
@@ -8638,16 +8638,16 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>10783.57</v>
+        <v>10546.29</v>
       </c>
       <c r="C248" t="n">
-        <v>10840.05</v>
+        <v>10573.61</v>
       </c>
       <c r="D248" t="n">
-        <v>10781.43</v>
+        <v>10495.67</v>
       </c>
       <c r="E248" t="n">
-        <v>10840.05</v>
+        <v>10553.43</v>
       </c>
       <c r="G248" s="1">
         <f>AVERAGE(E244:E248)</f>
@@ -8667,16 +8667,16 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>10901.69</v>
+        <v>10553.41</v>
       </c>
       <c r="C249" t="n">
-        <v>10986.79</v>
+        <v>10660.61</v>
       </c>
       <c r="D249" t="n">
-        <v>10901.69</v>
+        <v>10539.63</v>
       </c>
       <c r="E249" t="n">
-        <v>10986.79</v>
+        <v>10657.88</v>
       </c>
       <c r="G249" s="1">
         <f>AVERAGE(E245:E249)</f>
@@ -8696,16 +8696,16 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>10939.97</v>
+        <v>10665.52</v>
       </c>
       <c r="C250" t="n">
-        <v>10939.97</v>
+        <v>10683.9</v>
       </c>
       <c r="D250" t="n">
-        <v>10853.48</v>
+        <v>10601.1</v>
       </c>
       <c r="E250" t="n">
-        <v>10865.66</v>
+        <v>10618.81</v>
       </c>
       <c r="G250" s="1">
         <f>AVERAGE(E246:E250)</f>
@@ -8725,16 +8725,16 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>10855.66</v>
+        <v>10578.98</v>
       </c>
       <c r="C251" t="n">
-        <v>10889.6</v>
+        <v>10578.98</v>
       </c>
       <c r="D251" t="n">
-        <v>10815.46</v>
+        <v>10509.03</v>
       </c>
       <c r="E251" t="n">
-        <v>10845.92</v>
+        <v>10514.18</v>
       </c>
       <c r="G251" s="1">
         <f>AVERAGE(E247:E251)</f>
@@ -8754,16 +8754,16 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>10905.3</v>
+        <v>10516.45</v>
       </c>
       <c r="C252" t="n">
-        <v>10969.22</v>
+        <v>10566.37</v>
       </c>
       <c r="D252" t="n">
-        <v>10905.3</v>
+        <v>10500.97</v>
       </c>
       <c r="E252" t="n">
-        <v>10906.22</v>
+        <v>10529.37</v>
       </c>
       <c r="G252" s="1">
         <f>AVERAGE(E248:E252)</f>
@@ -8783,16 +8783,16 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>10925.71</v>
+        <v>10581.78</v>
       </c>
       <c r="C253" t="n">
-        <v>10947.16</v>
+        <v>10632.62</v>
       </c>
       <c r="D253" t="n">
-        <v>10905.69</v>
+        <v>10555.56</v>
       </c>
       <c r="E253" t="n">
-        <v>10919.49</v>
+        <v>10604.91</v>
       </c>
       <c r="G253" s="1">
         <f>AVERAGE(E249:E253)</f>
@@ -8812,16 +8812,16 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>10936.26</v>
+        <v>10610.44</v>
       </c>
       <c r="C254" t="n">
-        <v>10969.88</v>
+        <v>10691.38</v>
       </c>
       <c r="D254" t="n">
-        <v>10882.05</v>
+        <v>10609.04</v>
       </c>
       <c r="E254" t="n">
-        <v>10888.27</v>
+        <v>10691.38</v>
       </c>
       <c r="G254" s="1">
         <f>AVERAGE(E250:E254)</f>
@@ -8841,16 +8841,16 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>10837.54</v>
+        <v>10692.89</v>
       </c>
       <c r="C255" t="n">
-        <v>10837.54</v>
+        <v>10748.6</v>
       </c>
       <c r="D255" t="n">
-        <v>10775.45</v>
+        <v>10689.81</v>
       </c>
       <c r="E255" t="n">
-        <v>10821.53</v>
+        <v>10703.35</v>
       </c>
       <c r="G255" s="1">
         <f>AVERAGE(E251:E255)</f>
@@ -8870,16 +8870,16 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>10880.14</v>
+        <v>10731.68</v>
       </c>
       <c r="C256" t="n">
-        <v>10904.75</v>
+        <v>10782.06</v>
       </c>
       <c r="D256" t="n">
-        <v>10829.02</v>
+        <v>10731.68</v>
       </c>
       <c r="E256" t="n">
-        <v>10893.53</v>
+        <v>10760.21</v>
       </c>
       <c r="G256" s="1">
         <f>AVERAGE(E252:E256)</f>
@@ -8899,16 +8899,16 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>10885.64</v>
+        <v>10808.4</v>
       </c>
       <c r="C257" t="n">
-        <v>10975.67</v>
+        <v>10874.63</v>
       </c>
       <c r="D257" t="n">
-        <v>10874.83</v>
+        <v>10808.4</v>
       </c>
       <c r="E257" t="n">
-        <v>10927.18</v>
+        <v>10858.98</v>
       </c>
       <c r="G257" s="1">
         <f>AVERAGE(E253:E257)</f>
@@ -8928,16 +8928,16 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>10961.7</v>
+        <v>10938.3</v>
       </c>
       <c r="C258" t="n">
-        <v>11016.35</v>
+        <v>10970.24</v>
       </c>
       <c r="D258" t="n">
-        <v>10953.31</v>
+        <v>10908.86</v>
       </c>
       <c r="E258" t="n">
-        <v>10974.02</v>
+        <v>10952.39</v>
       </c>
       <c r="G258" s="1">
         <f>AVERAGE(E254:E258)</f>
@@ -8957,16 +8957,16 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>10984.12</v>
+        <v>10965.08</v>
       </c>
       <c r="C259" t="n">
-        <v>11008.2</v>
+        <v>10978.38</v>
       </c>
       <c r="D259" t="n">
-        <v>10920.62</v>
+        <v>10874.73</v>
       </c>
       <c r="E259" t="n">
-        <v>10955.29</v>
+        <v>10874.73</v>
       </c>
       <c r="G259" s="1">
         <f>AVERAGE(E255:E259)</f>
@@ -8986,16 +8986,16 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>10975.58</v>
+        <v>10873.54</v>
       </c>
       <c r="C260" t="n">
-        <v>10988.23</v>
+        <v>10915.74</v>
       </c>
       <c r="D260" t="n">
-        <v>10938.37</v>
+        <v>10865.07</v>
       </c>
       <c r="E260" t="n">
-        <v>10965.39</v>
+        <v>10897.57</v>
       </c>
       <c r="G260" s="1">
         <f>AVERAGE(E256:E260)</f>
@@ -9015,16 +9015,16 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>10962.36</v>
+        <v>10911.74</v>
       </c>
       <c r="C261" t="n">
-        <v>10974.94</v>
+        <v>10938.63</v>
       </c>
       <c r="D261" t="n">
-        <v>10921.17</v>
+        <v>10833.81</v>
       </c>
       <c r="E261" t="n">
-        <v>10954.55</v>
+        <v>10833.81</v>
       </c>
       <c r="G261" s="1">
         <f>AVERAGE(E257:E261)</f>
@@ -9044,16 +9044,16 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>10953.51</v>
+        <v>10844.09</v>
       </c>
       <c r="C262" t="n">
-        <v>10965.2</v>
+        <v>10893.35</v>
       </c>
       <c r="D262" t="n">
-        <v>10799.07</v>
+        <v>10819.07</v>
       </c>
       <c r="E262" t="n">
-        <v>10810.45</v>
+        <v>10830.84</v>
       </c>
       <c r="G262" s="1">
         <f>AVERAGE(E258:E262)</f>
@@ -9073,16 +9073,16 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>10842.88</v>
+        <v>10861.66</v>
       </c>
       <c r="C263" t="n">
-        <v>10917.6</v>
+        <v>10979.1</v>
       </c>
       <c r="D263" t="n">
-        <v>10809.89</v>
+        <v>10861.66</v>
       </c>
       <c r="E263" t="n">
-        <v>10847.89</v>
+        <v>10966.2</v>
       </c>
       <c r="G263" s="1">
         <f>AVERAGE(E259:E263)</f>
@@ -9102,16 +9102,16 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>10891.66</v>
+        <v>10986.77</v>
       </c>
       <c r="C264" t="n">
-        <v>10983.96</v>
+        <v>11034.12</v>
       </c>
       <c r="D264" t="n">
-        <v>10889.71</v>
+        <v>10938.73</v>
       </c>
       <c r="E264" t="n">
-        <v>10971.22</v>
+        <v>10938.73</v>
       </c>
       <c r="G264" s="1">
         <f>AVERAGE(E260:E264)</f>
@@ -9131,16 +9131,16 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>10802.42</v>
+        <v>10974.52</v>
       </c>
       <c r="C265" t="n">
-        <v>10831.56</v>
+        <v>10991.86</v>
       </c>
       <c r="D265" t="n">
-        <v>10770.05</v>
+        <v>10886.18</v>
       </c>
       <c r="E265" t="n">
-        <v>10779.38</v>
+        <v>10886.18</v>
       </c>
       <c r="G265" s="1">
         <f>AVERAGE(E261:E265)</f>
@@ -9160,16 +9160,16 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>10756.89</v>
+        <v>10910.61</v>
       </c>
       <c r="C266" t="n">
-        <v>10774.73</v>
+        <v>10942.64</v>
       </c>
       <c r="D266" t="n">
-        <v>10687.25</v>
+        <v>10883.52</v>
       </c>
       <c r="E266" t="n">
-        <v>10697.13</v>
+        <v>10936.93</v>
       </c>
       <c r="G266" s="1">
         <f>AVERAGE(E262:E266)</f>
@@ -9189,16 +9189,16 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>10680.38</v>
+        <v>10946.62</v>
       </c>
       <c r="C267" t="n">
-        <v>10692.19</v>
+        <v>10977.81</v>
       </c>
       <c r="D267" t="n">
-        <v>10540.15</v>
+        <v>10918.12</v>
       </c>
       <c r="E267" t="n">
-        <v>10579.5</v>
+        <v>10942.3</v>
       </c>
       <c r="G267" s="1">
         <f>AVERAGE(E263:E267)</f>
@@ -9218,16 +9218,16 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>10541.83</v>
+        <v>10976.49</v>
       </c>
       <c r="C268" t="n">
-        <v>10573.73</v>
+        <v>10999.43</v>
       </c>
       <c r="D268" t="n">
-        <v>10489.2</v>
+        <v>10965.18</v>
       </c>
       <c r="E268" t="n">
-        <v>10559.97</v>
+        <v>10987.77</v>
       </c>
       <c r="G268" s="1">
         <f>AVERAGE(E264:E268)</f>
@@ -9247,16 +9247,16 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>10583.08</v>
+        <v>10979.68</v>
       </c>
       <c r="C269" t="n">
-        <v>10618.68</v>
+        <v>10986.53</v>
       </c>
       <c r="D269" t="n">
-        <v>10478.98</v>
+        <v>10929.56</v>
       </c>
       <c r="E269" t="n">
-        <v>10488.58</v>
+        <v>10964.12</v>
       </c>
       <c r="G269" s="1">
         <f>AVERAGE(E265:E269)</f>
@@ -9276,16 +9276,16 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>10546.29</v>
+        <v>10925.21</v>
       </c>
       <c r="C270" t="n">
-        <v>10573.61</v>
+        <v>10925.21</v>
       </c>
       <c r="D270" t="n">
-        <v>10495.67</v>
+        <v>10799.75</v>
       </c>
       <c r="E270" t="n">
-        <v>10553.43</v>
+        <v>10821.17</v>
       </c>
       <c r="G270" s="1">
         <f>AVERAGE(E266:E270)</f>
@@ -9305,16 +9305,16 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>10553.41</v>
+        <v>10856.03</v>
       </c>
       <c r="C271" t="n">
-        <v>10660.61</v>
+        <v>10909.61</v>
       </c>
       <c r="D271" t="n">
-        <v>10539.63</v>
+        <v>10853.65</v>
       </c>
       <c r="E271" t="n">
-        <v>10657.88</v>
+        <v>10874.96</v>
       </c>
       <c r="G271" s="1">
         <f>AVERAGE(E267:E271)</f>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TWSE_IDX" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,66 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2017/04/28</t>
-  </si>
-  <si>
-    <t>2017/05/02</t>
-  </si>
-  <si>
-    <t>2017/05/03</t>
-  </si>
-  <si>
-    <t>2017/05/04</t>
-  </si>
-  <si>
-    <t>2017/05/05</t>
-  </si>
-  <si>
-    <t>2017/05/08</t>
-  </si>
-  <si>
-    <t>2017/05/09</t>
-  </si>
-  <si>
-    <t>2017/05/10</t>
-  </si>
-  <si>
-    <t>2017/05/11</t>
-  </si>
-  <si>
-    <t>2017/05/12</t>
-  </si>
-  <si>
-    <t>2017/05/15</t>
-  </si>
-  <si>
-    <t>2017/05/16</t>
-  </si>
-  <si>
-    <t>2017/05/17</t>
-  </si>
-  <si>
-    <t>2017/05/18</t>
-  </si>
-  <si>
-    <t>2017/05/19</t>
-  </si>
-  <si>
-    <t>2017/05/22</t>
-  </si>
-  <si>
-    <t>2017/05/23</t>
-  </si>
-  <si>
-    <t>2017/05/24</t>
-  </si>
-  <si>
-    <t>2017/05/25</t>
-  </si>
-  <si>
-    <t>2017/05/26</t>
-  </si>
-  <si>
     <t>2017/05/31</t>
   </si>
   <si>
@@ -848,15 +788,73 @@
   </si>
   <si>
     <t>2018/05/31</t>
+  </si>
+  <si>
+    <t>2018/06/01</t>
+  </si>
+  <si>
+    <t>2018/06/04</t>
+  </si>
+  <si>
+    <t>2018/06/05</t>
+  </si>
+  <si>
+    <t>2018/06/06</t>
+  </si>
+  <si>
+    <t>2018/06/07</t>
+  </si>
+  <si>
+    <t>2018/06/08</t>
+  </si>
+  <si>
+    <t>2018/06/11</t>
+  </si>
+  <si>
+    <t>2018/06/12</t>
+  </si>
+  <si>
+    <t>2018/06/13</t>
+  </si>
+  <si>
+    <t>2018/06/14</t>
+  </si>
+  <si>
+    <t>2018/06/15</t>
+  </si>
+  <si>
+    <t>2018/06/19</t>
+  </si>
+  <si>
+    <t>2018/06/20</t>
+  </si>
+  <si>
+    <t>2018/06/21</t>
+  </si>
+  <si>
+    <t>2018/06/22</t>
+  </si>
+  <si>
+    <t>2018/06/25</t>
+  </si>
+  <si>
+    <t>2018/06/26</t>
+  </si>
+  <si>
+    <t>2018/06/27</t>
+  </si>
+  <si>
+    <t>2018/06/28</t>
+  </si>
+  <si>
+    <t>2018/06/29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="0.00" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -907,12 +905,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1346,6 +1345,17 @@
         <axId val="10"/>
         <axId val="100"/>
       </stockChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
       <valAx>
         <axId val="20"/>
         <scaling>
@@ -1353,6 +1363,8 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
         <crosses val="max"/>
       </valAx>
@@ -1374,18 +1386,12 @@
             </rich>
           </tx>
         </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
     </plotArea>
+    <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
 </chartSpace>
@@ -1717,7 +1723,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="15.7109375"/>
     <col customWidth="1" max="5" min="2" width="11.7109375"/>
-    <col customWidth="1" max="9" min="7" style="1" width="11.7109375"/>
+    <col customWidth="1" max="9" min="7" style="3" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1752,16 +1758,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>9868.379999999999</v>
+        <v>10095.95</v>
       </c>
       <c r="C2" t="n">
-        <v>9897.040000000001</v>
+        <v>10116.13</v>
       </c>
       <c r="D2" t="n">
-        <v>9845.84</v>
+        <v>10025.88</v>
       </c>
       <c r="E2" t="n">
-        <v>9872</v>
+        <v>10040.72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1769,16 +1775,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>9926.440000000001</v>
+        <v>10064.44</v>
       </c>
       <c r="C3" t="n">
-        <v>9951.139999999999</v>
+        <v>10100.37</v>
       </c>
       <c r="D3" t="n">
-        <v>9925.75</v>
+        <v>10059.93</v>
       </c>
       <c r="E3" t="n">
-        <v>9941.27</v>
+        <v>10087.42</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1786,16 +1792,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>9957.620000000001</v>
+        <v>10117.76</v>
       </c>
       <c r="C4" t="n">
-        <v>9979.91</v>
+        <v>10152.53</v>
       </c>
       <c r="D4" t="n">
-        <v>9937.99</v>
+        <v>10117.06</v>
       </c>
       <c r="E4" t="n">
-        <v>9955.33</v>
+        <v>10152.53</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1803,16 +1809,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>9962.73</v>
+        <v>10155.56</v>
       </c>
       <c r="C5" t="n">
-        <v>9973.76</v>
+        <v>10164.98</v>
       </c>
       <c r="D5" t="n">
-        <v>9938.959999999999</v>
+        <v>10140.28</v>
       </c>
       <c r="E5" t="n">
-        <v>9967.639999999999</v>
+        <v>10158.15</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1820,18 +1826,18 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>9954.940000000001</v>
+        <v>10164.89</v>
       </c>
       <c r="C6" t="n">
-        <v>9960.99</v>
+        <v>10226.84</v>
       </c>
       <c r="D6" t="n">
-        <v>9899.940000000001</v>
+        <v>10164.89</v>
       </c>
       <c r="E6" t="n">
-        <v>9899.940000000001</v>
-      </c>
-      <c r="G6" s="1">
+        <v>10226.84</v>
+      </c>
+      <c r="G6" s="3">
         <f>AVERAGE(E2:E6)</f>
         <v/>
       </c>
@@ -1841,18 +1847,18 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>9934.129999999999</v>
+        <v>10213.17</v>
       </c>
       <c r="C7" t="n">
-        <v>9964.860000000001</v>
+        <v>10221.64</v>
       </c>
       <c r="D7" t="n">
-        <v>9900.07</v>
+        <v>10190.39</v>
       </c>
       <c r="E7" t="n">
-        <v>9937.25</v>
-      </c>
-      <c r="G7" s="1">
+        <v>10206.18</v>
+      </c>
+      <c r="G7" s="3">
         <f>AVERAGE(E3:E7)</f>
         <v/>
       </c>
@@ -1862,18 +1868,18 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>9967.01</v>
+        <v>10216.14</v>
       </c>
       <c r="C8" t="n">
-        <v>10001.94</v>
+        <v>10242.39</v>
       </c>
       <c r="D8" t="n">
-        <v>9899.08</v>
+        <v>10183.15</v>
       </c>
       <c r="E8" t="n">
-        <v>9915.48</v>
-      </c>
-      <c r="G8" s="1">
+        <v>10209.99</v>
+      </c>
+      <c r="G8" s="3">
         <f>AVERAGE(E4:E8)</f>
         <v/>
       </c>
@@ -1883,18 +1889,18 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>9935.219999999999</v>
+        <v>10215.93</v>
       </c>
       <c r="C9" t="n">
-        <v>9971.98</v>
+        <v>10235.7</v>
       </c>
       <c r="D9" t="n">
-        <v>9932.17</v>
+        <v>10211</v>
       </c>
       <c r="E9" t="n">
-        <v>9968.32</v>
-      </c>
-      <c r="G9" s="1">
+        <v>10225.78</v>
+      </c>
+      <c r="G9" s="3">
         <f>AVERAGE(E5:E9)</f>
         <v/>
       </c>
@@ -1904,18 +1910,18 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>9968.51</v>
+        <v>10238.55</v>
       </c>
       <c r="C10" t="n">
-        <v>10018.79</v>
+        <v>10268.37</v>
       </c>
       <c r="D10" t="n">
-        <v>9964.299999999999</v>
+        <v>10198.8</v>
       </c>
       <c r="E10" t="n">
-        <v>10001.48</v>
-      </c>
-      <c r="G10" s="1">
+        <v>10199.65</v>
+      </c>
+      <c r="G10" s="3">
         <f>AVERAGE(E6:E10)</f>
         <v/>
       </c>
@@ -1925,18 +1931,18 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>9981.77</v>
+        <v>10137.04</v>
       </c>
       <c r="C11" t="n">
-        <v>10008.25</v>
+        <v>10158.64</v>
       </c>
       <c r="D11" t="n">
-        <v>9961.370000000001</v>
+        <v>10109.96</v>
       </c>
       <c r="E11" t="n">
-        <v>9986.82</v>
-      </c>
-      <c r="G11" s="1">
+        <v>10109.96</v>
+      </c>
+      <c r="G11" s="3">
         <f>AVERAGE(E7:E11)</f>
         <v/>
       </c>
@@ -1946,18 +1952,18 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>9978.280000000001</v>
+        <v>10109.7</v>
       </c>
       <c r="C12" t="n">
-        <v>10036.82</v>
+        <v>10146.67</v>
       </c>
       <c r="D12" t="n">
-        <v>9978.280000000001</v>
+        <v>10109.7</v>
       </c>
       <c r="E12" t="n">
-        <v>10036.82</v>
-      </c>
-      <c r="G12" s="1">
+        <v>10128.15</v>
+      </c>
+      <c r="G12" s="3">
         <f>AVERAGE(E8:E12)</f>
         <v/>
       </c>
@@ -1967,18 +1973,18 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>10037.58</v>
+        <v>10142.8</v>
       </c>
       <c r="C13" t="n">
-        <v>10058.59</v>
+        <v>10165.31</v>
       </c>
       <c r="D13" t="n">
-        <v>9991.08</v>
+        <v>10033.25</v>
       </c>
       <c r="E13" t="n">
-        <v>10031.49</v>
-      </c>
-      <c r="G13" s="1">
+        <v>10072.46</v>
+      </c>
+      <c r="G13" s="3">
         <f>AVERAGE(E9:E13)</f>
         <v/>
       </c>
@@ -1988,18 +1994,18 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>10019.62</v>
+        <v>10079.14</v>
       </c>
       <c r="C14" t="n">
-        <v>10029.62</v>
+        <v>10089.07</v>
       </c>
       <c r="D14" t="n">
-        <v>9967.969999999999</v>
+        <v>10046.8</v>
       </c>
       <c r="E14" t="n">
-        <v>10013.67</v>
-      </c>
-      <c r="G14" s="1">
+        <v>10088.35</v>
+      </c>
+      <c r="G14" s="3">
         <f>AVERAGE(E10:E14)</f>
         <v/>
       </c>
@@ -2009,18 +2015,18 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>9952.639999999999</v>
+        <v>10078.69</v>
       </c>
       <c r="C15" t="n">
-        <v>9969.450000000001</v>
+        <v>10159.47</v>
       </c>
       <c r="D15" t="n">
-        <v>9895.65</v>
+        <v>10073.12</v>
       </c>
       <c r="E15" t="n">
-        <v>9969.450000000001</v>
-      </c>
-      <c r="G15" s="1">
+        <v>10156.73</v>
+      </c>
+      <c r="G15" s="3">
         <f>AVERAGE(E11:E15)</f>
         <v/>
       </c>
@@ -2030,18 +2036,18 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>9970.4</v>
+        <v>10162.22</v>
       </c>
       <c r="C16" t="n">
-        <v>9979.73</v>
+        <v>10250.6</v>
       </c>
       <c r="D16" t="n">
-        <v>9947.139999999999</v>
+        <v>10162.22</v>
       </c>
       <c r="E16" t="n">
-        <v>9947.620000000001</v>
-      </c>
-      <c r="G16" s="1">
+        <v>10250.6</v>
+      </c>
+      <c r="G16" s="3">
         <f>AVERAGE(E12:E16)</f>
         <v/>
       </c>
@@ -2051,18 +2057,18 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>9965.08</v>
+        <v>10286.79</v>
       </c>
       <c r="C17" t="n">
-        <v>9997.26</v>
+        <v>10354.37</v>
       </c>
       <c r="D17" t="n">
-        <v>9960.940000000001</v>
+        <v>10286.79</v>
       </c>
       <c r="E17" t="n">
-        <v>9997.26</v>
-      </c>
-      <c r="G17" s="1">
+        <v>10324.46</v>
+      </c>
+      <c r="G17" s="3">
         <f>AVERAGE(E13:E17)</f>
         <v/>
       </c>
@@ -2072,18 +2078,18 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>9994.68</v>
+        <v>10310.97</v>
       </c>
       <c r="C18" t="n">
-        <v>10038.2</v>
+        <v>10379.82</v>
       </c>
       <c r="D18" t="n">
-        <v>9992.58</v>
+        <v>10274.75</v>
       </c>
       <c r="E18" t="n">
-        <v>10007.84</v>
-      </c>
-      <c r="G18" s="1">
+        <v>10349.72</v>
+      </c>
+      <c r="G18" s="3">
         <f>AVERAGE(E14:E18)</f>
         <v/>
       </c>
@@ -2093,18 +2099,18 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>10014.15</v>
+        <v>10369.08</v>
       </c>
       <c r="C19" t="n">
-        <v>10059.74</v>
+        <v>10403.36</v>
       </c>
       <c r="D19" t="n">
-        <v>10014.15</v>
+        <v>10368.93</v>
       </c>
       <c r="E19" t="n">
-        <v>10044.42</v>
-      </c>
-      <c r="G19" s="1">
+        <v>10399.06</v>
+      </c>
+      <c r="G19" s="3">
         <f>AVERAGE(E15:E19)</f>
         <v/>
       </c>
@@ -2114,18 +2120,18 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>10059.91</v>
+        <v>10403.56</v>
       </c>
       <c r="C20" t="n">
-        <v>10108.49</v>
+        <v>10422.33</v>
       </c>
       <c r="D20" t="n">
-        <v>10059.2</v>
+        <v>10374.01</v>
       </c>
       <c r="E20" t="n">
-        <v>10108.49</v>
-      </c>
-      <c r="G20" s="1">
+        <v>10377.7</v>
+      </c>
+      <c r="G20" s="3">
         <f>AVERAGE(E16:E20)</f>
         <v/>
       </c>
@@ -2135,18 +2141,18 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>10090.18</v>
+        <v>10341.86</v>
       </c>
       <c r="C21" t="n">
-        <v>10121.88</v>
+        <v>10513.96</v>
       </c>
       <c r="D21" t="n">
-        <v>10072.84</v>
+        <v>10341.86</v>
       </c>
       <c r="E21" t="n">
-        <v>10101.95</v>
-      </c>
-      <c r="G21" s="1">
+        <v>10513.96</v>
+      </c>
+      <c r="G21" s="3">
         <f>AVERAGE(E17:E21)</f>
         <v/>
       </c>
@@ -2156,18 +2162,18 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>10095.95</v>
+        <v>10513</v>
       </c>
       <c r="C22" t="n">
-        <v>10116.13</v>
+        <v>10545.7</v>
       </c>
       <c r="D22" t="n">
-        <v>10025.88</v>
+        <v>10489.1</v>
       </c>
       <c r="E22" t="n">
-        <v>10040.72</v>
-      </c>
-      <c r="G22" s="1">
+        <v>10512.06</v>
+      </c>
+      <c r="G22" s="3">
         <f>AVERAGE(E18:E22)</f>
         <v/>
       </c>
@@ -2177,18 +2183,18 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>10064.44</v>
+        <v>10459.17</v>
       </c>
       <c r="C23" t="n">
-        <v>10100.37</v>
+        <v>10459.17</v>
       </c>
       <c r="D23" t="n">
-        <v>10059.93</v>
+        <v>10382.81</v>
       </c>
       <c r="E23" t="n">
-        <v>10087.42</v>
-      </c>
-      <c r="G23" s="1">
+        <v>10390.55</v>
+      </c>
+      <c r="G23" s="3">
         <f>AVERAGE(E19:E23)</f>
         <v/>
       </c>
@@ -2198,18 +2204,18 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>10117.76</v>
+        <v>10442.18</v>
       </c>
       <c r="C24" t="n">
-        <v>10152.53</v>
+        <v>10476.51</v>
       </c>
       <c r="D24" t="n">
-        <v>10117.06</v>
+        <v>10390.9</v>
       </c>
       <c r="E24" t="n">
-        <v>10152.53</v>
-      </c>
-      <c r="G24" s="1">
+        <v>10421.65</v>
+      </c>
+      <c r="G24" s="3">
         <f>AVERAGE(E20:E24)</f>
         <v/>
       </c>
@@ -2219,18 +2225,18 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>10155.56</v>
+        <v>10367.26</v>
       </c>
       <c r="C25" t="n">
-        <v>10164.98</v>
+        <v>10395.07</v>
       </c>
       <c r="D25" t="n">
-        <v>10140.28</v>
+        <v>10329.84</v>
       </c>
       <c r="E25" t="n">
-        <v>10158.15</v>
-      </c>
-      <c r="G25" s="1">
+        <v>10395.07</v>
+      </c>
+      <c r="G25" s="3">
         <f>AVERAGE(E21:E25)</f>
         <v/>
       </c>
@@ -2240,18 +2246,18 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10164.89</v>
+        <v>10368.99</v>
       </c>
       <c r="C26" t="n">
-        <v>10226.84</v>
+        <v>10412.79</v>
       </c>
       <c r="D26" t="n">
-        <v>10164.89</v>
+        <v>10363.5</v>
       </c>
       <c r="E26" t="n">
-        <v>10226.84</v>
-      </c>
-      <c r="G26" s="1">
+        <v>10412.79</v>
+      </c>
+      <c r="G26" s="3">
         <f>AVERAGE(E22:E26)</f>
         <v/>
       </c>
@@ -2261,18 +2267,18 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>10213.17</v>
+        <v>10397.93</v>
       </c>
       <c r="C27" t="n">
-        <v>10221.64</v>
+        <v>10421.72</v>
       </c>
       <c r="D27" t="n">
-        <v>10190.39</v>
+        <v>10347.78</v>
       </c>
       <c r="E27" t="n">
-        <v>10206.18</v>
-      </c>
-      <c r="G27" s="1">
+        <v>10347.78</v>
+      </c>
+      <c r="G27" s="3">
         <f>AVERAGE(E23:E27)</f>
         <v/>
       </c>
@@ -2282,18 +2288,18 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10216.14</v>
+        <v>10352.39</v>
       </c>
       <c r="C28" t="n">
-        <v>10242.39</v>
+        <v>10404.79</v>
       </c>
       <c r="D28" t="n">
-        <v>10183.15</v>
+        <v>10304.74</v>
       </c>
       <c r="E28" t="n">
-        <v>10209.99</v>
-      </c>
-      <c r="G28" s="1">
+        <v>10404.79</v>
+      </c>
+      <c r="G28" s="3">
         <f>AVERAGE(E24:E28)</f>
         <v/>
       </c>
@@ -2303,18 +2309,18 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10215.93</v>
+        <v>10380.66</v>
       </c>
       <c r="C29" t="n">
-        <v>10235.7</v>
+        <v>10381.2</v>
       </c>
       <c r="D29" t="n">
-        <v>10211</v>
+        <v>10336.32</v>
       </c>
       <c r="E29" t="n">
-        <v>10225.78</v>
-      </c>
-      <c r="G29" s="1">
+        <v>10368.2</v>
+      </c>
+      <c r="G29" s="3">
         <f>AVERAGE(E25:E29)</f>
         <v/>
       </c>
@@ -2324,18 +2330,18 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10238.55</v>
+        <v>10343.3</v>
       </c>
       <c r="C30" t="n">
-        <v>10268.37</v>
+        <v>10343.3</v>
       </c>
       <c r="D30" t="n">
-        <v>10198.8</v>
+        <v>10294.69</v>
       </c>
       <c r="E30" t="n">
-        <v>10199.65</v>
-      </c>
-      <c r="G30" s="1">
+        <v>10297.25</v>
+      </c>
+      <c r="G30" s="3">
         <f>AVERAGE(E26:E30)</f>
         <v/>
       </c>
@@ -2345,26 +2351,26 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10137.04</v>
+        <v>10310.74</v>
       </c>
       <c r="C31" t="n">
-        <v>10158.64</v>
+        <v>10331.11</v>
       </c>
       <c r="D31" t="n">
-        <v>10109.96</v>
+        <v>10283.95</v>
       </c>
       <c r="E31" t="n">
-        <v>10109.96</v>
-      </c>
-      <c r="G31" s="1">
+        <v>10289.91</v>
+      </c>
+      <c r="G31" s="3">
         <f>AVERAGE(E27:E31)</f>
         <v/>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <f>AVERAGE(E2:E31)</f>
         <v/>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <f>G31-H31</f>
         <v/>
       </c>
@@ -2374,26 +2380,26 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10109.7</v>
+        <v>10313.08</v>
       </c>
       <c r="C32" t="n">
-        <v>10146.67</v>
+        <v>10415.57</v>
       </c>
       <c r="D32" t="n">
-        <v>10109.7</v>
+        <v>10313.08</v>
       </c>
       <c r="E32" t="n">
-        <v>10128.15</v>
-      </c>
-      <c r="G32" s="1">
+        <v>10415.57</v>
+      </c>
+      <c r="G32" s="3">
         <f>AVERAGE(E28:E32)</f>
         <v/>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <f>AVERAGE(E3:E32)</f>
         <v/>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="3">
         <f>G32-H32</f>
         <v/>
       </c>
@@ -2403,26 +2409,26 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10142.8</v>
+        <v>10396.97</v>
       </c>
       <c r="C33" t="n">
-        <v>10165.31</v>
+        <v>10450.87</v>
       </c>
       <c r="D33" t="n">
-        <v>10033.25</v>
+        <v>10393.54</v>
       </c>
       <c r="E33" t="n">
-        <v>10072.46</v>
-      </c>
-      <c r="G33" s="1">
+        <v>10420.68</v>
+      </c>
+      <c r="G33" s="3">
         <f>AVERAGE(E29:E33)</f>
         <v/>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <f>AVERAGE(E4:E33)</f>
         <v/>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <f>G33-H33</f>
         <v/>
       </c>
@@ -2432,26 +2438,26 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>10079.14</v>
+        <v>10418.74</v>
       </c>
       <c r="C34" t="n">
-        <v>10089.07</v>
+        <v>10485.28</v>
       </c>
       <c r="D34" t="n">
-        <v>10046.8</v>
+        <v>10418.74</v>
       </c>
       <c r="E34" t="n">
-        <v>10088.35</v>
-      </c>
-      <c r="G34" s="1">
+        <v>10460.15</v>
+      </c>
+      <c r="G34" s="3">
         <f>AVERAGE(E30:E34)</f>
         <v/>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <f>AVERAGE(E5:E34)</f>
         <v/>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <f>G34-H34</f>
         <v/>
       </c>
@@ -2461,26 +2467,26 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10078.69</v>
+        <v>10450.92</v>
       </c>
       <c r="C35" t="n">
-        <v>10159.47</v>
+        <v>10466.34</v>
       </c>
       <c r="D35" t="n">
-        <v>10073.12</v>
+        <v>10423.4</v>
       </c>
       <c r="E35" t="n">
-        <v>10156.73</v>
-      </c>
-      <c r="G35" s="1">
+        <v>10443.91</v>
+      </c>
+      <c r="G35" s="3">
         <f>AVERAGE(E31:E35)</f>
         <v/>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <f>AVERAGE(E6:E35)</f>
         <v/>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <f>G35-H35</f>
         <v/>
       </c>
@@ -2490,26 +2496,26 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10162.22</v>
+        <v>10467.27</v>
       </c>
       <c r="C36" t="n">
-        <v>10250.6</v>
+        <v>10490.05</v>
       </c>
       <c r="D36" t="n">
-        <v>10162.22</v>
+        <v>10436.31</v>
       </c>
       <c r="E36" t="n">
-        <v>10250.6</v>
-      </c>
-      <c r="G36" s="1">
+        <v>10457.54</v>
+      </c>
+      <c r="G36" s="3">
         <f>AVERAGE(E32:E36)</f>
         <v/>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <f>AVERAGE(E7:E36)</f>
         <v/>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="3">
         <f>G36-H36</f>
         <v/>
       </c>
@@ -2519,26 +2525,26 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>10286.79</v>
+        <v>10447.47</v>
       </c>
       <c r="C37" t="n">
-        <v>10354.37</v>
+        <v>10481.26</v>
       </c>
       <c r="D37" t="n">
-        <v>10286.79</v>
+        <v>10429.85</v>
       </c>
       <c r="E37" t="n">
-        <v>10324.46</v>
-      </c>
-      <c r="G37" s="1">
+        <v>10481.26</v>
+      </c>
+      <c r="G37" s="3">
         <f>AVERAGE(E33:E37)</f>
         <v/>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="3">
         <f>AVERAGE(E8:E37)</f>
         <v/>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="3">
         <f>G37-H37</f>
         <v/>
       </c>
@@ -2548,26 +2554,26 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>10310.97</v>
+        <v>10472.81</v>
       </c>
       <c r="C38" t="n">
-        <v>10379.82</v>
+        <v>10537.42</v>
       </c>
       <c r="D38" t="n">
-        <v>10274.75</v>
+        <v>10472.81</v>
       </c>
       <c r="E38" t="n">
-        <v>10349.72</v>
-      </c>
-      <c r="G38" s="1">
+        <v>10506.1</v>
+      </c>
+      <c r="G38" s="3">
         <f>AVERAGE(E34:E38)</f>
         <v/>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <f>AVERAGE(E9:E38)</f>
         <v/>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="3">
         <f>G38-H38</f>
         <v/>
       </c>
@@ -2577,26 +2583,26 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10369.08</v>
+        <v>10513.12</v>
       </c>
       <c r="C39" t="n">
-        <v>10403.36</v>
+        <v>10534.52</v>
       </c>
       <c r="D39" t="n">
-        <v>10368.93</v>
+        <v>10483.54</v>
       </c>
       <c r="E39" t="n">
-        <v>10399.06</v>
-      </c>
-      <c r="G39" s="1">
+        <v>10499.36</v>
+      </c>
+      <c r="G39" s="3">
         <f>AVERAGE(E35:E39)</f>
         <v/>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="3">
         <f>AVERAGE(E10:E39)</f>
         <v/>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="3">
         <f>G39-H39</f>
         <v/>
       </c>
@@ -2606,26 +2612,26 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>10403.56</v>
+        <v>10468.47</v>
       </c>
       <c r="C40" t="n">
-        <v>10422.33</v>
+        <v>10477.72</v>
       </c>
       <c r="D40" t="n">
-        <v>10374.01</v>
+        <v>10428.56</v>
       </c>
       <c r="E40" t="n">
-        <v>10377.7</v>
-      </c>
-      <c r="G40" s="1">
+        <v>10436.7</v>
+      </c>
+      <c r="G40" s="3">
         <f>AVERAGE(E36:E40)</f>
         <v/>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="3">
         <f>AVERAGE(E11:E40)</f>
         <v/>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="3">
         <f>G40-H40</f>
         <v/>
       </c>
@@ -2635,26 +2641,26 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10341.86</v>
+        <v>10426.13</v>
       </c>
       <c r="C41" t="n">
-        <v>10513.96</v>
+        <v>10461.28</v>
       </c>
       <c r="D41" t="n">
-        <v>10341.86</v>
+        <v>10406.81</v>
       </c>
       <c r="E41" t="n">
-        <v>10513.96</v>
-      </c>
-      <c r="G41" s="1">
+        <v>10461.28</v>
+      </c>
+      <c r="G41" s="3">
         <f>AVERAGE(E37:E41)</f>
         <v/>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="3">
         <f>AVERAGE(E12:E41)</f>
         <v/>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="3">
         <f>G41-H41</f>
         <v/>
       </c>
@@ -2664,26 +2670,26 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10513</v>
+        <v>10455.14</v>
       </c>
       <c r="C42" t="n">
-        <v>10545.7</v>
+        <v>10473.98</v>
       </c>
       <c r="D42" t="n">
-        <v>10489.1</v>
+        <v>10442.85</v>
       </c>
       <c r="E42" t="n">
-        <v>10512.06</v>
-      </c>
-      <c r="G42" s="1">
+        <v>10463.15</v>
+      </c>
+      <c r="G42" s="3">
         <f>AVERAGE(E38:E42)</f>
         <v/>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="3">
         <f>AVERAGE(E13:E42)</f>
         <v/>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="3">
         <f>G42-H42</f>
         <v/>
       </c>
@@ -2693,26 +2699,26 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10459.17</v>
+        <v>10477.15</v>
       </c>
       <c r="C43" t="n">
-        <v>10459.17</v>
+        <v>10500.11</v>
       </c>
       <c r="D43" t="n">
-        <v>10382.81</v>
+        <v>10416.57</v>
       </c>
       <c r="E43" t="n">
-        <v>10390.55</v>
-      </c>
-      <c r="G43" s="1">
+        <v>10419.11</v>
+      </c>
+      <c r="G43" s="3">
         <f>AVERAGE(E39:E43)</f>
         <v/>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="3">
         <f>AVERAGE(E14:E43)</f>
         <v/>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="3">
         <f>G43-H43</f>
         <v/>
       </c>
@@ -2722,26 +2728,26 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10442.18</v>
+        <v>10427.83</v>
       </c>
       <c r="C44" t="n">
-        <v>10476.51</v>
+        <v>10516.23</v>
       </c>
       <c r="D44" t="n">
-        <v>10390.9</v>
+        <v>10427.83</v>
       </c>
       <c r="E44" t="n">
-        <v>10421.65</v>
-      </c>
-      <c r="G44" s="1">
+        <v>10508.37</v>
+      </c>
+      <c r="G44" s="3">
         <f>AVERAGE(E40:E44)</f>
         <v/>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="3">
         <f>AVERAGE(E15:E44)</f>
         <v/>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="3">
         <f>G44-H44</f>
         <v/>
       </c>
@@ -2751,26 +2757,26 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10367.26</v>
+        <v>10480.67</v>
       </c>
       <c r="C45" t="n">
-        <v>10395.07</v>
+        <v>10480.67</v>
       </c>
       <c r="D45" t="n">
-        <v>10329.84</v>
+        <v>10410.53</v>
       </c>
       <c r="E45" t="n">
-        <v>10395.07</v>
-      </c>
-      <c r="G45" s="1">
+        <v>10423.05</v>
+      </c>
+      <c r="G45" s="3">
         <f>AVERAGE(E41:E45)</f>
         <v/>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="3">
         <f>AVERAGE(E16:E45)</f>
         <v/>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="3">
         <f>G45-H45</f>
         <v/>
       </c>
@@ -2780,26 +2786,26 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10368.99</v>
+        <v>10396.76</v>
       </c>
       <c r="C46" t="n">
-        <v>10412.79</v>
+        <v>10427.33</v>
       </c>
       <c r="D46" t="n">
-        <v>10363.5</v>
+        <v>10366.17</v>
       </c>
       <c r="E46" t="n">
-        <v>10412.79</v>
-      </c>
-      <c r="G46" s="1">
+        <v>10427.33</v>
+      </c>
+      <c r="G46" s="3">
         <f>AVERAGE(E42:E46)</f>
         <v/>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="3">
         <f>AVERAGE(E17:E46)</f>
         <v/>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="3">
         <f>G46-H46</f>
         <v/>
       </c>
@@ -2809,26 +2815,26 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10397.93</v>
+        <v>10408.53</v>
       </c>
       <c r="C47" t="n">
-        <v>10421.72</v>
+        <v>10470.03</v>
       </c>
       <c r="D47" t="n">
-        <v>10347.78</v>
+        <v>10408.53</v>
       </c>
       <c r="E47" t="n">
-        <v>10347.78</v>
-      </c>
-      <c r="G47" s="1">
+        <v>10437.29</v>
+      </c>
+      <c r="G47" s="3">
         <f>AVERAGE(E43:E47)</f>
         <v/>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="3">
         <f>AVERAGE(E18:E47)</f>
         <v/>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="3">
         <f>G47-H47</f>
         <v/>
       </c>
@@ -2838,26 +2844,26 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>10352.39</v>
+        <v>10479.26</v>
       </c>
       <c r="C48" t="n">
-        <v>10404.79</v>
+        <v>10519.27</v>
       </c>
       <c r="D48" t="n">
-        <v>10304.74</v>
+        <v>10479.26</v>
       </c>
       <c r="E48" t="n">
-        <v>10404.79</v>
-      </c>
-      <c r="G48" s="1">
+        <v>10519.27</v>
+      </c>
+      <c r="G48" s="3">
         <f>AVERAGE(E44:E48)</f>
         <v/>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="3">
         <f>AVERAGE(E19:E48)</f>
         <v/>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="3">
         <f>G48-H48</f>
         <v/>
       </c>
@@ -2867,26 +2873,26 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10380.66</v>
+        <v>10464.1</v>
       </c>
       <c r="C49" t="n">
-        <v>10381.2</v>
+        <v>10478.62</v>
       </c>
       <c r="D49" t="n">
-        <v>10336.32</v>
+        <v>10427.72</v>
       </c>
       <c r="E49" t="n">
-        <v>10368.2</v>
-      </c>
-      <c r="G49" s="1">
+        <v>10469.88</v>
+      </c>
+      <c r="G49" s="3">
         <f>AVERAGE(E45:E49)</f>
         <v/>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="3">
         <f>AVERAGE(E20:E49)</f>
         <v/>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="3">
         <f>G49-H49</f>
         <v/>
       </c>
@@ -2896,26 +2902,26 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10343.3</v>
+        <v>10470.96</v>
       </c>
       <c r="C50" t="n">
-        <v>10343.3</v>
+        <v>10510.7</v>
       </c>
       <c r="D50" t="n">
-        <v>10294.69</v>
+        <v>10466.25</v>
       </c>
       <c r="E50" t="n">
-        <v>10297.25</v>
-      </c>
-      <c r="G50" s="1">
+        <v>10506.56</v>
+      </c>
+      <c r="G50" s="3">
         <f>AVERAGE(E46:E50)</f>
         <v/>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="3">
         <f>AVERAGE(E21:E50)</f>
         <v/>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="3">
         <f>G50-H50</f>
         <v/>
       </c>
@@ -2925,26 +2931,26 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10310.74</v>
+        <v>10521.69</v>
       </c>
       <c r="C51" t="n">
-        <v>10331.11</v>
+        <v>10592.31</v>
       </c>
       <c r="D51" t="n">
-        <v>10283.95</v>
+        <v>10521.69</v>
       </c>
       <c r="E51" t="n">
-        <v>10289.91</v>
-      </c>
-      <c r="G51" s="1">
+        <v>10579.38</v>
+      </c>
+      <c r="G51" s="3">
         <f>AVERAGE(E47:E51)</f>
         <v/>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="3">
         <f>AVERAGE(E22:E51)</f>
         <v/>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="3">
         <f>G51-H51</f>
         <v/>
       </c>
@@ -2954,26 +2960,26 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10313.08</v>
+        <v>10598.59</v>
       </c>
       <c r="C52" t="n">
-        <v>10415.57</v>
+        <v>10619.42</v>
       </c>
       <c r="D52" t="n">
-        <v>10313.08</v>
+        <v>10533.72</v>
       </c>
       <c r="E52" t="n">
-        <v>10415.57</v>
-      </c>
-      <c r="G52" s="1">
+        <v>10568.97</v>
+      </c>
+      <c r="G52" s="3">
         <f>AVERAGE(E48:E52)</f>
         <v/>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="3">
         <f>AVERAGE(E23:E52)</f>
         <v/>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="3">
         <f>G52-H52</f>
         <v/>
       </c>
@@ -2983,26 +2989,26 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10396.97</v>
+        <v>10523.51</v>
       </c>
       <c r="C53" t="n">
-        <v>10450.87</v>
+        <v>10536.19</v>
       </c>
       <c r="D53" t="n">
-        <v>10393.54</v>
+        <v>10457.52</v>
       </c>
       <c r="E53" t="n">
-        <v>10420.68</v>
-      </c>
-      <c r="G53" s="1">
+        <v>10470.38</v>
+      </c>
+      <c r="G53" s="3">
         <f>AVERAGE(E49:E53)</f>
         <v/>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="3">
         <f>AVERAGE(E24:E53)</f>
         <v/>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="3">
         <f>G53-H53</f>
         <v/>
       </c>
@@ -3012,26 +3018,26 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10418.74</v>
+        <v>10470.03</v>
       </c>
       <c r="C54" t="n">
-        <v>10485.28</v>
+        <v>10477.79</v>
       </c>
       <c r="D54" t="n">
-        <v>10418.74</v>
+        <v>10303.47</v>
       </c>
       <c r="E54" t="n">
-        <v>10460.15</v>
-      </c>
-      <c r="G54" s="1">
+        <v>10329.74</v>
+      </c>
+      <c r="G54" s="3">
         <f>AVERAGE(E50:E54)</f>
         <v/>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="3">
         <f>AVERAGE(E25:E54)</f>
         <v/>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="3">
         <f>G54-H54</f>
         <v/>
       </c>
@@ -3041,26 +3047,26 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10450.92</v>
+        <v>10267.05</v>
       </c>
       <c r="C55" t="n">
-        <v>10466.34</v>
+        <v>10338.06</v>
       </c>
       <c r="D55" t="n">
-        <v>10423.4</v>
+        <v>10238.5</v>
       </c>
       <c r="E55" t="n">
-        <v>10443.91</v>
-      </c>
-      <c r="G55" s="1">
+        <v>10329.57</v>
+      </c>
+      <c r="G55" s="3">
         <f>AVERAGE(E51:E55)</f>
         <v/>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="3">
         <f>AVERAGE(E26:E55)</f>
         <v/>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="3">
         <f>G55-H55</f>
         <v/>
       </c>
@@ -3070,26 +3076,26 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10467.27</v>
+        <v>10347.66</v>
       </c>
       <c r="C56" t="n">
-        <v>10490.05</v>
+        <v>10365.22</v>
       </c>
       <c r="D56" t="n">
-        <v>10436.31</v>
+        <v>10225.28</v>
       </c>
       <c r="E56" t="n">
-        <v>10457.54</v>
-      </c>
-      <c r="G56" s="1">
+        <v>10225.28</v>
+      </c>
+      <c r="G56" s="3">
         <f>AVERAGE(E52:E56)</f>
         <v/>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="3">
         <f>AVERAGE(E27:E56)</f>
         <v/>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="3">
         <f>G56-H56</f>
         <v/>
       </c>
@@ -3099,26 +3105,26 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10447.47</v>
+        <v>10271.03</v>
       </c>
       <c r="C57" t="n">
-        <v>10481.26</v>
+        <v>10336.22</v>
       </c>
       <c r="D57" t="n">
-        <v>10429.85</v>
+        <v>10271.03</v>
       </c>
       <c r="E57" t="n">
-        <v>10481.26</v>
-      </c>
-      <c r="G57" s="1">
+        <v>10311.16</v>
+      </c>
+      <c r="G57" s="3">
         <f>AVERAGE(E53:E57)</f>
         <v/>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="3">
         <f>AVERAGE(E28:E57)</f>
         <v/>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="3">
         <f>G57-H57</f>
         <v/>
       </c>
@@ -3128,26 +3134,26 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10472.81</v>
+        <v>10302.83</v>
       </c>
       <c r="C58" t="n">
-        <v>10537.42</v>
+        <v>10322.38</v>
       </c>
       <c r="D58" t="n">
-        <v>10472.81</v>
+        <v>10245.72</v>
       </c>
       <c r="E58" t="n">
-        <v>10506.1</v>
-      </c>
-      <c r="G58" s="1">
+        <v>10290.39</v>
+      </c>
+      <c r="G58" s="3">
         <f>AVERAGE(E54:E58)</f>
         <v/>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="3">
         <f>AVERAGE(E29:E58)</f>
         <v/>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="3">
         <f>G58-H58</f>
         <v/>
       </c>
@@ -3157,26 +3163,26 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10513.12</v>
+        <v>10302.54</v>
       </c>
       <c r="C59" t="n">
-        <v>10534.52</v>
+        <v>10372.41</v>
       </c>
       <c r="D59" t="n">
-        <v>10483.54</v>
+        <v>10302.54</v>
       </c>
       <c r="E59" t="n">
-        <v>10499.36</v>
-      </c>
-      <c r="G59" s="1">
+        <v>10369.37</v>
+      </c>
+      <c r="G59" s="3">
         <f>AVERAGE(E55:E59)</f>
         <v/>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="3">
         <f>AVERAGE(E30:E59)</f>
         <v/>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="3">
         <f>G59-H59</f>
         <v/>
       </c>
@@ -3186,26 +3192,26 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10468.47</v>
+        <v>10324.83</v>
       </c>
       <c r="C60" t="n">
-        <v>10477.72</v>
+        <v>10330.39</v>
       </c>
       <c r="D60" t="n">
-        <v>10428.56</v>
+        <v>10259.83</v>
       </c>
       <c r="E60" t="n">
-        <v>10436.7</v>
-      </c>
-      <c r="G60" s="1">
+        <v>10321.33</v>
+      </c>
+      <c r="G60" s="3">
         <f>AVERAGE(E56:E60)</f>
         <v/>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="3">
         <f>AVERAGE(E31:E60)</f>
         <v/>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="3">
         <f>G60-H60</f>
         <v/>
       </c>
@@ -3215,26 +3221,26 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10426.13</v>
+        <v>10316.09</v>
       </c>
       <c r="C61" t="n">
-        <v>10461.28</v>
+        <v>10336.37</v>
       </c>
       <c r="D61" t="n">
-        <v>10406.81</v>
+        <v>10282.72</v>
       </c>
       <c r="E61" t="n">
-        <v>10461.28</v>
-      </c>
-      <c r="G61" s="1">
+        <v>10326.39</v>
+      </c>
+      <c r="G61" s="3">
         <f>AVERAGE(E57:E61)</f>
         <v/>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="3">
         <f>AVERAGE(E32:E61)</f>
         <v/>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="3">
         <f>G61-H61</f>
         <v/>
       </c>
@@ -3244,26 +3250,26 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10455.14</v>
+        <v>10353.37</v>
       </c>
       <c r="C62" t="n">
-        <v>10473.98</v>
+        <v>10410.47</v>
       </c>
       <c r="D62" t="n">
-        <v>10442.85</v>
+        <v>10353.37</v>
       </c>
       <c r="E62" t="n">
-        <v>10463.15</v>
-      </c>
-      <c r="G62" s="1">
+        <v>10392.07</v>
+      </c>
+      <c r="G62" s="3">
         <f>AVERAGE(E58:E62)</f>
         <v/>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="3">
         <f>AVERAGE(E33:E62)</f>
         <v/>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="3">
         <f>G62-H62</f>
         <v/>
       </c>
@@ -3273,26 +3279,26 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10477.15</v>
+        <v>10418.32</v>
       </c>
       <c r="C63" t="n">
-        <v>10500.11</v>
+        <v>10458.91</v>
       </c>
       <c r="D63" t="n">
-        <v>10416.57</v>
+        <v>10378.01</v>
       </c>
       <c r="E63" t="n">
-        <v>10419.11</v>
-      </c>
-      <c r="G63" s="1">
+        <v>10406.81</v>
+      </c>
+      <c r="G63" s="3">
         <f>AVERAGE(E59:E63)</f>
         <v/>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="3">
         <f>AVERAGE(E34:E63)</f>
         <v/>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="3">
         <f>G63-H63</f>
         <v/>
       </c>
@@ -3302,26 +3308,26 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10427.83</v>
+        <v>10414.66</v>
       </c>
       <c r="C64" t="n">
-        <v>10516.23</v>
+        <v>10488.96</v>
       </c>
       <c r="D64" t="n">
-        <v>10427.83</v>
+        <v>10410.73</v>
       </c>
       <c r="E64" t="n">
-        <v>10508.37</v>
-      </c>
-      <c r="G64" s="1">
+        <v>10488.96</v>
+      </c>
+      <c r="G64" s="3">
         <f>AVERAGE(E60:E64)</f>
         <v/>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="3">
         <f>AVERAGE(E35:E64)</f>
         <v/>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="3">
         <f>G64-H64</f>
         <v/>
       </c>
@@ -3331,26 +3337,26 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10480.67</v>
+        <v>10497.86</v>
       </c>
       <c r="C65" t="n">
-        <v>10480.67</v>
+        <v>10519.84</v>
       </c>
       <c r="D65" t="n">
-        <v>10410.53</v>
+        <v>10478.72</v>
       </c>
       <c r="E65" t="n">
-        <v>10423.05</v>
-      </c>
-      <c r="G65" s="1">
+        <v>10515.51</v>
+      </c>
+      <c r="G65" s="3">
         <f>AVERAGE(E61:E65)</f>
         <v/>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="3">
         <f>AVERAGE(E36:E65)</f>
         <v/>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="3">
         <f>G65-H65</f>
         <v/>
       </c>
@@ -3360,26 +3366,26 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10396.76</v>
+        <v>10502.8</v>
       </c>
       <c r="C66" t="n">
-        <v>10427.33</v>
+        <v>10542.37</v>
       </c>
       <c r="D66" t="n">
-        <v>10366.17</v>
+        <v>10498.88</v>
       </c>
       <c r="E66" t="n">
-        <v>10427.33</v>
-      </c>
-      <c r="G66" s="1">
+        <v>10525.98</v>
+      </c>
+      <c r="G66" s="3">
         <f>AVERAGE(E62:E66)</f>
         <v/>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="3">
         <f>AVERAGE(E37:E66)</f>
         <v/>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="3">
         <f>G66-H66</f>
         <v/>
       </c>
@@ -3389,26 +3395,26 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10408.53</v>
+        <v>10518.69</v>
       </c>
       <c r="C67" t="n">
-        <v>10470.03</v>
+        <v>10518.69</v>
       </c>
       <c r="D67" t="n">
-        <v>10408.53</v>
+        <v>10463.22</v>
       </c>
       <c r="E67" t="n">
-        <v>10437.29</v>
-      </c>
-      <c r="G67" s="1">
+        <v>10496.57</v>
+      </c>
+      <c r="G67" s="3">
         <f>AVERAGE(E63:E67)</f>
         <v/>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="3">
         <f>AVERAGE(E38:E67)</f>
         <v/>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="3">
         <f>G67-H67</f>
         <v/>
       </c>
@@ -3418,26 +3424,26 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>10479.26</v>
+        <v>10511.59</v>
       </c>
       <c r="C68" t="n">
-        <v>10519.27</v>
+        <v>10574.53</v>
       </c>
       <c r="D68" t="n">
-        <v>10479.26</v>
+        <v>10511.59</v>
       </c>
       <c r="E68" t="n">
-        <v>10519.27</v>
-      </c>
-      <c r="G68" s="1">
+        <v>10569.4</v>
+      </c>
+      <c r="G68" s="3">
         <f>AVERAGE(E64:E68)</f>
         <v/>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="3">
         <f>AVERAGE(E39:E68)</f>
         <v/>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="3">
         <f>G68-H68</f>
         <v/>
       </c>
@@ -3447,26 +3453,26 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>10464.1</v>
+        <v>10586.65</v>
       </c>
       <c r="C69" t="n">
-        <v>10478.62</v>
+        <v>10609.48</v>
       </c>
       <c r="D69" t="n">
-        <v>10427.72</v>
+        <v>10551.95</v>
       </c>
       <c r="E69" t="n">
-        <v>10469.88</v>
-      </c>
-      <c r="G69" s="1">
+        <v>10585.78</v>
+      </c>
+      <c r="G69" s="3">
         <f>AVERAGE(E65:E69)</f>
         <v/>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="3">
         <f>AVERAGE(E40:E69)</f>
         <v/>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="3">
         <f>G69-H69</f>
         <v/>
       </c>
@@ -3476,26 +3482,26 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>10470.96</v>
+        <v>10576.27</v>
       </c>
       <c r="C70" t="n">
-        <v>10510.7</v>
+        <v>10619.52</v>
       </c>
       <c r="D70" t="n">
-        <v>10466.25</v>
+        <v>10568.72</v>
       </c>
       <c r="E70" t="n">
-        <v>10506.56</v>
-      </c>
-      <c r="G70" s="1">
+        <v>10594.82</v>
+      </c>
+      <c r="G70" s="3">
         <f>AVERAGE(E66:E70)</f>
         <v/>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="3">
         <f>AVERAGE(E41:E70)</f>
         <v/>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="3">
         <f>G70-H70</f>
         <v/>
       </c>
@@ -3505,26 +3511,26 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>10521.69</v>
+        <v>10585.44</v>
       </c>
       <c r="C71" t="n">
-        <v>10592.31</v>
+        <v>10610.04</v>
       </c>
       <c r="D71" t="n">
-        <v>10521.69</v>
+        <v>10555.34</v>
       </c>
       <c r="E71" t="n">
-        <v>10579.38</v>
-      </c>
-      <c r="G71" s="1">
+        <v>10569.87</v>
+      </c>
+      <c r="G71" s="3">
         <f>AVERAGE(E67:E71)</f>
         <v/>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="3">
         <f>AVERAGE(E42:E71)</f>
         <v/>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="3">
         <f>G71-H71</f>
         <v/>
       </c>
@@ -3534,26 +3540,26 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>10598.59</v>
+        <v>10584.1</v>
       </c>
       <c r="C72" t="n">
-        <v>10619.42</v>
+        <v>10617.84</v>
       </c>
       <c r="D72" t="n">
-        <v>10533.72</v>
+        <v>10564.26</v>
       </c>
       <c r="E72" t="n">
-        <v>10568.97</v>
-      </c>
-      <c r="G72" s="1">
+        <v>10617.84</v>
+      </c>
+      <c r="G72" s="3">
         <f>AVERAGE(E68:E72)</f>
         <v/>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="3">
         <f>AVERAGE(E43:E72)</f>
         <v/>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="3">
         <f>G72-H72</f>
         <v/>
       </c>
@@ -3563,26 +3569,26 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>10523.51</v>
+        <v>10593.87</v>
       </c>
       <c r="C73" t="n">
-        <v>10536.19</v>
+        <v>10604.92</v>
       </c>
       <c r="D73" t="n">
-        <v>10457.52</v>
+        <v>10519.71</v>
       </c>
       <c r="E73" t="n">
-        <v>10470.38</v>
-      </c>
-      <c r="G73" s="1">
+        <v>10547.86</v>
+      </c>
+      <c r="G73" s="3">
         <f>AVERAGE(E69:E73)</f>
         <v/>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="3">
         <f>AVERAGE(E44:E73)</f>
         <v/>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="3">
         <f>G73-H73</f>
         <v/>
       </c>
@@ -3592,26 +3598,26 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10470.03</v>
+        <v>10564.79</v>
       </c>
       <c r="C74" t="n">
-        <v>10477.79</v>
+        <v>10604.02</v>
       </c>
       <c r="D74" t="n">
-        <v>10303.47</v>
+        <v>10509.91</v>
       </c>
       <c r="E74" t="n">
-        <v>10329.74</v>
-      </c>
-      <c r="G74" s="1">
+        <v>10538.51</v>
+      </c>
+      <c r="G74" s="3">
         <f>AVERAGE(E70:E74)</f>
         <v/>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="3">
         <f>AVERAGE(E45:E74)</f>
         <v/>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="3">
         <f>G74-H74</f>
         <v/>
       </c>
@@ -3621,26 +3627,26 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10267.05</v>
+        <v>10553.9</v>
       </c>
       <c r="C75" t="n">
-        <v>10338.06</v>
+        <v>10609.95</v>
       </c>
       <c r="D75" t="n">
-        <v>10238.5</v>
+        <v>10550.72</v>
       </c>
       <c r="E75" t="n">
-        <v>10329.57</v>
-      </c>
-      <c r="G75" s="1">
+        <v>10609.95</v>
+      </c>
+      <c r="G75" s="3">
         <f>AVERAGE(E71:E75)</f>
         <v/>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="3">
         <f>AVERAGE(E46:E75)</f>
         <v/>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="3">
         <f>G75-H75</f>
         <v/>
       </c>
@@ -3650,26 +3656,26 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10347.66</v>
+        <v>10630.16</v>
       </c>
       <c r="C76" t="n">
-        <v>10365.22</v>
+        <v>10656.25</v>
       </c>
       <c r="D76" t="n">
-        <v>10225.28</v>
+        <v>10565.78</v>
       </c>
       <c r="E76" t="n">
-        <v>10225.28</v>
-      </c>
-      <c r="G76" s="1">
+        <v>10572.16</v>
+      </c>
+      <c r="G76" s="3">
         <f>AVERAGE(E72:E76)</f>
         <v/>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="3">
         <f>AVERAGE(E47:E76)</f>
         <v/>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="3">
         <f>G76-H76</f>
         <v/>
       </c>
@@ -3679,26 +3685,26 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10271.03</v>
+        <v>10610.33</v>
       </c>
       <c r="C77" t="n">
-        <v>10336.22</v>
+        <v>10646.55</v>
       </c>
       <c r="D77" t="n">
-        <v>10271.03</v>
+        <v>10586.28</v>
       </c>
       <c r="E77" t="n">
-        <v>10311.16</v>
-      </c>
-      <c r="G77" s="1">
+        <v>10610.35</v>
+      </c>
+      <c r="G77" s="3">
         <f>AVERAGE(E73:E77)</f>
         <v/>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="3">
         <f>AVERAGE(E48:E77)</f>
         <v/>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="3">
         <f>G77-H77</f>
         <v/>
       </c>
@@ -3708,26 +3714,26 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10302.83</v>
+        <v>10596.36</v>
       </c>
       <c r="C78" t="n">
-        <v>10322.38</v>
+        <v>10620.31</v>
       </c>
       <c r="D78" t="n">
-        <v>10245.72</v>
+        <v>10532.88</v>
       </c>
       <c r="E78" t="n">
-        <v>10290.39</v>
-      </c>
-      <c r="G78" s="1">
+        <v>10532.88</v>
+      </c>
+      <c r="G78" s="3">
         <f>AVERAGE(E74:E78)</f>
         <v/>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="3">
         <f>AVERAGE(E49:E78)</f>
         <v/>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="3">
         <f>G78-H78</f>
         <v/>
       </c>
@@ -3737,26 +3743,26 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10302.54</v>
+        <v>10533.99</v>
       </c>
       <c r="C79" t="n">
-        <v>10372.41</v>
+        <v>10572.71</v>
       </c>
       <c r="D79" t="n">
-        <v>10302.54</v>
+        <v>10508.72</v>
       </c>
       <c r="E79" t="n">
-        <v>10369.37</v>
-      </c>
-      <c r="G79" s="1">
+        <v>10553.57</v>
+      </c>
+      <c r="G79" s="3">
         <f>AVERAGE(E75:E79)</f>
         <v/>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="3">
         <f>AVERAGE(E50:E79)</f>
         <v/>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="3">
         <f>G79-H79</f>
         <v/>
       </c>
@@ -3766,26 +3772,26 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>10324.83</v>
+        <v>10556.82</v>
       </c>
       <c r="C80" t="n">
-        <v>10330.39</v>
+        <v>10580.78</v>
       </c>
       <c r="D80" t="n">
-        <v>10259.83</v>
+        <v>10520.15</v>
       </c>
       <c r="E80" t="n">
-        <v>10321.33</v>
-      </c>
-      <c r="G80" s="1">
+        <v>10580.41</v>
+      </c>
+      <c r="G80" s="3">
         <f>AVERAGE(E76:E80)</f>
         <v/>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="3">
         <f>AVERAGE(E51:E80)</f>
         <v/>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="3">
         <f>G80-H80</f>
         <v/>
       </c>
@@ -3795,26 +3801,26 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10316.09</v>
+        <v>10590.8</v>
       </c>
       <c r="C81" t="n">
-        <v>10336.37</v>
+        <v>10642.4</v>
       </c>
       <c r="D81" t="n">
-        <v>10282.72</v>
+        <v>10581.81</v>
       </c>
       <c r="E81" t="n">
-        <v>10326.39</v>
-      </c>
-      <c r="G81" s="1">
+        <v>10631.57</v>
+      </c>
+      <c r="G81" s="3">
         <f>AVERAGE(E77:E81)</f>
         <v/>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="3">
         <f>AVERAGE(E52:E81)</f>
         <v/>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="3">
         <f>G81-H81</f>
         <v/>
       </c>
@@ -3824,26 +3830,26 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10353.37</v>
+        <v>10653.34</v>
       </c>
       <c r="C82" t="n">
-        <v>10410.47</v>
+        <v>10664.18</v>
       </c>
       <c r="D82" t="n">
-        <v>10353.37</v>
+        <v>10561.21</v>
       </c>
       <c r="E82" t="n">
-        <v>10392.07</v>
-      </c>
-      <c r="G82" s="1">
+        <v>10576.14</v>
+      </c>
+      <c r="G82" s="3">
         <f>AVERAGE(E78:E82)</f>
         <v/>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="3">
         <f>AVERAGE(E53:E82)</f>
         <v/>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="3">
         <f>G82-H82</f>
         <v/>
       </c>
@@ -3853,26 +3859,26 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10418.32</v>
+        <v>10568.58</v>
       </c>
       <c r="C83" t="n">
-        <v>10458.91</v>
+        <v>10589.19</v>
       </c>
       <c r="D83" t="n">
-        <v>10378.01</v>
+        <v>10490.71</v>
       </c>
       <c r="E83" t="n">
-        <v>10406.81</v>
-      </c>
-      <c r="G83" s="1">
+        <v>10519.17</v>
+      </c>
+      <c r="G83" s="3">
         <f>AVERAGE(E79:E83)</f>
         <v/>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="3">
         <f>AVERAGE(E54:E83)</f>
         <v/>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="3">
         <f>G83-H83</f>
         <v/>
       </c>
@@ -3882,26 +3888,26 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10414.66</v>
+        <v>10506.85</v>
       </c>
       <c r="C84" t="n">
-        <v>10488.96</v>
+        <v>10603.08</v>
       </c>
       <c r="D84" t="n">
-        <v>10410.73</v>
+        <v>10493.95</v>
       </c>
       <c r="E84" t="n">
-        <v>10488.96</v>
-      </c>
-      <c r="G84" s="1">
+        <v>10578.44</v>
+      </c>
+      <c r="G84" s="3">
         <f>AVERAGE(E80:E84)</f>
         <v/>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="3">
         <f>AVERAGE(E55:E84)</f>
         <v/>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="3">
         <f>G84-H84</f>
         <v/>
       </c>
@@ -3911,26 +3917,26 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10497.86</v>
+        <v>10571.65</v>
       </c>
       <c r="C85" t="n">
-        <v>10519.84</v>
+        <v>10579.02</v>
       </c>
       <c r="D85" t="n">
-        <v>10478.72</v>
+        <v>10446.45</v>
       </c>
       <c r="E85" t="n">
-        <v>10515.51</v>
-      </c>
-      <c r="G85" s="1">
+        <v>10449.68</v>
+      </c>
+      <c r="G85" s="3">
         <f>AVERAGE(E81:E85)</f>
         <v/>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="3">
         <f>AVERAGE(E56:E85)</f>
         <v/>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="3">
         <f>G85-H85</f>
         <v/>
       </c>
@@ -3940,26 +3946,26 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10502.8</v>
+        <v>10442.05</v>
       </c>
       <c r="C86" t="n">
-        <v>10542.37</v>
+        <v>10447.09</v>
       </c>
       <c r="D86" t="n">
-        <v>10498.88</v>
+        <v>10322.1</v>
       </c>
       <c r="E86" t="n">
-        <v>10525.98</v>
-      </c>
-      <c r="G86" s="1">
+        <v>10335.89</v>
+      </c>
+      <c r="G86" s="3">
         <f>AVERAGE(E82:E86)</f>
         <v/>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="3">
         <f>AVERAGE(E57:E86)</f>
         <v/>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="3">
         <f>G86-H86</f>
         <v/>
       </c>
@@ -3969,26 +3975,26 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10518.69</v>
+        <v>10333.44</v>
       </c>
       <c r="C87" t="n">
-        <v>10518.69</v>
+        <v>10374.54</v>
       </c>
       <c r="D87" t="n">
-        <v>10463.22</v>
+        <v>10257.02</v>
       </c>
       <c r="E87" t="n">
-        <v>10496.57</v>
-      </c>
-      <c r="G87" s="1">
+        <v>10257.02</v>
+      </c>
+      <c r="G87" s="3">
         <f>AVERAGE(E83:E87)</f>
         <v/>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="3">
         <f>AVERAGE(E58:E87)</f>
         <v/>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="3">
         <f>G87-H87</f>
         <v/>
       </c>
@@ -3998,26 +4004,26 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10511.59</v>
+        <v>10322.44</v>
       </c>
       <c r="C88" t="n">
-        <v>10574.53</v>
+        <v>10357.23</v>
       </c>
       <c r="D88" t="n">
-        <v>10511.59</v>
+        <v>10315.97</v>
       </c>
       <c r="E88" t="n">
-        <v>10569.4</v>
-      </c>
-      <c r="G88" s="1">
+        <v>10326.68</v>
+      </c>
+      <c r="G88" s="3">
         <f>AVERAGE(E84:E88)</f>
         <v/>
       </c>
-      <c r="H88" s="1">
+      <c r="H88" s="3">
         <f>AVERAGE(E59:E88)</f>
         <v/>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="3">
         <f>G88-H88</f>
         <v/>
       </c>
@@ -4027,26 +4033,26 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>10586.65</v>
+        <v>10351.42</v>
       </c>
       <c r="C89" t="n">
-        <v>10609.48</v>
+        <v>10365.59</v>
       </c>
       <c r="D89" t="n">
-        <v>10551.95</v>
+        <v>10288.24</v>
       </c>
       <c r="E89" t="n">
-        <v>10585.78</v>
-      </c>
-      <c r="G89" s="1">
+        <v>10296.45</v>
+      </c>
+      <c r="G89" s="3">
         <f>AVERAGE(E85:E89)</f>
         <v/>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="3">
         <f>AVERAGE(E60:E89)</f>
         <v/>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="3">
         <f>G89-H89</f>
         <v/>
       </c>
@@ -4056,26 +4062,26 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>10576.27</v>
+        <v>10319.69</v>
       </c>
       <c r="C90" t="n">
-        <v>10619.52</v>
+        <v>10338.95</v>
       </c>
       <c r="D90" t="n">
-        <v>10568.72</v>
+        <v>10273.6</v>
       </c>
       <c r="E90" t="n">
-        <v>10594.82</v>
-      </c>
-      <c r="G90" s="1">
+        <v>10329.94</v>
+      </c>
+      <c r="G90" s="3">
         <f>AVERAGE(E86:E90)</f>
         <v/>
       </c>
-      <c r="H90" s="1">
+      <c r="H90" s="3">
         <f>AVERAGE(E61:E90)</f>
         <v/>
       </c>
-      <c r="I90" s="1">
+      <c r="I90" s="3">
         <f>G90-H90</f>
         <v/>
       </c>
@@ -4085,26 +4091,26 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>10585.44</v>
+        <v>10362.55</v>
       </c>
       <c r="C91" t="n">
-        <v>10610.04</v>
+        <v>10400.4</v>
       </c>
       <c r="D91" t="n">
-        <v>10555.34</v>
+        <v>10362.55</v>
       </c>
       <c r="E91" t="n">
-        <v>10569.87</v>
-      </c>
-      <c r="G91" s="1">
+        <v>10383.94</v>
+      </c>
+      <c r="G91" s="3">
         <f>AVERAGE(E87:E91)</f>
         <v/>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="3">
         <f>AVERAGE(E62:E91)</f>
         <v/>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="3">
         <f>G91-H91</f>
         <v/>
       </c>
@@ -4114,26 +4120,26 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>10584.1</v>
+        <v>10425.1</v>
       </c>
       <c r="C92" t="n">
-        <v>10617.84</v>
+        <v>10472.81</v>
       </c>
       <c r="D92" t="n">
-        <v>10564.26</v>
+        <v>10414.53</v>
       </c>
       <c r="E92" t="n">
-        <v>10617.84</v>
-      </c>
-      <c r="G92" s="1">
+        <v>10465.16</v>
+      </c>
+      <c r="G92" s="3">
         <f>AVERAGE(E88:E92)</f>
         <v/>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="3">
         <f>AVERAGE(E63:E92)</f>
         <v/>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="3">
         <f>G92-H92</f>
         <v/>
       </c>
@@ -4143,26 +4149,26 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>10593.87</v>
+        <v>10462.7</v>
       </c>
       <c r="C93" t="n">
-        <v>10604.92</v>
+        <v>10495.34</v>
       </c>
       <c r="D93" t="n">
-        <v>10519.71</v>
+        <v>10445.86</v>
       </c>
       <c r="E93" t="n">
-        <v>10547.86</v>
-      </c>
-      <c r="G93" s="1">
+        <v>10469.35</v>
+      </c>
+      <c r="G93" s="3">
         <f>AVERAGE(E89:E93)</f>
         <v/>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="3">
         <f>AVERAGE(E64:E93)</f>
         <v/>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="3">
         <f>G93-H93</f>
         <v/>
       </c>
@@ -4172,26 +4178,26 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>10564.79</v>
+        <v>10473.28</v>
       </c>
       <c r="C94" t="n">
-        <v>10604.02</v>
+        <v>10530.93</v>
       </c>
       <c r="D94" t="n">
-        <v>10509.91</v>
+        <v>10473.28</v>
       </c>
       <c r="E94" t="n">
-        <v>10538.51</v>
-      </c>
-      <c r="G94" s="1">
+        <v>10518.27</v>
+      </c>
+      <c r="G94" s="3">
         <f>AVERAGE(E90:E94)</f>
         <v/>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="3">
         <f>AVERAGE(E65:E94)</f>
         <v/>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="3">
         <f>G94-H94</f>
         <v/>
       </c>
@@ -4201,26 +4207,26 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>10553.9</v>
+        <v>10538.21</v>
       </c>
       <c r="C95" t="n">
-        <v>10609.95</v>
+        <v>10557.67</v>
       </c>
       <c r="D95" t="n">
-        <v>10550.72</v>
+        <v>10511.5</v>
       </c>
       <c r="E95" t="n">
-        <v>10609.95</v>
-      </c>
-      <c r="G95" s="1">
+        <v>10532.81</v>
+      </c>
+      <c r="G95" s="3">
         <f>AVERAGE(E91:E95)</f>
         <v/>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="3">
         <f>AVERAGE(E66:E95)</f>
         <v/>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="3">
         <f>G95-H95</f>
         <v/>
       </c>
@@ -4230,26 +4236,26 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>10630.16</v>
+        <v>10576.12</v>
       </c>
       <c r="C96" t="n">
-        <v>10656.25</v>
+        <v>10668.49</v>
       </c>
       <c r="D96" t="n">
-        <v>10565.78</v>
+        <v>10576.12</v>
       </c>
       <c r="E96" t="n">
-        <v>10572.16</v>
-      </c>
-      <c r="G96" s="1">
+        <v>10641.19</v>
+      </c>
+      <c r="G96" s="3">
         <f>AVERAGE(E92:E96)</f>
         <v/>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="3">
         <f>AVERAGE(E67:E96)</f>
         <v/>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="3">
         <f>G96-H96</f>
         <v/>
       </c>
@@ -4259,26 +4265,26 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10610.33</v>
+        <v>10668.39</v>
       </c>
       <c r="C97" t="n">
-        <v>10646.55</v>
+        <v>10711.44</v>
       </c>
       <c r="D97" t="n">
-        <v>10586.28</v>
+        <v>10668.39</v>
       </c>
       <c r="E97" t="n">
-        <v>10610.35</v>
-      </c>
-      <c r="G97" s="1">
+        <v>10711.44</v>
+      </c>
+      <c r="G97" s="3">
         <f>AVERAGE(E93:E97)</f>
         <v/>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="3">
         <f>AVERAGE(E68:E97)</f>
         <v/>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="3">
         <f>G97-H97</f>
         <v/>
       </c>
@@ -4288,26 +4294,26 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10596.36</v>
+        <v>10712.48</v>
       </c>
       <c r="C98" t="n">
-        <v>10620.31</v>
+        <v>10724.09</v>
       </c>
       <c r="D98" t="n">
-        <v>10532.88</v>
+        <v>10675.83</v>
       </c>
       <c r="E98" t="n">
-        <v>10532.88</v>
-      </c>
-      <c r="G98" s="1">
+        <v>10724.09</v>
+      </c>
+      <c r="G98" s="3">
         <f>AVERAGE(E94:E98)</f>
         <v/>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="3">
         <f>AVERAGE(E69:E98)</f>
         <v/>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="3">
         <f>G98-H98</f>
         <v/>
       </c>
@@ -4317,26 +4323,26 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10533.99</v>
+        <v>10735.14</v>
       </c>
       <c r="C99" t="n">
-        <v>10572.71</v>
+        <v>10774.21</v>
       </c>
       <c r="D99" t="n">
-        <v>10508.72</v>
+        <v>10723.37</v>
       </c>
       <c r="E99" t="n">
-        <v>10553.57</v>
-      </c>
-      <c r="G99" s="1">
+        <v>10774.21</v>
+      </c>
+      <c r="G99" s="3">
         <f>AVERAGE(E95:E99)</f>
         <v/>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="3">
         <f>AVERAGE(E70:E99)</f>
         <v/>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="3">
         <f>G99-H99</f>
         <v/>
       </c>
@@ -4346,26 +4352,26 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10556.82</v>
+        <v>10790.35</v>
       </c>
       <c r="C100" t="n">
-        <v>10580.78</v>
+        <v>10798.52</v>
       </c>
       <c r="D100" t="n">
-        <v>10520.15</v>
+        <v>10723.15</v>
       </c>
       <c r="E100" t="n">
-        <v>10580.41</v>
-      </c>
-      <c r="G100" s="1">
+        <v>10723.15</v>
+      </c>
+      <c r="G100" s="3">
         <f>AVERAGE(E96:E100)</f>
         <v/>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="3">
         <f>AVERAGE(E71:E100)</f>
         <v/>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="3">
         <f>G100-H100</f>
         <v/>
       </c>
@@ -4375,26 +4381,26 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10590.8</v>
+        <v>10773.85</v>
       </c>
       <c r="C101" t="n">
-        <v>10642.4</v>
+        <v>10790.31</v>
       </c>
       <c r="D101" t="n">
-        <v>10581.81</v>
+        <v>10684.32</v>
       </c>
       <c r="E101" t="n">
-        <v>10631.57</v>
-      </c>
-      <c r="G101" s="1">
+        <v>10720.28</v>
+      </c>
+      <c r="G101" s="3">
         <f>AVERAGE(E97:E101)</f>
         <v/>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="3">
         <f>AVERAGE(E72:E101)</f>
         <v/>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="3">
         <f>G101-H101</f>
         <v/>
       </c>
@@ -4404,26 +4410,26 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10653.34</v>
+        <v>10745.77</v>
       </c>
       <c r="C102" t="n">
-        <v>10664.18</v>
+        <v>10798.54</v>
       </c>
       <c r="D102" t="n">
-        <v>10561.21</v>
+        <v>10745.77</v>
       </c>
       <c r="E102" t="n">
-        <v>10576.14</v>
-      </c>
-      <c r="G102" s="1">
+        <v>10760.29</v>
+      </c>
+      <c r="G102" s="3">
         <f>AVERAGE(E98:E102)</f>
         <v/>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="3">
         <f>AVERAGE(E73:E102)</f>
         <v/>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="3">
         <f>G102-H102</f>
         <v/>
       </c>
@@ -4433,26 +4439,26 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>10568.58</v>
+        <v>10737.87</v>
       </c>
       <c r="C103" t="n">
-        <v>10589.19</v>
+        <v>10753.77</v>
       </c>
       <c r="D103" t="n">
-        <v>10490.71</v>
+        <v>10702.56</v>
       </c>
       <c r="E103" t="n">
-        <v>10519.17</v>
-      </c>
-      <c r="G103" s="1">
+        <v>10728.88</v>
+      </c>
+      <c r="G103" s="3">
         <f>AVERAGE(E99:E103)</f>
         <v/>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="3">
         <f>AVERAGE(E74:E103)</f>
         <v/>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="3">
         <f>G103-H103</f>
         <v/>
       </c>
@@ -4462,26 +4468,26 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>10506.85</v>
+        <v>10759.47</v>
       </c>
       <c r="C104" t="n">
-        <v>10603.08</v>
+        <v>10792.27</v>
       </c>
       <c r="D104" t="n">
-        <v>10493.95</v>
+        <v>10731.9</v>
       </c>
       <c r="E104" t="n">
-        <v>10578.44</v>
-      </c>
-      <c r="G104" s="1">
+        <v>10735.21</v>
+      </c>
+      <c r="G104" s="3">
         <f>AVERAGE(E100:E104)</f>
         <v/>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="3">
         <f>AVERAGE(E75:E104)</f>
         <v/>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="3">
         <f>G104-H104</f>
         <v/>
       </c>
@@ -4491,26 +4497,26 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>10571.65</v>
+        <v>10749.9</v>
       </c>
       <c r="C105" t="n">
-        <v>10579.02</v>
+        <v>10766.64</v>
       </c>
       <c r="D105" t="n">
-        <v>10446.45</v>
+        <v>10726.25</v>
       </c>
       <c r="E105" t="n">
-        <v>10449.68</v>
-      </c>
-      <c r="G105" s="1">
+        <v>10743.78</v>
+      </c>
+      <c r="G105" s="3">
         <f>AVERAGE(E101:E105)</f>
         <v/>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="3">
         <f>AVERAGE(E76:E105)</f>
         <v/>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="3">
         <f>G105-H105</f>
         <v/>
       </c>
@@ -4520,26 +4526,26 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>10442.05</v>
+        <v>10771.4</v>
       </c>
       <c r="C106" t="n">
-        <v>10447.09</v>
+        <v>10794.55</v>
       </c>
       <c r="D106" t="n">
-        <v>10322.1</v>
+        <v>10740.07</v>
       </c>
       <c r="E106" t="n">
-        <v>10335.89</v>
-      </c>
-      <c r="G106" s="1">
+        <v>10750.57</v>
+      </c>
+      <c r="G106" s="3">
         <f>AVERAGE(E102:E106)</f>
         <v/>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="3">
         <f>AVERAGE(E77:E106)</f>
         <v/>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="3">
         <f>G106-H106</f>
         <v/>
       </c>
@@ -4549,26 +4555,26 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>10333.44</v>
+        <v>10735.35</v>
       </c>
       <c r="C107" t="n">
-        <v>10374.54</v>
+        <v>10756.51</v>
       </c>
       <c r="D107" t="n">
-        <v>10257.02</v>
+        <v>10716.52</v>
       </c>
       <c r="E107" t="n">
-        <v>10257.02</v>
-      </c>
-      <c r="G107" s="1">
+        <v>10734.76</v>
+      </c>
+      <c r="G107" s="3">
         <f>AVERAGE(E103:E107)</f>
         <v/>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="3">
         <f>AVERAGE(E78:E107)</f>
         <v/>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="3">
         <f>G107-H107</f>
         <v/>
       </c>
@@ -4578,26 +4584,26 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>10322.44</v>
+        <v>10757.35</v>
       </c>
       <c r="C108" t="n">
-        <v>10357.23</v>
+        <v>10803.6</v>
       </c>
       <c r="D108" t="n">
-        <v>10315.97</v>
+        <v>10701.08</v>
       </c>
       <c r="E108" t="n">
-        <v>10326.68</v>
-      </c>
-      <c r="G108" s="1">
+        <v>10709.11</v>
+      </c>
+      <c r="G108" s="3">
         <f>AVERAGE(E104:E108)</f>
         <v/>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="3">
         <f>AVERAGE(E79:E108)</f>
         <v/>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="3">
         <f>G108-H108</f>
         <v/>
       </c>
@@ -4607,26 +4613,26 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>10351.42</v>
+        <v>10777.6</v>
       </c>
       <c r="C109" t="n">
-        <v>10365.59</v>
+        <v>10842.25</v>
       </c>
       <c r="D109" t="n">
-        <v>10288.24</v>
+        <v>10743.13</v>
       </c>
       <c r="E109" t="n">
-        <v>10296.45</v>
-      </c>
-      <c r="G109" s="1">
+        <v>10756.87</v>
+      </c>
+      <c r="G109" s="3">
         <f>AVERAGE(E105:E109)</f>
         <v/>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="3">
         <f>AVERAGE(E80:E109)</f>
         <v/>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="3">
         <f>G109-H109</f>
         <v/>
       </c>
@@ -4636,26 +4642,26 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>10319.69</v>
+        <v>10768.9</v>
       </c>
       <c r="C110" t="n">
-        <v>10338.95</v>
+        <v>10829.33</v>
       </c>
       <c r="D110" t="n">
-        <v>10273.6</v>
+        <v>10747.37</v>
       </c>
       <c r="E110" t="n">
-        <v>10329.94</v>
-      </c>
-      <c r="G110" s="1">
+        <v>10793.8</v>
+      </c>
+      <c r="G110" s="3">
         <f>AVERAGE(E106:E110)</f>
         <v/>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="3">
         <f>AVERAGE(E81:E110)</f>
         <v/>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="3">
         <f>G110-H110</f>
         <v/>
       </c>
@@ -4665,26 +4671,26 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>10362.55</v>
+        <v>10816.04</v>
       </c>
       <c r="C111" t="n">
-        <v>10400.4</v>
+        <v>10843.41</v>
       </c>
       <c r="D111" t="n">
-        <v>10362.55</v>
+        <v>10785.32</v>
       </c>
       <c r="E111" t="n">
-        <v>10383.94</v>
-      </c>
-      <c r="G111" s="1">
+        <v>10806.36</v>
+      </c>
+      <c r="G111" s="3">
         <f>AVERAGE(E107:E111)</f>
         <v/>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="3">
         <f>AVERAGE(E82:E111)</f>
         <v/>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="3">
         <f>G111-H111</f>
         <v/>
       </c>
@@ -4694,26 +4700,26 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>10425.1</v>
+        <v>10797.63</v>
       </c>
       <c r="C112" t="n">
-        <v>10472.81</v>
+        <v>10827.67</v>
       </c>
       <c r="D112" t="n">
-        <v>10414.53</v>
+        <v>10788.51</v>
       </c>
       <c r="E112" t="n">
-        <v>10465.16</v>
-      </c>
-      <c r="G112" s="1">
+        <v>10788.51</v>
+      </c>
+      <c r="G112" s="3">
         <f>AVERAGE(E108:E112)</f>
         <v/>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="3">
         <f>AVERAGE(E83:E112)</f>
         <v/>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="3">
         <f>G112-H112</f>
         <v/>
       </c>
@@ -4723,26 +4729,26 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>10462.7</v>
+        <v>10797.91</v>
       </c>
       <c r="C113" t="n">
-        <v>10495.34</v>
+        <v>10835.7</v>
       </c>
       <c r="D113" t="n">
-        <v>10445.86</v>
+        <v>10765.31</v>
       </c>
       <c r="E113" t="n">
-        <v>10469.35</v>
-      </c>
-      <c r="G113" s="1">
+        <v>10800.77</v>
+      </c>
+      <c r="G113" s="3">
         <f>AVERAGE(E109:E113)</f>
         <v/>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="3">
         <f>AVERAGE(E84:E113)</f>
         <v/>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="3">
         <f>G113-H113</f>
         <v/>
       </c>
@@ -4752,26 +4758,26 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10473.28</v>
+        <v>10856.56</v>
       </c>
       <c r="C114" t="n">
-        <v>10530.93</v>
+        <v>10858.5</v>
       </c>
       <c r="D114" t="n">
-        <v>10473.28</v>
+        <v>10769.19</v>
       </c>
       <c r="E114" t="n">
-        <v>10518.27</v>
-      </c>
-      <c r="G114" s="1">
+        <v>10786.19</v>
+      </c>
+      <c r="G114" s="3">
         <f>AVERAGE(E110:E114)</f>
         <v/>
       </c>
-      <c r="H114" s="1">
+      <c r="H114" s="3">
         <f>AVERAGE(E85:E114)</f>
         <v/>
       </c>
-      <c r="I114" s="1">
+      <c r="I114" s="3">
         <f>G114-H114</f>
         <v/>
       </c>
@@ -4781,26 +4787,26 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>10538.21</v>
+        <v>10820.83</v>
       </c>
       <c r="C115" t="n">
-        <v>10557.67</v>
+        <v>10842.61</v>
       </c>
       <c r="D115" t="n">
-        <v>10511.5</v>
+        <v>10807.89</v>
       </c>
       <c r="E115" t="n">
-        <v>10532.81</v>
-      </c>
-      <c r="G115" s="1">
+        <v>10840.34</v>
+      </c>
+      <c r="G115" s="3">
         <f>AVERAGE(E111:E115)</f>
         <v/>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="3">
         <f>AVERAGE(E86:E115)</f>
         <v/>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="3">
         <f>G115-H115</f>
         <v/>
       </c>
@@ -4810,26 +4816,26 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>10576.12</v>
+        <v>10839.44</v>
       </c>
       <c r="C116" t="n">
-        <v>10668.49</v>
+        <v>10844.74</v>
       </c>
       <c r="D116" t="n">
-        <v>10576.12</v>
+        <v>10806.01</v>
       </c>
       <c r="E116" t="n">
-        <v>10641.19</v>
-      </c>
-      <c r="G116" s="1">
+        <v>10818.99</v>
+      </c>
+      <c r="G116" s="3">
         <f>AVERAGE(E112:E116)</f>
         <v/>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="3">
         <f>AVERAGE(E87:E116)</f>
         <v/>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="3">
         <f>G116-H116</f>
         <v/>
       </c>
@@ -4839,26 +4845,26 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>10668.39</v>
+        <v>10802.95</v>
       </c>
       <c r="C117" t="n">
-        <v>10711.44</v>
+        <v>10831.38</v>
       </c>
       <c r="D117" t="n">
-        <v>10668.39</v>
+        <v>10721.87</v>
       </c>
       <c r="E117" t="n">
-        <v>10711.44</v>
-      </c>
-      <c r="G117" s="1">
+        <v>10743.27</v>
+      </c>
+      <c r="G117" s="3">
         <f>AVERAGE(E113:E117)</f>
         <v/>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="3">
         <f>AVERAGE(E88:E117)</f>
         <v/>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="3">
         <f>G117-H117</f>
         <v/>
       </c>
@@ -4868,26 +4874,26 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>10712.48</v>
+        <v>10713.67</v>
       </c>
       <c r="C118" t="n">
-        <v>10724.09</v>
+        <v>10742.61</v>
       </c>
       <c r="D118" t="n">
-        <v>10675.83</v>
+        <v>10659.29</v>
       </c>
       <c r="E118" t="n">
-        <v>10724.09</v>
-      </c>
-      <c r="G118" s="1">
+        <v>10732.67</v>
+      </c>
+      <c r="G118" s="3">
         <f>AVERAGE(E114:E118)</f>
         <v/>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="3">
         <f>AVERAGE(E89:E118)</f>
         <v/>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="3">
         <f>G118-H118</f>
         <v/>
       </c>
@@ -4897,26 +4903,26 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10735.14</v>
+        <v>10728.22</v>
       </c>
       <c r="C119" t="n">
-        <v>10774.21</v>
+        <v>10749.39</v>
       </c>
       <c r="D119" t="n">
-        <v>10723.37</v>
+        <v>10683.92</v>
       </c>
       <c r="E119" t="n">
-        <v>10774.21</v>
-      </c>
-      <c r="G119" s="1">
+        <v>10683.92</v>
+      </c>
+      <c r="G119" s="3">
         <f>AVERAGE(E115:E119)</f>
         <v/>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="3">
         <f>AVERAGE(E90:E119)</f>
         <v/>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="3">
         <f>G119-H119</f>
         <v/>
       </c>
@@ -4926,26 +4932,26 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10790.35</v>
+        <v>10716.59</v>
       </c>
       <c r="C120" t="n">
-        <v>10798.52</v>
+        <v>10735.08</v>
       </c>
       <c r="D120" t="n">
-        <v>10723.15</v>
+        <v>10654.58</v>
       </c>
       <c r="E120" t="n">
-        <v>10723.15</v>
-      </c>
-      <c r="G120" s="1">
+        <v>10687.18</v>
+      </c>
+      <c r="G120" s="3">
         <f>AVERAGE(E116:E120)</f>
         <v/>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="3">
         <f>AVERAGE(E91:E120)</f>
         <v/>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="3">
         <f>G120-H120</f>
         <v/>
       </c>
@@ -4955,26 +4961,26 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10773.85</v>
+        <v>10662.08</v>
       </c>
       <c r="C121" t="n">
-        <v>10790.31</v>
+        <v>10669.59</v>
       </c>
       <c r="D121" t="n">
-        <v>10684.32</v>
+        <v>10600.26</v>
       </c>
       <c r="E121" t="n">
-        <v>10720.28</v>
-      </c>
-      <c r="G121" s="1">
+        <v>10630.65</v>
+      </c>
+      <c r="G121" s="3">
         <f>AVERAGE(E117:E121)</f>
         <v/>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="3">
         <f>AVERAGE(E92:E121)</f>
         <v/>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="3">
         <f>G121-H121</f>
         <v/>
       </c>
@@ -4984,26 +4990,26 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10745.77</v>
+        <v>10629.16</v>
       </c>
       <c r="C122" t="n">
-        <v>10798.54</v>
+        <v>10666.66</v>
       </c>
       <c r="D122" t="n">
-        <v>10745.77</v>
+        <v>10609.23</v>
       </c>
       <c r="E122" t="n">
-        <v>10760.29</v>
-      </c>
-      <c r="G122" s="1">
+        <v>10625.04</v>
+      </c>
+      <c r="G122" s="3">
         <f>AVERAGE(E118:E122)</f>
         <v/>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="3">
         <f>AVERAGE(E93:E122)</f>
         <v/>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="3">
         <f>G122-H122</f>
         <v/>
       </c>
@@ -5013,26 +5019,26 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10737.87</v>
+        <v>10673.43</v>
       </c>
       <c r="C123" t="n">
-        <v>10753.77</v>
+        <v>10729.45</v>
       </c>
       <c r="D123" t="n">
-        <v>10702.56</v>
+        <v>10673.43</v>
       </c>
       <c r="E123" t="n">
-        <v>10728.88</v>
-      </c>
-      <c r="G123" s="1">
+        <v>10701.64</v>
+      </c>
+      <c r="G123" s="3">
         <f>AVERAGE(E119:E123)</f>
         <v/>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="3">
         <f>AVERAGE(E94:E123)</f>
         <v/>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="3">
         <f>G123-H123</f>
         <v/>
       </c>
@@ -5042,26 +5048,26 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>10759.47</v>
+        <v>10706.79</v>
       </c>
       <c r="C124" t="n">
-        <v>10792.27</v>
+        <v>10728.39</v>
       </c>
       <c r="D124" t="n">
-        <v>10731.9</v>
+        <v>10656.18</v>
       </c>
       <c r="E124" t="n">
-        <v>10735.21</v>
-      </c>
-      <c r="G124" s="1">
+        <v>10664.55</v>
+      </c>
+      <c r="G124" s="3">
         <f>AVERAGE(E120:E124)</f>
         <v/>
       </c>
-      <c r="H124" s="1">
+      <c r="H124" s="3">
         <f>AVERAGE(E95:E124)</f>
         <v/>
       </c>
-      <c r="I124" s="1">
+      <c r="I124" s="3">
         <f>G124-H124</f>
         <v/>
       </c>
@@ -5071,26 +5077,26 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>10749.9</v>
+        <v>10688.22</v>
       </c>
       <c r="C125" t="n">
-        <v>10766.64</v>
+        <v>10787.58</v>
       </c>
       <c r="D125" t="n">
-        <v>10726.25</v>
+        <v>10687.26</v>
       </c>
       <c r="E125" t="n">
-        <v>10743.78</v>
-      </c>
-      <c r="G125" s="1">
+        <v>10779.24</v>
+      </c>
+      <c r="G125" s="3">
         <f>AVERAGE(E121:E125)</f>
         <v/>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="3">
         <f>AVERAGE(E96:E125)</f>
         <v/>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="3">
         <f>G125-H125</f>
         <v/>
       </c>
@@ -5100,26 +5106,26 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>10771.4</v>
+        <v>10815.4</v>
       </c>
       <c r="C126" t="n">
-        <v>10794.55</v>
+        <v>10882.65</v>
       </c>
       <c r="D126" t="n">
-        <v>10740.07</v>
+        <v>10801.1</v>
       </c>
       <c r="E126" t="n">
-        <v>10750.57</v>
-      </c>
-      <c r="G126" s="1">
+        <v>10822.59</v>
+      </c>
+      <c r="G126" s="3">
         <f>AVERAGE(E122:E126)</f>
         <v/>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="3">
         <f>AVERAGE(E97:E126)</f>
         <v/>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="3">
         <f>G126-H126</f>
         <v/>
       </c>
@@ -5129,26 +5135,26 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>10735.35</v>
+        <v>10837.61</v>
       </c>
       <c r="C127" t="n">
-        <v>10756.51</v>
+        <v>10872.29</v>
       </c>
       <c r="D127" t="n">
-        <v>10716.52</v>
+        <v>10809.09</v>
       </c>
       <c r="E127" t="n">
-        <v>10734.76</v>
-      </c>
-      <c r="G127" s="1">
+        <v>10854.57</v>
+      </c>
+      <c r="G127" s="3">
         <f>AVERAGE(E123:E127)</f>
         <v/>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="3">
         <f>AVERAGE(E98:E127)</f>
         <v/>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="3">
         <f>G127-H127</f>
         <v/>
       </c>
@@ -5158,26 +5164,26 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>10757.35</v>
+        <v>10847.79</v>
       </c>
       <c r="C128" t="n">
-        <v>10803.6</v>
+        <v>10873.91</v>
       </c>
       <c r="D128" t="n">
-        <v>10701.08</v>
+        <v>10833.78</v>
       </c>
       <c r="E128" t="n">
-        <v>10709.11</v>
-      </c>
-      <c r="G128" s="1">
+        <v>10854.09</v>
+      </c>
+      <c r="G128" s="3">
         <f>AVERAGE(E124:E128)</f>
         <v/>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="3">
         <f>AVERAGE(E99:E128)</f>
         <v/>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="3">
         <f>G128-H128</f>
         <v/>
       </c>
@@ -5187,26 +5193,26 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>10777.6</v>
+        <v>10836.82</v>
       </c>
       <c r="C129" t="n">
-        <v>10842.25</v>
+        <v>10856</v>
       </c>
       <c r="D129" t="n">
-        <v>10743.13</v>
+        <v>10746.74</v>
       </c>
       <c r="E129" t="n">
-        <v>10756.87</v>
-      </c>
-      <c r="G129" s="1">
+        <v>10750.93</v>
+      </c>
+      <c r="G129" s="3">
         <f>AVERAGE(E125:E129)</f>
         <v/>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="3">
         <f>AVERAGE(E100:E129)</f>
         <v/>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="3">
         <f>G129-H129</f>
         <v/>
       </c>
@@ -5216,26 +5222,26 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>10768.9</v>
+        <v>10733.56</v>
       </c>
       <c r="C130" t="n">
-        <v>10829.33</v>
+        <v>10752.58</v>
       </c>
       <c r="D130" t="n">
-        <v>10747.37</v>
+        <v>10692.53</v>
       </c>
       <c r="E130" t="n">
-        <v>10793.8</v>
-      </c>
-      <c r="G130" s="1">
+        <v>10707.07</v>
+      </c>
+      <c r="G130" s="3">
         <f>AVERAGE(E126:E130)</f>
         <v/>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="3">
         <f>AVERAGE(E101:E130)</f>
         <v/>
       </c>
-      <c r="I130" s="1">
+      <c r="I130" s="3">
         <f>G130-H130</f>
         <v/>
       </c>
@@ -5245,26 +5251,26 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>10816.04</v>
+        <v>10735.24</v>
       </c>
       <c r="C131" t="n">
-        <v>10843.41</v>
+        <v>10762.91</v>
       </c>
       <c r="D131" t="n">
-        <v>10785.32</v>
+        <v>10697.62</v>
       </c>
       <c r="E131" t="n">
-        <v>10806.36</v>
-      </c>
-      <c r="G131" s="1">
+        <v>10713.55</v>
+      </c>
+      <c r="G131" s="3">
         <f>AVERAGE(E127:E131)</f>
         <v/>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="3">
         <f>AVERAGE(E102:E131)</f>
         <v/>
       </c>
-      <c r="I131" s="1">
+      <c r="I131" s="3">
         <f>G131-H131</f>
         <v/>
       </c>
@@ -5274,26 +5280,26 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>10797.63</v>
+        <v>10623.2</v>
       </c>
       <c r="C132" t="n">
-        <v>10827.67</v>
+        <v>10650.18</v>
       </c>
       <c r="D132" t="n">
-        <v>10788.51</v>
+        <v>10560.44</v>
       </c>
       <c r="E132" t="n">
-        <v>10788.51</v>
-      </c>
-      <c r="G132" s="1">
+        <v>10560.44</v>
+      </c>
+      <c r="G132" s="3">
         <f>AVERAGE(E128:E132)</f>
         <v/>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="3">
         <f>AVERAGE(E103:E132)</f>
         <v/>
       </c>
-      <c r="I132" s="1">
+      <c r="I132" s="3">
         <f>G132-H132</f>
         <v/>
       </c>
@@ -5303,26 +5309,26 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>10797.91</v>
+        <v>10591.62</v>
       </c>
       <c r="C133" t="n">
-        <v>10835.7</v>
+        <v>10665.92</v>
       </c>
       <c r="D133" t="n">
-        <v>10765.31</v>
+        <v>10495.15</v>
       </c>
       <c r="E133" t="n">
-        <v>10800.77</v>
-      </c>
-      <c r="G133" s="1">
+        <v>10600.37</v>
+      </c>
+      <c r="G133" s="3">
         <f>AVERAGE(E129:E133)</f>
         <v/>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="3">
         <f>AVERAGE(E104:E133)</f>
         <v/>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="3">
         <f>G133-H133</f>
         <v/>
       </c>
@@ -5332,26 +5338,26 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>10856.56</v>
+        <v>10617.27</v>
       </c>
       <c r="C134" t="n">
-        <v>10858.5</v>
+        <v>10665.43</v>
       </c>
       <c r="D134" t="n">
-        <v>10769.19</v>
+        <v>10565.68</v>
       </c>
       <c r="E134" t="n">
-        <v>10786.19</v>
-      </c>
-      <c r="G134" s="1">
+        <v>10651.11</v>
+      </c>
+      <c r="G134" s="3">
         <f>AVERAGE(E130:E134)</f>
         <v/>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="3">
         <f>AVERAGE(E105:E134)</f>
         <v/>
       </c>
-      <c r="I134" s="1">
+      <c r="I134" s="3">
         <f>G134-H134</f>
         <v/>
       </c>
@@ -5361,26 +5367,26 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>10820.83</v>
+        <v>10607.62</v>
       </c>
       <c r="C135" t="n">
-        <v>10842.61</v>
+        <v>10635.71</v>
       </c>
       <c r="D135" t="n">
-        <v>10807.89</v>
+        <v>10540.74</v>
       </c>
       <c r="E135" t="n">
-        <v>10840.34</v>
-      </c>
-      <c r="G135" s="1">
+        <v>10566.85</v>
+      </c>
+      <c r="G135" s="3">
         <f>AVERAGE(E131:E135)</f>
         <v/>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="3">
         <f>AVERAGE(E106:E135)</f>
         <v/>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="3">
         <f>G135-H135</f>
         <v/>
       </c>
@@ -5390,26 +5396,26 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>10839.44</v>
+        <v>10541.03</v>
       </c>
       <c r="C136" t="n">
-        <v>10844.74</v>
+        <v>10541.03</v>
       </c>
       <c r="D136" t="n">
-        <v>10806.01</v>
+        <v>10376.65</v>
       </c>
       <c r="E136" t="n">
-        <v>10818.99</v>
-      </c>
-      <c r="G136" s="1">
+        <v>10393.92</v>
+      </c>
+      <c r="G136" s="3">
         <f>AVERAGE(E132:E136)</f>
         <v/>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="3">
         <f>AVERAGE(E107:E136)</f>
         <v/>
       </c>
-      <c r="I136" s="1">
+      <c r="I136" s="3">
         <f>G136-H136</f>
         <v/>
       </c>
@@ -5419,26 +5425,26 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>10802.95</v>
+        <v>10404.42</v>
       </c>
       <c r="C137" t="n">
-        <v>10831.38</v>
+        <v>10418.97</v>
       </c>
       <c r="D137" t="n">
-        <v>10721.87</v>
+        <v>10322.76</v>
       </c>
       <c r="E137" t="n">
-        <v>10743.27</v>
-      </c>
-      <c r="G137" s="1">
+        <v>10355.76</v>
+      </c>
+      <c r="G137" s="3">
         <f>AVERAGE(E133:E137)</f>
         <v/>
       </c>
-      <c r="H137" s="1">
+      <c r="H137" s="3">
         <f>AVERAGE(E108:E137)</f>
         <v/>
       </c>
-      <c r="I137" s="1">
+      <c r="I137" s="3">
         <f>G137-H137</f>
         <v/>
       </c>
@@ -5448,26 +5454,26 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>10713.67</v>
+        <v>10406.35</v>
       </c>
       <c r="C138" t="n">
-        <v>10742.61</v>
+        <v>10419.28</v>
       </c>
       <c r="D138" t="n">
-        <v>10659.29</v>
+        <v>10336.26</v>
       </c>
       <c r="E138" t="n">
-        <v>10732.67</v>
-      </c>
-      <c r="G138" s="1">
+        <v>10398.62</v>
+      </c>
+      <c r="G138" s="3">
         <f>AVERAGE(E134:E138)</f>
         <v/>
       </c>
-      <c r="H138" s="1">
+      <c r="H138" s="3">
         <f>AVERAGE(E109:E138)</f>
         <v/>
       </c>
-      <c r="I138" s="1">
+      <c r="I138" s="3">
         <f>G138-H138</f>
         <v/>
       </c>
@@ -5477,26 +5483,26 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10728.22</v>
+        <v>10438.33</v>
       </c>
       <c r="C139" t="n">
-        <v>10749.39</v>
+        <v>10504.67</v>
       </c>
       <c r="D139" t="n">
-        <v>10683.92</v>
+        <v>10438.33</v>
       </c>
       <c r="E139" t="n">
-        <v>10683.92</v>
-      </c>
-      <c r="G139" s="1">
+        <v>10473.09</v>
+      </c>
+      <c r="G139" s="3">
         <f>AVERAGE(E135:E139)</f>
         <v/>
       </c>
-      <c r="H139" s="1">
+      <c r="H139" s="3">
         <f>AVERAGE(E110:E139)</f>
         <v/>
       </c>
-      <c r="I139" s="1">
+      <c r="I139" s="3">
         <f>G139-H139</f>
         <v/>
       </c>
@@ -5506,26 +5512,26 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10716.59</v>
+        <v>10488.73</v>
       </c>
       <c r="C140" t="n">
-        <v>10735.08</v>
+        <v>10495.24</v>
       </c>
       <c r="D140" t="n">
-        <v>10654.58</v>
+        <v>10408.06</v>
       </c>
       <c r="E140" t="n">
-        <v>10687.18</v>
-      </c>
-      <c r="G140" s="1">
+        <v>10443.28</v>
+      </c>
+      <c r="G140" s="3">
         <f>AVERAGE(E136:E140)</f>
         <v/>
       </c>
-      <c r="H140" s="1">
+      <c r="H140" s="3">
         <f>AVERAGE(E111:E140)</f>
         <v/>
       </c>
-      <c r="I140" s="1">
+      <c r="I140" s="3">
         <f>G140-H140</f>
         <v/>
       </c>
@@ -5535,26 +5541,26 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10662.08</v>
+        <v>10447.11</v>
       </c>
       <c r="C141" t="n">
-        <v>10669.59</v>
+        <v>10489.17</v>
       </c>
       <c r="D141" t="n">
-        <v>10600.26</v>
+        <v>10444.7</v>
       </c>
       <c r="E141" t="n">
-        <v>10630.65</v>
-      </c>
-      <c r="G141" s="1">
+        <v>10470.7</v>
+      </c>
+      <c r="G141" s="3">
         <f>AVERAGE(E137:E141)</f>
         <v/>
       </c>
-      <c r="H141" s="1">
+      <c r="H141" s="3">
         <f>AVERAGE(E112:E141)</f>
         <v/>
       </c>
-      <c r="I141" s="1">
+      <c r="I141" s="3">
         <f>G141-H141</f>
         <v/>
       </c>
@@ -5564,26 +5570,26 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10629.16</v>
+        <v>10494.6</v>
       </c>
       <c r="C142" t="n">
-        <v>10666.66</v>
+        <v>10577.53</v>
       </c>
       <c r="D142" t="n">
-        <v>10609.23</v>
+        <v>10494.6</v>
       </c>
       <c r="E142" t="n">
-        <v>10625.04</v>
-      </c>
-      <c r="G142" s="1">
+        <v>10538.01</v>
+      </c>
+      <c r="G142" s="3">
         <f>AVERAGE(E138:E142)</f>
         <v/>
       </c>
-      <c r="H142" s="1">
+      <c r="H142" s="3">
         <f>AVERAGE(E113:E142)</f>
         <v/>
       </c>
-      <c r="I142" s="1">
+      <c r="I142" s="3">
         <f>G142-H142</f>
         <v/>
       </c>
@@ -5593,26 +5599,26 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10673.43</v>
+        <v>10517.21</v>
       </c>
       <c r="C143" t="n">
-        <v>10729.45</v>
+        <v>10520.66</v>
       </c>
       <c r="D143" t="n">
-        <v>10673.43</v>
+        <v>10436.11</v>
       </c>
       <c r="E143" t="n">
-        <v>10701.64</v>
-      </c>
-      <c r="G143" s="1">
+        <v>10491.44</v>
+      </c>
+      <c r="G143" s="3">
         <f>AVERAGE(E139:E143)</f>
         <v/>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="3">
         <f>AVERAGE(E114:E143)</f>
         <v/>
       </c>
-      <c r="I143" s="1">
+      <c r="I143" s="3">
         <f>G143-H143</f>
         <v/>
       </c>
@@ -5622,26 +5628,26 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>10706.79</v>
+        <v>10478.74</v>
       </c>
       <c r="C144" t="n">
-        <v>10728.39</v>
+        <v>10526.41</v>
       </c>
       <c r="D144" t="n">
-        <v>10656.18</v>
+        <v>10472.39</v>
       </c>
       <c r="E144" t="n">
-        <v>10664.55</v>
-      </c>
-      <c r="G144" s="1">
+        <v>10506.52</v>
+      </c>
+      <c r="G144" s="3">
         <f>AVERAGE(E140:E144)</f>
         <v/>
       </c>
-      <c r="H144" s="1">
+      <c r="H144" s="3">
         <f>AVERAGE(E115:E144)</f>
         <v/>
       </c>
-      <c r="I144" s="1">
+      <c r="I144" s="3">
         <f>G144-H144</f>
         <v/>
       </c>
@@ -5651,26 +5657,26 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>10688.22</v>
+        <v>10508.33</v>
       </c>
       <c r="C145" t="n">
-        <v>10787.58</v>
+        <v>10544</v>
       </c>
       <c r="D145" t="n">
-        <v>10687.26</v>
+        <v>10452.08</v>
       </c>
       <c r="E145" t="n">
-        <v>10779.24</v>
-      </c>
-      <c r="G145" s="1">
+        <v>10467.34</v>
+      </c>
+      <c r="G145" s="3">
         <f>AVERAGE(E141:E145)</f>
         <v/>
       </c>
-      <c r="H145" s="1">
+      <c r="H145" s="3">
         <f>AVERAGE(E116:E145)</f>
         <v/>
       </c>
-      <c r="I145" s="1">
+      <c r="I145" s="3">
         <f>G145-H145</f>
         <v/>
       </c>
@@ -5680,26 +5686,26 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>10815.4</v>
+        <v>10470.36</v>
       </c>
       <c r="C146" t="n">
-        <v>10882.65</v>
+        <v>10514.31</v>
       </c>
       <c r="D146" t="n">
-        <v>10801.1</v>
+        <v>10470.36</v>
       </c>
       <c r="E146" t="n">
-        <v>10822.59</v>
-      </c>
-      <c r="G146" s="1">
+        <v>10504.52</v>
+      </c>
+      <c r="G146" s="3">
         <f>AVERAGE(E142:E146)</f>
         <v/>
       </c>
-      <c r="H146" s="1">
+      <c r="H146" s="3">
         <f>AVERAGE(E117:E146)</f>
         <v/>
       </c>
-      <c r="I146" s="1">
+      <c r="I146" s="3">
         <f>G146-H146</f>
         <v/>
       </c>
@@ -5709,26 +5715,26 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>10837.61</v>
+        <v>10526.97</v>
       </c>
       <c r="C147" t="n">
-        <v>10872.29</v>
+        <v>10545.78</v>
       </c>
       <c r="D147" t="n">
-        <v>10809.09</v>
+        <v>10488.97</v>
       </c>
       <c r="E147" t="n">
-        <v>10854.57</v>
-      </c>
-      <c r="G147" s="1">
+        <v>10488.97</v>
+      </c>
+      <c r="G147" s="3">
         <f>AVERAGE(E143:E147)</f>
         <v/>
       </c>
-      <c r="H147" s="1">
+      <c r="H147" s="3">
         <f>AVERAGE(E118:E147)</f>
         <v/>
       </c>
-      <c r="I147" s="1">
+      <c r="I147" s="3">
         <f>G147-H147</f>
         <v/>
       </c>
@@ -5738,26 +5744,26 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>10847.79</v>
+        <v>10503.1</v>
       </c>
       <c r="C148" t="n">
-        <v>10873.91</v>
+        <v>10537.27</v>
       </c>
       <c r="D148" t="n">
-        <v>10833.78</v>
+        <v>10486.52</v>
       </c>
       <c r="E148" t="n">
-        <v>10854.09</v>
-      </c>
-      <c r="G148" s="1">
+        <v>10537.27</v>
+      </c>
+      <c r="G148" s="3">
         <f>AVERAGE(E144:E148)</f>
         <v/>
       </c>
-      <c r="H148" s="1">
+      <c r="H148" s="3">
         <f>AVERAGE(E119:E148)</f>
         <v/>
       </c>
-      <c r="I148" s="1">
+      <c r="I148" s="3">
         <f>G148-H148</f>
         <v/>
       </c>
@@ -5767,26 +5773,26 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>10836.82</v>
+        <v>10546.64</v>
       </c>
       <c r="C149" t="n">
-        <v>10856</v>
+        <v>10556.65</v>
       </c>
       <c r="D149" t="n">
-        <v>10746.74</v>
+        <v>10514.54</v>
       </c>
       <c r="E149" t="n">
-        <v>10750.93</v>
-      </c>
-      <c r="G149" s="1">
+        <v>10522.49</v>
+      </c>
+      <c r="G149" s="3">
         <f>AVERAGE(E145:E149)</f>
         <v/>
       </c>
-      <c r="H149" s="1">
+      <c r="H149" s="3">
         <f>AVERAGE(E120:E149)</f>
         <v/>
       </c>
-      <c r="I149" s="1">
+      <c r="I149" s="3">
         <f>G149-H149</f>
         <v/>
       </c>
@@ -5796,26 +5802,26 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>10733.56</v>
+        <v>10526.14</v>
       </c>
       <c r="C150" t="n">
-        <v>10752.58</v>
+        <v>10528.92</v>
       </c>
       <c r="D150" t="n">
-        <v>10692.53</v>
+        <v>10408.12</v>
       </c>
       <c r="E150" t="n">
-        <v>10707.07</v>
-      </c>
-      <c r="G150" s="1">
+        <v>10421.91</v>
+      </c>
+      <c r="G150" s="3">
         <f>AVERAGE(E146:E150)</f>
         <v/>
       </c>
-      <c r="H150" s="1">
+      <c r="H150" s="3">
         <f>AVERAGE(E121:E150)</f>
         <v/>
       </c>
-      <c r="I150" s="1">
+      <c r="I150" s="3">
         <f>G150-H150</f>
         <v/>
       </c>
@@ -5825,26 +5831,26 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>10735.24</v>
+        <v>10419.81</v>
       </c>
       <c r="C151" t="n">
-        <v>10762.91</v>
+        <v>10497.77</v>
       </c>
       <c r="D151" t="n">
-        <v>10697.62</v>
+        <v>10419.81</v>
       </c>
       <c r="E151" t="n">
-        <v>10713.55</v>
-      </c>
-      <c r="G151" s="1">
+        <v>10486.67</v>
+      </c>
+      <c r="G151" s="3">
         <f>AVERAGE(E147:E151)</f>
         <v/>
       </c>
-      <c r="H151" s="1">
+      <c r="H151" s="3">
         <f>AVERAGE(E122:E151)</f>
         <v/>
       </c>
-      <c r="I151" s="1">
+      <c r="I151" s="3">
         <f>G151-H151</f>
         <v/>
       </c>
@@ -5854,26 +5860,26 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>10623.2</v>
+        <v>10513.29</v>
       </c>
       <c r="C152" t="n">
-        <v>10650.18</v>
+        <v>10592.04</v>
       </c>
       <c r="D152" t="n">
-        <v>10560.44</v>
+        <v>10513.29</v>
       </c>
       <c r="E152" t="n">
-        <v>10560.44</v>
-      </c>
-      <c r="G152" s="1">
+        <v>10567.64</v>
+      </c>
+      <c r="G152" s="3">
         <f>AVERAGE(E148:E152)</f>
         <v/>
       </c>
-      <c r="H152" s="1">
+      <c r="H152" s="3">
         <f>AVERAGE(E123:E152)</f>
         <v/>
       </c>
-      <c r="I152" s="1">
+      <c r="I152" s="3">
         <f>G152-H152</f>
         <v/>
       </c>
@@ -5883,26 +5889,26 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>10591.62</v>
+        <v>10590.95</v>
       </c>
       <c r="C153" t="n">
-        <v>10665.92</v>
+        <v>10659.98</v>
       </c>
       <c r="D153" t="n">
-        <v>10495.15</v>
+        <v>10590.95</v>
       </c>
       <c r="E153" t="n">
-        <v>10600.37</v>
-      </c>
-      <c r="G153" s="1">
+        <v>10642.86</v>
+      </c>
+      <c r="G153" s="3">
         <f>AVERAGE(E149:E153)</f>
         <v/>
       </c>
-      <c r="H153" s="1">
+      <c r="H153" s="3">
         <f>AVERAGE(E124:E153)</f>
         <v/>
       </c>
-      <c r="I153" s="1">
+      <c r="I153" s="3">
         <f>G153-H153</f>
         <v/>
       </c>
@@ -5912,26 +5918,26 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>10617.27</v>
+        <v>10664.82</v>
       </c>
       <c r="C154" t="n">
-        <v>10665.43</v>
+        <v>10710.73</v>
       </c>
       <c r="D154" t="n">
-        <v>10565.68</v>
+        <v>10650.77</v>
       </c>
       <c r="E154" t="n">
-        <v>10651.11</v>
-      </c>
-      <c r="G154" s="1">
+        <v>10710.73</v>
+      </c>
+      <c r="G154" s="3">
         <f>AVERAGE(E150:E154)</f>
         <v/>
       </c>
-      <c r="H154" s="1">
+      <c r="H154" s="3">
         <f>AVERAGE(E125:E154)</f>
         <v/>
       </c>
-      <c r="I154" s="1">
+      <c r="I154" s="3">
         <f>G154-H154</f>
         <v/>
       </c>
@@ -5941,26 +5947,26 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>10607.62</v>
+        <v>10759.61</v>
       </c>
       <c r="C155" t="n">
-        <v>10635.71</v>
+        <v>10813.16</v>
       </c>
       <c r="D155" t="n">
-        <v>10540.74</v>
+        <v>10759.61</v>
       </c>
       <c r="E155" t="n">
-        <v>10566.85</v>
-      </c>
-      <c r="G155" s="1">
+        <v>10801.57</v>
+      </c>
+      <c r="G155" s="3">
         <f>AVERAGE(E151:E155)</f>
         <v/>
       </c>
-      <c r="H155" s="1">
+      <c r="H155" s="3">
         <f>AVERAGE(E126:E155)</f>
         <v/>
       </c>
-      <c r="I155" s="1">
+      <c r="I155" s="3">
         <f>G155-H155</f>
         <v/>
       </c>
@@ -5970,26 +5976,26 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>10541.03</v>
+        <v>10834.58</v>
       </c>
       <c r="C156" t="n">
-        <v>10541.03</v>
+        <v>10853.46</v>
       </c>
       <c r="D156" t="n">
-        <v>10376.65</v>
+        <v>10794.25</v>
       </c>
       <c r="E156" t="n">
-        <v>10393.92</v>
-      </c>
-      <c r="G156" s="1">
+        <v>10848.63</v>
+      </c>
+      <c r="G156" s="3">
         <f>AVERAGE(E152:E156)</f>
         <v/>
       </c>
-      <c r="H156" s="1">
+      <c r="H156" s="3">
         <f>AVERAGE(E127:E156)</f>
         <v/>
       </c>
-      <c r="I156" s="1">
+      <c r="I156" s="3">
         <f>G156-H156</f>
         <v/>
       </c>
@@ -5999,26 +6005,26 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>10404.42</v>
+        <v>10856.92</v>
       </c>
       <c r="C157" t="n">
-        <v>10418.97</v>
+        <v>10879.8</v>
       </c>
       <c r="D157" t="n">
-        <v>10322.76</v>
+        <v>10815.68</v>
       </c>
       <c r="E157" t="n">
-        <v>10355.76</v>
-      </c>
-      <c r="G157" s="1">
+        <v>10879.8</v>
+      </c>
+      <c r="G157" s="3">
         <f>AVERAGE(E153:E157)</f>
         <v/>
       </c>
-      <c r="H157" s="1">
+      <c r="H157" s="3">
         <f>AVERAGE(E128:E157)</f>
         <v/>
       </c>
-      <c r="I157" s="1">
+      <c r="I157" s="3">
         <f>G157-H157</f>
         <v/>
       </c>
@@ -6028,26 +6034,26 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10406.35</v>
+        <v>10899.09</v>
       </c>
       <c r="C158" t="n">
-        <v>10419.28</v>
+        <v>10918.47</v>
       </c>
       <c r="D158" t="n">
-        <v>10336.26</v>
+        <v>10869.12</v>
       </c>
       <c r="E158" t="n">
-        <v>10398.62</v>
-      </c>
-      <c r="G158" s="1">
+        <v>10915.75</v>
+      </c>
+      <c r="G158" s="3">
         <f>AVERAGE(E154:E158)</f>
         <v/>
       </c>
-      <c r="H158" s="1">
+      <c r="H158" s="3">
         <f>AVERAGE(E129:E158)</f>
         <v/>
       </c>
-      <c r="I158" s="1">
+      <c r="I158" s="3">
         <f>G158-H158</f>
         <v/>
       </c>
@@ -6057,26 +6063,26 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10438.33</v>
+        <v>10922.35</v>
       </c>
       <c r="C159" t="n">
-        <v>10504.67</v>
+        <v>10931</v>
       </c>
       <c r="D159" t="n">
-        <v>10438.33</v>
+        <v>10860.77</v>
       </c>
       <c r="E159" t="n">
-        <v>10473.09</v>
-      </c>
-      <c r="G159" s="1">
+        <v>10914.89</v>
+      </c>
+      <c r="G159" s="3">
         <f>AVERAGE(E155:E159)</f>
         <v/>
       </c>
-      <c r="H159" s="1">
+      <c r="H159" s="3">
         <f>AVERAGE(E130:E159)</f>
         <v/>
       </c>
-      <c r="I159" s="1">
+      <c r="I159" s="3">
         <f>G159-H159</f>
         <v/>
       </c>
@@ -6086,26 +6092,26 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10488.73</v>
+        <v>10915.32</v>
       </c>
       <c r="C160" t="n">
-        <v>10495.24</v>
+        <v>10934.75</v>
       </c>
       <c r="D160" t="n">
-        <v>10408.06</v>
+        <v>10819.25</v>
       </c>
       <c r="E160" t="n">
-        <v>10443.28</v>
-      </c>
-      <c r="G160" s="1">
+        <v>10831.09</v>
+      </c>
+      <c r="G160" s="3">
         <f>AVERAGE(E156:E160)</f>
         <v/>
       </c>
-      <c r="H160" s="1">
+      <c r="H160" s="3">
         <f>AVERAGE(E131:E160)</f>
         <v/>
       </c>
-      <c r="I160" s="1">
+      <c r="I160" s="3">
         <f>G160-H160</f>
         <v/>
       </c>
@@ -6115,26 +6121,26 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10447.11</v>
+        <v>10824.54</v>
       </c>
       <c r="C161" t="n">
-        <v>10489.17</v>
+        <v>10844.08</v>
       </c>
       <c r="D161" t="n">
-        <v>10444.7</v>
+        <v>10770.1</v>
       </c>
       <c r="E161" t="n">
-        <v>10470.7</v>
-      </c>
-      <c r="G161" s="1">
+        <v>10810.06</v>
+      </c>
+      <c r="G161" s="3">
         <f>AVERAGE(E157:E161)</f>
         <v/>
       </c>
-      <c r="H161" s="1">
+      <c r="H161" s="3">
         <f>AVERAGE(E132:E161)</f>
         <v/>
       </c>
-      <c r="I161" s="1">
+      <c r="I161" s="3">
         <f>G161-H161</f>
         <v/>
       </c>
@@ -6144,26 +6150,26 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>10494.6</v>
+        <v>10818.24</v>
       </c>
       <c r="C162" t="n">
-        <v>10577.53</v>
+        <v>10899.98</v>
       </c>
       <c r="D162" t="n">
-        <v>10494.6</v>
+        <v>10818.24</v>
       </c>
       <c r="E162" t="n">
-        <v>10538.01</v>
-      </c>
-      <c r="G162" s="1">
+        <v>10883.96</v>
+      </c>
+      <c r="G162" s="3">
         <f>AVERAGE(E158:E162)</f>
         <v/>
       </c>
-      <c r="H162" s="1">
+      <c r="H162" s="3">
         <f>AVERAGE(E133:E162)</f>
         <v/>
       </c>
-      <c r="I162" s="1">
+      <c r="I162" s="3">
         <f>G162-H162</f>
         <v/>
       </c>
@@ -6173,26 +6179,26 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>10517.21</v>
+        <v>10932.37</v>
       </c>
       <c r="C163" t="n">
-        <v>10520.66</v>
+        <v>10962.55</v>
       </c>
       <c r="D163" t="n">
-        <v>10436.11</v>
+        <v>10911.89</v>
       </c>
       <c r="E163" t="n">
-        <v>10491.44</v>
-      </c>
-      <c r="G163" s="1">
+        <v>10956.31</v>
+      </c>
+      <c r="G163" s="3">
         <f>AVERAGE(E159:E163)</f>
         <v/>
       </c>
-      <c r="H163" s="1">
+      <c r="H163" s="3">
         <f>AVERAGE(E134:E163)</f>
         <v/>
       </c>
-      <c r="I163" s="1">
+      <c r="I163" s="3">
         <f>G163-H163</f>
         <v/>
       </c>
@@ -6202,26 +6208,26 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10478.74</v>
+        <v>10955.81</v>
       </c>
       <c r="C164" t="n">
-        <v>10526.41</v>
+        <v>10986.11</v>
       </c>
       <c r="D164" t="n">
-        <v>10472.39</v>
+        <v>10920.5</v>
       </c>
       <c r="E164" t="n">
-        <v>10506.52</v>
-      </c>
-      <c r="G164" s="1">
+        <v>10986.11</v>
+      </c>
+      <c r="G164" s="3">
         <f>AVERAGE(E160:E164)</f>
         <v/>
       </c>
-      <c r="H164" s="1">
+      <c r="H164" s="3">
         <f>AVERAGE(E135:E164)</f>
         <v/>
       </c>
-      <c r="I164" s="1">
+      <c r="I164" s="3">
         <f>G164-H164</f>
         <v/>
       </c>
@@ -6231,26 +6237,26 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>10508.33</v>
+        <v>10976.13</v>
       </c>
       <c r="C165" t="n">
-        <v>10544</v>
+        <v>11030.22</v>
       </c>
       <c r="D165" t="n">
-        <v>10452.08</v>
+        <v>10942.95</v>
       </c>
       <c r="E165" t="n">
-        <v>10467.34</v>
-      </c>
-      <c r="G165" s="1">
+        <v>11004.8</v>
+      </c>
+      <c r="G165" s="3">
         <f>AVERAGE(E161:E165)</f>
         <v/>
       </c>
-      <c r="H165" s="1">
+      <c r="H165" s="3">
         <f>AVERAGE(E136:E165)</f>
         <v/>
       </c>
-      <c r="I165" s="1">
+      <c r="I165" s="3">
         <f>G165-H165</f>
         <v/>
       </c>
@@ -6260,26 +6266,26 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>10470.36</v>
+        <v>11048.06</v>
       </c>
       <c r="C166" t="n">
-        <v>10514.31</v>
+        <v>11122.82</v>
       </c>
       <c r="D166" t="n">
-        <v>10470.36</v>
+        <v>11048.06</v>
       </c>
       <c r="E166" t="n">
-        <v>10504.52</v>
-      </c>
-      <c r="G166" s="1">
+        <v>11071.57</v>
+      </c>
+      <c r="G166" s="3">
         <f>AVERAGE(E162:E166)</f>
         <v/>
       </c>
-      <c r="H166" s="1">
+      <c r="H166" s="3">
         <f>AVERAGE(E137:E166)</f>
         <v/>
       </c>
-      <c r="I166" s="1">
+      <c r="I166" s="3">
         <f>G166-H166</f>
         <v/>
       </c>
@@ -6289,26 +6295,26 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>10526.97</v>
+        <v>11123.58</v>
       </c>
       <c r="C167" t="n">
-        <v>10545.78</v>
+        <v>11150.85</v>
       </c>
       <c r="D167" t="n">
-        <v>10488.97</v>
+        <v>11095.85</v>
       </c>
       <c r="E167" t="n">
-        <v>10488.97</v>
-      </c>
-      <c r="G167" s="1">
+        <v>11150.85</v>
+      </c>
+      <c r="G167" s="3">
         <f>AVERAGE(E163:E167)</f>
         <v/>
       </c>
-      <c r="H167" s="1">
+      <c r="H167" s="3">
         <f>AVERAGE(E138:E167)</f>
         <v/>
       </c>
-      <c r="I167" s="1">
+      <c r="I167" s="3">
         <f>G167-H167</f>
         <v/>
       </c>
@@ -6318,26 +6324,26 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>10503.1</v>
+        <v>11169.79</v>
       </c>
       <c r="C168" t="n">
-        <v>10537.27</v>
+        <v>11231.46</v>
       </c>
       <c r="D168" t="n">
-        <v>10486.52</v>
+        <v>11142.38</v>
       </c>
       <c r="E168" t="n">
-        <v>10537.27</v>
-      </c>
-      <c r="G168" s="1">
+        <v>11231.46</v>
+      </c>
+      <c r="G168" s="3">
         <f>AVERAGE(E164:E168)</f>
         <v/>
       </c>
-      <c r="H168" s="1">
+      <c r="H168" s="3">
         <f>AVERAGE(E139:E168)</f>
         <v/>
       </c>
-      <c r="I168" s="1">
+      <c r="I168" s="3">
         <f>G168-H168</f>
         <v/>
       </c>
@@ -6347,26 +6353,26 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>10546.64</v>
+        <v>11243.49</v>
       </c>
       <c r="C169" t="n">
-        <v>10556.65</v>
+        <v>11270.18</v>
       </c>
       <c r="D169" t="n">
-        <v>10514.54</v>
+        <v>11201.52</v>
       </c>
       <c r="E169" t="n">
-        <v>10522.49</v>
-      </c>
-      <c r="G169" s="1">
+        <v>11253.11</v>
+      </c>
+      <c r="G169" s="3">
         <f>AVERAGE(E165:E169)</f>
         <v/>
       </c>
-      <c r="H169" s="1">
+      <c r="H169" s="3">
         <f>AVERAGE(E140:E169)</f>
         <v/>
       </c>
-      <c r="I169" s="1">
+      <c r="I169" s="3">
         <f>G169-H169</f>
         <v/>
       </c>
@@ -6376,26 +6382,26 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>10526.14</v>
+        <v>11228.71</v>
       </c>
       <c r="C170" t="n">
-        <v>10528.92</v>
+        <v>11228.71</v>
       </c>
       <c r="D170" t="n">
-        <v>10408.12</v>
+        <v>11107.32</v>
       </c>
       <c r="E170" t="n">
-        <v>10421.91</v>
-      </c>
-      <c r="G170" s="1">
+        <v>11152.16</v>
+      </c>
+      <c r="G170" s="3">
         <f>AVERAGE(E166:E170)</f>
         <v/>
       </c>
-      <c r="H170" s="1">
+      <c r="H170" s="3">
         <f>AVERAGE(E141:E170)</f>
         <v/>
       </c>
-      <c r="I170" s="1">
+      <c r="I170" s="3">
         <f>G170-H170</f>
         <v/>
       </c>
@@ -6405,26 +6411,26 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>10419.81</v>
+        <v>11154.36</v>
       </c>
       <c r="C171" t="n">
-        <v>10497.77</v>
+        <v>11268.61</v>
       </c>
       <c r="D171" t="n">
-        <v>10419.81</v>
+        <v>11131.85</v>
       </c>
       <c r="E171" t="n">
-        <v>10486.67</v>
-      </c>
-      <c r="G171" s="1">
+        <v>11165.95</v>
+      </c>
+      <c r="G171" s="3">
         <f>AVERAGE(E167:E171)</f>
         <v/>
       </c>
-      <c r="H171" s="1">
+      <c r="H171" s="3">
         <f>AVERAGE(E142:E171)</f>
         <v/>
       </c>
-      <c r="I171" s="1">
+      <c r="I171" s="3">
         <f>G171-H171</f>
         <v/>
       </c>
@@ -6434,26 +6440,26 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>10513.29</v>
+        <v>11152.53</v>
       </c>
       <c r="C172" t="n">
-        <v>10592.04</v>
+        <v>11178.3</v>
       </c>
       <c r="D172" t="n">
-        <v>10513.29</v>
+        <v>11089.48</v>
       </c>
       <c r="E172" t="n">
-        <v>10567.64</v>
-      </c>
-      <c r="G172" s="1">
+        <v>11147.1</v>
+      </c>
+      <c r="G172" s="3">
         <f>AVERAGE(E168:E172)</f>
         <v/>
       </c>
-      <c r="H172" s="1">
+      <c r="H172" s="3">
         <f>AVERAGE(E143:E172)</f>
         <v/>
       </c>
-      <c r="I172" s="1">
+      <c r="I172" s="3">
         <f>G172-H172</f>
         <v/>
       </c>
@@ -6463,26 +6469,26 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>10590.95</v>
+        <v>11202.27</v>
       </c>
       <c r="C173" t="n">
-        <v>10659.98</v>
+        <v>11246.18</v>
       </c>
       <c r="D173" t="n">
-        <v>10590.95</v>
+        <v>11161.83</v>
       </c>
       <c r="E173" t="n">
-        <v>10642.86</v>
-      </c>
-      <c r="G173" s="1">
+        <v>11221.81</v>
+      </c>
+      <c r="G173" s="3">
         <f>AVERAGE(E169:E173)</f>
         <v/>
       </c>
-      <c r="H173" s="1">
+      <c r="H173" s="3">
         <f>AVERAGE(E144:E173)</f>
         <v/>
       </c>
-      <c r="I173" s="1">
+      <c r="I173" s="3">
         <f>G173-H173</f>
         <v/>
       </c>
@@ -6492,26 +6498,26 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>10664.82</v>
+        <v>11189.57</v>
       </c>
       <c r="C174" t="n">
-        <v>10710.73</v>
+        <v>11189.57</v>
       </c>
       <c r="D174" t="n">
-        <v>10650.77</v>
+        <v>11076.78</v>
       </c>
       <c r="E174" t="n">
-        <v>10710.73</v>
-      </c>
-      <c r="G174" s="1">
+        <v>11076.78</v>
+      </c>
+      <c r="G174" s="3">
         <f>AVERAGE(E170:E174)</f>
         <v/>
       </c>
-      <c r="H174" s="1">
+      <c r="H174" s="3">
         <f>AVERAGE(E145:E174)</f>
         <v/>
       </c>
-      <c r="I174" s="1">
+      <c r="I174" s="3">
         <f>G174-H174</f>
         <v/>
       </c>
@@ -6521,26 +6527,26 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>10759.61</v>
+        <v>11054.36</v>
       </c>
       <c r="C175" t="n">
-        <v>10813.16</v>
+        <v>11158.29</v>
       </c>
       <c r="D175" t="n">
-        <v>10759.61</v>
+        <v>11007.89</v>
       </c>
       <c r="E175" t="n">
-        <v>10801.57</v>
-      </c>
-      <c r="G175" s="1">
+        <v>11103.79</v>
+      </c>
+      <c r="G175" s="3">
         <f>AVERAGE(E171:E175)</f>
         <v/>
       </c>
-      <c r="H175" s="1">
+      <c r="H175" s="3">
         <f>AVERAGE(E146:E175)</f>
         <v/>
       </c>
-      <c r="I175" s="1">
+      <c r="I175" s="3">
         <f>G175-H175</f>
         <v/>
       </c>
@@ -6550,26 +6556,26 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>10834.58</v>
+        <v>11139.4</v>
       </c>
       <c r="C176" t="n">
-        <v>10853.46</v>
+        <v>11212.1</v>
       </c>
       <c r="D176" t="n">
-        <v>10794.25</v>
+        <v>11139.4</v>
       </c>
       <c r="E176" t="n">
-        <v>10848.63</v>
-      </c>
-      <c r="G176" s="1">
+        <v>11160.25</v>
+      </c>
+      <c r="G176" s="3">
         <f>AVERAGE(E172:E176)</f>
         <v/>
       </c>
-      <c r="H176" s="1">
+      <c r="H176" s="3">
         <f>AVERAGE(E147:E176)</f>
         <v/>
       </c>
-      <c r="I176" s="1">
+      <c r="I176" s="3">
         <f>G176-H176</f>
         <v/>
       </c>
@@ -6579,26 +6585,26 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>10856.92</v>
+        <v>11151.65</v>
       </c>
       <c r="C177" t="n">
-        <v>10879.8</v>
+        <v>11153.32</v>
       </c>
       <c r="D177" t="n">
-        <v>10815.68</v>
+        <v>11070.43</v>
       </c>
       <c r="E177" t="n">
-        <v>10879.8</v>
-      </c>
-      <c r="G177" s="1">
+        <v>11126.23</v>
+      </c>
+      <c r="G177" s="3">
         <f>AVERAGE(E173:E177)</f>
         <v/>
       </c>
-      <c r="H177" s="1">
+      <c r="H177" s="3">
         <f>AVERAGE(E148:E177)</f>
         <v/>
       </c>
-      <c r="I177" s="1">
+      <c r="I177" s="3">
         <f>G177-H177</f>
         <v/>
       </c>
@@ -6608,26 +6614,26 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>10899.09</v>
+        <v>10970.3</v>
       </c>
       <c r="C178" t="n">
-        <v>10918.47</v>
+        <v>10970.3</v>
       </c>
       <c r="D178" t="n">
-        <v>10869.12</v>
+        <v>10855.43</v>
       </c>
       <c r="E178" t="n">
-        <v>10915.75</v>
-      </c>
-      <c r="G178" s="1">
+        <v>10946.25</v>
+      </c>
+      <c r="G178" s="3">
         <f>AVERAGE(E174:E178)</f>
         <v/>
       </c>
-      <c r="H178" s="1">
+      <c r="H178" s="3">
         <f>AVERAGE(E149:E178)</f>
         <v/>
       </c>
-      <c r="I178" s="1">
+      <c r="I178" s="3">
         <f>G178-H178</f>
         <v/>
       </c>
@@ -6637,26 +6643,26 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>10922.35</v>
+        <v>10761.01</v>
       </c>
       <c r="C179" t="n">
-        <v>10931</v>
+        <v>10761.01</v>
       </c>
       <c r="D179" t="n">
-        <v>10860.77</v>
+        <v>10300.4</v>
       </c>
       <c r="E179" t="n">
-        <v>10914.89</v>
-      </c>
-      <c r="G179" s="1">
+        <v>10404</v>
+      </c>
+      <c r="G179" s="3">
         <f>AVERAGE(E175:E179)</f>
         <v/>
       </c>
-      <c r="H179" s="1">
+      <c r="H179" s="3">
         <f>AVERAGE(E150:E179)</f>
         <v/>
       </c>
-      <c r="I179" s="1">
+      <c r="I179" s="3">
         <f>G179-H179</f>
         <v/>
       </c>
@@ -6666,26 +6672,26 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>10915.32</v>
+        <v>10547.64</v>
       </c>
       <c r="C180" t="n">
-        <v>10934.75</v>
+        <v>10697.82</v>
       </c>
       <c r="D180" t="n">
-        <v>10819.25</v>
+        <v>10547.64</v>
       </c>
       <c r="E180" t="n">
-        <v>10831.09</v>
-      </c>
-      <c r="G180" s="1">
+        <v>10551.54</v>
+      </c>
+      <c r="G180" s="3">
         <f>AVERAGE(E176:E180)</f>
         <v/>
       </c>
-      <c r="H180" s="1">
+      <c r="H180" s="3">
         <f>AVERAGE(E151:E180)</f>
         <v/>
       </c>
-      <c r="I180" s="1">
+      <c r="I180" s="3">
         <f>G180-H180</f>
         <v/>
       </c>
@@ -6695,26 +6701,26 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>10824.54</v>
+        <v>10559.44</v>
       </c>
       <c r="C181" t="n">
-        <v>10844.08</v>
+        <v>10609.5</v>
       </c>
       <c r="D181" t="n">
-        <v>10770.1</v>
+        <v>10512.93</v>
       </c>
       <c r="E181" t="n">
-        <v>10810.06</v>
-      </c>
-      <c r="G181" s="1">
+        <v>10528.52</v>
+      </c>
+      <c r="G181" s="3">
         <f>AVERAGE(E177:E181)</f>
         <v/>
       </c>
-      <c r="H181" s="1">
+      <c r="H181" s="3">
         <f>AVERAGE(E152:E181)</f>
         <v/>
       </c>
-      <c r="I181" s="1">
+      <c r="I181" s="3">
         <f>G181-H181</f>
         <v/>
       </c>
@@ -6724,26 +6730,26 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>10818.24</v>
+        <v>10371.01</v>
       </c>
       <c r="C182" t="n">
-        <v>10899.98</v>
+        <v>10392.31</v>
       </c>
       <c r="D182" t="n">
-        <v>10818.24</v>
+        <v>10189.04</v>
       </c>
       <c r="E182" t="n">
-        <v>10883.96</v>
-      </c>
-      <c r="G182" s="1">
+        <v>10371.75</v>
+      </c>
+      <c r="G182" s="3">
         <f>AVERAGE(E178:E182)</f>
         <v/>
       </c>
-      <c r="H182" s="1">
+      <c r="H182" s="3">
         <f>AVERAGE(E153:E182)</f>
         <v/>
       </c>
-      <c r="I182" s="1">
+      <c r="I182" s="3">
         <f>G182-H182</f>
         <v/>
       </c>
@@ -6753,26 +6759,26 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>10932.37</v>
+        <v>10429.09</v>
       </c>
       <c r="C183" t="n">
-        <v>10962.55</v>
+        <v>10473.51</v>
       </c>
       <c r="D183" t="n">
-        <v>10911.89</v>
+        <v>10416.01</v>
       </c>
       <c r="E183" t="n">
-        <v>10956.31</v>
-      </c>
-      <c r="G183" s="1">
+        <v>10421.09</v>
+      </c>
+      <c r="G183" s="3">
         <f>AVERAGE(E179:E183)</f>
         <v/>
       </c>
-      <c r="H183" s="1">
+      <c r="H183" s="3">
         <f>AVERAGE(E154:E183)</f>
         <v/>
       </c>
-      <c r="I183" s="1">
+      <c r="I183" s="3">
         <f>G183-H183</f>
         <v/>
       </c>
@@ -6782,26 +6788,26 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>10955.81</v>
+        <v>10559.79</v>
       </c>
       <c r="C184" t="n">
-        <v>10986.11</v>
+        <v>10720.48</v>
       </c>
       <c r="D184" t="n">
-        <v>10920.5</v>
+        <v>10559.79</v>
       </c>
       <c r="E184" t="n">
-        <v>10986.11</v>
-      </c>
-      <c r="G184" s="1">
+        <v>10714.44</v>
+      </c>
+      <c r="G184" s="3">
         <f>AVERAGE(E180:E184)</f>
         <v/>
       </c>
-      <c r="H184" s="1">
+      <c r="H184" s="3">
         <f>AVERAGE(E155:E184)</f>
         <v/>
       </c>
-      <c r="I184" s="1">
+      <c r="I184" s="3">
         <f>G184-H184</f>
         <v/>
       </c>
@@ -6811,26 +6817,26 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>10976.13</v>
+        <v>10698.47</v>
       </c>
       <c r="C185" t="n">
-        <v>11030.22</v>
+        <v>10698.47</v>
       </c>
       <c r="D185" t="n">
-        <v>10942.95</v>
+        <v>10620.8</v>
       </c>
       <c r="E185" t="n">
-        <v>11004.8</v>
-      </c>
-      <c r="G185" s="1">
+        <v>10662.38</v>
+      </c>
+      <c r="G185" s="3">
         <f>AVERAGE(E181:E185)</f>
         <v/>
       </c>
-      <c r="H185" s="1">
+      <c r="H185" s="3">
         <f>AVERAGE(E156:E185)</f>
         <v/>
       </c>
-      <c r="I185" s="1">
+      <c r="I185" s="3">
         <f>G185-H185</f>
         <v/>
       </c>
@@ -6840,26 +6846,26 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>11048.06</v>
+        <v>10688.97</v>
       </c>
       <c r="C186" t="n">
-        <v>11122.82</v>
+        <v>10799.29</v>
       </c>
       <c r="D186" t="n">
-        <v>11048.06</v>
+        <v>10688.97</v>
       </c>
       <c r="E186" t="n">
-        <v>11071.57</v>
-      </c>
-      <c r="G186" s="1">
+        <v>10794.55</v>
+      </c>
+      <c r="G186" s="3">
         <f>AVERAGE(E182:E186)</f>
         <v/>
       </c>
-      <c r="H186" s="1">
+      <c r="H186" s="3">
         <f>AVERAGE(E157:E186)</f>
         <v/>
       </c>
-      <c r="I186" s="1">
+      <c r="I186" s="3">
         <f>G186-H186</f>
         <v/>
       </c>
@@ -6869,26 +6875,26 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>11123.58</v>
+        <v>10827.98</v>
       </c>
       <c r="C187" t="n">
-        <v>11150.85</v>
+        <v>10890.69</v>
       </c>
       <c r="D187" t="n">
-        <v>11095.85</v>
+        <v>10827.98</v>
       </c>
       <c r="E187" t="n">
-        <v>11150.85</v>
-      </c>
-      <c r="G187" s="1">
+        <v>10836.7</v>
+      </c>
+      <c r="G187" s="3">
         <f>AVERAGE(E183:E187)</f>
         <v/>
       </c>
-      <c r="H187" s="1">
+      <c r="H187" s="3">
         <f>AVERAGE(E158:E187)</f>
         <v/>
       </c>
-      <c r="I187" s="1">
+      <c r="I187" s="3">
         <f>G187-H187</f>
         <v/>
       </c>
@@ -6898,26 +6904,26 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>11169.79</v>
+        <v>10896.16</v>
       </c>
       <c r="C188" t="n">
-        <v>11231.46</v>
+        <v>10937.9</v>
       </c>
       <c r="D188" t="n">
-        <v>11142.38</v>
+        <v>10815.47</v>
       </c>
       <c r="E188" t="n">
-        <v>11231.46</v>
-      </c>
-      <c r="G188" s="1">
+        <v>10815.47</v>
+      </c>
+      <c r="G188" s="3">
         <f>AVERAGE(E184:E188)</f>
         <v/>
       </c>
-      <c r="H188" s="1">
+      <c r="H188" s="3">
         <f>AVERAGE(E159:E188)</f>
         <v/>
       </c>
-      <c r="I188" s="1">
+      <c r="I188" s="3">
         <f>G188-H188</f>
         <v/>
       </c>
@@ -6927,26 +6933,26 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>11243.49</v>
+        <v>10779.1</v>
       </c>
       <c r="C189" t="n">
-        <v>11270.18</v>
+        <v>10805.55</v>
       </c>
       <c r="D189" t="n">
-        <v>11201.52</v>
+        <v>10709.69</v>
       </c>
       <c r="E189" t="n">
-        <v>11253.11</v>
-      </c>
-      <c r="G189" s="1">
+        <v>10785.79</v>
+      </c>
+      <c r="G189" s="3">
         <f>AVERAGE(E185:E189)</f>
         <v/>
       </c>
-      <c r="H189" s="1">
+      <c r="H189" s="3">
         <f>AVERAGE(E160:E189)</f>
         <v/>
       </c>
-      <c r="I189" s="1">
+      <c r="I189" s="3">
         <f>G189-H189</f>
         <v/>
       </c>
@@ -6956,26 +6962,26 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>11228.71</v>
+        <v>10719.29</v>
       </c>
       <c r="C190" t="n">
-        <v>11228.71</v>
+        <v>10719.29</v>
       </c>
       <c r="D190" t="n">
-        <v>11107.32</v>
+        <v>10638.98</v>
       </c>
       <c r="E190" t="n">
-        <v>11152.16</v>
-      </c>
-      <c r="G190" s="1">
+        <v>10698.17</v>
+      </c>
+      <c r="G190" s="3">
         <f>AVERAGE(E186:E190)</f>
         <v/>
       </c>
-      <c r="H190" s="1">
+      <c r="H190" s="3">
         <f>AVERAGE(E161:E190)</f>
         <v/>
       </c>
-      <c r="I190" s="1">
+      <c r="I190" s="3">
         <f>G190-H190</f>
         <v/>
       </c>
@@ -6985,26 +6991,26 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>11154.36</v>
+        <v>10727.45</v>
       </c>
       <c r="C191" t="n">
-        <v>11268.61</v>
+        <v>10756.37</v>
       </c>
       <c r="D191" t="n">
-        <v>11131.85</v>
+        <v>10642.9</v>
       </c>
       <c r="E191" t="n">
-        <v>11165.95</v>
-      </c>
-      <c r="G191" s="1">
+        <v>10642.9</v>
+      </c>
+      <c r="G191" s="3">
         <f>AVERAGE(E187:E191)</f>
         <v/>
       </c>
-      <c r="H191" s="1">
+      <c r="H191" s="3">
         <f>AVERAGE(E162:E191)</f>
         <v/>
       </c>
-      <c r="I191" s="1">
+      <c r="I191" s="3">
         <f>G191-H191</f>
         <v/>
       </c>
@@ -7014,26 +7020,26 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>11152.53</v>
+        <v>10711.15</v>
       </c>
       <c r="C192" t="n">
-        <v>11178.3</v>
+        <v>10784.34</v>
       </c>
       <c r="D192" t="n">
-        <v>11089.48</v>
+        <v>10711.15</v>
       </c>
       <c r="E192" t="n">
-        <v>11147.1</v>
-      </c>
-      <c r="G192" s="1">
+        <v>10784.34</v>
+      </c>
+      <c r="G192" s="3">
         <f>AVERAGE(E188:E192)</f>
         <v/>
       </c>
-      <c r="H192" s="1">
+      <c r="H192" s="3">
         <f>AVERAGE(E163:E192)</f>
         <v/>
       </c>
-      <c r="I192" s="1">
+      <c r="I192" s="3">
         <f>G192-H192</f>
         <v/>
       </c>
@@ -7043,26 +7049,26 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>11202.27</v>
+        <v>10762.99</v>
       </c>
       <c r="C193" t="n">
-        <v>11246.18</v>
+        <v>10818.05</v>
       </c>
       <c r="D193" t="n">
-        <v>11161.83</v>
+        <v>10745.32</v>
       </c>
       <c r="E193" t="n">
-        <v>11221.81</v>
-      </c>
-      <c r="G193" s="1">
+        <v>10745.32</v>
+      </c>
+      <c r="G193" s="3">
         <f>AVERAGE(E189:E193)</f>
         <v/>
       </c>
-      <c r="H193" s="1">
+      <c r="H193" s="3">
         <f>AVERAGE(E164:E193)</f>
         <v/>
       </c>
-      <c r="I193" s="1">
+      <c r="I193" s="3">
         <f>G193-H193</f>
         <v/>
       </c>
@@ -7072,26 +7078,26 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>11189.57</v>
+        <v>10788.43</v>
       </c>
       <c r="C194" t="n">
-        <v>11189.57</v>
+        <v>10852.33</v>
       </c>
       <c r="D194" t="n">
-        <v>11076.78</v>
+        <v>10788.43</v>
       </c>
       <c r="E194" t="n">
-        <v>11076.78</v>
-      </c>
-      <c r="G194" s="1">
+        <v>10823.24</v>
+      </c>
+      <c r="G194" s="3">
         <f>AVERAGE(E190:E194)</f>
         <v/>
       </c>
-      <c r="H194" s="1">
+      <c r="H194" s="3">
         <f>AVERAGE(E165:E194)</f>
         <v/>
       </c>
-      <c r="I194" s="1">
+      <c r="I194" s="3">
         <f>G194-H194</f>
         <v/>
       </c>
@@ -7101,26 +7107,26 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>11054.36</v>
+        <v>10847.74</v>
       </c>
       <c r="C195" t="n">
-        <v>11158.29</v>
+        <v>10882.76</v>
       </c>
       <c r="D195" t="n">
-        <v>11007.89</v>
+        <v>10845.38</v>
       </c>
       <c r="E195" t="n">
-        <v>11103.79</v>
-      </c>
-      <c r="G195" s="1">
+        <v>10864.82</v>
+      </c>
+      <c r="G195" s="3">
         <f>AVERAGE(E191:E195)</f>
         <v/>
       </c>
-      <c r="H195" s="1">
+      <c r="H195" s="3">
         <f>AVERAGE(E166:E195)</f>
         <v/>
       </c>
-      <c r="I195" s="1">
+      <c r="I195" s="3">
         <f>G195-H195</f>
         <v/>
       </c>
@@ -7130,26 +7136,26 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>11139.4</v>
+        <v>10908.99</v>
       </c>
       <c r="C196" t="n">
-        <v>11212.1</v>
+        <v>11016.56</v>
       </c>
       <c r="D196" t="n">
-        <v>11139.4</v>
+        <v>10908.99</v>
       </c>
       <c r="E196" t="n">
-        <v>11160.25</v>
-      </c>
-      <c r="G196" s="1">
+        <v>11002.1</v>
+      </c>
+      <c r="G196" s="3">
         <f>AVERAGE(E192:E196)</f>
         <v/>
       </c>
-      <c r="H196" s="1">
+      <c r="H196" s="3">
         <f>AVERAGE(E167:E196)</f>
         <v/>
       </c>
-      <c r="I196" s="1">
+      <c r="I196" s="3">
         <f>G196-H196</f>
         <v/>
       </c>
@@ -7159,26 +7165,26 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>11151.65</v>
+        <v>11022.15</v>
       </c>
       <c r="C197" t="n">
-        <v>11153.32</v>
+        <v>11095.63</v>
       </c>
       <c r="D197" t="n">
-        <v>11070.43</v>
+        <v>11014.87</v>
       </c>
       <c r="E197" t="n">
-        <v>11126.23</v>
-      </c>
-      <c r="G197" s="1">
+        <v>11095.63</v>
+      </c>
+      <c r="G197" s="3">
         <f>AVERAGE(E193:E197)</f>
         <v/>
       </c>
-      <c r="H197" s="1">
+      <c r="H197" s="3">
         <f>AVERAGE(E168:E197)</f>
         <v/>
       </c>
-      <c r="I197" s="1">
+      <c r="I197" s="3">
         <f>G197-H197</f>
         <v/>
       </c>
@@ -7188,26 +7194,26 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>10970.3</v>
+        <v>11063.73</v>
       </c>
       <c r="C198" t="n">
-        <v>10970.3</v>
+        <v>11070.29</v>
       </c>
       <c r="D198" t="n">
-        <v>10855.43</v>
+        <v>11015.47</v>
       </c>
       <c r="E198" t="n">
-        <v>10946.25</v>
-      </c>
-      <c r="G198" s="1">
+        <v>11038.8</v>
+      </c>
+      <c r="G198" s="3">
         <f>AVERAGE(E194:E198)</f>
         <v/>
       </c>
-      <c r="H198" s="1">
+      <c r="H198" s="3">
         <f>AVERAGE(E169:E198)</f>
         <v/>
       </c>
-      <c r="I198" s="1">
+      <c r="I198" s="3">
         <f>G198-H198</f>
         <v/>
       </c>
@@ -7217,26 +7223,26 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>10761.01</v>
+        <v>11039.6</v>
       </c>
       <c r="C199" t="n">
-        <v>10761.01</v>
+        <v>11052.11</v>
       </c>
       <c r="D199" t="n">
-        <v>10300.4</v>
+        <v>11008.18</v>
       </c>
       <c r="E199" t="n">
-        <v>10404</v>
-      </c>
-      <c r="G199" s="1">
+        <v>11018.45</v>
+      </c>
+      <c r="G199" s="3">
         <f>AVERAGE(E195:E199)</f>
         <v/>
       </c>
-      <c r="H199" s="1">
+      <c r="H199" s="3">
         <f>AVERAGE(E170:E199)</f>
         <v/>
       </c>
-      <c r="I199" s="1">
+      <c r="I199" s="3">
         <f>G199-H199</f>
         <v/>
       </c>
@@ -7246,26 +7252,26 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>10547.64</v>
+        <v>11010.24</v>
       </c>
       <c r="C200" t="n">
-        <v>10697.82</v>
+        <v>11054.86</v>
       </c>
       <c r="D200" t="n">
-        <v>10547.64</v>
+        <v>10933.46</v>
       </c>
       <c r="E200" t="n">
-        <v>10551.54</v>
-      </c>
-      <c r="G200" s="1">
+        <v>11027.7</v>
+      </c>
+      <c r="G200" s="3">
         <f>AVERAGE(E196:E200)</f>
         <v/>
       </c>
-      <c r="H200" s="1">
+      <c r="H200" s="3">
         <f>AVERAGE(E171:E200)</f>
         <v/>
       </c>
-      <c r="I200" s="1">
+      <c r="I200" s="3">
         <f>G200-H200</f>
         <v/>
       </c>
@@ -7275,26 +7281,26 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>10559.44</v>
+        <v>11004.81</v>
       </c>
       <c r="C201" t="n">
-        <v>10609.5</v>
+        <v>11066</v>
       </c>
       <c r="D201" t="n">
-        <v>10512.93</v>
+        <v>10983.25</v>
       </c>
       <c r="E201" t="n">
-        <v>10528.52</v>
-      </c>
-      <c r="G201" s="1">
+        <v>11046.9</v>
+      </c>
+      <c r="G201" s="3">
         <f>AVERAGE(E197:E201)</f>
         <v/>
       </c>
-      <c r="H201" s="1">
+      <c r="H201" s="3">
         <f>AVERAGE(E172:E201)</f>
         <v/>
       </c>
-      <c r="I201" s="1">
+      <c r="I201" s="3">
         <f>G201-H201</f>
         <v/>
       </c>
@@ -7304,26 +7310,26 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>10371.01</v>
+        <v>11016.85</v>
       </c>
       <c r="C202" t="n">
-        <v>10392.31</v>
+        <v>11020.78</v>
       </c>
       <c r="D202" t="n">
-        <v>10189.04</v>
+        <v>10981.04</v>
       </c>
       <c r="E202" t="n">
-        <v>10371.75</v>
-      </c>
-      <c r="G202" s="1">
+        <v>11010.84</v>
+      </c>
+      <c r="G202" s="3">
         <f>AVERAGE(E198:E202)</f>
         <v/>
       </c>
-      <c r="H202" s="1">
+      <c r="H202" s="3">
         <f>AVERAGE(E173:E202)</f>
         <v/>
       </c>
-      <c r="I202" s="1">
+      <c r="I202" s="3">
         <f>G202-H202</f>
         <v/>
       </c>
@@ -7333,26 +7339,26 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>10429.09</v>
+        <v>11037.35</v>
       </c>
       <c r="C203" t="n">
-        <v>10473.51</v>
+        <v>11072.31</v>
       </c>
       <c r="D203" t="n">
-        <v>10416.01</v>
+        <v>11011.07</v>
       </c>
       <c r="E203" t="n">
-        <v>10421.09</v>
-      </c>
-      <c r="G203" s="1">
+        <v>11011.07</v>
+      </c>
+      <c r="G203" s="3">
         <f>AVERAGE(E199:E203)</f>
         <v/>
       </c>
-      <c r="H203" s="1">
+      <c r="H203" s="3">
         <f>AVERAGE(E174:E203)</f>
         <v/>
       </c>
-      <c r="I203" s="1">
+      <c r="I203" s="3">
         <f>G203-H203</f>
         <v/>
       </c>
@@ -7362,26 +7368,26 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>10559.79</v>
+        <v>11045.9</v>
       </c>
       <c r="C204" t="n">
-        <v>10720.48</v>
+        <v>11120.2</v>
       </c>
       <c r="D204" t="n">
-        <v>10559.79</v>
+        <v>10975.33</v>
       </c>
       <c r="E204" t="n">
-        <v>10714.44</v>
-      </c>
-      <c r="G204" s="1">
+        <v>11005.84</v>
+      </c>
+      <c r="G204" s="3">
         <f>AVERAGE(E200:E204)</f>
         <v/>
       </c>
-      <c r="H204" s="1">
+      <c r="H204" s="3">
         <f>AVERAGE(E175:E204)</f>
         <v/>
       </c>
-      <c r="I204" s="1">
+      <c r="I204" s="3">
         <f>G204-H204</f>
         <v/>
       </c>
@@ -7391,26 +7397,26 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>10698.47</v>
+        <v>10863.67</v>
       </c>
       <c r="C205" t="n">
-        <v>10698.47</v>
+        <v>10863.67</v>
       </c>
       <c r="D205" t="n">
-        <v>10620.8</v>
+        <v>10758.06</v>
       </c>
       <c r="E205" t="n">
-        <v>10662.38</v>
-      </c>
-      <c r="G205" s="1">
+        <v>10823.33</v>
+      </c>
+      <c r="G205" s="3">
         <f>AVERAGE(E201:E205)</f>
         <v/>
       </c>
-      <c r="H205" s="1">
+      <c r="H205" s="3">
         <f>AVERAGE(E176:E205)</f>
         <v/>
       </c>
-      <c r="I205" s="1">
+      <c r="I205" s="3">
         <f>G205-H205</f>
         <v/>
       </c>
@@ -7420,26 +7426,26 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>10688.97</v>
+        <v>10783.57</v>
       </c>
       <c r="C206" t="n">
-        <v>10799.29</v>
+        <v>10840.05</v>
       </c>
       <c r="D206" t="n">
-        <v>10688.97</v>
+        <v>10781.43</v>
       </c>
       <c r="E206" t="n">
-        <v>10794.55</v>
-      </c>
-      <c r="G206" s="1">
+        <v>10840.05</v>
+      </c>
+      <c r="G206" s="3">
         <f>AVERAGE(E202:E206)</f>
         <v/>
       </c>
-      <c r="H206" s="1">
+      <c r="H206" s="3">
         <f>AVERAGE(E177:E206)</f>
         <v/>
       </c>
-      <c r="I206" s="1">
+      <c r="I206" s="3">
         <f>G206-H206</f>
         <v/>
       </c>
@@ -7449,26 +7455,26 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>10827.98</v>
+        <v>10901.69</v>
       </c>
       <c r="C207" t="n">
-        <v>10890.69</v>
+        <v>10986.79</v>
       </c>
       <c r="D207" t="n">
-        <v>10827.98</v>
+        <v>10901.69</v>
       </c>
       <c r="E207" t="n">
-        <v>10836.7</v>
-      </c>
-      <c r="G207" s="1">
+        <v>10986.79</v>
+      </c>
+      <c r="G207" s="3">
         <f>AVERAGE(E203:E207)</f>
         <v/>
       </c>
-      <c r="H207" s="1">
+      <c r="H207" s="3">
         <f>AVERAGE(E178:E207)</f>
         <v/>
       </c>
-      <c r="I207" s="1">
+      <c r="I207" s="3">
         <f>G207-H207</f>
         <v/>
       </c>
@@ -7478,26 +7484,26 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>10896.16</v>
+        <v>10939.97</v>
       </c>
       <c r="C208" t="n">
-        <v>10937.9</v>
+        <v>10939.97</v>
       </c>
       <c r="D208" t="n">
-        <v>10815.47</v>
+        <v>10853.48</v>
       </c>
       <c r="E208" t="n">
-        <v>10815.47</v>
-      </c>
-      <c r="G208" s="1">
+        <v>10865.66</v>
+      </c>
+      <c r="G208" s="3">
         <f>AVERAGE(E204:E208)</f>
         <v/>
       </c>
-      <c r="H208" s="1">
+      <c r="H208" s="3">
         <f>AVERAGE(E179:E208)</f>
         <v/>
       </c>
-      <c r="I208" s="1">
+      <c r="I208" s="3">
         <f>G208-H208</f>
         <v/>
       </c>
@@ -7507,26 +7513,26 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>10779.1</v>
+        <v>10855.66</v>
       </c>
       <c r="C209" t="n">
-        <v>10805.55</v>
+        <v>10889.6</v>
       </c>
       <c r="D209" t="n">
-        <v>10709.69</v>
+        <v>10815.46</v>
       </c>
       <c r="E209" t="n">
-        <v>10785.79</v>
-      </c>
-      <c r="G209" s="1">
+        <v>10845.92</v>
+      </c>
+      <c r="G209" s="3">
         <f>AVERAGE(E205:E209)</f>
         <v/>
       </c>
-      <c r="H209" s="1">
+      <c r="H209" s="3">
         <f>AVERAGE(E180:E209)</f>
         <v/>
       </c>
-      <c r="I209" s="1">
+      <c r="I209" s="3">
         <f>G209-H209</f>
         <v/>
       </c>
@@ -7536,26 +7542,26 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>10719.29</v>
+        <v>10905.3</v>
       </c>
       <c r="C210" t="n">
-        <v>10719.29</v>
+        <v>10969.22</v>
       </c>
       <c r="D210" t="n">
-        <v>10638.98</v>
+        <v>10905.3</v>
       </c>
       <c r="E210" t="n">
-        <v>10698.17</v>
-      </c>
-      <c r="G210" s="1">
+        <v>10906.22</v>
+      </c>
+      <c r="G210" s="3">
         <f>AVERAGE(E206:E210)</f>
         <v/>
       </c>
-      <c r="H210" s="1">
+      <c r="H210" s="3">
         <f>AVERAGE(E181:E210)</f>
         <v/>
       </c>
-      <c r="I210" s="1">
+      <c r="I210" s="3">
         <f>G210-H210</f>
         <v/>
       </c>
@@ -7565,26 +7571,26 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>10727.45</v>
+        <v>10925.71</v>
       </c>
       <c r="C211" t="n">
-        <v>10756.37</v>
+        <v>10947.16</v>
       </c>
       <c r="D211" t="n">
-        <v>10642.9</v>
+        <v>10905.69</v>
       </c>
       <c r="E211" t="n">
-        <v>10642.9</v>
-      </c>
-      <c r="G211" s="1">
+        <v>10919.49</v>
+      </c>
+      <c r="G211" s="3">
         <f>AVERAGE(E207:E211)</f>
         <v/>
       </c>
-      <c r="H211" s="1">
+      <c r="H211" s="3">
         <f>AVERAGE(E182:E211)</f>
         <v/>
       </c>
-      <c r="I211" s="1">
+      <c r="I211" s="3">
         <f>G211-H211</f>
         <v/>
       </c>
@@ -7594,26 +7600,26 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>10711.15</v>
+        <v>10936.26</v>
       </c>
       <c r="C212" t="n">
-        <v>10784.34</v>
+        <v>10969.88</v>
       </c>
       <c r="D212" t="n">
-        <v>10711.15</v>
+        <v>10882.05</v>
       </c>
       <c r="E212" t="n">
-        <v>10784.34</v>
-      </c>
-      <c r="G212" s="1">
+        <v>10888.27</v>
+      </c>
+      <c r="G212" s="3">
         <f>AVERAGE(E208:E212)</f>
         <v/>
       </c>
-      <c r="H212" s="1">
+      <c r="H212" s="3">
         <f>AVERAGE(E183:E212)</f>
         <v/>
       </c>
-      <c r="I212" s="1">
+      <c r="I212" s="3">
         <f>G212-H212</f>
         <v/>
       </c>
@@ -7623,26 +7629,26 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>10762.99</v>
+        <v>10837.54</v>
       </c>
       <c r="C213" t="n">
-        <v>10818.05</v>
+        <v>10837.54</v>
       </c>
       <c r="D213" t="n">
-        <v>10745.32</v>
+        <v>10775.45</v>
       </c>
       <c r="E213" t="n">
-        <v>10745.32</v>
-      </c>
-      <c r="G213" s="1">
+        <v>10821.53</v>
+      </c>
+      <c r="G213" s="3">
         <f>AVERAGE(E209:E213)</f>
         <v/>
       </c>
-      <c r="H213" s="1">
+      <c r="H213" s="3">
         <f>AVERAGE(E184:E213)</f>
         <v/>
       </c>
-      <c r="I213" s="1">
+      <c r="I213" s="3">
         <f>G213-H213</f>
         <v/>
       </c>
@@ -7652,26 +7658,26 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>10788.43</v>
+        <v>10880.14</v>
       </c>
       <c r="C214" t="n">
-        <v>10852.33</v>
+        <v>10904.75</v>
       </c>
       <c r="D214" t="n">
-        <v>10788.43</v>
+        <v>10829.02</v>
       </c>
       <c r="E214" t="n">
-        <v>10823.24</v>
-      </c>
-      <c r="G214" s="1">
+        <v>10893.53</v>
+      </c>
+      <c r="G214" s="3">
         <f>AVERAGE(E210:E214)</f>
         <v/>
       </c>
-      <c r="H214" s="1">
+      <c r="H214" s="3">
         <f>AVERAGE(E185:E214)</f>
         <v/>
       </c>
-      <c r="I214" s="1">
+      <c r="I214" s="3">
         <f>G214-H214</f>
         <v/>
       </c>
@@ -7681,26 +7687,26 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>10847.74</v>
+        <v>10885.64</v>
       </c>
       <c r="C215" t="n">
-        <v>10882.76</v>
+        <v>10975.67</v>
       </c>
       <c r="D215" t="n">
-        <v>10845.38</v>
+        <v>10874.83</v>
       </c>
       <c r="E215" t="n">
-        <v>10864.82</v>
-      </c>
-      <c r="G215" s="1">
+        <v>10927.18</v>
+      </c>
+      <c r="G215" s="3">
         <f>AVERAGE(E211:E215)</f>
         <v/>
       </c>
-      <c r="H215" s="1">
+      <c r="H215" s="3">
         <f>AVERAGE(E186:E215)</f>
         <v/>
       </c>
-      <c r="I215" s="1">
+      <c r="I215" s="3">
         <f>G215-H215</f>
         <v/>
       </c>
@@ -7710,26 +7716,26 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>10908.99</v>
+        <v>10961.7</v>
       </c>
       <c r="C216" t="n">
-        <v>11016.56</v>
+        <v>11016.35</v>
       </c>
       <c r="D216" t="n">
-        <v>10908.99</v>
+        <v>10953.31</v>
       </c>
       <c r="E216" t="n">
-        <v>11002.1</v>
-      </c>
-      <c r="G216" s="1">
+        <v>10974.02</v>
+      </c>
+      <c r="G216" s="3">
         <f>AVERAGE(E212:E216)</f>
         <v/>
       </c>
-      <c r="H216" s="1">
+      <c r="H216" s="3">
         <f>AVERAGE(E187:E216)</f>
         <v/>
       </c>
-      <c r="I216" s="1">
+      <c r="I216" s="3">
         <f>G216-H216</f>
         <v/>
       </c>
@@ -7739,26 +7745,26 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>11022.15</v>
+        <v>10984.12</v>
       </c>
       <c r="C217" t="n">
-        <v>11095.63</v>
+        <v>11008.2</v>
       </c>
       <c r="D217" t="n">
-        <v>11014.87</v>
+        <v>10920.62</v>
       </c>
       <c r="E217" t="n">
-        <v>11095.63</v>
-      </c>
-      <c r="G217" s="1">
+        <v>10955.29</v>
+      </c>
+      <c r="G217" s="3">
         <f>AVERAGE(E213:E217)</f>
         <v/>
       </c>
-      <c r="H217" s="1">
+      <c r="H217" s="3">
         <f>AVERAGE(E188:E217)</f>
         <v/>
       </c>
-      <c r="I217" s="1">
+      <c r="I217" s="3">
         <f>G217-H217</f>
         <v/>
       </c>
@@ -7768,26 +7774,26 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>11063.73</v>
+        <v>10975.58</v>
       </c>
       <c r="C218" t="n">
-        <v>11070.29</v>
+        <v>10988.23</v>
       </c>
       <c r="D218" t="n">
-        <v>11015.47</v>
+        <v>10938.37</v>
       </c>
       <c r="E218" t="n">
-        <v>11038.8</v>
-      </c>
-      <c r="G218" s="1">
+        <v>10965.39</v>
+      </c>
+      <c r="G218" s="3">
         <f>AVERAGE(E214:E218)</f>
         <v/>
       </c>
-      <c r="H218" s="1">
+      <c r="H218" s="3">
         <f>AVERAGE(E189:E218)</f>
         <v/>
       </c>
-      <c r="I218" s="1">
+      <c r="I218" s="3">
         <f>G218-H218</f>
         <v/>
       </c>
@@ -7797,26 +7803,26 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>11039.6</v>
+        <v>10962.36</v>
       </c>
       <c r="C219" t="n">
-        <v>11052.11</v>
+        <v>10974.94</v>
       </c>
       <c r="D219" t="n">
-        <v>11008.18</v>
+        <v>10921.17</v>
       </c>
       <c r="E219" t="n">
-        <v>11018.45</v>
-      </c>
-      <c r="G219" s="1">
+        <v>10954.55</v>
+      </c>
+      <c r="G219" s="3">
         <f>AVERAGE(E215:E219)</f>
         <v/>
       </c>
-      <c r="H219" s="1">
+      <c r="H219" s="3">
         <f>AVERAGE(E190:E219)</f>
         <v/>
       </c>
-      <c r="I219" s="1">
+      <c r="I219" s="3">
         <f>G219-H219</f>
         <v/>
       </c>
@@ -7826,26 +7832,26 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>11010.24</v>
+        <v>10953.51</v>
       </c>
       <c r="C220" t="n">
-        <v>11054.86</v>
+        <v>10965.2</v>
       </c>
       <c r="D220" t="n">
-        <v>10933.46</v>
+        <v>10799.07</v>
       </c>
       <c r="E220" t="n">
-        <v>11027.7</v>
-      </c>
-      <c r="G220" s="1">
+        <v>10810.45</v>
+      </c>
+      <c r="G220" s="3">
         <f>AVERAGE(E216:E220)</f>
         <v/>
       </c>
-      <c r="H220" s="1">
+      <c r="H220" s="3">
         <f>AVERAGE(E191:E220)</f>
         <v/>
       </c>
-      <c r="I220" s="1">
+      <c r="I220" s="3">
         <f>G220-H220</f>
         <v/>
       </c>
@@ -7855,26 +7861,26 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>11004.81</v>
+        <v>10842.88</v>
       </c>
       <c r="C221" t="n">
-        <v>11066</v>
+        <v>10917.6</v>
       </c>
       <c r="D221" t="n">
-        <v>10983.25</v>
+        <v>10809.89</v>
       </c>
       <c r="E221" t="n">
-        <v>11046.9</v>
-      </c>
-      <c r="G221" s="1">
+        <v>10847.89</v>
+      </c>
+      <c r="G221" s="3">
         <f>AVERAGE(E217:E221)</f>
         <v/>
       </c>
-      <c r="H221" s="1">
+      <c r="H221" s="3">
         <f>AVERAGE(E192:E221)</f>
         <v/>
       </c>
-      <c r="I221" s="1">
+      <c r="I221" s="3">
         <f>G221-H221</f>
         <v/>
       </c>
@@ -7884,26 +7890,26 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>11016.85</v>
+        <v>10891.66</v>
       </c>
       <c r="C222" t="n">
-        <v>11020.78</v>
+        <v>10983.96</v>
       </c>
       <c r="D222" t="n">
-        <v>10981.04</v>
+        <v>10889.71</v>
       </c>
       <c r="E222" t="n">
-        <v>11010.84</v>
-      </c>
-      <c r="G222" s="1">
+        <v>10971.22</v>
+      </c>
+      <c r="G222" s="3">
         <f>AVERAGE(E218:E222)</f>
         <v/>
       </c>
-      <c r="H222" s="1">
+      <c r="H222" s="3">
         <f>AVERAGE(E193:E222)</f>
         <v/>
       </c>
-      <c r="I222" s="1">
+      <c r="I222" s="3">
         <f>G222-H222</f>
         <v/>
       </c>
@@ -7913,26 +7919,26 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>11037.35</v>
+        <v>10802.42</v>
       </c>
       <c r="C223" t="n">
-        <v>11072.31</v>
+        <v>10831.56</v>
       </c>
       <c r="D223" t="n">
-        <v>11011.07</v>
+        <v>10770.05</v>
       </c>
       <c r="E223" t="n">
-        <v>11011.07</v>
-      </c>
-      <c r="G223" s="1">
+        <v>10779.38</v>
+      </c>
+      <c r="G223" s="3">
         <f>AVERAGE(E219:E223)</f>
         <v/>
       </c>
-      <c r="H223" s="1">
+      <c r="H223" s="3">
         <f>AVERAGE(E194:E223)</f>
         <v/>
       </c>
-      <c r="I223" s="1">
+      <c r="I223" s="3">
         <f>G223-H223</f>
         <v/>
       </c>
@@ -7942,26 +7948,26 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>11045.9</v>
+        <v>10756.89</v>
       </c>
       <c r="C224" t="n">
-        <v>11120.2</v>
+        <v>10774.73</v>
       </c>
       <c r="D224" t="n">
-        <v>10975.33</v>
+        <v>10687.25</v>
       </c>
       <c r="E224" t="n">
-        <v>11005.84</v>
-      </c>
-      <c r="G224" s="1">
+        <v>10697.13</v>
+      </c>
+      <c r="G224" s="3">
         <f>AVERAGE(E220:E224)</f>
         <v/>
       </c>
-      <c r="H224" s="1">
+      <c r="H224" s="3">
         <f>AVERAGE(E195:E224)</f>
         <v/>
       </c>
-      <c r="I224" s="1">
+      <c r="I224" s="3">
         <f>G224-H224</f>
         <v/>
       </c>
@@ -7971,26 +7977,26 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>10863.67</v>
+        <v>10680.38</v>
       </c>
       <c r="C225" t="n">
-        <v>10863.67</v>
+        <v>10692.19</v>
       </c>
       <c r="D225" t="n">
-        <v>10758.06</v>
+        <v>10540.15</v>
       </c>
       <c r="E225" t="n">
-        <v>10823.33</v>
-      </c>
-      <c r="G225" s="1">
+        <v>10579.5</v>
+      </c>
+      <c r="G225" s="3">
         <f>AVERAGE(E221:E225)</f>
         <v/>
       </c>
-      <c r="H225" s="1">
+      <c r="H225" s="3">
         <f>AVERAGE(E196:E225)</f>
         <v/>
       </c>
-      <c r="I225" s="1">
+      <c r="I225" s="3">
         <f>G225-H225</f>
         <v/>
       </c>
@@ -8000,26 +8006,26 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>10783.57</v>
+        <v>10541.83</v>
       </c>
       <c r="C226" t="n">
-        <v>10840.05</v>
+        <v>10573.73</v>
       </c>
       <c r="D226" t="n">
-        <v>10781.43</v>
+        <v>10489.2</v>
       </c>
       <c r="E226" t="n">
-        <v>10840.05</v>
-      </c>
-      <c r="G226" s="1">
+        <v>10559.97</v>
+      </c>
+      <c r="G226" s="3">
         <f>AVERAGE(E222:E226)</f>
         <v/>
       </c>
-      <c r="H226" s="1">
+      <c r="H226" s="3">
         <f>AVERAGE(E197:E226)</f>
         <v/>
       </c>
-      <c r="I226" s="1">
+      <c r="I226" s="3">
         <f>G226-H226</f>
         <v/>
       </c>
@@ -8029,26 +8035,26 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>10901.69</v>
+        <v>10583.08</v>
       </c>
       <c r="C227" t="n">
-        <v>10986.79</v>
+        <v>10618.68</v>
       </c>
       <c r="D227" t="n">
-        <v>10901.69</v>
+        <v>10478.98</v>
       </c>
       <c r="E227" t="n">
-        <v>10986.79</v>
-      </c>
-      <c r="G227" s="1">
+        <v>10488.58</v>
+      </c>
+      <c r="G227" s="3">
         <f>AVERAGE(E223:E227)</f>
         <v/>
       </c>
-      <c r="H227" s="1">
+      <c r="H227" s="3">
         <f>AVERAGE(E198:E227)</f>
         <v/>
       </c>
-      <c r="I227" s="1">
+      <c r="I227" s="3">
         <f>G227-H227</f>
         <v/>
       </c>
@@ -8058,26 +8064,26 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>10939.97</v>
+        <v>10546.29</v>
       </c>
       <c r="C228" t="n">
-        <v>10939.97</v>
+        <v>10573.61</v>
       </c>
       <c r="D228" t="n">
-        <v>10853.48</v>
+        <v>10495.67</v>
       </c>
       <c r="E228" t="n">
-        <v>10865.66</v>
-      </c>
-      <c r="G228" s="1">
+        <v>10553.43</v>
+      </c>
+      <c r="G228" s="3">
         <f>AVERAGE(E224:E228)</f>
         <v/>
       </c>
-      <c r="H228" s="1">
+      <c r="H228" s="3">
         <f>AVERAGE(E199:E228)</f>
         <v/>
       </c>
-      <c r="I228" s="1">
+      <c r="I228" s="3">
         <f>G228-H228</f>
         <v/>
       </c>
@@ -8087,26 +8093,26 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>10855.66</v>
+        <v>10553.41</v>
       </c>
       <c r="C229" t="n">
-        <v>10889.6</v>
+        <v>10660.61</v>
       </c>
       <c r="D229" t="n">
-        <v>10815.46</v>
+        <v>10539.63</v>
       </c>
       <c r="E229" t="n">
-        <v>10845.92</v>
-      </c>
-      <c r="G229" s="1">
+        <v>10657.88</v>
+      </c>
+      <c r="G229" s="3">
         <f>AVERAGE(E225:E229)</f>
         <v/>
       </c>
-      <c r="H229" s="1">
+      <c r="H229" s="3">
         <f>AVERAGE(E200:E229)</f>
         <v/>
       </c>
-      <c r="I229" s="1">
+      <c r="I229" s="3">
         <f>G229-H229</f>
         <v/>
       </c>
@@ -8116,26 +8122,26 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>10905.3</v>
+        <v>10665.52</v>
       </c>
       <c r="C230" t="n">
-        <v>10969.22</v>
+        <v>10683.9</v>
       </c>
       <c r="D230" t="n">
-        <v>10905.3</v>
+        <v>10601.1</v>
       </c>
       <c r="E230" t="n">
-        <v>10906.22</v>
-      </c>
-      <c r="G230" s="1">
+        <v>10618.81</v>
+      </c>
+      <c r="G230" s="3">
         <f>AVERAGE(E226:E230)</f>
         <v/>
       </c>
-      <c r="H230" s="1">
+      <c r="H230" s="3">
         <f>AVERAGE(E201:E230)</f>
         <v/>
       </c>
-      <c r="I230" s="1">
+      <c r="I230" s="3">
         <f>G230-H230</f>
         <v/>
       </c>
@@ -8145,26 +8151,26 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>10925.71</v>
+        <v>10578.98</v>
       </c>
       <c r="C231" t="n">
-        <v>10947.16</v>
+        <v>10578.98</v>
       </c>
       <c r="D231" t="n">
-        <v>10905.69</v>
+        <v>10509.03</v>
       </c>
       <c r="E231" t="n">
-        <v>10919.49</v>
-      </c>
-      <c r="G231" s="1">
+        <v>10514.18</v>
+      </c>
+      <c r="G231" s="3">
         <f>AVERAGE(E227:E231)</f>
         <v/>
       </c>
-      <c r="H231" s="1">
+      <c r="H231" s="3">
         <f>AVERAGE(E202:E231)</f>
         <v/>
       </c>
-      <c r="I231" s="1">
+      <c r="I231" s="3">
         <f>G231-H231</f>
         <v/>
       </c>
@@ -8174,26 +8180,26 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>10936.26</v>
+        <v>10516.45</v>
       </c>
       <c r="C232" t="n">
-        <v>10969.88</v>
+        <v>10566.37</v>
       </c>
       <c r="D232" t="n">
-        <v>10882.05</v>
+        <v>10500.97</v>
       </c>
       <c r="E232" t="n">
-        <v>10888.27</v>
-      </c>
-      <c r="G232" s="1">
+        <v>10529.37</v>
+      </c>
+      <c r="G232" s="3">
         <f>AVERAGE(E228:E232)</f>
         <v/>
       </c>
-      <c r="H232" s="1">
+      <c r="H232" s="3">
         <f>AVERAGE(E203:E232)</f>
         <v/>
       </c>
-      <c r="I232" s="1">
+      <c r="I232" s="3">
         <f>G232-H232</f>
         <v/>
       </c>
@@ -8203,26 +8209,26 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>10837.54</v>
+        <v>10581.78</v>
       </c>
       <c r="C233" t="n">
-        <v>10837.54</v>
+        <v>10632.62</v>
       </c>
       <c r="D233" t="n">
-        <v>10775.45</v>
+        <v>10555.56</v>
       </c>
       <c r="E233" t="n">
-        <v>10821.53</v>
-      </c>
-      <c r="G233" s="1">
+        <v>10604.91</v>
+      </c>
+      <c r="G233" s="3">
         <f>AVERAGE(E229:E233)</f>
         <v/>
       </c>
-      <c r="H233" s="1">
+      <c r="H233" s="3">
         <f>AVERAGE(E204:E233)</f>
         <v/>
       </c>
-      <c r="I233" s="1">
+      <c r="I233" s="3">
         <f>G233-H233</f>
         <v/>
       </c>
@@ -8232,26 +8238,26 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>10880.14</v>
+        <v>10610.44</v>
       </c>
       <c r="C234" t="n">
-        <v>10904.75</v>
+        <v>10691.38</v>
       </c>
       <c r="D234" t="n">
-        <v>10829.02</v>
+        <v>10609.04</v>
       </c>
       <c r="E234" t="n">
-        <v>10893.53</v>
-      </c>
-      <c r="G234" s="1">
+        <v>10691.38</v>
+      </c>
+      <c r="G234" s="3">
         <f>AVERAGE(E230:E234)</f>
         <v/>
       </c>
-      <c r="H234" s="1">
+      <c r="H234" s="3">
         <f>AVERAGE(E205:E234)</f>
         <v/>
       </c>
-      <c r="I234" s="1">
+      <c r="I234" s="3">
         <f>G234-H234</f>
         <v/>
       </c>
@@ -8261,26 +8267,26 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>10885.64</v>
+        <v>10692.89</v>
       </c>
       <c r="C235" t="n">
-        <v>10975.67</v>
+        <v>10748.6</v>
       </c>
       <c r="D235" t="n">
-        <v>10874.83</v>
+        <v>10689.81</v>
       </c>
       <c r="E235" t="n">
-        <v>10927.18</v>
-      </c>
-      <c r="G235" s="1">
+        <v>10703.35</v>
+      </c>
+      <c r="G235" s="3">
         <f>AVERAGE(E231:E235)</f>
         <v/>
       </c>
-      <c r="H235" s="1">
+      <c r="H235" s="3">
         <f>AVERAGE(E206:E235)</f>
         <v/>
       </c>
-      <c r="I235" s="1">
+      <c r="I235" s="3">
         <f>G235-H235</f>
         <v/>
       </c>
@@ -8290,26 +8296,26 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>10961.7</v>
+        <v>10731.68</v>
       </c>
       <c r="C236" t="n">
-        <v>11016.35</v>
+        <v>10782.06</v>
       </c>
       <c r="D236" t="n">
-        <v>10953.31</v>
+        <v>10731.68</v>
       </c>
       <c r="E236" t="n">
-        <v>10974.02</v>
-      </c>
-      <c r="G236" s="1">
+        <v>10760.21</v>
+      </c>
+      <c r="G236" s="3">
         <f>AVERAGE(E232:E236)</f>
         <v/>
       </c>
-      <c r="H236" s="1">
+      <c r="H236" s="3">
         <f>AVERAGE(E207:E236)</f>
         <v/>
       </c>
-      <c r="I236" s="1">
+      <c r="I236" s="3">
         <f>G236-H236</f>
         <v/>
       </c>
@@ -8319,26 +8325,26 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>10984.12</v>
+        <v>10808.4</v>
       </c>
       <c r="C237" t="n">
-        <v>11008.2</v>
+        <v>10874.63</v>
       </c>
       <c r="D237" t="n">
-        <v>10920.62</v>
+        <v>10808.4</v>
       </c>
       <c r="E237" t="n">
-        <v>10955.29</v>
-      </c>
-      <c r="G237" s="1">
+        <v>10858.98</v>
+      </c>
+      <c r="G237" s="3">
         <f>AVERAGE(E233:E237)</f>
         <v/>
       </c>
-      <c r="H237" s="1">
+      <c r="H237" s="3">
         <f>AVERAGE(E208:E237)</f>
         <v/>
       </c>
-      <c r="I237" s="1">
+      <c r="I237" s="3">
         <f>G237-H237</f>
         <v/>
       </c>
@@ -8348,26 +8354,26 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>10975.58</v>
+        <v>10938.3</v>
       </c>
       <c r="C238" t="n">
-        <v>10988.23</v>
+        <v>10970.24</v>
       </c>
       <c r="D238" t="n">
-        <v>10938.37</v>
+        <v>10908.86</v>
       </c>
       <c r="E238" t="n">
-        <v>10965.39</v>
-      </c>
-      <c r="G238" s="1">
+        <v>10952.39</v>
+      </c>
+      <c r="G238" s="3">
         <f>AVERAGE(E234:E238)</f>
         <v/>
       </c>
-      <c r="H238" s="1">
+      <c r="H238" s="3">
         <f>AVERAGE(E209:E238)</f>
         <v/>
       </c>
-      <c r="I238" s="1">
+      <c r="I238" s="3">
         <f>G238-H238</f>
         <v/>
       </c>
@@ -8377,26 +8383,26 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>10962.36</v>
+        <v>10965.08</v>
       </c>
       <c r="C239" t="n">
-        <v>10974.94</v>
+        <v>10978.38</v>
       </c>
       <c r="D239" t="n">
-        <v>10921.17</v>
+        <v>10874.73</v>
       </c>
       <c r="E239" t="n">
-        <v>10954.55</v>
-      </c>
-      <c r="G239" s="1">
+        <v>10874.73</v>
+      </c>
+      <c r="G239" s="3">
         <f>AVERAGE(E235:E239)</f>
         <v/>
       </c>
-      <c r="H239" s="1">
+      <c r="H239" s="3">
         <f>AVERAGE(E210:E239)</f>
         <v/>
       </c>
-      <c r="I239" s="1">
+      <c r="I239" s="3">
         <f>G239-H239</f>
         <v/>
       </c>
@@ -8406,26 +8412,26 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>10953.51</v>
+        <v>10873.54</v>
       </c>
       <c r="C240" t="n">
-        <v>10965.2</v>
+        <v>10915.74</v>
       </c>
       <c r="D240" t="n">
-        <v>10799.07</v>
+        <v>10865.07</v>
       </c>
       <c r="E240" t="n">
-        <v>10810.45</v>
-      </c>
-      <c r="G240" s="1">
+        <v>10897.57</v>
+      </c>
+      <c r="G240" s="3">
         <f>AVERAGE(E236:E240)</f>
         <v/>
       </c>
-      <c r="H240" s="1">
+      <c r="H240" s="3">
         <f>AVERAGE(E211:E240)</f>
         <v/>
       </c>
-      <c r="I240" s="1">
+      <c r="I240" s="3">
         <f>G240-H240</f>
         <v/>
       </c>
@@ -8435,26 +8441,26 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>10842.88</v>
+        <v>10911.74</v>
       </c>
       <c r="C241" t="n">
-        <v>10917.6</v>
+        <v>10938.63</v>
       </c>
       <c r="D241" t="n">
-        <v>10809.89</v>
+        <v>10833.81</v>
       </c>
       <c r="E241" t="n">
-        <v>10847.89</v>
-      </c>
-      <c r="G241" s="1">
+        <v>10833.81</v>
+      </c>
+      <c r="G241" s="3">
         <f>AVERAGE(E237:E241)</f>
         <v/>
       </c>
-      <c r="H241" s="1">
+      <c r="H241" s="3">
         <f>AVERAGE(E212:E241)</f>
         <v/>
       </c>
-      <c r="I241" s="1">
+      <c r="I241" s="3">
         <f>G241-H241</f>
         <v/>
       </c>
@@ -8464,26 +8470,26 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>10891.66</v>
+        <v>10844.09</v>
       </c>
       <c r="C242" t="n">
-        <v>10983.96</v>
+        <v>10893.35</v>
       </c>
       <c r="D242" t="n">
-        <v>10889.71</v>
+        <v>10819.07</v>
       </c>
       <c r="E242" t="n">
-        <v>10971.22</v>
-      </c>
-      <c r="G242" s="1">
+        <v>10830.84</v>
+      </c>
+      <c r="G242" s="3">
         <f>AVERAGE(E238:E242)</f>
         <v/>
       </c>
-      <c r="H242" s="1">
+      <c r="H242" s="3">
         <f>AVERAGE(E213:E242)</f>
         <v/>
       </c>
-      <c r="I242" s="1">
+      <c r="I242" s="3">
         <f>G242-H242</f>
         <v/>
       </c>
@@ -8493,26 +8499,26 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>10802.42</v>
+        <v>10861.66</v>
       </c>
       <c r="C243" t="n">
-        <v>10831.56</v>
+        <v>10979.1</v>
       </c>
       <c r="D243" t="n">
-        <v>10770.05</v>
+        <v>10861.66</v>
       </c>
       <c r="E243" t="n">
-        <v>10779.38</v>
-      </c>
-      <c r="G243" s="1">
+        <v>10966.2</v>
+      </c>
+      <c r="G243" s="3">
         <f>AVERAGE(E239:E243)</f>
         <v/>
       </c>
-      <c r="H243" s="1">
+      <c r="H243" s="3">
         <f>AVERAGE(E214:E243)</f>
         <v/>
       </c>
-      <c r="I243" s="1">
+      <c r="I243" s="3">
         <f>G243-H243</f>
         <v/>
       </c>
@@ -8522,26 +8528,26 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>10756.89</v>
+        <v>10986.77</v>
       </c>
       <c r="C244" t="n">
-        <v>10774.73</v>
+        <v>11034.12</v>
       </c>
       <c r="D244" t="n">
-        <v>10687.25</v>
+        <v>10938.73</v>
       </c>
       <c r="E244" t="n">
-        <v>10697.13</v>
-      </c>
-      <c r="G244" s="1">
+        <v>10938.73</v>
+      </c>
+      <c r="G244" s="3">
         <f>AVERAGE(E240:E244)</f>
         <v/>
       </c>
-      <c r="H244" s="1">
+      <c r="H244" s="3">
         <f>AVERAGE(E215:E244)</f>
         <v/>
       </c>
-      <c r="I244" s="1">
+      <c r="I244" s="3">
         <f>G244-H244</f>
         <v/>
       </c>
@@ -8551,26 +8557,26 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>10680.38</v>
+        <v>10974.52</v>
       </c>
       <c r="C245" t="n">
-        <v>10692.19</v>
+        <v>10991.86</v>
       </c>
       <c r="D245" t="n">
-        <v>10540.15</v>
+        <v>10886.18</v>
       </c>
       <c r="E245" t="n">
-        <v>10579.5</v>
-      </c>
-      <c r="G245" s="1">
+        <v>10886.18</v>
+      </c>
+      <c r="G245" s="3">
         <f>AVERAGE(E241:E245)</f>
         <v/>
       </c>
-      <c r="H245" s="1">
+      <c r="H245" s="3">
         <f>AVERAGE(E216:E245)</f>
         <v/>
       </c>
-      <c r="I245" s="1">
+      <c r="I245" s="3">
         <f>G245-H245</f>
         <v/>
       </c>
@@ -8580,26 +8586,26 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>10541.83</v>
+        <v>10910.61</v>
       </c>
       <c r="C246" t="n">
-        <v>10573.73</v>
+        <v>10942.64</v>
       </c>
       <c r="D246" t="n">
-        <v>10489.2</v>
+        <v>10883.52</v>
       </c>
       <c r="E246" t="n">
-        <v>10559.97</v>
-      </c>
-      <c r="G246" s="1">
+        <v>10936.93</v>
+      </c>
+      <c r="G246" s="3">
         <f>AVERAGE(E242:E246)</f>
         <v/>
       </c>
-      <c r="H246" s="1">
+      <c r="H246" s="3">
         <f>AVERAGE(E217:E246)</f>
         <v/>
       </c>
-      <c r="I246" s="1">
+      <c r="I246" s="3">
         <f>G246-H246</f>
         <v/>
       </c>
@@ -8609,26 +8615,26 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>10583.08</v>
+        <v>10946.62</v>
       </c>
       <c r="C247" t="n">
-        <v>10618.68</v>
+        <v>10977.81</v>
       </c>
       <c r="D247" t="n">
-        <v>10478.98</v>
+        <v>10918.12</v>
       </c>
       <c r="E247" t="n">
-        <v>10488.58</v>
-      </c>
-      <c r="G247" s="1">
+        <v>10942.3</v>
+      </c>
+      <c r="G247" s="3">
         <f>AVERAGE(E243:E247)</f>
         <v/>
       </c>
-      <c r="H247" s="1">
+      <c r="H247" s="3">
         <f>AVERAGE(E218:E247)</f>
         <v/>
       </c>
-      <c r="I247" s="1">
+      <c r="I247" s="3">
         <f>G247-H247</f>
         <v/>
       </c>
@@ -8638,26 +8644,26 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>10546.29</v>
+        <v>10976.49</v>
       </c>
       <c r="C248" t="n">
-        <v>10573.61</v>
+        <v>10999.43</v>
       </c>
       <c r="D248" t="n">
-        <v>10495.67</v>
+        <v>10965.18</v>
       </c>
       <c r="E248" t="n">
-        <v>10553.43</v>
-      </c>
-      <c r="G248" s="1">
+        <v>10987.77</v>
+      </c>
+      <c r="G248" s="3">
         <f>AVERAGE(E244:E248)</f>
         <v/>
       </c>
-      <c r="H248" s="1">
+      <c r="H248" s="3">
         <f>AVERAGE(E219:E248)</f>
         <v/>
       </c>
-      <c r="I248" s="1">
+      <c r="I248" s="3">
         <f>G248-H248</f>
         <v/>
       </c>
@@ -8667,26 +8673,26 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>10553.41</v>
+        <v>10979.68</v>
       </c>
       <c r="C249" t="n">
-        <v>10660.61</v>
+        <v>10986.53</v>
       </c>
       <c r="D249" t="n">
-        <v>10539.63</v>
+        <v>10929.56</v>
       </c>
       <c r="E249" t="n">
-        <v>10657.88</v>
-      </c>
-      <c r="G249" s="1">
+        <v>10964.12</v>
+      </c>
+      <c r="G249" s="3">
         <f>AVERAGE(E245:E249)</f>
         <v/>
       </c>
-      <c r="H249" s="1">
+      <c r="H249" s="3">
         <f>AVERAGE(E220:E249)</f>
         <v/>
       </c>
-      <c r="I249" s="1">
+      <c r="I249" s="3">
         <f>G249-H249</f>
         <v/>
       </c>
@@ -8696,26 +8702,26 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>10665.52</v>
+        <v>10925.21</v>
       </c>
       <c r="C250" t="n">
-        <v>10683.9</v>
+        <v>10925.21</v>
       </c>
       <c r="D250" t="n">
-        <v>10601.1</v>
+        <v>10799.75</v>
       </c>
       <c r="E250" t="n">
-        <v>10618.81</v>
-      </c>
-      <c r="G250" s="1">
+        <v>10821.17</v>
+      </c>
+      <c r="G250" s="3">
         <f>AVERAGE(E246:E250)</f>
         <v/>
       </c>
-      <c r="H250" s="1">
+      <c r="H250" s="3">
         <f>AVERAGE(E221:E250)</f>
         <v/>
       </c>
-      <c r="I250" s="1">
+      <c r="I250" s="3">
         <f>G250-H250</f>
         <v/>
       </c>
@@ -8725,26 +8731,26 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>10578.98</v>
+        <v>10856.03</v>
       </c>
       <c r="C251" t="n">
-        <v>10578.98</v>
+        <v>10909.61</v>
       </c>
       <c r="D251" t="n">
-        <v>10509.03</v>
+        <v>10853.65</v>
       </c>
       <c r="E251" t="n">
-        <v>10514.18</v>
-      </c>
-      <c r="G251" s="1">
+        <v>10874.96</v>
+      </c>
+      <c r="G251" s="3">
         <f>AVERAGE(E247:E251)</f>
         <v/>
       </c>
-      <c r="H251" s="1">
+      <c r="H251" s="3">
         <f>AVERAGE(E222:E251)</f>
         <v/>
       </c>
-      <c r="I251" s="1">
+      <c r="I251" s="3">
         <f>G251-H251</f>
         <v/>
       </c>
@@ -8754,26 +8760,26 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>10516.45</v>
+        <v>10882.68</v>
       </c>
       <c r="C252" t="n">
-        <v>10566.37</v>
+        <v>10954.67</v>
       </c>
       <c r="D252" t="n">
-        <v>10500.97</v>
+        <v>10876.97</v>
       </c>
       <c r="E252" t="n">
-        <v>10529.37</v>
-      </c>
-      <c r="G252" s="1">
+        <v>10949.08</v>
+      </c>
+      <c r="G252" s="3">
         <f>AVERAGE(E248:E252)</f>
         <v/>
       </c>
-      <c r="H252" s="1">
+      <c r="H252" s="3">
         <f>AVERAGE(E223:E252)</f>
         <v/>
       </c>
-      <c r="I252" s="1">
+      <c r="I252" s="3">
         <f>G252-H252</f>
         <v/>
       </c>
@@ -8783,26 +8789,26 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>10581.78</v>
+        <v>11002.15</v>
       </c>
       <c r="C253" t="n">
-        <v>10632.62</v>
+        <v>11109.5</v>
       </c>
       <c r="D253" t="n">
-        <v>10555.56</v>
+        <v>11002.15</v>
       </c>
       <c r="E253" t="n">
-        <v>10604.91</v>
-      </c>
-      <c r="G253" s="1">
+        <v>11109.5</v>
+      </c>
+      <c r="G253" s="3">
         <f>AVERAGE(E249:E253)</f>
         <v/>
       </c>
-      <c r="H253" s="1">
+      <c r="H253" s="3">
         <f>AVERAGE(E224:E253)</f>
         <v/>
       </c>
-      <c r="I253" s="1">
+      <c r="I253" s="3">
         <f>G253-H253</f>
         <v/>
       </c>
@@ -8812,26 +8818,26 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>10610.44</v>
+        <v>11130.03</v>
       </c>
       <c r="C254" t="n">
-        <v>10691.38</v>
+        <v>11131.08</v>
       </c>
       <c r="D254" t="n">
-        <v>10609.04</v>
+        <v>11054.62</v>
       </c>
       <c r="E254" t="n">
-        <v>10691.38</v>
-      </c>
-      <c r="G254" s="1">
+        <v>11100.11</v>
+      </c>
+      <c r="G254" s="3">
         <f>AVERAGE(E250:E254)</f>
         <v/>
       </c>
-      <c r="H254" s="1">
+      <c r="H254" s="3">
         <f>AVERAGE(E225:E254)</f>
         <v/>
       </c>
-      <c r="I254" s="1">
+      <c r="I254" s="3">
         <f>G254-H254</f>
         <v/>
       </c>
@@ -8841,26 +8847,26 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>10692.89</v>
+        <v>11111.14</v>
       </c>
       <c r="C255" t="n">
-        <v>10748.6</v>
+        <v>11207.15</v>
       </c>
       <c r="D255" t="n">
-        <v>10689.81</v>
+        <v>11111.14</v>
       </c>
       <c r="E255" t="n">
-        <v>10703.35</v>
-      </c>
-      <c r="G255" s="1">
+        <v>11201.83</v>
+      </c>
+      <c r="G255" s="3">
         <f>AVERAGE(E251:E255)</f>
         <v/>
       </c>
-      <c r="H255" s="1">
+      <c r="H255" s="3">
         <f>AVERAGE(E226:E255)</f>
         <v/>
       </c>
-      <c r="I255" s="1">
+      <c r="I255" s="3">
         <f>G255-H255</f>
         <v/>
       </c>
@@ -8870,26 +8876,26 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>10731.68</v>
+        <v>11228.64</v>
       </c>
       <c r="C256" t="n">
-        <v>10782.06</v>
+        <v>11261.68</v>
       </c>
       <c r="D256" t="n">
-        <v>10731.68</v>
+        <v>11188.99</v>
       </c>
       <c r="E256" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G256" s="1">
+        <v>11251.75</v>
+      </c>
+      <c r="G256" s="3">
         <f>AVERAGE(E252:E256)</f>
         <v/>
       </c>
-      <c r="H256" s="1">
+      <c r="H256" s="3">
         <f>AVERAGE(E227:E256)</f>
         <v/>
       </c>
-      <c r="I256" s="1">
+      <c r="I256" s="3">
         <f>G256-H256</f>
         <v/>
       </c>
@@ -8899,26 +8905,26 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>10808.4</v>
+        <v>11243.59</v>
       </c>
       <c r="C257" t="n">
-        <v>10874.63</v>
+        <v>11243.59</v>
       </c>
       <c r="D257" t="n">
-        <v>10808.4</v>
+        <v>11122.98</v>
       </c>
       <c r="E257" t="n">
-        <v>10858.98</v>
-      </c>
-      <c r="G257" s="1">
+        <v>11156.42</v>
+      </c>
+      <c r="G257" s="3">
         <f>AVERAGE(E253:E257)</f>
         <v/>
       </c>
-      <c r="H257" s="1">
+      <c r="H257" s="3">
         <f>AVERAGE(E228:E257)</f>
         <v/>
       </c>
-      <c r="I257" s="1">
+      <c r="I257" s="3">
         <f>G257-H257</f>
         <v/>
       </c>
@@ -8928,26 +8934,26 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>10938.3</v>
+        <v>11168.99</v>
       </c>
       <c r="C258" t="n">
-        <v>10970.24</v>
+        <v>11186.67</v>
       </c>
       <c r="D258" t="n">
-        <v>10908.86</v>
+        <v>11118.81</v>
       </c>
       <c r="E258" t="n">
-        <v>10952.39</v>
-      </c>
-      <c r="G258" s="1">
+        <v>11149.23</v>
+      </c>
+      <c r="G258" s="3">
         <f>AVERAGE(E254:E258)</f>
         <v/>
       </c>
-      <c r="H258" s="1">
+      <c r="H258" s="3">
         <f>AVERAGE(E229:E258)</f>
         <v/>
       </c>
-      <c r="I258" s="1">
+      <c r="I258" s="3">
         <f>G258-H258</f>
         <v/>
       </c>
@@ -8957,26 +8963,26 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>10965.08</v>
+        <v>11140.02</v>
       </c>
       <c r="C259" t="n">
-        <v>10978.38</v>
+        <v>11160.05</v>
       </c>
       <c r="D259" t="n">
-        <v>10874.73</v>
+        <v>11088.53</v>
       </c>
       <c r="E259" t="n">
-        <v>10874.73</v>
-      </c>
-      <c r="G259" s="1">
+        <v>11144.79</v>
+      </c>
+      <c r="G259" s="3">
         <f>AVERAGE(E255:E259)</f>
         <v/>
       </c>
-      <c r="H259" s="1">
+      <c r="H259" s="3">
         <f>AVERAGE(E230:E259)</f>
         <v/>
       </c>
-      <c r="I259" s="1">
+      <c r="I259" s="3">
         <f>G259-H259</f>
         <v/>
       </c>
@@ -8986,26 +8992,26 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>10873.54</v>
+        <v>11153.2</v>
       </c>
       <c r="C260" t="n">
-        <v>10915.74</v>
+        <v>11188.01</v>
       </c>
       <c r="D260" t="n">
-        <v>10865.07</v>
+        <v>11119.24</v>
       </c>
       <c r="E260" t="n">
-        <v>10897.57</v>
-      </c>
-      <c r="G260" s="1">
+        <v>11173.21</v>
+      </c>
+      <c r="G260" s="3">
         <f>AVERAGE(E256:E260)</f>
         <v/>
       </c>
-      <c r="H260" s="1">
+      <c r="H260" s="3">
         <f>AVERAGE(E231:E260)</f>
         <v/>
       </c>
-      <c r="I260" s="1">
+      <c r="I260" s="3">
         <f>G260-H260</f>
         <v/>
       </c>
@@ -9015,26 +9021,26 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>10911.74</v>
+        <v>11143.04</v>
       </c>
       <c r="C261" t="n">
-        <v>10938.63</v>
+        <v>11143.04</v>
       </c>
       <c r="D261" t="n">
-        <v>10833.81</v>
+        <v>11013.98</v>
       </c>
       <c r="E261" t="n">
-        <v>10833.81</v>
-      </c>
-      <c r="G261" s="1">
+        <v>11013.98</v>
+      </c>
+      <c r="G261" s="3">
         <f>AVERAGE(E257:E261)</f>
         <v/>
       </c>
-      <c r="H261" s="1">
+      <c r="H261" s="3">
         <f>AVERAGE(E232:E261)</f>
         <v/>
       </c>
-      <c r="I261" s="1">
+      <c r="I261" s="3">
         <f>G261-H261</f>
         <v/>
       </c>
@@ -9044,26 +9050,26 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>10844.09</v>
+        <v>10998.2</v>
       </c>
       <c r="C262" t="n">
-        <v>10893.35</v>
+        <v>11087.47</v>
       </c>
       <c r="D262" t="n">
-        <v>10819.07</v>
+        <v>10981.61</v>
       </c>
       <c r="E262" t="n">
-        <v>10830.84</v>
-      </c>
-      <c r="G262" s="1">
+        <v>11087.47</v>
+      </c>
+      <c r="G262" s="3">
         <f>AVERAGE(E258:E262)</f>
         <v/>
       </c>
-      <c r="H262" s="1">
+      <c r="H262" s="3">
         <f>AVERAGE(E233:E262)</f>
         <v/>
       </c>
-      <c r="I262" s="1">
+      <c r="I262" s="3">
         <f>G262-H262</f>
         <v/>
       </c>
@@ -9073,26 +9079,26 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>10861.66</v>
+        <v>11008.77</v>
       </c>
       <c r="C263" t="n">
-        <v>10979.1</v>
+        <v>11008.77</v>
       </c>
       <c r="D263" t="n">
-        <v>10861.66</v>
+        <v>10904.19</v>
       </c>
       <c r="E263" t="n">
-        <v>10966.2</v>
-      </c>
-      <c r="G263" s="1">
+        <v>10904.19</v>
+      </c>
+      <c r="G263" s="3">
         <f>AVERAGE(E259:E263)</f>
         <v/>
       </c>
-      <c r="H263" s="1">
+      <c r="H263" s="3">
         <f>AVERAGE(E234:E263)</f>
         <v/>
       </c>
-      <c r="I263" s="1">
+      <c r="I263" s="3">
         <f>G263-H263</f>
         <v/>
       </c>
@@ -9102,26 +9108,26 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>10986.77</v>
+        <v>10904.8</v>
       </c>
       <c r="C264" t="n">
-        <v>11034.12</v>
+        <v>10969.2</v>
       </c>
       <c r="D264" t="n">
-        <v>10938.73</v>
+        <v>10842.56</v>
       </c>
       <c r="E264" t="n">
-        <v>10938.73</v>
-      </c>
-      <c r="G264" s="1">
+        <v>10927.44</v>
+      </c>
+      <c r="G264" s="3">
         <f>AVERAGE(E260:E264)</f>
         <v/>
       </c>
-      <c r="H264" s="1">
+      <c r="H264" s="3">
         <f>AVERAGE(E235:E264)</f>
         <v/>
       </c>
-      <c r="I264" s="1">
+      <c r="I264" s="3">
         <f>G264-H264</f>
         <v/>
       </c>
@@ -9131,26 +9137,26 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>10974.52</v>
+        <v>10949.85</v>
       </c>
       <c r="C265" t="n">
-        <v>10991.86</v>
+        <v>10992.31</v>
       </c>
       <c r="D265" t="n">
-        <v>10886.18</v>
+        <v>10941.07</v>
       </c>
       <c r="E265" t="n">
-        <v>10886.18</v>
-      </c>
-      <c r="G265" s="1">
+        <v>10941.07</v>
+      </c>
+      <c r="G265" s="3">
         <f>AVERAGE(E261:E265)</f>
         <v/>
       </c>
-      <c r="H265" s="1">
+      <c r="H265" s="3">
         <f>AVERAGE(E236:E265)</f>
         <v/>
       </c>
-      <c r="I265" s="1">
+      <c r="I265" s="3">
         <f>G265-H265</f>
         <v/>
       </c>
@@ -9160,26 +9166,26 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>10910.61</v>
+        <v>10901.25</v>
       </c>
       <c r="C266" t="n">
-        <v>10942.64</v>
+        <v>10914.83</v>
       </c>
       <c r="D266" t="n">
-        <v>10883.52</v>
+        <v>10828.86</v>
       </c>
       <c r="E266" t="n">
-        <v>10936.93</v>
-      </c>
-      <c r="G266" s="1">
+        <v>10899.28</v>
+      </c>
+      <c r="G266" s="3">
         <f>AVERAGE(E262:E266)</f>
         <v/>
       </c>
-      <c r="H266" s="1">
+      <c r="H266" s="3">
         <f>AVERAGE(E237:E266)</f>
         <v/>
       </c>
-      <c r="I266" s="1">
+      <c r="I266" s="3">
         <f>G266-H266</f>
         <v/>
       </c>
@@ -9189,26 +9195,26 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>10946.62</v>
+        <v>10834.07</v>
       </c>
       <c r="C267" t="n">
-        <v>10977.81</v>
+        <v>10851.16</v>
       </c>
       <c r="D267" t="n">
-        <v>10918.12</v>
+        <v>10786.46</v>
       </c>
       <c r="E267" t="n">
-        <v>10942.3</v>
-      </c>
-      <c r="G267" s="1">
+        <v>10786.46</v>
+      </c>
+      <c r="G267" s="3">
         <f>AVERAGE(E263:E267)</f>
         <v/>
       </c>
-      <c r="H267" s="1">
+      <c r="H267" s="3">
         <f>AVERAGE(E238:E267)</f>
         <v/>
       </c>
-      <c r="I267" s="1">
+      <c r="I267" s="3">
         <f>G267-H267</f>
         <v/>
       </c>
@@ -9218,26 +9224,26 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>10976.49</v>
+        <v>10730.9</v>
       </c>
       <c r="C268" t="n">
-        <v>10999.43</v>
+        <v>10752.99</v>
       </c>
       <c r="D268" t="n">
-        <v>10965.18</v>
+        <v>10651.42</v>
       </c>
       <c r="E268" t="n">
-        <v>10987.77</v>
-      </c>
-      <c r="G268" s="1">
+        <v>10742.17</v>
+      </c>
+      <c r="G268" s="3">
         <f>AVERAGE(E264:E268)</f>
         <v/>
       </c>
-      <c r="H268" s="1">
+      <c r="H268" s="3">
         <f>AVERAGE(E239:E268)</f>
         <v/>
       </c>
-      <c r="I268" s="1">
+      <c r="I268" s="3">
         <f>G268-H268</f>
         <v/>
       </c>
@@ -9247,26 +9253,26 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>10979.68</v>
+        <v>10766.88</v>
       </c>
       <c r="C269" t="n">
-        <v>10986.53</v>
+        <v>10800.34</v>
       </c>
       <c r="D269" t="n">
-        <v>10929.56</v>
+        <v>10701.03</v>
       </c>
       <c r="E269" t="n">
-        <v>10964.12</v>
-      </c>
-      <c r="G269" s="1">
+        <v>10701.03</v>
+      </c>
+      <c r="G269" s="3">
         <f>AVERAGE(E265:E269)</f>
         <v/>
       </c>
-      <c r="H269" s="1">
+      <c r="H269" s="3">
         <f>AVERAGE(E240:E269)</f>
         <v/>
       </c>
-      <c r="I269" s="1">
+      <c r="I269" s="3">
         <f>G269-H269</f>
         <v/>
       </c>
@@ -9276,26 +9282,26 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>10925.21</v>
+        <v>10669.42</v>
       </c>
       <c r="C270" t="n">
-        <v>10925.21</v>
+        <v>10723.84</v>
       </c>
       <c r="D270" t="n">
-        <v>10799.75</v>
+        <v>10633.01</v>
       </c>
       <c r="E270" t="n">
-        <v>10821.17</v>
-      </c>
-      <c r="G270" s="1">
+        <v>10654.28</v>
+      </c>
+      <c r="G270" s="3">
         <f>AVERAGE(E266:E270)</f>
         <v/>
       </c>
-      <c r="H270" s="1">
+      <c r="H270" s="3">
         <f>AVERAGE(E241:E270)</f>
         <v/>
       </c>
-      <c r="I270" s="1">
+      <c r="I270" s="3">
         <f>G270-H270</f>
         <v/>
       </c>
@@ -9305,26 +9311,26 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>10856.03</v>
+        <v>10667.64</v>
       </c>
       <c r="C271" t="n">
-        <v>10909.61</v>
+        <v>10836.91</v>
       </c>
       <c r="D271" t="n">
-        <v>10853.65</v>
+        <v>10667.64</v>
       </c>
       <c r="E271" t="n">
-        <v>10874.96</v>
-      </c>
-      <c r="G271" s="1">
+        <v>10836.91</v>
+      </c>
+      <c r="G271" s="3">
         <f>AVERAGE(E267:E271)</f>
         <v/>
       </c>
-      <c r="H271" s="1">
+      <c r="H271" s="3">
         <f>AVERAGE(E242:E271)</f>
         <v/>
       </c>
-      <c r="I271" s="1">
+      <c r="I271" s="3">
         <f>G271-H271</f>
         <v/>
       </c>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TWSE_IDX" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,72 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2017/05/31</t>
-  </si>
-  <si>
-    <t>2017/06/01</t>
-  </si>
-  <si>
-    <t>2017/06/02</t>
-  </si>
-  <si>
-    <t>2017/06/03</t>
-  </si>
-  <si>
-    <t>2017/06/05</t>
-  </si>
-  <si>
-    <t>2017/06/06</t>
-  </si>
-  <si>
-    <t>2017/06/07</t>
-  </si>
-  <si>
-    <t>2017/06/08</t>
-  </si>
-  <si>
-    <t>2017/06/09</t>
-  </si>
-  <si>
-    <t>2017/06/12</t>
-  </si>
-  <si>
-    <t>2017/06/13</t>
-  </si>
-  <si>
-    <t>2017/06/14</t>
-  </si>
-  <si>
-    <t>2017/06/15</t>
-  </si>
-  <si>
-    <t>2017/06/16</t>
-  </si>
-  <si>
-    <t>2017/06/19</t>
-  </si>
-  <si>
-    <t>2017/06/20</t>
-  </si>
-  <si>
-    <t>2017/06/21</t>
-  </si>
-  <si>
-    <t>2017/06/22</t>
-  </si>
-  <si>
-    <t>2017/06/23</t>
-  </si>
-  <si>
-    <t>2017/06/26</t>
-  </si>
-  <si>
-    <t>2017/06/27</t>
-  </si>
-  <si>
-    <t>2017/06/28</t>
-  </si>
-  <si>
     <t>2017/06/29</t>
   </si>
   <si>
@@ -848,13 +782,81 @@
   </si>
   <si>
     <t>2018/06/29</t>
+  </si>
+  <si>
+    <t>2018/07/02</t>
+  </si>
+  <si>
+    <t>2018/07/03</t>
+  </si>
+  <si>
+    <t>2018/07/04</t>
+  </si>
+  <si>
+    <t>2018/07/05</t>
+  </si>
+  <si>
+    <t>2018/07/06</t>
+  </si>
+  <si>
+    <t>2018/07/09</t>
+  </si>
+  <si>
+    <t>2018/07/10</t>
+  </si>
+  <si>
+    <t>2018/07/11</t>
+  </si>
+  <si>
+    <t>2018/07/12</t>
+  </si>
+  <si>
+    <t>2018/07/13</t>
+  </si>
+  <si>
+    <t>2018/07/16</t>
+  </si>
+  <si>
+    <t>2018/07/17</t>
+  </si>
+  <si>
+    <t>2018/07/18</t>
+  </si>
+  <si>
+    <t>2018/07/19</t>
+  </si>
+  <si>
+    <t>2018/07/20</t>
+  </si>
+  <si>
+    <t>2018/07/23</t>
+  </si>
+  <si>
+    <t>2018/07/24</t>
+  </si>
+  <si>
+    <t>2018/07/25</t>
+  </si>
+  <si>
+    <t>2018/07/26</t>
+  </si>
+  <si>
+    <t>2018/07/27</t>
+  </si>
+  <si>
+    <t>2018/07/30</t>
+  </si>
+  <si>
+    <t>2018/07/31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="0.00" numFmtId="164"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -905,13 +907,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1345,17 +1346,6 @@
         <axId val="10"/>
         <axId val="100"/>
       </stockChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
       <valAx>
         <axId val="20"/>
         <scaling>
@@ -1363,8 +1353,6 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
         <crossAx val="10"/>
         <crosses val="max"/>
       </valAx>
@@ -1386,12 +1374,18 @@
             </rich>
           </tx>
         </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
     </plotArea>
-    <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
 </chartSpace>
@@ -1723,7 +1717,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="15.7109375"/>
     <col customWidth="1" max="5" min="2" width="11.7109375"/>
-    <col customWidth="1" max="9" min="7" style="3" width="11.7109375"/>
+    <col customWidth="1" max="9" min="7" style="1" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1758,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10095.95</v>
+        <v>10442.18</v>
       </c>
       <c r="C2" t="n">
-        <v>10116.13</v>
+        <v>10476.51</v>
       </c>
       <c r="D2" t="n">
-        <v>10025.88</v>
+        <v>10390.9</v>
       </c>
       <c r="E2" t="n">
-        <v>10040.72</v>
+        <v>10421.65</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1775,16 +1769,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>10064.44</v>
+        <v>10367.26</v>
       </c>
       <c r="C3" t="n">
-        <v>10100.37</v>
+        <v>10395.07</v>
       </c>
       <c r="D3" t="n">
-        <v>10059.93</v>
+        <v>10329.84</v>
       </c>
       <c r="E3" t="n">
-        <v>10087.42</v>
+        <v>10395.07</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1792,16 +1786,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10117.76</v>
+        <v>10368.99</v>
       </c>
       <c r="C4" t="n">
-        <v>10152.53</v>
+        <v>10412.79</v>
       </c>
       <c r="D4" t="n">
-        <v>10117.06</v>
+        <v>10363.5</v>
       </c>
       <c r="E4" t="n">
-        <v>10152.53</v>
+        <v>10412.79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1809,16 +1803,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>10155.56</v>
+        <v>10397.93</v>
       </c>
       <c r="C5" t="n">
-        <v>10164.98</v>
+        <v>10421.72</v>
       </c>
       <c r="D5" t="n">
-        <v>10140.28</v>
+        <v>10347.78</v>
       </c>
       <c r="E5" t="n">
-        <v>10158.15</v>
+        <v>10347.78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1826,18 +1820,18 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>10164.89</v>
+        <v>10352.39</v>
       </c>
       <c r="C6" t="n">
-        <v>10226.84</v>
+        <v>10404.79</v>
       </c>
       <c r="D6" t="n">
-        <v>10164.89</v>
+        <v>10304.74</v>
       </c>
       <c r="E6" t="n">
-        <v>10226.84</v>
-      </c>
-      <c r="G6" s="3">
+        <v>10404.79</v>
+      </c>
+      <c r="G6" s="1">
         <f>AVERAGE(E2:E6)</f>
         <v/>
       </c>
@@ -1847,18 +1841,18 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>10213.17</v>
+        <v>10380.66</v>
       </c>
       <c r="C7" t="n">
-        <v>10221.64</v>
+        <v>10381.2</v>
       </c>
       <c r="D7" t="n">
-        <v>10190.39</v>
+        <v>10336.32</v>
       </c>
       <c r="E7" t="n">
-        <v>10206.18</v>
-      </c>
-      <c r="G7" s="3">
+        <v>10368.2</v>
+      </c>
+      <c r="G7" s="1">
         <f>AVERAGE(E3:E7)</f>
         <v/>
       </c>
@@ -1868,18 +1862,18 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10216.14</v>
+        <v>10343.3</v>
       </c>
       <c r="C8" t="n">
-        <v>10242.39</v>
+        <v>10343.3</v>
       </c>
       <c r="D8" t="n">
-        <v>10183.15</v>
+        <v>10294.69</v>
       </c>
       <c r="E8" t="n">
-        <v>10209.99</v>
-      </c>
-      <c r="G8" s="3">
+        <v>10297.25</v>
+      </c>
+      <c r="G8" s="1">
         <f>AVERAGE(E4:E8)</f>
         <v/>
       </c>
@@ -1889,18 +1883,18 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>10215.93</v>
+        <v>10310.74</v>
       </c>
       <c r="C9" t="n">
-        <v>10235.7</v>
+        <v>10331.11</v>
       </c>
       <c r="D9" t="n">
-        <v>10211</v>
+        <v>10283.95</v>
       </c>
       <c r="E9" t="n">
-        <v>10225.78</v>
-      </c>
-      <c r="G9" s="3">
+        <v>10289.91</v>
+      </c>
+      <c r="G9" s="1">
         <f>AVERAGE(E5:E9)</f>
         <v/>
       </c>
@@ -1910,18 +1904,18 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>10238.55</v>
+        <v>10313.08</v>
       </c>
       <c r="C10" t="n">
-        <v>10268.37</v>
+        <v>10415.57</v>
       </c>
       <c r="D10" t="n">
-        <v>10198.8</v>
+        <v>10313.08</v>
       </c>
       <c r="E10" t="n">
-        <v>10199.65</v>
-      </c>
-      <c r="G10" s="3">
+        <v>10415.57</v>
+      </c>
+      <c r="G10" s="1">
         <f>AVERAGE(E6:E10)</f>
         <v/>
       </c>
@@ -1931,18 +1925,18 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>10137.04</v>
+        <v>10396.97</v>
       </c>
       <c r="C11" t="n">
-        <v>10158.64</v>
+        <v>10450.87</v>
       </c>
       <c r="D11" t="n">
-        <v>10109.96</v>
+        <v>10393.54</v>
       </c>
       <c r="E11" t="n">
-        <v>10109.96</v>
-      </c>
-      <c r="G11" s="3">
+        <v>10420.68</v>
+      </c>
+      <c r="G11" s="1">
         <f>AVERAGE(E7:E11)</f>
         <v/>
       </c>
@@ -1952,18 +1946,18 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>10109.7</v>
+        <v>10418.74</v>
       </c>
       <c r="C12" t="n">
-        <v>10146.67</v>
+        <v>10485.28</v>
       </c>
       <c r="D12" t="n">
-        <v>10109.7</v>
+        <v>10418.74</v>
       </c>
       <c r="E12" t="n">
-        <v>10128.15</v>
-      </c>
-      <c r="G12" s="3">
+        <v>10460.15</v>
+      </c>
+      <c r="G12" s="1">
         <f>AVERAGE(E8:E12)</f>
         <v/>
       </c>
@@ -1973,18 +1967,18 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>10142.8</v>
+        <v>10450.92</v>
       </c>
       <c r="C13" t="n">
-        <v>10165.31</v>
+        <v>10466.34</v>
       </c>
       <c r="D13" t="n">
-        <v>10033.25</v>
+        <v>10423.4</v>
       </c>
       <c r="E13" t="n">
-        <v>10072.46</v>
-      </c>
-      <c r="G13" s="3">
+        <v>10443.91</v>
+      </c>
+      <c r="G13" s="1">
         <f>AVERAGE(E9:E13)</f>
         <v/>
       </c>
@@ -1994,18 +1988,18 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>10079.14</v>
+        <v>10467.27</v>
       </c>
       <c r="C14" t="n">
-        <v>10089.07</v>
+        <v>10490.05</v>
       </c>
       <c r="D14" t="n">
-        <v>10046.8</v>
+        <v>10436.31</v>
       </c>
       <c r="E14" t="n">
-        <v>10088.35</v>
-      </c>
-      <c r="G14" s="3">
+        <v>10457.54</v>
+      </c>
+      <c r="G14" s="1">
         <f>AVERAGE(E10:E14)</f>
         <v/>
       </c>
@@ -2015,18 +2009,18 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>10078.69</v>
+        <v>10447.47</v>
       </c>
       <c r="C15" t="n">
-        <v>10159.47</v>
+        <v>10481.26</v>
       </c>
       <c r="D15" t="n">
-        <v>10073.12</v>
+        <v>10429.85</v>
       </c>
       <c r="E15" t="n">
-        <v>10156.73</v>
-      </c>
-      <c r="G15" s="3">
+        <v>10481.26</v>
+      </c>
+      <c r="G15" s="1">
         <f>AVERAGE(E11:E15)</f>
         <v/>
       </c>
@@ -2036,18 +2030,18 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>10162.22</v>
+        <v>10472.81</v>
       </c>
       <c r="C16" t="n">
-        <v>10250.6</v>
+        <v>10537.42</v>
       </c>
       <c r="D16" t="n">
-        <v>10162.22</v>
+        <v>10472.81</v>
       </c>
       <c r="E16" t="n">
-        <v>10250.6</v>
-      </c>
-      <c r="G16" s="3">
+        <v>10506.1</v>
+      </c>
+      <c r="G16" s="1">
         <f>AVERAGE(E12:E16)</f>
         <v/>
       </c>
@@ -2057,18 +2051,18 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>10286.79</v>
+        <v>10513.12</v>
       </c>
       <c r="C17" t="n">
-        <v>10354.37</v>
+        <v>10534.52</v>
       </c>
       <c r="D17" t="n">
-        <v>10286.79</v>
+        <v>10483.54</v>
       </c>
       <c r="E17" t="n">
-        <v>10324.46</v>
-      </c>
-      <c r="G17" s="3">
+        <v>10499.36</v>
+      </c>
+      <c r="G17" s="1">
         <f>AVERAGE(E13:E17)</f>
         <v/>
       </c>
@@ -2078,18 +2072,18 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>10310.97</v>
+        <v>10468.47</v>
       </c>
       <c r="C18" t="n">
-        <v>10379.82</v>
+        <v>10477.72</v>
       </c>
       <c r="D18" t="n">
-        <v>10274.75</v>
+        <v>10428.56</v>
       </c>
       <c r="E18" t="n">
-        <v>10349.72</v>
-      </c>
-      <c r="G18" s="3">
+        <v>10436.7</v>
+      </c>
+      <c r="G18" s="1">
         <f>AVERAGE(E14:E18)</f>
         <v/>
       </c>
@@ -2099,18 +2093,18 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>10369.08</v>
+        <v>10426.13</v>
       </c>
       <c r="C19" t="n">
-        <v>10403.36</v>
+        <v>10461.28</v>
       </c>
       <c r="D19" t="n">
-        <v>10368.93</v>
+        <v>10406.81</v>
       </c>
       <c r="E19" t="n">
-        <v>10399.06</v>
-      </c>
-      <c r="G19" s="3">
+        <v>10461.28</v>
+      </c>
+      <c r="G19" s="1">
         <f>AVERAGE(E15:E19)</f>
         <v/>
       </c>
@@ -2120,18 +2114,18 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>10403.56</v>
+        <v>10455.14</v>
       </c>
       <c r="C20" t="n">
-        <v>10422.33</v>
+        <v>10473.98</v>
       </c>
       <c r="D20" t="n">
-        <v>10374.01</v>
+        <v>10442.85</v>
       </c>
       <c r="E20" t="n">
-        <v>10377.7</v>
-      </c>
-      <c r="G20" s="3">
+        <v>10463.15</v>
+      </c>
+      <c r="G20" s="1">
         <f>AVERAGE(E16:E20)</f>
         <v/>
       </c>
@@ -2141,18 +2135,18 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>10341.86</v>
+        <v>10477.15</v>
       </c>
       <c r="C21" t="n">
-        <v>10513.96</v>
+        <v>10500.11</v>
       </c>
       <c r="D21" t="n">
-        <v>10341.86</v>
+        <v>10416.57</v>
       </c>
       <c r="E21" t="n">
-        <v>10513.96</v>
-      </c>
-      <c r="G21" s="3">
+        <v>10419.11</v>
+      </c>
+      <c r="G21" s="1">
         <f>AVERAGE(E17:E21)</f>
         <v/>
       </c>
@@ -2162,18 +2156,18 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>10513</v>
+        <v>10427.83</v>
       </c>
       <c r="C22" t="n">
-        <v>10545.7</v>
+        <v>10516.23</v>
       </c>
       <c r="D22" t="n">
-        <v>10489.1</v>
+        <v>10427.83</v>
       </c>
       <c r="E22" t="n">
-        <v>10512.06</v>
-      </c>
-      <c r="G22" s="3">
+        <v>10508.37</v>
+      </c>
+      <c r="G22" s="1">
         <f>AVERAGE(E18:E22)</f>
         <v/>
       </c>
@@ -2183,18 +2177,18 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>10459.17</v>
+        <v>10480.67</v>
       </c>
       <c r="C23" t="n">
-        <v>10459.17</v>
+        <v>10480.67</v>
       </c>
       <c r="D23" t="n">
-        <v>10382.81</v>
+        <v>10410.53</v>
       </c>
       <c r="E23" t="n">
-        <v>10390.55</v>
-      </c>
-      <c r="G23" s="3">
+        <v>10423.05</v>
+      </c>
+      <c r="G23" s="1">
         <f>AVERAGE(E19:E23)</f>
         <v/>
       </c>
@@ -2204,18 +2198,18 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>10442.18</v>
+        <v>10396.76</v>
       </c>
       <c r="C24" t="n">
-        <v>10476.51</v>
+        <v>10427.33</v>
       </c>
       <c r="D24" t="n">
-        <v>10390.9</v>
+        <v>10366.17</v>
       </c>
       <c r="E24" t="n">
-        <v>10421.65</v>
-      </c>
-      <c r="G24" s="3">
+        <v>10427.33</v>
+      </c>
+      <c r="G24" s="1">
         <f>AVERAGE(E20:E24)</f>
         <v/>
       </c>
@@ -2225,18 +2219,18 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>10367.26</v>
+        <v>10408.53</v>
       </c>
       <c r="C25" t="n">
-        <v>10395.07</v>
+        <v>10470.03</v>
       </c>
       <c r="D25" t="n">
-        <v>10329.84</v>
+        <v>10408.53</v>
       </c>
       <c r="E25" t="n">
-        <v>10395.07</v>
-      </c>
-      <c r="G25" s="3">
+        <v>10437.29</v>
+      </c>
+      <c r="G25" s="1">
         <f>AVERAGE(E21:E25)</f>
         <v/>
       </c>
@@ -2246,18 +2240,18 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10368.99</v>
+        <v>10479.26</v>
       </c>
       <c r="C26" t="n">
-        <v>10412.79</v>
+        <v>10519.27</v>
       </c>
       <c r="D26" t="n">
-        <v>10363.5</v>
+        <v>10479.26</v>
       </c>
       <c r="E26" t="n">
-        <v>10412.79</v>
-      </c>
-      <c r="G26" s="3">
+        <v>10519.27</v>
+      </c>
+      <c r="G26" s="1">
         <f>AVERAGE(E22:E26)</f>
         <v/>
       </c>
@@ -2267,18 +2261,18 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>10397.93</v>
+        <v>10464.1</v>
       </c>
       <c r="C27" t="n">
-        <v>10421.72</v>
+        <v>10478.62</v>
       </c>
       <c r="D27" t="n">
-        <v>10347.78</v>
+        <v>10427.72</v>
       </c>
       <c r="E27" t="n">
-        <v>10347.78</v>
-      </c>
-      <c r="G27" s="3">
+        <v>10469.88</v>
+      </c>
+      <c r="G27" s="1">
         <f>AVERAGE(E23:E27)</f>
         <v/>
       </c>
@@ -2288,18 +2282,18 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10352.39</v>
+        <v>10470.96</v>
       </c>
       <c r="C28" t="n">
-        <v>10404.79</v>
+        <v>10510.7</v>
       </c>
       <c r="D28" t="n">
-        <v>10304.74</v>
+        <v>10466.25</v>
       </c>
       <c r="E28" t="n">
-        <v>10404.79</v>
-      </c>
-      <c r="G28" s="3">
+        <v>10506.56</v>
+      </c>
+      <c r="G28" s="1">
         <f>AVERAGE(E24:E28)</f>
         <v/>
       </c>
@@ -2309,18 +2303,18 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10380.66</v>
+        <v>10521.69</v>
       </c>
       <c r="C29" t="n">
-        <v>10381.2</v>
+        <v>10592.31</v>
       </c>
       <c r="D29" t="n">
-        <v>10336.32</v>
+        <v>10521.69</v>
       </c>
       <c r="E29" t="n">
-        <v>10368.2</v>
-      </c>
-      <c r="G29" s="3">
+        <v>10579.38</v>
+      </c>
+      <c r="G29" s="1">
         <f>AVERAGE(E25:E29)</f>
         <v/>
       </c>
@@ -2330,18 +2324,18 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10343.3</v>
+        <v>10598.59</v>
       </c>
       <c r="C30" t="n">
-        <v>10343.3</v>
+        <v>10619.42</v>
       </c>
       <c r="D30" t="n">
-        <v>10294.69</v>
+        <v>10533.72</v>
       </c>
       <c r="E30" t="n">
-        <v>10297.25</v>
-      </c>
-      <c r="G30" s="3">
+        <v>10568.97</v>
+      </c>
+      <c r="G30" s="1">
         <f>AVERAGE(E26:E30)</f>
         <v/>
       </c>
@@ -2351,26 +2345,26 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10310.74</v>
+        <v>10523.51</v>
       </c>
       <c r="C31" t="n">
-        <v>10331.11</v>
+        <v>10536.19</v>
       </c>
       <c r="D31" t="n">
-        <v>10283.95</v>
+        <v>10457.52</v>
       </c>
       <c r="E31" t="n">
-        <v>10289.91</v>
-      </c>
-      <c r="G31" s="3">
+        <v>10470.38</v>
+      </c>
+      <c r="G31" s="1">
         <f>AVERAGE(E27:E31)</f>
         <v/>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="1">
         <f>AVERAGE(E2:E31)</f>
         <v/>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="1">
         <f>G31-H31</f>
         <v/>
       </c>
@@ -2380,26 +2374,26 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10313.08</v>
+        <v>10470.03</v>
       </c>
       <c r="C32" t="n">
-        <v>10415.57</v>
+        <v>10477.79</v>
       </c>
       <c r="D32" t="n">
-        <v>10313.08</v>
+        <v>10303.47</v>
       </c>
       <c r="E32" t="n">
-        <v>10415.57</v>
-      </c>
-      <c r="G32" s="3">
+        <v>10329.74</v>
+      </c>
+      <c r="G32" s="1">
         <f>AVERAGE(E28:E32)</f>
         <v/>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="1">
         <f>AVERAGE(E3:E32)</f>
         <v/>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="1">
         <f>G32-H32</f>
         <v/>
       </c>
@@ -2409,26 +2403,26 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10396.97</v>
+        <v>10267.05</v>
       </c>
       <c r="C33" t="n">
-        <v>10450.87</v>
+        <v>10338.06</v>
       </c>
       <c r="D33" t="n">
-        <v>10393.54</v>
+        <v>10238.5</v>
       </c>
       <c r="E33" t="n">
-        <v>10420.68</v>
-      </c>
-      <c r="G33" s="3">
+        <v>10329.57</v>
+      </c>
+      <c r="G33" s="1">
         <f>AVERAGE(E29:E33)</f>
         <v/>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <f>AVERAGE(E4:E33)</f>
         <v/>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <f>G33-H33</f>
         <v/>
       </c>
@@ -2438,26 +2432,26 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>10418.74</v>
+        <v>10347.66</v>
       </c>
       <c r="C34" t="n">
-        <v>10485.28</v>
+        <v>10365.22</v>
       </c>
       <c r="D34" t="n">
-        <v>10418.74</v>
+        <v>10225.28</v>
       </c>
       <c r="E34" t="n">
-        <v>10460.15</v>
-      </c>
-      <c r="G34" s="3">
+        <v>10225.28</v>
+      </c>
+      <c r="G34" s="1">
         <f>AVERAGE(E30:E34)</f>
         <v/>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <f>AVERAGE(E5:E34)</f>
         <v/>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <f>G34-H34</f>
         <v/>
       </c>
@@ -2467,26 +2461,26 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10450.92</v>
+        <v>10271.03</v>
       </c>
       <c r="C35" t="n">
-        <v>10466.34</v>
+        <v>10336.22</v>
       </c>
       <c r="D35" t="n">
-        <v>10423.4</v>
+        <v>10271.03</v>
       </c>
       <c r="E35" t="n">
-        <v>10443.91</v>
-      </c>
-      <c r="G35" s="3">
+        <v>10311.16</v>
+      </c>
+      <c r="G35" s="1">
         <f>AVERAGE(E31:E35)</f>
         <v/>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="1">
         <f>AVERAGE(E6:E35)</f>
         <v/>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <f>G35-H35</f>
         <v/>
       </c>
@@ -2496,26 +2490,26 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10467.27</v>
+        <v>10302.83</v>
       </c>
       <c r="C36" t="n">
-        <v>10490.05</v>
+        <v>10322.38</v>
       </c>
       <c r="D36" t="n">
-        <v>10436.31</v>
+        <v>10245.72</v>
       </c>
       <c r="E36" t="n">
-        <v>10457.54</v>
-      </c>
-      <c r="G36" s="3">
+        <v>10290.39</v>
+      </c>
+      <c r="G36" s="1">
         <f>AVERAGE(E32:E36)</f>
         <v/>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="1">
         <f>AVERAGE(E7:E36)</f>
         <v/>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <f>G36-H36</f>
         <v/>
       </c>
@@ -2525,26 +2519,26 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>10447.47</v>
+        <v>10302.54</v>
       </c>
       <c r="C37" t="n">
-        <v>10481.26</v>
+        <v>10372.41</v>
       </c>
       <c r="D37" t="n">
-        <v>10429.85</v>
+        <v>10302.54</v>
       </c>
       <c r="E37" t="n">
-        <v>10481.26</v>
-      </c>
-      <c r="G37" s="3">
+        <v>10369.37</v>
+      </c>
+      <c r="G37" s="1">
         <f>AVERAGE(E33:E37)</f>
         <v/>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="1">
         <f>AVERAGE(E8:E37)</f>
         <v/>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <f>G37-H37</f>
         <v/>
       </c>
@@ -2554,26 +2548,26 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>10472.81</v>
+        <v>10324.83</v>
       </c>
       <c r="C38" t="n">
-        <v>10537.42</v>
+        <v>10330.39</v>
       </c>
       <c r="D38" t="n">
-        <v>10472.81</v>
+        <v>10259.83</v>
       </c>
       <c r="E38" t="n">
-        <v>10506.1</v>
-      </c>
-      <c r="G38" s="3">
+        <v>10321.33</v>
+      </c>
+      <c r="G38" s="1">
         <f>AVERAGE(E34:E38)</f>
         <v/>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <f>AVERAGE(E9:E38)</f>
         <v/>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <f>G38-H38</f>
         <v/>
       </c>
@@ -2583,26 +2577,26 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10513.12</v>
+        <v>10316.09</v>
       </c>
       <c r="C39" t="n">
-        <v>10534.52</v>
+        <v>10336.37</v>
       </c>
       <c r="D39" t="n">
-        <v>10483.54</v>
+        <v>10282.72</v>
       </c>
       <c r="E39" t="n">
-        <v>10499.36</v>
-      </c>
-      <c r="G39" s="3">
+        <v>10326.39</v>
+      </c>
+      <c r="G39" s="1">
         <f>AVERAGE(E35:E39)</f>
         <v/>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="1">
         <f>AVERAGE(E10:E39)</f>
         <v/>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <f>G39-H39</f>
         <v/>
       </c>
@@ -2612,26 +2606,26 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>10468.47</v>
+        <v>10353.37</v>
       </c>
       <c r="C40" t="n">
-        <v>10477.72</v>
+        <v>10410.47</v>
       </c>
       <c r="D40" t="n">
-        <v>10428.56</v>
+        <v>10353.37</v>
       </c>
       <c r="E40" t="n">
-        <v>10436.7</v>
-      </c>
-      <c r="G40" s="3">
+        <v>10392.07</v>
+      </c>
+      <c r="G40" s="1">
         <f>AVERAGE(E36:E40)</f>
         <v/>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="1">
         <f>AVERAGE(E11:E40)</f>
         <v/>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="1">
         <f>G40-H40</f>
         <v/>
       </c>
@@ -2641,26 +2635,26 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10426.13</v>
+        <v>10418.32</v>
       </c>
       <c r="C41" t="n">
-        <v>10461.28</v>
+        <v>10458.91</v>
       </c>
       <c r="D41" t="n">
+        <v>10378.01</v>
+      </c>
+      <c r="E41" t="n">
         <v>10406.81</v>
       </c>
-      <c r="E41" t="n">
-        <v>10461.28</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" s="1">
         <f>AVERAGE(E37:E41)</f>
         <v/>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="1">
         <f>AVERAGE(E12:E41)</f>
         <v/>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="1">
         <f>G41-H41</f>
         <v/>
       </c>
@@ -2670,26 +2664,26 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10455.14</v>
+        <v>10414.66</v>
       </c>
       <c r="C42" t="n">
-        <v>10473.98</v>
+        <v>10488.96</v>
       </c>
       <c r="D42" t="n">
-        <v>10442.85</v>
+        <v>10410.73</v>
       </c>
       <c r="E42" t="n">
-        <v>10463.15</v>
-      </c>
-      <c r="G42" s="3">
+        <v>10488.96</v>
+      </c>
+      <c r="G42" s="1">
         <f>AVERAGE(E38:E42)</f>
         <v/>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="1">
         <f>AVERAGE(E13:E42)</f>
         <v/>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="1">
         <f>G42-H42</f>
         <v/>
       </c>
@@ -2699,26 +2693,26 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10477.15</v>
+        <v>10497.86</v>
       </c>
       <c r="C43" t="n">
-        <v>10500.11</v>
+        <v>10519.84</v>
       </c>
       <c r="D43" t="n">
-        <v>10416.57</v>
+        <v>10478.72</v>
       </c>
       <c r="E43" t="n">
-        <v>10419.11</v>
-      </c>
-      <c r="G43" s="3">
+        <v>10515.51</v>
+      </c>
+      <c r="G43" s="1">
         <f>AVERAGE(E39:E43)</f>
         <v/>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="1">
         <f>AVERAGE(E14:E43)</f>
         <v/>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="1">
         <f>G43-H43</f>
         <v/>
       </c>
@@ -2728,26 +2722,26 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10427.83</v>
+        <v>10502.8</v>
       </c>
       <c r="C44" t="n">
-        <v>10516.23</v>
+        <v>10542.37</v>
       </c>
       <c r="D44" t="n">
-        <v>10427.83</v>
+        <v>10498.88</v>
       </c>
       <c r="E44" t="n">
-        <v>10508.37</v>
-      </c>
-      <c r="G44" s="3">
+        <v>10525.98</v>
+      </c>
+      <c r="G44" s="1">
         <f>AVERAGE(E40:E44)</f>
         <v/>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="1">
         <f>AVERAGE(E15:E44)</f>
         <v/>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="1">
         <f>G44-H44</f>
         <v/>
       </c>
@@ -2757,26 +2751,26 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10480.67</v>
+        <v>10518.69</v>
       </c>
       <c r="C45" t="n">
-        <v>10480.67</v>
+        <v>10518.69</v>
       </c>
       <c r="D45" t="n">
-        <v>10410.53</v>
+        <v>10463.22</v>
       </c>
       <c r="E45" t="n">
-        <v>10423.05</v>
-      </c>
-      <c r="G45" s="3">
+        <v>10496.57</v>
+      </c>
+      <c r="G45" s="1">
         <f>AVERAGE(E41:E45)</f>
         <v/>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="1">
         <f>AVERAGE(E16:E45)</f>
         <v/>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="1">
         <f>G45-H45</f>
         <v/>
       </c>
@@ -2786,26 +2780,26 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10396.76</v>
+        <v>10511.59</v>
       </c>
       <c r="C46" t="n">
-        <v>10427.33</v>
+        <v>10574.53</v>
       </c>
       <c r="D46" t="n">
-        <v>10366.17</v>
+        <v>10511.59</v>
       </c>
       <c r="E46" t="n">
-        <v>10427.33</v>
-      </c>
-      <c r="G46" s="3">
+        <v>10569.4</v>
+      </c>
+      <c r="G46" s="1">
         <f>AVERAGE(E42:E46)</f>
         <v/>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="1">
         <f>AVERAGE(E17:E46)</f>
         <v/>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="1">
         <f>G46-H46</f>
         <v/>
       </c>
@@ -2815,26 +2809,26 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10408.53</v>
+        <v>10586.65</v>
       </c>
       <c r="C47" t="n">
-        <v>10470.03</v>
+        <v>10609.48</v>
       </c>
       <c r="D47" t="n">
-        <v>10408.53</v>
+        <v>10551.95</v>
       </c>
       <c r="E47" t="n">
-        <v>10437.29</v>
-      </c>
-      <c r="G47" s="3">
+        <v>10585.78</v>
+      </c>
+      <c r="G47" s="1">
         <f>AVERAGE(E43:E47)</f>
         <v/>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="1">
         <f>AVERAGE(E18:E47)</f>
         <v/>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="1">
         <f>G47-H47</f>
         <v/>
       </c>
@@ -2844,26 +2838,26 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>10479.26</v>
+        <v>10576.27</v>
       </c>
       <c r="C48" t="n">
-        <v>10519.27</v>
+        <v>10619.52</v>
       </c>
       <c r="D48" t="n">
-        <v>10479.26</v>
+        <v>10568.72</v>
       </c>
       <c r="E48" t="n">
-        <v>10519.27</v>
-      </c>
-      <c r="G48" s="3">
+        <v>10594.82</v>
+      </c>
+      <c r="G48" s="1">
         <f>AVERAGE(E44:E48)</f>
         <v/>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="1">
         <f>AVERAGE(E19:E48)</f>
         <v/>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="1">
         <f>G48-H48</f>
         <v/>
       </c>
@@ -2873,26 +2867,26 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10464.1</v>
+        <v>10585.44</v>
       </c>
       <c r="C49" t="n">
-        <v>10478.62</v>
+        <v>10610.04</v>
       </c>
       <c r="D49" t="n">
-        <v>10427.72</v>
+        <v>10555.34</v>
       </c>
       <c r="E49" t="n">
-        <v>10469.88</v>
-      </c>
-      <c r="G49" s="3">
+        <v>10569.87</v>
+      </c>
+      <c r="G49" s="1">
         <f>AVERAGE(E45:E49)</f>
         <v/>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="1">
         <f>AVERAGE(E20:E49)</f>
         <v/>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="1">
         <f>G49-H49</f>
         <v/>
       </c>
@@ -2902,26 +2896,26 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10470.96</v>
+        <v>10584.1</v>
       </c>
       <c r="C50" t="n">
-        <v>10510.7</v>
+        <v>10617.84</v>
       </c>
       <c r="D50" t="n">
-        <v>10466.25</v>
+        <v>10564.26</v>
       </c>
       <c r="E50" t="n">
-        <v>10506.56</v>
-      </c>
-      <c r="G50" s="3">
+        <v>10617.84</v>
+      </c>
+      <c r="G50" s="1">
         <f>AVERAGE(E46:E50)</f>
         <v/>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="1">
         <f>AVERAGE(E21:E50)</f>
         <v/>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="1">
         <f>G50-H50</f>
         <v/>
       </c>
@@ -2931,26 +2925,26 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10521.69</v>
+        <v>10593.87</v>
       </c>
       <c r="C51" t="n">
-        <v>10592.31</v>
+        <v>10604.92</v>
       </c>
       <c r="D51" t="n">
-        <v>10521.69</v>
+        <v>10519.71</v>
       </c>
       <c r="E51" t="n">
-        <v>10579.38</v>
-      </c>
-      <c r="G51" s="3">
+        <v>10547.86</v>
+      </c>
+      <c r="G51" s="1">
         <f>AVERAGE(E47:E51)</f>
         <v/>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="1">
         <f>AVERAGE(E22:E51)</f>
         <v/>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <f>G51-H51</f>
         <v/>
       </c>
@@ -2960,26 +2954,26 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10598.59</v>
+        <v>10564.79</v>
       </c>
       <c r="C52" t="n">
-        <v>10619.42</v>
+        <v>10604.02</v>
       </c>
       <c r="D52" t="n">
-        <v>10533.72</v>
+        <v>10509.91</v>
       </c>
       <c r="E52" t="n">
-        <v>10568.97</v>
-      </c>
-      <c r="G52" s="3">
+        <v>10538.51</v>
+      </c>
+      <c r="G52" s="1">
         <f>AVERAGE(E48:E52)</f>
         <v/>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="1">
         <f>AVERAGE(E23:E52)</f>
         <v/>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="1">
         <f>G52-H52</f>
         <v/>
       </c>
@@ -2989,26 +2983,26 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10523.51</v>
+        <v>10553.9</v>
       </c>
       <c r="C53" t="n">
-        <v>10536.19</v>
+        <v>10609.95</v>
       </c>
       <c r="D53" t="n">
-        <v>10457.52</v>
+        <v>10550.72</v>
       </c>
       <c r="E53" t="n">
-        <v>10470.38</v>
-      </c>
-      <c r="G53" s="3">
+        <v>10609.95</v>
+      </c>
+      <c r="G53" s="1">
         <f>AVERAGE(E49:E53)</f>
         <v/>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="1">
         <f>AVERAGE(E24:E53)</f>
         <v/>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="1">
         <f>G53-H53</f>
         <v/>
       </c>
@@ -3018,26 +3012,26 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10470.03</v>
+        <v>10630.16</v>
       </c>
       <c r="C54" t="n">
-        <v>10477.79</v>
+        <v>10656.25</v>
       </c>
       <c r="D54" t="n">
-        <v>10303.47</v>
+        <v>10565.78</v>
       </c>
       <c r="E54" t="n">
-        <v>10329.74</v>
-      </c>
-      <c r="G54" s="3">
+        <v>10572.16</v>
+      </c>
+      <c r="G54" s="1">
         <f>AVERAGE(E50:E54)</f>
         <v/>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="1">
         <f>AVERAGE(E25:E54)</f>
         <v/>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="1">
         <f>G54-H54</f>
         <v/>
       </c>
@@ -3047,26 +3041,26 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10267.05</v>
+        <v>10610.33</v>
       </c>
       <c r="C55" t="n">
-        <v>10338.06</v>
+        <v>10646.55</v>
       </c>
       <c r="D55" t="n">
-        <v>10238.5</v>
+        <v>10586.28</v>
       </c>
       <c r="E55" t="n">
-        <v>10329.57</v>
-      </c>
-      <c r="G55" s="3">
+        <v>10610.35</v>
+      </c>
+      <c r="G55" s="1">
         <f>AVERAGE(E51:E55)</f>
         <v/>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="1">
         <f>AVERAGE(E26:E55)</f>
         <v/>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="1">
         <f>G55-H55</f>
         <v/>
       </c>
@@ -3076,26 +3070,26 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10347.66</v>
+        <v>10596.36</v>
       </c>
       <c r="C56" t="n">
-        <v>10365.22</v>
+        <v>10620.31</v>
       </c>
       <c r="D56" t="n">
-        <v>10225.28</v>
+        <v>10532.88</v>
       </c>
       <c r="E56" t="n">
-        <v>10225.28</v>
-      </c>
-      <c r="G56" s="3">
+        <v>10532.88</v>
+      </c>
+      <c r="G56" s="1">
         <f>AVERAGE(E52:E56)</f>
         <v/>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="1">
         <f>AVERAGE(E27:E56)</f>
         <v/>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="1">
         <f>G56-H56</f>
         <v/>
       </c>
@@ -3105,26 +3099,26 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10271.03</v>
+        <v>10533.99</v>
       </c>
       <c r="C57" t="n">
-        <v>10336.22</v>
+        <v>10572.71</v>
       </c>
       <c r="D57" t="n">
-        <v>10271.03</v>
+        <v>10508.72</v>
       </c>
       <c r="E57" t="n">
-        <v>10311.16</v>
-      </c>
-      <c r="G57" s="3">
+        <v>10553.57</v>
+      </c>
+      <c r="G57" s="1">
         <f>AVERAGE(E53:E57)</f>
         <v/>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="1">
         <f>AVERAGE(E28:E57)</f>
         <v/>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="1">
         <f>G57-H57</f>
         <v/>
       </c>
@@ -3134,26 +3128,26 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10302.83</v>
+        <v>10556.82</v>
       </c>
       <c r="C58" t="n">
-        <v>10322.38</v>
+        <v>10580.78</v>
       </c>
       <c r="D58" t="n">
-        <v>10245.72</v>
+        <v>10520.15</v>
       </c>
       <c r="E58" t="n">
-        <v>10290.39</v>
-      </c>
-      <c r="G58" s="3">
+        <v>10580.41</v>
+      </c>
+      <c r="G58" s="1">
         <f>AVERAGE(E54:E58)</f>
         <v/>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="1">
         <f>AVERAGE(E29:E58)</f>
         <v/>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="1">
         <f>G58-H58</f>
         <v/>
       </c>
@@ -3163,26 +3157,26 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10302.54</v>
+        <v>10590.8</v>
       </c>
       <c r="C59" t="n">
-        <v>10372.41</v>
+        <v>10642.4</v>
       </c>
       <c r="D59" t="n">
-        <v>10302.54</v>
+        <v>10581.81</v>
       </c>
       <c r="E59" t="n">
-        <v>10369.37</v>
-      </c>
-      <c r="G59" s="3">
+        <v>10631.57</v>
+      </c>
+      <c r="G59" s="1">
         <f>AVERAGE(E55:E59)</f>
         <v/>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="1">
         <f>AVERAGE(E30:E59)</f>
         <v/>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="1">
         <f>G59-H59</f>
         <v/>
       </c>
@@ -3192,26 +3186,26 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10324.83</v>
+        <v>10653.34</v>
       </c>
       <c r="C60" t="n">
-        <v>10330.39</v>
+        <v>10664.18</v>
       </c>
       <c r="D60" t="n">
-        <v>10259.83</v>
+        <v>10561.21</v>
       </c>
       <c r="E60" t="n">
-        <v>10321.33</v>
-      </c>
-      <c r="G60" s="3">
+        <v>10576.14</v>
+      </c>
+      <c r="G60" s="1">
         <f>AVERAGE(E56:E60)</f>
         <v/>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="1">
         <f>AVERAGE(E31:E60)</f>
         <v/>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="1">
         <f>G60-H60</f>
         <v/>
       </c>
@@ -3221,26 +3215,26 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10316.09</v>
+        <v>10568.58</v>
       </c>
       <c r="C61" t="n">
-        <v>10336.37</v>
+        <v>10589.19</v>
       </c>
       <c r="D61" t="n">
-        <v>10282.72</v>
+        <v>10490.71</v>
       </c>
       <c r="E61" t="n">
-        <v>10326.39</v>
-      </c>
-      <c r="G61" s="3">
+        <v>10519.17</v>
+      </c>
+      <c r="G61" s="1">
         <f>AVERAGE(E57:E61)</f>
         <v/>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="1">
         <f>AVERAGE(E32:E61)</f>
         <v/>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="1">
         <f>G61-H61</f>
         <v/>
       </c>
@@ -3250,26 +3244,26 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10353.37</v>
+        <v>10506.85</v>
       </c>
       <c r="C62" t="n">
-        <v>10410.47</v>
+        <v>10603.08</v>
       </c>
       <c r="D62" t="n">
-        <v>10353.37</v>
+        <v>10493.95</v>
       </c>
       <c r="E62" t="n">
-        <v>10392.07</v>
-      </c>
-      <c r="G62" s="3">
+        <v>10578.44</v>
+      </c>
+      <c r="G62" s="1">
         <f>AVERAGE(E58:E62)</f>
         <v/>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="1">
         <f>AVERAGE(E33:E62)</f>
         <v/>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="1">
         <f>G62-H62</f>
         <v/>
       </c>
@@ -3279,26 +3273,26 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10418.32</v>
+        <v>10571.65</v>
       </c>
       <c r="C63" t="n">
-        <v>10458.91</v>
+        <v>10579.02</v>
       </c>
       <c r="D63" t="n">
-        <v>10378.01</v>
+        <v>10446.45</v>
       </c>
       <c r="E63" t="n">
-        <v>10406.81</v>
-      </c>
-      <c r="G63" s="3">
+        <v>10449.68</v>
+      </c>
+      <c r="G63" s="1">
         <f>AVERAGE(E59:E63)</f>
         <v/>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="1">
         <f>AVERAGE(E34:E63)</f>
         <v/>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="1">
         <f>G63-H63</f>
         <v/>
       </c>
@@ -3308,26 +3302,26 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10414.66</v>
+        <v>10442.05</v>
       </c>
       <c r="C64" t="n">
-        <v>10488.96</v>
+        <v>10447.09</v>
       </c>
       <c r="D64" t="n">
-        <v>10410.73</v>
+        <v>10322.1</v>
       </c>
       <c r="E64" t="n">
-        <v>10488.96</v>
-      </c>
-      <c r="G64" s="3">
+        <v>10335.89</v>
+      </c>
+      <c r="G64" s="1">
         <f>AVERAGE(E60:E64)</f>
         <v/>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="1">
         <f>AVERAGE(E35:E64)</f>
         <v/>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="1">
         <f>G64-H64</f>
         <v/>
       </c>
@@ -3337,26 +3331,26 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10497.86</v>
+        <v>10333.44</v>
       </c>
       <c r="C65" t="n">
-        <v>10519.84</v>
+        <v>10374.54</v>
       </c>
       <c r="D65" t="n">
-        <v>10478.72</v>
+        <v>10257.02</v>
       </c>
       <c r="E65" t="n">
-        <v>10515.51</v>
-      </c>
-      <c r="G65" s="3">
+        <v>10257.02</v>
+      </c>
+      <c r="G65" s="1">
         <f>AVERAGE(E61:E65)</f>
         <v/>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="1">
         <f>AVERAGE(E36:E65)</f>
         <v/>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="1">
         <f>G65-H65</f>
         <v/>
       </c>
@@ -3366,26 +3360,26 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10502.8</v>
+        <v>10322.44</v>
       </c>
       <c r="C66" t="n">
-        <v>10542.37</v>
+        <v>10357.23</v>
       </c>
       <c r="D66" t="n">
-        <v>10498.88</v>
+        <v>10315.97</v>
       </c>
       <c r="E66" t="n">
-        <v>10525.98</v>
-      </c>
-      <c r="G66" s="3">
+        <v>10326.68</v>
+      </c>
+      <c r="G66" s="1">
         <f>AVERAGE(E62:E66)</f>
         <v/>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="1">
         <f>AVERAGE(E37:E66)</f>
         <v/>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="1">
         <f>G66-H66</f>
         <v/>
       </c>
@@ -3395,26 +3389,26 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10518.69</v>
+        <v>10351.42</v>
       </c>
       <c r="C67" t="n">
-        <v>10518.69</v>
+        <v>10365.59</v>
       </c>
       <c r="D67" t="n">
-        <v>10463.22</v>
+        <v>10288.24</v>
       </c>
       <c r="E67" t="n">
-        <v>10496.57</v>
-      </c>
-      <c r="G67" s="3">
+        <v>10296.45</v>
+      </c>
+      <c r="G67" s="1">
         <f>AVERAGE(E63:E67)</f>
         <v/>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="1">
         <f>AVERAGE(E38:E67)</f>
         <v/>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="1">
         <f>G67-H67</f>
         <v/>
       </c>
@@ -3424,26 +3418,26 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>10511.59</v>
+        <v>10319.69</v>
       </c>
       <c r="C68" t="n">
-        <v>10574.53</v>
+        <v>10338.95</v>
       </c>
       <c r="D68" t="n">
-        <v>10511.59</v>
+        <v>10273.6</v>
       </c>
       <c r="E68" t="n">
-        <v>10569.4</v>
-      </c>
-      <c r="G68" s="3">
+        <v>10329.94</v>
+      </c>
+      <c r="G68" s="1">
         <f>AVERAGE(E64:E68)</f>
         <v/>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="1">
         <f>AVERAGE(E39:E68)</f>
         <v/>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="1">
         <f>G68-H68</f>
         <v/>
       </c>
@@ -3453,26 +3447,26 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>10586.65</v>
+        <v>10362.55</v>
       </c>
       <c r="C69" t="n">
-        <v>10609.48</v>
+        <v>10400.4</v>
       </c>
       <c r="D69" t="n">
-        <v>10551.95</v>
+        <v>10362.55</v>
       </c>
       <c r="E69" t="n">
-        <v>10585.78</v>
-      </c>
-      <c r="G69" s="3">
+        <v>10383.94</v>
+      </c>
+      <c r="G69" s="1">
         <f>AVERAGE(E65:E69)</f>
         <v/>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="1">
         <f>AVERAGE(E40:E69)</f>
         <v/>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="1">
         <f>G69-H69</f>
         <v/>
       </c>
@@ -3482,26 +3476,26 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>10576.27</v>
+        <v>10425.1</v>
       </c>
       <c r="C70" t="n">
-        <v>10619.52</v>
+        <v>10472.81</v>
       </c>
       <c r="D70" t="n">
-        <v>10568.72</v>
+        <v>10414.53</v>
       </c>
       <c r="E70" t="n">
-        <v>10594.82</v>
-      </c>
-      <c r="G70" s="3">
+        <v>10465.16</v>
+      </c>
+      <c r="G70" s="1">
         <f>AVERAGE(E66:E70)</f>
         <v/>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="1">
         <f>AVERAGE(E41:E70)</f>
         <v/>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="1">
         <f>G70-H70</f>
         <v/>
       </c>
@@ -3511,26 +3505,26 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>10585.44</v>
+        <v>10462.7</v>
       </c>
       <c r="C71" t="n">
-        <v>10610.04</v>
+        <v>10495.34</v>
       </c>
       <c r="D71" t="n">
-        <v>10555.34</v>
+        <v>10445.86</v>
       </c>
       <c r="E71" t="n">
-        <v>10569.87</v>
-      </c>
-      <c r="G71" s="3">
+        <v>10469.35</v>
+      </c>
+      <c r="G71" s="1">
         <f>AVERAGE(E67:E71)</f>
         <v/>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="1">
         <f>AVERAGE(E42:E71)</f>
         <v/>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="1">
         <f>G71-H71</f>
         <v/>
       </c>
@@ -3540,26 +3534,26 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>10584.1</v>
+        <v>10473.28</v>
       </c>
       <c r="C72" t="n">
-        <v>10617.84</v>
+        <v>10530.93</v>
       </c>
       <c r="D72" t="n">
-        <v>10564.26</v>
+        <v>10473.28</v>
       </c>
       <c r="E72" t="n">
-        <v>10617.84</v>
-      </c>
-      <c r="G72" s="3">
+        <v>10518.27</v>
+      </c>
+      <c r="G72" s="1">
         <f>AVERAGE(E68:E72)</f>
         <v/>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="1">
         <f>AVERAGE(E43:E72)</f>
         <v/>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="1">
         <f>G72-H72</f>
         <v/>
       </c>
@@ -3569,26 +3563,26 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>10593.87</v>
+        <v>10538.21</v>
       </c>
       <c r="C73" t="n">
-        <v>10604.92</v>
+        <v>10557.67</v>
       </c>
       <c r="D73" t="n">
-        <v>10519.71</v>
+        <v>10511.5</v>
       </c>
       <c r="E73" t="n">
-        <v>10547.86</v>
-      </c>
-      <c r="G73" s="3">
+        <v>10532.81</v>
+      </c>
+      <c r="G73" s="1">
         <f>AVERAGE(E69:E73)</f>
         <v/>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="1">
         <f>AVERAGE(E44:E73)</f>
         <v/>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="1">
         <f>G73-H73</f>
         <v/>
       </c>
@@ -3598,26 +3592,26 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10564.79</v>
+        <v>10576.12</v>
       </c>
       <c r="C74" t="n">
-        <v>10604.02</v>
+        <v>10668.49</v>
       </c>
       <c r="D74" t="n">
-        <v>10509.91</v>
+        <v>10576.12</v>
       </c>
       <c r="E74" t="n">
-        <v>10538.51</v>
-      </c>
-      <c r="G74" s="3">
+        <v>10641.19</v>
+      </c>
+      <c r="G74" s="1">
         <f>AVERAGE(E70:E74)</f>
         <v/>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="1">
         <f>AVERAGE(E45:E74)</f>
         <v/>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="1">
         <f>G74-H74</f>
         <v/>
       </c>
@@ -3627,26 +3621,26 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10553.9</v>
+        <v>10668.39</v>
       </c>
       <c r="C75" t="n">
-        <v>10609.95</v>
+        <v>10711.44</v>
       </c>
       <c r="D75" t="n">
-        <v>10550.72</v>
+        <v>10668.39</v>
       </c>
       <c r="E75" t="n">
-        <v>10609.95</v>
-      </c>
-      <c r="G75" s="3">
+        <v>10711.44</v>
+      </c>
+      <c r="G75" s="1">
         <f>AVERAGE(E71:E75)</f>
         <v/>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="1">
         <f>AVERAGE(E46:E75)</f>
         <v/>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="1">
         <f>G75-H75</f>
         <v/>
       </c>
@@ -3656,26 +3650,26 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10630.16</v>
+        <v>10712.48</v>
       </c>
       <c r="C76" t="n">
-        <v>10656.25</v>
+        <v>10724.09</v>
       </c>
       <c r="D76" t="n">
-        <v>10565.78</v>
+        <v>10675.83</v>
       </c>
       <c r="E76" t="n">
-        <v>10572.16</v>
-      </c>
-      <c r="G76" s="3">
+        <v>10724.09</v>
+      </c>
+      <c r="G76" s="1">
         <f>AVERAGE(E72:E76)</f>
         <v/>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="1">
         <f>AVERAGE(E47:E76)</f>
         <v/>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="1">
         <f>G76-H76</f>
         <v/>
       </c>
@@ -3685,26 +3679,26 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10610.33</v>
+        <v>10735.14</v>
       </c>
       <c r="C77" t="n">
-        <v>10646.55</v>
+        <v>10774.21</v>
       </c>
       <c r="D77" t="n">
-        <v>10586.28</v>
+        <v>10723.37</v>
       </c>
       <c r="E77" t="n">
-        <v>10610.35</v>
-      </c>
-      <c r="G77" s="3">
+        <v>10774.21</v>
+      </c>
+      <c r="G77" s="1">
         <f>AVERAGE(E73:E77)</f>
         <v/>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="1">
         <f>AVERAGE(E48:E77)</f>
         <v/>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="1">
         <f>G77-H77</f>
         <v/>
       </c>
@@ -3714,26 +3708,26 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10596.36</v>
+        <v>10790.35</v>
       </c>
       <c r="C78" t="n">
-        <v>10620.31</v>
+        <v>10798.52</v>
       </c>
       <c r="D78" t="n">
-        <v>10532.88</v>
+        <v>10723.15</v>
       </c>
       <c r="E78" t="n">
-        <v>10532.88</v>
-      </c>
-      <c r="G78" s="3">
+        <v>10723.15</v>
+      </c>
+      <c r="G78" s="1">
         <f>AVERAGE(E74:E78)</f>
         <v/>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="1">
         <f>AVERAGE(E49:E78)</f>
         <v/>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="1">
         <f>G78-H78</f>
         <v/>
       </c>
@@ -3743,26 +3737,26 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10533.99</v>
+        <v>10773.85</v>
       </c>
       <c r="C79" t="n">
-        <v>10572.71</v>
+        <v>10790.31</v>
       </c>
       <c r="D79" t="n">
-        <v>10508.72</v>
+        <v>10684.32</v>
       </c>
       <c r="E79" t="n">
-        <v>10553.57</v>
-      </c>
-      <c r="G79" s="3">
+        <v>10720.28</v>
+      </c>
+      <c r="G79" s="1">
         <f>AVERAGE(E75:E79)</f>
         <v/>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="1">
         <f>AVERAGE(E50:E79)</f>
         <v/>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="1">
         <f>G79-H79</f>
         <v/>
       </c>
@@ -3772,26 +3766,26 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>10556.82</v>
+        <v>10745.77</v>
       </c>
       <c r="C80" t="n">
-        <v>10580.78</v>
+        <v>10798.54</v>
       </c>
       <c r="D80" t="n">
-        <v>10520.15</v>
+        <v>10745.77</v>
       </c>
       <c r="E80" t="n">
-        <v>10580.41</v>
-      </c>
-      <c r="G80" s="3">
+        <v>10760.29</v>
+      </c>
+      <c r="G80" s="1">
         <f>AVERAGE(E76:E80)</f>
         <v/>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="1">
         <f>AVERAGE(E51:E80)</f>
         <v/>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="1">
         <f>G80-H80</f>
         <v/>
       </c>
@@ -3801,26 +3795,26 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10590.8</v>
+        <v>10737.87</v>
       </c>
       <c r="C81" t="n">
-        <v>10642.4</v>
+        <v>10753.77</v>
       </c>
       <c r="D81" t="n">
-        <v>10581.81</v>
+        <v>10702.56</v>
       </c>
       <c r="E81" t="n">
-        <v>10631.57</v>
-      </c>
-      <c r="G81" s="3">
+        <v>10728.88</v>
+      </c>
+      <c r="G81" s="1">
         <f>AVERAGE(E77:E81)</f>
         <v/>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="1">
         <f>AVERAGE(E52:E81)</f>
         <v/>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="1">
         <f>G81-H81</f>
         <v/>
       </c>
@@ -3830,26 +3824,26 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10653.34</v>
+        <v>10759.47</v>
       </c>
       <c r="C82" t="n">
-        <v>10664.18</v>
+        <v>10792.27</v>
       </c>
       <c r="D82" t="n">
-        <v>10561.21</v>
+        <v>10731.9</v>
       </c>
       <c r="E82" t="n">
-        <v>10576.14</v>
-      </c>
-      <c r="G82" s="3">
+        <v>10735.21</v>
+      </c>
+      <c r="G82" s="1">
         <f>AVERAGE(E78:E82)</f>
         <v/>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="1">
         <f>AVERAGE(E53:E82)</f>
         <v/>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="1">
         <f>G82-H82</f>
         <v/>
       </c>
@@ -3859,26 +3853,26 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10568.58</v>
+        <v>10749.9</v>
       </c>
       <c r="C83" t="n">
-        <v>10589.19</v>
+        <v>10766.64</v>
       </c>
       <c r="D83" t="n">
-        <v>10490.71</v>
+        <v>10726.25</v>
       </c>
       <c r="E83" t="n">
-        <v>10519.17</v>
-      </c>
-      <c r="G83" s="3">
+        <v>10743.78</v>
+      </c>
+      <c r="G83" s="1">
         <f>AVERAGE(E79:E83)</f>
         <v/>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="1">
         <f>AVERAGE(E54:E83)</f>
         <v/>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="1">
         <f>G83-H83</f>
         <v/>
       </c>
@@ -3888,26 +3882,26 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10506.85</v>
+        <v>10771.4</v>
       </c>
       <c r="C84" t="n">
-        <v>10603.08</v>
+        <v>10794.55</v>
       </c>
       <c r="D84" t="n">
-        <v>10493.95</v>
+        <v>10740.07</v>
       </c>
       <c r="E84" t="n">
-        <v>10578.44</v>
-      </c>
-      <c r="G84" s="3">
+        <v>10750.57</v>
+      </c>
+      <c r="G84" s="1">
         <f>AVERAGE(E80:E84)</f>
         <v/>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="1">
         <f>AVERAGE(E55:E84)</f>
         <v/>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="1">
         <f>G84-H84</f>
         <v/>
       </c>
@@ -3917,26 +3911,26 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10571.65</v>
+        <v>10735.35</v>
       </c>
       <c r="C85" t="n">
-        <v>10579.02</v>
+        <v>10756.51</v>
       </c>
       <c r="D85" t="n">
-        <v>10446.45</v>
+        <v>10716.52</v>
       </c>
       <c r="E85" t="n">
-        <v>10449.68</v>
-      </c>
-      <c r="G85" s="3">
+        <v>10734.76</v>
+      </c>
+      <c r="G85" s="1">
         <f>AVERAGE(E81:E85)</f>
         <v/>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="1">
         <f>AVERAGE(E56:E85)</f>
         <v/>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="1">
         <f>G85-H85</f>
         <v/>
       </c>
@@ -3946,26 +3940,26 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10442.05</v>
+        <v>10757.35</v>
       </c>
       <c r="C86" t="n">
-        <v>10447.09</v>
+        <v>10803.6</v>
       </c>
       <c r="D86" t="n">
-        <v>10322.1</v>
+        <v>10701.08</v>
       </c>
       <c r="E86" t="n">
-        <v>10335.89</v>
-      </c>
-      <c r="G86" s="3">
+        <v>10709.11</v>
+      </c>
+      <c r="G86" s="1">
         <f>AVERAGE(E82:E86)</f>
         <v/>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="1">
         <f>AVERAGE(E57:E86)</f>
         <v/>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="1">
         <f>G86-H86</f>
         <v/>
       </c>
@@ -3975,26 +3969,26 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10333.44</v>
+        <v>10777.6</v>
       </c>
       <c r="C87" t="n">
-        <v>10374.54</v>
+        <v>10842.25</v>
       </c>
       <c r="D87" t="n">
-        <v>10257.02</v>
+        <v>10743.13</v>
       </c>
       <c r="E87" t="n">
-        <v>10257.02</v>
-      </c>
-      <c r="G87" s="3">
+        <v>10756.87</v>
+      </c>
+      <c r="G87" s="1">
         <f>AVERAGE(E83:E87)</f>
         <v/>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="1">
         <f>AVERAGE(E58:E87)</f>
         <v/>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="1">
         <f>G87-H87</f>
         <v/>
       </c>
@@ -4004,26 +3998,26 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10322.44</v>
+        <v>10768.9</v>
       </c>
       <c r="C88" t="n">
-        <v>10357.23</v>
+        <v>10829.33</v>
       </c>
       <c r="D88" t="n">
-        <v>10315.97</v>
+        <v>10747.37</v>
       </c>
       <c r="E88" t="n">
-        <v>10326.68</v>
-      </c>
-      <c r="G88" s="3">
+        <v>10793.8</v>
+      </c>
+      <c r="G88" s="1">
         <f>AVERAGE(E84:E88)</f>
         <v/>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="1">
         <f>AVERAGE(E59:E88)</f>
         <v/>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="1">
         <f>G88-H88</f>
         <v/>
       </c>
@@ -4033,26 +4027,26 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>10351.42</v>
+        <v>10816.04</v>
       </c>
       <c r="C89" t="n">
-        <v>10365.59</v>
+        <v>10843.41</v>
       </c>
       <c r="D89" t="n">
-        <v>10288.24</v>
+        <v>10785.32</v>
       </c>
       <c r="E89" t="n">
-        <v>10296.45</v>
-      </c>
-      <c r="G89" s="3">
+        <v>10806.36</v>
+      </c>
+      <c r="G89" s="1">
         <f>AVERAGE(E85:E89)</f>
         <v/>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="1">
         <f>AVERAGE(E60:E89)</f>
         <v/>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="1">
         <f>G89-H89</f>
         <v/>
       </c>
@@ -4062,26 +4056,26 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>10319.69</v>
+        <v>10797.63</v>
       </c>
       <c r="C90" t="n">
-        <v>10338.95</v>
+        <v>10827.67</v>
       </c>
       <c r="D90" t="n">
-        <v>10273.6</v>
+        <v>10788.51</v>
       </c>
       <c r="E90" t="n">
-        <v>10329.94</v>
-      </c>
-      <c r="G90" s="3">
+        <v>10788.51</v>
+      </c>
+      <c r="G90" s="1">
         <f>AVERAGE(E86:E90)</f>
         <v/>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="1">
         <f>AVERAGE(E61:E90)</f>
         <v/>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="1">
         <f>G90-H90</f>
         <v/>
       </c>
@@ -4091,26 +4085,26 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>10362.55</v>
+        <v>10797.91</v>
       </c>
       <c r="C91" t="n">
-        <v>10400.4</v>
+        <v>10835.7</v>
       </c>
       <c r="D91" t="n">
-        <v>10362.55</v>
+        <v>10765.31</v>
       </c>
       <c r="E91" t="n">
-        <v>10383.94</v>
-      </c>
-      <c r="G91" s="3">
+        <v>10800.77</v>
+      </c>
+      <c r="G91" s="1">
         <f>AVERAGE(E87:E91)</f>
         <v/>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="1">
         <f>AVERAGE(E62:E91)</f>
         <v/>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="1">
         <f>G91-H91</f>
         <v/>
       </c>
@@ -4120,26 +4114,26 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>10425.1</v>
+        <v>10856.56</v>
       </c>
       <c r="C92" t="n">
-        <v>10472.81</v>
+        <v>10858.5</v>
       </c>
       <c r="D92" t="n">
-        <v>10414.53</v>
+        <v>10769.19</v>
       </c>
       <c r="E92" t="n">
-        <v>10465.16</v>
-      </c>
-      <c r="G92" s="3">
+        <v>10786.19</v>
+      </c>
+      <c r="G92" s="1">
         <f>AVERAGE(E88:E92)</f>
         <v/>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="1">
         <f>AVERAGE(E63:E92)</f>
         <v/>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="1">
         <f>G92-H92</f>
         <v/>
       </c>
@@ -4149,26 +4143,26 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>10462.7</v>
+        <v>10820.83</v>
       </c>
       <c r="C93" t="n">
-        <v>10495.34</v>
+        <v>10842.61</v>
       </c>
       <c r="D93" t="n">
-        <v>10445.86</v>
+        <v>10807.89</v>
       </c>
       <c r="E93" t="n">
-        <v>10469.35</v>
-      </c>
-      <c r="G93" s="3">
+        <v>10840.34</v>
+      </c>
+      <c r="G93" s="1">
         <f>AVERAGE(E89:E93)</f>
         <v/>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="1">
         <f>AVERAGE(E64:E93)</f>
         <v/>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="1">
         <f>G93-H93</f>
         <v/>
       </c>
@@ -4178,26 +4172,26 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>10473.28</v>
+        <v>10839.44</v>
       </c>
       <c r="C94" t="n">
-        <v>10530.93</v>
+        <v>10844.74</v>
       </c>
       <c r="D94" t="n">
-        <v>10473.28</v>
+        <v>10806.01</v>
       </c>
       <c r="E94" t="n">
-        <v>10518.27</v>
-      </c>
-      <c r="G94" s="3">
+        <v>10818.99</v>
+      </c>
+      <c r="G94" s="1">
         <f>AVERAGE(E90:E94)</f>
         <v/>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="1">
         <f>AVERAGE(E65:E94)</f>
         <v/>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="1">
         <f>G94-H94</f>
         <v/>
       </c>
@@ -4207,26 +4201,26 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>10538.21</v>
+        <v>10802.95</v>
       </c>
       <c r="C95" t="n">
-        <v>10557.67</v>
+        <v>10831.38</v>
       </c>
       <c r="D95" t="n">
-        <v>10511.5</v>
+        <v>10721.87</v>
       </c>
       <c r="E95" t="n">
-        <v>10532.81</v>
-      </c>
-      <c r="G95" s="3">
+        <v>10743.27</v>
+      </c>
+      <c r="G95" s="1">
         <f>AVERAGE(E91:E95)</f>
         <v/>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="1">
         <f>AVERAGE(E66:E95)</f>
         <v/>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="1">
         <f>G95-H95</f>
         <v/>
       </c>
@@ -4236,26 +4230,26 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>10576.12</v>
+        <v>10713.67</v>
       </c>
       <c r="C96" t="n">
-        <v>10668.49</v>
+        <v>10742.61</v>
       </c>
       <c r="D96" t="n">
-        <v>10576.12</v>
+        <v>10659.29</v>
       </c>
       <c r="E96" t="n">
-        <v>10641.19</v>
-      </c>
-      <c r="G96" s="3">
+        <v>10732.67</v>
+      </c>
+      <c r="G96" s="1">
         <f>AVERAGE(E92:E96)</f>
         <v/>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="1">
         <f>AVERAGE(E67:E96)</f>
         <v/>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="1">
         <f>G96-H96</f>
         <v/>
       </c>
@@ -4265,26 +4259,26 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10668.39</v>
+        <v>10728.22</v>
       </c>
       <c r="C97" t="n">
-        <v>10711.44</v>
+        <v>10749.39</v>
       </c>
       <c r="D97" t="n">
-        <v>10668.39</v>
+        <v>10683.92</v>
       </c>
       <c r="E97" t="n">
-        <v>10711.44</v>
-      </c>
-      <c r="G97" s="3">
+        <v>10683.92</v>
+      </c>
+      <c r="G97" s="1">
         <f>AVERAGE(E93:E97)</f>
         <v/>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="1">
         <f>AVERAGE(E68:E97)</f>
         <v/>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="1">
         <f>G97-H97</f>
         <v/>
       </c>
@@ -4294,26 +4288,26 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10712.48</v>
+        <v>10716.59</v>
       </c>
       <c r="C98" t="n">
-        <v>10724.09</v>
+        <v>10735.08</v>
       </c>
       <c r="D98" t="n">
-        <v>10675.83</v>
+        <v>10654.58</v>
       </c>
       <c r="E98" t="n">
-        <v>10724.09</v>
-      </c>
-      <c r="G98" s="3">
+        <v>10687.18</v>
+      </c>
+      <c r="G98" s="1">
         <f>AVERAGE(E94:E98)</f>
         <v/>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="1">
         <f>AVERAGE(E69:E98)</f>
         <v/>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="1">
         <f>G98-H98</f>
         <v/>
       </c>
@@ -4323,26 +4317,26 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10735.14</v>
+        <v>10662.08</v>
       </c>
       <c r="C99" t="n">
-        <v>10774.21</v>
+        <v>10669.59</v>
       </c>
       <c r="D99" t="n">
-        <v>10723.37</v>
+        <v>10600.26</v>
       </c>
       <c r="E99" t="n">
-        <v>10774.21</v>
-      </c>
-      <c r="G99" s="3">
+        <v>10630.65</v>
+      </c>
+      <c r="G99" s="1">
         <f>AVERAGE(E95:E99)</f>
         <v/>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="1">
         <f>AVERAGE(E70:E99)</f>
         <v/>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="1">
         <f>G99-H99</f>
         <v/>
       </c>
@@ -4352,26 +4346,26 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10790.35</v>
+        <v>10629.16</v>
       </c>
       <c r="C100" t="n">
-        <v>10798.52</v>
+        <v>10666.66</v>
       </c>
       <c r="D100" t="n">
-        <v>10723.15</v>
+        <v>10609.23</v>
       </c>
       <c r="E100" t="n">
-        <v>10723.15</v>
-      </c>
-      <c r="G100" s="3">
+        <v>10625.04</v>
+      </c>
+      <c r="G100" s="1">
         <f>AVERAGE(E96:E100)</f>
         <v/>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="1">
         <f>AVERAGE(E71:E100)</f>
         <v/>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="1">
         <f>G100-H100</f>
         <v/>
       </c>
@@ -4381,26 +4375,26 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10773.85</v>
+        <v>10673.43</v>
       </c>
       <c r="C101" t="n">
-        <v>10790.31</v>
+        <v>10729.45</v>
       </c>
       <c r="D101" t="n">
-        <v>10684.32</v>
+        <v>10673.43</v>
       </c>
       <c r="E101" t="n">
-        <v>10720.28</v>
-      </c>
-      <c r="G101" s="3">
+        <v>10701.64</v>
+      </c>
+      <c r="G101" s="1">
         <f>AVERAGE(E97:E101)</f>
         <v/>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="1">
         <f>AVERAGE(E72:E101)</f>
         <v/>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="1">
         <f>G101-H101</f>
         <v/>
       </c>
@@ -4410,26 +4404,26 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10745.77</v>
+        <v>10706.79</v>
       </c>
       <c r="C102" t="n">
-        <v>10798.54</v>
+        <v>10728.39</v>
       </c>
       <c r="D102" t="n">
-        <v>10745.77</v>
+        <v>10656.18</v>
       </c>
       <c r="E102" t="n">
-        <v>10760.29</v>
-      </c>
-      <c r="G102" s="3">
+        <v>10664.55</v>
+      </c>
+      <c r="G102" s="1">
         <f>AVERAGE(E98:E102)</f>
         <v/>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="1">
         <f>AVERAGE(E73:E102)</f>
         <v/>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="1">
         <f>G102-H102</f>
         <v/>
       </c>
@@ -4439,26 +4433,26 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>10737.87</v>
+        <v>10688.22</v>
       </c>
       <c r="C103" t="n">
-        <v>10753.77</v>
+        <v>10787.58</v>
       </c>
       <c r="D103" t="n">
-        <v>10702.56</v>
+        <v>10687.26</v>
       </c>
       <c r="E103" t="n">
-        <v>10728.88</v>
-      </c>
-      <c r="G103" s="3">
+        <v>10779.24</v>
+      </c>
+      <c r="G103" s="1">
         <f>AVERAGE(E99:E103)</f>
         <v/>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="1">
         <f>AVERAGE(E74:E103)</f>
         <v/>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="1">
         <f>G103-H103</f>
         <v/>
       </c>
@@ -4468,26 +4462,26 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>10759.47</v>
+        <v>10815.4</v>
       </c>
       <c r="C104" t="n">
-        <v>10792.27</v>
+        <v>10882.65</v>
       </c>
       <c r="D104" t="n">
-        <v>10731.9</v>
+        <v>10801.1</v>
       </c>
       <c r="E104" t="n">
-        <v>10735.21</v>
-      </c>
-      <c r="G104" s="3">
+        <v>10822.59</v>
+      </c>
+      <c r="G104" s="1">
         <f>AVERAGE(E100:E104)</f>
         <v/>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="1">
         <f>AVERAGE(E75:E104)</f>
         <v/>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="1">
         <f>G104-H104</f>
         <v/>
       </c>
@@ -4497,26 +4491,26 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>10749.9</v>
+        <v>10837.61</v>
       </c>
       <c r="C105" t="n">
-        <v>10766.64</v>
+        <v>10872.29</v>
       </c>
       <c r="D105" t="n">
-        <v>10726.25</v>
+        <v>10809.09</v>
       </c>
       <c r="E105" t="n">
-        <v>10743.78</v>
-      </c>
-      <c r="G105" s="3">
+        <v>10854.57</v>
+      </c>
+      <c r="G105" s="1">
         <f>AVERAGE(E101:E105)</f>
         <v/>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="1">
         <f>AVERAGE(E76:E105)</f>
         <v/>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="1">
         <f>G105-H105</f>
         <v/>
       </c>
@@ -4526,26 +4520,26 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>10771.4</v>
+        <v>10847.79</v>
       </c>
       <c r="C106" t="n">
-        <v>10794.55</v>
+        <v>10873.91</v>
       </c>
       <c r="D106" t="n">
-        <v>10740.07</v>
+        <v>10833.78</v>
       </c>
       <c r="E106" t="n">
-        <v>10750.57</v>
-      </c>
-      <c r="G106" s="3">
+        <v>10854.09</v>
+      </c>
+      <c r="G106" s="1">
         <f>AVERAGE(E102:E106)</f>
         <v/>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="1">
         <f>AVERAGE(E77:E106)</f>
         <v/>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="1">
         <f>G106-H106</f>
         <v/>
       </c>
@@ -4555,26 +4549,26 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>10735.35</v>
+        <v>10836.82</v>
       </c>
       <c r="C107" t="n">
-        <v>10756.51</v>
+        <v>10856</v>
       </c>
       <c r="D107" t="n">
-        <v>10716.52</v>
+        <v>10746.74</v>
       </c>
       <c r="E107" t="n">
-        <v>10734.76</v>
-      </c>
-      <c r="G107" s="3">
+        <v>10750.93</v>
+      </c>
+      <c r="G107" s="1">
         <f>AVERAGE(E103:E107)</f>
         <v/>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="1">
         <f>AVERAGE(E78:E107)</f>
         <v/>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="1">
         <f>G107-H107</f>
         <v/>
       </c>
@@ -4584,26 +4578,26 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>10757.35</v>
+        <v>10733.56</v>
       </c>
       <c r="C108" t="n">
-        <v>10803.6</v>
+        <v>10752.58</v>
       </c>
       <c r="D108" t="n">
-        <v>10701.08</v>
+        <v>10692.53</v>
       </c>
       <c r="E108" t="n">
-        <v>10709.11</v>
-      </c>
-      <c r="G108" s="3">
+        <v>10707.07</v>
+      </c>
+      <c r="G108" s="1">
         <f>AVERAGE(E104:E108)</f>
         <v/>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="1">
         <f>AVERAGE(E79:E108)</f>
         <v/>
       </c>
-      <c r="I108" s="3">
+      <c r="I108" s="1">
         <f>G108-H108</f>
         <v/>
       </c>
@@ -4613,26 +4607,26 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>10777.6</v>
+        <v>10735.24</v>
       </c>
       <c r="C109" t="n">
-        <v>10842.25</v>
+        <v>10762.91</v>
       </c>
       <c r="D109" t="n">
-        <v>10743.13</v>
+        <v>10697.62</v>
       </c>
       <c r="E109" t="n">
-        <v>10756.87</v>
-      </c>
-      <c r="G109" s="3">
+        <v>10713.55</v>
+      </c>
+      <c r="G109" s="1">
         <f>AVERAGE(E105:E109)</f>
         <v/>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="1">
         <f>AVERAGE(E80:E109)</f>
         <v/>
       </c>
-      <c r="I109" s="3">
+      <c r="I109" s="1">
         <f>G109-H109</f>
         <v/>
       </c>
@@ -4642,26 +4636,26 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>10768.9</v>
+        <v>10623.2</v>
       </c>
       <c r="C110" t="n">
-        <v>10829.33</v>
+        <v>10650.18</v>
       </c>
       <c r="D110" t="n">
-        <v>10747.37</v>
+        <v>10560.44</v>
       </c>
       <c r="E110" t="n">
-        <v>10793.8</v>
-      </c>
-      <c r="G110" s="3">
+        <v>10560.44</v>
+      </c>
+      <c r="G110" s="1">
         <f>AVERAGE(E106:E110)</f>
         <v/>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="1">
         <f>AVERAGE(E81:E110)</f>
         <v/>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="1">
         <f>G110-H110</f>
         <v/>
       </c>
@@ -4671,26 +4665,26 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>10816.04</v>
+        <v>10591.62</v>
       </c>
       <c r="C111" t="n">
-        <v>10843.41</v>
+        <v>10665.92</v>
       </c>
       <c r="D111" t="n">
-        <v>10785.32</v>
+        <v>10495.15</v>
       </c>
       <c r="E111" t="n">
-        <v>10806.36</v>
-      </c>
-      <c r="G111" s="3">
+        <v>10600.37</v>
+      </c>
+      <c r="G111" s="1">
         <f>AVERAGE(E107:E111)</f>
         <v/>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="1">
         <f>AVERAGE(E82:E111)</f>
         <v/>
       </c>
-      <c r="I111" s="3">
+      <c r="I111" s="1">
         <f>G111-H111</f>
         <v/>
       </c>
@@ -4700,26 +4694,26 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>10797.63</v>
+        <v>10617.27</v>
       </c>
       <c r="C112" t="n">
-        <v>10827.67</v>
+        <v>10665.43</v>
       </c>
       <c r="D112" t="n">
-        <v>10788.51</v>
+        <v>10565.68</v>
       </c>
       <c r="E112" t="n">
-        <v>10788.51</v>
-      </c>
-      <c r="G112" s="3">
+        <v>10651.11</v>
+      </c>
+      <c r="G112" s="1">
         <f>AVERAGE(E108:E112)</f>
         <v/>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="1">
         <f>AVERAGE(E83:E112)</f>
         <v/>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="1">
         <f>G112-H112</f>
         <v/>
       </c>
@@ -4729,26 +4723,26 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>10797.91</v>
+        <v>10607.62</v>
       </c>
       <c r="C113" t="n">
-        <v>10835.7</v>
+        <v>10635.71</v>
       </c>
       <c r="D113" t="n">
-        <v>10765.31</v>
+        <v>10540.74</v>
       </c>
       <c r="E113" t="n">
-        <v>10800.77</v>
-      </c>
-      <c r="G113" s="3">
+        <v>10566.85</v>
+      </c>
+      <c r="G113" s="1">
         <f>AVERAGE(E109:E113)</f>
         <v/>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="1">
         <f>AVERAGE(E84:E113)</f>
         <v/>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="1">
         <f>G113-H113</f>
         <v/>
       </c>
@@ -4758,26 +4752,26 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10856.56</v>
+        <v>10541.03</v>
       </c>
       <c r="C114" t="n">
-        <v>10858.5</v>
+        <v>10541.03</v>
       </c>
       <c r="D114" t="n">
-        <v>10769.19</v>
+        <v>10376.65</v>
       </c>
       <c r="E114" t="n">
-        <v>10786.19</v>
-      </c>
-      <c r="G114" s="3">
+        <v>10393.92</v>
+      </c>
+      <c r="G114" s="1">
         <f>AVERAGE(E110:E114)</f>
         <v/>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="1">
         <f>AVERAGE(E85:E114)</f>
         <v/>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="1">
         <f>G114-H114</f>
         <v/>
       </c>
@@ -4787,26 +4781,26 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>10820.83</v>
+        <v>10404.42</v>
       </c>
       <c r="C115" t="n">
-        <v>10842.61</v>
+        <v>10418.97</v>
       </c>
       <c r="D115" t="n">
-        <v>10807.89</v>
+        <v>10322.76</v>
       </c>
       <c r="E115" t="n">
-        <v>10840.34</v>
-      </c>
-      <c r="G115" s="3">
+        <v>10355.76</v>
+      </c>
+      <c r="G115" s="1">
         <f>AVERAGE(E111:E115)</f>
         <v/>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="1">
         <f>AVERAGE(E86:E115)</f>
         <v/>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="1">
         <f>G115-H115</f>
         <v/>
       </c>
@@ -4816,26 +4810,26 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>10839.44</v>
+        <v>10406.35</v>
       </c>
       <c r="C116" t="n">
-        <v>10844.74</v>
+        <v>10419.28</v>
       </c>
       <c r="D116" t="n">
-        <v>10806.01</v>
+        <v>10336.26</v>
       </c>
       <c r="E116" t="n">
-        <v>10818.99</v>
-      </c>
-      <c r="G116" s="3">
+        <v>10398.62</v>
+      </c>
+      <c r="G116" s="1">
         <f>AVERAGE(E112:E116)</f>
         <v/>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="1">
         <f>AVERAGE(E87:E116)</f>
         <v/>
       </c>
-      <c r="I116" s="3">
+      <c r="I116" s="1">
         <f>G116-H116</f>
         <v/>
       </c>
@@ -4845,26 +4839,26 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>10802.95</v>
+        <v>10438.33</v>
       </c>
       <c r="C117" t="n">
-        <v>10831.38</v>
+        <v>10504.67</v>
       </c>
       <c r="D117" t="n">
-        <v>10721.87</v>
+        <v>10438.33</v>
       </c>
       <c r="E117" t="n">
-        <v>10743.27</v>
-      </c>
-      <c r="G117" s="3">
+        <v>10473.09</v>
+      </c>
+      <c r="G117" s="1">
         <f>AVERAGE(E113:E117)</f>
         <v/>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="1">
         <f>AVERAGE(E88:E117)</f>
         <v/>
       </c>
-      <c r="I117" s="3">
+      <c r="I117" s="1">
         <f>G117-H117</f>
         <v/>
       </c>
@@ -4874,26 +4868,26 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>10713.67</v>
+        <v>10488.73</v>
       </c>
       <c r="C118" t="n">
-        <v>10742.61</v>
+        <v>10495.24</v>
       </c>
       <c r="D118" t="n">
-        <v>10659.29</v>
+        <v>10408.06</v>
       </c>
       <c r="E118" t="n">
-        <v>10732.67</v>
-      </c>
-      <c r="G118" s="3">
+        <v>10443.28</v>
+      </c>
+      <c r="G118" s="1">
         <f>AVERAGE(E114:E118)</f>
         <v/>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="1">
         <f>AVERAGE(E89:E118)</f>
         <v/>
       </c>
-      <c r="I118" s="3">
+      <c r="I118" s="1">
         <f>G118-H118</f>
         <v/>
       </c>
@@ -4903,26 +4897,26 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10728.22</v>
+        <v>10447.11</v>
       </c>
       <c r="C119" t="n">
-        <v>10749.39</v>
+        <v>10489.17</v>
       </c>
       <c r="D119" t="n">
-        <v>10683.92</v>
+        <v>10444.7</v>
       </c>
       <c r="E119" t="n">
-        <v>10683.92</v>
-      </c>
-      <c r="G119" s="3">
+        <v>10470.7</v>
+      </c>
+      <c r="G119" s="1">
         <f>AVERAGE(E115:E119)</f>
         <v/>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="1">
         <f>AVERAGE(E90:E119)</f>
         <v/>
       </c>
-      <c r="I119" s="3">
+      <c r="I119" s="1">
         <f>G119-H119</f>
         <v/>
       </c>
@@ -4932,26 +4926,26 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10716.59</v>
+        <v>10494.6</v>
       </c>
       <c r="C120" t="n">
-        <v>10735.08</v>
+        <v>10577.53</v>
       </c>
       <c r="D120" t="n">
-        <v>10654.58</v>
+        <v>10494.6</v>
       </c>
       <c r="E120" t="n">
-        <v>10687.18</v>
-      </c>
-      <c r="G120" s="3">
+        <v>10538.01</v>
+      </c>
+      <c r="G120" s="1">
         <f>AVERAGE(E116:E120)</f>
         <v/>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="1">
         <f>AVERAGE(E91:E120)</f>
         <v/>
       </c>
-      <c r="I120" s="3">
+      <c r="I120" s="1">
         <f>G120-H120</f>
         <v/>
       </c>
@@ -4961,26 +4955,26 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10662.08</v>
+        <v>10517.21</v>
       </c>
       <c r="C121" t="n">
-        <v>10669.59</v>
+        <v>10520.66</v>
       </c>
       <c r="D121" t="n">
-        <v>10600.26</v>
+        <v>10436.11</v>
       </c>
       <c r="E121" t="n">
-        <v>10630.65</v>
-      </c>
-      <c r="G121" s="3">
+        <v>10491.44</v>
+      </c>
+      <c r="G121" s="1">
         <f>AVERAGE(E117:E121)</f>
         <v/>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="1">
         <f>AVERAGE(E92:E121)</f>
         <v/>
       </c>
-      <c r="I121" s="3">
+      <c r="I121" s="1">
         <f>G121-H121</f>
         <v/>
       </c>
@@ -4990,26 +4984,26 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10629.16</v>
+        <v>10478.74</v>
       </c>
       <c r="C122" t="n">
-        <v>10666.66</v>
+        <v>10526.41</v>
       </c>
       <c r="D122" t="n">
-        <v>10609.23</v>
+        <v>10472.39</v>
       </c>
       <c r="E122" t="n">
-        <v>10625.04</v>
-      </c>
-      <c r="G122" s="3">
+        <v>10506.52</v>
+      </c>
+      <c r="G122" s="1">
         <f>AVERAGE(E118:E122)</f>
         <v/>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="1">
         <f>AVERAGE(E93:E122)</f>
         <v/>
       </c>
-      <c r="I122" s="3">
+      <c r="I122" s="1">
         <f>G122-H122</f>
         <v/>
       </c>
@@ -5019,26 +5013,26 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10673.43</v>
+        <v>10508.33</v>
       </c>
       <c r="C123" t="n">
-        <v>10729.45</v>
+        <v>10544</v>
       </c>
       <c r="D123" t="n">
-        <v>10673.43</v>
+        <v>10452.08</v>
       </c>
       <c r="E123" t="n">
-        <v>10701.64</v>
-      </c>
-      <c r="G123" s="3">
+        <v>10467.34</v>
+      </c>
+      <c r="G123" s="1">
         <f>AVERAGE(E119:E123)</f>
         <v/>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="1">
         <f>AVERAGE(E94:E123)</f>
         <v/>
       </c>
-      <c r="I123" s="3">
+      <c r="I123" s="1">
         <f>G123-H123</f>
         <v/>
       </c>
@@ -5048,26 +5042,26 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>10706.79</v>
+        <v>10470.36</v>
       </c>
       <c r="C124" t="n">
-        <v>10728.39</v>
+        <v>10514.31</v>
       </c>
       <c r="D124" t="n">
-        <v>10656.18</v>
+        <v>10470.36</v>
       </c>
       <c r="E124" t="n">
-        <v>10664.55</v>
-      </c>
-      <c r="G124" s="3">
+        <v>10504.52</v>
+      </c>
+      <c r="G124" s="1">
         <f>AVERAGE(E120:E124)</f>
         <v/>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="1">
         <f>AVERAGE(E95:E124)</f>
         <v/>
       </c>
-      <c r="I124" s="3">
+      <c r="I124" s="1">
         <f>G124-H124</f>
         <v/>
       </c>
@@ -5077,26 +5071,26 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>10688.22</v>
+        <v>10526.97</v>
       </c>
       <c r="C125" t="n">
-        <v>10787.58</v>
+        <v>10545.78</v>
       </c>
       <c r="D125" t="n">
-        <v>10687.26</v>
+        <v>10488.97</v>
       </c>
       <c r="E125" t="n">
-        <v>10779.24</v>
-      </c>
-      <c r="G125" s="3">
+        <v>10488.97</v>
+      </c>
+      <c r="G125" s="1">
         <f>AVERAGE(E121:E125)</f>
         <v/>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="1">
         <f>AVERAGE(E96:E125)</f>
         <v/>
       </c>
-      <c r="I125" s="3">
+      <c r="I125" s="1">
         <f>G125-H125</f>
         <v/>
       </c>
@@ -5106,26 +5100,26 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>10815.4</v>
+        <v>10503.1</v>
       </c>
       <c r="C126" t="n">
-        <v>10882.65</v>
+        <v>10537.27</v>
       </c>
       <c r="D126" t="n">
-        <v>10801.1</v>
+        <v>10486.52</v>
       </c>
       <c r="E126" t="n">
-        <v>10822.59</v>
-      </c>
-      <c r="G126" s="3">
+        <v>10537.27</v>
+      </c>
+      <c r="G126" s="1">
         <f>AVERAGE(E122:E126)</f>
         <v/>
       </c>
-      <c r="H126" s="3">
+      <c r="H126" s="1">
         <f>AVERAGE(E97:E126)</f>
         <v/>
       </c>
-      <c r="I126" s="3">
+      <c r="I126" s="1">
         <f>G126-H126</f>
         <v/>
       </c>
@@ -5135,26 +5129,26 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>10837.61</v>
+        <v>10546.64</v>
       </c>
       <c r="C127" t="n">
-        <v>10872.29</v>
+        <v>10556.65</v>
       </c>
       <c r="D127" t="n">
-        <v>10809.09</v>
+        <v>10514.54</v>
       </c>
       <c r="E127" t="n">
-        <v>10854.57</v>
-      </c>
-      <c r="G127" s="3">
+        <v>10522.49</v>
+      </c>
+      <c r="G127" s="1">
         <f>AVERAGE(E123:E127)</f>
         <v/>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="1">
         <f>AVERAGE(E98:E127)</f>
         <v/>
       </c>
-      <c r="I127" s="3">
+      <c r="I127" s="1">
         <f>G127-H127</f>
         <v/>
       </c>
@@ -5164,26 +5158,26 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>10847.79</v>
+        <v>10526.14</v>
       </c>
       <c r="C128" t="n">
-        <v>10873.91</v>
+        <v>10528.92</v>
       </c>
       <c r="D128" t="n">
-        <v>10833.78</v>
+        <v>10408.12</v>
       </c>
       <c r="E128" t="n">
-        <v>10854.09</v>
-      </c>
-      <c r="G128" s="3">
+        <v>10421.91</v>
+      </c>
+      <c r="G128" s="1">
         <f>AVERAGE(E124:E128)</f>
         <v/>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="1">
         <f>AVERAGE(E99:E128)</f>
         <v/>
       </c>
-      <c r="I128" s="3">
+      <c r="I128" s="1">
         <f>G128-H128</f>
         <v/>
       </c>
@@ -5193,26 +5187,26 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>10836.82</v>
+        <v>10419.81</v>
       </c>
       <c r="C129" t="n">
-        <v>10856</v>
+        <v>10497.77</v>
       </c>
       <c r="D129" t="n">
-        <v>10746.74</v>
+        <v>10419.81</v>
       </c>
       <c r="E129" t="n">
-        <v>10750.93</v>
-      </c>
-      <c r="G129" s="3">
+        <v>10486.67</v>
+      </c>
+      <c r="G129" s="1">
         <f>AVERAGE(E125:E129)</f>
         <v/>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="1">
         <f>AVERAGE(E100:E129)</f>
         <v/>
       </c>
-      <c r="I129" s="3">
+      <c r="I129" s="1">
         <f>G129-H129</f>
         <v/>
       </c>
@@ -5222,26 +5216,26 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>10733.56</v>
+        <v>10513.29</v>
       </c>
       <c r="C130" t="n">
-        <v>10752.58</v>
+        <v>10592.04</v>
       </c>
       <c r="D130" t="n">
-        <v>10692.53</v>
+        <v>10513.29</v>
       </c>
       <c r="E130" t="n">
-        <v>10707.07</v>
-      </c>
-      <c r="G130" s="3">
+        <v>10567.64</v>
+      </c>
+      <c r="G130" s="1">
         <f>AVERAGE(E126:E130)</f>
         <v/>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="1">
         <f>AVERAGE(E101:E130)</f>
         <v/>
       </c>
-      <c r="I130" s="3">
+      <c r="I130" s="1">
         <f>G130-H130</f>
         <v/>
       </c>
@@ -5251,26 +5245,26 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>10735.24</v>
+        <v>10590.95</v>
       </c>
       <c r="C131" t="n">
-        <v>10762.91</v>
+        <v>10659.98</v>
       </c>
       <c r="D131" t="n">
-        <v>10697.62</v>
+        <v>10590.95</v>
       </c>
       <c r="E131" t="n">
-        <v>10713.55</v>
-      </c>
-      <c r="G131" s="3">
+        <v>10642.86</v>
+      </c>
+      <c r="G131" s="1">
         <f>AVERAGE(E127:E131)</f>
         <v/>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="1">
         <f>AVERAGE(E102:E131)</f>
         <v/>
       </c>
-      <c r="I131" s="3">
+      <c r="I131" s="1">
         <f>G131-H131</f>
         <v/>
       </c>
@@ -5280,26 +5274,26 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>10623.2</v>
+        <v>10664.82</v>
       </c>
       <c r="C132" t="n">
-        <v>10650.18</v>
+        <v>10710.73</v>
       </c>
       <c r="D132" t="n">
-        <v>10560.44</v>
+        <v>10650.77</v>
       </c>
       <c r="E132" t="n">
-        <v>10560.44</v>
-      </c>
-      <c r="G132" s="3">
+        <v>10710.73</v>
+      </c>
+      <c r="G132" s="1">
         <f>AVERAGE(E128:E132)</f>
         <v/>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="1">
         <f>AVERAGE(E103:E132)</f>
         <v/>
       </c>
-      <c r="I132" s="3">
+      <c r="I132" s="1">
         <f>G132-H132</f>
         <v/>
       </c>
@@ -5309,26 +5303,26 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>10591.62</v>
+        <v>10759.61</v>
       </c>
       <c r="C133" t="n">
-        <v>10665.92</v>
+        <v>10813.16</v>
       </c>
       <c r="D133" t="n">
-        <v>10495.15</v>
+        <v>10759.61</v>
       </c>
       <c r="E133" t="n">
-        <v>10600.37</v>
-      </c>
-      <c r="G133" s="3">
+        <v>10801.57</v>
+      </c>
+      <c r="G133" s="1">
         <f>AVERAGE(E129:E133)</f>
         <v/>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="1">
         <f>AVERAGE(E104:E133)</f>
         <v/>
       </c>
-      <c r="I133" s="3">
+      <c r="I133" s="1">
         <f>G133-H133</f>
         <v/>
       </c>
@@ -5338,26 +5332,26 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>10617.27</v>
+        <v>10834.58</v>
       </c>
       <c r="C134" t="n">
-        <v>10665.43</v>
+        <v>10853.46</v>
       </c>
       <c r="D134" t="n">
-        <v>10565.68</v>
+        <v>10794.25</v>
       </c>
       <c r="E134" t="n">
-        <v>10651.11</v>
-      </c>
-      <c r="G134" s="3">
+        <v>10848.63</v>
+      </c>
+      <c r="G134" s="1">
         <f>AVERAGE(E130:E134)</f>
         <v/>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="1">
         <f>AVERAGE(E105:E134)</f>
         <v/>
       </c>
-      <c r="I134" s="3">
+      <c r="I134" s="1">
         <f>G134-H134</f>
         <v/>
       </c>
@@ -5367,26 +5361,26 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>10607.62</v>
+        <v>10856.92</v>
       </c>
       <c r="C135" t="n">
-        <v>10635.71</v>
+        <v>10879.8</v>
       </c>
       <c r="D135" t="n">
-        <v>10540.74</v>
+        <v>10815.68</v>
       </c>
       <c r="E135" t="n">
-        <v>10566.85</v>
-      </c>
-      <c r="G135" s="3">
+        <v>10879.8</v>
+      </c>
+      <c r="G135" s="1">
         <f>AVERAGE(E131:E135)</f>
         <v/>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="1">
         <f>AVERAGE(E106:E135)</f>
         <v/>
       </c>
-      <c r="I135" s="3">
+      <c r="I135" s="1">
         <f>G135-H135</f>
         <v/>
       </c>
@@ -5396,26 +5390,26 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>10541.03</v>
+        <v>10899.09</v>
       </c>
       <c r="C136" t="n">
-        <v>10541.03</v>
+        <v>10918.47</v>
       </c>
       <c r="D136" t="n">
-        <v>10376.65</v>
+        <v>10869.12</v>
       </c>
       <c r="E136" t="n">
-        <v>10393.92</v>
-      </c>
-      <c r="G136" s="3">
+        <v>10915.75</v>
+      </c>
+      <c r="G136" s="1">
         <f>AVERAGE(E132:E136)</f>
         <v/>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="1">
         <f>AVERAGE(E107:E136)</f>
         <v/>
       </c>
-      <c r="I136" s="3">
+      <c r="I136" s="1">
         <f>G136-H136</f>
         <v/>
       </c>
@@ -5425,26 +5419,26 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>10404.42</v>
+        <v>10922.35</v>
       </c>
       <c r="C137" t="n">
-        <v>10418.97</v>
+        <v>10931</v>
       </c>
       <c r="D137" t="n">
-        <v>10322.76</v>
+        <v>10860.77</v>
       </c>
       <c r="E137" t="n">
-        <v>10355.76</v>
-      </c>
-      <c r="G137" s="3">
+        <v>10914.89</v>
+      </c>
+      <c r="G137" s="1">
         <f>AVERAGE(E133:E137)</f>
         <v/>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="1">
         <f>AVERAGE(E108:E137)</f>
         <v/>
       </c>
-      <c r="I137" s="3">
+      <c r="I137" s="1">
         <f>G137-H137</f>
         <v/>
       </c>
@@ -5454,26 +5448,26 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>10406.35</v>
+        <v>10915.32</v>
       </c>
       <c r="C138" t="n">
-        <v>10419.28</v>
+        <v>10934.75</v>
       </c>
       <c r="D138" t="n">
-        <v>10336.26</v>
+        <v>10819.25</v>
       </c>
       <c r="E138" t="n">
-        <v>10398.62</v>
-      </c>
-      <c r="G138" s="3">
+        <v>10831.09</v>
+      </c>
+      <c r="G138" s="1">
         <f>AVERAGE(E134:E138)</f>
         <v/>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="1">
         <f>AVERAGE(E109:E138)</f>
         <v/>
       </c>
-      <c r="I138" s="3">
+      <c r="I138" s="1">
         <f>G138-H138</f>
         <v/>
       </c>
@@ -5483,26 +5477,26 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10438.33</v>
+        <v>10824.54</v>
       </c>
       <c r="C139" t="n">
-        <v>10504.67</v>
+        <v>10844.08</v>
       </c>
       <c r="D139" t="n">
-        <v>10438.33</v>
+        <v>10770.1</v>
       </c>
       <c r="E139" t="n">
-        <v>10473.09</v>
-      </c>
-      <c r="G139" s="3">
+        <v>10810.06</v>
+      </c>
+      <c r="G139" s="1">
         <f>AVERAGE(E135:E139)</f>
         <v/>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="1">
         <f>AVERAGE(E110:E139)</f>
         <v/>
       </c>
-      <c r="I139" s="3">
+      <c r="I139" s="1">
         <f>G139-H139</f>
         <v/>
       </c>
@@ -5512,26 +5506,26 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10488.73</v>
+        <v>10818.24</v>
       </c>
       <c r="C140" t="n">
-        <v>10495.24</v>
+        <v>10899.98</v>
       </c>
       <c r="D140" t="n">
-        <v>10408.06</v>
+        <v>10818.24</v>
       </c>
       <c r="E140" t="n">
-        <v>10443.28</v>
-      </c>
-      <c r="G140" s="3">
+        <v>10883.96</v>
+      </c>
+      <c r="G140" s="1">
         <f>AVERAGE(E136:E140)</f>
         <v/>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="1">
         <f>AVERAGE(E111:E140)</f>
         <v/>
       </c>
-      <c r="I140" s="3">
+      <c r="I140" s="1">
         <f>G140-H140</f>
         <v/>
       </c>
@@ -5541,26 +5535,26 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10447.11</v>
+        <v>10932.37</v>
       </c>
       <c r="C141" t="n">
-        <v>10489.17</v>
+        <v>10962.55</v>
       </c>
       <c r="D141" t="n">
-        <v>10444.7</v>
+        <v>10911.89</v>
       </c>
       <c r="E141" t="n">
-        <v>10470.7</v>
-      </c>
-      <c r="G141" s="3">
+        <v>10956.31</v>
+      </c>
+      <c r="G141" s="1">
         <f>AVERAGE(E137:E141)</f>
         <v/>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="1">
         <f>AVERAGE(E112:E141)</f>
         <v/>
       </c>
-      <c r="I141" s="3">
+      <c r="I141" s="1">
         <f>G141-H141</f>
         <v/>
       </c>
@@ -5570,26 +5564,26 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10494.6</v>
+        <v>10955.81</v>
       </c>
       <c r="C142" t="n">
-        <v>10577.53</v>
+        <v>10986.11</v>
       </c>
       <c r="D142" t="n">
-        <v>10494.6</v>
+        <v>10920.5</v>
       </c>
       <c r="E142" t="n">
-        <v>10538.01</v>
-      </c>
-      <c r="G142" s="3">
+        <v>10986.11</v>
+      </c>
+      <c r="G142" s="1">
         <f>AVERAGE(E138:E142)</f>
         <v/>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="1">
         <f>AVERAGE(E113:E142)</f>
         <v/>
       </c>
-      <c r="I142" s="3">
+      <c r="I142" s="1">
         <f>G142-H142</f>
         <v/>
       </c>
@@ -5599,26 +5593,26 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10517.21</v>
+        <v>10976.13</v>
       </c>
       <c r="C143" t="n">
-        <v>10520.66</v>
+        <v>11030.22</v>
       </c>
       <c r="D143" t="n">
-        <v>10436.11</v>
+        <v>10942.95</v>
       </c>
       <c r="E143" t="n">
-        <v>10491.44</v>
-      </c>
-      <c r="G143" s="3">
+        <v>11004.8</v>
+      </c>
+      <c r="G143" s="1">
         <f>AVERAGE(E139:E143)</f>
         <v/>
       </c>
-      <c r="H143" s="3">
+      <c r="H143" s="1">
         <f>AVERAGE(E114:E143)</f>
         <v/>
       </c>
-      <c r="I143" s="3">
+      <c r="I143" s="1">
         <f>G143-H143</f>
         <v/>
       </c>
@@ -5628,26 +5622,26 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>10478.74</v>
+        <v>11048.06</v>
       </c>
       <c r="C144" t="n">
-        <v>10526.41</v>
+        <v>11122.82</v>
       </c>
       <c r="D144" t="n">
-        <v>10472.39</v>
+        <v>11048.06</v>
       </c>
       <c r="E144" t="n">
-        <v>10506.52</v>
-      </c>
-      <c r="G144" s="3">
+        <v>11071.57</v>
+      </c>
+      <c r="G144" s="1">
         <f>AVERAGE(E140:E144)</f>
         <v/>
       </c>
-      <c r="H144" s="3">
+      <c r="H144" s="1">
         <f>AVERAGE(E115:E144)</f>
         <v/>
       </c>
-      <c r="I144" s="3">
+      <c r="I144" s="1">
         <f>G144-H144</f>
         <v/>
       </c>
@@ -5657,26 +5651,26 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>10508.33</v>
+        <v>11123.58</v>
       </c>
       <c r="C145" t="n">
-        <v>10544</v>
+        <v>11150.85</v>
       </c>
       <c r="D145" t="n">
-        <v>10452.08</v>
+        <v>11095.85</v>
       </c>
       <c r="E145" t="n">
-        <v>10467.34</v>
-      </c>
-      <c r="G145" s="3">
+        <v>11150.85</v>
+      </c>
+      <c r="G145" s="1">
         <f>AVERAGE(E141:E145)</f>
         <v/>
       </c>
-      <c r="H145" s="3">
+      <c r="H145" s="1">
         <f>AVERAGE(E116:E145)</f>
         <v/>
       </c>
-      <c r="I145" s="3">
+      <c r="I145" s="1">
         <f>G145-H145</f>
         <v/>
       </c>
@@ -5686,26 +5680,26 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>10470.36</v>
+        <v>11169.79</v>
       </c>
       <c r="C146" t="n">
-        <v>10514.31</v>
+        <v>11231.46</v>
       </c>
       <c r="D146" t="n">
-        <v>10470.36</v>
+        <v>11142.38</v>
       </c>
       <c r="E146" t="n">
-        <v>10504.52</v>
-      </c>
-      <c r="G146" s="3">
+        <v>11231.46</v>
+      </c>
+      <c r="G146" s="1">
         <f>AVERAGE(E142:E146)</f>
         <v/>
       </c>
-      <c r="H146" s="3">
+      <c r="H146" s="1">
         <f>AVERAGE(E117:E146)</f>
         <v/>
       </c>
-      <c r="I146" s="3">
+      <c r="I146" s="1">
         <f>G146-H146</f>
         <v/>
       </c>
@@ -5715,26 +5709,26 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>10526.97</v>
+        <v>11243.49</v>
       </c>
       <c r="C147" t="n">
-        <v>10545.78</v>
+        <v>11270.18</v>
       </c>
       <c r="D147" t="n">
-        <v>10488.97</v>
+        <v>11201.52</v>
       </c>
       <c r="E147" t="n">
-        <v>10488.97</v>
-      </c>
-      <c r="G147" s="3">
+        <v>11253.11</v>
+      </c>
+      <c r="G147" s="1">
         <f>AVERAGE(E143:E147)</f>
         <v/>
       </c>
-      <c r="H147" s="3">
+      <c r="H147" s="1">
         <f>AVERAGE(E118:E147)</f>
         <v/>
       </c>
-      <c r="I147" s="3">
+      <c r="I147" s="1">
         <f>G147-H147</f>
         <v/>
       </c>
@@ -5744,26 +5738,26 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>10503.1</v>
+        <v>11228.71</v>
       </c>
       <c r="C148" t="n">
-        <v>10537.27</v>
+        <v>11228.71</v>
       </c>
       <c r="D148" t="n">
-        <v>10486.52</v>
+        <v>11107.32</v>
       </c>
       <c r="E148" t="n">
-        <v>10537.27</v>
-      </c>
-      <c r="G148" s="3">
+        <v>11152.16</v>
+      </c>
+      <c r="G148" s="1">
         <f>AVERAGE(E144:E148)</f>
         <v/>
       </c>
-      <c r="H148" s="3">
+      <c r="H148" s="1">
         <f>AVERAGE(E119:E148)</f>
         <v/>
       </c>
-      <c r="I148" s="3">
+      <c r="I148" s="1">
         <f>G148-H148</f>
         <v/>
       </c>
@@ -5773,26 +5767,26 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>10546.64</v>
+        <v>11154.36</v>
       </c>
       <c r="C149" t="n">
-        <v>10556.65</v>
+        <v>11268.61</v>
       </c>
       <c r="D149" t="n">
-        <v>10514.54</v>
+        <v>11131.85</v>
       </c>
       <c r="E149" t="n">
-        <v>10522.49</v>
-      </c>
-      <c r="G149" s="3">
+        <v>11165.95</v>
+      </c>
+      <c r="G149" s="1">
         <f>AVERAGE(E145:E149)</f>
         <v/>
       </c>
-      <c r="H149" s="3">
+      <c r="H149" s="1">
         <f>AVERAGE(E120:E149)</f>
         <v/>
       </c>
-      <c r="I149" s="3">
+      <c r="I149" s="1">
         <f>G149-H149</f>
         <v/>
       </c>
@@ -5802,26 +5796,26 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>10526.14</v>
+        <v>11152.53</v>
       </c>
       <c r="C150" t="n">
-        <v>10528.92</v>
+        <v>11178.3</v>
       </c>
       <c r="D150" t="n">
-        <v>10408.12</v>
+        <v>11089.48</v>
       </c>
       <c r="E150" t="n">
-        <v>10421.91</v>
-      </c>
-      <c r="G150" s="3">
+        <v>11147.1</v>
+      </c>
+      <c r="G150" s="1">
         <f>AVERAGE(E146:E150)</f>
         <v/>
       </c>
-      <c r="H150" s="3">
+      <c r="H150" s="1">
         <f>AVERAGE(E121:E150)</f>
         <v/>
       </c>
-      <c r="I150" s="3">
+      <c r="I150" s="1">
         <f>G150-H150</f>
         <v/>
       </c>
@@ -5831,26 +5825,26 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>10419.81</v>
+        <v>11202.27</v>
       </c>
       <c r="C151" t="n">
-        <v>10497.77</v>
+        <v>11246.18</v>
       </c>
       <c r="D151" t="n">
-        <v>10419.81</v>
+        <v>11161.83</v>
       </c>
       <c r="E151" t="n">
-        <v>10486.67</v>
-      </c>
-      <c r="G151" s="3">
+        <v>11221.81</v>
+      </c>
+      <c r="G151" s="1">
         <f>AVERAGE(E147:E151)</f>
         <v/>
       </c>
-      <c r="H151" s="3">
+      <c r="H151" s="1">
         <f>AVERAGE(E122:E151)</f>
         <v/>
       </c>
-      <c r="I151" s="3">
+      <c r="I151" s="1">
         <f>G151-H151</f>
         <v/>
       </c>
@@ -5860,26 +5854,26 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>10513.29</v>
+        <v>11189.57</v>
       </c>
       <c r="C152" t="n">
-        <v>10592.04</v>
+        <v>11189.57</v>
       </c>
       <c r="D152" t="n">
-        <v>10513.29</v>
+        <v>11076.78</v>
       </c>
       <c r="E152" t="n">
-        <v>10567.64</v>
-      </c>
-      <c r="G152" s="3">
+        <v>11076.78</v>
+      </c>
+      <c r="G152" s="1">
         <f>AVERAGE(E148:E152)</f>
         <v/>
       </c>
-      <c r="H152" s="3">
+      <c r="H152" s="1">
         <f>AVERAGE(E123:E152)</f>
         <v/>
       </c>
-      <c r="I152" s="3">
+      <c r="I152" s="1">
         <f>G152-H152</f>
         <v/>
       </c>
@@ -5889,26 +5883,26 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>10590.95</v>
+        <v>11054.36</v>
       </c>
       <c r="C153" t="n">
-        <v>10659.98</v>
+        <v>11158.29</v>
       </c>
       <c r="D153" t="n">
-        <v>10590.95</v>
+        <v>11007.89</v>
       </c>
       <c r="E153" t="n">
-        <v>10642.86</v>
-      </c>
-      <c r="G153" s="3">
+        <v>11103.79</v>
+      </c>
+      <c r="G153" s="1">
         <f>AVERAGE(E149:E153)</f>
         <v/>
       </c>
-      <c r="H153" s="3">
+      <c r="H153" s="1">
         <f>AVERAGE(E124:E153)</f>
         <v/>
       </c>
-      <c r="I153" s="3">
+      <c r="I153" s="1">
         <f>G153-H153</f>
         <v/>
       </c>
@@ -5918,26 +5912,26 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>10664.82</v>
+        <v>11139.4</v>
       </c>
       <c r="C154" t="n">
-        <v>10710.73</v>
+        <v>11212.1</v>
       </c>
       <c r="D154" t="n">
-        <v>10650.77</v>
+        <v>11139.4</v>
       </c>
       <c r="E154" t="n">
-        <v>10710.73</v>
-      </c>
-      <c r="G154" s="3">
+        <v>11160.25</v>
+      </c>
+      <c r="G154" s="1">
         <f>AVERAGE(E150:E154)</f>
         <v/>
       </c>
-      <c r="H154" s="3">
+      <c r="H154" s="1">
         <f>AVERAGE(E125:E154)</f>
         <v/>
       </c>
-      <c r="I154" s="3">
+      <c r="I154" s="1">
         <f>G154-H154</f>
         <v/>
       </c>
@@ -5947,26 +5941,26 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>10759.61</v>
+        <v>11151.65</v>
       </c>
       <c r="C155" t="n">
-        <v>10813.16</v>
+        <v>11153.32</v>
       </c>
       <c r="D155" t="n">
-        <v>10759.61</v>
+        <v>11070.43</v>
       </c>
       <c r="E155" t="n">
-        <v>10801.57</v>
-      </c>
-      <c r="G155" s="3">
+        <v>11126.23</v>
+      </c>
+      <c r="G155" s="1">
         <f>AVERAGE(E151:E155)</f>
         <v/>
       </c>
-      <c r="H155" s="3">
+      <c r="H155" s="1">
         <f>AVERAGE(E126:E155)</f>
         <v/>
       </c>
-      <c r="I155" s="3">
+      <c r="I155" s="1">
         <f>G155-H155</f>
         <v/>
       </c>
@@ -5976,26 +5970,26 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>10834.58</v>
+        <v>10970.3</v>
       </c>
       <c r="C156" t="n">
-        <v>10853.46</v>
+        <v>10970.3</v>
       </c>
       <c r="D156" t="n">
-        <v>10794.25</v>
+        <v>10855.43</v>
       </c>
       <c r="E156" t="n">
-        <v>10848.63</v>
-      </c>
-      <c r="G156" s="3">
+        <v>10946.25</v>
+      </c>
+      <c r="G156" s="1">
         <f>AVERAGE(E152:E156)</f>
         <v/>
       </c>
-      <c r="H156" s="3">
+      <c r="H156" s="1">
         <f>AVERAGE(E127:E156)</f>
         <v/>
       </c>
-      <c r="I156" s="3">
+      <c r="I156" s="1">
         <f>G156-H156</f>
         <v/>
       </c>
@@ -6005,26 +5999,26 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>10856.92</v>
+        <v>10761.01</v>
       </c>
       <c r="C157" t="n">
-        <v>10879.8</v>
+        <v>10761.01</v>
       </c>
       <c r="D157" t="n">
-        <v>10815.68</v>
+        <v>10300.4</v>
       </c>
       <c r="E157" t="n">
-        <v>10879.8</v>
-      </c>
-      <c r="G157" s="3">
+        <v>10404</v>
+      </c>
+      <c r="G157" s="1">
         <f>AVERAGE(E153:E157)</f>
         <v/>
       </c>
-      <c r="H157" s="3">
+      <c r="H157" s="1">
         <f>AVERAGE(E128:E157)</f>
         <v/>
       </c>
-      <c r="I157" s="3">
+      <c r="I157" s="1">
         <f>G157-H157</f>
         <v/>
       </c>
@@ -6034,26 +6028,26 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10899.09</v>
+        <v>10547.64</v>
       </c>
       <c r="C158" t="n">
-        <v>10918.47</v>
+        <v>10697.82</v>
       </c>
       <c r="D158" t="n">
-        <v>10869.12</v>
+        <v>10547.64</v>
       </c>
       <c r="E158" t="n">
-        <v>10915.75</v>
-      </c>
-      <c r="G158" s="3">
+        <v>10551.54</v>
+      </c>
+      <c r="G158" s="1">
         <f>AVERAGE(E154:E158)</f>
         <v/>
       </c>
-      <c r="H158" s="3">
+      <c r="H158" s="1">
         <f>AVERAGE(E129:E158)</f>
         <v/>
       </c>
-      <c r="I158" s="3">
+      <c r="I158" s="1">
         <f>G158-H158</f>
         <v/>
       </c>
@@ -6063,26 +6057,26 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10922.35</v>
+        <v>10559.44</v>
       </c>
       <c r="C159" t="n">
-        <v>10931</v>
+        <v>10609.5</v>
       </c>
       <c r="D159" t="n">
-        <v>10860.77</v>
+        <v>10512.93</v>
       </c>
       <c r="E159" t="n">
-        <v>10914.89</v>
-      </c>
-      <c r="G159" s="3">
+        <v>10528.52</v>
+      </c>
+      <c r="G159" s="1">
         <f>AVERAGE(E155:E159)</f>
         <v/>
       </c>
-      <c r="H159" s="3">
+      <c r="H159" s="1">
         <f>AVERAGE(E130:E159)</f>
         <v/>
       </c>
-      <c r="I159" s="3">
+      <c r="I159" s="1">
         <f>G159-H159</f>
         <v/>
       </c>
@@ -6092,26 +6086,26 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10915.32</v>
+        <v>10371.01</v>
       </c>
       <c r="C160" t="n">
-        <v>10934.75</v>
+        <v>10392.31</v>
       </c>
       <c r="D160" t="n">
-        <v>10819.25</v>
+        <v>10189.04</v>
       </c>
       <c r="E160" t="n">
-        <v>10831.09</v>
-      </c>
-      <c r="G160" s="3">
+        <v>10371.75</v>
+      </c>
+      <c r="G160" s="1">
         <f>AVERAGE(E156:E160)</f>
         <v/>
       </c>
-      <c r="H160" s="3">
+      <c r="H160" s="1">
         <f>AVERAGE(E131:E160)</f>
         <v/>
       </c>
-      <c r="I160" s="3">
+      <c r="I160" s="1">
         <f>G160-H160</f>
         <v/>
       </c>
@@ -6121,26 +6115,26 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10824.54</v>
+        <v>10429.09</v>
       </c>
       <c r="C161" t="n">
-        <v>10844.08</v>
+        <v>10473.51</v>
       </c>
       <c r="D161" t="n">
-        <v>10770.1</v>
+        <v>10416.01</v>
       </c>
       <c r="E161" t="n">
-        <v>10810.06</v>
-      </c>
-      <c r="G161" s="3">
+        <v>10421.09</v>
+      </c>
+      <c r="G161" s="1">
         <f>AVERAGE(E157:E161)</f>
         <v/>
       </c>
-      <c r="H161" s="3">
+      <c r="H161" s="1">
         <f>AVERAGE(E132:E161)</f>
         <v/>
       </c>
-      <c r="I161" s="3">
+      <c r="I161" s="1">
         <f>G161-H161</f>
         <v/>
       </c>
@@ -6150,26 +6144,26 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>10818.24</v>
+        <v>10559.79</v>
       </c>
       <c r="C162" t="n">
-        <v>10899.98</v>
+        <v>10720.48</v>
       </c>
       <c r="D162" t="n">
-        <v>10818.24</v>
+        <v>10559.79</v>
       </c>
       <c r="E162" t="n">
-        <v>10883.96</v>
-      </c>
-      <c r="G162" s="3">
+        <v>10714.44</v>
+      </c>
+      <c r="G162" s="1">
         <f>AVERAGE(E158:E162)</f>
         <v/>
       </c>
-      <c r="H162" s="3">
+      <c r="H162" s="1">
         <f>AVERAGE(E133:E162)</f>
         <v/>
       </c>
-      <c r="I162" s="3">
+      <c r="I162" s="1">
         <f>G162-H162</f>
         <v/>
       </c>
@@ -6179,26 +6173,26 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>10932.37</v>
+        <v>10698.47</v>
       </c>
       <c r="C163" t="n">
-        <v>10962.55</v>
+        <v>10698.47</v>
       </c>
       <c r="D163" t="n">
-        <v>10911.89</v>
+        <v>10620.8</v>
       </c>
       <c r="E163" t="n">
-        <v>10956.31</v>
-      </c>
-      <c r="G163" s="3">
+        <v>10662.38</v>
+      </c>
+      <c r="G163" s="1">
         <f>AVERAGE(E159:E163)</f>
         <v/>
       </c>
-      <c r="H163" s="3">
+      <c r="H163" s="1">
         <f>AVERAGE(E134:E163)</f>
         <v/>
       </c>
-      <c r="I163" s="3">
+      <c r="I163" s="1">
         <f>G163-H163</f>
         <v/>
       </c>
@@ -6208,26 +6202,26 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10955.81</v>
+        <v>10688.97</v>
       </c>
       <c r="C164" t="n">
-        <v>10986.11</v>
+        <v>10799.29</v>
       </c>
       <c r="D164" t="n">
-        <v>10920.5</v>
+        <v>10688.97</v>
       </c>
       <c r="E164" t="n">
-        <v>10986.11</v>
-      </c>
-      <c r="G164" s="3">
+        <v>10794.55</v>
+      </c>
+      <c r="G164" s="1">
         <f>AVERAGE(E160:E164)</f>
         <v/>
       </c>
-      <c r="H164" s="3">
+      <c r="H164" s="1">
         <f>AVERAGE(E135:E164)</f>
         <v/>
       </c>
-      <c r="I164" s="3">
+      <c r="I164" s="1">
         <f>G164-H164</f>
         <v/>
       </c>
@@ -6237,26 +6231,26 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>10976.13</v>
+        <v>10827.98</v>
       </c>
       <c r="C165" t="n">
-        <v>11030.22</v>
+        <v>10890.69</v>
       </c>
       <c r="D165" t="n">
-        <v>10942.95</v>
+        <v>10827.98</v>
       </c>
       <c r="E165" t="n">
-        <v>11004.8</v>
-      </c>
-      <c r="G165" s="3">
+        <v>10836.7</v>
+      </c>
+      <c r="G165" s="1">
         <f>AVERAGE(E161:E165)</f>
         <v/>
       </c>
-      <c r="H165" s="3">
+      <c r="H165" s="1">
         <f>AVERAGE(E136:E165)</f>
         <v/>
       </c>
-      <c r="I165" s="3">
+      <c r="I165" s="1">
         <f>G165-H165</f>
         <v/>
       </c>
@@ -6266,26 +6260,26 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>11048.06</v>
+        <v>10896.16</v>
       </c>
       <c r="C166" t="n">
-        <v>11122.82</v>
+        <v>10937.9</v>
       </c>
       <c r="D166" t="n">
-        <v>11048.06</v>
+        <v>10815.47</v>
       </c>
       <c r="E166" t="n">
-        <v>11071.57</v>
-      </c>
-      <c r="G166" s="3">
+        <v>10815.47</v>
+      </c>
+      <c r="G166" s="1">
         <f>AVERAGE(E162:E166)</f>
         <v/>
       </c>
-      <c r="H166" s="3">
+      <c r="H166" s="1">
         <f>AVERAGE(E137:E166)</f>
         <v/>
       </c>
-      <c r="I166" s="3">
+      <c r="I166" s="1">
         <f>G166-H166</f>
         <v/>
       </c>
@@ -6295,26 +6289,26 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>11123.58</v>
+        <v>10779.1</v>
       </c>
       <c r="C167" t="n">
-        <v>11150.85</v>
+        <v>10805.55</v>
       </c>
       <c r="D167" t="n">
-        <v>11095.85</v>
+        <v>10709.69</v>
       </c>
       <c r="E167" t="n">
-        <v>11150.85</v>
-      </c>
-      <c r="G167" s="3">
+        <v>10785.79</v>
+      </c>
+      <c r="G167" s="1">
         <f>AVERAGE(E163:E167)</f>
         <v/>
       </c>
-      <c r="H167" s="3">
+      <c r="H167" s="1">
         <f>AVERAGE(E138:E167)</f>
         <v/>
       </c>
-      <c r="I167" s="3">
+      <c r="I167" s="1">
         <f>G167-H167</f>
         <v/>
       </c>
@@ -6324,26 +6318,26 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>11169.79</v>
+        <v>10719.29</v>
       </c>
       <c r="C168" t="n">
-        <v>11231.46</v>
+        <v>10719.29</v>
       </c>
       <c r="D168" t="n">
-        <v>11142.38</v>
+        <v>10638.98</v>
       </c>
       <c r="E168" t="n">
-        <v>11231.46</v>
-      </c>
-      <c r="G168" s="3">
+        <v>10698.17</v>
+      </c>
+      <c r="G168" s="1">
         <f>AVERAGE(E164:E168)</f>
         <v/>
       </c>
-      <c r="H168" s="3">
+      <c r="H168" s="1">
         <f>AVERAGE(E139:E168)</f>
         <v/>
       </c>
-      <c r="I168" s="3">
+      <c r="I168" s="1">
         <f>G168-H168</f>
         <v/>
       </c>
@@ -6353,26 +6347,26 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>11243.49</v>
+        <v>10727.45</v>
       </c>
       <c r="C169" t="n">
-        <v>11270.18</v>
+        <v>10756.37</v>
       </c>
       <c r="D169" t="n">
-        <v>11201.52</v>
+        <v>10642.9</v>
       </c>
       <c r="E169" t="n">
-        <v>11253.11</v>
-      </c>
-      <c r="G169" s="3">
+        <v>10642.9</v>
+      </c>
+      <c r="G169" s="1">
         <f>AVERAGE(E165:E169)</f>
         <v/>
       </c>
-      <c r="H169" s="3">
+      <c r="H169" s="1">
         <f>AVERAGE(E140:E169)</f>
         <v/>
       </c>
-      <c r="I169" s="3">
+      <c r="I169" s="1">
         <f>G169-H169</f>
         <v/>
       </c>
@@ -6382,26 +6376,26 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>11228.71</v>
+        <v>10711.15</v>
       </c>
       <c r="C170" t="n">
-        <v>11228.71</v>
+        <v>10784.34</v>
       </c>
       <c r="D170" t="n">
-        <v>11107.32</v>
+        <v>10711.15</v>
       </c>
       <c r="E170" t="n">
-        <v>11152.16</v>
-      </c>
-      <c r="G170" s="3">
+        <v>10784.34</v>
+      </c>
+      <c r="G170" s="1">
         <f>AVERAGE(E166:E170)</f>
         <v/>
       </c>
-      <c r="H170" s="3">
+      <c r="H170" s="1">
         <f>AVERAGE(E141:E170)</f>
         <v/>
       </c>
-      <c r="I170" s="3">
+      <c r="I170" s="1">
         <f>G170-H170</f>
         <v/>
       </c>
@@ -6411,26 +6405,26 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>11154.36</v>
+        <v>10762.99</v>
       </c>
       <c r="C171" t="n">
-        <v>11268.61</v>
+        <v>10818.05</v>
       </c>
       <c r="D171" t="n">
-        <v>11131.85</v>
+        <v>10745.32</v>
       </c>
       <c r="E171" t="n">
-        <v>11165.95</v>
-      </c>
-      <c r="G171" s="3">
+        <v>10745.32</v>
+      </c>
+      <c r="G171" s="1">
         <f>AVERAGE(E167:E171)</f>
         <v/>
       </c>
-      <c r="H171" s="3">
+      <c r="H171" s="1">
         <f>AVERAGE(E142:E171)</f>
         <v/>
       </c>
-      <c r="I171" s="3">
+      <c r="I171" s="1">
         <f>G171-H171</f>
         <v/>
       </c>
@@ -6440,26 +6434,26 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>11152.53</v>
+        <v>10788.43</v>
       </c>
       <c r="C172" t="n">
-        <v>11178.3</v>
+        <v>10852.33</v>
       </c>
       <c r="D172" t="n">
-        <v>11089.48</v>
+        <v>10788.43</v>
       </c>
       <c r="E172" t="n">
-        <v>11147.1</v>
-      </c>
-      <c r="G172" s="3">
+        <v>10823.24</v>
+      </c>
+      <c r="G172" s="1">
         <f>AVERAGE(E168:E172)</f>
         <v/>
       </c>
-      <c r="H172" s="3">
+      <c r="H172" s="1">
         <f>AVERAGE(E143:E172)</f>
         <v/>
       </c>
-      <c r="I172" s="3">
+      <c r="I172" s="1">
         <f>G172-H172</f>
         <v/>
       </c>
@@ -6469,26 +6463,26 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>11202.27</v>
+        <v>10847.74</v>
       </c>
       <c r="C173" t="n">
-        <v>11246.18</v>
+        <v>10882.76</v>
       </c>
       <c r="D173" t="n">
-        <v>11161.83</v>
+        <v>10845.38</v>
       </c>
       <c r="E173" t="n">
-        <v>11221.81</v>
-      </c>
-      <c r="G173" s="3">
+        <v>10864.82</v>
+      </c>
+      <c r="G173" s="1">
         <f>AVERAGE(E169:E173)</f>
         <v/>
       </c>
-      <c r="H173" s="3">
+      <c r="H173" s="1">
         <f>AVERAGE(E144:E173)</f>
         <v/>
       </c>
-      <c r="I173" s="3">
+      <c r="I173" s="1">
         <f>G173-H173</f>
         <v/>
       </c>
@@ -6498,26 +6492,26 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>11189.57</v>
+        <v>10908.99</v>
       </c>
       <c r="C174" t="n">
-        <v>11189.57</v>
+        <v>11016.56</v>
       </c>
       <c r="D174" t="n">
-        <v>11076.78</v>
+        <v>10908.99</v>
       </c>
       <c r="E174" t="n">
-        <v>11076.78</v>
-      </c>
-      <c r="G174" s="3">
+        <v>11002.1</v>
+      </c>
+      <c r="G174" s="1">
         <f>AVERAGE(E170:E174)</f>
         <v/>
       </c>
-      <c r="H174" s="3">
+      <c r="H174" s="1">
         <f>AVERAGE(E145:E174)</f>
         <v/>
       </c>
-      <c r="I174" s="3">
+      <c r="I174" s="1">
         <f>G174-H174</f>
         <v/>
       </c>
@@ -6527,26 +6521,26 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>11054.36</v>
+        <v>11022.15</v>
       </c>
       <c r="C175" t="n">
-        <v>11158.29</v>
+        <v>11095.63</v>
       </c>
       <c r="D175" t="n">
-        <v>11007.89</v>
+        <v>11014.87</v>
       </c>
       <c r="E175" t="n">
-        <v>11103.79</v>
-      </c>
-      <c r="G175" s="3">
+        <v>11095.63</v>
+      </c>
+      <c r="G175" s="1">
         <f>AVERAGE(E171:E175)</f>
         <v/>
       </c>
-      <c r="H175" s="3">
+      <c r="H175" s="1">
         <f>AVERAGE(E146:E175)</f>
         <v/>
       </c>
-      <c r="I175" s="3">
+      <c r="I175" s="1">
         <f>G175-H175</f>
         <v/>
       </c>
@@ -6556,26 +6550,26 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>11139.4</v>
+        <v>11063.73</v>
       </c>
       <c r="C176" t="n">
-        <v>11212.1</v>
+        <v>11070.29</v>
       </c>
       <c r="D176" t="n">
-        <v>11139.4</v>
+        <v>11015.47</v>
       </c>
       <c r="E176" t="n">
-        <v>11160.25</v>
-      </c>
-      <c r="G176" s="3">
+        <v>11038.8</v>
+      </c>
+      <c r="G176" s="1">
         <f>AVERAGE(E172:E176)</f>
         <v/>
       </c>
-      <c r="H176" s="3">
+      <c r="H176" s="1">
         <f>AVERAGE(E147:E176)</f>
         <v/>
       </c>
-      <c r="I176" s="3">
+      <c r="I176" s="1">
         <f>G176-H176</f>
         <v/>
       </c>
@@ -6585,26 +6579,26 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>11151.65</v>
+        <v>11039.6</v>
       </c>
       <c r="C177" t="n">
-        <v>11153.32</v>
+        <v>11052.11</v>
       </c>
       <c r="D177" t="n">
-        <v>11070.43</v>
+        <v>11008.18</v>
       </c>
       <c r="E177" t="n">
-        <v>11126.23</v>
-      </c>
-      <c r="G177" s="3">
+        <v>11018.45</v>
+      </c>
+      <c r="G177" s="1">
         <f>AVERAGE(E173:E177)</f>
         <v/>
       </c>
-      <c r="H177" s="3">
+      <c r="H177" s="1">
         <f>AVERAGE(E148:E177)</f>
         <v/>
       </c>
-      <c r="I177" s="3">
+      <c r="I177" s="1">
         <f>G177-H177</f>
         <v/>
       </c>
@@ -6614,26 +6608,26 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>10970.3</v>
+        <v>11010.24</v>
       </c>
       <c r="C178" t="n">
-        <v>10970.3</v>
+        <v>11054.86</v>
       </c>
       <c r="D178" t="n">
-        <v>10855.43</v>
+        <v>10933.46</v>
       </c>
       <c r="E178" t="n">
-        <v>10946.25</v>
-      </c>
-      <c r="G178" s="3">
+        <v>11027.7</v>
+      </c>
+      <c r="G178" s="1">
         <f>AVERAGE(E174:E178)</f>
         <v/>
       </c>
-      <c r="H178" s="3">
+      <c r="H178" s="1">
         <f>AVERAGE(E149:E178)</f>
         <v/>
       </c>
-      <c r="I178" s="3">
+      <c r="I178" s="1">
         <f>G178-H178</f>
         <v/>
       </c>
@@ -6643,26 +6637,26 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>10761.01</v>
+        <v>11004.81</v>
       </c>
       <c r="C179" t="n">
-        <v>10761.01</v>
+        <v>11066</v>
       </c>
       <c r="D179" t="n">
-        <v>10300.4</v>
+        <v>10983.25</v>
       </c>
       <c r="E179" t="n">
-        <v>10404</v>
-      </c>
-      <c r="G179" s="3">
+        <v>11046.9</v>
+      </c>
+      <c r="G179" s="1">
         <f>AVERAGE(E175:E179)</f>
         <v/>
       </c>
-      <c r="H179" s="3">
+      <c r="H179" s="1">
         <f>AVERAGE(E150:E179)</f>
         <v/>
       </c>
-      <c r="I179" s="3">
+      <c r="I179" s="1">
         <f>G179-H179</f>
         <v/>
       </c>
@@ -6672,26 +6666,26 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>10547.64</v>
+        <v>11016.85</v>
       </c>
       <c r="C180" t="n">
-        <v>10697.82</v>
+        <v>11020.78</v>
       </c>
       <c r="D180" t="n">
-        <v>10547.64</v>
+        <v>10981.04</v>
       </c>
       <c r="E180" t="n">
-        <v>10551.54</v>
-      </c>
-      <c r="G180" s="3">
+        <v>11010.84</v>
+      </c>
+      <c r="G180" s="1">
         <f>AVERAGE(E176:E180)</f>
         <v/>
       </c>
-      <c r="H180" s="3">
+      <c r="H180" s="1">
         <f>AVERAGE(E151:E180)</f>
         <v/>
       </c>
-      <c r="I180" s="3">
+      <c r="I180" s="1">
         <f>G180-H180</f>
         <v/>
       </c>
@@ -6701,26 +6695,26 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>10559.44</v>
+        <v>11037.35</v>
       </c>
       <c r="C181" t="n">
-        <v>10609.5</v>
+        <v>11072.31</v>
       </c>
       <c r="D181" t="n">
-        <v>10512.93</v>
+        <v>11011.07</v>
       </c>
       <c r="E181" t="n">
-        <v>10528.52</v>
-      </c>
-      <c r="G181" s="3">
+        <v>11011.07</v>
+      </c>
+      <c r="G181" s="1">
         <f>AVERAGE(E177:E181)</f>
         <v/>
       </c>
-      <c r="H181" s="3">
+      <c r="H181" s="1">
         <f>AVERAGE(E152:E181)</f>
         <v/>
       </c>
-      <c r="I181" s="3">
+      <c r="I181" s="1">
         <f>G181-H181</f>
         <v/>
       </c>
@@ -6730,26 +6724,26 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>10371.01</v>
+        <v>11045.9</v>
       </c>
       <c r="C182" t="n">
-        <v>10392.31</v>
+        <v>11120.2</v>
       </c>
       <c r="D182" t="n">
-        <v>10189.04</v>
+        <v>10975.33</v>
       </c>
       <c r="E182" t="n">
-        <v>10371.75</v>
-      </c>
-      <c r="G182" s="3">
+        <v>11005.84</v>
+      </c>
+      <c r="G182" s="1">
         <f>AVERAGE(E178:E182)</f>
         <v/>
       </c>
-      <c r="H182" s="3">
+      <c r="H182" s="1">
         <f>AVERAGE(E153:E182)</f>
         <v/>
       </c>
-      <c r="I182" s="3">
+      <c r="I182" s="1">
         <f>G182-H182</f>
         <v/>
       </c>
@@ -6759,26 +6753,26 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>10429.09</v>
+        <v>10863.67</v>
       </c>
       <c r="C183" t="n">
-        <v>10473.51</v>
+        <v>10863.67</v>
       </c>
       <c r="D183" t="n">
-        <v>10416.01</v>
+        <v>10758.06</v>
       </c>
       <c r="E183" t="n">
-        <v>10421.09</v>
-      </c>
-      <c r="G183" s="3">
+        <v>10823.33</v>
+      </c>
+      <c r="G183" s="1">
         <f>AVERAGE(E179:E183)</f>
         <v/>
       </c>
-      <c r="H183" s="3">
+      <c r="H183" s="1">
         <f>AVERAGE(E154:E183)</f>
         <v/>
       </c>
-      <c r="I183" s="3">
+      <c r="I183" s="1">
         <f>G183-H183</f>
         <v/>
       </c>
@@ -6788,26 +6782,26 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>10559.79</v>
+        <v>10783.57</v>
       </c>
       <c r="C184" t="n">
-        <v>10720.48</v>
+        <v>10840.05</v>
       </c>
       <c r="D184" t="n">
-        <v>10559.79</v>
+        <v>10781.43</v>
       </c>
       <c r="E184" t="n">
-        <v>10714.44</v>
-      </c>
-      <c r="G184" s="3">
+        <v>10840.05</v>
+      </c>
+      <c r="G184" s="1">
         <f>AVERAGE(E180:E184)</f>
         <v/>
       </c>
-      <c r="H184" s="3">
+      <c r="H184" s="1">
         <f>AVERAGE(E155:E184)</f>
         <v/>
       </c>
-      <c r="I184" s="3">
+      <c r="I184" s="1">
         <f>G184-H184</f>
         <v/>
       </c>
@@ -6817,26 +6811,26 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>10698.47</v>
+        <v>10901.69</v>
       </c>
       <c r="C185" t="n">
-        <v>10698.47</v>
+        <v>10986.79</v>
       </c>
       <c r="D185" t="n">
-        <v>10620.8</v>
+        <v>10901.69</v>
       </c>
       <c r="E185" t="n">
-        <v>10662.38</v>
-      </c>
-      <c r="G185" s="3">
+        <v>10986.79</v>
+      </c>
+      <c r="G185" s="1">
         <f>AVERAGE(E181:E185)</f>
         <v/>
       </c>
-      <c r="H185" s="3">
+      <c r="H185" s="1">
         <f>AVERAGE(E156:E185)</f>
         <v/>
       </c>
-      <c r="I185" s="3">
+      <c r="I185" s="1">
         <f>G185-H185</f>
         <v/>
       </c>
@@ -6846,26 +6840,26 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>10688.97</v>
+        <v>10939.97</v>
       </c>
       <c r="C186" t="n">
-        <v>10799.29</v>
+        <v>10939.97</v>
       </c>
       <c r="D186" t="n">
-        <v>10688.97</v>
+        <v>10853.48</v>
       </c>
       <c r="E186" t="n">
-        <v>10794.55</v>
-      </c>
-      <c r="G186" s="3">
+        <v>10865.66</v>
+      </c>
+      <c r="G186" s="1">
         <f>AVERAGE(E182:E186)</f>
         <v/>
       </c>
-      <c r="H186" s="3">
+      <c r="H186" s="1">
         <f>AVERAGE(E157:E186)</f>
         <v/>
       </c>
-      <c r="I186" s="3">
+      <c r="I186" s="1">
         <f>G186-H186</f>
         <v/>
       </c>
@@ -6875,26 +6869,26 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>10827.98</v>
+        <v>10855.66</v>
       </c>
       <c r="C187" t="n">
-        <v>10890.69</v>
+        <v>10889.6</v>
       </c>
       <c r="D187" t="n">
-        <v>10827.98</v>
+        <v>10815.46</v>
       </c>
       <c r="E187" t="n">
-        <v>10836.7</v>
-      </c>
-      <c r="G187" s="3">
+        <v>10845.92</v>
+      </c>
+      <c r="G187" s="1">
         <f>AVERAGE(E183:E187)</f>
         <v/>
       </c>
-      <c r="H187" s="3">
+      <c r="H187" s="1">
         <f>AVERAGE(E158:E187)</f>
         <v/>
       </c>
-      <c r="I187" s="3">
+      <c r="I187" s="1">
         <f>G187-H187</f>
         <v/>
       </c>
@@ -6904,26 +6898,26 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>10896.16</v>
+        <v>10905.3</v>
       </c>
       <c r="C188" t="n">
-        <v>10937.9</v>
+        <v>10969.22</v>
       </c>
       <c r="D188" t="n">
-        <v>10815.47</v>
+        <v>10905.3</v>
       </c>
       <c r="E188" t="n">
-        <v>10815.47</v>
-      </c>
-      <c r="G188" s="3">
+        <v>10906.22</v>
+      </c>
+      <c r="G188" s="1">
         <f>AVERAGE(E184:E188)</f>
         <v/>
       </c>
-      <c r="H188" s="3">
+      <c r="H188" s="1">
         <f>AVERAGE(E159:E188)</f>
         <v/>
       </c>
-      <c r="I188" s="3">
+      <c r="I188" s="1">
         <f>G188-H188</f>
         <v/>
       </c>
@@ -6933,26 +6927,26 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>10779.1</v>
+        <v>10925.71</v>
       </c>
       <c r="C189" t="n">
-        <v>10805.55</v>
+        <v>10947.16</v>
       </c>
       <c r="D189" t="n">
-        <v>10709.69</v>
+        <v>10905.69</v>
       </c>
       <c r="E189" t="n">
-        <v>10785.79</v>
-      </c>
-      <c r="G189" s="3">
+        <v>10919.49</v>
+      </c>
+      <c r="G189" s="1">
         <f>AVERAGE(E185:E189)</f>
         <v/>
       </c>
-      <c r="H189" s="3">
+      <c r="H189" s="1">
         <f>AVERAGE(E160:E189)</f>
         <v/>
       </c>
-      <c r="I189" s="3">
+      <c r="I189" s="1">
         <f>G189-H189</f>
         <v/>
       </c>
@@ -6962,26 +6956,26 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>10719.29</v>
+        <v>10936.26</v>
       </c>
       <c r="C190" t="n">
-        <v>10719.29</v>
+        <v>10969.88</v>
       </c>
       <c r="D190" t="n">
-        <v>10638.98</v>
+        <v>10882.05</v>
       </c>
       <c r="E190" t="n">
-        <v>10698.17</v>
-      </c>
-      <c r="G190" s="3">
+        <v>10888.27</v>
+      </c>
+      <c r="G190" s="1">
         <f>AVERAGE(E186:E190)</f>
         <v/>
       </c>
-      <c r="H190" s="3">
+      <c r="H190" s="1">
         <f>AVERAGE(E161:E190)</f>
         <v/>
       </c>
-      <c r="I190" s="3">
+      <c r="I190" s="1">
         <f>G190-H190</f>
         <v/>
       </c>
@@ -6991,26 +6985,26 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>10727.45</v>
+        <v>10837.54</v>
       </c>
       <c r="C191" t="n">
-        <v>10756.37</v>
+        <v>10837.54</v>
       </c>
       <c r="D191" t="n">
-        <v>10642.9</v>
+        <v>10775.45</v>
       </c>
       <c r="E191" t="n">
-        <v>10642.9</v>
-      </c>
-      <c r="G191" s="3">
+        <v>10821.53</v>
+      </c>
+      <c r="G191" s="1">
         <f>AVERAGE(E187:E191)</f>
         <v/>
       </c>
-      <c r="H191" s="3">
+      <c r="H191" s="1">
         <f>AVERAGE(E162:E191)</f>
         <v/>
       </c>
-      <c r="I191" s="3">
+      <c r="I191" s="1">
         <f>G191-H191</f>
         <v/>
       </c>
@@ -7020,26 +7014,26 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>10711.15</v>
+        <v>10880.14</v>
       </c>
       <c r="C192" t="n">
-        <v>10784.34</v>
+        <v>10904.75</v>
       </c>
       <c r="D192" t="n">
-        <v>10711.15</v>
+        <v>10829.02</v>
       </c>
       <c r="E192" t="n">
-        <v>10784.34</v>
-      </c>
-      <c r="G192" s="3">
+        <v>10893.53</v>
+      </c>
+      <c r="G192" s="1">
         <f>AVERAGE(E188:E192)</f>
         <v/>
       </c>
-      <c r="H192" s="3">
+      <c r="H192" s="1">
         <f>AVERAGE(E163:E192)</f>
         <v/>
       </c>
-      <c r="I192" s="3">
+      <c r="I192" s="1">
         <f>G192-H192</f>
         <v/>
       </c>
@@ -7049,26 +7043,26 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>10762.99</v>
+        <v>10885.64</v>
       </c>
       <c r="C193" t="n">
-        <v>10818.05</v>
+        <v>10975.67</v>
       </c>
       <c r="D193" t="n">
-        <v>10745.32</v>
+        <v>10874.83</v>
       </c>
       <c r="E193" t="n">
-        <v>10745.32</v>
-      </c>
-      <c r="G193" s="3">
+        <v>10927.18</v>
+      </c>
+      <c r="G193" s="1">
         <f>AVERAGE(E189:E193)</f>
         <v/>
       </c>
-      <c r="H193" s="3">
+      <c r="H193" s="1">
         <f>AVERAGE(E164:E193)</f>
         <v/>
       </c>
-      <c r="I193" s="3">
+      <c r="I193" s="1">
         <f>G193-H193</f>
         <v/>
       </c>
@@ -7078,26 +7072,26 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>10788.43</v>
+        <v>10961.7</v>
       </c>
       <c r="C194" t="n">
-        <v>10852.33</v>
+        <v>11016.35</v>
       </c>
       <c r="D194" t="n">
-        <v>10788.43</v>
+        <v>10953.31</v>
       </c>
       <c r="E194" t="n">
-        <v>10823.24</v>
-      </c>
-      <c r="G194" s="3">
+        <v>10974.02</v>
+      </c>
+      <c r="G194" s="1">
         <f>AVERAGE(E190:E194)</f>
         <v/>
       </c>
-      <c r="H194" s="3">
+      <c r="H194" s="1">
         <f>AVERAGE(E165:E194)</f>
         <v/>
       </c>
-      <c r="I194" s="3">
+      <c r="I194" s="1">
         <f>G194-H194</f>
         <v/>
       </c>
@@ -7107,26 +7101,26 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>10847.74</v>
+        <v>10984.12</v>
       </c>
       <c r="C195" t="n">
-        <v>10882.76</v>
+        <v>11008.2</v>
       </c>
       <c r="D195" t="n">
-        <v>10845.38</v>
+        <v>10920.62</v>
       </c>
       <c r="E195" t="n">
-        <v>10864.82</v>
-      </c>
-      <c r="G195" s="3">
+        <v>10955.29</v>
+      </c>
+      <c r="G195" s="1">
         <f>AVERAGE(E191:E195)</f>
         <v/>
       </c>
-      <c r="H195" s="3">
+      <c r="H195" s="1">
         <f>AVERAGE(E166:E195)</f>
         <v/>
       </c>
-      <c r="I195" s="3">
+      <c r="I195" s="1">
         <f>G195-H195</f>
         <v/>
       </c>
@@ -7136,26 +7130,26 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>10908.99</v>
+        <v>10975.58</v>
       </c>
       <c r="C196" t="n">
-        <v>11016.56</v>
+        <v>10988.23</v>
       </c>
       <c r="D196" t="n">
-        <v>10908.99</v>
+        <v>10938.37</v>
       </c>
       <c r="E196" t="n">
-        <v>11002.1</v>
-      </c>
-      <c r="G196" s="3">
+        <v>10965.39</v>
+      </c>
+      <c r="G196" s="1">
         <f>AVERAGE(E192:E196)</f>
         <v/>
       </c>
-      <c r="H196" s="3">
+      <c r="H196" s="1">
         <f>AVERAGE(E167:E196)</f>
         <v/>
       </c>
-      <c r="I196" s="3">
+      <c r="I196" s="1">
         <f>G196-H196</f>
         <v/>
       </c>
@@ -7165,26 +7159,26 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>11022.15</v>
+        <v>10962.36</v>
       </c>
       <c r="C197" t="n">
-        <v>11095.63</v>
+        <v>10974.94</v>
       </c>
       <c r="D197" t="n">
-        <v>11014.87</v>
+        <v>10921.17</v>
       </c>
       <c r="E197" t="n">
-        <v>11095.63</v>
-      </c>
-      <c r="G197" s="3">
+        <v>10954.55</v>
+      </c>
+      <c r="G197" s="1">
         <f>AVERAGE(E193:E197)</f>
         <v/>
       </c>
-      <c r="H197" s="3">
+      <c r="H197" s="1">
         <f>AVERAGE(E168:E197)</f>
         <v/>
       </c>
-      <c r="I197" s="3">
+      <c r="I197" s="1">
         <f>G197-H197</f>
         <v/>
       </c>
@@ -7194,26 +7188,26 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>11063.73</v>
+        <v>10953.51</v>
       </c>
       <c r="C198" t="n">
-        <v>11070.29</v>
+        <v>10965.2</v>
       </c>
       <c r="D198" t="n">
-        <v>11015.47</v>
+        <v>10799.07</v>
       </c>
       <c r="E198" t="n">
-        <v>11038.8</v>
-      </c>
-      <c r="G198" s="3">
+        <v>10810.45</v>
+      </c>
+      <c r="G198" s="1">
         <f>AVERAGE(E194:E198)</f>
         <v/>
       </c>
-      <c r="H198" s="3">
+      <c r="H198" s="1">
         <f>AVERAGE(E169:E198)</f>
         <v/>
       </c>
-      <c r="I198" s="3">
+      <c r="I198" s="1">
         <f>G198-H198</f>
         <v/>
       </c>
@@ -7223,26 +7217,26 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>11039.6</v>
+        <v>10842.88</v>
       </c>
       <c r="C199" t="n">
-        <v>11052.11</v>
+        <v>10917.6</v>
       </c>
       <c r="D199" t="n">
-        <v>11008.18</v>
+        <v>10809.89</v>
       </c>
       <c r="E199" t="n">
-        <v>11018.45</v>
-      </c>
-      <c r="G199" s="3">
+        <v>10847.89</v>
+      </c>
+      <c r="G199" s="1">
         <f>AVERAGE(E195:E199)</f>
         <v/>
       </c>
-      <c r="H199" s="3">
+      <c r="H199" s="1">
         <f>AVERAGE(E170:E199)</f>
         <v/>
       </c>
-      <c r="I199" s="3">
+      <c r="I199" s="1">
         <f>G199-H199</f>
         <v/>
       </c>
@@ -7252,26 +7246,26 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>11010.24</v>
+        <v>10891.66</v>
       </c>
       <c r="C200" t="n">
-        <v>11054.86</v>
+        <v>10983.96</v>
       </c>
       <c r="D200" t="n">
-        <v>10933.46</v>
+        <v>10889.71</v>
       </c>
       <c r="E200" t="n">
-        <v>11027.7</v>
-      </c>
-      <c r="G200" s="3">
+        <v>10971.22</v>
+      </c>
+      <c r="G200" s="1">
         <f>AVERAGE(E196:E200)</f>
         <v/>
       </c>
-      <c r="H200" s="3">
+      <c r="H200" s="1">
         <f>AVERAGE(E171:E200)</f>
         <v/>
       </c>
-      <c r="I200" s="3">
+      <c r="I200" s="1">
         <f>G200-H200</f>
         <v/>
       </c>
@@ -7281,26 +7275,26 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>11004.81</v>
+        <v>10802.42</v>
       </c>
       <c r="C201" t="n">
-        <v>11066</v>
+        <v>10831.56</v>
       </c>
       <c r="D201" t="n">
-        <v>10983.25</v>
+        <v>10770.05</v>
       </c>
       <c r="E201" t="n">
-        <v>11046.9</v>
-      </c>
-      <c r="G201" s="3">
+        <v>10779.38</v>
+      </c>
+      <c r="G201" s="1">
         <f>AVERAGE(E197:E201)</f>
         <v/>
       </c>
-      <c r="H201" s="3">
+      <c r="H201" s="1">
         <f>AVERAGE(E172:E201)</f>
         <v/>
       </c>
-      <c r="I201" s="3">
+      <c r="I201" s="1">
         <f>G201-H201</f>
         <v/>
       </c>
@@ -7310,26 +7304,26 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>11016.85</v>
+        <v>10756.89</v>
       </c>
       <c r="C202" t="n">
-        <v>11020.78</v>
+        <v>10774.73</v>
       </c>
       <c r="D202" t="n">
-        <v>10981.04</v>
+        <v>10687.25</v>
       </c>
       <c r="E202" t="n">
-        <v>11010.84</v>
-      </c>
-      <c r="G202" s="3">
+        <v>10697.13</v>
+      </c>
+      <c r="G202" s="1">
         <f>AVERAGE(E198:E202)</f>
         <v/>
       </c>
-      <c r="H202" s="3">
+      <c r="H202" s="1">
         <f>AVERAGE(E173:E202)</f>
         <v/>
       </c>
-      <c r="I202" s="3">
+      <c r="I202" s="1">
         <f>G202-H202</f>
         <v/>
       </c>
@@ -7339,26 +7333,26 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>11037.35</v>
+        <v>10680.38</v>
       </c>
       <c r="C203" t="n">
-        <v>11072.31</v>
+        <v>10692.19</v>
       </c>
       <c r="D203" t="n">
-        <v>11011.07</v>
+        <v>10540.15</v>
       </c>
       <c r="E203" t="n">
-        <v>11011.07</v>
-      </c>
-      <c r="G203" s="3">
+        <v>10579.5</v>
+      </c>
+      <c r="G203" s="1">
         <f>AVERAGE(E199:E203)</f>
         <v/>
       </c>
-      <c r="H203" s="3">
+      <c r="H203" s="1">
         <f>AVERAGE(E174:E203)</f>
         <v/>
       </c>
-      <c r="I203" s="3">
+      <c r="I203" s="1">
         <f>G203-H203</f>
         <v/>
       </c>
@@ -7368,26 +7362,26 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>11045.9</v>
+        <v>10541.83</v>
       </c>
       <c r="C204" t="n">
-        <v>11120.2</v>
+        <v>10573.73</v>
       </c>
       <c r="D204" t="n">
-        <v>10975.33</v>
+        <v>10489.2</v>
       </c>
       <c r="E204" t="n">
-        <v>11005.84</v>
-      </c>
-      <c r="G204" s="3">
+        <v>10559.97</v>
+      </c>
+      <c r="G204" s="1">
         <f>AVERAGE(E200:E204)</f>
         <v/>
       </c>
-      <c r="H204" s="3">
+      <c r="H204" s="1">
         <f>AVERAGE(E175:E204)</f>
         <v/>
       </c>
-      <c r="I204" s="3">
+      <c r="I204" s="1">
         <f>G204-H204</f>
         <v/>
       </c>
@@ -7397,26 +7391,26 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>10863.67</v>
+        <v>10583.08</v>
       </c>
       <c r="C205" t="n">
-        <v>10863.67</v>
+        <v>10618.68</v>
       </c>
       <c r="D205" t="n">
-        <v>10758.06</v>
+        <v>10478.98</v>
       </c>
       <c r="E205" t="n">
-        <v>10823.33</v>
-      </c>
-      <c r="G205" s="3">
+        <v>10488.58</v>
+      </c>
+      <c r="G205" s="1">
         <f>AVERAGE(E201:E205)</f>
         <v/>
       </c>
-      <c r="H205" s="3">
+      <c r="H205" s="1">
         <f>AVERAGE(E176:E205)</f>
         <v/>
       </c>
-      <c r="I205" s="3">
+      <c r="I205" s="1">
         <f>G205-H205</f>
         <v/>
       </c>
@@ -7426,26 +7420,26 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>10783.57</v>
+        <v>10546.29</v>
       </c>
       <c r="C206" t="n">
-        <v>10840.05</v>
+        <v>10573.61</v>
       </c>
       <c r="D206" t="n">
-        <v>10781.43</v>
+        <v>10495.67</v>
       </c>
       <c r="E206" t="n">
-        <v>10840.05</v>
-      </c>
-      <c r="G206" s="3">
+        <v>10553.43</v>
+      </c>
+      <c r="G206" s="1">
         <f>AVERAGE(E202:E206)</f>
         <v/>
       </c>
-      <c r="H206" s="3">
+      <c r="H206" s="1">
         <f>AVERAGE(E177:E206)</f>
         <v/>
       </c>
-      <c r="I206" s="3">
+      <c r="I206" s="1">
         <f>G206-H206</f>
         <v/>
       </c>
@@ -7455,26 +7449,26 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>10901.69</v>
+        <v>10553.41</v>
       </c>
       <c r="C207" t="n">
-        <v>10986.79</v>
+        <v>10660.61</v>
       </c>
       <c r="D207" t="n">
-        <v>10901.69</v>
+        <v>10539.63</v>
       </c>
       <c r="E207" t="n">
-        <v>10986.79</v>
-      </c>
-      <c r="G207" s="3">
+        <v>10657.88</v>
+      </c>
+      <c r="G207" s="1">
         <f>AVERAGE(E203:E207)</f>
         <v/>
       </c>
-      <c r="H207" s="3">
+      <c r="H207" s="1">
         <f>AVERAGE(E178:E207)</f>
         <v/>
       </c>
-      <c r="I207" s="3">
+      <c r="I207" s="1">
         <f>G207-H207</f>
         <v/>
       </c>
@@ -7484,26 +7478,26 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>10939.97</v>
+        <v>10665.52</v>
       </c>
       <c r="C208" t="n">
-        <v>10939.97</v>
+        <v>10683.9</v>
       </c>
       <c r="D208" t="n">
-        <v>10853.48</v>
+        <v>10601.1</v>
       </c>
       <c r="E208" t="n">
-        <v>10865.66</v>
-      </c>
-      <c r="G208" s="3">
+        <v>10618.81</v>
+      </c>
+      <c r="G208" s="1">
         <f>AVERAGE(E204:E208)</f>
         <v/>
       </c>
-      <c r="H208" s="3">
+      <c r="H208" s="1">
         <f>AVERAGE(E179:E208)</f>
         <v/>
       </c>
-      <c r="I208" s="3">
+      <c r="I208" s="1">
         <f>G208-H208</f>
         <v/>
       </c>
@@ -7513,26 +7507,26 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>10855.66</v>
+        <v>10578.98</v>
       </c>
       <c r="C209" t="n">
-        <v>10889.6</v>
+        <v>10578.98</v>
       </c>
       <c r="D209" t="n">
-        <v>10815.46</v>
+        <v>10509.03</v>
       </c>
       <c r="E209" t="n">
-        <v>10845.92</v>
-      </c>
-      <c r="G209" s="3">
+        <v>10514.18</v>
+      </c>
+      <c r="G209" s="1">
         <f>AVERAGE(E205:E209)</f>
         <v/>
       </c>
-      <c r="H209" s="3">
+      <c r="H209" s="1">
         <f>AVERAGE(E180:E209)</f>
         <v/>
       </c>
-      <c r="I209" s="3">
+      <c r="I209" s="1">
         <f>G209-H209</f>
         <v/>
       </c>
@@ -7542,26 +7536,26 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>10905.3</v>
+        <v>10516.45</v>
       </c>
       <c r="C210" t="n">
-        <v>10969.22</v>
+        <v>10566.37</v>
       </c>
       <c r="D210" t="n">
-        <v>10905.3</v>
+        <v>10500.97</v>
       </c>
       <c r="E210" t="n">
-        <v>10906.22</v>
-      </c>
-      <c r="G210" s="3">
+        <v>10529.37</v>
+      </c>
+      <c r="G210" s="1">
         <f>AVERAGE(E206:E210)</f>
         <v/>
       </c>
-      <c r="H210" s="3">
+      <c r="H210" s="1">
         <f>AVERAGE(E181:E210)</f>
         <v/>
       </c>
-      <c r="I210" s="3">
+      <c r="I210" s="1">
         <f>G210-H210</f>
         <v/>
       </c>
@@ -7571,26 +7565,26 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>10925.71</v>
+        <v>10581.78</v>
       </c>
       <c r="C211" t="n">
-        <v>10947.16</v>
+        <v>10632.62</v>
       </c>
       <c r="D211" t="n">
-        <v>10905.69</v>
+        <v>10555.56</v>
       </c>
       <c r="E211" t="n">
-        <v>10919.49</v>
-      </c>
-      <c r="G211" s="3">
+        <v>10604.91</v>
+      </c>
+      <c r="G211" s="1">
         <f>AVERAGE(E207:E211)</f>
         <v/>
       </c>
-      <c r="H211" s="3">
+      <c r="H211" s="1">
         <f>AVERAGE(E182:E211)</f>
         <v/>
       </c>
-      <c r="I211" s="3">
+      <c r="I211" s="1">
         <f>G211-H211</f>
         <v/>
       </c>
@@ -7600,26 +7594,26 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>10936.26</v>
+        <v>10610.44</v>
       </c>
       <c r="C212" t="n">
-        <v>10969.88</v>
+        <v>10691.38</v>
       </c>
       <c r="D212" t="n">
-        <v>10882.05</v>
+        <v>10609.04</v>
       </c>
       <c r="E212" t="n">
-        <v>10888.27</v>
-      </c>
-      <c r="G212" s="3">
+        <v>10691.38</v>
+      </c>
+      <c r="G212" s="1">
         <f>AVERAGE(E208:E212)</f>
         <v/>
       </c>
-      <c r="H212" s="3">
+      <c r="H212" s="1">
         <f>AVERAGE(E183:E212)</f>
         <v/>
       </c>
-      <c r="I212" s="3">
+      <c r="I212" s="1">
         <f>G212-H212</f>
         <v/>
       </c>
@@ -7629,26 +7623,26 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>10837.54</v>
+        <v>10692.89</v>
       </c>
       <c r="C213" t="n">
-        <v>10837.54</v>
+        <v>10748.6</v>
       </c>
       <c r="D213" t="n">
-        <v>10775.45</v>
+        <v>10689.81</v>
       </c>
       <c r="E213" t="n">
-        <v>10821.53</v>
-      </c>
-      <c r="G213" s="3">
+        <v>10703.35</v>
+      </c>
+      <c r="G213" s="1">
         <f>AVERAGE(E209:E213)</f>
         <v/>
       </c>
-      <c r="H213" s="3">
+      <c r="H213" s="1">
         <f>AVERAGE(E184:E213)</f>
         <v/>
       </c>
-      <c r="I213" s="3">
+      <c r="I213" s="1">
         <f>G213-H213</f>
         <v/>
       </c>
@@ -7658,26 +7652,26 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>10880.14</v>
+        <v>10731.68</v>
       </c>
       <c r="C214" t="n">
-        <v>10904.75</v>
+        <v>10782.06</v>
       </c>
       <c r="D214" t="n">
-        <v>10829.02</v>
+        <v>10731.68</v>
       </c>
       <c r="E214" t="n">
-        <v>10893.53</v>
-      </c>
-      <c r="G214" s="3">
+        <v>10760.21</v>
+      </c>
+      <c r="G214" s="1">
         <f>AVERAGE(E210:E214)</f>
         <v/>
       </c>
-      <c r="H214" s="3">
+      <c r="H214" s="1">
         <f>AVERAGE(E185:E214)</f>
         <v/>
       </c>
-      <c r="I214" s="3">
+      <c r="I214" s="1">
         <f>G214-H214</f>
         <v/>
       </c>
@@ -7687,26 +7681,26 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>10885.64</v>
+        <v>10808.4</v>
       </c>
       <c r="C215" t="n">
-        <v>10975.67</v>
+        <v>10874.63</v>
       </c>
       <c r="D215" t="n">
-        <v>10874.83</v>
+        <v>10808.4</v>
       </c>
       <c r="E215" t="n">
-        <v>10927.18</v>
-      </c>
-      <c r="G215" s="3">
+        <v>10858.98</v>
+      </c>
+      <c r="G215" s="1">
         <f>AVERAGE(E211:E215)</f>
         <v/>
       </c>
-      <c r="H215" s="3">
+      <c r="H215" s="1">
         <f>AVERAGE(E186:E215)</f>
         <v/>
       </c>
-      <c r="I215" s="3">
+      <c r="I215" s="1">
         <f>G215-H215</f>
         <v/>
       </c>
@@ -7716,26 +7710,26 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>10961.7</v>
+        <v>10938.3</v>
       </c>
       <c r="C216" t="n">
-        <v>11016.35</v>
+        <v>10970.24</v>
       </c>
       <c r="D216" t="n">
-        <v>10953.31</v>
+        <v>10908.86</v>
       </c>
       <c r="E216" t="n">
-        <v>10974.02</v>
-      </c>
-      <c r="G216" s="3">
+        <v>10952.39</v>
+      </c>
+      <c r="G216" s="1">
         <f>AVERAGE(E212:E216)</f>
         <v/>
       </c>
-      <c r="H216" s="3">
+      <c r="H216" s="1">
         <f>AVERAGE(E187:E216)</f>
         <v/>
       </c>
-      <c r="I216" s="3">
+      <c r="I216" s="1">
         <f>G216-H216</f>
         <v/>
       </c>
@@ -7745,26 +7739,26 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>10984.12</v>
+        <v>10965.08</v>
       </c>
       <c r="C217" t="n">
-        <v>11008.2</v>
+        <v>10978.38</v>
       </c>
       <c r="D217" t="n">
-        <v>10920.62</v>
+        <v>10874.73</v>
       </c>
       <c r="E217" t="n">
-        <v>10955.29</v>
-      </c>
-      <c r="G217" s="3">
+        <v>10874.73</v>
+      </c>
+      <c r="G217" s="1">
         <f>AVERAGE(E213:E217)</f>
         <v/>
       </c>
-      <c r="H217" s="3">
+      <c r="H217" s="1">
         <f>AVERAGE(E188:E217)</f>
         <v/>
       </c>
-      <c r="I217" s="3">
+      <c r="I217" s="1">
         <f>G217-H217</f>
         <v/>
       </c>
@@ -7774,26 +7768,26 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>10975.58</v>
+        <v>10873.54</v>
       </c>
       <c r="C218" t="n">
-        <v>10988.23</v>
+        <v>10915.74</v>
       </c>
       <c r="D218" t="n">
-        <v>10938.37</v>
+        <v>10865.07</v>
       </c>
       <c r="E218" t="n">
-        <v>10965.39</v>
-      </c>
-      <c r="G218" s="3">
+        <v>10897.57</v>
+      </c>
+      <c r="G218" s="1">
         <f>AVERAGE(E214:E218)</f>
         <v/>
       </c>
-      <c r="H218" s="3">
+      <c r="H218" s="1">
         <f>AVERAGE(E189:E218)</f>
         <v/>
       </c>
-      <c r="I218" s="3">
+      <c r="I218" s="1">
         <f>G218-H218</f>
         <v/>
       </c>
@@ -7803,26 +7797,26 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>10962.36</v>
+        <v>10911.74</v>
       </c>
       <c r="C219" t="n">
-        <v>10974.94</v>
+        <v>10938.63</v>
       </c>
       <c r="D219" t="n">
-        <v>10921.17</v>
+        <v>10833.81</v>
       </c>
       <c r="E219" t="n">
-        <v>10954.55</v>
-      </c>
-      <c r="G219" s="3">
+        <v>10833.81</v>
+      </c>
+      <c r="G219" s="1">
         <f>AVERAGE(E215:E219)</f>
         <v/>
       </c>
-      <c r="H219" s="3">
+      <c r="H219" s="1">
         <f>AVERAGE(E190:E219)</f>
         <v/>
       </c>
-      <c r="I219" s="3">
+      <c r="I219" s="1">
         <f>G219-H219</f>
         <v/>
       </c>
@@ -7832,26 +7826,26 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>10953.51</v>
+        <v>10844.09</v>
       </c>
       <c r="C220" t="n">
-        <v>10965.2</v>
+        <v>10893.35</v>
       </c>
       <c r="D220" t="n">
-        <v>10799.07</v>
+        <v>10819.07</v>
       </c>
       <c r="E220" t="n">
-        <v>10810.45</v>
-      </c>
-      <c r="G220" s="3">
+        <v>10830.84</v>
+      </c>
+      <c r="G220" s="1">
         <f>AVERAGE(E216:E220)</f>
         <v/>
       </c>
-      <c r="H220" s="3">
+      <c r="H220" s="1">
         <f>AVERAGE(E191:E220)</f>
         <v/>
       </c>
-      <c r="I220" s="3">
+      <c r="I220" s="1">
         <f>G220-H220</f>
         <v/>
       </c>
@@ -7861,26 +7855,26 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>10842.88</v>
+        <v>10861.66</v>
       </c>
       <c r="C221" t="n">
-        <v>10917.6</v>
+        <v>10979.1</v>
       </c>
       <c r="D221" t="n">
-        <v>10809.89</v>
+        <v>10861.66</v>
       </c>
       <c r="E221" t="n">
-        <v>10847.89</v>
-      </c>
-      <c r="G221" s="3">
+        <v>10966.2</v>
+      </c>
+      <c r="G221" s="1">
         <f>AVERAGE(E217:E221)</f>
         <v/>
       </c>
-      <c r="H221" s="3">
+      <c r="H221" s="1">
         <f>AVERAGE(E192:E221)</f>
         <v/>
       </c>
-      <c r="I221" s="3">
+      <c r="I221" s="1">
         <f>G221-H221</f>
         <v/>
       </c>
@@ -7890,26 +7884,26 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>10891.66</v>
+        <v>10986.77</v>
       </c>
       <c r="C222" t="n">
-        <v>10983.96</v>
+        <v>11034.12</v>
       </c>
       <c r="D222" t="n">
-        <v>10889.71</v>
+        <v>10938.73</v>
       </c>
       <c r="E222" t="n">
-        <v>10971.22</v>
-      </c>
-      <c r="G222" s="3">
+        <v>10938.73</v>
+      </c>
+      <c r="G222" s="1">
         <f>AVERAGE(E218:E222)</f>
         <v/>
       </c>
-      <c r="H222" s="3">
+      <c r="H222" s="1">
         <f>AVERAGE(E193:E222)</f>
         <v/>
       </c>
-      <c r="I222" s="3">
+      <c r="I222" s="1">
         <f>G222-H222</f>
         <v/>
       </c>
@@ -7919,26 +7913,26 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>10802.42</v>
+        <v>10974.52</v>
       </c>
       <c r="C223" t="n">
-        <v>10831.56</v>
+        <v>10991.86</v>
       </c>
       <c r="D223" t="n">
-        <v>10770.05</v>
+        <v>10886.18</v>
       </c>
       <c r="E223" t="n">
-        <v>10779.38</v>
-      </c>
-      <c r="G223" s="3">
+        <v>10886.18</v>
+      </c>
+      <c r="G223" s="1">
         <f>AVERAGE(E219:E223)</f>
         <v/>
       </c>
-      <c r="H223" s="3">
+      <c r="H223" s="1">
         <f>AVERAGE(E194:E223)</f>
         <v/>
       </c>
-      <c r="I223" s="3">
+      <c r="I223" s="1">
         <f>G223-H223</f>
         <v/>
       </c>
@@ -7948,26 +7942,26 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>10756.89</v>
+        <v>10910.61</v>
       </c>
       <c r="C224" t="n">
-        <v>10774.73</v>
+        <v>10942.64</v>
       </c>
       <c r="D224" t="n">
-        <v>10687.25</v>
+        <v>10883.52</v>
       </c>
       <c r="E224" t="n">
-        <v>10697.13</v>
-      </c>
-      <c r="G224" s="3">
+        <v>10936.93</v>
+      </c>
+      <c r="G224" s="1">
         <f>AVERAGE(E220:E224)</f>
         <v/>
       </c>
-      <c r="H224" s="3">
+      <c r="H224" s="1">
         <f>AVERAGE(E195:E224)</f>
         <v/>
       </c>
-      <c r="I224" s="3">
+      <c r="I224" s="1">
         <f>G224-H224</f>
         <v/>
       </c>
@@ -7977,26 +7971,26 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>10680.38</v>
+        <v>10946.62</v>
       </c>
       <c r="C225" t="n">
-        <v>10692.19</v>
+        <v>10977.81</v>
       </c>
       <c r="D225" t="n">
-        <v>10540.15</v>
+        <v>10918.12</v>
       </c>
       <c r="E225" t="n">
-        <v>10579.5</v>
-      </c>
-      <c r="G225" s="3">
+        <v>10942.3</v>
+      </c>
+      <c r="G225" s="1">
         <f>AVERAGE(E221:E225)</f>
         <v/>
       </c>
-      <c r="H225" s="3">
+      <c r="H225" s="1">
         <f>AVERAGE(E196:E225)</f>
         <v/>
       </c>
-      <c r="I225" s="3">
+      <c r="I225" s="1">
         <f>G225-H225</f>
         <v/>
       </c>
@@ -8006,26 +8000,26 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>10541.83</v>
+        <v>10976.49</v>
       </c>
       <c r="C226" t="n">
-        <v>10573.73</v>
+        <v>10999.43</v>
       </c>
       <c r="D226" t="n">
-        <v>10489.2</v>
+        <v>10965.18</v>
       </c>
       <c r="E226" t="n">
-        <v>10559.97</v>
-      </c>
-      <c r="G226" s="3">
+        <v>10987.77</v>
+      </c>
+      <c r="G226" s="1">
         <f>AVERAGE(E222:E226)</f>
         <v/>
       </c>
-      <c r="H226" s="3">
+      <c r="H226" s="1">
         <f>AVERAGE(E197:E226)</f>
         <v/>
       </c>
-      <c r="I226" s="3">
+      <c r="I226" s="1">
         <f>G226-H226</f>
         <v/>
       </c>
@@ -8035,26 +8029,26 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>10583.08</v>
+        <v>10979.68</v>
       </c>
       <c r="C227" t="n">
-        <v>10618.68</v>
+        <v>10986.53</v>
       </c>
       <c r="D227" t="n">
-        <v>10478.98</v>
+        <v>10929.56</v>
       </c>
       <c r="E227" t="n">
-        <v>10488.58</v>
-      </c>
-      <c r="G227" s="3">
+        <v>10964.12</v>
+      </c>
+      <c r="G227" s="1">
         <f>AVERAGE(E223:E227)</f>
         <v/>
       </c>
-      <c r="H227" s="3">
+      <c r="H227" s="1">
         <f>AVERAGE(E198:E227)</f>
         <v/>
       </c>
-      <c r="I227" s="3">
+      <c r="I227" s="1">
         <f>G227-H227</f>
         <v/>
       </c>
@@ -8064,26 +8058,26 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>10546.29</v>
+        <v>10925.21</v>
       </c>
       <c r="C228" t="n">
-        <v>10573.61</v>
+        <v>10925.21</v>
       </c>
       <c r="D228" t="n">
-        <v>10495.67</v>
+        <v>10799.75</v>
       </c>
       <c r="E228" t="n">
-        <v>10553.43</v>
-      </c>
-      <c r="G228" s="3">
+        <v>10821.17</v>
+      </c>
+      <c r="G228" s="1">
         <f>AVERAGE(E224:E228)</f>
         <v/>
       </c>
-      <c r="H228" s="3">
+      <c r="H228" s="1">
         <f>AVERAGE(E199:E228)</f>
         <v/>
       </c>
-      <c r="I228" s="3">
+      <c r="I228" s="1">
         <f>G228-H228</f>
         <v/>
       </c>
@@ -8093,26 +8087,26 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>10553.41</v>
+        <v>10856.03</v>
       </c>
       <c r="C229" t="n">
-        <v>10660.61</v>
+        <v>10909.61</v>
       </c>
       <c r="D229" t="n">
-        <v>10539.63</v>
+        <v>10853.65</v>
       </c>
       <c r="E229" t="n">
-        <v>10657.88</v>
-      </c>
-      <c r="G229" s="3">
+        <v>10874.96</v>
+      </c>
+      <c r="G229" s="1">
         <f>AVERAGE(E225:E229)</f>
         <v/>
       </c>
-      <c r="H229" s="3">
+      <c r="H229" s="1">
         <f>AVERAGE(E200:E229)</f>
         <v/>
       </c>
-      <c r="I229" s="3">
+      <c r="I229" s="1">
         <f>G229-H229</f>
         <v/>
       </c>
@@ -8122,26 +8116,26 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>10665.52</v>
+        <v>10882.68</v>
       </c>
       <c r="C230" t="n">
-        <v>10683.9</v>
+        <v>10954.67</v>
       </c>
       <c r="D230" t="n">
-        <v>10601.1</v>
+        <v>10876.97</v>
       </c>
       <c r="E230" t="n">
-        <v>10618.81</v>
-      </c>
-      <c r="G230" s="3">
+        <v>10949.08</v>
+      </c>
+      <c r="G230" s="1">
         <f>AVERAGE(E226:E230)</f>
         <v/>
       </c>
-      <c r="H230" s="3">
+      <c r="H230" s="1">
         <f>AVERAGE(E201:E230)</f>
         <v/>
       </c>
-      <c r="I230" s="3">
+      <c r="I230" s="1">
         <f>G230-H230</f>
         <v/>
       </c>
@@ -8151,26 +8145,26 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>10578.98</v>
+        <v>11002.15</v>
       </c>
       <c r="C231" t="n">
-        <v>10578.98</v>
+        <v>11109.5</v>
       </c>
       <c r="D231" t="n">
-        <v>10509.03</v>
+        <v>11002.15</v>
       </c>
       <c r="E231" t="n">
-        <v>10514.18</v>
-      </c>
-      <c r="G231" s="3">
+        <v>11109.5</v>
+      </c>
+      <c r="G231" s="1">
         <f>AVERAGE(E227:E231)</f>
         <v/>
       </c>
-      <c r="H231" s="3">
+      <c r="H231" s="1">
         <f>AVERAGE(E202:E231)</f>
         <v/>
       </c>
-      <c r="I231" s="3">
+      <c r="I231" s="1">
         <f>G231-H231</f>
         <v/>
       </c>
@@ -8180,26 +8174,26 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>10516.45</v>
+        <v>11130.03</v>
       </c>
       <c r="C232" t="n">
-        <v>10566.37</v>
+        <v>11131.08</v>
       </c>
       <c r="D232" t="n">
-        <v>10500.97</v>
+        <v>11054.62</v>
       </c>
       <c r="E232" t="n">
-        <v>10529.37</v>
-      </c>
-      <c r="G232" s="3">
+        <v>11100.11</v>
+      </c>
+      <c r="G232" s="1">
         <f>AVERAGE(E228:E232)</f>
         <v/>
       </c>
-      <c r="H232" s="3">
+      <c r="H232" s="1">
         <f>AVERAGE(E203:E232)</f>
         <v/>
       </c>
-      <c r="I232" s="3">
+      <c r="I232" s="1">
         <f>G232-H232</f>
         <v/>
       </c>
@@ -8209,26 +8203,26 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>10581.78</v>
+        <v>11111.14</v>
       </c>
       <c r="C233" t="n">
-        <v>10632.62</v>
+        <v>11207.15</v>
       </c>
       <c r="D233" t="n">
-        <v>10555.56</v>
+        <v>11111.14</v>
       </c>
       <c r="E233" t="n">
-        <v>10604.91</v>
-      </c>
-      <c r="G233" s="3">
+        <v>11201.83</v>
+      </c>
+      <c r="G233" s="1">
         <f>AVERAGE(E229:E233)</f>
         <v/>
       </c>
-      <c r="H233" s="3">
+      <c r="H233" s="1">
         <f>AVERAGE(E204:E233)</f>
         <v/>
       </c>
-      <c r="I233" s="3">
+      <c r="I233" s="1">
         <f>G233-H233</f>
         <v/>
       </c>
@@ -8238,26 +8232,26 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>10610.44</v>
+        <v>11228.64</v>
       </c>
       <c r="C234" t="n">
-        <v>10691.38</v>
+        <v>11261.68</v>
       </c>
       <c r="D234" t="n">
-        <v>10609.04</v>
+        <v>11188.99</v>
       </c>
       <c r="E234" t="n">
-        <v>10691.38</v>
-      </c>
-      <c r="G234" s="3">
+        <v>11251.75</v>
+      </c>
+      <c r="G234" s="1">
         <f>AVERAGE(E230:E234)</f>
         <v/>
       </c>
-      <c r="H234" s="3">
+      <c r="H234" s="1">
         <f>AVERAGE(E205:E234)</f>
         <v/>
       </c>
-      <c r="I234" s="3">
+      <c r="I234" s="1">
         <f>G234-H234</f>
         <v/>
       </c>
@@ -8267,26 +8261,26 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>10692.89</v>
+        <v>11243.59</v>
       </c>
       <c r="C235" t="n">
-        <v>10748.6</v>
+        <v>11243.59</v>
       </c>
       <c r="D235" t="n">
-        <v>10689.81</v>
+        <v>11122.98</v>
       </c>
       <c r="E235" t="n">
-        <v>10703.35</v>
-      </c>
-      <c r="G235" s="3">
+        <v>11156.42</v>
+      </c>
+      <c r="G235" s="1">
         <f>AVERAGE(E231:E235)</f>
         <v/>
       </c>
-      <c r="H235" s="3">
+      <c r="H235" s="1">
         <f>AVERAGE(E206:E235)</f>
         <v/>
       </c>
-      <c r="I235" s="3">
+      <c r="I235" s="1">
         <f>G235-H235</f>
         <v/>
       </c>
@@ -8296,26 +8290,26 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>10731.68</v>
+        <v>11168.99</v>
       </c>
       <c r="C236" t="n">
-        <v>10782.06</v>
+        <v>11186.67</v>
       </c>
       <c r="D236" t="n">
-        <v>10731.68</v>
+        <v>11118.81</v>
       </c>
       <c r="E236" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G236" s="3">
+        <v>11149.23</v>
+      </c>
+      <c r="G236" s="1">
         <f>AVERAGE(E232:E236)</f>
         <v/>
       </c>
-      <c r="H236" s="3">
+      <c r="H236" s="1">
         <f>AVERAGE(E207:E236)</f>
         <v/>
       </c>
-      <c r="I236" s="3">
+      <c r="I236" s="1">
         <f>G236-H236</f>
         <v/>
       </c>
@@ -8325,26 +8319,26 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>10808.4</v>
+        <v>11140.02</v>
       </c>
       <c r="C237" t="n">
-        <v>10874.63</v>
+        <v>11160.05</v>
       </c>
       <c r="D237" t="n">
-        <v>10808.4</v>
+        <v>11088.53</v>
       </c>
       <c r="E237" t="n">
-        <v>10858.98</v>
-      </c>
-      <c r="G237" s="3">
+        <v>11144.79</v>
+      </c>
+      <c r="G237" s="1">
         <f>AVERAGE(E233:E237)</f>
         <v/>
       </c>
-      <c r="H237" s="3">
+      <c r="H237" s="1">
         <f>AVERAGE(E208:E237)</f>
         <v/>
       </c>
-      <c r="I237" s="3">
+      <c r="I237" s="1">
         <f>G237-H237</f>
         <v/>
       </c>
@@ -8354,26 +8348,26 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>10938.3</v>
+        <v>11153.2</v>
       </c>
       <c r="C238" t="n">
-        <v>10970.24</v>
+        <v>11188.01</v>
       </c>
       <c r="D238" t="n">
-        <v>10908.86</v>
+        <v>11119.24</v>
       </c>
       <c r="E238" t="n">
-        <v>10952.39</v>
-      </c>
-      <c r="G238" s="3">
+        <v>11173.21</v>
+      </c>
+      <c r="G238" s="1">
         <f>AVERAGE(E234:E238)</f>
         <v/>
       </c>
-      <c r="H238" s="3">
+      <c r="H238" s="1">
         <f>AVERAGE(E209:E238)</f>
         <v/>
       </c>
-      <c r="I238" s="3">
+      <c r="I238" s="1">
         <f>G238-H238</f>
         <v/>
       </c>
@@ -8383,26 +8377,26 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>10965.08</v>
+        <v>11143.04</v>
       </c>
       <c r="C239" t="n">
-        <v>10978.38</v>
+        <v>11143.04</v>
       </c>
       <c r="D239" t="n">
-        <v>10874.73</v>
+        <v>11013.98</v>
       </c>
       <c r="E239" t="n">
-        <v>10874.73</v>
-      </c>
-      <c r="G239" s="3">
+        <v>11013.98</v>
+      </c>
+      <c r="G239" s="1">
         <f>AVERAGE(E235:E239)</f>
         <v/>
       </c>
-      <c r="H239" s="3">
+      <c r="H239" s="1">
         <f>AVERAGE(E210:E239)</f>
         <v/>
       </c>
-      <c r="I239" s="3">
+      <c r="I239" s="1">
         <f>G239-H239</f>
         <v/>
       </c>
@@ -8412,26 +8406,26 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>10873.54</v>
+        <v>10998.2</v>
       </c>
       <c r="C240" t="n">
-        <v>10915.74</v>
+        <v>11087.47</v>
       </c>
       <c r="D240" t="n">
-        <v>10865.07</v>
+        <v>10981.61</v>
       </c>
       <c r="E240" t="n">
-        <v>10897.57</v>
-      </c>
-      <c r="G240" s="3">
+        <v>11087.47</v>
+      </c>
+      <c r="G240" s="1">
         <f>AVERAGE(E236:E240)</f>
         <v/>
       </c>
-      <c r="H240" s="3">
+      <c r="H240" s="1">
         <f>AVERAGE(E211:E240)</f>
         <v/>
       </c>
-      <c r="I240" s="3">
+      <c r="I240" s="1">
         <f>G240-H240</f>
         <v/>
       </c>
@@ -8441,26 +8435,26 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>10911.74</v>
+        <v>11008.77</v>
       </c>
       <c r="C241" t="n">
-        <v>10938.63</v>
+        <v>11008.77</v>
       </c>
       <c r="D241" t="n">
-        <v>10833.81</v>
+        <v>10904.19</v>
       </c>
       <c r="E241" t="n">
-        <v>10833.81</v>
-      </c>
-      <c r="G241" s="3">
+        <v>10904.19</v>
+      </c>
+      <c r="G241" s="1">
         <f>AVERAGE(E237:E241)</f>
         <v/>
       </c>
-      <c r="H241" s="3">
+      <c r="H241" s="1">
         <f>AVERAGE(E212:E241)</f>
         <v/>
       </c>
-      <c r="I241" s="3">
+      <c r="I241" s="1">
         <f>G241-H241</f>
         <v/>
       </c>
@@ -8470,26 +8464,26 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>10844.09</v>
+        <v>10904.8</v>
       </c>
       <c r="C242" t="n">
-        <v>10893.35</v>
+        <v>10969.2</v>
       </c>
       <c r="D242" t="n">
-        <v>10819.07</v>
+        <v>10842.56</v>
       </c>
       <c r="E242" t="n">
-        <v>10830.84</v>
-      </c>
-      <c r="G242" s="3">
+        <v>10927.44</v>
+      </c>
+      <c r="G242" s="1">
         <f>AVERAGE(E238:E242)</f>
         <v/>
       </c>
-      <c r="H242" s="3">
+      <c r="H242" s="1">
         <f>AVERAGE(E213:E242)</f>
         <v/>
       </c>
-      <c r="I242" s="3">
+      <c r="I242" s="1">
         <f>G242-H242</f>
         <v/>
       </c>
@@ -8499,26 +8493,26 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>10861.66</v>
+        <v>10949.85</v>
       </c>
       <c r="C243" t="n">
-        <v>10979.1</v>
+        <v>10992.31</v>
       </c>
       <c r="D243" t="n">
-        <v>10861.66</v>
+        <v>10941.07</v>
       </c>
       <c r="E243" t="n">
-        <v>10966.2</v>
-      </c>
-      <c r="G243" s="3">
+        <v>10941.07</v>
+      </c>
+      <c r="G243" s="1">
         <f>AVERAGE(E239:E243)</f>
         <v/>
       </c>
-      <c r="H243" s="3">
+      <c r="H243" s="1">
         <f>AVERAGE(E214:E243)</f>
         <v/>
       </c>
-      <c r="I243" s="3">
+      <c r="I243" s="1">
         <f>G243-H243</f>
         <v/>
       </c>
@@ -8528,26 +8522,26 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>10986.77</v>
+        <v>10901.25</v>
       </c>
       <c r="C244" t="n">
-        <v>11034.12</v>
+        <v>10914.83</v>
       </c>
       <c r="D244" t="n">
-        <v>10938.73</v>
+        <v>10828.86</v>
       </c>
       <c r="E244" t="n">
-        <v>10938.73</v>
-      </c>
-      <c r="G244" s="3">
+        <v>10899.28</v>
+      </c>
+      <c r="G244" s="1">
         <f>AVERAGE(E240:E244)</f>
         <v/>
       </c>
-      <c r="H244" s="3">
+      <c r="H244" s="1">
         <f>AVERAGE(E215:E244)</f>
         <v/>
       </c>
-      <c r="I244" s="3">
+      <c r="I244" s="1">
         <f>G244-H244</f>
         <v/>
       </c>
@@ -8557,26 +8551,26 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>10974.52</v>
+        <v>10834.07</v>
       </c>
       <c r="C245" t="n">
-        <v>10991.86</v>
+        <v>10851.16</v>
       </c>
       <c r="D245" t="n">
-        <v>10886.18</v>
+        <v>10786.46</v>
       </c>
       <c r="E245" t="n">
-        <v>10886.18</v>
-      </c>
-      <c r="G245" s="3">
+        <v>10786.46</v>
+      </c>
+      <c r="G245" s="1">
         <f>AVERAGE(E241:E245)</f>
         <v/>
       </c>
-      <c r="H245" s="3">
+      <c r="H245" s="1">
         <f>AVERAGE(E216:E245)</f>
         <v/>
       </c>
-      <c r="I245" s="3">
+      <c r="I245" s="1">
         <f>G245-H245</f>
         <v/>
       </c>
@@ -8586,26 +8580,26 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>10910.61</v>
+        <v>10730.9</v>
       </c>
       <c r="C246" t="n">
-        <v>10942.64</v>
+        <v>10752.99</v>
       </c>
       <c r="D246" t="n">
-        <v>10883.52</v>
+        <v>10651.42</v>
       </c>
       <c r="E246" t="n">
-        <v>10936.93</v>
-      </c>
-      <c r="G246" s="3">
+        <v>10742.17</v>
+      </c>
+      <c r="G246" s="1">
         <f>AVERAGE(E242:E246)</f>
         <v/>
       </c>
-      <c r="H246" s="3">
+      <c r="H246" s="1">
         <f>AVERAGE(E217:E246)</f>
         <v/>
       </c>
-      <c r="I246" s="3">
+      <c r="I246" s="1">
         <f>G246-H246</f>
         <v/>
       </c>
@@ -8615,26 +8609,26 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>10946.62</v>
+        <v>10766.88</v>
       </c>
       <c r="C247" t="n">
-        <v>10977.81</v>
+        <v>10800.34</v>
       </c>
       <c r="D247" t="n">
-        <v>10918.12</v>
+        <v>10701.03</v>
       </c>
       <c r="E247" t="n">
-        <v>10942.3</v>
-      </c>
-      <c r="G247" s="3">
+        <v>10701.03</v>
+      </c>
+      <c r="G247" s="1">
         <f>AVERAGE(E243:E247)</f>
         <v/>
       </c>
-      <c r="H247" s="3">
+      <c r="H247" s="1">
         <f>AVERAGE(E218:E247)</f>
         <v/>
       </c>
-      <c r="I247" s="3">
+      <c r="I247" s="1">
         <f>G247-H247</f>
         <v/>
       </c>
@@ -8644,26 +8638,26 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>10976.49</v>
+        <v>10669.42</v>
       </c>
       <c r="C248" t="n">
-        <v>10999.43</v>
+        <v>10723.84</v>
       </c>
       <c r="D248" t="n">
-        <v>10965.18</v>
+        <v>10633.01</v>
       </c>
       <c r="E248" t="n">
-        <v>10987.77</v>
-      </c>
-      <c r="G248" s="3">
+        <v>10654.28</v>
+      </c>
+      <c r="G248" s="1">
         <f>AVERAGE(E244:E248)</f>
         <v/>
       </c>
-      <c r="H248" s="3">
+      <c r="H248" s="1">
         <f>AVERAGE(E219:E248)</f>
         <v/>
       </c>
-      <c r="I248" s="3">
+      <c r="I248" s="1">
         <f>G248-H248</f>
         <v/>
       </c>
@@ -8673,26 +8667,26 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>10979.68</v>
+        <v>10667.64</v>
       </c>
       <c r="C249" t="n">
-        <v>10986.53</v>
+        <v>10836.91</v>
       </c>
       <c r="D249" t="n">
-        <v>10929.56</v>
+        <v>10667.64</v>
       </c>
       <c r="E249" t="n">
-        <v>10964.12</v>
-      </c>
-      <c r="G249" s="3">
+        <v>10836.91</v>
+      </c>
+      <c r="G249" s="1">
         <f>AVERAGE(E245:E249)</f>
         <v/>
       </c>
-      <c r="H249" s="3">
+      <c r="H249" s="1">
         <f>AVERAGE(E220:E249)</f>
         <v/>
       </c>
-      <c r="I249" s="3">
+      <c r="I249" s="1">
         <f>G249-H249</f>
         <v/>
       </c>
@@ -8702,26 +8696,26 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>10925.21</v>
+        <v>10852.17</v>
       </c>
       <c r="C250" t="n">
-        <v>10925.21</v>
+        <v>10886.2</v>
       </c>
       <c r="D250" t="n">
-        <v>10799.75</v>
+        <v>10777.94</v>
       </c>
       <c r="E250" t="n">
-        <v>10821.17</v>
-      </c>
-      <c r="G250" s="3">
+        <v>10777.94</v>
+      </c>
+      <c r="G250" s="1">
         <f>AVERAGE(E246:E250)</f>
         <v/>
       </c>
-      <c r="H250" s="3">
+      <c r="H250" s="1">
         <f>AVERAGE(E221:E250)</f>
         <v/>
       </c>
-      <c r="I250" s="3">
+      <c r="I250" s="1">
         <f>G250-H250</f>
         <v/>
       </c>
@@ -8731,26 +8725,26 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>10856.03</v>
+        <v>10802.88</v>
       </c>
       <c r="C251" t="n">
-        <v>10909.61</v>
+        <v>10873.48</v>
       </c>
       <c r="D251" t="n">
-        <v>10853.65</v>
+        <v>10707.68</v>
       </c>
       <c r="E251" t="n">
-        <v>10874.96</v>
-      </c>
-      <c r="G251" s="3">
+        <v>10715.72</v>
+      </c>
+      <c r="G251" s="1">
         <f>AVERAGE(E247:E251)</f>
         <v/>
       </c>
-      <c r="H251" s="3">
+      <c r="H251" s="1">
         <f>AVERAGE(E222:E251)</f>
         <v/>
       </c>
-      <c r="I251" s="3">
+      <c r="I251" s="1">
         <f>G251-H251</f>
         <v/>
       </c>
@@ -8760,26 +8754,26 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>10882.68</v>
+        <v>10714.25</v>
       </c>
       <c r="C252" t="n">
-        <v>10954.67</v>
+        <v>10752.05</v>
       </c>
       <c r="D252" t="n">
-        <v>10876.97</v>
+        <v>10680.44</v>
       </c>
       <c r="E252" t="n">
-        <v>10949.08</v>
-      </c>
-      <c r="G252" s="3">
+        <v>10721.87</v>
+      </c>
+      <c r="G252" s="1">
         <f>AVERAGE(E248:E252)</f>
         <v/>
       </c>
-      <c r="H252" s="3">
+      <c r="H252" s="1">
         <f>AVERAGE(E223:E252)</f>
         <v/>
       </c>
-      <c r="I252" s="3">
+      <c r="I252" s="1">
         <f>G252-H252</f>
         <v/>
       </c>
@@ -8789,26 +8783,26 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>11002.15</v>
+        <v>10690.91</v>
       </c>
       <c r="C253" t="n">
-        <v>11109.5</v>
+        <v>10709.8</v>
       </c>
       <c r="D253" t="n">
-        <v>11002.15</v>
+        <v>10585.27</v>
       </c>
       <c r="E253" t="n">
-        <v>11109.5</v>
-      </c>
-      <c r="G253" s="3">
+        <v>10611.81</v>
+      </c>
+      <c r="G253" s="1">
         <f>AVERAGE(E249:E253)</f>
         <v/>
       </c>
-      <c r="H253" s="3">
+      <c r="H253" s="1">
         <f>AVERAGE(E224:E253)</f>
         <v/>
       </c>
-      <c r="I253" s="3">
+      <c r="I253" s="1">
         <f>G253-H253</f>
         <v/>
       </c>
@@ -8818,26 +8812,26 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>11130.03</v>
+        <v>10645.66</v>
       </c>
       <c r="C254" t="n">
-        <v>11131.08</v>
+        <v>10665.72</v>
       </c>
       <c r="D254" t="n">
-        <v>11054.62</v>
+        <v>10523.58</v>
       </c>
       <c r="E254" t="n">
-        <v>11100.11</v>
-      </c>
-      <c r="G254" s="3">
+        <v>10608.57</v>
+      </c>
+      <c r="G254" s="1">
         <f>AVERAGE(E250:E254)</f>
         <v/>
       </c>
-      <c r="H254" s="3">
+      <c r="H254" s="1">
         <f>AVERAGE(E225:E254)</f>
         <v/>
       </c>
-      <c r="I254" s="3">
+      <c r="I254" s="1">
         <f>G254-H254</f>
         <v/>
       </c>
@@ -8847,26 +8841,26 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>11111.14</v>
+        <v>10638.9</v>
       </c>
       <c r="C255" t="n">
-        <v>11207.15</v>
+        <v>10746.74</v>
       </c>
       <c r="D255" t="n">
-        <v>11111.14</v>
+        <v>10638.9</v>
       </c>
       <c r="E255" t="n">
-        <v>11201.83</v>
-      </c>
-      <c r="G255" s="3">
+        <v>10720.28</v>
+      </c>
+      <c r="G255" s="1">
         <f>AVERAGE(E251:E255)</f>
         <v/>
       </c>
-      <c r="H255" s="3">
+      <c r="H255" s="1">
         <f>AVERAGE(E226:E255)</f>
         <v/>
       </c>
-      <c r="I255" s="3">
+      <c r="I255" s="1">
         <f>G255-H255</f>
         <v/>
       </c>
@@ -8876,26 +8870,26 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>11228.64</v>
+        <v>10737.62</v>
       </c>
       <c r="C256" t="n">
-        <v>11261.68</v>
+        <v>10776.47</v>
       </c>
       <c r="D256" t="n">
-        <v>11188.99</v>
+        <v>10728.24</v>
       </c>
       <c r="E256" t="n">
-        <v>11251.75</v>
-      </c>
-      <c r="G256" s="3">
+        <v>10756.89</v>
+      </c>
+      <c r="G256" s="1">
         <f>AVERAGE(E252:E256)</f>
         <v/>
       </c>
-      <c r="H256" s="3">
+      <c r="H256" s="1">
         <f>AVERAGE(E227:E256)</f>
         <v/>
       </c>
-      <c r="I256" s="3">
+      <c r="I256" s="1">
         <f>G256-H256</f>
         <v/>
       </c>
@@ -8905,26 +8899,26 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>11243.59</v>
+        <v>10693.64</v>
       </c>
       <c r="C257" t="n">
-        <v>11243.59</v>
+        <v>10693.64</v>
       </c>
       <c r="D257" t="n">
-        <v>11122.98</v>
+        <v>10635.03</v>
       </c>
       <c r="E257" t="n">
-        <v>11156.42</v>
-      </c>
-      <c r="G257" s="3">
+        <v>10676.84</v>
+      </c>
+      <c r="G257" s="1">
         <f>AVERAGE(E253:E257)</f>
         <v/>
       </c>
-      <c r="H257" s="3">
+      <c r="H257" s="1">
         <f>AVERAGE(E228:E257)</f>
         <v/>
       </c>
-      <c r="I257" s="3">
+      <c r="I257" s="1">
         <f>G257-H257</f>
         <v/>
       </c>
@@ -8934,26 +8928,26 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>11168.99</v>
+        <v>10644.91</v>
       </c>
       <c r="C258" t="n">
-        <v>11186.67</v>
+        <v>10752.57</v>
       </c>
       <c r="D258" t="n">
-        <v>11118.81</v>
+        <v>10643.65</v>
       </c>
       <c r="E258" t="n">
-        <v>11149.23</v>
-      </c>
-      <c r="G258" s="3">
+        <v>10738.38</v>
+      </c>
+      <c r="G258" s="1">
         <f>AVERAGE(E254:E258)</f>
         <v/>
       </c>
-      <c r="H258" s="3">
+      <c r="H258" s="1">
         <f>AVERAGE(E229:E258)</f>
         <v/>
       </c>
-      <c r="I258" s="3">
+      <c r="I258" s="1">
         <f>G258-H258</f>
         <v/>
       </c>
@@ -8963,26 +8957,26 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>11140.02</v>
+        <v>10769.7</v>
       </c>
       <c r="C259" t="n">
-        <v>11160.05</v>
+        <v>10864.54</v>
       </c>
       <c r="D259" t="n">
-        <v>11088.53</v>
+        <v>10769.7</v>
       </c>
       <c r="E259" t="n">
-        <v>11144.79</v>
-      </c>
-      <c r="G259" s="3">
+        <v>10864.54</v>
+      </c>
+      <c r="G259" s="1">
         <f>AVERAGE(E255:E259)</f>
         <v/>
       </c>
-      <c r="H259" s="3">
+      <c r="H259" s="1">
         <f>AVERAGE(E230:E259)</f>
         <v/>
       </c>
-      <c r="I259" s="3">
+      <c r="I259" s="1">
         <f>G259-H259</f>
         <v/>
       </c>
@@ -8992,26 +8986,26 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>11153.2</v>
+        <v>10867.97</v>
       </c>
       <c r="C260" t="n">
-        <v>11188.01</v>
+        <v>10890.2</v>
       </c>
       <c r="D260" t="n">
-        <v>11119.24</v>
+        <v>10817.45</v>
       </c>
       <c r="E260" t="n">
-        <v>11173.21</v>
-      </c>
-      <c r="G260" s="3">
+        <v>10817.45</v>
+      </c>
+      <c r="G260" s="1">
         <f>AVERAGE(E256:E260)</f>
         <v/>
       </c>
-      <c r="H260" s="3">
+      <c r="H260" s="1">
         <f>AVERAGE(E231:E260)</f>
         <v/>
       </c>
-      <c r="I260" s="3">
+      <c r="I260" s="1">
         <f>G260-H260</f>
         <v/>
       </c>
@@ -9021,26 +9015,26 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>11143.04</v>
+        <v>10802.75</v>
       </c>
       <c r="C261" t="n">
-        <v>11143.04</v>
+        <v>10818.84</v>
       </c>
       <c r="D261" t="n">
-        <v>11013.98</v>
+        <v>10758.83</v>
       </c>
       <c r="E261" t="n">
-        <v>11013.98</v>
-      </c>
-      <c r="G261" s="3">
+        <v>10778.99</v>
+      </c>
+      <c r="G261" s="1">
         <f>AVERAGE(E257:E261)</f>
         <v/>
       </c>
-      <c r="H261" s="3">
+      <c r="H261" s="1">
         <f>AVERAGE(E232:E261)</f>
         <v/>
       </c>
-      <c r="I261" s="3">
+      <c r="I261" s="1">
         <f>G261-H261</f>
         <v/>
       </c>
@@ -9050,26 +9044,26 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>10998.2</v>
+        <v>10811.43</v>
       </c>
       <c r="C262" t="n">
-        <v>11087.47</v>
+        <v>10872.74</v>
       </c>
       <c r="D262" t="n">
-        <v>10981.61</v>
+        <v>10788.37</v>
       </c>
       <c r="E262" t="n">
-        <v>11087.47</v>
-      </c>
-      <c r="G262" s="3">
+        <v>10842.46</v>
+      </c>
+      <c r="G262" s="1">
         <f>AVERAGE(E258:E262)</f>
         <v/>
       </c>
-      <c r="H262" s="3">
+      <c r="H262" s="1">
         <f>AVERAGE(E233:E262)</f>
         <v/>
       </c>
-      <c r="I262" s="3">
+      <c r="I262" s="1">
         <f>G262-H262</f>
         <v/>
       </c>
@@ -9079,26 +9073,26 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>11008.77</v>
+        <v>10868.56</v>
       </c>
       <c r="C263" t="n">
-        <v>11008.77</v>
+        <v>10896.25</v>
       </c>
       <c r="D263" t="n">
-        <v>10904.19</v>
+        <v>10826.14</v>
       </c>
       <c r="E263" t="n">
-        <v>10904.19</v>
-      </c>
-      <c r="G263" s="3">
+        <v>10835.38</v>
+      </c>
+      <c r="G263" s="1">
         <f>AVERAGE(E259:E263)</f>
         <v/>
       </c>
-      <c r="H263" s="3">
+      <c r="H263" s="1">
         <f>AVERAGE(E234:E263)</f>
         <v/>
       </c>
-      <c r="I263" s="3">
+      <c r="I263" s="1">
         <f>G263-H263</f>
         <v/>
       </c>
@@ -9108,26 +9102,26 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>10904.8</v>
+        <v>10932.51</v>
       </c>
       <c r="C264" t="n">
-        <v>10969.2</v>
+        <v>10963.95</v>
       </c>
       <c r="D264" t="n">
-        <v>10842.56</v>
+        <v>10893.73</v>
       </c>
       <c r="E264" t="n">
-        <v>10927.44</v>
-      </c>
-      <c r="G264" s="3">
+        <v>10932.11</v>
+      </c>
+      <c r="G264" s="1">
         <f>AVERAGE(E260:E264)</f>
         <v/>
       </c>
-      <c r="H264" s="3">
+      <c r="H264" s="1">
         <f>AVERAGE(E235:E264)</f>
         <v/>
       </c>
-      <c r="I264" s="3">
+      <c r="I264" s="1">
         <f>G264-H264</f>
         <v/>
       </c>
@@ -9137,26 +9131,26 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>10949.85</v>
+        <v>10929.46</v>
       </c>
       <c r="C265" t="n">
-        <v>10992.31</v>
+        <v>10984.84</v>
       </c>
       <c r="D265" t="n">
-        <v>10941.07</v>
+        <v>10901.75</v>
       </c>
       <c r="E265" t="n">
-        <v>10941.07</v>
-      </c>
-      <c r="G265" s="3">
+        <v>10946.89</v>
+      </c>
+      <c r="G265" s="1">
         <f>AVERAGE(E261:E265)</f>
         <v/>
       </c>
-      <c r="H265" s="3">
+      <c r="H265" s="1">
         <f>AVERAGE(E236:E265)</f>
         <v/>
       </c>
-      <c r="I265" s="3">
+      <c r="I265" s="1">
         <f>G265-H265</f>
         <v/>
       </c>
@@ -9166,26 +9160,26 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>10901.25</v>
+        <v>10937.77</v>
       </c>
       <c r="C266" t="n">
-        <v>10914.83</v>
+        <v>10995.39</v>
       </c>
       <c r="D266" t="n">
-        <v>10828.86</v>
+        <v>10917.61</v>
       </c>
       <c r="E266" t="n">
-        <v>10899.28</v>
-      </c>
-      <c r="G266" s="3">
+        <v>10995.39</v>
+      </c>
+      <c r="G266" s="1">
         <f>AVERAGE(E262:E266)</f>
         <v/>
       </c>
-      <c r="H266" s="3">
+      <c r="H266" s="1">
         <f>AVERAGE(E237:E266)</f>
         <v/>
       </c>
-      <c r="I266" s="3">
+      <c r="I266" s="1">
         <f>G266-H266</f>
         <v/>
       </c>
@@ -9195,26 +9189,26 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>10834.07</v>
+        <v>10957.66</v>
       </c>
       <c r="C267" t="n">
-        <v>10851.16</v>
+        <v>10992.29</v>
       </c>
       <c r="D267" t="n">
-        <v>10786.46</v>
+        <v>10956</v>
       </c>
       <c r="E267" t="n">
-        <v>10786.46</v>
-      </c>
-      <c r="G267" s="3">
+        <v>10965.79</v>
+      </c>
+      <c r="G267" s="1">
         <f>AVERAGE(E263:E267)</f>
         <v/>
       </c>
-      <c r="H267" s="3">
+      <c r="H267" s="1">
         <f>AVERAGE(E238:E267)</f>
         <v/>
       </c>
-      <c r="I267" s="3">
+      <c r="I267" s="1">
         <f>G267-H267</f>
         <v/>
       </c>
@@ -9224,26 +9218,26 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>10730.9</v>
+        <v>10969.35</v>
       </c>
       <c r="C268" t="n">
-        <v>10752.99</v>
+        <v>11018.19</v>
       </c>
       <c r="D268" t="n">
-        <v>10651.42</v>
+        <v>10966.33</v>
       </c>
       <c r="E268" t="n">
-        <v>10742.17</v>
-      </c>
-      <c r="G268" s="3">
+        <v>11010.61</v>
+      </c>
+      <c r="G268" s="1">
         <f>AVERAGE(E264:E268)</f>
         <v/>
       </c>
-      <c r="H268" s="3">
+      <c r="H268" s="1">
         <f>AVERAGE(E239:E268)</f>
         <v/>
       </c>
-      <c r="I268" s="3">
+      <c r="I268" s="1">
         <f>G268-H268</f>
         <v/>
       </c>
@@ -9253,26 +9247,26 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>10766.88</v>
+        <v>11023.07</v>
       </c>
       <c r="C269" t="n">
-        <v>10800.34</v>
+        <v>11075.78</v>
       </c>
       <c r="D269" t="n">
-        <v>10701.03</v>
+        <v>11009.16</v>
       </c>
       <c r="E269" t="n">
-        <v>10701.03</v>
-      </c>
-      <c r="G269" s="3">
+        <v>11075.78</v>
+      </c>
+      <c r="G269" s="1">
         <f>AVERAGE(E265:E269)</f>
         <v/>
       </c>
-      <c r="H269" s="3">
+      <c r="H269" s="1">
         <f>AVERAGE(E240:E269)</f>
         <v/>
       </c>
-      <c r="I269" s="3">
+      <c r="I269" s="1">
         <f>G269-H269</f>
         <v/>
       </c>
@@ -9282,26 +9276,26 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>10669.42</v>
+        <v>11072.7</v>
       </c>
       <c r="C270" t="n">
-        <v>10723.84</v>
+        <v>11080.41</v>
       </c>
       <c r="D270" t="n">
-        <v>10633.01</v>
+        <v>11001.15</v>
       </c>
       <c r="E270" t="n">
-        <v>10654.28</v>
-      </c>
-      <c r="G270" s="3">
+        <v>11033.54</v>
+      </c>
+      <c r="G270" s="1">
         <f>AVERAGE(E266:E270)</f>
         <v/>
       </c>
-      <c r="H270" s="3">
+      <c r="H270" s="1">
         <f>AVERAGE(E241:E270)</f>
         <v/>
       </c>
-      <c r="I270" s="3">
+      <c r="I270" s="1">
         <f>G270-H270</f>
         <v/>
       </c>
@@ -9311,26 +9305,26 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>10667.64</v>
+        <v>10997.73</v>
       </c>
       <c r="C271" t="n">
-        <v>10836.91</v>
+        <v>11057.51</v>
       </c>
       <c r="D271" t="n">
-        <v>10667.64</v>
+        <v>10976.46</v>
       </c>
       <c r="E271" t="n">
-        <v>10836.91</v>
-      </c>
-      <c r="G271" s="3">
+        <v>11057.51</v>
+      </c>
+      <c r="G271" s="1">
         <f>AVERAGE(E267:E271)</f>
         <v/>
       </c>
-      <c r="H271" s="3">
+      <c r="H271" s="1">
         <f>AVERAGE(E242:E271)</f>
         <v/>
       </c>
-      <c r="I271" s="3">
+      <c r="I271" s="1">
         <f>G271-H271</f>
         <v/>
       </c>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TWSE_IDX" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,75 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2017/06/29</t>
-  </si>
-  <si>
-    <t>2017/06/30</t>
-  </si>
-  <si>
-    <t>2017/07/03</t>
-  </si>
-  <si>
-    <t>2017/07/04</t>
-  </si>
-  <si>
-    <t>2017/07/05</t>
-  </si>
-  <si>
-    <t>2017/07/06</t>
-  </si>
-  <si>
-    <t>2017/07/07</t>
-  </si>
-  <si>
-    <t>2017/07/10</t>
-  </si>
-  <si>
-    <t>2017/07/11</t>
-  </si>
-  <si>
-    <t>2017/07/12</t>
-  </si>
-  <si>
-    <t>2017/07/13</t>
-  </si>
-  <si>
-    <t>2017/07/14</t>
-  </si>
-  <si>
-    <t>2017/07/17</t>
-  </si>
-  <si>
-    <t>2017/07/18</t>
-  </si>
-  <si>
-    <t>2017/07/19</t>
-  </si>
-  <si>
-    <t>2017/07/20</t>
-  </si>
-  <si>
-    <t>2017/07/21</t>
-  </si>
-  <si>
-    <t>2017/07/24</t>
-  </si>
-  <si>
-    <t>2017/07/25</t>
-  </si>
-  <si>
-    <t>2017/07/26</t>
-  </si>
-  <si>
-    <t>2017/07/27</t>
-  </si>
-  <si>
-    <t>2017/07/28</t>
-  </si>
-  <si>
-    <t>2017/07/31</t>
-  </si>
-  <si>
     <t>2017/08/01</t>
   </si>
   <si>
@@ -848,15 +779,82 @@
   </si>
   <si>
     <t>2018/07/31</t>
+  </si>
+  <si>
+    <t>2018/08/01</t>
+  </si>
+  <si>
+    <t>2018/08/02</t>
+  </si>
+  <si>
+    <t>2018/08/03</t>
+  </si>
+  <si>
+    <t>2018/08/06</t>
+  </si>
+  <si>
+    <t>2018/08/07</t>
+  </si>
+  <si>
+    <t>2018/08/08</t>
+  </si>
+  <si>
+    <t>2018/08/09</t>
+  </si>
+  <si>
+    <t>2018/08/10</t>
+  </si>
+  <si>
+    <t>2018/08/13</t>
+  </si>
+  <si>
+    <t>2018/08/14</t>
+  </si>
+  <si>
+    <t>2018/08/15</t>
+  </si>
+  <si>
+    <t>2018/08/16</t>
+  </si>
+  <si>
+    <t>2018/08/17</t>
+  </si>
+  <si>
+    <t>2018/08/20</t>
+  </si>
+  <si>
+    <t>2018/08/21</t>
+  </si>
+  <si>
+    <t>2018/08/22</t>
+  </si>
+  <si>
+    <t>2018/08/23</t>
+  </si>
+  <si>
+    <t>2018/08/24</t>
+  </si>
+  <si>
+    <t>2018/08/27</t>
+  </si>
+  <si>
+    <t>2018/08/28</t>
+  </si>
+  <si>
+    <t>2018/08/29</t>
+  </si>
+  <si>
+    <t>2018/08/30</t>
+  </si>
+  <si>
+    <t>2018/08/31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="0.00" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -907,12 +905,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1346,6 +1345,17 @@
         <axId val="10"/>
         <axId val="100"/>
       </stockChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
       <valAx>
         <axId val="20"/>
         <scaling>
@@ -1353,6 +1363,8 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
         <crosses val="max"/>
       </valAx>
@@ -1374,18 +1386,12 @@
             </rich>
           </tx>
         </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
     </plotArea>
+    <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
 </chartSpace>
@@ -1717,7 +1723,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="15.7109375"/>
     <col customWidth="1" max="5" min="2" width="11.7109375"/>
-    <col customWidth="1" max="9" min="7" style="1" width="11.7109375"/>
+    <col customWidth="1" max="9" min="7" style="3" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1752,16 +1758,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10442.18</v>
+        <v>10408.53</v>
       </c>
       <c r="C2" t="n">
-        <v>10476.51</v>
+        <v>10470.03</v>
       </c>
       <c r="D2" t="n">
-        <v>10390.9</v>
+        <v>10408.53</v>
       </c>
       <c r="E2" t="n">
-        <v>10421.65</v>
+        <v>10437.29</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1769,16 +1775,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>10367.26</v>
+        <v>10479.26</v>
       </c>
       <c r="C3" t="n">
-        <v>10395.07</v>
+        <v>10519.27</v>
       </c>
       <c r="D3" t="n">
-        <v>10329.84</v>
+        <v>10479.26</v>
       </c>
       <c r="E3" t="n">
-        <v>10395.07</v>
+        <v>10519.27</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1786,16 +1792,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10368.99</v>
+        <v>10464.1</v>
       </c>
       <c r="C4" t="n">
-        <v>10412.79</v>
+        <v>10478.62</v>
       </c>
       <c r="D4" t="n">
-        <v>10363.5</v>
+        <v>10427.72</v>
       </c>
       <c r="E4" t="n">
-        <v>10412.79</v>
+        <v>10469.88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1803,16 +1809,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>10397.93</v>
+        <v>10470.96</v>
       </c>
       <c r="C5" t="n">
-        <v>10421.72</v>
+        <v>10510.7</v>
       </c>
       <c r="D5" t="n">
-        <v>10347.78</v>
+        <v>10466.25</v>
       </c>
       <c r="E5" t="n">
-        <v>10347.78</v>
+        <v>10506.56</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1820,18 +1826,18 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>10352.39</v>
+        <v>10521.69</v>
       </c>
       <c r="C6" t="n">
-        <v>10404.79</v>
+        <v>10592.31</v>
       </c>
       <c r="D6" t="n">
-        <v>10304.74</v>
+        <v>10521.69</v>
       </c>
       <c r="E6" t="n">
-        <v>10404.79</v>
-      </c>
-      <c r="G6" s="1">
+        <v>10579.38</v>
+      </c>
+      <c r="G6" s="3">
         <f>AVERAGE(E2:E6)</f>
         <v/>
       </c>
@@ -1841,18 +1847,18 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>10380.66</v>
+        <v>10598.59</v>
       </c>
       <c r="C7" t="n">
-        <v>10381.2</v>
+        <v>10619.42</v>
       </c>
       <c r="D7" t="n">
-        <v>10336.32</v>
+        <v>10533.72</v>
       </c>
       <c r="E7" t="n">
-        <v>10368.2</v>
-      </c>
-      <c r="G7" s="1">
+        <v>10568.97</v>
+      </c>
+      <c r="G7" s="3">
         <f>AVERAGE(E3:E7)</f>
         <v/>
       </c>
@@ -1862,18 +1868,18 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10343.3</v>
+        <v>10523.51</v>
       </c>
       <c r="C8" t="n">
-        <v>10343.3</v>
+        <v>10536.19</v>
       </c>
       <c r="D8" t="n">
-        <v>10294.69</v>
+        <v>10457.52</v>
       </c>
       <c r="E8" t="n">
-        <v>10297.25</v>
-      </c>
-      <c r="G8" s="1">
+        <v>10470.38</v>
+      </c>
+      <c r="G8" s="3">
         <f>AVERAGE(E4:E8)</f>
         <v/>
       </c>
@@ -1883,18 +1889,18 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>10310.74</v>
+        <v>10470.03</v>
       </c>
       <c r="C9" t="n">
-        <v>10331.11</v>
+        <v>10477.79</v>
       </c>
       <c r="D9" t="n">
-        <v>10283.95</v>
+        <v>10303.47</v>
       </c>
       <c r="E9" t="n">
-        <v>10289.91</v>
-      </c>
-      <c r="G9" s="1">
+        <v>10329.74</v>
+      </c>
+      <c r="G9" s="3">
         <f>AVERAGE(E5:E9)</f>
         <v/>
       </c>
@@ -1904,18 +1910,18 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>10313.08</v>
+        <v>10267.05</v>
       </c>
       <c r="C10" t="n">
-        <v>10415.57</v>
+        <v>10338.06</v>
       </c>
       <c r="D10" t="n">
-        <v>10313.08</v>
+        <v>10238.5</v>
       </c>
       <c r="E10" t="n">
-        <v>10415.57</v>
-      </c>
-      <c r="G10" s="1">
+        <v>10329.57</v>
+      </c>
+      <c r="G10" s="3">
         <f>AVERAGE(E6:E10)</f>
         <v/>
       </c>
@@ -1925,18 +1931,18 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>10396.97</v>
+        <v>10347.66</v>
       </c>
       <c r="C11" t="n">
-        <v>10450.87</v>
+        <v>10365.22</v>
       </c>
       <c r="D11" t="n">
-        <v>10393.54</v>
+        <v>10225.28</v>
       </c>
       <c r="E11" t="n">
-        <v>10420.68</v>
-      </c>
-      <c r="G11" s="1">
+        <v>10225.28</v>
+      </c>
+      <c r="G11" s="3">
         <f>AVERAGE(E7:E11)</f>
         <v/>
       </c>
@@ -1946,18 +1952,18 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>10418.74</v>
+        <v>10271.03</v>
       </c>
       <c r="C12" t="n">
-        <v>10485.28</v>
+        <v>10336.22</v>
       </c>
       <c r="D12" t="n">
-        <v>10418.74</v>
+        <v>10271.03</v>
       </c>
       <c r="E12" t="n">
-        <v>10460.15</v>
-      </c>
-      <c r="G12" s="1">
+        <v>10311.16</v>
+      </c>
+      <c r="G12" s="3">
         <f>AVERAGE(E8:E12)</f>
         <v/>
       </c>
@@ -1967,18 +1973,18 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>10450.92</v>
+        <v>10302.83</v>
       </c>
       <c r="C13" t="n">
-        <v>10466.34</v>
+        <v>10322.38</v>
       </c>
       <c r="D13" t="n">
-        <v>10423.4</v>
+        <v>10245.72</v>
       </c>
       <c r="E13" t="n">
-        <v>10443.91</v>
-      </c>
-      <c r="G13" s="1">
+        <v>10290.39</v>
+      </c>
+      <c r="G13" s="3">
         <f>AVERAGE(E9:E13)</f>
         <v/>
       </c>
@@ -1988,18 +1994,18 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>10467.27</v>
+        <v>10302.54</v>
       </c>
       <c r="C14" t="n">
-        <v>10490.05</v>
+        <v>10372.41</v>
       </c>
       <c r="D14" t="n">
-        <v>10436.31</v>
+        <v>10302.54</v>
       </c>
       <c r="E14" t="n">
-        <v>10457.54</v>
-      </c>
-      <c r="G14" s="1">
+        <v>10369.37</v>
+      </c>
+      <c r="G14" s="3">
         <f>AVERAGE(E10:E14)</f>
         <v/>
       </c>
@@ -2009,18 +2015,18 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>10447.47</v>
+        <v>10324.83</v>
       </c>
       <c r="C15" t="n">
-        <v>10481.26</v>
+        <v>10330.39</v>
       </c>
       <c r="D15" t="n">
-        <v>10429.85</v>
+        <v>10259.83</v>
       </c>
       <c r="E15" t="n">
-        <v>10481.26</v>
-      </c>
-      <c r="G15" s="1">
+        <v>10321.33</v>
+      </c>
+      <c r="G15" s="3">
         <f>AVERAGE(E11:E15)</f>
         <v/>
       </c>
@@ -2030,18 +2036,18 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>10472.81</v>
+        <v>10316.09</v>
       </c>
       <c r="C16" t="n">
-        <v>10537.42</v>
+        <v>10336.37</v>
       </c>
       <c r="D16" t="n">
-        <v>10472.81</v>
+        <v>10282.72</v>
       </c>
       <c r="E16" t="n">
-        <v>10506.1</v>
-      </c>
-      <c r="G16" s="1">
+        <v>10326.39</v>
+      </c>
+      <c r="G16" s="3">
         <f>AVERAGE(E12:E16)</f>
         <v/>
       </c>
@@ -2051,18 +2057,18 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>10513.12</v>
+        <v>10353.37</v>
       </c>
       <c r="C17" t="n">
-        <v>10534.52</v>
+        <v>10410.47</v>
       </c>
       <c r="D17" t="n">
-        <v>10483.54</v>
+        <v>10353.37</v>
       </c>
       <c r="E17" t="n">
-        <v>10499.36</v>
-      </c>
-      <c r="G17" s="1">
+        <v>10392.07</v>
+      </c>
+      <c r="G17" s="3">
         <f>AVERAGE(E13:E17)</f>
         <v/>
       </c>
@@ -2072,18 +2078,18 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>10468.47</v>
+        <v>10418.32</v>
       </c>
       <c r="C18" t="n">
-        <v>10477.72</v>
+        <v>10458.91</v>
       </c>
       <c r="D18" t="n">
-        <v>10428.56</v>
+        <v>10378.01</v>
       </c>
       <c r="E18" t="n">
-        <v>10436.7</v>
-      </c>
-      <c r="G18" s="1">
+        <v>10406.81</v>
+      </c>
+      <c r="G18" s="3">
         <f>AVERAGE(E14:E18)</f>
         <v/>
       </c>
@@ -2093,18 +2099,18 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>10426.13</v>
+        <v>10414.66</v>
       </c>
       <c r="C19" t="n">
-        <v>10461.28</v>
+        <v>10488.96</v>
       </c>
       <c r="D19" t="n">
-        <v>10406.81</v>
+        <v>10410.73</v>
       </c>
       <c r="E19" t="n">
-        <v>10461.28</v>
-      </c>
-      <c r="G19" s="1">
+        <v>10488.96</v>
+      </c>
+      <c r="G19" s="3">
         <f>AVERAGE(E15:E19)</f>
         <v/>
       </c>
@@ -2114,18 +2120,18 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>10455.14</v>
+        <v>10497.86</v>
       </c>
       <c r="C20" t="n">
-        <v>10473.98</v>
+        <v>10519.84</v>
       </c>
       <c r="D20" t="n">
-        <v>10442.85</v>
+        <v>10478.72</v>
       </c>
       <c r="E20" t="n">
-        <v>10463.15</v>
-      </c>
-      <c r="G20" s="1">
+        <v>10515.51</v>
+      </c>
+      <c r="G20" s="3">
         <f>AVERAGE(E16:E20)</f>
         <v/>
       </c>
@@ -2135,18 +2141,18 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>10477.15</v>
+        <v>10502.8</v>
       </c>
       <c r="C21" t="n">
-        <v>10500.11</v>
+        <v>10542.37</v>
       </c>
       <c r="D21" t="n">
-        <v>10416.57</v>
+        <v>10498.88</v>
       </c>
       <c r="E21" t="n">
-        <v>10419.11</v>
-      </c>
-      <c r="G21" s="1">
+        <v>10525.98</v>
+      </c>
+      <c r="G21" s="3">
         <f>AVERAGE(E17:E21)</f>
         <v/>
       </c>
@@ -2156,18 +2162,18 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>10427.83</v>
+        <v>10518.69</v>
       </c>
       <c r="C22" t="n">
-        <v>10516.23</v>
+        <v>10518.69</v>
       </c>
       <c r="D22" t="n">
-        <v>10427.83</v>
+        <v>10463.22</v>
       </c>
       <c r="E22" t="n">
-        <v>10508.37</v>
-      </c>
-      <c r="G22" s="1">
+        <v>10496.57</v>
+      </c>
+      <c r="G22" s="3">
         <f>AVERAGE(E18:E22)</f>
         <v/>
       </c>
@@ -2177,18 +2183,18 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>10480.67</v>
+        <v>10511.59</v>
       </c>
       <c r="C23" t="n">
-        <v>10480.67</v>
+        <v>10574.53</v>
       </c>
       <c r="D23" t="n">
-        <v>10410.53</v>
+        <v>10511.59</v>
       </c>
       <c r="E23" t="n">
-        <v>10423.05</v>
-      </c>
-      <c r="G23" s="1">
+        <v>10569.4</v>
+      </c>
+      <c r="G23" s="3">
         <f>AVERAGE(E19:E23)</f>
         <v/>
       </c>
@@ -2198,18 +2204,18 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>10396.76</v>
+        <v>10586.65</v>
       </c>
       <c r="C24" t="n">
-        <v>10427.33</v>
+        <v>10609.48</v>
       </c>
       <c r="D24" t="n">
-        <v>10366.17</v>
+        <v>10551.95</v>
       </c>
       <c r="E24" t="n">
-        <v>10427.33</v>
-      </c>
-      <c r="G24" s="1">
+        <v>10585.78</v>
+      </c>
+      <c r="G24" s="3">
         <f>AVERAGE(E20:E24)</f>
         <v/>
       </c>
@@ -2219,18 +2225,18 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>10408.53</v>
+        <v>10576.27</v>
       </c>
       <c r="C25" t="n">
-        <v>10470.03</v>
+        <v>10619.52</v>
       </c>
       <c r="D25" t="n">
-        <v>10408.53</v>
+        <v>10568.72</v>
       </c>
       <c r="E25" t="n">
-        <v>10437.29</v>
-      </c>
-      <c r="G25" s="1">
+        <v>10594.82</v>
+      </c>
+      <c r="G25" s="3">
         <f>AVERAGE(E21:E25)</f>
         <v/>
       </c>
@@ -2240,18 +2246,18 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10479.26</v>
+        <v>10585.44</v>
       </c>
       <c r="C26" t="n">
-        <v>10519.27</v>
+        <v>10610.04</v>
       </c>
       <c r="D26" t="n">
-        <v>10479.26</v>
+        <v>10555.34</v>
       </c>
       <c r="E26" t="n">
-        <v>10519.27</v>
-      </c>
-      <c r="G26" s="1">
+        <v>10569.87</v>
+      </c>
+      <c r="G26" s="3">
         <f>AVERAGE(E22:E26)</f>
         <v/>
       </c>
@@ -2261,18 +2267,18 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>10464.1</v>
+        <v>10584.1</v>
       </c>
       <c r="C27" t="n">
-        <v>10478.62</v>
+        <v>10617.84</v>
       </c>
       <c r="D27" t="n">
-        <v>10427.72</v>
+        <v>10564.26</v>
       </c>
       <c r="E27" t="n">
-        <v>10469.88</v>
-      </c>
-      <c r="G27" s="1">
+        <v>10617.84</v>
+      </c>
+      <c r="G27" s="3">
         <f>AVERAGE(E23:E27)</f>
         <v/>
       </c>
@@ -2282,18 +2288,18 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10470.96</v>
+        <v>10593.87</v>
       </c>
       <c r="C28" t="n">
-        <v>10510.7</v>
+        <v>10604.92</v>
       </c>
       <c r="D28" t="n">
-        <v>10466.25</v>
+        <v>10519.71</v>
       </c>
       <c r="E28" t="n">
-        <v>10506.56</v>
-      </c>
-      <c r="G28" s="1">
+        <v>10547.86</v>
+      </c>
+      <c r="G28" s="3">
         <f>AVERAGE(E24:E28)</f>
         <v/>
       </c>
@@ -2303,18 +2309,18 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10521.69</v>
+        <v>10564.79</v>
       </c>
       <c r="C29" t="n">
-        <v>10592.31</v>
+        <v>10604.02</v>
       </c>
       <c r="D29" t="n">
-        <v>10521.69</v>
+        <v>10509.91</v>
       </c>
       <c r="E29" t="n">
-        <v>10579.38</v>
-      </c>
-      <c r="G29" s="1">
+        <v>10538.51</v>
+      </c>
+      <c r="G29" s="3">
         <f>AVERAGE(E25:E29)</f>
         <v/>
       </c>
@@ -2324,18 +2330,18 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10598.59</v>
+        <v>10553.9</v>
       </c>
       <c r="C30" t="n">
-        <v>10619.42</v>
+        <v>10609.95</v>
       </c>
       <c r="D30" t="n">
-        <v>10533.72</v>
+        <v>10550.72</v>
       </c>
       <c r="E30" t="n">
-        <v>10568.97</v>
-      </c>
-      <c r="G30" s="1">
+        <v>10609.95</v>
+      </c>
+      <c r="G30" s="3">
         <f>AVERAGE(E26:E30)</f>
         <v/>
       </c>
@@ -2345,26 +2351,26 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10523.51</v>
+        <v>10630.16</v>
       </c>
       <c r="C31" t="n">
-        <v>10536.19</v>
+        <v>10656.25</v>
       </c>
       <c r="D31" t="n">
-        <v>10457.52</v>
+        <v>10565.78</v>
       </c>
       <c r="E31" t="n">
-        <v>10470.38</v>
-      </c>
-      <c r="G31" s="1">
+        <v>10572.16</v>
+      </c>
+      <c r="G31" s="3">
         <f>AVERAGE(E27:E31)</f>
         <v/>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <f>AVERAGE(E2:E31)</f>
         <v/>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <f>G31-H31</f>
         <v/>
       </c>
@@ -2374,26 +2380,26 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10470.03</v>
+        <v>10610.33</v>
       </c>
       <c r="C32" t="n">
-        <v>10477.79</v>
+        <v>10646.55</v>
       </c>
       <c r="D32" t="n">
-        <v>10303.47</v>
+        <v>10586.28</v>
       </c>
       <c r="E32" t="n">
-        <v>10329.74</v>
-      </c>
-      <c r="G32" s="1">
+        <v>10610.35</v>
+      </c>
+      <c r="G32" s="3">
         <f>AVERAGE(E28:E32)</f>
         <v/>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <f>AVERAGE(E3:E32)</f>
         <v/>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="3">
         <f>G32-H32</f>
         <v/>
       </c>
@@ -2403,26 +2409,26 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10267.05</v>
+        <v>10596.36</v>
       </c>
       <c r="C33" t="n">
-        <v>10338.06</v>
+        <v>10620.31</v>
       </c>
       <c r="D33" t="n">
-        <v>10238.5</v>
+        <v>10532.88</v>
       </c>
       <c r="E33" t="n">
-        <v>10329.57</v>
-      </c>
-      <c r="G33" s="1">
+        <v>10532.88</v>
+      </c>
+      <c r="G33" s="3">
         <f>AVERAGE(E29:E33)</f>
         <v/>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <f>AVERAGE(E4:E33)</f>
         <v/>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <f>G33-H33</f>
         <v/>
       </c>
@@ -2432,26 +2438,26 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>10347.66</v>
+        <v>10533.99</v>
       </c>
       <c r="C34" t="n">
-        <v>10365.22</v>
+        <v>10572.71</v>
       </c>
       <c r="D34" t="n">
-        <v>10225.28</v>
+        <v>10508.72</v>
       </c>
       <c r="E34" t="n">
-        <v>10225.28</v>
-      </c>
-      <c r="G34" s="1">
+        <v>10553.57</v>
+      </c>
+      <c r="G34" s="3">
         <f>AVERAGE(E30:E34)</f>
         <v/>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <f>AVERAGE(E5:E34)</f>
         <v/>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <f>G34-H34</f>
         <v/>
       </c>
@@ -2461,26 +2467,26 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10271.03</v>
+        <v>10556.82</v>
       </c>
       <c r="C35" t="n">
-        <v>10336.22</v>
+        <v>10580.78</v>
       </c>
       <c r="D35" t="n">
-        <v>10271.03</v>
+        <v>10520.15</v>
       </c>
       <c r="E35" t="n">
-        <v>10311.16</v>
-      </c>
-      <c r="G35" s="1">
+        <v>10580.41</v>
+      </c>
+      <c r="G35" s="3">
         <f>AVERAGE(E31:E35)</f>
         <v/>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <f>AVERAGE(E6:E35)</f>
         <v/>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <f>G35-H35</f>
         <v/>
       </c>
@@ -2490,26 +2496,26 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10302.83</v>
+        <v>10590.8</v>
       </c>
       <c r="C36" t="n">
-        <v>10322.38</v>
+        <v>10642.4</v>
       </c>
       <c r="D36" t="n">
-        <v>10245.72</v>
+        <v>10581.81</v>
       </c>
       <c r="E36" t="n">
-        <v>10290.39</v>
-      </c>
-      <c r="G36" s="1">
+        <v>10631.57</v>
+      </c>
+      <c r="G36" s="3">
         <f>AVERAGE(E32:E36)</f>
         <v/>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <f>AVERAGE(E7:E36)</f>
         <v/>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="3">
         <f>G36-H36</f>
         <v/>
       </c>
@@ -2519,26 +2525,26 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>10302.54</v>
+        <v>10653.34</v>
       </c>
       <c r="C37" t="n">
-        <v>10372.41</v>
+        <v>10664.18</v>
       </c>
       <c r="D37" t="n">
-        <v>10302.54</v>
+        <v>10561.21</v>
       </c>
       <c r="E37" t="n">
-        <v>10369.37</v>
-      </c>
-      <c r="G37" s="1">
+        <v>10576.14</v>
+      </c>
+      <c r="G37" s="3">
         <f>AVERAGE(E33:E37)</f>
         <v/>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="3">
         <f>AVERAGE(E8:E37)</f>
         <v/>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="3">
         <f>G37-H37</f>
         <v/>
       </c>
@@ -2548,26 +2554,26 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>10324.83</v>
+        <v>10568.58</v>
       </c>
       <c r="C38" t="n">
-        <v>10330.39</v>
+        <v>10589.19</v>
       </c>
       <c r="D38" t="n">
-        <v>10259.83</v>
+        <v>10490.71</v>
       </c>
       <c r="E38" t="n">
-        <v>10321.33</v>
-      </c>
-      <c r="G38" s="1">
+        <v>10519.17</v>
+      </c>
+      <c r="G38" s="3">
         <f>AVERAGE(E34:E38)</f>
         <v/>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <f>AVERAGE(E9:E38)</f>
         <v/>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="3">
         <f>G38-H38</f>
         <v/>
       </c>
@@ -2577,26 +2583,26 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10316.09</v>
+        <v>10506.85</v>
       </c>
       <c r="C39" t="n">
-        <v>10336.37</v>
+        <v>10603.08</v>
       </c>
       <c r="D39" t="n">
-        <v>10282.72</v>
+        <v>10493.95</v>
       </c>
       <c r="E39" t="n">
-        <v>10326.39</v>
-      </c>
-      <c r="G39" s="1">
+        <v>10578.44</v>
+      </c>
+      <c r="G39" s="3">
         <f>AVERAGE(E35:E39)</f>
         <v/>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="3">
         <f>AVERAGE(E10:E39)</f>
         <v/>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="3">
         <f>G39-H39</f>
         <v/>
       </c>
@@ -2606,26 +2612,26 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>10353.37</v>
+        <v>10571.65</v>
       </c>
       <c r="C40" t="n">
-        <v>10410.47</v>
+        <v>10579.02</v>
       </c>
       <c r="D40" t="n">
-        <v>10353.37</v>
+        <v>10446.45</v>
       </c>
       <c r="E40" t="n">
-        <v>10392.07</v>
-      </c>
-      <c r="G40" s="1">
+        <v>10449.68</v>
+      </c>
+      <c r="G40" s="3">
         <f>AVERAGE(E36:E40)</f>
         <v/>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="3">
         <f>AVERAGE(E11:E40)</f>
         <v/>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="3">
         <f>G40-H40</f>
         <v/>
       </c>
@@ -2635,26 +2641,26 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10418.32</v>
+        <v>10442.05</v>
       </c>
       <c r="C41" t="n">
-        <v>10458.91</v>
+        <v>10447.09</v>
       </c>
       <c r="D41" t="n">
-        <v>10378.01</v>
+        <v>10322.1</v>
       </c>
       <c r="E41" t="n">
-        <v>10406.81</v>
-      </c>
-      <c r="G41" s="1">
+        <v>10335.89</v>
+      </c>
+      <c r="G41" s="3">
         <f>AVERAGE(E37:E41)</f>
         <v/>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="3">
         <f>AVERAGE(E12:E41)</f>
         <v/>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="3">
         <f>G41-H41</f>
         <v/>
       </c>
@@ -2664,26 +2670,26 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10414.66</v>
+        <v>10333.44</v>
       </c>
       <c r="C42" t="n">
-        <v>10488.96</v>
+        <v>10374.54</v>
       </c>
       <c r="D42" t="n">
-        <v>10410.73</v>
+        <v>10257.02</v>
       </c>
       <c r="E42" t="n">
-        <v>10488.96</v>
-      </c>
-      <c r="G42" s="1">
+        <v>10257.02</v>
+      </c>
+      <c r="G42" s="3">
         <f>AVERAGE(E38:E42)</f>
         <v/>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="3">
         <f>AVERAGE(E13:E42)</f>
         <v/>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="3">
         <f>G42-H42</f>
         <v/>
       </c>
@@ -2693,26 +2699,26 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10497.86</v>
+        <v>10322.44</v>
       </c>
       <c r="C43" t="n">
-        <v>10519.84</v>
+        <v>10357.23</v>
       </c>
       <c r="D43" t="n">
-        <v>10478.72</v>
+        <v>10315.97</v>
       </c>
       <c r="E43" t="n">
-        <v>10515.51</v>
-      </c>
-      <c r="G43" s="1">
+        <v>10326.68</v>
+      </c>
+      <c r="G43" s="3">
         <f>AVERAGE(E39:E43)</f>
         <v/>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="3">
         <f>AVERAGE(E14:E43)</f>
         <v/>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="3">
         <f>G43-H43</f>
         <v/>
       </c>
@@ -2722,26 +2728,26 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10502.8</v>
+        <v>10351.42</v>
       </c>
       <c r="C44" t="n">
-        <v>10542.37</v>
+        <v>10365.59</v>
       </c>
       <c r="D44" t="n">
-        <v>10498.88</v>
+        <v>10288.24</v>
       </c>
       <c r="E44" t="n">
-        <v>10525.98</v>
-      </c>
-      <c r="G44" s="1">
+        <v>10296.45</v>
+      </c>
+      <c r="G44" s="3">
         <f>AVERAGE(E40:E44)</f>
         <v/>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="3">
         <f>AVERAGE(E15:E44)</f>
         <v/>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="3">
         <f>G44-H44</f>
         <v/>
       </c>
@@ -2751,26 +2757,26 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10518.69</v>
+        <v>10319.69</v>
       </c>
       <c r="C45" t="n">
-        <v>10518.69</v>
+        <v>10338.95</v>
       </c>
       <c r="D45" t="n">
-        <v>10463.22</v>
+        <v>10273.6</v>
       </c>
       <c r="E45" t="n">
-        <v>10496.57</v>
-      </c>
-      <c r="G45" s="1">
+        <v>10329.94</v>
+      </c>
+      <c r="G45" s="3">
         <f>AVERAGE(E41:E45)</f>
         <v/>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="3">
         <f>AVERAGE(E16:E45)</f>
         <v/>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="3">
         <f>G45-H45</f>
         <v/>
       </c>
@@ -2780,26 +2786,26 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10511.59</v>
+        <v>10362.55</v>
       </c>
       <c r="C46" t="n">
-        <v>10574.53</v>
+        <v>10400.4</v>
       </c>
       <c r="D46" t="n">
-        <v>10511.59</v>
+        <v>10362.55</v>
       </c>
       <c r="E46" t="n">
-        <v>10569.4</v>
-      </c>
-      <c r="G46" s="1">
+        <v>10383.94</v>
+      </c>
+      <c r="G46" s="3">
         <f>AVERAGE(E42:E46)</f>
         <v/>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="3">
         <f>AVERAGE(E17:E46)</f>
         <v/>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="3">
         <f>G46-H46</f>
         <v/>
       </c>
@@ -2809,26 +2815,26 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10586.65</v>
+        <v>10425.1</v>
       </c>
       <c r="C47" t="n">
-        <v>10609.48</v>
+        <v>10472.81</v>
       </c>
       <c r="D47" t="n">
-        <v>10551.95</v>
+        <v>10414.53</v>
       </c>
       <c r="E47" t="n">
-        <v>10585.78</v>
-      </c>
-      <c r="G47" s="1">
+        <v>10465.16</v>
+      </c>
+      <c r="G47" s="3">
         <f>AVERAGE(E43:E47)</f>
         <v/>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="3">
         <f>AVERAGE(E18:E47)</f>
         <v/>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="3">
         <f>G47-H47</f>
         <v/>
       </c>
@@ -2838,26 +2844,26 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>10576.27</v>
+        <v>10462.7</v>
       </c>
       <c r="C48" t="n">
-        <v>10619.52</v>
+        <v>10495.34</v>
       </c>
       <c r="D48" t="n">
-        <v>10568.72</v>
+        <v>10445.86</v>
       </c>
       <c r="E48" t="n">
-        <v>10594.82</v>
-      </c>
-      <c r="G48" s="1">
+        <v>10469.35</v>
+      </c>
+      <c r="G48" s="3">
         <f>AVERAGE(E44:E48)</f>
         <v/>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="3">
         <f>AVERAGE(E19:E48)</f>
         <v/>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="3">
         <f>G48-H48</f>
         <v/>
       </c>
@@ -2867,26 +2873,26 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10585.44</v>
+        <v>10473.28</v>
       </c>
       <c r="C49" t="n">
-        <v>10610.04</v>
+        <v>10530.93</v>
       </c>
       <c r="D49" t="n">
-        <v>10555.34</v>
+        <v>10473.28</v>
       </c>
       <c r="E49" t="n">
-        <v>10569.87</v>
-      </c>
-      <c r="G49" s="1">
+        <v>10518.27</v>
+      </c>
+      <c r="G49" s="3">
         <f>AVERAGE(E45:E49)</f>
         <v/>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="3">
         <f>AVERAGE(E20:E49)</f>
         <v/>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="3">
         <f>G49-H49</f>
         <v/>
       </c>
@@ -2896,26 +2902,26 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10584.1</v>
+        <v>10538.21</v>
       </c>
       <c r="C50" t="n">
-        <v>10617.84</v>
+        <v>10557.67</v>
       </c>
       <c r="D50" t="n">
-        <v>10564.26</v>
+        <v>10511.5</v>
       </c>
       <c r="E50" t="n">
-        <v>10617.84</v>
-      </c>
-      <c r="G50" s="1">
+        <v>10532.81</v>
+      </c>
+      <c r="G50" s="3">
         <f>AVERAGE(E46:E50)</f>
         <v/>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="3">
         <f>AVERAGE(E21:E50)</f>
         <v/>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="3">
         <f>G50-H50</f>
         <v/>
       </c>
@@ -2925,26 +2931,26 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10593.87</v>
+        <v>10576.12</v>
       </c>
       <c r="C51" t="n">
-        <v>10604.92</v>
+        <v>10668.49</v>
       </c>
       <c r="D51" t="n">
-        <v>10519.71</v>
+        <v>10576.12</v>
       </c>
       <c r="E51" t="n">
-        <v>10547.86</v>
-      </c>
-      <c r="G51" s="1">
+        <v>10641.19</v>
+      </c>
+      <c r="G51" s="3">
         <f>AVERAGE(E47:E51)</f>
         <v/>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="3">
         <f>AVERAGE(E22:E51)</f>
         <v/>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="3">
         <f>G51-H51</f>
         <v/>
       </c>
@@ -2954,26 +2960,26 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10564.79</v>
+        <v>10668.39</v>
       </c>
       <c r="C52" t="n">
-        <v>10604.02</v>
+        <v>10711.44</v>
       </c>
       <c r="D52" t="n">
-        <v>10509.91</v>
+        <v>10668.39</v>
       </c>
       <c r="E52" t="n">
-        <v>10538.51</v>
-      </c>
-      <c r="G52" s="1">
+        <v>10711.44</v>
+      </c>
+      <c r="G52" s="3">
         <f>AVERAGE(E48:E52)</f>
         <v/>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="3">
         <f>AVERAGE(E23:E52)</f>
         <v/>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="3">
         <f>G52-H52</f>
         <v/>
       </c>
@@ -2983,26 +2989,26 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10553.9</v>
+        <v>10712.48</v>
       </c>
       <c r="C53" t="n">
-        <v>10609.95</v>
+        <v>10724.09</v>
       </c>
       <c r="D53" t="n">
-        <v>10550.72</v>
+        <v>10675.83</v>
       </c>
       <c r="E53" t="n">
-        <v>10609.95</v>
-      </c>
-      <c r="G53" s="1">
+        <v>10724.09</v>
+      </c>
+      <c r="G53" s="3">
         <f>AVERAGE(E49:E53)</f>
         <v/>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="3">
         <f>AVERAGE(E24:E53)</f>
         <v/>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="3">
         <f>G53-H53</f>
         <v/>
       </c>
@@ -3012,26 +3018,26 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10630.16</v>
+        <v>10735.14</v>
       </c>
       <c r="C54" t="n">
-        <v>10656.25</v>
+        <v>10774.21</v>
       </c>
       <c r="D54" t="n">
-        <v>10565.78</v>
+        <v>10723.37</v>
       </c>
       <c r="E54" t="n">
-        <v>10572.16</v>
-      </c>
-      <c r="G54" s="1">
+        <v>10774.21</v>
+      </c>
+      <c r="G54" s="3">
         <f>AVERAGE(E50:E54)</f>
         <v/>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="3">
         <f>AVERAGE(E25:E54)</f>
         <v/>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="3">
         <f>G54-H54</f>
         <v/>
       </c>
@@ -3041,26 +3047,26 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10610.33</v>
+        <v>10790.35</v>
       </c>
       <c r="C55" t="n">
-        <v>10646.55</v>
+        <v>10798.52</v>
       </c>
       <c r="D55" t="n">
-        <v>10586.28</v>
+        <v>10723.15</v>
       </c>
       <c r="E55" t="n">
-        <v>10610.35</v>
-      </c>
-      <c r="G55" s="1">
+        <v>10723.15</v>
+      </c>
+      <c r="G55" s="3">
         <f>AVERAGE(E51:E55)</f>
         <v/>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="3">
         <f>AVERAGE(E26:E55)</f>
         <v/>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="3">
         <f>G55-H55</f>
         <v/>
       </c>
@@ -3070,26 +3076,26 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10596.36</v>
+        <v>10773.85</v>
       </c>
       <c r="C56" t="n">
-        <v>10620.31</v>
+        <v>10790.31</v>
       </c>
       <c r="D56" t="n">
-        <v>10532.88</v>
+        <v>10684.32</v>
       </c>
       <c r="E56" t="n">
-        <v>10532.88</v>
-      </c>
-      <c r="G56" s="1">
+        <v>10720.28</v>
+      </c>
+      <c r="G56" s="3">
         <f>AVERAGE(E52:E56)</f>
         <v/>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="3">
         <f>AVERAGE(E27:E56)</f>
         <v/>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="3">
         <f>G56-H56</f>
         <v/>
       </c>
@@ -3099,26 +3105,26 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10533.99</v>
+        <v>10745.77</v>
       </c>
       <c r="C57" t="n">
-        <v>10572.71</v>
+        <v>10798.54</v>
       </c>
       <c r="D57" t="n">
-        <v>10508.72</v>
+        <v>10745.77</v>
       </c>
       <c r="E57" t="n">
-        <v>10553.57</v>
-      </c>
-      <c r="G57" s="1">
+        <v>10760.29</v>
+      </c>
+      <c r="G57" s="3">
         <f>AVERAGE(E53:E57)</f>
         <v/>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="3">
         <f>AVERAGE(E28:E57)</f>
         <v/>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="3">
         <f>G57-H57</f>
         <v/>
       </c>
@@ -3128,26 +3134,26 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10556.82</v>
+        <v>10737.87</v>
       </c>
       <c r="C58" t="n">
-        <v>10580.78</v>
+        <v>10753.77</v>
       </c>
       <c r="D58" t="n">
-        <v>10520.15</v>
+        <v>10702.56</v>
       </c>
       <c r="E58" t="n">
-        <v>10580.41</v>
-      </c>
-      <c r="G58" s="1">
+        <v>10728.88</v>
+      </c>
+      <c r="G58" s="3">
         <f>AVERAGE(E54:E58)</f>
         <v/>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="3">
         <f>AVERAGE(E29:E58)</f>
         <v/>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="3">
         <f>G58-H58</f>
         <v/>
       </c>
@@ -3157,26 +3163,26 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10590.8</v>
+        <v>10759.47</v>
       </c>
       <c r="C59" t="n">
-        <v>10642.4</v>
+        <v>10792.27</v>
       </c>
       <c r="D59" t="n">
-        <v>10581.81</v>
+        <v>10731.9</v>
       </c>
       <c r="E59" t="n">
-        <v>10631.57</v>
-      </c>
-      <c r="G59" s="1">
+        <v>10735.21</v>
+      </c>
+      <c r="G59" s="3">
         <f>AVERAGE(E55:E59)</f>
         <v/>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="3">
         <f>AVERAGE(E30:E59)</f>
         <v/>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="3">
         <f>G59-H59</f>
         <v/>
       </c>
@@ -3186,26 +3192,26 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10653.34</v>
+        <v>10749.9</v>
       </c>
       <c r="C60" t="n">
-        <v>10664.18</v>
+        <v>10766.64</v>
       </c>
       <c r="D60" t="n">
-        <v>10561.21</v>
+        <v>10726.25</v>
       </c>
       <c r="E60" t="n">
-        <v>10576.14</v>
-      </c>
-      <c r="G60" s="1">
+        <v>10743.78</v>
+      </c>
+      <c r="G60" s="3">
         <f>AVERAGE(E56:E60)</f>
         <v/>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="3">
         <f>AVERAGE(E31:E60)</f>
         <v/>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="3">
         <f>G60-H60</f>
         <v/>
       </c>
@@ -3215,26 +3221,26 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10568.58</v>
+        <v>10771.4</v>
       </c>
       <c r="C61" t="n">
-        <v>10589.19</v>
+        <v>10794.55</v>
       </c>
       <c r="D61" t="n">
-        <v>10490.71</v>
+        <v>10740.07</v>
       </c>
       <c r="E61" t="n">
-        <v>10519.17</v>
-      </c>
-      <c r="G61" s="1">
+        <v>10750.57</v>
+      </c>
+      <c r="G61" s="3">
         <f>AVERAGE(E57:E61)</f>
         <v/>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="3">
         <f>AVERAGE(E32:E61)</f>
         <v/>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="3">
         <f>G61-H61</f>
         <v/>
       </c>
@@ -3244,26 +3250,26 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10506.85</v>
+        <v>10735.35</v>
       </c>
       <c r="C62" t="n">
-        <v>10603.08</v>
+        <v>10756.51</v>
       </c>
       <c r="D62" t="n">
-        <v>10493.95</v>
+        <v>10716.52</v>
       </c>
       <c r="E62" t="n">
-        <v>10578.44</v>
-      </c>
-      <c r="G62" s="1">
+        <v>10734.76</v>
+      </c>
+      <c r="G62" s="3">
         <f>AVERAGE(E58:E62)</f>
         <v/>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="3">
         <f>AVERAGE(E33:E62)</f>
         <v/>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="3">
         <f>G62-H62</f>
         <v/>
       </c>
@@ -3273,26 +3279,26 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10571.65</v>
+        <v>10757.35</v>
       </c>
       <c r="C63" t="n">
-        <v>10579.02</v>
+        <v>10803.6</v>
       </c>
       <c r="D63" t="n">
-        <v>10446.45</v>
+        <v>10701.08</v>
       </c>
       <c r="E63" t="n">
-        <v>10449.68</v>
-      </c>
-      <c r="G63" s="1">
+        <v>10709.11</v>
+      </c>
+      <c r="G63" s="3">
         <f>AVERAGE(E59:E63)</f>
         <v/>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="3">
         <f>AVERAGE(E34:E63)</f>
         <v/>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="3">
         <f>G63-H63</f>
         <v/>
       </c>
@@ -3302,26 +3308,26 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10442.05</v>
+        <v>10777.6</v>
       </c>
       <c r="C64" t="n">
-        <v>10447.09</v>
+        <v>10842.25</v>
       </c>
       <c r="D64" t="n">
-        <v>10322.1</v>
+        <v>10743.13</v>
       </c>
       <c r="E64" t="n">
-        <v>10335.89</v>
-      </c>
-      <c r="G64" s="1">
+        <v>10756.87</v>
+      </c>
+      <c r="G64" s="3">
         <f>AVERAGE(E60:E64)</f>
         <v/>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="3">
         <f>AVERAGE(E35:E64)</f>
         <v/>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="3">
         <f>G64-H64</f>
         <v/>
       </c>
@@ -3331,26 +3337,26 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10333.44</v>
+        <v>10768.9</v>
       </c>
       <c r="C65" t="n">
-        <v>10374.54</v>
+        <v>10829.33</v>
       </c>
       <c r="D65" t="n">
-        <v>10257.02</v>
+        <v>10747.37</v>
       </c>
       <c r="E65" t="n">
-        <v>10257.02</v>
-      </c>
-      <c r="G65" s="1">
+        <v>10793.8</v>
+      </c>
+      <c r="G65" s="3">
         <f>AVERAGE(E61:E65)</f>
         <v/>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="3">
         <f>AVERAGE(E36:E65)</f>
         <v/>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="3">
         <f>G65-H65</f>
         <v/>
       </c>
@@ -3360,26 +3366,26 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10322.44</v>
+        <v>10816.04</v>
       </c>
       <c r="C66" t="n">
-        <v>10357.23</v>
+        <v>10843.41</v>
       </c>
       <c r="D66" t="n">
-        <v>10315.97</v>
+        <v>10785.32</v>
       </c>
       <c r="E66" t="n">
-        <v>10326.68</v>
-      </c>
-      <c r="G66" s="1">
+        <v>10806.36</v>
+      </c>
+      <c r="G66" s="3">
         <f>AVERAGE(E62:E66)</f>
         <v/>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="3">
         <f>AVERAGE(E37:E66)</f>
         <v/>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="3">
         <f>G66-H66</f>
         <v/>
       </c>
@@ -3389,26 +3395,26 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10351.42</v>
+        <v>10797.63</v>
       </c>
       <c r="C67" t="n">
-        <v>10365.59</v>
+        <v>10827.67</v>
       </c>
       <c r="D67" t="n">
-        <v>10288.24</v>
+        <v>10788.51</v>
       </c>
       <c r="E67" t="n">
-        <v>10296.45</v>
-      </c>
-      <c r="G67" s="1">
+        <v>10788.51</v>
+      </c>
+      <c r="G67" s="3">
         <f>AVERAGE(E63:E67)</f>
         <v/>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="3">
         <f>AVERAGE(E38:E67)</f>
         <v/>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="3">
         <f>G67-H67</f>
         <v/>
       </c>
@@ -3418,26 +3424,26 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>10319.69</v>
+        <v>10797.91</v>
       </c>
       <c r="C68" t="n">
-        <v>10338.95</v>
+        <v>10835.7</v>
       </c>
       <c r="D68" t="n">
-        <v>10273.6</v>
+        <v>10765.31</v>
       </c>
       <c r="E68" t="n">
-        <v>10329.94</v>
-      </c>
-      <c r="G68" s="1">
+        <v>10800.77</v>
+      </c>
+      <c r="G68" s="3">
         <f>AVERAGE(E64:E68)</f>
         <v/>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="3">
         <f>AVERAGE(E39:E68)</f>
         <v/>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="3">
         <f>G68-H68</f>
         <v/>
       </c>
@@ -3447,26 +3453,26 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>10362.55</v>
+        <v>10856.56</v>
       </c>
       <c r="C69" t="n">
-        <v>10400.4</v>
+        <v>10858.5</v>
       </c>
       <c r="D69" t="n">
-        <v>10362.55</v>
+        <v>10769.19</v>
       </c>
       <c r="E69" t="n">
-        <v>10383.94</v>
-      </c>
-      <c r="G69" s="1">
+        <v>10786.19</v>
+      </c>
+      <c r="G69" s="3">
         <f>AVERAGE(E65:E69)</f>
         <v/>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="3">
         <f>AVERAGE(E40:E69)</f>
         <v/>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="3">
         <f>G69-H69</f>
         <v/>
       </c>
@@ -3476,26 +3482,26 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>10425.1</v>
+        <v>10820.83</v>
       </c>
       <c r="C70" t="n">
-        <v>10472.81</v>
+        <v>10842.61</v>
       </c>
       <c r="D70" t="n">
-        <v>10414.53</v>
+        <v>10807.89</v>
       </c>
       <c r="E70" t="n">
-        <v>10465.16</v>
-      </c>
-      <c r="G70" s="1">
+        <v>10840.34</v>
+      </c>
+      <c r="G70" s="3">
         <f>AVERAGE(E66:E70)</f>
         <v/>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="3">
         <f>AVERAGE(E41:E70)</f>
         <v/>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="3">
         <f>G70-H70</f>
         <v/>
       </c>
@@ -3505,26 +3511,26 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>10462.7</v>
+        <v>10839.44</v>
       </c>
       <c r="C71" t="n">
-        <v>10495.34</v>
+        <v>10844.74</v>
       </c>
       <c r="D71" t="n">
-        <v>10445.86</v>
+        <v>10806.01</v>
       </c>
       <c r="E71" t="n">
-        <v>10469.35</v>
-      </c>
-      <c r="G71" s="1">
+        <v>10818.99</v>
+      </c>
+      <c r="G71" s="3">
         <f>AVERAGE(E67:E71)</f>
         <v/>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="3">
         <f>AVERAGE(E42:E71)</f>
         <v/>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="3">
         <f>G71-H71</f>
         <v/>
       </c>
@@ -3534,26 +3540,26 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>10473.28</v>
+        <v>10802.95</v>
       </c>
       <c r="C72" t="n">
-        <v>10530.93</v>
+        <v>10831.38</v>
       </c>
       <c r="D72" t="n">
-        <v>10473.28</v>
+        <v>10721.87</v>
       </c>
       <c r="E72" t="n">
-        <v>10518.27</v>
-      </c>
-      <c r="G72" s="1">
+        <v>10743.27</v>
+      </c>
+      <c r="G72" s="3">
         <f>AVERAGE(E68:E72)</f>
         <v/>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="3">
         <f>AVERAGE(E43:E72)</f>
         <v/>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="3">
         <f>G72-H72</f>
         <v/>
       </c>
@@ -3563,26 +3569,26 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>10538.21</v>
+        <v>10713.67</v>
       </c>
       <c r="C73" t="n">
-        <v>10557.67</v>
+        <v>10742.61</v>
       </c>
       <c r="D73" t="n">
-        <v>10511.5</v>
+        <v>10659.29</v>
       </c>
       <c r="E73" t="n">
-        <v>10532.81</v>
-      </c>
-      <c r="G73" s="1">
+        <v>10732.67</v>
+      </c>
+      <c r="G73" s="3">
         <f>AVERAGE(E69:E73)</f>
         <v/>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="3">
         <f>AVERAGE(E44:E73)</f>
         <v/>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="3">
         <f>G73-H73</f>
         <v/>
       </c>
@@ -3592,26 +3598,26 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10576.12</v>
+        <v>10728.22</v>
       </c>
       <c r="C74" t="n">
-        <v>10668.49</v>
+        <v>10749.39</v>
       </c>
       <c r="D74" t="n">
-        <v>10576.12</v>
+        <v>10683.92</v>
       </c>
       <c r="E74" t="n">
-        <v>10641.19</v>
-      </c>
-      <c r="G74" s="1">
+        <v>10683.92</v>
+      </c>
+      <c r="G74" s="3">
         <f>AVERAGE(E70:E74)</f>
         <v/>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="3">
         <f>AVERAGE(E45:E74)</f>
         <v/>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="3">
         <f>G74-H74</f>
         <v/>
       </c>
@@ -3621,26 +3627,26 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10668.39</v>
+        <v>10716.59</v>
       </c>
       <c r="C75" t="n">
-        <v>10711.44</v>
+        <v>10735.08</v>
       </c>
       <c r="D75" t="n">
-        <v>10668.39</v>
+        <v>10654.58</v>
       </c>
       <c r="E75" t="n">
-        <v>10711.44</v>
-      </c>
-      <c r="G75" s="1">
+        <v>10687.18</v>
+      </c>
+      <c r="G75" s="3">
         <f>AVERAGE(E71:E75)</f>
         <v/>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="3">
         <f>AVERAGE(E46:E75)</f>
         <v/>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="3">
         <f>G75-H75</f>
         <v/>
       </c>
@@ -3650,26 +3656,26 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10712.48</v>
+        <v>10662.08</v>
       </c>
       <c r="C76" t="n">
-        <v>10724.09</v>
+        <v>10669.59</v>
       </c>
       <c r="D76" t="n">
-        <v>10675.83</v>
+        <v>10600.26</v>
       </c>
       <c r="E76" t="n">
-        <v>10724.09</v>
-      </c>
-      <c r="G76" s="1">
+        <v>10630.65</v>
+      </c>
+      <c r="G76" s="3">
         <f>AVERAGE(E72:E76)</f>
         <v/>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="3">
         <f>AVERAGE(E47:E76)</f>
         <v/>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="3">
         <f>G76-H76</f>
         <v/>
       </c>
@@ -3679,26 +3685,26 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10735.14</v>
+        <v>10629.16</v>
       </c>
       <c r="C77" t="n">
-        <v>10774.21</v>
+        <v>10666.66</v>
       </c>
       <c r="D77" t="n">
-        <v>10723.37</v>
+        <v>10609.23</v>
       </c>
       <c r="E77" t="n">
-        <v>10774.21</v>
-      </c>
-      <c r="G77" s="1">
+        <v>10625.04</v>
+      </c>
+      <c r="G77" s="3">
         <f>AVERAGE(E73:E77)</f>
         <v/>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="3">
         <f>AVERAGE(E48:E77)</f>
         <v/>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="3">
         <f>G77-H77</f>
         <v/>
       </c>
@@ -3708,26 +3714,26 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10790.35</v>
+        <v>10673.43</v>
       </c>
       <c r="C78" t="n">
-        <v>10798.52</v>
+        <v>10729.45</v>
       </c>
       <c r="D78" t="n">
-        <v>10723.15</v>
+        <v>10673.43</v>
       </c>
       <c r="E78" t="n">
-        <v>10723.15</v>
-      </c>
-      <c r="G78" s="1">
+        <v>10701.64</v>
+      </c>
+      <c r="G78" s="3">
         <f>AVERAGE(E74:E78)</f>
         <v/>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="3">
         <f>AVERAGE(E49:E78)</f>
         <v/>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="3">
         <f>G78-H78</f>
         <v/>
       </c>
@@ -3737,26 +3743,26 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10773.85</v>
+        <v>10706.79</v>
       </c>
       <c r="C79" t="n">
-        <v>10790.31</v>
+        <v>10728.39</v>
       </c>
       <c r="D79" t="n">
-        <v>10684.32</v>
+        <v>10656.18</v>
       </c>
       <c r="E79" t="n">
-        <v>10720.28</v>
-      </c>
-      <c r="G79" s="1">
+        <v>10664.55</v>
+      </c>
+      <c r="G79" s="3">
         <f>AVERAGE(E75:E79)</f>
         <v/>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="3">
         <f>AVERAGE(E50:E79)</f>
         <v/>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="3">
         <f>G79-H79</f>
         <v/>
       </c>
@@ -3766,26 +3772,26 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>10745.77</v>
+        <v>10688.22</v>
       </c>
       <c r="C80" t="n">
-        <v>10798.54</v>
+        <v>10787.58</v>
       </c>
       <c r="D80" t="n">
-        <v>10745.77</v>
+        <v>10687.26</v>
       </c>
       <c r="E80" t="n">
-        <v>10760.29</v>
-      </c>
-      <c r="G80" s="1">
+        <v>10779.24</v>
+      </c>
+      <c r="G80" s="3">
         <f>AVERAGE(E76:E80)</f>
         <v/>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="3">
         <f>AVERAGE(E51:E80)</f>
         <v/>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="3">
         <f>G80-H80</f>
         <v/>
       </c>
@@ -3795,26 +3801,26 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10737.87</v>
+        <v>10815.4</v>
       </c>
       <c r="C81" t="n">
-        <v>10753.77</v>
+        <v>10882.65</v>
       </c>
       <c r="D81" t="n">
-        <v>10702.56</v>
+        <v>10801.1</v>
       </c>
       <c r="E81" t="n">
-        <v>10728.88</v>
-      </c>
-      <c r="G81" s="1">
+        <v>10822.59</v>
+      </c>
+      <c r="G81" s="3">
         <f>AVERAGE(E77:E81)</f>
         <v/>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="3">
         <f>AVERAGE(E52:E81)</f>
         <v/>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="3">
         <f>G81-H81</f>
         <v/>
       </c>
@@ -3824,26 +3830,26 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10759.47</v>
+        <v>10837.61</v>
       </c>
       <c r="C82" t="n">
-        <v>10792.27</v>
+        <v>10872.29</v>
       </c>
       <c r="D82" t="n">
-        <v>10731.9</v>
+        <v>10809.09</v>
       </c>
       <c r="E82" t="n">
-        <v>10735.21</v>
-      </c>
-      <c r="G82" s="1">
+        <v>10854.57</v>
+      </c>
+      <c r="G82" s="3">
         <f>AVERAGE(E78:E82)</f>
         <v/>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="3">
         <f>AVERAGE(E53:E82)</f>
         <v/>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="3">
         <f>G82-H82</f>
         <v/>
       </c>
@@ -3853,26 +3859,26 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10749.9</v>
+        <v>10847.79</v>
       </c>
       <c r="C83" t="n">
-        <v>10766.64</v>
+        <v>10873.91</v>
       </c>
       <c r="D83" t="n">
-        <v>10726.25</v>
+        <v>10833.78</v>
       </c>
       <c r="E83" t="n">
-        <v>10743.78</v>
-      </c>
-      <c r="G83" s="1">
+        <v>10854.09</v>
+      </c>
+      <c r="G83" s="3">
         <f>AVERAGE(E79:E83)</f>
         <v/>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="3">
         <f>AVERAGE(E54:E83)</f>
         <v/>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="3">
         <f>G83-H83</f>
         <v/>
       </c>
@@ -3882,26 +3888,26 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10771.4</v>
+        <v>10836.82</v>
       </c>
       <c r="C84" t="n">
-        <v>10794.55</v>
+        <v>10856</v>
       </c>
       <c r="D84" t="n">
-        <v>10740.07</v>
+        <v>10746.74</v>
       </c>
       <c r="E84" t="n">
-        <v>10750.57</v>
-      </c>
-      <c r="G84" s="1">
+        <v>10750.93</v>
+      </c>
+      <c r="G84" s="3">
         <f>AVERAGE(E80:E84)</f>
         <v/>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="3">
         <f>AVERAGE(E55:E84)</f>
         <v/>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="3">
         <f>G84-H84</f>
         <v/>
       </c>
@@ -3911,26 +3917,26 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10735.35</v>
+        <v>10733.56</v>
       </c>
       <c r="C85" t="n">
-        <v>10756.51</v>
+        <v>10752.58</v>
       </c>
       <c r="D85" t="n">
-        <v>10716.52</v>
+        <v>10692.53</v>
       </c>
       <c r="E85" t="n">
-        <v>10734.76</v>
-      </c>
-      <c r="G85" s="1">
+        <v>10707.07</v>
+      </c>
+      <c r="G85" s="3">
         <f>AVERAGE(E81:E85)</f>
         <v/>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="3">
         <f>AVERAGE(E56:E85)</f>
         <v/>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="3">
         <f>G85-H85</f>
         <v/>
       </c>
@@ -3940,26 +3946,26 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10757.35</v>
+        <v>10735.24</v>
       </c>
       <c r="C86" t="n">
-        <v>10803.6</v>
+        <v>10762.91</v>
       </c>
       <c r="D86" t="n">
-        <v>10701.08</v>
+        <v>10697.62</v>
       </c>
       <c r="E86" t="n">
-        <v>10709.11</v>
-      </c>
-      <c r="G86" s="1">
+        <v>10713.55</v>
+      </c>
+      <c r="G86" s="3">
         <f>AVERAGE(E82:E86)</f>
         <v/>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="3">
         <f>AVERAGE(E57:E86)</f>
         <v/>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="3">
         <f>G86-H86</f>
         <v/>
       </c>
@@ -3969,26 +3975,26 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10777.6</v>
+        <v>10623.2</v>
       </c>
       <c r="C87" t="n">
-        <v>10842.25</v>
+        <v>10650.18</v>
       </c>
       <c r="D87" t="n">
-        <v>10743.13</v>
+        <v>10560.44</v>
       </c>
       <c r="E87" t="n">
-        <v>10756.87</v>
-      </c>
-      <c r="G87" s="1">
+        <v>10560.44</v>
+      </c>
+      <c r="G87" s="3">
         <f>AVERAGE(E83:E87)</f>
         <v/>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="3">
         <f>AVERAGE(E58:E87)</f>
         <v/>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="3">
         <f>G87-H87</f>
         <v/>
       </c>
@@ -3998,26 +4004,26 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10768.9</v>
+        <v>10591.62</v>
       </c>
       <c r="C88" t="n">
-        <v>10829.33</v>
+        <v>10665.92</v>
       </c>
       <c r="D88" t="n">
-        <v>10747.37</v>
+        <v>10495.15</v>
       </c>
       <c r="E88" t="n">
-        <v>10793.8</v>
-      </c>
-      <c r="G88" s="1">
+        <v>10600.37</v>
+      </c>
+      <c r="G88" s="3">
         <f>AVERAGE(E84:E88)</f>
         <v/>
       </c>
-      <c r="H88" s="1">
+      <c r="H88" s="3">
         <f>AVERAGE(E59:E88)</f>
         <v/>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="3">
         <f>G88-H88</f>
         <v/>
       </c>
@@ -4027,26 +4033,26 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>10816.04</v>
+        <v>10617.27</v>
       </c>
       <c r="C89" t="n">
-        <v>10843.41</v>
+        <v>10665.43</v>
       </c>
       <c r="D89" t="n">
-        <v>10785.32</v>
+        <v>10565.68</v>
       </c>
       <c r="E89" t="n">
-        <v>10806.36</v>
-      </c>
-      <c r="G89" s="1">
+        <v>10651.11</v>
+      </c>
+      <c r="G89" s="3">
         <f>AVERAGE(E85:E89)</f>
         <v/>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="3">
         <f>AVERAGE(E60:E89)</f>
         <v/>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="3">
         <f>G89-H89</f>
         <v/>
       </c>
@@ -4056,26 +4062,26 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>10797.63</v>
+        <v>10607.62</v>
       </c>
       <c r="C90" t="n">
-        <v>10827.67</v>
+        <v>10635.71</v>
       </c>
       <c r="D90" t="n">
-        <v>10788.51</v>
+        <v>10540.74</v>
       </c>
       <c r="E90" t="n">
-        <v>10788.51</v>
-      </c>
-      <c r="G90" s="1">
+        <v>10566.85</v>
+      </c>
+      <c r="G90" s="3">
         <f>AVERAGE(E86:E90)</f>
         <v/>
       </c>
-      <c r="H90" s="1">
+      <c r="H90" s="3">
         <f>AVERAGE(E61:E90)</f>
         <v/>
       </c>
-      <c r="I90" s="1">
+      <c r="I90" s="3">
         <f>G90-H90</f>
         <v/>
       </c>
@@ -4085,26 +4091,26 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>10797.91</v>
+        <v>10541.03</v>
       </c>
       <c r="C91" t="n">
-        <v>10835.7</v>
+        <v>10541.03</v>
       </c>
       <c r="D91" t="n">
-        <v>10765.31</v>
+        <v>10376.65</v>
       </c>
       <c r="E91" t="n">
-        <v>10800.77</v>
-      </c>
-      <c r="G91" s="1">
+        <v>10393.92</v>
+      </c>
+      <c r="G91" s="3">
         <f>AVERAGE(E87:E91)</f>
         <v/>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="3">
         <f>AVERAGE(E62:E91)</f>
         <v/>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="3">
         <f>G91-H91</f>
         <v/>
       </c>
@@ -4114,26 +4120,26 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>10856.56</v>
+        <v>10404.42</v>
       </c>
       <c r="C92" t="n">
-        <v>10858.5</v>
+        <v>10418.97</v>
       </c>
       <c r="D92" t="n">
-        <v>10769.19</v>
+        <v>10322.76</v>
       </c>
       <c r="E92" t="n">
-        <v>10786.19</v>
-      </c>
-      <c r="G92" s="1">
+        <v>10355.76</v>
+      </c>
+      <c r="G92" s="3">
         <f>AVERAGE(E88:E92)</f>
         <v/>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="3">
         <f>AVERAGE(E63:E92)</f>
         <v/>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="3">
         <f>G92-H92</f>
         <v/>
       </c>
@@ -4143,26 +4149,26 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>10820.83</v>
+        <v>10406.35</v>
       </c>
       <c r="C93" t="n">
-        <v>10842.61</v>
+        <v>10419.28</v>
       </c>
       <c r="D93" t="n">
-        <v>10807.89</v>
+        <v>10336.26</v>
       </c>
       <c r="E93" t="n">
-        <v>10840.34</v>
-      </c>
-      <c r="G93" s="1">
+        <v>10398.62</v>
+      </c>
+      <c r="G93" s="3">
         <f>AVERAGE(E89:E93)</f>
         <v/>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="3">
         <f>AVERAGE(E64:E93)</f>
         <v/>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="3">
         <f>G93-H93</f>
         <v/>
       </c>
@@ -4172,26 +4178,26 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>10839.44</v>
+        <v>10438.33</v>
       </c>
       <c r="C94" t="n">
-        <v>10844.74</v>
+        <v>10504.67</v>
       </c>
       <c r="D94" t="n">
-        <v>10806.01</v>
+        <v>10438.33</v>
       </c>
       <c r="E94" t="n">
-        <v>10818.99</v>
-      </c>
-      <c r="G94" s="1">
+        <v>10473.09</v>
+      </c>
+      <c r="G94" s="3">
         <f>AVERAGE(E90:E94)</f>
         <v/>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="3">
         <f>AVERAGE(E65:E94)</f>
         <v/>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="3">
         <f>G94-H94</f>
         <v/>
       </c>
@@ -4201,26 +4207,26 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>10802.95</v>
+        <v>10488.73</v>
       </c>
       <c r="C95" t="n">
-        <v>10831.38</v>
+        <v>10495.24</v>
       </c>
       <c r="D95" t="n">
-        <v>10721.87</v>
+        <v>10408.06</v>
       </c>
       <c r="E95" t="n">
-        <v>10743.27</v>
-      </c>
-      <c r="G95" s="1">
+        <v>10443.28</v>
+      </c>
+      <c r="G95" s="3">
         <f>AVERAGE(E91:E95)</f>
         <v/>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="3">
         <f>AVERAGE(E66:E95)</f>
         <v/>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="3">
         <f>G95-H95</f>
         <v/>
       </c>
@@ -4230,26 +4236,26 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>10713.67</v>
+        <v>10447.11</v>
       </c>
       <c r="C96" t="n">
-        <v>10742.61</v>
+        <v>10489.17</v>
       </c>
       <c r="D96" t="n">
-        <v>10659.29</v>
+        <v>10444.7</v>
       </c>
       <c r="E96" t="n">
-        <v>10732.67</v>
-      </c>
-      <c r="G96" s="1">
+        <v>10470.7</v>
+      </c>
+      <c r="G96" s="3">
         <f>AVERAGE(E92:E96)</f>
         <v/>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="3">
         <f>AVERAGE(E67:E96)</f>
         <v/>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="3">
         <f>G96-H96</f>
         <v/>
       </c>
@@ -4259,26 +4265,26 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10728.22</v>
+        <v>10494.6</v>
       </c>
       <c r="C97" t="n">
-        <v>10749.39</v>
+        <v>10577.53</v>
       </c>
       <c r="D97" t="n">
-        <v>10683.92</v>
+        <v>10494.6</v>
       </c>
       <c r="E97" t="n">
-        <v>10683.92</v>
-      </c>
-      <c r="G97" s="1">
+        <v>10538.01</v>
+      </c>
+      <c r="G97" s="3">
         <f>AVERAGE(E93:E97)</f>
         <v/>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="3">
         <f>AVERAGE(E68:E97)</f>
         <v/>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="3">
         <f>G97-H97</f>
         <v/>
       </c>
@@ -4288,26 +4294,26 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10716.59</v>
+        <v>10517.21</v>
       </c>
       <c r="C98" t="n">
-        <v>10735.08</v>
+        <v>10520.66</v>
       </c>
       <c r="D98" t="n">
-        <v>10654.58</v>
+        <v>10436.11</v>
       </c>
       <c r="E98" t="n">
-        <v>10687.18</v>
-      </c>
-      <c r="G98" s="1">
+        <v>10491.44</v>
+      </c>
+      <c r="G98" s="3">
         <f>AVERAGE(E94:E98)</f>
         <v/>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="3">
         <f>AVERAGE(E69:E98)</f>
         <v/>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="3">
         <f>G98-H98</f>
         <v/>
       </c>
@@ -4317,26 +4323,26 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10662.08</v>
+        <v>10478.74</v>
       </c>
       <c r="C99" t="n">
-        <v>10669.59</v>
+        <v>10526.41</v>
       </c>
       <c r="D99" t="n">
-        <v>10600.26</v>
+        <v>10472.39</v>
       </c>
       <c r="E99" t="n">
-        <v>10630.65</v>
-      </c>
-      <c r="G99" s="1">
+        <v>10506.52</v>
+      </c>
+      <c r="G99" s="3">
         <f>AVERAGE(E95:E99)</f>
         <v/>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="3">
         <f>AVERAGE(E70:E99)</f>
         <v/>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="3">
         <f>G99-H99</f>
         <v/>
       </c>
@@ -4346,26 +4352,26 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10629.16</v>
+        <v>10508.33</v>
       </c>
       <c r="C100" t="n">
-        <v>10666.66</v>
+        <v>10544</v>
       </c>
       <c r="D100" t="n">
-        <v>10609.23</v>
+        <v>10452.08</v>
       </c>
       <c r="E100" t="n">
-        <v>10625.04</v>
-      </c>
-      <c r="G100" s="1">
+        <v>10467.34</v>
+      </c>
+      <c r="G100" s="3">
         <f>AVERAGE(E96:E100)</f>
         <v/>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="3">
         <f>AVERAGE(E71:E100)</f>
         <v/>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="3">
         <f>G100-H100</f>
         <v/>
       </c>
@@ -4375,26 +4381,26 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10673.43</v>
+        <v>10470.36</v>
       </c>
       <c r="C101" t="n">
-        <v>10729.45</v>
+        <v>10514.31</v>
       </c>
       <c r="D101" t="n">
-        <v>10673.43</v>
+        <v>10470.36</v>
       </c>
       <c r="E101" t="n">
-        <v>10701.64</v>
-      </c>
-      <c r="G101" s="1">
+        <v>10504.52</v>
+      </c>
+      <c r="G101" s="3">
         <f>AVERAGE(E97:E101)</f>
         <v/>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="3">
         <f>AVERAGE(E72:E101)</f>
         <v/>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="3">
         <f>G101-H101</f>
         <v/>
       </c>
@@ -4404,26 +4410,26 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10706.79</v>
+        <v>10526.97</v>
       </c>
       <c r="C102" t="n">
-        <v>10728.39</v>
+        <v>10545.78</v>
       </c>
       <c r="D102" t="n">
-        <v>10656.18</v>
+        <v>10488.97</v>
       </c>
       <c r="E102" t="n">
-        <v>10664.55</v>
-      </c>
-      <c r="G102" s="1">
+        <v>10488.97</v>
+      </c>
+      <c r="G102" s="3">
         <f>AVERAGE(E98:E102)</f>
         <v/>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="3">
         <f>AVERAGE(E73:E102)</f>
         <v/>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="3">
         <f>G102-H102</f>
         <v/>
       </c>
@@ -4433,26 +4439,26 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>10688.22</v>
+        <v>10503.1</v>
       </c>
       <c r="C103" t="n">
-        <v>10787.58</v>
+        <v>10537.27</v>
       </c>
       <c r="D103" t="n">
-        <v>10687.26</v>
+        <v>10486.52</v>
       </c>
       <c r="E103" t="n">
-        <v>10779.24</v>
-      </c>
-      <c r="G103" s="1">
+        <v>10537.27</v>
+      </c>
+      <c r="G103" s="3">
         <f>AVERAGE(E99:E103)</f>
         <v/>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="3">
         <f>AVERAGE(E74:E103)</f>
         <v/>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="3">
         <f>G103-H103</f>
         <v/>
       </c>
@@ -4462,26 +4468,26 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>10815.4</v>
+        <v>10546.64</v>
       </c>
       <c r="C104" t="n">
-        <v>10882.65</v>
+        <v>10556.65</v>
       </c>
       <c r="D104" t="n">
-        <v>10801.1</v>
+        <v>10514.54</v>
       </c>
       <c r="E104" t="n">
-        <v>10822.59</v>
-      </c>
-      <c r="G104" s="1">
+        <v>10522.49</v>
+      </c>
+      <c r="G104" s="3">
         <f>AVERAGE(E100:E104)</f>
         <v/>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="3">
         <f>AVERAGE(E75:E104)</f>
         <v/>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="3">
         <f>G104-H104</f>
         <v/>
       </c>
@@ -4491,26 +4497,26 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>10837.61</v>
+        <v>10526.14</v>
       </c>
       <c r="C105" t="n">
-        <v>10872.29</v>
+        <v>10528.92</v>
       </c>
       <c r="D105" t="n">
-        <v>10809.09</v>
+        <v>10408.12</v>
       </c>
       <c r="E105" t="n">
-        <v>10854.57</v>
-      </c>
-      <c r="G105" s="1">
+        <v>10421.91</v>
+      </c>
+      <c r="G105" s="3">
         <f>AVERAGE(E101:E105)</f>
         <v/>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="3">
         <f>AVERAGE(E76:E105)</f>
         <v/>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="3">
         <f>G105-H105</f>
         <v/>
       </c>
@@ -4520,26 +4526,26 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>10847.79</v>
+        <v>10419.81</v>
       </c>
       <c r="C106" t="n">
-        <v>10873.91</v>
+        <v>10497.77</v>
       </c>
       <c r="D106" t="n">
-        <v>10833.78</v>
+        <v>10419.81</v>
       </c>
       <c r="E106" t="n">
-        <v>10854.09</v>
-      </c>
-      <c r="G106" s="1">
+        <v>10486.67</v>
+      </c>
+      <c r="G106" s="3">
         <f>AVERAGE(E102:E106)</f>
         <v/>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="3">
         <f>AVERAGE(E77:E106)</f>
         <v/>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="3">
         <f>G106-H106</f>
         <v/>
       </c>
@@ -4549,26 +4555,26 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>10836.82</v>
+        <v>10513.29</v>
       </c>
       <c r="C107" t="n">
-        <v>10856</v>
+        <v>10592.04</v>
       </c>
       <c r="D107" t="n">
-        <v>10746.74</v>
+        <v>10513.29</v>
       </c>
       <c r="E107" t="n">
-        <v>10750.93</v>
-      </c>
-      <c r="G107" s="1">
+        <v>10567.64</v>
+      </c>
+      <c r="G107" s="3">
         <f>AVERAGE(E103:E107)</f>
         <v/>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="3">
         <f>AVERAGE(E78:E107)</f>
         <v/>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="3">
         <f>G107-H107</f>
         <v/>
       </c>
@@ -4578,26 +4584,26 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>10733.56</v>
+        <v>10590.95</v>
       </c>
       <c r="C108" t="n">
-        <v>10752.58</v>
+        <v>10659.98</v>
       </c>
       <c r="D108" t="n">
-        <v>10692.53</v>
+        <v>10590.95</v>
       </c>
       <c r="E108" t="n">
-        <v>10707.07</v>
-      </c>
-      <c r="G108" s="1">
+        <v>10642.86</v>
+      </c>
+      <c r="G108" s="3">
         <f>AVERAGE(E104:E108)</f>
         <v/>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="3">
         <f>AVERAGE(E79:E108)</f>
         <v/>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="3">
         <f>G108-H108</f>
         <v/>
       </c>
@@ -4607,26 +4613,26 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>10735.24</v>
+        <v>10664.82</v>
       </c>
       <c r="C109" t="n">
-        <v>10762.91</v>
+        <v>10710.73</v>
       </c>
       <c r="D109" t="n">
-        <v>10697.62</v>
+        <v>10650.77</v>
       </c>
       <c r="E109" t="n">
-        <v>10713.55</v>
-      </c>
-      <c r="G109" s="1">
+        <v>10710.73</v>
+      </c>
+      <c r="G109" s="3">
         <f>AVERAGE(E105:E109)</f>
         <v/>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="3">
         <f>AVERAGE(E80:E109)</f>
         <v/>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="3">
         <f>G109-H109</f>
         <v/>
       </c>
@@ -4636,26 +4642,26 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>10623.2</v>
+        <v>10759.61</v>
       </c>
       <c r="C110" t="n">
-        <v>10650.18</v>
+        <v>10813.16</v>
       </c>
       <c r="D110" t="n">
-        <v>10560.44</v>
+        <v>10759.61</v>
       </c>
       <c r="E110" t="n">
-        <v>10560.44</v>
-      </c>
-      <c r="G110" s="1">
+        <v>10801.57</v>
+      </c>
+      <c r="G110" s="3">
         <f>AVERAGE(E106:E110)</f>
         <v/>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="3">
         <f>AVERAGE(E81:E110)</f>
         <v/>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="3">
         <f>G110-H110</f>
         <v/>
       </c>
@@ -4665,26 +4671,26 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>10591.62</v>
+        <v>10834.58</v>
       </c>
       <c r="C111" t="n">
-        <v>10665.92</v>
+        <v>10853.46</v>
       </c>
       <c r="D111" t="n">
-        <v>10495.15</v>
+        <v>10794.25</v>
       </c>
       <c r="E111" t="n">
-        <v>10600.37</v>
-      </c>
-      <c r="G111" s="1">
+        <v>10848.63</v>
+      </c>
+      <c r="G111" s="3">
         <f>AVERAGE(E107:E111)</f>
         <v/>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="3">
         <f>AVERAGE(E82:E111)</f>
         <v/>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="3">
         <f>G111-H111</f>
         <v/>
       </c>
@@ -4694,26 +4700,26 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>10617.27</v>
+        <v>10856.92</v>
       </c>
       <c r="C112" t="n">
-        <v>10665.43</v>
+        <v>10879.8</v>
       </c>
       <c r="D112" t="n">
-        <v>10565.68</v>
+        <v>10815.68</v>
       </c>
       <c r="E112" t="n">
-        <v>10651.11</v>
-      </c>
-      <c r="G112" s="1">
+        <v>10879.8</v>
+      </c>
+      <c r="G112" s="3">
         <f>AVERAGE(E108:E112)</f>
         <v/>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="3">
         <f>AVERAGE(E83:E112)</f>
         <v/>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="3">
         <f>G112-H112</f>
         <v/>
       </c>
@@ -4723,26 +4729,26 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>10607.62</v>
+        <v>10899.09</v>
       </c>
       <c r="C113" t="n">
-        <v>10635.71</v>
+        <v>10918.47</v>
       </c>
       <c r="D113" t="n">
-        <v>10540.74</v>
+        <v>10869.12</v>
       </c>
       <c r="E113" t="n">
-        <v>10566.85</v>
-      </c>
-      <c r="G113" s="1">
+        <v>10915.75</v>
+      </c>
+      <c r="G113" s="3">
         <f>AVERAGE(E109:E113)</f>
         <v/>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="3">
         <f>AVERAGE(E84:E113)</f>
         <v/>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="3">
         <f>G113-H113</f>
         <v/>
       </c>
@@ -4752,26 +4758,26 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10541.03</v>
+        <v>10922.35</v>
       </c>
       <c r="C114" t="n">
-        <v>10541.03</v>
+        <v>10931</v>
       </c>
       <c r="D114" t="n">
-        <v>10376.65</v>
+        <v>10860.77</v>
       </c>
       <c r="E114" t="n">
-        <v>10393.92</v>
-      </c>
-      <c r="G114" s="1">
+        <v>10914.89</v>
+      </c>
+      <c r="G114" s="3">
         <f>AVERAGE(E110:E114)</f>
         <v/>
       </c>
-      <c r="H114" s="1">
+      <c r="H114" s="3">
         <f>AVERAGE(E85:E114)</f>
         <v/>
       </c>
-      <c r="I114" s="1">
+      <c r="I114" s="3">
         <f>G114-H114</f>
         <v/>
       </c>
@@ -4781,26 +4787,26 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>10404.42</v>
+        <v>10915.32</v>
       </c>
       <c r="C115" t="n">
-        <v>10418.97</v>
+        <v>10934.75</v>
       </c>
       <c r="D115" t="n">
-        <v>10322.76</v>
+        <v>10819.25</v>
       </c>
       <c r="E115" t="n">
-        <v>10355.76</v>
-      </c>
-      <c r="G115" s="1">
+        <v>10831.09</v>
+      </c>
+      <c r="G115" s="3">
         <f>AVERAGE(E111:E115)</f>
         <v/>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="3">
         <f>AVERAGE(E86:E115)</f>
         <v/>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="3">
         <f>G115-H115</f>
         <v/>
       </c>
@@ -4810,26 +4816,26 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>10406.35</v>
+        <v>10824.54</v>
       </c>
       <c r="C116" t="n">
-        <v>10419.28</v>
+        <v>10844.08</v>
       </c>
       <c r="D116" t="n">
-        <v>10336.26</v>
+        <v>10770.1</v>
       </c>
       <c r="E116" t="n">
-        <v>10398.62</v>
-      </c>
-      <c r="G116" s="1">
+        <v>10810.06</v>
+      </c>
+      <c r="G116" s="3">
         <f>AVERAGE(E112:E116)</f>
         <v/>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="3">
         <f>AVERAGE(E87:E116)</f>
         <v/>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="3">
         <f>G116-H116</f>
         <v/>
       </c>
@@ -4839,26 +4845,26 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>10438.33</v>
+        <v>10818.24</v>
       </c>
       <c r="C117" t="n">
-        <v>10504.67</v>
+        <v>10899.98</v>
       </c>
       <c r="D117" t="n">
-        <v>10438.33</v>
+        <v>10818.24</v>
       </c>
       <c r="E117" t="n">
-        <v>10473.09</v>
-      </c>
-      <c r="G117" s="1">
+        <v>10883.96</v>
+      </c>
+      <c r="G117" s="3">
         <f>AVERAGE(E113:E117)</f>
         <v/>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="3">
         <f>AVERAGE(E88:E117)</f>
         <v/>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="3">
         <f>G117-H117</f>
         <v/>
       </c>
@@ -4868,26 +4874,26 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>10488.73</v>
+        <v>10932.37</v>
       </c>
       <c r="C118" t="n">
-        <v>10495.24</v>
+        <v>10962.55</v>
       </c>
       <c r="D118" t="n">
-        <v>10408.06</v>
+        <v>10911.89</v>
       </c>
       <c r="E118" t="n">
-        <v>10443.28</v>
-      </c>
-      <c r="G118" s="1">
+        <v>10956.31</v>
+      </c>
+      <c r="G118" s="3">
         <f>AVERAGE(E114:E118)</f>
         <v/>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="3">
         <f>AVERAGE(E89:E118)</f>
         <v/>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="3">
         <f>G118-H118</f>
         <v/>
       </c>
@@ -4897,26 +4903,26 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10447.11</v>
+        <v>10955.81</v>
       </c>
       <c r="C119" t="n">
-        <v>10489.17</v>
+        <v>10986.11</v>
       </c>
       <c r="D119" t="n">
-        <v>10444.7</v>
+        <v>10920.5</v>
       </c>
       <c r="E119" t="n">
-        <v>10470.7</v>
-      </c>
-      <c r="G119" s="1">
+        <v>10986.11</v>
+      </c>
+      <c r="G119" s="3">
         <f>AVERAGE(E115:E119)</f>
         <v/>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="3">
         <f>AVERAGE(E90:E119)</f>
         <v/>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="3">
         <f>G119-H119</f>
         <v/>
       </c>
@@ -4926,26 +4932,26 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10494.6</v>
+        <v>10976.13</v>
       </c>
       <c r="C120" t="n">
-        <v>10577.53</v>
+        <v>11030.22</v>
       </c>
       <c r="D120" t="n">
-        <v>10494.6</v>
+        <v>10942.95</v>
       </c>
       <c r="E120" t="n">
-        <v>10538.01</v>
-      </c>
-      <c r="G120" s="1">
+        <v>11004.8</v>
+      </c>
+      <c r="G120" s="3">
         <f>AVERAGE(E116:E120)</f>
         <v/>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="3">
         <f>AVERAGE(E91:E120)</f>
         <v/>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="3">
         <f>G120-H120</f>
         <v/>
       </c>
@@ -4955,26 +4961,26 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10517.21</v>
+        <v>11048.06</v>
       </c>
       <c r="C121" t="n">
-        <v>10520.66</v>
+        <v>11122.82</v>
       </c>
       <c r="D121" t="n">
-        <v>10436.11</v>
+        <v>11048.06</v>
       </c>
       <c r="E121" t="n">
-        <v>10491.44</v>
-      </c>
-      <c r="G121" s="1">
+        <v>11071.57</v>
+      </c>
+      <c r="G121" s="3">
         <f>AVERAGE(E117:E121)</f>
         <v/>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="3">
         <f>AVERAGE(E92:E121)</f>
         <v/>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="3">
         <f>G121-H121</f>
         <v/>
       </c>
@@ -4984,26 +4990,26 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10478.74</v>
+        <v>11123.58</v>
       </c>
       <c r="C122" t="n">
-        <v>10526.41</v>
+        <v>11150.85</v>
       </c>
       <c r="D122" t="n">
-        <v>10472.39</v>
+        <v>11095.85</v>
       </c>
       <c r="E122" t="n">
-        <v>10506.52</v>
-      </c>
-      <c r="G122" s="1">
+        <v>11150.85</v>
+      </c>
+      <c r="G122" s="3">
         <f>AVERAGE(E118:E122)</f>
         <v/>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="3">
         <f>AVERAGE(E93:E122)</f>
         <v/>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="3">
         <f>G122-H122</f>
         <v/>
       </c>
@@ -5013,26 +5019,26 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10508.33</v>
+        <v>11169.79</v>
       </c>
       <c r="C123" t="n">
-        <v>10544</v>
+        <v>11231.46</v>
       </c>
       <c r="D123" t="n">
-        <v>10452.08</v>
+        <v>11142.38</v>
       </c>
       <c r="E123" t="n">
-        <v>10467.34</v>
-      </c>
-      <c r="G123" s="1">
+        <v>11231.46</v>
+      </c>
+      <c r="G123" s="3">
         <f>AVERAGE(E119:E123)</f>
         <v/>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="3">
         <f>AVERAGE(E94:E123)</f>
         <v/>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="3">
         <f>G123-H123</f>
         <v/>
       </c>
@@ -5042,26 +5048,26 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>10470.36</v>
+        <v>11243.49</v>
       </c>
       <c r="C124" t="n">
-        <v>10514.31</v>
+        <v>11270.18</v>
       </c>
       <c r="D124" t="n">
-        <v>10470.36</v>
+        <v>11201.52</v>
       </c>
       <c r="E124" t="n">
-        <v>10504.52</v>
-      </c>
-      <c r="G124" s="1">
+        <v>11253.11</v>
+      </c>
+      <c r="G124" s="3">
         <f>AVERAGE(E120:E124)</f>
         <v/>
       </c>
-      <c r="H124" s="1">
+      <c r="H124" s="3">
         <f>AVERAGE(E95:E124)</f>
         <v/>
       </c>
-      <c r="I124" s="1">
+      <c r="I124" s="3">
         <f>G124-H124</f>
         <v/>
       </c>
@@ -5071,26 +5077,26 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>10526.97</v>
+        <v>11228.71</v>
       </c>
       <c r="C125" t="n">
-        <v>10545.78</v>
+        <v>11228.71</v>
       </c>
       <c r="D125" t="n">
-        <v>10488.97</v>
+        <v>11107.32</v>
       </c>
       <c r="E125" t="n">
-        <v>10488.97</v>
-      </c>
-      <c r="G125" s="1">
+        <v>11152.16</v>
+      </c>
+      <c r="G125" s="3">
         <f>AVERAGE(E121:E125)</f>
         <v/>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="3">
         <f>AVERAGE(E96:E125)</f>
         <v/>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="3">
         <f>G125-H125</f>
         <v/>
       </c>
@@ -5100,26 +5106,26 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>10503.1</v>
+        <v>11154.36</v>
       </c>
       <c r="C126" t="n">
-        <v>10537.27</v>
+        <v>11268.61</v>
       </c>
       <c r="D126" t="n">
-        <v>10486.52</v>
+        <v>11131.85</v>
       </c>
       <c r="E126" t="n">
-        <v>10537.27</v>
-      </c>
-      <c r="G126" s="1">
+        <v>11165.95</v>
+      </c>
+      <c r="G126" s="3">
         <f>AVERAGE(E122:E126)</f>
         <v/>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="3">
         <f>AVERAGE(E97:E126)</f>
         <v/>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="3">
         <f>G126-H126</f>
         <v/>
       </c>
@@ -5129,26 +5135,26 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>10546.64</v>
+        <v>11152.53</v>
       </c>
       <c r="C127" t="n">
-        <v>10556.65</v>
+        <v>11178.3</v>
       </c>
       <c r="D127" t="n">
-        <v>10514.54</v>
+        <v>11089.48</v>
       </c>
       <c r="E127" t="n">
-        <v>10522.49</v>
-      </c>
-      <c r="G127" s="1">
+        <v>11147.1</v>
+      </c>
+      <c r="G127" s="3">
         <f>AVERAGE(E123:E127)</f>
         <v/>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="3">
         <f>AVERAGE(E98:E127)</f>
         <v/>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="3">
         <f>G127-H127</f>
         <v/>
       </c>
@@ -5158,26 +5164,26 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>10526.14</v>
+        <v>11202.27</v>
       </c>
       <c r="C128" t="n">
-        <v>10528.92</v>
+        <v>11246.18</v>
       </c>
       <c r="D128" t="n">
-        <v>10408.12</v>
+        <v>11161.83</v>
       </c>
       <c r="E128" t="n">
-        <v>10421.91</v>
-      </c>
-      <c r="G128" s="1">
+        <v>11221.81</v>
+      </c>
+      <c r="G128" s="3">
         <f>AVERAGE(E124:E128)</f>
         <v/>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="3">
         <f>AVERAGE(E99:E128)</f>
         <v/>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="3">
         <f>G128-H128</f>
         <v/>
       </c>
@@ -5187,26 +5193,26 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>10419.81</v>
+        <v>11189.57</v>
       </c>
       <c r="C129" t="n">
-        <v>10497.77</v>
+        <v>11189.57</v>
       </c>
       <c r="D129" t="n">
-        <v>10419.81</v>
+        <v>11076.78</v>
       </c>
       <c r="E129" t="n">
-        <v>10486.67</v>
-      </c>
-      <c r="G129" s="1">
+        <v>11076.78</v>
+      </c>
+      <c r="G129" s="3">
         <f>AVERAGE(E125:E129)</f>
         <v/>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="3">
         <f>AVERAGE(E100:E129)</f>
         <v/>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="3">
         <f>G129-H129</f>
         <v/>
       </c>
@@ -5216,26 +5222,26 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>10513.29</v>
+        <v>11054.36</v>
       </c>
       <c r="C130" t="n">
-        <v>10592.04</v>
+        <v>11158.29</v>
       </c>
       <c r="D130" t="n">
-        <v>10513.29</v>
+        <v>11007.89</v>
       </c>
       <c r="E130" t="n">
-        <v>10567.64</v>
-      </c>
-      <c r="G130" s="1">
+        <v>11103.79</v>
+      </c>
+      <c r="G130" s="3">
         <f>AVERAGE(E126:E130)</f>
         <v/>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="3">
         <f>AVERAGE(E101:E130)</f>
         <v/>
       </c>
-      <c r="I130" s="1">
+      <c r="I130" s="3">
         <f>G130-H130</f>
         <v/>
       </c>
@@ -5245,26 +5251,26 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>10590.95</v>
+        <v>11139.4</v>
       </c>
       <c r="C131" t="n">
-        <v>10659.98</v>
+        <v>11212.1</v>
       </c>
       <c r="D131" t="n">
-        <v>10590.95</v>
+        <v>11139.4</v>
       </c>
       <c r="E131" t="n">
-        <v>10642.86</v>
-      </c>
-      <c r="G131" s="1">
+        <v>11160.25</v>
+      </c>
+      <c r="G131" s="3">
         <f>AVERAGE(E127:E131)</f>
         <v/>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="3">
         <f>AVERAGE(E102:E131)</f>
         <v/>
       </c>
-      <c r="I131" s="1">
+      <c r="I131" s="3">
         <f>G131-H131</f>
         <v/>
       </c>
@@ -5274,26 +5280,26 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>10664.82</v>
+        <v>11151.65</v>
       </c>
       <c r="C132" t="n">
-        <v>10710.73</v>
+        <v>11153.32</v>
       </c>
       <c r="D132" t="n">
-        <v>10650.77</v>
+        <v>11070.43</v>
       </c>
       <c r="E132" t="n">
-        <v>10710.73</v>
-      </c>
-      <c r="G132" s="1">
+        <v>11126.23</v>
+      </c>
+      <c r="G132" s="3">
         <f>AVERAGE(E128:E132)</f>
         <v/>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="3">
         <f>AVERAGE(E103:E132)</f>
         <v/>
       </c>
-      <c r="I132" s="1">
+      <c r="I132" s="3">
         <f>G132-H132</f>
         <v/>
       </c>
@@ -5303,26 +5309,26 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>10759.61</v>
+        <v>10970.3</v>
       </c>
       <c r="C133" t="n">
-        <v>10813.16</v>
+        <v>10970.3</v>
       </c>
       <c r="D133" t="n">
-        <v>10759.61</v>
+        <v>10855.43</v>
       </c>
       <c r="E133" t="n">
-        <v>10801.57</v>
-      </c>
-      <c r="G133" s="1">
+        <v>10946.25</v>
+      </c>
+      <c r="G133" s="3">
         <f>AVERAGE(E129:E133)</f>
         <v/>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="3">
         <f>AVERAGE(E104:E133)</f>
         <v/>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="3">
         <f>G133-H133</f>
         <v/>
       </c>
@@ -5332,26 +5338,26 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>10834.58</v>
+        <v>10761.01</v>
       </c>
       <c r="C134" t="n">
-        <v>10853.46</v>
+        <v>10761.01</v>
       </c>
       <c r="D134" t="n">
-        <v>10794.25</v>
+        <v>10300.4</v>
       </c>
       <c r="E134" t="n">
-        <v>10848.63</v>
-      </c>
-      <c r="G134" s="1">
+        <v>10404</v>
+      </c>
+      <c r="G134" s="3">
         <f>AVERAGE(E130:E134)</f>
         <v/>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="3">
         <f>AVERAGE(E105:E134)</f>
         <v/>
       </c>
-      <c r="I134" s="1">
+      <c r="I134" s="3">
         <f>G134-H134</f>
         <v/>
       </c>
@@ -5361,26 +5367,26 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>10856.92</v>
+        <v>10547.64</v>
       </c>
       <c r="C135" t="n">
-        <v>10879.8</v>
+        <v>10697.82</v>
       </c>
       <c r="D135" t="n">
-        <v>10815.68</v>
+        <v>10547.64</v>
       </c>
       <c r="E135" t="n">
-        <v>10879.8</v>
-      </c>
-      <c r="G135" s="1">
+        <v>10551.54</v>
+      </c>
+      <c r="G135" s="3">
         <f>AVERAGE(E131:E135)</f>
         <v/>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="3">
         <f>AVERAGE(E106:E135)</f>
         <v/>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="3">
         <f>G135-H135</f>
         <v/>
       </c>
@@ -5390,26 +5396,26 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>10899.09</v>
+        <v>10559.44</v>
       </c>
       <c r="C136" t="n">
-        <v>10918.47</v>
+        <v>10609.5</v>
       </c>
       <c r="D136" t="n">
-        <v>10869.12</v>
+        <v>10512.93</v>
       </c>
       <c r="E136" t="n">
-        <v>10915.75</v>
-      </c>
-      <c r="G136" s="1">
+        <v>10528.52</v>
+      </c>
+      <c r="G136" s="3">
         <f>AVERAGE(E132:E136)</f>
         <v/>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="3">
         <f>AVERAGE(E107:E136)</f>
         <v/>
       </c>
-      <c r="I136" s="1">
+      <c r="I136" s="3">
         <f>G136-H136</f>
         <v/>
       </c>
@@ -5419,26 +5425,26 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>10922.35</v>
+        <v>10371.01</v>
       </c>
       <c r="C137" t="n">
-        <v>10931</v>
+        <v>10392.31</v>
       </c>
       <c r="D137" t="n">
-        <v>10860.77</v>
+        <v>10189.04</v>
       </c>
       <c r="E137" t="n">
-        <v>10914.89</v>
-      </c>
-      <c r="G137" s="1">
+        <v>10371.75</v>
+      </c>
+      <c r="G137" s="3">
         <f>AVERAGE(E133:E137)</f>
         <v/>
       </c>
-      <c r="H137" s="1">
+      <c r="H137" s="3">
         <f>AVERAGE(E108:E137)</f>
         <v/>
       </c>
-      <c r="I137" s="1">
+      <c r="I137" s="3">
         <f>G137-H137</f>
         <v/>
       </c>
@@ -5448,26 +5454,26 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>10915.32</v>
+        <v>10429.09</v>
       </c>
       <c r="C138" t="n">
-        <v>10934.75</v>
+        <v>10473.51</v>
       </c>
       <c r="D138" t="n">
-        <v>10819.25</v>
+        <v>10416.01</v>
       </c>
       <c r="E138" t="n">
-        <v>10831.09</v>
-      </c>
-      <c r="G138" s="1">
+        <v>10421.09</v>
+      </c>
+      <c r="G138" s="3">
         <f>AVERAGE(E134:E138)</f>
         <v/>
       </c>
-      <c r="H138" s="1">
+      <c r="H138" s="3">
         <f>AVERAGE(E109:E138)</f>
         <v/>
       </c>
-      <c r="I138" s="1">
+      <c r="I138" s="3">
         <f>G138-H138</f>
         <v/>
       </c>
@@ -5477,26 +5483,26 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10824.54</v>
+        <v>10559.79</v>
       </c>
       <c r="C139" t="n">
-        <v>10844.08</v>
+        <v>10720.48</v>
       </c>
       <c r="D139" t="n">
-        <v>10770.1</v>
+        <v>10559.79</v>
       </c>
       <c r="E139" t="n">
-        <v>10810.06</v>
-      </c>
-      <c r="G139" s="1">
+        <v>10714.44</v>
+      </c>
+      <c r="G139" s="3">
         <f>AVERAGE(E135:E139)</f>
         <v/>
       </c>
-      <c r="H139" s="1">
+      <c r="H139" s="3">
         <f>AVERAGE(E110:E139)</f>
         <v/>
       </c>
-      <c r="I139" s="1">
+      <c r="I139" s="3">
         <f>G139-H139</f>
         <v/>
       </c>
@@ -5506,26 +5512,26 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10818.24</v>
+        <v>10698.47</v>
       </c>
       <c r="C140" t="n">
-        <v>10899.98</v>
+        <v>10698.47</v>
       </c>
       <c r="D140" t="n">
-        <v>10818.24</v>
+        <v>10620.8</v>
       </c>
       <c r="E140" t="n">
-        <v>10883.96</v>
-      </c>
-      <c r="G140" s="1">
+        <v>10662.38</v>
+      </c>
+      <c r="G140" s="3">
         <f>AVERAGE(E136:E140)</f>
         <v/>
       </c>
-      <c r="H140" s="1">
+      <c r="H140" s="3">
         <f>AVERAGE(E111:E140)</f>
         <v/>
       </c>
-      <c r="I140" s="1">
+      <c r="I140" s="3">
         <f>G140-H140</f>
         <v/>
       </c>
@@ -5535,26 +5541,26 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10932.37</v>
+        <v>10688.97</v>
       </c>
       <c r="C141" t="n">
-        <v>10962.55</v>
+        <v>10799.29</v>
       </c>
       <c r="D141" t="n">
-        <v>10911.89</v>
+        <v>10688.97</v>
       </c>
       <c r="E141" t="n">
-        <v>10956.31</v>
-      </c>
-      <c r="G141" s="1">
+        <v>10794.55</v>
+      </c>
+      <c r="G141" s="3">
         <f>AVERAGE(E137:E141)</f>
         <v/>
       </c>
-      <c r="H141" s="1">
+      <c r="H141" s="3">
         <f>AVERAGE(E112:E141)</f>
         <v/>
       </c>
-      <c r="I141" s="1">
+      <c r="I141" s="3">
         <f>G141-H141</f>
         <v/>
       </c>
@@ -5564,26 +5570,26 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10955.81</v>
+        <v>10827.98</v>
       </c>
       <c r="C142" t="n">
-        <v>10986.11</v>
+        <v>10890.69</v>
       </c>
       <c r="D142" t="n">
-        <v>10920.5</v>
+        <v>10827.98</v>
       </c>
       <c r="E142" t="n">
-        <v>10986.11</v>
-      </c>
-      <c r="G142" s="1">
+        <v>10836.7</v>
+      </c>
+      <c r="G142" s="3">
         <f>AVERAGE(E138:E142)</f>
         <v/>
       </c>
-      <c r="H142" s="1">
+      <c r="H142" s="3">
         <f>AVERAGE(E113:E142)</f>
         <v/>
       </c>
-      <c r="I142" s="1">
+      <c r="I142" s="3">
         <f>G142-H142</f>
         <v/>
       </c>
@@ -5593,26 +5599,26 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10976.13</v>
+        <v>10896.16</v>
       </c>
       <c r="C143" t="n">
-        <v>11030.22</v>
+        <v>10937.9</v>
       </c>
       <c r="D143" t="n">
-        <v>10942.95</v>
+        <v>10815.47</v>
       </c>
       <c r="E143" t="n">
-        <v>11004.8</v>
-      </c>
-      <c r="G143" s="1">
+        <v>10815.47</v>
+      </c>
+      <c r="G143" s="3">
         <f>AVERAGE(E139:E143)</f>
         <v/>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="3">
         <f>AVERAGE(E114:E143)</f>
         <v/>
       </c>
-      <c r="I143" s="1">
+      <c r="I143" s="3">
         <f>G143-H143</f>
         <v/>
       </c>
@@ -5622,26 +5628,26 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>11048.06</v>
+        <v>10779.1</v>
       </c>
       <c r="C144" t="n">
-        <v>11122.82</v>
+        <v>10805.55</v>
       </c>
       <c r="D144" t="n">
-        <v>11048.06</v>
+        <v>10709.69</v>
       </c>
       <c r="E144" t="n">
-        <v>11071.57</v>
-      </c>
-      <c r="G144" s="1">
+        <v>10785.79</v>
+      </c>
+      <c r="G144" s="3">
         <f>AVERAGE(E140:E144)</f>
         <v/>
       </c>
-      <c r="H144" s="1">
+      <c r="H144" s="3">
         <f>AVERAGE(E115:E144)</f>
         <v/>
       </c>
-      <c r="I144" s="1">
+      <c r="I144" s="3">
         <f>G144-H144</f>
         <v/>
       </c>
@@ -5651,26 +5657,26 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>11123.58</v>
+        <v>10719.29</v>
       </c>
       <c r="C145" t="n">
-        <v>11150.85</v>
+        <v>10719.29</v>
       </c>
       <c r="D145" t="n">
-        <v>11095.85</v>
+        <v>10638.98</v>
       </c>
       <c r="E145" t="n">
-        <v>11150.85</v>
-      </c>
-      <c r="G145" s="1">
+        <v>10698.17</v>
+      </c>
+      <c r="G145" s="3">
         <f>AVERAGE(E141:E145)</f>
         <v/>
       </c>
-      <c r="H145" s="1">
+      <c r="H145" s="3">
         <f>AVERAGE(E116:E145)</f>
         <v/>
       </c>
-      <c r="I145" s="1">
+      <c r="I145" s="3">
         <f>G145-H145</f>
         <v/>
       </c>
@@ -5680,26 +5686,26 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>11169.79</v>
+        <v>10727.45</v>
       </c>
       <c r="C146" t="n">
-        <v>11231.46</v>
+        <v>10756.37</v>
       </c>
       <c r="D146" t="n">
-        <v>11142.38</v>
+        <v>10642.9</v>
       </c>
       <c r="E146" t="n">
-        <v>11231.46</v>
-      </c>
-      <c r="G146" s="1">
+        <v>10642.9</v>
+      </c>
+      <c r="G146" s="3">
         <f>AVERAGE(E142:E146)</f>
         <v/>
       </c>
-      <c r="H146" s="1">
+      <c r="H146" s="3">
         <f>AVERAGE(E117:E146)</f>
         <v/>
       </c>
-      <c r="I146" s="1">
+      <c r="I146" s="3">
         <f>G146-H146</f>
         <v/>
       </c>
@@ -5709,26 +5715,26 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>11243.49</v>
+        <v>10711.15</v>
       </c>
       <c r="C147" t="n">
-        <v>11270.18</v>
+        <v>10784.34</v>
       </c>
       <c r="D147" t="n">
-        <v>11201.52</v>
+        <v>10711.15</v>
       </c>
       <c r="E147" t="n">
-        <v>11253.11</v>
-      </c>
-      <c r="G147" s="1">
+        <v>10784.34</v>
+      </c>
+      <c r="G147" s="3">
         <f>AVERAGE(E143:E147)</f>
         <v/>
       </c>
-      <c r="H147" s="1">
+      <c r="H147" s="3">
         <f>AVERAGE(E118:E147)</f>
         <v/>
       </c>
-      <c r="I147" s="1">
+      <c r="I147" s="3">
         <f>G147-H147</f>
         <v/>
       </c>
@@ -5738,26 +5744,26 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>11228.71</v>
+        <v>10762.99</v>
       </c>
       <c r="C148" t="n">
-        <v>11228.71</v>
+        <v>10818.05</v>
       </c>
       <c r="D148" t="n">
-        <v>11107.32</v>
+        <v>10745.32</v>
       </c>
       <c r="E148" t="n">
-        <v>11152.16</v>
-      </c>
-      <c r="G148" s="1">
+        <v>10745.32</v>
+      </c>
+      <c r="G148" s="3">
         <f>AVERAGE(E144:E148)</f>
         <v/>
       </c>
-      <c r="H148" s="1">
+      <c r="H148" s="3">
         <f>AVERAGE(E119:E148)</f>
         <v/>
       </c>
-      <c r="I148" s="1">
+      <c r="I148" s="3">
         <f>G148-H148</f>
         <v/>
       </c>
@@ -5767,26 +5773,26 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>11154.36</v>
+        <v>10788.43</v>
       </c>
       <c r="C149" t="n">
-        <v>11268.61</v>
+        <v>10852.33</v>
       </c>
       <c r="D149" t="n">
-        <v>11131.85</v>
+        <v>10788.43</v>
       </c>
       <c r="E149" t="n">
-        <v>11165.95</v>
-      </c>
-      <c r="G149" s="1">
+        <v>10823.24</v>
+      </c>
+      <c r="G149" s="3">
         <f>AVERAGE(E145:E149)</f>
         <v/>
       </c>
-      <c r="H149" s="1">
+      <c r="H149" s="3">
         <f>AVERAGE(E120:E149)</f>
         <v/>
       </c>
-      <c r="I149" s="1">
+      <c r="I149" s="3">
         <f>G149-H149</f>
         <v/>
       </c>
@@ -5796,26 +5802,26 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>11152.53</v>
+        <v>10847.74</v>
       </c>
       <c r="C150" t="n">
-        <v>11178.3</v>
+        <v>10882.76</v>
       </c>
       <c r="D150" t="n">
-        <v>11089.48</v>
+        <v>10845.38</v>
       </c>
       <c r="E150" t="n">
-        <v>11147.1</v>
-      </c>
-      <c r="G150" s="1">
+        <v>10864.82</v>
+      </c>
+      <c r="G150" s="3">
         <f>AVERAGE(E146:E150)</f>
         <v/>
       </c>
-      <c r="H150" s="1">
+      <c r="H150" s="3">
         <f>AVERAGE(E121:E150)</f>
         <v/>
       </c>
-      <c r="I150" s="1">
+      <c r="I150" s="3">
         <f>G150-H150</f>
         <v/>
       </c>
@@ -5825,26 +5831,26 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>11202.27</v>
+        <v>10908.99</v>
       </c>
       <c r="C151" t="n">
-        <v>11246.18</v>
+        <v>11016.56</v>
       </c>
       <c r="D151" t="n">
-        <v>11161.83</v>
+        <v>10908.99</v>
       </c>
       <c r="E151" t="n">
-        <v>11221.81</v>
-      </c>
-      <c r="G151" s="1">
+        <v>11002.1</v>
+      </c>
+      <c r="G151" s="3">
         <f>AVERAGE(E147:E151)</f>
         <v/>
       </c>
-      <c r="H151" s="1">
+      <c r="H151" s="3">
         <f>AVERAGE(E122:E151)</f>
         <v/>
       </c>
-      <c r="I151" s="1">
+      <c r="I151" s="3">
         <f>G151-H151</f>
         <v/>
       </c>
@@ -5854,26 +5860,26 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>11189.57</v>
+        <v>11022.15</v>
       </c>
       <c r="C152" t="n">
-        <v>11189.57</v>
+        <v>11095.63</v>
       </c>
       <c r="D152" t="n">
-        <v>11076.78</v>
+        <v>11014.87</v>
       </c>
       <c r="E152" t="n">
-        <v>11076.78</v>
-      </c>
-      <c r="G152" s="1">
+        <v>11095.63</v>
+      </c>
+      <c r="G152" s="3">
         <f>AVERAGE(E148:E152)</f>
         <v/>
       </c>
-      <c r="H152" s="1">
+      <c r="H152" s="3">
         <f>AVERAGE(E123:E152)</f>
         <v/>
       </c>
-      <c r="I152" s="1">
+      <c r="I152" s="3">
         <f>G152-H152</f>
         <v/>
       </c>
@@ -5883,26 +5889,26 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>11054.36</v>
+        <v>11063.73</v>
       </c>
       <c r="C153" t="n">
-        <v>11158.29</v>
+        <v>11070.29</v>
       </c>
       <c r="D153" t="n">
-        <v>11007.89</v>
+        <v>11015.47</v>
       </c>
       <c r="E153" t="n">
-        <v>11103.79</v>
-      </c>
-      <c r="G153" s="1">
+        <v>11038.8</v>
+      </c>
+      <c r="G153" s="3">
         <f>AVERAGE(E149:E153)</f>
         <v/>
       </c>
-      <c r="H153" s="1">
+      <c r="H153" s="3">
         <f>AVERAGE(E124:E153)</f>
         <v/>
       </c>
-      <c r="I153" s="1">
+      <c r="I153" s="3">
         <f>G153-H153</f>
         <v/>
       </c>
@@ -5912,26 +5918,26 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>11139.4</v>
+        <v>11039.6</v>
       </c>
       <c r="C154" t="n">
-        <v>11212.1</v>
+        <v>11052.11</v>
       </c>
       <c r="D154" t="n">
-        <v>11139.4</v>
+        <v>11008.18</v>
       </c>
       <c r="E154" t="n">
-        <v>11160.25</v>
-      </c>
-      <c r="G154" s="1">
+        <v>11018.45</v>
+      </c>
+      <c r="G154" s="3">
         <f>AVERAGE(E150:E154)</f>
         <v/>
       </c>
-      <c r="H154" s="1">
+      <c r="H154" s="3">
         <f>AVERAGE(E125:E154)</f>
         <v/>
       </c>
-      <c r="I154" s="1">
+      <c r="I154" s="3">
         <f>G154-H154</f>
         <v/>
       </c>
@@ -5941,26 +5947,26 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>11151.65</v>
+        <v>11010.24</v>
       </c>
       <c r="C155" t="n">
-        <v>11153.32</v>
+        <v>11054.86</v>
       </c>
       <c r="D155" t="n">
-        <v>11070.43</v>
+        <v>10933.46</v>
       </c>
       <c r="E155" t="n">
-        <v>11126.23</v>
-      </c>
-      <c r="G155" s="1">
+        <v>11027.7</v>
+      </c>
+      <c r="G155" s="3">
         <f>AVERAGE(E151:E155)</f>
         <v/>
       </c>
-      <c r="H155" s="1">
+      <c r="H155" s="3">
         <f>AVERAGE(E126:E155)</f>
         <v/>
       </c>
-      <c r="I155" s="1">
+      <c r="I155" s="3">
         <f>G155-H155</f>
         <v/>
       </c>
@@ -5970,26 +5976,26 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>10970.3</v>
+        <v>11004.81</v>
       </c>
       <c r="C156" t="n">
-        <v>10970.3</v>
+        <v>11066</v>
       </c>
       <c r="D156" t="n">
-        <v>10855.43</v>
+        <v>10983.25</v>
       </c>
       <c r="E156" t="n">
-        <v>10946.25</v>
-      </c>
-      <c r="G156" s="1">
+        <v>11046.9</v>
+      </c>
+      <c r="G156" s="3">
         <f>AVERAGE(E152:E156)</f>
         <v/>
       </c>
-      <c r="H156" s="1">
+      <c r="H156" s="3">
         <f>AVERAGE(E127:E156)</f>
         <v/>
       </c>
-      <c r="I156" s="1">
+      <c r="I156" s="3">
         <f>G156-H156</f>
         <v/>
       </c>
@@ -5999,26 +6005,26 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>10761.01</v>
+        <v>11016.85</v>
       </c>
       <c r="C157" t="n">
-        <v>10761.01</v>
+        <v>11020.78</v>
       </c>
       <c r="D157" t="n">
-        <v>10300.4</v>
+        <v>10981.04</v>
       </c>
       <c r="E157" t="n">
-        <v>10404</v>
-      </c>
-      <c r="G157" s="1">
+        <v>11010.84</v>
+      </c>
+      <c r="G157" s="3">
         <f>AVERAGE(E153:E157)</f>
         <v/>
       </c>
-      <c r="H157" s="1">
+      <c r="H157" s="3">
         <f>AVERAGE(E128:E157)</f>
         <v/>
       </c>
-      <c r="I157" s="1">
+      <c r="I157" s="3">
         <f>G157-H157</f>
         <v/>
       </c>
@@ -6028,26 +6034,26 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10547.64</v>
+        <v>11037.35</v>
       </c>
       <c r="C158" t="n">
-        <v>10697.82</v>
+        <v>11072.31</v>
       </c>
       <c r="D158" t="n">
-        <v>10547.64</v>
+        <v>11011.07</v>
       </c>
       <c r="E158" t="n">
-        <v>10551.54</v>
-      </c>
-      <c r="G158" s="1">
+        <v>11011.07</v>
+      </c>
+      <c r="G158" s="3">
         <f>AVERAGE(E154:E158)</f>
         <v/>
       </c>
-      <c r="H158" s="1">
+      <c r="H158" s="3">
         <f>AVERAGE(E129:E158)</f>
         <v/>
       </c>
-      <c r="I158" s="1">
+      <c r="I158" s="3">
         <f>G158-H158</f>
         <v/>
       </c>
@@ -6057,26 +6063,26 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10559.44</v>
+        <v>11045.9</v>
       </c>
       <c r="C159" t="n">
-        <v>10609.5</v>
+        <v>11120.2</v>
       </c>
       <c r="D159" t="n">
-        <v>10512.93</v>
+        <v>10975.33</v>
       </c>
       <c r="E159" t="n">
-        <v>10528.52</v>
-      </c>
-      <c r="G159" s="1">
+        <v>11005.84</v>
+      </c>
+      <c r="G159" s="3">
         <f>AVERAGE(E155:E159)</f>
         <v/>
       </c>
-      <c r="H159" s="1">
+      <c r="H159" s="3">
         <f>AVERAGE(E130:E159)</f>
         <v/>
       </c>
-      <c r="I159" s="1">
+      <c r="I159" s="3">
         <f>G159-H159</f>
         <v/>
       </c>
@@ -6086,26 +6092,26 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10371.01</v>
+        <v>10863.67</v>
       </c>
       <c r="C160" t="n">
-        <v>10392.31</v>
+        <v>10863.67</v>
       </c>
       <c r="D160" t="n">
-        <v>10189.04</v>
+        <v>10758.06</v>
       </c>
       <c r="E160" t="n">
-        <v>10371.75</v>
-      </c>
-      <c r="G160" s="1">
+        <v>10823.33</v>
+      </c>
+      <c r="G160" s="3">
         <f>AVERAGE(E156:E160)</f>
         <v/>
       </c>
-      <c r="H160" s="1">
+      <c r="H160" s="3">
         <f>AVERAGE(E131:E160)</f>
         <v/>
       </c>
-      <c r="I160" s="1">
+      <c r="I160" s="3">
         <f>G160-H160</f>
         <v/>
       </c>
@@ -6115,26 +6121,26 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10429.09</v>
+        <v>10783.57</v>
       </c>
       <c r="C161" t="n">
-        <v>10473.51</v>
+        <v>10840.05</v>
       </c>
       <c r="D161" t="n">
-        <v>10416.01</v>
+        <v>10781.43</v>
       </c>
       <c r="E161" t="n">
-        <v>10421.09</v>
-      </c>
-      <c r="G161" s="1">
+        <v>10840.05</v>
+      </c>
+      <c r="G161" s="3">
         <f>AVERAGE(E157:E161)</f>
         <v/>
       </c>
-      <c r="H161" s="1">
+      <c r="H161" s="3">
         <f>AVERAGE(E132:E161)</f>
         <v/>
       </c>
-      <c r="I161" s="1">
+      <c r="I161" s="3">
         <f>G161-H161</f>
         <v/>
       </c>
@@ -6144,26 +6150,26 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>10559.79</v>
+        <v>10901.69</v>
       </c>
       <c r="C162" t="n">
-        <v>10720.48</v>
+        <v>10986.79</v>
       </c>
       <c r="D162" t="n">
-        <v>10559.79</v>
+        <v>10901.69</v>
       </c>
       <c r="E162" t="n">
-        <v>10714.44</v>
-      </c>
-      <c r="G162" s="1">
+        <v>10986.79</v>
+      </c>
+      <c r="G162" s="3">
         <f>AVERAGE(E158:E162)</f>
         <v/>
       </c>
-      <c r="H162" s="1">
+      <c r="H162" s="3">
         <f>AVERAGE(E133:E162)</f>
         <v/>
       </c>
-      <c r="I162" s="1">
+      <c r="I162" s="3">
         <f>G162-H162</f>
         <v/>
       </c>
@@ -6173,26 +6179,26 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>10698.47</v>
+        <v>10939.97</v>
       </c>
       <c r="C163" t="n">
-        <v>10698.47</v>
+        <v>10939.97</v>
       </c>
       <c r="D163" t="n">
-        <v>10620.8</v>
+        <v>10853.48</v>
       </c>
       <c r="E163" t="n">
-        <v>10662.38</v>
-      </c>
-      <c r="G163" s="1">
+        <v>10865.66</v>
+      </c>
+      <c r="G163" s="3">
         <f>AVERAGE(E159:E163)</f>
         <v/>
       </c>
-      <c r="H163" s="1">
+      <c r="H163" s="3">
         <f>AVERAGE(E134:E163)</f>
         <v/>
       </c>
-      <c r="I163" s="1">
+      <c r="I163" s="3">
         <f>G163-H163</f>
         <v/>
       </c>
@@ -6202,26 +6208,26 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10688.97</v>
+        <v>10855.66</v>
       </c>
       <c r="C164" t="n">
-        <v>10799.29</v>
+        <v>10889.6</v>
       </c>
       <c r="D164" t="n">
-        <v>10688.97</v>
+        <v>10815.46</v>
       </c>
       <c r="E164" t="n">
-        <v>10794.55</v>
-      </c>
-      <c r="G164" s="1">
+        <v>10845.92</v>
+      </c>
+      <c r="G164" s="3">
         <f>AVERAGE(E160:E164)</f>
         <v/>
       </c>
-      <c r="H164" s="1">
+      <c r="H164" s="3">
         <f>AVERAGE(E135:E164)</f>
         <v/>
       </c>
-      <c r="I164" s="1">
+      <c r="I164" s="3">
         <f>G164-H164</f>
         <v/>
       </c>
@@ -6231,26 +6237,26 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>10827.98</v>
+        <v>10905.3</v>
       </c>
       <c r="C165" t="n">
-        <v>10890.69</v>
+        <v>10969.22</v>
       </c>
       <c r="D165" t="n">
-        <v>10827.98</v>
+        <v>10905.3</v>
       </c>
       <c r="E165" t="n">
-        <v>10836.7</v>
-      </c>
-      <c r="G165" s="1">
+        <v>10906.22</v>
+      </c>
+      <c r="G165" s="3">
         <f>AVERAGE(E161:E165)</f>
         <v/>
       </c>
-      <c r="H165" s="1">
+      <c r="H165" s="3">
         <f>AVERAGE(E136:E165)</f>
         <v/>
       </c>
-      <c r="I165" s="1">
+      <c r="I165" s="3">
         <f>G165-H165</f>
         <v/>
       </c>
@@ -6260,26 +6266,26 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>10896.16</v>
+        <v>10925.71</v>
       </c>
       <c r="C166" t="n">
-        <v>10937.9</v>
+        <v>10947.16</v>
       </c>
       <c r="D166" t="n">
-        <v>10815.47</v>
+        <v>10905.69</v>
       </c>
       <c r="E166" t="n">
-        <v>10815.47</v>
-      </c>
-      <c r="G166" s="1">
+        <v>10919.49</v>
+      </c>
+      <c r="G166" s="3">
         <f>AVERAGE(E162:E166)</f>
         <v/>
       </c>
-      <c r="H166" s="1">
+      <c r="H166" s="3">
         <f>AVERAGE(E137:E166)</f>
         <v/>
       </c>
-      <c r="I166" s="1">
+      <c r="I166" s="3">
         <f>G166-H166</f>
         <v/>
       </c>
@@ -6289,26 +6295,26 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>10779.1</v>
+        <v>10936.26</v>
       </c>
       <c r="C167" t="n">
-        <v>10805.55</v>
+        <v>10969.88</v>
       </c>
       <c r="D167" t="n">
-        <v>10709.69</v>
+        <v>10882.05</v>
       </c>
       <c r="E167" t="n">
-        <v>10785.79</v>
-      </c>
-      <c r="G167" s="1">
+        <v>10888.27</v>
+      </c>
+      <c r="G167" s="3">
         <f>AVERAGE(E163:E167)</f>
         <v/>
       </c>
-      <c r="H167" s="1">
+      <c r="H167" s="3">
         <f>AVERAGE(E138:E167)</f>
         <v/>
       </c>
-      <c r="I167" s="1">
+      <c r="I167" s="3">
         <f>G167-H167</f>
         <v/>
       </c>
@@ -6318,26 +6324,26 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>10719.29</v>
+        <v>10837.54</v>
       </c>
       <c r="C168" t="n">
-        <v>10719.29</v>
+        <v>10837.54</v>
       </c>
       <c r="D168" t="n">
-        <v>10638.98</v>
+        <v>10775.45</v>
       </c>
       <c r="E168" t="n">
-        <v>10698.17</v>
-      </c>
-      <c r="G168" s="1">
+        <v>10821.53</v>
+      </c>
+      <c r="G168" s="3">
         <f>AVERAGE(E164:E168)</f>
         <v/>
       </c>
-      <c r="H168" s="1">
+      <c r="H168" s="3">
         <f>AVERAGE(E139:E168)</f>
         <v/>
       </c>
-      <c r="I168" s="1">
+      <c r="I168" s="3">
         <f>G168-H168</f>
         <v/>
       </c>
@@ -6347,26 +6353,26 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>10727.45</v>
+        <v>10880.14</v>
       </c>
       <c r="C169" t="n">
-        <v>10756.37</v>
+        <v>10904.75</v>
       </c>
       <c r="D169" t="n">
-        <v>10642.9</v>
+        <v>10829.02</v>
       </c>
       <c r="E169" t="n">
-        <v>10642.9</v>
-      </c>
-      <c r="G169" s="1">
+        <v>10893.53</v>
+      </c>
+      <c r="G169" s="3">
         <f>AVERAGE(E165:E169)</f>
         <v/>
       </c>
-      <c r="H169" s="1">
+      <c r="H169" s="3">
         <f>AVERAGE(E140:E169)</f>
         <v/>
       </c>
-      <c r="I169" s="1">
+      <c r="I169" s="3">
         <f>G169-H169</f>
         <v/>
       </c>
@@ -6376,26 +6382,26 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>10711.15</v>
+        <v>10885.64</v>
       </c>
       <c r="C170" t="n">
-        <v>10784.34</v>
+        <v>10975.67</v>
       </c>
       <c r="D170" t="n">
-        <v>10711.15</v>
+        <v>10874.83</v>
       </c>
       <c r="E170" t="n">
-        <v>10784.34</v>
-      </c>
-      <c r="G170" s="1">
+        <v>10927.18</v>
+      </c>
+      <c r="G170" s="3">
         <f>AVERAGE(E166:E170)</f>
         <v/>
       </c>
-      <c r="H170" s="1">
+      <c r="H170" s="3">
         <f>AVERAGE(E141:E170)</f>
         <v/>
       </c>
-      <c r="I170" s="1">
+      <c r="I170" s="3">
         <f>G170-H170</f>
         <v/>
       </c>
@@ -6405,26 +6411,26 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>10762.99</v>
+        <v>10961.7</v>
       </c>
       <c r="C171" t="n">
-        <v>10818.05</v>
+        <v>11016.35</v>
       </c>
       <c r="D171" t="n">
-        <v>10745.32</v>
+        <v>10953.31</v>
       </c>
       <c r="E171" t="n">
-        <v>10745.32</v>
-      </c>
-      <c r="G171" s="1">
+        <v>10974.02</v>
+      </c>
+      <c r="G171" s="3">
         <f>AVERAGE(E167:E171)</f>
         <v/>
       </c>
-      <c r="H171" s="1">
+      <c r="H171" s="3">
         <f>AVERAGE(E142:E171)</f>
         <v/>
       </c>
-      <c r="I171" s="1">
+      <c r="I171" s="3">
         <f>G171-H171</f>
         <v/>
       </c>
@@ -6434,26 +6440,26 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>10788.43</v>
+        <v>10984.12</v>
       </c>
       <c r="C172" t="n">
-        <v>10852.33</v>
+        <v>11008.2</v>
       </c>
       <c r="D172" t="n">
-        <v>10788.43</v>
+        <v>10920.62</v>
       </c>
       <c r="E172" t="n">
-        <v>10823.24</v>
-      </c>
-      <c r="G172" s="1">
+        <v>10955.29</v>
+      </c>
+      <c r="G172" s="3">
         <f>AVERAGE(E168:E172)</f>
         <v/>
       </c>
-      <c r="H172" s="1">
+      <c r="H172" s="3">
         <f>AVERAGE(E143:E172)</f>
         <v/>
       </c>
-      <c r="I172" s="1">
+      <c r="I172" s="3">
         <f>G172-H172</f>
         <v/>
       </c>
@@ -6463,26 +6469,26 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>10847.74</v>
+        <v>10975.58</v>
       </c>
       <c r="C173" t="n">
-        <v>10882.76</v>
+        <v>10988.23</v>
       </c>
       <c r="D173" t="n">
-        <v>10845.38</v>
+        <v>10938.37</v>
       </c>
       <c r="E173" t="n">
-        <v>10864.82</v>
-      </c>
-      <c r="G173" s="1">
+        <v>10965.39</v>
+      </c>
+      <c r="G173" s="3">
         <f>AVERAGE(E169:E173)</f>
         <v/>
       </c>
-      <c r="H173" s="1">
+      <c r="H173" s="3">
         <f>AVERAGE(E144:E173)</f>
         <v/>
       </c>
-      <c r="I173" s="1">
+      <c r="I173" s="3">
         <f>G173-H173</f>
         <v/>
       </c>
@@ -6492,26 +6498,26 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>10908.99</v>
+        <v>10962.36</v>
       </c>
       <c r="C174" t="n">
-        <v>11016.56</v>
+        <v>10974.94</v>
       </c>
       <c r="D174" t="n">
-        <v>10908.99</v>
+        <v>10921.17</v>
       </c>
       <c r="E174" t="n">
-        <v>11002.1</v>
-      </c>
-      <c r="G174" s="1">
+        <v>10954.55</v>
+      </c>
+      <c r="G174" s="3">
         <f>AVERAGE(E170:E174)</f>
         <v/>
       </c>
-      <c r="H174" s="1">
+      <c r="H174" s="3">
         <f>AVERAGE(E145:E174)</f>
         <v/>
       </c>
-      <c r="I174" s="1">
+      <c r="I174" s="3">
         <f>G174-H174</f>
         <v/>
       </c>
@@ -6521,26 +6527,26 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>11022.15</v>
+        <v>10953.51</v>
       </c>
       <c r="C175" t="n">
-        <v>11095.63</v>
+        <v>10965.2</v>
       </c>
       <c r="D175" t="n">
-        <v>11014.87</v>
+        <v>10799.07</v>
       </c>
       <c r="E175" t="n">
-        <v>11095.63</v>
-      </c>
-      <c r="G175" s="1">
+        <v>10810.45</v>
+      </c>
+      <c r="G175" s="3">
         <f>AVERAGE(E171:E175)</f>
         <v/>
       </c>
-      <c r="H175" s="1">
+      <c r="H175" s="3">
         <f>AVERAGE(E146:E175)</f>
         <v/>
       </c>
-      <c r="I175" s="1">
+      <c r="I175" s="3">
         <f>G175-H175</f>
         <v/>
       </c>
@@ -6550,26 +6556,26 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>11063.73</v>
+        <v>10842.88</v>
       </c>
       <c r="C176" t="n">
-        <v>11070.29</v>
+        <v>10917.6</v>
       </c>
       <c r="D176" t="n">
-        <v>11015.47</v>
+        <v>10809.89</v>
       </c>
       <c r="E176" t="n">
-        <v>11038.8</v>
-      </c>
-      <c r="G176" s="1">
+        <v>10847.89</v>
+      </c>
+      <c r="G176" s="3">
         <f>AVERAGE(E172:E176)</f>
         <v/>
       </c>
-      <c r="H176" s="1">
+      <c r="H176" s="3">
         <f>AVERAGE(E147:E176)</f>
         <v/>
       </c>
-      <c r="I176" s="1">
+      <c r="I176" s="3">
         <f>G176-H176</f>
         <v/>
       </c>
@@ -6579,26 +6585,26 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>11039.6</v>
+        <v>10891.66</v>
       </c>
       <c r="C177" t="n">
-        <v>11052.11</v>
+        <v>10983.96</v>
       </c>
       <c r="D177" t="n">
-        <v>11008.18</v>
+        <v>10889.71</v>
       </c>
       <c r="E177" t="n">
-        <v>11018.45</v>
-      </c>
-      <c r="G177" s="1">
+        <v>10971.22</v>
+      </c>
+      <c r="G177" s="3">
         <f>AVERAGE(E173:E177)</f>
         <v/>
       </c>
-      <c r="H177" s="1">
+      <c r="H177" s="3">
         <f>AVERAGE(E148:E177)</f>
         <v/>
       </c>
-      <c r="I177" s="1">
+      <c r="I177" s="3">
         <f>G177-H177</f>
         <v/>
       </c>
@@ -6608,26 +6614,26 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>11010.24</v>
+        <v>10802.42</v>
       </c>
       <c r="C178" t="n">
-        <v>11054.86</v>
+        <v>10831.56</v>
       </c>
       <c r="D178" t="n">
-        <v>10933.46</v>
+        <v>10770.05</v>
       </c>
       <c r="E178" t="n">
-        <v>11027.7</v>
-      </c>
-      <c r="G178" s="1">
+        <v>10779.38</v>
+      </c>
+      <c r="G178" s="3">
         <f>AVERAGE(E174:E178)</f>
         <v/>
       </c>
-      <c r="H178" s="1">
+      <c r="H178" s="3">
         <f>AVERAGE(E149:E178)</f>
         <v/>
       </c>
-      <c r="I178" s="1">
+      <c r="I178" s="3">
         <f>G178-H178</f>
         <v/>
       </c>
@@ -6637,26 +6643,26 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>11004.81</v>
+        <v>10756.89</v>
       </c>
       <c r="C179" t="n">
-        <v>11066</v>
+        <v>10774.73</v>
       </c>
       <c r="D179" t="n">
-        <v>10983.25</v>
+        <v>10687.25</v>
       </c>
       <c r="E179" t="n">
-        <v>11046.9</v>
-      </c>
-      <c r="G179" s="1">
+        <v>10697.13</v>
+      </c>
+      <c r="G179" s="3">
         <f>AVERAGE(E175:E179)</f>
         <v/>
       </c>
-      <c r="H179" s="1">
+      <c r="H179" s="3">
         <f>AVERAGE(E150:E179)</f>
         <v/>
       </c>
-      <c r="I179" s="1">
+      <c r="I179" s="3">
         <f>G179-H179</f>
         <v/>
       </c>
@@ -6666,26 +6672,26 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>11016.85</v>
+        <v>10680.38</v>
       </c>
       <c r="C180" t="n">
-        <v>11020.78</v>
+        <v>10692.19</v>
       </c>
       <c r="D180" t="n">
-        <v>10981.04</v>
+        <v>10540.15</v>
       </c>
       <c r="E180" t="n">
-        <v>11010.84</v>
-      </c>
-      <c r="G180" s="1">
+        <v>10579.5</v>
+      </c>
+      <c r="G180" s="3">
         <f>AVERAGE(E176:E180)</f>
         <v/>
       </c>
-      <c r="H180" s="1">
+      <c r="H180" s="3">
         <f>AVERAGE(E151:E180)</f>
         <v/>
       </c>
-      <c r="I180" s="1">
+      <c r="I180" s="3">
         <f>G180-H180</f>
         <v/>
       </c>
@@ -6695,26 +6701,26 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>11037.35</v>
+        <v>10541.83</v>
       </c>
       <c r="C181" t="n">
-        <v>11072.31</v>
+        <v>10573.73</v>
       </c>
       <c r="D181" t="n">
-        <v>11011.07</v>
+        <v>10489.2</v>
       </c>
       <c r="E181" t="n">
-        <v>11011.07</v>
-      </c>
-      <c r="G181" s="1">
+        <v>10559.97</v>
+      </c>
+      <c r="G181" s="3">
         <f>AVERAGE(E177:E181)</f>
         <v/>
       </c>
-      <c r="H181" s="1">
+      <c r="H181" s="3">
         <f>AVERAGE(E152:E181)</f>
         <v/>
       </c>
-      <c r="I181" s="1">
+      <c r="I181" s="3">
         <f>G181-H181</f>
         <v/>
       </c>
@@ -6724,26 +6730,26 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>11045.9</v>
+        <v>10583.08</v>
       </c>
       <c r="C182" t="n">
-        <v>11120.2</v>
+        <v>10618.68</v>
       </c>
       <c r="D182" t="n">
-        <v>10975.33</v>
+        <v>10478.98</v>
       </c>
       <c r="E182" t="n">
-        <v>11005.84</v>
-      </c>
-      <c r="G182" s="1">
+        <v>10488.58</v>
+      </c>
+      <c r="G182" s="3">
         <f>AVERAGE(E178:E182)</f>
         <v/>
       </c>
-      <c r="H182" s="1">
+      <c r="H182" s="3">
         <f>AVERAGE(E153:E182)</f>
         <v/>
       </c>
-      <c r="I182" s="1">
+      <c r="I182" s="3">
         <f>G182-H182</f>
         <v/>
       </c>
@@ -6753,26 +6759,26 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>10863.67</v>
+        <v>10546.29</v>
       </c>
       <c r="C183" t="n">
-        <v>10863.67</v>
+        <v>10573.61</v>
       </c>
       <c r="D183" t="n">
-        <v>10758.06</v>
+        <v>10495.67</v>
       </c>
       <c r="E183" t="n">
-        <v>10823.33</v>
-      </c>
-      <c r="G183" s="1">
+        <v>10553.43</v>
+      </c>
+      <c r="G183" s="3">
         <f>AVERAGE(E179:E183)</f>
         <v/>
       </c>
-      <c r="H183" s="1">
+      <c r="H183" s="3">
         <f>AVERAGE(E154:E183)</f>
         <v/>
       </c>
-      <c r="I183" s="1">
+      <c r="I183" s="3">
         <f>G183-H183</f>
         <v/>
       </c>
@@ -6782,26 +6788,26 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>10783.57</v>
+        <v>10553.41</v>
       </c>
       <c r="C184" t="n">
-        <v>10840.05</v>
+        <v>10660.61</v>
       </c>
       <c r="D184" t="n">
-        <v>10781.43</v>
+        <v>10539.63</v>
       </c>
       <c r="E184" t="n">
-        <v>10840.05</v>
-      </c>
-      <c r="G184" s="1">
+        <v>10657.88</v>
+      </c>
+      <c r="G184" s="3">
         <f>AVERAGE(E180:E184)</f>
         <v/>
       </c>
-      <c r="H184" s="1">
+      <c r="H184" s="3">
         <f>AVERAGE(E155:E184)</f>
         <v/>
       </c>
-      <c r="I184" s="1">
+      <c r="I184" s="3">
         <f>G184-H184</f>
         <v/>
       </c>
@@ -6811,26 +6817,26 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>10901.69</v>
+        <v>10665.52</v>
       </c>
       <c r="C185" t="n">
-        <v>10986.79</v>
+        <v>10683.9</v>
       </c>
       <c r="D185" t="n">
-        <v>10901.69</v>
+        <v>10601.1</v>
       </c>
       <c r="E185" t="n">
-        <v>10986.79</v>
-      </c>
-      <c r="G185" s="1">
+        <v>10618.81</v>
+      </c>
+      <c r="G185" s="3">
         <f>AVERAGE(E181:E185)</f>
         <v/>
       </c>
-      <c r="H185" s="1">
+      <c r="H185" s="3">
         <f>AVERAGE(E156:E185)</f>
         <v/>
       </c>
-      <c r="I185" s="1">
+      <c r="I185" s="3">
         <f>G185-H185</f>
         <v/>
       </c>
@@ -6840,26 +6846,26 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>10939.97</v>
+        <v>10578.98</v>
       </c>
       <c r="C186" t="n">
-        <v>10939.97</v>
+        <v>10578.98</v>
       </c>
       <c r="D186" t="n">
-        <v>10853.48</v>
+        <v>10509.03</v>
       </c>
       <c r="E186" t="n">
-        <v>10865.66</v>
-      </c>
-      <c r="G186" s="1">
+        <v>10514.18</v>
+      </c>
+      <c r="G186" s="3">
         <f>AVERAGE(E182:E186)</f>
         <v/>
       </c>
-      <c r="H186" s="1">
+      <c r="H186" s="3">
         <f>AVERAGE(E157:E186)</f>
         <v/>
       </c>
-      <c r="I186" s="1">
+      <c r="I186" s="3">
         <f>G186-H186</f>
         <v/>
       </c>
@@ -6869,26 +6875,26 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>10855.66</v>
+        <v>10516.45</v>
       </c>
       <c r="C187" t="n">
-        <v>10889.6</v>
+        <v>10566.37</v>
       </c>
       <c r="D187" t="n">
-        <v>10815.46</v>
+        <v>10500.97</v>
       </c>
       <c r="E187" t="n">
-        <v>10845.92</v>
-      </c>
-      <c r="G187" s="1">
+        <v>10529.37</v>
+      </c>
+      <c r="G187" s="3">
         <f>AVERAGE(E183:E187)</f>
         <v/>
       </c>
-      <c r="H187" s="1">
+      <c r="H187" s="3">
         <f>AVERAGE(E158:E187)</f>
         <v/>
       </c>
-      <c r="I187" s="1">
+      <c r="I187" s="3">
         <f>G187-H187</f>
         <v/>
       </c>
@@ -6898,26 +6904,26 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>10905.3</v>
+        <v>10581.78</v>
       </c>
       <c r="C188" t="n">
-        <v>10969.22</v>
+        <v>10632.62</v>
       </c>
       <c r="D188" t="n">
-        <v>10905.3</v>
+        <v>10555.56</v>
       </c>
       <c r="E188" t="n">
-        <v>10906.22</v>
-      </c>
-      <c r="G188" s="1">
+        <v>10604.91</v>
+      </c>
+      <c r="G188" s="3">
         <f>AVERAGE(E184:E188)</f>
         <v/>
       </c>
-      <c r="H188" s="1">
+      <c r="H188" s="3">
         <f>AVERAGE(E159:E188)</f>
         <v/>
       </c>
-      <c r="I188" s="1">
+      <c r="I188" s="3">
         <f>G188-H188</f>
         <v/>
       </c>
@@ -6927,26 +6933,26 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>10925.71</v>
+        <v>10610.44</v>
       </c>
       <c r="C189" t="n">
-        <v>10947.16</v>
+        <v>10691.38</v>
       </c>
       <c r="D189" t="n">
-        <v>10905.69</v>
+        <v>10609.04</v>
       </c>
       <c r="E189" t="n">
-        <v>10919.49</v>
-      </c>
-      <c r="G189" s="1">
+        <v>10691.38</v>
+      </c>
+      <c r="G189" s="3">
         <f>AVERAGE(E185:E189)</f>
         <v/>
       </c>
-      <c r="H189" s="1">
+      <c r="H189" s="3">
         <f>AVERAGE(E160:E189)</f>
         <v/>
       </c>
-      <c r="I189" s="1">
+      <c r="I189" s="3">
         <f>G189-H189</f>
         <v/>
       </c>
@@ -6956,26 +6962,26 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>10936.26</v>
+        <v>10692.89</v>
       </c>
       <c r="C190" t="n">
-        <v>10969.88</v>
+        <v>10748.6</v>
       </c>
       <c r="D190" t="n">
-        <v>10882.05</v>
+        <v>10689.81</v>
       </c>
       <c r="E190" t="n">
-        <v>10888.27</v>
-      </c>
-      <c r="G190" s="1">
+        <v>10703.35</v>
+      </c>
+      <c r="G190" s="3">
         <f>AVERAGE(E186:E190)</f>
         <v/>
       </c>
-      <c r="H190" s="1">
+      <c r="H190" s="3">
         <f>AVERAGE(E161:E190)</f>
         <v/>
       </c>
-      <c r="I190" s="1">
+      <c r="I190" s="3">
         <f>G190-H190</f>
         <v/>
       </c>
@@ -6985,26 +6991,26 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>10837.54</v>
+        <v>10731.68</v>
       </c>
       <c r="C191" t="n">
-        <v>10837.54</v>
+        <v>10782.06</v>
       </c>
       <c r="D191" t="n">
-        <v>10775.45</v>
+        <v>10731.68</v>
       </c>
       <c r="E191" t="n">
-        <v>10821.53</v>
-      </c>
-      <c r="G191" s="1">
+        <v>10760.21</v>
+      </c>
+      <c r="G191" s="3">
         <f>AVERAGE(E187:E191)</f>
         <v/>
       </c>
-      <c r="H191" s="1">
+      <c r="H191" s="3">
         <f>AVERAGE(E162:E191)</f>
         <v/>
       </c>
-      <c r="I191" s="1">
+      <c r="I191" s="3">
         <f>G191-H191</f>
         <v/>
       </c>
@@ -7014,26 +7020,26 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>10880.14</v>
+        <v>10808.4</v>
       </c>
       <c r="C192" t="n">
-        <v>10904.75</v>
+        <v>10874.63</v>
       </c>
       <c r="D192" t="n">
-        <v>10829.02</v>
+        <v>10808.4</v>
       </c>
       <c r="E192" t="n">
-        <v>10893.53</v>
-      </c>
-      <c r="G192" s="1">
+        <v>10858.98</v>
+      </c>
+      <c r="G192" s="3">
         <f>AVERAGE(E188:E192)</f>
         <v/>
       </c>
-      <c r="H192" s="1">
+      <c r="H192" s="3">
         <f>AVERAGE(E163:E192)</f>
         <v/>
       </c>
-      <c r="I192" s="1">
+      <c r="I192" s="3">
         <f>G192-H192</f>
         <v/>
       </c>
@@ -7043,26 +7049,26 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>10885.64</v>
+        <v>10938.3</v>
       </c>
       <c r="C193" t="n">
-        <v>10975.67</v>
+        <v>10970.24</v>
       </c>
       <c r="D193" t="n">
-        <v>10874.83</v>
+        <v>10908.86</v>
       </c>
       <c r="E193" t="n">
-        <v>10927.18</v>
-      </c>
-      <c r="G193" s="1">
+        <v>10952.39</v>
+      </c>
+      <c r="G193" s="3">
         <f>AVERAGE(E189:E193)</f>
         <v/>
       </c>
-      <c r="H193" s="1">
+      <c r="H193" s="3">
         <f>AVERAGE(E164:E193)</f>
         <v/>
       </c>
-      <c r="I193" s="1">
+      <c r="I193" s="3">
         <f>G193-H193</f>
         <v/>
       </c>
@@ -7072,26 +7078,26 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>10961.7</v>
+        <v>10965.08</v>
       </c>
       <c r="C194" t="n">
-        <v>11016.35</v>
+        <v>10978.38</v>
       </c>
       <c r="D194" t="n">
-        <v>10953.31</v>
+        <v>10874.73</v>
       </c>
       <c r="E194" t="n">
-        <v>10974.02</v>
-      </c>
-      <c r="G194" s="1">
+        <v>10874.73</v>
+      </c>
+      <c r="G194" s="3">
         <f>AVERAGE(E190:E194)</f>
         <v/>
       </c>
-      <c r="H194" s="1">
+      <c r="H194" s="3">
         <f>AVERAGE(E165:E194)</f>
         <v/>
       </c>
-      <c r="I194" s="1">
+      <c r="I194" s="3">
         <f>G194-H194</f>
         <v/>
       </c>
@@ -7101,26 +7107,26 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>10984.12</v>
+        <v>10873.54</v>
       </c>
       <c r="C195" t="n">
-        <v>11008.2</v>
+        <v>10915.74</v>
       </c>
       <c r="D195" t="n">
-        <v>10920.62</v>
+        <v>10865.07</v>
       </c>
       <c r="E195" t="n">
-        <v>10955.29</v>
-      </c>
-      <c r="G195" s="1">
+        <v>10897.57</v>
+      </c>
+      <c r="G195" s="3">
         <f>AVERAGE(E191:E195)</f>
         <v/>
       </c>
-      <c r="H195" s="1">
+      <c r="H195" s="3">
         <f>AVERAGE(E166:E195)</f>
         <v/>
       </c>
-      <c r="I195" s="1">
+      <c r="I195" s="3">
         <f>G195-H195</f>
         <v/>
       </c>
@@ -7130,26 +7136,26 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>10975.58</v>
+        <v>10911.74</v>
       </c>
       <c r="C196" t="n">
-        <v>10988.23</v>
+        <v>10938.63</v>
       </c>
       <c r="D196" t="n">
-        <v>10938.37</v>
+        <v>10833.81</v>
       </c>
       <c r="E196" t="n">
-        <v>10965.39</v>
-      </c>
-      <c r="G196" s="1">
+        <v>10833.81</v>
+      </c>
+      <c r="G196" s="3">
         <f>AVERAGE(E192:E196)</f>
         <v/>
       </c>
-      <c r="H196" s="1">
+      <c r="H196" s="3">
         <f>AVERAGE(E167:E196)</f>
         <v/>
       </c>
-      <c r="I196" s="1">
+      <c r="I196" s="3">
         <f>G196-H196</f>
         <v/>
       </c>
@@ -7159,26 +7165,26 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>10962.36</v>
+        <v>10844.09</v>
       </c>
       <c r="C197" t="n">
-        <v>10974.94</v>
+        <v>10893.35</v>
       </c>
       <c r="D197" t="n">
-        <v>10921.17</v>
+        <v>10819.07</v>
       </c>
       <c r="E197" t="n">
-        <v>10954.55</v>
-      </c>
-      <c r="G197" s="1">
+        <v>10830.84</v>
+      </c>
+      <c r="G197" s="3">
         <f>AVERAGE(E193:E197)</f>
         <v/>
       </c>
-      <c r="H197" s="1">
+      <c r="H197" s="3">
         <f>AVERAGE(E168:E197)</f>
         <v/>
       </c>
-      <c r="I197" s="1">
+      <c r="I197" s="3">
         <f>G197-H197</f>
         <v/>
       </c>
@@ -7188,26 +7194,26 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>10953.51</v>
+        <v>10861.66</v>
       </c>
       <c r="C198" t="n">
-        <v>10965.2</v>
+        <v>10979.1</v>
       </c>
       <c r="D198" t="n">
-        <v>10799.07</v>
+        <v>10861.66</v>
       </c>
       <c r="E198" t="n">
-        <v>10810.45</v>
-      </c>
-      <c r="G198" s="1">
+        <v>10966.2</v>
+      </c>
+      <c r="G198" s="3">
         <f>AVERAGE(E194:E198)</f>
         <v/>
       </c>
-      <c r="H198" s="1">
+      <c r="H198" s="3">
         <f>AVERAGE(E169:E198)</f>
         <v/>
       </c>
-      <c r="I198" s="1">
+      <c r="I198" s="3">
         <f>G198-H198</f>
         <v/>
       </c>
@@ -7217,26 +7223,26 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>10842.88</v>
+        <v>10986.77</v>
       </c>
       <c r="C199" t="n">
-        <v>10917.6</v>
+        <v>11034.12</v>
       </c>
       <c r="D199" t="n">
-        <v>10809.89</v>
+        <v>10938.73</v>
       </c>
       <c r="E199" t="n">
-        <v>10847.89</v>
-      </c>
-      <c r="G199" s="1">
+        <v>10938.73</v>
+      </c>
+      <c r="G199" s="3">
         <f>AVERAGE(E195:E199)</f>
         <v/>
       </c>
-      <c r="H199" s="1">
+      <c r="H199" s="3">
         <f>AVERAGE(E170:E199)</f>
         <v/>
       </c>
-      <c r="I199" s="1">
+      <c r="I199" s="3">
         <f>G199-H199</f>
         <v/>
       </c>
@@ -7246,26 +7252,26 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>10891.66</v>
+        <v>10974.52</v>
       </c>
       <c r="C200" t="n">
-        <v>10983.96</v>
+        <v>10991.86</v>
       </c>
       <c r="D200" t="n">
-        <v>10889.71</v>
+        <v>10886.18</v>
       </c>
       <c r="E200" t="n">
-        <v>10971.22</v>
-      </c>
-      <c r="G200" s="1">
+        <v>10886.18</v>
+      </c>
+      <c r="G200" s="3">
         <f>AVERAGE(E196:E200)</f>
         <v/>
       </c>
-      <c r="H200" s="1">
+      <c r="H200" s="3">
         <f>AVERAGE(E171:E200)</f>
         <v/>
       </c>
-      <c r="I200" s="1">
+      <c r="I200" s="3">
         <f>G200-H200</f>
         <v/>
       </c>
@@ -7275,26 +7281,26 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>10802.42</v>
+        <v>10910.61</v>
       </c>
       <c r="C201" t="n">
-        <v>10831.56</v>
+        <v>10942.64</v>
       </c>
       <c r="D201" t="n">
-        <v>10770.05</v>
+        <v>10883.52</v>
       </c>
       <c r="E201" t="n">
-        <v>10779.38</v>
-      </c>
-      <c r="G201" s="1">
+        <v>10936.93</v>
+      </c>
+      <c r="G201" s="3">
         <f>AVERAGE(E197:E201)</f>
         <v/>
       </c>
-      <c r="H201" s="1">
+      <c r="H201" s="3">
         <f>AVERAGE(E172:E201)</f>
         <v/>
       </c>
-      <c r="I201" s="1">
+      <c r="I201" s="3">
         <f>G201-H201</f>
         <v/>
       </c>
@@ -7304,26 +7310,26 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>10756.89</v>
+        <v>10946.62</v>
       </c>
       <c r="C202" t="n">
-        <v>10774.73</v>
+        <v>10977.81</v>
       </c>
       <c r="D202" t="n">
-        <v>10687.25</v>
+        <v>10918.12</v>
       </c>
       <c r="E202" t="n">
-        <v>10697.13</v>
-      </c>
-      <c r="G202" s="1">
+        <v>10942.3</v>
+      </c>
+      <c r="G202" s="3">
         <f>AVERAGE(E198:E202)</f>
         <v/>
       </c>
-      <c r="H202" s="1">
+      <c r="H202" s="3">
         <f>AVERAGE(E173:E202)</f>
         <v/>
       </c>
-      <c r="I202" s="1">
+      <c r="I202" s="3">
         <f>G202-H202</f>
         <v/>
       </c>
@@ -7333,26 +7339,26 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>10680.38</v>
+        <v>10976.49</v>
       </c>
       <c r="C203" t="n">
-        <v>10692.19</v>
+        <v>10999.43</v>
       </c>
       <c r="D203" t="n">
-        <v>10540.15</v>
+        <v>10965.18</v>
       </c>
       <c r="E203" t="n">
-        <v>10579.5</v>
-      </c>
-      <c r="G203" s="1">
+        <v>10987.77</v>
+      </c>
+      <c r="G203" s="3">
         <f>AVERAGE(E199:E203)</f>
         <v/>
       </c>
-      <c r="H203" s="1">
+      <c r="H203" s="3">
         <f>AVERAGE(E174:E203)</f>
         <v/>
       </c>
-      <c r="I203" s="1">
+      <c r="I203" s="3">
         <f>G203-H203</f>
         <v/>
       </c>
@@ -7362,26 +7368,26 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>10541.83</v>
+        <v>10979.68</v>
       </c>
       <c r="C204" t="n">
-        <v>10573.73</v>
+        <v>10986.53</v>
       </c>
       <c r="D204" t="n">
-        <v>10489.2</v>
+        <v>10929.56</v>
       </c>
       <c r="E204" t="n">
-        <v>10559.97</v>
-      </c>
-      <c r="G204" s="1">
+        <v>10964.12</v>
+      </c>
+      <c r="G204" s="3">
         <f>AVERAGE(E200:E204)</f>
         <v/>
       </c>
-      <c r="H204" s="1">
+      <c r="H204" s="3">
         <f>AVERAGE(E175:E204)</f>
         <v/>
       </c>
-      <c r="I204" s="1">
+      <c r="I204" s="3">
         <f>G204-H204</f>
         <v/>
       </c>
@@ -7391,26 +7397,26 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>10583.08</v>
+        <v>10925.21</v>
       </c>
       <c r="C205" t="n">
-        <v>10618.68</v>
+        <v>10925.21</v>
       </c>
       <c r="D205" t="n">
-        <v>10478.98</v>
+        <v>10799.75</v>
       </c>
       <c r="E205" t="n">
-        <v>10488.58</v>
-      </c>
-      <c r="G205" s="1">
+        <v>10821.17</v>
+      </c>
+      <c r="G205" s="3">
         <f>AVERAGE(E201:E205)</f>
         <v/>
       </c>
-      <c r="H205" s="1">
+      <c r="H205" s="3">
         <f>AVERAGE(E176:E205)</f>
         <v/>
       </c>
-      <c r="I205" s="1">
+      <c r="I205" s="3">
         <f>G205-H205</f>
         <v/>
       </c>
@@ -7420,26 +7426,26 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>10546.29</v>
+        <v>10856.03</v>
       </c>
       <c r="C206" t="n">
-        <v>10573.61</v>
+        <v>10909.61</v>
       </c>
       <c r="D206" t="n">
-        <v>10495.67</v>
+        <v>10853.65</v>
       </c>
       <c r="E206" t="n">
-        <v>10553.43</v>
-      </c>
-      <c r="G206" s="1">
+        <v>10874.96</v>
+      </c>
+      <c r="G206" s="3">
         <f>AVERAGE(E202:E206)</f>
         <v/>
       </c>
-      <c r="H206" s="1">
+      <c r="H206" s="3">
         <f>AVERAGE(E177:E206)</f>
         <v/>
       </c>
-      <c r="I206" s="1">
+      <c r="I206" s="3">
         <f>G206-H206</f>
         <v/>
       </c>
@@ -7449,26 +7455,26 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>10553.41</v>
+        <v>10882.68</v>
       </c>
       <c r="C207" t="n">
-        <v>10660.61</v>
+        <v>10954.67</v>
       </c>
       <c r="D207" t="n">
-        <v>10539.63</v>
+        <v>10876.97</v>
       </c>
       <c r="E207" t="n">
-        <v>10657.88</v>
-      </c>
-      <c r="G207" s="1">
+        <v>10949.08</v>
+      </c>
+      <c r="G207" s="3">
         <f>AVERAGE(E203:E207)</f>
         <v/>
       </c>
-      <c r="H207" s="1">
+      <c r="H207" s="3">
         <f>AVERAGE(E178:E207)</f>
         <v/>
       </c>
-      <c r="I207" s="1">
+      <c r="I207" s="3">
         <f>G207-H207</f>
         <v/>
       </c>
@@ -7478,26 +7484,26 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>10665.52</v>
+        <v>11002.15</v>
       </c>
       <c r="C208" t="n">
-        <v>10683.9</v>
+        <v>11109.5</v>
       </c>
       <c r="D208" t="n">
-        <v>10601.1</v>
+        <v>11002.15</v>
       </c>
       <c r="E208" t="n">
-        <v>10618.81</v>
-      </c>
-      <c r="G208" s="1">
+        <v>11109.5</v>
+      </c>
+      <c r="G208" s="3">
         <f>AVERAGE(E204:E208)</f>
         <v/>
       </c>
-      <c r="H208" s="1">
+      <c r="H208" s="3">
         <f>AVERAGE(E179:E208)</f>
         <v/>
       </c>
-      <c r="I208" s="1">
+      <c r="I208" s="3">
         <f>G208-H208</f>
         <v/>
       </c>
@@ -7507,26 +7513,26 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>10578.98</v>
+        <v>11130.03</v>
       </c>
       <c r="C209" t="n">
-        <v>10578.98</v>
+        <v>11131.08</v>
       </c>
       <c r="D209" t="n">
-        <v>10509.03</v>
+        <v>11054.62</v>
       </c>
       <c r="E209" t="n">
-        <v>10514.18</v>
-      </c>
-      <c r="G209" s="1">
+        <v>11100.11</v>
+      </c>
+      <c r="G209" s="3">
         <f>AVERAGE(E205:E209)</f>
         <v/>
       </c>
-      <c r="H209" s="1">
+      <c r="H209" s="3">
         <f>AVERAGE(E180:E209)</f>
         <v/>
       </c>
-      <c r="I209" s="1">
+      <c r="I209" s="3">
         <f>G209-H209</f>
         <v/>
       </c>
@@ -7536,26 +7542,26 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>10516.45</v>
+        <v>11111.14</v>
       </c>
       <c r="C210" t="n">
-        <v>10566.37</v>
+        <v>11207.15</v>
       </c>
       <c r="D210" t="n">
-        <v>10500.97</v>
+        <v>11111.14</v>
       </c>
       <c r="E210" t="n">
-        <v>10529.37</v>
-      </c>
-      <c r="G210" s="1">
+        <v>11201.83</v>
+      </c>
+      <c r="G210" s="3">
         <f>AVERAGE(E206:E210)</f>
         <v/>
       </c>
-      <c r="H210" s="1">
+      <c r="H210" s="3">
         <f>AVERAGE(E181:E210)</f>
         <v/>
       </c>
-      <c r="I210" s="1">
+      <c r="I210" s="3">
         <f>G210-H210</f>
         <v/>
       </c>
@@ -7565,26 +7571,26 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>10581.78</v>
+        <v>11228.64</v>
       </c>
       <c r="C211" t="n">
-        <v>10632.62</v>
+        <v>11261.68</v>
       </c>
       <c r="D211" t="n">
-        <v>10555.56</v>
+        <v>11188.99</v>
       </c>
       <c r="E211" t="n">
-        <v>10604.91</v>
-      </c>
-      <c r="G211" s="1">
+        <v>11251.75</v>
+      </c>
+      <c r="G211" s="3">
         <f>AVERAGE(E207:E211)</f>
         <v/>
       </c>
-      <c r="H211" s="1">
+      <c r="H211" s="3">
         <f>AVERAGE(E182:E211)</f>
         <v/>
       </c>
-      <c r="I211" s="1">
+      <c r="I211" s="3">
         <f>G211-H211</f>
         <v/>
       </c>
@@ -7594,26 +7600,26 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>10610.44</v>
+        <v>11243.59</v>
       </c>
       <c r="C212" t="n">
-        <v>10691.38</v>
+        <v>11243.59</v>
       </c>
       <c r="D212" t="n">
-        <v>10609.04</v>
+        <v>11122.98</v>
       </c>
       <c r="E212" t="n">
-        <v>10691.38</v>
-      </c>
-      <c r="G212" s="1">
+        <v>11156.42</v>
+      </c>
+      <c r="G212" s="3">
         <f>AVERAGE(E208:E212)</f>
         <v/>
       </c>
-      <c r="H212" s="1">
+      <c r="H212" s="3">
         <f>AVERAGE(E183:E212)</f>
         <v/>
       </c>
-      <c r="I212" s="1">
+      <c r="I212" s="3">
         <f>G212-H212</f>
         <v/>
       </c>
@@ -7623,26 +7629,26 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>10692.89</v>
+        <v>11168.99</v>
       </c>
       <c r="C213" t="n">
-        <v>10748.6</v>
+        <v>11186.67</v>
       </c>
       <c r="D213" t="n">
-        <v>10689.81</v>
+        <v>11118.81</v>
       </c>
       <c r="E213" t="n">
-        <v>10703.35</v>
-      </c>
-      <c r="G213" s="1">
+        <v>11149.23</v>
+      </c>
+      <c r="G213" s="3">
         <f>AVERAGE(E209:E213)</f>
         <v/>
       </c>
-      <c r="H213" s="1">
+      <c r="H213" s="3">
         <f>AVERAGE(E184:E213)</f>
         <v/>
       </c>
-      <c r="I213" s="1">
+      <c r="I213" s="3">
         <f>G213-H213</f>
         <v/>
       </c>
@@ -7652,26 +7658,26 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>10731.68</v>
+        <v>11140.02</v>
       </c>
       <c r="C214" t="n">
-        <v>10782.06</v>
+        <v>11160.05</v>
       </c>
       <c r="D214" t="n">
-        <v>10731.68</v>
+        <v>11088.53</v>
       </c>
       <c r="E214" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G214" s="1">
+        <v>11144.79</v>
+      </c>
+      <c r="G214" s="3">
         <f>AVERAGE(E210:E214)</f>
         <v/>
       </c>
-      <c r="H214" s="1">
+      <c r="H214" s="3">
         <f>AVERAGE(E185:E214)</f>
         <v/>
       </c>
-      <c r="I214" s="1">
+      <c r="I214" s="3">
         <f>G214-H214</f>
         <v/>
       </c>
@@ -7681,26 +7687,26 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>10808.4</v>
+        <v>11153.2</v>
       </c>
       <c r="C215" t="n">
-        <v>10874.63</v>
+        <v>11188.01</v>
       </c>
       <c r="D215" t="n">
-        <v>10808.4</v>
+        <v>11119.24</v>
       </c>
       <c r="E215" t="n">
-        <v>10858.98</v>
-      </c>
-      <c r="G215" s="1">
+        <v>11173.21</v>
+      </c>
+      <c r="G215" s="3">
         <f>AVERAGE(E211:E215)</f>
         <v/>
       </c>
-      <c r="H215" s="1">
+      <c r="H215" s="3">
         <f>AVERAGE(E186:E215)</f>
         <v/>
       </c>
-      <c r="I215" s="1">
+      <c r="I215" s="3">
         <f>G215-H215</f>
         <v/>
       </c>
@@ -7710,26 +7716,26 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>10938.3</v>
+        <v>11143.04</v>
       </c>
       <c r="C216" t="n">
-        <v>10970.24</v>
+        <v>11143.04</v>
       </c>
       <c r="D216" t="n">
-        <v>10908.86</v>
+        <v>11013.98</v>
       </c>
       <c r="E216" t="n">
-        <v>10952.39</v>
-      </c>
-      <c r="G216" s="1">
+        <v>11013.98</v>
+      </c>
+      <c r="G216" s="3">
         <f>AVERAGE(E212:E216)</f>
         <v/>
       </c>
-      <c r="H216" s="1">
+      <c r="H216" s="3">
         <f>AVERAGE(E187:E216)</f>
         <v/>
       </c>
-      <c r="I216" s="1">
+      <c r="I216" s="3">
         <f>G216-H216</f>
         <v/>
       </c>
@@ -7739,26 +7745,26 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>10965.08</v>
+        <v>10998.2</v>
       </c>
       <c r="C217" t="n">
-        <v>10978.38</v>
+        <v>11087.47</v>
       </c>
       <c r="D217" t="n">
-        <v>10874.73</v>
+        <v>10981.61</v>
       </c>
       <c r="E217" t="n">
-        <v>10874.73</v>
-      </c>
-      <c r="G217" s="1">
+        <v>11087.47</v>
+      </c>
+      <c r="G217" s="3">
         <f>AVERAGE(E213:E217)</f>
         <v/>
       </c>
-      <c r="H217" s="1">
+      <c r="H217" s="3">
         <f>AVERAGE(E188:E217)</f>
         <v/>
       </c>
-      <c r="I217" s="1">
+      <c r="I217" s="3">
         <f>G217-H217</f>
         <v/>
       </c>
@@ -7768,26 +7774,26 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>10873.54</v>
+        <v>11008.77</v>
       </c>
       <c r="C218" t="n">
-        <v>10915.74</v>
+        <v>11008.77</v>
       </c>
       <c r="D218" t="n">
-        <v>10865.07</v>
+        <v>10904.19</v>
       </c>
       <c r="E218" t="n">
-        <v>10897.57</v>
-      </c>
-      <c r="G218" s="1">
+        <v>10904.19</v>
+      </c>
+      <c r="G218" s="3">
         <f>AVERAGE(E214:E218)</f>
         <v/>
       </c>
-      <c r="H218" s="1">
+      <c r="H218" s="3">
         <f>AVERAGE(E189:E218)</f>
         <v/>
       </c>
-      <c r="I218" s="1">
+      <c r="I218" s="3">
         <f>G218-H218</f>
         <v/>
       </c>
@@ -7797,26 +7803,26 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>10911.74</v>
+        <v>10904.8</v>
       </c>
       <c r="C219" t="n">
-        <v>10938.63</v>
+        <v>10969.2</v>
       </c>
       <c r="D219" t="n">
-        <v>10833.81</v>
+        <v>10842.56</v>
       </c>
       <c r="E219" t="n">
-        <v>10833.81</v>
-      </c>
-      <c r="G219" s="1">
+        <v>10927.44</v>
+      </c>
+      <c r="G219" s="3">
         <f>AVERAGE(E215:E219)</f>
         <v/>
       </c>
-      <c r="H219" s="1">
+      <c r="H219" s="3">
         <f>AVERAGE(E190:E219)</f>
         <v/>
       </c>
-      <c r="I219" s="1">
+      <c r="I219" s="3">
         <f>G219-H219</f>
         <v/>
       </c>
@@ -7826,26 +7832,26 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>10844.09</v>
+        <v>10949.85</v>
       </c>
       <c r="C220" t="n">
-        <v>10893.35</v>
+        <v>10992.31</v>
       </c>
       <c r="D220" t="n">
-        <v>10819.07</v>
+        <v>10941.07</v>
       </c>
       <c r="E220" t="n">
-        <v>10830.84</v>
-      </c>
-      <c r="G220" s="1">
+        <v>10941.07</v>
+      </c>
+      <c r="G220" s="3">
         <f>AVERAGE(E216:E220)</f>
         <v/>
       </c>
-      <c r="H220" s="1">
+      <c r="H220" s="3">
         <f>AVERAGE(E191:E220)</f>
         <v/>
       </c>
-      <c r="I220" s="1">
+      <c r="I220" s="3">
         <f>G220-H220</f>
         <v/>
       </c>
@@ -7855,26 +7861,26 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>10861.66</v>
+        <v>10901.25</v>
       </c>
       <c r="C221" t="n">
-        <v>10979.1</v>
+        <v>10914.83</v>
       </c>
       <c r="D221" t="n">
-        <v>10861.66</v>
+        <v>10828.86</v>
       </c>
       <c r="E221" t="n">
-        <v>10966.2</v>
-      </c>
-      <c r="G221" s="1">
+        <v>10899.28</v>
+      </c>
+      <c r="G221" s="3">
         <f>AVERAGE(E217:E221)</f>
         <v/>
       </c>
-      <c r="H221" s="1">
+      <c r="H221" s="3">
         <f>AVERAGE(E192:E221)</f>
         <v/>
       </c>
-      <c r="I221" s="1">
+      <c r="I221" s="3">
         <f>G221-H221</f>
         <v/>
       </c>
@@ -7884,26 +7890,26 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>10986.77</v>
+        <v>10834.07</v>
       </c>
       <c r="C222" t="n">
-        <v>11034.12</v>
+        <v>10851.16</v>
       </c>
       <c r="D222" t="n">
-        <v>10938.73</v>
+        <v>10786.46</v>
       </c>
       <c r="E222" t="n">
-        <v>10938.73</v>
-      </c>
-      <c r="G222" s="1">
+        <v>10786.46</v>
+      </c>
+      <c r="G222" s="3">
         <f>AVERAGE(E218:E222)</f>
         <v/>
       </c>
-      <c r="H222" s="1">
+      <c r="H222" s="3">
         <f>AVERAGE(E193:E222)</f>
         <v/>
       </c>
-      <c r="I222" s="1">
+      <c r="I222" s="3">
         <f>G222-H222</f>
         <v/>
       </c>
@@ -7913,26 +7919,26 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>10974.52</v>
+        <v>10730.9</v>
       </c>
       <c r="C223" t="n">
-        <v>10991.86</v>
+        <v>10752.99</v>
       </c>
       <c r="D223" t="n">
-        <v>10886.18</v>
+        <v>10651.42</v>
       </c>
       <c r="E223" t="n">
-        <v>10886.18</v>
-      </c>
-      <c r="G223" s="1">
+        <v>10742.17</v>
+      </c>
+      <c r="G223" s="3">
         <f>AVERAGE(E219:E223)</f>
         <v/>
       </c>
-      <c r="H223" s="1">
+      <c r="H223" s="3">
         <f>AVERAGE(E194:E223)</f>
         <v/>
       </c>
-      <c r="I223" s="1">
+      <c r="I223" s="3">
         <f>G223-H223</f>
         <v/>
       </c>
@@ -7942,26 +7948,26 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>10910.61</v>
+        <v>10766.88</v>
       </c>
       <c r="C224" t="n">
-        <v>10942.64</v>
+        <v>10800.34</v>
       </c>
       <c r="D224" t="n">
-        <v>10883.52</v>
+        <v>10701.03</v>
       </c>
       <c r="E224" t="n">
-        <v>10936.93</v>
-      </c>
-      <c r="G224" s="1">
+        <v>10701.03</v>
+      </c>
+      <c r="G224" s="3">
         <f>AVERAGE(E220:E224)</f>
         <v/>
       </c>
-      <c r="H224" s="1">
+      <c r="H224" s="3">
         <f>AVERAGE(E195:E224)</f>
         <v/>
       </c>
-      <c r="I224" s="1">
+      <c r="I224" s="3">
         <f>G224-H224</f>
         <v/>
       </c>
@@ -7971,26 +7977,26 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>10946.62</v>
+        <v>10669.42</v>
       </c>
       <c r="C225" t="n">
-        <v>10977.81</v>
+        <v>10723.84</v>
       </c>
       <c r="D225" t="n">
-        <v>10918.12</v>
+        <v>10633.01</v>
       </c>
       <c r="E225" t="n">
-        <v>10942.3</v>
-      </c>
-      <c r="G225" s="1">
+        <v>10654.28</v>
+      </c>
+      <c r="G225" s="3">
         <f>AVERAGE(E221:E225)</f>
         <v/>
       </c>
-      <c r="H225" s="1">
+      <c r="H225" s="3">
         <f>AVERAGE(E196:E225)</f>
         <v/>
       </c>
-      <c r="I225" s="1">
+      <c r="I225" s="3">
         <f>G225-H225</f>
         <v/>
       </c>
@@ -8000,26 +8006,26 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>10976.49</v>
+        <v>10667.64</v>
       </c>
       <c r="C226" t="n">
-        <v>10999.43</v>
+        <v>10836.91</v>
       </c>
       <c r="D226" t="n">
-        <v>10965.18</v>
+        <v>10667.64</v>
       </c>
       <c r="E226" t="n">
-        <v>10987.77</v>
-      </c>
-      <c r="G226" s="1">
+        <v>10836.91</v>
+      </c>
+      <c r="G226" s="3">
         <f>AVERAGE(E222:E226)</f>
         <v/>
       </c>
-      <c r="H226" s="1">
+      <c r="H226" s="3">
         <f>AVERAGE(E197:E226)</f>
         <v/>
       </c>
-      <c r="I226" s="1">
+      <c r="I226" s="3">
         <f>G226-H226</f>
         <v/>
       </c>
@@ -8029,26 +8035,26 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>10979.68</v>
+        <v>10852.17</v>
       </c>
       <c r="C227" t="n">
-        <v>10986.53</v>
+        <v>10886.2</v>
       </c>
       <c r="D227" t="n">
-        <v>10929.56</v>
+        <v>10777.94</v>
       </c>
       <c r="E227" t="n">
-        <v>10964.12</v>
-      </c>
-      <c r="G227" s="1">
+        <v>10777.94</v>
+      </c>
+      <c r="G227" s="3">
         <f>AVERAGE(E223:E227)</f>
         <v/>
       </c>
-      <c r="H227" s="1">
+      <c r="H227" s="3">
         <f>AVERAGE(E198:E227)</f>
         <v/>
       </c>
-      <c r="I227" s="1">
+      <c r="I227" s="3">
         <f>G227-H227</f>
         <v/>
       </c>
@@ -8058,26 +8064,26 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>10925.21</v>
+        <v>10802.88</v>
       </c>
       <c r="C228" t="n">
-        <v>10925.21</v>
+        <v>10873.48</v>
       </c>
       <c r="D228" t="n">
-        <v>10799.75</v>
+        <v>10707.68</v>
       </c>
       <c r="E228" t="n">
-        <v>10821.17</v>
-      </c>
-      <c r="G228" s="1">
+        <v>10715.72</v>
+      </c>
+      <c r="G228" s="3">
         <f>AVERAGE(E224:E228)</f>
         <v/>
       </c>
-      <c r="H228" s="1">
+      <c r="H228" s="3">
         <f>AVERAGE(E199:E228)</f>
         <v/>
       </c>
-      <c r="I228" s="1">
+      <c r="I228" s="3">
         <f>G228-H228</f>
         <v/>
       </c>
@@ -8087,26 +8093,26 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>10856.03</v>
+        <v>10714.25</v>
       </c>
       <c r="C229" t="n">
-        <v>10909.61</v>
+        <v>10752.05</v>
       </c>
       <c r="D229" t="n">
-        <v>10853.65</v>
+        <v>10680.44</v>
       </c>
       <c r="E229" t="n">
-        <v>10874.96</v>
-      </c>
-      <c r="G229" s="1">
+        <v>10721.87</v>
+      </c>
+      <c r="G229" s="3">
         <f>AVERAGE(E225:E229)</f>
         <v/>
       </c>
-      <c r="H229" s="1">
+      <c r="H229" s="3">
         <f>AVERAGE(E200:E229)</f>
         <v/>
       </c>
-      <c r="I229" s="1">
+      <c r="I229" s="3">
         <f>G229-H229</f>
         <v/>
       </c>
@@ -8116,26 +8122,26 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>10882.68</v>
+        <v>10690.91</v>
       </c>
       <c r="C230" t="n">
-        <v>10954.67</v>
+        <v>10709.8</v>
       </c>
       <c r="D230" t="n">
-        <v>10876.97</v>
+        <v>10585.27</v>
       </c>
       <c r="E230" t="n">
-        <v>10949.08</v>
-      </c>
-      <c r="G230" s="1">
+        <v>10611.81</v>
+      </c>
+      <c r="G230" s="3">
         <f>AVERAGE(E226:E230)</f>
         <v/>
       </c>
-      <c r="H230" s="1">
+      <c r="H230" s="3">
         <f>AVERAGE(E201:E230)</f>
         <v/>
       </c>
-      <c r="I230" s="1">
+      <c r="I230" s="3">
         <f>G230-H230</f>
         <v/>
       </c>
@@ -8145,26 +8151,26 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>11002.15</v>
+        <v>10645.66</v>
       </c>
       <c r="C231" t="n">
-        <v>11109.5</v>
+        <v>10665.72</v>
       </c>
       <c r="D231" t="n">
-        <v>11002.15</v>
+        <v>10523.58</v>
       </c>
       <c r="E231" t="n">
-        <v>11109.5</v>
-      </c>
-      <c r="G231" s="1">
+        <v>10608.57</v>
+      </c>
+      <c r="G231" s="3">
         <f>AVERAGE(E227:E231)</f>
         <v/>
       </c>
-      <c r="H231" s="1">
+      <c r="H231" s="3">
         <f>AVERAGE(E202:E231)</f>
         <v/>
       </c>
-      <c r="I231" s="1">
+      <c r="I231" s="3">
         <f>G231-H231</f>
         <v/>
       </c>
@@ -8174,26 +8180,26 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>11130.03</v>
+        <v>10638.9</v>
       </c>
       <c r="C232" t="n">
-        <v>11131.08</v>
+        <v>10746.74</v>
       </c>
       <c r="D232" t="n">
-        <v>11054.62</v>
+        <v>10638.9</v>
       </c>
       <c r="E232" t="n">
-        <v>11100.11</v>
-      </c>
-      <c r="G232" s="1">
+        <v>10720.28</v>
+      </c>
+      <c r="G232" s="3">
         <f>AVERAGE(E228:E232)</f>
         <v/>
       </c>
-      <c r="H232" s="1">
+      <c r="H232" s="3">
         <f>AVERAGE(E203:E232)</f>
         <v/>
       </c>
-      <c r="I232" s="1">
+      <c r="I232" s="3">
         <f>G232-H232</f>
         <v/>
       </c>
@@ -8203,26 +8209,26 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>11111.14</v>
+        <v>10737.62</v>
       </c>
       <c r="C233" t="n">
-        <v>11207.15</v>
+        <v>10776.47</v>
       </c>
       <c r="D233" t="n">
-        <v>11111.14</v>
+        <v>10728.24</v>
       </c>
       <c r="E233" t="n">
-        <v>11201.83</v>
-      </c>
-      <c r="G233" s="1">
+        <v>10756.89</v>
+      </c>
+      <c r="G233" s="3">
         <f>AVERAGE(E229:E233)</f>
         <v/>
       </c>
-      <c r="H233" s="1">
+      <c r="H233" s="3">
         <f>AVERAGE(E204:E233)</f>
         <v/>
       </c>
-      <c r="I233" s="1">
+      <c r="I233" s="3">
         <f>G233-H233</f>
         <v/>
       </c>
@@ -8232,26 +8238,26 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>11228.64</v>
+        <v>10693.64</v>
       </c>
       <c r="C234" t="n">
-        <v>11261.68</v>
+        <v>10693.64</v>
       </c>
       <c r="D234" t="n">
-        <v>11188.99</v>
+        <v>10635.03</v>
       </c>
       <c r="E234" t="n">
-        <v>11251.75</v>
-      </c>
-      <c r="G234" s="1">
+        <v>10676.84</v>
+      </c>
+      <c r="G234" s="3">
         <f>AVERAGE(E230:E234)</f>
         <v/>
       </c>
-      <c r="H234" s="1">
+      <c r="H234" s="3">
         <f>AVERAGE(E205:E234)</f>
         <v/>
       </c>
-      <c r="I234" s="1">
+      <c r="I234" s="3">
         <f>G234-H234</f>
         <v/>
       </c>
@@ -8261,26 +8267,26 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>11243.59</v>
+        <v>10644.91</v>
       </c>
       <c r="C235" t="n">
-        <v>11243.59</v>
+        <v>10752.57</v>
       </c>
       <c r="D235" t="n">
-        <v>11122.98</v>
+        <v>10643.65</v>
       </c>
       <c r="E235" t="n">
-        <v>11156.42</v>
-      </c>
-      <c r="G235" s="1">
+        <v>10738.38</v>
+      </c>
+      <c r="G235" s="3">
         <f>AVERAGE(E231:E235)</f>
         <v/>
       </c>
-      <c r="H235" s="1">
+      <c r="H235" s="3">
         <f>AVERAGE(E206:E235)</f>
         <v/>
       </c>
-      <c r="I235" s="1">
+      <c r="I235" s="3">
         <f>G235-H235</f>
         <v/>
       </c>
@@ -8290,26 +8296,26 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>11168.99</v>
+        <v>10769.7</v>
       </c>
       <c r="C236" t="n">
-        <v>11186.67</v>
+        <v>10864.54</v>
       </c>
       <c r="D236" t="n">
-        <v>11118.81</v>
+        <v>10769.7</v>
       </c>
       <c r="E236" t="n">
-        <v>11149.23</v>
-      </c>
-      <c r="G236" s="1">
+        <v>10864.54</v>
+      </c>
+      <c r="G236" s="3">
         <f>AVERAGE(E232:E236)</f>
         <v/>
       </c>
-      <c r="H236" s="1">
+      <c r="H236" s="3">
         <f>AVERAGE(E207:E236)</f>
         <v/>
       </c>
-      <c r="I236" s="1">
+      <c r="I236" s="3">
         <f>G236-H236</f>
         <v/>
       </c>
@@ -8319,26 +8325,26 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>11140.02</v>
+        <v>10867.97</v>
       </c>
       <c r="C237" t="n">
-        <v>11160.05</v>
+        <v>10890.2</v>
       </c>
       <c r="D237" t="n">
-        <v>11088.53</v>
+        <v>10817.45</v>
       </c>
       <c r="E237" t="n">
-        <v>11144.79</v>
-      </c>
-      <c r="G237" s="1">
+        <v>10817.45</v>
+      </c>
+      <c r="G237" s="3">
         <f>AVERAGE(E233:E237)</f>
         <v/>
       </c>
-      <c r="H237" s="1">
+      <c r="H237" s="3">
         <f>AVERAGE(E208:E237)</f>
         <v/>
       </c>
-      <c r="I237" s="1">
+      <c r="I237" s="3">
         <f>G237-H237</f>
         <v/>
       </c>
@@ -8348,26 +8354,26 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>11153.2</v>
+        <v>10802.75</v>
       </c>
       <c r="C238" t="n">
-        <v>11188.01</v>
+        <v>10818.84</v>
       </c>
       <c r="D238" t="n">
-        <v>11119.24</v>
+        <v>10758.83</v>
       </c>
       <c r="E238" t="n">
-        <v>11173.21</v>
-      </c>
-      <c r="G238" s="1">
+        <v>10778.99</v>
+      </c>
+      <c r="G238" s="3">
         <f>AVERAGE(E234:E238)</f>
         <v/>
       </c>
-      <c r="H238" s="1">
+      <c r="H238" s="3">
         <f>AVERAGE(E209:E238)</f>
         <v/>
       </c>
-      <c r="I238" s="1">
+      <c r="I238" s="3">
         <f>G238-H238</f>
         <v/>
       </c>
@@ -8377,26 +8383,26 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>11143.04</v>
+        <v>10811.43</v>
       </c>
       <c r="C239" t="n">
-        <v>11143.04</v>
+        <v>10872.74</v>
       </c>
       <c r="D239" t="n">
-        <v>11013.98</v>
+        <v>10788.37</v>
       </c>
       <c r="E239" t="n">
-        <v>11013.98</v>
-      </c>
-      <c r="G239" s="1">
+        <v>10842.46</v>
+      </c>
+      <c r="G239" s="3">
         <f>AVERAGE(E235:E239)</f>
         <v/>
       </c>
-      <c r="H239" s="1">
+      <c r="H239" s="3">
         <f>AVERAGE(E210:E239)</f>
         <v/>
       </c>
-      <c r="I239" s="1">
+      <c r="I239" s="3">
         <f>G239-H239</f>
         <v/>
       </c>
@@ -8406,26 +8412,26 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>10998.2</v>
+        <v>10868.56</v>
       </c>
       <c r="C240" t="n">
-        <v>11087.47</v>
+        <v>10896.25</v>
       </c>
       <c r="D240" t="n">
-        <v>10981.61</v>
+        <v>10826.14</v>
       </c>
       <c r="E240" t="n">
-        <v>11087.47</v>
-      </c>
-      <c r="G240" s="1">
+        <v>10835.38</v>
+      </c>
+      <c r="G240" s="3">
         <f>AVERAGE(E236:E240)</f>
         <v/>
       </c>
-      <c r="H240" s="1">
+      <c r="H240" s="3">
         <f>AVERAGE(E211:E240)</f>
         <v/>
       </c>
-      <c r="I240" s="1">
+      <c r="I240" s="3">
         <f>G240-H240</f>
         <v/>
       </c>
@@ -8435,26 +8441,26 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>11008.77</v>
+        <v>10932.51</v>
       </c>
       <c r="C241" t="n">
-        <v>11008.77</v>
+        <v>10963.95</v>
       </c>
       <c r="D241" t="n">
-        <v>10904.19</v>
+        <v>10893.73</v>
       </c>
       <c r="E241" t="n">
-        <v>10904.19</v>
-      </c>
-      <c r="G241" s="1">
+        <v>10932.11</v>
+      </c>
+      <c r="G241" s="3">
         <f>AVERAGE(E237:E241)</f>
         <v/>
       </c>
-      <c r="H241" s="1">
+      <c r="H241" s="3">
         <f>AVERAGE(E212:E241)</f>
         <v/>
       </c>
-      <c r="I241" s="1">
+      <c r="I241" s="3">
         <f>G241-H241</f>
         <v/>
       </c>
@@ -8464,26 +8470,26 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>10904.8</v>
+        <v>10929.46</v>
       </c>
       <c r="C242" t="n">
-        <v>10969.2</v>
+        <v>10984.84</v>
       </c>
       <c r="D242" t="n">
-        <v>10842.56</v>
+        <v>10901.75</v>
       </c>
       <c r="E242" t="n">
-        <v>10927.44</v>
-      </c>
-      <c r="G242" s="1">
+        <v>10946.89</v>
+      </c>
+      <c r="G242" s="3">
         <f>AVERAGE(E238:E242)</f>
         <v/>
       </c>
-      <c r="H242" s="1">
+      <c r="H242" s="3">
         <f>AVERAGE(E213:E242)</f>
         <v/>
       </c>
-      <c r="I242" s="1">
+      <c r="I242" s="3">
         <f>G242-H242</f>
         <v/>
       </c>
@@ -8493,26 +8499,26 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>10949.85</v>
+        <v>10937.77</v>
       </c>
       <c r="C243" t="n">
-        <v>10992.31</v>
+        <v>10995.39</v>
       </c>
       <c r="D243" t="n">
-        <v>10941.07</v>
+        <v>10917.61</v>
       </c>
       <c r="E243" t="n">
-        <v>10941.07</v>
-      </c>
-      <c r="G243" s="1">
+        <v>10995.39</v>
+      </c>
+      <c r="G243" s="3">
         <f>AVERAGE(E239:E243)</f>
         <v/>
       </c>
-      <c r="H243" s="1">
+      <c r="H243" s="3">
         <f>AVERAGE(E214:E243)</f>
         <v/>
       </c>
-      <c r="I243" s="1">
+      <c r="I243" s="3">
         <f>G243-H243</f>
         <v/>
       </c>
@@ -8522,26 +8528,26 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>10901.25</v>
+        <v>10957.66</v>
       </c>
       <c r="C244" t="n">
-        <v>10914.83</v>
+        <v>10992.29</v>
       </c>
       <c r="D244" t="n">
-        <v>10828.86</v>
+        <v>10956</v>
       </c>
       <c r="E244" t="n">
-        <v>10899.28</v>
-      </c>
-      <c r="G244" s="1">
+        <v>10965.79</v>
+      </c>
+      <c r="G244" s="3">
         <f>AVERAGE(E240:E244)</f>
         <v/>
       </c>
-      <c r="H244" s="1">
+      <c r="H244" s="3">
         <f>AVERAGE(E215:E244)</f>
         <v/>
       </c>
-      <c r="I244" s="1">
+      <c r="I244" s="3">
         <f>G244-H244</f>
         <v/>
       </c>
@@ -8551,26 +8557,26 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>10834.07</v>
+        <v>10969.35</v>
       </c>
       <c r="C245" t="n">
-        <v>10851.16</v>
+        <v>11018.19</v>
       </c>
       <c r="D245" t="n">
-        <v>10786.46</v>
+        <v>10966.33</v>
       </c>
       <c r="E245" t="n">
-        <v>10786.46</v>
-      </c>
-      <c r="G245" s="1">
+        <v>11010.61</v>
+      </c>
+      <c r="G245" s="3">
         <f>AVERAGE(E241:E245)</f>
         <v/>
       </c>
-      <c r="H245" s="1">
+      <c r="H245" s="3">
         <f>AVERAGE(E216:E245)</f>
         <v/>
       </c>
-      <c r="I245" s="1">
+      <c r="I245" s="3">
         <f>G245-H245</f>
         <v/>
       </c>
@@ -8580,26 +8586,26 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>10730.9</v>
+        <v>11023.07</v>
       </c>
       <c r="C246" t="n">
-        <v>10752.99</v>
+        <v>11075.78</v>
       </c>
       <c r="D246" t="n">
-        <v>10651.42</v>
+        <v>11009.16</v>
       </c>
       <c r="E246" t="n">
-        <v>10742.17</v>
-      </c>
-      <c r="G246" s="1">
+        <v>11075.78</v>
+      </c>
+      <c r="G246" s="3">
         <f>AVERAGE(E242:E246)</f>
         <v/>
       </c>
-      <c r="H246" s="1">
+      <c r="H246" s="3">
         <f>AVERAGE(E217:E246)</f>
         <v/>
       </c>
-      <c r="I246" s="1">
+      <c r="I246" s="3">
         <f>G246-H246</f>
         <v/>
       </c>
@@ -8609,26 +8615,26 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>10766.88</v>
+        <v>11072.7</v>
       </c>
       <c r="C247" t="n">
-        <v>10800.34</v>
+        <v>11080.41</v>
       </c>
       <c r="D247" t="n">
-        <v>10701.03</v>
+        <v>11001.15</v>
       </c>
       <c r="E247" t="n">
-        <v>10701.03</v>
-      </c>
-      <c r="G247" s="1">
+        <v>11033.54</v>
+      </c>
+      <c r="G247" s="3">
         <f>AVERAGE(E243:E247)</f>
         <v/>
       </c>
-      <c r="H247" s="1">
+      <c r="H247" s="3">
         <f>AVERAGE(E218:E247)</f>
         <v/>
       </c>
-      <c r="I247" s="1">
+      <c r="I247" s="3">
         <f>G247-H247</f>
         <v/>
       </c>
@@ -8638,26 +8644,26 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>10669.42</v>
+        <v>10997.73</v>
       </c>
       <c r="C248" t="n">
-        <v>10723.84</v>
+        <v>11057.51</v>
       </c>
       <c r="D248" t="n">
-        <v>10633.01</v>
+        <v>10976.46</v>
       </c>
       <c r="E248" t="n">
-        <v>10654.28</v>
-      </c>
-      <c r="G248" s="1">
+        <v>11057.51</v>
+      </c>
+      <c r="G248" s="3">
         <f>AVERAGE(E244:E248)</f>
         <v/>
       </c>
-      <c r="H248" s="1">
+      <c r="H248" s="3">
         <f>AVERAGE(E219:E248)</f>
         <v/>
       </c>
-      <c r="I248" s="1">
+      <c r="I248" s="3">
         <f>G248-H248</f>
         <v/>
       </c>
@@ -8667,26 +8673,26 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>10667.64</v>
+        <v>11062.36</v>
       </c>
       <c r="C249" t="n">
-        <v>10836.91</v>
+        <v>11100.02</v>
       </c>
       <c r="D249" t="n">
-        <v>10667.64</v>
+        <v>11058.28</v>
       </c>
       <c r="E249" t="n">
-        <v>10836.91</v>
-      </c>
-      <c r="G249" s="1">
+        <v>11098.13</v>
+      </c>
+      <c r="G249" s="3">
         <f>AVERAGE(E245:E249)</f>
         <v/>
       </c>
-      <c r="H249" s="1">
+      <c r="H249" s="3">
         <f>AVERAGE(E220:E249)</f>
         <v/>
       </c>
-      <c r="I249" s="1">
+      <c r="I249" s="3">
         <f>G249-H249</f>
         <v/>
       </c>
@@ -8696,26 +8702,26 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>10852.17</v>
+        <v>11095.67</v>
       </c>
       <c r="C250" t="n">
-        <v>10886.2</v>
+        <v>11095.67</v>
       </c>
       <c r="D250" t="n">
-        <v>10777.94</v>
+        <v>10919.13</v>
       </c>
       <c r="E250" t="n">
-        <v>10777.94</v>
-      </c>
-      <c r="G250" s="1">
+        <v>10929.77</v>
+      </c>
+      <c r="G250" s="3">
         <f>AVERAGE(E246:E250)</f>
         <v/>
       </c>
-      <c r="H250" s="1">
+      <c r="H250" s="3">
         <f>AVERAGE(E221:E250)</f>
         <v/>
       </c>
-      <c r="I250" s="1">
+      <c r="I250" s="3">
         <f>G250-H250</f>
         <v/>
       </c>
@@ -8725,26 +8731,26 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>10802.88</v>
+        <v>10957.3</v>
       </c>
       <c r="C251" t="n">
-        <v>10873.48</v>
+        <v>11012.43</v>
       </c>
       <c r="D251" t="n">
-        <v>10707.68</v>
+        <v>10957.3</v>
       </c>
       <c r="E251" t="n">
-        <v>10715.72</v>
-      </c>
-      <c r="G251" s="1">
+        <v>11012.43</v>
+      </c>
+      <c r="G251" s="3">
         <f>AVERAGE(E247:E251)</f>
         <v/>
       </c>
-      <c r="H251" s="1">
+      <c r="H251" s="3">
         <f>AVERAGE(E222:E251)</f>
         <v/>
       </c>
-      <c r="I251" s="1">
+      <c r="I251" s="3">
         <f>G251-H251</f>
         <v/>
       </c>
@@ -8754,26 +8760,26 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>10714.25</v>
+        <v>10997.26</v>
       </c>
       <c r="C252" t="n">
-        <v>10752.05</v>
+        <v>11054.49</v>
       </c>
       <c r="D252" t="n">
-        <v>10680.44</v>
+        <v>10994.97</v>
       </c>
       <c r="E252" t="n">
-        <v>10721.87</v>
-      </c>
-      <c r="G252" s="1">
+        <v>11024.1</v>
+      </c>
+      <c r="G252" s="3">
         <f>AVERAGE(E248:E252)</f>
         <v/>
       </c>
-      <c r="H252" s="1">
+      <c r="H252" s="3">
         <f>AVERAGE(E223:E252)</f>
         <v/>
       </c>
-      <c r="I252" s="1">
+      <c r="I252" s="3">
         <f>G252-H252</f>
         <v/>
       </c>
@@ -8783,26 +8789,26 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>10690.91</v>
+        <v>11024.97</v>
       </c>
       <c r="C253" t="n">
-        <v>10709.8</v>
+        <v>11030.09</v>
       </c>
       <c r="D253" t="n">
-        <v>10585.27</v>
+        <v>10983.44</v>
       </c>
       <c r="E253" t="n">
-        <v>10611.81</v>
-      </c>
-      <c r="G253" s="1">
+        <v>10983.44</v>
+      </c>
+      <c r="G253" s="3">
         <f>AVERAGE(E249:E253)</f>
         <v/>
       </c>
-      <c r="H253" s="1">
+      <c r="H253" s="3">
         <f>AVERAGE(E224:E253)</f>
         <v/>
       </c>
-      <c r="I253" s="1">
+      <c r="I253" s="3">
         <f>G253-H253</f>
         <v/>
       </c>
@@ -8812,26 +8818,26 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>10645.66</v>
+        <v>11026.07</v>
       </c>
       <c r="C254" t="n">
-        <v>10665.72</v>
+        <v>11095.5</v>
       </c>
       <c r="D254" t="n">
-        <v>10523.58</v>
+        <v>11026.07</v>
       </c>
       <c r="E254" t="n">
-        <v>10608.57</v>
-      </c>
-      <c r="G254" s="1">
+        <v>11075.25</v>
+      </c>
+      <c r="G254" s="3">
         <f>AVERAGE(E250:E254)</f>
         <v/>
       </c>
-      <c r="H254" s="1">
+      <c r="H254" s="3">
         <f>AVERAGE(E225:E254)</f>
         <v/>
       </c>
-      <c r="I254" s="1">
+      <c r="I254" s="3">
         <f>G254-H254</f>
         <v/>
       </c>
@@ -8841,26 +8847,26 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>10638.9</v>
+        <v>11063.62</v>
       </c>
       <c r="C255" t="n">
-        <v>10746.74</v>
+        <v>11063.62</v>
       </c>
       <c r="D255" t="n">
-        <v>10638.9</v>
+        <v>11001.96</v>
       </c>
       <c r="E255" t="n">
-        <v>10720.28</v>
-      </c>
-      <c r="G255" s="1">
+        <v>11028.07</v>
+      </c>
+      <c r="G255" s="3">
         <f>AVERAGE(E251:E255)</f>
         <v/>
       </c>
-      <c r="H255" s="1">
+      <c r="H255" s="3">
         <f>AVERAGE(E226:E255)</f>
         <v/>
       </c>
-      <c r="I255" s="1">
+      <c r="I255" s="3">
         <f>G255-H255</f>
         <v/>
       </c>
@@ -8870,26 +8876,26 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>10737.62</v>
+        <v>11009.96</v>
       </c>
       <c r="C256" t="n">
-        <v>10776.47</v>
+        <v>11033.89</v>
       </c>
       <c r="D256" t="n">
-        <v>10728.24</v>
+        <v>10972.25</v>
       </c>
       <c r="E256" t="n">
-        <v>10756.89</v>
-      </c>
-      <c r="G256" s="1">
+        <v>10983.68</v>
+      </c>
+      <c r="G256" s="3">
         <f>AVERAGE(E252:E256)</f>
         <v/>
       </c>
-      <c r="H256" s="1">
+      <c r="H256" s="3">
         <f>AVERAGE(E227:E256)</f>
         <v/>
       </c>
-      <c r="I256" s="1">
+      <c r="I256" s="3">
         <f>G256-H256</f>
         <v/>
       </c>
@@ -8899,26 +8905,26 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>10693.64</v>
+        <v>10939.68</v>
       </c>
       <c r="C257" t="n">
-        <v>10693.64</v>
+        <v>10939.68</v>
       </c>
       <c r="D257" t="n">
-        <v>10635.03</v>
+        <v>10693.73</v>
       </c>
       <c r="E257" t="n">
-        <v>10676.84</v>
-      </c>
-      <c r="G257" s="1">
+        <v>10748.92</v>
+      </c>
+      <c r="G257" s="3">
         <f>AVERAGE(E253:E257)</f>
         <v/>
       </c>
-      <c r="H257" s="1">
+      <c r="H257" s="3">
         <f>AVERAGE(E228:E257)</f>
         <v/>
       </c>
-      <c r="I257" s="1">
+      <c r="I257" s="3">
         <f>G257-H257</f>
         <v/>
       </c>
@@ -8928,26 +8934,26 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>10644.91</v>
+        <v>10797.95</v>
       </c>
       <c r="C258" t="n">
-        <v>10752.57</v>
+        <v>10829.85</v>
       </c>
       <c r="D258" t="n">
-        <v>10643.65</v>
+        <v>10755.53</v>
       </c>
       <c r="E258" t="n">
-        <v>10738.38</v>
-      </c>
-      <c r="G258" s="1">
+        <v>10824.23</v>
+      </c>
+      <c r="G258" s="3">
         <f>AVERAGE(E254:E258)</f>
         <v/>
       </c>
-      <c r="H258" s="1">
+      <c r="H258" s="3">
         <f>AVERAGE(E229:E258)</f>
         <v/>
       </c>
-      <c r="I258" s="1">
+      <c r="I258" s="3">
         <f>G258-H258</f>
         <v/>
       </c>
@@ -8957,26 +8963,26 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>10769.7</v>
+        <v>10827.28</v>
       </c>
       <c r="C259" t="n">
-        <v>10864.54</v>
+        <v>10827.28</v>
       </c>
       <c r="D259" t="n">
-        <v>10769.7</v>
+        <v>10688.59</v>
       </c>
       <c r="E259" t="n">
-        <v>10864.54</v>
-      </c>
-      <c r="G259" s="1">
+        <v>10716.75</v>
+      </c>
+      <c r="G259" s="3">
         <f>AVERAGE(E255:E259)</f>
         <v/>
       </c>
-      <c r="H259" s="1">
+      <c r="H259" s="3">
         <f>AVERAGE(E230:E259)</f>
         <v/>
       </c>
-      <c r="I259" s="1">
+      <c r="I259" s="3">
         <f>G259-H259</f>
         <v/>
       </c>
@@ -8986,26 +8992,26 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>10867.97</v>
+        <v>10663.57</v>
       </c>
       <c r="C260" t="n">
-        <v>10890.2</v>
+        <v>10725.71</v>
       </c>
       <c r="D260" t="n">
-        <v>10817.45</v>
+        <v>10606.26</v>
       </c>
       <c r="E260" t="n">
-        <v>10817.45</v>
-      </c>
-      <c r="G260" s="1">
+        <v>10683.9</v>
+      </c>
+      <c r="G260" s="3">
         <f>AVERAGE(E256:E260)</f>
         <v/>
       </c>
-      <c r="H260" s="1">
+      <c r="H260" s="3">
         <f>AVERAGE(E231:E260)</f>
         <v/>
       </c>
-      <c r="I260" s="1">
+      <c r="I260" s="3">
         <f>G260-H260</f>
         <v/>
       </c>
@@ -9015,26 +9021,26 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>10802.75</v>
+        <v>10702.6</v>
       </c>
       <c r="C261" t="n">
-        <v>10818.84</v>
+        <v>10757.01</v>
       </c>
       <c r="D261" t="n">
-        <v>10758.83</v>
+        <v>10688.55</v>
       </c>
       <c r="E261" t="n">
-        <v>10778.99</v>
-      </c>
-      <c r="G261" s="1">
+        <v>10690.96</v>
+      </c>
+      <c r="G261" s="3">
         <f>AVERAGE(E257:E261)</f>
         <v/>
       </c>
-      <c r="H261" s="1">
+      <c r="H261" s="3">
         <f>AVERAGE(E232:E261)</f>
         <v/>
       </c>
-      <c r="I261" s="1">
+      <c r="I261" s="3">
         <f>G261-H261</f>
         <v/>
       </c>
@@ -9044,26 +9050,26 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>10811.43</v>
+        <v>10698.76</v>
       </c>
       <c r="C262" t="n">
-        <v>10872.74</v>
+        <v>10729.9</v>
       </c>
       <c r="D262" t="n">
-        <v>10788.37</v>
+        <v>10663.44</v>
       </c>
       <c r="E262" t="n">
-        <v>10842.46</v>
-      </c>
-      <c r="G262" s="1">
+        <v>10699.05</v>
+      </c>
+      <c r="G262" s="3">
         <f>AVERAGE(E258:E262)</f>
         <v/>
       </c>
-      <c r="H262" s="1">
+      <c r="H262" s="3">
         <f>AVERAGE(E233:E262)</f>
         <v/>
       </c>
-      <c r="I262" s="1">
+      <c r="I262" s="3">
         <f>G262-H262</f>
         <v/>
       </c>
@@ -9073,26 +9079,26 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>10868.56</v>
+        <v>10697.01</v>
       </c>
       <c r="C263" t="n">
-        <v>10896.25</v>
+        <v>10792.2</v>
       </c>
       <c r="D263" t="n">
-        <v>10826.14</v>
+        <v>10697.01</v>
       </c>
       <c r="E263" t="n">
-        <v>10835.38</v>
-      </c>
-      <c r="G263" s="1">
+        <v>10792.2</v>
+      </c>
+      <c r="G263" s="3">
         <f>AVERAGE(E259:E263)</f>
         <v/>
       </c>
-      <c r="H263" s="1">
+      <c r="H263" s="3">
         <f>AVERAGE(E234:E263)</f>
         <v/>
       </c>
-      <c r="I263" s="1">
+      <c r="I263" s="3">
         <f>G263-H263</f>
         <v/>
       </c>
@@ -9102,26 +9108,26 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>10932.51</v>
+        <v>10790.24</v>
       </c>
       <c r="C264" t="n">
-        <v>10963.95</v>
+        <v>10828.21</v>
       </c>
       <c r="D264" t="n">
-        <v>10893.73</v>
+        <v>10774.69</v>
       </c>
       <c r="E264" t="n">
-        <v>10932.11</v>
-      </c>
-      <c r="G264" s="1">
+        <v>10804.2</v>
+      </c>
+      <c r="G264" s="3">
         <f>AVERAGE(E260:E264)</f>
         <v/>
       </c>
-      <c r="H264" s="1">
+      <c r="H264" s="3">
         <f>AVERAGE(E235:E264)</f>
         <v/>
       </c>
-      <c r="I264" s="1">
+      <c r="I264" s="3">
         <f>G264-H264</f>
         <v/>
       </c>
@@ -9131,26 +9137,26 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>10929.46</v>
+        <v>10817.33</v>
       </c>
       <c r="C265" t="n">
-        <v>10984.84</v>
+        <v>10863.13</v>
       </c>
       <c r="D265" t="n">
-        <v>10901.75</v>
+        <v>10802.79</v>
       </c>
       <c r="E265" t="n">
-        <v>10946.89</v>
-      </c>
-      <c r="G265" s="1">
+        <v>10863.13</v>
+      </c>
+      <c r="G265" s="3">
         <f>AVERAGE(E261:E265)</f>
         <v/>
       </c>
-      <c r="H265" s="1">
+      <c r="H265" s="3">
         <f>AVERAGE(E236:E265)</f>
         <v/>
       </c>
-      <c r="I265" s="1">
+      <c r="I265" s="3">
         <f>G265-H265</f>
         <v/>
       </c>
@@ -9160,26 +9166,26 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>10937.77</v>
+        <v>10865.91</v>
       </c>
       <c r="C266" t="n">
-        <v>10995.39</v>
+        <v>10865.91</v>
       </c>
       <c r="D266" t="n">
-        <v>10917.61</v>
+        <v>10770.32</v>
       </c>
       <c r="E266" t="n">
-        <v>10995.39</v>
-      </c>
-      <c r="G266" s="1">
+        <v>10809.35</v>
+      </c>
+      <c r="G266" s="3">
         <f>AVERAGE(E262:E266)</f>
         <v/>
       </c>
-      <c r="H266" s="1">
+      <c r="H266" s="3">
         <f>AVERAGE(E237:E266)</f>
         <v/>
       </c>
-      <c r="I266" s="1">
+      <c r="I266" s="3">
         <f>G266-H266</f>
         <v/>
       </c>
@@ -9189,26 +9195,26 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>10957.66</v>
+        <v>10847.17</v>
       </c>
       <c r="C267" t="n">
-        <v>10992.29</v>
+        <v>10916.69</v>
       </c>
       <c r="D267" t="n">
-        <v>10956</v>
+        <v>10847.17</v>
       </c>
       <c r="E267" t="n">
-        <v>10965.79</v>
-      </c>
-      <c r="G267" s="1">
+        <v>10902.21</v>
+      </c>
+      <c r="G267" s="3">
         <f>AVERAGE(E263:E267)</f>
         <v/>
       </c>
-      <c r="H267" s="1">
+      <c r="H267" s="3">
         <f>AVERAGE(E238:E267)</f>
         <v/>
       </c>
-      <c r="I267" s="1">
+      <c r="I267" s="3">
         <f>G267-H267</f>
         <v/>
       </c>
@@ -9218,26 +9224,26 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>10969.35</v>
+        <v>10946.33</v>
       </c>
       <c r="C268" t="n">
-        <v>11018.19</v>
+        <v>11005.55</v>
       </c>
       <c r="D268" t="n">
-        <v>10966.33</v>
+        <v>10946.33</v>
       </c>
       <c r="E268" t="n">
-        <v>11010.61</v>
-      </c>
-      <c r="G268" s="1">
+        <v>10989.55</v>
+      </c>
+      <c r="G268" s="3">
         <f>AVERAGE(E264:E268)</f>
         <v/>
       </c>
-      <c r="H268" s="1">
+      <c r="H268" s="3">
         <f>AVERAGE(E239:E268)</f>
         <v/>
       </c>
-      <c r="I268" s="1">
+      <c r="I268" s="3">
         <f>G268-H268</f>
         <v/>
       </c>
@@ -9247,26 +9253,26 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>11023.07</v>
+        <v>11029.12</v>
       </c>
       <c r="C269" t="n">
-        <v>11075.78</v>
+        <v>11099.57</v>
       </c>
       <c r="D269" t="n">
-        <v>11009.16</v>
+        <v>11029.11</v>
       </c>
       <c r="E269" t="n">
-        <v>11075.78</v>
-      </c>
-      <c r="G269" s="1">
+        <v>11099.57</v>
+      </c>
+      <c r="G269" s="3">
         <f>AVERAGE(E265:E269)</f>
         <v/>
       </c>
-      <c r="H269" s="1">
+      <c r="H269" s="3">
         <f>AVERAGE(E240:E269)</f>
         <v/>
       </c>
-      <c r="I269" s="1">
+      <c r="I269" s="3">
         <f>G269-H269</f>
         <v/>
       </c>
@@ -9276,26 +9282,26 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>11072.7</v>
+        <v>11153.97</v>
       </c>
       <c r="C270" t="n">
-        <v>11080.41</v>
+        <v>11186.05</v>
       </c>
       <c r="D270" t="n">
-        <v>11001.15</v>
+        <v>11080.07</v>
       </c>
       <c r="E270" t="n">
-        <v>11033.54</v>
-      </c>
-      <c r="G270" s="1">
+        <v>11093.75</v>
+      </c>
+      <c r="G270" s="3">
         <f>AVERAGE(E266:E270)</f>
         <v/>
       </c>
-      <c r="H270" s="1">
+      <c r="H270" s="3">
         <f>AVERAGE(E241:E270)</f>
         <v/>
       </c>
-      <c r="I270" s="1">
+      <c r="I270" s="3">
         <f>G270-H270</f>
         <v/>
       </c>
@@ -9305,26 +9311,26 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>10997.73</v>
+        <v>11037.26</v>
       </c>
       <c r="C271" t="n">
-        <v>11057.51</v>
+        <v>11063.94</v>
       </c>
       <c r="D271" t="n">
-        <v>10976.46</v>
+        <v>10987.68</v>
       </c>
       <c r="E271" t="n">
-        <v>11057.51</v>
-      </c>
-      <c r="G271" s="1">
+        <v>11063.94</v>
+      </c>
+      <c r="G271" s="3">
         <f>AVERAGE(E267:E271)</f>
         <v/>
       </c>
-      <c r="H271" s="1">
+      <c r="H271" s="3">
         <f>AVERAGE(E242:E271)</f>
         <v/>
       </c>
-      <c r="I271" s="1">
+      <c r="I271" s="3">
         <f>G271-H271</f>
         <v/>
       </c>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -40,63 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2017/08/01</t>
-  </si>
-  <si>
-    <t>2017/08/02</t>
-  </si>
-  <si>
-    <t>2017/08/03</t>
-  </si>
-  <si>
-    <t>2017/08/04</t>
-  </si>
-  <si>
-    <t>2017/08/07</t>
-  </si>
-  <si>
-    <t>2017/08/08</t>
-  </si>
-  <si>
-    <t>2017/08/09</t>
-  </si>
-  <si>
-    <t>2017/08/10</t>
-  </si>
-  <si>
-    <t>2017/08/11</t>
-  </si>
-  <si>
-    <t>2017/08/14</t>
-  </si>
-  <si>
-    <t>2017/08/15</t>
-  </si>
-  <si>
-    <t>2017/08/16</t>
-  </si>
-  <si>
-    <t>2017/08/17</t>
-  </si>
-  <si>
-    <t>2017/08/18</t>
-  </si>
-  <si>
-    <t>2017/08/21</t>
-  </si>
-  <si>
-    <t>2017/08/22</t>
-  </si>
-  <si>
-    <t>2017/08/23</t>
-  </si>
-  <si>
-    <t>2017/08/24</t>
-  </si>
-  <si>
-    <t>2017/08/25</t>
-  </si>
-  <si>
     <t>2017/08/28</t>
   </si>
   <si>
@@ -848,6 +791,63 @@
   </si>
   <si>
     <t>2018/08/31</t>
+  </si>
+  <si>
+    <t>2018/09/03</t>
+  </si>
+  <si>
+    <t>2018/09/04</t>
+  </si>
+  <si>
+    <t>2018/09/05</t>
+  </si>
+  <si>
+    <t>2018/09/06</t>
+  </si>
+  <si>
+    <t>2018/09/07</t>
+  </si>
+  <si>
+    <t>2018/09/10</t>
+  </si>
+  <si>
+    <t>2018/09/11</t>
+  </si>
+  <si>
+    <t>2018/09/12</t>
+  </si>
+  <si>
+    <t>2018/09/13</t>
+  </si>
+  <si>
+    <t>2018/09/14</t>
+  </si>
+  <si>
+    <t>2018/09/17</t>
+  </si>
+  <si>
+    <t>2018/09/18</t>
+  </si>
+  <si>
+    <t>2018/09/19</t>
+  </si>
+  <si>
+    <t>2018/09/20</t>
+  </si>
+  <si>
+    <t>2018/09/21</t>
+  </si>
+  <si>
+    <t>2018/09/25</t>
+  </si>
+  <si>
+    <t>2018/09/26</t>
+  </si>
+  <si>
+    <t>2018/09/27</t>
+  </si>
+  <si>
+    <t>2018/09/28</t>
   </si>
 </sst>
 </file>
@@ -1758,16 +1758,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10408.53</v>
+        <v>10502.8</v>
       </c>
       <c r="C2" t="n">
-        <v>10470.03</v>
+        <v>10542.37</v>
       </c>
       <c r="D2" t="n">
-        <v>10408.53</v>
+        <v>10498.88</v>
       </c>
       <c r="E2" t="n">
-        <v>10437.29</v>
+        <v>10525.98</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1775,16 +1775,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>10479.26</v>
+        <v>10518.69</v>
       </c>
       <c r="C3" t="n">
-        <v>10519.27</v>
+        <v>10518.69</v>
       </c>
       <c r="D3" t="n">
-        <v>10479.26</v>
+        <v>10463.22</v>
       </c>
       <c r="E3" t="n">
-        <v>10519.27</v>
+        <v>10496.57</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1792,16 +1792,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10464.1</v>
+        <v>10511.59</v>
       </c>
       <c r="C4" t="n">
-        <v>10478.62</v>
+        <v>10574.53</v>
       </c>
       <c r="D4" t="n">
-        <v>10427.72</v>
+        <v>10511.59</v>
       </c>
       <c r="E4" t="n">
-        <v>10469.88</v>
+        <v>10569.4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1809,16 +1809,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>10470.96</v>
+        <v>10586.65</v>
       </c>
       <c r="C5" t="n">
-        <v>10510.7</v>
+        <v>10609.48</v>
       </c>
       <c r="D5" t="n">
-        <v>10466.25</v>
+        <v>10551.95</v>
       </c>
       <c r="E5" t="n">
-        <v>10506.56</v>
+        <v>10585.78</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1826,16 +1826,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>10521.69</v>
+        <v>10576.27</v>
       </c>
       <c r="C6" t="n">
-        <v>10592.31</v>
+        <v>10619.52</v>
       </c>
       <c r="D6" t="n">
-        <v>10521.69</v>
+        <v>10568.72</v>
       </c>
       <c r="E6" t="n">
-        <v>10579.38</v>
+        <v>10594.82</v>
       </c>
       <c r="G6" s="3">
         <f>AVERAGE(E2:E6)</f>
@@ -1847,16 +1847,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>10598.59</v>
+        <v>10585.44</v>
       </c>
       <c r="C7" t="n">
-        <v>10619.42</v>
+        <v>10610.04</v>
       </c>
       <c r="D7" t="n">
-        <v>10533.72</v>
+        <v>10555.34</v>
       </c>
       <c r="E7" t="n">
-        <v>10568.97</v>
+        <v>10569.87</v>
       </c>
       <c r="G7" s="3">
         <f>AVERAGE(E3:E7)</f>
@@ -1868,16 +1868,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10523.51</v>
+        <v>10584.1</v>
       </c>
       <c r="C8" t="n">
-        <v>10536.19</v>
+        <v>10617.84</v>
       </c>
       <c r="D8" t="n">
-        <v>10457.52</v>
+        <v>10564.26</v>
       </c>
       <c r="E8" t="n">
-        <v>10470.38</v>
+        <v>10617.84</v>
       </c>
       <c r="G8" s="3">
         <f>AVERAGE(E4:E8)</f>
@@ -1889,16 +1889,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>10470.03</v>
+        <v>10593.87</v>
       </c>
       <c r="C9" t="n">
-        <v>10477.79</v>
+        <v>10604.92</v>
       </c>
       <c r="D9" t="n">
-        <v>10303.47</v>
+        <v>10519.71</v>
       </c>
       <c r="E9" t="n">
-        <v>10329.74</v>
+        <v>10547.86</v>
       </c>
       <c r="G9" s="3">
         <f>AVERAGE(E5:E9)</f>
@@ -1910,16 +1910,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>10267.05</v>
+        <v>10564.79</v>
       </c>
       <c r="C10" t="n">
-        <v>10338.06</v>
+        <v>10604.02</v>
       </c>
       <c r="D10" t="n">
-        <v>10238.5</v>
+        <v>10509.91</v>
       </c>
       <c r="E10" t="n">
-        <v>10329.57</v>
+        <v>10538.51</v>
       </c>
       <c r="G10" s="3">
         <f>AVERAGE(E6:E10)</f>
@@ -1931,16 +1931,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>10347.66</v>
+        <v>10553.9</v>
       </c>
       <c r="C11" t="n">
-        <v>10365.22</v>
+        <v>10609.95</v>
       </c>
       <c r="D11" t="n">
-        <v>10225.28</v>
+        <v>10550.72</v>
       </c>
       <c r="E11" t="n">
-        <v>10225.28</v>
+        <v>10609.95</v>
       </c>
       <c r="G11" s="3">
         <f>AVERAGE(E7:E11)</f>
@@ -1952,16 +1952,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>10271.03</v>
+        <v>10630.16</v>
       </c>
       <c r="C12" t="n">
-        <v>10336.22</v>
+        <v>10656.25</v>
       </c>
       <c r="D12" t="n">
-        <v>10271.03</v>
+        <v>10565.78</v>
       </c>
       <c r="E12" t="n">
-        <v>10311.16</v>
+        <v>10572.16</v>
       </c>
       <c r="G12" s="3">
         <f>AVERAGE(E8:E12)</f>
@@ -1973,16 +1973,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>10302.83</v>
+        <v>10610.33</v>
       </c>
       <c r="C13" t="n">
-        <v>10322.38</v>
+        <v>10646.55</v>
       </c>
       <c r="D13" t="n">
-        <v>10245.72</v>
+        <v>10586.28</v>
       </c>
       <c r="E13" t="n">
-        <v>10290.39</v>
+        <v>10610.35</v>
       </c>
       <c r="G13" s="3">
         <f>AVERAGE(E9:E13)</f>
@@ -1994,16 +1994,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>10302.54</v>
+        <v>10596.36</v>
       </c>
       <c r="C14" t="n">
-        <v>10372.41</v>
+        <v>10620.31</v>
       </c>
       <c r="D14" t="n">
-        <v>10302.54</v>
+        <v>10532.88</v>
       </c>
       <c r="E14" t="n">
-        <v>10369.37</v>
+        <v>10532.88</v>
       </c>
       <c r="G14" s="3">
         <f>AVERAGE(E10:E14)</f>
@@ -2015,16 +2015,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>10324.83</v>
+        <v>10533.99</v>
       </c>
       <c r="C15" t="n">
-        <v>10330.39</v>
+        <v>10572.71</v>
       </c>
       <c r="D15" t="n">
-        <v>10259.83</v>
+        <v>10508.72</v>
       </c>
       <c r="E15" t="n">
-        <v>10321.33</v>
+        <v>10553.57</v>
       </c>
       <c r="G15" s="3">
         <f>AVERAGE(E11:E15)</f>
@@ -2036,16 +2036,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>10316.09</v>
+        <v>10556.82</v>
       </c>
       <c r="C16" t="n">
-        <v>10336.37</v>
+        <v>10580.78</v>
       </c>
       <c r="D16" t="n">
-        <v>10282.72</v>
+        <v>10520.15</v>
       </c>
       <c r="E16" t="n">
-        <v>10326.39</v>
+        <v>10580.41</v>
       </c>
       <c r="G16" s="3">
         <f>AVERAGE(E12:E16)</f>
@@ -2057,16 +2057,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>10353.37</v>
+        <v>10590.8</v>
       </c>
       <c r="C17" t="n">
-        <v>10410.47</v>
+        <v>10642.4</v>
       </c>
       <c r="D17" t="n">
-        <v>10353.37</v>
+        <v>10581.81</v>
       </c>
       <c r="E17" t="n">
-        <v>10392.07</v>
+        <v>10631.57</v>
       </c>
       <c r="G17" s="3">
         <f>AVERAGE(E13:E17)</f>
@@ -2078,16 +2078,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>10418.32</v>
+        <v>10653.34</v>
       </c>
       <c r="C18" t="n">
-        <v>10458.91</v>
+        <v>10664.18</v>
       </c>
       <c r="D18" t="n">
-        <v>10378.01</v>
+        <v>10561.21</v>
       </c>
       <c r="E18" t="n">
-        <v>10406.81</v>
+        <v>10576.14</v>
       </c>
       <c r="G18" s="3">
         <f>AVERAGE(E14:E18)</f>
@@ -2099,16 +2099,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>10414.66</v>
+        <v>10568.58</v>
       </c>
       <c r="C19" t="n">
-        <v>10488.96</v>
+        <v>10589.19</v>
       </c>
       <c r="D19" t="n">
-        <v>10410.73</v>
+        <v>10490.71</v>
       </c>
       <c r="E19" t="n">
-        <v>10488.96</v>
+        <v>10519.17</v>
       </c>
       <c r="G19" s="3">
         <f>AVERAGE(E15:E19)</f>
@@ -2120,16 +2120,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>10497.86</v>
+        <v>10506.85</v>
       </c>
       <c r="C20" t="n">
-        <v>10519.84</v>
+        <v>10603.08</v>
       </c>
       <c r="D20" t="n">
-        <v>10478.72</v>
+        <v>10493.95</v>
       </c>
       <c r="E20" t="n">
-        <v>10515.51</v>
+        <v>10578.44</v>
       </c>
       <c r="G20" s="3">
         <f>AVERAGE(E16:E20)</f>
@@ -2141,16 +2141,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>10502.8</v>
+        <v>10571.65</v>
       </c>
       <c r="C21" t="n">
-        <v>10542.37</v>
+        <v>10579.02</v>
       </c>
       <c r="D21" t="n">
-        <v>10498.88</v>
+        <v>10446.45</v>
       </c>
       <c r="E21" t="n">
-        <v>10525.98</v>
+        <v>10449.68</v>
       </c>
       <c r="G21" s="3">
         <f>AVERAGE(E17:E21)</f>
@@ -2162,16 +2162,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>10518.69</v>
+        <v>10442.05</v>
       </c>
       <c r="C22" t="n">
-        <v>10518.69</v>
+        <v>10447.09</v>
       </c>
       <c r="D22" t="n">
-        <v>10463.22</v>
+        <v>10322.1</v>
       </c>
       <c r="E22" t="n">
-        <v>10496.57</v>
+        <v>10335.89</v>
       </c>
       <c r="G22" s="3">
         <f>AVERAGE(E18:E22)</f>
@@ -2183,16 +2183,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>10511.59</v>
+        <v>10333.44</v>
       </c>
       <c r="C23" t="n">
-        <v>10574.53</v>
+        <v>10374.54</v>
       </c>
       <c r="D23" t="n">
-        <v>10511.59</v>
+        <v>10257.02</v>
       </c>
       <c r="E23" t="n">
-        <v>10569.4</v>
+        <v>10257.02</v>
       </c>
       <c r="G23" s="3">
         <f>AVERAGE(E19:E23)</f>
@@ -2204,16 +2204,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>10586.65</v>
+        <v>10322.44</v>
       </c>
       <c r="C24" t="n">
-        <v>10609.48</v>
+        <v>10357.23</v>
       </c>
       <c r="D24" t="n">
-        <v>10551.95</v>
+        <v>10315.97</v>
       </c>
       <c r="E24" t="n">
-        <v>10585.78</v>
+        <v>10326.68</v>
       </c>
       <c r="G24" s="3">
         <f>AVERAGE(E20:E24)</f>
@@ -2225,16 +2225,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>10576.27</v>
+        <v>10351.42</v>
       </c>
       <c r="C25" t="n">
-        <v>10619.52</v>
+        <v>10365.59</v>
       </c>
       <c r="D25" t="n">
-        <v>10568.72</v>
+        <v>10288.24</v>
       </c>
       <c r="E25" t="n">
-        <v>10594.82</v>
+        <v>10296.45</v>
       </c>
       <c r="G25" s="3">
         <f>AVERAGE(E21:E25)</f>
@@ -2246,16 +2246,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10585.44</v>
+        <v>10319.69</v>
       </c>
       <c r="C26" t="n">
-        <v>10610.04</v>
+        <v>10338.95</v>
       </c>
       <c r="D26" t="n">
-        <v>10555.34</v>
+        <v>10273.6</v>
       </c>
       <c r="E26" t="n">
-        <v>10569.87</v>
+        <v>10329.94</v>
       </c>
       <c r="G26" s="3">
         <f>AVERAGE(E22:E26)</f>
@@ -2267,16 +2267,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>10584.1</v>
+        <v>10362.55</v>
       </c>
       <c r="C27" t="n">
-        <v>10617.84</v>
+        <v>10400.4</v>
       </c>
       <c r="D27" t="n">
-        <v>10564.26</v>
+        <v>10362.55</v>
       </c>
       <c r="E27" t="n">
-        <v>10617.84</v>
+        <v>10383.94</v>
       </c>
       <c r="G27" s="3">
         <f>AVERAGE(E23:E27)</f>
@@ -2288,16 +2288,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10593.87</v>
+        <v>10425.1</v>
       </c>
       <c r="C28" t="n">
-        <v>10604.92</v>
+        <v>10472.81</v>
       </c>
       <c r="D28" t="n">
-        <v>10519.71</v>
+        <v>10414.53</v>
       </c>
       <c r="E28" t="n">
-        <v>10547.86</v>
+        <v>10465.16</v>
       </c>
       <c r="G28" s="3">
         <f>AVERAGE(E24:E28)</f>
@@ -2309,16 +2309,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10564.79</v>
+        <v>10462.7</v>
       </c>
       <c r="C29" t="n">
-        <v>10604.02</v>
+        <v>10495.34</v>
       </c>
       <c r="D29" t="n">
-        <v>10509.91</v>
+        <v>10445.86</v>
       </c>
       <c r="E29" t="n">
-        <v>10538.51</v>
+        <v>10469.35</v>
       </c>
       <c r="G29" s="3">
         <f>AVERAGE(E25:E29)</f>
@@ -2330,16 +2330,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10553.9</v>
+        <v>10473.28</v>
       </c>
       <c r="C30" t="n">
-        <v>10609.95</v>
+        <v>10530.93</v>
       </c>
       <c r="D30" t="n">
-        <v>10550.72</v>
+        <v>10473.28</v>
       </c>
       <c r="E30" t="n">
-        <v>10609.95</v>
+        <v>10518.27</v>
       </c>
       <c r="G30" s="3">
         <f>AVERAGE(E26:E30)</f>
@@ -2351,16 +2351,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10630.16</v>
+        <v>10538.21</v>
       </c>
       <c r="C31" t="n">
-        <v>10656.25</v>
+        <v>10557.67</v>
       </c>
       <c r="D31" t="n">
-        <v>10565.78</v>
+        <v>10511.5</v>
       </c>
       <c r="E31" t="n">
-        <v>10572.16</v>
+        <v>10532.81</v>
       </c>
       <c r="G31" s="3">
         <f>AVERAGE(E27:E31)</f>
@@ -2380,16 +2380,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10610.33</v>
+        <v>10576.12</v>
       </c>
       <c r="C32" t="n">
-        <v>10646.55</v>
+        <v>10668.49</v>
       </c>
       <c r="D32" t="n">
-        <v>10586.28</v>
+        <v>10576.12</v>
       </c>
       <c r="E32" t="n">
-        <v>10610.35</v>
+        <v>10641.19</v>
       </c>
       <c r="G32" s="3">
         <f>AVERAGE(E28:E32)</f>
@@ -2409,16 +2409,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10596.36</v>
+        <v>10668.39</v>
       </c>
       <c r="C33" t="n">
-        <v>10620.31</v>
+        <v>10711.44</v>
       </c>
       <c r="D33" t="n">
-        <v>10532.88</v>
+        <v>10668.39</v>
       </c>
       <c r="E33" t="n">
-        <v>10532.88</v>
+        <v>10711.44</v>
       </c>
       <c r="G33" s="3">
         <f>AVERAGE(E29:E33)</f>
@@ -2438,16 +2438,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>10533.99</v>
+        <v>10712.48</v>
       </c>
       <c r="C34" t="n">
-        <v>10572.71</v>
+        <v>10724.09</v>
       </c>
       <c r="D34" t="n">
-        <v>10508.72</v>
+        <v>10675.83</v>
       </c>
       <c r="E34" t="n">
-        <v>10553.57</v>
+        <v>10724.09</v>
       </c>
       <c r="G34" s="3">
         <f>AVERAGE(E30:E34)</f>
@@ -2467,16 +2467,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10556.82</v>
+        <v>10735.14</v>
       </c>
       <c r="C35" t="n">
-        <v>10580.78</v>
+        <v>10774.21</v>
       </c>
       <c r="D35" t="n">
-        <v>10520.15</v>
+        <v>10723.37</v>
       </c>
       <c r="E35" t="n">
-        <v>10580.41</v>
+        <v>10774.21</v>
       </c>
       <c r="G35" s="3">
         <f>AVERAGE(E31:E35)</f>
@@ -2496,16 +2496,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10590.8</v>
+        <v>10790.35</v>
       </c>
       <c r="C36" t="n">
-        <v>10642.4</v>
+        <v>10798.52</v>
       </c>
       <c r="D36" t="n">
-        <v>10581.81</v>
+        <v>10723.15</v>
       </c>
       <c r="E36" t="n">
-        <v>10631.57</v>
+        <v>10723.15</v>
       </c>
       <c r="G36" s="3">
         <f>AVERAGE(E32:E36)</f>
@@ -2525,16 +2525,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>10653.34</v>
+        <v>10773.85</v>
       </c>
       <c r="C37" t="n">
-        <v>10664.18</v>
+        <v>10790.31</v>
       </c>
       <c r="D37" t="n">
-        <v>10561.21</v>
+        <v>10684.32</v>
       </c>
       <c r="E37" t="n">
-        <v>10576.14</v>
+        <v>10720.28</v>
       </c>
       <c r="G37" s="3">
         <f>AVERAGE(E33:E37)</f>
@@ -2554,16 +2554,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>10568.58</v>
+        <v>10745.77</v>
       </c>
       <c r="C38" t="n">
-        <v>10589.19</v>
+        <v>10798.54</v>
       </c>
       <c r="D38" t="n">
-        <v>10490.71</v>
+        <v>10745.77</v>
       </c>
       <c r="E38" t="n">
-        <v>10519.17</v>
+        <v>10760.29</v>
       </c>
       <c r="G38" s="3">
         <f>AVERAGE(E34:E38)</f>
@@ -2583,16 +2583,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10506.85</v>
+        <v>10737.87</v>
       </c>
       <c r="C39" t="n">
-        <v>10603.08</v>
+        <v>10753.77</v>
       </c>
       <c r="D39" t="n">
-        <v>10493.95</v>
+        <v>10702.56</v>
       </c>
       <c r="E39" t="n">
-        <v>10578.44</v>
+        <v>10728.88</v>
       </c>
       <c r="G39" s="3">
         <f>AVERAGE(E35:E39)</f>
@@ -2612,16 +2612,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>10571.65</v>
+        <v>10759.47</v>
       </c>
       <c r="C40" t="n">
-        <v>10579.02</v>
+        <v>10792.27</v>
       </c>
       <c r="D40" t="n">
-        <v>10446.45</v>
+        <v>10731.9</v>
       </c>
       <c r="E40" t="n">
-        <v>10449.68</v>
+        <v>10735.21</v>
       </c>
       <c r="G40" s="3">
         <f>AVERAGE(E36:E40)</f>
@@ -2641,16 +2641,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10442.05</v>
+        <v>10749.9</v>
       </c>
       <c r="C41" t="n">
-        <v>10447.09</v>
+        <v>10766.64</v>
       </c>
       <c r="D41" t="n">
-        <v>10322.1</v>
+        <v>10726.25</v>
       </c>
       <c r="E41" t="n">
-        <v>10335.89</v>
+        <v>10743.78</v>
       </c>
       <c r="G41" s="3">
         <f>AVERAGE(E37:E41)</f>
@@ -2670,16 +2670,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10333.44</v>
+        <v>10771.4</v>
       </c>
       <c r="C42" t="n">
-        <v>10374.54</v>
+        <v>10794.55</v>
       </c>
       <c r="D42" t="n">
-        <v>10257.02</v>
+        <v>10740.07</v>
       </c>
       <c r="E42" t="n">
-        <v>10257.02</v>
+        <v>10750.57</v>
       </c>
       <c r="G42" s="3">
         <f>AVERAGE(E38:E42)</f>
@@ -2699,16 +2699,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10322.44</v>
+        <v>10735.35</v>
       </c>
       <c r="C43" t="n">
-        <v>10357.23</v>
+        <v>10756.51</v>
       </c>
       <c r="D43" t="n">
-        <v>10315.97</v>
+        <v>10716.52</v>
       </c>
       <c r="E43" t="n">
-        <v>10326.68</v>
+        <v>10734.76</v>
       </c>
       <c r="G43" s="3">
         <f>AVERAGE(E39:E43)</f>
@@ -2728,16 +2728,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10351.42</v>
+        <v>10757.35</v>
       </c>
       <c r="C44" t="n">
-        <v>10365.59</v>
+        <v>10803.6</v>
       </c>
       <c r="D44" t="n">
-        <v>10288.24</v>
+        <v>10701.08</v>
       </c>
       <c r="E44" t="n">
-        <v>10296.45</v>
+        <v>10709.11</v>
       </c>
       <c r="G44" s="3">
         <f>AVERAGE(E40:E44)</f>
@@ -2757,16 +2757,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10319.69</v>
+        <v>10777.6</v>
       </c>
       <c r="C45" t="n">
-        <v>10338.95</v>
+        <v>10842.25</v>
       </c>
       <c r="D45" t="n">
-        <v>10273.6</v>
+        <v>10743.13</v>
       </c>
       <c r="E45" t="n">
-        <v>10329.94</v>
+        <v>10756.87</v>
       </c>
       <c r="G45" s="3">
         <f>AVERAGE(E41:E45)</f>
@@ -2786,16 +2786,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10362.55</v>
+        <v>10768.9</v>
       </c>
       <c r="C46" t="n">
-        <v>10400.4</v>
+        <v>10829.33</v>
       </c>
       <c r="D46" t="n">
-        <v>10362.55</v>
+        <v>10747.37</v>
       </c>
       <c r="E46" t="n">
-        <v>10383.94</v>
+        <v>10793.8</v>
       </c>
       <c r="G46" s="3">
         <f>AVERAGE(E42:E46)</f>
@@ -2815,16 +2815,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10425.1</v>
+        <v>10816.04</v>
       </c>
       <c r="C47" t="n">
-        <v>10472.81</v>
+        <v>10843.41</v>
       </c>
       <c r="D47" t="n">
-        <v>10414.53</v>
+        <v>10785.32</v>
       </c>
       <c r="E47" t="n">
-        <v>10465.16</v>
+        <v>10806.36</v>
       </c>
       <c r="G47" s="3">
         <f>AVERAGE(E43:E47)</f>
@@ -2844,16 +2844,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>10462.7</v>
+        <v>10797.63</v>
       </c>
       <c r="C48" t="n">
-        <v>10495.34</v>
+        <v>10827.67</v>
       </c>
       <c r="D48" t="n">
-        <v>10445.86</v>
+        <v>10788.51</v>
       </c>
       <c r="E48" t="n">
-        <v>10469.35</v>
+        <v>10788.51</v>
       </c>
       <c r="G48" s="3">
         <f>AVERAGE(E44:E48)</f>
@@ -2873,16 +2873,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10473.28</v>
+        <v>10797.91</v>
       </c>
       <c r="C49" t="n">
-        <v>10530.93</v>
+        <v>10835.7</v>
       </c>
       <c r="D49" t="n">
-        <v>10473.28</v>
+        <v>10765.31</v>
       </c>
       <c r="E49" t="n">
-        <v>10518.27</v>
+        <v>10800.77</v>
       </c>
       <c r="G49" s="3">
         <f>AVERAGE(E45:E49)</f>
@@ -2902,16 +2902,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10538.21</v>
+        <v>10856.56</v>
       </c>
       <c r="C50" t="n">
-        <v>10557.67</v>
+        <v>10858.5</v>
       </c>
       <c r="D50" t="n">
-        <v>10511.5</v>
+        <v>10769.19</v>
       </c>
       <c r="E50" t="n">
-        <v>10532.81</v>
+        <v>10786.19</v>
       </c>
       <c r="G50" s="3">
         <f>AVERAGE(E46:E50)</f>
@@ -2931,16 +2931,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10576.12</v>
+        <v>10820.83</v>
       </c>
       <c r="C51" t="n">
-        <v>10668.49</v>
+        <v>10842.61</v>
       </c>
       <c r="D51" t="n">
-        <v>10576.12</v>
+        <v>10807.89</v>
       </c>
       <c r="E51" t="n">
-        <v>10641.19</v>
+        <v>10840.34</v>
       </c>
       <c r="G51" s="3">
         <f>AVERAGE(E47:E51)</f>
@@ -2960,16 +2960,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10668.39</v>
+        <v>10839.44</v>
       </c>
       <c r="C52" t="n">
-        <v>10711.44</v>
+        <v>10844.74</v>
       </c>
       <c r="D52" t="n">
-        <v>10668.39</v>
+        <v>10806.01</v>
       </c>
       <c r="E52" t="n">
-        <v>10711.44</v>
+        <v>10818.99</v>
       </c>
       <c r="G52" s="3">
         <f>AVERAGE(E48:E52)</f>
@@ -2989,16 +2989,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10712.48</v>
+        <v>10802.95</v>
       </c>
       <c r="C53" t="n">
-        <v>10724.09</v>
+        <v>10831.38</v>
       </c>
       <c r="D53" t="n">
-        <v>10675.83</v>
+        <v>10721.87</v>
       </c>
       <c r="E53" t="n">
-        <v>10724.09</v>
+        <v>10743.27</v>
       </c>
       <c r="G53" s="3">
         <f>AVERAGE(E49:E53)</f>
@@ -3018,16 +3018,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10735.14</v>
+        <v>10713.67</v>
       </c>
       <c r="C54" t="n">
-        <v>10774.21</v>
+        <v>10742.61</v>
       </c>
       <c r="D54" t="n">
-        <v>10723.37</v>
+        <v>10659.29</v>
       </c>
       <c r="E54" t="n">
-        <v>10774.21</v>
+        <v>10732.67</v>
       </c>
       <c r="G54" s="3">
         <f>AVERAGE(E50:E54)</f>
@@ -3047,16 +3047,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10790.35</v>
+        <v>10728.22</v>
       </c>
       <c r="C55" t="n">
-        <v>10798.52</v>
+        <v>10749.39</v>
       </c>
       <c r="D55" t="n">
-        <v>10723.15</v>
+        <v>10683.92</v>
       </c>
       <c r="E55" t="n">
-        <v>10723.15</v>
+        <v>10683.92</v>
       </c>
       <c r="G55" s="3">
         <f>AVERAGE(E51:E55)</f>
@@ -3076,16 +3076,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10773.85</v>
+        <v>10716.59</v>
       </c>
       <c r="C56" t="n">
-        <v>10790.31</v>
+        <v>10735.08</v>
       </c>
       <c r="D56" t="n">
-        <v>10684.32</v>
+        <v>10654.58</v>
       </c>
       <c r="E56" t="n">
-        <v>10720.28</v>
+        <v>10687.18</v>
       </c>
       <c r="G56" s="3">
         <f>AVERAGE(E52:E56)</f>
@@ -3105,16 +3105,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10745.77</v>
+        <v>10662.08</v>
       </c>
       <c r="C57" t="n">
-        <v>10798.54</v>
+        <v>10669.59</v>
       </c>
       <c r="D57" t="n">
-        <v>10745.77</v>
+        <v>10600.26</v>
       </c>
       <c r="E57" t="n">
-        <v>10760.29</v>
+        <v>10630.65</v>
       </c>
       <c r="G57" s="3">
         <f>AVERAGE(E53:E57)</f>
@@ -3134,16 +3134,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10737.87</v>
+        <v>10629.16</v>
       </c>
       <c r="C58" t="n">
-        <v>10753.77</v>
+        <v>10666.66</v>
       </c>
       <c r="D58" t="n">
-        <v>10702.56</v>
+        <v>10609.23</v>
       </c>
       <c r="E58" t="n">
-        <v>10728.88</v>
+        <v>10625.04</v>
       </c>
       <c r="G58" s="3">
         <f>AVERAGE(E54:E58)</f>
@@ -3163,16 +3163,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10759.47</v>
+        <v>10673.43</v>
       </c>
       <c r="C59" t="n">
-        <v>10792.27</v>
+        <v>10729.45</v>
       </c>
       <c r="D59" t="n">
-        <v>10731.9</v>
+        <v>10673.43</v>
       </c>
       <c r="E59" t="n">
-        <v>10735.21</v>
+        <v>10701.64</v>
       </c>
       <c r="G59" s="3">
         <f>AVERAGE(E55:E59)</f>
@@ -3192,16 +3192,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10749.9</v>
+        <v>10706.79</v>
       </c>
       <c r="C60" t="n">
-        <v>10766.64</v>
+        <v>10728.39</v>
       </c>
       <c r="D60" t="n">
-        <v>10726.25</v>
+        <v>10656.18</v>
       </c>
       <c r="E60" t="n">
-        <v>10743.78</v>
+        <v>10664.55</v>
       </c>
       <c r="G60" s="3">
         <f>AVERAGE(E56:E60)</f>
@@ -3221,16 +3221,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10771.4</v>
+        <v>10688.22</v>
       </c>
       <c r="C61" t="n">
-        <v>10794.55</v>
+        <v>10787.58</v>
       </c>
       <c r="D61" t="n">
-        <v>10740.07</v>
+        <v>10687.26</v>
       </c>
       <c r="E61" t="n">
-        <v>10750.57</v>
+        <v>10779.24</v>
       </c>
       <c r="G61" s="3">
         <f>AVERAGE(E57:E61)</f>
@@ -3250,16 +3250,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10735.35</v>
+        <v>10815.4</v>
       </c>
       <c r="C62" t="n">
-        <v>10756.51</v>
+        <v>10882.65</v>
       </c>
       <c r="D62" t="n">
-        <v>10716.52</v>
+        <v>10801.1</v>
       </c>
       <c r="E62" t="n">
-        <v>10734.76</v>
+        <v>10822.59</v>
       </c>
       <c r="G62" s="3">
         <f>AVERAGE(E58:E62)</f>
@@ -3279,16 +3279,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10757.35</v>
+        <v>10837.61</v>
       </c>
       <c r="C63" t="n">
-        <v>10803.6</v>
+        <v>10872.29</v>
       </c>
       <c r="D63" t="n">
-        <v>10701.08</v>
+        <v>10809.09</v>
       </c>
       <c r="E63" t="n">
-        <v>10709.11</v>
+        <v>10854.57</v>
       </c>
       <c r="G63" s="3">
         <f>AVERAGE(E59:E63)</f>
@@ -3308,16 +3308,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10777.6</v>
+        <v>10847.79</v>
       </c>
       <c r="C64" t="n">
-        <v>10842.25</v>
+        <v>10873.91</v>
       </c>
       <c r="D64" t="n">
-        <v>10743.13</v>
+        <v>10833.78</v>
       </c>
       <c r="E64" t="n">
-        <v>10756.87</v>
+        <v>10854.09</v>
       </c>
       <c r="G64" s="3">
         <f>AVERAGE(E60:E64)</f>
@@ -3337,16 +3337,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10768.9</v>
+        <v>10836.82</v>
       </c>
       <c r="C65" t="n">
-        <v>10829.33</v>
+        <v>10856</v>
       </c>
       <c r="D65" t="n">
-        <v>10747.37</v>
+        <v>10746.74</v>
       </c>
       <c r="E65" t="n">
-        <v>10793.8</v>
+        <v>10750.93</v>
       </c>
       <c r="G65" s="3">
         <f>AVERAGE(E61:E65)</f>
@@ -3366,16 +3366,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10816.04</v>
+        <v>10733.56</v>
       </c>
       <c r="C66" t="n">
-        <v>10843.41</v>
+        <v>10752.58</v>
       </c>
       <c r="D66" t="n">
-        <v>10785.32</v>
+        <v>10692.53</v>
       </c>
       <c r="E66" t="n">
-        <v>10806.36</v>
+        <v>10707.07</v>
       </c>
       <c r="G66" s="3">
         <f>AVERAGE(E62:E66)</f>
@@ -3395,16 +3395,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10797.63</v>
+        <v>10735.24</v>
       </c>
       <c r="C67" t="n">
-        <v>10827.67</v>
+        <v>10762.91</v>
       </c>
       <c r="D67" t="n">
-        <v>10788.51</v>
+        <v>10697.62</v>
       </c>
       <c r="E67" t="n">
-        <v>10788.51</v>
+        <v>10713.55</v>
       </c>
       <c r="G67" s="3">
         <f>AVERAGE(E63:E67)</f>
@@ -3424,16 +3424,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>10797.91</v>
+        <v>10623.2</v>
       </c>
       <c r="C68" t="n">
-        <v>10835.7</v>
+        <v>10650.18</v>
       </c>
       <c r="D68" t="n">
-        <v>10765.31</v>
+        <v>10560.44</v>
       </c>
       <c r="E68" t="n">
-        <v>10800.77</v>
+        <v>10560.44</v>
       </c>
       <c r="G68" s="3">
         <f>AVERAGE(E64:E68)</f>
@@ -3453,16 +3453,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>10856.56</v>
+        <v>10591.62</v>
       </c>
       <c r="C69" t="n">
-        <v>10858.5</v>
+        <v>10665.92</v>
       </c>
       <c r="D69" t="n">
-        <v>10769.19</v>
+        <v>10495.15</v>
       </c>
       <c r="E69" t="n">
-        <v>10786.19</v>
+        <v>10600.37</v>
       </c>
       <c r="G69" s="3">
         <f>AVERAGE(E65:E69)</f>
@@ -3482,16 +3482,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>10820.83</v>
+        <v>10617.27</v>
       </c>
       <c r="C70" t="n">
-        <v>10842.61</v>
+        <v>10665.43</v>
       </c>
       <c r="D70" t="n">
-        <v>10807.89</v>
+        <v>10565.68</v>
       </c>
       <c r="E70" t="n">
-        <v>10840.34</v>
+        <v>10651.11</v>
       </c>
       <c r="G70" s="3">
         <f>AVERAGE(E66:E70)</f>
@@ -3511,16 +3511,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>10839.44</v>
+        <v>10607.62</v>
       </c>
       <c r="C71" t="n">
-        <v>10844.74</v>
+        <v>10635.71</v>
       </c>
       <c r="D71" t="n">
-        <v>10806.01</v>
+        <v>10540.74</v>
       </c>
       <c r="E71" t="n">
-        <v>10818.99</v>
+        <v>10566.85</v>
       </c>
       <c r="G71" s="3">
         <f>AVERAGE(E67:E71)</f>
@@ -3540,16 +3540,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>10802.95</v>
+        <v>10541.03</v>
       </c>
       <c r="C72" t="n">
-        <v>10831.38</v>
+        <v>10541.03</v>
       </c>
       <c r="D72" t="n">
-        <v>10721.87</v>
+        <v>10376.65</v>
       </c>
       <c r="E72" t="n">
-        <v>10743.27</v>
+        <v>10393.92</v>
       </c>
       <c r="G72" s="3">
         <f>AVERAGE(E68:E72)</f>
@@ -3569,16 +3569,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>10713.67</v>
+        <v>10404.42</v>
       </c>
       <c r="C73" t="n">
-        <v>10742.61</v>
+        <v>10418.97</v>
       </c>
       <c r="D73" t="n">
-        <v>10659.29</v>
+        <v>10322.76</v>
       </c>
       <c r="E73" t="n">
-        <v>10732.67</v>
+        <v>10355.76</v>
       </c>
       <c r="G73" s="3">
         <f>AVERAGE(E69:E73)</f>
@@ -3598,16 +3598,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10728.22</v>
+        <v>10406.35</v>
       </c>
       <c r="C74" t="n">
-        <v>10749.39</v>
+        <v>10419.28</v>
       </c>
       <c r="D74" t="n">
-        <v>10683.92</v>
+        <v>10336.26</v>
       </c>
       <c r="E74" t="n">
-        <v>10683.92</v>
+        <v>10398.62</v>
       </c>
       <c r="G74" s="3">
         <f>AVERAGE(E70:E74)</f>
@@ -3627,16 +3627,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10716.59</v>
+        <v>10438.33</v>
       </c>
       <c r="C75" t="n">
-        <v>10735.08</v>
+        <v>10504.67</v>
       </c>
       <c r="D75" t="n">
-        <v>10654.58</v>
+        <v>10438.33</v>
       </c>
       <c r="E75" t="n">
-        <v>10687.18</v>
+        <v>10473.09</v>
       </c>
       <c r="G75" s="3">
         <f>AVERAGE(E71:E75)</f>
@@ -3656,16 +3656,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10662.08</v>
+        <v>10488.73</v>
       </c>
       <c r="C76" t="n">
-        <v>10669.59</v>
+        <v>10495.24</v>
       </c>
       <c r="D76" t="n">
-        <v>10600.26</v>
+        <v>10408.06</v>
       </c>
       <c r="E76" t="n">
-        <v>10630.65</v>
+        <v>10443.28</v>
       </c>
       <c r="G76" s="3">
         <f>AVERAGE(E72:E76)</f>
@@ -3685,16 +3685,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10629.16</v>
+        <v>10447.11</v>
       </c>
       <c r="C77" t="n">
-        <v>10666.66</v>
+        <v>10489.17</v>
       </c>
       <c r="D77" t="n">
-        <v>10609.23</v>
+        <v>10444.7</v>
       </c>
       <c r="E77" t="n">
-        <v>10625.04</v>
+        <v>10470.7</v>
       </c>
       <c r="G77" s="3">
         <f>AVERAGE(E73:E77)</f>
@@ -3714,16 +3714,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10673.43</v>
+        <v>10494.6</v>
       </c>
       <c r="C78" t="n">
-        <v>10729.45</v>
+        <v>10577.53</v>
       </c>
       <c r="D78" t="n">
-        <v>10673.43</v>
+        <v>10494.6</v>
       </c>
       <c r="E78" t="n">
-        <v>10701.64</v>
+        <v>10538.01</v>
       </c>
       <c r="G78" s="3">
         <f>AVERAGE(E74:E78)</f>
@@ -3743,16 +3743,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10706.79</v>
+        <v>10517.21</v>
       </c>
       <c r="C79" t="n">
-        <v>10728.39</v>
+        <v>10520.66</v>
       </c>
       <c r="D79" t="n">
-        <v>10656.18</v>
+        <v>10436.11</v>
       </c>
       <c r="E79" t="n">
-        <v>10664.55</v>
+        <v>10491.44</v>
       </c>
       <c r="G79" s="3">
         <f>AVERAGE(E75:E79)</f>
@@ -3772,16 +3772,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>10688.22</v>
+        <v>10478.74</v>
       </c>
       <c r="C80" t="n">
-        <v>10787.58</v>
+        <v>10526.41</v>
       </c>
       <c r="D80" t="n">
-        <v>10687.26</v>
+        <v>10472.39</v>
       </c>
       <c r="E80" t="n">
-        <v>10779.24</v>
+        <v>10506.52</v>
       </c>
       <c r="G80" s="3">
         <f>AVERAGE(E76:E80)</f>
@@ -3801,16 +3801,16 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10815.4</v>
+        <v>10508.33</v>
       </c>
       <c r="C81" t="n">
-        <v>10882.65</v>
+        <v>10544</v>
       </c>
       <c r="D81" t="n">
-        <v>10801.1</v>
+        <v>10452.08</v>
       </c>
       <c r="E81" t="n">
-        <v>10822.59</v>
+        <v>10467.34</v>
       </c>
       <c r="G81" s="3">
         <f>AVERAGE(E77:E81)</f>
@@ -3830,16 +3830,16 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10837.61</v>
+        <v>10470.36</v>
       </c>
       <c r="C82" t="n">
-        <v>10872.29</v>
+        <v>10514.31</v>
       </c>
       <c r="D82" t="n">
-        <v>10809.09</v>
+        <v>10470.36</v>
       </c>
       <c r="E82" t="n">
-        <v>10854.57</v>
+        <v>10504.52</v>
       </c>
       <c r="G82" s="3">
         <f>AVERAGE(E78:E82)</f>
@@ -3859,16 +3859,16 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10847.79</v>
+        <v>10526.97</v>
       </c>
       <c r="C83" t="n">
-        <v>10873.91</v>
+        <v>10545.78</v>
       </c>
       <c r="D83" t="n">
-        <v>10833.78</v>
+        <v>10488.97</v>
       </c>
       <c r="E83" t="n">
-        <v>10854.09</v>
+        <v>10488.97</v>
       </c>
       <c r="G83" s="3">
         <f>AVERAGE(E79:E83)</f>
@@ -3888,16 +3888,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10836.82</v>
+        <v>10503.1</v>
       </c>
       <c r="C84" t="n">
-        <v>10856</v>
+        <v>10537.27</v>
       </c>
       <c r="D84" t="n">
-        <v>10746.74</v>
+        <v>10486.52</v>
       </c>
       <c r="E84" t="n">
-        <v>10750.93</v>
+        <v>10537.27</v>
       </c>
       <c r="G84" s="3">
         <f>AVERAGE(E80:E84)</f>
@@ -3917,16 +3917,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10733.56</v>
+        <v>10546.64</v>
       </c>
       <c r="C85" t="n">
-        <v>10752.58</v>
+        <v>10556.65</v>
       </c>
       <c r="D85" t="n">
-        <v>10692.53</v>
+        <v>10514.54</v>
       </c>
       <c r="E85" t="n">
-        <v>10707.07</v>
+        <v>10522.49</v>
       </c>
       <c r="G85" s="3">
         <f>AVERAGE(E81:E85)</f>
@@ -3946,16 +3946,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10735.24</v>
+        <v>10526.14</v>
       </c>
       <c r="C86" t="n">
-        <v>10762.91</v>
+        <v>10528.92</v>
       </c>
       <c r="D86" t="n">
-        <v>10697.62</v>
+        <v>10408.12</v>
       </c>
       <c r="E86" t="n">
-        <v>10713.55</v>
+        <v>10421.91</v>
       </c>
       <c r="G86" s="3">
         <f>AVERAGE(E82:E86)</f>
@@ -3975,16 +3975,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10623.2</v>
+        <v>10419.81</v>
       </c>
       <c r="C87" t="n">
-        <v>10650.18</v>
+        <v>10497.77</v>
       </c>
       <c r="D87" t="n">
-        <v>10560.44</v>
+        <v>10419.81</v>
       </c>
       <c r="E87" t="n">
-        <v>10560.44</v>
+        <v>10486.67</v>
       </c>
       <c r="G87" s="3">
         <f>AVERAGE(E83:E87)</f>
@@ -4004,16 +4004,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10591.62</v>
+        <v>10513.29</v>
       </c>
       <c r="C88" t="n">
-        <v>10665.92</v>
+        <v>10592.04</v>
       </c>
       <c r="D88" t="n">
-        <v>10495.15</v>
+        <v>10513.29</v>
       </c>
       <c r="E88" t="n">
-        <v>10600.37</v>
+        <v>10567.64</v>
       </c>
       <c r="G88" s="3">
         <f>AVERAGE(E84:E88)</f>
@@ -4033,16 +4033,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>10617.27</v>
+        <v>10590.95</v>
       </c>
       <c r="C89" t="n">
-        <v>10665.43</v>
+        <v>10659.98</v>
       </c>
       <c r="D89" t="n">
-        <v>10565.68</v>
+        <v>10590.95</v>
       </c>
       <c r="E89" t="n">
-        <v>10651.11</v>
+        <v>10642.86</v>
       </c>
       <c r="G89" s="3">
         <f>AVERAGE(E85:E89)</f>
@@ -4062,16 +4062,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>10607.62</v>
+        <v>10664.82</v>
       </c>
       <c r="C90" t="n">
-        <v>10635.71</v>
+        <v>10710.73</v>
       </c>
       <c r="D90" t="n">
-        <v>10540.74</v>
+        <v>10650.77</v>
       </c>
       <c r="E90" t="n">
-        <v>10566.85</v>
+        <v>10710.73</v>
       </c>
       <c r="G90" s="3">
         <f>AVERAGE(E86:E90)</f>
@@ -4091,16 +4091,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>10541.03</v>
+        <v>10759.61</v>
       </c>
       <c r="C91" t="n">
-        <v>10541.03</v>
+        <v>10813.16</v>
       </c>
       <c r="D91" t="n">
-        <v>10376.65</v>
+        <v>10759.61</v>
       </c>
       <c r="E91" t="n">
-        <v>10393.92</v>
+        <v>10801.57</v>
       </c>
       <c r="G91" s="3">
         <f>AVERAGE(E87:E91)</f>
@@ -4120,16 +4120,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>10404.42</v>
+        <v>10834.58</v>
       </c>
       <c r="C92" t="n">
-        <v>10418.97</v>
+        <v>10853.46</v>
       </c>
       <c r="D92" t="n">
-        <v>10322.76</v>
+        <v>10794.25</v>
       </c>
       <c r="E92" t="n">
-        <v>10355.76</v>
+        <v>10848.63</v>
       </c>
       <c r="G92" s="3">
         <f>AVERAGE(E88:E92)</f>
@@ -4149,16 +4149,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>10406.35</v>
+        <v>10856.92</v>
       </c>
       <c r="C93" t="n">
-        <v>10419.28</v>
+        <v>10879.8</v>
       </c>
       <c r="D93" t="n">
-        <v>10336.26</v>
+        <v>10815.68</v>
       </c>
       <c r="E93" t="n">
-        <v>10398.62</v>
+        <v>10879.8</v>
       </c>
       <c r="G93" s="3">
         <f>AVERAGE(E89:E93)</f>
@@ -4178,16 +4178,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>10438.33</v>
+        <v>10899.09</v>
       </c>
       <c r="C94" t="n">
-        <v>10504.67</v>
+        <v>10918.47</v>
       </c>
       <c r="D94" t="n">
-        <v>10438.33</v>
+        <v>10869.12</v>
       </c>
       <c r="E94" t="n">
-        <v>10473.09</v>
+        <v>10915.75</v>
       </c>
       <c r="G94" s="3">
         <f>AVERAGE(E90:E94)</f>
@@ -4207,16 +4207,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>10488.73</v>
+        <v>10922.35</v>
       </c>
       <c r="C95" t="n">
-        <v>10495.24</v>
+        <v>10931</v>
       </c>
       <c r="D95" t="n">
-        <v>10408.06</v>
+        <v>10860.77</v>
       </c>
       <c r="E95" t="n">
-        <v>10443.28</v>
+        <v>10914.89</v>
       </c>
       <c r="G95" s="3">
         <f>AVERAGE(E91:E95)</f>
@@ -4236,16 +4236,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>10447.11</v>
+        <v>10915.32</v>
       </c>
       <c r="C96" t="n">
-        <v>10489.17</v>
+        <v>10934.75</v>
       </c>
       <c r="D96" t="n">
-        <v>10444.7</v>
+        <v>10819.25</v>
       </c>
       <c r="E96" t="n">
-        <v>10470.7</v>
+        <v>10831.09</v>
       </c>
       <c r="G96" s="3">
         <f>AVERAGE(E92:E96)</f>
@@ -4265,16 +4265,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10494.6</v>
+        <v>10824.54</v>
       </c>
       <c r="C97" t="n">
-        <v>10577.53</v>
+        <v>10844.08</v>
       </c>
       <c r="D97" t="n">
-        <v>10494.6</v>
+        <v>10770.1</v>
       </c>
       <c r="E97" t="n">
-        <v>10538.01</v>
+        <v>10810.06</v>
       </c>
       <c r="G97" s="3">
         <f>AVERAGE(E93:E97)</f>
@@ -4294,16 +4294,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10517.21</v>
+        <v>10818.24</v>
       </c>
       <c r="C98" t="n">
-        <v>10520.66</v>
+        <v>10899.98</v>
       </c>
       <c r="D98" t="n">
-        <v>10436.11</v>
+        <v>10818.24</v>
       </c>
       <c r="E98" t="n">
-        <v>10491.44</v>
+        <v>10883.96</v>
       </c>
       <c r="G98" s="3">
         <f>AVERAGE(E94:E98)</f>
@@ -4323,16 +4323,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10478.74</v>
+        <v>10932.37</v>
       </c>
       <c r="C99" t="n">
-        <v>10526.41</v>
+        <v>10962.55</v>
       </c>
       <c r="D99" t="n">
-        <v>10472.39</v>
+        <v>10911.89</v>
       </c>
       <c r="E99" t="n">
-        <v>10506.52</v>
+        <v>10956.31</v>
       </c>
       <c r="G99" s="3">
         <f>AVERAGE(E95:E99)</f>
@@ -4352,16 +4352,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10508.33</v>
+        <v>10955.81</v>
       </c>
       <c r="C100" t="n">
-        <v>10544</v>
+        <v>10986.11</v>
       </c>
       <c r="D100" t="n">
-        <v>10452.08</v>
+        <v>10920.5</v>
       </c>
       <c r="E100" t="n">
-        <v>10467.34</v>
+        <v>10986.11</v>
       </c>
       <c r="G100" s="3">
         <f>AVERAGE(E96:E100)</f>
@@ -4381,16 +4381,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10470.36</v>
+        <v>10976.13</v>
       </c>
       <c r="C101" t="n">
-        <v>10514.31</v>
+        <v>11030.22</v>
       </c>
       <c r="D101" t="n">
-        <v>10470.36</v>
+        <v>10942.95</v>
       </c>
       <c r="E101" t="n">
-        <v>10504.52</v>
+        <v>11004.8</v>
       </c>
       <c r="G101" s="3">
         <f>AVERAGE(E97:E101)</f>
@@ -4410,16 +4410,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10526.97</v>
+        <v>11048.06</v>
       </c>
       <c r="C102" t="n">
-        <v>10545.78</v>
+        <v>11122.82</v>
       </c>
       <c r="D102" t="n">
-        <v>10488.97</v>
+        <v>11048.06</v>
       </c>
       <c r="E102" t="n">
-        <v>10488.97</v>
+        <v>11071.57</v>
       </c>
       <c r="G102" s="3">
         <f>AVERAGE(E98:E102)</f>
@@ -4439,16 +4439,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>10503.1</v>
+        <v>11123.58</v>
       </c>
       <c r="C103" t="n">
-        <v>10537.27</v>
+        <v>11150.85</v>
       </c>
       <c r="D103" t="n">
-        <v>10486.52</v>
+        <v>11095.85</v>
       </c>
       <c r="E103" t="n">
-        <v>10537.27</v>
+        <v>11150.85</v>
       </c>
       <c r="G103" s="3">
         <f>AVERAGE(E99:E103)</f>
@@ -4468,16 +4468,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>10546.64</v>
+        <v>11169.79</v>
       </c>
       <c r="C104" t="n">
-        <v>10556.65</v>
+        <v>11231.46</v>
       </c>
       <c r="D104" t="n">
-        <v>10514.54</v>
+        <v>11142.38</v>
       </c>
       <c r="E104" t="n">
-        <v>10522.49</v>
+        <v>11231.46</v>
       </c>
       <c r="G104" s="3">
         <f>AVERAGE(E100:E104)</f>
@@ -4497,16 +4497,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>10526.14</v>
+        <v>11243.49</v>
       </c>
       <c r="C105" t="n">
-        <v>10528.92</v>
+        <v>11270.18</v>
       </c>
       <c r="D105" t="n">
-        <v>10408.12</v>
+        <v>11201.52</v>
       </c>
       <c r="E105" t="n">
-        <v>10421.91</v>
+        <v>11253.11</v>
       </c>
       <c r="G105" s="3">
         <f>AVERAGE(E101:E105)</f>
@@ -4526,16 +4526,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>10419.81</v>
+        <v>11228.71</v>
       </c>
       <c r="C106" t="n">
-        <v>10497.77</v>
+        <v>11228.71</v>
       </c>
       <c r="D106" t="n">
-        <v>10419.81</v>
+        <v>11107.32</v>
       </c>
       <c r="E106" t="n">
-        <v>10486.67</v>
+        <v>11152.16</v>
       </c>
       <c r="G106" s="3">
         <f>AVERAGE(E102:E106)</f>
@@ -4555,16 +4555,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>10513.29</v>
+        <v>11154.36</v>
       </c>
       <c r="C107" t="n">
-        <v>10592.04</v>
+        <v>11268.61</v>
       </c>
       <c r="D107" t="n">
-        <v>10513.29</v>
+        <v>11131.85</v>
       </c>
       <c r="E107" t="n">
-        <v>10567.64</v>
+        <v>11165.95</v>
       </c>
       <c r="G107" s="3">
         <f>AVERAGE(E103:E107)</f>
@@ -4584,16 +4584,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>10590.95</v>
+        <v>11152.53</v>
       </c>
       <c r="C108" t="n">
-        <v>10659.98</v>
+        <v>11178.3</v>
       </c>
       <c r="D108" t="n">
-        <v>10590.95</v>
+        <v>11089.48</v>
       </c>
       <c r="E108" t="n">
-        <v>10642.86</v>
+        <v>11147.1</v>
       </c>
       <c r="G108" s="3">
         <f>AVERAGE(E104:E108)</f>
@@ -4613,16 +4613,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>10664.82</v>
+        <v>11202.27</v>
       </c>
       <c r="C109" t="n">
-        <v>10710.73</v>
+        <v>11246.18</v>
       </c>
       <c r="D109" t="n">
-        <v>10650.77</v>
+        <v>11161.83</v>
       </c>
       <c r="E109" t="n">
-        <v>10710.73</v>
+        <v>11221.81</v>
       </c>
       <c r="G109" s="3">
         <f>AVERAGE(E105:E109)</f>
@@ -4642,16 +4642,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>10759.61</v>
+        <v>11189.57</v>
       </c>
       <c r="C110" t="n">
-        <v>10813.16</v>
+        <v>11189.57</v>
       </c>
       <c r="D110" t="n">
-        <v>10759.61</v>
+        <v>11076.78</v>
       </c>
       <c r="E110" t="n">
-        <v>10801.57</v>
+        <v>11076.78</v>
       </c>
       <c r="G110" s="3">
         <f>AVERAGE(E106:E110)</f>
@@ -4671,16 +4671,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>10834.58</v>
+        <v>11054.36</v>
       </c>
       <c r="C111" t="n">
-        <v>10853.46</v>
+        <v>11158.29</v>
       </c>
       <c r="D111" t="n">
-        <v>10794.25</v>
+        <v>11007.89</v>
       </c>
       <c r="E111" t="n">
-        <v>10848.63</v>
+        <v>11103.79</v>
       </c>
       <c r="G111" s="3">
         <f>AVERAGE(E107:E111)</f>
@@ -4700,16 +4700,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>10856.92</v>
+        <v>11139.4</v>
       </c>
       <c r="C112" t="n">
-        <v>10879.8</v>
+        <v>11212.1</v>
       </c>
       <c r="D112" t="n">
-        <v>10815.68</v>
+        <v>11139.4</v>
       </c>
       <c r="E112" t="n">
-        <v>10879.8</v>
+        <v>11160.25</v>
       </c>
       <c r="G112" s="3">
         <f>AVERAGE(E108:E112)</f>
@@ -4729,16 +4729,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>10899.09</v>
+        <v>11151.65</v>
       </c>
       <c r="C113" t="n">
-        <v>10918.47</v>
+        <v>11153.32</v>
       </c>
       <c r="D113" t="n">
-        <v>10869.12</v>
+        <v>11070.43</v>
       </c>
       <c r="E113" t="n">
-        <v>10915.75</v>
+        <v>11126.23</v>
       </c>
       <c r="G113" s="3">
         <f>AVERAGE(E109:E113)</f>
@@ -4758,16 +4758,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10922.35</v>
+        <v>10970.3</v>
       </c>
       <c r="C114" t="n">
-        <v>10931</v>
+        <v>10970.3</v>
       </c>
       <c r="D114" t="n">
-        <v>10860.77</v>
+        <v>10855.43</v>
       </c>
       <c r="E114" t="n">
-        <v>10914.89</v>
+        <v>10946.25</v>
       </c>
       <c r="G114" s="3">
         <f>AVERAGE(E110:E114)</f>
@@ -4787,16 +4787,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>10915.32</v>
+        <v>10761.01</v>
       </c>
       <c r="C115" t="n">
-        <v>10934.75</v>
+        <v>10761.01</v>
       </c>
       <c r="D115" t="n">
-        <v>10819.25</v>
+        <v>10300.4</v>
       </c>
       <c r="E115" t="n">
-        <v>10831.09</v>
+        <v>10404</v>
       </c>
       <c r="G115" s="3">
         <f>AVERAGE(E111:E115)</f>
@@ -4816,16 +4816,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>10824.54</v>
+        <v>10547.64</v>
       </c>
       <c r="C116" t="n">
-        <v>10844.08</v>
+        <v>10697.82</v>
       </c>
       <c r="D116" t="n">
-        <v>10770.1</v>
+        <v>10547.64</v>
       </c>
       <c r="E116" t="n">
-        <v>10810.06</v>
+        <v>10551.54</v>
       </c>
       <c r="G116" s="3">
         <f>AVERAGE(E112:E116)</f>
@@ -4845,16 +4845,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>10818.24</v>
+        <v>10559.44</v>
       </c>
       <c r="C117" t="n">
-        <v>10899.98</v>
+        <v>10609.5</v>
       </c>
       <c r="D117" t="n">
-        <v>10818.24</v>
+        <v>10512.93</v>
       </c>
       <c r="E117" t="n">
-        <v>10883.96</v>
+        <v>10528.52</v>
       </c>
       <c r="G117" s="3">
         <f>AVERAGE(E113:E117)</f>
@@ -4874,16 +4874,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>10932.37</v>
+        <v>10371.01</v>
       </c>
       <c r="C118" t="n">
-        <v>10962.55</v>
+        <v>10392.31</v>
       </c>
       <c r="D118" t="n">
-        <v>10911.89</v>
+        <v>10189.04</v>
       </c>
       <c r="E118" t="n">
-        <v>10956.31</v>
+        <v>10371.75</v>
       </c>
       <c r="G118" s="3">
         <f>AVERAGE(E114:E118)</f>
@@ -4903,16 +4903,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10955.81</v>
+        <v>10429.09</v>
       </c>
       <c r="C119" t="n">
-        <v>10986.11</v>
+        <v>10473.51</v>
       </c>
       <c r="D119" t="n">
-        <v>10920.5</v>
+        <v>10416.01</v>
       </c>
       <c r="E119" t="n">
-        <v>10986.11</v>
+        <v>10421.09</v>
       </c>
       <c r="G119" s="3">
         <f>AVERAGE(E115:E119)</f>
@@ -4932,16 +4932,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10976.13</v>
+        <v>10559.79</v>
       </c>
       <c r="C120" t="n">
-        <v>11030.22</v>
+        <v>10720.48</v>
       </c>
       <c r="D120" t="n">
-        <v>10942.95</v>
+        <v>10559.79</v>
       </c>
       <c r="E120" t="n">
-        <v>11004.8</v>
+        <v>10714.44</v>
       </c>
       <c r="G120" s="3">
         <f>AVERAGE(E116:E120)</f>
@@ -4961,16 +4961,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>11048.06</v>
+        <v>10698.47</v>
       </c>
       <c r="C121" t="n">
-        <v>11122.82</v>
+        <v>10698.47</v>
       </c>
       <c r="D121" t="n">
-        <v>11048.06</v>
+        <v>10620.8</v>
       </c>
       <c r="E121" t="n">
-        <v>11071.57</v>
+        <v>10662.38</v>
       </c>
       <c r="G121" s="3">
         <f>AVERAGE(E117:E121)</f>
@@ -4990,16 +4990,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>11123.58</v>
+        <v>10688.97</v>
       </c>
       <c r="C122" t="n">
-        <v>11150.85</v>
+        <v>10799.29</v>
       </c>
       <c r="D122" t="n">
-        <v>11095.85</v>
+        <v>10688.97</v>
       </c>
       <c r="E122" t="n">
-        <v>11150.85</v>
+        <v>10794.55</v>
       </c>
       <c r="G122" s="3">
         <f>AVERAGE(E118:E122)</f>
@@ -5019,16 +5019,16 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>11169.79</v>
+        <v>10827.98</v>
       </c>
       <c r="C123" t="n">
-        <v>11231.46</v>
+        <v>10890.69</v>
       </c>
       <c r="D123" t="n">
-        <v>11142.38</v>
+        <v>10827.98</v>
       </c>
       <c r="E123" t="n">
-        <v>11231.46</v>
+        <v>10836.7</v>
       </c>
       <c r="G123" s="3">
         <f>AVERAGE(E119:E123)</f>
@@ -5048,16 +5048,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>11243.49</v>
+        <v>10896.16</v>
       </c>
       <c r="C124" t="n">
-        <v>11270.18</v>
+        <v>10937.9</v>
       </c>
       <c r="D124" t="n">
-        <v>11201.52</v>
+        <v>10815.47</v>
       </c>
       <c r="E124" t="n">
-        <v>11253.11</v>
+        <v>10815.47</v>
       </c>
       <c r="G124" s="3">
         <f>AVERAGE(E120:E124)</f>
@@ -5077,16 +5077,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>11228.71</v>
+        <v>10779.1</v>
       </c>
       <c r="C125" t="n">
-        <v>11228.71</v>
+        <v>10805.55</v>
       </c>
       <c r="D125" t="n">
-        <v>11107.32</v>
+        <v>10709.69</v>
       </c>
       <c r="E125" t="n">
-        <v>11152.16</v>
+        <v>10785.79</v>
       </c>
       <c r="G125" s="3">
         <f>AVERAGE(E121:E125)</f>
@@ -5106,16 +5106,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>11154.36</v>
+        <v>10719.29</v>
       </c>
       <c r="C126" t="n">
-        <v>11268.61</v>
+        <v>10719.29</v>
       </c>
       <c r="D126" t="n">
-        <v>11131.85</v>
+        <v>10638.98</v>
       </c>
       <c r="E126" t="n">
-        <v>11165.95</v>
+        <v>10698.17</v>
       </c>
       <c r="G126" s="3">
         <f>AVERAGE(E122:E126)</f>
@@ -5135,16 +5135,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>11152.53</v>
+        <v>10727.45</v>
       </c>
       <c r="C127" t="n">
-        <v>11178.3</v>
+        <v>10756.37</v>
       </c>
       <c r="D127" t="n">
-        <v>11089.48</v>
+        <v>10642.9</v>
       </c>
       <c r="E127" t="n">
-        <v>11147.1</v>
+        <v>10642.9</v>
       </c>
       <c r="G127" s="3">
         <f>AVERAGE(E123:E127)</f>
@@ -5164,16 +5164,16 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>11202.27</v>
+        <v>10711.15</v>
       </c>
       <c r="C128" t="n">
-        <v>11246.18</v>
+        <v>10784.34</v>
       </c>
       <c r="D128" t="n">
-        <v>11161.83</v>
+        <v>10711.15</v>
       </c>
       <c r="E128" t="n">
-        <v>11221.81</v>
+        <v>10784.34</v>
       </c>
       <c r="G128" s="3">
         <f>AVERAGE(E124:E128)</f>
@@ -5193,16 +5193,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>11189.57</v>
+        <v>10762.99</v>
       </c>
       <c r="C129" t="n">
-        <v>11189.57</v>
+        <v>10818.05</v>
       </c>
       <c r="D129" t="n">
-        <v>11076.78</v>
+        <v>10745.32</v>
       </c>
       <c r="E129" t="n">
-        <v>11076.78</v>
+        <v>10745.32</v>
       </c>
       <c r="G129" s="3">
         <f>AVERAGE(E125:E129)</f>
@@ -5222,16 +5222,16 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>11054.36</v>
+        <v>10788.43</v>
       </c>
       <c r="C130" t="n">
-        <v>11158.29</v>
+        <v>10852.33</v>
       </c>
       <c r="D130" t="n">
-        <v>11007.89</v>
+        <v>10788.43</v>
       </c>
       <c r="E130" t="n">
-        <v>11103.79</v>
+        <v>10823.24</v>
       </c>
       <c r="G130" s="3">
         <f>AVERAGE(E126:E130)</f>
@@ -5251,16 +5251,16 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>11139.4</v>
+        <v>10847.74</v>
       </c>
       <c r="C131" t="n">
-        <v>11212.1</v>
+        <v>10882.76</v>
       </c>
       <c r="D131" t="n">
-        <v>11139.4</v>
+        <v>10845.38</v>
       </c>
       <c r="E131" t="n">
-        <v>11160.25</v>
+        <v>10864.82</v>
       </c>
       <c r="G131" s="3">
         <f>AVERAGE(E127:E131)</f>
@@ -5280,16 +5280,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>11151.65</v>
+        <v>10908.99</v>
       </c>
       <c r="C132" t="n">
-        <v>11153.32</v>
+        <v>11016.56</v>
       </c>
       <c r="D132" t="n">
-        <v>11070.43</v>
+        <v>10908.99</v>
       </c>
       <c r="E132" t="n">
-        <v>11126.23</v>
+        <v>11002.1</v>
       </c>
       <c r="G132" s="3">
         <f>AVERAGE(E128:E132)</f>
@@ -5309,16 +5309,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>10970.3</v>
+        <v>11022.15</v>
       </c>
       <c r="C133" t="n">
-        <v>10970.3</v>
+        <v>11095.63</v>
       </c>
       <c r="D133" t="n">
-        <v>10855.43</v>
+        <v>11014.87</v>
       </c>
       <c r="E133" t="n">
-        <v>10946.25</v>
+        <v>11095.63</v>
       </c>
       <c r="G133" s="3">
         <f>AVERAGE(E129:E133)</f>
@@ -5338,16 +5338,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>10761.01</v>
+        <v>11063.73</v>
       </c>
       <c r="C134" t="n">
-        <v>10761.01</v>
+        <v>11070.29</v>
       </c>
       <c r="D134" t="n">
-        <v>10300.4</v>
+        <v>11015.47</v>
       </c>
       <c r="E134" t="n">
-        <v>10404</v>
+        <v>11038.8</v>
       </c>
       <c r="G134" s="3">
         <f>AVERAGE(E130:E134)</f>
@@ -5367,16 +5367,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>10547.64</v>
+        <v>11039.6</v>
       </c>
       <c r="C135" t="n">
-        <v>10697.82</v>
+        <v>11052.11</v>
       </c>
       <c r="D135" t="n">
-        <v>10547.64</v>
+        <v>11008.18</v>
       </c>
       <c r="E135" t="n">
-        <v>10551.54</v>
+        <v>11018.45</v>
       </c>
       <c r="G135" s="3">
         <f>AVERAGE(E131:E135)</f>
@@ -5396,16 +5396,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>10559.44</v>
+        <v>11010.24</v>
       </c>
       <c r="C136" t="n">
-        <v>10609.5</v>
+        <v>11054.86</v>
       </c>
       <c r="D136" t="n">
-        <v>10512.93</v>
+        <v>10933.46</v>
       </c>
       <c r="E136" t="n">
-        <v>10528.52</v>
+        <v>11027.7</v>
       </c>
       <c r="G136" s="3">
         <f>AVERAGE(E132:E136)</f>
@@ -5425,16 +5425,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>10371.01</v>
+        <v>11004.81</v>
       </c>
       <c r="C137" t="n">
-        <v>10392.31</v>
+        <v>11066</v>
       </c>
       <c r="D137" t="n">
-        <v>10189.04</v>
+        <v>10983.25</v>
       </c>
       <c r="E137" t="n">
-        <v>10371.75</v>
+        <v>11046.9</v>
       </c>
       <c r="G137" s="3">
         <f>AVERAGE(E133:E137)</f>
@@ -5454,16 +5454,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>10429.09</v>
+        <v>11016.85</v>
       </c>
       <c r="C138" t="n">
-        <v>10473.51</v>
+        <v>11020.78</v>
       </c>
       <c r="D138" t="n">
-        <v>10416.01</v>
+        <v>10981.04</v>
       </c>
       <c r="E138" t="n">
-        <v>10421.09</v>
+        <v>11010.84</v>
       </c>
       <c r="G138" s="3">
         <f>AVERAGE(E134:E138)</f>
@@ -5483,16 +5483,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10559.79</v>
+        <v>11037.35</v>
       </c>
       <c r="C139" t="n">
-        <v>10720.48</v>
+        <v>11072.31</v>
       </c>
       <c r="D139" t="n">
-        <v>10559.79</v>
+        <v>11011.07</v>
       </c>
       <c r="E139" t="n">
-        <v>10714.44</v>
+        <v>11011.07</v>
       </c>
       <c r="G139" s="3">
         <f>AVERAGE(E135:E139)</f>
@@ -5512,16 +5512,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10698.47</v>
+        <v>11045.9</v>
       </c>
       <c r="C140" t="n">
-        <v>10698.47</v>
+        <v>11120.2</v>
       </c>
       <c r="D140" t="n">
-        <v>10620.8</v>
+        <v>10975.33</v>
       </c>
       <c r="E140" t="n">
-        <v>10662.38</v>
+        <v>11005.84</v>
       </c>
       <c r="G140" s="3">
         <f>AVERAGE(E136:E140)</f>
@@ -5541,16 +5541,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10688.97</v>
+        <v>10863.67</v>
       </c>
       <c r="C141" t="n">
-        <v>10799.29</v>
+        <v>10863.67</v>
       </c>
       <c r="D141" t="n">
-        <v>10688.97</v>
+        <v>10758.06</v>
       </c>
       <c r="E141" t="n">
-        <v>10794.55</v>
+        <v>10823.33</v>
       </c>
       <c r="G141" s="3">
         <f>AVERAGE(E137:E141)</f>
@@ -5570,16 +5570,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10827.98</v>
+        <v>10783.57</v>
       </c>
       <c r="C142" t="n">
-        <v>10890.69</v>
+        <v>10840.05</v>
       </c>
       <c r="D142" t="n">
-        <v>10827.98</v>
+        <v>10781.43</v>
       </c>
       <c r="E142" t="n">
-        <v>10836.7</v>
+        <v>10840.05</v>
       </c>
       <c r="G142" s="3">
         <f>AVERAGE(E138:E142)</f>
@@ -5599,16 +5599,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10896.16</v>
+        <v>10901.69</v>
       </c>
       <c r="C143" t="n">
-        <v>10937.9</v>
+        <v>10986.79</v>
       </c>
       <c r="D143" t="n">
-        <v>10815.47</v>
+        <v>10901.69</v>
       </c>
       <c r="E143" t="n">
-        <v>10815.47</v>
+        <v>10986.79</v>
       </c>
       <c r="G143" s="3">
         <f>AVERAGE(E139:E143)</f>
@@ -5628,16 +5628,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>10779.1</v>
+        <v>10939.97</v>
       </c>
       <c r="C144" t="n">
-        <v>10805.55</v>
+        <v>10939.97</v>
       </c>
       <c r="D144" t="n">
-        <v>10709.69</v>
+        <v>10853.48</v>
       </c>
       <c r="E144" t="n">
-        <v>10785.79</v>
+        <v>10865.66</v>
       </c>
       <c r="G144" s="3">
         <f>AVERAGE(E140:E144)</f>
@@ -5657,16 +5657,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>10719.29</v>
+        <v>10855.66</v>
       </c>
       <c r="C145" t="n">
-        <v>10719.29</v>
+        <v>10889.6</v>
       </c>
       <c r="D145" t="n">
-        <v>10638.98</v>
+        <v>10815.46</v>
       </c>
       <c r="E145" t="n">
-        <v>10698.17</v>
+        <v>10845.92</v>
       </c>
       <c r="G145" s="3">
         <f>AVERAGE(E141:E145)</f>
@@ -5686,16 +5686,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>10727.45</v>
+        <v>10905.3</v>
       </c>
       <c r="C146" t="n">
-        <v>10756.37</v>
+        <v>10969.22</v>
       </c>
       <c r="D146" t="n">
-        <v>10642.9</v>
+        <v>10905.3</v>
       </c>
       <c r="E146" t="n">
-        <v>10642.9</v>
+        <v>10906.22</v>
       </c>
       <c r="G146" s="3">
         <f>AVERAGE(E142:E146)</f>
@@ -5715,16 +5715,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>10711.15</v>
+        <v>10925.71</v>
       </c>
       <c r="C147" t="n">
-        <v>10784.34</v>
+        <v>10947.16</v>
       </c>
       <c r="D147" t="n">
-        <v>10711.15</v>
+        <v>10905.69</v>
       </c>
       <c r="E147" t="n">
-        <v>10784.34</v>
+        <v>10919.49</v>
       </c>
       <c r="G147" s="3">
         <f>AVERAGE(E143:E147)</f>
@@ -5744,16 +5744,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>10762.99</v>
+        <v>10936.26</v>
       </c>
       <c r="C148" t="n">
-        <v>10818.05</v>
+        <v>10969.88</v>
       </c>
       <c r="D148" t="n">
-        <v>10745.32</v>
+        <v>10882.05</v>
       </c>
       <c r="E148" t="n">
-        <v>10745.32</v>
+        <v>10888.27</v>
       </c>
       <c r="G148" s="3">
         <f>AVERAGE(E144:E148)</f>
@@ -5773,16 +5773,16 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>10788.43</v>
+        <v>10837.54</v>
       </c>
       <c r="C149" t="n">
-        <v>10852.33</v>
+        <v>10837.54</v>
       </c>
       <c r="D149" t="n">
-        <v>10788.43</v>
+        <v>10775.45</v>
       </c>
       <c r="E149" t="n">
-        <v>10823.24</v>
+        <v>10821.53</v>
       </c>
       <c r="G149" s="3">
         <f>AVERAGE(E145:E149)</f>
@@ -5802,16 +5802,16 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>10847.74</v>
+        <v>10880.14</v>
       </c>
       <c r="C150" t="n">
-        <v>10882.76</v>
+        <v>10904.75</v>
       </c>
       <c r="D150" t="n">
-        <v>10845.38</v>
+        <v>10829.02</v>
       </c>
       <c r="E150" t="n">
-        <v>10864.82</v>
+        <v>10893.53</v>
       </c>
       <c r="G150" s="3">
         <f>AVERAGE(E146:E150)</f>
@@ -5831,16 +5831,16 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>10908.99</v>
+        <v>10885.64</v>
       </c>
       <c r="C151" t="n">
-        <v>11016.56</v>
+        <v>10975.67</v>
       </c>
       <c r="D151" t="n">
-        <v>10908.99</v>
+        <v>10874.83</v>
       </c>
       <c r="E151" t="n">
-        <v>11002.1</v>
+        <v>10927.18</v>
       </c>
       <c r="G151" s="3">
         <f>AVERAGE(E147:E151)</f>
@@ -5860,16 +5860,16 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>11022.15</v>
+        <v>10961.7</v>
       </c>
       <c r="C152" t="n">
-        <v>11095.63</v>
+        <v>11016.35</v>
       </c>
       <c r="D152" t="n">
-        <v>11014.87</v>
+        <v>10953.31</v>
       </c>
       <c r="E152" t="n">
-        <v>11095.63</v>
+        <v>10974.02</v>
       </c>
       <c r="G152" s="3">
         <f>AVERAGE(E148:E152)</f>
@@ -5889,16 +5889,16 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>11063.73</v>
+        <v>10984.12</v>
       </c>
       <c r="C153" t="n">
-        <v>11070.29</v>
+        <v>11008.2</v>
       </c>
       <c r="D153" t="n">
-        <v>11015.47</v>
+        <v>10920.62</v>
       </c>
       <c r="E153" t="n">
-        <v>11038.8</v>
+        <v>10955.29</v>
       </c>
       <c r="G153" s="3">
         <f>AVERAGE(E149:E153)</f>
@@ -5918,16 +5918,16 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>11039.6</v>
+        <v>10975.58</v>
       </c>
       <c r="C154" t="n">
-        <v>11052.11</v>
+        <v>10988.23</v>
       </c>
       <c r="D154" t="n">
-        <v>11008.18</v>
+        <v>10938.37</v>
       </c>
       <c r="E154" t="n">
-        <v>11018.45</v>
+        <v>10965.39</v>
       </c>
       <c r="G154" s="3">
         <f>AVERAGE(E150:E154)</f>
@@ -5947,16 +5947,16 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>11010.24</v>
+        <v>10962.36</v>
       </c>
       <c r="C155" t="n">
-        <v>11054.86</v>
+        <v>10974.94</v>
       </c>
       <c r="D155" t="n">
-        <v>10933.46</v>
+        <v>10921.17</v>
       </c>
       <c r="E155" t="n">
-        <v>11027.7</v>
+        <v>10954.55</v>
       </c>
       <c r="G155" s="3">
         <f>AVERAGE(E151:E155)</f>
@@ -5976,16 +5976,16 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>11004.81</v>
+        <v>10953.51</v>
       </c>
       <c r="C156" t="n">
-        <v>11066</v>
+        <v>10965.2</v>
       </c>
       <c r="D156" t="n">
-        <v>10983.25</v>
+        <v>10799.07</v>
       </c>
       <c r="E156" t="n">
-        <v>11046.9</v>
+        <v>10810.45</v>
       </c>
       <c r="G156" s="3">
         <f>AVERAGE(E152:E156)</f>
@@ -6005,16 +6005,16 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>11016.85</v>
+        <v>10842.88</v>
       </c>
       <c r="C157" t="n">
-        <v>11020.78</v>
+        <v>10917.6</v>
       </c>
       <c r="D157" t="n">
-        <v>10981.04</v>
+        <v>10809.89</v>
       </c>
       <c r="E157" t="n">
-        <v>11010.84</v>
+        <v>10847.89</v>
       </c>
       <c r="G157" s="3">
         <f>AVERAGE(E153:E157)</f>
@@ -6034,16 +6034,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>11037.35</v>
+        <v>10891.66</v>
       </c>
       <c r="C158" t="n">
-        <v>11072.31</v>
+        <v>10983.96</v>
       </c>
       <c r="D158" t="n">
-        <v>11011.07</v>
+        <v>10889.71</v>
       </c>
       <c r="E158" t="n">
-        <v>11011.07</v>
+        <v>10971.22</v>
       </c>
       <c r="G158" s="3">
         <f>AVERAGE(E154:E158)</f>
@@ -6063,16 +6063,16 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>11045.9</v>
+        <v>10802.42</v>
       </c>
       <c r="C159" t="n">
-        <v>11120.2</v>
+        <v>10831.56</v>
       </c>
       <c r="D159" t="n">
-        <v>10975.33</v>
+        <v>10770.05</v>
       </c>
       <c r="E159" t="n">
-        <v>11005.84</v>
+        <v>10779.38</v>
       </c>
       <c r="G159" s="3">
         <f>AVERAGE(E155:E159)</f>
@@ -6092,16 +6092,16 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10863.67</v>
+        <v>10756.89</v>
       </c>
       <c r="C160" t="n">
-        <v>10863.67</v>
+        <v>10774.73</v>
       </c>
       <c r="D160" t="n">
-        <v>10758.06</v>
+        <v>10687.25</v>
       </c>
       <c r="E160" t="n">
-        <v>10823.33</v>
+        <v>10697.13</v>
       </c>
       <c r="G160" s="3">
         <f>AVERAGE(E156:E160)</f>
@@ -6121,16 +6121,16 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10783.57</v>
+        <v>10680.38</v>
       </c>
       <c r="C161" t="n">
-        <v>10840.05</v>
+        <v>10692.19</v>
       </c>
       <c r="D161" t="n">
-        <v>10781.43</v>
+        <v>10540.15</v>
       </c>
       <c r="E161" t="n">
-        <v>10840.05</v>
+        <v>10579.5</v>
       </c>
       <c r="G161" s="3">
         <f>AVERAGE(E157:E161)</f>
@@ -6150,16 +6150,16 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>10901.69</v>
+        <v>10541.83</v>
       </c>
       <c r="C162" t="n">
-        <v>10986.79</v>
+        <v>10573.73</v>
       </c>
       <c r="D162" t="n">
-        <v>10901.69</v>
+        <v>10489.2</v>
       </c>
       <c r="E162" t="n">
-        <v>10986.79</v>
+        <v>10559.97</v>
       </c>
       <c r="G162" s="3">
         <f>AVERAGE(E158:E162)</f>
@@ -6179,16 +6179,16 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>10939.97</v>
+        <v>10583.08</v>
       </c>
       <c r="C163" t="n">
-        <v>10939.97</v>
+        <v>10618.68</v>
       </c>
       <c r="D163" t="n">
-        <v>10853.48</v>
+        <v>10478.98</v>
       </c>
       <c r="E163" t="n">
-        <v>10865.66</v>
+        <v>10488.58</v>
       </c>
       <c r="G163" s="3">
         <f>AVERAGE(E159:E163)</f>
@@ -6208,16 +6208,16 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10855.66</v>
+        <v>10546.29</v>
       </c>
       <c r="C164" t="n">
-        <v>10889.6</v>
+        <v>10573.61</v>
       </c>
       <c r="D164" t="n">
-        <v>10815.46</v>
+        <v>10495.67</v>
       </c>
       <c r="E164" t="n">
-        <v>10845.92</v>
+        <v>10553.43</v>
       </c>
       <c r="G164" s="3">
         <f>AVERAGE(E160:E164)</f>
@@ -6237,16 +6237,16 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>10905.3</v>
+        <v>10553.41</v>
       </c>
       <c r="C165" t="n">
-        <v>10969.22</v>
+        <v>10660.61</v>
       </c>
       <c r="D165" t="n">
-        <v>10905.3</v>
+        <v>10539.63</v>
       </c>
       <c r="E165" t="n">
-        <v>10906.22</v>
+        <v>10657.88</v>
       </c>
       <c r="G165" s="3">
         <f>AVERAGE(E161:E165)</f>
@@ -6266,16 +6266,16 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>10925.71</v>
+        <v>10665.52</v>
       </c>
       <c r="C166" t="n">
-        <v>10947.16</v>
+        <v>10683.9</v>
       </c>
       <c r="D166" t="n">
-        <v>10905.69</v>
+        <v>10601.1</v>
       </c>
       <c r="E166" t="n">
-        <v>10919.49</v>
+        <v>10618.81</v>
       </c>
       <c r="G166" s="3">
         <f>AVERAGE(E162:E166)</f>
@@ -6295,16 +6295,16 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>10936.26</v>
+        <v>10578.98</v>
       </c>
       <c r="C167" t="n">
-        <v>10969.88</v>
+        <v>10578.98</v>
       </c>
       <c r="D167" t="n">
-        <v>10882.05</v>
+        <v>10509.03</v>
       </c>
       <c r="E167" t="n">
-        <v>10888.27</v>
+        <v>10514.18</v>
       </c>
       <c r="G167" s="3">
         <f>AVERAGE(E163:E167)</f>
@@ -6324,16 +6324,16 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>10837.54</v>
+        <v>10516.45</v>
       </c>
       <c r="C168" t="n">
-        <v>10837.54</v>
+        <v>10566.37</v>
       </c>
       <c r="D168" t="n">
-        <v>10775.45</v>
+        <v>10500.97</v>
       </c>
       <c r="E168" t="n">
-        <v>10821.53</v>
+        <v>10529.37</v>
       </c>
       <c r="G168" s="3">
         <f>AVERAGE(E164:E168)</f>
@@ -6353,16 +6353,16 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>10880.14</v>
+        <v>10581.78</v>
       </c>
       <c r="C169" t="n">
-        <v>10904.75</v>
+        <v>10632.62</v>
       </c>
       <c r="D169" t="n">
-        <v>10829.02</v>
+        <v>10555.56</v>
       </c>
       <c r="E169" t="n">
-        <v>10893.53</v>
+        <v>10604.91</v>
       </c>
       <c r="G169" s="3">
         <f>AVERAGE(E165:E169)</f>
@@ -6382,16 +6382,16 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>10885.64</v>
+        <v>10610.44</v>
       </c>
       <c r="C170" t="n">
-        <v>10975.67</v>
+        <v>10691.38</v>
       </c>
       <c r="D170" t="n">
-        <v>10874.83</v>
+        <v>10609.04</v>
       </c>
       <c r="E170" t="n">
-        <v>10927.18</v>
+        <v>10691.38</v>
       </c>
       <c r="G170" s="3">
         <f>AVERAGE(E166:E170)</f>
@@ -6411,16 +6411,16 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>10961.7</v>
+        <v>10692.89</v>
       </c>
       <c r="C171" t="n">
-        <v>11016.35</v>
+        <v>10748.6</v>
       </c>
       <c r="D171" t="n">
-        <v>10953.31</v>
+        <v>10689.81</v>
       </c>
       <c r="E171" t="n">
-        <v>10974.02</v>
+        <v>10703.35</v>
       </c>
       <c r="G171" s="3">
         <f>AVERAGE(E167:E171)</f>
@@ -6440,16 +6440,16 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>10984.12</v>
+        <v>10731.68</v>
       </c>
       <c r="C172" t="n">
-        <v>11008.2</v>
+        <v>10782.06</v>
       </c>
       <c r="D172" t="n">
-        <v>10920.62</v>
+        <v>10731.68</v>
       </c>
       <c r="E172" t="n">
-        <v>10955.29</v>
+        <v>10760.21</v>
       </c>
       <c r="G172" s="3">
         <f>AVERAGE(E168:E172)</f>
@@ -6469,16 +6469,16 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>10975.58</v>
+        <v>10808.4</v>
       </c>
       <c r="C173" t="n">
-        <v>10988.23</v>
+        <v>10874.63</v>
       </c>
       <c r="D173" t="n">
-        <v>10938.37</v>
+        <v>10808.4</v>
       </c>
       <c r="E173" t="n">
-        <v>10965.39</v>
+        <v>10858.98</v>
       </c>
       <c r="G173" s="3">
         <f>AVERAGE(E169:E173)</f>
@@ -6498,16 +6498,16 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>10962.36</v>
+        <v>10938.3</v>
       </c>
       <c r="C174" t="n">
-        <v>10974.94</v>
+        <v>10970.24</v>
       </c>
       <c r="D174" t="n">
-        <v>10921.17</v>
+        <v>10908.86</v>
       </c>
       <c r="E174" t="n">
-        <v>10954.55</v>
+        <v>10952.39</v>
       </c>
       <c r="G174" s="3">
         <f>AVERAGE(E170:E174)</f>
@@ -6527,16 +6527,16 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>10953.51</v>
+        <v>10965.08</v>
       </c>
       <c r="C175" t="n">
-        <v>10965.2</v>
+        <v>10978.38</v>
       </c>
       <c r="D175" t="n">
-        <v>10799.07</v>
+        <v>10874.73</v>
       </c>
       <c r="E175" t="n">
-        <v>10810.45</v>
+        <v>10874.73</v>
       </c>
       <c r="G175" s="3">
         <f>AVERAGE(E171:E175)</f>
@@ -6556,16 +6556,16 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>10842.88</v>
+        <v>10873.54</v>
       </c>
       <c r="C176" t="n">
-        <v>10917.6</v>
+        <v>10915.74</v>
       </c>
       <c r="D176" t="n">
-        <v>10809.89</v>
+        <v>10865.07</v>
       </c>
       <c r="E176" t="n">
-        <v>10847.89</v>
+        <v>10897.57</v>
       </c>
       <c r="G176" s="3">
         <f>AVERAGE(E172:E176)</f>
@@ -6585,16 +6585,16 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>10891.66</v>
+        <v>10911.74</v>
       </c>
       <c r="C177" t="n">
-        <v>10983.96</v>
+        <v>10938.63</v>
       </c>
       <c r="D177" t="n">
-        <v>10889.71</v>
+        <v>10833.81</v>
       </c>
       <c r="E177" t="n">
-        <v>10971.22</v>
+        <v>10833.81</v>
       </c>
       <c r="G177" s="3">
         <f>AVERAGE(E173:E177)</f>
@@ -6614,16 +6614,16 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>10802.42</v>
+        <v>10844.09</v>
       </c>
       <c r="C178" t="n">
-        <v>10831.56</v>
+        <v>10893.35</v>
       </c>
       <c r="D178" t="n">
-        <v>10770.05</v>
+        <v>10819.07</v>
       </c>
       <c r="E178" t="n">
-        <v>10779.38</v>
+        <v>10830.84</v>
       </c>
       <c r="G178" s="3">
         <f>AVERAGE(E174:E178)</f>
@@ -6643,16 +6643,16 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>10756.89</v>
+        <v>10861.66</v>
       </c>
       <c r="C179" t="n">
-        <v>10774.73</v>
+        <v>10979.1</v>
       </c>
       <c r="D179" t="n">
-        <v>10687.25</v>
+        <v>10861.66</v>
       </c>
       <c r="E179" t="n">
-        <v>10697.13</v>
+        <v>10966.2</v>
       </c>
       <c r="G179" s="3">
         <f>AVERAGE(E175:E179)</f>
@@ -6672,16 +6672,16 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>10680.38</v>
+        <v>10986.77</v>
       </c>
       <c r="C180" t="n">
-        <v>10692.19</v>
+        <v>11034.12</v>
       </c>
       <c r="D180" t="n">
-        <v>10540.15</v>
+        <v>10938.73</v>
       </c>
       <c r="E180" t="n">
-        <v>10579.5</v>
+        <v>10938.73</v>
       </c>
       <c r="G180" s="3">
         <f>AVERAGE(E176:E180)</f>
@@ -6701,16 +6701,16 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>10541.83</v>
+        <v>10974.52</v>
       </c>
       <c r="C181" t="n">
-        <v>10573.73</v>
+        <v>10991.86</v>
       </c>
       <c r="D181" t="n">
-        <v>10489.2</v>
+        <v>10886.18</v>
       </c>
       <c r="E181" t="n">
-        <v>10559.97</v>
+        <v>10886.18</v>
       </c>
       <c r="G181" s="3">
         <f>AVERAGE(E177:E181)</f>
@@ -6730,16 +6730,16 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>10583.08</v>
+        <v>10910.61</v>
       </c>
       <c r="C182" t="n">
-        <v>10618.68</v>
+        <v>10942.64</v>
       </c>
       <c r="D182" t="n">
-        <v>10478.98</v>
+        <v>10883.52</v>
       </c>
       <c r="E182" t="n">
-        <v>10488.58</v>
+        <v>10936.93</v>
       </c>
       <c r="G182" s="3">
         <f>AVERAGE(E178:E182)</f>
@@ -6759,16 +6759,16 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>10546.29</v>
+        <v>10946.62</v>
       </c>
       <c r="C183" t="n">
-        <v>10573.61</v>
+        <v>10977.81</v>
       </c>
       <c r="D183" t="n">
-        <v>10495.67</v>
+        <v>10918.12</v>
       </c>
       <c r="E183" t="n">
-        <v>10553.43</v>
+        <v>10942.3</v>
       </c>
       <c r="G183" s="3">
         <f>AVERAGE(E179:E183)</f>
@@ -6788,16 +6788,16 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>10553.41</v>
+        <v>10976.49</v>
       </c>
       <c r="C184" t="n">
-        <v>10660.61</v>
+        <v>10999.43</v>
       </c>
       <c r="D184" t="n">
-        <v>10539.63</v>
+        <v>10965.18</v>
       </c>
       <c r="E184" t="n">
-        <v>10657.88</v>
+        <v>10987.77</v>
       </c>
       <c r="G184" s="3">
         <f>AVERAGE(E180:E184)</f>
@@ -6817,16 +6817,16 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>10665.52</v>
+        <v>10979.68</v>
       </c>
       <c r="C185" t="n">
-        <v>10683.9</v>
+        <v>10986.53</v>
       </c>
       <c r="D185" t="n">
-        <v>10601.1</v>
+        <v>10929.56</v>
       </c>
       <c r="E185" t="n">
-        <v>10618.81</v>
+        <v>10964.12</v>
       </c>
       <c r="G185" s="3">
         <f>AVERAGE(E181:E185)</f>
@@ -6846,16 +6846,16 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>10578.98</v>
+        <v>10925.21</v>
       </c>
       <c r="C186" t="n">
-        <v>10578.98</v>
+        <v>10925.21</v>
       </c>
       <c r="D186" t="n">
-        <v>10509.03</v>
+        <v>10799.75</v>
       </c>
       <c r="E186" t="n">
-        <v>10514.18</v>
+        <v>10821.17</v>
       </c>
       <c r="G186" s="3">
         <f>AVERAGE(E182:E186)</f>
@@ -6875,16 +6875,16 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>10516.45</v>
+        <v>10856.03</v>
       </c>
       <c r="C187" t="n">
-        <v>10566.37</v>
+        <v>10909.61</v>
       </c>
       <c r="D187" t="n">
-        <v>10500.97</v>
+        <v>10853.65</v>
       </c>
       <c r="E187" t="n">
-        <v>10529.37</v>
+        <v>10874.96</v>
       </c>
       <c r="G187" s="3">
         <f>AVERAGE(E183:E187)</f>
@@ -6904,16 +6904,16 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>10581.78</v>
+        <v>10882.68</v>
       </c>
       <c r="C188" t="n">
-        <v>10632.62</v>
+        <v>10954.67</v>
       </c>
       <c r="D188" t="n">
-        <v>10555.56</v>
+        <v>10876.97</v>
       </c>
       <c r="E188" t="n">
-        <v>10604.91</v>
+        <v>10949.08</v>
       </c>
       <c r="G188" s="3">
         <f>AVERAGE(E184:E188)</f>
@@ -6933,16 +6933,16 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>10610.44</v>
+        <v>11002.15</v>
       </c>
       <c r="C189" t="n">
-        <v>10691.38</v>
+        <v>11109.5</v>
       </c>
       <c r="D189" t="n">
-        <v>10609.04</v>
+        <v>11002.15</v>
       </c>
       <c r="E189" t="n">
-        <v>10691.38</v>
+        <v>11109.5</v>
       </c>
       <c r="G189" s="3">
         <f>AVERAGE(E185:E189)</f>
@@ -6962,16 +6962,16 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>10692.89</v>
+        <v>11130.03</v>
       </c>
       <c r="C190" t="n">
-        <v>10748.6</v>
+        <v>11131.08</v>
       </c>
       <c r="D190" t="n">
-        <v>10689.81</v>
+        <v>11054.62</v>
       </c>
       <c r="E190" t="n">
-        <v>10703.35</v>
+        <v>11100.11</v>
       </c>
       <c r="G190" s="3">
         <f>AVERAGE(E186:E190)</f>
@@ -6991,16 +6991,16 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>10731.68</v>
+        <v>11111.14</v>
       </c>
       <c r="C191" t="n">
-        <v>10782.06</v>
+        <v>11207.15</v>
       </c>
       <c r="D191" t="n">
-        <v>10731.68</v>
+        <v>11111.14</v>
       </c>
       <c r="E191" t="n">
-        <v>10760.21</v>
+        <v>11201.83</v>
       </c>
       <c r="G191" s="3">
         <f>AVERAGE(E187:E191)</f>
@@ -7020,16 +7020,16 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>10808.4</v>
+        <v>11228.64</v>
       </c>
       <c r="C192" t="n">
-        <v>10874.63</v>
+        <v>11261.68</v>
       </c>
       <c r="D192" t="n">
-        <v>10808.4</v>
+        <v>11188.99</v>
       </c>
       <c r="E192" t="n">
-        <v>10858.98</v>
+        <v>11251.75</v>
       </c>
       <c r="G192" s="3">
         <f>AVERAGE(E188:E192)</f>
@@ -7049,16 +7049,16 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>10938.3</v>
+        <v>11243.59</v>
       </c>
       <c r="C193" t="n">
-        <v>10970.24</v>
+        <v>11243.59</v>
       </c>
       <c r="D193" t="n">
-        <v>10908.86</v>
+        <v>11122.98</v>
       </c>
       <c r="E193" t="n">
-        <v>10952.39</v>
+        <v>11156.42</v>
       </c>
       <c r="G193" s="3">
         <f>AVERAGE(E189:E193)</f>
@@ -7078,16 +7078,16 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>10965.08</v>
+        <v>11168.99</v>
       </c>
       <c r="C194" t="n">
-        <v>10978.38</v>
+        <v>11186.67</v>
       </c>
       <c r="D194" t="n">
-        <v>10874.73</v>
+        <v>11118.81</v>
       </c>
       <c r="E194" t="n">
-        <v>10874.73</v>
+        <v>11149.23</v>
       </c>
       <c r="G194" s="3">
         <f>AVERAGE(E190:E194)</f>
@@ -7107,16 +7107,16 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>10873.54</v>
+        <v>11140.02</v>
       </c>
       <c r="C195" t="n">
-        <v>10915.74</v>
+        <v>11160.05</v>
       </c>
       <c r="D195" t="n">
-        <v>10865.07</v>
+        <v>11088.53</v>
       </c>
       <c r="E195" t="n">
-        <v>10897.57</v>
+        <v>11144.79</v>
       </c>
       <c r="G195" s="3">
         <f>AVERAGE(E191:E195)</f>
@@ -7136,16 +7136,16 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>10911.74</v>
+        <v>11153.2</v>
       </c>
       <c r="C196" t="n">
-        <v>10938.63</v>
+        <v>11188.01</v>
       </c>
       <c r="D196" t="n">
-        <v>10833.81</v>
+        <v>11119.24</v>
       </c>
       <c r="E196" t="n">
-        <v>10833.81</v>
+        <v>11173.21</v>
       </c>
       <c r="G196" s="3">
         <f>AVERAGE(E192:E196)</f>
@@ -7165,16 +7165,16 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>10844.09</v>
+        <v>11143.04</v>
       </c>
       <c r="C197" t="n">
-        <v>10893.35</v>
+        <v>11143.04</v>
       </c>
       <c r="D197" t="n">
-        <v>10819.07</v>
+        <v>11013.98</v>
       </c>
       <c r="E197" t="n">
-        <v>10830.84</v>
+        <v>11013.98</v>
       </c>
       <c r="G197" s="3">
         <f>AVERAGE(E193:E197)</f>
@@ -7194,16 +7194,16 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>10861.66</v>
+        <v>10998.2</v>
       </c>
       <c r="C198" t="n">
-        <v>10979.1</v>
+        <v>11087.47</v>
       </c>
       <c r="D198" t="n">
-        <v>10861.66</v>
+        <v>10981.61</v>
       </c>
       <c r="E198" t="n">
-        <v>10966.2</v>
+        <v>11087.47</v>
       </c>
       <c r="G198" s="3">
         <f>AVERAGE(E194:E198)</f>
@@ -7223,16 +7223,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>10986.77</v>
+        <v>11008.77</v>
       </c>
       <c r="C199" t="n">
-        <v>11034.12</v>
+        <v>11008.77</v>
       </c>
       <c r="D199" t="n">
-        <v>10938.73</v>
+        <v>10904.19</v>
       </c>
       <c r="E199" t="n">
-        <v>10938.73</v>
+        <v>10904.19</v>
       </c>
       <c r="G199" s="3">
         <f>AVERAGE(E195:E199)</f>
@@ -7252,16 +7252,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>10974.52</v>
+        <v>10904.8</v>
       </c>
       <c r="C200" t="n">
-        <v>10991.86</v>
+        <v>10969.2</v>
       </c>
       <c r="D200" t="n">
-        <v>10886.18</v>
+        <v>10842.56</v>
       </c>
       <c r="E200" t="n">
-        <v>10886.18</v>
+        <v>10927.44</v>
       </c>
       <c r="G200" s="3">
         <f>AVERAGE(E196:E200)</f>
@@ -7281,16 +7281,16 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>10910.61</v>
+        <v>10949.85</v>
       </c>
       <c r="C201" t="n">
-        <v>10942.64</v>
+        <v>10992.31</v>
       </c>
       <c r="D201" t="n">
-        <v>10883.52</v>
+        <v>10941.07</v>
       </c>
       <c r="E201" t="n">
-        <v>10936.93</v>
+        <v>10941.07</v>
       </c>
       <c r="G201" s="3">
         <f>AVERAGE(E197:E201)</f>
@@ -7310,16 +7310,16 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>10946.62</v>
+        <v>10901.25</v>
       </c>
       <c r="C202" t="n">
-        <v>10977.81</v>
+        <v>10914.83</v>
       </c>
       <c r="D202" t="n">
-        <v>10918.12</v>
+        <v>10828.86</v>
       </c>
       <c r="E202" t="n">
-        <v>10942.3</v>
+        <v>10899.28</v>
       </c>
       <c r="G202" s="3">
         <f>AVERAGE(E198:E202)</f>
@@ -7339,16 +7339,16 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>10976.49</v>
+        <v>10834.07</v>
       </c>
       <c r="C203" t="n">
-        <v>10999.43</v>
+        <v>10851.16</v>
       </c>
       <c r="D203" t="n">
-        <v>10965.18</v>
+        <v>10786.46</v>
       </c>
       <c r="E203" t="n">
-        <v>10987.77</v>
+        <v>10786.46</v>
       </c>
       <c r="G203" s="3">
         <f>AVERAGE(E199:E203)</f>
@@ -7368,16 +7368,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>10979.68</v>
+        <v>10730.9</v>
       </c>
       <c r="C204" t="n">
-        <v>10986.53</v>
+        <v>10752.99</v>
       </c>
       <c r="D204" t="n">
-        <v>10929.56</v>
+        <v>10651.42</v>
       </c>
       <c r="E204" t="n">
-        <v>10964.12</v>
+        <v>10742.17</v>
       </c>
       <c r="G204" s="3">
         <f>AVERAGE(E200:E204)</f>
@@ -7397,16 +7397,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>10925.21</v>
+        <v>10766.88</v>
       </c>
       <c r="C205" t="n">
-        <v>10925.21</v>
+        <v>10800.34</v>
       </c>
       <c r="D205" t="n">
-        <v>10799.75</v>
+        <v>10701.03</v>
       </c>
       <c r="E205" t="n">
-        <v>10821.17</v>
+        <v>10701.03</v>
       </c>
       <c r="G205" s="3">
         <f>AVERAGE(E201:E205)</f>
@@ -7426,16 +7426,16 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>10856.03</v>
+        <v>10669.42</v>
       </c>
       <c r="C206" t="n">
-        <v>10909.61</v>
+        <v>10723.84</v>
       </c>
       <c r="D206" t="n">
-        <v>10853.65</v>
+        <v>10633.01</v>
       </c>
       <c r="E206" t="n">
-        <v>10874.96</v>
+        <v>10654.28</v>
       </c>
       <c r="G206" s="3">
         <f>AVERAGE(E202:E206)</f>
@@ -7455,16 +7455,16 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>10882.68</v>
+        <v>10667.64</v>
       </c>
       <c r="C207" t="n">
-        <v>10954.67</v>
+        <v>10836.91</v>
       </c>
       <c r="D207" t="n">
-        <v>10876.97</v>
+        <v>10667.64</v>
       </c>
       <c r="E207" t="n">
-        <v>10949.08</v>
+        <v>10836.91</v>
       </c>
       <c r="G207" s="3">
         <f>AVERAGE(E203:E207)</f>
@@ -7484,16 +7484,16 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>11002.15</v>
+        <v>10852.17</v>
       </c>
       <c r="C208" t="n">
-        <v>11109.5</v>
+        <v>10886.2</v>
       </c>
       <c r="D208" t="n">
-        <v>11002.15</v>
+        <v>10777.94</v>
       </c>
       <c r="E208" t="n">
-        <v>11109.5</v>
+        <v>10777.94</v>
       </c>
       <c r="G208" s="3">
         <f>AVERAGE(E204:E208)</f>
@@ -7513,16 +7513,16 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>11130.03</v>
+        <v>10802.88</v>
       </c>
       <c r="C209" t="n">
-        <v>11131.08</v>
+        <v>10873.48</v>
       </c>
       <c r="D209" t="n">
-        <v>11054.62</v>
+        <v>10707.68</v>
       </c>
       <c r="E209" t="n">
-        <v>11100.11</v>
+        <v>10715.72</v>
       </c>
       <c r="G209" s="3">
         <f>AVERAGE(E205:E209)</f>
@@ -7542,16 +7542,16 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>11111.14</v>
+        <v>10714.25</v>
       </c>
       <c r="C210" t="n">
-        <v>11207.15</v>
+        <v>10752.05</v>
       </c>
       <c r="D210" t="n">
-        <v>11111.14</v>
+        <v>10680.44</v>
       </c>
       <c r="E210" t="n">
-        <v>11201.83</v>
+        <v>10721.87</v>
       </c>
       <c r="G210" s="3">
         <f>AVERAGE(E206:E210)</f>
@@ -7571,16 +7571,16 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>11228.64</v>
+        <v>10690.91</v>
       </c>
       <c r="C211" t="n">
-        <v>11261.68</v>
+        <v>10709.8</v>
       </c>
       <c r="D211" t="n">
-        <v>11188.99</v>
+        <v>10585.27</v>
       </c>
       <c r="E211" t="n">
-        <v>11251.75</v>
+        <v>10611.81</v>
       </c>
       <c r="G211" s="3">
         <f>AVERAGE(E207:E211)</f>
@@ -7600,16 +7600,16 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>11243.59</v>
+        <v>10645.66</v>
       </c>
       <c r="C212" t="n">
-        <v>11243.59</v>
+        <v>10665.72</v>
       </c>
       <c r="D212" t="n">
-        <v>11122.98</v>
+        <v>10523.58</v>
       </c>
       <c r="E212" t="n">
-        <v>11156.42</v>
+        <v>10608.57</v>
       </c>
       <c r="G212" s="3">
         <f>AVERAGE(E208:E212)</f>
@@ -7629,16 +7629,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>11168.99</v>
+        <v>10638.9</v>
       </c>
       <c r="C213" t="n">
-        <v>11186.67</v>
+        <v>10746.74</v>
       </c>
       <c r="D213" t="n">
-        <v>11118.81</v>
+        <v>10638.9</v>
       </c>
       <c r="E213" t="n">
-        <v>11149.23</v>
+        <v>10720.28</v>
       </c>
       <c r="G213" s="3">
         <f>AVERAGE(E209:E213)</f>
@@ -7658,16 +7658,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>11140.02</v>
+        <v>10737.62</v>
       </c>
       <c r="C214" t="n">
-        <v>11160.05</v>
+        <v>10776.47</v>
       </c>
       <c r="D214" t="n">
-        <v>11088.53</v>
+        <v>10728.24</v>
       </c>
       <c r="E214" t="n">
-        <v>11144.79</v>
+        <v>10756.89</v>
       </c>
       <c r="G214" s="3">
         <f>AVERAGE(E210:E214)</f>
@@ -7687,16 +7687,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>11153.2</v>
+        <v>10693.64</v>
       </c>
       <c r="C215" t="n">
-        <v>11188.01</v>
+        <v>10693.64</v>
       </c>
       <c r="D215" t="n">
-        <v>11119.24</v>
+        <v>10635.03</v>
       </c>
       <c r="E215" t="n">
-        <v>11173.21</v>
+        <v>10676.84</v>
       </c>
       <c r="G215" s="3">
         <f>AVERAGE(E211:E215)</f>
@@ -7716,16 +7716,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>11143.04</v>
+        <v>10644.91</v>
       </c>
       <c r="C216" t="n">
-        <v>11143.04</v>
+        <v>10752.57</v>
       </c>
       <c r="D216" t="n">
-        <v>11013.98</v>
+        <v>10643.65</v>
       </c>
       <c r="E216" t="n">
-        <v>11013.98</v>
+        <v>10738.38</v>
       </c>
       <c r="G216" s="3">
         <f>AVERAGE(E212:E216)</f>
@@ -7745,16 +7745,16 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>10998.2</v>
+        <v>10769.7</v>
       </c>
       <c r="C217" t="n">
-        <v>11087.47</v>
+        <v>10864.54</v>
       </c>
       <c r="D217" t="n">
-        <v>10981.61</v>
+        <v>10769.7</v>
       </c>
       <c r="E217" t="n">
-        <v>11087.47</v>
+        <v>10864.54</v>
       </c>
       <c r="G217" s="3">
         <f>AVERAGE(E213:E217)</f>
@@ -7774,16 +7774,16 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>11008.77</v>
+        <v>10867.97</v>
       </c>
       <c r="C218" t="n">
-        <v>11008.77</v>
+        <v>10890.2</v>
       </c>
       <c r="D218" t="n">
-        <v>10904.19</v>
+        <v>10817.45</v>
       </c>
       <c r="E218" t="n">
-        <v>10904.19</v>
+        <v>10817.45</v>
       </c>
       <c r="G218" s="3">
         <f>AVERAGE(E214:E218)</f>
@@ -7803,16 +7803,16 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>10904.8</v>
+        <v>10802.75</v>
       </c>
       <c r="C219" t="n">
-        <v>10969.2</v>
+        <v>10818.84</v>
       </c>
       <c r="D219" t="n">
-        <v>10842.56</v>
+        <v>10758.83</v>
       </c>
       <c r="E219" t="n">
-        <v>10927.44</v>
+        <v>10778.99</v>
       </c>
       <c r="G219" s="3">
         <f>AVERAGE(E215:E219)</f>
@@ -7832,16 +7832,16 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>10949.85</v>
+        <v>10811.43</v>
       </c>
       <c r="C220" t="n">
-        <v>10992.31</v>
+        <v>10872.74</v>
       </c>
       <c r="D220" t="n">
-        <v>10941.07</v>
+        <v>10788.37</v>
       </c>
       <c r="E220" t="n">
-        <v>10941.07</v>
+        <v>10842.46</v>
       </c>
       <c r="G220" s="3">
         <f>AVERAGE(E216:E220)</f>
@@ -7861,16 +7861,16 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>10901.25</v>
+        <v>10868.56</v>
       </c>
       <c r="C221" t="n">
-        <v>10914.83</v>
+        <v>10896.25</v>
       </c>
       <c r="D221" t="n">
-        <v>10828.86</v>
+        <v>10826.14</v>
       </c>
       <c r="E221" t="n">
-        <v>10899.28</v>
+        <v>10835.38</v>
       </c>
       <c r="G221" s="3">
         <f>AVERAGE(E217:E221)</f>
@@ -7890,16 +7890,16 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>10834.07</v>
+        <v>10932.51</v>
       </c>
       <c r="C222" t="n">
-        <v>10851.16</v>
+        <v>10963.95</v>
       </c>
       <c r="D222" t="n">
-        <v>10786.46</v>
+        <v>10893.73</v>
       </c>
       <c r="E222" t="n">
-        <v>10786.46</v>
+        <v>10932.11</v>
       </c>
       <c r="G222" s="3">
         <f>AVERAGE(E218:E222)</f>
@@ -7919,16 +7919,16 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>10730.9</v>
+        <v>10929.46</v>
       </c>
       <c r="C223" t="n">
-        <v>10752.99</v>
+        <v>10984.84</v>
       </c>
       <c r="D223" t="n">
-        <v>10651.42</v>
+        <v>10901.75</v>
       </c>
       <c r="E223" t="n">
-        <v>10742.17</v>
+        <v>10946.89</v>
       </c>
       <c r="G223" s="3">
         <f>AVERAGE(E219:E223)</f>
@@ -7948,16 +7948,16 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>10766.88</v>
+        <v>10937.77</v>
       </c>
       <c r="C224" t="n">
-        <v>10800.34</v>
+        <v>10995.39</v>
       </c>
       <c r="D224" t="n">
-        <v>10701.03</v>
+        <v>10917.61</v>
       </c>
       <c r="E224" t="n">
-        <v>10701.03</v>
+        <v>10995.39</v>
       </c>
       <c r="G224" s="3">
         <f>AVERAGE(E220:E224)</f>
@@ -7977,16 +7977,16 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>10669.42</v>
+        <v>10957.66</v>
       </c>
       <c r="C225" t="n">
-        <v>10723.84</v>
+        <v>10992.29</v>
       </c>
       <c r="D225" t="n">
-        <v>10633.01</v>
+        <v>10956</v>
       </c>
       <c r="E225" t="n">
-        <v>10654.28</v>
+        <v>10965.79</v>
       </c>
       <c r="G225" s="3">
         <f>AVERAGE(E221:E225)</f>
@@ -8006,16 +8006,16 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>10667.64</v>
+        <v>10969.35</v>
       </c>
       <c r="C226" t="n">
-        <v>10836.91</v>
+        <v>11018.19</v>
       </c>
       <c r="D226" t="n">
-        <v>10667.64</v>
+        <v>10966.33</v>
       </c>
       <c r="E226" t="n">
-        <v>10836.91</v>
+        <v>11010.61</v>
       </c>
       <c r="G226" s="3">
         <f>AVERAGE(E222:E226)</f>
@@ -8035,16 +8035,16 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>10852.17</v>
+        <v>11023.07</v>
       </c>
       <c r="C227" t="n">
-        <v>10886.2</v>
+        <v>11075.78</v>
       </c>
       <c r="D227" t="n">
-        <v>10777.94</v>
+        <v>11009.16</v>
       </c>
       <c r="E227" t="n">
-        <v>10777.94</v>
+        <v>11075.78</v>
       </c>
       <c r="G227" s="3">
         <f>AVERAGE(E223:E227)</f>
@@ -8064,16 +8064,16 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>10802.88</v>
+        <v>11072.7</v>
       </c>
       <c r="C228" t="n">
-        <v>10873.48</v>
+        <v>11080.41</v>
       </c>
       <c r="D228" t="n">
-        <v>10707.68</v>
+        <v>11001.15</v>
       </c>
       <c r="E228" t="n">
-        <v>10715.72</v>
+        <v>11033.54</v>
       </c>
       <c r="G228" s="3">
         <f>AVERAGE(E224:E228)</f>
@@ -8093,16 +8093,16 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>10714.25</v>
+        <v>10997.73</v>
       </c>
       <c r="C229" t="n">
-        <v>10752.05</v>
+        <v>11057.51</v>
       </c>
       <c r="D229" t="n">
-        <v>10680.44</v>
+        <v>10976.46</v>
       </c>
       <c r="E229" t="n">
-        <v>10721.87</v>
+        <v>11057.51</v>
       </c>
       <c r="G229" s="3">
         <f>AVERAGE(E225:E229)</f>
@@ -8122,16 +8122,16 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>10690.91</v>
+        <v>11062.36</v>
       </c>
       <c r="C230" t="n">
-        <v>10709.8</v>
+        <v>11100.02</v>
       </c>
       <c r="D230" t="n">
-        <v>10585.27</v>
+        <v>11058.28</v>
       </c>
       <c r="E230" t="n">
-        <v>10611.81</v>
+        <v>11098.13</v>
       </c>
       <c r="G230" s="3">
         <f>AVERAGE(E226:E230)</f>
@@ -8151,16 +8151,16 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>10645.66</v>
+        <v>11095.67</v>
       </c>
       <c r="C231" t="n">
-        <v>10665.72</v>
+        <v>11095.67</v>
       </c>
       <c r="D231" t="n">
-        <v>10523.58</v>
+        <v>10919.13</v>
       </c>
       <c r="E231" t="n">
-        <v>10608.57</v>
+        <v>10929.77</v>
       </c>
       <c r="G231" s="3">
         <f>AVERAGE(E227:E231)</f>
@@ -8180,16 +8180,16 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>10638.9</v>
+        <v>10957.3</v>
       </c>
       <c r="C232" t="n">
-        <v>10746.74</v>
+        <v>11012.43</v>
       </c>
       <c r="D232" t="n">
-        <v>10638.9</v>
+        <v>10957.3</v>
       </c>
       <c r="E232" t="n">
-        <v>10720.28</v>
+        <v>11012.43</v>
       </c>
       <c r="G232" s="3">
         <f>AVERAGE(E228:E232)</f>
@@ -8209,16 +8209,16 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>10737.62</v>
+        <v>10997.26</v>
       </c>
       <c r="C233" t="n">
-        <v>10776.47</v>
+        <v>11054.49</v>
       </c>
       <c r="D233" t="n">
-        <v>10728.24</v>
+        <v>10994.97</v>
       </c>
       <c r="E233" t="n">
-        <v>10756.89</v>
+        <v>11024.1</v>
       </c>
       <c r="G233" s="3">
         <f>AVERAGE(E229:E233)</f>
@@ -8238,16 +8238,16 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>10693.64</v>
+        <v>11024.97</v>
       </c>
       <c r="C234" t="n">
-        <v>10693.64</v>
+        <v>11030.09</v>
       </c>
       <c r="D234" t="n">
-        <v>10635.03</v>
+        <v>10983.44</v>
       </c>
       <c r="E234" t="n">
-        <v>10676.84</v>
+        <v>10983.44</v>
       </c>
       <c r="G234" s="3">
         <f>AVERAGE(E230:E234)</f>
@@ -8267,16 +8267,16 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>10644.91</v>
+        <v>11026.07</v>
       </c>
       <c r="C235" t="n">
-        <v>10752.57</v>
+        <v>11095.5</v>
       </c>
       <c r="D235" t="n">
-        <v>10643.65</v>
+        <v>11026.07</v>
       </c>
       <c r="E235" t="n">
-        <v>10738.38</v>
+        <v>11075.25</v>
       </c>
       <c r="G235" s="3">
         <f>AVERAGE(E231:E235)</f>
@@ -8296,16 +8296,16 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>10769.7</v>
+        <v>11063.62</v>
       </c>
       <c r="C236" t="n">
-        <v>10864.54</v>
+        <v>11063.62</v>
       </c>
       <c r="D236" t="n">
-        <v>10769.7</v>
+        <v>11001.96</v>
       </c>
       <c r="E236" t="n">
-        <v>10864.54</v>
+        <v>11028.07</v>
       </c>
       <c r="G236" s="3">
         <f>AVERAGE(E232:E236)</f>
@@ -8325,16 +8325,16 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>10867.97</v>
+        <v>11009.96</v>
       </c>
       <c r="C237" t="n">
-        <v>10890.2</v>
+        <v>11033.89</v>
       </c>
       <c r="D237" t="n">
-        <v>10817.45</v>
+        <v>10972.25</v>
       </c>
       <c r="E237" t="n">
-        <v>10817.45</v>
+        <v>10983.68</v>
       </c>
       <c r="G237" s="3">
         <f>AVERAGE(E233:E237)</f>
@@ -8354,16 +8354,16 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>10802.75</v>
+        <v>10939.68</v>
       </c>
       <c r="C238" t="n">
-        <v>10818.84</v>
+        <v>10939.68</v>
       </c>
       <c r="D238" t="n">
-        <v>10758.83</v>
+        <v>10693.73</v>
       </c>
       <c r="E238" t="n">
-        <v>10778.99</v>
+        <v>10748.92</v>
       </c>
       <c r="G238" s="3">
         <f>AVERAGE(E234:E238)</f>
@@ -8383,16 +8383,16 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>10811.43</v>
+        <v>10797.95</v>
       </c>
       <c r="C239" t="n">
-        <v>10872.74</v>
+        <v>10829.85</v>
       </c>
       <c r="D239" t="n">
-        <v>10788.37</v>
+        <v>10755.53</v>
       </c>
       <c r="E239" t="n">
-        <v>10842.46</v>
+        <v>10824.23</v>
       </c>
       <c r="G239" s="3">
         <f>AVERAGE(E235:E239)</f>
@@ -8412,16 +8412,16 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>10868.56</v>
+        <v>10827.28</v>
       </c>
       <c r="C240" t="n">
-        <v>10896.25</v>
+        <v>10827.28</v>
       </c>
       <c r="D240" t="n">
-        <v>10826.14</v>
+        <v>10688.59</v>
       </c>
       <c r="E240" t="n">
-        <v>10835.38</v>
+        <v>10716.75</v>
       </c>
       <c r="G240" s="3">
         <f>AVERAGE(E236:E240)</f>
@@ -8441,16 +8441,16 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>10932.51</v>
+        <v>10663.57</v>
       </c>
       <c r="C241" t="n">
-        <v>10963.95</v>
+        <v>10725.71</v>
       </c>
       <c r="D241" t="n">
-        <v>10893.73</v>
+        <v>10606.26</v>
       </c>
       <c r="E241" t="n">
-        <v>10932.11</v>
+        <v>10683.9</v>
       </c>
       <c r="G241" s="3">
         <f>AVERAGE(E237:E241)</f>
@@ -8470,16 +8470,16 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>10929.46</v>
+        <v>10702.6</v>
       </c>
       <c r="C242" t="n">
-        <v>10984.84</v>
+        <v>10757.01</v>
       </c>
       <c r="D242" t="n">
-        <v>10901.75</v>
+        <v>10688.55</v>
       </c>
       <c r="E242" t="n">
-        <v>10946.89</v>
+        <v>10690.96</v>
       </c>
       <c r="G242" s="3">
         <f>AVERAGE(E238:E242)</f>
@@ -8499,16 +8499,16 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>10937.77</v>
+        <v>10698.76</v>
       </c>
       <c r="C243" t="n">
-        <v>10995.39</v>
+        <v>10729.9</v>
       </c>
       <c r="D243" t="n">
-        <v>10917.61</v>
+        <v>10663.44</v>
       </c>
       <c r="E243" t="n">
-        <v>10995.39</v>
+        <v>10699.05</v>
       </c>
       <c r="G243" s="3">
         <f>AVERAGE(E239:E243)</f>
@@ -8528,16 +8528,16 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>10957.66</v>
+        <v>10697.01</v>
       </c>
       <c r="C244" t="n">
-        <v>10992.29</v>
+        <v>10792.2</v>
       </c>
       <c r="D244" t="n">
-        <v>10956</v>
+        <v>10697.01</v>
       </c>
       <c r="E244" t="n">
-        <v>10965.79</v>
+        <v>10792.2</v>
       </c>
       <c r="G244" s="3">
         <f>AVERAGE(E240:E244)</f>
@@ -8557,16 +8557,16 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>10969.35</v>
+        <v>10790.24</v>
       </c>
       <c r="C245" t="n">
-        <v>11018.19</v>
+        <v>10828.21</v>
       </c>
       <c r="D245" t="n">
-        <v>10966.33</v>
+        <v>10774.69</v>
       </c>
       <c r="E245" t="n">
-        <v>11010.61</v>
+        <v>10804.2</v>
       </c>
       <c r="G245" s="3">
         <f>AVERAGE(E241:E245)</f>
@@ -8586,16 +8586,16 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>11023.07</v>
+        <v>10817.33</v>
       </c>
       <c r="C246" t="n">
-        <v>11075.78</v>
+        <v>10863.13</v>
       </c>
       <c r="D246" t="n">
-        <v>11009.16</v>
+        <v>10802.79</v>
       </c>
       <c r="E246" t="n">
-        <v>11075.78</v>
+        <v>10863.13</v>
       </c>
       <c r="G246" s="3">
         <f>AVERAGE(E242:E246)</f>
@@ -8615,16 +8615,16 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>11072.7</v>
+        <v>10865.91</v>
       </c>
       <c r="C247" t="n">
-        <v>11080.41</v>
+        <v>10865.91</v>
       </c>
       <c r="D247" t="n">
-        <v>11001.15</v>
+        <v>10770.32</v>
       </c>
       <c r="E247" t="n">
-        <v>11033.54</v>
+        <v>10809.35</v>
       </c>
       <c r="G247" s="3">
         <f>AVERAGE(E243:E247)</f>
@@ -8644,16 +8644,16 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>10997.73</v>
+        <v>10847.17</v>
       </c>
       <c r="C248" t="n">
-        <v>11057.51</v>
+        <v>10916.69</v>
       </c>
       <c r="D248" t="n">
-        <v>10976.46</v>
+        <v>10847.17</v>
       </c>
       <c r="E248" t="n">
-        <v>11057.51</v>
+        <v>10902.21</v>
       </c>
       <c r="G248" s="3">
         <f>AVERAGE(E244:E248)</f>
@@ -8673,16 +8673,16 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>11062.36</v>
+        <v>10946.33</v>
       </c>
       <c r="C249" t="n">
-        <v>11100.02</v>
+        <v>11005.55</v>
       </c>
       <c r="D249" t="n">
-        <v>11058.28</v>
+        <v>10946.33</v>
       </c>
       <c r="E249" t="n">
-        <v>11098.13</v>
+        <v>10989.55</v>
       </c>
       <c r="G249" s="3">
         <f>AVERAGE(E245:E249)</f>
@@ -8702,16 +8702,16 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>11095.67</v>
+        <v>11029.12</v>
       </c>
       <c r="C250" t="n">
-        <v>11095.67</v>
+        <v>11099.57</v>
       </c>
       <c r="D250" t="n">
-        <v>10919.13</v>
+        <v>11029.11</v>
       </c>
       <c r="E250" t="n">
-        <v>10929.77</v>
+        <v>11099.57</v>
       </c>
       <c r="G250" s="3">
         <f>AVERAGE(E246:E250)</f>
@@ -8731,16 +8731,16 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>10957.3</v>
+        <v>11153.97</v>
       </c>
       <c r="C251" t="n">
-        <v>11012.43</v>
+        <v>11186.05</v>
       </c>
       <c r="D251" t="n">
-        <v>10957.3</v>
+        <v>11080.07</v>
       </c>
       <c r="E251" t="n">
-        <v>11012.43</v>
+        <v>11093.75</v>
       </c>
       <c r="G251" s="3">
         <f>AVERAGE(E247:E251)</f>
@@ -8760,16 +8760,16 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>10997.26</v>
+        <v>11037.26</v>
       </c>
       <c r="C252" t="n">
-        <v>11054.49</v>
+        <v>11063.94</v>
       </c>
       <c r="D252" t="n">
-        <v>10994.97</v>
+        <v>10987.68</v>
       </c>
       <c r="E252" t="n">
-        <v>11024.1</v>
+        <v>11063.94</v>
       </c>
       <c r="G252" s="3">
         <f>AVERAGE(E248:E252)</f>
@@ -8789,16 +8789,16 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>11024.97</v>
+        <v>11087.86</v>
       </c>
       <c r="C253" t="n">
-        <v>11030.09</v>
+        <v>11097.11</v>
       </c>
       <c r="D253" t="n">
-        <v>10983.44</v>
+        <v>10952.85</v>
       </c>
       <c r="E253" t="n">
-        <v>10983.44</v>
+        <v>10964.22</v>
       </c>
       <c r="G253" s="3">
         <f>AVERAGE(E249:E253)</f>
@@ -8818,16 +8818,16 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>11026.07</v>
+        <v>10981.39</v>
       </c>
       <c r="C254" t="n">
-        <v>11095.5</v>
+        <v>11028.27</v>
       </c>
       <c r="D254" t="n">
-        <v>11026.07</v>
+        <v>10956.49</v>
       </c>
       <c r="E254" t="n">
-        <v>11075.25</v>
+        <v>11021.38</v>
       </c>
       <c r="G254" s="3">
         <f>AVERAGE(E250:E254)</f>
@@ -8847,16 +8847,16 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>11063.62</v>
+        <v>11042.41</v>
       </c>
       <c r="C255" t="n">
-        <v>11063.62</v>
+        <v>11058.06</v>
       </c>
       <c r="D255" t="n">
-        <v>11001.96</v>
+        <v>10989.93</v>
       </c>
       <c r="E255" t="n">
-        <v>11028.07</v>
+        <v>10995.13</v>
       </c>
       <c r="G255" s="3">
         <f>AVERAGE(E251:E255)</f>
@@ -8876,16 +8876,16 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>11009.96</v>
+        <v>11016.92</v>
       </c>
       <c r="C256" t="n">
-        <v>11033.89</v>
+        <v>11016.92</v>
       </c>
       <c r="D256" t="n">
-        <v>10972.25</v>
+        <v>10905.34</v>
       </c>
       <c r="E256" t="n">
-        <v>10983.68</v>
+        <v>10924.3</v>
       </c>
       <c r="G256" s="3">
         <f>AVERAGE(E252:E256)</f>
@@ -8905,16 +8905,16 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>10939.68</v>
+        <v>10922.55</v>
       </c>
       <c r="C257" t="n">
-        <v>10939.68</v>
+        <v>10922.55</v>
       </c>
       <c r="D257" t="n">
-        <v>10693.73</v>
+        <v>10807.56</v>
       </c>
       <c r="E257" t="n">
-        <v>10748.92</v>
+        <v>10846.99</v>
       </c>
       <c r="G257" s="3">
         <f>AVERAGE(E253:E257)</f>
@@ -8934,16 +8934,16 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>10797.95</v>
+        <v>10869.8</v>
       </c>
       <c r="C258" t="n">
-        <v>10829.85</v>
+        <v>10877.72</v>
       </c>
       <c r="D258" t="n">
-        <v>10755.53</v>
+        <v>10689.29</v>
       </c>
       <c r="E258" t="n">
-        <v>10824.23</v>
+        <v>10725.8</v>
       </c>
       <c r="G258" s="3">
         <f>AVERAGE(E254:E258)</f>
@@ -8963,16 +8963,16 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>10827.28</v>
+        <v>10723</v>
       </c>
       <c r="C259" t="n">
-        <v>10827.28</v>
+        <v>10765.42</v>
       </c>
       <c r="D259" t="n">
-        <v>10688.59</v>
+        <v>10669.59</v>
       </c>
       <c r="E259" t="n">
-        <v>10716.75</v>
+        <v>10752.3</v>
       </c>
       <c r="G259" s="3">
         <f>AVERAGE(E255:E259)</f>
@@ -8992,16 +8992,16 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>10663.57</v>
+        <v>10762.91</v>
       </c>
       <c r="C260" t="n">
-        <v>10725.71</v>
+        <v>10779.93</v>
       </c>
       <c r="D260" t="n">
-        <v>10606.26</v>
+        <v>10667.25</v>
       </c>
       <c r="E260" t="n">
-        <v>10683.9</v>
+        <v>10722.57</v>
       </c>
       <c r="G260" s="3">
         <f>AVERAGE(E256:E260)</f>
@@ -9021,16 +9021,16 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>10702.6</v>
+        <v>10726.67</v>
       </c>
       <c r="C261" t="n">
-        <v>10757.01</v>
+        <v>10758.84</v>
       </c>
       <c r="D261" t="n">
-        <v>10688.55</v>
+        <v>10701.25</v>
       </c>
       <c r="E261" t="n">
-        <v>10690.96</v>
+        <v>10727.23</v>
       </c>
       <c r="G261" s="3">
         <f>AVERAGE(E257:E261)</f>
@@ -9050,16 +9050,16 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>10698.76</v>
+        <v>10776.53</v>
       </c>
       <c r="C262" t="n">
-        <v>10729.9</v>
+        <v>10882.04</v>
       </c>
       <c r="D262" t="n">
-        <v>10663.44</v>
+        <v>10770.47</v>
       </c>
       <c r="E262" t="n">
-        <v>10699.05</v>
+        <v>10868.14</v>
       </c>
       <c r="G262" s="3">
         <f>AVERAGE(E258:E262)</f>
@@ -9079,16 +9079,16 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>10697.01</v>
+        <v>10881.78</v>
       </c>
       <c r="C263" t="n">
-        <v>10792.2</v>
+        <v>10883.98</v>
       </c>
       <c r="D263" t="n">
-        <v>10697.01</v>
+        <v>10806.73</v>
       </c>
       <c r="E263" t="n">
-        <v>10792.2</v>
+        <v>10828.61</v>
       </c>
       <c r="G263" s="3">
         <f>AVERAGE(E259:E263)</f>
@@ -9108,16 +9108,16 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>10790.24</v>
+        <v>10794.22</v>
       </c>
       <c r="C264" t="n">
-        <v>10828.21</v>
+        <v>10806.56</v>
       </c>
       <c r="D264" t="n">
-        <v>10774.69</v>
+        <v>10750.81</v>
       </c>
       <c r="E264" t="n">
-        <v>10804.2</v>
+        <v>10760.21</v>
       </c>
       <c r="G264" s="3">
         <f>AVERAGE(E260:E264)</f>
@@ -9137,16 +9137,16 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>10817.33</v>
+        <v>10808.5</v>
       </c>
       <c r="C265" t="n">
-        <v>10863.13</v>
+        <v>10882.75</v>
       </c>
       <c r="D265" t="n">
-        <v>10802.79</v>
+        <v>10808.5</v>
       </c>
       <c r="E265" t="n">
-        <v>10863.13</v>
+        <v>10857.27</v>
       </c>
       <c r="G265" s="3">
         <f>AVERAGE(E261:E265)</f>
@@ -9166,16 +9166,16 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>10865.91</v>
+        <v>10886.19</v>
       </c>
       <c r="C266" t="n">
-        <v>10865.91</v>
+        <v>10908.36</v>
       </c>
       <c r="D266" t="n">
-        <v>10770.32</v>
+        <v>10814.54</v>
       </c>
       <c r="E266" t="n">
-        <v>10809.35</v>
+        <v>10831.41</v>
       </c>
       <c r="G266" s="3">
         <f>AVERAGE(E262:E266)</f>
@@ -9195,16 +9195,16 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>10847.17</v>
+        <v>10857.1</v>
       </c>
       <c r="C267" t="n">
-        <v>10916.69</v>
+        <v>10972.41</v>
       </c>
       <c r="D267" t="n">
-        <v>10847.17</v>
+        <v>10835.84</v>
       </c>
       <c r="E267" t="n">
-        <v>10902.21</v>
+        <v>10972.41</v>
       </c>
       <c r="G267" s="3">
         <f>AVERAGE(E263:E267)</f>
@@ -9224,16 +9224,16 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>10946.33</v>
+        <v>10959.56</v>
       </c>
       <c r="C268" t="n">
-        <v>11005.55</v>
+        <v>11003.49</v>
       </c>
       <c r="D268" t="n">
-        <v>10946.33</v>
+        <v>10941.77</v>
       </c>
       <c r="E268" t="n">
-        <v>10989.55</v>
+        <v>10978.85</v>
       </c>
       <c r="G268" s="3">
         <f>AVERAGE(E264:E268)</f>
@@ -9253,16 +9253,16 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>11029.12</v>
+        <v>10974.08</v>
       </c>
       <c r="C269" t="n">
-        <v>11099.57</v>
+        <v>11007.35</v>
       </c>
       <c r="D269" t="n">
-        <v>11029.11</v>
+        <v>10947.29</v>
       </c>
       <c r="E269" t="n">
-        <v>11099.57</v>
+        <v>10974.19</v>
       </c>
       <c r="G269" s="3">
         <f>AVERAGE(E265:E269)</f>
@@ -9282,16 +9282,16 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>11153.97</v>
+        <v>10973.77</v>
       </c>
       <c r="C270" t="n">
-        <v>11186.05</v>
+        <v>11051.09</v>
       </c>
       <c r="D270" t="n">
-        <v>11080.07</v>
+        <v>10961.27</v>
       </c>
       <c r="E270" t="n">
-        <v>11093.75</v>
+        <v>11034.19</v>
       </c>
       <c r="G270" s="3">
         <f>AVERAGE(E266:E270)</f>
@@ -9311,16 +9311,16 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>11037.26</v>
+        <v>11050.09</v>
       </c>
       <c r="C271" t="n">
-        <v>11063.94</v>
+        <v>11073.95</v>
       </c>
       <c r="D271" t="n">
-        <v>10987.68</v>
+        <v>10966.96</v>
       </c>
       <c r="E271" t="n">
-        <v>11063.94</v>
+        <v>11006.34</v>
       </c>
       <c r="G271" s="3">
         <f>AVERAGE(E267:E271)</f>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TWSE_IDX" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,72 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2017/08/28</t>
-  </si>
-  <si>
-    <t>2017/08/29</t>
-  </si>
-  <si>
-    <t>2017/08/30</t>
-  </si>
-  <si>
-    <t>2017/08/31</t>
-  </si>
-  <si>
-    <t>2017/09/01</t>
-  </si>
-  <si>
-    <t>2017/09/04</t>
-  </si>
-  <si>
-    <t>2017/09/05</t>
-  </si>
-  <si>
-    <t>2017/09/06</t>
-  </si>
-  <si>
-    <t>2017/09/07</t>
-  </si>
-  <si>
-    <t>2017/09/08</t>
-  </si>
-  <si>
-    <t>2017/09/11</t>
-  </si>
-  <si>
-    <t>2017/09/12</t>
-  </si>
-  <si>
-    <t>2017/09/13</t>
-  </si>
-  <si>
-    <t>2017/09/14</t>
-  </si>
-  <si>
-    <t>2017/09/15</t>
-  </si>
-  <si>
-    <t>2017/09/18</t>
-  </si>
-  <si>
-    <t>2017/09/19</t>
-  </si>
-  <si>
-    <t>2017/09/20</t>
-  </si>
-  <si>
-    <t>2017/09/21</t>
-  </si>
-  <si>
-    <t>2017/09/22</t>
-  </si>
-  <si>
-    <t>2017/09/25</t>
-  </si>
-  <si>
-    <t>2017/09/26</t>
-  </si>
-  <si>
     <t>2017/09/27</t>
   </si>
   <si>
@@ -848,13 +782,81 @@
   </si>
   <si>
     <t>2018/09/28</t>
+  </si>
+  <si>
+    <t>2018/10/01</t>
+  </si>
+  <si>
+    <t>2018/10/02</t>
+  </si>
+  <si>
+    <t>2018/10/03</t>
+  </si>
+  <si>
+    <t>2018/10/04</t>
+  </si>
+  <si>
+    <t>2018/10/05</t>
+  </si>
+  <si>
+    <t>2018/10/08</t>
+  </si>
+  <si>
+    <t>2018/10/09</t>
+  </si>
+  <si>
+    <t>2018/10/11</t>
+  </si>
+  <si>
+    <t>2018/10/12</t>
+  </si>
+  <si>
+    <t>2018/10/15</t>
+  </si>
+  <si>
+    <t>2018/10/16</t>
+  </si>
+  <si>
+    <t>2018/10/17</t>
+  </si>
+  <si>
+    <t>2018/10/18</t>
+  </si>
+  <si>
+    <t>2018/10/19</t>
+  </si>
+  <si>
+    <t>2018/10/22</t>
+  </si>
+  <si>
+    <t>2018/10/23</t>
+  </si>
+  <si>
+    <t>2018/10/24</t>
+  </si>
+  <si>
+    <t>2018/10/25</t>
+  </si>
+  <si>
+    <t>2018/10/26</t>
+  </si>
+  <si>
+    <t>2018/10/29</t>
+  </si>
+  <si>
+    <t>2018/10/30</t>
+  </si>
+  <si>
+    <t>2018/10/31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="0.00" numFmtId="164"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -905,13 +907,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1345,17 +1346,6 @@
         <axId val="10"/>
         <axId val="100"/>
       </stockChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
       <valAx>
         <axId val="20"/>
         <scaling>
@@ -1363,8 +1353,6 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
         <crossAx val="10"/>
         <crosses val="max"/>
       </valAx>
@@ -1386,12 +1374,18 @@
             </rich>
           </tx>
         </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
     </plotArea>
-    <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
 </chartSpace>
@@ -1723,7 +1717,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="15.7109375"/>
     <col customWidth="1" max="5" min="2" width="11.7109375"/>
-    <col customWidth="1" max="9" min="7" style="3" width="11.7109375"/>
+    <col customWidth="1" max="9" min="7" style="1" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1758,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10502.8</v>
+        <v>10322.44</v>
       </c>
       <c r="C2" t="n">
-        <v>10542.37</v>
+        <v>10357.23</v>
       </c>
       <c r="D2" t="n">
-        <v>10498.88</v>
+        <v>10315.97</v>
       </c>
       <c r="E2" t="n">
-        <v>10525.98</v>
+        <v>10326.68</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1775,16 +1769,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>10518.69</v>
+        <v>10351.42</v>
       </c>
       <c r="C3" t="n">
-        <v>10518.69</v>
+        <v>10365.59</v>
       </c>
       <c r="D3" t="n">
-        <v>10463.22</v>
+        <v>10288.24</v>
       </c>
       <c r="E3" t="n">
-        <v>10496.57</v>
+        <v>10296.45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1792,16 +1786,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10511.59</v>
+        <v>10319.69</v>
       </c>
       <c r="C4" t="n">
-        <v>10574.53</v>
+        <v>10338.95</v>
       </c>
       <c r="D4" t="n">
-        <v>10511.59</v>
+        <v>10273.6</v>
       </c>
       <c r="E4" t="n">
-        <v>10569.4</v>
+        <v>10329.94</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1809,16 +1803,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>10586.65</v>
+        <v>10362.55</v>
       </c>
       <c r="C5" t="n">
-        <v>10609.48</v>
+        <v>10400.4</v>
       </c>
       <c r="D5" t="n">
-        <v>10551.95</v>
+        <v>10362.55</v>
       </c>
       <c r="E5" t="n">
-        <v>10585.78</v>
+        <v>10383.94</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1826,18 +1820,18 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>10576.27</v>
+        <v>10425.1</v>
       </c>
       <c r="C6" t="n">
-        <v>10619.52</v>
+        <v>10472.81</v>
       </c>
       <c r="D6" t="n">
-        <v>10568.72</v>
+        <v>10414.53</v>
       </c>
       <c r="E6" t="n">
-        <v>10594.82</v>
-      </c>
-      <c r="G6" s="3">
+        <v>10465.16</v>
+      </c>
+      <c r="G6" s="1">
         <f>AVERAGE(E2:E6)</f>
         <v/>
       </c>
@@ -1847,18 +1841,18 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>10585.44</v>
+        <v>10462.7</v>
       </c>
       <c r="C7" t="n">
-        <v>10610.04</v>
+        <v>10495.34</v>
       </c>
       <c r="D7" t="n">
-        <v>10555.34</v>
+        <v>10445.86</v>
       </c>
       <c r="E7" t="n">
-        <v>10569.87</v>
-      </c>
-      <c r="G7" s="3">
+        <v>10469.35</v>
+      </c>
+      <c r="G7" s="1">
         <f>AVERAGE(E3:E7)</f>
         <v/>
       </c>
@@ -1868,18 +1862,18 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10584.1</v>
+        <v>10473.28</v>
       </c>
       <c r="C8" t="n">
-        <v>10617.84</v>
+        <v>10530.93</v>
       </c>
       <c r="D8" t="n">
-        <v>10564.26</v>
+        <v>10473.28</v>
       </c>
       <c r="E8" t="n">
-        <v>10617.84</v>
-      </c>
-      <c r="G8" s="3">
+        <v>10518.27</v>
+      </c>
+      <c r="G8" s="1">
         <f>AVERAGE(E4:E8)</f>
         <v/>
       </c>
@@ -1889,18 +1883,18 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>10593.87</v>
+        <v>10538.21</v>
       </c>
       <c r="C9" t="n">
-        <v>10604.92</v>
+        <v>10557.67</v>
       </c>
       <c r="D9" t="n">
-        <v>10519.71</v>
+        <v>10511.5</v>
       </c>
       <c r="E9" t="n">
-        <v>10547.86</v>
-      </c>
-      <c r="G9" s="3">
+        <v>10532.81</v>
+      </c>
+      <c r="G9" s="1">
         <f>AVERAGE(E5:E9)</f>
         <v/>
       </c>
@@ -1910,18 +1904,18 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>10564.79</v>
+        <v>10576.12</v>
       </c>
       <c r="C10" t="n">
-        <v>10604.02</v>
+        <v>10668.49</v>
       </c>
       <c r="D10" t="n">
-        <v>10509.91</v>
+        <v>10576.12</v>
       </c>
       <c r="E10" t="n">
-        <v>10538.51</v>
-      </c>
-      <c r="G10" s="3">
+        <v>10641.19</v>
+      </c>
+      <c r="G10" s="1">
         <f>AVERAGE(E6:E10)</f>
         <v/>
       </c>
@@ -1931,18 +1925,18 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>10553.9</v>
+        <v>10668.39</v>
       </c>
       <c r="C11" t="n">
-        <v>10609.95</v>
+        <v>10711.44</v>
       </c>
       <c r="D11" t="n">
-        <v>10550.72</v>
+        <v>10668.39</v>
       </c>
       <c r="E11" t="n">
-        <v>10609.95</v>
-      </c>
-      <c r="G11" s="3">
+        <v>10711.44</v>
+      </c>
+      <c r="G11" s="1">
         <f>AVERAGE(E7:E11)</f>
         <v/>
       </c>
@@ -1952,18 +1946,18 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>10630.16</v>
+        <v>10712.48</v>
       </c>
       <c r="C12" t="n">
-        <v>10656.25</v>
+        <v>10724.09</v>
       </c>
       <c r="D12" t="n">
-        <v>10565.78</v>
+        <v>10675.83</v>
       </c>
       <c r="E12" t="n">
-        <v>10572.16</v>
-      </c>
-      <c r="G12" s="3">
+        <v>10724.09</v>
+      </c>
+      <c r="G12" s="1">
         <f>AVERAGE(E8:E12)</f>
         <v/>
       </c>
@@ -1973,18 +1967,18 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>10610.33</v>
+        <v>10735.14</v>
       </c>
       <c r="C13" t="n">
-        <v>10646.55</v>
+        <v>10774.21</v>
       </c>
       <c r="D13" t="n">
-        <v>10586.28</v>
+        <v>10723.37</v>
       </c>
       <c r="E13" t="n">
-        <v>10610.35</v>
-      </c>
-      <c r="G13" s="3">
+        <v>10774.21</v>
+      </c>
+      <c r="G13" s="1">
         <f>AVERAGE(E9:E13)</f>
         <v/>
       </c>
@@ -1994,18 +1988,18 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>10596.36</v>
+        <v>10790.35</v>
       </c>
       <c r="C14" t="n">
-        <v>10620.31</v>
+        <v>10798.52</v>
       </c>
       <c r="D14" t="n">
-        <v>10532.88</v>
+        <v>10723.15</v>
       </c>
       <c r="E14" t="n">
-        <v>10532.88</v>
-      </c>
-      <c r="G14" s="3">
+        <v>10723.15</v>
+      </c>
+      <c r="G14" s="1">
         <f>AVERAGE(E10:E14)</f>
         <v/>
       </c>
@@ -2015,18 +2009,18 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>10533.99</v>
+        <v>10773.85</v>
       </c>
       <c r="C15" t="n">
-        <v>10572.71</v>
+        <v>10790.31</v>
       </c>
       <c r="D15" t="n">
-        <v>10508.72</v>
+        <v>10684.32</v>
       </c>
       <c r="E15" t="n">
-        <v>10553.57</v>
-      </c>
-      <c r="G15" s="3">
+        <v>10720.28</v>
+      </c>
+      <c r="G15" s="1">
         <f>AVERAGE(E11:E15)</f>
         <v/>
       </c>
@@ -2036,18 +2030,18 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>10556.82</v>
+        <v>10745.77</v>
       </c>
       <c r="C16" t="n">
-        <v>10580.78</v>
+        <v>10798.54</v>
       </c>
       <c r="D16" t="n">
-        <v>10520.15</v>
+        <v>10745.77</v>
       </c>
       <c r="E16" t="n">
-        <v>10580.41</v>
-      </c>
-      <c r="G16" s="3">
+        <v>10760.29</v>
+      </c>
+      <c r="G16" s="1">
         <f>AVERAGE(E12:E16)</f>
         <v/>
       </c>
@@ -2057,18 +2051,18 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>10590.8</v>
+        <v>10737.87</v>
       </c>
       <c r="C17" t="n">
-        <v>10642.4</v>
+        <v>10753.77</v>
       </c>
       <c r="D17" t="n">
-        <v>10581.81</v>
+        <v>10702.56</v>
       </c>
       <c r="E17" t="n">
-        <v>10631.57</v>
-      </c>
-      <c r="G17" s="3">
+        <v>10728.88</v>
+      </c>
+      <c r="G17" s="1">
         <f>AVERAGE(E13:E17)</f>
         <v/>
       </c>
@@ -2078,18 +2072,18 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>10653.34</v>
+        <v>10759.47</v>
       </c>
       <c r="C18" t="n">
-        <v>10664.18</v>
+        <v>10792.27</v>
       </c>
       <c r="D18" t="n">
-        <v>10561.21</v>
+        <v>10731.9</v>
       </c>
       <c r="E18" t="n">
-        <v>10576.14</v>
-      </c>
-      <c r="G18" s="3">
+        <v>10735.21</v>
+      </c>
+      <c r="G18" s="1">
         <f>AVERAGE(E14:E18)</f>
         <v/>
       </c>
@@ -2099,18 +2093,18 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>10568.58</v>
+        <v>10749.9</v>
       </c>
       <c r="C19" t="n">
-        <v>10589.19</v>
+        <v>10766.64</v>
       </c>
       <c r="D19" t="n">
-        <v>10490.71</v>
+        <v>10726.25</v>
       </c>
       <c r="E19" t="n">
-        <v>10519.17</v>
-      </c>
-      <c r="G19" s="3">
+        <v>10743.78</v>
+      </c>
+      <c r="G19" s="1">
         <f>AVERAGE(E15:E19)</f>
         <v/>
       </c>
@@ -2120,18 +2114,18 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>10506.85</v>
+        <v>10771.4</v>
       </c>
       <c r="C20" t="n">
-        <v>10603.08</v>
+        <v>10794.55</v>
       </c>
       <c r="D20" t="n">
-        <v>10493.95</v>
+        <v>10740.07</v>
       </c>
       <c r="E20" t="n">
-        <v>10578.44</v>
-      </c>
-      <c r="G20" s="3">
+        <v>10750.57</v>
+      </c>
+      <c r="G20" s="1">
         <f>AVERAGE(E16:E20)</f>
         <v/>
       </c>
@@ -2141,18 +2135,18 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>10571.65</v>
+        <v>10735.35</v>
       </c>
       <c r="C21" t="n">
-        <v>10579.02</v>
+        <v>10756.51</v>
       </c>
       <c r="D21" t="n">
-        <v>10446.45</v>
+        <v>10716.52</v>
       </c>
       <c r="E21" t="n">
-        <v>10449.68</v>
-      </c>
-      <c r="G21" s="3">
+        <v>10734.76</v>
+      </c>
+      <c r="G21" s="1">
         <f>AVERAGE(E17:E21)</f>
         <v/>
       </c>
@@ -2162,18 +2156,18 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>10442.05</v>
+        <v>10757.35</v>
       </c>
       <c r="C22" t="n">
-        <v>10447.09</v>
+        <v>10803.6</v>
       </c>
       <c r="D22" t="n">
-        <v>10322.1</v>
+        <v>10701.08</v>
       </c>
       <c r="E22" t="n">
-        <v>10335.89</v>
-      </c>
-      <c r="G22" s="3">
+        <v>10709.11</v>
+      </c>
+      <c r="G22" s="1">
         <f>AVERAGE(E18:E22)</f>
         <v/>
       </c>
@@ -2183,18 +2177,18 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>10333.44</v>
+        <v>10777.6</v>
       </c>
       <c r="C23" t="n">
-        <v>10374.54</v>
+        <v>10842.25</v>
       </c>
       <c r="D23" t="n">
-        <v>10257.02</v>
+        <v>10743.13</v>
       </c>
       <c r="E23" t="n">
-        <v>10257.02</v>
-      </c>
-      <c r="G23" s="3">
+        <v>10756.87</v>
+      </c>
+      <c r="G23" s="1">
         <f>AVERAGE(E19:E23)</f>
         <v/>
       </c>
@@ -2204,18 +2198,18 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>10322.44</v>
+        <v>10768.9</v>
       </c>
       <c r="C24" t="n">
-        <v>10357.23</v>
+        <v>10829.33</v>
       </c>
       <c r="D24" t="n">
-        <v>10315.97</v>
+        <v>10747.37</v>
       </c>
       <c r="E24" t="n">
-        <v>10326.68</v>
-      </c>
-      <c r="G24" s="3">
+        <v>10793.8</v>
+      </c>
+      <c r="G24" s="1">
         <f>AVERAGE(E20:E24)</f>
         <v/>
       </c>
@@ -2225,18 +2219,18 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>10351.42</v>
+        <v>10816.04</v>
       </c>
       <c r="C25" t="n">
-        <v>10365.59</v>
+        <v>10843.41</v>
       </c>
       <c r="D25" t="n">
-        <v>10288.24</v>
+        <v>10785.32</v>
       </c>
       <c r="E25" t="n">
-        <v>10296.45</v>
-      </c>
-      <c r="G25" s="3">
+        <v>10806.36</v>
+      </c>
+      <c r="G25" s="1">
         <f>AVERAGE(E21:E25)</f>
         <v/>
       </c>
@@ -2246,18 +2240,18 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10319.69</v>
+        <v>10797.63</v>
       </c>
       <c r="C26" t="n">
-        <v>10338.95</v>
+        <v>10827.67</v>
       </c>
       <c r="D26" t="n">
-        <v>10273.6</v>
+        <v>10788.51</v>
       </c>
       <c r="E26" t="n">
-        <v>10329.94</v>
-      </c>
-      <c r="G26" s="3">
+        <v>10788.51</v>
+      </c>
+      <c r="G26" s="1">
         <f>AVERAGE(E22:E26)</f>
         <v/>
       </c>
@@ -2267,18 +2261,18 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>10362.55</v>
+        <v>10797.91</v>
       </c>
       <c r="C27" t="n">
-        <v>10400.4</v>
+        <v>10835.7</v>
       </c>
       <c r="D27" t="n">
-        <v>10362.55</v>
+        <v>10765.31</v>
       </c>
       <c r="E27" t="n">
-        <v>10383.94</v>
-      </c>
-      <c r="G27" s="3">
+        <v>10800.77</v>
+      </c>
+      <c r="G27" s="1">
         <f>AVERAGE(E23:E27)</f>
         <v/>
       </c>
@@ -2288,18 +2282,18 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10425.1</v>
+        <v>10856.56</v>
       </c>
       <c r="C28" t="n">
-        <v>10472.81</v>
+        <v>10858.5</v>
       </c>
       <c r="D28" t="n">
-        <v>10414.53</v>
+        <v>10769.19</v>
       </c>
       <c r="E28" t="n">
-        <v>10465.16</v>
-      </c>
-      <c r="G28" s="3">
+        <v>10786.19</v>
+      </c>
+      <c r="G28" s="1">
         <f>AVERAGE(E24:E28)</f>
         <v/>
       </c>
@@ -2309,18 +2303,18 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10462.7</v>
+        <v>10820.83</v>
       </c>
       <c r="C29" t="n">
-        <v>10495.34</v>
+        <v>10842.61</v>
       </c>
       <c r="D29" t="n">
-        <v>10445.86</v>
+        <v>10807.89</v>
       </c>
       <c r="E29" t="n">
-        <v>10469.35</v>
-      </c>
-      <c r="G29" s="3">
+        <v>10840.34</v>
+      </c>
+      <c r="G29" s="1">
         <f>AVERAGE(E25:E29)</f>
         <v/>
       </c>
@@ -2330,18 +2324,18 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10473.28</v>
+        <v>10839.44</v>
       </c>
       <c r="C30" t="n">
-        <v>10530.93</v>
+        <v>10844.74</v>
       </c>
       <c r="D30" t="n">
-        <v>10473.28</v>
+        <v>10806.01</v>
       </c>
       <c r="E30" t="n">
-        <v>10518.27</v>
-      </c>
-      <c r="G30" s="3">
+        <v>10818.99</v>
+      </c>
+      <c r="G30" s="1">
         <f>AVERAGE(E26:E30)</f>
         <v/>
       </c>
@@ -2351,26 +2345,26 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10538.21</v>
+        <v>10802.95</v>
       </c>
       <c r="C31" t="n">
-        <v>10557.67</v>
+        <v>10831.38</v>
       </c>
       <c r="D31" t="n">
-        <v>10511.5</v>
+        <v>10721.87</v>
       </c>
       <c r="E31" t="n">
-        <v>10532.81</v>
-      </c>
-      <c r="G31" s="3">
+        <v>10743.27</v>
+      </c>
+      <c r="G31" s="1">
         <f>AVERAGE(E27:E31)</f>
         <v/>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="1">
         <f>AVERAGE(E2:E31)</f>
         <v/>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="1">
         <f>G31-H31</f>
         <v/>
       </c>
@@ -2380,26 +2374,26 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10576.12</v>
+        <v>10713.67</v>
       </c>
       <c r="C32" t="n">
-        <v>10668.49</v>
+        <v>10742.61</v>
       </c>
       <c r="D32" t="n">
-        <v>10576.12</v>
+        <v>10659.29</v>
       </c>
       <c r="E32" t="n">
-        <v>10641.19</v>
-      </c>
-      <c r="G32" s="3">
+        <v>10732.67</v>
+      </c>
+      <c r="G32" s="1">
         <f>AVERAGE(E28:E32)</f>
         <v/>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="1">
         <f>AVERAGE(E3:E32)</f>
         <v/>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="1">
         <f>G32-H32</f>
         <v/>
       </c>
@@ -2409,26 +2403,26 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10668.39</v>
+        <v>10728.22</v>
       </c>
       <c r="C33" t="n">
-        <v>10711.44</v>
+        <v>10749.39</v>
       </c>
       <c r="D33" t="n">
-        <v>10668.39</v>
+        <v>10683.92</v>
       </c>
       <c r="E33" t="n">
-        <v>10711.44</v>
-      </c>
-      <c r="G33" s="3">
+        <v>10683.92</v>
+      </c>
+      <c r="G33" s="1">
         <f>AVERAGE(E29:E33)</f>
         <v/>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <f>AVERAGE(E4:E33)</f>
         <v/>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <f>G33-H33</f>
         <v/>
       </c>
@@ -2438,26 +2432,26 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>10712.48</v>
+        <v>10716.59</v>
       </c>
       <c r="C34" t="n">
-        <v>10724.09</v>
+        <v>10735.08</v>
       </c>
       <c r="D34" t="n">
-        <v>10675.83</v>
+        <v>10654.58</v>
       </c>
       <c r="E34" t="n">
-        <v>10724.09</v>
-      </c>
-      <c r="G34" s="3">
+        <v>10687.18</v>
+      </c>
+      <c r="G34" s="1">
         <f>AVERAGE(E30:E34)</f>
         <v/>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <f>AVERAGE(E5:E34)</f>
         <v/>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <f>G34-H34</f>
         <v/>
       </c>
@@ -2467,26 +2461,26 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10735.14</v>
+        <v>10662.08</v>
       </c>
       <c r="C35" t="n">
-        <v>10774.21</v>
+        <v>10669.59</v>
       </c>
       <c r="D35" t="n">
-        <v>10723.37</v>
+        <v>10600.26</v>
       </c>
       <c r="E35" t="n">
-        <v>10774.21</v>
-      </c>
-      <c r="G35" s="3">
+        <v>10630.65</v>
+      </c>
+      <c r="G35" s="1">
         <f>AVERAGE(E31:E35)</f>
         <v/>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="1">
         <f>AVERAGE(E6:E35)</f>
         <v/>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <f>G35-H35</f>
         <v/>
       </c>
@@ -2496,26 +2490,26 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10790.35</v>
+        <v>10629.16</v>
       </c>
       <c r="C36" t="n">
-        <v>10798.52</v>
+        <v>10666.66</v>
       </c>
       <c r="D36" t="n">
-        <v>10723.15</v>
+        <v>10609.23</v>
       </c>
       <c r="E36" t="n">
-        <v>10723.15</v>
-      </c>
-      <c r="G36" s="3">
+        <v>10625.04</v>
+      </c>
+      <c r="G36" s="1">
         <f>AVERAGE(E32:E36)</f>
         <v/>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="1">
         <f>AVERAGE(E7:E36)</f>
         <v/>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <f>G36-H36</f>
         <v/>
       </c>
@@ -2525,26 +2519,26 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>10773.85</v>
+        <v>10673.43</v>
       </c>
       <c r="C37" t="n">
-        <v>10790.31</v>
+        <v>10729.45</v>
       </c>
       <c r="D37" t="n">
-        <v>10684.32</v>
+        <v>10673.43</v>
       </c>
       <c r="E37" t="n">
-        <v>10720.28</v>
-      </c>
-      <c r="G37" s="3">
+        <v>10701.64</v>
+      </c>
+      <c r="G37" s="1">
         <f>AVERAGE(E33:E37)</f>
         <v/>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="1">
         <f>AVERAGE(E8:E37)</f>
         <v/>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <f>G37-H37</f>
         <v/>
       </c>
@@ -2554,26 +2548,26 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>10745.77</v>
+        <v>10706.79</v>
       </c>
       <c r="C38" t="n">
-        <v>10798.54</v>
+        <v>10728.39</v>
       </c>
       <c r="D38" t="n">
-        <v>10745.77</v>
+        <v>10656.18</v>
       </c>
       <c r="E38" t="n">
-        <v>10760.29</v>
-      </c>
-      <c r="G38" s="3">
+        <v>10664.55</v>
+      </c>
+      <c r="G38" s="1">
         <f>AVERAGE(E34:E38)</f>
         <v/>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <f>AVERAGE(E9:E38)</f>
         <v/>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <f>G38-H38</f>
         <v/>
       </c>
@@ -2583,26 +2577,26 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10737.87</v>
+        <v>10688.22</v>
       </c>
       <c r="C39" t="n">
-        <v>10753.77</v>
+        <v>10787.58</v>
       </c>
       <c r="D39" t="n">
-        <v>10702.56</v>
+        <v>10687.26</v>
       </c>
       <c r="E39" t="n">
-        <v>10728.88</v>
-      </c>
-      <c r="G39" s="3">
+        <v>10779.24</v>
+      </c>
+      <c r="G39" s="1">
         <f>AVERAGE(E35:E39)</f>
         <v/>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="1">
         <f>AVERAGE(E10:E39)</f>
         <v/>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <f>G39-H39</f>
         <v/>
       </c>
@@ -2612,26 +2606,26 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>10759.47</v>
+        <v>10815.4</v>
       </c>
       <c r="C40" t="n">
-        <v>10792.27</v>
+        <v>10882.65</v>
       </c>
       <c r="D40" t="n">
-        <v>10731.9</v>
+        <v>10801.1</v>
       </c>
       <c r="E40" t="n">
-        <v>10735.21</v>
-      </c>
-      <c r="G40" s="3">
+        <v>10822.59</v>
+      </c>
+      <c r="G40" s="1">
         <f>AVERAGE(E36:E40)</f>
         <v/>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="1">
         <f>AVERAGE(E11:E40)</f>
         <v/>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="1">
         <f>G40-H40</f>
         <v/>
       </c>
@@ -2641,26 +2635,26 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10749.9</v>
+        <v>10837.61</v>
       </c>
       <c r="C41" t="n">
-        <v>10766.64</v>
+        <v>10872.29</v>
       </c>
       <c r="D41" t="n">
-        <v>10726.25</v>
+        <v>10809.09</v>
       </c>
       <c r="E41" t="n">
-        <v>10743.78</v>
-      </c>
-      <c r="G41" s="3">
+        <v>10854.57</v>
+      </c>
+      <c r="G41" s="1">
         <f>AVERAGE(E37:E41)</f>
         <v/>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="1">
         <f>AVERAGE(E12:E41)</f>
         <v/>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="1">
         <f>G41-H41</f>
         <v/>
       </c>
@@ -2670,26 +2664,26 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10771.4</v>
+        <v>10847.79</v>
       </c>
       <c r="C42" t="n">
-        <v>10794.55</v>
+        <v>10873.91</v>
       </c>
       <c r="D42" t="n">
-        <v>10740.07</v>
+        <v>10833.78</v>
       </c>
       <c r="E42" t="n">
-        <v>10750.57</v>
-      </c>
-      <c r="G42" s="3">
+        <v>10854.09</v>
+      </c>
+      <c r="G42" s="1">
         <f>AVERAGE(E38:E42)</f>
         <v/>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="1">
         <f>AVERAGE(E13:E42)</f>
         <v/>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="1">
         <f>G42-H42</f>
         <v/>
       </c>
@@ -2699,26 +2693,26 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10735.35</v>
+        <v>10836.82</v>
       </c>
       <c r="C43" t="n">
-        <v>10756.51</v>
+        <v>10856</v>
       </c>
       <c r="D43" t="n">
-        <v>10716.52</v>
+        <v>10746.74</v>
       </c>
       <c r="E43" t="n">
-        <v>10734.76</v>
-      </c>
-      <c r="G43" s="3">
+        <v>10750.93</v>
+      </c>
+      <c r="G43" s="1">
         <f>AVERAGE(E39:E43)</f>
         <v/>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="1">
         <f>AVERAGE(E14:E43)</f>
         <v/>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="1">
         <f>G43-H43</f>
         <v/>
       </c>
@@ -2728,26 +2722,26 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10757.35</v>
+        <v>10733.56</v>
       </c>
       <c r="C44" t="n">
-        <v>10803.6</v>
+        <v>10752.58</v>
       </c>
       <c r="D44" t="n">
-        <v>10701.08</v>
+        <v>10692.53</v>
       </c>
       <c r="E44" t="n">
-        <v>10709.11</v>
-      </c>
-      <c r="G44" s="3">
+        <v>10707.07</v>
+      </c>
+      <c r="G44" s="1">
         <f>AVERAGE(E40:E44)</f>
         <v/>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="1">
         <f>AVERAGE(E15:E44)</f>
         <v/>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="1">
         <f>G44-H44</f>
         <v/>
       </c>
@@ -2757,26 +2751,26 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10777.6</v>
+        <v>10735.24</v>
       </c>
       <c r="C45" t="n">
-        <v>10842.25</v>
+        <v>10762.91</v>
       </c>
       <c r="D45" t="n">
-        <v>10743.13</v>
+        <v>10697.62</v>
       </c>
       <c r="E45" t="n">
-        <v>10756.87</v>
-      </c>
-      <c r="G45" s="3">
+        <v>10713.55</v>
+      </c>
+      <c r="G45" s="1">
         <f>AVERAGE(E41:E45)</f>
         <v/>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="1">
         <f>AVERAGE(E16:E45)</f>
         <v/>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="1">
         <f>G45-H45</f>
         <v/>
       </c>
@@ -2786,26 +2780,26 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10768.9</v>
+        <v>10623.2</v>
       </c>
       <c r="C46" t="n">
-        <v>10829.33</v>
+        <v>10650.18</v>
       </c>
       <c r="D46" t="n">
-        <v>10747.37</v>
+        <v>10560.44</v>
       </c>
       <c r="E46" t="n">
-        <v>10793.8</v>
-      </c>
-      <c r="G46" s="3">
+        <v>10560.44</v>
+      </c>
+      <c r="G46" s="1">
         <f>AVERAGE(E42:E46)</f>
         <v/>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="1">
         <f>AVERAGE(E17:E46)</f>
         <v/>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="1">
         <f>G46-H46</f>
         <v/>
       </c>
@@ -2815,26 +2809,26 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10816.04</v>
+        <v>10591.62</v>
       </c>
       <c r="C47" t="n">
-        <v>10843.41</v>
+        <v>10665.92</v>
       </c>
       <c r="D47" t="n">
-        <v>10785.32</v>
+        <v>10495.15</v>
       </c>
       <c r="E47" t="n">
-        <v>10806.36</v>
-      </c>
-      <c r="G47" s="3">
+        <v>10600.37</v>
+      </c>
+      <c r="G47" s="1">
         <f>AVERAGE(E43:E47)</f>
         <v/>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="1">
         <f>AVERAGE(E18:E47)</f>
         <v/>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="1">
         <f>G47-H47</f>
         <v/>
       </c>
@@ -2844,26 +2838,26 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>10797.63</v>
+        <v>10617.27</v>
       </c>
       <c r="C48" t="n">
-        <v>10827.67</v>
+        <v>10665.43</v>
       </c>
       <c r="D48" t="n">
-        <v>10788.51</v>
+        <v>10565.68</v>
       </c>
       <c r="E48" t="n">
-        <v>10788.51</v>
-      </c>
-      <c r="G48" s="3">
+        <v>10651.11</v>
+      </c>
+      <c r="G48" s="1">
         <f>AVERAGE(E44:E48)</f>
         <v/>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="1">
         <f>AVERAGE(E19:E48)</f>
         <v/>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="1">
         <f>G48-H48</f>
         <v/>
       </c>
@@ -2873,26 +2867,26 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10797.91</v>
+        <v>10607.62</v>
       </c>
       <c r="C49" t="n">
-        <v>10835.7</v>
+        <v>10635.71</v>
       </c>
       <c r="D49" t="n">
-        <v>10765.31</v>
+        <v>10540.74</v>
       </c>
       <c r="E49" t="n">
-        <v>10800.77</v>
-      </c>
-      <c r="G49" s="3">
+        <v>10566.85</v>
+      </c>
+      <c r="G49" s="1">
         <f>AVERAGE(E45:E49)</f>
         <v/>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="1">
         <f>AVERAGE(E20:E49)</f>
         <v/>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="1">
         <f>G49-H49</f>
         <v/>
       </c>
@@ -2902,26 +2896,26 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10856.56</v>
+        <v>10541.03</v>
       </c>
       <c r="C50" t="n">
-        <v>10858.5</v>
+        <v>10541.03</v>
       </c>
       <c r="D50" t="n">
-        <v>10769.19</v>
+        <v>10376.65</v>
       </c>
       <c r="E50" t="n">
-        <v>10786.19</v>
-      </c>
-      <c r="G50" s="3">
+        <v>10393.92</v>
+      </c>
+      <c r="G50" s="1">
         <f>AVERAGE(E46:E50)</f>
         <v/>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="1">
         <f>AVERAGE(E21:E50)</f>
         <v/>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="1">
         <f>G50-H50</f>
         <v/>
       </c>
@@ -2931,26 +2925,26 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10820.83</v>
+        <v>10404.42</v>
       </c>
       <c r="C51" t="n">
-        <v>10842.61</v>
+        <v>10418.97</v>
       </c>
       <c r="D51" t="n">
-        <v>10807.89</v>
+        <v>10322.76</v>
       </c>
       <c r="E51" t="n">
-        <v>10840.34</v>
-      </c>
-      <c r="G51" s="3">
+        <v>10355.76</v>
+      </c>
+      <c r="G51" s="1">
         <f>AVERAGE(E47:E51)</f>
         <v/>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="1">
         <f>AVERAGE(E22:E51)</f>
         <v/>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <f>G51-H51</f>
         <v/>
       </c>
@@ -2960,26 +2954,26 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10839.44</v>
+        <v>10406.35</v>
       </c>
       <c r="C52" t="n">
-        <v>10844.74</v>
+        <v>10419.28</v>
       </c>
       <c r="D52" t="n">
-        <v>10806.01</v>
+        <v>10336.26</v>
       </c>
       <c r="E52" t="n">
-        <v>10818.99</v>
-      </c>
-      <c r="G52" s="3">
+        <v>10398.62</v>
+      </c>
+      <c r="G52" s="1">
         <f>AVERAGE(E48:E52)</f>
         <v/>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="1">
         <f>AVERAGE(E23:E52)</f>
         <v/>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="1">
         <f>G52-H52</f>
         <v/>
       </c>
@@ -2989,26 +2983,26 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10802.95</v>
+        <v>10438.33</v>
       </c>
       <c r="C53" t="n">
-        <v>10831.38</v>
+        <v>10504.67</v>
       </c>
       <c r="D53" t="n">
-        <v>10721.87</v>
+        <v>10438.33</v>
       </c>
       <c r="E53" t="n">
-        <v>10743.27</v>
-      </c>
-      <c r="G53" s="3">
+        <v>10473.09</v>
+      </c>
+      <c r="G53" s="1">
         <f>AVERAGE(E49:E53)</f>
         <v/>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="1">
         <f>AVERAGE(E24:E53)</f>
         <v/>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="1">
         <f>G53-H53</f>
         <v/>
       </c>
@@ -3018,26 +3012,26 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10713.67</v>
+        <v>10488.73</v>
       </c>
       <c r="C54" t="n">
-        <v>10742.61</v>
+        <v>10495.24</v>
       </c>
       <c r="D54" t="n">
-        <v>10659.29</v>
+        <v>10408.06</v>
       </c>
       <c r="E54" t="n">
-        <v>10732.67</v>
-      </c>
-      <c r="G54" s="3">
+        <v>10443.28</v>
+      </c>
+      <c r="G54" s="1">
         <f>AVERAGE(E50:E54)</f>
         <v/>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="1">
         <f>AVERAGE(E25:E54)</f>
         <v/>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="1">
         <f>G54-H54</f>
         <v/>
       </c>
@@ -3047,26 +3041,26 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10728.22</v>
+        <v>10447.11</v>
       </c>
       <c r="C55" t="n">
-        <v>10749.39</v>
+        <v>10489.17</v>
       </c>
       <c r="D55" t="n">
-        <v>10683.92</v>
+        <v>10444.7</v>
       </c>
       <c r="E55" t="n">
-        <v>10683.92</v>
-      </c>
-      <c r="G55" s="3">
+        <v>10470.7</v>
+      </c>
+      <c r="G55" s="1">
         <f>AVERAGE(E51:E55)</f>
         <v/>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="1">
         <f>AVERAGE(E26:E55)</f>
         <v/>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="1">
         <f>G55-H55</f>
         <v/>
       </c>
@@ -3076,26 +3070,26 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10716.59</v>
+        <v>10494.6</v>
       </c>
       <c r="C56" t="n">
-        <v>10735.08</v>
+        <v>10577.53</v>
       </c>
       <c r="D56" t="n">
-        <v>10654.58</v>
+        <v>10494.6</v>
       </c>
       <c r="E56" t="n">
-        <v>10687.18</v>
-      </c>
-      <c r="G56" s="3">
+        <v>10538.01</v>
+      </c>
+      <c r="G56" s="1">
         <f>AVERAGE(E52:E56)</f>
         <v/>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="1">
         <f>AVERAGE(E27:E56)</f>
         <v/>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="1">
         <f>G56-H56</f>
         <v/>
       </c>
@@ -3105,26 +3099,26 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10662.08</v>
+        <v>10517.21</v>
       </c>
       <c r="C57" t="n">
-        <v>10669.59</v>
+        <v>10520.66</v>
       </c>
       <c r="D57" t="n">
-        <v>10600.26</v>
+        <v>10436.11</v>
       </c>
       <c r="E57" t="n">
-        <v>10630.65</v>
-      </c>
-      <c r="G57" s="3">
+        <v>10491.44</v>
+      </c>
+      <c r="G57" s="1">
         <f>AVERAGE(E53:E57)</f>
         <v/>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="1">
         <f>AVERAGE(E28:E57)</f>
         <v/>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="1">
         <f>G57-H57</f>
         <v/>
       </c>
@@ -3134,26 +3128,26 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10629.16</v>
+        <v>10478.74</v>
       </c>
       <c r="C58" t="n">
-        <v>10666.66</v>
+        <v>10526.41</v>
       </c>
       <c r="D58" t="n">
-        <v>10609.23</v>
+        <v>10472.39</v>
       </c>
       <c r="E58" t="n">
-        <v>10625.04</v>
-      </c>
-      <c r="G58" s="3">
+        <v>10506.52</v>
+      </c>
+      <c r="G58" s="1">
         <f>AVERAGE(E54:E58)</f>
         <v/>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="1">
         <f>AVERAGE(E29:E58)</f>
         <v/>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="1">
         <f>G58-H58</f>
         <v/>
       </c>
@@ -3163,26 +3157,26 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10673.43</v>
+        <v>10508.33</v>
       </c>
       <c r="C59" t="n">
-        <v>10729.45</v>
+        <v>10544</v>
       </c>
       <c r="D59" t="n">
-        <v>10673.43</v>
+        <v>10452.08</v>
       </c>
       <c r="E59" t="n">
-        <v>10701.64</v>
-      </c>
-      <c r="G59" s="3">
+        <v>10467.34</v>
+      </c>
+      <c r="G59" s="1">
         <f>AVERAGE(E55:E59)</f>
         <v/>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="1">
         <f>AVERAGE(E30:E59)</f>
         <v/>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="1">
         <f>G59-H59</f>
         <v/>
       </c>
@@ -3192,26 +3186,26 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10706.79</v>
+        <v>10470.36</v>
       </c>
       <c r="C60" t="n">
-        <v>10728.39</v>
+        <v>10514.31</v>
       </c>
       <c r="D60" t="n">
-        <v>10656.18</v>
+        <v>10470.36</v>
       </c>
       <c r="E60" t="n">
-        <v>10664.55</v>
-      </c>
-      <c r="G60" s="3">
+        <v>10504.52</v>
+      </c>
+      <c r="G60" s="1">
         <f>AVERAGE(E56:E60)</f>
         <v/>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="1">
         <f>AVERAGE(E31:E60)</f>
         <v/>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="1">
         <f>G60-H60</f>
         <v/>
       </c>
@@ -3221,26 +3215,26 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10688.22</v>
+        <v>10526.97</v>
       </c>
       <c r="C61" t="n">
-        <v>10787.58</v>
+        <v>10545.78</v>
       </c>
       <c r="D61" t="n">
-        <v>10687.26</v>
+        <v>10488.97</v>
       </c>
       <c r="E61" t="n">
-        <v>10779.24</v>
-      </c>
-      <c r="G61" s="3">
+        <v>10488.97</v>
+      </c>
+      <c r="G61" s="1">
         <f>AVERAGE(E57:E61)</f>
         <v/>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="1">
         <f>AVERAGE(E32:E61)</f>
         <v/>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="1">
         <f>G61-H61</f>
         <v/>
       </c>
@@ -3250,26 +3244,26 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10815.4</v>
+        <v>10503.1</v>
       </c>
       <c r="C62" t="n">
-        <v>10882.65</v>
+        <v>10537.27</v>
       </c>
       <c r="D62" t="n">
-        <v>10801.1</v>
+        <v>10486.52</v>
       </c>
       <c r="E62" t="n">
-        <v>10822.59</v>
-      </c>
-      <c r="G62" s="3">
+        <v>10537.27</v>
+      </c>
+      <c r="G62" s="1">
         <f>AVERAGE(E58:E62)</f>
         <v/>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="1">
         <f>AVERAGE(E33:E62)</f>
         <v/>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="1">
         <f>G62-H62</f>
         <v/>
       </c>
@@ -3279,26 +3273,26 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10837.61</v>
+        <v>10546.64</v>
       </c>
       <c r="C63" t="n">
-        <v>10872.29</v>
+        <v>10556.65</v>
       </c>
       <c r="D63" t="n">
-        <v>10809.09</v>
+        <v>10514.54</v>
       </c>
       <c r="E63" t="n">
-        <v>10854.57</v>
-      </c>
-      <c r="G63" s="3">
+        <v>10522.49</v>
+      </c>
+      <c r="G63" s="1">
         <f>AVERAGE(E59:E63)</f>
         <v/>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="1">
         <f>AVERAGE(E34:E63)</f>
         <v/>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="1">
         <f>G63-H63</f>
         <v/>
       </c>
@@ -3308,26 +3302,26 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10847.79</v>
+        <v>10526.14</v>
       </c>
       <c r="C64" t="n">
-        <v>10873.91</v>
+        <v>10528.92</v>
       </c>
       <c r="D64" t="n">
-        <v>10833.78</v>
+        <v>10408.12</v>
       </c>
       <c r="E64" t="n">
-        <v>10854.09</v>
-      </c>
-      <c r="G64" s="3">
+        <v>10421.91</v>
+      </c>
+      <c r="G64" s="1">
         <f>AVERAGE(E60:E64)</f>
         <v/>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="1">
         <f>AVERAGE(E35:E64)</f>
         <v/>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="1">
         <f>G64-H64</f>
         <v/>
       </c>
@@ -3337,26 +3331,26 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10836.82</v>
+        <v>10419.81</v>
       </c>
       <c r="C65" t="n">
-        <v>10856</v>
+        <v>10497.77</v>
       </c>
       <c r="D65" t="n">
-        <v>10746.74</v>
+        <v>10419.81</v>
       </c>
       <c r="E65" t="n">
-        <v>10750.93</v>
-      </c>
-      <c r="G65" s="3">
+        <v>10486.67</v>
+      </c>
+      <c r="G65" s="1">
         <f>AVERAGE(E61:E65)</f>
         <v/>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="1">
         <f>AVERAGE(E36:E65)</f>
         <v/>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="1">
         <f>G65-H65</f>
         <v/>
       </c>
@@ -3366,26 +3360,26 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10733.56</v>
+        <v>10513.29</v>
       </c>
       <c r="C66" t="n">
-        <v>10752.58</v>
+        <v>10592.04</v>
       </c>
       <c r="D66" t="n">
-        <v>10692.53</v>
+        <v>10513.29</v>
       </c>
       <c r="E66" t="n">
-        <v>10707.07</v>
-      </c>
-      <c r="G66" s="3">
+        <v>10567.64</v>
+      </c>
+      <c r="G66" s="1">
         <f>AVERAGE(E62:E66)</f>
         <v/>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="1">
         <f>AVERAGE(E37:E66)</f>
         <v/>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="1">
         <f>G66-H66</f>
         <v/>
       </c>
@@ -3395,26 +3389,26 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10735.24</v>
+        <v>10590.95</v>
       </c>
       <c r="C67" t="n">
-        <v>10762.91</v>
+        <v>10659.98</v>
       </c>
       <c r="D67" t="n">
-        <v>10697.62</v>
+        <v>10590.95</v>
       </c>
       <c r="E67" t="n">
-        <v>10713.55</v>
-      </c>
-      <c r="G67" s="3">
+        <v>10642.86</v>
+      </c>
+      <c r="G67" s="1">
         <f>AVERAGE(E63:E67)</f>
         <v/>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="1">
         <f>AVERAGE(E38:E67)</f>
         <v/>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="1">
         <f>G67-H67</f>
         <v/>
       </c>
@@ -3424,26 +3418,26 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>10623.2</v>
+        <v>10664.82</v>
       </c>
       <c r="C68" t="n">
-        <v>10650.18</v>
+        <v>10710.73</v>
       </c>
       <c r="D68" t="n">
-        <v>10560.44</v>
+        <v>10650.77</v>
       </c>
       <c r="E68" t="n">
-        <v>10560.44</v>
-      </c>
-      <c r="G68" s="3">
+        <v>10710.73</v>
+      </c>
+      <c r="G68" s="1">
         <f>AVERAGE(E64:E68)</f>
         <v/>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="1">
         <f>AVERAGE(E39:E68)</f>
         <v/>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="1">
         <f>G68-H68</f>
         <v/>
       </c>
@@ -3453,26 +3447,26 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>10591.62</v>
+        <v>10759.61</v>
       </c>
       <c r="C69" t="n">
-        <v>10665.92</v>
+        <v>10813.16</v>
       </c>
       <c r="D69" t="n">
-        <v>10495.15</v>
+        <v>10759.61</v>
       </c>
       <c r="E69" t="n">
-        <v>10600.37</v>
-      </c>
-      <c r="G69" s="3">
+        <v>10801.57</v>
+      </c>
+      <c r="G69" s="1">
         <f>AVERAGE(E65:E69)</f>
         <v/>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="1">
         <f>AVERAGE(E40:E69)</f>
         <v/>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="1">
         <f>G69-H69</f>
         <v/>
       </c>
@@ -3482,26 +3476,26 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>10617.27</v>
+        <v>10834.58</v>
       </c>
       <c r="C70" t="n">
-        <v>10665.43</v>
+        <v>10853.46</v>
       </c>
       <c r="D70" t="n">
-        <v>10565.68</v>
+        <v>10794.25</v>
       </c>
       <c r="E70" t="n">
-        <v>10651.11</v>
-      </c>
-      <c r="G70" s="3">
+        <v>10848.63</v>
+      </c>
+      <c r="G70" s="1">
         <f>AVERAGE(E66:E70)</f>
         <v/>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="1">
         <f>AVERAGE(E41:E70)</f>
         <v/>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="1">
         <f>G70-H70</f>
         <v/>
       </c>
@@ -3511,26 +3505,26 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>10607.62</v>
+        <v>10856.92</v>
       </c>
       <c r="C71" t="n">
-        <v>10635.71</v>
+        <v>10879.8</v>
       </c>
       <c r="D71" t="n">
-        <v>10540.74</v>
+        <v>10815.68</v>
       </c>
       <c r="E71" t="n">
-        <v>10566.85</v>
-      </c>
-      <c r="G71" s="3">
+        <v>10879.8</v>
+      </c>
+      <c r="G71" s="1">
         <f>AVERAGE(E67:E71)</f>
         <v/>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="1">
         <f>AVERAGE(E42:E71)</f>
         <v/>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="1">
         <f>G71-H71</f>
         <v/>
       </c>
@@ -3540,26 +3534,26 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>10541.03</v>
+        <v>10899.09</v>
       </c>
       <c r="C72" t="n">
-        <v>10541.03</v>
+        <v>10918.47</v>
       </c>
       <c r="D72" t="n">
-        <v>10376.65</v>
+        <v>10869.12</v>
       </c>
       <c r="E72" t="n">
-        <v>10393.92</v>
-      </c>
-      <c r="G72" s="3">
+        <v>10915.75</v>
+      </c>
+      <c r="G72" s="1">
         <f>AVERAGE(E68:E72)</f>
         <v/>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="1">
         <f>AVERAGE(E43:E72)</f>
         <v/>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="1">
         <f>G72-H72</f>
         <v/>
       </c>
@@ -3569,26 +3563,26 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>10404.42</v>
+        <v>10922.35</v>
       </c>
       <c r="C73" t="n">
-        <v>10418.97</v>
+        <v>10931</v>
       </c>
       <c r="D73" t="n">
-        <v>10322.76</v>
+        <v>10860.77</v>
       </c>
       <c r="E73" t="n">
-        <v>10355.76</v>
-      </c>
-      <c r="G73" s="3">
+        <v>10914.89</v>
+      </c>
+      <c r="G73" s="1">
         <f>AVERAGE(E69:E73)</f>
         <v/>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="1">
         <f>AVERAGE(E44:E73)</f>
         <v/>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="1">
         <f>G73-H73</f>
         <v/>
       </c>
@@ -3598,26 +3592,26 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10406.35</v>
+        <v>10915.32</v>
       </c>
       <c r="C74" t="n">
-        <v>10419.28</v>
+        <v>10934.75</v>
       </c>
       <c r="D74" t="n">
-        <v>10336.26</v>
+        <v>10819.25</v>
       </c>
       <c r="E74" t="n">
-        <v>10398.62</v>
-      </c>
-      <c r="G74" s="3">
+        <v>10831.09</v>
+      </c>
+      <c r="G74" s="1">
         <f>AVERAGE(E70:E74)</f>
         <v/>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="1">
         <f>AVERAGE(E45:E74)</f>
         <v/>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="1">
         <f>G74-H74</f>
         <v/>
       </c>
@@ -3627,26 +3621,26 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10438.33</v>
+        <v>10824.54</v>
       </c>
       <c r="C75" t="n">
-        <v>10504.67</v>
+        <v>10844.08</v>
       </c>
       <c r="D75" t="n">
-        <v>10438.33</v>
+        <v>10770.1</v>
       </c>
       <c r="E75" t="n">
-        <v>10473.09</v>
-      </c>
-      <c r="G75" s="3">
+        <v>10810.06</v>
+      </c>
+      <c r="G75" s="1">
         <f>AVERAGE(E71:E75)</f>
         <v/>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="1">
         <f>AVERAGE(E46:E75)</f>
         <v/>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="1">
         <f>G75-H75</f>
         <v/>
       </c>
@@ -3656,26 +3650,26 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10488.73</v>
+        <v>10818.24</v>
       </c>
       <c r="C76" t="n">
-        <v>10495.24</v>
+        <v>10899.98</v>
       </c>
       <c r="D76" t="n">
-        <v>10408.06</v>
+        <v>10818.24</v>
       </c>
       <c r="E76" t="n">
-        <v>10443.28</v>
-      </c>
-      <c r="G76" s="3">
+        <v>10883.96</v>
+      </c>
+      <c r="G76" s="1">
         <f>AVERAGE(E72:E76)</f>
         <v/>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="1">
         <f>AVERAGE(E47:E76)</f>
         <v/>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="1">
         <f>G76-H76</f>
         <v/>
       </c>
@@ -3685,26 +3679,26 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10447.11</v>
+        <v>10932.37</v>
       </c>
       <c r="C77" t="n">
-        <v>10489.17</v>
+        <v>10962.55</v>
       </c>
       <c r="D77" t="n">
-        <v>10444.7</v>
+        <v>10911.89</v>
       </c>
       <c r="E77" t="n">
-        <v>10470.7</v>
-      </c>
-      <c r="G77" s="3">
+        <v>10956.31</v>
+      </c>
+      <c r="G77" s="1">
         <f>AVERAGE(E73:E77)</f>
         <v/>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="1">
         <f>AVERAGE(E48:E77)</f>
         <v/>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="1">
         <f>G77-H77</f>
         <v/>
       </c>
@@ -3714,26 +3708,26 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10494.6</v>
+        <v>10955.81</v>
       </c>
       <c r="C78" t="n">
-        <v>10577.53</v>
+        <v>10986.11</v>
       </c>
       <c r="D78" t="n">
-        <v>10494.6</v>
+        <v>10920.5</v>
       </c>
       <c r="E78" t="n">
-        <v>10538.01</v>
-      </c>
-      <c r="G78" s="3">
+        <v>10986.11</v>
+      </c>
+      <c r="G78" s="1">
         <f>AVERAGE(E74:E78)</f>
         <v/>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="1">
         <f>AVERAGE(E49:E78)</f>
         <v/>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="1">
         <f>G78-H78</f>
         <v/>
       </c>
@@ -3743,26 +3737,26 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10517.21</v>
+        <v>10976.13</v>
       </c>
       <c r="C79" t="n">
-        <v>10520.66</v>
+        <v>11030.22</v>
       </c>
       <c r="D79" t="n">
-        <v>10436.11</v>
+        <v>10942.95</v>
       </c>
       <c r="E79" t="n">
-        <v>10491.44</v>
-      </c>
-      <c r="G79" s="3">
+        <v>11004.8</v>
+      </c>
+      <c r="G79" s="1">
         <f>AVERAGE(E75:E79)</f>
         <v/>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="1">
         <f>AVERAGE(E50:E79)</f>
         <v/>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="1">
         <f>G79-H79</f>
         <v/>
       </c>
@@ -3772,26 +3766,26 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>10478.74</v>
+        <v>11048.06</v>
       </c>
       <c r="C80" t="n">
-        <v>10526.41</v>
+        <v>11122.82</v>
       </c>
       <c r="D80" t="n">
-        <v>10472.39</v>
+        <v>11048.06</v>
       </c>
       <c r="E80" t="n">
-        <v>10506.52</v>
-      </c>
-      <c r="G80" s="3">
+        <v>11071.57</v>
+      </c>
+      <c r="G80" s="1">
         <f>AVERAGE(E76:E80)</f>
         <v/>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="1">
         <f>AVERAGE(E51:E80)</f>
         <v/>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="1">
         <f>G80-H80</f>
         <v/>
       </c>
@@ -3801,26 +3795,26 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10508.33</v>
+        <v>11123.58</v>
       </c>
       <c r="C81" t="n">
-        <v>10544</v>
+        <v>11150.85</v>
       </c>
       <c r="D81" t="n">
-        <v>10452.08</v>
+        <v>11095.85</v>
       </c>
       <c r="E81" t="n">
-        <v>10467.34</v>
-      </c>
-      <c r="G81" s="3">
+        <v>11150.85</v>
+      </c>
+      <c r="G81" s="1">
         <f>AVERAGE(E77:E81)</f>
         <v/>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="1">
         <f>AVERAGE(E52:E81)</f>
         <v/>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="1">
         <f>G81-H81</f>
         <v/>
       </c>
@@ -3830,26 +3824,26 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10470.36</v>
+        <v>11169.79</v>
       </c>
       <c r="C82" t="n">
-        <v>10514.31</v>
+        <v>11231.46</v>
       </c>
       <c r="D82" t="n">
-        <v>10470.36</v>
+        <v>11142.38</v>
       </c>
       <c r="E82" t="n">
-        <v>10504.52</v>
-      </c>
-      <c r="G82" s="3">
+        <v>11231.46</v>
+      </c>
+      <c r="G82" s="1">
         <f>AVERAGE(E78:E82)</f>
         <v/>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="1">
         <f>AVERAGE(E53:E82)</f>
         <v/>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="1">
         <f>G82-H82</f>
         <v/>
       </c>
@@ -3859,26 +3853,26 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10526.97</v>
+        <v>11243.49</v>
       </c>
       <c r="C83" t="n">
-        <v>10545.78</v>
+        <v>11270.18</v>
       </c>
       <c r="D83" t="n">
-        <v>10488.97</v>
+        <v>11201.52</v>
       </c>
       <c r="E83" t="n">
-        <v>10488.97</v>
-      </c>
-      <c r="G83" s="3">
+        <v>11253.11</v>
+      </c>
+      <c r="G83" s="1">
         <f>AVERAGE(E79:E83)</f>
         <v/>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="1">
         <f>AVERAGE(E54:E83)</f>
         <v/>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="1">
         <f>G83-H83</f>
         <v/>
       </c>
@@ -3888,26 +3882,26 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10503.1</v>
+        <v>11228.71</v>
       </c>
       <c r="C84" t="n">
-        <v>10537.27</v>
+        <v>11228.71</v>
       </c>
       <c r="D84" t="n">
-        <v>10486.52</v>
+        <v>11107.32</v>
       </c>
       <c r="E84" t="n">
-        <v>10537.27</v>
-      </c>
-      <c r="G84" s="3">
+        <v>11152.16</v>
+      </c>
+      <c r="G84" s="1">
         <f>AVERAGE(E80:E84)</f>
         <v/>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="1">
         <f>AVERAGE(E55:E84)</f>
         <v/>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="1">
         <f>G84-H84</f>
         <v/>
       </c>
@@ -3917,26 +3911,26 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10546.64</v>
+        <v>11154.36</v>
       </c>
       <c r="C85" t="n">
-        <v>10556.65</v>
+        <v>11268.61</v>
       </c>
       <c r="D85" t="n">
-        <v>10514.54</v>
+        <v>11131.85</v>
       </c>
       <c r="E85" t="n">
-        <v>10522.49</v>
-      </c>
-      <c r="G85" s="3">
+        <v>11165.95</v>
+      </c>
+      <c r="G85" s="1">
         <f>AVERAGE(E81:E85)</f>
         <v/>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="1">
         <f>AVERAGE(E56:E85)</f>
         <v/>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="1">
         <f>G85-H85</f>
         <v/>
       </c>
@@ -3946,26 +3940,26 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10526.14</v>
+        <v>11152.53</v>
       </c>
       <c r="C86" t="n">
-        <v>10528.92</v>
+        <v>11178.3</v>
       </c>
       <c r="D86" t="n">
-        <v>10408.12</v>
+        <v>11089.48</v>
       </c>
       <c r="E86" t="n">
-        <v>10421.91</v>
-      </c>
-      <c r="G86" s="3">
+        <v>11147.1</v>
+      </c>
+      <c r="G86" s="1">
         <f>AVERAGE(E82:E86)</f>
         <v/>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="1">
         <f>AVERAGE(E57:E86)</f>
         <v/>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="1">
         <f>G86-H86</f>
         <v/>
       </c>
@@ -3975,26 +3969,26 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10419.81</v>
+        <v>11202.27</v>
       </c>
       <c r="C87" t="n">
-        <v>10497.77</v>
+        <v>11246.18</v>
       </c>
       <c r="D87" t="n">
-        <v>10419.81</v>
+        <v>11161.83</v>
       </c>
       <c r="E87" t="n">
-        <v>10486.67</v>
-      </c>
-      <c r="G87" s="3">
+        <v>11221.81</v>
+      </c>
+      <c r="G87" s="1">
         <f>AVERAGE(E83:E87)</f>
         <v/>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="1">
         <f>AVERAGE(E58:E87)</f>
         <v/>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="1">
         <f>G87-H87</f>
         <v/>
       </c>
@@ -4004,26 +3998,26 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10513.29</v>
+        <v>11189.57</v>
       </c>
       <c r="C88" t="n">
-        <v>10592.04</v>
+        <v>11189.57</v>
       </c>
       <c r="D88" t="n">
-        <v>10513.29</v>
+        <v>11076.78</v>
       </c>
       <c r="E88" t="n">
-        <v>10567.64</v>
-      </c>
-      <c r="G88" s="3">
+        <v>11076.78</v>
+      </c>
+      <c r="G88" s="1">
         <f>AVERAGE(E84:E88)</f>
         <v/>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="1">
         <f>AVERAGE(E59:E88)</f>
         <v/>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="1">
         <f>G88-H88</f>
         <v/>
       </c>
@@ -4033,26 +4027,26 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>10590.95</v>
+        <v>11054.36</v>
       </c>
       <c r="C89" t="n">
-        <v>10659.98</v>
+        <v>11158.29</v>
       </c>
       <c r="D89" t="n">
-        <v>10590.95</v>
+        <v>11007.89</v>
       </c>
       <c r="E89" t="n">
-        <v>10642.86</v>
-      </c>
-      <c r="G89" s="3">
+        <v>11103.79</v>
+      </c>
+      <c r="G89" s="1">
         <f>AVERAGE(E85:E89)</f>
         <v/>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="1">
         <f>AVERAGE(E60:E89)</f>
         <v/>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="1">
         <f>G89-H89</f>
         <v/>
       </c>
@@ -4062,26 +4056,26 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>10664.82</v>
+        <v>11139.4</v>
       </c>
       <c r="C90" t="n">
-        <v>10710.73</v>
+        <v>11212.1</v>
       </c>
       <c r="D90" t="n">
-        <v>10650.77</v>
+        <v>11139.4</v>
       </c>
       <c r="E90" t="n">
-        <v>10710.73</v>
-      </c>
-      <c r="G90" s="3">
+        <v>11160.25</v>
+      </c>
+      <c r="G90" s="1">
         <f>AVERAGE(E86:E90)</f>
         <v/>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="1">
         <f>AVERAGE(E61:E90)</f>
         <v/>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="1">
         <f>G90-H90</f>
         <v/>
       </c>
@@ -4091,26 +4085,26 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>10759.61</v>
+        <v>11151.65</v>
       </c>
       <c r="C91" t="n">
-        <v>10813.16</v>
+        <v>11153.32</v>
       </c>
       <c r="D91" t="n">
-        <v>10759.61</v>
+        <v>11070.43</v>
       </c>
       <c r="E91" t="n">
-        <v>10801.57</v>
-      </c>
-      <c r="G91" s="3">
+        <v>11126.23</v>
+      </c>
+      <c r="G91" s="1">
         <f>AVERAGE(E87:E91)</f>
         <v/>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="1">
         <f>AVERAGE(E62:E91)</f>
         <v/>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="1">
         <f>G91-H91</f>
         <v/>
       </c>
@@ -4120,26 +4114,26 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>10834.58</v>
+        <v>10970.3</v>
       </c>
       <c r="C92" t="n">
-        <v>10853.46</v>
+        <v>10970.3</v>
       </c>
       <c r="D92" t="n">
-        <v>10794.25</v>
+        <v>10855.43</v>
       </c>
       <c r="E92" t="n">
-        <v>10848.63</v>
-      </c>
-      <c r="G92" s="3">
+        <v>10946.25</v>
+      </c>
+      <c r="G92" s="1">
         <f>AVERAGE(E88:E92)</f>
         <v/>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="1">
         <f>AVERAGE(E63:E92)</f>
         <v/>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="1">
         <f>G92-H92</f>
         <v/>
       </c>
@@ -4149,26 +4143,26 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>10856.92</v>
+        <v>10761.01</v>
       </c>
       <c r="C93" t="n">
-        <v>10879.8</v>
+        <v>10761.01</v>
       </c>
       <c r="D93" t="n">
-        <v>10815.68</v>
+        <v>10300.4</v>
       </c>
       <c r="E93" t="n">
-        <v>10879.8</v>
-      </c>
-      <c r="G93" s="3">
+        <v>10404</v>
+      </c>
+      <c r="G93" s="1">
         <f>AVERAGE(E89:E93)</f>
         <v/>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="1">
         <f>AVERAGE(E64:E93)</f>
         <v/>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="1">
         <f>G93-H93</f>
         <v/>
       </c>
@@ -4178,26 +4172,26 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>10899.09</v>
+        <v>10547.64</v>
       </c>
       <c r="C94" t="n">
-        <v>10918.47</v>
+        <v>10697.82</v>
       </c>
       <c r="D94" t="n">
-        <v>10869.12</v>
+        <v>10547.64</v>
       </c>
       <c r="E94" t="n">
-        <v>10915.75</v>
-      </c>
-      <c r="G94" s="3">
+        <v>10551.54</v>
+      </c>
+      <c r="G94" s="1">
         <f>AVERAGE(E90:E94)</f>
         <v/>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="1">
         <f>AVERAGE(E65:E94)</f>
         <v/>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="1">
         <f>G94-H94</f>
         <v/>
       </c>
@@ -4207,26 +4201,26 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>10922.35</v>
+        <v>10559.44</v>
       </c>
       <c r="C95" t="n">
-        <v>10931</v>
+        <v>10609.5</v>
       </c>
       <c r="D95" t="n">
-        <v>10860.77</v>
+        <v>10512.93</v>
       </c>
       <c r="E95" t="n">
-        <v>10914.89</v>
-      </c>
-      <c r="G95" s="3">
+        <v>10528.52</v>
+      </c>
+      <c r="G95" s="1">
         <f>AVERAGE(E91:E95)</f>
         <v/>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="1">
         <f>AVERAGE(E66:E95)</f>
         <v/>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="1">
         <f>G95-H95</f>
         <v/>
       </c>
@@ -4236,26 +4230,26 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>10915.32</v>
+        <v>10371.01</v>
       </c>
       <c r="C96" t="n">
-        <v>10934.75</v>
+        <v>10392.31</v>
       </c>
       <c r="D96" t="n">
-        <v>10819.25</v>
+        <v>10189.04</v>
       </c>
       <c r="E96" t="n">
-        <v>10831.09</v>
-      </c>
-      <c r="G96" s="3">
+        <v>10371.75</v>
+      </c>
+      <c r="G96" s="1">
         <f>AVERAGE(E92:E96)</f>
         <v/>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="1">
         <f>AVERAGE(E67:E96)</f>
         <v/>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="1">
         <f>G96-H96</f>
         <v/>
       </c>
@@ -4265,26 +4259,26 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10824.54</v>
+        <v>10429.09</v>
       </c>
       <c r="C97" t="n">
-        <v>10844.08</v>
+        <v>10473.51</v>
       </c>
       <c r="D97" t="n">
-        <v>10770.1</v>
+        <v>10416.01</v>
       </c>
       <c r="E97" t="n">
-        <v>10810.06</v>
-      </c>
-      <c r="G97" s="3">
+        <v>10421.09</v>
+      </c>
+      <c r="G97" s="1">
         <f>AVERAGE(E93:E97)</f>
         <v/>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="1">
         <f>AVERAGE(E68:E97)</f>
         <v/>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="1">
         <f>G97-H97</f>
         <v/>
       </c>
@@ -4294,26 +4288,26 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10818.24</v>
+        <v>10559.79</v>
       </c>
       <c r="C98" t="n">
-        <v>10899.98</v>
+        <v>10720.48</v>
       </c>
       <c r="D98" t="n">
-        <v>10818.24</v>
+        <v>10559.79</v>
       </c>
       <c r="E98" t="n">
-        <v>10883.96</v>
-      </c>
-      <c r="G98" s="3">
+        <v>10714.44</v>
+      </c>
+      <c r="G98" s="1">
         <f>AVERAGE(E94:E98)</f>
         <v/>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="1">
         <f>AVERAGE(E69:E98)</f>
         <v/>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="1">
         <f>G98-H98</f>
         <v/>
       </c>
@@ -4323,26 +4317,26 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10932.37</v>
+        <v>10698.47</v>
       </c>
       <c r="C99" t="n">
-        <v>10962.55</v>
+        <v>10698.47</v>
       </c>
       <c r="D99" t="n">
-        <v>10911.89</v>
+        <v>10620.8</v>
       </c>
       <c r="E99" t="n">
-        <v>10956.31</v>
-      </c>
-      <c r="G99" s="3">
+        <v>10662.38</v>
+      </c>
+      <c r="G99" s="1">
         <f>AVERAGE(E95:E99)</f>
         <v/>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="1">
         <f>AVERAGE(E70:E99)</f>
         <v/>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="1">
         <f>G99-H99</f>
         <v/>
       </c>
@@ -4352,26 +4346,26 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10955.81</v>
+        <v>10688.97</v>
       </c>
       <c r="C100" t="n">
-        <v>10986.11</v>
+        <v>10799.29</v>
       </c>
       <c r="D100" t="n">
-        <v>10920.5</v>
+        <v>10688.97</v>
       </c>
       <c r="E100" t="n">
-        <v>10986.11</v>
-      </c>
-      <c r="G100" s="3">
+        <v>10794.55</v>
+      </c>
+      <c r="G100" s="1">
         <f>AVERAGE(E96:E100)</f>
         <v/>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="1">
         <f>AVERAGE(E71:E100)</f>
         <v/>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="1">
         <f>G100-H100</f>
         <v/>
       </c>
@@ -4381,26 +4375,26 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10976.13</v>
+        <v>10827.98</v>
       </c>
       <c r="C101" t="n">
-        <v>11030.22</v>
+        <v>10890.69</v>
       </c>
       <c r="D101" t="n">
-        <v>10942.95</v>
+        <v>10827.98</v>
       </c>
       <c r="E101" t="n">
-        <v>11004.8</v>
-      </c>
-      <c r="G101" s="3">
+        <v>10836.7</v>
+      </c>
+      <c r="G101" s="1">
         <f>AVERAGE(E97:E101)</f>
         <v/>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="1">
         <f>AVERAGE(E72:E101)</f>
         <v/>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="1">
         <f>G101-H101</f>
         <v/>
       </c>
@@ -4410,26 +4404,26 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>11048.06</v>
+        <v>10896.16</v>
       </c>
       <c r="C102" t="n">
-        <v>11122.82</v>
+        <v>10937.9</v>
       </c>
       <c r="D102" t="n">
-        <v>11048.06</v>
+        <v>10815.47</v>
       </c>
       <c r="E102" t="n">
-        <v>11071.57</v>
-      </c>
-      <c r="G102" s="3">
+        <v>10815.47</v>
+      </c>
+      <c r="G102" s="1">
         <f>AVERAGE(E98:E102)</f>
         <v/>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="1">
         <f>AVERAGE(E73:E102)</f>
         <v/>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="1">
         <f>G102-H102</f>
         <v/>
       </c>
@@ -4439,26 +4433,26 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>11123.58</v>
+        <v>10779.1</v>
       </c>
       <c r="C103" t="n">
-        <v>11150.85</v>
+        <v>10805.55</v>
       </c>
       <c r="D103" t="n">
-        <v>11095.85</v>
+        <v>10709.69</v>
       </c>
       <c r="E103" t="n">
-        <v>11150.85</v>
-      </c>
-      <c r="G103" s="3">
+        <v>10785.79</v>
+      </c>
+      <c r="G103" s="1">
         <f>AVERAGE(E99:E103)</f>
         <v/>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="1">
         <f>AVERAGE(E74:E103)</f>
         <v/>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="1">
         <f>G103-H103</f>
         <v/>
       </c>
@@ -4468,26 +4462,26 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>11169.79</v>
+        <v>10719.29</v>
       </c>
       <c r="C104" t="n">
-        <v>11231.46</v>
+        <v>10719.29</v>
       </c>
       <c r="D104" t="n">
-        <v>11142.38</v>
+        <v>10638.98</v>
       </c>
       <c r="E104" t="n">
-        <v>11231.46</v>
-      </c>
-      <c r="G104" s="3">
+        <v>10698.17</v>
+      </c>
+      <c r="G104" s="1">
         <f>AVERAGE(E100:E104)</f>
         <v/>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="1">
         <f>AVERAGE(E75:E104)</f>
         <v/>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="1">
         <f>G104-H104</f>
         <v/>
       </c>
@@ -4497,26 +4491,26 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>11243.49</v>
+        <v>10727.45</v>
       </c>
       <c r="C105" t="n">
-        <v>11270.18</v>
+        <v>10756.37</v>
       </c>
       <c r="D105" t="n">
-        <v>11201.52</v>
+        <v>10642.9</v>
       </c>
       <c r="E105" t="n">
-        <v>11253.11</v>
-      </c>
-      <c r="G105" s="3">
+        <v>10642.9</v>
+      </c>
+      <c r="G105" s="1">
         <f>AVERAGE(E101:E105)</f>
         <v/>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="1">
         <f>AVERAGE(E76:E105)</f>
         <v/>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="1">
         <f>G105-H105</f>
         <v/>
       </c>
@@ -4526,26 +4520,26 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>11228.71</v>
+        <v>10711.15</v>
       </c>
       <c r="C106" t="n">
-        <v>11228.71</v>
+        <v>10784.34</v>
       </c>
       <c r="D106" t="n">
-        <v>11107.32</v>
+        <v>10711.15</v>
       </c>
       <c r="E106" t="n">
-        <v>11152.16</v>
-      </c>
-      <c r="G106" s="3">
+        <v>10784.34</v>
+      </c>
+      <c r="G106" s="1">
         <f>AVERAGE(E102:E106)</f>
         <v/>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="1">
         <f>AVERAGE(E77:E106)</f>
         <v/>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="1">
         <f>G106-H106</f>
         <v/>
       </c>
@@ -4555,26 +4549,26 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>11154.36</v>
+        <v>10762.99</v>
       </c>
       <c r="C107" t="n">
-        <v>11268.61</v>
+        <v>10818.05</v>
       </c>
       <c r="D107" t="n">
-        <v>11131.85</v>
+        <v>10745.32</v>
       </c>
       <c r="E107" t="n">
-        <v>11165.95</v>
-      </c>
-      <c r="G107" s="3">
+        <v>10745.32</v>
+      </c>
+      <c r="G107" s="1">
         <f>AVERAGE(E103:E107)</f>
         <v/>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="1">
         <f>AVERAGE(E78:E107)</f>
         <v/>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="1">
         <f>G107-H107</f>
         <v/>
       </c>
@@ -4584,26 +4578,26 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>11152.53</v>
+        <v>10788.43</v>
       </c>
       <c r="C108" t="n">
-        <v>11178.3</v>
+        <v>10852.33</v>
       </c>
       <c r="D108" t="n">
-        <v>11089.48</v>
+        <v>10788.43</v>
       </c>
       <c r="E108" t="n">
-        <v>11147.1</v>
-      </c>
-      <c r="G108" s="3">
+        <v>10823.24</v>
+      </c>
+      <c r="G108" s="1">
         <f>AVERAGE(E104:E108)</f>
         <v/>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="1">
         <f>AVERAGE(E79:E108)</f>
         <v/>
       </c>
-      <c r="I108" s="3">
+      <c r="I108" s="1">
         <f>G108-H108</f>
         <v/>
       </c>
@@ -4613,26 +4607,26 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>11202.27</v>
+        <v>10847.74</v>
       </c>
       <c r="C109" t="n">
-        <v>11246.18</v>
+        <v>10882.76</v>
       </c>
       <c r="D109" t="n">
-        <v>11161.83</v>
+        <v>10845.38</v>
       </c>
       <c r="E109" t="n">
-        <v>11221.81</v>
-      </c>
-      <c r="G109" s="3">
+        <v>10864.82</v>
+      </c>
+      <c r="G109" s="1">
         <f>AVERAGE(E105:E109)</f>
         <v/>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="1">
         <f>AVERAGE(E80:E109)</f>
         <v/>
       </c>
-      <c r="I109" s="3">
+      <c r="I109" s="1">
         <f>G109-H109</f>
         <v/>
       </c>
@@ -4642,26 +4636,26 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>11189.57</v>
+        <v>10908.99</v>
       </c>
       <c r="C110" t="n">
-        <v>11189.57</v>
+        <v>11016.56</v>
       </c>
       <c r="D110" t="n">
-        <v>11076.78</v>
+        <v>10908.99</v>
       </c>
       <c r="E110" t="n">
-        <v>11076.78</v>
-      </c>
-      <c r="G110" s="3">
+        <v>11002.1</v>
+      </c>
+      <c r="G110" s="1">
         <f>AVERAGE(E106:E110)</f>
         <v/>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="1">
         <f>AVERAGE(E81:E110)</f>
         <v/>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="1">
         <f>G110-H110</f>
         <v/>
       </c>
@@ -4671,26 +4665,26 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>11054.36</v>
+        <v>11022.15</v>
       </c>
       <c r="C111" t="n">
-        <v>11158.29</v>
+        <v>11095.63</v>
       </c>
       <c r="D111" t="n">
-        <v>11007.89</v>
+        <v>11014.87</v>
       </c>
       <c r="E111" t="n">
-        <v>11103.79</v>
-      </c>
-      <c r="G111" s="3">
+        <v>11095.63</v>
+      </c>
+      <c r="G111" s="1">
         <f>AVERAGE(E107:E111)</f>
         <v/>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="1">
         <f>AVERAGE(E82:E111)</f>
         <v/>
       </c>
-      <c r="I111" s="3">
+      <c r="I111" s="1">
         <f>G111-H111</f>
         <v/>
       </c>
@@ -4700,26 +4694,26 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>11139.4</v>
+        <v>11063.73</v>
       </c>
       <c r="C112" t="n">
-        <v>11212.1</v>
+        <v>11070.29</v>
       </c>
       <c r="D112" t="n">
-        <v>11139.4</v>
+        <v>11015.47</v>
       </c>
       <c r="E112" t="n">
-        <v>11160.25</v>
-      </c>
-      <c r="G112" s="3">
+        <v>11038.8</v>
+      </c>
+      <c r="G112" s="1">
         <f>AVERAGE(E108:E112)</f>
         <v/>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="1">
         <f>AVERAGE(E83:E112)</f>
         <v/>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="1">
         <f>G112-H112</f>
         <v/>
       </c>
@@ -4729,26 +4723,26 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>11151.65</v>
+        <v>11039.6</v>
       </c>
       <c r="C113" t="n">
-        <v>11153.32</v>
+        <v>11052.11</v>
       </c>
       <c r="D113" t="n">
-        <v>11070.43</v>
+        <v>11008.18</v>
       </c>
       <c r="E113" t="n">
-        <v>11126.23</v>
-      </c>
-      <c r="G113" s="3">
+        <v>11018.45</v>
+      </c>
+      <c r="G113" s="1">
         <f>AVERAGE(E109:E113)</f>
         <v/>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="1">
         <f>AVERAGE(E84:E113)</f>
         <v/>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="1">
         <f>G113-H113</f>
         <v/>
       </c>
@@ -4758,26 +4752,26 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10970.3</v>
+        <v>11010.24</v>
       </c>
       <c r="C114" t="n">
-        <v>10970.3</v>
+        <v>11054.86</v>
       </c>
       <c r="D114" t="n">
-        <v>10855.43</v>
+        <v>10933.46</v>
       </c>
       <c r="E114" t="n">
-        <v>10946.25</v>
-      </c>
-      <c r="G114" s="3">
+        <v>11027.7</v>
+      </c>
+      <c r="G114" s="1">
         <f>AVERAGE(E110:E114)</f>
         <v/>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="1">
         <f>AVERAGE(E85:E114)</f>
         <v/>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="1">
         <f>G114-H114</f>
         <v/>
       </c>
@@ -4787,26 +4781,26 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>10761.01</v>
+        <v>11004.81</v>
       </c>
       <c r="C115" t="n">
-        <v>10761.01</v>
+        <v>11066</v>
       </c>
       <c r="D115" t="n">
-        <v>10300.4</v>
+        <v>10983.25</v>
       </c>
       <c r="E115" t="n">
-        <v>10404</v>
-      </c>
-      <c r="G115" s="3">
+        <v>11046.9</v>
+      </c>
+      <c r="G115" s="1">
         <f>AVERAGE(E111:E115)</f>
         <v/>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="1">
         <f>AVERAGE(E86:E115)</f>
         <v/>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="1">
         <f>G115-H115</f>
         <v/>
       </c>
@@ -4816,26 +4810,26 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>10547.64</v>
+        <v>11016.85</v>
       </c>
       <c r="C116" t="n">
-        <v>10697.82</v>
+        <v>11020.78</v>
       </c>
       <c r="D116" t="n">
-        <v>10547.64</v>
+        <v>10981.04</v>
       </c>
       <c r="E116" t="n">
-        <v>10551.54</v>
-      </c>
-      <c r="G116" s="3">
+        <v>11010.84</v>
+      </c>
+      <c r="G116" s="1">
         <f>AVERAGE(E112:E116)</f>
         <v/>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="1">
         <f>AVERAGE(E87:E116)</f>
         <v/>
       </c>
-      <c r="I116" s="3">
+      <c r="I116" s="1">
         <f>G116-H116</f>
         <v/>
       </c>
@@ -4845,26 +4839,26 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>10559.44</v>
+        <v>11037.35</v>
       </c>
       <c r="C117" t="n">
-        <v>10609.5</v>
+        <v>11072.31</v>
       </c>
       <c r="D117" t="n">
-        <v>10512.93</v>
+        <v>11011.07</v>
       </c>
       <c r="E117" t="n">
-        <v>10528.52</v>
-      </c>
-      <c r="G117" s="3">
+        <v>11011.07</v>
+      </c>
+      <c r="G117" s="1">
         <f>AVERAGE(E113:E117)</f>
         <v/>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="1">
         <f>AVERAGE(E88:E117)</f>
         <v/>
       </c>
-      <c r="I117" s="3">
+      <c r="I117" s="1">
         <f>G117-H117</f>
         <v/>
       </c>
@@ -4874,26 +4868,26 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>10371.01</v>
+        <v>11045.9</v>
       </c>
       <c r="C118" t="n">
-        <v>10392.31</v>
+        <v>11120.2</v>
       </c>
       <c r="D118" t="n">
-        <v>10189.04</v>
+        <v>10975.33</v>
       </c>
       <c r="E118" t="n">
-        <v>10371.75</v>
-      </c>
-      <c r="G118" s="3">
+        <v>11005.84</v>
+      </c>
+      <c r="G118" s="1">
         <f>AVERAGE(E114:E118)</f>
         <v/>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="1">
         <f>AVERAGE(E89:E118)</f>
         <v/>
       </c>
-      <c r="I118" s="3">
+      <c r="I118" s="1">
         <f>G118-H118</f>
         <v/>
       </c>
@@ -4903,26 +4897,26 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10429.09</v>
+        <v>10863.67</v>
       </c>
       <c r="C119" t="n">
-        <v>10473.51</v>
+        <v>10863.67</v>
       </c>
       <c r="D119" t="n">
-        <v>10416.01</v>
+        <v>10758.06</v>
       </c>
       <c r="E119" t="n">
-        <v>10421.09</v>
-      </c>
-      <c r="G119" s="3">
+        <v>10823.33</v>
+      </c>
+      <c r="G119" s="1">
         <f>AVERAGE(E115:E119)</f>
         <v/>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="1">
         <f>AVERAGE(E90:E119)</f>
         <v/>
       </c>
-      <c r="I119" s="3">
+      <c r="I119" s="1">
         <f>G119-H119</f>
         <v/>
       </c>
@@ -4932,26 +4926,26 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10559.79</v>
+        <v>10783.57</v>
       </c>
       <c r="C120" t="n">
-        <v>10720.48</v>
+        <v>10840.05</v>
       </c>
       <c r="D120" t="n">
-        <v>10559.79</v>
+        <v>10781.43</v>
       </c>
       <c r="E120" t="n">
-        <v>10714.44</v>
-      </c>
-      <c r="G120" s="3">
+        <v>10840.05</v>
+      </c>
+      <c r="G120" s="1">
         <f>AVERAGE(E116:E120)</f>
         <v/>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="1">
         <f>AVERAGE(E91:E120)</f>
         <v/>
       </c>
-      <c r="I120" s="3">
+      <c r="I120" s="1">
         <f>G120-H120</f>
         <v/>
       </c>
@@ -4961,26 +4955,26 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10698.47</v>
+        <v>10901.69</v>
       </c>
       <c r="C121" t="n">
-        <v>10698.47</v>
+        <v>10986.79</v>
       </c>
       <c r="D121" t="n">
-        <v>10620.8</v>
+        <v>10901.69</v>
       </c>
       <c r="E121" t="n">
-        <v>10662.38</v>
-      </c>
-      <c r="G121" s="3">
+        <v>10986.79</v>
+      </c>
+      <c r="G121" s="1">
         <f>AVERAGE(E117:E121)</f>
         <v/>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="1">
         <f>AVERAGE(E92:E121)</f>
         <v/>
       </c>
-      <c r="I121" s="3">
+      <c r="I121" s="1">
         <f>G121-H121</f>
         <v/>
       </c>
@@ -4990,26 +4984,26 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10688.97</v>
+        <v>10939.97</v>
       </c>
       <c r="C122" t="n">
-        <v>10799.29</v>
+        <v>10939.97</v>
       </c>
       <c r="D122" t="n">
-        <v>10688.97</v>
+        <v>10853.48</v>
       </c>
       <c r="E122" t="n">
-        <v>10794.55</v>
-      </c>
-      <c r="G122" s="3">
+        <v>10865.66</v>
+      </c>
+      <c r="G122" s="1">
         <f>AVERAGE(E118:E122)</f>
         <v/>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="1">
         <f>AVERAGE(E93:E122)</f>
         <v/>
       </c>
-      <c r="I122" s="3">
+      <c r="I122" s="1">
         <f>G122-H122</f>
         <v/>
       </c>
@@ -5019,26 +5013,26 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10827.98</v>
+        <v>10855.66</v>
       </c>
       <c r="C123" t="n">
-        <v>10890.69</v>
+        <v>10889.6</v>
       </c>
       <c r="D123" t="n">
-        <v>10827.98</v>
+        <v>10815.46</v>
       </c>
       <c r="E123" t="n">
-        <v>10836.7</v>
-      </c>
-      <c r="G123" s="3">
+        <v>10845.92</v>
+      </c>
+      <c r="G123" s="1">
         <f>AVERAGE(E119:E123)</f>
         <v/>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="1">
         <f>AVERAGE(E94:E123)</f>
         <v/>
       </c>
-      <c r="I123" s="3">
+      <c r="I123" s="1">
         <f>G123-H123</f>
         <v/>
       </c>
@@ -5048,26 +5042,26 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>10896.16</v>
+        <v>10905.3</v>
       </c>
       <c r="C124" t="n">
-        <v>10937.9</v>
+        <v>10969.22</v>
       </c>
       <c r="D124" t="n">
-        <v>10815.47</v>
+        <v>10905.3</v>
       </c>
       <c r="E124" t="n">
-        <v>10815.47</v>
-      </c>
-      <c r="G124" s="3">
+        <v>10906.22</v>
+      </c>
+      <c r="G124" s="1">
         <f>AVERAGE(E120:E124)</f>
         <v/>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="1">
         <f>AVERAGE(E95:E124)</f>
         <v/>
       </c>
-      <c r="I124" s="3">
+      <c r="I124" s="1">
         <f>G124-H124</f>
         <v/>
       </c>
@@ -5077,26 +5071,26 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>10779.1</v>
+        <v>10925.71</v>
       </c>
       <c r="C125" t="n">
-        <v>10805.55</v>
+        <v>10947.16</v>
       </c>
       <c r="D125" t="n">
-        <v>10709.69</v>
+        <v>10905.69</v>
       </c>
       <c r="E125" t="n">
-        <v>10785.79</v>
-      </c>
-      <c r="G125" s="3">
+        <v>10919.49</v>
+      </c>
+      <c r="G125" s="1">
         <f>AVERAGE(E121:E125)</f>
         <v/>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="1">
         <f>AVERAGE(E96:E125)</f>
         <v/>
       </c>
-      <c r="I125" s="3">
+      <c r="I125" s="1">
         <f>G125-H125</f>
         <v/>
       </c>
@@ -5106,26 +5100,26 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>10719.29</v>
+        <v>10936.26</v>
       </c>
       <c r="C126" t="n">
-        <v>10719.29</v>
+        <v>10969.88</v>
       </c>
       <c r="D126" t="n">
-        <v>10638.98</v>
+        <v>10882.05</v>
       </c>
       <c r="E126" t="n">
-        <v>10698.17</v>
-      </c>
-      <c r="G126" s="3">
+        <v>10888.27</v>
+      </c>
+      <c r="G126" s="1">
         <f>AVERAGE(E122:E126)</f>
         <v/>
       </c>
-      <c r="H126" s="3">
+      <c r="H126" s="1">
         <f>AVERAGE(E97:E126)</f>
         <v/>
       </c>
-      <c r="I126" s="3">
+      <c r="I126" s="1">
         <f>G126-H126</f>
         <v/>
       </c>
@@ -5135,26 +5129,26 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>10727.45</v>
+        <v>10837.54</v>
       </c>
       <c r="C127" t="n">
-        <v>10756.37</v>
+        <v>10837.54</v>
       </c>
       <c r="D127" t="n">
-        <v>10642.9</v>
+        <v>10775.45</v>
       </c>
       <c r="E127" t="n">
-        <v>10642.9</v>
-      </c>
-      <c r="G127" s="3">
+        <v>10821.53</v>
+      </c>
+      <c r="G127" s="1">
         <f>AVERAGE(E123:E127)</f>
         <v/>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="1">
         <f>AVERAGE(E98:E127)</f>
         <v/>
       </c>
-      <c r="I127" s="3">
+      <c r="I127" s="1">
         <f>G127-H127</f>
         <v/>
       </c>
@@ -5164,26 +5158,26 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>10711.15</v>
+        <v>10880.14</v>
       </c>
       <c r="C128" t="n">
-        <v>10784.34</v>
+        <v>10904.75</v>
       </c>
       <c r="D128" t="n">
-        <v>10711.15</v>
+        <v>10829.02</v>
       </c>
       <c r="E128" t="n">
-        <v>10784.34</v>
-      </c>
-      <c r="G128" s="3">
+        <v>10893.53</v>
+      </c>
+      <c r="G128" s="1">
         <f>AVERAGE(E124:E128)</f>
         <v/>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="1">
         <f>AVERAGE(E99:E128)</f>
         <v/>
       </c>
-      <c r="I128" s="3">
+      <c r="I128" s="1">
         <f>G128-H128</f>
         <v/>
       </c>
@@ -5193,26 +5187,26 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>10762.99</v>
+        <v>10885.64</v>
       </c>
       <c r="C129" t="n">
-        <v>10818.05</v>
+        <v>10975.67</v>
       </c>
       <c r="D129" t="n">
-        <v>10745.32</v>
+        <v>10874.83</v>
       </c>
       <c r="E129" t="n">
-        <v>10745.32</v>
-      </c>
-      <c r="G129" s="3">
+        <v>10927.18</v>
+      </c>
+      <c r="G129" s="1">
         <f>AVERAGE(E125:E129)</f>
         <v/>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="1">
         <f>AVERAGE(E100:E129)</f>
         <v/>
       </c>
-      <c r="I129" s="3">
+      <c r="I129" s="1">
         <f>G129-H129</f>
         <v/>
       </c>
@@ -5222,26 +5216,26 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>10788.43</v>
+        <v>10961.7</v>
       </c>
       <c r="C130" t="n">
-        <v>10852.33</v>
+        <v>11016.35</v>
       </c>
       <c r="D130" t="n">
-        <v>10788.43</v>
+        <v>10953.31</v>
       </c>
       <c r="E130" t="n">
-        <v>10823.24</v>
-      </c>
-      <c r="G130" s="3">
+        <v>10974.02</v>
+      </c>
+      <c r="G130" s="1">
         <f>AVERAGE(E126:E130)</f>
         <v/>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="1">
         <f>AVERAGE(E101:E130)</f>
         <v/>
       </c>
-      <c r="I130" s="3">
+      <c r="I130" s="1">
         <f>G130-H130</f>
         <v/>
       </c>
@@ -5251,26 +5245,26 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>10847.74</v>
+        <v>10984.12</v>
       </c>
       <c r="C131" t="n">
-        <v>10882.76</v>
+        <v>11008.2</v>
       </c>
       <c r="D131" t="n">
-        <v>10845.38</v>
+        <v>10920.62</v>
       </c>
       <c r="E131" t="n">
-        <v>10864.82</v>
-      </c>
-      <c r="G131" s="3">
+        <v>10955.29</v>
+      </c>
+      <c r="G131" s="1">
         <f>AVERAGE(E127:E131)</f>
         <v/>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="1">
         <f>AVERAGE(E102:E131)</f>
         <v/>
       </c>
-      <c r="I131" s="3">
+      <c r="I131" s="1">
         <f>G131-H131</f>
         <v/>
       </c>
@@ -5280,26 +5274,26 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>10908.99</v>
+        <v>10975.58</v>
       </c>
       <c r="C132" t="n">
-        <v>11016.56</v>
+        <v>10988.23</v>
       </c>
       <c r="D132" t="n">
-        <v>10908.99</v>
+        <v>10938.37</v>
       </c>
       <c r="E132" t="n">
-        <v>11002.1</v>
-      </c>
-      <c r="G132" s="3">
+        <v>10965.39</v>
+      </c>
+      <c r="G132" s="1">
         <f>AVERAGE(E128:E132)</f>
         <v/>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="1">
         <f>AVERAGE(E103:E132)</f>
         <v/>
       </c>
-      <c r="I132" s="3">
+      <c r="I132" s="1">
         <f>G132-H132</f>
         <v/>
       </c>
@@ -5309,26 +5303,26 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>11022.15</v>
+        <v>10962.36</v>
       </c>
       <c r="C133" t="n">
-        <v>11095.63</v>
+        <v>10974.94</v>
       </c>
       <c r="D133" t="n">
-        <v>11014.87</v>
+        <v>10921.17</v>
       </c>
       <c r="E133" t="n">
-        <v>11095.63</v>
-      </c>
-      <c r="G133" s="3">
+        <v>10954.55</v>
+      </c>
+      <c r="G133" s="1">
         <f>AVERAGE(E129:E133)</f>
         <v/>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="1">
         <f>AVERAGE(E104:E133)</f>
         <v/>
       </c>
-      <c r="I133" s="3">
+      <c r="I133" s="1">
         <f>G133-H133</f>
         <v/>
       </c>
@@ -5338,26 +5332,26 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>11063.73</v>
+        <v>10953.51</v>
       </c>
       <c r="C134" t="n">
-        <v>11070.29</v>
+        <v>10965.2</v>
       </c>
       <c r="D134" t="n">
-        <v>11015.47</v>
+        <v>10799.07</v>
       </c>
       <c r="E134" t="n">
-        <v>11038.8</v>
-      </c>
-      <c r="G134" s="3">
+        <v>10810.45</v>
+      </c>
+      <c r="G134" s="1">
         <f>AVERAGE(E130:E134)</f>
         <v/>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="1">
         <f>AVERAGE(E105:E134)</f>
         <v/>
       </c>
-      <c r="I134" s="3">
+      <c r="I134" s="1">
         <f>G134-H134</f>
         <v/>
       </c>
@@ -5367,26 +5361,26 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>11039.6</v>
+        <v>10842.88</v>
       </c>
       <c r="C135" t="n">
-        <v>11052.11</v>
+        <v>10917.6</v>
       </c>
       <c r="D135" t="n">
-        <v>11008.18</v>
+        <v>10809.89</v>
       </c>
       <c r="E135" t="n">
-        <v>11018.45</v>
-      </c>
-      <c r="G135" s="3">
+        <v>10847.89</v>
+      </c>
+      <c r="G135" s="1">
         <f>AVERAGE(E131:E135)</f>
         <v/>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="1">
         <f>AVERAGE(E106:E135)</f>
         <v/>
       </c>
-      <c r="I135" s="3">
+      <c r="I135" s="1">
         <f>G135-H135</f>
         <v/>
       </c>
@@ -5396,26 +5390,26 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>11010.24</v>
+        <v>10891.66</v>
       </c>
       <c r="C136" t="n">
-        <v>11054.86</v>
+        <v>10983.96</v>
       </c>
       <c r="D136" t="n">
-        <v>10933.46</v>
+        <v>10889.71</v>
       </c>
       <c r="E136" t="n">
-        <v>11027.7</v>
-      </c>
-      <c r="G136" s="3">
+        <v>10971.22</v>
+      </c>
+      <c r="G136" s="1">
         <f>AVERAGE(E132:E136)</f>
         <v/>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="1">
         <f>AVERAGE(E107:E136)</f>
         <v/>
       </c>
-      <c r="I136" s="3">
+      <c r="I136" s="1">
         <f>G136-H136</f>
         <v/>
       </c>
@@ -5425,26 +5419,26 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>11004.81</v>
+        <v>10802.42</v>
       </c>
       <c r="C137" t="n">
-        <v>11066</v>
+        <v>10831.56</v>
       </c>
       <c r="D137" t="n">
-        <v>10983.25</v>
+        <v>10770.05</v>
       </c>
       <c r="E137" t="n">
-        <v>11046.9</v>
-      </c>
-      <c r="G137" s="3">
+        <v>10779.38</v>
+      </c>
+      <c r="G137" s="1">
         <f>AVERAGE(E133:E137)</f>
         <v/>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="1">
         <f>AVERAGE(E108:E137)</f>
         <v/>
       </c>
-      <c r="I137" s="3">
+      <c r="I137" s="1">
         <f>G137-H137</f>
         <v/>
       </c>
@@ -5454,26 +5448,26 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>11016.85</v>
+        <v>10756.89</v>
       </c>
       <c r="C138" t="n">
-        <v>11020.78</v>
+        <v>10774.73</v>
       </c>
       <c r="D138" t="n">
-        <v>10981.04</v>
+        <v>10687.25</v>
       </c>
       <c r="E138" t="n">
-        <v>11010.84</v>
-      </c>
-      <c r="G138" s="3">
+        <v>10697.13</v>
+      </c>
+      <c r="G138" s="1">
         <f>AVERAGE(E134:E138)</f>
         <v/>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="1">
         <f>AVERAGE(E109:E138)</f>
         <v/>
       </c>
-      <c r="I138" s="3">
+      <c r="I138" s="1">
         <f>G138-H138</f>
         <v/>
       </c>
@@ -5483,26 +5477,26 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>11037.35</v>
+        <v>10680.38</v>
       </c>
       <c r="C139" t="n">
-        <v>11072.31</v>
+        <v>10692.19</v>
       </c>
       <c r="D139" t="n">
-        <v>11011.07</v>
+        <v>10540.15</v>
       </c>
       <c r="E139" t="n">
-        <v>11011.07</v>
-      </c>
-      <c r="G139" s="3">
+        <v>10579.5</v>
+      </c>
+      <c r="G139" s="1">
         <f>AVERAGE(E135:E139)</f>
         <v/>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="1">
         <f>AVERAGE(E110:E139)</f>
         <v/>
       </c>
-      <c r="I139" s="3">
+      <c r="I139" s="1">
         <f>G139-H139</f>
         <v/>
       </c>
@@ -5512,26 +5506,26 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>11045.9</v>
+        <v>10541.83</v>
       </c>
       <c r="C140" t="n">
-        <v>11120.2</v>
+        <v>10573.73</v>
       </c>
       <c r="D140" t="n">
-        <v>10975.33</v>
+        <v>10489.2</v>
       </c>
       <c r="E140" t="n">
-        <v>11005.84</v>
-      </c>
-      <c r="G140" s="3">
+        <v>10559.97</v>
+      </c>
+      <c r="G140" s="1">
         <f>AVERAGE(E136:E140)</f>
         <v/>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="1">
         <f>AVERAGE(E111:E140)</f>
         <v/>
       </c>
-      <c r="I140" s="3">
+      <c r="I140" s="1">
         <f>G140-H140</f>
         <v/>
       </c>
@@ -5541,26 +5535,26 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10863.67</v>
+        <v>10583.08</v>
       </c>
       <c r="C141" t="n">
-        <v>10863.67</v>
+        <v>10618.68</v>
       </c>
       <c r="D141" t="n">
-        <v>10758.06</v>
+        <v>10478.98</v>
       </c>
       <c r="E141" t="n">
-        <v>10823.33</v>
-      </c>
-      <c r="G141" s="3">
+        <v>10488.58</v>
+      </c>
+      <c r="G141" s="1">
         <f>AVERAGE(E137:E141)</f>
         <v/>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="1">
         <f>AVERAGE(E112:E141)</f>
         <v/>
       </c>
-      <c r="I141" s="3">
+      <c r="I141" s="1">
         <f>G141-H141</f>
         <v/>
       </c>
@@ -5570,26 +5564,26 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10783.57</v>
+        <v>10546.29</v>
       </c>
       <c r="C142" t="n">
-        <v>10840.05</v>
+        <v>10573.61</v>
       </c>
       <c r="D142" t="n">
-        <v>10781.43</v>
+        <v>10495.67</v>
       </c>
       <c r="E142" t="n">
-        <v>10840.05</v>
-      </c>
-      <c r="G142" s="3">
+        <v>10553.43</v>
+      </c>
+      <c r="G142" s="1">
         <f>AVERAGE(E138:E142)</f>
         <v/>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="1">
         <f>AVERAGE(E113:E142)</f>
         <v/>
       </c>
-      <c r="I142" s="3">
+      <c r="I142" s="1">
         <f>G142-H142</f>
         <v/>
       </c>
@@ -5599,26 +5593,26 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10901.69</v>
+        <v>10553.41</v>
       </c>
       <c r="C143" t="n">
-        <v>10986.79</v>
+        <v>10660.61</v>
       </c>
       <c r="D143" t="n">
-        <v>10901.69</v>
+        <v>10539.63</v>
       </c>
       <c r="E143" t="n">
-        <v>10986.79</v>
-      </c>
-      <c r="G143" s="3">
+        <v>10657.88</v>
+      </c>
+      <c r="G143" s="1">
         <f>AVERAGE(E139:E143)</f>
         <v/>
       </c>
-      <c r="H143" s="3">
+      <c r="H143" s="1">
         <f>AVERAGE(E114:E143)</f>
         <v/>
       </c>
-      <c r="I143" s="3">
+      <c r="I143" s="1">
         <f>G143-H143</f>
         <v/>
       </c>
@@ -5628,26 +5622,26 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>10939.97</v>
+        <v>10665.52</v>
       </c>
       <c r="C144" t="n">
-        <v>10939.97</v>
+        <v>10683.9</v>
       </c>
       <c r="D144" t="n">
-        <v>10853.48</v>
+        <v>10601.1</v>
       </c>
       <c r="E144" t="n">
-        <v>10865.66</v>
-      </c>
-      <c r="G144" s="3">
+        <v>10618.81</v>
+      </c>
+      <c r="G144" s="1">
         <f>AVERAGE(E140:E144)</f>
         <v/>
       </c>
-      <c r="H144" s="3">
+      <c r="H144" s="1">
         <f>AVERAGE(E115:E144)</f>
         <v/>
       </c>
-      <c r="I144" s="3">
+      <c r="I144" s="1">
         <f>G144-H144</f>
         <v/>
       </c>
@@ -5657,26 +5651,26 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>10855.66</v>
+        <v>10578.98</v>
       </c>
       <c r="C145" t="n">
-        <v>10889.6</v>
+        <v>10578.98</v>
       </c>
       <c r="D145" t="n">
-        <v>10815.46</v>
+        <v>10509.03</v>
       </c>
       <c r="E145" t="n">
-        <v>10845.92</v>
-      </c>
-      <c r="G145" s="3">
+        <v>10514.18</v>
+      </c>
+      <c r="G145" s="1">
         <f>AVERAGE(E141:E145)</f>
         <v/>
       </c>
-      <c r="H145" s="3">
+      <c r="H145" s="1">
         <f>AVERAGE(E116:E145)</f>
         <v/>
       </c>
-      <c r="I145" s="3">
+      <c r="I145" s="1">
         <f>G145-H145</f>
         <v/>
       </c>
@@ -5686,26 +5680,26 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>10905.3</v>
+        <v>10516.45</v>
       </c>
       <c r="C146" t="n">
-        <v>10969.22</v>
+        <v>10566.37</v>
       </c>
       <c r="D146" t="n">
-        <v>10905.3</v>
+        <v>10500.97</v>
       </c>
       <c r="E146" t="n">
-        <v>10906.22</v>
-      </c>
-      <c r="G146" s="3">
+        <v>10529.37</v>
+      </c>
+      <c r="G146" s="1">
         <f>AVERAGE(E142:E146)</f>
         <v/>
       </c>
-      <c r="H146" s="3">
+      <c r="H146" s="1">
         <f>AVERAGE(E117:E146)</f>
         <v/>
       </c>
-      <c r="I146" s="3">
+      <c r="I146" s="1">
         <f>G146-H146</f>
         <v/>
       </c>
@@ -5715,26 +5709,26 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>10925.71</v>
+        <v>10581.78</v>
       </c>
       <c r="C147" t="n">
-        <v>10947.16</v>
+        <v>10632.62</v>
       </c>
       <c r="D147" t="n">
-        <v>10905.69</v>
+        <v>10555.56</v>
       </c>
       <c r="E147" t="n">
-        <v>10919.49</v>
-      </c>
-      <c r="G147" s="3">
+        <v>10604.91</v>
+      </c>
+      <c r="G147" s="1">
         <f>AVERAGE(E143:E147)</f>
         <v/>
       </c>
-      <c r="H147" s="3">
+      <c r="H147" s="1">
         <f>AVERAGE(E118:E147)</f>
         <v/>
       </c>
-      <c r="I147" s="3">
+      <c r="I147" s="1">
         <f>G147-H147</f>
         <v/>
       </c>
@@ -5744,26 +5738,26 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>10936.26</v>
+        <v>10610.44</v>
       </c>
       <c r="C148" t="n">
-        <v>10969.88</v>
+        <v>10691.38</v>
       </c>
       <c r="D148" t="n">
-        <v>10882.05</v>
+        <v>10609.04</v>
       </c>
       <c r="E148" t="n">
-        <v>10888.27</v>
-      </c>
-      <c r="G148" s="3">
+        <v>10691.38</v>
+      </c>
+      <c r="G148" s="1">
         <f>AVERAGE(E144:E148)</f>
         <v/>
       </c>
-      <c r="H148" s="3">
+      <c r="H148" s="1">
         <f>AVERAGE(E119:E148)</f>
         <v/>
       </c>
-      <c r="I148" s="3">
+      <c r="I148" s="1">
         <f>G148-H148</f>
         <v/>
       </c>
@@ -5773,26 +5767,26 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>10837.54</v>
+        <v>10692.89</v>
       </c>
       <c r="C149" t="n">
-        <v>10837.54</v>
+        <v>10748.6</v>
       </c>
       <c r="D149" t="n">
-        <v>10775.45</v>
+        <v>10689.81</v>
       </c>
       <c r="E149" t="n">
-        <v>10821.53</v>
-      </c>
-      <c r="G149" s="3">
+        <v>10703.35</v>
+      </c>
+      <c r="G149" s="1">
         <f>AVERAGE(E145:E149)</f>
         <v/>
       </c>
-      <c r="H149" s="3">
+      <c r="H149" s="1">
         <f>AVERAGE(E120:E149)</f>
         <v/>
       </c>
-      <c r="I149" s="3">
+      <c r="I149" s="1">
         <f>G149-H149</f>
         <v/>
       </c>
@@ -5802,26 +5796,26 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>10880.14</v>
+        <v>10731.68</v>
       </c>
       <c r="C150" t="n">
-        <v>10904.75</v>
+        <v>10782.06</v>
       </c>
       <c r="D150" t="n">
-        <v>10829.02</v>
+        <v>10731.68</v>
       </c>
       <c r="E150" t="n">
-        <v>10893.53</v>
-      </c>
-      <c r="G150" s="3">
+        <v>10760.21</v>
+      </c>
+      <c r="G150" s="1">
         <f>AVERAGE(E146:E150)</f>
         <v/>
       </c>
-      <c r="H150" s="3">
+      <c r="H150" s="1">
         <f>AVERAGE(E121:E150)</f>
         <v/>
       </c>
-      <c r="I150" s="3">
+      <c r="I150" s="1">
         <f>G150-H150</f>
         <v/>
       </c>
@@ -5831,26 +5825,26 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>10885.64</v>
+        <v>10808.4</v>
       </c>
       <c r="C151" t="n">
-        <v>10975.67</v>
+        <v>10874.63</v>
       </c>
       <c r="D151" t="n">
-        <v>10874.83</v>
+        <v>10808.4</v>
       </c>
       <c r="E151" t="n">
-        <v>10927.18</v>
-      </c>
-      <c r="G151" s="3">
+        <v>10858.98</v>
+      </c>
+      <c r="G151" s="1">
         <f>AVERAGE(E147:E151)</f>
         <v/>
       </c>
-      <c r="H151" s="3">
+      <c r="H151" s="1">
         <f>AVERAGE(E122:E151)</f>
         <v/>
       </c>
-      <c r="I151" s="3">
+      <c r="I151" s="1">
         <f>G151-H151</f>
         <v/>
       </c>
@@ -5860,26 +5854,26 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>10961.7</v>
+        <v>10938.3</v>
       </c>
       <c r="C152" t="n">
-        <v>11016.35</v>
+        <v>10970.24</v>
       </c>
       <c r="D152" t="n">
-        <v>10953.31</v>
+        <v>10908.86</v>
       </c>
       <c r="E152" t="n">
-        <v>10974.02</v>
-      </c>
-      <c r="G152" s="3">
+        <v>10952.39</v>
+      </c>
+      <c r="G152" s="1">
         <f>AVERAGE(E148:E152)</f>
         <v/>
       </c>
-      <c r="H152" s="3">
+      <c r="H152" s="1">
         <f>AVERAGE(E123:E152)</f>
         <v/>
       </c>
-      <c r="I152" s="3">
+      <c r="I152" s="1">
         <f>G152-H152</f>
         <v/>
       </c>
@@ -5889,26 +5883,26 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>10984.12</v>
+        <v>10965.08</v>
       </c>
       <c r="C153" t="n">
-        <v>11008.2</v>
+        <v>10978.38</v>
       </c>
       <c r="D153" t="n">
-        <v>10920.62</v>
+        <v>10874.73</v>
       </c>
       <c r="E153" t="n">
-        <v>10955.29</v>
-      </c>
-      <c r="G153" s="3">
+        <v>10874.73</v>
+      </c>
+      <c r="G153" s="1">
         <f>AVERAGE(E149:E153)</f>
         <v/>
       </c>
-      <c r="H153" s="3">
+      <c r="H153" s="1">
         <f>AVERAGE(E124:E153)</f>
         <v/>
       </c>
-      <c r="I153" s="3">
+      <c r="I153" s="1">
         <f>G153-H153</f>
         <v/>
       </c>
@@ -5918,26 +5912,26 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>10975.58</v>
+        <v>10873.54</v>
       </c>
       <c r="C154" t="n">
-        <v>10988.23</v>
+        <v>10915.74</v>
       </c>
       <c r="D154" t="n">
-        <v>10938.37</v>
+        <v>10865.07</v>
       </c>
       <c r="E154" t="n">
-        <v>10965.39</v>
-      </c>
-      <c r="G154" s="3">
+        <v>10897.57</v>
+      </c>
+      <c r="G154" s="1">
         <f>AVERAGE(E150:E154)</f>
         <v/>
       </c>
-      <c r="H154" s="3">
+      <c r="H154" s="1">
         <f>AVERAGE(E125:E154)</f>
         <v/>
       </c>
-      <c r="I154" s="3">
+      <c r="I154" s="1">
         <f>G154-H154</f>
         <v/>
       </c>
@@ -5947,26 +5941,26 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>10962.36</v>
+        <v>10911.74</v>
       </c>
       <c r="C155" t="n">
-        <v>10974.94</v>
+        <v>10938.63</v>
       </c>
       <c r="D155" t="n">
-        <v>10921.17</v>
+        <v>10833.81</v>
       </c>
       <c r="E155" t="n">
-        <v>10954.55</v>
-      </c>
-      <c r="G155" s="3">
+        <v>10833.81</v>
+      </c>
+      <c r="G155" s="1">
         <f>AVERAGE(E151:E155)</f>
         <v/>
       </c>
-      <c r="H155" s="3">
+      <c r="H155" s="1">
         <f>AVERAGE(E126:E155)</f>
         <v/>
       </c>
-      <c r="I155" s="3">
+      <c r="I155" s="1">
         <f>G155-H155</f>
         <v/>
       </c>
@@ -5976,26 +5970,26 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>10953.51</v>
+        <v>10844.09</v>
       </c>
       <c r="C156" t="n">
-        <v>10965.2</v>
+        <v>10893.35</v>
       </c>
       <c r="D156" t="n">
-        <v>10799.07</v>
+        <v>10819.07</v>
       </c>
       <c r="E156" t="n">
-        <v>10810.45</v>
-      </c>
-      <c r="G156" s="3">
+        <v>10830.84</v>
+      </c>
+      <c r="G156" s="1">
         <f>AVERAGE(E152:E156)</f>
         <v/>
       </c>
-      <c r="H156" s="3">
+      <c r="H156" s="1">
         <f>AVERAGE(E127:E156)</f>
         <v/>
       </c>
-      <c r="I156" s="3">
+      <c r="I156" s="1">
         <f>G156-H156</f>
         <v/>
       </c>
@@ -6005,26 +5999,26 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>10842.88</v>
+        <v>10861.66</v>
       </c>
       <c r="C157" t="n">
-        <v>10917.6</v>
+        <v>10979.1</v>
       </c>
       <c r="D157" t="n">
-        <v>10809.89</v>
+        <v>10861.66</v>
       </c>
       <c r="E157" t="n">
-        <v>10847.89</v>
-      </c>
-      <c r="G157" s="3">
+        <v>10966.2</v>
+      </c>
+      <c r="G157" s="1">
         <f>AVERAGE(E153:E157)</f>
         <v/>
       </c>
-      <c r="H157" s="3">
+      <c r="H157" s="1">
         <f>AVERAGE(E128:E157)</f>
         <v/>
       </c>
-      <c r="I157" s="3">
+      <c r="I157" s="1">
         <f>G157-H157</f>
         <v/>
       </c>
@@ -6034,26 +6028,26 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10891.66</v>
+        <v>10986.77</v>
       </c>
       <c r="C158" t="n">
-        <v>10983.96</v>
+        <v>11034.12</v>
       </c>
       <c r="D158" t="n">
-        <v>10889.71</v>
+        <v>10938.73</v>
       </c>
       <c r="E158" t="n">
-        <v>10971.22</v>
-      </c>
-      <c r="G158" s="3">
+        <v>10938.73</v>
+      </c>
+      <c r="G158" s="1">
         <f>AVERAGE(E154:E158)</f>
         <v/>
       </c>
-      <c r="H158" s="3">
+      <c r="H158" s="1">
         <f>AVERAGE(E129:E158)</f>
         <v/>
       </c>
-      <c r="I158" s="3">
+      <c r="I158" s="1">
         <f>G158-H158</f>
         <v/>
       </c>
@@ -6063,26 +6057,26 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10802.42</v>
+        <v>10974.52</v>
       </c>
       <c r="C159" t="n">
-        <v>10831.56</v>
+        <v>10991.86</v>
       </c>
       <c r="D159" t="n">
-        <v>10770.05</v>
+        <v>10886.18</v>
       </c>
       <c r="E159" t="n">
-        <v>10779.38</v>
-      </c>
-      <c r="G159" s="3">
+        <v>10886.18</v>
+      </c>
+      <c r="G159" s="1">
         <f>AVERAGE(E155:E159)</f>
         <v/>
       </c>
-      <c r="H159" s="3">
+      <c r="H159" s="1">
         <f>AVERAGE(E130:E159)</f>
         <v/>
       </c>
-      <c r="I159" s="3">
+      <c r="I159" s="1">
         <f>G159-H159</f>
         <v/>
       </c>
@@ -6092,26 +6086,26 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10756.89</v>
+        <v>10910.61</v>
       </c>
       <c r="C160" t="n">
-        <v>10774.73</v>
+        <v>10942.64</v>
       </c>
       <c r="D160" t="n">
-        <v>10687.25</v>
+        <v>10883.52</v>
       </c>
       <c r="E160" t="n">
-        <v>10697.13</v>
-      </c>
-      <c r="G160" s="3">
+        <v>10936.93</v>
+      </c>
+      <c r="G160" s="1">
         <f>AVERAGE(E156:E160)</f>
         <v/>
       </c>
-      <c r="H160" s="3">
+      <c r="H160" s="1">
         <f>AVERAGE(E131:E160)</f>
         <v/>
       </c>
-      <c r="I160" s="3">
+      <c r="I160" s="1">
         <f>G160-H160</f>
         <v/>
       </c>
@@ -6121,26 +6115,26 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10680.38</v>
+        <v>10946.62</v>
       </c>
       <c r="C161" t="n">
-        <v>10692.19</v>
+        <v>10977.81</v>
       </c>
       <c r="D161" t="n">
-        <v>10540.15</v>
+        <v>10918.12</v>
       </c>
       <c r="E161" t="n">
-        <v>10579.5</v>
-      </c>
-      <c r="G161" s="3">
+        <v>10942.3</v>
+      </c>
+      <c r="G161" s="1">
         <f>AVERAGE(E157:E161)</f>
         <v/>
       </c>
-      <c r="H161" s="3">
+      <c r="H161" s="1">
         <f>AVERAGE(E132:E161)</f>
         <v/>
       </c>
-      <c r="I161" s="3">
+      <c r="I161" s="1">
         <f>G161-H161</f>
         <v/>
       </c>
@@ -6150,26 +6144,26 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>10541.83</v>
+        <v>10976.49</v>
       </c>
       <c r="C162" t="n">
-        <v>10573.73</v>
+        <v>10999.43</v>
       </c>
       <c r="D162" t="n">
-        <v>10489.2</v>
+        <v>10965.18</v>
       </c>
       <c r="E162" t="n">
-        <v>10559.97</v>
-      </c>
-      <c r="G162" s="3">
+        <v>10987.77</v>
+      </c>
+      <c r="G162" s="1">
         <f>AVERAGE(E158:E162)</f>
         <v/>
       </c>
-      <c r="H162" s="3">
+      <c r="H162" s="1">
         <f>AVERAGE(E133:E162)</f>
         <v/>
       </c>
-      <c r="I162" s="3">
+      <c r="I162" s="1">
         <f>G162-H162</f>
         <v/>
       </c>
@@ -6179,26 +6173,26 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>10583.08</v>
+        <v>10979.68</v>
       </c>
       <c r="C163" t="n">
-        <v>10618.68</v>
+        <v>10986.53</v>
       </c>
       <c r="D163" t="n">
-        <v>10478.98</v>
+        <v>10929.56</v>
       </c>
       <c r="E163" t="n">
-        <v>10488.58</v>
-      </c>
-      <c r="G163" s="3">
+        <v>10964.12</v>
+      </c>
+      <c r="G163" s="1">
         <f>AVERAGE(E159:E163)</f>
         <v/>
       </c>
-      <c r="H163" s="3">
+      <c r="H163" s="1">
         <f>AVERAGE(E134:E163)</f>
         <v/>
       </c>
-      <c r="I163" s="3">
+      <c r="I163" s="1">
         <f>G163-H163</f>
         <v/>
       </c>
@@ -6208,26 +6202,26 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10546.29</v>
+        <v>10925.21</v>
       </c>
       <c r="C164" t="n">
-        <v>10573.61</v>
+        <v>10925.21</v>
       </c>
       <c r="D164" t="n">
-        <v>10495.67</v>
+        <v>10799.75</v>
       </c>
       <c r="E164" t="n">
-        <v>10553.43</v>
-      </c>
-      <c r="G164" s="3">
+        <v>10821.17</v>
+      </c>
+      <c r="G164" s="1">
         <f>AVERAGE(E160:E164)</f>
         <v/>
       </c>
-      <c r="H164" s="3">
+      <c r="H164" s="1">
         <f>AVERAGE(E135:E164)</f>
         <v/>
       </c>
-      <c r="I164" s="3">
+      <c r="I164" s="1">
         <f>G164-H164</f>
         <v/>
       </c>
@@ -6237,26 +6231,26 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>10553.41</v>
+        <v>10856.03</v>
       </c>
       <c r="C165" t="n">
-        <v>10660.61</v>
+        <v>10909.61</v>
       </c>
       <c r="D165" t="n">
-        <v>10539.63</v>
+        <v>10853.65</v>
       </c>
       <c r="E165" t="n">
-        <v>10657.88</v>
-      </c>
-      <c r="G165" s="3">
+        <v>10874.96</v>
+      </c>
+      <c r="G165" s="1">
         <f>AVERAGE(E161:E165)</f>
         <v/>
       </c>
-      <c r="H165" s="3">
+      <c r="H165" s="1">
         <f>AVERAGE(E136:E165)</f>
         <v/>
       </c>
-      <c r="I165" s="3">
+      <c r="I165" s="1">
         <f>G165-H165</f>
         <v/>
       </c>
@@ -6266,26 +6260,26 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>10665.52</v>
+        <v>10882.68</v>
       </c>
       <c r="C166" t="n">
-        <v>10683.9</v>
+        <v>10954.67</v>
       </c>
       <c r="D166" t="n">
-        <v>10601.1</v>
+        <v>10876.97</v>
       </c>
       <c r="E166" t="n">
-        <v>10618.81</v>
-      </c>
-      <c r="G166" s="3">
+        <v>10949.08</v>
+      </c>
+      <c r="G166" s="1">
         <f>AVERAGE(E162:E166)</f>
         <v/>
       </c>
-      <c r="H166" s="3">
+      <c r="H166" s="1">
         <f>AVERAGE(E137:E166)</f>
         <v/>
       </c>
-      <c r="I166" s="3">
+      <c r="I166" s="1">
         <f>G166-H166</f>
         <v/>
       </c>
@@ -6295,26 +6289,26 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>10578.98</v>
+        <v>11002.15</v>
       </c>
       <c r="C167" t="n">
-        <v>10578.98</v>
+        <v>11109.5</v>
       </c>
       <c r="D167" t="n">
-        <v>10509.03</v>
+        <v>11002.15</v>
       </c>
       <c r="E167" t="n">
-        <v>10514.18</v>
-      </c>
-      <c r="G167" s="3">
+        <v>11109.5</v>
+      </c>
+      <c r="G167" s="1">
         <f>AVERAGE(E163:E167)</f>
         <v/>
       </c>
-      <c r="H167" s="3">
+      <c r="H167" s="1">
         <f>AVERAGE(E138:E167)</f>
         <v/>
       </c>
-      <c r="I167" s="3">
+      <c r="I167" s="1">
         <f>G167-H167</f>
         <v/>
       </c>
@@ -6324,26 +6318,26 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>10516.45</v>
+        <v>11130.03</v>
       </c>
       <c r="C168" t="n">
-        <v>10566.37</v>
+        <v>11131.08</v>
       </c>
       <c r="D168" t="n">
-        <v>10500.97</v>
+        <v>11054.62</v>
       </c>
       <c r="E168" t="n">
-        <v>10529.37</v>
-      </c>
-      <c r="G168" s="3">
+        <v>11100.11</v>
+      </c>
+      <c r="G168" s="1">
         <f>AVERAGE(E164:E168)</f>
         <v/>
       </c>
-      <c r="H168" s="3">
+      <c r="H168" s="1">
         <f>AVERAGE(E139:E168)</f>
         <v/>
       </c>
-      <c r="I168" s="3">
+      <c r="I168" s="1">
         <f>G168-H168</f>
         <v/>
       </c>
@@ -6353,26 +6347,26 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>10581.78</v>
+        <v>11111.14</v>
       </c>
       <c r="C169" t="n">
-        <v>10632.62</v>
+        <v>11207.15</v>
       </c>
       <c r="D169" t="n">
-        <v>10555.56</v>
+        <v>11111.14</v>
       </c>
       <c r="E169" t="n">
-        <v>10604.91</v>
-      </c>
-      <c r="G169" s="3">
+        <v>11201.83</v>
+      </c>
+      <c r="G169" s="1">
         <f>AVERAGE(E165:E169)</f>
         <v/>
       </c>
-      <c r="H169" s="3">
+      <c r="H169" s="1">
         <f>AVERAGE(E140:E169)</f>
         <v/>
       </c>
-      <c r="I169" s="3">
+      <c r="I169" s="1">
         <f>G169-H169</f>
         <v/>
       </c>
@@ -6382,26 +6376,26 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>10610.44</v>
+        <v>11228.64</v>
       </c>
       <c r="C170" t="n">
-        <v>10691.38</v>
+        <v>11261.68</v>
       </c>
       <c r="D170" t="n">
-        <v>10609.04</v>
+        <v>11188.99</v>
       </c>
       <c r="E170" t="n">
-        <v>10691.38</v>
-      </c>
-      <c r="G170" s="3">
+        <v>11251.75</v>
+      </c>
+      <c r="G170" s="1">
         <f>AVERAGE(E166:E170)</f>
         <v/>
       </c>
-      <c r="H170" s="3">
+      <c r="H170" s="1">
         <f>AVERAGE(E141:E170)</f>
         <v/>
       </c>
-      <c r="I170" s="3">
+      <c r="I170" s="1">
         <f>G170-H170</f>
         <v/>
       </c>
@@ -6411,26 +6405,26 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>10692.89</v>
+        <v>11243.59</v>
       </c>
       <c r="C171" t="n">
-        <v>10748.6</v>
+        <v>11243.59</v>
       </c>
       <c r="D171" t="n">
-        <v>10689.81</v>
+        <v>11122.98</v>
       </c>
       <c r="E171" t="n">
-        <v>10703.35</v>
-      </c>
-      <c r="G171" s="3">
+        <v>11156.42</v>
+      </c>
+      <c r="G171" s="1">
         <f>AVERAGE(E167:E171)</f>
         <v/>
       </c>
-      <c r="H171" s="3">
+      <c r="H171" s="1">
         <f>AVERAGE(E142:E171)</f>
         <v/>
       </c>
-      <c r="I171" s="3">
+      <c r="I171" s="1">
         <f>G171-H171</f>
         <v/>
       </c>
@@ -6440,26 +6434,26 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>10731.68</v>
+        <v>11168.99</v>
       </c>
       <c r="C172" t="n">
-        <v>10782.06</v>
+        <v>11186.67</v>
       </c>
       <c r="D172" t="n">
-        <v>10731.68</v>
+        <v>11118.81</v>
       </c>
       <c r="E172" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G172" s="3">
+        <v>11149.23</v>
+      </c>
+      <c r="G172" s="1">
         <f>AVERAGE(E168:E172)</f>
         <v/>
       </c>
-      <c r="H172" s="3">
+      <c r="H172" s="1">
         <f>AVERAGE(E143:E172)</f>
         <v/>
       </c>
-      <c r="I172" s="3">
+      <c r="I172" s="1">
         <f>G172-H172</f>
         <v/>
       </c>
@@ -6469,26 +6463,26 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>10808.4</v>
+        <v>11140.02</v>
       </c>
       <c r="C173" t="n">
-        <v>10874.63</v>
+        <v>11160.05</v>
       </c>
       <c r="D173" t="n">
-        <v>10808.4</v>
+        <v>11088.53</v>
       </c>
       <c r="E173" t="n">
-        <v>10858.98</v>
-      </c>
-      <c r="G173" s="3">
+        <v>11144.79</v>
+      </c>
+      <c r="G173" s="1">
         <f>AVERAGE(E169:E173)</f>
         <v/>
       </c>
-      <c r="H173" s="3">
+      <c r="H173" s="1">
         <f>AVERAGE(E144:E173)</f>
         <v/>
       </c>
-      <c r="I173" s="3">
+      <c r="I173" s="1">
         <f>G173-H173</f>
         <v/>
       </c>
@@ -6498,26 +6492,26 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>10938.3</v>
+        <v>11153.2</v>
       </c>
       <c r="C174" t="n">
-        <v>10970.24</v>
+        <v>11188.01</v>
       </c>
       <c r="D174" t="n">
-        <v>10908.86</v>
+        <v>11119.24</v>
       </c>
       <c r="E174" t="n">
-        <v>10952.39</v>
-      </c>
-      <c r="G174" s="3">
+        <v>11173.21</v>
+      </c>
+      <c r="G174" s="1">
         <f>AVERAGE(E170:E174)</f>
         <v/>
       </c>
-      <c r="H174" s="3">
+      <c r="H174" s="1">
         <f>AVERAGE(E145:E174)</f>
         <v/>
       </c>
-      <c r="I174" s="3">
+      <c r="I174" s="1">
         <f>G174-H174</f>
         <v/>
       </c>
@@ -6527,26 +6521,26 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>10965.08</v>
+        <v>11143.04</v>
       </c>
       <c r="C175" t="n">
-        <v>10978.38</v>
+        <v>11143.04</v>
       </c>
       <c r="D175" t="n">
-        <v>10874.73</v>
+        <v>11013.98</v>
       </c>
       <c r="E175" t="n">
-        <v>10874.73</v>
-      </c>
-      <c r="G175" s="3">
+        <v>11013.98</v>
+      </c>
+      <c r="G175" s="1">
         <f>AVERAGE(E171:E175)</f>
         <v/>
       </c>
-      <c r="H175" s="3">
+      <c r="H175" s="1">
         <f>AVERAGE(E146:E175)</f>
         <v/>
       </c>
-      <c r="I175" s="3">
+      <c r="I175" s="1">
         <f>G175-H175</f>
         <v/>
       </c>
@@ -6556,26 +6550,26 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>10873.54</v>
+        <v>10998.2</v>
       </c>
       <c r="C176" t="n">
-        <v>10915.74</v>
+        <v>11087.47</v>
       </c>
       <c r="D176" t="n">
-        <v>10865.07</v>
+        <v>10981.61</v>
       </c>
       <c r="E176" t="n">
-        <v>10897.57</v>
-      </c>
-      <c r="G176" s="3">
+        <v>11087.47</v>
+      </c>
+      <c r="G176" s="1">
         <f>AVERAGE(E172:E176)</f>
         <v/>
       </c>
-      <c r="H176" s="3">
+      <c r="H176" s="1">
         <f>AVERAGE(E147:E176)</f>
         <v/>
       </c>
-      <c r="I176" s="3">
+      <c r="I176" s="1">
         <f>G176-H176</f>
         <v/>
       </c>
@@ -6585,26 +6579,26 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>10911.74</v>
+        <v>11008.77</v>
       </c>
       <c r="C177" t="n">
-        <v>10938.63</v>
+        <v>11008.77</v>
       </c>
       <c r="D177" t="n">
-        <v>10833.81</v>
+        <v>10904.19</v>
       </c>
       <c r="E177" t="n">
-        <v>10833.81</v>
-      </c>
-      <c r="G177" s="3">
+        <v>10904.19</v>
+      </c>
+      <c r="G177" s="1">
         <f>AVERAGE(E173:E177)</f>
         <v/>
       </c>
-      <c r="H177" s="3">
+      <c r="H177" s="1">
         <f>AVERAGE(E148:E177)</f>
         <v/>
       </c>
-      <c r="I177" s="3">
+      <c r="I177" s="1">
         <f>G177-H177</f>
         <v/>
       </c>
@@ -6614,26 +6608,26 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>10844.09</v>
+        <v>10904.8</v>
       </c>
       <c r="C178" t="n">
-        <v>10893.35</v>
+        <v>10969.2</v>
       </c>
       <c r="D178" t="n">
-        <v>10819.07</v>
+        <v>10842.56</v>
       </c>
       <c r="E178" t="n">
-        <v>10830.84</v>
-      </c>
-      <c r="G178" s="3">
+        <v>10927.44</v>
+      </c>
+      <c r="G178" s="1">
         <f>AVERAGE(E174:E178)</f>
         <v/>
       </c>
-      <c r="H178" s="3">
+      <c r="H178" s="1">
         <f>AVERAGE(E149:E178)</f>
         <v/>
       </c>
-      <c r="I178" s="3">
+      <c r="I178" s="1">
         <f>G178-H178</f>
         <v/>
       </c>
@@ -6643,26 +6637,26 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>10861.66</v>
+        <v>10949.85</v>
       </c>
       <c r="C179" t="n">
-        <v>10979.1</v>
+        <v>10992.31</v>
       </c>
       <c r="D179" t="n">
-        <v>10861.66</v>
+        <v>10941.07</v>
       </c>
       <c r="E179" t="n">
-        <v>10966.2</v>
-      </c>
-      <c r="G179" s="3">
+        <v>10941.07</v>
+      </c>
+      <c r="G179" s="1">
         <f>AVERAGE(E175:E179)</f>
         <v/>
       </c>
-      <c r="H179" s="3">
+      <c r="H179" s="1">
         <f>AVERAGE(E150:E179)</f>
         <v/>
       </c>
-      <c r="I179" s="3">
+      <c r="I179" s="1">
         <f>G179-H179</f>
         <v/>
       </c>
@@ -6672,26 +6666,26 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>10986.77</v>
+        <v>10901.25</v>
       </c>
       <c r="C180" t="n">
-        <v>11034.12</v>
+        <v>10914.83</v>
       </c>
       <c r="D180" t="n">
-        <v>10938.73</v>
+        <v>10828.86</v>
       </c>
       <c r="E180" t="n">
-        <v>10938.73</v>
-      </c>
-      <c r="G180" s="3">
+        <v>10899.28</v>
+      </c>
+      <c r="G180" s="1">
         <f>AVERAGE(E176:E180)</f>
         <v/>
       </c>
-      <c r="H180" s="3">
+      <c r="H180" s="1">
         <f>AVERAGE(E151:E180)</f>
         <v/>
       </c>
-      <c r="I180" s="3">
+      <c r="I180" s="1">
         <f>G180-H180</f>
         <v/>
       </c>
@@ -6701,26 +6695,26 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>10974.52</v>
+        <v>10834.07</v>
       </c>
       <c r="C181" t="n">
-        <v>10991.86</v>
+        <v>10851.16</v>
       </c>
       <c r="D181" t="n">
-        <v>10886.18</v>
+        <v>10786.46</v>
       </c>
       <c r="E181" t="n">
-        <v>10886.18</v>
-      </c>
-      <c r="G181" s="3">
+        <v>10786.46</v>
+      </c>
+      <c r="G181" s="1">
         <f>AVERAGE(E177:E181)</f>
         <v/>
       </c>
-      <c r="H181" s="3">
+      <c r="H181" s="1">
         <f>AVERAGE(E152:E181)</f>
         <v/>
       </c>
-      <c r="I181" s="3">
+      <c r="I181" s="1">
         <f>G181-H181</f>
         <v/>
       </c>
@@ -6730,26 +6724,26 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>10910.61</v>
+        <v>10730.9</v>
       </c>
       <c r="C182" t="n">
-        <v>10942.64</v>
+        <v>10752.99</v>
       </c>
       <c r="D182" t="n">
-        <v>10883.52</v>
+        <v>10651.42</v>
       </c>
       <c r="E182" t="n">
-        <v>10936.93</v>
-      </c>
-      <c r="G182" s="3">
+        <v>10742.17</v>
+      </c>
+      <c r="G182" s="1">
         <f>AVERAGE(E178:E182)</f>
         <v/>
       </c>
-      <c r="H182" s="3">
+      <c r="H182" s="1">
         <f>AVERAGE(E153:E182)</f>
         <v/>
       </c>
-      <c r="I182" s="3">
+      <c r="I182" s="1">
         <f>G182-H182</f>
         <v/>
       </c>
@@ -6759,26 +6753,26 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>10946.62</v>
+        <v>10766.88</v>
       </c>
       <c r="C183" t="n">
-        <v>10977.81</v>
+        <v>10800.34</v>
       </c>
       <c r="D183" t="n">
-        <v>10918.12</v>
+        <v>10701.03</v>
       </c>
       <c r="E183" t="n">
-        <v>10942.3</v>
-      </c>
-      <c r="G183" s="3">
+        <v>10701.03</v>
+      </c>
+      <c r="G183" s="1">
         <f>AVERAGE(E179:E183)</f>
         <v/>
       </c>
-      <c r="H183" s="3">
+      <c r="H183" s="1">
         <f>AVERAGE(E154:E183)</f>
         <v/>
       </c>
-      <c r="I183" s="3">
+      <c r="I183" s="1">
         <f>G183-H183</f>
         <v/>
       </c>
@@ -6788,26 +6782,26 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>10976.49</v>
+        <v>10669.42</v>
       </c>
       <c r="C184" t="n">
-        <v>10999.43</v>
+        <v>10723.84</v>
       </c>
       <c r="D184" t="n">
-        <v>10965.18</v>
+        <v>10633.01</v>
       </c>
       <c r="E184" t="n">
-        <v>10987.77</v>
-      </c>
-      <c r="G184" s="3">
+        <v>10654.28</v>
+      </c>
+      <c r="G184" s="1">
         <f>AVERAGE(E180:E184)</f>
         <v/>
       </c>
-      <c r="H184" s="3">
+      <c r="H184" s="1">
         <f>AVERAGE(E155:E184)</f>
         <v/>
       </c>
-      <c r="I184" s="3">
+      <c r="I184" s="1">
         <f>G184-H184</f>
         <v/>
       </c>
@@ -6817,26 +6811,26 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>10979.68</v>
+        <v>10667.64</v>
       </c>
       <c r="C185" t="n">
-        <v>10986.53</v>
+        <v>10836.91</v>
       </c>
       <c r="D185" t="n">
-        <v>10929.56</v>
+        <v>10667.64</v>
       </c>
       <c r="E185" t="n">
-        <v>10964.12</v>
-      </c>
-      <c r="G185" s="3">
+        <v>10836.91</v>
+      </c>
+      <c r="G185" s="1">
         <f>AVERAGE(E181:E185)</f>
         <v/>
       </c>
-      <c r="H185" s="3">
+      <c r="H185" s="1">
         <f>AVERAGE(E156:E185)</f>
         <v/>
       </c>
-      <c r="I185" s="3">
+      <c r="I185" s="1">
         <f>G185-H185</f>
         <v/>
       </c>
@@ -6846,26 +6840,26 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>10925.21</v>
+        <v>10852.17</v>
       </c>
       <c r="C186" t="n">
-        <v>10925.21</v>
+        <v>10886.2</v>
       </c>
       <c r="D186" t="n">
-        <v>10799.75</v>
+        <v>10777.94</v>
       </c>
       <c r="E186" t="n">
-        <v>10821.17</v>
-      </c>
-      <c r="G186" s="3">
+        <v>10777.94</v>
+      </c>
+      <c r="G186" s="1">
         <f>AVERAGE(E182:E186)</f>
         <v/>
       </c>
-      <c r="H186" s="3">
+      <c r="H186" s="1">
         <f>AVERAGE(E157:E186)</f>
         <v/>
       </c>
-      <c r="I186" s="3">
+      <c r="I186" s="1">
         <f>G186-H186</f>
         <v/>
       </c>
@@ -6875,26 +6869,26 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>10856.03</v>
+        <v>10802.88</v>
       </c>
       <c r="C187" t="n">
-        <v>10909.61</v>
+        <v>10873.48</v>
       </c>
       <c r="D187" t="n">
-        <v>10853.65</v>
+        <v>10707.68</v>
       </c>
       <c r="E187" t="n">
-        <v>10874.96</v>
-      </c>
-      <c r="G187" s="3">
+        <v>10715.72</v>
+      </c>
+      <c r="G187" s="1">
         <f>AVERAGE(E183:E187)</f>
         <v/>
       </c>
-      <c r="H187" s="3">
+      <c r="H187" s="1">
         <f>AVERAGE(E158:E187)</f>
         <v/>
       </c>
-      <c r="I187" s="3">
+      <c r="I187" s="1">
         <f>G187-H187</f>
         <v/>
       </c>
@@ -6904,26 +6898,26 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>10882.68</v>
+        <v>10714.25</v>
       </c>
       <c r="C188" t="n">
-        <v>10954.67</v>
+        <v>10752.05</v>
       </c>
       <c r="D188" t="n">
-        <v>10876.97</v>
+        <v>10680.44</v>
       </c>
       <c r="E188" t="n">
-        <v>10949.08</v>
-      </c>
-      <c r="G188" s="3">
+        <v>10721.87</v>
+      </c>
+      <c r="G188" s="1">
         <f>AVERAGE(E184:E188)</f>
         <v/>
       </c>
-      <c r="H188" s="3">
+      <c r="H188" s="1">
         <f>AVERAGE(E159:E188)</f>
         <v/>
       </c>
-      <c r="I188" s="3">
+      <c r="I188" s="1">
         <f>G188-H188</f>
         <v/>
       </c>
@@ -6933,26 +6927,26 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>11002.15</v>
+        <v>10690.91</v>
       </c>
       <c r="C189" t="n">
-        <v>11109.5</v>
+        <v>10709.8</v>
       </c>
       <c r="D189" t="n">
-        <v>11002.15</v>
+        <v>10585.27</v>
       </c>
       <c r="E189" t="n">
-        <v>11109.5</v>
-      </c>
-      <c r="G189" s="3">
+        <v>10611.81</v>
+      </c>
+      <c r="G189" s="1">
         <f>AVERAGE(E185:E189)</f>
         <v/>
       </c>
-      <c r="H189" s="3">
+      <c r="H189" s="1">
         <f>AVERAGE(E160:E189)</f>
         <v/>
       </c>
-      <c r="I189" s="3">
+      <c r="I189" s="1">
         <f>G189-H189</f>
         <v/>
       </c>
@@ -6962,26 +6956,26 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>11130.03</v>
+        <v>10645.66</v>
       </c>
       <c r="C190" t="n">
-        <v>11131.08</v>
+        <v>10665.72</v>
       </c>
       <c r="D190" t="n">
-        <v>11054.62</v>
+        <v>10523.58</v>
       </c>
       <c r="E190" t="n">
-        <v>11100.11</v>
-      </c>
-      <c r="G190" s="3">
+        <v>10608.57</v>
+      </c>
+      <c r="G190" s="1">
         <f>AVERAGE(E186:E190)</f>
         <v/>
       </c>
-      <c r="H190" s="3">
+      <c r="H190" s="1">
         <f>AVERAGE(E161:E190)</f>
         <v/>
       </c>
-      <c r="I190" s="3">
+      <c r="I190" s="1">
         <f>G190-H190</f>
         <v/>
       </c>
@@ -6991,26 +6985,26 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>11111.14</v>
+        <v>10638.9</v>
       </c>
       <c r="C191" t="n">
-        <v>11207.15</v>
+        <v>10746.74</v>
       </c>
       <c r="D191" t="n">
-        <v>11111.14</v>
+        <v>10638.9</v>
       </c>
       <c r="E191" t="n">
-        <v>11201.83</v>
-      </c>
-      <c r="G191" s="3">
+        <v>10720.28</v>
+      </c>
+      <c r="G191" s="1">
         <f>AVERAGE(E187:E191)</f>
         <v/>
       </c>
-      <c r="H191" s="3">
+      <c r="H191" s="1">
         <f>AVERAGE(E162:E191)</f>
         <v/>
       </c>
-      <c r="I191" s="3">
+      <c r="I191" s="1">
         <f>G191-H191</f>
         <v/>
       </c>
@@ -7020,26 +7014,26 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>11228.64</v>
+        <v>10737.62</v>
       </c>
       <c r="C192" t="n">
-        <v>11261.68</v>
+        <v>10776.47</v>
       </c>
       <c r="D192" t="n">
-        <v>11188.99</v>
+        <v>10728.24</v>
       </c>
       <c r="E192" t="n">
-        <v>11251.75</v>
-      </c>
-      <c r="G192" s="3">
+        <v>10756.89</v>
+      </c>
+      <c r="G192" s="1">
         <f>AVERAGE(E188:E192)</f>
         <v/>
       </c>
-      <c r="H192" s="3">
+      <c r="H192" s="1">
         <f>AVERAGE(E163:E192)</f>
         <v/>
       </c>
-      <c r="I192" s="3">
+      <c r="I192" s="1">
         <f>G192-H192</f>
         <v/>
       </c>
@@ -7049,26 +7043,26 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>11243.59</v>
+        <v>10693.64</v>
       </c>
       <c r="C193" t="n">
-        <v>11243.59</v>
+        <v>10693.64</v>
       </c>
       <c r="D193" t="n">
-        <v>11122.98</v>
+        <v>10635.03</v>
       </c>
       <c r="E193" t="n">
-        <v>11156.42</v>
-      </c>
-      <c r="G193" s="3">
+        <v>10676.84</v>
+      </c>
+      <c r="G193" s="1">
         <f>AVERAGE(E189:E193)</f>
         <v/>
       </c>
-      <c r="H193" s="3">
+      <c r="H193" s="1">
         <f>AVERAGE(E164:E193)</f>
         <v/>
       </c>
-      <c r="I193" s="3">
+      <c r="I193" s="1">
         <f>G193-H193</f>
         <v/>
       </c>
@@ -7078,26 +7072,26 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>11168.99</v>
+        <v>10644.91</v>
       </c>
       <c r="C194" t="n">
-        <v>11186.67</v>
+        <v>10752.57</v>
       </c>
       <c r="D194" t="n">
-        <v>11118.81</v>
+        <v>10643.65</v>
       </c>
       <c r="E194" t="n">
-        <v>11149.23</v>
-      </c>
-      <c r="G194" s="3">
+        <v>10738.38</v>
+      </c>
+      <c r="G194" s="1">
         <f>AVERAGE(E190:E194)</f>
         <v/>
       </c>
-      <c r="H194" s="3">
+      <c r="H194" s="1">
         <f>AVERAGE(E165:E194)</f>
         <v/>
       </c>
-      <c r="I194" s="3">
+      <c r="I194" s="1">
         <f>G194-H194</f>
         <v/>
       </c>
@@ -7107,26 +7101,26 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>11140.02</v>
+        <v>10769.7</v>
       </c>
       <c r="C195" t="n">
-        <v>11160.05</v>
+        <v>10864.54</v>
       </c>
       <c r="D195" t="n">
-        <v>11088.53</v>
+        <v>10769.7</v>
       </c>
       <c r="E195" t="n">
-        <v>11144.79</v>
-      </c>
-      <c r="G195" s="3">
+        <v>10864.54</v>
+      </c>
+      <c r="G195" s="1">
         <f>AVERAGE(E191:E195)</f>
         <v/>
       </c>
-      <c r="H195" s="3">
+      <c r="H195" s="1">
         <f>AVERAGE(E166:E195)</f>
         <v/>
       </c>
-      <c r="I195" s="3">
+      <c r="I195" s="1">
         <f>G195-H195</f>
         <v/>
       </c>
@@ -7136,26 +7130,26 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>11153.2</v>
+        <v>10867.97</v>
       </c>
       <c r="C196" t="n">
-        <v>11188.01</v>
+        <v>10890.2</v>
       </c>
       <c r="D196" t="n">
-        <v>11119.24</v>
+        <v>10817.45</v>
       </c>
       <c r="E196" t="n">
-        <v>11173.21</v>
-      </c>
-      <c r="G196" s="3">
+        <v>10817.45</v>
+      </c>
+      <c r="G196" s="1">
         <f>AVERAGE(E192:E196)</f>
         <v/>
       </c>
-      <c r="H196" s="3">
+      <c r="H196" s="1">
         <f>AVERAGE(E167:E196)</f>
         <v/>
       </c>
-      <c r="I196" s="3">
+      <c r="I196" s="1">
         <f>G196-H196</f>
         <v/>
       </c>
@@ -7165,26 +7159,26 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>11143.04</v>
+        <v>10802.75</v>
       </c>
       <c r="C197" t="n">
-        <v>11143.04</v>
+        <v>10818.84</v>
       </c>
       <c r="D197" t="n">
-        <v>11013.98</v>
+        <v>10758.83</v>
       </c>
       <c r="E197" t="n">
-        <v>11013.98</v>
-      </c>
-      <c r="G197" s="3">
+        <v>10778.99</v>
+      </c>
+      <c r="G197" s="1">
         <f>AVERAGE(E193:E197)</f>
         <v/>
       </c>
-      <c r="H197" s="3">
+      <c r="H197" s="1">
         <f>AVERAGE(E168:E197)</f>
         <v/>
       </c>
-      <c r="I197" s="3">
+      <c r="I197" s="1">
         <f>G197-H197</f>
         <v/>
       </c>
@@ -7194,26 +7188,26 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>10998.2</v>
+        <v>10811.43</v>
       </c>
       <c r="C198" t="n">
-        <v>11087.47</v>
+        <v>10872.74</v>
       </c>
       <c r="D198" t="n">
-        <v>10981.61</v>
+        <v>10788.37</v>
       </c>
       <c r="E198" t="n">
-        <v>11087.47</v>
-      </c>
-      <c r="G198" s="3">
+        <v>10842.46</v>
+      </c>
+      <c r="G198" s="1">
         <f>AVERAGE(E194:E198)</f>
         <v/>
       </c>
-      <c r="H198" s="3">
+      <c r="H198" s="1">
         <f>AVERAGE(E169:E198)</f>
         <v/>
       </c>
-      <c r="I198" s="3">
+      <c r="I198" s="1">
         <f>G198-H198</f>
         <v/>
       </c>
@@ -7223,26 +7217,26 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>11008.77</v>
+        <v>10868.56</v>
       </c>
       <c r="C199" t="n">
-        <v>11008.77</v>
+        <v>10896.25</v>
       </c>
       <c r="D199" t="n">
-        <v>10904.19</v>
+        <v>10826.14</v>
       </c>
       <c r="E199" t="n">
-        <v>10904.19</v>
-      </c>
-      <c r="G199" s="3">
+        <v>10835.38</v>
+      </c>
+      <c r="G199" s="1">
         <f>AVERAGE(E195:E199)</f>
         <v/>
       </c>
-      <c r="H199" s="3">
+      <c r="H199" s="1">
         <f>AVERAGE(E170:E199)</f>
         <v/>
       </c>
-      <c r="I199" s="3">
+      <c r="I199" s="1">
         <f>G199-H199</f>
         <v/>
       </c>
@@ -7252,26 +7246,26 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>10904.8</v>
+        <v>10932.51</v>
       </c>
       <c r="C200" t="n">
-        <v>10969.2</v>
+        <v>10963.95</v>
       </c>
       <c r="D200" t="n">
-        <v>10842.56</v>
+        <v>10893.73</v>
       </c>
       <c r="E200" t="n">
-        <v>10927.44</v>
-      </c>
-      <c r="G200" s="3">
+        <v>10932.11</v>
+      </c>
+      <c r="G200" s="1">
         <f>AVERAGE(E196:E200)</f>
         <v/>
       </c>
-      <c r="H200" s="3">
+      <c r="H200" s="1">
         <f>AVERAGE(E171:E200)</f>
         <v/>
       </c>
-      <c r="I200" s="3">
+      <c r="I200" s="1">
         <f>G200-H200</f>
         <v/>
       </c>
@@ -7281,26 +7275,26 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>10949.85</v>
+        <v>10929.46</v>
       </c>
       <c r="C201" t="n">
-        <v>10992.31</v>
+        <v>10984.84</v>
       </c>
       <c r="D201" t="n">
-        <v>10941.07</v>
+        <v>10901.75</v>
       </c>
       <c r="E201" t="n">
-        <v>10941.07</v>
-      </c>
-      <c r="G201" s="3">
+        <v>10946.89</v>
+      </c>
+      <c r="G201" s="1">
         <f>AVERAGE(E197:E201)</f>
         <v/>
       </c>
-      <c r="H201" s="3">
+      <c r="H201" s="1">
         <f>AVERAGE(E172:E201)</f>
         <v/>
       </c>
-      <c r="I201" s="3">
+      <c r="I201" s="1">
         <f>G201-H201</f>
         <v/>
       </c>
@@ -7310,26 +7304,26 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>10901.25</v>
+        <v>10937.77</v>
       </c>
       <c r="C202" t="n">
-        <v>10914.83</v>
+        <v>10995.39</v>
       </c>
       <c r="D202" t="n">
-        <v>10828.86</v>
+        <v>10917.61</v>
       </c>
       <c r="E202" t="n">
-        <v>10899.28</v>
-      </c>
-      <c r="G202" s="3">
+        <v>10995.39</v>
+      </c>
+      <c r="G202" s="1">
         <f>AVERAGE(E198:E202)</f>
         <v/>
       </c>
-      <c r="H202" s="3">
+      <c r="H202" s="1">
         <f>AVERAGE(E173:E202)</f>
         <v/>
       </c>
-      <c r="I202" s="3">
+      <c r="I202" s="1">
         <f>G202-H202</f>
         <v/>
       </c>
@@ -7339,26 +7333,26 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>10834.07</v>
+        <v>10957.66</v>
       </c>
       <c r="C203" t="n">
-        <v>10851.16</v>
+        <v>10992.29</v>
       </c>
       <c r="D203" t="n">
-        <v>10786.46</v>
+        <v>10956</v>
       </c>
       <c r="E203" t="n">
-        <v>10786.46</v>
-      </c>
-      <c r="G203" s="3">
+        <v>10965.79</v>
+      </c>
+      <c r="G203" s="1">
         <f>AVERAGE(E199:E203)</f>
         <v/>
       </c>
-      <c r="H203" s="3">
+      <c r="H203" s="1">
         <f>AVERAGE(E174:E203)</f>
         <v/>
       </c>
-      <c r="I203" s="3">
+      <c r="I203" s="1">
         <f>G203-H203</f>
         <v/>
       </c>
@@ -7368,26 +7362,26 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>10730.9</v>
+        <v>10969.35</v>
       </c>
       <c r="C204" t="n">
-        <v>10752.99</v>
+        <v>11018.19</v>
       </c>
       <c r="D204" t="n">
-        <v>10651.42</v>
+        <v>10966.33</v>
       </c>
       <c r="E204" t="n">
-        <v>10742.17</v>
-      </c>
-      <c r="G204" s="3">
+        <v>11010.61</v>
+      </c>
+      <c r="G204" s="1">
         <f>AVERAGE(E200:E204)</f>
         <v/>
       </c>
-      <c r="H204" s="3">
+      <c r="H204" s="1">
         <f>AVERAGE(E175:E204)</f>
         <v/>
       </c>
-      <c r="I204" s="3">
+      <c r="I204" s="1">
         <f>G204-H204</f>
         <v/>
       </c>
@@ -7397,26 +7391,26 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>10766.88</v>
+        <v>11023.07</v>
       </c>
       <c r="C205" t="n">
-        <v>10800.34</v>
+        <v>11075.78</v>
       </c>
       <c r="D205" t="n">
-        <v>10701.03</v>
+        <v>11009.16</v>
       </c>
       <c r="E205" t="n">
-        <v>10701.03</v>
-      </c>
-      <c r="G205" s="3">
+        <v>11075.78</v>
+      </c>
+      <c r="G205" s="1">
         <f>AVERAGE(E201:E205)</f>
         <v/>
       </c>
-      <c r="H205" s="3">
+      <c r="H205" s="1">
         <f>AVERAGE(E176:E205)</f>
         <v/>
       </c>
-      <c r="I205" s="3">
+      <c r="I205" s="1">
         <f>G205-H205</f>
         <v/>
       </c>
@@ -7426,26 +7420,26 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>10669.42</v>
+        <v>11072.7</v>
       </c>
       <c r="C206" t="n">
-        <v>10723.84</v>
+        <v>11080.41</v>
       </c>
       <c r="D206" t="n">
-        <v>10633.01</v>
+        <v>11001.15</v>
       </c>
       <c r="E206" t="n">
-        <v>10654.28</v>
-      </c>
-      <c r="G206" s="3">
+        <v>11033.54</v>
+      </c>
+      <c r="G206" s="1">
         <f>AVERAGE(E202:E206)</f>
         <v/>
       </c>
-      <c r="H206" s="3">
+      <c r="H206" s="1">
         <f>AVERAGE(E177:E206)</f>
         <v/>
       </c>
-      <c r="I206" s="3">
+      <c r="I206" s="1">
         <f>G206-H206</f>
         <v/>
       </c>
@@ -7455,26 +7449,26 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>10667.64</v>
+        <v>10997.73</v>
       </c>
       <c r="C207" t="n">
-        <v>10836.91</v>
+        <v>11057.51</v>
       </c>
       <c r="D207" t="n">
-        <v>10667.64</v>
+        <v>10976.46</v>
       </c>
       <c r="E207" t="n">
-        <v>10836.91</v>
-      </c>
-      <c r="G207" s="3">
+        <v>11057.51</v>
+      </c>
+      <c r="G207" s="1">
         <f>AVERAGE(E203:E207)</f>
         <v/>
       </c>
-      <c r="H207" s="3">
+      <c r="H207" s="1">
         <f>AVERAGE(E178:E207)</f>
         <v/>
       </c>
-      <c r="I207" s="3">
+      <c r="I207" s="1">
         <f>G207-H207</f>
         <v/>
       </c>
@@ -7484,26 +7478,26 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>10852.17</v>
+        <v>11062.36</v>
       </c>
       <c r="C208" t="n">
-        <v>10886.2</v>
+        <v>11100.02</v>
       </c>
       <c r="D208" t="n">
-        <v>10777.94</v>
+        <v>11058.28</v>
       </c>
       <c r="E208" t="n">
-        <v>10777.94</v>
-      </c>
-      <c r="G208" s="3">
+        <v>11098.13</v>
+      </c>
+      <c r="G208" s="1">
         <f>AVERAGE(E204:E208)</f>
         <v/>
       </c>
-      <c r="H208" s="3">
+      <c r="H208" s="1">
         <f>AVERAGE(E179:E208)</f>
         <v/>
       </c>
-      <c r="I208" s="3">
+      <c r="I208" s="1">
         <f>G208-H208</f>
         <v/>
       </c>
@@ -7513,26 +7507,26 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>10802.88</v>
+        <v>11095.67</v>
       </c>
       <c r="C209" t="n">
-        <v>10873.48</v>
+        <v>11095.67</v>
       </c>
       <c r="D209" t="n">
-        <v>10707.68</v>
+        <v>10919.13</v>
       </c>
       <c r="E209" t="n">
-        <v>10715.72</v>
-      </c>
-      <c r="G209" s="3">
+        <v>10929.77</v>
+      </c>
+      <c r="G209" s="1">
         <f>AVERAGE(E205:E209)</f>
         <v/>
       </c>
-      <c r="H209" s="3">
+      <c r="H209" s="1">
         <f>AVERAGE(E180:E209)</f>
         <v/>
       </c>
-      <c r="I209" s="3">
+      <c r="I209" s="1">
         <f>G209-H209</f>
         <v/>
       </c>
@@ -7542,26 +7536,26 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>10714.25</v>
+        <v>10957.3</v>
       </c>
       <c r="C210" t="n">
-        <v>10752.05</v>
+        <v>11012.43</v>
       </c>
       <c r="D210" t="n">
-        <v>10680.44</v>
+        <v>10957.3</v>
       </c>
       <c r="E210" t="n">
-        <v>10721.87</v>
-      </c>
-      <c r="G210" s="3">
+        <v>11012.43</v>
+      </c>
+      <c r="G210" s="1">
         <f>AVERAGE(E206:E210)</f>
         <v/>
       </c>
-      <c r="H210" s="3">
+      <c r="H210" s="1">
         <f>AVERAGE(E181:E210)</f>
         <v/>
       </c>
-      <c r="I210" s="3">
+      <c r="I210" s="1">
         <f>G210-H210</f>
         <v/>
       </c>
@@ -7571,26 +7565,26 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>10690.91</v>
+        <v>10997.26</v>
       </c>
       <c r="C211" t="n">
-        <v>10709.8</v>
+        <v>11054.49</v>
       </c>
       <c r="D211" t="n">
-        <v>10585.27</v>
+        <v>10994.97</v>
       </c>
       <c r="E211" t="n">
-        <v>10611.81</v>
-      </c>
-      <c r="G211" s="3">
+        <v>11024.1</v>
+      </c>
+      <c r="G211" s="1">
         <f>AVERAGE(E207:E211)</f>
         <v/>
       </c>
-      <c r="H211" s="3">
+      <c r="H211" s="1">
         <f>AVERAGE(E182:E211)</f>
         <v/>
       </c>
-      <c r="I211" s="3">
+      <c r="I211" s="1">
         <f>G211-H211</f>
         <v/>
       </c>
@@ -7600,26 +7594,26 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>10645.66</v>
+        <v>11024.97</v>
       </c>
       <c r="C212" t="n">
-        <v>10665.72</v>
+        <v>11030.09</v>
       </c>
       <c r="D212" t="n">
-        <v>10523.58</v>
+        <v>10983.44</v>
       </c>
       <c r="E212" t="n">
-        <v>10608.57</v>
-      </c>
-      <c r="G212" s="3">
+        <v>10983.44</v>
+      </c>
+      <c r="G212" s="1">
         <f>AVERAGE(E208:E212)</f>
         <v/>
       </c>
-      <c r="H212" s="3">
+      <c r="H212" s="1">
         <f>AVERAGE(E183:E212)</f>
         <v/>
       </c>
-      <c r="I212" s="3">
+      <c r="I212" s="1">
         <f>G212-H212</f>
         <v/>
       </c>
@@ -7629,26 +7623,26 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>10638.9</v>
+        <v>11026.07</v>
       </c>
       <c r="C213" t="n">
-        <v>10746.74</v>
+        <v>11095.5</v>
       </c>
       <c r="D213" t="n">
-        <v>10638.9</v>
+        <v>11026.07</v>
       </c>
       <c r="E213" t="n">
-        <v>10720.28</v>
-      </c>
-      <c r="G213" s="3">
+        <v>11075.25</v>
+      </c>
+      <c r="G213" s="1">
         <f>AVERAGE(E209:E213)</f>
         <v/>
       </c>
-      <c r="H213" s="3">
+      <c r="H213" s="1">
         <f>AVERAGE(E184:E213)</f>
         <v/>
       </c>
-      <c r="I213" s="3">
+      <c r="I213" s="1">
         <f>G213-H213</f>
         <v/>
       </c>
@@ -7658,26 +7652,26 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>10737.62</v>
+        <v>11063.62</v>
       </c>
       <c r="C214" t="n">
-        <v>10776.47</v>
+        <v>11063.62</v>
       </c>
       <c r="D214" t="n">
-        <v>10728.24</v>
+        <v>11001.96</v>
       </c>
       <c r="E214" t="n">
-        <v>10756.89</v>
-      </c>
-      <c r="G214" s="3">
+        <v>11028.07</v>
+      </c>
+      <c r="G214" s="1">
         <f>AVERAGE(E210:E214)</f>
         <v/>
       </c>
-      <c r="H214" s="3">
+      <c r="H214" s="1">
         <f>AVERAGE(E185:E214)</f>
         <v/>
       </c>
-      <c r="I214" s="3">
+      <c r="I214" s="1">
         <f>G214-H214</f>
         <v/>
       </c>
@@ -7687,26 +7681,26 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>10693.64</v>
+        <v>11009.96</v>
       </c>
       <c r="C215" t="n">
-        <v>10693.64</v>
+        <v>11033.89</v>
       </c>
       <c r="D215" t="n">
-        <v>10635.03</v>
+        <v>10972.25</v>
       </c>
       <c r="E215" t="n">
-        <v>10676.84</v>
-      </c>
-      <c r="G215" s="3">
+        <v>10983.68</v>
+      </c>
+      <c r="G215" s="1">
         <f>AVERAGE(E211:E215)</f>
         <v/>
       </c>
-      <c r="H215" s="3">
+      <c r="H215" s="1">
         <f>AVERAGE(E186:E215)</f>
         <v/>
       </c>
-      <c r="I215" s="3">
+      <c r="I215" s="1">
         <f>G215-H215</f>
         <v/>
       </c>
@@ -7716,26 +7710,26 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>10644.91</v>
+        <v>10939.68</v>
       </c>
       <c r="C216" t="n">
-        <v>10752.57</v>
+        <v>10939.68</v>
       </c>
       <c r="D216" t="n">
-        <v>10643.65</v>
+        <v>10693.73</v>
       </c>
       <c r="E216" t="n">
-        <v>10738.38</v>
-      </c>
-      <c r="G216" s="3">
+        <v>10748.92</v>
+      </c>
+      <c r="G216" s="1">
         <f>AVERAGE(E212:E216)</f>
         <v/>
       </c>
-      <c r="H216" s="3">
+      <c r="H216" s="1">
         <f>AVERAGE(E187:E216)</f>
         <v/>
       </c>
-      <c r="I216" s="3">
+      <c r="I216" s="1">
         <f>G216-H216</f>
         <v/>
       </c>
@@ -7745,26 +7739,26 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>10769.7</v>
+        <v>10797.95</v>
       </c>
       <c r="C217" t="n">
-        <v>10864.54</v>
+        <v>10829.85</v>
       </c>
       <c r="D217" t="n">
-        <v>10769.7</v>
+        <v>10755.53</v>
       </c>
       <c r="E217" t="n">
-        <v>10864.54</v>
-      </c>
-      <c r="G217" s="3">
+        <v>10824.23</v>
+      </c>
+      <c r="G217" s="1">
         <f>AVERAGE(E213:E217)</f>
         <v/>
       </c>
-      <c r="H217" s="3">
+      <c r="H217" s="1">
         <f>AVERAGE(E188:E217)</f>
         <v/>
       </c>
-      <c r="I217" s="3">
+      <c r="I217" s="1">
         <f>G217-H217</f>
         <v/>
       </c>
@@ -7774,26 +7768,26 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>10867.97</v>
+        <v>10827.28</v>
       </c>
       <c r="C218" t="n">
-        <v>10890.2</v>
+        <v>10827.28</v>
       </c>
       <c r="D218" t="n">
-        <v>10817.45</v>
+        <v>10688.59</v>
       </c>
       <c r="E218" t="n">
-        <v>10817.45</v>
-      </c>
-      <c r="G218" s="3">
+        <v>10716.75</v>
+      </c>
+      <c r="G218" s="1">
         <f>AVERAGE(E214:E218)</f>
         <v/>
       </c>
-      <c r="H218" s="3">
+      <c r="H218" s="1">
         <f>AVERAGE(E189:E218)</f>
         <v/>
       </c>
-      <c r="I218" s="3">
+      <c r="I218" s="1">
         <f>G218-H218</f>
         <v/>
       </c>
@@ -7803,26 +7797,26 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>10802.75</v>
+        <v>10663.57</v>
       </c>
       <c r="C219" t="n">
-        <v>10818.84</v>
+        <v>10725.71</v>
       </c>
       <c r="D219" t="n">
-        <v>10758.83</v>
+        <v>10606.26</v>
       </c>
       <c r="E219" t="n">
-        <v>10778.99</v>
-      </c>
-      <c r="G219" s="3">
+        <v>10683.9</v>
+      </c>
+      <c r="G219" s="1">
         <f>AVERAGE(E215:E219)</f>
         <v/>
       </c>
-      <c r="H219" s="3">
+      <c r="H219" s="1">
         <f>AVERAGE(E190:E219)</f>
         <v/>
       </c>
-      <c r="I219" s="3">
+      <c r="I219" s="1">
         <f>G219-H219</f>
         <v/>
       </c>
@@ -7832,26 +7826,26 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>10811.43</v>
+        <v>10702.6</v>
       </c>
       <c r="C220" t="n">
-        <v>10872.74</v>
+        <v>10757.01</v>
       </c>
       <c r="D220" t="n">
-        <v>10788.37</v>
+        <v>10688.55</v>
       </c>
       <c r="E220" t="n">
-        <v>10842.46</v>
-      </c>
-      <c r="G220" s="3">
+        <v>10690.96</v>
+      </c>
+      <c r="G220" s="1">
         <f>AVERAGE(E216:E220)</f>
         <v/>
       </c>
-      <c r="H220" s="3">
+      <c r="H220" s="1">
         <f>AVERAGE(E191:E220)</f>
         <v/>
       </c>
-      <c r="I220" s="3">
+      <c r="I220" s="1">
         <f>G220-H220</f>
         <v/>
       </c>
@@ -7861,26 +7855,26 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>10868.56</v>
+        <v>10698.76</v>
       </c>
       <c r="C221" t="n">
-        <v>10896.25</v>
+        <v>10729.9</v>
       </c>
       <c r="D221" t="n">
-        <v>10826.14</v>
+        <v>10663.44</v>
       </c>
       <c r="E221" t="n">
-        <v>10835.38</v>
-      </c>
-      <c r="G221" s="3">
+        <v>10699.05</v>
+      </c>
+      <c r="G221" s="1">
         <f>AVERAGE(E217:E221)</f>
         <v/>
       </c>
-      <c r="H221" s="3">
+      <c r="H221" s="1">
         <f>AVERAGE(E192:E221)</f>
         <v/>
       </c>
-      <c r="I221" s="3">
+      <c r="I221" s="1">
         <f>G221-H221</f>
         <v/>
       </c>
@@ -7890,26 +7884,26 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>10932.51</v>
+        <v>10697.01</v>
       </c>
       <c r="C222" t="n">
-        <v>10963.95</v>
+        <v>10792.2</v>
       </c>
       <c r="D222" t="n">
-        <v>10893.73</v>
+        <v>10697.01</v>
       </c>
       <c r="E222" t="n">
-        <v>10932.11</v>
-      </c>
-      <c r="G222" s="3">
+        <v>10792.2</v>
+      </c>
+      <c r="G222" s="1">
         <f>AVERAGE(E218:E222)</f>
         <v/>
       </c>
-      <c r="H222" s="3">
+      <c r="H222" s="1">
         <f>AVERAGE(E193:E222)</f>
         <v/>
       </c>
-      <c r="I222" s="3">
+      <c r="I222" s="1">
         <f>G222-H222</f>
         <v/>
       </c>
@@ -7919,26 +7913,26 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>10929.46</v>
+        <v>10790.24</v>
       </c>
       <c r="C223" t="n">
-        <v>10984.84</v>
+        <v>10828.21</v>
       </c>
       <c r="D223" t="n">
-        <v>10901.75</v>
+        <v>10774.69</v>
       </c>
       <c r="E223" t="n">
-        <v>10946.89</v>
-      </c>
-      <c r="G223" s="3">
+        <v>10804.2</v>
+      </c>
+      <c r="G223" s="1">
         <f>AVERAGE(E219:E223)</f>
         <v/>
       </c>
-      <c r="H223" s="3">
+      <c r="H223" s="1">
         <f>AVERAGE(E194:E223)</f>
         <v/>
       </c>
-      <c r="I223" s="3">
+      <c r="I223" s="1">
         <f>G223-H223</f>
         <v/>
       </c>
@@ -7948,26 +7942,26 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>10937.77</v>
+        <v>10817.33</v>
       </c>
       <c r="C224" t="n">
-        <v>10995.39</v>
+        <v>10863.13</v>
       </c>
       <c r="D224" t="n">
-        <v>10917.61</v>
+        <v>10802.79</v>
       </c>
       <c r="E224" t="n">
-        <v>10995.39</v>
-      </c>
-      <c r="G224" s="3">
+        <v>10863.13</v>
+      </c>
+      <c r="G224" s="1">
         <f>AVERAGE(E220:E224)</f>
         <v/>
       </c>
-      <c r="H224" s="3">
+      <c r="H224" s="1">
         <f>AVERAGE(E195:E224)</f>
         <v/>
       </c>
-      <c r="I224" s="3">
+      <c r="I224" s="1">
         <f>G224-H224</f>
         <v/>
       </c>
@@ -7977,26 +7971,26 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>10957.66</v>
+        <v>10865.91</v>
       </c>
       <c r="C225" t="n">
-        <v>10992.29</v>
+        <v>10865.91</v>
       </c>
       <c r="D225" t="n">
-        <v>10956</v>
+        <v>10770.32</v>
       </c>
       <c r="E225" t="n">
-        <v>10965.79</v>
-      </c>
-      <c r="G225" s="3">
+        <v>10809.35</v>
+      </c>
+      <c r="G225" s="1">
         <f>AVERAGE(E221:E225)</f>
         <v/>
       </c>
-      <c r="H225" s="3">
+      <c r="H225" s="1">
         <f>AVERAGE(E196:E225)</f>
         <v/>
       </c>
-      <c r="I225" s="3">
+      <c r="I225" s="1">
         <f>G225-H225</f>
         <v/>
       </c>
@@ -8006,26 +8000,26 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>10969.35</v>
+        <v>10847.17</v>
       </c>
       <c r="C226" t="n">
-        <v>11018.19</v>
+        <v>10916.69</v>
       </c>
       <c r="D226" t="n">
-        <v>10966.33</v>
+        <v>10847.17</v>
       </c>
       <c r="E226" t="n">
-        <v>11010.61</v>
-      </c>
-      <c r="G226" s="3">
+        <v>10902.21</v>
+      </c>
+      <c r="G226" s="1">
         <f>AVERAGE(E222:E226)</f>
         <v/>
       </c>
-      <c r="H226" s="3">
+      <c r="H226" s="1">
         <f>AVERAGE(E197:E226)</f>
         <v/>
       </c>
-      <c r="I226" s="3">
+      <c r="I226" s="1">
         <f>G226-H226</f>
         <v/>
       </c>
@@ -8035,26 +8029,26 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>11023.07</v>
+        <v>10946.33</v>
       </c>
       <c r="C227" t="n">
-        <v>11075.78</v>
+        <v>11005.55</v>
       </c>
       <c r="D227" t="n">
-        <v>11009.16</v>
+        <v>10946.33</v>
       </c>
       <c r="E227" t="n">
-        <v>11075.78</v>
-      </c>
-      <c r="G227" s="3">
+        <v>10989.55</v>
+      </c>
+      <c r="G227" s="1">
         <f>AVERAGE(E223:E227)</f>
         <v/>
       </c>
-      <c r="H227" s="3">
+      <c r="H227" s="1">
         <f>AVERAGE(E198:E227)</f>
         <v/>
       </c>
-      <c r="I227" s="3">
+      <c r="I227" s="1">
         <f>G227-H227</f>
         <v/>
       </c>
@@ -8064,26 +8058,26 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>11072.7</v>
+        <v>11029.12</v>
       </c>
       <c r="C228" t="n">
-        <v>11080.41</v>
+        <v>11099.57</v>
       </c>
       <c r="D228" t="n">
-        <v>11001.15</v>
+        <v>11029.11</v>
       </c>
       <c r="E228" t="n">
-        <v>11033.54</v>
-      </c>
-      <c r="G228" s="3">
+        <v>11099.57</v>
+      </c>
+      <c r="G228" s="1">
         <f>AVERAGE(E224:E228)</f>
         <v/>
       </c>
-      <c r="H228" s="3">
+      <c r="H228" s="1">
         <f>AVERAGE(E199:E228)</f>
         <v/>
       </c>
-      <c r="I228" s="3">
+      <c r="I228" s="1">
         <f>G228-H228</f>
         <v/>
       </c>
@@ -8093,26 +8087,26 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>10997.73</v>
+        <v>11153.97</v>
       </c>
       <c r="C229" t="n">
-        <v>11057.51</v>
+        <v>11186.05</v>
       </c>
       <c r="D229" t="n">
-        <v>10976.46</v>
+        <v>11080.07</v>
       </c>
       <c r="E229" t="n">
-        <v>11057.51</v>
-      </c>
-      <c r="G229" s="3">
+        <v>11093.75</v>
+      </c>
+      <c r="G229" s="1">
         <f>AVERAGE(E225:E229)</f>
         <v/>
       </c>
-      <c r="H229" s="3">
+      <c r="H229" s="1">
         <f>AVERAGE(E200:E229)</f>
         <v/>
       </c>
-      <c r="I229" s="3">
+      <c r="I229" s="1">
         <f>G229-H229</f>
         <v/>
       </c>
@@ -8122,26 +8116,26 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>11062.36</v>
+        <v>11037.26</v>
       </c>
       <c r="C230" t="n">
-        <v>11100.02</v>
+        <v>11063.94</v>
       </c>
       <c r="D230" t="n">
-        <v>11058.28</v>
+        <v>10987.68</v>
       </c>
       <c r="E230" t="n">
-        <v>11098.13</v>
-      </c>
-      <c r="G230" s="3">
+        <v>11063.94</v>
+      </c>
+      <c r="G230" s="1">
         <f>AVERAGE(E226:E230)</f>
         <v/>
       </c>
-      <c r="H230" s="3">
+      <c r="H230" s="1">
         <f>AVERAGE(E201:E230)</f>
         <v/>
       </c>
-      <c r="I230" s="3">
+      <c r="I230" s="1">
         <f>G230-H230</f>
         <v/>
       </c>
@@ -8151,26 +8145,26 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>11095.67</v>
+        <v>11087.86</v>
       </c>
       <c r="C231" t="n">
-        <v>11095.67</v>
+        <v>11097.11</v>
       </c>
       <c r="D231" t="n">
-        <v>10919.13</v>
+        <v>10952.85</v>
       </c>
       <c r="E231" t="n">
-        <v>10929.77</v>
-      </c>
-      <c r="G231" s="3">
+        <v>10964.22</v>
+      </c>
+      <c r="G231" s="1">
         <f>AVERAGE(E227:E231)</f>
         <v/>
       </c>
-      <c r="H231" s="3">
+      <c r="H231" s="1">
         <f>AVERAGE(E202:E231)</f>
         <v/>
       </c>
-      <c r="I231" s="3">
+      <c r="I231" s="1">
         <f>G231-H231</f>
         <v/>
       </c>
@@ -8180,26 +8174,26 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>10957.3</v>
+        <v>10981.39</v>
       </c>
       <c r="C232" t="n">
-        <v>11012.43</v>
+        <v>11028.27</v>
       </c>
       <c r="D232" t="n">
-        <v>10957.3</v>
+        <v>10956.49</v>
       </c>
       <c r="E232" t="n">
-        <v>11012.43</v>
-      </c>
-      <c r="G232" s="3">
+        <v>11021.38</v>
+      </c>
+      <c r="G232" s="1">
         <f>AVERAGE(E228:E232)</f>
         <v/>
       </c>
-      <c r="H232" s="3">
+      <c r="H232" s="1">
         <f>AVERAGE(E203:E232)</f>
         <v/>
       </c>
-      <c r="I232" s="3">
+      <c r="I232" s="1">
         <f>G232-H232</f>
         <v/>
       </c>
@@ -8209,26 +8203,26 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>10997.26</v>
+        <v>11042.41</v>
       </c>
       <c r="C233" t="n">
-        <v>11054.49</v>
+        <v>11058.06</v>
       </c>
       <c r="D233" t="n">
-        <v>10994.97</v>
+        <v>10989.93</v>
       </c>
       <c r="E233" t="n">
-        <v>11024.1</v>
-      </c>
-      <c r="G233" s="3">
+        <v>10995.13</v>
+      </c>
+      <c r="G233" s="1">
         <f>AVERAGE(E229:E233)</f>
         <v/>
       </c>
-      <c r="H233" s="3">
+      <c r="H233" s="1">
         <f>AVERAGE(E204:E233)</f>
         <v/>
       </c>
-      <c r="I233" s="3">
+      <c r="I233" s="1">
         <f>G233-H233</f>
         <v/>
       </c>
@@ -8238,26 +8232,26 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>11024.97</v>
+        <v>11016.92</v>
       </c>
       <c r="C234" t="n">
-        <v>11030.09</v>
+        <v>11016.92</v>
       </c>
       <c r="D234" t="n">
-        <v>10983.44</v>
+        <v>10905.34</v>
       </c>
       <c r="E234" t="n">
-        <v>10983.44</v>
-      </c>
-      <c r="G234" s="3">
+        <v>10924.3</v>
+      </c>
+      <c r="G234" s="1">
         <f>AVERAGE(E230:E234)</f>
         <v/>
       </c>
-      <c r="H234" s="3">
+      <c r="H234" s="1">
         <f>AVERAGE(E205:E234)</f>
         <v/>
       </c>
-      <c r="I234" s="3">
+      <c r="I234" s="1">
         <f>G234-H234</f>
         <v/>
       </c>
@@ -8267,26 +8261,26 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>11026.07</v>
+        <v>10922.55</v>
       </c>
       <c r="C235" t="n">
-        <v>11095.5</v>
+        <v>10922.55</v>
       </c>
       <c r="D235" t="n">
-        <v>11026.07</v>
+        <v>10807.56</v>
       </c>
       <c r="E235" t="n">
-        <v>11075.25</v>
-      </c>
-      <c r="G235" s="3">
+        <v>10846.99</v>
+      </c>
+      <c r="G235" s="1">
         <f>AVERAGE(E231:E235)</f>
         <v/>
       </c>
-      <c r="H235" s="3">
+      <c r="H235" s="1">
         <f>AVERAGE(E206:E235)</f>
         <v/>
       </c>
-      <c r="I235" s="3">
+      <c r="I235" s="1">
         <f>G235-H235</f>
         <v/>
       </c>
@@ -8296,26 +8290,26 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>11063.62</v>
+        <v>10869.8</v>
       </c>
       <c r="C236" t="n">
-        <v>11063.62</v>
+        <v>10877.72</v>
       </c>
       <c r="D236" t="n">
-        <v>11001.96</v>
+        <v>10689.29</v>
       </c>
       <c r="E236" t="n">
-        <v>11028.07</v>
-      </c>
-      <c r="G236" s="3">
+        <v>10725.8</v>
+      </c>
+      <c r="G236" s="1">
         <f>AVERAGE(E232:E236)</f>
         <v/>
       </c>
-      <c r="H236" s="3">
+      <c r="H236" s="1">
         <f>AVERAGE(E207:E236)</f>
         <v/>
       </c>
-      <c r="I236" s="3">
+      <c r="I236" s="1">
         <f>G236-H236</f>
         <v/>
       </c>
@@ -8325,26 +8319,26 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>11009.96</v>
+        <v>10723</v>
       </c>
       <c r="C237" t="n">
-        <v>11033.89</v>
+        <v>10765.42</v>
       </c>
       <c r="D237" t="n">
-        <v>10972.25</v>
+        <v>10669.59</v>
       </c>
       <c r="E237" t="n">
-        <v>10983.68</v>
-      </c>
-      <c r="G237" s="3">
+        <v>10752.3</v>
+      </c>
+      <c r="G237" s="1">
         <f>AVERAGE(E233:E237)</f>
         <v/>
       </c>
-      <c r="H237" s="3">
+      <c r="H237" s="1">
         <f>AVERAGE(E208:E237)</f>
         <v/>
       </c>
-      <c r="I237" s="3">
+      <c r="I237" s="1">
         <f>G237-H237</f>
         <v/>
       </c>
@@ -8354,26 +8348,26 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>10939.68</v>
+        <v>10762.91</v>
       </c>
       <c r="C238" t="n">
-        <v>10939.68</v>
+        <v>10779.93</v>
       </c>
       <c r="D238" t="n">
-        <v>10693.73</v>
+        <v>10667.25</v>
       </c>
       <c r="E238" t="n">
-        <v>10748.92</v>
-      </c>
-      <c r="G238" s="3">
+        <v>10722.57</v>
+      </c>
+      <c r="G238" s="1">
         <f>AVERAGE(E234:E238)</f>
         <v/>
       </c>
-      <c r="H238" s="3">
+      <c r="H238" s="1">
         <f>AVERAGE(E209:E238)</f>
         <v/>
       </c>
-      <c r="I238" s="3">
+      <c r="I238" s="1">
         <f>G238-H238</f>
         <v/>
       </c>
@@ -8383,26 +8377,26 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>10797.95</v>
+        <v>10726.67</v>
       </c>
       <c r="C239" t="n">
-        <v>10829.85</v>
+        <v>10758.84</v>
       </c>
       <c r="D239" t="n">
-        <v>10755.53</v>
+        <v>10701.25</v>
       </c>
       <c r="E239" t="n">
-        <v>10824.23</v>
-      </c>
-      <c r="G239" s="3">
+        <v>10727.23</v>
+      </c>
+      <c r="G239" s="1">
         <f>AVERAGE(E235:E239)</f>
         <v/>
       </c>
-      <c r="H239" s="3">
+      <c r="H239" s="1">
         <f>AVERAGE(E210:E239)</f>
         <v/>
       </c>
-      <c r="I239" s="3">
+      <c r="I239" s="1">
         <f>G239-H239</f>
         <v/>
       </c>
@@ -8412,26 +8406,26 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>10827.28</v>
+        <v>10776.53</v>
       </c>
       <c r="C240" t="n">
-        <v>10827.28</v>
+        <v>10882.04</v>
       </c>
       <c r="D240" t="n">
-        <v>10688.59</v>
+        <v>10770.47</v>
       </c>
       <c r="E240" t="n">
-        <v>10716.75</v>
-      </c>
-      <c r="G240" s="3">
+        <v>10868.14</v>
+      </c>
+      <c r="G240" s="1">
         <f>AVERAGE(E236:E240)</f>
         <v/>
       </c>
-      <c r="H240" s="3">
+      <c r="H240" s="1">
         <f>AVERAGE(E211:E240)</f>
         <v/>
       </c>
-      <c r="I240" s="3">
+      <c r="I240" s="1">
         <f>G240-H240</f>
         <v/>
       </c>
@@ -8441,26 +8435,26 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>10663.57</v>
+        <v>10881.78</v>
       </c>
       <c r="C241" t="n">
-        <v>10725.71</v>
+        <v>10883.98</v>
       </c>
       <c r="D241" t="n">
-        <v>10606.26</v>
+        <v>10806.73</v>
       </c>
       <c r="E241" t="n">
-        <v>10683.9</v>
-      </c>
-      <c r="G241" s="3">
+        <v>10828.61</v>
+      </c>
+      <c r="G241" s="1">
         <f>AVERAGE(E237:E241)</f>
         <v/>
       </c>
-      <c r="H241" s="3">
+      <c r="H241" s="1">
         <f>AVERAGE(E212:E241)</f>
         <v/>
       </c>
-      <c r="I241" s="3">
+      <c r="I241" s="1">
         <f>G241-H241</f>
         <v/>
       </c>
@@ -8470,26 +8464,26 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>10702.6</v>
+        <v>10794.22</v>
       </c>
       <c r="C242" t="n">
-        <v>10757.01</v>
+        <v>10806.56</v>
       </c>
       <c r="D242" t="n">
-        <v>10688.55</v>
+        <v>10750.81</v>
       </c>
       <c r="E242" t="n">
-        <v>10690.96</v>
-      </c>
-      <c r="G242" s="3">
+        <v>10760.21</v>
+      </c>
+      <c r="G242" s="1">
         <f>AVERAGE(E238:E242)</f>
         <v/>
       </c>
-      <c r="H242" s="3">
+      <c r="H242" s="1">
         <f>AVERAGE(E213:E242)</f>
         <v/>
       </c>
-      <c r="I242" s="3">
+      <c r="I242" s="1">
         <f>G242-H242</f>
         <v/>
       </c>
@@ -8499,26 +8493,26 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>10698.76</v>
+        <v>10808.5</v>
       </c>
       <c r="C243" t="n">
-        <v>10729.9</v>
+        <v>10882.75</v>
       </c>
       <c r="D243" t="n">
-        <v>10663.44</v>
+        <v>10808.5</v>
       </c>
       <c r="E243" t="n">
-        <v>10699.05</v>
-      </c>
-      <c r="G243" s="3">
+        <v>10857.27</v>
+      </c>
+      <c r="G243" s="1">
         <f>AVERAGE(E239:E243)</f>
         <v/>
       </c>
-      <c r="H243" s="3">
+      <c r="H243" s="1">
         <f>AVERAGE(E214:E243)</f>
         <v/>
       </c>
-      <c r="I243" s="3">
+      <c r="I243" s="1">
         <f>G243-H243</f>
         <v/>
       </c>
@@ -8528,26 +8522,26 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>10697.01</v>
+        <v>10886.19</v>
       </c>
       <c r="C244" t="n">
-        <v>10792.2</v>
+        <v>10908.36</v>
       </c>
       <c r="D244" t="n">
-        <v>10697.01</v>
+        <v>10814.54</v>
       </c>
       <c r="E244" t="n">
-        <v>10792.2</v>
-      </c>
-      <c r="G244" s="3">
+        <v>10831.41</v>
+      </c>
+      <c r="G244" s="1">
         <f>AVERAGE(E240:E244)</f>
         <v/>
       </c>
-      <c r="H244" s="3">
+      <c r="H244" s="1">
         <f>AVERAGE(E215:E244)</f>
         <v/>
       </c>
-      <c r="I244" s="3">
+      <c r="I244" s="1">
         <f>G244-H244</f>
         <v/>
       </c>
@@ -8557,26 +8551,26 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>10790.24</v>
+        <v>10857.1</v>
       </c>
       <c r="C245" t="n">
-        <v>10828.21</v>
+        <v>10972.41</v>
       </c>
       <c r="D245" t="n">
-        <v>10774.69</v>
+        <v>10835.84</v>
       </c>
       <c r="E245" t="n">
-        <v>10804.2</v>
-      </c>
-      <c r="G245" s="3">
+        <v>10972.41</v>
+      </c>
+      <c r="G245" s="1">
         <f>AVERAGE(E241:E245)</f>
         <v/>
       </c>
-      <c r="H245" s="3">
+      <c r="H245" s="1">
         <f>AVERAGE(E216:E245)</f>
         <v/>
       </c>
-      <c r="I245" s="3">
+      <c r="I245" s="1">
         <f>G245-H245</f>
         <v/>
       </c>
@@ -8586,26 +8580,26 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>10817.33</v>
+        <v>10959.56</v>
       </c>
       <c r="C246" t="n">
-        <v>10863.13</v>
+        <v>11003.49</v>
       </c>
       <c r="D246" t="n">
-        <v>10802.79</v>
+        <v>10941.77</v>
       </c>
       <c r="E246" t="n">
-        <v>10863.13</v>
-      </c>
-      <c r="G246" s="3">
+        <v>10978.85</v>
+      </c>
+      <c r="G246" s="1">
         <f>AVERAGE(E242:E246)</f>
         <v/>
       </c>
-      <c r="H246" s="3">
+      <c r="H246" s="1">
         <f>AVERAGE(E217:E246)</f>
         <v/>
       </c>
-      <c r="I246" s="3">
+      <c r="I246" s="1">
         <f>G246-H246</f>
         <v/>
       </c>
@@ -8615,26 +8609,26 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>10865.91</v>
+        <v>10974.08</v>
       </c>
       <c r="C247" t="n">
-        <v>10865.91</v>
+        <v>11007.35</v>
       </c>
       <c r="D247" t="n">
-        <v>10770.32</v>
+        <v>10947.29</v>
       </c>
       <c r="E247" t="n">
-        <v>10809.35</v>
-      </c>
-      <c r="G247" s="3">
+        <v>10974.19</v>
+      </c>
+      <c r="G247" s="1">
         <f>AVERAGE(E243:E247)</f>
         <v/>
       </c>
-      <c r="H247" s="3">
+      <c r="H247" s="1">
         <f>AVERAGE(E218:E247)</f>
         <v/>
       </c>
-      <c r="I247" s="3">
+      <c r="I247" s="1">
         <f>G247-H247</f>
         <v/>
       </c>
@@ -8644,26 +8638,26 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>10847.17</v>
+        <v>10973.77</v>
       </c>
       <c r="C248" t="n">
-        <v>10916.69</v>
+        <v>11051.09</v>
       </c>
       <c r="D248" t="n">
-        <v>10847.17</v>
+        <v>10961.27</v>
       </c>
       <c r="E248" t="n">
-        <v>10902.21</v>
-      </c>
-      <c r="G248" s="3">
+        <v>11034.19</v>
+      </c>
+      <c r="G248" s="1">
         <f>AVERAGE(E244:E248)</f>
         <v/>
       </c>
-      <c r="H248" s="3">
+      <c r="H248" s="1">
         <f>AVERAGE(E219:E248)</f>
         <v/>
       </c>
-      <c r="I248" s="3">
+      <c r="I248" s="1">
         <f>G248-H248</f>
         <v/>
       </c>
@@ -8673,26 +8667,26 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>10946.33</v>
+        <v>11050.09</v>
       </c>
       <c r="C249" t="n">
-        <v>11005.55</v>
+        <v>11073.95</v>
       </c>
       <c r="D249" t="n">
-        <v>10946.33</v>
+        <v>10966.96</v>
       </c>
       <c r="E249" t="n">
-        <v>10989.55</v>
-      </c>
-      <c r="G249" s="3">
+        <v>11006.34</v>
+      </c>
+      <c r="G249" s="1">
         <f>AVERAGE(E245:E249)</f>
         <v/>
       </c>
-      <c r="H249" s="3">
+      <c r="H249" s="1">
         <f>AVERAGE(E220:E249)</f>
         <v/>
       </c>
-      <c r="I249" s="3">
+      <c r="I249" s="1">
         <f>G249-H249</f>
         <v/>
       </c>
@@ -8702,26 +8696,26 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>11029.12</v>
+        <v>11014.19</v>
       </c>
       <c r="C250" t="n">
-        <v>11099.57</v>
+        <v>11062.43</v>
       </c>
       <c r="D250" t="n">
-        <v>11029.11</v>
+        <v>11012.95</v>
       </c>
       <c r="E250" t="n">
-        <v>11099.57</v>
-      </c>
-      <c r="G250" s="3">
+        <v>11051.8</v>
+      </c>
+      <c r="G250" s="1">
         <f>AVERAGE(E246:E250)</f>
         <v/>
       </c>
-      <c r="H250" s="3">
+      <c r="H250" s="1">
         <f>AVERAGE(E221:E250)</f>
         <v/>
       </c>
-      <c r="I250" s="3">
+      <c r="I250" s="1">
         <f>G250-H250</f>
         <v/>
       </c>
@@ -8731,26 +8725,26 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>11153.97</v>
+        <v>11048.89</v>
       </c>
       <c r="C251" t="n">
-        <v>11186.05</v>
+        <v>11064.34</v>
       </c>
       <c r="D251" t="n">
-        <v>11080.07</v>
+        <v>10906.42</v>
       </c>
       <c r="E251" t="n">
-        <v>11093.75</v>
-      </c>
-      <c r="G251" s="3">
+        <v>10919.63</v>
+      </c>
+      <c r="G251" s="1">
         <f>AVERAGE(E247:E251)</f>
         <v/>
       </c>
-      <c r="H251" s="3">
+      <c r="H251" s="1">
         <f>AVERAGE(E222:E251)</f>
         <v/>
       </c>
-      <c r="I251" s="3">
+      <c r="I251" s="1">
         <f>G251-H251</f>
         <v/>
       </c>
@@ -8760,26 +8754,26 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>11037.26</v>
+        <v>10918.74</v>
       </c>
       <c r="C252" t="n">
-        <v>11063.94</v>
+        <v>10926.73</v>
       </c>
       <c r="D252" t="n">
-        <v>10987.68</v>
+        <v>10839.46</v>
       </c>
       <c r="E252" t="n">
-        <v>11063.94</v>
-      </c>
-      <c r="G252" s="3">
+        <v>10863.94</v>
+      </c>
+      <c r="G252" s="1">
         <f>AVERAGE(E248:E252)</f>
         <v/>
       </c>
-      <c r="H252" s="3">
+      <c r="H252" s="1">
         <f>AVERAGE(E223:E252)</f>
         <v/>
       </c>
-      <c r="I252" s="3">
+      <c r="I252" s="1">
         <f>G252-H252</f>
         <v/>
       </c>
@@ -8789,26 +8783,26 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>11087.86</v>
+        <v>10826.19</v>
       </c>
       <c r="C253" t="n">
-        <v>11097.11</v>
+        <v>10826.19</v>
       </c>
       <c r="D253" t="n">
-        <v>10952.85</v>
+        <v>10707.76</v>
       </c>
       <c r="E253" t="n">
-        <v>10964.22</v>
-      </c>
-      <c r="G253" s="3">
+        <v>10718.91</v>
+      </c>
+      <c r="G253" s="1">
         <f>AVERAGE(E249:E253)</f>
         <v/>
       </c>
-      <c r="H253" s="3">
+      <c r="H253" s="1">
         <f>AVERAGE(E224:E253)</f>
         <v/>
       </c>
-      <c r="I253" s="3">
+      <c r="I253" s="1">
         <f>G253-H253</f>
         <v/>
       </c>
@@ -8818,26 +8812,26 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>10981.39</v>
+        <v>10665.29</v>
       </c>
       <c r="C254" t="n">
-        <v>11028.27</v>
+        <v>10669.63</v>
       </c>
       <c r="D254" t="n">
-        <v>10956.49</v>
+        <v>10446.94</v>
       </c>
       <c r="E254" t="n">
-        <v>11021.38</v>
-      </c>
-      <c r="G254" s="3">
+        <v>10517.12</v>
+      </c>
+      <c r="G254" s="1">
         <f>AVERAGE(E250:E254)</f>
         <v/>
       </c>
-      <c r="H254" s="3">
+      <c r="H254" s="1">
         <f>AVERAGE(E225:E254)</f>
         <v/>
       </c>
-      <c r="I254" s="3">
+      <c r="I254" s="1">
         <f>G254-H254</f>
         <v/>
       </c>
@@ -8847,26 +8841,26 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>11042.41</v>
+        <v>10467.85</v>
       </c>
       <c r="C255" t="n">
-        <v>11058.06</v>
+        <v>10507.83</v>
       </c>
       <c r="D255" t="n">
-        <v>10989.93</v>
+        <v>10403.13</v>
       </c>
       <c r="E255" t="n">
-        <v>10995.13</v>
-      </c>
-      <c r="G255" s="3">
+        <v>10455.93</v>
+      </c>
+      <c r="G255" s="1">
         <f>AVERAGE(E251:E255)</f>
         <v/>
       </c>
-      <c r="H255" s="3">
+      <c r="H255" s="1">
         <f>AVERAGE(E226:E255)</f>
         <v/>
       </c>
-      <c r="I255" s="3">
+      <c r="I255" s="1">
         <f>G255-H255</f>
         <v/>
       </c>
@@ -8876,26 +8870,26 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>11016.92</v>
+        <v>10464.39</v>
       </c>
       <c r="C256" t="n">
-        <v>11016.92</v>
+        <v>10503.1</v>
       </c>
       <c r="D256" t="n">
-        <v>10905.34</v>
+        <v>10428.97</v>
       </c>
       <c r="E256" t="n">
-        <v>10924.3</v>
-      </c>
-      <c r="G256" s="3">
+        <v>10466.83</v>
+      </c>
+      <c r="G256" s="1">
         <f>AVERAGE(E252:E256)</f>
         <v/>
       </c>
-      <c r="H256" s="3">
+      <c r="H256" s="1">
         <f>AVERAGE(E227:E256)</f>
         <v/>
       </c>
-      <c r="I256" s="3">
+      <c r="I256" s="1">
         <f>G256-H256</f>
         <v/>
       </c>
@@ -8905,26 +8899,26 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>10922.55</v>
+        <v>10272.04</v>
       </c>
       <c r="C257" t="n">
-        <v>10922.55</v>
+        <v>10272.04</v>
       </c>
       <c r="D257" t="n">
-        <v>10807.56</v>
+        <v>9797.93</v>
       </c>
       <c r="E257" t="n">
-        <v>10846.99</v>
-      </c>
-      <c r="G257" s="3">
+        <v>9806.110000000001</v>
+      </c>
+      <c r="G257" s="1">
         <f>AVERAGE(E253:E257)</f>
         <v/>
       </c>
-      <c r="H257" s="3">
+      <c r="H257" s="1">
         <f>AVERAGE(E228:E257)</f>
         <v/>
       </c>
-      <c r="I257" s="3">
+      <c r="I257" s="1">
         <f>G257-H257</f>
         <v/>
       </c>
@@ -8934,26 +8928,26 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>10869.8</v>
+        <v>9811.58</v>
       </c>
       <c r="C258" t="n">
-        <v>10877.72</v>
+        <v>10046.01</v>
       </c>
       <c r="D258" t="n">
-        <v>10689.29</v>
+        <v>9740.76</v>
       </c>
       <c r="E258" t="n">
-        <v>10725.8</v>
-      </c>
-      <c r="G258" s="3">
+        <v>10045.81</v>
+      </c>
+      <c r="G258" s="1">
         <f>AVERAGE(E254:E258)</f>
         <v/>
       </c>
-      <c r="H258" s="3">
+      <c r="H258" s="1">
         <f>AVERAGE(E229:E258)</f>
         <v/>
       </c>
-      <c r="I258" s="3">
+      <c r="I258" s="1">
         <f>G258-H258</f>
         <v/>
       </c>
@@ -8963,26 +8957,26 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>10723</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="C259" t="n">
-        <v>10765.42</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="D259" t="n">
-        <v>10669.59</v>
+        <v>9890.469999999999</v>
       </c>
       <c r="E259" t="n">
-        <v>10752.3</v>
-      </c>
-      <c r="G259" s="3">
+        <v>9901.120000000001</v>
+      </c>
+      <c r="G259" s="1">
         <f>AVERAGE(E255:E259)</f>
         <v/>
       </c>
-      <c r="H259" s="3">
+      <c r="H259" s="1">
         <f>AVERAGE(E230:E259)</f>
         <v/>
       </c>
-      <c r="I259" s="3">
+      <c r="I259" s="1">
         <f>G259-H259</f>
         <v/>
       </c>
@@ -8992,26 +8986,26 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>10762.91</v>
+        <v>9891.969999999999</v>
       </c>
       <c r="C260" t="n">
-        <v>10779.93</v>
+        <v>10011.19</v>
       </c>
       <c r="D260" t="n">
-        <v>10667.25</v>
+        <v>9888.73</v>
       </c>
       <c r="E260" t="n">
-        <v>10722.57</v>
-      </c>
-      <c r="G260" s="3">
+        <v>9981.1</v>
+      </c>
+      <c r="G260" s="1">
         <f>AVERAGE(E256:E260)</f>
         <v/>
       </c>
-      <c r="H260" s="3">
+      <c r="H260" s="1">
         <f>AVERAGE(E231:E260)</f>
         <v/>
       </c>
-      <c r="I260" s="3">
+      <c r="I260" s="1">
         <f>G260-H260</f>
         <v/>
       </c>
@@ -9021,26 +9015,26 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>10726.67</v>
+        <v>10048.43</v>
       </c>
       <c r="C261" t="n">
-        <v>10758.84</v>
+        <v>10127.01</v>
       </c>
       <c r="D261" t="n">
-        <v>10701.25</v>
+        <v>9978.25</v>
       </c>
       <c r="E261" t="n">
-        <v>10727.23</v>
-      </c>
-      <c r="G261" s="3">
+        <v>9979.139999999999</v>
+      </c>
+      <c r="G261" s="1">
         <f>AVERAGE(E257:E261)</f>
         <v/>
       </c>
-      <c r="H261" s="3">
+      <c r="H261" s="1">
         <f>AVERAGE(E232:E261)</f>
         <v/>
       </c>
-      <c r="I261" s="3">
+      <c r="I261" s="1">
         <f>G261-H261</f>
         <v/>
       </c>
@@ -9050,26 +9044,26 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>10776.53</v>
+        <v>9975.459999999999</v>
       </c>
       <c r="C262" t="n">
-        <v>10882.04</v>
+        <v>10019.5</v>
       </c>
       <c r="D262" t="n">
-        <v>10770.47</v>
+        <v>9919.790000000001</v>
       </c>
       <c r="E262" t="n">
-        <v>10868.14</v>
-      </c>
-      <c r="G262" s="3">
+        <v>9953.73</v>
+      </c>
+      <c r="G262" s="1">
         <f>AVERAGE(E258:E262)</f>
         <v/>
       </c>
-      <c r="H262" s="3">
+      <c r="H262" s="1">
         <f>AVERAGE(E233:E262)</f>
         <v/>
       </c>
-      <c r="I262" s="3">
+      <c r="I262" s="1">
         <f>G262-H262</f>
         <v/>
       </c>
@@ -9079,26 +9073,26 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>10881.78</v>
+        <v>9879.469999999999</v>
       </c>
       <c r="C263" t="n">
-        <v>10883.98</v>
+        <v>9919.26</v>
       </c>
       <c r="D263" t="n">
-        <v>10806.73</v>
+        <v>9762.91</v>
       </c>
       <c r="E263" t="n">
-        <v>10828.61</v>
-      </c>
-      <c r="G263" s="3">
+        <v>9919.26</v>
+      </c>
+      <c r="G263" s="1">
         <f>AVERAGE(E259:E263)</f>
         <v/>
       </c>
-      <c r="H263" s="3">
+      <c r="H263" s="1">
         <f>AVERAGE(E234:E263)</f>
         <v/>
       </c>
-      <c r="I263" s="3">
+      <c r="I263" s="1">
         <f>G263-H263</f>
         <v/>
       </c>
@@ -9108,26 +9102,26 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>10794.22</v>
+        <v>9871.299999999999</v>
       </c>
       <c r="C264" t="n">
-        <v>10806.56</v>
+        <v>9984.15</v>
       </c>
       <c r="D264" t="n">
-        <v>10750.81</v>
+        <v>9822.15</v>
       </c>
       <c r="E264" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G264" s="3">
+        <v>9974.280000000001</v>
+      </c>
+      <c r="G264" s="1">
         <f>AVERAGE(E260:E264)</f>
         <v/>
       </c>
-      <c r="H264" s="3">
+      <c r="H264" s="1">
         <f>AVERAGE(E235:E264)</f>
         <v/>
       </c>
-      <c r="I264" s="3">
+      <c r="I264" s="1">
         <f>G264-H264</f>
         <v/>
       </c>
@@ -9137,26 +9131,26 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>10808.5</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="C265" t="n">
-        <v>10882.75</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="D265" t="n">
-        <v>10808.5</v>
+        <v>9775.200000000001</v>
       </c>
       <c r="E265" t="n">
-        <v>10857.27</v>
-      </c>
-      <c r="G265" s="3">
+        <v>9775.200000000001</v>
+      </c>
+      <c r="G265" s="1">
         <f>AVERAGE(E261:E265)</f>
         <v/>
       </c>
-      <c r="H265" s="3">
+      <c r="H265" s="1">
         <f>AVERAGE(E236:E265)</f>
         <v/>
       </c>
-      <c r="I265" s="3">
+      <c r="I265" s="1">
         <f>G265-H265</f>
         <v/>
       </c>
@@ -9166,26 +9160,26 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>10886.19</v>
+        <v>9774.290000000001</v>
       </c>
       <c r="C266" t="n">
-        <v>10908.36</v>
+        <v>9809.190000000001</v>
       </c>
       <c r="D266" t="n">
-        <v>10814.54</v>
+        <v>9667.85</v>
       </c>
       <c r="E266" t="n">
-        <v>10831.41</v>
-      </c>
-      <c r="G266" s="3">
+        <v>9759.4</v>
+      </c>
+      <c r="G266" s="1">
         <f>AVERAGE(E262:E266)</f>
         <v/>
       </c>
-      <c r="H266" s="3">
+      <c r="H266" s="1">
         <f>AVERAGE(E237:E266)</f>
         <v/>
       </c>
-      <c r="I266" s="3">
+      <c r="I266" s="1">
         <f>G266-H266</f>
         <v/>
       </c>
@@ -9195,26 +9189,26 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>10857.1</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="C267" t="n">
-        <v>10972.41</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="D267" t="n">
-        <v>10835.84</v>
+        <v>9475.610000000001</v>
       </c>
       <c r="E267" t="n">
-        <v>10972.41</v>
-      </c>
-      <c r="G267" s="3">
+        <v>9520.790000000001</v>
+      </c>
+      <c r="G267" s="1">
         <f>AVERAGE(E263:E267)</f>
         <v/>
       </c>
-      <c r="H267" s="3">
+      <c r="H267" s="1">
         <f>AVERAGE(E238:E267)</f>
         <v/>
       </c>
-      <c r="I267" s="3">
+      <c r="I267" s="1">
         <f>G267-H267</f>
         <v/>
       </c>
@@ -9224,26 +9218,26 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>10959.56</v>
+        <v>9570.190000000001</v>
       </c>
       <c r="C268" t="n">
-        <v>11003.49</v>
+        <v>9629.07</v>
       </c>
       <c r="D268" t="n">
-        <v>10941.77</v>
+        <v>9400.690000000001</v>
       </c>
       <c r="E268" t="n">
-        <v>10978.85</v>
-      </c>
-      <c r="G268" s="3">
+        <v>9489.18</v>
+      </c>
+      <c r="G268" s="1">
         <f>AVERAGE(E264:E268)</f>
         <v/>
       </c>
-      <c r="H268" s="3">
+      <c r="H268" s="1">
         <f>AVERAGE(E239:E268)</f>
         <v/>
       </c>
-      <c r="I268" s="3">
+      <c r="I268" s="1">
         <f>G268-H268</f>
         <v/>
       </c>
@@ -9253,26 +9247,26 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>10974.08</v>
+        <v>9515.43</v>
       </c>
       <c r="C269" t="n">
-        <v>11007.35</v>
+        <v>9554.35</v>
       </c>
       <c r="D269" t="n">
-        <v>10947.29</v>
+        <v>9459.120000000001</v>
       </c>
       <c r="E269" t="n">
-        <v>10974.19</v>
-      </c>
-      <c r="G269" s="3">
+        <v>9516.32</v>
+      </c>
+      <c r="G269" s="1">
         <f>AVERAGE(E265:E269)</f>
         <v/>
       </c>
-      <c r="H269" s="3">
+      <c r="H269" s="1">
         <f>AVERAGE(E240:E269)</f>
         <v/>
       </c>
-      <c r="I269" s="3">
+      <c r="I269" s="1">
         <f>G269-H269</f>
         <v/>
       </c>
@@ -9282,26 +9276,26 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>10973.77</v>
+        <v>9508.809999999999</v>
       </c>
       <c r="C270" t="n">
-        <v>11051.09</v>
+        <v>9574.83</v>
       </c>
       <c r="D270" t="n">
-        <v>10961.27</v>
+        <v>9481.66</v>
       </c>
       <c r="E270" t="n">
-        <v>11034.19</v>
-      </c>
-      <c r="G270" s="3">
+        <v>9526.110000000001</v>
+      </c>
+      <c r="G270" s="1">
         <f>AVERAGE(E266:E270)</f>
         <v/>
       </c>
-      <c r="H270" s="3">
+      <c r="H270" s="1">
         <f>AVERAGE(E241:E270)</f>
         <v/>
       </c>
-      <c r="I270" s="3">
+      <c r="I270" s="1">
         <f>G270-H270</f>
         <v/>
       </c>
@@ -9311,26 +9305,26 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>11050.09</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="C271" t="n">
-        <v>11073.95</v>
+        <v>9802.129999999999</v>
       </c>
       <c r="D271" t="n">
-        <v>10966.96</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="E271" t="n">
-        <v>11006.34</v>
-      </c>
-      <c r="G271" s="3">
+        <v>9802.129999999999</v>
+      </c>
+      <c r="G271" s="1">
         <f>AVERAGE(E267:E271)</f>
         <v/>
       </c>
-      <c r="H271" s="3">
+      <c r="H271" s="1">
         <f>AVERAGE(E242:E271)</f>
         <v/>
       </c>
-      <c r="I271" s="3">
+      <c r="I271" s="1">
         <f>G271-H271</f>
         <v/>
       </c>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -40,72 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2017/09/27</t>
-  </si>
-  <si>
-    <t>2017/09/28</t>
-  </si>
-  <si>
-    <t>2017/09/29</t>
-  </si>
-  <si>
-    <t>2017/09/30</t>
-  </si>
-  <si>
-    <t>2017/10/02</t>
-  </si>
-  <si>
-    <t>2017/10/03</t>
-  </si>
-  <si>
-    <t>2017/10/05</t>
-  </si>
-  <si>
-    <t>2017/10/06</t>
-  </si>
-  <si>
-    <t>2017/10/11</t>
-  </si>
-  <si>
-    <t>2017/10/12</t>
-  </si>
-  <si>
-    <t>2017/10/13</t>
-  </si>
-  <si>
-    <t>2017/10/16</t>
-  </si>
-  <si>
-    <t>2017/10/17</t>
-  </si>
-  <si>
-    <t>2017/10/18</t>
-  </si>
-  <si>
-    <t>2017/10/19</t>
-  </si>
-  <si>
-    <t>2017/10/20</t>
-  </si>
-  <si>
-    <t>2017/10/23</t>
-  </si>
-  <si>
-    <t>2017/10/24</t>
-  </si>
-  <si>
-    <t>2017/10/25</t>
-  </si>
-  <si>
-    <t>2017/10/26</t>
-  </si>
-  <si>
-    <t>2017/10/27</t>
-  </si>
-  <si>
-    <t>2017/10/30</t>
-  </si>
-  <si>
     <t>2017/10/31</t>
   </si>
   <si>
@@ -848,6 +782,72 @@
   </si>
   <si>
     <t>2018/10/31</t>
+  </si>
+  <si>
+    <t>2018/11/01</t>
+  </si>
+  <si>
+    <t>2018/11/02</t>
+  </si>
+  <si>
+    <t>2018/11/05</t>
+  </si>
+  <si>
+    <t>2018/11/06</t>
+  </si>
+  <si>
+    <t>2018/11/07</t>
+  </si>
+  <si>
+    <t>2018/11/08</t>
+  </si>
+  <si>
+    <t>2018/11/09</t>
+  </si>
+  <si>
+    <t>2018/11/12</t>
+  </si>
+  <si>
+    <t>2018/11/13</t>
+  </si>
+  <si>
+    <t>2018/11/14</t>
+  </si>
+  <si>
+    <t>2018/11/15</t>
+  </si>
+  <si>
+    <t>2018/11/16</t>
+  </si>
+  <si>
+    <t>2018/11/19</t>
+  </si>
+  <si>
+    <t>2018/11/20</t>
+  </si>
+  <si>
+    <t>2018/11/21</t>
+  </si>
+  <si>
+    <t>2018/11/22</t>
+  </si>
+  <si>
+    <t>2018/11/23</t>
+  </si>
+  <si>
+    <t>2018/11/26</t>
+  </si>
+  <si>
+    <t>2018/11/27</t>
+  </si>
+  <si>
+    <t>2018/11/28</t>
+  </si>
+  <si>
+    <t>2018/11/29</t>
+  </si>
+  <si>
+    <t>2018/11/30</t>
   </si>
 </sst>
 </file>
@@ -1752,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10322.44</v>
+        <v>10768.9</v>
       </c>
       <c r="C2" t="n">
-        <v>10357.23</v>
+        <v>10829.33</v>
       </c>
       <c r="D2" t="n">
-        <v>10315.97</v>
+        <v>10747.37</v>
       </c>
       <c r="E2" t="n">
-        <v>10326.68</v>
+        <v>10793.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1769,16 +1769,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>10351.42</v>
+        <v>10816.04</v>
       </c>
       <c r="C3" t="n">
-        <v>10365.59</v>
+        <v>10843.41</v>
       </c>
       <c r="D3" t="n">
-        <v>10288.24</v>
+        <v>10785.32</v>
       </c>
       <c r="E3" t="n">
-        <v>10296.45</v>
+        <v>10806.36</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1786,16 +1786,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10319.69</v>
+        <v>10797.63</v>
       </c>
       <c r="C4" t="n">
-        <v>10338.95</v>
+        <v>10827.67</v>
       </c>
       <c r="D4" t="n">
-        <v>10273.6</v>
+        <v>10788.51</v>
       </c>
       <c r="E4" t="n">
-        <v>10329.94</v>
+        <v>10788.51</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1803,16 +1803,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>10362.55</v>
+        <v>10797.91</v>
       </c>
       <c r="C5" t="n">
-        <v>10400.4</v>
+        <v>10835.7</v>
       </c>
       <c r="D5" t="n">
-        <v>10362.55</v>
+        <v>10765.31</v>
       </c>
       <c r="E5" t="n">
-        <v>10383.94</v>
+        <v>10800.77</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1820,16 +1820,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>10425.1</v>
+        <v>10856.56</v>
       </c>
       <c r="C6" t="n">
-        <v>10472.81</v>
+        <v>10858.5</v>
       </c>
       <c r="D6" t="n">
-        <v>10414.53</v>
+        <v>10769.19</v>
       </c>
       <c r="E6" t="n">
-        <v>10465.16</v>
+        <v>10786.19</v>
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(E2:E6)</f>
@@ -1841,16 +1841,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>10462.7</v>
+        <v>10820.83</v>
       </c>
       <c r="C7" t="n">
-        <v>10495.34</v>
+        <v>10842.61</v>
       </c>
       <c r="D7" t="n">
-        <v>10445.86</v>
+        <v>10807.89</v>
       </c>
       <c r="E7" t="n">
-        <v>10469.35</v>
+        <v>10840.34</v>
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(E3:E7)</f>
@@ -1862,16 +1862,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10473.28</v>
+        <v>10839.44</v>
       </c>
       <c r="C8" t="n">
-        <v>10530.93</v>
+        <v>10844.74</v>
       </c>
       <c r="D8" t="n">
-        <v>10473.28</v>
+        <v>10806.01</v>
       </c>
       <c r="E8" t="n">
-        <v>10518.27</v>
+        <v>10818.99</v>
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(E4:E8)</f>
@@ -1883,16 +1883,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>10538.21</v>
+        <v>10802.95</v>
       </c>
       <c r="C9" t="n">
-        <v>10557.67</v>
+        <v>10831.38</v>
       </c>
       <c r="D9" t="n">
-        <v>10511.5</v>
+        <v>10721.87</v>
       </c>
       <c r="E9" t="n">
-        <v>10532.81</v>
+        <v>10743.27</v>
       </c>
       <c r="G9" s="1">
         <f>AVERAGE(E5:E9)</f>
@@ -1904,16 +1904,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>10576.12</v>
+        <v>10713.67</v>
       </c>
       <c r="C10" t="n">
-        <v>10668.49</v>
+        <v>10742.61</v>
       </c>
       <c r="D10" t="n">
-        <v>10576.12</v>
+        <v>10659.29</v>
       </c>
       <c r="E10" t="n">
-        <v>10641.19</v>
+        <v>10732.67</v>
       </c>
       <c r="G10" s="1">
         <f>AVERAGE(E6:E10)</f>
@@ -1925,16 +1925,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>10668.39</v>
+        <v>10728.22</v>
       </c>
       <c r="C11" t="n">
-        <v>10711.44</v>
+        <v>10749.39</v>
       </c>
       <c r="D11" t="n">
-        <v>10668.39</v>
+        <v>10683.92</v>
       </c>
       <c r="E11" t="n">
-        <v>10711.44</v>
+        <v>10683.92</v>
       </c>
       <c r="G11" s="1">
         <f>AVERAGE(E7:E11)</f>
@@ -1946,16 +1946,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>10712.48</v>
+        <v>10716.59</v>
       </c>
       <c r="C12" t="n">
-        <v>10724.09</v>
+        <v>10735.08</v>
       </c>
       <c r="D12" t="n">
-        <v>10675.83</v>
+        <v>10654.58</v>
       </c>
       <c r="E12" t="n">
-        <v>10724.09</v>
+        <v>10687.18</v>
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(E8:E12)</f>
@@ -1967,16 +1967,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>10735.14</v>
+        <v>10662.08</v>
       </c>
       <c r="C13" t="n">
-        <v>10774.21</v>
+        <v>10669.59</v>
       </c>
       <c r="D13" t="n">
-        <v>10723.37</v>
+        <v>10600.26</v>
       </c>
       <c r="E13" t="n">
-        <v>10774.21</v>
+        <v>10630.65</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(E9:E13)</f>
@@ -1988,16 +1988,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>10790.35</v>
+        <v>10629.16</v>
       </c>
       <c r="C14" t="n">
-        <v>10798.52</v>
+        <v>10666.66</v>
       </c>
       <c r="D14" t="n">
-        <v>10723.15</v>
+        <v>10609.23</v>
       </c>
       <c r="E14" t="n">
-        <v>10723.15</v>
+        <v>10625.04</v>
       </c>
       <c r="G14" s="1">
         <f>AVERAGE(E10:E14)</f>
@@ -2009,16 +2009,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>10773.85</v>
+        <v>10673.43</v>
       </c>
       <c r="C15" t="n">
-        <v>10790.31</v>
+        <v>10729.45</v>
       </c>
       <c r="D15" t="n">
-        <v>10684.32</v>
+        <v>10673.43</v>
       </c>
       <c r="E15" t="n">
-        <v>10720.28</v>
+        <v>10701.64</v>
       </c>
       <c r="G15" s="1">
         <f>AVERAGE(E11:E15)</f>
@@ -2030,16 +2030,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>10745.77</v>
+        <v>10706.79</v>
       </c>
       <c r="C16" t="n">
-        <v>10798.54</v>
+        <v>10728.39</v>
       </c>
       <c r="D16" t="n">
-        <v>10745.77</v>
+        <v>10656.18</v>
       </c>
       <c r="E16" t="n">
-        <v>10760.29</v>
+        <v>10664.55</v>
       </c>
       <c r="G16" s="1">
         <f>AVERAGE(E12:E16)</f>
@@ -2051,16 +2051,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>10737.87</v>
+        <v>10688.22</v>
       </c>
       <c r="C17" t="n">
-        <v>10753.77</v>
+        <v>10787.58</v>
       </c>
       <c r="D17" t="n">
-        <v>10702.56</v>
+        <v>10687.26</v>
       </c>
       <c r="E17" t="n">
-        <v>10728.88</v>
+        <v>10779.24</v>
       </c>
       <c r="G17" s="1">
         <f>AVERAGE(E13:E17)</f>
@@ -2072,16 +2072,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>10759.47</v>
+        <v>10815.4</v>
       </c>
       <c r="C18" t="n">
-        <v>10792.27</v>
+        <v>10882.65</v>
       </c>
       <c r="D18" t="n">
-        <v>10731.9</v>
+        <v>10801.1</v>
       </c>
       <c r="E18" t="n">
-        <v>10735.21</v>
+        <v>10822.59</v>
       </c>
       <c r="G18" s="1">
         <f>AVERAGE(E14:E18)</f>
@@ -2093,16 +2093,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>10749.9</v>
+        <v>10837.61</v>
       </c>
       <c r="C19" t="n">
-        <v>10766.64</v>
+        <v>10872.29</v>
       </c>
       <c r="D19" t="n">
-        <v>10726.25</v>
+        <v>10809.09</v>
       </c>
       <c r="E19" t="n">
-        <v>10743.78</v>
+        <v>10854.57</v>
       </c>
       <c r="G19" s="1">
         <f>AVERAGE(E15:E19)</f>
@@ -2114,16 +2114,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>10771.4</v>
+        <v>10847.79</v>
       </c>
       <c r="C20" t="n">
-        <v>10794.55</v>
+        <v>10873.91</v>
       </c>
       <c r="D20" t="n">
-        <v>10740.07</v>
+        <v>10833.78</v>
       </c>
       <c r="E20" t="n">
-        <v>10750.57</v>
+        <v>10854.09</v>
       </c>
       <c r="G20" s="1">
         <f>AVERAGE(E16:E20)</f>
@@ -2135,16 +2135,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>10735.35</v>
+        <v>10836.82</v>
       </c>
       <c r="C21" t="n">
-        <v>10756.51</v>
+        <v>10856</v>
       </c>
       <c r="D21" t="n">
-        <v>10716.52</v>
+        <v>10746.74</v>
       </c>
       <c r="E21" t="n">
-        <v>10734.76</v>
+        <v>10750.93</v>
       </c>
       <c r="G21" s="1">
         <f>AVERAGE(E17:E21)</f>
@@ -2156,16 +2156,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>10757.35</v>
+        <v>10733.56</v>
       </c>
       <c r="C22" t="n">
-        <v>10803.6</v>
+        <v>10752.58</v>
       </c>
       <c r="D22" t="n">
-        <v>10701.08</v>
+        <v>10692.53</v>
       </c>
       <c r="E22" t="n">
-        <v>10709.11</v>
+        <v>10707.07</v>
       </c>
       <c r="G22" s="1">
         <f>AVERAGE(E18:E22)</f>
@@ -2177,16 +2177,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>10777.6</v>
+        <v>10735.24</v>
       </c>
       <c r="C23" t="n">
-        <v>10842.25</v>
+        <v>10762.91</v>
       </c>
       <c r="D23" t="n">
-        <v>10743.13</v>
+        <v>10697.62</v>
       </c>
       <c r="E23" t="n">
-        <v>10756.87</v>
+        <v>10713.55</v>
       </c>
       <c r="G23" s="1">
         <f>AVERAGE(E19:E23)</f>
@@ -2198,16 +2198,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>10768.9</v>
+        <v>10623.2</v>
       </c>
       <c r="C24" t="n">
-        <v>10829.33</v>
+        <v>10650.18</v>
       </c>
       <c r="D24" t="n">
-        <v>10747.37</v>
+        <v>10560.44</v>
       </c>
       <c r="E24" t="n">
-        <v>10793.8</v>
+        <v>10560.44</v>
       </c>
       <c r="G24" s="1">
         <f>AVERAGE(E20:E24)</f>
@@ -2219,16 +2219,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>10816.04</v>
+        <v>10591.62</v>
       </c>
       <c r="C25" t="n">
-        <v>10843.41</v>
+        <v>10665.92</v>
       </c>
       <c r="D25" t="n">
-        <v>10785.32</v>
+        <v>10495.15</v>
       </c>
       <c r="E25" t="n">
-        <v>10806.36</v>
+        <v>10600.37</v>
       </c>
       <c r="G25" s="1">
         <f>AVERAGE(E21:E25)</f>
@@ -2240,16 +2240,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10797.63</v>
+        <v>10617.27</v>
       </c>
       <c r="C26" t="n">
-        <v>10827.67</v>
+        <v>10665.43</v>
       </c>
       <c r="D26" t="n">
-        <v>10788.51</v>
+        <v>10565.68</v>
       </c>
       <c r="E26" t="n">
-        <v>10788.51</v>
+        <v>10651.11</v>
       </c>
       <c r="G26" s="1">
         <f>AVERAGE(E22:E26)</f>
@@ -2261,16 +2261,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>10797.91</v>
+        <v>10607.62</v>
       </c>
       <c r="C27" t="n">
-        <v>10835.7</v>
+        <v>10635.71</v>
       </c>
       <c r="D27" t="n">
-        <v>10765.31</v>
+        <v>10540.74</v>
       </c>
       <c r="E27" t="n">
-        <v>10800.77</v>
+        <v>10566.85</v>
       </c>
       <c r="G27" s="1">
         <f>AVERAGE(E23:E27)</f>
@@ -2282,16 +2282,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10856.56</v>
+        <v>10541.03</v>
       </c>
       <c r="C28" t="n">
-        <v>10858.5</v>
+        <v>10541.03</v>
       </c>
       <c r="D28" t="n">
-        <v>10769.19</v>
+        <v>10376.65</v>
       </c>
       <c r="E28" t="n">
-        <v>10786.19</v>
+        <v>10393.92</v>
       </c>
       <c r="G28" s="1">
         <f>AVERAGE(E24:E28)</f>
@@ -2303,16 +2303,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10820.83</v>
+        <v>10404.42</v>
       </c>
       <c r="C29" t="n">
-        <v>10842.61</v>
+        <v>10418.97</v>
       </c>
       <c r="D29" t="n">
-        <v>10807.89</v>
+        <v>10322.76</v>
       </c>
       <c r="E29" t="n">
-        <v>10840.34</v>
+        <v>10355.76</v>
       </c>
       <c r="G29" s="1">
         <f>AVERAGE(E25:E29)</f>
@@ -2324,16 +2324,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10839.44</v>
+        <v>10406.35</v>
       </c>
       <c r="C30" t="n">
-        <v>10844.74</v>
+        <v>10419.28</v>
       </c>
       <c r="D30" t="n">
-        <v>10806.01</v>
+        <v>10336.26</v>
       </c>
       <c r="E30" t="n">
-        <v>10818.99</v>
+        <v>10398.62</v>
       </c>
       <c r="G30" s="1">
         <f>AVERAGE(E26:E30)</f>
@@ -2345,16 +2345,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10802.95</v>
+        <v>10438.33</v>
       </c>
       <c r="C31" t="n">
-        <v>10831.38</v>
+        <v>10504.67</v>
       </c>
       <c r="D31" t="n">
-        <v>10721.87</v>
+        <v>10438.33</v>
       </c>
       <c r="E31" t="n">
-        <v>10743.27</v>
+        <v>10473.09</v>
       </c>
       <c r="G31" s="1">
         <f>AVERAGE(E27:E31)</f>
@@ -2374,16 +2374,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10713.67</v>
+        <v>10488.73</v>
       </c>
       <c r="C32" t="n">
-        <v>10742.61</v>
+        <v>10495.24</v>
       </c>
       <c r="D32" t="n">
-        <v>10659.29</v>
+        <v>10408.06</v>
       </c>
       <c r="E32" t="n">
-        <v>10732.67</v>
+        <v>10443.28</v>
       </c>
       <c r="G32" s="1">
         <f>AVERAGE(E28:E32)</f>
@@ -2403,16 +2403,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10728.22</v>
+        <v>10447.11</v>
       </c>
       <c r="C33" t="n">
-        <v>10749.39</v>
+        <v>10489.17</v>
       </c>
       <c r="D33" t="n">
-        <v>10683.92</v>
+        <v>10444.7</v>
       </c>
       <c r="E33" t="n">
-        <v>10683.92</v>
+        <v>10470.7</v>
       </c>
       <c r="G33" s="1">
         <f>AVERAGE(E29:E33)</f>
@@ -2432,16 +2432,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>10716.59</v>
+        <v>10494.6</v>
       </c>
       <c r="C34" t="n">
-        <v>10735.08</v>
+        <v>10577.53</v>
       </c>
       <c r="D34" t="n">
-        <v>10654.58</v>
+        <v>10494.6</v>
       </c>
       <c r="E34" t="n">
-        <v>10687.18</v>
+        <v>10538.01</v>
       </c>
       <c r="G34" s="1">
         <f>AVERAGE(E30:E34)</f>
@@ -2461,16 +2461,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10662.08</v>
+        <v>10517.21</v>
       </c>
       <c r="C35" t="n">
-        <v>10669.59</v>
+        <v>10520.66</v>
       </c>
       <c r="D35" t="n">
-        <v>10600.26</v>
+        <v>10436.11</v>
       </c>
       <c r="E35" t="n">
-        <v>10630.65</v>
+        <v>10491.44</v>
       </c>
       <c r="G35" s="1">
         <f>AVERAGE(E31:E35)</f>
@@ -2490,16 +2490,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10629.16</v>
+        <v>10478.74</v>
       </c>
       <c r="C36" t="n">
-        <v>10666.66</v>
+        <v>10526.41</v>
       </c>
       <c r="D36" t="n">
-        <v>10609.23</v>
+        <v>10472.39</v>
       </c>
       <c r="E36" t="n">
-        <v>10625.04</v>
+        <v>10506.52</v>
       </c>
       <c r="G36" s="1">
         <f>AVERAGE(E32:E36)</f>
@@ -2519,16 +2519,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>10673.43</v>
+        <v>10508.33</v>
       </c>
       <c r="C37" t="n">
-        <v>10729.45</v>
+        <v>10544</v>
       </c>
       <c r="D37" t="n">
-        <v>10673.43</v>
+        <v>10452.08</v>
       </c>
       <c r="E37" t="n">
-        <v>10701.64</v>
+        <v>10467.34</v>
       </c>
       <c r="G37" s="1">
         <f>AVERAGE(E33:E37)</f>
@@ -2548,16 +2548,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>10706.79</v>
+        <v>10470.36</v>
       </c>
       <c r="C38" t="n">
-        <v>10728.39</v>
+        <v>10514.31</v>
       </c>
       <c r="D38" t="n">
-        <v>10656.18</v>
+        <v>10470.36</v>
       </c>
       <c r="E38" t="n">
-        <v>10664.55</v>
+        <v>10504.52</v>
       </c>
       <c r="G38" s="1">
         <f>AVERAGE(E34:E38)</f>
@@ -2577,16 +2577,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10688.22</v>
+        <v>10526.97</v>
       </c>
       <c r="C39" t="n">
-        <v>10787.58</v>
+        <v>10545.78</v>
       </c>
       <c r="D39" t="n">
-        <v>10687.26</v>
+        <v>10488.97</v>
       </c>
       <c r="E39" t="n">
-        <v>10779.24</v>
+        <v>10488.97</v>
       </c>
       <c r="G39" s="1">
         <f>AVERAGE(E35:E39)</f>
@@ -2606,16 +2606,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>10815.4</v>
+        <v>10503.1</v>
       </c>
       <c r="C40" t="n">
-        <v>10882.65</v>
+        <v>10537.27</v>
       </c>
       <c r="D40" t="n">
-        <v>10801.1</v>
+        <v>10486.52</v>
       </c>
       <c r="E40" t="n">
-        <v>10822.59</v>
+        <v>10537.27</v>
       </c>
       <c r="G40" s="1">
         <f>AVERAGE(E36:E40)</f>
@@ -2635,16 +2635,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10837.61</v>
+        <v>10546.64</v>
       </c>
       <c r="C41" t="n">
-        <v>10872.29</v>
+        <v>10556.65</v>
       </c>
       <c r="D41" t="n">
-        <v>10809.09</v>
+        <v>10514.54</v>
       </c>
       <c r="E41" t="n">
-        <v>10854.57</v>
+        <v>10522.49</v>
       </c>
       <c r="G41" s="1">
         <f>AVERAGE(E37:E41)</f>
@@ -2664,16 +2664,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10847.79</v>
+        <v>10526.14</v>
       </c>
       <c r="C42" t="n">
-        <v>10873.91</v>
+        <v>10528.92</v>
       </c>
       <c r="D42" t="n">
-        <v>10833.78</v>
+        <v>10408.12</v>
       </c>
       <c r="E42" t="n">
-        <v>10854.09</v>
+        <v>10421.91</v>
       </c>
       <c r="G42" s="1">
         <f>AVERAGE(E38:E42)</f>
@@ -2693,16 +2693,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10836.82</v>
+        <v>10419.81</v>
       </c>
       <c r="C43" t="n">
-        <v>10856</v>
+        <v>10497.77</v>
       </c>
       <c r="D43" t="n">
-        <v>10746.74</v>
+        <v>10419.81</v>
       </c>
       <c r="E43" t="n">
-        <v>10750.93</v>
+        <v>10486.67</v>
       </c>
       <c r="G43" s="1">
         <f>AVERAGE(E39:E43)</f>
@@ -2722,16 +2722,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10733.56</v>
+        <v>10513.29</v>
       </c>
       <c r="C44" t="n">
-        <v>10752.58</v>
+        <v>10592.04</v>
       </c>
       <c r="D44" t="n">
-        <v>10692.53</v>
+        <v>10513.29</v>
       </c>
       <c r="E44" t="n">
-        <v>10707.07</v>
+        <v>10567.64</v>
       </c>
       <c r="G44" s="1">
         <f>AVERAGE(E40:E44)</f>
@@ -2751,16 +2751,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10735.24</v>
+        <v>10590.95</v>
       </c>
       <c r="C45" t="n">
-        <v>10762.91</v>
+        <v>10659.98</v>
       </c>
       <c r="D45" t="n">
-        <v>10697.62</v>
+        <v>10590.95</v>
       </c>
       <c r="E45" t="n">
-        <v>10713.55</v>
+        <v>10642.86</v>
       </c>
       <c r="G45" s="1">
         <f>AVERAGE(E41:E45)</f>
@@ -2780,16 +2780,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10623.2</v>
+        <v>10664.82</v>
       </c>
       <c r="C46" t="n">
-        <v>10650.18</v>
+        <v>10710.73</v>
       </c>
       <c r="D46" t="n">
-        <v>10560.44</v>
+        <v>10650.77</v>
       </c>
       <c r="E46" t="n">
-        <v>10560.44</v>
+        <v>10710.73</v>
       </c>
       <c r="G46" s="1">
         <f>AVERAGE(E42:E46)</f>
@@ -2809,16 +2809,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10591.62</v>
+        <v>10759.61</v>
       </c>
       <c r="C47" t="n">
-        <v>10665.92</v>
+        <v>10813.16</v>
       </c>
       <c r="D47" t="n">
-        <v>10495.15</v>
+        <v>10759.61</v>
       </c>
       <c r="E47" t="n">
-        <v>10600.37</v>
+        <v>10801.57</v>
       </c>
       <c r="G47" s="1">
         <f>AVERAGE(E43:E47)</f>
@@ -2838,16 +2838,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>10617.27</v>
+        <v>10834.58</v>
       </c>
       <c r="C48" t="n">
-        <v>10665.43</v>
+        <v>10853.46</v>
       </c>
       <c r="D48" t="n">
-        <v>10565.68</v>
+        <v>10794.25</v>
       </c>
       <c r="E48" t="n">
-        <v>10651.11</v>
+        <v>10848.63</v>
       </c>
       <c r="G48" s="1">
         <f>AVERAGE(E44:E48)</f>
@@ -2867,16 +2867,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10607.62</v>
+        <v>10856.92</v>
       </c>
       <c r="C49" t="n">
-        <v>10635.71</v>
+        <v>10879.8</v>
       </c>
       <c r="D49" t="n">
-        <v>10540.74</v>
+        <v>10815.68</v>
       </c>
       <c r="E49" t="n">
-        <v>10566.85</v>
+        <v>10879.8</v>
       </c>
       <c r="G49" s="1">
         <f>AVERAGE(E45:E49)</f>
@@ -2896,16 +2896,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10541.03</v>
+        <v>10899.09</v>
       </c>
       <c r="C50" t="n">
-        <v>10541.03</v>
+        <v>10918.47</v>
       </c>
       <c r="D50" t="n">
-        <v>10376.65</v>
+        <v>10869.12</v>
       </c>
       <c r="E50" t="n">
-        <v>10393.92</v>
+        <v>10915.75</v>
       </c>
       <c r="G50" s="1">
         <f>AVERAGE(E46:E50)</f>
@@ -2925,16 +2925,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10404.42</v>
+        <v>10922.35</v>
       </c>
       <c r="C51" t="n">
-        <v>10418.97</v>
+        <v>10931</v>
       </c>
       <c r="D51" t="n">
-        <v>10322.76</v>
+        <v>10860.77</v>
       </c>
       <c r="E51" t="n">
-        <v>10355.76</v>
+        <v>10914.89</v>
       </c>
       <c r="G51" s="1">
         <f>AVERAGE(E47:E51)</f>
@@ -2954,16 +2954,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10406.35</v>
+        <v>10915.32</v>
       </c>
       <c r="C52" t="n">
-        <v>10419.28</v>
+        <v>10934.75</v>
       </c>
       <c r="D52" t="n">
-        <v>10336.26</v>
+        <v>10819.25</v>
       </c>
       <c r="E52" t="n">
-        <v>10398.62</v>
+        <v>10831.09</v>
       </c>
       <c r="G52" s="1">
         <f>AVERAGE(E48:E52)</f>
@@ -2983,16 +2983,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10438.33</v>
+        <v>10824.54</v>
       </c>
       <c r="C53" t="n">
-        <v>10504.67</v>
+        <v>10844.08</v>
       </c>
       <c r="D53" t="n">
-        <v>10438.33</v>
+        <v>10770.1</v>
       </c>
       <c r="E53" t="n">
-        <v>10473.09</v>
+        <v>10810.06</v>
       </c>
       <c r="G53" s="1">
         <f>AVERAGE(E49:E53)</f>
@@ -3012,16 +3012,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10488.73</v>
+        <v>10818.24</v>
       </c>
       <c r="C54" t="n">
-        <v>10495.24</v>
+        <v>10899.98</v>
       </c>
       <c r="D54" t="n">
-        <v>10408.06</v>
+        <v>10818.24</v>
       </c>
       <c r="E54" t="n">
-        <v>10443.28</v>
+        <v>10883.96</v>
       </c>
       <c r="G54" s="1">
         <f>AVERAGE(E50:E54)</f>
@@ -3041,16 +3041,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10447.11</v>
+        <v>10932.37</v>
       </c>
       <c r="C55" t="n">
-        <v>10489.17</v>
+        <v>10962.55</v>
       </c>
       <c r="D55" t="n">
-        <v>10444.7</v>
+        <v>10911.89</v>
       </c>
       <c r="E55" t="n">
-        <v>10470.7</v>
+        <v>10956.31</v>
       </c>
       <c r="G55" s="1">
         <f>AVERAGE(E51:E55)</f>
@@ -3070,16 +3070,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10494.6</v>
+        <v>10955.81</v>
       </c>
       <c r="C56" t="n">
-        <v>10577.53</v>
+        <v>10986.11</v>
       </c>
       <c r="D56" t="n">
-        <v>10494.6</v>
+        <v>10920.5</v>
       </c>
       <c r="E56" t="n">
-        <v>10538.01</v>
+        <v>10986.11</v>
       </c>
       <c r="G56" s="1">
         <f>AVERAGE(E52:E56)</f>
@@ -3099,16 +3099,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10517.21</v>
+        <v>10976.13</v>
       </c>
       <c r="C57" t="n">
-        <v>10520.66</v>
+        <v>11030.22</v>
       </c>
       <c r="D57" t="n">
-        <v>10436.11</v>
+        <v>10942.95</v>
       </c>
       <c r="E57" t="n">
-        <v>10491.44</v>
+        <v>11004.8</v>
       </c>
       <c r="G57" s="1">
         <f>AVERAGE(E53:E57)</f>
@@ -3128,16 +3128,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10478.74</v>
+        <v>11048.06</v>
       </c>
       <c r="C58" t="n">
-        <v>10526.41</v>
+        <v>11122.82</v>
       </c>
       <c r="D58" t="n">
-        <v>10472.39</v>
+        <v>11048.06</v>
       </c>
       <c r="E58" t="n">
-        <v>10506.52</v>
+        <v>11071.57</v>
       </c>
       <c r="G58" s="1">
         <f>AVERAGE(E54:E58)</f>
@@ -3157,16 +3157,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10508.33</v>
+        <v>11123.58</v>
       </c>
       <c r="C59" t="n">
-        <v>10544</v>
+        <v>11150.85</v>
       </c>
       <c r="D59" t="n">
-        <v>10452.08</v>
+        <v>11095.85</v>
       </c>
       <c r="E59" t="n">
-        <v>10467.34</v>
+        <v>11150.85</v>
       </c>
       <c r="G59" s="1">
         <f>AVERAGE(E55:E59)</f>
@@ -3186,16 +3186,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10470.36</v>
+        <v>11169.79</v>
       </c>
       <c r="C60" t="n">
-        <v>10514.31</v>
+        <v>11231.46</v>
       </c>
       <c r="D60" t="n">
-        <v>10470.36</v>
+        <v>11142.38</v>
       </c>
       <c r="E60" t="n">
-        <v>10504.52</v>
+        <v>11231.46</v>
       </c>
       <c r="G60" s="1">
         <f>AVERAGE(E56:E60)</f>
@@ -3215,16 +3215,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10526.97</v>
+        <v>11243.49</v>
       </c>
       <c r="C61" t="n">
-        <v>10545.78</v>
+        <v>11270.18</v>
       </c>
       <c r="D61" t="n">
-        <v>10488.97</v>
+        <v>11201.52</v>
       </c>
       <c r="E61" t="n">
-        <v>10488.97</v>
+        <v>11253.11</v>
       </c>
       <c r="G61" s="1">
         <f>AVERAGE(E57:E61)</f>
@@ -3244,16 +3244,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10503.1</v>
+        <v>11228.71</v>
       </c>
       <c r="C62" t="n">
-        <v>10537.27</v>
+        <v>11228.71</v>
       </c>
       <c r="D62" t="n">
-        <v>10486.52</v>
+        <v>11107.32</v>
       </c>
       <c r="E62" t="n">
-        <v>10537.27</v>
+        <v>11152.16</v>
       </c>
       <c r="G62" s="1">
         <f>AVERAGE(E58:E62)</f>
@@ -3273,16 +3273,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10546.64</v>
+        <v>11154.36</v>
       </c>
       <c r="C63" t="n">
-        <v>10556.65</v>
+        <v>11268.61</v>
       </c>
       <c r="D63" t="n">
-        <v>10514.54</v>
+        <v>11131.85</v>
       </c>
       <c r="E63" t="n">
-        <v>10522.49</v>
+        <v>11165.95</v>
       </c>
       <c r="G63" s="1">
         <f>AVERAGE(E59:E63)</f>
@@ -3302,16 +3302,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10526.14</v>
+        <v>11152.53</v>
       </c>
       <c r="C64" t="n">
-        <v>10528.92</v>
+        <v>11178.3</v>
       </c>
       <c r="D64" t="n">
-        <v>10408.12</v>
+        <v>11089.48</v>
       </c>
       <c r="E64" t="n">
-        <v>10421.91</v>
+        <v>11147.1</v>
       </c>
       <c r="G64" s="1">
         <f>AVERAGE(E60:E64)</f>
@@ -3331,16 +3331,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10419.81</v>
+        <v>11202.27</v>
       </c>
       <c r="C65" t="n">
-        <v>10497.77</v>
+        <v>11246.18</v>
       </c>
       <c r="D65" t="n">
-        <v>10419.81</v>
+        <v>11161.83</v>
       </c>
       <c r="E65" t="n">
-        <v>10486.67</v>
+        <v>11221.81</v>
       </c>
       <c r="G65" s="1">
         <f>AVERAGE(E61:E65)</f>
@@ -3360,16 +3360,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10513.29</v>
+        <v>11189.57</v>
       </c>
       <c r="C66" t="n">
-        <v>10592.04</v>
+        <v>11189.57</v>
       </c>
       <c r="D66" t="n">
-        <v>10513.29</v>
+        <v>11076.78</v>
       </c>
       <c r="E66" t="n">
-        <v>10567.64</v>
+        <v>11076.78</v>
       </c>
       <c r="G66" s="1">
         <f>AVERAGE(E62:E66)</f>
@@ -3389,16 +3389,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10590.95</v>
+        <v>11054.36</v>
       </c>
       <c r="C67" t="n">
-        <v>10659.98</v>
+        <v>11158.29</v>
       </c>
       <c r="D67" t="n">
-        <v>10590.95</v>
+        <v>11007.89</v>
       </c>
       <c r="E67" t="n">
-        <v>10642.86</v>
+        <v>11103.79</v>
       </c>
       <c r="G67" s="1">
         <f>AVERAGE(E63:E67)</f>
@@ -3418,16 +3418,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>10664.82</v>
+        <v>11139.4</v>
       </c>
       <c r="C68" t="n">
-        <v>10710.73</v>
+        <v>11212.1</v>
       </c>
       <c r="D68" t="n">
-        <v>10650.77</v>
+        <v>11139.4</v>
       </c>
       <c r="E68" t="n">
-        <v>10710.73</v>
+        <v>11160.25</v>
       </c>
       <c r="G68" s="1">
         <f>AVERAGE(E64:E68)</f>
@@ -3447,16 +3447,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>10759.61</v>
+        <v>11151.65</v>
       </c>
       <c r="C69" t="n">
-        <v>10813.16</v>
+        <v>11153.32</v>
       </c>
       <c r="D69" t="n">
-        <v>10759.61</v>
+        <v>11070.43</v>
       </c>
       <c r="E69" t="n">
-        <v>10801.57</v>
+        <v>11126.23</v>
       </c>
       <c r="G69" s="1">
         <f>AVERAGE(E65:E69)</f>
@@ -3476,16 +3476,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>10834.58</v>
+        <v>10970.3</v>
       </c>
       <c r="C70" t="n">
-        <v>10853.46</v>
+        <v>10970.3</v>
       </c>
       <c r="D70" t="n">
-        <v>10794.25</v>
+        <v>10855.43</v>
       </c>
       <c r="E70" t="n">
-        <v>10848.63</v>
+        <v>10946.25</v>
       </c>
       <c r="G70" s="1">
         <f>AVERAGE(E66:E70)</f>
@@ -3505,16 +3505,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>10856.92</v>
+        <v>10761.01</v>
       </c>
       <c r="C71" t="n">
-        <v>10879.8</v>
+        <v>10761.01</v>
       </c>
       <c r="D71" t="n">
-        <v>10815.68</v>
+        <v>10300.4</v>
       </c>
       <c r="E71" t="n">
-        <v>10879.8</v>
+        <v>10404</v>
       </c>
       <c r="G71" s="1">
         <f>AVERAGE(E67:E71)</f>
@@ -3534,16 +3534,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>10899.09</v>
+        <v>10547.64</v>
       </c>
       <c r="C72" t="n">
-        <v>10918.47</v>
+        <v>10697.82</v>
       </c>
       <c r="D72" t="n">
-        <v>10869.12</v>
+        <v>10547.64</v>
       </c>
       <c r="E72" t="n">
-        <v>10915.75</v>
+        <v>10551.54</v>
       </c>
       <c r="G72" s="1">
         <f>AVERAGE(E68:E72)</f>
@@ -3563,16 +3563,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>10922.35</v>
+        <v>10559.44</v>
       </c>
       <c r="C73" t="n">
-        <v>10931</v>
+        <v>10609.5</v>
       </c>
       <c r="D73" t="n">
-        <v>10860.77</v>
+        <v>10512.93</v>
       </c>
       <c r="E73" t="n">
-        <v>10914.89</v>
+        <v>10528.52</v>
       </c>
       <c r="G73" s="1">
         <f>AVERAGE(E69:E73)</f>
@@ -3592,16 +3592,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10915.32</v>
+        <v>10371.01</v>
       </c>
       <c r="C74" t="n">
-        <v>10934.75</v>
+        <v>10392.31</v>
       </c>
       <c r="D74" t="n">
-        <v>10819.25</v>
+        <v>10189.04</v>
       </c>
       <c r="E74" t="n">
-        <v>10831.09</v>
+        <v>10371.75</v>
       </c>
       <c r="G74" s="1">
         <f>AVERAGE(E70:E74)</f>
@@ -3621,16 +3621,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10824.54</v>
+        <v>10429.09</v>
       </c>
       <c r="C75" t="n">
-        <v>10844.08</v>
+        <v>10473.51</v>
       </c>
       <c r="D75" t="n">
-        <v>10770.1</v>
+        <v>10416.01</v>
       </c>
       <c r="E75" t="n">
-        <v>10810.06</v>
+        <v>10421.09</v>
       </c>
       <c r="G75" s="1">
         <f>AVERAGE(E71:E75)</f>
@@ -3650,16 +3650,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10818.24</v>
+        <v>10559.79</v>
       </c>
       <c r="C76" t="n">
-        <v>10899.98</v>
+        <v>10720.48</v>
       </c>
       <c r="D76" t="n">
-        <v>10818.24</v>
+        <v>10559.79</v>
       </c>
       <c r="E76" t="n">
-        <v>10883.96</v>
+        <v>10714.44</v>
       </c>
       <c r="G76" s="1">
         <f>AVERAGE(E72:E76)</f>
@@ -3679,16 +3679,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10932.37</v>
+        <v>10698.47</v>
       </c>
       <c r="C77" t="n">
-        <v>10962.55</v>
+        <v>10698.47</v>
       </c>
       <c r="D77" t="n">
-        <v>10911.89</v>
+        <v>10620.8</v>
       </c>
       <c r="E77" t="n">
-        <v>10956.31</v>
+        <v>10662.38</v>
       </c>
       <c r="G77" s="1">
         <f>AVERAGE(E73:E77)</f>
@@ -3708,16 +3708,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10955.81</v>
+        <v>10688.97</v>
       </c>
       <c r="C78" t="n">
-        <v>10986.11</v>
+        <v>10799.29</v>
       </c>
       <c r="D78" t="n">
-        <v>10920.5</v>
+        <v>10688.97</v>
       </c>
       <c r="E78" t="n">
-        <v>10986.11</v>
+        <v>10794.55</v>
       </c>
       <c r="G78" s="1">
         <f>AVERAGE(E74:E78)</f>
@@ -3737,16 +3737,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10976.13</v>
+        <v>10827.98</v>
       </c>
       <c r="C79" t="n">
-        <v>11030.22</v>
+        <v>10890.69</v>
       </c>
       <c r="D79" t="n">
-        <v>10942.95</v>
+        <v>10827.98</v>
       </c>
       <c r="E79" t="n">
-        <v>11004.8</v>
+        <v>10836.7</v>
       </c>
       <c r="G79" s="1">
         <f>AVERAGE(E75:E79)</f>
@@ -3766,16 +3766,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>11048.06</v>
+        <v>10896.16</v>
       </c>
       <c r="C80" t="n">
-        <v>11122.82</v>
+        <v>10937.9</v>
       </c>
       <c r="D80" t="n">
-        <v>11048.06</v>
+        <v>10815.47</v>
       </c>
       <c r="E80" t="n">
-        <v>11071.57</v>
+        <v>10815.47</v>
       </c>
       <c r="G80" s="1">
         <f>AVERAGE(E76:E80)</f>
@@ -3795,16 +3795,16 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>11123.58</v>
+        <v>10779.1</v>
       </c>
       <c r="C81" t="n">
-        <v>11150.85</v>
+        <v>10805.55</v>
       </c>
       <c r="D81" t="n">
-        <v>11095.85</v>
+        <v>10709.69</v>
       </c>
       <c r="E81" t="n">
-        <v>11150.85</v>
+        <v>10785.79</v>
       </c>
       <c r="G81" s="1">
         <f>AVERAGE(E77:E81)</f>
@@ -3824,16 +3824,16 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>11169.79</v>
+        <v>10719.29</v>
       </c>
       <c r="C82" t="n">
-        <v>11231.46</v>
+        <v>10719.29</v>
       </c>
       <c r="D82" t="n">
-        <v>11142.38</v>
+        <v>10638.98</v>
       </c>
       <c r="E82" t="n">
-        <v>11231.46</v>
+        <v>10698.17</v>
       </c>
       <c r="G82" s="1">
         <f>AVERAGE(E78:E82)</f>
@@ -3853,16 +3853,16 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>11243.49</v>
+        <v>10727.45</v>
       </c>
       <c r="C83" t="n">
-        <v>11270.18</v>
+        <v>10756.37</v>
       </c>
       <c r="D83" t="n">
-        <v>11201.52</v>
+        <v>10642.9</v>
       </c>
       <c r="E83" t="n">
-        <v>11253.11</v>
+        <v>10642.9</v>
       </c>
       <c r="G83" s="1">
         <f>AVERAGE(E79:E83)</f>
@@ -3882,16 +3882,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>11228.71</v>
+        <v>10711.15</v>
       </c>
       <c r="C84" t="n">
-        <v>11228.71</v>
+        <v>10784.34</v>
       </c>
       <c r="D84" t="n">
-        <v>11107.32</v>
+        <v>10711.15</v>
       </c>
       <c r="E84" t="n">
-        <v>11152.16</v>
+        <v>10784.34</v>
       </c>
       <c r="G84" s="1">
         <f>AVERAGE(E80:E84)</f>
@@ -3911,16 +3911,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>11154.36</v>
+        <v>10762.99</v>
       </c>
       <c r="C85" t="n">
-        <v>11268.61</v>
+        <v>10818.05</v>
       </c>
       <c r="D85" t="n">
-        <v>11131.85</v>
+        <v>10745.32</v>
       </c>
       <c r="E85" t="n">
-        <v>11165.95</v>
+        <v>10745.32</v>
       </c>
       <c r="G85" s="1">
         <f>AVERAGE(E81:E85)</f>
@@ -3940,16 +3940,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>11152.53</v>
+        <v>10788.43</v>
       </c>
       <c r="C86" t="n">
-        <v>11178.3</v>
+        <v>10852.33</v>
       </c>
       <c r="D86" t="n">
-        <v>11089.48</v>
+        <v>10788.43</v>
       </c>
       <c r="E86" t="n">
-        <v>11147.1</v>
+        <v>10823.24</v>
       </c>
       <c r="G86" s="1">
         <f>AVERAGE(E82:E86)</f>
@@ -3969,16 +3969,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>11202.27</v>
+        <v>10847.74</v>
       </c>
       <c r="C87" t="n">
-        <v>11246.18</v>
+        <v>10882.76</v>
       </c>
       <c r="D87" t="n">
-        <v>11161.83</v>
+        <v>10845.38</v>
       </c>
       <c r="E87" t="n">
-        <v>11221.81</v>
+        <v>10864.82</v>
       </c>
       <c r="G87" s="1">
         <f>AVERAGE(E83:E87)</f>
@@ -3998,16 +3998,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>11189.57</v>
+        <v>10908.99</v>
       </c>
       <c r="C88" t="n">
-        <v>11189.57</v>
+        <v>11016.56</v>
       </c>
       <c r="D88" t="n">
-        <v>11076.78</v>
+        <v>10908.99</v>
       </c>
       <c r="E88" t="n">
-        <v>11076.78</v>
+        <v>11002.1</v>
       </c>
       <c r="G88" s="1">
         <f>AVERAGE(E84:E88)</f>
@@ -4027,16 +4027,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>11054.36</v>
+        <v>11022.15</v>
       </c>
       <c r="C89" t="n">
-        <v>11158.29</v>
+        <v>11095.63</v>
       </c>
       <c r="D89" t="n">
-        <v>11007.89</v>
+        <v>11014.87</v>
       </c>
       <c r="E89" t="n">
-        <v>11103.79</v>
+        <v>11095.63</v>
       </c>
       <c r="G89" s="1">
         <f>AVERAGE(E85:E89)</f>
@@ -4056,16 +4056,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>11139.4</v>
+        <v>11063.73</v>
       </c>
       <c r="C90" t="n">
-        <v>11212.1</v>
+        <v>11070.29</v>
       </c>
       <c r="D90" t="n">
-        <v>11139.4</v>
+        <v>11015.47</v>
       </c>
       <c r="E90" t="n">
-        <v>11160.25</v>
+        <v>11038.8</v>
       </c>
       <c r="G90" s="1">
         <f>AVERAGE(E86:E90)</f>
@@ -4085,16 +4085,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>11151.65</v>
+        <v>11039.6</v>
       </c>
       <c r="C91" t="n">
-        <v>11153.32</v>
+        <v>11052.11</v>
       </c>
       <c r="D91" t="n">
-        <v>11070.43</v>
+        <v>11008.18</v>
       </c>
       <c r="E91" t="n">
-        <v>11126.23</v>
+        <v>11018.45</v>
       </c>
       <c r="G91" s="1">
         <f>AVERAGE(E87:E91)</f>
@@ -4114,16 +4114,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>10970.3</v>
+        <v>11010.24</v>
       </c>
       <c r="C92" t="n">
-        <v>10970.3</v>
+        <v>11054.86</v>
       </c>
       <c r="D92" t="n">
-        <v>10855.43</v>
+        <v>10933.46</v>
       </c>
       <c r="E92" t="n">
-        <v>10946.25</v>
+        <v>11027.7</v>
       </c>
       <c r="G92" s="1">
         <f>AVERAGE(E88:E92)</f>
@@ -4143,16 +4143,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>10761.01</v>
+        <v>11004.81</v>
       </c>
       <c r="C93" t="n">
-        <v>10761.01</v>
+        <v>11066</v>
       </c>
       <c r="D93" t="n">
-        <v>10300.4</v>
+        <v>10983.25</v>
       </c>
       <c r="E93" t="n">
-        <v>10404</v>
+        <v>11046.9</v>
       </c>
       <c r="G93" s="1">
         <f>AVERAGE(E89:E93)</f>
@@ -4172,16 +4172,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>10547.64</v>
+        <v>11016.85</v>
       </c>
       <c r="C94" t="n">
-        <v>10697.82</v>
+        <v>11020.78</v>
       </c>
       <c r="D94" t="n">
-        <v>10547.64</v>
+        <v>10981.04</v>
       </c>
       <c r="E94" t="n">
-        <v>10551.54</v>
+        <v>11010.84</v>
       </c>
       <c r="G94" s="1">
         <f>AVERAGE(E90:E94)</f>
@@ -4201,16 +4201,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>10559.44</v>
+        <v>11037.35</v>
       </c>
       <c r="C95" t="n">
-        <v>10609.5</v>
+        <v>11072.31</v>
       </c>
       <c r="D95" t="n">
-        <v>10512.93</v>
+        <v>11011.07</v>
       </c>
       <c r="E95" t="n">
-        <v>10528.52</v>
+        <v>11011.07</v>
       </c>
       <c r="G95" s="1">
         <f>AVERAGE(E91:E95)</f>
@@ -4230,16 +4230,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>10371.01</v>
+        <v>11045.9</v>
       </c>
       <c r="C96" t="n">
-        <v>10392.31</v>
+        <v>11120.2</v>
       </c>
       <c r="D96" t="n">
-        <v>10189.04</v>
+        <v>10975.33</v>
       </c>
       <c r="E96" t="n">
-        <v>10371.75</v>
+        <v>11005.84</v>
       </c>
       <c r="G96" s="1">
         <f>AVERAGE(E92:E96)</f>
@@ -4259,16 +4259,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10429.09</v>
+        <v>10863.67</v>
       </c>
       <c r="C97" t="n">
-        <v>10473.51</v>
+        <v>10863.67</v>
       </c>
       <c r="D97" t="n">
-        <v>10416.01</v>
+        <v>10758.06</v>
       </c>
       <c r="E97" t="n">
-        <v>10421.09</v>
+        <v>10823.33</v>
       </c>
       <c r="G97" s="1">
         <f>AVERAGE(E93:E97)</f>
@@ -4288,16 +4288,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10559.79</v>
+        <v>10783.57</v>
       </c>
       <c r="C98" t="n">
-        <v>10720.48</v>
+        <v>10840.05</v>
       </c>
       <c r="D98" t="n">
-        <v>10559.79</v>
+        <v>10781.43</v>
       </c>
       <c r="E98" t="n">
-        <v>10714.44</v>
+        <v>10840.05</v>
       </c>
       <c r="G98" s="1">
         <f>AVERAGE(E94:E98)</f>
@@ -4317,16 +4317,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10698.47</v>
+        <v>10901.69</v>
       </c>
       <c r="C99" t="n">
-        <v>10698.47</v>
+        <v>10986.79</v>
       </c>
       <c r="D99" t="n">
-        <v>10620.8</v>
+        <v>10901.69</v>
       </c>
       <c r="E99" t="n">
-        <v>10662.38</v>
+        <v>10986.79</v>
       </c>
       <c r="G99" s="1">
         <f>AVERAGE(E95:E99)</f>
@@ -4346,16 +4346,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10688.97</v>
+        <v>10939.97</v>
       </c>
       <c r="C100" t="n">
-        <v>10799.29</v>
+        <v>10939.97</v>
       </c>
       <c r="D100" t="n">
-        <v>10688.97</v>
+        <v>10853.48</v>
       </c>
       <c r="E100" t="n">
-        <v>10794.55</v>
+        <v>10865.66</v>
       </c>
       <c r="G100" s="1">
         <f>AVERAGE(E96:E100)</f>
@@ -4375,16 +4375,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10827.98</v>
+        <v>10855.66</v>
       </c>
       <c r="C101" t="n">
-        <v>10890.69</v>
+        <v>10889.6</v>
       </c>
       <c r="D101" t="n">
-        <v>10827.98</v>
+        <v>10815.46</v>
       </c>
       <c r="E101" t="n">
-        <v>10836.7</v>
+        <v>10845.92</v>
       </c>
       <c r="G101" s="1">
         <f>AVERAGE(E97:E101)</f>
@@ -4404,16 +4404,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10896.16</v>
+        <v>10905.3</v>
       </c>
       <c r="C102" t="n">
-        <v>10937.9</v>
+        <v>10969.22</v>
       </c>
       <c r="D102" t="n">
-        <v>10815.47</v>
+        <v>10905.3</v>
       </c>
       <c r="E102" t="n">
-        <v>10815.47</v>
+        <v>10906.22</v>
       </c>
       <c r="G102" s="1">
         <f>AVERAGE(E98:E102)</f>
@@ -4433,16 +4433,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>10779.1</v>
+        <v>10925.71</v>
       </c>
       <c r="C103" t="n">
-        <v>10805.55</v>
+        <v>10947.16</v>
       </c>
       <c r="D103" t="n">
-        <v>10709.69</v>
+        <v>10905.69</v>
       </c>
       <c r="E103" t="n">
-        <v>10785.79</v>
+        <v>10919.49</v>
       </c>
       <c r="G103" s="1">
         <f>AVERAGE(E99:E103)</f>
@@ -4462,16 +4462,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>10719.29</v>
+        <v>10936.26</v>
       </c>
       <c r="C104" t="n">
-        <v>10719.29</v>
+        <v>10969.88</v>
       </c>
       <c r="D104" t="n">
-        <v>10638.98</v>
+        <v>10882.05</v>
       </c>
       <c r="E104" t="n">
-        <v>10698.17</v>
+        <v>10888.27</v>
       </c>
       <c r="G104" s="1">
         <f>AVERAGE(E100:E104)</f>
@@ -4491,16 +4491,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>10727.45</v>
+        <v>10837.54</v>
       </c>
       <c r="C105" t="n">
-        <v>10756.37</v>
+        <v>10837.54</v>
       </c>
       <c r="D105" t="n">
-        <v>10642.9</v>
+        <v>10775.45</v>
       </c>
       <c r="E105" t="n">
-        <v>10642.9</v>
+        <v>10821.53</v>
       </c>
       <c r="G105" s="1">
         <f>AVERAGE(E101:E105)</f>
@@ -4520,16 +4520,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>10711.15</v>
+        <v>10880.14</v>
       </c>
       <c r="C106" t="n">
-        <v>10784.34</v>
+        <v>10904.75</v>
       </c>
       <c r="D106" t="n">
-        <v>10711.15</v>
+        <v>10829.02</v>
       </c>
       <c r="E106" t="n">
-        <v>10784.34</v>
+        <v>10893.53</v>
       </c>
       <c r="G106" s="1">
         <f>AVERAGE(E102:E106)</f>
@@ -4549,16 +4549,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>10762.99</v>
+        <v>10885.64</v>
       </c>
       <c r="C107" t="n">
-        <v>10818.05</v>
+        <v>10975.67</v>
       </c>
       <c r="D107" t="n">
-        <v>10745.32</v>
+        <v>10874.83</v>
       </c>
       <c r="E107" t="n">
-        <v>10745.32</v>
+        <v>10927.18</v>
       </c>
       <c r="G107" s="1">
         <f>AVERAGE(E103:E107)</f>
@@ -4578,16 +4578,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>10788.43</v>
+        <v>10961.7</v>
       </c>
       <c r="C108" t="n">
-        <v>10852.33</v>
+        <v>11016.35</v>
       </c>
       <c r="D108" t="n">
-        <v>10788.43</v>
+        <v>10953.31</v>
       </c>
       <c r="E108" t="n">
-        <v>10823.24</v>
+        <v>10974.02</v>
       </c>
       <c r="G108" s="1">
         <f>AVERAGE(E104:E108)</f>
@@ -4607,16 +4607,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>10847.74</v>
+        <v>10984.12</v>
       </c>
       <c r="C109" t="n">
-        <v>10882.76</v>
+        <v>11008.2</v>
       </c>
       <c r="D109" t="n">
-        <v>10845.38</v>
+        <v>10920.62</v>
       </c>
       <c r="E109" t="n">
-        <v>10864.82</v>
+        <v>10955.29</v>
       </c>
       <c r="G109" s="1">
         <f>AVERAGE(E105:E109)</f>
@@ -4636,16 +4636,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>10908.99</v>
+        <v>10975.58</v>
       </c>
       <c r="C110" t="n">
-        <v>11016.56</v>
+        <v>10988.23</v>
       </c>
       <c r="D110" t="n">
-        <v>10908.99</v>
+        <v>10938.37</v>
       </c>
       <c r="E110" t="n">
-        <v>11002.1</v>
+        <v>10965.39</v>
       </c>
       <c r="G110" s="1">
         <f>AVERAGE(E106:E110)</f>
@@ -4665,16 +4665,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>11022.15</v>
+        <v>10962.36</v>
       </c>
       <c r="C111" t="n">
-        <v>11095.63</v>
+        <v>10974.94</v>
       </c>
       <c r="D111" t="n">
-        <v>11014.87</v>
+        <v>10921.17</v>
       </c>
       <c r="E111" t="n">
-        <v>11095.63</v>
+        <v>10954.55</v>
       </c>
       <c r="G111" s="1">
         <f>AVERAGE(E107:E111)</f>
@@ -4694,16 +4694,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>11063.73</v>
+        <v>10953.51</v>
       </c>
       <c r="C112" t="n">
-        <v>11070.29</v>
+        <v>10965.2</v>
       </c>
       <c r="D112" t="n">
-        <v>11015.47</v>
+        <v>10799.07</v>
       </c>
       <c r="E112" t="n">
-        <v>11038.8</v>
+        <v>10810.45</v>
       </c>
       <c r="G112" s="1">
         <f>AVERAGE(E108:E112)</f>
@@ -4723,16 +4723,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>11039.6</v>
+        <v>10842.88</v>
       </c>
       <c r="C113" t="n">
-        <v>11052.11</v>
+        <v>10917.6</v>
       </c>
       <c r="D113" t="n">
-        <v>11008.18</v>
+        <v>10809.89</v>
       </c>
       <c r="E113" t="n">
-        <v>11018.45</v>
+        <v>10847.89</v>
       </c>
       <c r="G113" s="1">
         <f>AVERAGE(E109:E113)</f>
@@ -4752,16 +4752,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>11010.24</v>
+        <v>10891.66</v>
       </c>
       <c r="C114" t="n">
-        <v>11054.86</v>
+        <v>10983.96</v>
       </c>
       <c r="D114" t="n">
-        <v>10933.46</v>
+        <v>10889.71</v>
       </c>
       <c r="E114" t="n">
-        <v>11027.7</v>
+        <v>10971.22</v>
       </c>
       <c r="G114" s="1">
         <f>AVERAGE(E110:E114)</f>
@@ -4781,16 +4781,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>11004.81</v>
+        <v>10802.42</v>
       </c>
       <c r="C115" t="n">
-        <v>11066</v>
+        <v>10831.56</v>
       </c>
       <c r="D115" t="n">
-        <v>10983.25</v>
+        <v>10770.05</v>
       </c>
       <c r="E115" t="n">
-        <v>11046.9</v>
+        <v>10779.38</v>
       </c>
       <c r="G115" s="1">
         <f>AVERAGE(E111:E115)</f>
@@ -4810,16 +4810,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>11016.85</v>
+        <v>10756.89</v>
       </c>
       <c r="C116" t="n">
-        <v>11020.78</v>
+        <v>10774.73</v>
       </c>
       <c r="D116" t="n">
-        <v>10981.04</v>
+        <v>10687.25</v>
       </c>
       <c r="E116" t="n">
-        <v>11010.84</v>
+        <v>10697.13</v>
       </c>
       <c r="G116" s="1">
         <f>AVERAGE(E112:E116)</f>
@@ -4839,16 +4839,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>11037.35</v>
+        <v>10680.38</v>
       </c>
       <c r="C117" t="n">
-        <v>11072.31</v>
+        <v>10692.19</v>
       </c>
       <c r="D117" t="n">
-        <v>11011.07</v>
+        <v>10540.15</v>
       </c>
       <c r="E117" t="n">
-        <v>11011.07</v>
+        <v>10579.5</v>
       </c>
       <c r="G117" s="1">
         <f>AVERAGE(E113:E117)</f>
@@ -4868,16 +4868,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>11045.9</v>
+        <v>10541.83</v>
       </c>
       <c r="C118" t="n">
-        <v>11120.2</v>
+        <v>10573.73</v>
       </c>
       <c r="D118" t="n">
-        <v>10975.33</v>
+        <v>10489.2</v>
       </c>
       <c r="E118" t="n">
-        <v>11005.84</v>
+        <v>10559.97</v>
       </c>
       <c r="G118" s="1">
         <f>AVERAGE(E114:E118)</f>
@@ -4897,16 +4897,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10863.67</v>
+        <v>10583.08</v>
       </c>
       <c r="C119" t="n">
-        <v>10863.67</v>
+        <v>10618.68</v>
       </c>
       <c r="D119" t="n">
-        <v>10758.06</v>
+        <v>10478.98</v>
       </c>
       <c r="E119" t="n">
-        <v>10823.33</v>
+        <v>10488.58</v>
       </c>
       <c r="G119" s="1">
         <f>AVERAGE(E115:E119)</f>
@@ -4926,16 +4926,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10783.57</v>
+        <v>10546.29</v>
       </c>
       <c r="C120" t="n">
-        <v>10840.05</v>
+        <v>10573.61</v>
       </c>
       <c r="D120" t="n">
-        <v>10781.43</v>
+        <v>10495.67</v>
       </c>
       <c r="E120" t="n">
-        <v>10840.05</v>
+        <v>10553.43</v>
       </c>
       <c r="G120" s="1">
         <f>AVERAGE(E116:E120)</f>
@@ -4955,16 +4955,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10901.69</v>
+        <v>10553.41</v>
       </c>
       <c r="C121" t="n">
-        <v>10986.79</v>
+        <v>10660.61</v>
       </c>
       <c r="D121" t="n">
-        <v>10901.69</v>
+        <v>10539.63</v>
       </c>
       <c r="E121" t="n">
-        <v>10986.79</v>
+        <v>10657.88</v>
       </c>
       <c r="G121" s="1">
         <f>AVERAGE(E117:E121)</f>
@@ -4984,16 +4984,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10939.97</v>
+        <v>10665.52</v>
       </c>
       <c r="C122" t="n">
-        <v>10939.97</v>
+        <v>10683.9</v>
       </c>
       <c r="D122" t="n">
-        <v>10853.48</v>
+        <v>10601.1</v>
       </c>
       <c r="E122" t="n">
-        <v>10865.66</v>
+        <v>10618.81</v>
       </c>
       <c r="G122" s="1">
         <f>AVERAGE(E118:E122)</f>
@@ -5013,16 +5013,16 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10855.66</v>
+        <v>10578.98</v>
       </c>
       <c r="C123" t="n">
-        <v>10889.6</v>
+        <v>10578.98</v>
       </c>
       <c r="D123" t="n">
-        <v>10815.46</v>
+        <v>10509.03</v>
       </c>
       <c r="E123" t="n">
-        <v>10845.92</v>
+        <v>10514.18</v>
       </c>
       <c r="G123" s="1">
         <f>AVERAGE(E119:E123)</f>
@@ -5042,16 +5042,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>10905.3</v>
+        <v>10516.45</v>
       </c>
       <c r="C124" t="n">
-        <v>10969.22</v>
+        <v>10566.37</v>
       </c>
       <c r="D124" t="n">
-        <v>10905.3</v>
+        <v>10500.97</v>
       </c>
       <c r="E124" t="n">
-        <v>10906.22</v>
+        <v>10529.37</v>
       </c>
       <c r="G124" s="1">
         <f>AVERAGE(E120:E124)</f>
@@ -5071,16 +5071,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>10925.71</v>
+        <v>10581.78</v>
       </c>
       <c r="C125" t="n">
-        <v>10947.16</v>
+        <v>10632.62</v>
       </c>
       <c r="D125" t="n">
-        <v>10905.69</v>
+        <v>10555.56</v>
       </c>
       <c r="E125" t="n">
-        <v>10919.49</v>
+        <v>10604.91</v>
       </c>
       <c r="G125" s="1">
         <f>AVERAGE(E121:E125)</f>
@@ -5100,16 +5100,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>10936.26</v>
+        <v>10610.44</v>
       </c>
       <c r="C126" t="n">
-        <v>10969.88</v>
+        <v>10691.38</v>
       </c>
       <c r="D126" t="n">
-        <v>10882.05</v>
+        <v>10609.04</v>
       </c>
       <c r="E126" t="n">
-        <v>10888.27</v>
+        <v>10691.38</v>
       </c>
       <c r="G126" s="1">
         <f>AVERAGE(E122:E126)</f>
@@ -5129,16 +5129,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>10837.54</v>
+        <v>10692.89</v>
       </c>
       <c r="C127" t="n">
-        <v>10837.54</v>
+        <v>10748.6</v>
       </c>
       <c r="D127" t="n">
-        <v>10775.45</v>
+        <v>10689.81</v>
       </c>
       <c r="E127" t="n">
-        <v>10821.53</v>
+        <v>10703.35</v>
       </c>
       <c r="G127" s="1">
         <f>AVERAGE(E123:E127)</f>
@@ -5158,16 +5158,16 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>10880.14</v>
+        <v>10731.68</v>
       </c>
       <c r="C128" t="n">
-        <v>10904.75</v>
+        <v>10782.06</v>
       </c>
       <c r="D128" t="n">
-        <v>10829.02</v>
+        <v>10731.68</v>
       </c>
       <c r="E128" t="n">
-        <v>10893.53</v>
+        <v>10760.21</v>
       </c>
       <c r="G128" s="1">
         <f>AVERAGE(E124:E128)</f>
@@ -5187,16 +5187,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>10885.64</v>
+        <v>10808.4</v>
       </c>
       <c r="C129" t="n">
-        <v>10975.67</v>
+        <v>10874.63</v>
       </c>
       <c r="D129" t="n">
-        <v>10874.83</v>
+        <v>10808.4</v>
       </c>
       <c r="E129" t="n">
-        <v>10927.18</v>
+        <v>10858.98</v>
       </c>
       <c r="G129" s="1">
         <f>AVERAGE(E125:E129)</f>
@@ -5216,16 +5216,16 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>10961.7</v>
+        <v>10938.3</v>
       </c>
       <c r="C130" t="n">
-        <v>11016.35</v>
+        <v>10970.24</v>
       </c>
       <c r="D130" t="n">
-        <v>10953.31</v>
+        <v>10908.86</v>
       </c>
       <c r="E130" t="n">
-        <v>10974.02</v>
+        <v>10952.39</v>
       </c>
       <c r="G130" s="1">
         <f>AVERAGE(E126:E130)</f>
@@ -5245,16 +5245,16 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>10984.12</v>
+        <v>10965.08</v>
       </c>
       <c r="C131" t="n">
-        <v>11008.2</v>
+        <v>10978.38</v>
       </c>
       <c r="D131" t="n">
-        <v>10920.62</v>
+        <v>10874.73</v>
       </c>
       <c r="E131" t="n">
-        <v>10955.29</v>
+        <v>10874.73</v>
       </c>
       <c r="G131" s="1">
         <f>AVERAGE(E127:E131)</f>
@@ -5274,16 +5274,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>10975.58</v>
+        <v>10873.54</v>
       </c>
       <c r="C132" t="n">
-        <v>10988.23</v>
+        <v>10915.74</v>
       </c>
       <c r="D132" t="n">
-        <v>10938.37</v>
+        <v>10865.07</v>
       </c>
       <c r="E132" t="n">
-        <v>10965.39</v>
+        <v>10897.57</v>
       </c>
       <c r="G132" s="1">
         <f>AVERAGE(E128:E132)</f>
@@ -5303,16 +5303,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>10962.36</v>
+        <v>10911.74</v>
       </c>
       <c r="C133" t="n">
-        <v>10974.94</v>
+        <v>10938.63</v>
       </c>
       <c r="D133" t="n">
-        <v>10921.17</v>
+        <v>10833.81</v>
       </c>
       <c r="E133" t="n">
-        <v>10954.55</v>
+        <v>10833.81</v>
       </c>
       <c r="G133" s="1">
         <f>AVERAGE(E129:E133)</f>
@@ -5332,16 +5332,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>10953.51</v>
+        <v>10844.09</v>
       </c>
       <c r="C134" t="n">
-        <v>10965.2</v>
+        <v>10893.35</v>
       </c>
       <c r="D134" t="n">
-        <v>10799.07</v>
+        <v>10819.07</v>
       </c>
       <c r="E134" t="n">
-        <v>10810.45</v>
+        <v>10830.84</v>
       </c>
       <c r="G134" s="1">
         <f>AVERAGE(E130:E134)</f>
@@ -5361,16 +5361,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>10842.88</v>
+        <v>10861.66</v>
       </c>
       <c r="C135" t="n">
-        <v>10917.6</v>
+        <v>10979.1</v>
       </c>
       <c r="D135" t="n">
-        <v>10809.89</v>
+        <v>10861.66</v>
       </c>
       <c r="E135" t="n">
-        <v>10847.89</v>
+        <v>10966.2</v>
       </c>
       <c r="G135" s="1">
         <f>AVERAGE(E131:E135)</f>
@@ -5390,16 +5390,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>10891.66</v>
+        <v>10986.77</v>
       </c>
       <c r="C136" t="n">
-        <v>10983.96</v>
+        <v>11034.12</v>
       </c>
       <c r="D136" t="n">
-        <v>10889.71</v>
+        <v>10938.73</v>
       </c>
       <c r="E136" t="n">
-        <v>10971.22</v>
+        <v>10938.73</v>
       </c>
       <c r="G136" s="1">
         <f>AVERAGE(E132:E136)</f>
@@ -5419,16 +5419,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>10802.42</v>
+        <v>10974.52</v>
       </c>
       <c r="C137" t="n">
-        <v>10831.56</v>
+        <v>10991.86</v>
       </c>
       <c r="D137" t="n">
-        <v>10770.05</v>
+        <v>10886.18</v>
       </c>
       <c r="E137" t="n">
-        <v>10779.38</v>
+        <v>10886.18</v>
       </c>
       <c r="G137" s="1">
         <f>AVERAGE(E133:E137)</f>
@@ -5448,16 +5448,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>10756.89</v>
+        <v>10910.61</v>
       </c>
       <c r="C138" t="n">
-        <v>10774.73</v>
+        <v>10942.64</v>
       </c>
       <c r="D138" t="n">
-        <v>10687.25</v>
+        <v>10883.52</v>
       </c>
       <c r="E138" t="n">
-        <v>10697.13</v>
+        <v>10936.93</v>
       </c>
       <c r="G138" s="1">
         <f>AVERAGE(E134:E138)</f>
@@ -5477,16 +5477,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10680.38</v>
+        <v>10946.62</v>
       </c>
       <c r="C139" t="n">
-        <v>10692.19</v>
+        <v>10977.81</v>
       </c>
       <c r="D139" t="n">
-        <v>10540.15</v>
+        <v>10918.12</v>
       </c>
       <c r="E139" t="n">
-        <v>10579.5</v>
+        <v>10942.3</v>
       </c>
       <c r="G139" s="1">
         <f>AVERAGE(E135:E139)</f>
@@ -5506,16 +5506,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10541.83</v>
+        <v>10976.49</v>
       </c>
       <c r="C140" t="n">
-        <v>10573.73</v>
+        <v>10999.43</v>
       </c>
       <c r="D140" t="n">
-        <v>10489.2</v>
+        <v>10965.18</v>
       </c>
       <c r="E140" t="n">
-        <v>10559.97</v>
+        <v>10987.77</v>
       </c>
       <c r="G140" s="1">
         <f>AVERAGE(E136:E140)</f>
@@ -5535,16 +5535,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10583.08</v>
+        <v>10979.68</v>
       </c>
       <c r="C141" t="n">
-        <v>10618.68</v>
+        <v>10986.53</v>
       </c>
       <c r="D141" t="n">
-        <v>10478.98</v>
+        <v>10929.56</v>
       </c>
       <c r="E141" t="n">
-        <v>10488.58</v>
+        <v>10964.12</v>
       </c>
       <c r="G141" s="1">
         <f>AVERAGE(E137:E141)</f>
@@ -5564,16 +5564,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10546.29</v>
+        <v>10925.21</v>
       </c>
       <c r="C142" t="n">
-        <v>10573.61</v>
+        <v>10925.21</v>
       </c>
       <c r="D142" t="n">
-        <v>10495.67</v>
+        <v>10799.75</v>
       </c>
       <c r="E142" t="n">
-        <v>10553.43</v>
+        <v>10821.17</v>
       </c>
       <c r="G142" s="1">
         <f>AVERAGE(E138:E142)</f>
@@ -5593,16 +5593,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10553.41</v>
+        <v>10856.03</v>
       </c>
       <c r="C143" t="n">
-        <v>10660.61</v>
+        <v>10909.61</v>
       </c>
       <c r="D143" t="n">
-        <v>10539.63</v>
+        <v>10853.65</v>
       </c>
       <c r="E143" t="n">
-        <v>10657.88</v>
+        <v>10874.96</v>
       </c>
       <c r="G143" s="1">
         <f>AVERAGE(E139:E143)</f>
@@ -5622,16 +5622,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>10665.52</v>
+        <v>10882.68</v>
       </c>
       <c r="C144" t="n">
-        <v>10683.9</v>
+        <v>10954.67</v>
       </c>
       <c r="D144" t="n">
-        <v>10601.1</v>
+        <v>10876.97</v>
       </c>
       <c r="E144" t="n">
-        <v>10618.81</v>
+        <v>10949.08</v>
       </c>
       <c r="G144" s="1">
         <f>AVERAGE(E140:E144)</f>
@@ -5651,16 +5651,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>10578.98</v>
+        <v>11002.15</v>
       </c>
       <c r="C145" t="n">
-        <v>10578.98</v>
+        <v>11109.5</v>
       </c>
       <c r="D145" t="n">
-        <v>10509.03</v>
+        <v>11002.15</v>
       </c>
       <c r="E145" t="n">
-        <v>10514.18</v>
+        <v>11109.5</v>
       </c>
       <c r="G145" s="1">
         <f>AVERAGE(E141:E145)</f>
@@ -5680,16 +5680,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>10516.45</v>
+        <v>11130.03</v>
       </c>
       <c r="C146" t="n">
-        <v>10566.37</v>
+        <v>11131.08</v>
       </c>
       <c r="D146" t="n">
-        <v>10500.97</v>
+        <v>11054.62</v>
       </c>
       <c r="E146" t="n">
-        <v>10529.37</v>
+        <v>11100.11</v>
       </c>
       <c r="G146" s="1">
         <f>AVERAGE(E142:E146)</f>
@@ -5709,16 +5709,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>10581.78</v>
+        <v>11111.14</v>
       </c>
       <c r="C147" t="n">
-        <v>10632.62</v>
+        <v>11207.15</v>
       </c>
       <c r="D147" t="n">
-        <v>10555.56</v>
+        <v>11111.14</v>
       </c>
       <c r="E147" t="n">
-        <v>10604.91</v>
+        <v>11201.83</v>
       </c>
       <c r="G147" s="1">
         <f>AVERAGE(E143:E147)</f>
@@ -5738,16 +5738,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>10610.44</v>
+        <v>11228.64</v>
       </c>
       <c r="C148" t="n">
-        <v>10691.38</v>
+        <v>11261.68</v>
       </c>
       <c r="D148" t="n">
-        <v>10609.04</v>
+        <v>11188.99</v>
       </c>
       <c r="E148" t="n">
-        <v>10691.38</v>
+        <v>11251.75</v>
       </c>
       <c r="G148" s="1">
         <f>AVERAGE(E144:E148)</f>
@@ -5767,16 +5767,16 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>10692.89</v>
+        <v>11243.59</v>
       </c>
       <c r="C149" t="n">
-        <v>10748.6</v>
+        <v>11243.59</v>
       </c>
       <c r="D149" t="n">
-        <v>10689.81</v>
+        <v>11122.98</v>
       </c>
       <c r="E149" t="n">
-        <v>10703.35</v>
+        <v>11156.42</v>
       </c>
       <c r="G149" s="1">
         <f>AVERAGE(E145:E149)</f>
@@ -5796,16 +5796,16 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>10731.68</v>
+        <v>11168.99</v>
       </c>
       <c r="C150" t="n">
-        <v>10782.06</v>
+        <v>11186.67</v>
       </c>
       <c r="D150" t="n">
-        <v>10731.68</v>
+        <v>11118.81</v>
       </c>
       <c r="E150" t="n">
-        <v>10760.21</v>
+        <v>11149.23</v>
       </c>
       <c r="G150" s="1">
         <f>AVERAGE(E146:E150)</f>
@@ -5825,16 +5825,16 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>10808.4</v>
+        <v>11140.02</v>
       </c>
       <c r="C151" t="n">
-        <v>10874.63</v>
+        <v>11160.05</v>
       </c>
       <c r="D151" t="n">
-        <v>10808.4</v>
+        <v>11088.53</v>
       </c>
       <c r="E151" t="n">
-        <v>10858.98</v>
+        <v>11144.79</v>
       </c>
       <c r="G151" s="1">
         <f>AVERAGE(E147:E151)</f>
@@ -5854,16 +5854,16 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>10938.3</v>
+        <v>11153.2</v>
       </c>
       <c r="C152" t="n">
-        <v>10970.24</v>
+        <v>11188.01</v>
       </c>
       <c r="D152" t="n">
-        <v>10908.86</v>
+        <v>11119.24</v>
       </c>
       <c r="E152" t="n">
-        <v>10952.39</v>
+        <v>11173.21</v>
       </c>
       <c r="G152" s="1">
         <f>AVERAGE(E148:E152)</f>
@@ -5883,16 +5883,16 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>10965.08</v>
+        <v>11143.04</v>
       </c>
       <c r="C153" t="n">
-        <v>10978.38</v>
+        <v>11143.04</v>
       </c>
       <c r="D153" t="n">
-        <v>10874.73</v>
+        <v>11013.98</v>
       </c>
       <c r="E153" t="n">
-        <v>10874.73</v>
+        <v>11013.98</v>
       </c>
       <c r="G153" s="1">
         <f>AVERAGE(E149:E153)</f>
@@ -5912,16 +5912,16 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>10873.54</v>
+        <v>10998.2</v>
       </c>
       <c r="C154" t="n">
-        <v>10915.74</v>
+        <v>11087.47</v>
       </c>
       <c r="D154" t="n">
-        <v>10865.07</v>
+        <v>10981.61</v>
       </c>
       <c r="E154" t="n">
-        <v>10897.57</v>
+        <v>11087.47</v>
       </c>
       <c r="G154" s="1">
         <f>AVERAGE(E150:E154)</f>
@@ -5941,16 +5941,16 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>10911.74</v>
+        <v>11008.77</v>
       </c>
       <c r="C155" t="n">
-        <v>10938.63</v>
+        <v>11008.77</v>
       </c>
       <c r="D155" t="n">
-        <v>10833.81</v>
+        <v>10904.19</v>
       </c>
       <c r="E155" t="n">
-        <v>10833.81</v>
+        <v>10904.19</v>
       </c>
       <c r="G155" s="1">
         <f>AVERAGE(E151:E155)</f>
@@ -5970,16 +5970,16 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>10844.09</v>
+        <v>10904.8</v>
       </c>
       <c r="C156" t="n">
-        <v>10893.35</v>
+        <v>10969.2</v>
       </c>
       <c r="D156" t="n">
-        <v>10819.07</v>
+        <v>10842.56</v>
       </c>
       <c r="E156" t="n">
-        <v>10830.84</v>
+        <v>10927.44</v>
       </c>
       <c r="G156" s="1">
         <f>AVERAGE(E152:E156)</f>
@@ -5999,16 +5999,16 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>10861.66</v>
+        <v>10949.85</v>
       </c>
       <c r="C157" t="n">
-        <v>10979.1</v>
+        <v>10992.31</v>
       </c>
       <c r="D157" t="n">
-        <v>10861.66</v>
+        <v>10941.07</v>
       </c>
       <c r="E157" t="n">
-        <v>10966.2</v>
+        <v>10941.07</v>
       </c>
       <c r="G157" s="1">
         <f>AVERAGE(E153:E157)</f>
@@ -6028,16 +6028,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10986.77</v>
+        <v>10901.25</v>
       </c>
       <c r="C158" t="n">
-        <v>11034.12</v>
+        <v>10914.83</v>
       </c>
       <c r="D158" t="n">
-        <v>10938.73</v>
+        <v>10828.86</v>
       </c>
       <c r="E158" t="n">
-        <v>10938.73</v>
+        <v>10899.28</v>
       </c>
       <c r="G158" s="1">
         <f>AVERAGE(E154:E158)</f>
@@ -6057,16 +6057,16 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10974.52</v>
+        <v>10834.07</v>
       </c>
       <c r="C159" t="n">
-        <v>10991.86</v>
+        <v>10851.16</v>
       </c>
       <c r="D159" t="n">
-        <v>10886.18</v>
+        <v>10786.46</v>
       </c>
       <c r="E159" t="n">
-        <v>10886.18</v>
+        <v>10786.46</v>
       </c>
       <c r="G159" s="1">
         <f>AVERAGE(E155:E159)</f>
@@ -6086,16 +6086,16 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10910.61</v>
+        <v>10730.9</v>
       </c>
       <c r="C160" t="n">
-        <v>10942.64</v>
+        <v>10752.99</v>
       </c>
       <c r="D160" t="n">
-        <v>10883.52</v>
+        <v>10651.42</v>
       </c>
       <c r="E160" t="n">
-        <v>10936.93</v>
+        <v>10742.17</v>
       </c>
       <c r="G160" s="1">
         <f>AVERAGE(E156:E160)</f>
@@ -6115,16 +6115,16 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10946.62</v>
+        <v>10766.88</v>
       </c>
       <c r="C161" t="n">
-        <v>10977.81</v>
+        <v>10800.34</v>
       </c>
       <c r="D161" t="n">
-        <v>10918.12</v>
+        <v>10701.03</v>
       </c>
       <c r="E161" t="n">
-        <v>10942.3</v>
+        <v>10701.03</v>
       </c>
       <c r="G161" s="1">
         <f>AVERAGE(E157:E161)</f>
@@ -6144,16 +6144,16 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>10976.49</v>
+        <v>10669.42</v>
       </c>
       <c r="C162" t="n">
-        <v>10999.43</v>
+        <v>10723.84</v>
       </c>
       <c r="D162" t="n">
-        <v>10965.18</v>
+        <v>10633.01</v>
       </c>
       <c r="E162" t="n">
-        <v>10987.77</v>
+        <v>10654.28</v>
       </c>
       <c r="G162" s="1">
         <f>AVERAGE(E158:E162)</f>
@@ -6173,16 +6173,16 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>10979.68</v>
+        <v>10667.64</v>
       </c>
       <c r="C163" t="n">
-        <v>10986.53</v>
+        <v>10836.91</v>
       </c>
       <c r="D163" t="n">
-        <v>10929.56</v>
+        <v>10667.64</v>
       </c>
       <c r="E163" t="n">
-        <v>10964.12</v>
+        <v>10836.91</v>
       </c>
       <c r="G163" s="1">
         <f>AVERAGE(E159:E163)</f>
@@ -6202,16 +6202,16 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10925.21</v>
+        <v>10852.17</v>
       </c>
       <c r="C164" t="n">
-        <v>10925.21</v>
+        <v>10886.2</v>
       </c>
       <c r="D164" t="n">
-        <v>10799.75</v>
+        <v>10777.94</v>
       </c>
       <c r="E164" t="n">
-        <v>10821.17</v>
+        <v>10777.94</v>
       </c>
       <c r="G164" s="1">
         <f>AVERAGE(E160:E164)</f>
@@ -6231,16 +6231,16 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>10856.03</v>
+        <v>10802.88</v>
       </c>
       <c r="C165" t="n">
-        <v>10909.61</v>
+        <v>10873.48</v>
       </c>
       <c r="D165" t="n">
-        <v>10853.65</v>
+        <v>10707.68</v>
       </c>
       <c r="E165" t="n">
-        <v>10874.96</v>
+        <v>10715.72</v>
       </c>
       <c r="G165" s="1">
         <f>AVERAGE(E161:E165)</f>
@@ -6260,16 +6260,16 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>10882.68</v>
+        <v>10714.25</v>
       </c>
       <c r="C166" t="n">
-        <v>10954.67</v>
+        <v>10752.05</v>
       </c>
       <c r="D166" t="n">
-        <v>10876.97</v>
+        <v>10680.44</v>
       </c>
       <c r="E166" t="n">
-        <v>10949.08</v>
+        <v>10721.87</v>
       </c>
       <c r="G166" s="1">
         <f>AVERAGE(E162:E166)</f>
@@ -6289,16 +6289,16 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>11002.15</v>
+        <v>10690.91</v>
       </c>
       <c r="C167" t="n">
-        <v>11109.5</v>
+        <v>10709.8</v>
       </c>
       <c r="D167" t="n">
-        <v>11002.15</v>
+        <v>10585.27</v>
       </c>
       <c r="E167" t="n">
-        <v>11109.5</v>
+        <v>10611.81</v>
       </c>
       <c r="G167" s="1">
         <f>AVERAGE(E163:E167)</f>
@@ -6318,16 +6318,16 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>11130.03</v>
+        <v>10645.66</v>
       </c>
       <c r="C168" t="n">
-        <v>11131.08</v>
+        <v>10665.72</v>
       </c>
       <c r="D168" t="n">
-        <v>11054.62</v>
+        <v>10523.58</v>
       </c>
       <c r="E168" t="n">
-        <v>11100.11</v>
+        <v>10608.57</v>
       </c>
       <c r="G168" s="1">
         <f>AVERAGE(E164:E168)</f>
@@ -6347,16 +6347,16 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>11111.14</v>
+        <v>10638.9</v>
       </c>
       <c r="C169" t="n">
-        <v>11207.15</v>
+        <v>10746.74</v>
       </c>
       <c r="D169" t="n">
-        <v>11111.14</v>
+        <v>10638.9</v>
       </c>
       <c r="E169" t="n">
-        <v>11201.83</v>
+        <v>10720.28</v>
       </c>
       <c r="G169" s="1">
         <f>AVERAGE(E165:E169)</f>
@@ -6376,16 +6376,16 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>11228.64</v>
+        <v>10737.62</v>
       </c>
       <c r="C170" t="n">
-        <v>11261.68</v>
+        <v>10776.47</v>
       </c>
       <c r="D170" t="n">
-        <v>11188.99</v>
+        <v>10728.24</v>
       </c>
       <c r="E170" t="n">
-        <v>11251.75</v>
+        <v>10756.89</v>
       </c>
       <c r="G170" s="1">
         <f>AVERAGE(E166:E170)</f>
@@ -6405,16 +6405,16 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>11243.59</v>
+        <v>10693.64</v>
       </c>
       <c r="C171" t="n">
-        <v>11243.59</v>
+        <v>10693.64</v>
       </c>
       <c r="D171" t="n">
-        <v>11122.98</v>
+        <v>10635.03</v>
       </c>
       <c r="E171" t="n">
-        <v>11156.42</v>
+        <v>10676.84</v>
       </c>
       <c r="G171" s="1">
         <f>AVERAGE(E167:E171)</f>
@@ -6434,16 +6434,16 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>11168.99</v>
+        <v>10644.91</v>
       </c>
       <c r="C172" t="n">
-        <v>11186.67</v>
+        <v>10752.57</v>
       </c>
       <c r="D172" t="n">
-        <v>11118.81</v>
+        <v>10643.65</v>
       </c>
       <c r="E172" t="n">
-        <v>11149.23</v>
+        <v>10738.38</v>
       </c>
       <c r="G172" s="1">
         <f>AVERAGE(E168:E172)</f>
@@ -6463,16 +6463,16 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>11140.02</v>
+        <v>10769.7</v>
       </c>
       <c r="C173" t="n">
-        <v>11160.05</v>
+        <v>10864.54</v>
       </c>
       <c r="D173" t="n">
-        <v>11088.53</v>
+        <v>10769.7</v>
       </c>
       <c r="E173" t="n">
-        <v>11144.79</v>
+        <v>10864.54</v>
       </c>
       <c r="G173" s="1">
         <f>AVERAGE(E169:E173)</f>
@@ -6492,16 +6492,16 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>11153.2</v>
+        <v>10867.97</v>
       </c>
       <c r="C174" t="n">
-        <v>11188.01</v>
+        <v>10890.2</v>
       </c>
       <c r="D174" t="n">
-        <v>11119.24</v>
+        <v>10817.45</v>
       </c>
       <c r="E174" t="n">
-        <v>11173.21</v>
+        <v>10817.45</v>
       </c>
       <c r="G174" s="1">
         <f>AVERAGE(E170:E174)</f>
@@ -6521,16 +6521,16 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>11143.04</v>
+        <v>10802.75</v>
       </c>
       <c r="C175" t="n">
-        <v>11143.04</v>
+        <v>10818.84</v>
       </c>
       <c r="D175" t="n">
-        <v>11013.98</v>
+        <v>10758.83</v>
       </c>
       <c r="E175" t="n">
-        <v>11013.98</v>
+        <v>10778.99</v>
       </c>
       <c r="G175" s="1">
         <f>AVERAGE(E171:E175)</f>
@@ -6550,16 +6550,16 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>10998.2</v>
+        <v>10811.43</v>
       </c>
       <c r="C176" t="n">
-        <v>11087.47</v>
+        <v>10872.74</v>
       </c>
       <c r="D176" t="n">
-        <v>10981.61</v>
+        <v>10788.37</v>
       </c>
       <c r="E176" t="n">
-        <v>11087.47</v>
+        <v>10842.46</v>
       </c>
       <c r="G176" s="1">
         <f>AVERAGE(E172:E176)</f>
@@ -6579,16 +6579,16 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>11008.77</v>
+        <v>10868.56</v>
       </c>
       <c r="C177" t="n">
-        <v>11008.77</v>
+        <v>10896.25</v>
       </c>
       <c r="D177" t="n">
-        <v>10904.19</v>
+        <v>10826.14</v>
       </c>
       <c r="E177" t="n">
-        <v>10904.19</v>
+        <v>10835.38</v>
       </c>
       <c r="G177" s="1">
         <f>AVERAGE(E173:E177)</f>
@@ -6608,16 +6608,16 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>10904.8</v>
+        <v>10932.51</v>
       </c>
       <c r="C178" t="n">
-        <v>10969.2</v>
+        <v>10963.95</v>
       </c>
       <c r="D178" t="n">
-        <v>10842.56</v>
+        <v>10893.73</v>
       </c>
       <c r="E178" t="n">
-        <v>10927.44</v>
+        <v>10932.11</v>
       </c>
       <c r="G178" s="1">
         <f>AVERAGE(E174:E178)</f>
@@ -6637,16 +6637,16 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>10949.85</v>
+        <v>10929.46</v>
       </c>
       <c r="C179" t="n">
-        <v>10992.31</v>
+        <v>10984.84</v>
       </c>
       <c r="D179" t="n">
-        <v>10941.07</v>
+        <v>10901.75</v>
       </c>
       <c r="E179" t="n">
-        <v>10941.07</v>
+        <v>10946.89</v>
       </c>
       <c r="G179" s="1">
         <f>AVERAGE(E175:E179)</f>
@@ -6666,16 +6666,16 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>10901.25</v>
+        <v>10937.77</v>
       </c>
       <c r="C180" t="n">
-        <v>10914.83</v>
+        <v>10995.39</v>
       </c>
       <c r="D180" t="n">
-        <v>10828.86</v>
+        <v>10917.61</v>
       </c>
       <c r="E180" t="n">
-        <v>10899.28</v>
+        <v>10995.39</v>
       </c>
       <c r="G180" s="1">
         <f>AVERAGE(E176:E180)</f>
@@ -6695,16 +6695,16 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>10834.07</v>
+        <v>10957.66</v>
       </c>
       <c r="C181" t="n">
-        <v>10851.16</v>
+        <v>10992.29</v>
       </c>
       <c r="D181" t="n">
-        <v>10786.46</v>
+        <v>10956</v>
       </c>
       <c r="E181" t="n">
-        <v>10786.46</v>
+        <v>10965.79</v>
       </c>
       <c r="G181" s="1">
         <f>AVERAGE(E177:E181)</f>
@@ -6724,16 +6724,16 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>10730.9</v>
+        <v>10969.35</v>
       </c>
       <c r="C182" t="n">
-        <v>10752.99</v>
+        <v>11018.19</v>
       </c>
       <c r="D182" t="n">
-        <v>10651.42</v>
+        <v>10966.33</v>
       </c>
       <c r="E182" t="n">
-        <v>10742.17</v>
+        <v>11010.61</v>
       </c>
       <c r="G182" s="1">
         <f>AVERAGE(E178:E182)</f>
@@ -6753,16 +6753,16 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>10766.88</v>
+        <v>11023.07</v>
       </c>
       <c r="C183" t="n">
-        <v>10800.34</v>
+        <v>11075.78</v>
       </c>
       <c r="D183" t="n">
-        <v>10701.03</v>
+        <v>11009.16</v>
       </c>
       <c r="E183" t="n">
-        <v>10701.03</v>
+        <v>11075.78</v>
       </c>
       <c r="G183" s="1">
         <f>AVERAGE(E179:E183)</f>
@@ -6782,16 +6782,16 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>10669.42</v>
+        <v>11072.7</v>
       </c>
       <c r="C184" t="n">
-        <v>10723.84</v>
+        <v>11080.41</v>
       </c>
       <c r="D184" t="n">
-        <v>10633.01</v>
+        <v>11001.15</v>
       </c>
       <c r="E184" t="n">
-        <v>10654.28</v>
+        <v>11033.54</v>
       </c>
       <c r="G184" s="1">
         <f>AVERAGE(E180:E184)</f>
@@ -6811,16 +6811,16 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>10667.64</v>
+        <v>10997.73</v>
       </c>
       <c r="C185" t="n">
-        <v>10836.91</v>
+        <v>11057.51</v>
       </c>
       <c r="D185" t="n">
-        <v>10667.64</v>
+        <v>10976.46</v>
       </c>
       <c r="E185" t="n">
-        <v>10836.91</v>
+        <v>11057.51</v>
       </c>
       <c r="G185" s="1">
         <f>AVERAGE(E181:E185)</f>
@@ -6840,16 +6840,16 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>10852.17</v>
+        <v>11062.36</v>
       </c>
       <c r="C186" t="n">
-        <v>10886.2</v>
+        <v>11100.02</v>
       </c>
       <c r="D186" t="n">
-        <v>10777.94</v>
+        <v>11058.28</v>
       </c>
       <c r="E186" t="n">
-        <v>10777.94</v>
+        <v>11098.13</v>
       </c>
       <c r="G186" s="1">
         <f>AVERAGE(E182:E186)</f>
@@ -6869,16 +6869,16 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>10802.88</v>
+        <v>11095.67</v>
       </c>
       <c r="C187" t="n">
-        <v>10873.48</v>
+        <v>11095.67</v>
       </c>
       <c r="D187" t="n">
-        <v>10707.68</v>
+        <v>10919.13</v>
       </c>
       <c r="E187" t="n">
-        <v>10715.72</v>
+        <v>10929.77</v>
       </c>
       <c r="G187" s="1">
         <f>AVERAGE(E183:E187)</f>
@@ -6898,16 +6898,16 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>10714.25</v>
+        <v>10957.3</v>
       </c>
       <c r="C188" t="n">
-        <v>10752.05</v>
+        <v>11012.43</v>
       </c>
       <c r="D188" t="n">
-        <v>10680.44</v>
+        <v>10957.3</v>
       </c>
       <c r="E188" t="n">
-        <v>10721.87</v>
+        <v>11012.43</v>
       </c>
       <c r="G188" s="1">
         <f>AVERAGE(E184:E188)</f>
@@ -6927,16 +6927,16 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>10690.91</v>
+        <v>10997.26</v>
       </c>
       <c r="C189" t="n">
-        <v>10709.8</v>
+        <v>11054.49</v>
       </c>
       <c r="D189" t="n">
-        <v>10585.27</v>
+        <v>10994.97</v>
       </c>
       <c r="E189" t="n">
-        <v>10611.81</v>
+        <v>11024.1</v>
       </c>
       <c r="G189" s="1">
         <f>AVERAGE(E185:E189)</f>
@@ -6956,16 +6956,16 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>10645.66</v>
+        <v>11024.97</v>
       </c>
       <c r="C190" t="n">
-        <v>10665.72</v>
+        <v>11030.09</v>
       </c>
       <c r="D190" t="n">
-        <v>10523.58</v>
+        <v>10983.44</v>
       </c>
       <c r="E190" t="n">
-        <v>10608.57</v>
+        <v>10983.44</v>
       </c>
       <c r="G190" s="1">
         <f>AVERAGE(E186:E190)</f>
@@ -6985,16 +6985,16 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>10638.9</v>
+        <v>11026.07</v>
       </c>
       <c r="C191" t="n">
-        <v>10746.74</v>
+        <v>11095.5</v>
       </c>
       <c r="D191" t="n">
-        <v>10638.9</v>
+        <v>11026.07</v>
       </c>
       <c r="E191" t="n">
-        <v>10720.28</v>
+        <v>11075.25</v>
       </c>
       <c r="G191" s="1">
         <f>AVERAGE(E187:E191)</f>
@@ -7014,16 +7014,16 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>10737.62</v>
+        <v>11063.62</v>
       </c>
       <c r="C192" t="n">
-        <v>10776.47</v>
+        <v>11063.62</v>
       </c>
       <c r="D192" t="n">
-        <v>10728.24</v>
+        <v>11001.96</v>
       </c>
       <c r="E192" t="n">
-        <v>10756.89</v>
+        <v>11028.07</v>
       </c>
       <c r="G192" s="1">
         <f>AVERAGE(E188:E192)</f>
@@ -7043,16 +7043,16 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>10693.64</v>
+        <v>11009.96</v>
       </c>
       <c r="C193" t="n">
-        <v>10693.64</v>
+        <v>11033.89</v>
       </c>
       <c r="D193" t="n">
-        <v>10635.03</v>
+        <v>10972.25</v>
       </c>
       <c r="E193" t="n">
-        <v>10676.84</v>
+        <v>10983.68</v>
       </c>
       <c r="G193" s="1">
         <f>AVERAGE(E189:E193)</f>
@@ -7072,16 +7072,16 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>10644.91</v>
+        <v>10939.68</v>
       </c>
       <c r="C194" t="n">
-        <v>10752.57</v>
+        <v>10939.68</v>
       </c>
       <c r="D194" t="n">
-        <v>10643.65</v>
+        <v>10693.73</v>
       </c>
       <c r="E194" t="n">
-        <v>10738.38</v>
+        <v>10748.92</v>
       </c>
       <c r="G194" s="1">
         <f>AVERAGE(E190:E194)</f>
@@ -7101,16 +7101,16 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>10769.7</v>
+        <v>10797.95</v>
       </c>
       <c r="C195" t="n">
-        <v>10864.54</v>
+        <v>10829.85</v>
       </c>
       <c r="D195" t="n">
-        <v>10769.7</v>
+        <v>10755.53</v>
       </c>
       <c r="E195" t="n">
-        <v>10864.54</v>
+        <v>10824.23</v>
       </c>
       <c r="G195" s="1">
         <f>AVERAGE(E191:E195)</f>
@@ -7130,16 +7130,16 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>10867.97</v>
+        <v>10827.28</v>
       </c>
       <c r="C196" t="n">
-        <v>10890.2</v>
+        <v>10827.28</v>
       </c>
       <c r="D196" t="n">
-        <v>10817.45</v>
+        <v>10688.59</v>
       </c>
       <c r="E196" t="n">
-        <v>10817.45</v>
+        <v>10716.75</v>
       </c>
       <c r="G196" s="1">
         <f>AVERAGE(E192:E196)</f>
@@ -7159,16 +7159,16 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>10802.75</v>
+        <v>10663.57</v>
       </c>
       <c r="C197" t="n">
-        <v>10818.84</v>
+        <v>10725.71</v>
       </c>
       <c r="D197" t="n">
-        <v>10758.83</v>
+        <v>10606.26</v>
       </c>
       <c r="E197" t="n">
-        <v>10778.99</v>
+        <v>10683.9</v>
       </c>
       <c r="G197" s="1">
         <f>AVERAGE(E193:E197)</f>
@@ -7188,16 +7188,16 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>10811.43</v>
+        <v>10702.6</v>
       </c>
       <c r="C198" t="n">
-        <v>10872.74</v>
+        <v>10757.01</v>
       </c>
       <c r="D198" t="n">
-        <v>10788.37</v>
+        <v>10688.55</v>
       </c>
       <c r="E198" t="n">
-        <v>10842.46</v>
+        <v>10690.96</v>
       </c>
       <c r="G198" s="1">
         <f>AVERAGE(E194:E198)</f>
@@ -7217,16 +7217,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>10868.56</v>
+        <v>10698.76</v>
       </c>
       <c r="C199" t="n">
-        <v>10896.25</v>
+        <v>10729.9</v>
       </c>
       <c r="D199" t="n">
-        <v>10826.14</v>
+        <v>10663.44</v>
       </c>
       <c r="E199" t="n">
-        <v>10835.38</v>
+        <v>10699.05</v>
       </c>
       <c r="G199" s="1">
         <f>AVERAGE(E195:E199)</f>
@@ -7246,16 +7246,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>10932.51</v>
+        <v>10697.01</v>
       </c>
       <c r="C200" t="n">
-        <v>10963.95</v>
+        <v>10792.2</v>
       </c>
       <c r="D200" t="n">
-        <v>10893.73</v>
+        <v>10697.01</v>
       </c>
       <c r="E200" t="n">
-        <v>10932.11</v>
+        <v>10792.2</v>
       </c>
       <c r="G200" s="1">
         <f>AVERAGE(E196:E200)</f>
@@ -7275,16 +7275,16 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>10929.46</v>
+        <v>10790.24</v>
       </c>
       <c r="C201" t="n">
-        <v>10984.84</v>
+        <v>10828.21</v>
       </c>
       <c r="D201" t="n">
-        <v>10901.75</v>
+        <v>10774.69</v>
       </c>
       <c r="E201" t="n">
-        <v>10946.89</v>
+        <v>10804.2</v>
       </c>
       <c r="G201" s="1">
         <f>AVERAGE(E197:E201)</f>
@@ -7304,16 +7304,16 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>10937.77</v>
+        <v>10817.33</v>
       </c>
       <c r="C202" t="n">
-        <v>10995.39</v>
+        <v>10863.13</v>
       </c>
       <c r="D202" t="n">
-        <v>10917.61</v>
+        <v>10802.79</v>
       </c>
       <c r="E202" t="n">
-        <v>10995.39</v>
+        <v>10863.13</v>
       </c>
       <c r="G202" s="1">
         <f>AVERAGE(E198:E202)</f>
@@ -7333,16 +7333,16 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>10957.66</v>
+        <v>10865.91</v>
       </c>
       <c r="C203" t="n">
-        <v>10992.29</v>
+        <v>10865.91</v>
       </c>
       <c r="D203" t="n">
-        <v>10956</v>
+        <v>10770.32</v>
       </c>
       <c r="E203" t="n">
-        <v>10965.79</v>
+        <v>10809.35</v>
       </c>
       <c r="G203" s="1">
         <f>AVERAGE(E199:E203)</f>
@@ -7362,16 +7362,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>10969.35</v>
+        <v>10847.17</v>
       </c>
       <c r="C204" t="n">
-        <v>11018.19</v>
+        <v>10916.69</v>
       </c>
       <c r="D204" t="n">
-        <v>10966.33</v>
+        <v>10847.17</v>
       </c>
       <c r="E204" t="n">
-        <v>11010.61</v>
+        <v>10902.21</v>
       </c>
       <c r="G204" s="1">
         <f>AVERAGE(E200:E204)</f>
@@ -7391,16 +7391,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>11023.07</v>
+        <v>10946.33</v>
       </c>
       <c r="C205" t="n">
-        <v>11075.78</v>
+        <v>11005.55</v>
       </c>
       <c r="D205" t="n">
-        <v>11009.16</v>
+        <v>10946.33</v>
       </c>
       <c r="E205" t="n">
-        <v>11075.78</v>
+        <v>10989.55</v>
       </c>
       <c r="G205" s="1">
         <f>AVERAGE(E201:E205)</f>
@@ -7420,16 +7420,16 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>11072.7</v>
+        <v>11029.12</v>
       </c>
       <c r="C206" t="n">
-        <v>11080.41</v>
+        <v>11099.57</v>
       </c>
       <c r="D206" t="n">
-        <v>11001.15</v>
+        <v>11029.11</v>
       </c>
       <c r="E206" t="n">
-        <v>11033.54</v>
+        <v>11099.57</v>
       </c>
       <c r="G206" s="1">
         <f>AVERAGE(E202:E206)</f>
@@ -7449,16 +7449,16 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>10997.73</v>
+        <v>11153.97</v>
       </c>
       <c r="C207" t="n">
-        <v>11057.51</v>
+        <v>11186.05</v>
       </c>
       <c r="D207" t="n">
-        <v>10976.46</v>
+        <v>11080.07</v>
       </c>
       <c r="E207" t="n">
-        <v>11057.51</v>
+        <v>11093.75</v>
       </c>
       <c r="G207" s="1">
         <f>AVERAGE(E203:E207)</f>
@@ -7478,16 +7478,16 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>11062.36</v>
+        <v>11037.26</v>
       </c>
       <c r="C208" t="n">
-        <v>11100.02</v>
+        <v>11063.94</v>
       </c>
       <c r="D208" t="n">
-        <v>11058.28</v>
+        <v>10987.68</v>
       </c>
       <c r="E208" t="n">
-        <v>11098.13</v>
+        <v>11063.94</v>
       </c>
       <c r="G208" s="1">
         <f>AVERAGE(E204:E208)</f>
@@ -7507,16 +7507,16 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>11095.67</v>
+        <v>11087.86</v>
       </c>
       <c r="C209" t="n">
-        <v>11095.67</v>
+        <v>11097.11</v>
       </c>
       <c r="D209" t="n">
-        <v>10919.13</v>
+        <v>10952.85</v>
       </c>
       <c r="E209" t="n">
-        <v>10929.77</v>
+        <v>10964.22</v>
       </c>
       <c r="G209" s="1">
         <f>AVERAGE(E205:E209)</f>
@@ -7536,16 +7536,16 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>10957.3</v>
+        <v>10981.39</v>
       </c>
       <c r="C210" t="n">
-        <v>11012.43</v>
+        <v>11028.27</v>
       </c>
       <c r="D210" t="n">
-        <v>10957.3</v>
+        <v>10956.49</v>
       </c>
       <c r="E210" t="n">
-        <v>11012.43</v>
+        <v>11021.38</v>
       </c>
       <c r="G210" s="1">
         <f>AVERAGE(E206:E210)</f>
@@ -7565,16 +7565,16 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>10997.26</v>
+        <v>11042.41</v>
       </c>
       <c r="C211" t="n">
-        <v>11054.49</v>
+        <v>11058.06</v>
       </c>
       <c r="D211" t="n">
-        <v>10994.97</v>
+        <v>10989.93</v>
       </c>
       <c r="E211" t="n">
-        <v>11024.1</v>
+        <v>10995.13</v>
       </c>
       <c r="G211" s="1">
         <f>AVERAGE(E207:E211)</f>
@@ -7594,16 +7594,16 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>11024.97</v>
+        <v>11016.92</v>
       </c>
       <c r="C212" t="n">
-        <v>11030.09</v>
+        <v>11016.92</v>
       </c>
       <c r="D212" t="n">
-        <v>10983.44</v>
+        <v>10905.34</v>
       </c>
       <c r="E212" t="n">
-        <v>10983.44</v>
+        <v>10924.3</v>
       </c>
       <c r="G212" s="1">
         <f>AVERAGE(E208:E212)</f>
@@ -7623,16 +7623,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>11026.07</v>
+        <v>10922.55</v>
       </c>
       <c r="C213" t="n">
-        <v>11095.5</v>
+        <v>10922.55</v>
       </c>
       <c r="D213" t="n">
-        <v>11026.07</v>
+        <v>10807.56</v>
       </c>
       <c r="E213" t="n">
-        <v>11075.25</v>
+        <v>10846.99</v>
       </c>
       <c r="G213" s="1">
         <f>AVERAGE(E209:E213)</f>
@@ -7652,16 +7652,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>11063.62</v>
+        <v>10869.8</v>
       </c>
       <c r="C214" t="n">
-        <v>11063.62</v>
+        <v>10877.72</v>
       </c>
       <c r="D214" t="n">
-        <v>11001.96</v>
+        <v>10689.29</v>
       </c>
       <c r="E214" t="n">
-        <v>11028.07</v>
+        <v>10725.8</v>
       </c>
       <c r="G214" s="1">
         <f>AVERAGE(E210:E214)</f>
@@ -7681,16 +7681,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>11009.96</v>
+        <v>10723</v>
       </c>
       <c r="C215" t="n">
-        <v>11033.89</v>
+        <v>10765.42</v>
       </c>
       <c r="D215" t="n">
-        <v>10972.25</v>
+        <v>10669.59</v>
       </c>
       <c r="E215" t="n">
-        <v>10983.68</v>
+        <v>10752.3</v>
       </c>
       <c r="G215" s="1">
         <f>AVERAGE(E211:E215)</f>
@@ -7710,16 +7710,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>10939.68</v>
+        <v>10762.91</v>
       </c>
       <c r="C216" t="n">
-        <v>10939.68</v>
+        <v>10779.93</v>
       </c>
       <c r="D216" t="n">
-        <v>10693.73</v>
+        <v>10667.25</v>
       </c>
       <c r="E216" t="n">
-        <v>10748.92</v>
+        <v>10722.57</v>
       </c>
       <c r="G216" s="1">
         <f>AVERAGE(E212:E216)</f>
@@ -7739,16 +7739,16 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>10797.95</v>
+        <v>10726.67</v>
       </c>
       <c r="C217" t="n">
-        <v>10829.85</v>
+        <v>10758.84</v>
       </c>
       <c r="D217" t="n">
-        <v>10755.53</v>
+        <v>10701.25</v>
       </c>
       <c r="E217" t="n">
-        <v>10824.23</v>
+        <v>10727.23</v>
       </c>
       <c r="G217" s="1">
         <f>AVERAGE(E213:E217)</f>
@@ -7768,16 +7768,16 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>10827.28</v>
+        <v>10776.53</v>
       </c>
       <c r="C218" t="n">
-        <v>10827.28</v>
+        <v>10882.04</v>
       </c>
       <c r="D218" t="n">
-        <v>10688.59</v>
+        <v>10770.47</v>
       </c>
       <c r="E218" t="n">
-        <v>10716.75</v>
+        <v>10868.14</v>
       </c>
       <c r="G218" s="1">
         <f>AVERAGE(E214:E218)</f>
@@ -7797,16 +7797,16 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>10663.57</v>
+        <v>10881.78</v>
       </c>
       <c r="C219" t="n">
-        <v>10725.71</v>
+        <v>10883.98</v>
       </c>
       <c r="D219" t="n">
-        <v>10606.26</v>
+        <v>10806.73</v>
       </c>
       <c r="E219" t="n">
-        <v>10683.9</v>
+        <v>10828.61</v>
       </c>
       <c r="G219" s="1">
         <f>AVERAGE(E215:E219)</f>
@@ -7826,16 +7826,16 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>10702.6</v>
+        <v>10794.22</v>
       </c>
       <c r="C220" t="n">
-        <v>10757.01</v>
+        <v>10806.56</v>
       </c>
       <c r="D220" t="n">
-        <v>10688.55</v>
+        <v>10750.81</v>
       </c>
       <c r="E220" t="n">
-        <v>10690.96</v>
+        <v>10760.21</v>
       </c>
       <c r="G220" s="1">
         <f>AVERAGE(E216:E220)</f>
@@ -7855,16 +7855,16 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>10698.76</v>
+        <v>10808.5</v>
       </c>
       <c r="C221" t="n">
-        <v>10729.9</v>
+        <v>10882.75</v>
       </c>
       <c r="D221" t="n">
-        <v>10663.44</v>
+        <v>10808.5</v>
       </c>
       <c r="E221" t="n">
-        <v>10699.05</v>
+        <v>10857.27</v>
       </c>
       <c r="G221" s="1">
         <f>AVERAGE(E217:E221)</f>
@@ -7884,16 +7884,16 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>10697.01</v>
+        <v>10886.19</v>
       </c>
       <c r="C222" t="n">
-        <v>10792.2</v>
+        <v>10908.36</v>
       </c>
       <c r="D222" t="n">
-        <v>10697.01</v>
+        <v>10814.54</v>
       </c>
       <c r="E222" t="n">
-        <v>10792.2</v>
+        <v>10831.41</v>
       </c>
       <c r="G222" s="1">
         <f>AVERAGE(E218:E222)</f>
@@ -7913,16 +7913,16 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>10790.24</v>
+        <v>10857.1</v>
       </c>
       <c r="C223" t="n">
-        <v>10828.21</v>
+        <v>10972.41</v>
       </c>
       <c r="D223" t="n">
-        <v>10774.69</v>
+        <v>10835.84</v>
       </c>
       <c r="E223" t="n">
-        <v>10804.2</v>
+        <v>10972.41</v>
       </c>
       <c r="G223" s="1">
         <f>AVERAGE(E219:E223)</f>
@@ -7942,16 +7942,16 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>10817.33</v>
+        <v>10959.56</v>
       </c>
       <c r="C224" t="n">
-        <v>10863.13</v>
+        <v>11003.49</v>
       </c>
       <c r="D224" t="n">
-        <v>10802.79</v>
+        <v>10941.77</v>
       </c>
       <c r="E224" t="n">
-        <v>10863.13</v>
+        <v>10978.85</v>
       </c>
       <c r="G224" s="1">
         <f>AVERAGE(E220:E224)</f>
@@ -7971,16 +7971,16 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>10865.91</v>
+        <v>10974.08</v>
       </c>
       <c r="C225" t="n">
-        <v>10865.91</v>
+        <v>11007.35</v>
       </c>
       <c r="D225" t="n">
-        <v>10770.32</v>
+        <v>10947.29</v>
       </c>
       <c r="E225" t="n">
-        <v>10809.35</v>
+        <v>10974.19</v>
       </c>
       <c r="G225" s="1">
         <f>AVERAGE(E221:E225)</f>
@@ -8000,16 +8000,16 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>10847.17</v>
+        <v>10973.77</v>
       </c>
       <c r="C226" t="n">
-        <v>10916.69</v>
+        <v>11051.09</v>
       </c>
       <c r="D226" t="n">
-        <v>10847.17</v>
+        <v>10961.27</v>
       </c>
       <c r="E226" t="n">
-        <v>10902.21</v>
+        <v>11034.19</v>
       </c>
       <c r="G226" s="1">
         <f>AVERAGE(E222:E226)</f>
@@ -8029,16 +8029,16 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>10946.33</v>
+        <v>11050.09</v>
       </c>
       <c r="C227" t="n">
-        <v>11005.55</v>
+        <v>11073.95</v>
       </c>
       <c r="D227" t="n">
-        <v>10946.33</v>
+        <v>10966.96</v>
       </c>
       <c r="E227" t="n">
-        <v>10989.55</v>
+        <v>11006.34</v>
       </c>
       <c r="G227" s="1">
         <f>AVERAGE(E223:E227)</f>
@@ -8058,16 +8058,16 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>11029.12</v>
+        <v>11014.19</v>
       </c>
       <c r="C228" t="n">
-        <v>11099.57</v>
+        <v>11062.43</v>
       </c>
       <c r="D228" t="n">
-        <v>11029.11</v>
+        <v>11012.95</v>
       </c>
       <c r="E228" t="n">
-        <v>11099.57</v>
+        <v>11051.8</v>
       </c>
       <c r="G228" s="1">
         <f>AVERAGE(E224:E228)</f>
@@ -8087,16 +8087,16 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>11153.97</v>
+        <v>11048.89</v>
       </c>
       <c r="C229" t="n">
-        <v>11186.05</v>
+        <v>11064.34</v>
       </c>
       <c r="D229" t="n">
-        <v>11080.07</v>
+        <v>10906.42</v>
       </c>
       <c r="E229" t="n">
-        <v>11093.75</v>
+        <v>10919.63</v>
       </c>
       <c r="G229" s="1">
         <f>AVERAGE(E225:E229)</f>
@@ -8116,16 +8116,16 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>11037.26</v>
+        <v>10918.74</v>
       </c>
       <c r="C230" t="n">
-        <v>11063.94</v>
+        <v>10926.73</v>
       </c>
       <c r="D230" t="n">
-        <v>10987.68</v>
+        <v>10839.46</v>
       </c>
       <c r="E230" t="n">
-        <v>11063.94</v>
+        <v>10863.94</v>
       </c>
       <c r="G230" s="1">
         <f>AVERAGE(E226:E230)</f>
@@ -8145,16 +8145,16 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>11087.86</v>
+        <v>10826.19</v>
       </c>
       <c r="C231" t="n">
-        <v>11097.11</v>
+        <v>10826.19</v>
       </c>
       <c r="D231" t="n">
-        <v>10952.85</v>
+        <v>10707.76</v>
       </c>
       <c r="E231" t="n">
-        <v>10964.22</v>
+        <v>10718.91</v>
       </c>
       <c r="G231" s="1">
         <f>AVERAGE(E227:E231)</f>
@@ -8174,16 +8174,16 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>10981.39</v>
+        <v>10665.29</v>
       </c>
       <c r="C232" t="n">
-        <v>11028.27</v>
+        <v>10669.63</v>
       </c>
       <c r="D232" t="n">
-        <v>10956.49</v>
+        <v>10446.94</v>
       </c>
       <c r="E232" t="n">
-        <v>11021.38</v>
+        <v>10517.12</v>
       </c>
       <c r="G232" s="1">
         <f>AVERAGE(E228:E232)</f>
@@ -8203,16 +8203,16 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>11042.41</v>
+        <v>10467.85</v>
       </c>
       <c r="C233" t="n">
-        <v>11058.06</v>
+        <v>10507.83</v>
       </c>
       <c r="D233" t="n">
-        <v>10989.93</v>
+        <v>10403.13</v>
       </c>
       <c r="E233" t="n">
-        <v>10995.13</v>
+        <v>10455.93</v>
       </c>
       <c r="G233" s="1">
         <f>AVERAGE(E229:E233)</f>
@@ -8232,16 +8232,16 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>11016.92</v>
+        <v>10464.39</v>
       </c>
       <c r="C234" t="n">
-        <v>11016.92</v>
+        <v>10503.1</v>
       </c>
       <c r="D234" t="n">
-        <v>10905.34</v>
+        <v>10428.97</v>
       </c>
       <c r="E234" t="n">
-        <v>10924.3</v>
+        <v>10466.83</v>
       </c>
       <c r="G234" s="1">
         <f>AVERAGE(E230:E234)</f>
@@ -8261,16 +8261,16 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>10922.55</v>
+        <v>10272.04</v>
       </c>
       <c r="C235" t="n">
-        <v>10922.55</v>
+        <v>10272.04</v>
       </c>
       <c r="D235" t="n">
-        <v>10807.56</v>
+        <v>9797.93</v>
       </c>
       <c r="E235" t="n">
-        <v>10846.99</v>
+        <v>9806.110000000001</v>
       </c>
       <c r="G235" s="1">
         <f>AVERAGE(E231:E235)</f>
@@ -8290,16 +8290,16 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>10869.8</v>
+        <v>9811.58</v>
       </c>
       <c r="C236" t="n">
-        <v>10877.72</v>
+        <v>10046.01</v>
       </c>
       <c r="D236" t="n">
-        <v>10689.29</v>
+        <v>9740.76</v>
       </c>
       <c r="E236" t="n">
-        <v>10725.8</v>
+        <v>10045.81</v>
       </c>
       <c r="G236" s="1">
         <f>AVERAGE(E232:E236)</f>
@@ -8319,16 +8319,16 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>10723</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="C237" t="n">
-        <v>10765.42</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="D237" t="n">
-        <v>10669.59</v>
+        <v>9890.469999999999</v>
       </c>
       <c r="E237" t="n">
-        <v>10752.3</v>
+        <v>9901.120000000001</v>
       </c>
       <c r="G237" s="1">
         <f>AVERAGE(E233:E237)</f>
@@ -8348,16 +8348,16 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>10762.91</v>
+        <v>9891.969999999999</v>
       </c>
       <c r="C238" t="n">
-        <v>10779.93</v>
+        <v>10011.19</v>
       </c>
       <c r="D238" t="n">
-        <v>10667.25</v>
+        <v>9888.73</v>
       </c>
       <c r="E238" t="n">
-        <v>10722.57</v>
+        <v>9981.1</v>
       </c>
       <c r="G238" s="1">
         <f>AVERAGE(E234:E238)</f>
@@ -8377,16 +8377,16 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>10726.67</v>
+        <v>10048.43</v>
       </c>
       <c r="C239" t="n">
-        <v>10758.84</v>
+        <v>10127.01</v>
       </c>
       <c r="D239" t="n">
-        <v>10701.25</v>
+        <v>9978.25</v>
       </c>
       <c r="E239" t="n">
-        <v>10727.23</v>
+        <v>9979.139999999999</v>
       </c>
       <c r="G239" s="1">
         <f>AVERAGE(E235:E239)</f>
@@ -8406,16 +8406,16 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>10776.53</v>
+        <v>9975.459999999999</v>
       </c>
       <c r="C240" t="n">
-        <v>10882.04</v>
+        <v>10019.5</v>
       </c>
       <c r="D240" t="n">
-        <v>10770.47</v>
+        <v>9919.790000000001</v>
       </c>
       <c r="E240" t="n">
-        <v>10868.14</v>
+        <v>9953.73</v>
       </c>
       <c r="G240" s="1">
         <f>AVERAGE(E236:E240)</f>
@@ -8435,16 +8435,16 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>10881.78</v>
+        <v>9879.469999999999</v>
       </c>
       <c r="C241" t="n">
-        <v>10883.98</v>
+        <v>9919.26</v>
       </c>
       <c r="D241" t="n">
-        <v>10806.73</v>
+        <v>9762.91</v>
       </c>
       <c r="E241" t="n">
-        <v>10828.61</v>
+        <v>9919.26</v>
       </c>
       <c r="G241" s="1">
         <f>AVERAGE(E237:E241)</f>
@@ -8464,16 +8464,16 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>10794.22</v>
+        <v>9871.299999999999</v>
       </c>
       <c r="C242" t="n">
-        <v>10806.56</v>
+        <v>9984.15</v>
       </c>
       <c r="D242" t="n">
-        <v>10750.81</v>
+        <v>9822.15</v>
       </c>
       <c r="E242" t="n">
-        <v>10760.21</v>
+        <v>9974.280000000001</v>
       </c>
       <c r="G242" s="1">
         <f>AVERAGE(E238:E242)</f>
@@ -8493,16 +8493,16 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>10808.5</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="C243" t="n">
-        <v>10882.75</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="D243" t="n">
-        <v>10808.5</v>
+        <v>9775.200000000001</v>
       </c>
       <c r="E243" t="n">
-        <v>10857.27</v>
+        <v>9775.200000000001</v>
       </c>
       <c r="G243" s="1">
         <f>AVERAGE(E239:E243)</f>
@@ -8522,16 +8522,16 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>10886.19</v>
+        <v>9774.290000000001</v>
       </c>
       <c r="C244" t="n">
-        <v>10908.36</v>
+        <v>9809.190000000001</v>
       </c>
       <c r="D244" t="n">
-        <v>10814.54</v>
+        <v>9667.85</v>
       </c>
       <c r="E244" t="n">
-        <v>10831.41</v>
+        <v>9759.4</v>
       </c>
       <c r="G244" s="1">
         <f>AVERAGE(E240:E244)</f>
@@ -8551,16 +8551,16 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>10857.1</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="C245" t="n">
-        <v>10972.41</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="D245" t="n">
-        <v>10835.84</v>
+        <v>9475.610000000001</v>
       </c>
       <c r="E245" t="n">
-        <v>10972.41</v>
+        <v>9520.790000000001</v>
       </c>
       <c r="G245" s="1">
         <f>AVERAGE(E241:E245)</f>
@@ -8580,16 +8580,16 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>10959.56</v>
+        <v>9570.190000000001</v>
       </c>
       <c r="C246" t="n">
-        <v>11003.49</v>
+        <v>9629.07</v>
       </c>
       <c r="D246" t="n">
-        <v>10941.77</v>
+        <v>9400.690000000001</v>
       </c>
       <c r="E246" t="n">
-        <v>10978.85</v>
+        <v>9489.18</v>
       </c>
       <c r="G246" s="1">
         <f>AVERAGE(E242:E246)</f>
@@ -8609,16 +8609,16 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>10974.08</v>
+        <v>9515.43</v>
       </c>
       <c r="C247" t="n">
-        <v>11007.35</v>
+        <v>9554.35</v>
       </c>
       <c r="D247" t="n">
-        <v>10947.29</v>
+        <v>9459.120000000001</v>
       </c>
       <c r="E247" t="n">
-        <v>10974.19</v>
+        <v>9516.32</v>
       </c>
       <c r="G247" s="1">
         <f>AVERAGE(E243:E247)</f>
@@ -8638,16 +8638,16 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>10973.77</v>
+        <v>9508.809999999999</v>
       </c>
       <c r="C248" t="n">
-        <v>11051.09</v>
+        <v>9574.83</v>
       </c>
       <c r="D248" t="n">
-        <v>10961.27</v>
+        <v>9481.66</v>
       </c>
       <c r="E248" t="n">
-        <v>11034.19</v>
+        <v>9526.110000000001</v>
       </c>
       <c r="G248" s="1">
         <f>AVERAGE(E244:E248)</f>
@@ -8667,16 +8667,16 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>11050.09</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="C249" t="n">
-        <v>11073.95</v>
+        <v>9802.129999999999</v>
       </c>
       <c r="D249" t="n">
-        <v>10966.96</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="E249" t="n">
-        <v>11006.34</v>
+        <v>9802.129999999999</v>
       </c>
       <c r="G249" s="1">
         <f>AVERAGE(E245:E249)</f>
@@ -8696,16 +8696,16 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>11014.19</v>
+        <v>9812.200000000001</v>
       </c>
       <c r="C250" t="n">
-        <v>11062.43</v>
+        <v>9869.59</v>
       </c>
       <c r="D250" t="n">
-        <v>11012.95</v>
+        <v>9742.610000000001</v>
       </c>
       <c r="E250" t="n">
-        <v>11051.8</v>
+        <v>9844.74</v>
       </c>
       <c r="G250" s="1">
         <f>AVERAGE(E246:E250)</f>
@@ -8725,16 +8725,16 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>11048.89</v>
+        <v>9871.4</v>
       </c>
       <c r="C251" t="n">
-        <v>11064.34</v>
+        <v>9906.59</v>
       </c>
       <c r="D251" t="n">
-        <v>10906.42</v>
+        <v>9817.290000000001</v>
       </c>
       <c r="E251" t="n">
-        <v>10919.63</v>
+        <v>9906.59</v>
       </c>
       <c r="G251" s="1">
         <f>AVERAGE(E247:E251)</f>
@@ -8754,16 +8754,16 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>10918.74</v>
+        <v>9856.85</v>
       </c>
       <c r="C252" t="n">
-        <v>10926.73</v>
+        <v>9889.809999999999</v>
       </c>
       <c r="D252" t="n">
-        <v>10839.46</v>
+        <v>9786.25</v>
       </c>
       <c r="E252" t="n">
-        <v>10863.94</v>
+        <v>9889.809999999999</v>
       </c>
       <c r="G252" s="1">
         <f>AVERAGE(E248:E252)</f>
@@ -8783,16 +8783,16 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>10826.19</v>
+        <v>9888.41</v>
       </c>
       <c r="C253" t="n">
-        <v>10826.19</v>
+        <v>9899.969999999999</v>
       </c>
       <c r="D253" t="n">
-        <v>10707.76</v>
+        <v>9782.860000000001</v>
       </c>
       <c r="E253" t="n">
-        <v>10718.91</v>
+        <v>9824.950000000001</v>
       </c>
       <c r="G253" s="1">
         <f>AVERAGE(E249:E253)</f>
@@ -8812,16 +8812,16 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>10665.29</v>
+        <v>9818.15</v>
       </c>
       <c r="C254" t="n">
-        <v>10669.63</v>
+        <v>9912.530000000001</v>
       </c>
       <c r="D254" t="n">
-        <v>10446.94</v>
+        <v>9817.950000000001</v>
       </c>
       <c r="E254" t="n">
-        <v>10517.12</v>
+        <v>9908.35</v>
       </c>
       <c r="G254" s="1">
         <f>AVERAGE(E250:E254)</f>
@@ -8841,16 +8841,16 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>10467.85</v>
+        <v>9958.469999999999</v>
       </c>
       <c r="C255" t="n">
-        <v>10507.83</v>
+        <v>10014.42</v>
       </c>
       <c r="D255" t="n">
-        <v>10403.13</v>
+        <v>9938.549999999999</v>
       </c>
       <c r="E255" t="n">
-        <v>10455.93</v>
+        <v>9945.309999999999</v>
       </c>
       <c r="G255" s="1">
         <f>AVERAGE(E251:E255)</f>
@@ -8870,16 +8870,16 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>10464.39</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="C256" t="n">
-        <v>10503.1</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="D256" t="n">
-        <v>10428.97</v>
+        <v>9798.450000000001</v>
       </c>
       <c r="E256" t="n">
-        <v>10466.83</v>
+        <v>9830.01</v>
       </c>
       <c r="G256" s="1">
         <f>AVERAGE(E252:E256)</f>
@@ -8899,16 +8899,16 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>10272.04</v>
+        <v>9806.799999999999</v>
       </c>
       <c r="C257" t="n">
-        <v>10272.04</v>
+        <v>9875.84</v>
       </c>
       <c r="D257" t="n">
-        <v>9797.93</v>
+        <v>9764.459999999999</v>
       </c>
       <c r="E257" t="n">
-        <v>9806.110000000001</v>
+        <v>9831.209999999999</v>
       </c>
       <c r="G257" s="1">
         <f>AVERAGE(E253:E257)</f>
@@ -8928,16 +8928,16 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>9811.58</v>
+        <v>9727.17</v>
       </c>
       <c r="C258" t="n">
-        <v>10046.01</v>
+        <v>9777.35</v>
       </c>
       <c r="D258" t="n">
-        <v>9740.76</v>
+        <v>9616.16</v>
       </c>
       <c r="E258" t="n">
-        <v>10045.81</v>
+        <v>9775.84</v>
       </c>
       <c r="G258" s="1">
         <f>AVERAGE(E254:E258)</f>
@@ -8957,16 +8957,16 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>9989.629999999999</v>
+        <v>9799.690000000001</v>
       </c>
       <c r="C259" t="n">
-        <v>9989.629999999999</v>
+        <v>9823.25</v>
       </c>
       <c r="D259" t="n">
-        <v>9890.469999999999</v>
+        <v>9763.889999999999</v>
       </c>
       <c r="E259" t="n">
-        <v>9901.120000000001</v>
+        <v>9791.879999999999</v>
       </c>
       <c r="G259" s="1">
         <f>AVERAGE(E255:E259)</f>
@@ -8986,16 +8986,16 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>9891.969999999999</v>
+        <v>9806.58</v>
       </c>
       <c r="C260" t="n">
-        <v>10011.19</v>
+        <v>9844.389999999999</v>
       </c>
       <c r="D260" t="n">
-        <v>9888.73</v>
+        <v>9755.120000000001</v>
       </c>
       <c r="E260" t="n">
-        <v>9981.1</v>
+        <v>9826.459999999999</v>
       </c>
       <c r="G260" s="1">
         <f>AVERAGE(E256:E260)</f>
@@ -9015,16 +9015,16 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>10048.43</v>
+        <v>9819.049999999999</v>
       </c>
       <c r="C261" t="n">
-        <v>10127.01</v>
+        <v>9851.290000000001</v>
       </c>
       <c r="D261" t="n">
-        <v>9978.25</v>
+        <v>9770.870000000001</v>
       </c>
       <c r="E261" t="n">
-        <v>9979.139999999999</v>
+        <v>9797.09</v>
       </c>
       <c r="G261" s="1">
         <f>AVERAGE(E257:E261)</f>
@@ -9044,16 +9044,16 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>9975.459999999999</v>
+        <v>9795.469999999999</v>
       </c>
       <c r="C262" t="n">
-        <v>10019.5</v>
+        <v>9836.02</v>
       </c>
       <c r="D262" t="n">
-        <v>9919.790000000001</v>
+        <v>9779.4</v>
       </c>
       <c r="E262" t="n">
-        <v>9953.73</v>
+        <v>9828.690000000001</v>
       </c>
       <c r="G262" s="1">
         <f>AVERAGE(E258:E262)</f>
@@ -9073,16 +9073,16 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>9879.469999999999</v>
+        <v>9788.950000000001</v>
       </c>
       <c r="C263" t="n">
-        <v>9919.26</v>
+        <v>9800.030000000001</v>
       </c>
       <c r="D263" t="n">
-        <v>9762.91</v>
+        <v>9726.799999999999</v>
       </c>
       <c r="E263" t="n">
-        <v>9919.26</v>
+        <v>9743.99</v>
       </c>
       <c r="G263" s="1">
         <f>AVERAGE(E259:E263)</f>
@@ -9102,16 +9102,16 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>9871.299999999999</v>
+        <v>9698.52</v>
       </c>
       <c r="C264" t="n">
-        <v>9984.15</v>
+        <v>9753.690000000001</v>
       </c>
       <c r="D264" t="n">
-        <v>9822.15</v>
+        <v>9632.469999999999</v>
       </c>
       <c r="E264" t="n">
-        <v>9974.280000000001</v>
+        <v>9741.52</v>
       </c>
       <c r="G264" s="1">
         <f>AVERAGE(E260:E264)</f>
@@ -9131,16 +9131,16 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>9912.280000000001</v>
+        <v>9769.33</v>
       </c>
       <c r="C265" t="n">
-        <v>9912.280000000001</v>
+        <v>9792.99</v>
       </c>
       <c r="D265" t="n">
-        <v>9775.200000000001</v>
+        <v>9702.77</v>
       </c>
       <c r="E265" t="n">
-        <v>9775.200000000001</v>
+        <v>9714.709999999999</v>
       </c>
       <c r="G265" s="1">
         <f>AVERAGE(E261:E265)</f>
@@ -9160,16 +9160,16 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>9774.290000000001</v>
+        <v>9730.639999999999</v>
       </c>
       <c r="C266" t="n">
-        <v>9809.190000000001</v>
+        <v>9738.799999999999</v>
       </c>
       <c r="D266" t="n">
-        <v>9667.85</v>
+        <v>9654.91</v>
       </c>
       <c r="E266" t="n">
-        <v>9759.4</v>
+        <v>9667.299999999999</v>
       </c>
       <c r="G266" s="1">
         <f>AVERAGE(E262:E266)</f>
@@ -9189,16 +9189,16 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>9622.950000000001</v>
+        <v>9679.98</v>
       </c>
       <c r="C267" t="n">
-        <v>9622.950000000001</v>
+        <v>9847.35</v>
       </c>
       <c r="D267" t="n">
-        <v>9475.610000000001</v>
+        <v>9679.98</v>
       </c>
       <c r="E267" t="n">
-        <v>9520.790000000001</v>
+        <v>9765.360000000001</v>
       </c>
       <c r="G267" s="1">
         <f>AVERAGE(E263:E267)</f>
@@ -9218,16 +9218,16 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>9570.190000000001</v>
+        <v>9728.950000000001</v>
       </c>
       <c r="C268" t="n">
-        <v>9629.07</v>
+        <v>9781.4</v>
       </c>
       <c r="D268" t="n">
-        <v>9400.690000000001</v>
+        <v>9688.74</v>
       </c>
       <c r="E268" t="n">
-        <v>9489.18</v>
+        <v>9778.620000000001</v>
       </c>
       <c r="G268" s="1">
         <f>AVERAGE(E264:E268)</f>
@@ -9247,16 +9247,16 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>9515.43</v>
+        <v>9774.030000000001</v>
       </c>
       <c r="C269" t="n">
-        <v>9554.35</v>
+        <v>9890.889999999999</v>
       </c>
       <c r="D269" t="n">
-        <v>9459.120000000001</v>
+        <v>9767.139999999999</v>
       </c>
       <c r="E269" t="n">
-        <v>9516.32</v>
+        <v>9884.309999999999</v>
       </c>
       <c r="G269" s="1">
         <f>AVERAGE(E265:E269)</f>
@@ -9276,16 +9276,16 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>9508.809999999999</v>
+        <v>9959.870000000001</v>
       </c>
       <c r="C270" t="n">
-        <v>9574.83</v>
+        <v>10001.85</v>
       </c>
       <c r="D270" t="n">
-        <v>9481.66</v>
+        <v>9885.360000000001</v>
       </c>
       <c r="E270" t="n">
-        <v>9526.110000000001</v>
+        <v>9885.360000000001</v>
       </c>
       <c r="G270" s="1">
         <f>AVERAGE(E266:E270)</f>
@@ -9305,16 +9305,16 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>9588.860000000001</v>
+        <v>9899.24</v>
       </c>
       <c r="C271" t="n">
-        <v>9802.129999999999</v>
+        <v>9957.629999999999</v>
       </c>
       <c r="D271" t="n">
-        <v>9588.860000000001</v>
+        <v>9888.030000000001</v>
       </c>
       <c r="E271" t="n">
-        <v>9802.129999999999</v>
+        <v>9888.030000000001</v>
       </c>
       <c r="G271" s="1">
         <f>AVERAGE(E267:E271)</f>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TWSE_IDX" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,69 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2017/10/31</t>
-  </si>
-  <si>
-    <t>2017/11/01</t>
-  </si>
-  <si>
-    <t>2017/11/02</t>
-  </si>
-  <si>
-    <t>2017/11/03</t>
-  </si>
-  <si>
-    <t>2017/11/06</t>
-  </si>
-  <si>
-    <t>2017/11/07</t>
-  </si>
-  <si>
-    <t>2017/11/08</t>
-  </si>
-  <si>
-    <t>2017/11/09</t>
-  </si>
-  <si>
-    <t>2017/11/10</t>
-  </si>
-  <si>
-    <t>2017/11/13</t>
-  </si>
-  <si>
-    <t>2017/11/14</t>
-  </si>
-  <si>
-    <t>2017/11/15</t>
-  </si>
-  <si>
-    <t>2017/11/16</t>
-  </si>
-  <si>
-    <t>2017/11/17</t>
-  </si>
-  <si>
-    <t>2017/11/20</t>
-  </si>
-  <si>
-    <t>2017/11/21</t>
-  </si>
-  <si>
-    <t>2017/11/22</t>
-  </si>
-  <si>
-    <t>2017/11/23</t>
-  </si>
-  <si>
-    <t>2017/11/24</t>
-  </si>
-  <si>
-    <t>2017/11/27</t>
-  </si>
-  <si>
-    <t>2017/11/28</t>
-  </si>
-  <si>
     <t>2017/11/29</t>
   </si>
   <si>
@@ -848,15 +785,76 @@
   </si>
   <si>
     <t>2018/11/30</t>
+  </si>
+  <si>
+    <t>2018/12/03</t>
+  </si>
+  <si>
+    <t>2018/12/04</t>
+  </si>
+  <si>
+    <t>2018/12/05</t>
+  </si>
+  <si>
+    <t>2018/12/06</t>
+  </si>
+  <si>
+    <t>2018/12/07</t>
+  </si>
+  <si>
+    <t>2018/12/10</t>
+  </si>
+  <si>
+    <t>2018/12/11</t>
+  </si>
+  <si>
+    <t>2018/12/12</t>
+  </si>
+  <si>
+    <t>2018/12/13</t>
+  </si>
+  <si>
+    <t>2018/12/14</t>
+  </si>
+  <si>
+    <t>2018/12/17</t>
+  </si>
+  <si>
+    <t>2018/12/18</t>
+  </si>
+  <si>
+    <t>2018/12/19</t>
+  </si>
+  <si>
+    <t>2018/12/20</t>
+  </si>
+  <si>
+    <t>2018/12/21</t>
+  </si>
+  <si>
+    <t>2018/12/22</t>
+  </si>
+  <si>
+    <t>2018/12/24</t>
+  </si>
+  <si>
+    <t>2018/12/25</t>
+  </si>
+  <si>
+    <t>2018/12/26</t>
+  </si>
+  <si>
+    <t>2018/12/27</t>
+  </si>
+  <si>
+    <t>2018/12/28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="0.00" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -907,12 +905,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1346,6 +1345,17 @@
         <axId val="10"/>
         <axId val="100"/>
       </stockChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
       <valAx>
         <axId val="20"/>
         <scaling>
@@ -1353,6 +1363,8 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
         <crosses val="max"/>
       </valAx>
@@ -1374,18 +1386,12 @@
             </rich>
           </tx>
         </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
     </plotArea>
+    <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
 </chartSpace>
@@ -1717,7 +1723,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="15.7109375"/>
     <col customWidth="1" max="5" min="2" width="11.7109375"/>
-    <col customWidth="1" max="9" min="7" style="1" width="11.7109375"/>
+    <col customWidth="1" max="9" min="7" style="3" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1752,16 +1758,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10768.9</v>
+        <v>10735.24</v>
       </c>
       <c r="C2" t="n">
-        <v>10829.33</v>
+        <v>10762.91</v>
       </c>
       <c r="D2" t="n">
-        <v>10747.37</v>
+        <v>10697.62</v>
       </c>
       <c r="E2" t="n">
-        <v>10793.8</v>
+        <v>10713.55</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1769,16 +1775,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>10816.04</v>
+        <v>10623.2</v>
       </c>
       <c r="C3" t="n">
-        <v>10843.41</v>
+        <v>10650.18</v>
       </c>
       <c r="D3" t="n">
-        <v>10785.32</v>
+        <v>10560.44</v>
       </c>
       <c r="E3" t="n">
-        <v>10806.36</v>
+        <v>10560.44</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1786,16 +1792,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10797.63</v>
+        <v>10591.62</v>
       </c>
       <c r="C4" t="n">
-        <v>10827.67</v>
+        <v>10665.92</v>
       </c>
       <c r="D4" t="n">
-        <v>10788.51</v>
+        <v>10495.15</v>
       </c>
       <c r="E4" t="n">
-        <v>10788.51</v>
+        <v>10600.37</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1803,16 +1809,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>10797.91</v>
+        <v>10617.27</v>
       </c>
       <c r="C5" t="n">
-        <v>10835.7</v>
+        <v>10665.43</v>
       </c>
       <c r="D5" t="n">
-        <v>10765.31</v>
+        <v>10565.68</v>
       </c>
       <c r="E5" t="n">
-        <v>10800.77</v>
+        <v>10651.11</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1820,18 +1826,18 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>10856.56</v>
+        <v>10607.62</v>
       </c>
       <c r="C6" t="n">
-        <v>10858.5</v>
+        <v>10635.71</v>
       </c>
       <c r="D6" t="n">
-        <v>10769.19</v>
+        <v>10540.74</v>
       </c>
       <c r="E6" t="n">
-        <v>10786.19</v>
-      </c>
-      <c r="G6" s="1">
+        <v>10566.85</v>
+      </c>
+      <c r="G6" s="3">
         <f>AVERAGE(E2:E6)</f>
         <v/>
       </c>
@@ -1841,18 +1847,18 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>10820.83</v>
+        <v>10541.03</v>
       </c>
       <c r="C7" t="n">
-        <v>10842.61</v>
+        <v>10541.03</v>
       </c>
       <c r="D7" t="n">
-        <v>10807.89</v>
+        <v>10376.65</v>
       </c>
       <c r="E7" t="n">
-        <v>10840.34</v>
-      </c>
-      <c r="G7" s="1">
+        <v>10393.92</v>
+      </c>
+      <c r="G7" s="3">
         <f>AVERAGE(E3:E7)</f>
         <v/>
       </c>
@@ -1862,18 +1868,18 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10839.44</v>
+        <v>10404.42</v>
       </c>
       <c r="C8" t="n">
-        <v>10844.74</v>
+        <v>10418.97</v>
       </c>
       <c r="D8" t="n">
-        <v>10806.01</v>
+        <v>10322.76</v>
       </c>
       <c r="E8" t="n">
-        <v>10818.99</v>
-      </c>
-      <c r="G8" s="1">
+        <v>10355.76</v>
+      </c>
+      <c r="G8" s="3">
         <f>AVERAGE(E4:E8)</f>
         <v/>
       </c>
@@ -1883,18 +1889,18 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>10802.95</v>
+        <v>10406.35</v>
       </c>
       <c r="C9" t="n">
-        <v>10831.38</v>
+        <v>10419.28</v>
       </c>
       <c r="D9" t="n">
-        <v>10721.87</v>
+        <v>10336.26</v>
       </c>
       <c r="E9" t="n">
-        <v>10743.27</v>
-      </c>
-      <c r="G9" s="1">
+        <v>10398.62</v>
+      </c>
+      <c r="G9" s="3">
         <f>AVERAGE(E5:E9)</f>
         <v/>
       </c>
@@ -1904,18 +1910,18 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>10713.67</v>
+        <v>10438.33</v>
       </c>
       <c r="C10" t="n">
-        <v>10742.61</v>
+        <v>10504.67</v>
       </c>
       <c r="D10" t="n">
-        <v>10659.29</v>
+        <v>10438.33</v>
       </c>
       <c r="E10" t="n">
-        <v>10732.67</v>
-      </c>
-      <c r="G10" s="1">
+        <v>10473.09</v>
+      </c>
+      <c r="G10" s="3">
         <f>AVERAGE(E6:E10)</f>
         <v/>
       </c>
@@ -1925,18 +1931,18 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>10728.22</v>
+        <v>10488.73</v>
       </c>
       <c r="C11" t="n">
-        <v>10749.39</v>
+        <v>10495.24</v>
       </c>
       <c r="D11" t="n">
-        <v>10683.92</v>
+        <v>10408.06</v>
       </c>
       <c r="E11" t="n">
-        <v>10683.92</v>
-      </c>
-      <c r="G11" s="1">
+        <v>10443.28</v>
+      </c>
+      <c r="G11" s="3">
         <f>AVERAGE(E7:E11)</f>
         <v/>
       </c>
@@ -1946,18 +1952,18 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>10716.59</v>
+        <v>10447.11</v>
       </c>
       <c r="C12" t="n">
-        <v>10735.08</v>
+        <v>10489.17</v>
       </c>
       <c r="D12" t="n">
-        <v>10654.58</v>
+        <v>10444.7</v>
       </c>
       <c r="E12" t="n">
-        <v>10687.18</v>
-      </c>
-      <c r="G12" s="1">
+        <v>10470.7</v>
+      </c>
+      <c r="G12" s="3">
         <f>AVERAGE(E8:E12)</f>
         <v/>
       </c>
@@ -1967,18 +1973,18 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>10662.08</v>
+        <v>10494.6</v>
       </c>
       <c r="C13" t="n">
-        <v>10669.59</v>
+        <v>10577.53</v>
       </c>
       <c r="D13" t="n">
-        <v>10600.26</v>
+        <v>10494.6</v>
       </c>
       <c r="E13" t="n">
-        <v>10630.65</v>
-      </c>
-      <c r="G13" s="1">
+        <v>10538.01</v>
+      </c>
+      <c r="G13" s="3">
         <f>AVERAGE(E9:E13)</f>
         <v/>
       </c>
@@ -1988,18 +1994,18 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>10629.16</v>
+        <v>10517.21</v>
       </c>
       <c r="C14" t="n">
-        <v>10666.66</v>
+        <v>10520.66</v>
       </c>
       <c r="D14" t="n">
-        <v>10609.23</v>
+        <v>10436.11</v>
       </c>
       <c r="E14" t="n">
-        <v>10625.04</v>
-      </c>
-      <c r="G14" s="1">
+        <v>10491.44</v>
+      </c>
+      <c r="G14" s="3">
         <f>AVERAGE(E10:E14)</f>
         <v/>
       </c>
@@ -2009,18 +2015,18 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>10673.43</v>
+        <v>10478.74</v>
       </c>
       <c r="C15" t="n">
-        <v>10729.45</v>
+        <v>10526.41</v>
       </c>
       <c r="D15" t="n">
-        <v>10673.43</v>
+        <v>10472.39</v>
       </c>
       <c r="E15" t="n">
-        <v>10701.64</v>
-      </c>
-      <c r="G15" s="1">
+        <v>10506.52</v>
+      </c>
+      <c r="G15" s="3">
         <f>AVERAGE(E11:E15)</f>
         <v/>
       </c>
@@ -2030,18 +2036,18 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>10706.79</v>
+        <v>10508.33</v>
       </c>
       <c r="C16" t="n">
-        <v>10728.39</v>
+        <v>10544</v>
       </c>
       <c r="D16" t="n">
-        <v>10656.18</v>
+        <v>10452.08</v>
       </c>
       <c r="E16" t="n">
-        <v>10664.55</v>
-      </c>
-      <c r="G16" s="1">
+        <v>10467.34</v>
+      </c>
+      <c r="G16" s="3">
         <f>AVERAGE(E12:E16)</f>
         <v/>
       </c>
@@ -2051,18 +2057,18 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>10688.22</v>
+        <v>10470.36</v>
       </c>
       <c r="C17" t="n">
-        <v>10787.58</v>
+        <v>10514.31</v>
       </c>
       <c r="D17" t="n">
-        <v>10687.26</v>
+        <v>10470.36</v>
       </c>
       <c r="E17" t="n">
-        <v>10779.24</v>
-      </c>
-      <c r="G17" s="1">
+        <v>10504.52</v>
+      </c>
+      <c r="G17" s="3">
         <f>AVERAGE(E13:E17)</f>
         <v/>
       </c>
@@ -2072,18 +2078,18 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>10815.4</v>
+        <v>10526.97</v>
       </c>
       <c r="C18" t="n">
-        <v>10882.65</v>
+        <v>10545.78</v>
       </c>
       <c r="D18" t="n">
-        <v>10801.1</v>
+        <v>10488.97</v>
       </c>
       <c r="E18" t="n">
-        <v>10822.59</v>
-      </c>
-      <c r="G18" s="1">
+        <v>10488.97</v>
+      </c>
+      <c r="G18" s="3">
         <f>AVERAGE(E14:E18)</f>
         <v/>
       </c>
@@ -2093,18 +2099,18 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>10837.61</v>
+        <v>10503.1</v>
       </c>
       <c r="C19" t="n">
-        <v>10872.29</v>
+        <v>10537.27</v>
       </c>
       <c r="D19" t="n">
-        <v>10809.09</v>
+        <v>10486.52</v>
       </c>
       <c r="E19" t="n">
-        <v>10854.57</v>
-      </c>
-      <c r="G19" s="1">
+        <v>10537.27</v>
+      </c>
+      <c r="G19" s="3">
         <f>AVERAGE(E15:E19)</f>
         <v/>
       </c>
@@ -2114,18 +2120,18 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>10847.79</v>
+        <v>10546.64</v>
       </c>
       <c r="C20" t="n">
-        <v>10873.91</v>
+        <v>10556.65</v>
       </c>
       <c r="D20" t="n">
-        <v>10833.78</v>
+        <v>10514.54</v>
       </c>
       <c r="E20" t="n">
-        <v>10854.09</v>
-      </c>
-      <c r="G20" s="1">
+        <v>10522.49</v>
+      </c>
+      <c r="G20" s="3">
         <f>AVERAGE(E16:E20)</f>
         <v/>
       </c>
@@ -2135,18 +2141,18 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>10836.82</v>
+        <v>10526.14</v>
       </c>
       <c r="C21" t="n">
-        <v>10856</v>
+        <v>10528.92</v>
       </c>
       <c r="D21" t="n">
-        <v>10746.74</v>
+        <v>10408.12</v>
       </c>
       <c r="E21" t="n">
-        <v>10750.93</v>
-      </c>
-      <c r="G21" s="1">
+        <v>10421.91</v>
+      </c>
+      <c r="G21" s="3">
         <f>AVERAGE(E17:E21)</f>
         <v/>
       </c>
@@ -2156,18 +2162,18 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>10733.56</v>
+        <v>10419.81</v>
       </c>
       <c r="C22" t="n">
-        <v>10752.58</v>
+        <v>10497.77</v>
       </c>
       <c r="D22" t="n">
-        <v>10692.53</v>
+        <v>10419.81</v>
       </c>
       <c r="E22" t="n">
-        <v>10707.07</v>
-      </c>
-      <c r="G22" s="1">
+        <v>10486.67</v>
+      </c>
+      <c r="G22" s="3">
         <f>AVERAGE(E18:E22)</f>
         <v/>
       </c>
@@ -2177,18 +2183,18 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>10735.24</v>
+        <v>10513.29</v>
       </c>
       <c r="C23" t="n">
-        <v>10762.91</v>
+        <v>10592.04</v>
       </c>
       <c r="D23" t="n">
-        <v>10697.62</v>
+        <v>10513.29</v>
       </c>
       <c r="E23" t="n">
-        <v>10713.55</v>
-      </c>
-      <c r="G23" s="1">
+        <v>10567.64</v>
+      </c>
+      <c r="G23" s="3">
         <f>AVERAGE(E19:E23)</f>
         <v/>
       </c>
@@ -2198,18 +2204,18 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>10623.2</v>
+        <v>10590.95</v>
       </c>
       <c r="C24" t="n">
-        <v>10650.18</v>
+        <v>10659.98</v>
       </c>
       <c r="D24" t="n">
-        <v>10560.44</v>
+        <v>10590.95</v>
       </c>
       <c r="E24" t="n">
-        <v>10560.44</v>
-      </c>
-      <c r="G24" s="1">
+        <v>10642.86</v>
+      </c>
+      <c r="G24" s="3">
         <f>AVERAGE(E20:E24)</f>
         <v/>
       </c>
@@ -2219,18 +2225,18 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>10591.62</v>
+        <v>10664.82</v>
       </c>
       <c r="C25" t="n">
-        <v>10665.92</v>
+        <v>10710.73</v>
       </c>
       <c r="D25" t="n">
-        <v>10495.15</v>
+        <v>10650.77</v>
       </c>
       <c r="E25" t="n">
-        <v>10600.37</v>
-      </c>
-      <c r="G25" s="1">
+        <v>10710.73</v>
+      </c>
+      <c r="G25" s="3">
         <f>AVERAGE(E21:E25)</f>
         <v/>
       </c>
@@ -2240,18 +2246,18 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10617.27</v>
+        <v>10759.61</v>
       </c>
       <c r="C26" t="n">
-        <v>10665.43</v>
+        <v>10813.16</v>
       </c>
       <c r="D26" t="n">
-        <v>10565.68</v>
+        <v>10759.61</v>
       </c>
       <c r="E26" t="n">
-        <v>10651.11</v>
-      </c>
-      <c r="G26" s="1">
+        <v>10801.57</v>
+      </c>
+      <c r="G26" s="3">
         <f>AVERAGE(E22:E26)</f>
         <v/>
       </c>
@@ -2261,18 +2267,18 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>10607.62</v>
+        <v>10834.58</v>
       </c>
       <c r="C27" t="n">
-        <v>10635.71</v>
+        <v>10853.46</v>
       </c>
       <c r="D27" t="n">
-        <v>10540.74</v>
+        <v>10794.25</v>
       </c>
       <c r="E27" t="n">
-        <v>10566.85</v>
-      </c>
-      <c r="G27" s="1">
+        <v>10848.63</v>
+      </c>
+      <c r="G27" s="3">
         <f>AVERAGE(E23:E27)</f>
         <v/>
       </c>
@@ -2282,18 +2288,18 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10541.03</v>
+        <v>10856.92</v>
       </c>
       <c r="C28" t="n">
-        <v>10541.03</v>
+        <v>10879.8</v>
       </c>
       <c r="D28" t="n">
-        <v>10376.65</v>
+        <v>10815.68</v>
       </c>
       <c r="E28" t="n">
-        <v>10393.92</v>
-      </c>
-      <c r="G28" s="1">
+        <v>10879.8</v>
+      </c>
+      <c r="G28" s="3">
         <f>AVERAGE(E24:E28)</f>
         <v/>
       </c>
@@ -2303,18 +2309,18 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10404.42</v>
+        <v>10899.09</v>
       </c>
       <c r="C29" t="n">
-        <v>10418.97</v>
+        <v>10918.47</v>
       </c>
       <c r="D29" t="n">
-        <v>10322.76</v>
+        <v>10869.12</v>
       </c>
       <c r="E29" t="n">
-        <v>10355.76</v>
-      </c>
-      <c r="G29" s="1">
+        <v>10915.75</v>
+      </c>
+      <c r="G29" s="3">
         <f>AVERAGE(E25:E29)</f>
         <v/>
       </c>
@@ -2324,18 +2330,18 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10406.35</v>
+        <v>10922.35</v>
       </c>
       <c r="C30" t="n">
-        <v>10419.28</v>
+        <v>10931</v>
       </c>
       <c r="D30" t="n">
-        <v>10336.26</v>
+        <v>10860.77</v>
       </c>
       <c r="E30" t="n">
-        <v>10398.62</v>
-      </c>
-      <c r="G30" s="1">
+        <v>10914.89</v>
+      </c>
+      <c r="G30" s="3">
         <f>AVERAGE(E26:E30)</f>
         <v/>
       </c>
@@ -2345,26 +2351,26 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10438.33</v>
+        <v>10915.32</v>
       </c>
       <c r="C31" t="n">
-        <v>10504.67</v>
+        <v>10934.75</v>
       </c>
       <c r="D31" t="n">
-        <v>10438.33</v>
+        <v>10819.25</v>
       </c>
       <c r="E31" t="n">
-        <v>10473.09</v>
-      </c>
-      <c r="G31" s="1">
+        <v>10831.09</v>
+      </c>
+      <c r="G31" s="3">
         <f>AVERAGE(E27:E31)</f>
         <v/>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <f>AVERAGE(E2:E31)</f>
         <v/>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <f>G31-H31</f>
         <v/>
       </c>
@@ -2374,26 +2380,26 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10488.73</v>
+        <v>10824.54</v>
       </c>
       <c r="C32" t="n">
-        <v>10495.24</v>
+        <v>10844.08</v>
       </c>
       <c r="D32" t="n">
-        <v>10408.06</v>
+        <v>10770.1</v>
       </c>
       <c r="E32" t="n">
-        <v>10443.28</v>
-      </c>
-      <c r="G32" s="1">
+        <v>10810.06</v>
+      </c>
+      <c r="G32" s="3">
         <f>AVERAGE(E28:E32)</f>
         <v/>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <f>AVERAGE(E3:E32)</f>
         <v/>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="3">
         <f>G32-H32</f>
         <v/>
       </c>
@@ -2403,26 +2409,26 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10447.11</v>
+        <v>10818.24</v>
       </c>
       <c r="C33" t="n">
-        <v>10489.17</v>
+        <v>10899.98</v>
       </c>
       <c r="D33" t="n">
-        <v>10444.7</v>
+        <v>10818.24</v>
       </c>
       <c r="E33" t="n">
-        <v>10470.7</v>
-      </c>
-      <c r="G33" s="1">
+        <v>10883.96</v>
+      </c>
+      <c r="G33" s="3">
         <f>AVERAGE(E29:E33)</f>
         <v/>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <f>AVERAGE(E4:E33)</f>
         <v/>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <f>G33-H33</f>
         <v/>
       </c>
@@ -2432,26 +2438,26 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>10494.6</v>
+        <v>10932.37</v>
       </c>
       <c r="C34" t="n">
-        <v>10577.53</v>
+        <v>10962.55</v>
       </c>
       <c r="D34" t="n">
-        <v>10494.6</v>
+        <v>10911.89</v>
       </c>
       <c r="E34" t="n">
-        <v>10538.01</v>
-      </c>
-      <c r="G34" s="1">
+        <v>10956.31</v>
+      </c>
+      <c r="G34" s="3">
         <f>AVERAGE(E30:E34)</f>
         <v/>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <f>AVERAGE(E5:E34)</f>
         <v/>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <f>G34-H34</f>
         <v/>
       </c>
@@ -2461,26 +2467,26 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10517.21</v>
+        <v>10955.81</v>
       </c>
       <c r="C35" t="n">
-        <v>10520.66</v>
+        <v>10986.11</v>
       </c>
       <c r="D35" t="n">
-        <v>10436.11</v>
+        <v>10920.5</v>
       </c>
       <c r="E35" t="n">
-        <v>10491.44</v>
-      </c>
-      <c r="G35" s="1">
+        <v>10986.11</v>
+      </c>
+      <c r="G35" s="3">
         <f>AVERAGE(E31:E35)</f>
         <v/>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <f>AVERAGE(E6:E35)</f>
         <v/>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <f>G35-H35</f>
         <v/>
       </c>
@@ -2490,26 +2496,26 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10478.74</v>
+        <v>10976.13</v>
       </c>
       <c r="C36" t="n">
-        <v>10526.41</v>
+        <v>11030.22</v>
       </c>
       <c r="D36" t="n">
-        <v>10472.39</v>
+        <v>10942.95</v>
       </c>
       <c r="E36" t="n">
-        <v>10506.52</v>
-      </c>
-      <c r="G36" s="1">
+        <v>11004.8</v>
+      </c>
+      <c r="G36" s="3">
         <f>AVERAGE(E32:E36)</f>
         <v/>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <f>AVERAGE(E7:E36)</f>
         <v/>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="3">
         <f>G36-H36</f>
         <v/>
       </c>
@@ -2519,26 +2525,26 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>10508.33</v>
+        <v>11048.06</v>
       </c>
       <c r="C37" t="n">
-        <v>10544</v>
+        <v>11122.82</v>
       </c>
       <c r="D37" t="n">
-        <v>10452.08</v>
+        <v>11048.06</v>
       </c>
       <c r="E37" t="n">
-        <v>10467.34</v>
-      </c>
-      <c r="G37" s="1">
+        <v>11071.57</v>
+      </c>
+      <c r="G37" s="3">
         <f>AVERAGE(E33:E37)</f>
         <v/>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="3">
         <f>AVERAGE(E8:E37)</f>
         <v/>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="3">
         <f>G37-H37</f>
         <v/>
       </c>
@@ -2548,26 +2554,26 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>10470.36</v>
+        <v>11123.58</v>
       </c>
       <c r="C38" t="n">
-        <v>10514.31</v>
+        <v>11150.85</v>
       </c>
       <c r="D38" t="n">
-        <v>10470.36</v>
+        <v>11095.85</v>
       </c>
       <c r="E38" t="n">
-        <v>10504.52</v>
-      </c>
-      <c r="G38" s="1">
+        <v>11150.85</v>
+      </c>
+      <c r="G38" s="3">
         <f>AVERAGE(E34:E38)</f>
         <v/>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <f>AVERAGE(E9:E38)</f>
         <v/>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="3">
         <f>G38-H38</f>
         <v/>
       </c>
@@ -2577,26 +2583,26 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10526.97</v>
+        <v>11169.79</v>
       </c>
       <c r="C39" t="n">
-        <v>10545.78</v>
+        <v>11231.46</v>
       </c>
       <c r="D39" t="n">
-        <v>10488.97</v>
+        <v>11142.38</v>
       </c>
       <c r="E39" t="n">
-        <v>10488.97</v>
-      </c>
-      <c r="G39" s="1">
+        <v>11231.46</v>
+      </c>
+      <c r="G39" s="3">
         <f>AVERAGE(E35:E39)</f>
         <v/>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="3">
         <f>AVERAGE(E10:E39)</f>
         <v/>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="3">
         <f>G39-H39</f>
         <v/>
       </c>
@@ -2606,26 +2612,26 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>10503.1</v>
+        <v>11243.49</v>
       </c>
       <c r="C40" t="n">
-        <v>10537.27</v>
+        <v>11270.18</v>
       </c>
       <c r="D40" t="n">
-        <v>10486.52</v>
+        <v>11201.52</v>
       </c>
       <c r="E40" t="n">
-        <v>10537.27</v>
-      </c>
-      <c r="G40" s="1">
+        <v>11253.11</v>
+      </c>
+      <c r="G40" s="3">
         <f>AVERAGE(E36:E40)</f>
         <v/>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="3">
         <f>AVERAGE(E11:E40)</f>
         <v/>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="3">
         <f>G40-H40</f>
         <v/>
       </c>
@@ -2635,26 +2641,26 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10546.64</v>
+        <v>11228.71</v>
       </c>
       <c r="C41" t="n">
-        <v>10556.65</v>
+        <v>11228.71</v>
       </c>
       <c r="D41" t="n">
-        <v>10514.54</v>
+        <v>11107.32</v>
       </c>
       <c r="E41" t="n">
-        <v>10522.49</v>
-      </c>
-      <c r="G41" s="1">
+        <v>11152.16</v>
+      </c>
+      <c r="G41" s="3">
         <f>AVERAGE(E37:E41)</f>
         <v/>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="3">
         <f>AVERAGE(E12:E41)</f>
         <v/>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="3">
         <f>G41-H41</f>
         <v/>
       </c>
@@ -2664,26 +2670,26 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10526.14</v>
+        <v>11154.36</v>
       </c>
       <c r="C42" t="n">
-        <v>10528.92</v>
+        <v>11268.61</v>
       </c>
       <c r="D42" t="n">
-        <v>10408.12</v>
+        <v>11131.85</v>
       </c>
       <c r="E42" t="n">
-        <v>10421.91</v>
-      </c>
-      <c r="G42" s="1">
+        <v>11165.95</v>
+      </c>
+      <c r="G42" s="3">
         <f>AVERAGE(E38:E42)</f>
         <v/>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="3">
         <f>AVERAGE(E13:E42)</f>
         <v/>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="3">
         <f>G42-H42</f>
         <v/>
       </c>
@@ -2693,26 +2699,26 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10419.81</v>
+        <v>11152.53</v>
       </c>
       <c r="C43" t="n">
-        <v>10497.77</v>
+        <v>11178.3</v>
       </c>
       <c r="D43" t="n">
-        <v>10419.81</v>
+        <v>11089.48</v>
       </c>
       <c r="E43" t="n">
-        <v>10486.67</v>
-      </c>
-      <c r="G43" s="1">
+        <v>11147.1</v>
+      </c>
+      <c r="G43" s="3">
         <f>AVERAGE(E39:E43)</f>
         <v/>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="3">
         <f>AVERAGE(E14:E43)</f>
         <v/>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="3">
         <f>G43-H43</f>
         <v/>
       </c>
@@ -2722,26 +2728,26 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10513.29</v>
+        <v>11202.27</v>
       </c>
       <c r="C44" t="n">
-        <v>10592.04</v>
+        <v>11246.18</v>
       </c>
       <c r="D44" t="n">
-        <v>10513.29</v>
+        <v>11161.83</v>
       </c>
       <c r="E44" t="n">
-        <v>10567.64</v>
-      </c>
-      <c r="G44" s="1">
+        <v>11221.81</v>
+      </c>
+      <c r="G44" s="3">
         <f>AVERAGE(E40:E44)</f>
         <v/>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="3">
         <f>AVERAGE(E15:E44)</f>
         <v/>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="3">
         <f>G44-H44</f>
         <v/>
       </c>
@@ -2751,26 +2757,26 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10590.95</v>
+        <v>11189.57</v>
       </c>
       <c r="C45" t="n">
-        <v>10659.98</v>
+        <v>11189.57</v>
       </c>
       <c r="D45" t="n">
-        <v>10590.95</v>
+        <v>11076.78</v>
       </c>
       <c r="E45" t="n">
-        <v>10642.86</v>
-      </c>
-      <c r="G45" s="1">
+        <v>11076.78</v>
+      </c>
+      <c r="G45" s="3">
         <f>AVERAGE(E41:E45)</f>
         <v/>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="3">
         <f>AVERAGE(E16:E45)</f>
         <v/>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="3">
         <f>G45-H45</f>
         <v/>
       </c>
@@ -2780,26 +2786,26 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10664.82</v>
+        <v>11054.36</v>
       </c>
       <c r="C46" t="n">
-        <v>10710.73</v>
+        <v>11158.29</v>
       </c>
       <c r="D46" t="n">
-        <v>10650.77</v>
+        <v>11007.89</v>
       </c>
       <c r="E46" t="n">
-        <v>10710.73</v>
-      </c>
-      <c r="G46" s="1">
+        <v>11103.79</v>
+      </c>
+      <c r="G46" s="3">
         <f>AVERAGE(E42:E46)</f>
         <v/>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="3">
         <f>AVERAGE(E17:E46)</f>
         <v/>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="3">
         <f>G46-H46</f>
         <v/>
       </c>
@@ -2809,26 +2815,26 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10759.61</v>
+        <v>11139.4</v>
       </c>
       <c r="C47" t="n">
-        <v>10813.16</v>
+        <v>11212.1</v>
       </c>
       <c r="D47" t="n">
-        <v>10759.61</v>
+        <v>11139.4</v>
       </c>
       <c r="E47" t="n">
-        <v>10801.57</v>
-      </c>
-      <c r="G47" s="1">
+        <v>11160.25</v>
+      </c>
+      <c r="G47" s="3">
         <f>AVERAGE(E43:E47)</f>
         <v/>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="3">
         <f>AVERAGE(E18:E47)</f>
         <v/>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="3">
         <f>G47-H47</f>
         <v/>
       </c>
@@ -2838,26 +2844,26 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>10834.58</v>
+        <v>11151.65</v>
       </c>
       <c r="C48" t="n">
-        <v>10853.46</v>
+        <v>11153.32</v>
       </c>
       <c r="D48" t="n">
-        <v>10794.25</v>
+        <v>11070.43</v>
       </c>
       <c r="E48" t="n">
-        <v>10848.63</v>
-      </c>
-      <c r="G48" s="1">
+        <v>11126.23</v>
+      </c>
+      <c r="G48" s="3">
         <f>AVERAGE(E44:E48)</f>
         <v/>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="3">
         <f>AVERAGE(E19:E48)</f>
         <v/>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="3">
         <f>G48-H48</f>
         <v/>
       </c>
@@ -2867,26 +2873,26 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10856.92</v>
+        <v>10970.3</v>
       </c>
       <c r="C49" t="n">
-        <v>10879.8</v>
+        <v>10970.3</v>
       </c>
       <c r="D49" t="n">
-        <v>10815.68</v>
+        <v>10855.43</v>
       </c>
       <c r="E49" t="n">
-        <v>10879.8</v>
-      </c>
-      <c r="G49" s="1">
+        <v>10946.25</v>
+      </c>
+      <c r="G49" s="3">
         <f>AVERAGE(E45:E49)</f>
         <v/>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="3">
         <f>AVERAGE(E20:E49)</f>
         <v/>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="3">
         <f>G49-H49</f>
         <v/>
       </c>
@@ -2896,26 +2902,26 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10899.09</v>
+        <v>10761.01</v>
       </c>
       <c r="C50" t="n">
-        <v>10918.47</v>
+        <v>10761.01</v>
       </c>
       <c r="D50" t="n">
-        <v>10869.12</v>
+        <v>10300.4</v>
       </c>
       <c r="E50" t="n">
-        <v>10915.75</v>
-      </c>
-      <c r="G50" s="1">
+        <v>10404</v>
+      </c>
+      <c r="G50" s="3">
         <f>AVERAGE(E46:E50)</f>
         <v/>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="3">
         <f>AVERAGE(E21:E50)</f>
         <v/>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="3">
         <f>G50-H50</f>
         <v/>
       </c>
@@ -2925,26 +2931,26 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10922.35</v>
+        <v>10547.64</v>
       </c>
       <c r="C51" t="n">
-        <v>10931</v>
+        <v>10697.82</v>
       </c>
       <c r="D51" t="n">
-        <v>10860.77</v>
+        <v>10547.64</v>
       </c>
       <c r="E51" t="n">
-        <v>10914.89</v>
-      </c>
-      <c r="G51" s="1">
+        <v>10551.54</v>
+      </c>
+      <c r="G51" s="3">
         <f>AVERAGE(E47:E51)</f>
         <v/>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="3">
         <f>AVERAGE(E22:E51)</f>
         <v/>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="3">
         <f>G51-H51</f>
         <v/>
       </c>
@@ -2954,26 +2960,26 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10915.32</v>
+        <v>10559.44</v>
       </c>
       <c r="C52" t="n">
-        <v>10934.75</v>
+        <v>10609.5</v>
       </c>
       <c r="D52" t="n">
-        <v>10819.25</v>
+        <v>10512.93</v>
       </c>
       <c r="E52" t="n">
-        <v>10831.09</v>
-      </c>
-      <c r="G52" s="1">
+        <v>10528.52</v>
+      </c>
+      <c r="G52" s="3">
         <f>AVERAGE(E48:E52)</f>
         <v/>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="3">
         <f>AVERAGE(E23:E52)</f>
         <v/>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="3">
         <f>G52-H52</f>
         <v/>
       </c>
@@ -2983,26 +2989,26 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10824.54</v>
+        <v>10371.01</v>
       </c>
       <c r="C53" t="n">
-        <v>10844.08</v>
+        <v>10392.31</v>
       </c>
       <c r="D53" t="n">
-        <v>10770.1</v>
+        <v>10189.04</v>
       </c>
       <c r="E53" t="n">
-        <v>10810.06</v>
-      </c>
-      <c r="G53" s="1">
+        <v>10371.75</v>
+      </c>
+      <c r="G53" s="3">
         <f>AVERAGE(E49:E53)</f>
         <v/>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="3">
         <f>AVERAGE(E24:E53)</f>
         <v/>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="3">
         <f>G53-H53</f>
         <v/>
       </c>
@@ -3012,26 +3018,26 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10818.24</v>
+        <v>10429.09</v>
       </c>
       <c r="C54" t="n">
-        <v>10899.98</v>
+        <v>10473.51</v>
       </c>
       <c r="D54" t="n">
-        <v>10818.24</v>
+        <v>10416.01</v>
       </c>
       <c r="E54" t="n">
-        <v>10883.96</v>
-      </c>
-      <c r="G54" s="1">
+        <v>10421.09</v>
+      </c>
+      <c r="G54" s="3">
         <f>AVERAGE(E50:E54)</f>
         <v/>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="3">
         <f>AVERAGE(E25:E54)</f>
         <v/>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="3">
         <f>G54-H54</f>
         <v/>
       </c>
@@ -3041,26 +3047,26 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10932.37</v>
+        <v>10559.79</v>
       </c>
       <c r="C55" t="n">
-        <v>10962.55</v>
+        <v>10720.48</v>
       </c>
       <c r="D55" t="n">
-        <v>10911.89</v>
+        <v>10559.79</v>
       </c>
       <c r="E55" t="n">
-        <v>10956.31</v>
-      </c>
-      <c r="G55" s="1">
+        <v>10714.44</v>
+      </c>
+      <c r="G55" s="3">
         <f>AVERAGE(E51:E55)</f>
         <v/>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="3">
         <f>AVERAGE(E26:E55)</f>
         <v/>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="3">
         <f>G55-H55</f>
         <v/>
       </c>
@@ -3070,26 +3076,26 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10955.81</v>
+        <v>10698.47</v>
       </c>
       <c r="C56" t="n">
-        <v>10986.11</v>
+        <v>10698.47</v>
       </c>
       <c r="D56" t="n">
-        <v>10920.5</v>
+        <v>10620.8</v>
       </c>
       <c r="E56" t="n">
-        <v>10986.11</v>
-      </c>
-      <c r="G56" s="1">
+        <v>10662.38</v>
+      </c>
+      <c r="G56" s="3">
         <f>AVERAGE(E52:E56)</f>
         <v/>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="3">
         <f>AVERAGE(E27:E56)</f>
         <v/>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="3">
         <f>G56-H56</f>
         <v/>
       </c>
@@ -3099,26 +3105,26 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10976.13</v>
+        <v>10688.97</v>
       </c>
       <c r="C57" t="n">
-        <v>11030.22</v>
+        <v>10799.29</v>
       </c>
       <c r="D57" t="n">
-        <v>10942.95</v>
+        <v>10688.97</v>
       </c>
       <c r="E57" t="n">
-        <v>11004.8</v>
-      </c>
-      <c r="G57" s="1">
+        <v>10794.55</v>
+      </c>
+      <c r="G57" s="3">
         <f>AVERAGE(E53:E57)</f>
         <v/>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="3">
         <f>AVERAGE(E28:E57)</f>
         <v/>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="3">
         <f>G57-H57</f>
         <v/>
       </c>
@@ -3128,26 +3134,26 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>11048.06</v>
+        <v>10827.98</v>
       </c>
       <c r="C58" t="n">
-        <v>11122.82</v>
+        <v>10890.69</v>
       </c>
       <c r="D58" t="n">
-        <v>11048.06</v>
+        <v>10827.98</v>
       </c>
       <c r="E58" t="n">
-        <v>11071.57</v>
-      </c>
-      <c r="G58" s="1">
+        <v>10836.7</v>
+      </c>
+      <c r="G58" s="3">
         <f>AVERAGE(E54:E58)</f>
         <v/>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="3">
         <f>AVERAGE(E29:E58)</f>
         <v/>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="3">
         <f>G58-H58</f>
         <v/>
       </c>
@@ -3157,26 +3163,26 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>11123.58</v>
+        <v>10896.16</v>
       </c>
       <c r="C59" t="n">
-        <v>11150.85</v>
+        <v>10937.9</v>
       </c>
       <c r="D59" t="n">
-        <v>11095.85</v>
+        <v>10815.47</v>
       </c>
       <c r="E59" t="n">
-        <v>11150.85</v>
-      </c>
-      <c r="G59" s="1">
+        <v>10815.47</v>
+      </c>
+      <c r="G59" s="3">
         <f>AVERAGE(E55:E59)</f>
         <v/>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="3">
         <f>AVERAGE(E30:E59)</f>
         <v/>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="3">
         <f>G59-H59</f>
         <v/>
       </c>
@@ -3186,26 +3192,26 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>11169.79</v>
+        <v>10779.1</v>
       </c>
       <c r="C60" t="n">
-        <v>11231.46</v>
+        <v>10805.55</v>
       </c>
       <c r="D60" t="n">
-        <v>11142.38</v>
+        <v>10709.69</v>
       </c>
       <c r="E60" t="n">
-        <v>11231.46</v>
-      </c>
-      <c r="G60" s="1">
+        <v>10785.79</v>
+      </c>
+      <c r="G60" s="3">
         <f>AVERAGE(E56:E60)</f>
         <v/>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="3">
         <f>AVERAGE(E31:E60)</f>
         <v/>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="3">
         <f>G60-H60</f>
         <v/>
       </c>
@@ -3215,26 +3221,26 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>11243.49</v>
+        <v>10719.29</v>
       </c>
       <c r="C61" t="n">
-        <v>11270.18</v>
+        <v>10719.29</v>
       </c>
       <c r="D61" t="n">
-        <v>11201.52</v>
+        <v>10638.98</v>
       </c>
       <c r="E61" t="n">
-        <v>11253.11</v>
-      </c>
-      <c r="G61" s="1">
+        <v>10698.17</v>
+      </c>
+      <c r="G61" s="3">
         <f>AVERAGE(E57:E61)</f>
         <v/>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="3">
         <f>AVERAGE(E32:E61)</f>
         <v/>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="3">
         <f>G61-H61</f>
         <v/>
       </c>
@@ -3244,26 +3250,26 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>11228.71</v>
+        <v>10727.45</v>
       </c>
       <c r="C62" t="n">
-        <v>11228.71</v>
+        <v>10756.37</v>
       </c>
       <c r="D62" t="n">
-        <v>11107.32</v>
+        <v>10642.9</v>
       </c>
       <c r="E62" t="n">
-        <v>11152.16</v>
-      </c>
-      <c r="G62" s="1">
+        <v>10642.9</v>
+      </c>
+      <c r="G62" s="3">
         <f>AVERAGE(E58:E62)</f>
         <v/>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="3">
         <f>AVERAGE(E33:E62)</f>
         <v/>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="3">
         <f>G62-H62</f>
         <v/>
       </c>
@@ -3273,26 +3279,26 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>11154.36</v>
+        <v>10711.15</v>
       </c>
       <c r="C63" t="n">
-        <v>11268.61</v>
+        <v>10784.34</v>
       </c>
       <c r="D63" t="n">
-        <v>11131.85</v>
+        <v>10711.15</v>
       </c>
       <c r="E63" t="n">
-        <v>11165.95</v>
-      </c>
-      <c r="G63" s="1">
+        <v>10784.34</v>
+      </c>
+      <c r="G63" s="3">
         <f>AVERAGE(E59:E63)</f>
         <v/>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="3">
         <f>AVERAGE(E34:E63)</f>
         <v/>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="3">
         <f>G63-H63</f>
         <v/>
       </c>
@@ -3302,26 +3308,26 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>11152.53</v>
+        <v>10762.99</v>
       </c>
       <c r="C64" t="n">
-        <v>11178.3</v>
+        <v>10818.05</v>
       </c>
       <c r="D64" t="n">
-        <v>11089.48</v>
+        <v>10745.32</v>
       </c>
       <c r="E64" t="n">
-        <v>11147.1</v>
-      </c>
-      <c r="G64" s="1">
+        <v>10745.32</v>
+      </c>
+      <c r="G64" s="3">
         <f>AVERAGE(E60:E64)</f>
         <v/>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="3">
         <f>AVERAGE(E35:E64)</f>
         <v/>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="3">
         <f>G64-H64</f>
         <v/>
       </c>
@@ -3331,26 +3337,26 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>11202.27</v>
+        <v>10788.43</v>
       </c>
       <c r="C65" t="n">
-        <v>11246.18</v>
+        <v>10852.33</v>
       </c>
       <c r="D65" t="n">
-        <v>11161.83</v>
+        <v>10788.43</v>
       </c>
       <c r="E65" t="n">
-        <v>11221.81</v>
-      </c>
-      <c r="G65" s="1">
+        <v>10823.24</v>
+      </c>
+      <c r="G65" s="3">
         <f>AVERAGE(E61:E65)</f>
         <v/>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="3">
         <f>AVERAGE(E36:E65)</f>
         <v/>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="3">
         <f>G65-H65</f>
         <v/>
       </c>
@@ -3360,26 +3366,26 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>11189.57</v>
+        <v>10847.74</v>
       </c>
       <c r="C66" t="n">
-        <v>11189.57</v>
+        <v>10882.76</v>
       </c>
       <c r="D66" t="n">
-        <v>11076.78</v>
+        <v>10845.38</v>
       </c>
       <c r="E66" t="n">
-        <v>11076.78</v>
-      </c>
-      <c r="G66" s="1">
+        <v>10864.82</v>
+      </c>
+      <c r="G66" s="3">
         <f>AVERAGE(E62:E66)</f>
         <v/>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="3">
         <f>AVERAGE(E37:E66)</f>
         <v/>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="3">
         <f>G66-H66</f>
         <v/>
       </c>
@@ -3389,26 +3395,26 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>11054.36</v>
+        <v>10908.99</v>
       </c>
       <c r="C67" t="n">
-        <v>11158.29</v>
+        <v>11016.56</v>
       </c>
       <c r="D67" t="n">
-        <v>11007.89</v>
+        <v>10908.99</v>
       </c>
       <c r="E67" t="n">
-        <v>11103.79</v>
-      </c>
-      <c r="G67" s="1">
+        <v>11002.1</v>
+      </c>
+      <c r="G67" s="3">
         <f>AVERAGE(E63:E67)</f>
         <v/>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="3">
         <f>AVERAGE(E38:E67)</f>
         <v/>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="3">
         <f>G67-H67</f>
         <v/>
       </c>
@@ -3418,26 +3424,26 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>11139.4</v>
+        <v>11022.15</v>
       </c>
       <c r="C68" t="n">
-        <v>11212.1</v>
+        <v>11095.63</v>
       </c>
       <c r="D68" t="n">
-        <v>11139.4</v>
+        <v>11014.87</v>
       </c>
       <c r="E68" t="n">
-        <v>11160.25</v>
-      </c>
-      <c r="G68" s="1">
+        <v>11095.63</v>
+      </c>
+      <c r="G68" s="3">
         <f>AVERAGE(E64:E68)</f>
         <v/>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="3">
         <f>AVERAGE(E39:E68)</f>
         <v/>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="3">
         <f>G68-H68</f>
         <v/>
       </c>
@@ -3447,26 +3453,26 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>11151.65</v>
+        <v>11063.73</v>
       </c>
       <c r="C69" t="n">
-        <v>11153.32</v>
+        <v>11070.29</v>
       </c>
       <c r="D69" t="n">
-        <v>11070.43</v>
+        <v>11015.47</v>
       </c>
       <c r="E69" t="n">
-        <v>11126.23</v>
-      </c>
-      <c r="G69" s="1">
+        <v>11038.8</v>
+      </c>
+      <c r="G69" s="3">
         <f>AVERAGE(E65:E69)</f>
         <v/>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="3">
         <f>AVERAGE(E40:E69)</f>
         <v/>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="3">
         <f>G69-H69</f>
         <v/>
       </c>
@@ -3476,26 +3482,26 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>10970.3</v>
+        <v>11039.6</v>
       </c>
       <c r="C70" t="n">
-        <v>10970.3</v>
+        <v>11052.11</v>
       </c>
       <c r="D70" t="n">
-        <v>10855.43</v>
+        <v>11008.18</v>
       </c>
       <c r="E70" t="n">
-        <v>10946.25</v>
-      </c>
-      <c r="G70" s="1">
+        <v>11018.45</v>
+      </c>
+      <c r="G70" s="3">
         <f>AVERAGE(E66:E70)</f>
         <v/>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="3">
         <f>AVERAGE(E41:E70)</f>
         <v/>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="3">
         <f>G70-H70</f>
         <v/>
       </c>
@@ -3505,26 +3511,26 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>10761.01</v>
+        <v>11010.24</v>
       </c>
       <c r="C71" t="n">
-        <v>10761.01</v>
+        <v>11054.86</v>
       </c>
       <c r="D71" t="n">
-        <v>10300.4</v>
+        <v>10933.46</v>
       </c>
       <c r="E71" t="n">
-        <v>10404</v>
-      </c>
-      <c r="G71" s="1">
+        <v>11027.7</v>
+      </c>
+      <c r="G71" s="3">
         <f>AVERAGE(E67:E71)</f>
         <v/>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="3">
         <f>AVERAGE(E42:E71)</f>
         <v/>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="3">
         <f>G71-H71</f>
         <v/>
       </c>
@@ -3534,26 +3540,26 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>10547.64</v>
+        <v>11004.81</v>
       </c>
       <c r="C72" t="n">
-        <v>10697.82</v>
+        <v>11066</v>
       </c>
       <c r="D72" t="n">
-        <v>10547.64</v>
+        <v>10983.25</v>
       </c>
       <c r="E72" t="n">
-        <v>10551.54</v>
-      </c>
-      <c r="G72" s="1">
+        <v>11046.9</v>
+      </c>
+      <c r="G72" s="3">
         <f>AVERAGE(E68:E72)</f>
         <v/>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="3">
         <f>AVERAGE(E43:E72)</f>
         <v/>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="3">
         <f>G72-H72</f>
         <v/>
       </c>
@@ -3563,26 +3569,26 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>10559.44</v>
+        <v>11016.85</v>
       </c>
       <c r="C73" t="n">
-        <v>10609.5</v>
+        <v>11020.78</v>
       </c>
       <c r="D73" t="n">
-        <v>10512.93</v>
+        <v>10981.04</v>
       </c>
       <c r="E73" t="n">
-        <v>10528.52</v>
-      </c>
-      <c r="G73" s="1">
+        <v>11010.84</v>
+      </c>
+      <c r="G73" s="3">
         <f>AVERAGE(E69:E73)</f>
         <v/>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="3">
         <f>AVERAGE(E44:E73)</f>
         <v/>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="3">
         <f>G73-H73</f>
         <v/>
       </c>
@@ -3592,26 +3598,26 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10371.01</v>
+        <v>11037.35</v>
       </c>
       <c r="C74" t="n">
-        <v>10392.31</v>
+        <v>11072.31</v>
       </c>
       <c r="D74" t="n">
-        <v>10189.04</v>
+        <v>11011.07</v>
       </c>
       <c r="E74" t="n">
-        <v>10371.75</v>
-      </c>
-      <c r="G74" s="1">
+        <v>11011.07</v>
+      </c>
+      <c r="G74" s="3">
         <f>AVERAGE(E70:E74)</f>
         <v/>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="3">
         <f>AVERAGE(E45:E74)</f>
         <v/>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="3">
         <f>G74-H74</f>
         <v/>
       </c>
@@ -3621,26 +3627,26 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10429.09</v>
+        <v>11045.9</v>
       </c>
       <c r="C75" t="n">
-        <v>10473.51</v>
+        <v>11120.2</v>
       </c>
       <c r="D75" t="n">
-        <v>10416.01</v>
+        <v>10975.33</v>
       </c>
       <c r="E75" t="n">
-        <v>10421.09</v>
-      </c>
-      <c r="G75" s="1">
+        <v>11005.84</v>
+      </c>
+      <c r="G75" s="3">
         <f>AVERAGE(E71:E75)</f>
         <v/>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="3">
         <f>AVERAGE(E46:E75)</f>
         <v/>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="3">
         <f>G75-H75</f>
         <v/>
       </c>
@@ -3650,26 +3656,26 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10559.79</v>
+        <v>10863.67</v>
       </c>
       <c r="C76" t="n">
-        <v>10720.48</v>
+        <v>10863.67</v>
       </c>
       <c r="D76" t="n">
-        <v>10559.79</v>
+        <v>10758.06</v>
       </c>
       <c r="E76" t="n">
-        <v>10714.44</v>
-      </c>
-      <c r="G76" s="1">
+        <v>10823.33</v>
+      </c>
+      <c r="G76" s="3">
         <f>AVERAGE(E72:E76)</f>
         <v/>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="3">
         <f>AVERAGE(E47:E76)</f>
         <v/>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="3">
         <f>G76-H76</f>
         <v/>
       </c>
@@ -3679,26 +3685,26 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10698.47</v>
+        <v>10783.57</v>
       </c>
       <c r="C77" t="n">
-        <v>10698.47</v>
+        <v>10840.05</v>
       </c>
       <c r="D77" t="n">
-        <v>10620.8</v>
+        <v>10781.43</v>
       </c>
       <c r="E77" t="n">
-        <v>10662.38</v>
-      </c>
-      <c r="G77" s="1">
+        <v>10840.05</v>
+      </c>
+      <c r="G77" s="3">
         <f>AVERAGE(E73:E77)</f>
         <v/>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="3">
         <f>AVERAGE(E48:E77)</f>
         <v/>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="3">
         <f>G77-H77</f>
         <v/>
       </c>
@@ -3708,26 +3714,26 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10688.97</v>
+        <v>10901.69</v>
       </c>
       <c r="C78" t="n">
-        <v>10799.29</v>
+        <v>10986.79</v>
       </c>
       <c r="D78" t="n">
-        <v>10688.97</v>
+        <v>10901.69</v>
       </c>
       <c r="E78" t="n">
-        <v>10794.55</v>
-      </c>
-      <c r="G78" s="1">
+        <v>10986.79</v>
+      </c>
+      <c r="G78" s="3">
         <f>AVERAGE(E74:E78)</f>
         <v/>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="3">
         <f>AVERAGE(E49:E78)</f>
         <v/>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="3">
         <f>G78-H78</f>
         <v/>
       </c>
@@ -3737,26 +3743,26 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10827.98</v>
+        <v>10939.97</v>
       </c>
       <c r="C79" t="n">
-        <v>10890.69</v>
+        <v>10939.97</v>
       </c>
       <c r="D79" t="n">
-        <v>10827.98</v>
+        <v>10853.48</v>
       </c>
       <c r="E79" t="n">
-        <v>10836.7</v>
-      </c>
-      <c r="G79" s="1">
+        <v>10865.66</v>
+      </c>
+      <c r="G79" s="3">
         <f>AVERAGE(E75:E79)</f>
         <v/>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="3">
         <f>AVERAGE(E50:E79)</f>
         <v/>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="3">
         <f>G79-H79</f>
         <v/>
       </c>
@@ -3766,26 +3772,26 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>10896.16</v>
+        <v>10855.66</v>
       </c>
       <c r="C80" t="n">
-        <v>10937.9</v>
+        <v>10889.6</v>
       </c>
       <c r="D80" t="n">
-        <v>10815.47</v>
+        <v>10815.46</v>
       </c>
       <c r="E80" t="n">
-        <v>10815.47</v>
-      </c>
-      <c r="G80" s="1">
+        <v>10845.92</v>
+      </c>
+      <c r="G80" s="3">
         <f>AVERAGE(E76:E80)</f>
         <v/>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="3">
         <f>AVERAGE(E51:E80)</f>
         <v/>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="3">
         <f>G80-H80</f>
         <v/>
       </c>
@@ -3795,26 +3801,26 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10779.1</v>
+        <v>10905.3</v>
       </c>
       <c r="C81" t="n">
-        <v>10805.55</v>
+        <v>10969.22</v>
       </c>
       <c r="D81" t="n">
-        <v>10709.69</v>
+        <v>10905.3</v>
       </c>
       <c r="E81" t="n">
-        <v>10785.79</v>
-      </c>
-      <c r="G81" s="1">
+        <v>10906.22</v>
+      </c>
+      <c r="G81" s="3">
         <f>AVERAGE(E77:E81)</f>
         <v/>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="3">
         <f>AVERAGE(E52:E81)</f>
         <v/>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="3">
         <f>G81-H81</f>
         <v/>
       </c>
@@ -3824,26 +3830,26 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10719.29</v>
+        <v>10925.71</v>
       </c>
       <c r="C82" t="n">
-        <v>10719.29</v>
+        <v>10947.16</v>
       </c>
       <c r="D82" t="n">
-        <v>10638.98</v>
+        <v>10905.69</v>
       </c>
       <c r="E82" t="n">
-        <v>10698.17</v>
-      </c>
-      <c r="G82" s="1">
+        <v>10919.49</v>
+      </c>
+      <c r="G82" s="3">
         <f>AVERAGE(E78:E82)</f>
         <v/>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="3">
         <f>AVERAGE(E53:E82)</f>
         <v/>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="3">
         <f>G82-H82</f>
         <v/>
       </c>
@@ -3853,26 +3859,26 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10727.45</v>
+        <v>10936.26</v>
       </c>
       <c r="C83" t="n">
-        <v>10756.37</v>
+        <v>10969.88</v>
       </c>
       <c r="D83" t="n">
-        <v>10642.9</v>
+        <v>10882.05</v>
       </c>
       <c r="E83" t="n">
-        <v>10642.9</v>
-      </c>
-      <c r="G83" s="1">
+        <v>10888.27</v>
+      </c>
+      <c r="G83" s="3">
         <f>AVERAGE(E79:E83)</f>
         <v/>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="3">
         <f>AVERAGE(E54:E83)</f>
         <v/>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="3">
         <f>G83-H83</f>
         <v/>
       </c>
@@ -3882,26 +3888,26 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10711.15</v>
+        <v>10837.54</v>
       </c>
       <c r="C84" t="n">
-        <v>10784.34</v>
+        <v>10837.54</v>
       </c>
       <c r="D84" t="n">
-        <v>10711.15</v>
+        <v>10775.45</v>
       </c>
       <c r="E84" t="n">
-        <v>10784.34</v>
-      </c>
-      <c r="G84" s="1">
+        <v>10821.53</v>
+      </c>
+      <c r="G84" s="3">
         <f>AVERAGE(E80:E84)</f>
         <v/>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="3">
         <f>AVERAGE(E55:E84)</f>
         <v/>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="3">
         <f>G84-H84</f>
         <v/>
       </c>
@@ -3911,26 +3917,26 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10762.99</v>
+        <v>10880.14</v>
       </c>
       <c r="C85" t="n">
-        <v>10818.05</v>
+        <v>10904.75</v>
       </c>
       <c r="D85" t="n">
-        <v>10745.32</v>
+        <v>10829.02</v>
       </c>
       <c r="E85" t="n">
-        <v>10745.32</v>
-      </c>
-      <c r="G85" s="1">
+        <v>10893.53</v>
+      </c>
+      <c r="G85" s="3">
         <f>AVERAGE(E81:E85)</f>
         <v/>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="3">
         <f>AVERAGE(E56:E85)</f>
         <v/>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="3">
         <f>G85-H85</f>
         <v/>
       </c>
@@ -3940,26 +3946,26 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10788.43</v>
+        <v>10885.64</v>
       </c>
       <c r="C86" t="n">
-        <v>10852.33</v>
+        <v>10975.67</v>
       </c>
       <c r="D86" t="n">
-        <v>10788.43</v>
+        <v>10874.83</v>
       </c>
       <c r="E86" t="n">
-        <v>10823.24</v>
-      </c>
-      <c r="G86" s="1">
+        <v>10927.18</v>
+      </c>
+      <c r="G86" s="3">
         <f>AVERAGE(E82:E86)</f>
         <v/>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="3">
         <f>AVERAGE(E57:E86)</f>
         <v/>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="3">
         <f>G86-H86</f>
         <v/>
       </c>
@@ -3969,26 +3975,26 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10847.74</v>
+        <v>10961.7</v>
       </c>
       <c r="C87" t="n">
-        <v>10882.76</v>
+        <v>11016.35</v>
       </c>
       <c r="D87" t="n">
-        <v>10845.38</v>
+        <v>10953.31</v>
       </c>
       <c r="E87" t="n">
-        <v>10864.82</v>
-      </c>
-      <c r="G87" s="1">
+        <v>10974.02</v>
+      </c>
+      <c r="G87" s="3">
         <f>AVERAGE(E83:E87)</f>
         <v/>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="3">
         <f>AVERAGE(E58:E87)</f>
         <v/>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="3">
         <f>G87-H87</f>
         <v/>
       </c>
@@ -3998,26 +4004,26 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10908.99</v>
+        <v>10984.12</v>
       </c>
       <c r="C88" t="n">
-        <v>11016.56</v>
+        <v>11008.2</v>
       </c>
       <c r="D88" t="n">
-        <v>10908.99</v>
+        <v>10920.62</v>
       </c>
       <c r="E88" t="n">
-        <v>11002.1</v>
-      </c>
-      <c r="G88" s="1">
+        <v>10955.29</v>
+      </c>
+      <c r="G88" s="3">
         <f>AVERAGE(E84:E88)</f>
         <v/>
       </c>
-      <c r="H88" s="1">
+      <c r="H88" s="3">
         <f>AVERAGE(E59:E88)</f>
         <v/>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="3">
         <f>G88-H88</f>
         <v/>
       </c>
@@ -4027,26 +4033,26 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>11022.15</v>
+        <v>10975.58</v>
       </c>
       <c r="C89" t="n">
-        <v>11095.63</v>
+        <v>10988.23</v>
       </c>
       <c r="D89" t="n">
-        <v>11014.87</v>
+        <v>10938.37</v>
       </c>
       <c r="E89" t="n">
-        <v>11095.63</v>
-      </c>
-      <c r="G89" s="1">
+        <v>10965.39</v>
+      </c>
+      <c r="G89" s="3">
         <f>AVERAGE(E85:E89)</f>
         <v/>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="3">
         <f>AVERAGE(E60:E89)</f>
         <v/>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="3">
         <f>G89-H89</f>
         <v/>
       </c>
@@ -4056,26 +4062,26 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>11063.73</v>
+        <v>10962.36</v>
       </c>
       <c r="C90" t="n">
-        <v>11070.29</v>
+        <v>10974.94</v>
       </c>
       <c r="D90" t="n">
-        <v>11015.47</v>
+        <v>10921.17</v>
       </c>
       <c r="E90" t="n">
-        <v>11038.8</v>
-      </c>
-      <c r="G90" s="1">
+        <v>10954.55</v>
+      </c>
+      <c r="G90" s="3">
         <f>AVERAGE(E86:E90)</f>
         <v/>
       </c>
-      <c r="H90" s="1">
+      <c r="H90" s="3">
         <f>AVERAGE(E61:E90)</f>
         <v/>
       </c>
-      <c r="I90" s="1">
+      <c r="I90" s="3">
         <f>G90-H90</f>
         <v/>
       </c>
@@ -4085,26 +4091,26 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>11039.6</v>
+        <v>10953.51</v>
       </c>
       <c r="C91" t="n">
-        <v>11052.11</v>
+        <v>10965.2</v>
       </c>
       <c r="D91" t="n">
-        <v>11008.18</v>
+        <v>10799.07</v>
       </c>
       <c r="E91" t="n">
-        <v>11018.45</v>
-      </c>
-      <c r="G91" s="1">
+        <v>10810.45</v>
+      </c>
+      <c r="G91" s="3">
         <f>AVERAGE(E87:E91)</f>
         <v/>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="3">
         <f>AVERAGE(E62:E91)</f>
         <v/>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="3">
         <f>G91-H91</f>
         <v/>
       </c>
@@ -4114,26 +4120,26 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>11010.24</v>
+        <v>10842.88</v>
       </c>
       <c r="C92" t="n">
-        <v>11054.86</v>
+        <v>10917.6</v>
       </c>
       <c r="D92" t="n">
-        <v>10933.46</v>
+        <v>10809.89</v>
       </c>
       <c r="E92" t="n">
-        <v>11027.7</v>
-      </c>
-      <c r="G92" s="1">
+        <v>10847.89</v>
+      </c>
+      <c r="G92" s="3">
         <f>AVERAGE(E88:E92)</f>
         <v/>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="3">
         <f>AVERAGE(E63:E92)</f>
         <v/>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="3">
         <f>G92-H92</f>
         <v/>
       </c>
@@ -4143,26 +4149,26 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>11004.81</v>
+        <v>10891.66</v>
       </c>
       <c r="C93" t="n">
-        <v>11066</v>
+        <v>10983.96</v>
       </c>
       <c r="D93" t="n">
-        <v>10983.25</v>
+        <v>10889.71</v>
       </c>
       <c r="E93" t="n">
-        <v>11046.9</v>
-      </c>
-      <c r="G93" s="1">
+        <v>10971.22</v>
+      </c>
+      <c r="G93" s="3">
         <f>AVERAGE(E89:E93)</f>
         <v/>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="3">
         <f>AVERAGE(E64:E93)</f>
         <v/>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="3">
         <f>G93-H93</f>
         <v/>
       </c>
@@ -4172,26 +4178,26 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>11016.85</v>
+        <v>10802.42</v>
       </c>
       <c r="C94" t="n">
-        <v>11020.78</v>
+        <v>10831.56</v>
       </c>
       <c r="D94" t="n">
-        <v>10981.04</v>
+        <v>10770.05</v>
       </c>
       <c r="E94" t="n">
-        <v>11010.84</v>
-      </c>
-      <c r="G94" s="1">
+        <v>10779.38</v>
+      </c>
+      <c r="G94" s="3">
         <f>AVERAGE(E90:E94)</f>
         <v/>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="3">
         <f>AVERAGE(E65:E94)</f>
         <v/>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="3">
         <f>G94-H94</f>
         <v/>
       </c>
@@ -4201,26 +4207,26 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>11037.35</v>
+        <v>10756.89</v>
       </c>
       <c r="C95" t="n">
-        <v>11072.31</v>
+        <v>10774.73</v>
       </c>
       <c r="D95" t="n">
-        <v>11011.07</v>
+        <v>10687.25</v>
       </c>
       <c r="E95" t="n">
-        <v>11011.07</v>
-      </c>
-      <c r="G95" s="1">
+        <v>10697.13</v>
+      </c>
+      <c r="G95" s="3">
         <f>AVERAGE(E91:E95)</f>
         <v/>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="3">
         <f>AVERAGE(E66:E95)</f>
         <v/>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="3">
         <f>G95-H95</f>
         <v/>
       </c>
@@ -4230,26 +4236,26 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>11045.9</v>
+        <v>10680.38</v>
       </c>
       <c r="C96" t="n">
-        <v>11120.2</v>
+        <v>10692.19</v>
       </c>
       <c r="D96" t="n">
-        <v>10975.33</v>
+        <v>10540.15</v>
       </c>
       <c r="E96" t="n">
-        <v>11005.84</v>
-      </c>
-      <c r="G96" s="1">
+        <v>10579.5</v>
+      </c>
+      <c r="G96" s="3">
         <f>AVERAGE(E92:E96)</f>
         <v/>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="3">
         <f>AVERAGE(E67:E96)</f>
         <v/>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="3">
         <f>G96-H96</f>
         <v/>
       </c>
@@ -4259,26 +4265,26 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10863.67</v>
+        <v>10541.83</v>
       </c>
       <c r="C97" t="n">
-        <v>10863.67</v>
+        <v>10573.73</v>
       </c>
       <c r="D97" t="n">
-        <v>10758.06</v>
+        <v>10489.2</v>
       </c>
       <c r="E97" t="n">
-        <v>10823.33</v>
-      </c>
-      <c r="G97" s="1">
+        <v>10559.97</v>
+      </c>
+      <c r="G97" s="3">
         <f>AVERAGE(E93:E97)</f>
         <v/>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="3">
         <f>AVERAGE(E68:E97)</f>
         <v/>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="3">
         <f>G97-H97</f>
         <v/>
       </c>
@@ -4288,26 +4294,26 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10783.57</v>
+        <v>10583.08</v>
       </c>
       <c r="C98" t="n">
-        <v>10840.05</v>
+        <v>10618.68</v>
       </c>
       <c r="D98" t="n">
-        <v>10781.43</v>
+        <v>10478.98</v>
       </c>
       <c r="E98" t="n">
-        <v>10840.05</v>
-      </c>
-      <c r="G98" s="1">
+        <v>10488.58</v>
+      </c>
+      <c r="G98" s="3">
         <f>AVERAGE(E94:E98)</f>
         <v/>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="3">
         <f>AVERAGE(E69:E98)</f>
         <v/>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="3">
         <f>G98-H98</f>
         <v/>
       </c>
@@ -4317,26 +4323,26 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10901.69</v>
+        <v>10546.29</v>
       </c>
       <c r="C99" t="n">
-        <v>10986.79</v>
+        <v>10573.61</v>
       </c>
       <c r="D99" t="n">
-        <v>10901.69</v>
+        <v>10495.67</v>
       </c>
       <c r="E99" t="n">
-        <v>10986.79</v>
-      </c>
-      <c r="G99" s="1">
+        <v>10553.43</v>
+      </c>
+      <c r="G99" s="3">
         <f>AVERAGE(E95:E99)</f>
         <v/>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="3">
         <f>AVERAGE(E70:E99)</f>
         <v/>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="3">
         <f>G99-H99</f>
         <v/>
       </c>
@@ -4346,26 +4352,26 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10939.97</v>
+        <v>10553.41</v>
       </c>
       <c r="C100" t="n">
-        <v>10939.97</v>
+        <v>10660.61</v>
       </c>
       <c r="D100" t="n">
-        <v>10853.48</v>
+        <v>10539.63</v>
       </c>
       <c r="E100" t="n">
-        <v>10865.66</v>
-      </c>
-      <c r="G100" s="1">
+        <v>10657.88</v>
+      </c>
+      <c r="G100" s="3">
         <f>AVERAGE(E96:E100)</f>
         <v/>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="3">
         <f>AVERAGE(E71:E100)</f>
         <v/>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="3">
         <f>G100-H100</f>
         <v/>
       </c>
@@ -4375,26 +4381,26 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10855.66</v>
+        <v>10665.52</v>
       </c>
       <c r="C101" t="n">
-        <v>10889.6</v>
+        <v>10683.9</v>
       </c>
       <c r="D101" t="n">
-        <v>10815.46</v>
+        <v>10601.1</v>
       </c>
       <c r="E101" t="n">
-        <v>10845.92</v>
-      </c>
-      <c r="G101" s="1">
+        <v>10618.81</v>
+      </c>
+      <c r="G101" s="3">
         <f>AVERAGE(E97:E101)</f>
         <v/>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="3">
         <f>AVERAGE(E72:E101)</f>
         <v/>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="3">
         <f>G101-H101</f>
         <v/>
       </c>
@@ -4404,26 +4410,26 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10905.3</v>
+        <v>10578.98</v>
       </c>
       <c r="C102" t="n">
-        <v>10969.22</v>
+        <v>10578.98</v>
       </c>
       <c r="D102" t="n">
-        <v>10905.3</v>
+        <v>10509.03</v>
       </c>
       <c r="E102" t="n">
-        <v>10906.22</v>
-      </c>
-      <c r="G102" s="1">
+        <v>10514.18</v>
+      </c>
+      <c r="G102" s="3">
         <f>AVERAGE(E98:E102)</f>
         <v/>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="3">
         <f>AVERAGE(E73:E102)</f>
         <v/>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="3">
         <f>G102-H102</f>
         <v/>
       </c>
@@ -4433,26 +4439,26 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>10925.71</v>
+        <v>10516.45</v>
       </c>
       <c r="C103" t="n">
-        <v>10947.16</v>
+        <v>10566.37</v>
       </c>
       <c r="D103" t="n">
-        <v>10905.69</v>
+        <v>10500.97</v>
       </c>
       <c r="E103" t="n">
-        <v>10919.49</v>
-      </c>
-      <c r="G103" s="1">
+        <v>10529.37</v>
+      </c>
+      <c r="G103" s="3">
         <f>AVERAGE(E99:E103)</f>
         <v/>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="3">
         <f>AVERAGE(E74:E103)</f>
         <v/>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="3">
         <f>G103-H103</f>
         <v/>
       </c>
@@ -4462,26 +4468,26 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>10936.26</v>
+        <v>10581.78</v>
       </c>
       <c r="C104" t="n">
-        <v>10969.88</v>
+        <v>10632.62</v>
       </c>
       <c r="D104" t="n">
-        <v>10882.05</v>
+        <v>10555.56</v>
       </c>
       <c r="E104" t="n">
-        <v>10888.27</v>
-      </c>
-      <c r="G104" s="1">
+        <v>10604.91</v>
+      </c>
+      <c r="G104" s="3">
         <f>AVERAGE(E100:E104)</f>
         <v/>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="3">
         <f>AVERAGE(E75:E104)</f>
         <v/>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="3">
         <f>G104-H104</f>
         <v/>
       </c>
@@ -4491,26 +4497,26 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>10837.54</v>
+        <v>10610.44</v>
       </c>
       <c r="C105" t="n">
-        <v>10837.54</v>
+        <v>10691.38</v>
       </c>
       <c r="D105" t="n">
-        <v>10775.45</v>
+        <v>10609.04</v>
       </c>
       <c r="E105" t="n">
-        <v>10821.53</v>
-      </c>
-      <c r="G105" s="1">
+        <v>10691.38</v>
+      </c>
+      <c r="G105" s="3">
         <f>AVERAGE(E101:E105)</f>
         <v/>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="3">
         <f>AVERAGE(E76:E105)</f>
         <v/>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="3">
         <f>G105-H105</f>
         <v/>
       </c>
@@ -4520,26 +4526,26 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>10880.14</v>
+        <v>10692.89</v>
       </c>
       <c r="C106" t="n">
-        <v>10904.75</v>
+        <v>10748.6</v>
       </c>
       <c r="D106" t="n">
-        <v>10829.02</v>
+        <v>10689.81</v>
       </c>
       <c r="E106" t="n">
-        <v>10893.53</v>
-      </c>
-      <c r="G106" s="1">
+        <v>10703.35</v>
+      </c>
+      <c r="G106" s="3">
         <f>AVERAGE(E102:E106)</f>
         <v/>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="3">
         <f>AVERAGE(E77:E106)</f>
         <v/>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="3">
         <f>G106-H106</f>
         <v/>
       </c>
@@ -4549,26 +4555,26 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>10885.64</v>
+        <v>10731.68</v>
       </c>
       <c r="C107" t="n">
-        <v>10975.67</v>
+        <v>10782.06</v>
       </c>
       <c r="D107" t="n">
-        <v>10874.83</v>
+        <v>10731.68</v>
       </c>
       <c r="E107" t="n">
-        <v>10927.18</v>
-      </c>
-      <c r="G107" s="1">
+        <v>10760.21</v>
+      </c>
+      <c r="G107" s="3">
         <f>AVERAGE(E103:E107)</f>
         <v/>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="3">
         <f>AVERAGE(E78:E107)</f>
         <v/>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="3">
         <f>G107-H107</f>
         <v/>
       </c>
@@ -4578,26 +4584,26 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>10961.7</v>
+        <v>10808.4</v>
       </c>
       <c r="C108" t="n">
-        <v>11016.35</v>
+        <v>10874.63</v>
       </c>
       <c r="D108" t="n">
-        <v>10953.31</v>
+        <v>10808.4</v>
       </c>
       <c r="E108" t="n">
-        <v>10974.02</v>
-      </c>
-      <c r="G108" s="1">
+        <v>10858.98</v>
+      </c>
+      <c r="G108" s="3">
         <f>AVERAGE(E104:E108)</f>
         <v/>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="3">
         <f>AVERAGE(E79:E108)</f>
         <v/>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="3">
         <f>G108-H108</f>
         <v/>
       </c>
@@ -4607,26 +4613,26 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>10984.12</v>
+        <v>10938.3</v>
       </c>
       <c r="C109" t="n">
-        <v>11008.2</v>
+        <v>10970.24</v>
       </c>
       <c r="D109" t="n">
-        <v>10920.62</v>
+        <v>10908.86</v>
       </c>
       <c r="E109" t="n">
-        <v>10955.29</v>
-      </c>
-      <c r="G109" s="1">
+        <v>10952.39</v>
+      </c>
+      <c r="G109" s="3">
         <f>AVERAGE(E105:E109)</f>
         <v/>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="3">
         <f>AVERAGE(E80:E109)</f>
         <v/>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="3">
         <f>G109-H109</f>
         <v/>
       </c>
@@ -4636,26 +4642,26 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>10975.58</v>
+        <v>10965.08</v>
       </c>
       <c r="C110" t="n">
-        <v>10988.23</v>
+        <v>10978.38</v>
       </c>
       <c r="D110" t="n">
-        <v>10938.37</v>
+        <v>10874.73</v>
       </c>
       <c r="E110" t="n">
-        <v>10965.39</v>
-      </c>
-      <c r="G110" s="1">
+        <v>10874.73</v>
+      </c>
+      <c r="G110" s="3">
         <f>AVERAGE(E106:E110)</f>
         <v/>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="3">
         <f>AVERAGE(E81:E110)</f>
         <v/>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="3">
         <f>G110-H110</f>
         <v/>
       </c>
@@ -4665,26 +4671,26 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>10962.36</v>
+        <v>10873.54</v>
       </c>
       <c r="C111" t="n">
-        <v>10974.94</v>
+        <v>10915.74</v>
       </c>
       <c r="D111" t="n">
-        <v>10921.17</v>
+        <v>10865.07</v>
       </c>
       <c r="E111" t="n">
-        <v>10954.55</v>
-      </c>
-      <c r="G111" s="1">
+        <v>10897.57</v>
+      </c>
+      <c r="G111" s="3">
         <f>AVERAGE(E107:E111)</f>
         <v/>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="3">
         <f>AVERAGE(E82:E111)</f>
         <v/>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="3">
         <f>G111-H111</f>
         <v/>
       </c>
@@ -4694,26 +4700,26 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>10953.51</v>
+        <v>10911.74</v>
       </c>
       <c r="C112" t="n">
-        <v>10965.2</v>
+        <v>10938.63</v>
       </c>
       <c r="D112" t="n">
-        <v>10799.07</v>
+        <v>10833.81</v>
       </c>
       <c r="E112" t="n">
-        <v>10810.45</v>
-      </c>
-      <c r="G112" s="1">
+        <v>10833.81</v>
+      </c>
+      <c r="G112" s="3">
         <f>AVERAGE(E108:E112)</f>
         <v/>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="3">
         <f>AVERAGE(E83:E112)</f>
         <v/>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="3">
         <f>G112-H112</f>
         <v/>
       </c>
@@ -4723,26 +4729,26 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>10842.88</v>
+        <v>10844.09</v>
       </c>
       <c r="C113" t="n">
-        <v>10917.6</v>
+        <v>10893.35</v>
       </c>
       <c r="D113" t="n">
-        <v>10809.89</v>
+        <v>10819.07</v>
       </c>
       <c r="E113" t="n">
-        <v>10847.89</v>
-      </c>
-      <c r="G113" s="1">
+        <v>10830.84</v>
+      </c>
+      <c r="G113" s="3">
         <f>AVERAGE(E109:E113)</f>
         <v/>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="3">
         <f>AVERAGE(E84:E113)</f>
         <v/>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="3">
         <f>G113-H113</f>
         <v/>
       </c>
@@ -4752,26 +4758,26 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10891.66</v>
+        <v>10861.66</v>
       </c>
       <c r="C114" t="n">
-        <v>10983.96</v>
+        <v>10979.1</v>
       </c>
       <c r="D114" t="n">
-        <v>10889.71</v>
+        <v>10861.66</v>
       </c>
       <c r="E114" t="n">
-        <v>10971.22</v>
-      </c>
-      <c r="G114" s="1">
+        <v>10966.2</v>
+      </c>
+      <c r="G114" s="3">
         <f>AVERAGE(E110:E114)</f>
         <v/>
       </c>
-      <c r="H114" s="1">
+      <c r="H114" s="3">
         <f>AVERAGE(E85:E114)</f>
         <v/>
       </c>
-      <c r="I114" s="1">
+      <c r="I114" s="3">
         <f>G114-H114</f>
         <v/>
       </c>
@@ -4781,26 +4787,26 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>10802.42</v>
+        <v>10986.77</v>
       </c>
       <c r="C115" t="n">
-        <v>10831.56</v>
+        <v>11034.12</v>
       </c>
       <c r="D115" t="n">
-        <v>10770.05</v>
+        <v>10938.73</v>
       </c>
       <c r="E115" t="n">
-        <v>10779.38</v>
-      </c>
-      <c r="G115" s="1">
+        <v>10938.73</v>
+      </c>
+      <c r="G115" s="3">
         <f>AVERAGE(E111:E115)</f>
         <v/>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="3">
         <f>AVERAGE(E86:E115)</f>
         <v/>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="3">
         <f>G115-H115</f>
         <v/>
       </c>
@@ -4810,26 +4816,26 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>10756.89</v>
+        <v>10974.52</v>
       </c>
       <c r="C116" t="n">
-        <v>10774.73</v>
+        <v>10991.86</v>
       </c>
       <c r="D116" t="n">
-        <v>10687.25</v>
+        <v>10886.18</v>
       </c>
       <c r="E116" t="n">
-        <v>10697.13</v>
-      </c>
-      <c r="G116" s="1">
+        <v>10886.18</v>
+      </c>
+      <c r="G116" s="3">
         <f>AVERAGE(E112:E116)</f>
         <v/>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="3">
         <f>AVERAGE(E87:E116)</f>
         <v/>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="3">
         <f>G116-H116</f>
         <v/>
       </c>
@@ -4839,26 +4845,26 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>10680.38</v>
+        <v>10910.61</v>
       </c>
       <c r="C117" t="n">
-        <v>10692.19</v>
+        <v>10942.64</v>
       </c>
       <c r="D117" t="n">
-        <v>10540.15</v>
+        <v>10883.52</v>
       </c>
       <c r="E117" t="n">
-        <v>10579.5</v>
-      </c>
-      <c r="G117" s="1">
+        <v>10936.93</v>
+      </c>
+      <c r="G117" s="3">
         <f>AVERAGE(E113:E117)</f>
         <v/>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="3">
         <f>AVERAGE(E88:E117)</f>
         <v/>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="3">
         <f>G117-H117</f>
         <v/>
       </c>
@@ -4868,26 +4874,26 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>10541.83</v>
+        <v>10946.62</v>
       </c>
       <c r="C118" t="n">
-        <v>10573.73</v>
+        <v>10977.81</v>
       </c>
       <c r="D118" t="n">
-        <v>10489.2</v>
+        <v>10918.12</v>
       </c>
       <c r="E118" t="n">
-        <v>10559.97</v>
-      </c>
-      <c r="G118" s="1">
+        <v>10942.3</v>
+      </c>
+      <c r="G118" s="3">
         <f>AVERAGE(E114:E118)</f>
         <v/>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="3">
         <f>AVERAGE(E89:E118)</f>
         <v/>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="3">
         <f>G118-H118</f>
         <v/>
       </c>
@@ -4897,26 +4903,26 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10583.08</v>
+        <v>10976.49</v>
       </c>
       <c r="C119" t="n">
-        <v>10618.68</v>
+        <v>10999.43</v>
       </c>
       <c r="D119" t="n">
-        <v>10478.98</v>
+        <v>10965.18</v>
       </c>
       <c r="E119" t="n">
-        <v>10488.58</v>
-      </c>
-      <c r="G119" s="1">
+        <v>10987.77</v>
+      </c>
+      <c r="G119" s="3">
         <f>AVERAGE(E115:E119)</f>
         <v/>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="3">
         <f>AVERAGE(E90:E119)</f>
         <v/>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="3">
         <f>G119-H119</f>
         <v/>
       </c>
@@ -4926,26 +4932,26 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10546.29</v>
+        <v>10979.68</v>
       </c>
       <c r="C120" t="n">
-        <v>10573.61</v>
+        <v>10986.53</v>
       </c>
       <c r="D120" t="n">
-        <v>10495.67</v>
+        <v>10929.56</v>
       </c>
       <c r="E120" t="n">
-        <v>10553.43</v>
-      </c>
-      <c r="G120" s="1">
+        <v>10964.12</v>
+      </c>
+      <c r="G120" s="3">
         <f>AVERAGE(E116:E120)</f>
         <v/>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="3">
         <f>AVERAGE(E91:E120)</f>
         <v/>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="3">
         <f>G120-H120</f>
         <v/>
       </c>
@@ -4955,26 +4961,26 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10553.41</v>
+        <v>10925.21</v>
       </c>
       <c r="C121" t="n">
-        <v>10660.61</v>
+        <v>10925.21</v>
       </c>
       <c r="D121" t="n">
-        <v>10539.63</v>
+        <v>10799.75</v>
       </c>
       <c r="E121" t="n">
-        <v>10657.88</v>
-      </c>
-      <c r="G121" s="1">
+        <v>10821.17</v>
+      </c>
+      <c r="G121" s="3">
         <f>AVERAGE(E117:E121)</f>
         <v/>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="3">
         <f>AVERAGE(E92:E121)</f>
         <v/>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="3">
         <f>G121-H121</f>
         <v/>
       </c>
@@ -4984,26 +4990,26 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10665.52</v>
+        <v>10856.03</v>
       </c>
       <c r="C122" t="n">
-        <v>10683.9</v>
+        <v>10909.61</v>
       </c>
       <c r="D122" t="n">
-        <v>10601.1</v>
+        <v>10853.65</v>
       </c>
       <c r="E122" t="n">
-        <v>10618.81</v>
-      </c>
-      <c r="G122" s="1">
+        <v>10874.96</v>
+      </c>
+      <c r="G122" s="3">
         <f>AVERAGE(E118:E122)</f>
         <v/>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="3">
         <f>AVERAGE(E93:E122)</f>
         <v/>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="3">
         <f>G122-H122</f>
         <v/>
       </c>
@@ -5013,26 +5019,26 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10578.98</v>
+        <v>10882.68</v>
       </c>
       <c r="C123" t="n">
-        <v>10578.98</v>
+        <v>10954.67</v>
       </c>
       <c r="D123" t="n">
-        <v>10509.03</v>
+        <v>10876.97</v>
       </c>
       <c r="E123" t="n">
-        <v>10514.18</v>
-      </c>
-      <c r="G123" s="1">
+        <v>10949.08</v>
+      </c>
+      <c r="G123" s="3">
         <f>AVERAGE(E119:E123)</f>
         <v/>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="3">
         <f>AVERAGE(E94:E123)</f>
         <v/>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="3">
         <f>G123-H123</f>
         <v/>
       </c>
@@ -5042,26 +5048,26 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>10516.45</v>
+        <v>11002.15</v>
       </c>
       <c r="C124" t="n">
-        <v>10566.37</v>
+        <v>11109.5</v>
       </c>
       <c r="D124" t="n">
-        <v>10500.97</v>
+        <v>11002.15</v>
       </c>
       <c r="E124" t="n">
-        <v>10529.37</v>
-      </c>
-      <c r="G124" s="1">
+        <v>11109.5</v>
+      </c>
+      <c r="G124" s="3">
         <f>AVERAGE(E120:E124)</f>
         <v/>
       </c>
-      <c r="H124" s="1">
+      <c r="H124" s="3">
         <f>AVERAGE(E95:E124)</f>
         <v/>
       </c>
-      <c r="I124" s="1">
+      <c r="I124" s="3">
         <f>G124-H124</f>
         <v/>
       </c>
@@ -5071,26 +5077,26 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>10581.78</v>
+        <v>11130.03</v>
       </c>
       <c r="C125" t="n">
-        <v>10632.62</v>
+        <v>11131.08</v>
       </c>
       <c r="D125" t="n">
-        <v>10555.56</v>
+        <v>11054.62</v>
       </c>
       <c r="E125" t="n">
-        <v>10604.91</v>
-      </c>
-      <c r="G125" s="1">
+        <v>11100.11</v>
+      </c>
+      <c r="G125" s="3">
         <f>AVERAGE(E121:E125)</f>
         <v/>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="3">
         <f>AVERAGE(E96:E125)</f>
         <v/>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="3">
         <f>G125-H125</f>
         <v/>
       </c>
@@ -5100,26 +5106,26 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>10610.44</v>
+        <v>11111.14</v>
       </c>
       <c r="C126" t="n">
-        <v>10691.38</v>
+        <v>11207.15</v>
       </c>
       <c r="D126" t="n">
-        <v>10609.04</v>
+        <v>11111.14</v>
       </c>
       <c r="E126" t="n">
-        <v>10691.38</v>
-      </c>
-      <c r="G126" s="1">
+        <v>11201.83</v>
+      </c>
+      <c r="G126" s="3">
         <f>AVERAGE(E122:E126)</f>
         <v/>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="3">
         <f>AVERAGE(E97:E126)</f>
         <v/>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="3">
         <f>G126-H126</f>
         <v/>
       </c>
@@ -5129,26 +5135,26 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>10692.89</v>
+        <v>11228.64</v>
       </c>
       <c r="C127" t="n">
-        <v>10748.6</v>
+        <v>11261.68</v>
       </c>
       <c r="D127" t="n">
-        <v>10689.81</v>
+        <v>11188.99</v>
       </c>
       <c r="E127" t="n">
-        <v>10703.35</v>
-      </c>
-      <c r="G127" s="1">
+        <v>11251.75</v>
+      </c>
+      <c r="G127" s="3">
         <f>AVERAGE(E123:E127)</f>
         <v/>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="3">
         <f>AVERAGE(E98:E127)</f>
         <v/>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="3">
         <f>G127-H127</f>
         <v/>
       </c>
@@ -5158,26 +5164,26 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>10731.68</v>
+        <v>11243.59</v>
       </c>
       <c r="C128" t="n">
-        <v>10782.06</v>
+        <v>11243.59</v>
       </c>
       <c r="D128" t="n">
-        <v>10731.68</v>
+        <v>11122.98</v>
       </c>
       <c r="E128" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G128" s="1">
+        <v>11156.42</v>
+      </c>
+      <c r="G128" s="3">
         <f>AVERAGE(E124:E128)</f>
         <v/>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="3">
         <f>AVERAGE(E99:E128)</f>
         <v/>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="3">
         <f>G128-H128</f>
         <v/>
       </c>
@@ -5187,26 +5193,26 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>10808.4</v>
+        <v>11168.99</v>
       </c>
       <c r="C129" t="n">
-        <v>10874.63</v>
+        <v>11186.67</v>
       </c>
       <c r="D129" t="n">
-        <v>10808.4</v>
+        <v>11118.81</v>
       </c>
       <c r="E129" t="n">
-        <v>10858.98</v>
-      </c>
-      <c r="G129" s="1">
+        <v>11149.23</v>
+      </c>
+      <c r="G129" s="3">
         <f>AVERAGE(E125:E129)</f>
         <v/>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="3">
         <f>AVERAGE(E100:E129)</f>
         <v/>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="3">
         <f>G129-H129</f>
         <v/>
       </c>
@@ -5216,26 +5222,26 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>10938.3</v>
+        <v>11140.02</v>
       </c>
       <c r="C130" t="n">
-        <v>10970.24</v>
+        <v>11160.05</v>
       </c>
       <c r="D130" t="n">
-        <v>10908.86</v>
+        <v>11088.53</v>
       </c>
       <c r="E130" t="n">
-        <v>10952.39</v>
-      </c>
-      <c r="G130" s="1">
+        <v>11144.79</v>
+      </c>
+      <c r="G130" s="3">
         <f>AVERAGE(E126:E130)</f>
         <v/>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="3">
         <f>AVERAGE(E101:E130)</f>
         <v/>
       </c>
-      <c r="I130" s="1">
+      <c r="I130" s="3">
         <f>G130-H130</f>
         <v/>
       </c>
@@ -5245,26 +5251,26 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>10965.08</v>
+        <v>11153.2</v>
       </c>
       <c r="C131" t="n">
-        <v>10978.38</v>
+        <v>11188.01</v>
       </c>
       <c r="D131" t="n">
-        <v>10874.73</v>
+        <v>11119.24</v>
       </c>
       <c r="E131" t="n">
-        <v>10874.73</v>
-      </c>
-      <c r="G131" s="1">
+        <v>11173.21</v>
+      </c>
+      <c r="G131" s="3">
         <f>AVERAGE(E127:E131)</f>
         <v/>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="3">
         <f>AVERAGE(E102:E131)</f>
         <v/>
       </c>
-      <c r="I131" s="1">
+      <c r="I131" s="3">
         <f>G131-H131</f>
         <v/>
       </c>
@@ -5274,26 +5280,26 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>10873.54</v>
+        <v>11143.04</v>
       </c>
       <c r="C132" t="n">
-        <v>10915.74</v>
+        <v>11143.04</v>
       </c>
       <c r="D132" t="n">
-        <v>10865.07</v>
+        <v>11013.98</v>
       </c>
       <c r="E132" t="n">
-        <v>10897.57</v>
-      </c>
-      <c r="G132" s="1">
+        <v>11013.98</v>
+      </c>
+      <c r="G132" s="3">
         <f>AVERAGE(E128:E132)</f>
         <v/>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="3">
         <f>AVERAGE(E103:E132)</f>
         <v/>
       </c>
-      <c r="I132" s="1">
+      <c r="I132" s="3">
         <f>G132-H132</f>
         <v/>
       </c>
@@ -5303,26 +5309,26 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>10911.74</v>
+        <v>10998.2</v>
       </c>
       <c r="C133" t="n">
-        <v>10938.63</v>
+        <v>11087.47</v>
       </c>
       <c r="D133" t="n">
-        <v>10833.81</v>
+        <v>10981.61</v>
       </c>
       <c r="E133" t="n">
-        <v>10833.81</v>
-      </c>
-      <c r="G133" s="1">
+        <v>11087.47</v>
+      </c>
+      <c r="G133" s="3">
         <f>AVERAGE(E129:E133)</f>
         <v/>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="3">
         <f>AVERAGE(E104:E133)</f>
         <v/>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="3">
         <f>G133-H133</f>
         <v/>
       </c>
@@ -5332,26 +5338,26 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>10844.09</v>
+        <v>11008.77</v>
       </c>
       <c r="C134" t="n">
-        <v>10893.35</v>
+        <v>11008.77</v>
       </c>
       <c r="D134" t="n">
-        <v>10819.07</v>
+        <v>10904.19</v>
       </c>
       <c r="E134" t="n">
-        <v>10830.84</v>
-      </c>
-      <c r="G134" s="1">
+        <v>10904.19</v>
+      </c>
+      <c r="G134" s="3">
         <f>AVERAGE(E130:E134)</f>
         <v/>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="3">
         <f>AVERAGE(E105:E134)</f>
         <v/>
       </c>
-      <c r="I134" s="1">
+      <c r="I134" s="3">
         <f>G134-H134</f>
         <v/>
       </c>
@@ -5361,26 +5367,26 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>10861.66</v>
+        <v>10904.8</v>
       </c>
       <c r="C135" t="n">
-        <v>10979.1</v>
+        <v>10969.2</v>
       </c>
       <c r="D135" t="n">
-        <v>10861.66</v>
+        <v>10842.56</v>
       </c>
       <c r="E135" t="n">
-        <v>10966.2</v>
-      </c>
-      <c r="G135" s="1">
+        <v>10927.44</v>
+      </c>
+      <c r="G135" s="3">
         <f>AVERAGE(E131:E135)</f>
         <v/>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="3">
         <f>AVERAGE(E106:E135)</f>
         <v/>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="3">
         <f>G135-H135</f>
         <v/>
       </c>
@@ -5390,26 +5396,26 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>10986.77</v>
+        <v>10949.85</v>
       </c>
       <c r="C136" t="n">
-        <v>11034.12</v>
+        <v>10992.31</v>
       </c>
       <c r="D136" t="n">
-        <v>10938.73</v>
+        <v>10941.07</v>
       </c>
       <c r="E136" t="n">
-        <v>10938.73</v>
-      </c>
-      <c r="G136" s="1">
+        <v>10941.07</v>
+      </c>
+      <c r="G136" s="3">
         <f>AVERAGE(E132:E136)</f>
         <v/>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="3">
         <f>AVERAGE(E107:E136)</f>
         <v/>
       </c>
-      <c r="I136" s="1">
+      <c r="I136" s="3">
         <f>G136-H136</f>
         <v/>
       </c>
@@ -5419,26 +5425,26 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>10974.52</v>
+        <v>10901.25</v>
       </c>
       <c r="C137" t="n">
-        <v>10991.86</v>
+        <v>10914.83</v>
       </c>
       <c r="D137" t="n">
-        <v>10886.18</v>
+        <v>10828.86</v>
       </c>
       <c r="E137" t="n">
-        <v>10886.18</v>
-      </c>
-      <c r="G137" s="1">
+        <v>10899.28</v>
+      </c>
+      <c r="G137" s="3">
         <f>AVERAGE(E133:E137)</f>
         <v/>
       </c>
-      <c r="H137" s="1">
+      <c r="H137" s="3">
         <f>AVERAGE(E108:E137)</f>
         <v/>
       </c>
-      <c r="I137" s="1">
+      <c r="I137" s="3">
         <f>G137-H137</f>
         <v/>
       </c>
@@ -5448,26 +5454,26 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>10910.61</v>
+        <v>10834.07</v>
       </c>
       <c r="C138" t="n">
-        <v>10942.64</v>
+        <v>10851.16</v>
       </c>
       <c r="D138" t="n">
-        <v>10883.52</v>
+        <v>10786.46</v>
       </c>
       <c r="E138" t="n">
-        <v>10936.93</v>
-      </c>
-      <c r="G138" s="1">
+        <v>10786.46</v>
+      </c>
+      <c r="G138" s="3">
         <f>AVERAGE(E134:E138)</f>
         <v/>
       </c>
-      <c r="H138" s="1">
+      <c r="H138" s="3">
         <f>AVERAGE(E109:E138)</f>
         <v/>
       </c>
-      <c r="I138" s="1">
+      <c r="I138" s="3">
         <f>G138-H138</f>
         <v/>
       </c>
@@ -5477,26 +5483,26 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10946.62</v>
+        <v>10730.9</v>
       </c>
       <c r="C139" t="n">
-        <v>10977.81</v>
+        <v>10752.99</v>
       </c>
       <c r="D139" t="n">
-        <v>10918.12</v>
+        <v>10651.42</v>
       </c>
       <c r="E139" t="n">
-        <v>10942.3</v>
-      </c>
-      <c r="G139" s="1">
+        <v>10742.17</v>
+      </c>
+      <c r="G139" s="3">
         <f>AVERAGE(E135:E139)</f>
         <v/>
       </c>
-      <c r="H139" s="1">
+      <c r="H139" s="3">
         <f>AVERAGE(E110:E139)</f>
         <v/>
       </c>
-      <c r="I139" s="1">
+      <c r="I139" s="3">
         <f>G139-H139</f>
         <v/>
       </c>
@@ -5506,26 +5512,26 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10976.49</v>
+        <v>10766.88</v>
       </c>
       <c r="C140" t="n">
-        <v>10999.43</v>
+        <v>10800.34</v>
       </c>
       <c r="D140" t="n">
-        <v>10965.18</v>
+        <v>10701.03</v>
       </c>
       <c r="E140" t="n">
-        <v>10987.77</v>
-      </c>
-      <c r="G140" s="1">
+        <v>10701.03</v>
+      </c>
+      <c r="G140" s="3">
         <f>AVERAGE(E136:E140)</f>
         <v/>
       </c>
-      <c r="H140" s="1">
+      <c r="H140" s="3">
         <f>AVERAGE(E111:E140)</f>
         <v/>
       </c>
-      <c r="I140" s="1">
+      <c r="I140" s="3">
         <f>G140-H140</f>
         <v/>
       </c>
@@ -5535,26 +5541,26 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10979.68</v>
+        <v>10669.42</v>
       </c>
       <c r="C141" t="n">
-        <v>10986.53</v>
+        <v>10723.84</v>
       </c>
       <c r="D141" t="n">
-        <v>10929.56</v>
+        <v>10633.01</v>
       </c>
       <c r="E141" t="n">
-        <v>10964.12</v>
-      </c>
-      <c r="G141" s="1">
+        <v>10654.28</v>
+      </c>
+      <c r="G141" s="3">
         <f>AVERAGE(E137:E141)</f>
         <v/>
       </c>
-      <c r="H141" s="1">
+      <c r="H141" s="3">
         <f>AVERAGE(E112:E141)</f>
         <v/>
       </c>
-      <c r="I141" s="1">
+      <c r="I141" s="3">
         <f>G141-H141</f>
         <v/>
       </c>
@@ -5564,26 +5570,26 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10925.21</v>
+        <v>10667.64</v>
       </c>
       <c r="C142" t="n">
-        <v>10925.21</v>
+        <v>10836.91</v>
       </c>
       <c r="D142" t="n">
-        <v>10799.75</v>
+        <v>10667.64</v>
       </c>
       <c r="E142" t="n">
-        <v>10821.17</v>
-      </c>
-      <c r="G142" s="1">
+        <v>10836.91</v>
+      </c>
+      <c r="G142" s="3">
         <f>AVERAGE(E138:E142)</f>
         <v/>
       </c>
-      <c r="H142" s="1">
+      <c r="H142" s="3">
         <f>AVERAGE(E113:E142)</f>
         <v/>
       </c>
-      <c r="I142" s="1">
+      <c r="I142" s="3">
         <f>G142-H142</f>
         <v/>
       </c>
@@ -5593,26 +5599,26 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10856.03</v>
+        <v>10852.17</v>
       </c>
       <c r="C143" t="n">
-        <v>10909.61</v>
+        <v>10886.2</v>
       </c>
       <c r="D143" t="n">
-        <v>10853.65</v>
+        <v>10777.94</v>
       </c>
       <c r="E143" t="n">
-        <v>10874.96</v>
-      </c>
-      <c r="G143" s="1">
+        <v>10777.94</v>
+      </c>
+      <c r="G143" s="3">
         <f>AVERAGE(E139:E143)</f>
         <v/>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="3">
         <f>AVERAGE(E114:E143)</f>
         <v/>
       </c>
-      <c r="I143" s="1">
+      <c r="I143" s="3">
         <f>G143-H143</f>
         <v/>
       </c>
@@ -5622,26 +5628,26 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>10882.68</v>
+        <v>10802.88</v>
       </c>
       <c r="C144" t="n">
-        <v>10954.67</v>
+        <v>10873.48</v>
       </c>
       <c r="D144" t="n">
-        <v>10876.97</v>
+        <v>10707.68</v>
       </c>
       <c r="E144" t="n">
-        <v>10949.08</v>
-      </c>
-      <c r="G144" s="1">
+        <v>10715.72</v>
+      </c>
+      <c r="G144" s="3">
         <f>AVERAGE(E140:E144)</f>
         <v/>
       </c>
-      <c r="H144" s="1">
+      <c r="H144" s="3">
         <f>AVERAGE(E115:E144)</f>
         <v/>
       </c>
-      <c r="I144" s="1">
+      <c r="I144" s="3">
         <f>G144-H144</f>
         <v/>
       </c>
@@ -5651,26 +5657,26 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>11002.15</v>
+        <v>10714.25</v>
       </c>
       <c r="C145" t="n">
-        <v>11109.5</v>
+        <v>10752.05</v>
       </c>
       <c r="D145" t="n">
-        <v>11002.15</v>
+        <v>10680.44</v>
       </c>
       <c r="E145" t="n">
-        <v>11109.5</v>
-      </c>
-      <c r="G145" s="1">
+        <v>10721.87</v>
+      </c>
+      <c r="G145" s="3">
         <f>AVERAGE(E141:E145)</f>
         <v/>
       </c>
-      <c r="H145" s="1">
+      <c r="H145" s="3">
         <f>AVERAGE(E116:E145)</f>
         <v/>
       </c>
-      <c r="I145" s="1">
+      <c r="I145" s="3">
         <f>G145-H145</f>
         <v/>
       </c>
@@ -5680,26 +5686,26 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>11130.03</v>
+        <v>10690.91</v>
       </c>
       <c r="C146" t="n">
-        <v>11131.08</v>
+        <v>10709.8</v>
       </c>
       <c r="D146" t="n">
-        <v>11054.62</v>
+        <v>10585.27</v>
       </c>
       <c r="E146" t="n">
-        <v>11100.11</v>
-      </c>
-      <c r="G146" s="1">
+        <v>10611.81</v>
+      </c>
+      <c r="G146" s="3">
         <f>AVERAGE(E142:E146)</f>
         <v/>
       </c>
-      <c r="H146" s="1">
+      <c r="H146" s="3">
         <f>AVERAGE(E117:E146)</f>
         <v/>
       </c>
-      <c r="I146" s="1">
+      <c r="I146" s="3">
         <f>G146-H146</f>
         <v/>
       </c>
@@ -5709,26 +5715,26 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>11111.14</v>
+        <v>10645.66</v>
       </c>
       <c r="C147" t="n">
-        <v>11207.15</v>
+        <v>10665.72</v>
       </c>
       <c r="D147" t="n">
-        <v>11111.14</v>
+        <v>10523.58</v>
       </c>
       <c r="E147" t="n">
-        <v>11201.83</v>
-      </c>
-      <c r="G147" s="1">
+        <v>10608.57</v>
+      </c>
+      <c r="G147" s="3">
         <f>AVERAGE(E143:E147)</f>
         <v/>
       </c>
-      <c r="H147" s="1">
+      <c r="H147" s="3">
         <f>AVERAGE(E118:E147)</f>
         <v/>
       </c>
-      <c r="I147" s="1">
+      <c r="I147" s="3">
         <f>G147-H147</f>
         <v/>
       </c>
@@ -5738,26 +5744,26 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>11228.64</v>
+        <v>10638.9</v>
       </c>
       <c r="C148" t="n">
-        <v>11261.68</v>
+        <v>10746.74</v>
       </c>
       <c r="D148" t="n">
-        <v>11188.99</v>
+        <v>10638.9</v>
       </c>
       <c r="E148" t="n">
-        <v>11251.75</v>
-      </c>
-      <c r="G148" s="1">
+        <v>10720.28</v>
+      </c>
+      <c r="G148" s="3">
         <f>AVERAGE(E144:E148)</f>
         <v/>
       </c>
-      <c r="H148" s="1">
+      <c r="H148" s="3">
         <f>AVERAGE(E119:E148)</f>
         <v/>
       </c>
-      <c r="I148" s="1">
+      <c r="I148" s="3">
         <f>G148-H148</f>
         <v/>
       </c>
@@ -5767,26 +5773,26 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>11243.59</v>
+        <v>10737.62</v>
       </c>
       <c r="C149" t="n">
-        <v>11243.59</v>
+        <v>10776.47</v>
       </c>
       <c r="D149" t="n">
-        <v>11122.98</v>
+        <v>10728.24</v>
       </c>
       <c r="E149" t="n">
-        <v>11156.42</v>
-      </c>
-      <c r="G149" s="1">
+        <v>10756.89</v>
+      </c>
+      <c r="G149" s="3">
         <f>AVERAGE(E145:E149)</f>
         <v/>
       </c>
-      <c r="H149" s="1">
+      <c r="H149" s="3">
         <f>AVERAGE(E120:E149)</f>
         <v/>
       </c>
-      <c r="I149" s="1">
+      <c r="I149" s="3">
         <f>G149-H149</f>
         <v/>
       </c>
@@ -5796,26 +5802,26 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>11168.99</v>
+        <v>10693.64</v>
       </c>
       <c r="C150" t="n">
-        <v>11186.67</v>
+        <v>10693.64</v>
       </c>
       <c r="D150" t="n">
-        <v>11118.81</v>
+        <v>10635.03</v>
       </c>
       <c r="E150" t="n">
-        <v>11149.23</v>
-      </c>
-      <c r="G150" s="1">
+        <v>10676.84</v>
+      </c>
+      <c r="G150" s="3">
         <f>AVERAGE(E146:E150)</f>
         <v/>
       </c>
-      <c r="H150" s="1">
+      <c r="H150" s="3">
         <f>AVERAGE(E121:E150)</f>
         <v/>
       </c>
-      <c r="I150" s="1">
+      <c r="I150" s="3">
         <f>G150-H150</f>
         <v/>
       </c>
@@ -5825,26 +5831,26 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>11140.02</v>
+        <v>10644.91</v>
       </c>
       <c r="C151" t="n">
-        <v>11160.05</v>
+        <v>10752.57</v>
       </c>
       <c r="D151" t="n">
-        <v>11088.53</v>
+        <v>10643.65</v>
       </c>
       <c r="E151" t="n">
-        <v>11144.79</v>
-      </c>
-      <c r="G151" s="1">
+        <v>10738.38</v>
+      </c>
+      <c r="G151" s="3">
         <f>AVERAGE(E147:E151)</f>
         <v/>
       </c>
-      <c r="H151" s="1">
+      <c r="H151" s="3">
         <f>AVERAGE(E122:E151)</f>
         <v/>
       </c>
-      <c r="I151" s="1">
+      <c r="I151" s="3">
         <f>G151-H151</f>
         <v/>
       </c>
@@ -5854,26 +5860,26 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>11153.2</v>
+        <v>10769.7</v>
       </c>
       <c r="C152" t="n">
-        <v>11188.01</v>
+        <v>10864.54</v>
       </c>
       <c r="D152" t="n">
-        <v>11119.24</v>
+        <v>10769.7</v>
       </c>
       <c r="E152" t="n">
-        <v>11173.21</v>
-      </c>
-      <c r="G152" s="1">
+        <v>10864.54</v>
+      </c>
+      <c r="G152" s="3">
         <f>AVERAGE(E148:E152)</f>
         <v/>
       </c>
-      <c r="H152" s="1">
+      <c r="H152" s="3">
         <f>AVERAGE(E123:E152)</f>
         <v/>
       </c>
-      <c r="I152" s="1">
+      <c r="I152" s="3">
         <f>G152-H152</f>
         <v/>
       </c>
@@ -5883,26 +5889,26 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>11143.04</v>
+        <v>10867.97</v>
       </c>
       <c r="C153" t="n">
-        <v>11143.04</v>
+        <v>10890.2</v>
       </c>
       <c r="D153" t="n">
-        <v>11013.98</v>
+        <v>10817.45</v>
       </c>
       <c r="E153" t="n">
-        <v>11013.98</v>
-      </c>
-      <c r="G153" s="1">
+        <v>10817.45</v>
+      </c>
+      <c r="G153" s="3">
         <f>AVERAGE(E149:E153)</f>
         <v/>
       </c>
-      <c r="H153" s="1">
+      <c r="H153" s="3">
         <f>AVERAGE(E124:E153)</f>
         <v/>
       </c>
-      <c r="I153" s="1">
+      <c r="I153" s="3">
         <f>G153-H153</f>
         <v/>
       </c>
@@ -5912,26 +5918,26 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>10998.2</v>
+        <v>10802.75</v>
       </c>
       <c r="C154" t="n">
-        <v>11087.47</v>
+        <v>10818.84</v>
       </c>
       <c r="D154" t="n">
-        <v>10981.61</v>
+        <v>10758.83</v>
       </c>
       <c r="E154" t="n">
-        <v>11087.47</v>
-      </c>
-      <c r="G154" s="1">
+        <v>10778.99</v>
+      </c>
+      <c r="G154" s="3">
         <f>AVERAGE(E150:E154)</f>
         <v/>
       </c>
-      <c r="H154" s="1">
+      <c r="H154" s="3">
         <f>AVERAGE(E125:E154)</f>
         <v/>
       </c>
-      <c r="I154" s="1">
+      <c r="I154" s="3">
         <f>G154-H154</f>
         <v/>
       </c>
@@ -5941,26 +5947,26 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>11008.77</v>
+        <v>10811.43</v>
       </c>
       <c r="C155" t="n">
-        <v>11008.77</v>
+        <v>10872.74</v>
       </c>
       <c r="D155" t="n">
-        <v>10904.19</v>
+        <v>10788.37</v>
       </c>
       <c r="E155" t="n">
-        <v>10904.19</v>
-      </c>
-      <c r="G155" s="1">
+        <v>10842.46</v>
+      </c>
+      <c r="G155" s="3">
         <f>AVERAGE(E151:E155)</f>
         <v/>
       </c>
-      <c r="H155" s="1">
+      <c r="H155" s="3">
         <f>AVERAGE(E126:E155)</f>
         <v/>
       </c>
-      <c r="I155" s="1">
+      <c r="I155" s="3">
         <f>G155-H155</f>
         <v/>
       </c>
@@ -5970,26 +5976,26 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>10904.8</v>
+        <v>10868.56</v>
       </c>
       <c r="C156" t="n">
-        <v>10969.2</v>
+        <v>10896.25</v>
       </c>
       <c r="D156" t="n">
-        <v>10842.56</v>
+        <v>10826.14</v>
       </c>
       <c r="E156" t="n">
-        <v>10927.44</v>
-      </c>
-      <c r="G156" s="1">
+        <v>10835.38</v>
+      </c>
+      <c r="G156" s="3">
         <f>AVERAGE(E152:E156)</f>
         <v/>
       </c>
-      <c r="H156" s="1">
+      <c r="H156" s="3">
         <f>AVERAGE(E127:E156)</f>
         <v/>
       </c>
-      <c r="I156" s="1">
+      <c r="I156" s="3">
         <f>G156-H156</f>
         <v/>
       </c>
@@ -5999,26 +6005,26 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>10949.85</v>
+        <v>10932.51</v>
       </c>
       <c r="C157" t="n">
-        <v>10992.31</v>
+        <v>10963.95</v>
       </c>
       <c r="D157" t="n">
-        <v>10941.07</v>
+        <v>10893.73</v>
       </c>
       <c r="E157" t="n">
-        <v>10941.07</v>
-      </c>
-      <c r="G157" s="1">
+        <v>10932.11</v>
+      </c>
+      <c r="G157" s="3">
         <f>AVERAGE(E153:E157)</f>
         <v/>
       </c>
-      <c r="H157" s="1">
+      <c r="H157" s="3">
         <f>AVERAGE(E128:E157)</f>
         <v/>
       </c>
-      <c r="I157" s="1">
+      <c r="I157" s="3">
         <f>G157-H157</f>
         <v/>
       </c>
@@ -6028,26 +6034,26 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10901.25</v>
+        <v>10929.46</v>
       </c>
       <c r="C158" t="n">
-        <v>10914.83</v>
+        <v>10984.84</v>
       </c>
       <c r="D158" t="n">
-        <v>10828.86</v>
+        <v>10901.75</v>
       </c>
       <c r="E158" t="n">
-        <v>10899.28</v>
-      </c>
-      <c r="G158" s="1">
+        <v>10946.89</v>
+      </c>
+      <c r="G158" s="3">
         <f>AVERAGE(E154:E158)</f>
         <v/>
       </c>
-      <c r="H158" s="1">
+      <c r="H158" s="3">
         <f>AVERAGE(E129:E158)</f>
         <v/>
       </c>
-      <c r="I158" s="1">
+      <c r="I158" s="3">
         <f>G158-H158</f>
         <v/>
       </c>
@@ -6057,26 +6063,26 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10834.07</v>
+        <v>10937.77</v>
       </c>
       <c r="C159" t="n">
-        <v>10851.16</v>
+        <v>10995.39</v>
       </c>
       <c r="D159" t="n">
-        <v>10786.46</v>
+        <v>10917.61</v>
       </c>
       <c r="E159" t="n">
-        <v>10786.46</v>
-      </c>
-      <c r="G159" s="1">
+        <v>10995.39</v>
+      </c>
+      <c r="G159" s="3">
         <f>AVERAGE(E155:E159)</f>
         <v/>
       </c>
-      <c r="H159" s="1">
+      <c r="H159" s="3">
         <f>AVERAGE(E130:E159)</f>
         <v/>
       </c>
-      <c r="I159" s="1">
+      <c r="I159" s="3">
         <f>G159-H159</f>
         <v/>
       </c>
@@ -6086,26 +6092,26 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10730.9</v>
+        <v>10957.66</v>
       </c>
       <c r="C160" t="n">
-        <v>10752.99</v>
+        <v>10992.29</v>
       </c>
       <c r="D160" t="n">
-        <v>10651.42</v>
+        <v>10956</v>
       </c>
       <c r="E160" t="n">
-        <v>10742.17</v>
-      </c>
-      <c r="G160" s="1">
+        <v>10965.79</v>
+      </c>
+      <c r="G160" s="3">
         <f>AVERAGE(E156:E160)</f>
         <v/>
       </c>
-      <c r="H160" s="1">
+      <c r="H160" s="3">
         <f>AVERAGE(E131:E160)</f>
         <v/>
       </c>
-      <c r="I160" s="1">
+      <c r="I160" s="3">
         <f>G160-H160</f>
         <v/>
       </c>
@@ -6115,26 +6121,26 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10766.88</v>
+        <v>10969.35</v>
       </c>
       <c r="C161" t="n">
-        <v>10800.34</v>
+        <v>11018.19</v>
       </c>
       <c r="D161" t="n">
-        <v>10701.03</v>
+        <v>10966.33</v>
       </c>
       <c r="E161" t="n">
-        <v>10701.03</v>
-      </c>
-      <c r="G161" s="1">
+        <v>11010.61</v>
+      </c>
+      <c r="G161" s="3">
         <f>AVERAGE(E157:E161)</f>
         <v/>
       </c>
-      <c r="H161" s="1">
+      <c r="H161" s="3">
         <f>AVERAGE(E132:E161)</f>
         <v/>
       </c>
-      <c r="I161" s="1">
+      <c r="I161" s="3">
         <f>G161-H161</f>
         <v/>
       </c>
@@ -6144,26 +6150,26 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>10669.42</v>
+        <v>11023.07</v>
       </c>
       <c r="C162" t="n">
-        <v>10723.84</v>
+        <v>11075.78</v>
       </c>
       <c r="D162" t="n">
-        <v>10633.01</v>
+        <v>11009.16</v>
       </c>
       <c r="E162" t="n">
-        <v>10654.28</v>
-      </c>
-      <c r="G162" s="1">
+        <v>11075.78</v>
+      </c>
+      <c r="G162" s="3">
         <f>AVERAGE(E158:E162)</f>
         <v/>
       </c>
-      <c r="H162" s="1">
+      <c r="H162" s="3">
         <f>AVERAGE(E133:E162)</f>
         <v/>
       </c>
-      <c r="I162" s="1">
+      <c r="I162" s="3">
         <f>G162-H162</f>
         <v/>
       </c>
@@ -6173,26 +6179,26 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>10667.64</v>
+        <v>11072.7</v>
       </c>
       <c r="C163" t="n">
-        <v>10836.91</v>
+        <v>11080.41</v>
       </c>
       <c r="D163" t="n">
-        <v>10667.64</v>
+        <v>11001.15</v>
       </c>
       <c r="E163" t="n">
-        <v>10836.91</v>
-      </c>
-      <c r="G163" s="1">
+        <v>11033.54</v>
+      </c>
+      <c r="G163" s="3">
         <f>AVERAGE(E159:E163)</f>
         <v/>
       </c>
-      <c r="H163" s="1">
+      <c r="H163" s="3">
         <f>AVERAGE(E134:E163)</f>
         <v/>
       </c>
-      <c r="I163" s="1">
+      <c r="I163" s="3">
         <f>G163-H163</f>
         <v/>
       </c>
@@ -6202,26 +6208,26 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10852.17</v>
+        <v>10997.73</v>
       </c>
       <c r="C164" t="n">
-        <v>10886.2</v>
+        <v>11057.51</v>
       </c>
       <c r="D164" t="n">
-        <v>10777.94</v>
+        <v>10976.46</v>
       </c>
       <c r="E164" t="n">
-        <v>10777.94</v>
-      </c>
-      <c r="G164" s="1">
+        <v>11057.51</v>
+      </c>
+      <c r="G164" s="3">
         <f>AVERAGE(E160:E164)</f>
         <v/>
       </c>
-      <c r="H164" s="1">
+      <c r="H164" s="3">
         <f>AVERAGE(E135:E164)</f>
         <v/>
       </c>
-      <c r="I164" s="1">
+      <c r="I164" s="3">
         <f>G164-H164</f>
         <v/>
       </c>
@@ -6231,26 +6237,26 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>10802.88</v>
+        <v>11062.36</v>
       </c>
       <c r="C165" t="n">
-        <v>10873.48</v>
+        <v>11100.02</v>
       </c>
       <c r="D165" t="n">
-        <v>10707.68</v>
+        <v>11058.28</v>
       </c>
       <c r="E165" t="n">
-        <v>10715.72</v>
-      </c>
-      <c r="G165" s="1">
+        <v>11098.13</v>
+      </c>
+      <c r="G165" s="3">
         <f>AVERAGE(E161:E165)</f>
         <v/>
       </c>
-      <c r="H165" s="1">
+      <c r="H165" s="3">
         <f>AVERAGE(E136:E165)</f>
         <v/>
       </c>
-      <c r="I165" s="1">
+      <c r="I165" s="3">
         <f>G165-H165</f>
         <v/>
       </c>
@@ -6260,26 +6266,26 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>10714.25</v>
+        <v>11095.67</v>
       </c>
       <c r="C166" t="n">
-        <v>10752.05</v>
+        <v>11095.67</v>
       </c>
       <c r="D166" t="n">
-        <v>10680.44</v>
+        <v>10919.13</v>
       </c>
       <c r="E166" t="n">
-        <v>10721.87</v>
-      </c>
-      <c r="G166" s="1">
+        <v>10929.77</v>
+      </c>
+      <c r="G166" s="3">
         <f>AVERAGE(E162:E166)</f>
         <v/>
       </c>
-      <c r="H166" s="1">
+      <c r="H166" s="3">
         <f>AVERAGE(E137:E166)</f>
         <v/>
       </c>
-      <c r="I166" s="1">
+      <c r="I166" s="3">
         <f>G166-H166</f>
         <v/>
       </c>
@@ -6289,26 +6295,26 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>10690.91</v>
+        <v>10957.3</v>
       </c>
       <c r="C167" t="n">
-        <v>10709.8</v>
+        <v>11012.43</v>
       </c>
       <c r="D167" t="n">
-        <v>10585.27</v>
+        <v>10957.3</v>
       </c>
       <c r="E167" t="n">
-        <v>10611.81</v>
-      </c>
-      <c r="G167" s="1">
+        <v>11012.43</v>
+      </c>
+      <c r="G167" s="3">
         <f>AVERAGE(E163:E167)</f>
         <v/>
       </c>
-      <c r="H167" s="1">
+      <c r="H167" s="3">
         <f>AVERAGE(E138:E167)</f>
         <v/>
       </c>
-      <c r="I167" s="1">
+      <c r="I167" s="3">
         <f>G167-H167</f>
         <v/>
       </c>
@@ -6318,26 +6324,26 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>10645.66</v>
+        <v>10997.26</v>
       </c>
       <c r="C168" t="n">
-        <v>10665.72</v>
+        <v>11054.49</v>
       </c>
       <c r="D168" t="n">
-        <v>10523.58</v>
+        <v>10994.97</v>
       </c>
       <c r="E168" t="n">
-        <v>10608.57</v>
-      </c>
-      <c r="G168" s="1">
+        <v>11024.1</v>
+      </c>
+      <c r="G168" s="3">
         <f>AVERAGE(E164:E168)</f>
         <v/>
       </c>
-      <c r="H168" s="1">
+      <c r="H168" s="3">
         <f>AVERAGE(E139:E168)</f>
         <v/>
       </c>
-      <c r="I168" s="1">
+      <c r="I168" s="3">
         <f>G168-H168</f>
         <v/>
       </c>
@@ -6347,26 +6353,26 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>10638.9</v>
+        <v>11024.97</v>
       </c>
       <c r="C169" t="n">
-        <v>10746.74</v>
+        <v>11030.09</v>
       </c>
       <c r="D169" t="n">
-        <v>10638.9</v>
+        <v>10983.44</v>
       </c>
       <c r="E169" t="n">
-        <v>10720.28</v>
-      </c>
-      <c r="G169" s="1">
+        <v>10983.44</v>
+      </c>
+      <c r="G169" s="3">
         <f>AVERAGE(E165:E169)</f>
         <v/>
       </c>
-      <c r="H169" s="1">
+      <c r="H169" s="3">
         <f>AVERAGE(E140:E169)</f>
         <v/>
       </c>
-      <c r="I169" s="1">
+      <c r="I169" s="3">
         <f>G169-H169</f>
         <v/>
       </c>
@@ -6376,26 +6382,26 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>10737.62</v>
+        <v>11026.07</v>
       </c>
       <c r="C170" t="n">
-        <v>10776.47</v>
+        <v>11095.5</v>
       </c>
       <c r="D170" t="n">
-        <v>10728.24</v>
+        <v>11026.07</v>
       </c>
       <c r="E170" t="n">
-        <v>10756.89</v>
-      </c>
-      <c r="G170" s="1">
+        <v>11075.25</v>
+      </c>
+      <c r="G170" s="3">
         <f>AVERAGE(E166:E170)</f>
         <v/>
       </c>
-      <c r="H170" s="1">
+      <c r="H170" s="3">
         <f>AVERAGE(E141:E170)</f>
         <v/>
       </c>
-      <c r="I170" s="1">
+      <c r="I170" s="3">
         <f>G170-H170</f>
         <v/>
       </c>
@@ -6405,26 +6411,26 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>10693.64</v>
+        <v>11063.62</v>
       </c>
       <c r="C171" t="n">
-        <v>10693.64</v>
+        <v>11063.62</v>
       </c>
       <c r="D171" t="n">
-        <v>10635.03</v>
+        <v>11001.96</v>
       </c>
       <c r="E171" t="n">
-        <v>10676.84</v>
-      </c>
-      <c r="G171" s="1">
+        <v>11028.07</v>
+      </c>
+      <c r="G171" s="3">
         <f>AVERAGE(E167:E171)</f>
         <v/>
       </c>
-      <c r="H171" s="1">
+      <c r="H171" s="3">
         <f>AVERAGE(E142:E171)</f>
         <v/>
       </c>
-      <c r="I171" s="1">
+      <c r="I171" s="3">
         <f>G171-H171</f>
         <v/>
       </c>
@@ -6434,26 +6440,26 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>10644.91</v>
+        <v>11009.96</v>
       </c>
       <c r="C172" t="n">
-        <v>10752.57</v>
+        <v>11033.89</v>
       </c>
       <c r="D172" t="n">
-        <v>10643.65</v>
+        <v>10972.25</v>
       </c>
       <c r="E172" t="n">
-        <v>10738.38</v>
-      </c>
-      <c r="G172" s="1">
+        <v>10983.68</v>
+      </c>
+      <c r="G172" s="3">
         <f>AVERAGE(E168:E172)</f>
         <v/>
       </c>
-      <c r="H172" s="1">
+      <c r="H172" s="3">
         <f>AVERAGE(E143:E172)</f>
         <v/>
       </c>
-      <c r="I172" s="1">
+      <c r="I172" s="3">
         <f>G172-H172</f>
         <v/>
       </c>
@@ -6463,26 +6469,26 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>10769.7</v>
+        <v>10939.68</v>
       </c>
       <c r="C173" t="n">
-        <v>10864.54</v>
+        <v>10939.68</v>
       </c>
       <c r="D173" t="n">
-        <v>10769.7</v>
+        <v>10693.73</v>
       </c>
       <c r="E173" t="n">
-        <v>10864.54</v>
-      </c>
-      <c r="G173" s="1">
+        <v>10748.92</v>
+      </c>
+      <c r="G173" s="3">
         <f>AVERAGE(E169:E173)</f>
         <v/>
       </c>
-      <c r="H173" s="1">
+      <c r="H173" s="3">
         <f>AVERAGE(E144:E173)</f>
         <v/>
       </c>
-      <c r="I173" s="1">
+      <c r="I173" s="3">
         <f>G173-H173</f>
         <v/>
       </c>
@@ -6492,26 +6498,26 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>10867.97</v>
+        <v>10797.95</v>
       </c>
       <c r="C174" t="n">
-        <v>10890.2</v>
+        <v>10829.85</v>
       </c>
       <c r="D174" t="n">
-        <v>10817.45</v>
+        <v>10755.53</v>
       </c>
       <c r="E174" t="n">
-        <v>10817.45</v>
-      </c>
-      <c r="G174" s="1">
+        <v>10824.23</v>
+      </c>
+      <c r="G174" s="3">
         <f>AVERAGE(E170:E174)</f>
         <v/>
       </c>
-      <c r="H174" s="1">
+      <c r="H174" s="3">
         <f>AVERAGE(E145:E174)</f>
         <v/>
       </c>
-      <c r="I174" s="1">
+      <c r="I174" s="3">
         <f>G174-H174</f>
         <v/>
       </c>
@@ -6521,26 +6527,26 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>10802.75</v>
+        <v>10827.28</v>
       </c>
       <c r="C175" t="n">
-        <v>10818.84</v>
+        <v>10827.28</v>
       </c>
       <c r="D175" t="n">
-        <v>10758.83</v>
+        <v>10688.59</v>
       </c>
       <c r="E175" t="n">
-        <v>10778.99</v>
-      </c>
-      <c r="G175" s="1">
+        <v>10716.75</v>
+      </c>
+      <c r="G175" s="3">
         <f>AVERAGE(E171:E175)</f>
         <v/>
       </c>
-      <c r="H175" s="1">
+      <c r="H175" s="3">
         <f>AVERAGE(E146:E175)</f>
         <v/>
       </c>
-      <c r="I175" s="1">
+      <c r="I175" s="3">
         <f>G175-H175</f>
         <v/>
       </c>
@@ -6550,26 +6556,26 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>10811.43</v>
+        <v>10663.57</v>
       </c>
       <c r="C176" t="n">
-        <v>10872.74</v>
+        <v>10725.71</v>
       </c>
       <c r="D176" t="n">
-        <v>10788.37</v>
+        <v>10606.26</v>
       </c>
       <c r="E176" t="n">
-        <v>10842.46</v>
-      </c>
-      <c r="G176" s="1">
+        <v>10683.9</v>
+      </c>
+      <c r="G176" s="3">
         <f>AVERAGE(E172:E176)</f>
         <v/>
       </c>
-      <c r="H176" s="1">
+      <c r="H176" s="3">
         <f>AVERAGE(E147:E176)</f>
         <v/>
       </c>
-      <c r="I176" s="1">
+      <c r="I176" s="3">
         <f>G176-H176</f>
         <v/>
       </c>
@@ -6579,26 +6585,26 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>10868.56</v>
+        <v>10702.6</v>
       </c>
       <c r="C177" t="n">
-        <v>10896.25</v>
+        <v>10757.01</v>
       </c>
       <c r="D177" t="n">
-        <v>10826.14</v>
+        <v>10688.55</v>
       </c>
       <c r="E177" t="n">
-        <v>10835.38</v>
-      </c>
-      <c r="G177" s="1">
+        <v>10690.96</v>
+      </c>
+      <c r="G177" s="3">
         <f>AVERAGE(E173:E177)</f>
         <v/>
       </c>
-      <c r="H177" s="1">
+      <c r="H177" s="3">
         <f>AVERAGE(E148:E177)</f>
         <v/>
       </c>
-      <c r="I177" s="1">
+      <c r="I177" s="3">
         <f>G177-H177</f>
         <v/>
       </c>
@@ -6608,26 +6614,26 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>10932.51</v>
+        <v>10698.76</v>
       </c>
       <c r="C178" t="n">
-        <v>10963.95</v>
+        <v>10729.9</v>
       </c>
       <c r="D178" t="n">
-        <v>10893.73</v>
+        <v>10663.44</v>
       </c>
       <c r="E178" t="n">
-        <v>10932.11</v>
-      </c>
-      <c r="G178" s="1">
+        <v>10699.05</v>
+      </c>
+      <c r="G178" s="3">
         <f>AVERAGE(E174:E178)</f>
         <v/>
       </c>
-      <c r="H178" s="1">
+      <c r="H178" s="3">
         <f>AVERAGE(E149:E178)</f>
         <v/>
       </c>
-      <c r="I178" s="1">
+      <c r="I178" s="3">
         <f>G178-H178</f>
         <v/>
       </c>
@@ -6637,26 +6643,26 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>10929.46</v>
+        <v>10697.01</v>
       </c>
       <c r="C179" t="n">
-        <v>10984.84</v>
+        <v>10792.2</v>
       </c>
       <c r="D179" t="n">
-        <v>10901.75</v>
+        <v>10697.01</v>
       </c>
       <c r="E179" t="n">
-        <v>10946.89</v>
-      </c>
-      <c r="G179" s="1">
+        <v>10792.2</v>
+      </c>
+      <c r="G179" s="3">
         <f>AVERAGE(E175:E179)</f>
         <v/>
       </c>
-      <c r="H179" s="1">
+      <c r="H179" s="3">
         <f>AVERAGE(E150:E179)</f>
         <v/>
       </c>
-      <c r="I179" s="1">
+      <c r="I179" s="3">
         <f>G179-H179</f>
         <v/>
       </c>
@@ -6666,26 +6672,26 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>10937.77</v>
+        <v>10790.24</v>
       </c>
       <c r="C180" t="n">
-        <v>10995.39</v>
+        <v>10828.21</v>
       </c>
       <c r="D180" t="n">
-        <v>10917.61</v>
+        <v>10774.69</v>
       </c>
       <c r="E180" t="n">
-        <v>10995.39</v>
-      </c>
-      <c r="G180" s="1">
+        <v>10804.2</v>
+      </c>
+      <c r="G180" s="3">
         <f>AVERAGE(E176:E180)</f>
         <v/>
       </c>
-      <c r="H180" s="1">
+      <c r="H180" s="3">
         <f>AVERAGE(E151:E180)</f>
         <v/>
       </c>
-      <c r="I180" s="1">
+      <c r="I180" s="3">
         <f>G180-H180</f>
         <v/>
       </c>
@@ -6695,26 +6701,26 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>10957.66</v>
+        <v>10817.33</v>
       </c>
       <c r="C181" t="n">
-        <v>10992.29</v>
+        <v>10863.13</v>
       </c>
       <c r="D181" t="n">
-        <v>10956</v>
+        <v>10802.79</v>
       </c>
       <c r="E181" t="n">
-        <v>10965.79</v>
-      </c>
-      <c r="G181" s="1">
+        <v>10863.13</v>
+      </c>
+      <c r="G181" s="3">
         <f>AVERAGE(E177:E181)</f>
         <v/>
       </c>
-      <c r="H181" s="1">
+      <c r="H181" s="3">
         <f>AVERAGE(E152:E181)</f>
         <v/>
       </c>
-      <c r="I181" s="1">
+      <c r="I181" s="3">
         <f>G181-H181</f>
         <v/>
       </c>
@@ -6724,26 +6730,26 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>10969.35</v>
+        <v>10865.91</v>
       </c>
       <c r="C182" t="n">
-        <v>11018.19</v>
+        <v>10865.91</v>
       </c>
       <c r="D182" t="n">
-        <v>10966.33</v>
+        <v>10770.32</v>
       </c>
       <c r="E182" t="n">
-        <v>11010.61</v>
-      </c>
-      <c r="G182" s="1">
+        <v>10809.35</v>
+      </c>
+      <c r="G182" s="3">
         <f>AVERAGE(E178:E182)</f>
         <v/>
       </c>
-      <c r="H182" s="1">
+      <c r="H182" s="3">
         <f>AVERAGE(E153:E182)</f>
         <v/>
       </c>
-      <c r="I182" s="1">
+      <c r="I182" s="3">
         <f>G182-H182</f>
         <v/>
       </c>
@@ -6753,26 +6759,26 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>11023.07</v>
+        <v>10847.17</v>
       </c>
       <c r="C183" t="n">
-        <v>11075.78</v>
+        <v>10916.69</v>
       </c>
       <c r="D183" t="n">
-        <v>11009.16</v>
+        <v>10847.17</v>
       </c>
       <c r="E183" t="n">
-        <v>11075.78</v>
-      </c>
-      <c r="G183" s="1">
+        <v>10902.21</v>
+      </c>
+      <c r="G183" s="3">
         <f>AVERAGE(E179:E183)</f>
         <v/>
       </c>
-      <c r="H183" s="1">
+      <c r="H183" s="3">
         <f>AVERAGE(E154:E183)</f>
         <v/>
       </c>
-      <c r="I183" s="1">
+      <c r="I183" s="3">
         <f>G183-H183</f>
         <v/>
       </c>
@@ -6782,26 +6788,26 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>11072.7</v>
+        <v>10946.33</v>
       </c>
       <c r="C184" t="n">
-        <v>11080.41</v>
+        <v>11005.55</v>
       </c>
       <c r="D184" t="n">
-        <v>11001.15</v>
+        <v>10946.33</v>
       </c>
       <c r="E184" t="n">
-        <v>11033.54</v>
-      </c>
-      <c r="G184" s="1">
+        <v>10989.55</v>
+      </c>
+      <c r="G184" s="3">
         <f>AVERAGE(E180:E184)</f>
         <v/>
       </c>
-      <c r="H184" s="1">
+      <c r="H184" s="3">
         <f>AVERAGE(E155:E184)</f>
         <v/>
       </c>
-      <c r="I184" s="1">
+      <c r="I184" s="3">
         <f>G184-H184</f>
         <v/>
       </c>
@@ -6811,26 +6817,26 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>10997.73</v>
+        <v>11029.12</v>
       </c>
       <c r="C185" t="n">
-        <v>11057.51</v>
+        <v>11099.57</v>
       </c>
       <c r="D185" t="n">
-        <v>10976.46</v>
+        <v>11029.11</v>
       </c>
       <c r="E185" t="n">
-        <v>11057.51</v>
-      </c>
-      <c r="G185" s="1">
+        <v>11099.57</v>
+      </c>
+      <c r="G185" s="3">
         <f>AVERAGE(E181:E185)</f>
         <v/>
       </c>
-      <c r="H185" s="1">
+      <c r="H185" s="3">
         <f>AVERAGE(E156:E185)</f>
         <v/>
       </c>
-      <c r="I185" s="1">
+      <c r="I185" s="3">
         <f>G185-H185</f>
         <v/>
       </c>
@@ -6840,26 +6846,26 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>11062.36</v>
+        <v>11153.97</v>
       </c>
       <c r="C186" t="n">
-        <v>11100.02</v>
+        <v>11186.05</v>
       </c>
       <c r="D186" t="n">
-        <v>11058.28</v>
+        <v>11080.07</v>
       </c>
       <c r="E186" t="n">
-        <v>11098.13</v>
-      </c>
-      <c r="G186" s="1">
+        <v>11093.75</v>
+      </c>
+      <c r="G186" s="3">
         <f>AVERAGE(E182:E186)</f>
         <v/>
       </c>
-      <c r="H186" s="1">
+      <c r="H186" s="3">
         <f>AVERAGE(E157:E186)</f>
         <v/>
       </c>
-      <c r="I186" s="1">
+      <c r="I186" s="3">
         <f>G186-H186</f>
         <v/>
       </c>
@@ -6869,26 +6875,26 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>11095.67</v>
+        <v>11037.26</v>
       </c>
       <c r="C187" t="n">
-        <v>11095.67</v>
+        <v>11063.94</v>
       </c>
       <c r="D187" t="n">
-        <v>10919.13</v>
+        <v>10987.68</v>
       </c>
       <c r="E187" t="n">
-        <v>10929.77</v>
-      </c>
-      <c r="G187" s="1">
+        <v>11063.94</v>
+      </c>
+      <c r="G187" s="3">
         <f>AVERAGE(E183:E187)</f>
         <v/>
       </c>
-      <c r="H187" s="1">
+      <c r="H187" s="3">
         <f>AVERAGE(E158:E187)</f>
         <v/>
       </c>
-      <c r="I187" s="1">
+      <c r="I187" s="3">
         <f>G187-H187</f>
         <v/>
       </c>
@@ -6898,26 +6904,26 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>10957.3</v>
+        <v>11087.86</v>
       </c>
       <c r="C188" t="n">
-        <v>11012.43</v>
+        <v>11097.11</v>
       </c>
       <c r="D188" t="n">
-        <v>10957.3</v>
+        <v>10952.85</v>
       </c>
       <c r="E188" t="n">
-        <v>11012.43</v>
-      </c>
-      <c r="G188" s="1">
+        <v>10964.22</v>
+      </c>
+      <c r="G188" s="3">
         <f>AVERAGE(E184:E188)</f>
         <v/>
       </c>
-      <c r="H188" s="1">
+      <c r="H188" s="3">
         <f>AVERAGE(E159:E188)</f>
         <v/>
       </c>
-      <c r="I188" s="1">
+      <c r="I188" s="3">
         <f>G188-H188</f>
         <v/>
       </c>
@@ -6927,26 +6933,26 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>10997.26</v>
+        <v>10981.39</v>
       </c>
       <c r="C189" t="n">
-        <v>11054.49</v>
+        <v>11028.27</v>
       </c>
       <c r="D189" t="n">
-        <v>10994.97</v>
+        <v>10956.49</v>
       </c>
       <c r="E189" t="n">
-        <v>11024.1</v>
-      </c>
-      <c r="G189" s="1">
+        <v>11021.38</v>
+      </c>
+      <c r="G189" s="3">
         <f>AVERAGE(E185:E189)</f>
         <v/>
       </c>
-      <c r="H189" s="1">
+      <c r="H189" s="3">
         <f>AVERAGE(E160:E189)</f>
         <v/>
       </c>
-      <c r="I189" s="1">
+      <c r="I189" s="3">
         <f>G189-H189</f>
         <v/>
       </c>
@@ -6956,26 +6962,26 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>11024.97</v>
+        <v>11042.41</v>
       </c>
       <c r="C190" t="n">
-        <v>11030.09</v>
+        <v>11058.06</v>
       </c>
       <c r="D190" t="n">
-        <v>10983.44</v>
+        <v>10989.93</v>
       </c>
       <c r="E190" t="n">
-        <v>10983.44</v>
-      </c>
-      <c r="G190" s="1">
+        <v>10995.13</v>
+      </c>
+      <c r="G190" s="3">
         <f>AVERAGE(E186:E190)</f>
         <v/>
       </c>
-      <c r="H190" s="1">
+      <c r="H190" s="3">
         <f>AVERAGE(E161:E190)</f>
         <v/>
       </c>
-      <c r="I190" s="1">
+      <c r="I190" s="3">
         <f>G190-H190</f>
         <v/>
       </c>
@@ -6985,26 +6991,26 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>11026.07</v>
+        <v>11016.92</v>
       </c>
       <c r="C191" t="n">
-        <v>11095.5</v>
+        <v>11016.92</v>
       </c>
       <c r="D191" t="n">
-        <v>11026.07</v>
+        <v>10905.34</v>
       </c>
       <c r="E191" t="n">
-        <v>11075.25</v>
-      </c>
-      <c r="G191" s="1">
+        <v>10924.3</v>
+      </c>
+      <c r="G191" s="3">
         <f>AVERAGE(E187:E191)</f>
         <v/>
       </c>
-      <c r="H191" s="1">
+      <c r="H191" s="3">
         <f>AVERAGE(E162:E191)</f>
         <v/>
       </c>
-      <c r="I191" s="1">
+      <c r="I191" s="3">
         <f>G191-H191</f>
         <v/>
       </c>
@@ -7014,26 +7020,26 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>11063.62</v>
+        <v>10922.55</v>
       </c>
       <c r="C192" t="n">
-        <v>11063.62</v>
+        <v>10922.55</v>
       </c>
       <c r="D192" t="n">
-        <v>11001.96</v>
+        <v>10807.56</v>
       </c>
       <c r="E192" t="n">
-        <v>11028.07</v>
-      </c>
-      <c r="G192" s="1">
+        <v>10846.99</v>
+      </c>
+      <c r="G192" s="3">
         <f>AVERAGE(E188:E192)</f>
         <v/>
       </c>
-      <c r="H192" s="1">
+      <c r="H192" s="3">
         <f>AVERAGE(E163:E192)</f>
         <v/>
       </c>
-      <c r="I192" s="1">
+      <c r="I192" s="3">
         <f>G192-H192</f>
         <v/>
       </c>
@@ -7043,26 +7049,26 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>11009.96</v>
+        <v>10869.8</v>
       </c>
       <c r="C193" t="n">
-        <v>11033.89</v>
+        <v>10877.72</v>
       </c>
       <c r="D193" t="n">
-        <v>10972.25</v>
+        <v>10689.29</v>
       </c>
       <c r="E193" t="n">
-        <v>10983.68</v>
-      </c>
-      <c r="G193" s="1">
+        <v>10725.8</v>
+      </c>
+      <c r="G193" s="3">
         <f>AVERAGE(E189:E193)</f>
         <v/>
       </c>
-      <c r="H193" s="1">
+      <c r="H193" s="3">
         <f>AVERAGE(E164:E193)</f>
         <v/>
       </c>
-      <c r="I193" s="1">
+      <c r="I193" s="3">
         <f>G193-H193</f>
         <v/>
       </c>
@@ -7072,26 +7078,26 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>10939.68</v>
+        <v>10723</v>
       </c>
       <c r="C194" t="n">
-        <v>10939.68</v>
+        <v>10765.42</v>
       </c>
       <c r="D194" t="n">
-        <v>10693.73</v>
+        <v>10669.59</v>
       </c>
       <c r="E194" t="n">
-        <v>10748.92</v>
-      </c>
-      <c r="G194" s="1">
+        <v>10752.3</v>
+      </c>
+      <c r="G194" s="3">
         <f>AVERAGE(E190:E194)</f>
         <v/>
       </c>
-      <c r="H194" s="1">
+      <c r="H194" s="3">
         <f>AVERAGE(E165:E194)</f>
         <v/>
       </c>
-      <c r="I194" s="1">
+      <c r="I194" s="3">
         <f>G194-H194</f>
         <v/>
       </c>
@@ -7101,26 +7107,26 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>10797.95</v>
+        <v>10762.91</v>
       </c>
       <c r="C195" t="n">
-        <v>10829.85</v>
+        <v>10779.93</v>
       </c>
       <c r="D195" t="n">
-        <v>10755.53</v>
+        <v>10667.25</v>
       </c>
       <c r="E195" t="n">
-        <v>10824.23</v>
-      </c>
-      <c r="G195" s="1">
+        <v>10722.57</v>
+      </c>
+      <c r="G195" s="3">
         <f>AVERAGE(E191:E195)</f>
         <v/>
       </c>
-      <c r="H195" s="1">
+      <c r="H195" s="3">
         <f>AVERAGE(E166:E195)</f>
         <v/>
       </c>
-      <c r="I195" s="1">
+      <c r="I195" s="3">
         <f>G195-H195</f>
         <v/>
       </c>
@@ -7130,26 +7136,26 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>10827.28</v>
+        <v>10726.67</v>
       </c>
       <c r="C196" t="n">
-        <v>10827.28</v>
+        <v>10758.84</v>
       </c>
       <c r="D196" t="n">
-        <v>10688.59</v>
+        <v>10701.25</v>
       </c>
       <c r="E196" t="n">
-        <v>10716.75</v>
-      </c>
-      <c r="G196" s="1">
+        <v>10727.23</v>
+      </c>
+      <c r="G196" s="3">
         <f>AVERAGE(E192:E196)</f>
         <v/>
       </c>
-      <c r="H196" s="1">
+      <c r="H196" s="3">
         <f>AVERAGE(E167:E196)</f>
         <v/>
       </c>
-      <c r="I196" s="1">
+      <c r="I196" s="3">
         <f>G196-H196</f>
         <v/>
       </c>
@@ -7159,26 +7165,26 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>10663.57</v>
+        <v>10776.53</v>
       </c>
       <c r="C197" t="n">
-        <v>10725.71</v>
+        <v>10882.04</v>
       </c>
       <c r="D197" t="n">
-        <v>10606.26</v>
+        <v>10770.47</v>
       </c>
       <c r="E197" t="n">
-        <v>10683.9</v>
-      </c>
-      <c r="G197" s="1">
+        <v>10868.14</v>
+      </c>
+      <c r="G197" s="3">
         <f>AVERAGE(E193:E197)</f>
         <v/>
       </c>
-      <c r="H197" s="1">
+      <c r="H197" s="3">
         <f>AVERAGE(E168:E197)</f>
         <v/>
       </c>
-      <c r="I197" s="1">
+      <c r="I197" s="3">
         <f>G197-H197</f>
         <v/>
       </c>
@@ -7188,26 +7194,26 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>10702.6</v>
+        <v>10881.78</v>
       </c>
       <c r="C198" t="n">
-        <v>10757.01</v>
+        <v>10883.98</v>
       </c>
       <c r="D198" t="n">
-        <v>10688.55</v>
+        <v>10806.73</v>
       </c>
       <c r="E198" t="n">
-        <v>10690.96</v>
-      </c>
-      <c r="G198" s="1">
+        <v>10828.61</v>
+      </c>
+      <c r="G198" s="3">
         <f>AVERAGE(E194:E198)</f>
         <v/>
       </c>
-      <c r="H198" s="1">
+      <c r="H198" s="3">
         <f>AVERAGE(E169:E198)</f>
         <v/>
       </c>
-      <c r="I198" s="1">
+      <c r="I198" s="3">
         <f>G198-H198</f>
         <v/>
       </c>
@@ -7217,26 +7223,26 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>10698.76</v>
+        <v>10794.22</v>
       </c>
       <c r="C199" t="n">
-        <v>10729.9</v>
+        <v>10806.56</v>
       </c>
       <c r="D199" t="n">
-        <v>10663.44</v>
+        <v>10750.81</v>
       </c>
       <c r="E199" t="n">
-        <v>10699.05</v>
-      </c>
-      <c r="G199" s="1">
+        <v>10760.21</v>
+      </c>
+      <c r="G199" s="3">
         <f>AVERAGE(E195:E199)</f>
         <v/>
       </c>
-      <c r="H199" s="1">
+      <c r="H199" s="3">
         <f>AVERAGE(E170:E199)</f>
         <v/>
       </c>
-      <c r="I199" s="1">
+      <c r="I199" s="3">
         <f>G199-H199</f>
         <v/>
       </c>
@@ -7246,26 +7252,26 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>10697.01</v>
+        <v>10808.5</v>
       </c>
       <c r="C200" t="n">
-        <v>10792.2</v>
+        <v>10882.75</v>
       </c>
       <c r="D200" t="n">
-        <v>10697.01</v>
+        <v>10808.5</v>
       </c>
       <c r="E200" t="n">
-        <v>10792.2</v>
-      </c>
-      <c r="G200" s="1">
+        <v>10857.27</v>
+      </c>
+      <c r="G200" s="3">
         <f>AVERAGE(E196:E200)</f>
         <v/>
       </c>
-      <c r="H200" s="1">
+      <c r="H200" s="3">
         <f>AVERAGE(E171:E200)</f>
         <v/>
       </c>
-      <c r="I200" s="1">
+      <c r="I200" s="3">
         <f>G200-H200</f>
         <v/>
       </c>
@@ -7275,26 +7281,26 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>10790.24</v>
+        <v>10886.19</v>
       </c>
       <c r="C201" t="n">
-        <v>10828.21</v>
+        <v>10908.36</v>
       </c>
       <c r="D201" t="n">
-        <v>10774.69</v>
+        <v>10814.54</v>
       </c>
       <c r="E201" t="n">
-        <v>10804.2</v>
-      </c>
-      <c r="G201" s="1">
+        <v>10831.41</v>
+      </c>
+      <c r="G201" s="3">
         <f>AVERAGE(E197:E201)</f>
         <v/>
       </c>
-      <c r="H201" s="1">
+      <c r="H201" s="3">
         <f>AVERAGE(E172:E201)</f>
         <v/>
       </c>
-      <c r="I201" s="1">
+      <c r="I201" s="3">
         <f>G201-H201</f>
         <v/>
       </c>
@@ -7304,26 +7310,26 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>10817.33</v>
+        <v>10857.1</v>
       </c>
       <c r="C202" t="n">
-        <v>10863.13</v>
+        <v>10972.41</v>
       </c>
       <c r="D202" t="n">
-        <v>10802.79</v>
+        <v>10835.84</v>
       </c>
       <c r="E202" t="n">
-        <v>10863.13</v>
-      </c>
-      <c r="G202" s="1">
+        <v>10972.41</v>
+      </c>
+      <c r="G202" s="3">
         <f>AVERAGE(E198:E202)</f>
         <v/>
       </c>
-      <c r="H202" s="1">
+      <c r="H202" s="3">
         <f>AVERAGE(E173:E202)</f>
         <v/>
       </c>
-      <c r="I202" s="1">
+      <c r="I202" s="3">
         <f>G202-H202</f>
         <v/>
       </c>
@@ -7333,26 +7339,26 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>10865.91</v>
+        <v>10959.56</v>
       </c>
       <c r="C203" t="n">
-        <v>10865.91</v>
+        <v>11003.49</v>
       </c>
       <c r="D203" t="n">
-        <v>10770.32</v>
+        <v>10941.77</v>
       </c>
       <c r="E203" t="n">
-        <v>10809.35</v>
-      </c>
-      <c r="G203" s="1">
+        <v>10978.85</v>
+      </c>
+      <c r="G203" s="3">
         <f>AVERAGE(E199:E203)</f>
         <v/>
       </c>
-      <c r="H203" s="1">
+      <c r="H203" s="3">
         <f>AVERAGE(E174:E203)</f>
         <v/>
       </c>
-      <c r="I203" s="1">
+      <c r="I203" s="3">
         <f>G203-H203</f>
         <v/>
       </c>
@@ -7362,26 +7368,26 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>10847.17</v>
+        <v>10974.08</v>
       </c>
       <c r="C204" t="n">
-        <v>10916.69</v>
+        <v>11007.35</v>
       </c>
       <c r="D204" t="n">
-        <v>10847.17</v>
+        <v>10947.29</v>
       </c>
       <c r="E204" t="n">
-        <v>10902.21</v>
-      </c>
-      <c r="G204" s="1">
+        <v>10974.19</v>
+      </c>
+      <c r="G204" s="3">
         <f>AVERAGE(E200:E204)</f>
         <v/>
       </c>
-      <c r="H204" s="1">
+      <c r="H204" s="3">
         <f>AVERAGE(E175:E204)</f>
         <v/>
       </c>
-      <c r="I204" s="1">
+      <c r="I204" s="3">
         <f>G204-H204</f>
         <v/>
       </c>
@@ -7391,26 +7397,26 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>10946.33</v>
+        <v>10973.77</v>
       </c>
       <c r="C205" t="n">
-        <v>11005.55</v>
+        <v>11051.09</v>
       </c>
       <c r="D205" t="n">
-        <v>10946.33</v>
+        <v>10961.27</v>
       </c>
       <c r="E205" t="n">
-        <v>10989.55</v>
-      </c>
-      <c r="G205" s="1">
+        <v>11034.19</v>
+      </c>
+      <c r="G205" s="3">
         <f>AVERAGE(E201:E205)</f>
         <v/>
       </c>
-      <c r="H205" s="1">
+      <c r="H205" s="3">
         <f>AVERAGE(E176:E205)</f>
         <v/>
       </c>
-      <c r="I205" s="1">
+      <c r="I205" s="3">
         <f>G205-H205</f>
         <v/>
       </c>
@@ -7420,26 +7426,26 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>11029.12</v>
+        <v>11050.09</v>
       </c>
       <c r="C206" t="n">
-        <v>11099.57</v>
+        <v>11073.95</v>
       </c>
       <c r="D206" t="n">
-        <v>11029.11</v>
+        <v>10966.96</v>
       </c>
       <c r="E206" t="n">
-        <v>11099.57</v>
-      </c>
-      <c r="G206" s="1">
+        <v>11006.34</v>
+      </c>
+      <c r="G206" s="3">
         <f>AVERAGE(E202:E206)</f>
         <v/>
       </c>
-      <c r="H206" s="1">
+      <c r="H206" s="3">
         <f>AVERAGE(E177:E206)</f>
         <v/>
       </c>
-      <c r="I206" s="1">
+      <c r="I206" s="3">
         <f>G206-H206</f>
         <v/>
       </c>
@@ -7449,26 +7455,26 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>11153.97</v>
+        <v>11014.19</v>
       </c>
       <c r="C207" t="n">
-        <v>11186.05</v>
+        <v>11062.43</v>
       </c>
       <c r="D207" t="n">
-        <v>11080.07</v>
+        <v>11012.95</v>
       </c>
       <c r="E207" t="n">
-        <v>11093.75</v>
-      </c>
-      <c r="G207" s="1">
+        <v>11051.8</v>
+      </c>
+      <c r="G207" s="3">
         <f>AVERAGE(E203:E207)</f>
         <v/>
       </c>
-      <c r="H207" s="1">
+      <c r="H207" s="3">
         <f>AVERAGE(E178:E207)</f>
         <v/>
       </c>
-      <c r="I207" s="1">
+      <c r="I207" s="3">
         <f>G207-H207</f>
         <v/>
       </c>
@@ -7478,26 +7484,26 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>11037.26</v>
+        <v>11048.89</v>
       </c>
       <c r="C208" t="n">
-        <v>11063.94</v>
+        <v>11064.34</v>
       </c>
       <c r="D208" t="n">
-        <v>10987.68</v>
+        <v>10906.42</v>
       </c>
       <c r="E208" t="n">
-        <v>11063.94</v>
-      </c>
-      <c r="G208" s="1">
+        <v>10919.63</v>
+      </c>
+      <c r="G208" s="3">
         <f>AVERAGE(E204:E208)</f>
         <v/>
       </c>
-      <c r="H208" s="1">
+      <c r="H208" s="3">
         <f>AVERAGE(E179:E208)</f>
         <v/>
       </c>
-      <c r="I208" s="1">
+      <c r="I208" s="3">
         <f>G208-H208</f>
         <v/>
       </c>
@@ -7507,26 +7513,26 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>11087.86</v>
+        <v>10918.74</v>
       </c>
       <c r="C209" t="n">
-        <v>11097.11</v>
+        <v>10926.73</v>
       </c>
       <c r="D209" t="n">
-        <v>10952.85</v>
+        <v>10839.46</v>
       </c>
       <c r="E209" t="n">
-        <v>10964.22</v>
-      </c>
-      <c r="G209" s="1">
+        <v>10863.94</v>
+      </c>
+      <c r="G209" s="3">
         <f>AVERAGE(E205:E209)</f>
         <v/>
       </c>
-      <c r="H209" s="1">
+      <c r="H209" s="3">
         <f>AVERAGE(E180:E209)</f>
         <v/>
       </c>
-      <c r="I209" s="1">
+      <c r="I209" s="3">
         <f>G209-H209</f>
         <v/>
       </c>
@@ -7536,26 +7542,26 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>10981.39</v>
+        <v>10826.19</v>
       </c>
       <c r="C210" t="n">
-        <v>11028.27</v>
+        <v>10826.19</v>
       </c>
       <c r="D210" t="n">
-        <v>10956.49</v>
+        <v>10707.76</v>
       </c>
       <c r="E210" t="n">
-        <v>11021.38</v>
-      </c>
-      <c r="G210" s="1">
+        <v>10718.91</v>
+      </c>
+      <c r="G210" s="3">
         <f>AVERAGE(E206:E210)</f>
         <v/>
       </c>
-      <c r="H210" s="1">
+      <c r="H210" s="3">
         <f>AVERAGE(E181:E210)</f>
         <v/>
       </c>
-      <c r="I210" s="1">
+      <c r="I210" s="3">
         <f>G210-H210</f>
         <v/>
       </c>
@@ -7565,26 +7571,26 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>11042.41</v>
+        <v>10665.29</v>
       </c>
       <c r="C211" t="n">
-        <v>11058.06</v>
+        <v>10669.63</v>
       </c>
       <c r="D211" t="n">
-        <v>10989.93</v>
+        <v>10446.94</v>
       </c>
       <c r="E211" t="n">
-        <v>10995.13</v>
-      </c>
-      <c r="G211" s="1">
+        <v>10517.12</v>
+      </c>
+      <c r="G211" s="3">
         <f>AVERAGE(E207:E211)</f>
         <v/>
       </c>
-      <c r="H211" s="1">
+      <c r="H211" s="3">
         <f>AVERAGE(E182:E211)</f>
         <v/>
       </c>
-      <c r="I211" s="1">
+      <c r="I211" s="3">
         <f>G211-H211</f>
         <v/>
       </c>
@@ -7594,26 +7600,26 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>11016.92</v>
+        <v>10467.85</v>
       </c>
       <c r="C212" t="n">
-        <v>11016.92</v>
+        <v>10507.83</v>
       </c>
       <c r="D212" t="n">
-        <v>10905.34</v>
+        <v>10403.13</v>
       </c>
       <c r="E212" t="n">
-        <v>10924.3</v>
-      </c>
-      <c r="G212" s="1">
+        <v>10455.93</v>
+      </c>
+      <c r="G212" s="3">
         <f>AVERAGE(E208:E212)</f>
         <v/>
       </c>
-      <c r="H212" s="1">
+      <c r="H212" s="3">
         <f>AVERAGE(E183:E212)</f>
         <v/>
       </c>
-      <c r="I212" s="1">
+      <c r="I212" s="3">
         <f>G212-H212</f>
         <v/>
       </c>
@@ -7623,26 +7629,26 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>10922.55</v>
+        <v>10464.39</v>
       </c>
       <c r="C213" t="n">
-        <v>10922.55</v>
+        <v>10503.1</v>
       </c>
       <c r="D213" t="n">
-        <v>10807.56</v>
+        <v>10428.97</v>
       </c>
       <c r="E213" t="n">
-        <v>10846.99</v>
-      </c>
-      <c r="G213" s="1">
+        <v>10466.83</v>
+      </c>
+      <c r="G213" s="3">
         <f>AVERAGE(E209:E213)</f>
         <v/>
       </c>
-      <c r="H213" s="1">
+      <c r="H213" s="3">
         <f>AVERAGE(E184:E213)</f>
         <v/>
       </c>
-      <c r="I213" s="1">
+      <c r="I213" s="3">
         <f>G213-H213</f>
         <v/>
       </c>
@@ -7652,26 +7658,26 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>10869.8</v>
+        <v>10272.04</v>
       </c>
       <c r="C214" t="n">
-        <v>10877.72</v>
+        <v>10272.04</v>
       </c>
       <c r="D214" t="n">
-        <v>10689.29</v>
+        <v>9797.93</v>
       </c>
       <c r="E214" t="n">
-        <v>10725.8</v>
-      </c>
-      <c r="G214" s="1">
+        <v>9806.110000000001</v>
+      </c>
+      <c r="G214" s="3">
         <f>AVERAGE(E210:E214)</f>
         <v/>
       </c>
-      <c r="H214" s="1">
+      <c r="H214" s="3">
         <f>AVERAGE(E185:E214)</f>
         <v/>
       </c>
-      <c r="I214" s="1">
+      <c r="I214" s="3">
         <f>G214-H214</f>
         <v/>
       </c>
@@ -7681,26 +7687,26 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>10723</v>
+        <v>9811.58</v>
       </c>
       <c r="C215" t="n">
-        <v>10765.42</v>
+        <v>10046.01</v>
       </c>
       <c r="D215" t="n">
-        <v>10669.59</v>
+        <v>9740.76</v>
       </c>
       <c r="E215" t="n">
-        <v>10752.3</v>
-      </c>
-      <c r="G215" s="1">
+        <v>10045.81</v>
+      </c>
+      <c r="G215" s="3">
         <f>AVERAGE(E211:E215)</f>
         <v/>
       </c>
-      <c r="H215" s="1">
+      <c r="H215" s="3">
         <f>AVERAGE(E186:E215)</f>
         <v/>
       </c>
-      <c r="I215" s="1">
+      <c r="I215" s="3">
         <f>G215-H215</f>
         <v/>
       </c>
@@ -7710,26 +7716,26 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>10762.91</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="C216" t="n">
-        <v>10779.93</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="D216" t="n">
-        <v>10667.25</v>
+        <v>9890.469999999999</v>
       </c>
       <c r="E216" t="n">
-        <v>10722.57</v>
-      </c>
-      <c r="G216" s="1">
+        <v>9901.120000000001</v>
+      </c>
+      <c r="G216" s="3">
         <f>AVERAGE(E212:E216)</f>
         <v/>
       </c>
-      <c r="H216" s="1">
+      <c r="H216" s="3">
         <f>AVERAGE(E187:E216)</f>
         <v/>
       </c>
-      <c r="I216" s="1">
+      <c r="I216" s="3">
         <f>G216-H216</f>
         <v/>
       </c>
@@ -7739,26 +7745,26 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>10726.67</v>
+        <v>9891.969999999999</v>
       </c>
       <c r="C217" t="n">
-        <v>10758.84</v>
+        <v>10011.19</v>
       </c>
       <c r="D217" t="n">
-        <v>10701.25</v>
+        <v>9888.73</v>
       </c>
       <c r="E217" t="n">
-        <v>10727.23</v>
-      </c>
-      <c r="G217" s="1">
+        <v>9981.1</v>
+      </c>
+      <c r="G217" s="3">
         <f>AVERAGE(E213:E217)</f>
         <v/>
       </c>
-      <c r="H217" s="1">
+      <c r="H217" s="3">
         <f>AVERAGE(E188:E217)</f>
         <v/>
       </c>
-      <c r="I217" s="1">
+      <c r="I217" s="3">
         <f>G217-H217</f>
         <v/>
       </c>
@@ -7768,26 +7774,26 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>10776.53</v>
+        <v>10048.43</v>
       </c>
       <c r="C218" t="n">
-        <v>10882.04</v>
+        <v>10127.01</v>
       </c>
       <c r="D218" t="n">
-        <v>10770.47</v>
+        <v>9978.25</v>
       </c>
       <c r="E218" t="n">
-        <v>10868.14</v>
-      </c>
-      <c r="G218" s="1">
+        <v>9979.139999999999</v>
+      </c>
+      <c r="G218" s="3">
         <f>AVERAGE(E214:E218)</f>
         <v/>
       </c>
-      <c r="H218" s="1">
+      <c r="H218" s="3">
         <f>AVERAGE(E189:E218)</f>
         <v/>
       </c>
-      <c r="I218" s="1">
+      <c r="I218" s="3">
         <f>G218-H218</f>
         <v/>
       </c>
@@ -7797,26 +7803,26 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>10881.78</v>
+        <v>9975.459999999999</v>
       </c>
       <c r="C219" t="n">
-        <v>10883.98</v>
+        <v>10019.5</v>
       </c>
       <c r="D219" t="n">
-        <v>10806.73</v>
+        <v>9919.790000000001</v>
       </c>
       <c r="E219" t="n">
-        <v>10828.61</v>
-      </c>
-      <c r="G219" s="1">
+        <v>9953.73</v>
+      </c>
+      <c r="G219" s="3">
         <f>AVERAGE(E215:E219)</f>
         <v/>
       </c>
-      <c r="H219" s="1">
+      <c r="H219" s="3">
         <f>AVERAGE(E190:E219)</f>
         <v/>
       </c>
-      <c r="I219" s="1">
+      <c r="I219" s="3">
         <f>G219-H219</f>
         <v/>
       </c>
@@ -7826,26 +7832,26 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>10794.22</v>
+        <v>9879.469999999999</v>
       </c>
       <c r="C220" t="n">
-        <v>10806.56</v>
+        <v>9919.26</v>
       </c>
       <c r="D220" t="n">
-        <v>10750.81</v>
+        <v>9762.91</v>
       </c>
       <c r="E220" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G220" s="1">
+        <v>9919.26</v>
+      </c>
+      <c r="G220" s="3">
         <f>AVERAGE(E216:E220)</f>
         <v/>
       </c>
-      <c r="H220" s="1">
+      <c r="H220" s="3">
         <f>AVERAGE(E191:E220)</f>
         <v/>
       </c>
-      <c r="I220" s="1">
+      <c r="I220" s="3">
         <f>G220-H220</f>
         <v/>
       </c>
@@ -7855,26 +7861,26 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>10808.5</v>
+        <v>9871.299999999999</v>
       </c>
       <c r="C221" t="n">
-        <v>10882.75</v>
+        <v>9984.15</v>
       </c>
       <c r="D221" t="n">
-        <v>10808.5</v>
+        <v>9822.15</v>
       </c>
       <c r="E221" t="n">
-        <v>10857.27</v>
-      </c>
-      <c r="G221" s="1">
+        <v>9974.280000000001</v>
+      </c>
+      <c r="G221" s="3">
         <f>AVERAGE(E217:E221)</f>
         <v/>
       </c>
-      <c r="H221" s="1">
+      <c r="H221" s="3">
         <f>AVERAGE(E192:E221)</f>
         <v/>
       </c>
-      <c r="I221" s="1">
+      <c r="I221" s="3">
         <f>G221-H221</f>
         <v/>
       </c>
@@ -7884,26 +7890,26 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>10886.19</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="C222" t="n">
-        <v>10908.36</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="D222" t="n">
-        <v>10814.54</v>
+        <v>9775.200000000001</v>
       </c>
       <c r="E222" t="n">
-        <v>10831.41</v>
-      </c>
-      <c r="G222" s="1">
+        <v>9775.200000000001</v>
+      </c>
+      <c r="G222" s="3">
         <f>AVERAGE(E218:E222)</f>
         <v/>
       </c>
-      <c r="H222" s="1">
+      <c r="H222" s="3">
         <f>AVERAGE(E193:E222)</f>
         <v/>
       </c>
-      <c r="I222" s="1">
+      <c r="I222" s="3">
         <f>G222-H222</f>
         <v/>
       </c>
@@ -7913,26 +7919,26 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>10857.1</v>
+        <v>9774.290000000001</v>
       </c>
       <c r="C223" t="n">
-        <v>10972.41</v>
+        <v>9809.190000000001</v>
       </c>
       <c r="D223" t="n">
-        <v>10835.84</v>
+        <v>9667.85</v>
       </c>
       <c r="E223" t="n">
-        <v>10972.41</v>
-      </c>
-      <c r="G223" s="1">
+        <v>9759.4</v>
+      </c>
+      <c r="G223" s="3">
         <f>AVERAGE(E219:E223)</f>
         <v/>
       </c>
-      <c r="H223" s="1">
+      <c r="H223" s="3">
         <f>AVERAGE(E194:E223)</f>
         <v/>
       </c>
-      <c r="I223" s="1">
+      <c r="I223" s="3">
         <f>G223-H223</f>
         <v/>
       </c>
@@ -7942,26 +7948,26 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>10959.56</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="C224" t="n">
-        <v>11003.49</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="D224" t="n">
-        <v>10941.77</v>
+        <v>9475.610000000001</v>
       </c>
       <c r="E224" t="n">
-        <v>10978.85</v>
-      </c>
-      <c r="G224" s="1">
+        <v>9520.790000000001</v>
+      </c>
+      <c r="G224" s="3">
         <f>AVERAGE(E220:E224)</f>
         <v/>
       </c>
-      <c r="H224" s="1">
+      <c r="H224" s="3">
         <f>AVERAGE(E195:E224)</f>
         <v/>
       </c>
-      <c r="I224" s="1">
+      <c r="I224" s="3">
         <f>G224-H224</f>
         <v/>
       </c>
@@ -7971,26 +7977,26 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>10974.08</v>
+        <v>9570.190000000001</v>
       </c>
       <c r="C225" t="n">
-        <v>11007.35</v>
+        <v>9629.07</v>
       </c>
       <c r="D225" t="n">
-        <v>10947.29</v>
+        <v>9400.690000000001</v>
       </c>
       <c r="E225" t="n">
-        <v>10974.19</v>
-      </c>
-      <c r="G225" s="1">
+        <v>9489.18</v>
+      </c>
+      <c r="G225" s="3">
         <f>AVERAGE(E221:E225)</f>
         <v/>
       </c>
-      <c r="H225" s="1">
+      <c r="H225" s="3">
         <f>AVERAGE(E196:E225)</f>
         <v/>
       </c>
-      <c r="I225" s="1">
+      <c r="I225" s="3">
         <f>G225-H225</f>
         <v/>
       </c>
@@ -8000,26 +8006,26 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>10973.77</v>
+        <v>9515.43</v>
       </c>
       <c r="C226" t="n">
-        <v>11051.09</v>
+        <v>9554.35</v>
       </c>
       <c r="D226" t="n">
-        <v>10961.27</v>
+        <v>9459.120000000001</v>
       </c>
       <c r="E226" t="n">
-        <v>11034.19</v>
-      </c>
-      <c r="G226" s="1">
+        <v>9516.32</v>
+      </c>
+      <c r="G226" s="3">
         <f>AVERAGE(E222:E226)</f>
         <v/>
       </c>
-      <c r="H226" s="1">
+      <c r="H226" s="3">
         <f>AVERAGE(E197:E226)</f>
         <v/>
       </c>
-      <c r="I226" s="1">
+      <c r="I226" s="3">
         <f>G226-H226</f>
         <v/>
       </c>
@@ -8029,26 +8035,26 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>11050.09</v>
+        <v>9508.809999999999</v>
       </c>
       <c r="C227" t="n">
-        <v>11073.95</v>
+        <v>9574.83</v>
       </c>
       <c r="D227" t="n">
-        <v>10966.96</v>
+        <v>9481.66</v>
       </c>
       <c r="E227" t="n">
-        <v>11006.34</v>
-      </c>
-      <c r="G227" s="1">
+        <v>9526.110000000001</v>
+      </c>
+      <c r="G227" s="3">
         <f>AVERAGE(E223:E227)</f>
         <v/>
       </c>
-      <c r="H227" s="1">
+      <c r="H227" s="3">
         <f>AVERAGE(E198:E227)</f>
         <v/>
       </c>
-      <c r="I227" s="1">
+      <c r="I227" s="3">
         <f>G227-H227</f>
         <v/>
       </c>
@@ -8058,26 +8064,26 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>11014.19</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="C228" t="n">
-        <v>11062.43</v>
+        <v>9802.129999999999</v>
       </c>
       <c r="D228" t="n">
-        <v>11012.95</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="E228" t="n">
-        <v>11051.8</v>
-      </c>
-      <c r="G228" s="1">
+        <v>9802.129999999999</v>
+      </c>
+      <c r="G228" s="3">
         <f>AVERAGE(E224:E228)</f>
         <v/>
       </c>
-      <c r="H228" s="1">
+      <c r="H228" s="3">
         <f>AVERAGE(E199:E228)</f>
         <v/>
       </c>
-      <c r="I228" s="1">
+      <c r="I228" s="3">
         <f>G228-H228</f>
         <v/>
       </c>
@@ -8087,26 +8093,26 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>11048.89</v>
+        <v>9812.200000000001</v>
       </c>
       <c r="C229" t="n">
-        <v>11064.34</v>
+        <v>9869.59</v>
       </c>
       <c r="D229" t="n">
-        <v>10906.42</v>
+        <v>9742.610000000001</v>
       </c>
       <c r="E229" t="n">
-        <v>10919.63</v>
-      </c>
-      <c r="G229" s="1">
+        <v>9844.74</v>
+      </c>
+      <c r="G229" s="3">
         <f>AVERAGE(E225:E229)</f>
         <v/>
       </c>
-      <c r="H229" s="1">
+      <c r="H229" s="3">
         <f>AVERAGE(E200:E229)</f>
         <v/>
       </c>
-      <c r="I229" s="1">
+      <c r="I229" s="3">
         <f>G229-H229</f>
         <v/>
       </c>
@@ -8116,26 +8122,26 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>10918.74</v>
+        <v>9871.4</v>
       </c>
       <c r="C230" t="n">
-        <v>10926.73</v>
+        <v>9906.59</v>
       </c>
       <c r="D230" t="n">
-        <v>10839.46</v>
+        <v>9817.290000000001</v>
       </c>
       <c r="E230" t="n">
-        <v>10863.94</v>
-      </c>
-      <c r="G230" s="1">
+        <v>9906.59</v>
+      </c>
+      <c r="G230" s="3">
         <f>AVERAGE(E226:E230)</f>
         <v/>
       </c>
-      <c r="H230" s="1">
+      <c r="H230" s="3">
         <f>AVERAGE(E201:E230)</f>
         <v/>
       </c>
-      <c r="I230" s="1">
+      <c r="I230" s="3">
         <f>G230-H230</f>
         <v/>
       </c>
@@ -8145,26 +8151,26 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>10826.19</v>
+        <v>9856.85</v>
       </c>
       <c r="C231" t="n">
-        <v>10826.19</v>
+        <v>9889.809999999999</v>
       </c>
       <c r="D231" t="n">
-        <v>10707.76</v>
+        <v>9786.25</v>
       </c>
       <c r="E231" t="n">
-        <v>10718.91</v>
-      </c>
-      <c r="G231" s="1">
+        <v>9889.809999999999</v>
+      </c>
+      <c r="G231" s="3">
         <f>AVERAGE(E227:E231)</f>
         <v/>
       </c>
-      <c r="H231" s="1">
+      <c r="H231" s="3">
         <f>AVERAGE(E202:E231)</f>
         <v/>
       </c>
-      <c r="I231" s="1">
+      <c r="I231" s="3">
         <f>G231-H231</f>
         <v/>
       </c>
@@ -8174,26 +8180,26 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>10665.29</v>
+        <v>9888.41</v>
       </c>
       <c r="C232" t="n">
-        <v>10669.63</v>
+        <v>9899.969999999999</v>
       </c>
       <c r="D232" t="n">
-        <v>10446.94</v>
+        <v>9782.860000000001</v>
       </c>
       <c r="E232" t="n">
-        <v>10517.12</v>
-      </c>
-      <c r="G232" s="1">
+        <v>9824.950000000001</v>
+      </c>
+      <c r="G232" s="3">
         <f>AVERAGE(E228:E232)</f>
         <v/>
       </c>
-      <c r="H232" s="1">
+      <c r="H232" s="3">
         <f>AVERAGE(E203:E232)</f>
         <v/>
       </c>
-      <c r="I232" s="1">
+      <c r="I232" s="3">
         <f>G232-H232</f>
         <v/>
       </c>
@@ -8203,26 +8209,26 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>10467.85</v>
+        <v>9818.15</v>
       </c>
       <c r="C233" t="n">
-        <v>10507.83</v>
+        <v>9912.530000000001</v>
       </c>
       <c r="D233" t="n">
-        <v>10403.13</v>
+        <v>9817.950000000001</v>
       </c>
       <c r="E233" t="n">
-        <v>10455.93</v>
-      </c>
-      <c r="G233" s="1">
+        <v>9908.35</v>
+      </c>
+      <c r="G233" s="3">
         <f>AVERAGE(E229:E233)</f>
         <v/>
       </c>
-      <c r="H233" s="1">
+      <c r="H233" s="3">
         <f>AVERAGE(E204:E233)</f>
         <v/>
       </c>
-      <c r="I233" s="1">
+      <c r="I233" s="3">
         <f>G233-H233</f>
         <v/>
       </c>
@@ -8232,26 +8238,26 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>10464.39</v>
+        <v>9958.469999999999</v>
       </c>
       <c r="C234" t="n">
-        <v>10503.1</v>
+        <v>10014.42</v>
       </c>
       <c r="D234" t="n">
-        <v>10428.97</v>
+        <v>9938.549999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>10466.83</v>
-      </c>
-      <c r="G234" s="1">
+        <v>9945.309999999999</v>
+      </c>
+      <c r="G234" s="3">
         <f>AVERAGE(E230:E234)</f>
         <v/>
       </c>
-      <c r="H234" s="1">
+      <c r="H234" s="3">
         <f>AVERAGE(E205:E234)</f>
         <v/>
       </c>
-      <c r="I234" s="1">
+      <c r="I234" s="3">
         <f>G234-H234</f>
         <v/>
       </c>
@@ -8261,26 +8267,26 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>10272.04</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="C235" t="n">
-        <v>10272.04</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="D235" t="n">
-        <v>9797.93</v>
+        <v>9798.450000000001</v>
       </c>
       <c r="E235" t="n">
-        <v>9806.110000000001</v>
-      </c>
-      <c r="G235" s="1">
+        <v>9830.01</v>
+      </c>
+      <c r="G235" s="3">
         <f>AVERAGE(E231:E235)</f>
         <v/>
       </c>
-      <c r="H235" s="1">
+      <c r="H235" s="3">
         <f>AVERAGE(E206:E235)</f>
         <v/>
       </c>
-      <c r="I235" s="1">
+      <c r="I235" s="3">
         <f>G235-H235</f>
         <v/>
       </c>
@@ -8290,26 +8296,26 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>9811.58</v>
+        <v>9806.799999999999</v>
       </c>
       <c r="C236" t="n">
-        <v>10046.01</v>
+        <v>9875.84</v>
       </c>
       <c r="D236" t="n">
-        <v>9740.76</v>
+        <v>9764.459999999999</v>
       </c>
       <c r="E236" t="n">
-        <v>10045.81</v>
-      </c>
-      <c r="G236" s="1">
+        <v>9831.209999999999</v>
+      </c>
+      <c r="G236" s="3">
         <f>AVERAGE(E232:E236)</f>
         <v/>
       </c>
-      <c r="H236" s="1">
+      <c r="H236" s="3">
         <f>AVERAGE(E207:E236)</f>
         <v/>
       </c>
-      <c r="I236" s="1">
+      <c r="I236" s="3">
         <f>G236-H236</f>
         <v/>
       </c>
@@ -8319,26 +8325,26 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>9989.629999999999</v>
+        <v>9727.17</v>
       </c>
       <c r="C237" t="n">
-        <v>9989.629999999999</v>
+        <v>9777.35</v>
       </c>
       <c r="D237" t="n">
-        <v>9890.469999999999</v>
+        <v>9616.16</v>
       </c>
       <c r="E237" t="n">
-        <v>9901.120000000001</v>
-      </c>
-      <c r="G237" s="1">
+        <v>9775.84</v>
+      </c>
+      <c r="G237" s="3">
         <f>AVERAGE(E233:E237)</f>
         <v/>
       </c>
-      <c r="H237" s="1">
+      <c r="H237" s="3">
         <f>AVERAGE(E208:E237)</f>
         <v/>
       </c>
-      <c r="I237" s="1">
+      <c r="I237" s="3">
         <f>G237-H237</f>
         <v/>
       </c>
@@ -8348,26 +8354,26 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>9891.969999999999</v>
+        <v>9799.690000000001</v>
       </c>
       <c r="C238" t="n">
-        <v>10011.19</v>
+        <v>9823.25</v>
       </c>
       <c r="D238" t="n">
-        <v>9888.73</v>
+        <v>9763.889999999999</v>
       </c>
       <c r="E238" t="n">
-        <v>9981.1</v>
-      </c>
-      <c r="G238" s="1">
+        <v>9791.879999999999</v>
+      </c>
+      <c r="G238" s="3">
         <f>AVERAGE(E234:E238)</f>
         <v/>
       </c>
-      <c r="H238" s="1">
+      <c r="H238" s="3">
         <f>AVERAGE(E209:E238)</f>
         <v/>
       </c>
-      <c r="I238" s="1">
+      <c r="I238" s="3">
         <f>G238-H238</f>
         <v/>
       </c>
@@ -8377,26 +8383,26 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>10048.43</v>
+        <v>9806.58</v>
       </c>
       <c r="C239" t="n">
-        <v>10127.01</v>
+        <v>9844.389999999999</v>
       </c>
       <c r="D239" t="n">
-        <v>9978.25</v>
+        <v>9755.120000000001</v>
       </c>
       <c r="E239" t="n">
-        <v>9979.139999999999</v>
-      </c>
-      <c r="G239" s="1">
+        <v>9826.459999999999</v>
+      </c>
+      <c r="G239" s="3">
         <f>AVERAGE(E235:E239)</f>
         <v/>
       </c>
-      <c r="H239" s="1">
+      <c r="H239" s="3">
         <f>AVERAGE(E210:E239)</f>
         <v/>
       </c>
-      <c r="I239" s="1">
+      <c r="I239" s="3">
         <f>G239-H239</f>
         <v/>
       </c>
@@ -8406,26 +8412,26 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>9975.459999999999</v>
+        <v>9819.049999999999</v>
       </c>
       <c r="C240" t="n">
-        <v>10019.5</v>
+        <v>9851.290000000001</v>
       </c>
       <c r="D240" t="n">
-        <v>9919.790000000001</v>
+        <v>9770.870000000001</v>
       </c>
       <c r="E240" t="n">
-        <v>9953.73</v>
-      </c>
-      <c r="G240" s="1">
+        <v>9797.09</v>
+      </c>
+      <c r="G240" s="3">
         <f>AVERAGE(E236:E240)</f>
         <v/>
       </c>
-      <c r="H240" s="1">
+      <c r="H240" s="3">
         <f>AVERAGE(E211:E240)</f>
         <v/>
       </c>
-      <c r="I240" s="1">
+      <c r="I240" s="3">
         <f>G240-H240</f>
         <v/>
       </c>
@@ -8435,26 +8441,26 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>9879.469999999999</v>
+        <v>9795.469999999999</v>
       </c>
       <c r="C241" t="n">
-        <v>9919.26</v>
+        <v>9836.02</v>
       </c>
       <c r="D241" t="n">
-        <v>9762.91</v>
+        <v>9779.4</v>
       </c>
       <c r="E241" t="n">
-        <v>9919.26</v>
-      </c>
-      <c r="G241" s="1">
+        <v>9828.690000000001</v>
+      </c>
+      <c r="G241" s="3">
         <f>AVERAGE(E237:E241)</f>
         <v/>
       </c>
-      <c r="H241" s="1">
+      <c r="H241" s="3">
         <f>AVERAGE(E212:E241)</f>
         <v/>
       </c>
-      <c r="I241" s="1">
+      <c r="I241" s="3">
         <f>G241-H241</f>
         <v/>
       </c>
@@ -8464,26 +8470,26 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>9871.299999999999</v>
+        <v>9788.950000000001</v>
       </c>
       <c r="C242" t="n">
-        <v>9984.15</v>
+        <v>9800.030000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>9822.15</v>
+        <v>9726.799999999999</v>
       </c>
       <c r="E242" t="n">
-        <v>9974.280000000001</v>
-      </c>
-      <c r="G242" s="1">
+        <v>9743.99</v>
+      </c>
+      <c r="G242" s="3">
         <f>AVERAGE(E238:E242)</f>
         <v/>
       </c>
-      <c r="H242" s="1">
+      <c r="H242" s="3">
         <f>AVERAGE(E213:E242)</f>
         <v/>
       </c>
-      <c r="I242" s="1">
+      <c r="I242" s="3">
         <f>G242-H242</f>
         <v/>
       </c>
@@ -8493,26 +8499,26 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>9912.280000000001</v>
+        <v>9698.52</v>
       </c>
       <c r="C243" t="n">
-        <v>9912.280000000001</v>
+        <v>9753.690000000001</v>
       </c>
       <c r="D243" t="n">
-        <v>9775.200000000001</v>
+        <v>9632.469999999999</v>
       </c>
       <c r="E243" t="n">
-        <v>9775.200000000001</v>
-      </c>
-      <c r="G243" s="1">
+        <v>9741.52</v>
+      </c>
+      <c r="G243" s="3">
         <f>AVERAGE(E239:E243)</f>
         <v/>
       </c>
-      <c r="H243" s="1">
+      <c r="H243" s="3">
         <f>AVERAGE(E214:E243)</f>
         <v/>
       </c>
-      <c r="I243" s="1">
+      <c r="I243" s="3">
         <f>G243-H243</f>
         <v/>
       </c>
@@ -8522,26 +8528,26 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>9774.290000000001</v>
+        <v>9769.33</v>
       </c>
       <c r="C244" t="n">
-        <v>9809.190000000001</v>
+        <v>9792.99</v>
       </c>
       <c r="D244" t="n">
-        <v>9667.85</v>
+        <v>9702.77</v>
       </c>
       <c r="E244" t="n">
-        <v>9759.4</v>
-      </c>
-      <c r="G244" s="1">
+        <v>9714.709999999999</v>
+      </c>
+      <c r="G244" s="3">
         <f>AVERAGE(E240:E244)</f>
         <v/>
       </c>
-      <c r="H244" s="1">
+      <c r="H244" s="3">
         <f>AVERAGE(E215:E244)</f>
         <v/>
       </c>
-      <c r="I244" s="1">
+      <c r="I244" s="3">
         <f>G244-H244</f>
         <v/>
       </c>
@@ -8551,26 +8557,26 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>9622.950000000001</v>
+        <v>9730.639999999999</v>
       </c>
       <c r="C245" t="n">
-        <v>9622.950000000001</v>
+        <v>9738.799999999999</v>
       </c>
       <c r="D245" t="n">
-        <v>9475.610000000001</v>
+        <v>9654.91</v>
       </c>
       <c r="E245" t="n">
-        <v>9520.790000000001</v>
-      </c>
-      <c r="G245" s="1">
+        <v>9667.299999999999</v>
+      </c>
+      <c r="G245" s="3">
         <f>AVERAGE(E241:E245)</f>
         <v/>
       </c>
-      <c r="H245" s="1">
+      <c r="H245" s="3">
         <f>AVERAGE(E216:E245)</f>
         <v/>
       </c>
-      <c r="I245" s="1">
+      <c r="I245" s="3">
         <f>G245-H245</f>
         <v/>
       </c>
@@ -8580,26 +8586,26 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>9570.190000000001</v>
+        <v>9679.98</v>
       </c>
       <c r="C246" t="n">
-        <v>9629.07</v>
+        <v>9847.35</v>
       </c>
       <c r="D246" t="n">
-        <v>9400.690000000001</v>
+        <v>9679.98</v>
       </c>
       <c r="E246" t="n">
-        <v>9489.18</v>
-      </c>
-      <c r="G246" s="1">
+        <v>9765.360000000001</v>
+      </c>
+      <c r="G246" s="3">
         <f>AVERAGE(E242:E246)</f>
         <v/>
       </c>
-      <c r="H246" s="1">
+      <c r="H246" s="3">
         <f>AVERAGE(E217:E246)</f>
         <v/>
       </c>
-      <c r="I246" s="1">
+      <c r="I246" s="3">
         <f>G246-H246</f>
         <v/>
       </c>
@@ -8609,26 +8615,26 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>9515.43</v>
+        <v>9728.950000000001</v>
       </c>
       <c r="C247" t="n">
-        <v>9554.35</v>
+        <v>9781.4</v>
       </c>
       <c r="D247" t="n">
-        <v>9459.120000000001</v>
+        <v>9688.74</v>
       </c>
       <c r="E247" t="n">
-        <v>9516.32</v>
-      </c>
-      <c r="G247" s="1">
+        <v>9778.620000000001</v>
+      </c>
+      <c r="G247" s="3">
         <f>AVERAGE(E243:E247)</f>
         <v/>
       </c>
-      <c r="H247" s="1">
+      <c r="H247" s="3">
         <f>AVERAGE(E218:E247)</f>
         <v/>
       </c>
-      <c r="I247" s="1">
+      <c r="I247" s="3">
         <f>G247-H247</f>
         <v/>
       </c>
@@ -8638,26 +8644,26 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>9508.809999999999</v>
+        <v>9774.030000000001</v>
       </c>
       <c r="C248" t="n">
-        <v>9574.83</v>
+        <v>9890.889999999999</v>
       </c>
       <c r="D248" t="n">
-        <v>9481.66</v>
+        <v>9767.139999999999</v>
       </c>
       <c r="E248" t="n">
-        <v>9526.110000000001</v>
-      </c>
-      <c r="G248" s="1">
+        <v>9884.309999999999</v>
+      </c>
+      <c r="G248" s="3">
         <f>AVERAGE(E244:E248)</f>
         <v/>
       </c>
-      <c r="H248" s="1">
+      <c r="H248" s="3">
         <f>AVERAGE(E219:E248)</f>
         <v/>
       </c>
-      <c r="I248" s="1">
+      <c r="I248" s="3">
         <f>G248-H248</f>
         <v/>
       </c>
@@ -8667,26 +8673,26 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>9588.860000000001</v>
+        <v>9959.870000000001</v>
       </c>
       <c r="C249" t="n">
-        <v>9802.129999999999</v>
+        <v>10001.85</v>
       </c>
       <c r="D249" t="n">
-        <v>9588.860000000001</v>
+        <v>9885.360000000001</v>
       </c>
       <c r="E249" t="n">
-        <v>9802.129999999999</v>
-      </c>
-      <c r="G249" s="1">
+        <v>9885.360000000001</v>
+      </c>
+      <c r="G249" s="3">
         <f>AVERAGE(E245:E249)</f>
         <v/>
       </c>
-      <c r="H249" s="1">
+      <c r="H249" s="3">
         <f>AVERAGE(E220:E249)</f>
         <v/>
       </c>
-      <c r="I249" s="1">
+      <c r="I249" s="3">
         <f>G249-H249</f>
         <v/>
       </c>
@@ -8696,26 +8702,26 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>9812.200000000001</v>
+        <v>9899.24</v>
       </c>
       <c r="C250" t="n">
-        <v>9869.59</v>
+        <v>9957.629999999999</v>
       </c>
       <c r="D250" t="n">
-        <v>9742.610000000001</v>
+        <v>9888.030000000001</v>
       </c>
       <c r="E250" t="n">
-        <v>9844.74</v>
-      </c>
-      <c r="G250" s="1">
+        <v>9888.030000000001</v>
+      </c>
+      <c r="G250" s="3">
         <f>AVERAGE(E246:E250)</f>
         <v/>
       </c>
-      <c r="H250" s="1">
+      <c r="H250" s="3">
         <f>AVERAGE(E221:E250)</f>
         <v/>
       </c>
-      <c r="I250" s="1">
+      <c r="I250" s="3">
         <f>G250-H250</f>
         <v/>
       </c>
@@ -8725,26 +8731,26 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>9871.4</v>
+        <v>9979.209999999999</v>
       </c>
       <c r="C251" t="n">
-        <v>9906.59</v>
+        <v>10148.75</v>
       </c>
       <c r="D251" t="n">
-        <v>9817.290000000001</v>
+        <v>9979.209999999999</v>
       </c>
       <c r="E251" t="n">
-        <v>9906.59</v>
-      </c>
-      <c r="G251" s="1">
+        <v>10137.87</v>
+      </c>
+      <c r="G251" s="3">
         <f>AVERAGE(E247:E251)</f>
         <v/>
       </c>
-      <c r="H251" s="1">
+      <c r="H251" s="3">
         <f>AVERAGE(E222:E251)</f>
         <v/>
       </c>
-      <c r="I251" s="1">
+      <c r="I251" s="3">
         <f>G251-H251</f>
         <v/>
       </c>
@@ -8754,26 +8760,26 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>9856.85</v>
+        <v>10120.43</v>
       </c>
       <c r="C252" t="n">
-        <v>9889.809999999999</v>
+        <v>10126.02</v>
       </c>
       <c r="D252" t="n">
-        <v>9786.25</v>
+        <v>10061.7</v>
       </c>
       <c r="E252" t="n">
-        <v>9889.809999999999</v>
-      </c>
-      <c r="G252" s="1">
+        <v>10083.54</v>
+      </c>
+      <c r="G252" s="3">
         <f>AVERAGE(E248:E252)</f>
         <v/>
       </c>
-      <c r="H252" s="1">
+      <c r="H252" s="3">
         <f>AVERAGE(E223:E252)</f>
         <v/>
       </c>
-      <c r="I252" s="1">
+      <c r="I252" s="3">
         <f>G252-H252</f>
         <v/>
       </c>
@@ -8783,26 +8789,26 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>9888.41</v>
+        <v>9971.98</v>
       </c>
       <c r="C253" t="n">
-        <v>9899.969999999999</v>
+        <v>9971.98</v>
       </c>
       <c r="D253" t="n">
-        <v>9782.860000000001</v>
+        <v>9895.290000000001</v>
       </c>
       <c r="E253" t="n">
-        <v>9824.950000000001</v>
-      </c>
-      <c r="G253" s="1">
+        <v>9916.74</v>
+      </c>
+      <c r="G253" s="3">
         <f>AVERAGE(E249:E253)</f>
         <v/>
       </c>
-      <c r="H253" s="1">
+      <c r="H253" s="3">
         <f>AVERAGE(E224:E253)</f>
         <v/>
       </c>
-      <c r="I253" s="1">
+      <c r="I253" s="3">
         <f>G253-H253</f>
         <v/>
       </c>
@@ -8812,26 +8818,26 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>9818.15</v>
+        <v>9850.08</v>
       </c>
       <c r="C254" t="n">
-        <v>9912.530000000001</v>
+        <v>9850.08</v>
       </c>
       <c r="D254" t="n">
-        <v>9817.950000000001</v>
+        <v>9664.75</v>
       </c>
       <c r="E254" t="n">
-        <v>9908.35</v>
-      </c>
-      <c r="G254" s="1">
+        <v>9684.719999999999</v>
+      </c>
+      <c r="G254" s="3">
         <f>AVERAGE(E250:E254)</f>
         <v/>
       </c>
-      <c r="H254" s="1">
+      <c r="H254" s="3">
         <f>AVERAGE(E225:E254)</f>
         <v/>
       </c>
-      <c r="I254" s="1">
+      <c r="I254" s="3">
         <f>G254-H254</f>
         <v/>
       </c>
@@ -8841,26 +8847,26 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>9958.469999999999</v>
+        <v>9719.459999999999</v>
       </c>
       <c r="C255" t="n">
-        <v>10014.42</v>
+        <v>9785.200000000001</v>
       </c>
       <c r="D255" t="n">
-        <v>9938.549999999999</v>
+        <v>9719.459999999999</v>
       </c>
       <c r="E255" t="n">
-        <v>9945.309999999999</v>
-      </c>
-      <c r="G255" s="1">
+        <v>9760.879999999999</v>
+      </c>
+      <c r="G255" s="3">
         <f>AVERAGE(E251:E255)</f>
         <v/>
       </c>
-      <c r="H255" s="1">
+      <c r="H255" s="3">
         <f>AVERAGE(E226:E255)</f>
         <v/>
       </c>
-      <c r="I255" s="1">
+      <c r="I255" s="3">
         <f>G255-H255</f>
         <v/>
       </c>
@@ -8870,26 +8876,26 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>9921.780000000001</v>
+        <v>9722.969999999999</v>
       </c>
       <c r="C256" t="n">
-        <v>9921.780000000001</v>
+        <v>9722.969999999999</v>
       </c>
       <c r="D256" t="n">
-        <v>9798.450000000001</v>
+        <v>9626.469999999999</v>
       </c>
       <c r="E256" t="n">
-        <v>9830.01</v>
-      </c>
-      <c r="G256" s="1">
+        <v>9647.540000000001</v>
+      </c>
+      <c r="G256" s="3">
         <f>AVERAGE(E252:E256)</f>
         <v/>
       </c>
-      <c r="H256" s="1">
+      <c r="H256" s="3">
         <f>AVERAGE(E227:E256)</f>
         <v/>
       </c>
-      <c r="I256" s="1">
+      <c r="I256" s="3">
         <f>G256-H256</f>
         <v/>
       </c>
@@ -8899,26 +8905,26 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>9806.799999999999</v>
+        <v>9661.719999999999</v>
       </c>
       <c r="C257" t="n">
-        <v>9875.84</v>
+        <v>9720.959999999999</v>
       </c>
       <c r="D257" t="n">
-        <v>9764.459999999999</v>
+        <v>9661.719999999999</v>
       </c>
       <c r="E257" t="n">
-        <v>9831.209999999999</v>
-      </c>
-      <c r="G257" s="1">
+        <v>9707.040000000001</v>
+      </c>
+      <c r="G257" s="3">
         <f>AVERAGE(E253:E257)</f>
         <v/>
       </c>
-      <c r="H257" s="1">
+      <c r="H257" s="3">
         <f>AVERAGE(E228:E257)</f>
         <v/>
       </c>
-      <c r="I257" s="1">
+      <c r="I257" s="3">
         <f>G257-H257</f>
         <v/>
       </c>
@@ -8928,26 +8934,26 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>9727.17</v>
+        <v>9741.450000000001</v>
       </c>
       <c r="C258" t="n">
-        <v>9777.35</v>
+        <v>9835.559999999999</v>
       </c>
       <c r="D258" t="n">
-        <v>9616.16</v>
+        <v>9741.450000000001</v>
       </c>
       <c r="E258" t="n">
-        <v>9775.84</v>
-      </c>
-      <c r="G258" s="1">
+        <v>9816.450000000001</v>
+      </c>
+      <c r="G258" s="3">
         <f>AVERAGE(E254:E258)</f>
         <v/>
       </c>
-      <c r="H258" s="1">
+      <c r="H258" s="3">
         <f>AVERAGE(E229:E258)</f>
         <v/>
       </c>
-      <c r="I258" s="1">
+      <c r="I258" s="3">
         <f>G258-H258</f>
         <v/>
       </c>
@@ -8957,26 +8963,26 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>9799.690000000001</v>
+        <v>9827.32</v>
       </c>
       <c r="C259" t="n">
-        <v>9823.25</v>
+        <v>9871.959999999999</v>
       </c>
       <c r="D259" t="n">
-        <v>9763.889999999999</v>
+        <v>9815.5</v>
       </c>
       <c r="E259" t="n">
-        <v>9791.879999999999</v>
-      </c>
-      <c r="G259" s="1">
+        <v>9858.76</v>
+      </c>
+      <c r="G259" s="3">
         <f>AVERAGE(E255:E259)</f>
         <v/>
       </c>
-      <c r="H259" s="1">
+      <c r="H259" s="3">
         <f>AVERAGE(E230:E259)</f>
         <v/>
       </c>
-      <c r="I259" s="1">
+      <c r="I259" s="3">
         <f>G259-H259</f>
         <v/>
       </c>
@@ -8986,26 +8992,26 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>9806.58</v>
+        <v>9818.950000000001</v>
       </c>
       <c r="C260" t="n">
-        <v>9844.389999999999</v>
+        <v>9818.950000000001</v>
       </c>
       <c r="D260" t="n">
-        <v>9755.120000000001</v>
+        <v>9718.940000000001</v>
       </c>
       <c r="E260" t="n">
-        <v>9826.459999999999</v>
-      </c>
-      <c r="G260" s="1">
+        <v>9774.16</v>
+      </c>
+      <c r="G260" s="3">
         <f>AVERAGE(E256:E260)</f>
         <v/>
       </c>
-      <c r="H260" s="1">
+      <c r="H260" s="3">
         <f>AVERAGE(E231:E260)</f>
         <v/>
       </c>
-      <c r="I260" s="1">
+      <c r="I260" s="3">
         <f>G260-H260</f>
         <v/>
       </c>
@@ -9015,26 +9021,26 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>9819.049999999999</v>
+        <v>9762.49</v>
       </c>
       <c r="C261" t="n">
-        <v>9851.290000000001</v>
+        <v>9826.879999999999</v>
       </c>
       <c r="D261" t="n">
-        <v>9770.870000000001</v>
+        <v>9733.98</v>
       </c>
       <c r="E261" t="n">
-        <v>9797.09</v>
-      </c>
-      <c r="G261" s="1">
+        <v>9787.530000000001</v>
+      </c>
+      <c r="G261" s="3">
         <f>AVERAGE(E257:E261)</f>
         <v/>
       </c>
-      <c r="H261" s="1">
+      <c r="H261" s="3">
         <f>AVERAGE(E232:E261)</f>
         <v/>
       </c>
-      <c r="I261" s="1">
+      <c r="I261" s="3">
         <f>G261-H261</f>
         <v/>
       </c>
@@ -9044,26 +9050,26 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>9795.469999999999</v>
+        <v>9756.459999999999</v>
       </c>
       <c r="C262" t="n">
-        <v>9836.02</v>
+        <v>9756.67</v>
       </c>
       <c r="D262" t="n">
-        <v>9779.4</v>
+        <v>9701.1</v>
       </c>
       <c r="E262" t="n">
-        <v>9828.690000000001</v>
-      </c>
-      <c r="G262" s="1">
+        <v>9718.82</v>
+      </c>
+      <c r="G262" s="3">
         <f>AVERAGE(E258:E262)</f>
         <v/>
       </c>
-      <c r="H262" s="1">
+      <c r="H262" s="3">
         <f>AVERAGE(E233:E262)</f>
         <v/>
       </c>
-      <c r="I262" s="1">
+      <c r="I262" s="3">
         <f>G262-H262</f>
         <v/>
       </c>
@@ -9073,26 +9079,26 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>9788.950000000001</v>
+        <v>9720.92</v>
       </c>
       <c r="C263" t="n">
-        <v>9800.030000000001</v>
+        <v>9783.209999999999</v>
       </c>
       <c r="D263" t="n">
-        <v>9726.799999999999</v>
+        <v>9720.92</v>
       </c>
       <c r="E263" t="n">
-        <v>9743.99</v>
-      </c>
-      <c r="G263" s="1">
+        <v>9783.209999999999</v>
+      </c>
+      <c r="G263" s="3">
         <f>AVERAGE(E259:E263)</f>
         <v/>
       </c>
-      <c r="H263" s="1">
+      <c r="H263" s="3">
         <f>AVERAGE(E234:E263)</f>
         <v/>
       </c>
-      <c r="I263" s="1">
+      <c r="I263" s="3">
         <f>G263-H263</f>
         <v/>
       </c>
@@ -9102,26 +9108,26 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>9698.52</v>
+        <v>9729.290000000001</v>
       </c>
       <c r="C264" t="n">
-        <v>9753.690000000001</v>
+        <v>9741.549999999999</v>
       </c>
       <c r="D264" t="n">
-        <v>9632.469999999999</v>
+        <v>9658.5</v>
       </c>
       <c r="E264" t="n">
-        <v>9741.52</v>
-      </c>
-      <c r="G264" s="1">
+        <v>9674.52</v>
+      </c>
+      <c r="G264" s="3">
         <f>AVERAGE(E260:E264)</f>
         <v/>
       </c>
-      <c r="H264" s="1">
+      <c r="H264" s="3">
         <f>AVERAGE(E235:E264)</f>
         <v/>
       </c>
-      <c r="I264" s="1">
+      <c r="I264" s="3">
         <f>G264-H264</f>
         <v/>
       </c>
@@ -9131,26 +9137,26 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>9769.33</v>
+        <v>9648.98</v>
       </c>
       <c r="C265" t="n">
-        <v>9792.99</v>
+        <v>9683.950000000001</v>
       </c>
       <c r="D265" t="n">
-        <v>9702.77</v>
+        <v>9585.32</v>
       </c>
       <c r="E265" t="n">
-        <v>9714.709999999999</v>
-      </c>
-      <c r="G265" s="1">
+        <v>9676.67</v>
+      </c>
+      <c r="G265" s="3">
         <f>AVERAGE(E261:E265)</f>
         <v/>
       </c>
-      <c r="H265" s="1">
+      <c r="H265" s="3">
         <f>AVERAGE(E236:E265)</f>
         <v/>
       </c>
-      <c r="I265" s="1">
+      <c r="I265" s="3">
         <f>G265-H265</f>
         <v/>
       </c>
@@ -9160,26 +9166,26 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>9730.639999999999</v>
+        <v>9639.24</v>
       </c>
       <c r="C266" t="n">
-        <v>9738.799999999999</v>
+        <v>9652.190000000001</v>
       </c>
       <c r="D266" t="n">
-        <v>9654.91</v>
+        <v>9625.309999999999</v>
       </c>
       <c r="E266" t="n">
-        <v>9667.299999999999</v>
-      </c>
-      <c r="G266" s="1">
+        <v>9646.16</v>
+      </c>
+      <c r="G266" s="3">
         <f>AVERAGE(E262:E266)</f>
         <v/>
       </c>
-      <c r="H266" s="1">
+      <c r="H266" s="3">
         <f>AVERAGE(E237:E266)</f>
         <v/>
       </c>
-      <c r="I266" s="1">
+      <c r="I266" s="3">
         <f>G266-H266</f>
         <v/>
       </c>
@@ -9189,26 +9195,26 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>9679.98</v>
+        <v>9646.530000000001</v>
       </c>
       <c r="C267" t="n">
-        <v>9847.35</v>
+        <v>9658.950000000001</v>
       </c>
       <c r="D267" t="n">
-        <v>9679.98</v>
+        <v>9613.290000000001</v>
       </c>
       <c r="E267" t="n">
-        <v>9765.360000000001</v>
-      </c>
-      <c r="G267" s="1">
+        <v>9639.700000000001</v>
+      </c>
+      <c r="G267" s="3">
         <f>AVERAGE(E263:E267)</f>
         <v/>
       </c>
-      <c r="H267" s="1">
+      <c r="H267" s="3">
         <f>AVERAGE(E238:E267)</f>
         <v/>
       </c>
-      <c r="I267" s="1">
+      <c r="I267" s="3">
         <f>G267-H267</f>
         <v/>
       </c>
@@ -9218,26 +9224,26 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>9728.950000000001</v>
+        <v>9559.700000000001</v>
       </c>
       <c r="C268" t="n">
-        <v>9781.4</v>
+        <v>9559.700000000001</v>
       </c>
       <c r="D268" t="n">
-        <v>9688.74</v>
+        <v>9479.059999999999</v>
       </c>
       <c r="E268" t="n">
-        <v>9778.620000000001</v>
-      </c>
-      <c r="G268" s="1">
+        <v>9527.09</v>
+      </c>
+      <c r="G268" s="3">
         <f>AVERAGE(E264:E268)</f>
         <v/>
       </c>
-      <c r="H268" s="1">
+      <c r="H268" s="3">
         <f>AVERAGE(E239:E268)</f>
         <v/>
       </c>
-      <c r="I268" s="1">
+      <c r="I268" s="3">
         <f>G268-H268</f>
         <v/>
       </c>
@@ -9247,26 +9253,26 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>9774.030000000001</v>
+        <v>9544.870000000001</v>
       </c>
       <c r="C269" t="n">
-        <v>9890.889999999999</v>
+        <v>9591.91</v>
       </c>
       <c r="D269" t="n">
-        <v>9767.139999999999</v>
+        <v>9473.299999999999</v>
       </c>
       <c r="E269" t="n">
-        <v>9884.309999999999</v>
-      </c>
-      <c r="G269" s="1">
+        <v>9478.99</v>
+      </c>
+      <c r="G269" s="3">
         <f>AVERAGE(E265:E269)</f>
         <v/>
       </c>
-      <c r="H269" s="1">
+      <c r="H269" s="3">
         <f>AVERAGE(E240:E269)</f>
         <v/>
       </c>
-      <c r="I269" s="1">
+      <c r="I269" s="3">
         <f>G269-H269</f>
         <v/>
       </c>
@@ -9276,26 +9282,26 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>9959.870000000001</v>
+        <v>9555.01</v>
       </c>
       <c r="C270" t="n">
-        <v>10001.85</v>
+        <v>9670.969999999999</v>
       </c>
       <c r="D270" t="n">
-        <v>9885.360000000001</v>
+        <v>9555.01</v>
       </c>
       <c r="E270" t="n">
-        <v>9885.360000000001</v>
-      </c>
-      <c r="G270" s="1">
+        <v>9641.559999999999</v>
+      </c>
+      <c r="G270" s="3">
         <f>AVERAGE(E266:E270)</f>
         <v/>
       </c>
-      <c r="H270" s="1">
+      <c r="H270" s="3">
         <f>AVERAGE(E241:E270)</f>
         <v/>
       </c>
-      <c r="I270" s="1">
+      <c r="I270" s="3">
         <f>G270-H270</f>
         <v/>
       </c>
@@ -9305,26 +9311,26 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>9899.24</v>
+        <v>9649.969999999999</v>
       </c>
       <c r="C271" t="n">
-        <v>9957.629999999999</v>
+        <v>9727.41</v>
       </c>
       <c r="D271" t="n">
-        <v>9888.030000000001</v>
+        <v>9630.77</v>
       </c>
       <c r="E271" t="n">
-        <v>9888.030000000001</v>
-      </c>
-      <c r="G271" s="1">
+        <v>9727.41</v>
+      </c>
+      <c r="G271" s="3">
         <f>AVERAGE(E267:E271)</f>
         <v/>
       </c>
-      <c r="H271" s="1">
+      <c r="H271" s="3">
         <f>AVERAGE(E242:E271)</f>
         <v/>
       </c>
-      <c r="I271" s="1">
+      <c r="I271" s="3">
         <f>G271-H271</f>
         <v/>
       </c>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TWSE_IDX" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,69 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2017/11/29</t>
-  </si>
-  <si>
-    <t>2017/11/30</t>
-  </si>
-  <si>
-    <t>2017/12/01</t>
-  </si>
-  <si>
-    <t>2017/12/04</t>
-  </si>
-  <si>
-    <t>2017/12/05</t>
-  </si>
-  <si>
-    <t>2017/12/06</t>
-  </si>
-  <si>
-    <t>2017/12/07</t>
-  </si>
-  <si>
-    <t>2017/12/08</t>
-  </si>
-  <si>
-    <t>2017/12/11</t>
-  </si>
-  <si>
-    <t>2017/12/12</t>
-  </si>
-  <si>
-    <t>2017/12/13</t>
-  </si>
-  <si>
-    <t>2017/12/14</t>
-  </si>
-  <si>
-    <t>2017/12/15</t>
-  </si>
-  <si>
-    <t>2017/12/18</t>
-  </si>
-  <si>
-    <t>2017/12/19</t>
-  </si>
-  <si>
-    <t>2017/12/20</t>
-  </si>
-  <si>
-    <t>2017/12/21</t>
-  </si>
-  <si>
-    <t>2017/12/22</t>
-  </si>
-  <si>
-    <t>2017/12/25</t>
-  </si>
-  <si>
-    <t>2017/12/26</t>
-  </si>
-  <si>
-    <t>2017/12/27</t>
-  </si>
-  <si>
     <t>2017/12/28</t>
   </si>
   <si>
@@ -848,13 +785,78 @@
   </si>
   <si>
     <t>2018/12/28</t>
+  </si>
+  <si>
+    <t>2019/01/02</t>
+  </si>
+  <si>
+    <t>2019/01/03</t>
+  </si>
+  <si>
+    <t>2019/01/04</t>
+  </si>
+  <si>
+    <t>2019/01/07</t>
+  </si>
+  <si>
+    <t>2019/01/08</t>
+  </si>
+  <si>
+    <t>2019/01/09</t>
+  </si>
+  <si>
+    <t>2019/01/10</t>
+  </si>
+  <si>
+    <t>2019/01/11</t>
+  </si>
+  <si>
+    <t>2019/01/14</t>
+  </si>
+  <si>
+    <t>2019/01/15</t>
+  </si>
+  <si>
+    <t>2019/01/16</t>
+  </si>
+  <si>
+    <t>2019/01/17</t>
+  </si>
+  <si>
+    <t>2019/01/18</t>
+  </si>
+  <si>
+    <t>2019/01/21</t>
+  </si>
+  <si>
+    <t>2019/01/22</t>
+  </si>
+  <si>
+    <t>2019/01/23</t>
+  </si>
+  <si>
+    <t>2019/01/24</t>
+  </si>
+  <si>
+    <t>2019/01/25</t>
+  </si>
+  <si>
+    <t>2019/01/28</t>
+  </si>
+  <si>
+    <t>2019/01/29</t>
+  </si>
+  <si>
+    <t>2019/01/30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="0.00" numFmtId="164"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -905,13 +907,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1345,17 +1346,6 @@
         <axId val="10"/>
         <axId val="100"/>
       </stockChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
       <valAx>
         <axId val="20"/>
         <scaling>
@@ -1363,8 +1353,6 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
         <crossAx val="10"/>
         <crosses val="max"/>
       </valAx>
@@ -1386,12 +1374,18 @@
             </rich>
           </tx>
         </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
     </plotArea>
-    <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
 </chartSpace>
@@ -1723,7 +1717,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="15.7109375"/>
     <col customWidth="1" max="5" min="2" width="11.7109375"/>
-    <col customWidth="1" max="9" min="7" style="3" width="11.7109375"/>
+    <col customWidth="1" max="9" min="7" style="1" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1758,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10735.24</v>
+        <v>10513.29</v>
       </c>
       <c r="C2" t="n">
-        <v>10762.91</v>
+        <v>10592.04</v>
       </c>
       <c r="D2" t="n">
-        <v>10697.62</v>
+        <v>10513.29</v>
       </c>
       <c r="E2" t="n">
-        <v>10713.55</v>
+        <v>10567.64</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1775,16 +1769,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>10623.2</v>
+        <v>10590.95</v>
       </c>
       <c r="C3" t="n">
-        <v>10650.18</v>
+        <v>10659.98</v>
       </c>
       <c r="D3" t="n">
-        <v>10560.44</v>
+        <v>10590.95</v>
       </c>
       <c r="E3" t="n">
-        <v>10560.44</v>
+        <v>10642.86</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1792,16 +1786,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10591.62</v>
+        <v>10664.82</v>
       </c>
       <c r="C4" t="n">
-        <v>10665.92</v>
+        <v>10710.73</v>
       </c>
       <c r="D4" t="n">
-        <v>10495.15</v>
+        <v>10650.77</v>
       </c>
       <c r="E4" t="n">
-        <v>10600.37</v>
+        <v>10710.73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1809,16 +1803,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>10617.27</v>
+        <v>10759.61</v>
       </c>
       <c r="C5" t="n">
-        <v>10665.43</v>
+        <v>10813.16</v>
       </c>
       <c r="D5" t="n">
-        <v>10565.68</v>
+        <v>10759.61</v>
       </c>
       <c r="E5" t="n">
-        <v>10651.11</v>
+        <v>10801.57</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1826,18 +1820,18 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>10607.62</v>
+        <v>10834.58</v>
       </c>
       <c r="C6" t="n">
-        <v>10635.71</v>
+        <v>10853.46</v>
       </c>
       <c r="D6" t="n">
-        <v>10540.74</v>
+        <v>10794.25</v>
       </c>
       <c r="E6" t="n">
-        <v>10566.85</v>
-      </c>
-      <c r="G6" s="3">
+        <v>10848.63</v>
+      </c>
+      <c r="G6" s="1">
         <f>AVERAGE(E2:E6)</f>
         <v/>
       </c>
@@ -1847,18 +1841,18 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>10541.03</v>
+        <v>10856.92</v>
       </c>
       <c r="C7" t="n">
-        <v>10541.03</v>
+        <v>10879.8</v>
       </c>
       <c r="D7" t="n">
-        <v>10376.65</v>
+        <v>10815.68</v>
       </c>
       <c r="E7" t="n">
-        <v>10393.92</v>
-      </c>
-      <c r="G7" s="3">
+        <v>10879.8</v>
+      </c>
+      <c r="G7" s="1">
         <f>AVERAGE(E3:E7)</f>
         <v/>
       </c>
@@ -1868,18 +1862,18 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10404.42</v>
+        <v>10899.09</v>
       </c>
       <c r="C8" t="n">
-        <v>10418.97</v>
+        <v>10918.47</v>
       </c>
       <c r="D8" t="n">
-        <v>10322.76</v>
+        <v>10869.12</v>
       </c>
       <c r="E8" t="n">
-        <v>10355.76</v>
-      </c>
-      <c r="G8" s="3">
+        <v>10915.75</v>
+      </c>
+      <c r="G8" s="1">
         <f>AVERAGE(E4:E8)</f>
         <v/>
       </c>
@@ -1889,18 +1883,18 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>10406.35</v>
+        <v>10922.35</v>
       </c>
       <c r="C9" t="n">
-        <v>10419.28</v>
+        <v>10931</v>
       </c>
       <c r="D9" t="n">
-        <v>10336.26</v>
+        <v>10860.77</v>
       </c>
       <c r="E9" t="n">
-        <v>10398.62</v>
-      </c>
-      <c r="G9" s="3">
+        <v>10914.89</v>
+      </c>
+      <c r="G9" s="1">
         <f>AVERAGE(E5:E9)</f>
         <v/>
       </c>
@@ -1910,18 +1904,18 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>10438.33</v>
+        <v>10915.32</v>
       </c>
       <c r="C10" t="n">
-        <v>10504.67</v>
+        <v>10934.75</v>
       </c>
       <c r="D10" t="n">
-        <v>10438.33</v>
+        <v>10819.25</v>
       </c>
       <c r="E10" t="n">
-        <v>10473.09</v>
-      </c>
-      <c r="G10" s="3">
+        <v>10831.09</v>
+      </c>
+      <c r="G10" s="1">
         <f>AVERAGE(E6:E10)</f>
         <v/>
       </c>
@@ -1931,18 +1925,18 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>10488.73</v>
+        <v>10824.54</v>
       </c>
       <c r="C11" t="n">
-        <v>10495.24</v>
+        <v>10844.08</v>
       </c>
       <c r="D11" t="n">
-        <v>10408.06</v>
+        <v>10770.1</v>
       </c>
       <c r="E11" t="n">
-        <v>10443.28</v>
-      </c>
-      <c r="G11" s="3">
+        <v>10810.06</v>
+      </c>
+      <c r="G11" s="1">
         <f>AVERAGE(E7:E11)</f>
         <v/>
       </c>
@@ -1952,18 +1946,18 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>10447.11</v>
+        <v>10818.24</v>
       </c>
       <c r="C12" t="n">
-        <v>10489.17</v>
+        <v>10899.98</v>
       </c>
       <c r="D12" t="n">
-        <v>10444.7</v>
+        <v>10818.24</v>
       </c>
       <c r="E12" t="n">
-        <v>10470.7</v>
-      </c>
-      <c r="G12" s="3">
+        <v>10883.96</v>
+      </c>
+      <c r="G12" s="1">
         <f>AVERAGE(E8:E12)</f>
         <v/>
       </c>
@@ -1973,18 +1967,18 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>10494.6</v>
+        <v>10932.37</v>
       </c>
       <c r="C13" t="n">
-        <v>10577.53</v>
+        <v>10962.55</v>
       </c>
       <c r="D13" t="n">
-        <v>10494.6</v>
+        <v>10911.89</v>
       </c>
       <c r="E13" t="n">
-        <v>10538.01</v>
-      </c>
-      <c r="G13" s="3">
+        <v>10956.31</v>
+      </c>
+      <c r="G13" s="1">
         <f>AVERAGE(E9:E13)</f>
         <v/>
       </c>
@@ -1994,18 +1988,18 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>10517.21</v>
+        <v>10955.81</v>
       </c>
       <c r="C14" t="n">
-        <v>10520.66</v>
+        <v>10986.11</v>
       </c>
       <c r="D14" t="n">
-        <v>10436.11</v>
+        <v>10920.5</v>
       </c>
       <c r="E14" t="n">
-        <v>10491.44</v>
-      </c>
-      <c r="G14" s="3">
+        <v>10986.11</v>
+      </c>
+      <c r="G14" s="1">
         <f>AVERAGE(E10:E14)</f>
         <v/>
       </c>
@@ -2015,18 +2009,18 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>10478.74</v>
+        <v>10976.13</v>
       </c>
       <c r="C15" t="n">
-        <v>10526.41</v>
+        <v>11030.22</v>
       </c>
       <c r="D15" t="n">
-        <v>10472.39</v>
+        <v>10942.95</v>
       </c>
       <c r="E15" t="n">
-        <v>10506.52</v>
-      </c>
-      <c r="G15" s="3">
+        <v>11004.8</v>
+      </c>
+      <c r="G15" s="1">
         <f>AVERAGE(E11:E15)</f>
         <v/>
       </c>
@@ -2036,18 +2030,18 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>10508.33</v>
+        <v>11048.06</v>
       </c>
       <c r="C16" t="n">
-        <v>10544</v>
+        <v>11122.82</v>
       </c>
       <c r="D16" t="n">
-        <v>10452.08</v>
+        <v>11048.06</v>
       </c>
       <c r="E16" t="n">
-        <v>10467.34</v>
-      </c>
-      <c r="G16" s="3">
+        <v>11071.57</v>
+      </c>
+      <c r="G16" s="1">
         <f>AVERAGE(E12:E16)</f>
         <v/>
       </c>
@@ -2057,18 +2051,18 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>10470.36</v>
+        <v>11123.58</v>
       </c>
       <c r="C17" t="n">
-        <v>10514.31</v>
+        <v>11150.85</v>
       </c>
       <c r="D17" t="n">
-        <v>10470.36</v>
+        <v>11095.85</v>
       </c>
       <c r="E17" t="n">
-        <v>10504.52</v>
-      </c>
-      <c r="G17" s="3">
+        <v>11150.85</v>
+      </c>
+      <c r="G17" s="1">
         <f>AVERAGE(E13:E17)</f>
         <v/>
       </c>
@@ -2078,18 +2072,18 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>10526.97</v>
+        <v>11169.79</v>
       </c>
       <c r="C18" t="n">
-        <v>10545.78</v>
+        <v>11231.46</v>
       </c>
       <c r="D18" t="n">
-        <v>10488.97</v>
+        <v>11142.38</v>
       </c>
       <c r="E18" t="n">
-        <v>10488.97</v>
-      </c>
-      <c r="G18" s="3">
+        <v>11231.46</v>
+      </c>
+      <c r="G18" s="1">
         <f>AVERAGE(E14:E18)</f>
         <v/>
       </c>
@@ -2099,18 +2093,18 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>10503.1</v>
+        <v>11243.49</v>
       </c>
       <c r="C19" t="n">
-        <v>10537.27</v>
+        <v>11270.18</v>
       </c>
       <c r="D19" t="n">
-        <v>10486.52</v>
+        <v>11201.52</v>
       </c>
       <c r="E19" t="n">
-        <v>10537.27</v>
-      </c>
-      <c r="G19" s="3">
+        <v>11253.11</v>
+      </c>
+      <c r="G19" s="1">
         <f>AVERAGE(E15:E19)</f>
         <v/>
       </c>
@@ -2120,18 +2114,18 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>10546.64</v>
+        <v>11228.71</v>
       </c>
       <c r="C20" t="n">
-        <v>10556.65</v>
+        <v>11228.71</v>
       </c>
       <c r="D20" t="n">
-        <v>10514.54</v>
+        <v>11107.32</v>
       </c>
       <c r="E20" t="n">
-        <v>10522.49</v>
-      </c>
-      <c r="G20" s="3">
+        <v>11152.16</v>
+      </c>
+      <c r="G20" s="1">
         <f>AVERAGE(E16:E20)</f>
         <v/>
       </c>
@@ -2141,18 +2135,18 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>10526.14</v>
+        <v>11154.36</v>
       </c>
       <c r="C21" t="n">
-        <v>10528.92</v>
+        <v>11268.61</v>
       </c>
       <c r="D21" t="n">
-        <v>10408.12</v>
+        <v>11131.85</v>
       </c>
       <c r="E21" t="n">
-        <v>10421.91</v>
-      </c>
-      <c r="G21" s="3">
+        <v>11165.95</v>
+      </c>
+      <c r="G21" s="1">
         <f>AVERAGE(E17:E21)</f>
         <v/>
       </c>
@@ -2162,18 +2156,18 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>10419.81</v>
+        <v>11152.53</v>
       </c>
       <c r="C22" t="n">
-        <v>10497.77</v>
+        <v>11178.3</v>
       </c>
       <c r="D22" t="n">
-        <v>10419.81</v>
+        <v>11089.48</v>
       </c>
       <c r="E22" t="n">
-        <v>10486.67</v>
-      </c>
-      <c r="G22" s="3">
+        <v>11147.1</v>
+      </c>
+      <c r="G22" s="1">
         <f>AVERAGE(E18:E22)</f>
         <v/>
       </c>
@@ -2183,18 +2177,18 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>10513.29</v>
+        <v>11202.27</v>
       </c>
       <c r="C23" t="n">
-        <v>10592.04</v>
+        <v>11246.18</v>
       </c>
       <c r="D23" t="n">
-        <v>10513.29</v>
+        <v>11161.83</v>
       </c>
       <c r="E23" t="n">
-        <v>10567.64</v>
-      </c>
-      <c r="G23" s="3">
+        <v>11221.81</v>
+      </c>
+      <c r="G23" s="1">
         <f>AVERAGE(E19:E23)</f>
         <v/>
       </c>
@@ -2204,18 +2198,18 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>10590.95</v>
+        <v>11189.57</v>
       </c>
       <c r="C24" t="n">
-        <v>10659.98</v>
+        <v>11189.57</v>
       </c>
       <c r="D24" t="n">
-        <v>10590.95</v>
+        <v>11076.78</v>
       </c>
       <c r="E24" t="n">
-        <v>10642.86</v>
-      </c>
-      <c r="G24" s="3">
+        <v>11076.78</v>
+      </c>
+      <c r="G24" s="1">
         <f>AVERAGE(E20:E24)</f>
         <v/>
       </c>
@@ -2225,18 +2219,18 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>10664.82</v>
+        <v>11054.36</v>
       </c>
       <c r="C25" t="n">
-        <v>10710.73</v>
+        <v>11158.29</v>
       </c>
       <c r="D25" t="n">
-        <v>10650.77</v>
+        <v>11007.89</v>
       </c>
       <c r="E25" t="n">
-        <v>10710.73</v>
-      </c>
-      <c r="G25" s="3">
+        <v>11103.79</v>
+      </c>
+      <c r="G25" s="1">
         <f>AVERAGE(E21:E25)</f>
         <v/>
       </c>
@@ -2246,18 +2240,18 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10759.61</v>
+        <v>11139.4</v>
       </c>
       <c r="C26" t="n">
-        <v>10813.16</v>
+        <v>11212.1</v>
       </c>
       <c r="D26" t="n">
-        <v>10759.61</v>
+        <v>11139.4</v>
       </c>
       <c r="E26" t="n">
-        <v>10801.57</v>
-      </c>
-      <c r="G26" s="3">
+        <v>11160.25</v>
+      </c>
+      <c r="G26" s="1">
         <f>AVERAGE(E22:E26)</f>
         <v/>
       </c>
@@ -2267,18 +2261,18 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>10834.58</v>
+        <v>11151.65</v>
       </c>
       <c r="C27" t="n">
-        <v>10853.46</v>
+        <v>11153.32</v>
       </c>
       <c r="D27" t="n">
-        <v>10794.25</v>
+        <v>11070.43</v>
       </c>
       <c r="E27" t="n">
-        <v>10848.63</v>
-      </c>
-      <c r="G27" s="3">
+        <v>11126.23</v>
+      </c>
+      <c r="G27" s="1">
         <f>AVERAGE(E23:E27)</f>
         <v/>
       </c>
@@ -2288,18 +2282,18 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10856.92</v>
+        <v>10970.3</v>
       </c>
       <c r="C28" t="n">
-        <v>10879.8</v>
+        <v>10970.3</v>
       </c>
       <c r="D28" t="n">
-        <v>10815.68</v>
+        <v>10855.43</v>
       </c>
       <c r="E28" t="n">
-        <v>10879.8</v>
-      </c>
-      <c r="G28" s="3">
+        <v>10946.25</v>
+      </c>
+      <c r="G28" s="1">
         <f>AVERAGE(E24:E28)</f>
         <v/>
       </c>
@@ -2309,18 +2303,18 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10899.09</v>
+        <v>10761.01</v>
       </c>
       <c r="C29" t="n">
-        <v>10918.47</v>
+        <v>10761.01</v>
       </c>
       <c r="D29" t="n">
-        <v>10869.12</v>
+        <v>10300.4</v>
       </c>
       <c r="E29" t="n">
-        <v>10915.75</v>
-      </c>
-      <c r="G29" s="3">
+        <v>10404</v>
+      </c>
+      <c r="G29" s="1">
         <f>AVERAGE(E25:E29)</f>
         <v/>
       </c>
@@ -2330,18 +2324,18 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10922.35</v>
+        <v>10547.64</v>
       </c>
       <c r="C30" t="n">
-        <v>10931</v>
+        <v>10697.82</v>
       </c>
       <c r="D30" t="n">
-        <v>10860.77</v>
+        <v>10547.64</v>
       </c>
       <c r="E30" t="n">
-        <v>10914.89</v>
-      </c>
-      <c r="G30" s="3">
+        <v>10551.54</v>
+      </c>
+      <c r="G30" s="1">
         <f>AVERAGE(E26:E30)</f>
         <v/>
       </c>
@@ -2351,26 +2345,26 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10915.32</v>
+        <v>10559.44</v>
       </c>
       <c r="C31" t="n">
-        <v>10934.75</v>
+        <v>10609.5</v>
       </c>
       <c r="D31" t="n">
-        <v>10819.25</v>
+        <v>10512.93</v>
       </c>
       <c r="E31" t="n">
-        <v>10831.09</v>
-      </c>
-      <c r="G31" s="3">
+        <v>10528.52</v>
+      </c>
+      <c r="G31" s="1">
         <f>AVERAGE(E27:E31)</f>
         <v/>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="1">
         <f>AVERAGE(E2:E31)</f>
         <v/>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="1">
         <f>G31-H31</f>
         <v/>
       </c>
@@ -2380,26 +2374,26 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10824.54</v>
+        <v>10371.01</v>
       </c>
       <c r="C32" t="n">
-        <v>10844.08</v>
+        <v>10392.31</v>
       </c>
       <c r="D32" t="n">
-        <v>10770.1</v>
+        <v>10189.04</v>
       </c>
       <c r="E32" t="n">
-        <v>10810.06</v>
-      </c>
-      <c r="G32" s="3">
+        <v>10371.75</v>
+      </c>
+      <c r="G32" s="1">
         <f>AVERAGE(E28:E32)</f>
         <v/>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="1">
         <f>AVERAGE(E3:E32)</f>
         <v/>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="1">
         <f>G32-H32</f>
         <v/>
       </c>
@@ -2409,26 +2403,26 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10818.24</v>
+        <v>10429.09</v>
       </c>
       <c r="C33" t="n">
-        <v>10899.98</v>
+        <v>10473.51</v>
       </c>
       <c r="D33" t="n">
-        <v>10818.24</v>
+        <v>10416.01</v>
       </c>
       <c r="E33" t="n">
-        <v>10883.96</v>
-      </c>
-      <c r="G33" s="3">
+        <v>10421.09</v>
+      </c>
+      <c r="G33" s="1">
         <f>AVERAGE(E29:E33)</f>
         <v/>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="1">
         <f>AVERAGE(E4:E33)</f>
         <v/>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="1">
         <f>G33-H33</f>
         <v/>
       </c>
@@ -2438,26 +2432,26 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>10932.37</v>
+        <v>10559.79</v>
       </c>
       <c r="C34" t="n">
-        <v>10962.55</v>
+        <v>10720.48</v>
       </c>
       <c r="D34" t="n">
-        <v>10911.89</v>
+        <v>10559.79</v>
       </c>
       <c r="E34" t="n">
-        <v>10956.31</v>
-      </c>
-      <c r="G34" s="3">
+        <v>10714.44</v>
+      </c>
+      <c r="G34" s="1">
         <f>AVERAGE(E30:E34)</f>
         <v/>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="1">
         <f>AVERAGE(E5:E34)</f>
         <v/>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="1">
         <f>G34-H34</f>
         <v/>
       </c>
@@ -2467,26 +2461,26 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10955.81</v>
+        <v>10698.47</v>
       </c>
       <c r="C35" t="n">
-        <v>10986.11</v>
+        <v>10698.47</v>
       </c>
       <c r="D35" t="n">
-        <v>10920.5</v>
+        <v>10620.8</v>
       </c>
       <c r="E35" t="n">
-        <v>10986.11</v>
-      </c>
-      <c r="G35" s="3">
+        <v>10662.38</v>
+      </c>
+      <c r="G35" s="1">
         <f>AVERAGE(E31:E35)</f>
         <v/>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="1">
         <f>AVERAGE(E6:E35)</f>
         <v/>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="1">
         <f>G35-H35</f>
         <v/>
       </c>
@@ -2496,26 +2490,26 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10976.13</v>
+        <v>10688.97</v>
       </c>
       <c r="C36" t="n">
-        <v>11030.22</v>
+        <v>10799.29</v>
       </c>
       <c r="D36" t="n">
-        <v>10942.95</v>
+        <v>10688.97</v>
       </c>
       <c r="E36" t="n">
-        <v>11004.8</v>
-      </c>
-      <c r="G36" s="3">
+        <v>10794.55</v>
+      </c>
+      <c r="G36" s="1">
         <f>AVERAGE(E32:E36)</f>
         <v/>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="1">
         <f>AVERAGE(E7:E36)</f>
         <v/>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="1">
         <f>G36-H36</f>
         <v/>
       </c>
@@ -2525,26 +2519,26 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>11048.06</v>
+        <v>10827.98</v>
       </c>
       <c r="C37" t="n">
-        <v>11122.82</v>
+        <v>10890.69</v>
       </c>
       <c r="D37" t="n">
-        <v>11048.06</v>
+        <v>10827.98</v>
       </c>
       <c r="E37" t="n">
-        <v>11071.57</v>
-      </c>
-      <c r="G37" s="3">
+        <v>10836.7</v>
+      </c>
+      <c r="G37" s="1">
         <f>AVERAGE(E33:E37)</f>
         <v/>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="1">
         <f>AVERAGE(E8:E37)</f>
         <v/>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="1">
         <f>G37-H37</f>
         <v/>
       </c>
@@ -2554,26 +2548,26 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>11123.58</v>
+        <v>10896.16</v>
       </c>
       <c r="C38" t="n">
-        <v>11150.85</v>
+        <v>10937.9</v>
       </c>
       <c r="D38" t="n">
-        <v>11095.85</v>
+        <v>10815.47</v>
       </c>
       <c r="E38" t="n">
-        <v>11150.85</v>
-      </c>
-      <c r="G38" s="3">
+        <v>10815.47</v>
+      </c>
+      <c r="G38" s="1">
         <f>AVERAGE(E34:E38)</f>
         <v/>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="1">
         <f>AVERAGE(E9:E38)</f>
         <v/>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="1">
         <f>G38-H38</f>
         <v/>
       </c>
@@ -2583,26 +2577,26 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>11169.79</v>
+        <v>10779.1</v>
       </c>
       <c r="C39" t="n">
-        <v>11231.46</v>
+        <v>10805.55</v>
       </c>
       <c r="D39" t="n">
-        <v>11142.38</v>
+        <v>10709.69</v>
       </c>
       <c r="E39" t="n">
-        <v>11231.46</v>
-      </c>
-      <c r="G39" s="3">
+        <v>10785.79</v>
+      </c>
+      <c r="G39" s="1">
         <f>AVERAGE(E35:E39)</f>
         <v/>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="1">
         <f>AVERAGE(E10:E39)</f>
         <v/>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="1">
         <f>G39-H39</f>
         <v/>
       </c>
@@ -2612,26 +2606,26 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>11243.49</v>
+        <v>10719.29</v>
       </c>
       <c r="C40" t="n">
-        <v>11270.18</v>
+        <v>10719.29</v>
       </c>
       <c r="D40" t="n">
-        <v>11201.52</v>
+        <v>10638.98</v>
       </c>
       <c r="E40" t="n">
-        <v>11253.11</v>
-      </c>
-      <c r="G40" s="3">
+        <v>10698.17</v>
+      </c>
+      <c r="G40" s="1">
         <f>AVERAGE(E36:E40)</f>
         <v/>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="1">
         <f>AVERAGE(E11:E40)</f>
         <v/>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="1">
         <f>G40-H40</f>
         <v/>
       </c>
@@ -2641,26 +2635,26 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>11228.71</v>
+        <v>10727.45</v>
       </c>
       <c r="C41" t="n">
-        <v>11228.71</v>
+        <v>10756.37</v>
       </c>
       <c r="D41" t="n">
-        <v>11107.32</v>
+        <v>10642.9</v>
       </c>
       <c r="E41" t="n">
-        <v>11152.16</v>
-      </c>
-      <c r="G41" s="3">
+        <v>10642.9</v>
+      </c>
+      <c r="G41" s="1">
         <f>AVERAGE(E37:E41)</f>
         <v/>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="1">
         <f>AVERAGE(E12:E41)</f>
         <v/>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="1">
         <f>G41-H41</f>
         <v/>
       </c>
@@ -2670,26 +2664,26 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>11154.36</v>
+        <v>10711.15</v>
       </c>
       <c r="C42" t="n">
-        <v>11268.61</v>
+        <v>10784.34</v>
       </c>
       <c r="D42" t="n">
-        <v>11131.85</v>
+        <v>10711.15</v>
       </c>
       <c r="E42" t="n">
-        <v>11165.95</v>
-      </c>
-      <c r="G42" s="3">
+        <v>10784.34</v>
+      </c>
+      <c r="G42" s="1">
         <f>AVERAGE(E38:E42)</f>
         <v/>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="1">
         <f>AVERAGE(E13:E42)</f>
         <v/>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="1">
         <f>G42-H42</f>
         <v/>
       </c>
@@ -2699,26 +2693,26 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>11152.53</v>
+        <v>10762.99</v>
       </c>
       <c r="C43" t="n">
-        <v>11178.3</v>
+        <v>10818.05</v>
       </c>
       <c r="D43" t="n">
-        <v>11089.48</v>
+        <v>10745.32</v>
       </c>
       <c r="E43" t="n">
-        <v>11147.1</v>
-      </c>
-      <c r="G43" s="3">
+        <v>10745.32</v>
+      </c>
+      <c r="G43" s="1">
         <f>AVERAGE(E39:E43)</f>
         <v/>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="1">
         <f>AVERAGE(E14:E43)</f>
         <v/>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="1">
         <f>G43-H43</f>
         <v/>
       </c>
@@ -2728,26 +2722,26 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>11202.27</v>
+        <v>10788.43</v>
       </c>
       <c r="C44" t="n">
-        <v>11246.18</v>
+        <v>10852.33</v>
       </c>
       <c r="D44" t="n">
-        <v>11161.83</v>
+        <v>10788.43</v>
       </c>
       <c r="E44" t="n">
-        <v>11221.81</v>
-      </c>
-      <c r="G44" s="3">
+        <v>10823.24</v>
+      </c>
+      <c r="G44" s="1">
         <f>AVERAGE(E40:E44)</f>
         <v/>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="1">
         <f>AVERAGE(E15:E44)</f>
         <v/>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="1">
         <f>G44-H44</f>
         <v/>
       </c>
@@ -2757,26 +2751,26 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>11189.57</v>
+        <v>10847.74</v>
       </c>
       <c r="C45" t="n">
-        <v>11189.57</v>
+        <v>10882.76</v>
       </c>
       <c r="D45" t="n">
-        <v>11076.78</v>
+        <v>10845.38</v>
       </c>
       <c r="E45" t="n">
-        <v>11076.78</v>
-      </c>
-      <c r="G45" s="3">
+        <v>10864.82</v>
+      </c>
+      <c r="G45" s="1">
         <f>AVERAGE(E41:E45)</f>
         <v/>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="1">
         <f>AVERAGE(E16:E45)</f>
         <v/>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="1">
         <f>G45-H45</f>
         <v/>
       </c>
@@ -2786,26 +2780,26 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>11054.36</v>
+        <v>10908.99</v>
       </c>
       <c r="C46" t="n">
-        <v>11158.29</v>
+        <v>11016.56</v>
       </c>
       <c r="D46" t="n">
-        <v>11007.89</v>
+        <v>10908.99</v>
       </c>
       <c r="E46" t="n">
-        <v>11103.79</v>
-      </c>
-      <c r="G46" s="3">
+        <v>11002.1</v>
+      </c>
+      <c r="G46" s="1">
         <f>AVERAGE(E42:E46)</f>
         <v/>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="1">
         <f>AVERAGE(E17:E46)</f>
         <v/>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="1">
         <f>G46-H46</f>
         <v/>
       </c>
@@ -2815,26 +2809,26 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>11139.4</v>
+        <v>11022.15</v>
       </c>
       <c r="C47" t="n">
-        <v>11212.1</v>
+        <v>11095.63</v>
       </c>
       <c r="D47" t="n">
-        <v>11139.4</v>
+        <v>11014.87</v>
       </c>
       <c r="E47" t="n">
-        <v>11160.25</v>
-      </c>
-      <c r="G47" s="3">
+        <v>11095.63</v>
+      </c>
+      <c r="G47" s="1">
         <f>AVERAGE(E43:E47)</f>
         <v/>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="1">
         <f>AVERAGE(E18:E47)</f>
         <v/>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="1">
         <f>G47-H47</f>
         <v/>
       </c>
@@ -2844,26 +2838,26 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>11151.65</v>
+        <v>11063.73</v>
       </c>
       <c r="C48" t="n">
-        <v>11153.32</v>
+        <v>11070.29</v>
       </c>
       <c r="D48" t="n">
-        <v>11070.43</v>
+        <v>11015.47</v>
       </c>
       <c r="E48" t="n">
-        <v>11126.23</v>
-      </c>
-      <c r="G48" s="3">
+        <v>11038.8</v>
+      </c>
+      <c r="G48" s="1">
         <f>AVERAGE(E44:E48)</f>
         <v/>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="1">
         <f>AVERAGE(E19:E48)</f>
         <v/>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="1">
         <f>G48-H48</f>
         <v/>
       </c>
@@ -2873,26 +2867,26 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10970.3</v>
+        <v>11039.6</v>
       </c>
       <c r="C49" t="n">
-        <v>10970.3</v>
+        <v>11052.11</v>
       </c>
       <c r="D49" t="n">
-        <v>10855.43</v>
+        <v>11008.18</v>
       </c>
       <c r="E49" t="n">
-        <v>10946.25</v>
-      </c>
-      <c r="G49" s="3">
+        <v>11018.45</v>
+      </c>
+      <c r="G49" s="1">
         <f>AVERAGE(E45:E49)</f>
         <v/>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="1">
         <f>AVERAGE(E20:E49)</f>
         <v/>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="1">
         <f>G49-H49</f>
         <v/>
       </c>
@@ -2902,26 +2896,26 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10761.01</v>
+        <v>11010.24</v>
       </c>
       <c r="C50" t="n">
-        <v>10761.01</v>
+        <v>11054.86</v>
       </c>
       <c r="D50" t="n">
-        <v>10300.4</v>
+        <v>10933.46</v>
       </c>
       <c r="E50" t="n">
-        <v>10404</v>
-      </c>
-      <c r="G50" s="3">
+        <v>11027.7</v>
+      </c>
+      <c r="G50" s="1">
         <f>AVERAGE(E46:E50)</f>
         <v/>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="1">
         <f>AVERAGE(E21:E50)</f>
         <v/>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="1">
         <f>G50-H50</f>
         <v/>
       </c>
@@ -2931,26 +2925,26 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10547.64</v>
+        <v>11004.81</v>
       </c>
       <c r="C51" t="n">
-        <v>10697.82</v>
+        <v>11066</v>
       </c>
       <c r="D51" t="n">
-        <v>10547.64</v>
+        <v>10983.25</v>
       </c>
       <c r="E51" t="n">
-        <v>10551.54</v>
-      </c>
-      <c r="G51" s="3">
+        <v>11046.9</v>
+      </c>
+      <c r="G51" s="1">
         <f>AVERAGE(E47:E51)</f>
         <v/>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="1">
         <f>AVERAGE(E22:E51)</f>
         <v/>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="1">
         <f>G51-H51</f>
         <v/>
       </c>
@@ -2960,26 +2954,26 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10559.44</v>
+        <v>11016.85</v>
       </c>
       <c r="C52" t="n">
-        <v>10609.5</v>
+        <v>11020.78</v>
       </c>
       <c r="D52" t="n">
-        <v>10512.93</v>
+        <v>10981.04</v>
       </c>
       <c r="E52" t="n">
-        <v>10528.52</v>
-      </c>
-      <c r="G52" s="3">
+        <v>11010.84</v>
+      </c>
+      <c r="G52" s="1">
         <f>AVERAGE(E48:E52)</f>
         <v/>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="1">
         <f>AVERAGE(E23:E52)</f>
         <v/>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="1">
         <f>G52-H52</f>
         <v/>
       </c>
@@ -2989,26 +2983,26 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10371.01</v>
+        <v>11037.35</v>
       </c>
       <c r="C53" t="n">
-        <v>10392.31</v>
+        <v>11072.31</v>
       </c>
       <c r="D53" t="n">
-        <v>10189.04</v>
+        <v>11011.07</v>
       </c>
       <c r="E53" t="n">
-        <v>10371.75</v>
-      </c>
-      <c r="G53" s="3">
+        <v>11011.07</v>
+      </c>
+      <c r="G53" s="1">
         <f>AVERAGE(E49:E53)</f>
         <v/>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="1">
         <f>AVERAGE(E24:E53)</f>
         <v/>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="1">
         <f>G53-H53</f>
         <v/>
       </c>
@@ -3018,26 +3012,26 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10429.09</v>
+        <v>11045.9</v>
       </c>
       <c r="C54" t="n">
-        <v>10473.51</v>
+        <v>11120.2</v>
       </c>
       <c r="D54" t="n">
-        <v>10416.01</v>
+        <v>10975.33</v>
       </c>
       <c r="E54" t="n">
-        <v>10421.09</v>
-      </c>
-      <c r="G54" s="3">
+        <v>11005.84</v>
+      </c>
+      <c r="G54" s="1">
         <f>AVERAGE(E50:E54)</f>
         <v/>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="1">
         <f>AVERAGE(E25:E54)</f>
         <v/>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="1">
         <f>G54-H54</f>
         <v/>
       </c>
@@ -3047,26 +3041,26 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10559.79</v>
+        <v>10863.67</v>
       </c>
       <c r="C55" t="n">
-        <v>10720.48</v>
+        <v>10863.67</v>
       </c>
       <c r="D55" t="n">
-        <v>10559.79</v>
+        <v>10758.06</v>
       </c>
       <c r="E55" t="n">
-        <v>10714.44</v>
-      </c>
-      <c r="G55" s="3">
+        <v>10823.33</v>
+      </c>
+      <c r="G55" s="1">
         <f>AVERAGE(E51:E55)</f>
         <v/>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="1">
         <f>AVERAGE(E26:E55)</f>
         <v/>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="1">
         <f>G55-H55</f>
         <v/>
       </c>
@@ -3076,26 +3070,26 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10698.47</v>
+        <v>10783.57</v>
       </c>
       <c r="C56" t="n">
-        <v>10698.47</v>
+        <v>10840.05</v>
       </c>
       <c r="D56" t="n">
-        <v>10620.8</v>
+        <v>10781.43</v>
       </c>
       <c r="E56" t="n">
-        <v>10662.38</v>
-      </c>
-      <c r="G56" s="3">
+        <v>10840.05</v>
+      </c>
+      <c r="G56" s="1">
         <f>AVERAGE(E52:E56)</f>
         <v/>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="1">
         <f>AVERAGE(E27:E56)</f>
         <v/>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="1">
         <f>G56-H56</f>
         <v/>
       </c>
@@ -3105,26 +3099,26 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10688.97</v>
+        <v>10901.69</v>
       </c>
       <c r="C57" t="n">
-        <v>10799.29</v>
+        <v>10986.79</v>
       </c>
       <c r="D57" t="n">
-        <v>10688.97</v>
+        <v>10901.69</v>
       </c>
       <c r="E57" t="n">
-        <v>10794.55</v>
-      </c>
-      <c r="G57" s="3">
+        <v>10986.79</v>
+      </c>
+      <c r="G57" s="1">
         <f>AVERAGE(E53:E57)</f>
         <v/>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="1">
         <f>AVERAGE(E28:E57)</f>
         <v/>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="1">
         <f>G57-H57</f>
         <v/>
       </c>
@@ -3134,26 +3128,26 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10827.98</v>
+        <v>10939.97</v>
       </c>
       <c r="C58" t="n">
-        <v>10890.69</v>
+        <v>10939.97</v>
       </c>
       <c r="D58" t="n">
-        <v>10827.98</v>
+        <v>10853.48</v>
       </c>
       <c r="E58" t="n">
-        <v>10836.7</v>
-      </c>
-      <c r="G58" s="3">
+        <v>10865.66</v>
+      </c>
+      <c r="G58" s="1">
         <f>AVERAGE(E54:E58)</f>
         <v/>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="1">
         <f>AVERAGE(E29:E58)</f>
         <v/>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="1">
         <f>G58-H58</f>
         <v/>
       </c>
@@ -3163,26 +3157,26 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10896.16</v>
+        <v>10855.66</v>
       </c>
       <c r="C59" t="n">
-        <v>10937.9</v>
+        <v>10889.6</v>
       </c>
       <c r="D59" t="n">
-        <v>10815.47</v>
+        <v>10815.46</v>
       </c>
       <c r="E59" t="n">
-        <v>10815.47</v>
-      </c>
-      <c r="G59" s="3">
+        <v>10845.92</v>
+      </c>
+      <c r="G59" s="1">
         <f>AVERAGE(E55:E59)</f>
         <v/>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="1">
         <f>AVERAGE(E30:E59)</f>
         <v/>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="1">
         <f>G59-H59</f>
         <v/>
       </c>
@@ -3192,26 +3186,26 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10779.1</v>
+        <v>10905.3</v>
       </c>
       <c r="C60" t="n">
-        <v>10805.55</v>
+        <v>10969.22</v>
       </c>
       <c r="D60" t="n">
-        <v>10709.69</v>
+        <v>10905.3</v>
       </c>
       <c r="E60" t="n">
-        <v>10785.79</v>
-      </c>
-      <c r="G60" s="3">
+        <v>10906.22</v>
+      </c>
+      <c r="G60" s="1">
         <f>AVERAGE(E56:E60)</f>
         <v/>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="1">
         <f>AVERAGE(E31:E60)</f>
         <v/>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="1">
         <f>G60-H60</f>
         <v/>
       </c>
@@ -3221,26 +3215,26 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10719.29</v>
+        <v>10925.71</v>
       </c>
       <c r="C61" t="n">
-        <v>10719.29</v>
+        <v>10947.16</v>
       </c>
       <c r="D61" t="n">
-        <v>10638.98</v>
+        <v>10905.69</v>
       </c>
       <c r="E61" t="n">
-        <v>10698.17</v>
-      </c>
-      <c r="G61" s="3">
+        <v>10919.49</v>
+      </c>
+      <c r="G61" s="1">
         <f>AVERAGE(E57:E61)</f>
         <v/>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="1">
         <f>AVERAGE(E32:E61)</f>
         <v/>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="1">
         <f>G61-H61</f>
         <v/>
       </c>
@@ -3250,26 +3244,26 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10727.45</v>
+        <v>10936.26</v>
       </c>
       <c r="C62" t="n">
-        <v>10756.37</v>
+        <v>10969.88</v>
       </c>
       <c r="D62" t="n">
-        <v>10642.9</v>
+        <v>10882.05</v>
       </c>
       <c r="E62" t="n">
-        <v>10642.9</v>
-      </c>
-      <c r="G62" s="3">
+        <v>10888.27</v>
+      </c>
+      <c r="G62" s="1">
         <f>AVERAGE(E58:E62)</f>
         <v/>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="1">
         <f>AVERAGE(E33:E62)</f>
         <v/>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="1">
         <f>G62-H62</f>
         <v/>
       </c>
@@ -3279,26 +3273,26 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10711.15</v>
+        <v>10837.54</v>
       </c>
       <c r="C63" t="n">
-        <v>10784.34</v>
+        <v>10837.54</v>
       </c>
       <c r="D63" t="n">
-        <v>10711.15</v>
+        <v>10775.45</v>
       </c>
       <c r="E63" t="n">
-        <v>10784.34</v>
-      </c>
-      <c r="G63" s="3">
+        <v>10821.53</v>
+      </c>
+      <c r="G63" s="1">
         <f>AVERAGE(E59:E63)</f>
         <v/>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="1">
         <f>AVERAGE(E34:E63)</f>
         <v/>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="1">
         <f>G63-H63</f>
         <v/>
       </c>
@@ -3308,26 +3302,26 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10762.99</v>
+        <v>10880.14</v>
       </c>
       <c r="C64" t="n">
-        <v>10818.05</v>
+        <v>10904.75</v>
       </c>
       <c r="D64" t="n">
-        <v>10745.32</v>
+        <v>10829.02</v>
       </c>
       <c r="E64" t="n">
-        <v>10745.32</v>
-      </c>
-      <c r="G64" s="3">
+        <v>10893.53</v>
+      </c>
+      <c r="G64" s="1">
         <f>AVERAGE(E60:E64)</f>
         <v/>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="1">
         <f>AVERAGE(E35:E64)</f>
         <v/>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="1">
         <f>G64-H64</f>
         <v/>
       </c>
@@ -3337,26 +3331,26 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10788.43</v>
+        <v>10885.64</v>
       </c>
       <c r="C65" t="n">
-        <v>10852.33</v>
+        <v>10975.67</v>
       </c>
       <c r="D65" t="n">
-        <v>10788.43</v>
+        <v>10874.83</v>
       </c>
       <c r="E65" t="n">
-        <v>10823.24</v>
-      </c>
-      <c r="G65" s="3">
+        <v>10927.18</v>
+      </c>
+      <c r="G65" s="1">
         <f>AVERAGE(E61:E65)</f>
         <v/>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="1">
         <f>AVERAGE(E36:E65)</f>
         <v/>
       </c>
-      <c r="I65" s="3">
+      <c r="I65" s="1">
         <f>G65-H65</f>
         <v/>
       </c>
@@ -3366,26 +3360,26 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10847.74</v>
+        <v>10961.7</v>
       </c>
       <c r="C66" t="n">
-        <v>10882.76</v>
+        <v>11016.35</v>
       </c>
       <c r="D66" t="n">
-        <v>10845.38</v>
+        <v>10953.31</v>
       </c>
       <c r="E66" t="n">
-        <v>10864.82</v>
-      </c>
-      <c r="G66" s="3">
+        <v>10974.02</v>
+      </c>
+      <c r="G66" s="1">
         <f>AVERAGE(E62:E66)</f>
         <v/>
       </c>
-      <c r="H66" s="3">
+      <c r="H66" s="1">
         <f>AVERAGE(E37:E66)</f>
         <v/>
       </c>
-      <c r="I66" s="3">
+      <c r="I66" s="1">
         <f>G66-H66</f>
         <v/>
       </c>
@@ -3395,26 +3389,26 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10908.99</v>
+        <v>10984.12</v>
       </c>
       <c r="C67" t="n">
-        <v>11016.56</v>
+        <v>11008.2</v>
       </c>
       <c r="D67" t="n">
-        <v>10908.99</v>
+        <v>10920.62</v>
       </c>
       <c r="E67" t="n">
-        <v>11002.1</v>
-      </c>
-      <c r="G67" s="3">
+        <v>10955.29</v>
+      </c>
+      <c r="G67" s="1">
         <f>AVERAGE(E63:E67)</f>
         <v/>
       </c>
-      <c r="H67" s="3">
+      <c r="H67" s="1">
         <f>AVERAGE(E38:E67)</f>
         <v/>
       </c>
-      <c r="I67" s="3">
+      <c r="I67" s="1">
         <f>G67-H67</f>
         <v/>
       </c>
@@ -3424,26 +3418,26 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>11022.15</v>
+        <v>10975.58</v>
       </c>
       <c r="C68" t="n">
-        <v>11095.63</v>
+        <v>10988.23</v>
       </c>
       <c r="D68" t="n">
-        <v>11014.87</v>
+        <v>10938.37</v>
       </c>
       <c r="E68" t="n">
-        <v>11095.63</v>
-      </c>
-      <c r="G68" s="3">
+        <v>10965.39</v>
+      </c>
+      <c r="G68" s="1">
         <f>AVERAGE(E64:E68)</f>
         <v/>
       </c>
-      <c r="H68" s="3">
+      <c r="H68" s="1">
         <f>AVERAGE(E39:E68)</f>
         <v/>
       </c>
-      <c r="I68" s="3">
+      <c r="I68" s="1">
         <f>G68-H68</f>
         <v/>
       </c>
@@ -3453,26 +3447,26 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>11063.73</v>
+        <v>10962.36</v>
       </c>
       <c r="C69" t="n">
-        <v>11070.29</v>
+        <v>10974.94</v>
       </c>
       <c r="D69" t="n">
-        <v>11015.47</v>
+        <v>10921.17</v>
       </c>
       <c r="E69" t="n">
-        <v>11038.8</v>
-      </c>
-      <c r="G69" s="3">
+        <v>10954.55</v>
+      </c>
+      <c r="G69" s="1">
         <f>AVERAGE(E65:E69)</f>
         <v/>
       </c>
-      <c r="H69" s="3">
+      <c r="H69" s="1">
         <f>AVERAGE(E40:E69)</f>
         <v/>
       </c>
-      <c r="I69" s="3">
+      <c r="I69" s="1">
         <f>G69-H69</f>
         <v/>
       </c>
@@ -3482,26 +3476,26 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>11039.6</v>
+        <v>10953.51</v>
       </c>
       <c r="C70" t="n">
-        <v>11052.11</v>
+        <v>10965.2</v>
       </c>
       <c r="D70" t="n">
-        <v>11008.18</v>
+        <v>10799.07</v>
       </c>
       <c r="E70" t="n">
-        <v>11018.45</v>
-      </c>
-      <c r="G70" s="3">
+        <v>10810.45</v>
+      </c>
+      <c r="G70" s="1">
         <f>AVERAGE(E66:E70)</f>
         <v/>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="1">
         <f>AVERAGE(E41:E70)</f>
         <v/>
       </c>
-      <c r="I70" s="3">
+      <c r="I70" s="1">
         <f>G70-H70</f>
         <v/>
       </c>
@@ -3511,26 +3505,26 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>11010.24</v>
+        <v>10842.88</v>
       </c>
       <c r="C71" t="n">
-        <v>11054.86</v>
+        <v>10917.6</v>
       </c>
       <c r="D71" t="n">
-        <v>10933.46</v>
+        <v>10809.89</v>
       </c>
       <c r="E71" t="n">
-        <v>11027.7</v>
-      </c>
-      <c r="G71" s="3">
+        <v>10847.89</v>
+      </c>
+      <c r="G71" s="1">
         <f>AVERAGE(E67:E71)</f>
         <v/>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="1">
         <f>AVERAGE(E42:E71)</f>
         <v/>
       </c>
-      <c r="I71" s="3">
+      <c r="I71" s="1">
         <f>G71-H71</f>
         <v/>
       </c>
@@ -3540,26 +3534,26 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>11004.81</v>
+        <v>10891.66</v>
       </c>
       <c r="C72" t="n">
-        <v>11066</v>
+        <v>10983.96</v>
       </c>
       <c r="D72" t="n">
-        <v>10983.25</v>
+        <v>10889.71</v>
       </c>
       <c r="E72" t="n">
-        <v>11046.9</v>
-      </c>
-      <c r="G72" s="3">
+        <v>10971.22</v>
+      </c>
+      <c r="G72" s="1">
         <f>AVERAGE(E68:E72)</f>
         <v/>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="1">
         <f>AVERAGE(E43:E72)</f>
         <v/>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="1">
         <f>G72-H72</f>
         <v/>
       </c>
@@ -3569,26 +3563,26 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>11016.85</v>
+        <v>10802.42</v>
       </c>
       <c r="C73" t="n">
-        <v>11020.78</v>
+        <v>10831.56</v>
       </c>
       <c r="D73" t="n">
-        <v>10981.04</v>
+        <v>10770.05</v>
       </c>
       <c r="E73" t="n">
-        <v>11010.84</v>
-      </c>
-      <c r="G73" s="3">
+        <v>10779.38</v>
+      </c>
+      <c r="G73" s="1">
         <f>AVERAGE(E69:E73)</f>
         <v/>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="1">
         <f>AVERAGE(E44:E73)</f>
         <v/>
       </c>
-      <c r="I73" s="3">
+      <c r="I73" s="1">
         <f>G73-H73</f>
         <v/>
       </c>
@@ -3598,26 +3592,26 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>11037.35</v>
+        <v>10756.89</v>
       </c>
       <c r="C74" t="n">
-        <v>11072.31</v>
+        <v>10774.73</v>
       </c>
       <c r="D74" t="n">
-        <v>11011.07</v>
+        <v>10687.25</v>
       </c>
       <c r="E74" t="n">
-        <v>11011.07</v>
-      </c>
-      <c r="G74" s="3">
+        <v>10697.13</v>
+      </c>
+      <c r="G74" s="1">
         <f>AVERAGE(E70:E74)</f>
         <v/>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="1">
         <f>AVERAGE(E45:E74)</f>
         <v/>
       </c>
-      <c r="I74" s="3">
+      <c r="I74" s="1">
         <f>G74-H74</f>
         <v/>
       </c>
@@ -3627,26 +3621,26 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>11045.9</v>
+        <v>10680.38</v>
       </c>
       <c r="C75" t="n">
-        <v>11120.2</v>
+        <v>10692.19</v>
       </c>
       <c r="D75" t="n">
-        <v>10975.33</v>
+        <v>10540.15</v>
       </c>
       <c r="E75" t="n">
-        <v>11005.84</v>
-      </c>
-      <c r="G75" s="3">
+        <v>10579.5</v>
+      </c>
+      <c r="G75" s="1">
         <f>AVERAGE(E71:E75)</f>
         <v/>
       </c>
-      <c r="H75" s="3">
+      <c r="H75" s="1">
         <f>AVERAGE(E46:E75)</f>
         <v/>
       </c>
-      <c r="I75" s="3">
+      <c r="I75" s="1">
         <f>G75-H75</f>
         <v/>
       </c>
@@ -3656,26 +3650,26 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10863.67</v>
+        <v>10541.83</v>
       </c>
       <c r="C76" t="n">
-        <v>10863.67</v>
+        <v>10573.73</v>
       </c>
       <c r="D76" t="n">
-        <v>10758.06</v>
+        <v>10489.2</v>
       </c>
       <c r="E76" t="n">
-        <v>10823.33</v>
-      </c>
-      <c r="G76" s="3">
+        <v>10559.97</v>
+      </c>
+      <c r="G76" s="1">
         <f>AVERAGE(E72:E76)</f>
         <v/>
       </c>
-      <c r="H76" s="3">
+      <c r="H76" s="1">
         <f>AVERAGE(E47:E76)</f>
         <v/>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="1">
         <f>G76-H76</f>
         <v/>
       </c>
@@ -3685,26 +3679,26 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10783.57</v>
+        <v>10583.08</v>
       </c>
       <c r="C77" t="n">
-        <v>10840.05</v>
+        <v>10618.68</v>
       </c>
       <c r="D77" t="n">
-        <v>10781.43</v>
+        <v>10478.98</v>
       </c>
       <c r="E77" t="n">
-        <v>10840.05</v>
-      </c>
-      <c r="G77" s="3">
+        <v>10488.58</v>
+      </c>
+      <c r="G77" s="1">
         <f>AVERAGE(E73:E77)</f>
         <v/>
       </c>
-      <c r="H77" s="3">
+      <c r="H77" s="1">
         <f>AVERAGE(E48:E77)</f>
         <v/>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="1">
         <f>G77-H77</f>
         <v/>
       </c>
@@ -3714,26 +3708,26 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10901.69</v>
+        <v>10546.29</v>
       </c>
       <c r="C78" t="n">
-        <v>10986.79</v>
+        <v>10573.61</v>
       </c>
       <c r="D78" t="n">
-        <v>10901.69</v>
+        <v>10495.67</v>
       </c>
       <c r="E78" t="n">
-        <v>10986.79</v>
-      </c>
-      <c r="G78" s="3">
+        <v>10553.43</v>
+      </c>
+      <c r="G78" s="1">
         <f>AVERAGE(E74:E78)</f>
         <v/>
       </c>
-      <c r="H78" s="3">
+      <c r="H78" s="1">
         <f>AVERAGE(E49:E78)</f>
         <v/>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="1">
         <f>G78-H78</f>
         <v/>
       </c>
@@ -3743,26 +3737,26 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10939.97</v>
+        <v>10553.41</v>
       </c>
       <c r="C79" t="n">
-        <v>10939.97</v>
+        <v>10660.61</v>
       </c>
       <c r="D79" t="n">
-        <v>10853.48</v>
+        <v>10539.63</v>
       </c>
       <c r="E79" t="n">
-        <v>10865.66</v>
-      </c>
-      <c r="G79" s="3">
+        <v>10657.88</v>
+      </c>
+      <c r="G79" s="1">
         <f>AVERAGE(E75:E79)</f>
         <v/>
       </c>
-      <c r="H79" s="3">
+      <c r="H79" s="1">
         <f>AVERAGE(E50:E79)</f>
         <v/>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="1">
         <f>G79-H79</f>
         <v/>
       </c>
@@ -3772,26 +3766,26 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>10855.66</v>
+        <v>10665.52</v>
       </c>
       <c r="C80" t="n">
-        <v>10889.6</v>
+        <v>10683.9</v>
       </c>
       <c r="D80" t="n">
-        <v>10815.46</v>
+        <v>10601.1</v>
       </c>
       <c r="E80" t="n">
-        <v>10845.92</v>
-      </c>
-      <c r="G80" s="3">
+        <v>10618.81</v>
+      </c>
+      <c r="G80" s="1">
         <f>AVERAGE(E76:E80)</f>
         <v/>
       </c>
-      <c r="H80" s="3">
+      <c r="H80" s="1">
         <f>AVERAGE(E51:E80)</f>
         <v/>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="1">
         <f>G80-H80</f>
         <v/>
       </c>
@@ -3801,26 +3795,26 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10905.3</v>
+        <v>10578.98</v>
       </c>
       <c r="C81" t="n">
-        <v>10969.22</v>
+        <v>10578.98</v>
       </c>
       <c r="D81" t="n">
-        <v>10905.3</v>
+        <v>10509.03</v>
       </c>
       <c r="E81" t="n">
-        <v>10906.22</v>
-      </c>
-      <c r="G81" s="3">
+        <v>10514.18</v>
+      </c>
+      <c r="G81" s="1">
         <f>AVERAGE(E77:E81)</f>
         <v/>
       </c>
-      <c r="H81" s="3">
+      <c r="H81" s="1">
         <f>AVERAGE(E52:E81)</f>
         <v/>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="1">
         <f>G81-H81</f>
         <v/>
       </c>
@@ -3830,26 +3824,26 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10925.71</v>
+        <v>10516.45</v>
       </c>
       <c r="C82" t="n">
-        <v>10947.16</v>
+        <v>10566.37</v>
       </c>
       <c r="D82" t="n">
-        <v>10905.69</v>
+        <v>10500.97</v>
       </c>
       <c r="E82" t="n">
-        <v>10919.49</v>
-      </c>
-      <c r="G82" s="3">
+        <v>10529.37</v>
+      </c>
+      <c r="G82" s="1">
         <f>AVERAGE(E78:E82)</f>
         <v/>
       </c>
-      <c r="H82" s="3">
+      <c r="H82" s="1">
         <f>AVERAGE(E53:E82)</f>
         <v/>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="1">
         <f>G82-H82</f>
         <v/>
       </c>
@@ -3859,26 +3853,26 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10936.26</v>
+        <v>10581.78</v>
       </c>
       <c r="C83" t="n">
-        <v>10969.88</v>
+        <v>10632.62</v>
       </c>
       <c r="D83" t="n">
-        <v>10882.05</v>
+        <v>10555.56</v>
       </c>
       <c r="E83" t="n">
-        <v>10888.27</v>
-      </c>
-      <c r="G83" s="3">
+        <v>10604.91</v>
+      </c>
+      <c r="G83" s="1">
         <f>AVERAGE(E79:E83)</f>
         <v/>
       </c>
-      <c r="H83" s="3">
+      <c r="H83" s="1">
         <f>AVERAGE(E54:E83)</f>
         <v/>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="1">
         <f>G83-H83</f>
         <v/>
       </c>
@@ -3888,26 +3882,26 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10837.54</v>
+        <v>10610.44</v>
       </c>
       <c r="C84" t="n">
-        <v>10837.54</v>
+        <v>10691.38</v>
       </c>
       <c r="D84" t="n">
-        <v>10775.45</v>
+        <v>10609.04</v>
       </c>
       <c r="E84" t="n">
-        <v>10821.53</v>
-      </c>
-      <c r="G84" s="3">
+        <v>10691.38</v>
+      </c>
+      <c r="G84" s="1">
         <f>AVERAGE(E80:E84)</f>
         <v/>
       </c>
-      <c r="H84" s="3">
+      <c r="H84" s="1">
         <f>AVERAGE(E55:E84)</f>
         <v/>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="1">
         <f>G84-H84</f>
         <v/>
       </c>
@@ -3917,26 +3911,26 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10880.14</v>
+        <v>10692.89</v>
       </c>
       <c r="C85" t="n">
-        <v>10904.75</v>
+        <v>10748.6</v>
       </c>
       <c r="D85" t="n">
-        <v>10829.02</v>
+        <v>10689.81</v>
       </c>
       <c r="E85" t="n">
-        <v>10893.53</v>
-      </c>
-      <c r="G85" s="3">
+        <v>10703.35</v>
+      </c>
+      <c r="G85" s="1">
         <f>AVERAGE(E81:E85)</f>
         <v/>
       </c>
-      <c r="H85" s="3">
+      <c r="H85" s="1">
         <f>AVERAGE(E56:E85)</f>
         <v/>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="1">
         <f>G85-H85</f>
         <v/>
       </c>
@@ -3946,26 +3940,26 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10885.64</v>
+        <v>10731.68</v>
       </c>
       <c r="C86" t="n">
-        <v>10975.67</v>
+        <v>10782.06</v>
       </c>
       <c r="D86" t="n">
-        <v>10874.83</v>
+        <v>10731.68</v>
       </c>
       <c r="E86" t="n">
-        <v>10927.18</v>
-      </c>
-      <c r="G86" s="3">
+        <v>10760.21</v>
+      </c>
+      <c r="G86" s="1">
         <f>AVERAGE(E82:E86)</f>
         <v/>
       </c>
-      <c r="H86" s="3">
+      <c r="H86" s="1">
         <f>AVERAGE(E57:E86)</f>
         <v/>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="1">
         <f>G86-H86</f>
         <v/>
       </c>
@@ -3975,26 +3969,26 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10961.7</v>
+        <v>10808.4</v>
       </c>
       <c r="C87" t="n">
-        <v>11016.35</v>
+        <v>10874.63</v>
       </c>
       <c r="D87" t="n">
-        <v>10953.31</v>
+        <v>10808.4</v>
       </c>
       <c r="E87" t="n">
-        <v>10974.02</v>
-      </c>
-      <c r="G87" s="3">
+        <v>10858.98</v>
+      </c>
+      <c r="G87" s="1">
         <f>AVERAGE(E83:E87)</f>
         <v/>
       </c>
-      <c r="H87" s="3">
+      <c r="H87" s="1">
         <f>AVERAGE(E58:E87)</f>
         <v/>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="1">
         <f>G87-H87</f>
         <v/>
       </c>
@@ -4004,26 +3998,26 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10984.12</v>
+        <v>10938.3</v>
       </c>
       <c r="C88" t="n">
-        <v>11008.2</v>
+        <v>10970.24</v>
       </c>
       <c r="D88" t="n">
-        <v>10920.62</v>
+        <v>10908.86</v>
       </c>
       <c r="E88" t="n">
-        <v>10955.29</v>
-      </c>
-      <c r="G88" s="3">
+        <v>10952.39</v>
+      </c>
+      <c r="G88" s="1">
         <f>AVERAGE(E84:E88)</f>
         <v/>
       </c>
-      <c r="H88" s="3">
+      <c r="H88" s="1">
         <f>AVERAGE(E59:E88)</f>
         <v/>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="1">
         <f>G88-H88</f>
         <v/>
       </c>
@@ -4033,26 +4027,26 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>10975.58</v>
+        <v>10965.08</v>
       </c>
       <c r="C89" t="n">
-        <v>10988.23</v>
+        <v>10978.38</v>
       </c>
       <c r="D89" t="n">
-        <v>10938.37</v>
+        <v>10874.73</v>
       </c>
       <c r="E89" t="n">
-        <v>10965.39</v>
-      </c>
-      <c r="G89" s="3">
+        <v>10874.73</v>
+      </c>
+      <c r="G89" s="1">
         <f>AVERAGE(E85:E89)</f>
         <v/>
       </c>
-      <c r="H89" s="3">
+      <c r="H89" s="1">
         <f>AVERAGE(E60:E89)</f>
         <v/>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="1">
         <f>G89-H89</f>
         <v/>
       </c>
@@ -4062,26 +4056,26 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>10962.36</v>
+        <v>10873.54</v>
       </c>
       <c r="C90" t="n">
-        <v>10974.94</v>
+        <v>10915.74</v>
       </c>
       <c r="D90" t="n">
-        <v>10921.17</v>
+        <v>10865.07</v>
       </c>
       <c r="E90" t="n">
-        <v>10954.55</v>
-      </c>
-      <c r="G90" s="3">
+        <v>10897.57</v>
+      </c>
+      <c r="G90" s="1">
         <f>AVERAGE(E86:E90)</f>
         <v/>
       </c>
-      <c r="H90" s="3">
+      <c r="H90" s="1">
         <f>AVERAGE(E61:E90)</f>
         <v/>
       </c>
-      <c r="I90" s="3">
+      <c r="I90" s="1">
         <f>G90-H90</f>
         <v/>
       </c>
@@ -4091,26 +4085,26 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>10953.51</v>
+        <v>10911.74</v>
       </c>
       <c r="C91" t="n">
-        <v>10965.2</v>
+        <v>10938.63</v>
       </c>
       <c r="D91" t="n">
-        <v>10799.07</v>
+        <v>10833.81</v>
       </c>
       <c r="E91" t="n">
-        <v>10810.45</v>
-      </c>
-      <c r="G91" s="3">
+        <v>10833.81</v>
+      </c>
+      <c r="G91" s="1">
         <f>AVERAGE(E87:E91)</f>
         <v/>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="1">
         <f>AVERAGE(E62:E91)</f>
         <v/>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="1">
         <f>G91-H91</f>
         <v/>
       </c>
@@ -4120,26 +4114,26 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>10842.88</v>
+        <v>10844.09</v>
       </c>
       <c r="C92" t="n">
-        <v>10917.6</v>
+        <v>10893.35</v>
       </c>
       <c r="D92" t="n">
-        <v>10809.89</v>
+        <v>10819.07</v>
       </c>
       <c r="E92" t="n">
-        <v>10847.89</v>
-      </c>
-      <c r="G92" s="3">
+        <v>10830.84</v>
+      </c>
+      <c r="G92" s="1">
         <f>AVERAGE(E88:E92)</f>
         <v/>
       </c>
-      <c r="H92" s="3">
+      <c r="H92" s="1">
         <f>AVERAGE(E63:E92)</f>
         <v/>
       </c>
-      <c r="I92" s="3">
+      <c r="I92" s="1">
         <f>G92-H92</f>
         <v/>
       </c>
@@ -4149,26 +4143,26 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>10891.66</v>
+        <v>10861.66</v>
       </c>
       <c r="C93" t="n">
-        <v>10983.96</v>
+        <v>10979.1</v>
       </c>
       <c r="D93" t="n">
-        <v>10889.71</v>
+        <v>10861.66</v>
       </c>
       <c r="E93" t="n">
-        <v>10971.22</v>
-      </c>
-      <c r="G93" s="3">
+        <v>10966.2</v>
+      </c>
+      <c r="G93" s="1">
         <f>AVERAGE(E89:E93)</f>
         <v/>
       </c>
-      <c r="H93" s="3">
+      <c r="H93" s="1">
         <f>AVERAGE(E64:E93)</f>
         <v/>
       </c>
-      <c r="I93" s="3">
+      <c r="I93" s="1">
         <f>G93-H93</f>
         <v/>
       </c>
@@ -4178,26 +4172,26 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>10802.42</v>
+        <v>10986.77</v>
       </c>
       <c r="C94" t="n">
-        <v>10831.56</v>
+        <v>11034.12</v>
       </c>
       <c r="D94" t="n">
-        <v>10770.05</v>
+        <v>10938.73</v>
       </c>
       <c r="E94" t="n">
-        <v>10779.38</v>
-      </c>
-      <c r="G94" s="3">
+        <v>10938.73</v>
+      </c>
+      <c r="G94" s="1">
         <f>AVERAGE(E90:E94)</f>
         <v/>
       </c>
-      <c r="H94" s="3">
+      <c r="H94" s="1">
         <f>AVERAGE(E65:E94)</f>
         <v/>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="1">
         <f>G94-H94</f>
         <v/>
       </c>
@@ -4207,26 +4201,26 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>10756.89</v>
+        <v>10974.52</v>
       </c>
       <c r="C95" t="n">
-        <v>10774.73</v>
+        <v>10991.86</v>
       </c>
       <c r="D95" t="n">
-        <v>10687.25</v>
+        <v>10886.18</v>
       </c>
       <c r="E95" t="n">
-        <v>10697.13</v>
-      </c>
-      <c r="G95" s="3">
+        <v>10886.18</v>
+      </c>
+      <c r="G95" s="1">
         <f>AVERAGE(E91:E95)</f>
         <v/>
       </c>
-      <c r="H95" s="3">
+      <c r="H95" s="1">
         <f>AVERAGE(E66:E95)</f>
         <v/>
       </c>
-      <c r="I95" s="3">
+      <c r="I95" s="1">
         <f>G95-H95</f>
         <v/>
       </c>
@@ -4236,26 +4230,26 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>10680.38</v>
+        <v>10910.61</v>
       </c>
       <c r="C96" t="n">
-        <v>10692.19</v>
+        <v>10942.64</v>
       </c>
       <c r="D96" t="n">
-        <v>10540.15</v>
+        <v>10883.52</v>
       </c>
       <c r="E96" t="n">
-        <v>10579.5</v>
-      </c>
-      <c r="G96" s="3">
+        <v>10936.93</v>
+      </c>
+      <c r="G96" s="1">
         <f>AVERAGE(E92:E96)</f>
         <v/>
       </c>
-      <c r="H96" s="3">
+      <c r="H96" s="1">
         <f>AVERAGE(E67:E96)</f>
         <v/>
       </c>
-      <c r="I96" s="3">
+      <c r="I96" s="1">
         <f>G96-H96</f>
         <v/>
       </c>
@@ -4265,26 +4259,26 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10541.83</v>
+        <v>10946.62</v>
       </c>
       <c r="C97" t="n">
-        <v>10573.73</v>
+        <v>10977.81</v>
       </c>
       <c r="D97" t="n">
-        <v>10489.2</v>
+        <v>10918.12</v>
       </c>
       <c r="E97" t="n">
-        <v>10559.97</v>
-      </c>
-      <c r="G97" s="3">
+        <v>10942.3</v>
+      </c>
+      <c r="G97" s="1">
         <f>AVERAGE(E93:E97)</f>
         <v/>
       </c>
-      <c r="H97" s="3">
+      <c r="H97" s="1">
         <f>AVERAGE(E68:E97)</f>
         <v/>
       </c>
-      <c r="I97" s="3">
+      <c r="I97" s="1">
         <f>G97-H97</f>
         <v/>
       </c>
@@ -4294,26 +4288,26 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10583.08</v>
+        <v>10976.49</v>
       </c>
       <c r="C98" t="n">
-        <v>10618.68</v>
+        <v>10999.43</v>
       </c>
       <c r="D98" t="n">
-        <v>10478.98</v>
+        <v>10965.18</v>
       </c>
       <c r="E98" t="n">
-        <v>10488.58</v>
-      </c>
-      <c r="G98" s="3">
+        <v>10987.77</v>
+      </c>
+      <c r="G98" s="1">
         <f>AVERAGE(E94:E98)</f>
         <v/>
       </c>
-      <c r="H98" s="3">
+      <c r="H98" s="1">
         <f>AVERAGE(E69:E98)</f>
         <v/>
       </c>
-      <c r="I98" s="3">
+      <c r="I98" s="1">
         <f>G98-H98</f>
         <v/>
       </c>
@@ -4323,26 +4317,26 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10546.29</v>
+        <v>10979.68</v>
       </c>
       <c r="C99" t="n">
-        <v>10573.61</v>
+        <v>10986.53</v>
       </c>
       <c r="D99" t="n">
-        <v>10495.67</v>
+        <v>10929.56</v>
       </c>
       <c r="E99" t="n">
-        <v>10553.43</v>
-      </c>
-      <c r="G99" s="3">
+        <v>10964.12</v>
+      </c>
+      <c r="G99" s="1">
         <f>AVERAGE(E95:E99)</f>
         <v/>
       </c>
-      <c r="H99" s="3">
+      <c r="H99" s="1">
         <f>AVERAGE(E70:E99)</f>
         <v/>
       </c>
-      <c r="I99" s="3">
+      <c r="I99" s="1">
         <f>G99-H99</f>
         <v/>
       </c>
@@ -4352,26 +4346,26 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10553.41</v>
+        <v>10925.21</v>
       </c>
       <c r="C100" t="n">
-        <v>10660.61</v>
+        <v>10925.21</v>
       </c>
       <c r="D100" t="n">
-        <v>10539.63</v>
+        <v>10799.75</v>
       </c>
       <c r="E100" t="n">
-        <v>10657.88</v>
-      </c>
-      <c r="G100" s="3">
+        <v>10821.17</v>
+      </c>
+      <c r="G100" s="1">
         <f>AVERAGE(E96:E100)</f>
         <v/>
       </c>
-      <c r="H100" s="3">
+      <c r="H100" s="1">
         <f>AVERAGE(E71:E100)</f>
         <v/>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="1">
         <f>G100-H100</f>
         <v/>
       </c>
@@ -4381,26 +4375,26 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10665.52</v>
+        <v>10856.03</v>
       </c>
       <c r="C101" t="n">
-        <v>10683.9</v>
+        <v>10909.61</v>
       </c>
       <c r="D101" t="n">
-        <v>10601.1</v>
+        <v>10853.65</v>
       </c>
       <c r="E101" t="n">
-        <v>10618.81</v>
-      </c>
-      <c r="G101" s="3">
+        <v>10874.96</v>
+      </c>
+      <c r="G101" s="1">
         <f>AVERAGE(E97:E101)</f>
         <v/>
       </c>
-      <c r="H101" s="3">
+      <c r="H101" s="1">
         <f>AVERAGE(E72:E101)</f>
         <v/>
       </c>
-      <c r="I101" s="3">
+      <c r="I101" s="1">
         <f>G101-H101</f>
         <v/>
       </c>
@@ -4410,26 +4404,26 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10578.98</v>
+        <v>10882.68</v>
       </c>
       <c r="C102" t="n">
-        <v>10578.98</v>
+        <v>10954.67</v>
       </c>
       <c r="D102" t="n">
-        <v>10509.03</v>
+        <v>10876.97</v>
       </c>
       <c r="E102" t="n">
-        <v>10514.18</v>
-      </c>
-      <c r="G102" s="3">
+        <v>10949.08</v>
+      </c>
+      <c r="G102" s="1">
         <f>AVERAGE(E98:E102)</f>
         <v/>
       </c>
-      <c r="H102" s="3">
+      <c r="H102" s="1">
         <f>AVERAGE(E73:E102)</f>
         <v/>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="1">
         <f>G102-H102</f>
         <v/>
       </c>
@@ -4439,26 +4433,26 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>10516.45</v>
+        <v>11002.15</v>
       </c>
       <c r="C103" t="n">
-        <v>10566.37</v>
+        <v>11109.5</v>
       </c>
       <c r="D103" t="n">
-        <v>10500.97</v>
+        <v>11002.15</v>
       </c>
       <c r="E103" t="n">
-        <v>10529.37</v>
-      </c>
-      <c r="G103" s="3">
+        <v>11109.5</v>
+      </c>
+      <c r="G103" s="1">
         <f>AVERAGE(E99:E103)</f>
         <v/>
       </c>
-      <c r="H103" s="3">
+      <c r="H103" s="1">
         <f>AVERAGE(E74:E103)</f>
         <v/>
       </c>
-      <c r="I103" s="3">
+      <c r="I103" s="1">
         <f>G103-H103</f>
         <v/>
       </c>
@@ -4468,26 +4462,26 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>10581.78</v>
+        <v>11130.03</v>
       </c>
       <c r="C104" t="n">
-        <v>10632.62</v>
+        <v>11131.08</v>
       </c>
       <c r="D104" t="n">
-        <v>10555.56</v>
+        <v>11054.62</v>
       </c>
       <c r="E104" t="n">
-        <v>10604.91</v>
-      </c>
-      <c r="G104" s="3">
+        <v>11100.11</v>
+      </c>
+      <c r="G104" s="1">
         <f>AVERAGE(E100:E104)</f>
         <v/>
       </c>
-      <c r="H104" s="3">
+      <c r="H104" s="1">
         <f>AVERAGE(E75:E104)</f>
         <v/>
       </c>
-      <c r="I104" s="3">
+      <c r="I104" s="1">
         <f>G104-H104</f>
         <v/>
       </c>
@@ -4497,26 +4491,26 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>10610.44</v>
+        <v>11111.14</v>
       </c>
       <c r="C105" t="n">
-        <v>10691.38</v>
+        <v>11207.15</v>
       </c>
       <c r="D105" t="n">
-        <v>10609.04</v>
+        <v>11111.14</v>
       </c>
       <c r="E105" t="n">
-        <v>10691.38</v>
-      </c>
-      <c r="G105" s="3">
+        <v>11201.83</v>
+      </c>
+      <c r="G105" s="1">
         <f>AVERAGE(E101:E105)</f>
         <v/>
       </c>
-      <c r="H105" s="3">
+      <c r="H105" s="1">
         <f>AVERAGE(E76:E105)</f>
         <v/>
       </c>
-      <c r="I105" s="3">
+      <c r="I105" s="1">
         <f>G105-H105</f>
         <v/>
       </c>
@@ -4526,26 +4520,26 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>10692.89</v>
+        <v>11228.64</v>
       </c>
       <c r="C106" t="n">
-        <v>10748.6</v>
+        <v>11261.68</v>
       </c>
       <c r="D106" t="n">
-        <v>10689.81</v>
+        <v>11188.99</v>
       </c>
       <c r="E106" t="n">
-        <v>10703.35</v>
-      </c>
-      <c r="G106" s="3">
+        <v>11251.75</v>
+      </c>
+      <c r="G106" s="1">
         <f>AVERAGE(E102:E106)</f>
         <v/>
       </c>
-      <c r="H106" s="3">
+      <c r="H106" s="1">
         <f>AVERAGE(E77:E106)</f>
         <v/>
       </c>
-      <c r="I106" s="3">
+      <c r="I106" s="1">
         <f>G106-H106</f>
         <v/>
       </c>
@@ -4555,26 +4549,26 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>10731.68</v>
+        <v>11243.59</v>
       </c>
       <c r="C107" t="n">
-        <v>10782.06</v>
+        <v>11243.59</v>
       </c>
       <c r="D107" t="n">
-        <v>10731.68</v>
+        <v>11122.98</v>
       </c>
       <c r="E107" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G107" s="3">
+        <v>11156.42</v>
+      </c>
+      <c r="G107" s="1">
         <f>AVERAGE(E103:E107)</f>
         <v/>
       </c>
-      <c r="H107" s="3">
+      <c r="H107" s="1">
         <f>AVERAGE(E78:E107)</f>
         <v/>
       </c>
-      <c r="I107" s="3">
+      <c r="I107" s="1">
         <f>G107-H107</f>
         <v/>
       </c>
@@ -4584,26 +4578,26 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>10808.4</v>
+        <v>11168.99</v>
       </c>
       <c r="C108" t="n">
-        <v>10874.63</v>
+        <v>11186.67</v>
       </c>
       <c r="D108" t="n">
-        <v>10808.4</v>
+        <v>11118.81</v>
       </c>
       <c r="E108" t="n">
-        <v>10858.98</v>
-      </c>
-      <c r="G108" s="3">
+        <v>11149.23</v>
+      </c>
+      <c r="G108" s="1">
         <f>AVERAGE(E104:E108)</f>
         <v/>
       </c>
-      <c r="H108" s="3">
+      <c r="H108" s="1">
         <f>AVERAGE(E79:E108)</f>
         <v/>
       </c>
-      <c r="I108" s="3">
+      <c r="I108" s="1">
         <f>G108-H108</f>
         <v/>
       </c>
@@ -4613,26 +4607,26 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>10938.3</v>
+        <v>11140.02</v>
       </c>
       <c r="C109" t="n">
-        <v>10970.24</v>
+        <v>11160.05</v>
       </c>
       <c r="D109" t="n">
-        <v>10908.86</v>
+        <v>11088.53</v>
       </c>
       <c r="E109" t="n">
-        <v>10952.39</v>
-      </c>
-      <c r="G109" s="3">
+        <v>11144.79</v>
+      </c>
+      <c r="G109" s="1">
         <f>AVERAGE(E105:E109)</f>
         <v/>
       </c>
-      <c r="H109" s="3">
+      <c r="H109" s="1">
         <f>AVERAGE(E80:E109)</f>
         <v/>
       </c>
-      <c r="I109" s="3">
+      <c r="I109" s="1">
         <f>G109-H109</f>
         <v/>
       </c>
@@ -4642,26 +4636,26 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>10965.08</v>
+        <v>11153.2</v>
       </c>
       <c r="C110" t="n">
-        <v>10978.38</v>
+        <v>11188.01</v>
       </c>
       <c r="D110" t="n">
-        <v>10874.73</v>
+        <v>11119.24</v>
       </c>
       <c r="E110" t="n">
-        <v>10874.73</v>
-      </c>
-      <c r="G110" s="3">
+        <v>11173.21</v>
+      </c>
+      <c r="G110" s="1">
         <f>AVERAGE(E106:E110)</f>
         <v/>
       </c>
-      <c r="H110" s="3">
+      <c r="H110" s="1">
         <f>AVERAGE(E81:E110)</f>
         <v/>
       </c>
-      <c r="I110" s="3">
+      <c r="I110" s="1">
         <f>G110-H110</f>
         <v/>
       </c>
@@ -4671,26 +4665,26 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>10873.54</v>
+        <v>11143.04</v>
       </c>
       <c r="C111" t="n">
-        <v>10915.74</v>
+        <v>11143.04</v>
       </c>
       <c r="D111" t="n">
-        <v>10865.07</v>
+        <v>11013.98</v>
       </c>
       <c r="E111" t="n">
-        <v>10897.57</v>
-      </c>
-      <c r="G111" s="3">
+        <v>11013.98</v>
+      </c>
+      <c r="G111" s="1">
         <f>AVERAGE(E107:E111)</f>
         <v/>
       </c>
-      <c r="H111" s="3">
+      <c r="H111" s="1">
         <f>AVERAGE(E82:E111)</f>
         <v/>
       </c>
-      <c r="I111" s="3">
+      <c r="I111" s="1">
         <f>G111-H111</f>
         <v/>
       </c>
@@ -4700,26 +4694,26 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>10911.74</v>
+        <v>10998.2</v>
       </c>
       <c r="C112" t="n">
-        <v>10938.63</v>
+        <v>11087.47</v>
       </c>
       <c r="D112" t="n">
-        <v>10833.81</v>
+        <v>10981.61</v>
       </c>
       <c r="E112" t="n">
-        <v>10833.81</v>
-      </c>
-      <c r="G112" s="3">
+        <v>11087.47</v>
+      </c>
+      <c r="G112" s="1">
         <f>AVERAGE(E108:E112)</f>
         <v/>
       </c>
-      <c r="H112" s="3">
+      <c r="H112" s="1">
         <f>AVERAGE(E83:E112)</f>
         <v/>
       </c>
-      <c r="I112" s="3">
+      <c r="I112" s="1">
         <f>G112-H112</f>
         <v/>
       </c>
@@ -4729,26 +4723,26 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>10844.09</v>
+        <v>11008.77</v>
       </c>
       <c r="C113" t="n">
-        <v>10893.35</v>
+        <v>11008.77</v>
       </c>
       <c r="D113" t="n">
-        <v>10819.07</v>
+        <v>10904.19</v>
       </c>
       <c r="E113" t="n">
-        <v>10830.84</v>
-      </c>
-      <c r="G113" s="3">
+        <v>10904.19</v>
+      </c>
+      <c r="G113" s="1">
         <f>AVERAGE(E109:E113)</f>
         <v/>
       </c>
-      <c r="H113" s="3">
+      <c r="H113" s="1">
         <f>AVERAGE(E84:E113)</f>
         <v/>
       </c>
-      <c r="I113" s="3">
+      <c r="I113" s="1">
         <f>G113-H113</f>
         <v/>
       </c>
@@ -4758,26 +4752,26 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10861.66</v>
+        <v>10904.8</v>
       </c>
       <c r="C114" t="n">
-        <v>10979.1</v>
+        <v>10969.2</v>
       </c>
       <c r="D114" t="n">
-        <v>10861.66</v>
+        <v>10842.56</v>
       </c>
       <c r="E114" t="n">
-        <v>10966.2</v>
-      </c>
-      <c r="G114" s="3">
+        <v>10927.44</v>
+      </c>
+      <c r="G114" s="1">
         <f>AVERAGE(E110:E114)</f>
         <v/>
       </c>
-      <c r="H114" s="3">
+      <c r="H114" s="1">
         <f>AVERAGE(E85:E114)</f>
         <v/>
       </c>
-      <c r="I114" s="3">
+      <c r="I114" s="1">
         <f>G114-H114</f>
         <v/>
       </c>
@@ -4787,26 +4781,26 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>10986.77</v>
+        <v>10949.85</v>
       </c>
       <c r="C115" t="n">
-        <v>11034.12</v>
+        <v>10992.31</v>
       </c>
       <c r="D115" t="n">
-        <v>10938.73</v>
+        <v>10941.07</v>
       </c>
       <c r="E115" t="n">
-        <v>10938.73</v>
-      </c>
-      <c r="G115" s="3">
+        <v>10941.07</v>
+      </c>
+      <c r="G115" s="1">
         <f>AVERAGE(E111:E115)</f>
         <v/>
       </c>
-      <c r="H115" s="3">
+      <c r="H115" s="1">
         <f>AVERAGE(E86:E115)</f>
         <v/>
       </c>
-      <c r="I115" s="3">
+      <c r="I115" s="1">
         <f>G115-H115</f>
         <v/>
       </c>
@@ -4816,26 +4810,26 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>10974.52</v>
+        <v>10901.25</v>
       </c>
       <c r="C116" t="n">
-        <v>10991.86</v>
+        <v>10914.83</v>
       </c>
       <c r="D116" t="n">
-        <v>10886.18</v>
+        <v>10828.86</v>
       </c>
       <c r="E116" t="n">
-        <v>10886.18</v>
-      </c>
-      <c r="G116" s="3">
+        <v>10899.28</v>
+      </c>
+      <c r="G116" s="1">
         <f>AVERAGE(E112:E116)</f>
         <v/>
       </c>
-      <c r="H116" s="3">
+      <c r="H116" s="1">
         <f>AVERAGE(E87:E116)</f>
         <v/>
       </c>
-      <c r="I116" s="3">
+      <c r="I116" s="1">
         <f>G116-H116</f>
         <v/>
       </c>
@@ -4845,26 +4839,26 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>10910.61</v>
+        <v>10834.07</v>
       </c>
       <c r="C117" t="n">
-        <v>10942.64</v>
+        <v>10851.16</v>
       </c>
       <c r="D117" t="n">
-        <v>10883.52</v>
+        <v>10786.46</v>
       </c>
       <c r="E117" t="n">
-        <v>10936.93</v>
-      </c>
-      <c r="G117" s="3">
+        <v>10786.46</v>
+      </c>
+      <c r="G117" s="1">
         <f>AVERAGE(E113:E117)</f>
         <v/>
       </c>
-      <c r="H117" s="3">
+      <c r="H117" s="1">
         <f>AVERAGE(E88:E117)</f>
         <v/>
       </c>
-      <c r="I117" s="3">
+      <c r="I117" s="1">
         <f>G117-H117</f>
         <v/>
       </c>
@@ -4874,26 +4868,26 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>10946.62</v>
+        <v>10730.9</v>
       </c>
       <c r="C118" t="n">
-        <v>10977.81</v>
+        <v>10752.99</v>
       </c>
       <c r="D118" t="n">
-        <v>10918.12</v>
+        <v>10651.42</v>
       </c>
       <c r="E118" t="n">
-        <v>10942.3</v>
-      </c>
-      <c r="G118" s="3">
+        <v>10742.17</v>
+      </c>
+      <c r="G118" s="1">
         <f>AVERAGE(E114:E118)</f>
         <v/>
       </c>
-      <c r="H118" s="3">
+      <c r="H118" s="1">
         <f>AVERAGE(E89:E118)</f>
         <v/>
       </c>
-      <c r="I118" s="3">
+      <c r="I118" s="1">
         <f>G118-H118</f>
         <v/>
       </c>
@@ -4903,26 +4897,26 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10976.49</v>
+        <v>10766.88</v>
       </c>
       <c r="C119" t="n">
-        <v>10999.43</v>
+        <v>10800.34</v>
       </c>
       <c r="D119" t="n">
-        <v>10965.18</v>
+        <v>10701.03</v>
       </c>
       <c r="E119" t="n">
-        <v>10987.77</v>
-      </c>
-      <c r="G119" s="3">
+        <v>10701.03</v>
+      </c>
+      <c r="G119" s="1">
         <f>AVERAGE(E115:E119)</f>
         <v/>
       </c>
-      <c r="H119" s="3">
+      <c r="H119" s="1">
         <f>AVERAGE(E90:E119)</f>
         <v/>
       </c>
-      <c r="I119" s="3">
+      <c r="I119" s="1">
         <f>G119-H119</f>
         <v/>
       </c>
@@ -4932,26 +4926,26 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10979.68</v>
+        <v>10669.42</v>
       </c>
       <c r="C120" t="n">
-        <v>10986.53</v>
+        <v>10723.84</v>
       </c>
       <c r="D120" t="n">
-        <v>10929.56</v>
+        <v>10633.01</v>
       </c>
       <c r="E120" t="n">
-        <v>10964.12</v>
-      </c>
-      <c r="G120" s="3">
+        <v>10654.28</v>
+      </c>
+      <c r="G120" s="1">
         <f>AVERAGE(E116:E120)</f>
         <v/>
       </c>
-      <c r="H120" s="3">
+      <c r="H120" s="1">
         <f>AVERAGE(E91:E120)</f>
         <v/>
       </c>
-      <c r="I120" s="3">
+      <c r="I120" s="1">
         <f>G120-H120</f>
         <v/>
       </c>
@@ -4961,26 +4955,26 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10925.21</v>
+        <v>10667.64</v>
       </c>
       <c r="C121" t="n">
-        <v>10925.21</v>
+        <v>10836.91</v>
       </c>
       <c r="D121" t="n">
-        <v>10799.75</v>
+        <v>10667.64</v>
       </c>
       <c r="E121" t="n">
-        <v>10821.17</v>
-      </c>
-      <c r="G121" s="3">
+        <v>10836.91</v>
+      </c>
+      <c r="G121" s="1">
         <f>AVERAGE(E117:E121)</f>
         <v/>
       </c>
-      <c r="H121" s="3">
+      <c r="H121" s="1">
         <f>AVERAGE(E92:E121)</f>
         <v/>
       </c>
-      <c r="I121" s="3">
+      <c r="I121" s="1">
         <f>G121-H121</f>
         <v/>
       </c>
@@ -4990,26 +4984,26 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10856.03</v>
+        <v>10852.17</v>
       </c>
       <c r="C122" t="n">
-        <v>10909.61</v>
+        <v>10886.2</v>
       </c>
       <c r="D122" t="n">
-        <v>10853.65</v>
+        <v>10777.94</v>
       </c>
       <c r="E122" t="n">
-        <v>10874.96</v>
-      </c>
-      <c r="G122" s="3">
+        <v>10777.94</v>
+      </c>
+      <c r="G122" s="1">
         <f>AVERAGE(E118:E122)</f>
         <v/>
       </c>
-      <c r="H122" s="3">
+      <c r="H122" s="1">
         <f>AVERAGE(E93:E122)</f>
         <v/>
       </c>
-      <c r="I122" s="3">
+      <c r="I122" s="1">
         <f>G122-H122</f>
         <v/>
       </c>
@@ -5019,26 +5013,26 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10882.68</v>
+        <v>10802.88</v>
       </c>
       <c r="C123" t="n">
-        <v>10954.67</v>
+        <v>10873.48</v>
       </c>
       <c r="D123" t="n">
-        <v>10876.97</v>
+        <v>10707.68</v>
       </c>
       <c r="E123" t="n">
-        <v>10949.08</v>
-      </c>
-      <c r="G123" s="3">
+        <v>10715.72</v>
+      </c>
+      <c r="G123" s="1">
         <f>AVERAGE(E119:E123)</f>
         <v/>
       </c>
-      <c r="H123" s="3">
+      <c r="H123" s="1">
         <f>AVERAGE(E94:E123)</f>
         <v/>
       </c>
-      <c r="I123" s="3">
+      <c r="I123" s="1">
         <f>G123-H123</f>
         <v/>
       </c>
@@ -5048,26 +5042,26 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>11002.15</v>
+        <v>10714.25</v>
       </c>
       <c r="C124" t="n">
-        <v>11109.5</v>
+        <v>10752.05</v>
       </c>
       <c r="D124" t="n">
-        <v>11002.15</v>
+        <v>10680.44</v>
       </c>
       <c r="E124" t="n">
-        <v>11109.5</v>
-      </c>
-      <c r="G124" s="3">
+        <v>10721.87</v>
+      </c>
+      <c r="G124" s="1">
         <f>AVERAGE(E120:E124)</f>
         <v/>
       </c>
-      <c r="H124" s="3">
+      <c r="H124" s="1">
         <f>AVERAGE(E95:E124)</f>
         <v/>
       </c>
-      <c r="I124" s="3">
+      <c r="I124" s="1">
         <f>G124-H124</f>
         <v/>
       </c>
@@ -5077,26 +5071,26 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>11130.03</v>
+        <v>10690.91</v>
       </c>
       <c r="C125" t="n">
-        <v>11131.08</v>
+        <v>10709.8</v>
       </c>
       <c r="D125" t="n">
-        <v>11054.62</v>
+        <v>10585.27</v>
       </c>
       <c r="E125" t="n">
-        <v>11100.11</v>
-      </c>
-      <c r="G125" s="3">
+        <v>10611.81</v>
+      </c>
+      <c r="G125" s="1">
         <f>AVERAGE(E121:E125)</f>
         <v/>
       </c>
-      <c r="H125" s="3">
+      <c r="H125" s="1">
         <f>AVERAGE(E96:E125)</f>
         <v/>
       </c>
-      <c r="I125" s="3">
+      <c r="I125" s="1">
         <f>G125-H125</f>
         <v/>
       </c>
@@ -5106,26 +5100,26 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>11111.14</v>
+        <v>10645.66</v>
       </c>
       <c r="C126" t="n">
-        <v>11207.15</v>
+        <v>10665.72</v>
       </c>
       <c r="D126" t="n">
-        <v>11111.14</v>
+        <v>10523.58</v>
       </c>
       <c r="E126" t="n">
-        <v>11201.83</v>
-      </c>
-      <c r="G126" s="3">
+        <v>10608.57</v>
+      </c>
+      <c r="G126" s="1">
         <f>AVERAGE(E122:E126)</f>
         <v/>
       </c>
-      <c r="H126" s="3">
+      <c r="H126" s="1">
         <f>AVERAGE(E97:E126)</f>
         <v/>
       </c>
-      <c r="I126" s="3">
+      <c r="I126" s="1">
         <f>G126-H126</f>
         <v/>
       </c>
@@ -5135,26 +5129,26 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>11228.64</v>
+        <v>10638.9</v>
       </c>
       <c r="C127" t="n">
-        <v>11261.68</v>
+        <v>10746.74</v>
       </c>
       <c r="D127" t="n">
-        <v>11188.99</v>
+        <v>10638.9</v>
       </c>
       <c r="E127" t="n">
-        <v>11251.75</v>
-      </c>
-      <c r="G127" s="3">
+        <v>10720.28</v>
+      </c>
+      <c r="G127" s="1">
         <f>AVERAGE(E123:E127)</f>
         <v/>
       </c>
-      <c r="H127" s="3">
+      <c r="H127" s="1">
         <f>AVERAGE(E98:E127)</f>
         <v/>
       </c>
-      <c r="I127" s="3">
+      <c r="I127" s="1">
         <f>G127-H127</f>
         <v/>
       </c>
@@ -5164,26 +5158,26 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>11243.59</v>
+        <v>10737.62</v>
       </c>
       <c r="C128" t="n">
-        <v>11243.59</v>
+        <v>10776.47</v>
       </c>
       <c r="D128" t="n">
-        <v>11122.98</v>
+        <v>10728.24</v>
       </c>
       <c r="E128" t="n">
-        <v>11156.42</v>
-      </c>
-      <c r="G128" s="3">
+        <v>10756.89</v>
+      </c>
+      <c r="G128" s="1">
         <f>AVERAGE(E124:E128)</f>
         <v/>
       </c>
-      <c r="H128" s="3">
+      <c r="H128" s="1">
         <f>AVERAGE(E99:E128)</f>
         <v/>
       </c>
-      <c r="I128" s="3">
+      <c r="I128" s="1">
         <f>G128-H128</f>
         <v/>
       </c>
@@ -5193,26 +5187,26 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>11168.99</v>
+        <v>10693.64</v>
       </c>
       <c r="C129" t="n">
-        <v>11186.67</v>
+        <v>10693.64</v>
       </c>
       <c r="D129" t="n">
-        <v>11118.81</v>
+        <v>10635.03</v>
       </c>
       <c r="E129" t="n">
-        <v>11149.23</v>
-      </c>
-      <c r="G129" s="3">
+        <v>10676.84</v>
+      </c>
+      <c r="G129" s="1">
         <f>AVERAGE(E125:E129)</f>
         <v/>
       </c>
-      <c r="H129" s="3">
+      <c r="H129" s="1">
         <f>AVERAGE(E100:E129)</f>
         <v/>
       </c>
-      <c r="I129" s="3">
+      <c r="I129" s="1">
         <f>G129-H129</f>
         <v/>
       </c>
@@ -5222,26 +5216,26 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>11140.02</v>
+        <v>10644.91</v>
       </c>
       <c r="C130" t="n">
-        <v>11160.05</v>
+        <v>10752.57</v>
       </c>
       <c r="D130" t="n">
-        <v>11088.53</v>
+        <v>10643.65</v>
       </c>
       <c r="E130" t="n">
-        <v>11144.79</v>
-      </c>
-      <c r="G130" s="3">
+        <v>10738.38</v>
+      </c>
+      <c r="G130" s="1">
         <f>AVERAGE(E126:E130)</f>
         <v/>
       </c>
-      <c r="H130" s="3">
+      <c r="H130" s="1">
         <f>AVERAGE(E101:E130)</f>
         <v/>
       </c>
-      <c r="I130" s="3">
+      <c r="I130" s="1">
         <f>G130-H130</f>
         <v/>
       </c>
@@ -5251,26 +5245,26 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>11153.2</v>
+        <v>10769.7</v>
       </c>
       <c r="C131" t="n">
-        <v>11188.01</v>
+        <v>10864.54</v>
       </c>
       <c r="D131" t="n">
-        <v>11119.24</v>
+        <v>10769.7</v>
       </c>
       <c r="E131" t="n">
-        <v>11173.21</v>
-      </c>
-      <c r="G131" s="3">
+        <v>10864.54</v>
+      </c>
+      <c r="G131" s="1">
         <f>AVERAGE(E127:E131)</f>
         <v/>
       </c>
-      <c r="H131" s="3">
+      <c r="H131" s="1">
         <f>AVERAGE(E102:E131)</f>
         <v/>
       </c>
-      <c r="I131" s="3">
+      <c r="I131" s="1">
         <f>G131-H131</f>
         <v/>
       </c>
@@ -5280,26 +5274,26 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>11143.04</v>
+        <v>10867.97</v>
       </c>
       <c r="C132" t="n">
-        <v>11143.04</v>
+        <v>10890.2</v>
       </c>
       <c r="D132" t="n">
-        <v>11013.98</v>
+        <v>10817.45</v>
       </c>
       <c r="E132" t="n">
-        <v>11013.98</v>
-      </c>
-      <c r="G132" s="3">
+        <v>10817.45</v>
+      </c>
+      <c r="G132" s="1">
         <f>AVERAGE(E128:E132)</f>
         <v/>
       </c>
-      <c r="H132" s="3">
+      <c r="H132" s="1">
         <f>AVERAGE(E103:E132)</f>
         <v/>
       </c>
-      <c r="I132" s="3">
+      <c r="I132" s="1">
         <f>G132-H132</f>
         <v/>
       </c>
@@ -5309,26 +5303,26 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>10998.2</v>
+        <v>10802.75</v>
       </c>
       <c r="C133" t="n">
-        <v>11087.47</v>
+        <v>10818.84</v>
       </c>
       <c r="D133" t="n">
-        <v>10981.61</v>
+        <v>10758.83</v>
       </c>
       <c r="E133" t="n">
-        <v>11087.47</v>
-      </c>
-      <c r="G133" s="3">
+        <v>10778.99</v>
+      </c>
+      <c r="G133" s="1">
         <f>AVERAGE(E129:E133)</f>
         <v/>
       </c>
-      <c r="H133" s="3">
+      <c r="H133" s="1">
         <f>AVERAGE(E104:E133)</f>
         <v/>
       </c>
-      <c r="I133" s="3">
+      <c r="I133" s="1">
         <f>G133-H133</f>
         <v/>
       </c>
@@ -5338,26 +5332,26 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>11008.77</v>
+        <v>10811.43</v>
       </c>
       <c r="C134" t="n">
-        <v>11008.77</v>
+        <v>10872.74</v>
       </c>
       <c r="D134" t="n">
-        <v>10904.19</v>
+        <v>10788.37</v>
       </c>
       <c r="E134" t="n">
-        <v>10904.19</v>
-      </c>
-      <c r="G134" s="3">
+        <v>10842.46</v>
+      </c>
+      <c r="G134" s="1">
         <f>AVERAGE(E130:E134)</f>
         <v/>
       </c>
-      <c r="H134" s="3">
+      <c r="H134" s="1">
         <f>AVERAGE(E105:E134)</f>
         <v/>
       </c>
-      <c r="I134" s="3">
+      <c r="I134" s="1">
         <f>G134-H134</f>
         <v/>
       </c>
@@ -5367,26 +5361,26 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>10904.8</v>
+        <v>10868.56</v>
       </c>
       <c r="C135" t="n">
-        <v>10969.2</v>
+        <v>10896.25</v>
       </c>
       <c r="D135" t="n">
-        <v>10842.56</v>
+        <v>10826.14</v>
       </c>
       <c r="E135" t="n">
-        <v>10927.44</v>
-      </c>
-      <c r="G135" s="3">
+        <v>10835.38</v>
+      </c>
+      <c r="G135" s="1">
         <f>AVERAGE(E131:E135)</f>
         <v/>
       </c>
-      <c r="H135" s="3">
+      <c r="H135" s="1">
         <f>AVERAGE(E106:E135)</f>
         <v/>
       </c>
-      <c r="I135" s="3">
+      <c r="I135" s="1">
         <f>G135-H135</f>
         <v/>
       </c>
@@ -5396,26 +5390,26 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>10949.85</v>
+        <v>10932.51</v>
       </c>
       <c r="C136" t="n">
-        <v>10992.31</v>
+        <v>10963.95</v>
       </c>
       <c r="D136" t="n">
-        <v>10941.07</v>
+        <v>10893.73</v>
       </c>
       <c r="E136" t="n">
-        <v>10941.07</v>
-      </c>
-      <c r="G136" s="3">
+        <v>10932.11</v>
+      </c>
+      <c r="G136" s="1">
         <f>AVERAGE(E132:E136)</f>
         <v/>
       </c>
-      <c r="H136" s="3">
+      <c r="H136" s="1">
         <f>AVERAGE(E107:E136)</f>
         <v/>
       </c>
-      <c r="I136" s="3">
+      <c r="I136" s="1">
         <f>G136-H136</f>
         <v/>
       </c>
@@ -5425,26 +5419,26 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>10901.25</v>
+        <v>10929.46</v>
       </c>
       <c r="C137" t="n">
-        <v>10914.83</v>
+        <v>10984.84</v>
       </c>
       <c r="D137" t="n">
-        <v>10828.86</v>
+        <v>10901.75</v>
       </c>
       <c r="E137" t="n">
-        <v>10899.28</v>
-      </c>
-      <c r="G137" s="3">
+        <v>10946.89</v>
+      </c>
+      <c r="G137" s="1">
         <f>AVERAGE(E133:E137)</f>
         <v/>
       </c>
-      <c r="H137" s="3">
+      <c r="H137" s="1">
         <f>AVERAGE(E108:E137)</f>
         <v/>
       </c>
-      <c r="I137" s="3">
+      <c r="I137" s="1">
         <f>G137-H137</f>
         <v/>
       </c>
@@ -5454,26 +5448,26 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>10834.07</v>
+        <v>10937.77</v>
       </c>
       <c r="C138" t="n">
-        <v>10851.16</v>
+        <v>10995.39</v>
       </c>
       <c r="D138" t="n">
-        <v>10786.46</v>
+        <v>10917.61</v>
       </c>
       <c r="E138" t="n">
-        <v>10786.46</v>
-      </c>
-      <c r="G138" s="3">
+        <v>10995.39</v>
+      </c>
+      <c r="G138" s="1">
         <f>AVERAGE(E134:E138)</f>
         <v/>
       </c>
-      <c r="H138" s="3">
+      <c r="H138" s="1">
         <f>AVERAGE(E109:E138)</f>
         <v/>
       </c>
-      <c r="I138" s="3">
+      <c r="I138" s="1">
         <f>G138-H138</f>
         <v/>
       </c>
@@ -5483,26 +5477,26 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10730.9</v>
+        <v>10957.66</v>
       </c>
       <c r="C139" t="n">
-        <v>10752.99</v>
+        <v>10992.29</v>
       </c>
       <c r="D139" t="n">
-        <v>10651.42</v>
+        <v>10956</v>
       </c>
       <c r="E139" t="n">
-        <v>10742.17</v>
-      </c>
-      <c r="G139" s="3">
+        <v>10965.79</v>
+      </c>
+      <c r="G139" s="1">
         <f>AVERAGE(E135:E139)</f>
         <v/>
       </c>
-      <c r="H139" s="3">
+      <c r="H139" s="1">
         <f>AVERAGE(E110:E139)</f>
         <v/>
       </c>
-      <c r="I139" s="3">
+      <c r="I139" s="1">
         <f>G139-H139</f>
         <v/>
       </c>
@@ -5512,26 +5506,26 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10766.88</v>
+        <v>10969.35</v>
       </c>
       <c r="C140" t="n">
-        <v>10800.34</v>
+        <v>11018.19</v>
       </c>
       <c r="D140" t="n">
-        <v>10701.03</v>
+        <v>10966.33</v>
       </c>
       <c r="E140" t="n">
-        <v>10701.03</v>
-      </c>
-      <c r="G140" s="3">
+        <v>11010.61</v>
+      </c>
+      <c r="G140" s="1">
         <f>AVERAGE(E136:E140)</f>
         <v/>
       </c>
-      <c r="H140" s="3">
+      <c r="H140" s="1">
         <f>AVERAGE(E111:E140)</f>
         <v/>
       </c>
-      <c r="I140" s="3">
+      <c r="I140" s="1">
         <f>G140-H140</f>
         <v/>
       </c>
@@ -5541,26 +5535,26 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10669.42</v>
+        <v>11023.07</v>
       </c>
       <c r="C141" t="n">
-        <v>10723.84</v>
+        <v>11075.78</v>
       </c>
       <c r="D141" t="n">
-        <v>10633.01</v>
+        <v>11009.16</v>
       </c>
       <c r="E141" t="n">
-        <v>10654.28</v>
-      </c>
-      <c r="G141" s="3">
+        <v>11075.78</v>
+      </c>
+      <c r="G141" s="1">
         <f>AVERAGE(E137:E141)</f>
         <v/>
       </c>
-      <c r="H141" s="3">
+      <c r="H141" s="1">
         <f>AVERAGE(E112:E141)</f>
         <v/>
       </c>
-      <c r="I141" s="3">
+      <c r="I141" s="1">
         <f>G141-H141</f>
         <v/>
       </c>
@@ -5570,26 +5564,26 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10667.64</v>
+        <v>11072.7</v>
       </c>
       <c r="C142" t="n">
-        <v>10836.91</v>
+        <v>11080.41</v>
       </c>
       <c r="D142" t="n">
-        <v>10667.64</v>
+        <v>11001.15</v>
       </c>
       <c r="E142" t="n">
-        <v>10836.91</v>
-      </c>
-      <c r="G142" s="3">
+        <v>11033.54</v>
+      </c>
+      <c r="G142" s="1">
         <f>AVERAGE(E138:E142)</f>
         <v/>
       </c>
-      <c r="H142" s="3">
+      <c r="H142" s="1">
         <f>AVERAGE(E113:E142)</f>
         <v/>
       </c>
-      <c r="I142" s="3">
+      <c r="I142" s="1">
         <f>G142-H142</f>
         <v/>
       </c>
@@ -5599,26 +5593,26 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10852.17</v>
+        <v>10997.73</v>
       </c>
       <c r="C143" t="n">
-        <v>10886.2</v>
+        <v>11057.51</v>
       </c>
       <c r="D143" t="n">
-        <v>10777.94</v>
+        <v>10976.46</v>
       </c>
       <c r="E143" t="n">
-        <v>10777.94</v>
-      </c>
-      <c r="G143" s="3">
+        <v>11057.51</v>
+      </c>
+      <c r="G143" s="1">
         <f>AVERAGE(E139:E143)</f>
         <v/>
       </c>
-      <c r="H143" s="3">
+      <c r="H143" s="1">
         <f>AVERAGE(E114:E143)</f>
         <v/>
       </c>
-      <c r="I143" s="3">
+      <c r="I143" s="1">
         <f>G143-H143</f>
         <v/>
       </c>
@@ -5628,26 +5622,26 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>10802.88</v>
+        <v>11062.36</v>
       </c>
       <c r="C144" t="n">
-        <v>10873.48</v>
+        <v>11100.02</v>
       </c>
       <c r="D144" t="n">
-        <v>10707.68</v>
+        <v>11058.28</v>
       </c>
       <c r="E144" t="n">
-        <v>10715.72</v>
-      </c>
-      <c r="G144" s="3">
+        <v>11098.13</v>
+      </c>
+      <c r="G144" s="1">
         <f>AVERAGE(E140:E144)</f>
         <v/>
       </c>
-      <c r="H144" s="3">
+      <c r="H144" s="1">
         <f>AVERAGE(E115:E144)</f>
         <v/>
       </c>
-      <c r="I144" s="3">
+      <c r="I144" s="1">
         <f>G144-H144</f>
         <v/>
       </c>
@@ -5657,26 +5651,26 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>10714.25</v>
+        <v>11095.67</v>
       </c>
       <c r="C145" t="n">
-        <v>10752.05</v>
+        <v>11095.67</v>
       </c>
       <c r="D145" t="n">
-        <v>10680.44</v>
+        <v>10919.13</v>
       </c>
       <c r="E145" t="n">
-        <v>10721.87</v>
-      </c>
-      <c r="G145" s="3">
+        <v>10929.77</v>
+      </c>
+      <c r="G145" s="1">
         <f>AVERAGE(E141:E145)</f>
         <v/>
       </c>
-      <c r="H145" s="3">
+      <c r="H145" s="1">
         <f>AVERAGE(E116:E145)</f>
         <v/>
       </c>
-      <c r="I145" s="3">
+      <c r="I145" s="1">
         <f>G145-H145</f>
         <v/>
       </c>
@@ -5686,26 +5680,26 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>10690.91</v>
+        <v>10957.3</v>
       </c>
       <c r="C146" t="n">
-        <v>10709.8</v>
+        <v>11012.43</v>
       </c>
       <c r="D146" t="n">
-        <v>10585.27</v>
+        <v>10957.3</v>
       </c>
       <c r="E146" t="n">
-        <v>10611.81</v>
-      </c>
-      <c r="G146" s="3">
+        <v>11012.43</v>
+      </c>
+      <c r="G146" s="1">
         <f>AVERAGE(E142:E146)</f>
         <v/>
       </c>
-      <c r="H146" s="3">
+      <c r="H146" s="1">
         <f>AVERAGE(E117:E146)</f>
         <v/>
       </c>
-      <c r="I146" s="3">
+      <c r="I146" s="1">
         <f>G146-H146</f>
         <v/>
       </c>
@@ -5715,26 +5709,26 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>10645.66</v>
+        <v>10997.26</v>
       </c>
       <c r="C147" t="n">
-        <v>10665.72</v>
+        <v>11054.49</v>
       </c>
       <c r="D147" t="n">
-        <v>10523.58</v>
+        <v>10994.97</v>
       </c>
       <c r="E147" t="n">
-        <v>10608.57</v>
-      </c>
-      <c r="G147" s="3">
+        <v>11024.1</v>
+      </c>
+      <c r="G147" s="1">
         <f>AVERAGE(E143:E147)</f>
         <v/>
       </c>
-      <c r="H147" s="3">
+      <c r="H147" s="1">
         <f>AVERAGE(E118:E147)</f>
         <v/>
       </c>
-      <c r="I147" s="3">
+      <c r="I147" s="1">
         <f>G147-H147</f>
         <v/>
       </c>
@@ -5744,26 +5738,26 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>10638.9</v>
+        <v>11024.97</v>
       </c>
       <c r="C148" t="n">
-        <v>10746.74</v>
+        <v>11030.09</v>
       </c>
       <c r="D148" t="n">
-        <v>10638.9</v>
+        <v>10983.44</v>
       </c>
       <c r="E148" t="n">
-        <v>10720.28</v>
-      </c>
-      <c r="G148" s="3">
+        <v>10983.44</v>
+      </c>
+      <c r="G148" s="1">
         <f>AVERAGE(E144:E148)</f>
         <v/>
       </c>
-      <c r="H148" s="3">
+      <c r="H148" s="1">
         <f>AVERAGE(E119:E148)</f>
         <v/>
       </c>
-      <c r="I148" s="3">
+      <c r="I148" s="1">
         <f>G148-H148</f>
         <v/>
       </c>
@@ -5773,26 +5767,26 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>10737.62</v>
+        <v>11026.07</v>
       </c>
       <c r="C149" t="n">
-        <v>10776.47</v>
+        <v>11095.5</v>
       </c>
       <c r="D149" t="n">
-        <v>10728.24</v>
+        <v>11026.07</v>
       </c>
       <c r="E149" t="n">
-        <v>10756.89</v>
-      </c>
-      <c r="G149" s="3">
+        <v>11075.25</v>
+      </c>
+      <c r="G149" s="1">
         <f>AVERAGE(E145:E149)</f>
         <v/>
       </c>
-      <c r="H149" s="3">
+      <c r="H149" s="1">
         <f>AVERAGE(E120:E149)</f>
         <v/>
       </c>
-      <c r="I149" s="3">
+      <c r="I149" s="1">
         <f>G149-H149</f>
         <v/>
       </c>
@@ -5802,26 +5796,26 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>10693.64</v>
+        <v>11063.62</v>
       </c>
       <c r="C150" t="n">
-        <v>10693.64</v>
+        <v>11063.62</v>
       </c>
       <c r="D150" t="n">
-        <v>10635.03</v>
+        <v>11001.96</v>
       </c>
       <c r="E150" t="n">
-        <v>10676.84</v>
-      </c>
-      <c r="G150" s="3">
+        <v>11028.07</v>
+      </c>
+      <c r="G150" s="1">
         <f>AVERAGE(E146:E150)</f>
         <v/>
       </c>
-      <c r="H150" s="3">
+      <c r="H150" s="1">
         <f>AVERAGE(E121:E150)</f>
         <v/>
       </c>
-      <c r="I150" s="3">
+      <c r="I150" s="1">
         <f>G150-H150</f>
         <v/>
       </c>
@@ -5831,26 +5825,26 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>10644.91</v>
+        <v>11009.96</v>
       </c>
       <c r="C151" t="n">
-        <v>10752.57</v>
+        <v>11033.89</v>
       </c>
       <c r="D151" t="n">
-        <v>10643.65</v>
+        <v>10972.25</v>
       </c>
       <c r="E151" t="n">
-        <v>10738.38</v>
-      </c>
-      <c r="G151" s="3">
+        <v>10983.68</v>
+      </c>
+      <c r="G151" s="1">
         <f>AVERAGE(E147:E151)</f>
         <v/>
       </c>
-      <c r="H151" s="3">
+      <c r="H151" s="1">
         <f>AVERAGE(E122:E151)</f>
         <v/>
       </c>
-      <c r="I151" s="3">
+      <c r="I151" s="1">
         <f>G151-H151</f>
         <v/>
       </c>
@@ -5860,26 +5854,26 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>10769.7</v>
+        <v>10939.68</v>
       </c>
       <c r="C152" t="n">
-        <v>10864.54</v>
+        <v>10939.68</v>
       </c>
       <c r="D152" t="n">
-        <v>10769.7</v>
+        <v>10693.73</v>
       </c>
       <c r="E152" t="n">
-        <v>10864.54</v>
-      </c>
-      <c r="G152" s="3">
+        <v>10748.92</v>
+      </c>
+      <c r="G152" s="1">
         <f>AVERAGE(E148:E152)</f>
         <v/>
       </c>
-      <c r="H152" s="3">
+      <c r="H152" s="1">
         <f>AVERAGE(E123:E152)</f>
         <v/>
       </c>
-      <c r="I152" s="3">
+      <c r="I152" s="1">
         <f>G152-H152</f>
         <v/>
       </c>
@@ -5889,26 +5883,26 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>10867.97</v>
+        <v>10797.95</v>
       </c>
       <c r="C153" t="n">
-        <v>10890.2</v>
+        <v>10829.85</v>
       </c>
       <c r="D153" t="n">
-        <v>10817.45</v>
+        <v>10755.53</v>
       </c>
       <c r="E153" t="n">
-        <v>10817.45</v>
-      </c>
-      <c r="G153" s="3">
+        <v>10824.23</v>
+      </c>
+      <c r="G153" s="1">
         <f>AVERAGE(E149:E153)</f>
         <v/>
       </c>
-      <c r="H153" s="3">
+      <c r="H153" s="1">
         <f>AVERAGE(E124:E153)</f>
         <v/>
       </c>
-      <c r="I153" s="3">
+      <c r="I153" s="1">
         <f>G153-H153</f>
         <v/>
       </c>
@@ -5918,26 +5912,26 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>10802.75</v>
+        <v>10827.28</v>
       </c>
       <c r="C154" t="n">
-        <v>10818.84</v>
+        <v>10827.28</v>
       </c>
       <c r="D154" t="n">
-        <v>10758.83</v>
+        <v>10688.59</v>
       </c>
       <c r="E154" t="n">
-        <v>10778.99</v>
-      </c>
-      <c r="G154" s="3">
+        <v>10716.75</v>
+      </c>
+      <c r="G154" s="1">
         <f>AVERAGE(E150:E154)</f>
         <v/>
       </c>
-      <c r="H154" s="3">
+      <c r="H154" s="1">
         <f>AVERAGE(E125:E154)</f>
         <v/>
       </c>
-      <c r="I154" s="3">
+      <c r="I154" s="1">
         <f>G154-H154</f>
         <v/>
       </c>
@@ -5947,26 +5941,26 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>10811.43</v>
+        <v>10663.57</v>
       </c>
       <c r="C155" t="n">
-        <v>10872.74</v>
+        <v>10725.71</v>
       </c>
       <c r="D155" t="n">
-        <v>10788.37</v>
+        <v>10606.26</v>
       </c>
       <c r="E155" t="n">
-        <v>10842.46</v>
-      </c>
-      <c r="G155" s="3">
+        <v>10683.9</v>
+      </c>
+      <c r="G155" s="1">
         <f>AVERAGE(E151:E155)</f>
         <v/>
       </c>
-      <c r="H155" s="3">
+      <c r="H155" s="1">
         <f>AVERAGE(E126:E155)</f>
         <v/>
       </c>
-      <c r="I155" s="3">
+      <c r="I155" s="1">
         <f>G155-H155</f>
         <v/>
       </c>
@@ -5976,26 +5970,26 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>10868.56</v>
+        <v>10702.6</v>
       </c>
       <c r="C156" t="n">
-        <v>10896.25</v>
+        <v>10757.01</v>
       </c>
       <c r="D156" t="n">
-        <v>10826.14</v>
+        <v>10688.55</v>
       </c>
       <c r="E156" t="n">
-        <v>10835.38</v>
-      </c>
-      <c r="G156" s="3">
+        <v>10690.96</v>
+      </c>
+      <c r="G156" s="1">
         <f>AVERAGE(E152:E156)</f>
         <v/>
       </c>
-      <c r="H156" s="3">
+      <c r="H156" s="1">
         <f>AVERAGE(E127:E156)</f>
         <v/>
       </c>
-      <c r="I156" s="3">
+      <c r="I156" s="1">
         <f>G156-H156</f>
         <v/>
       </c>
@@ -6005,26 +5999,26 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>10932.51</v>
+        <v>10698.76</v>
       </c>
       <c r="C157" t="n">
-        <v>10963.95</v>
+        <v>10729.9</v>
       </c>
       <c r="D157" t="n">
-        <v>10893.73</v>
+        <v>10663.44</v>
       </c>
       <c r="E157" t="n">
-        <v>10932.11</v>
-      </c>
-      <c r="G157" s="3">
+        <v>10699.05</v>
+      </c>
+      <c r="G157" s="1">
         <f>AVERAGE(E153:E157)</f>
         <v/>
       </c>
-      <c r="H157" s="3">
+      <c r="H157" s="1">
         <f>AVERAGE(E128:E157)</f>
         <v/>
       </c>
-      <c r="I157" s="3">
+      <c r="I157" s="1">
         <f>G157-H157</f>
         <v/>
       </c>
@@ -6034,26 +6028,26 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10929.46</v>
+        <v>10697.01</v>
       </c>
       <c r="C158" t="n">
-        <v>10984.84</v>
+        <v>10792.2</v>
       </c>
       <c r="D158" t="n">
-        <v>10901.75</v>
+        <v>10697.01</v>
       </c>
       <c r="E158" t="n">
-        <v>10946.89</v>
-      </c>
-      <c r="G158" s="3">
+        <v>10792.2</v>
+      </c>
+      <c r="G158" s="1">
         <f>AVERAGE(E154:E158)</f>
         <v/>
       </c>
-      <c r="H158" s="3">
+      <c r="H158" s="1">
         <f>AVERAGE(E129:E158)</f>
         <v/>
       </c>
-      <c r="I158" s="3">
+      <c r="I158" s="1">
         <f>G158-H158</f>
         <v/>
       </c>
@@ -6063,26 +6057,26 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10937.77</v>
+        <v>10790.24</v>
       </c>
       <c r="C159" t="n">
-        <v>10995.39</v>
+        <v>10828.21</v>
       </c>
       <c r="D159" t="n">
-        <v>10917.61</v>
+        <v>10774.69</v>
       </c>
       <c r="E159" t="n">
-        <v>10995.39</v>
-      </c>
-      <c r="G159" s="3">
+        <v>10804.2</v>
+      </c>
+      <c r="G159" s="1">
         <f>AVERAGE(E155:E159)</f>
         <v/>
       </c>
-      <c r="H159" s="3">
+      <c r="H159" s="1">
         <f>AVERAGE(E130:E159)</f>
         <v/>
       </c>
-      <c r="I159" s="3">
+      <c r="I159" s="1">
         <f>G159-H159</f>
         <v/>
       </c>
@@ -6092,26 +6086,26 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10957.66</v>
+        <v>10817.33</v>
       </c>
       <c r="C160" t="n">
-        <v>10992.29</v>
+        <v>10863.13</v>
       </c>
       <c r="D160" t="n">
-        <v>10956</v>
+        <v>10802.79</v>
       </c>
       <c r="E160" t="n">
-        <v>10965.79</v>
-      </c>
-      <c r="G160" s="3">
+        <v>10863.13</v>
+      </c>
+      <c r="G160" s="1">
         <f>AVERAGE(E156:E160)</f>
         <v/>
       </c>
-      <c r="H160" s="3">
+      <c r="H160" s="1">
         <f>AVERAGE(E131:E160)</f>
         <v/>
       </c>
-      <c r="I160" s="3">
+      <c r="I160" s="1">
         <f>G160-H160</f>
         <v/>
       </c>
@@ -6121,26 +6115,26 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10969.35</v>
+        <v>10865.91</v>
       </c>
       <c r="C161" t="n">
-        <v>11018.19</v>
+        <v>10865.91</v>
       </c>
       <c r="D161" t="n">
-        <v>10966.33</v>
+        <v>10770.32</v>
       </c>
       <c r="E161" t="n">
-        <v>11010.61</v>
-      </c>
-      <c r="G161" s="3">
+        <v>10809.35</v>
+      </c>
+      <c r="G161" s="1">
         <f>AVERAGE(E157:E161)</f>
         <v/>
       </c>
-      <c r="H161" s="3">
+      <c r="H161" s="1">
         <f>AVERAGE(E132:E161)</f>
         <v/>
       </c>
-      <c r="I161" s="3">
+      <c r="I161" s="1">
         <f>G161-H161</f>
         <v/>
       </c>
@@ -6150,26 +6144,26 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>11023.07</v>
+        <v>10847.17</v>
       </c>
       <c r="C162" t="n">
-        <v>11075.78</v>
+        <v>10916.69</v>
       </c>
       <c r="D162" t="n">
-        <v>11009.16</v>
+        <v>10847.17</v>
       </c>
       <c r="E162" t="n">
-        <v>11075.78</v>
-      </c>
-      <c r="G162" s="3">
+        <v>10902.21</v>
+      </c>
+      <c r="G162" s="1">
         <f>AVERAGE(E158:E162)</f>
         <v/>
       </c>
-      <c r="H162" s="3">
+      <c r="H162" s="1">
         <f>AVERAGE(E133:E162)</f>
         <v/>
       </c>
-      <c r="I162" s="3">
+      <c r="I162" s="1">
         <f>G162-H162</f>
         <v/>
       </c>
@@ -6179,26 +6173,26 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>11072.7</v>
+        <v>10946.33</v>
       </c>
       <c r="C163" t="n">
-        <v>11080.41</v>
+        <v>11005.55</v>
       </c>
       <c r="D163" t="n">
-        <v>11001.15</v>
+        <v>10946.33</v>
       </c>
       <c r="E163" t="n">
-        <v>11033.54</v>
-      </c>
-      <c r="G163" s="3">
+        <v>10989.55</v>
+      </c>
+      <c r="G163" s="1">
         <f>AVERAGE(E159:E163)</f>
         <v/>
       </c>
-      <c r="H163" s="3">
+      <c r="H163" s="1">
         <f>AVERAGE(E134:E163)</f>
         <v/>
       </c>
-      <c r="I163" s="3">
+      <c r="I163" s="1">
         <f>G163-H163</f>
         <v/>
       </c>
@@ -6208,26 +6202,26 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10997.73</v>
+        <v>11029.12</v>
       </c>
       <c r="C164" t="n">
-        <v>11057.51</v>
+        <v>11099.57</v>
       </c>
       <c r="D164" t="n">
-        <v>10976.46</v>
+        <v>11029.11</v>
       </c>
       <c r="E164" t="n">
-        <v>11057.51</v>
-      </c>
-      <c r="G164" s="3">
+        <v>11099.57</v>
+      </c>
+      <c r="G164" s="1">
         <f>AVERAGE(E160:E164)</f>
         <v/>
       </c>
-      <c r="H164" s="3">
+      <c r="H164" s="1">
         <f>AVERAGE(E135:E164)</f>
         <v/>
       </c>
-      <c r="I164" s="3">
+      <c r="I164" s="1">
         <f>G164-H164</f>
         <v/>
       </c>
@@ -6237,26 +6231,26 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>11062.36</v>
+        <v>11153.97</v>
       </c>
       <c r="C165" t="n">
-        <v>11100.02</v>
+        <v>11186.05</v>
       </c>
       <c r="D165" t="n">
-        <v>11058.28</v>
+        <v>11080.07</v>
       </c>
       <c r="E165" t="n">
-        <v>11098.13</v>
-      </c>
-      <c r="G165" s="3">
+        <v>11093.75</v>
+      </c>
+      <c r="G165" s="1">
         <f>AVERAGE(E161:E165)</f>
         <v/>
       </c>
-      <c r="H165" s="3">
+      <c r="H165" s="1">
         <f>AVERAGE(E136:E165)</f>
         <v/>
       </c>
-      <c r="I165" s="3">
+      <c r="I165" s="1">
         <f>G165-H165</f>
         <v/>
       </c>
@@ -6266,26 +6260,26 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>11095.67</v>
+        <v>11037.26</v>
       </c>
       <c r="C166" t="n">
-        <v>11095.67</v>
+        <v>11063.94</v>
       </c>
       <c r="D166" t="n">
-        <v>10919.13</v>
+        <v>10987.68</v>
       </c>
       <c r="E166" t="n">
-        <v>10929.77</v>
-      </c>
-      <c r="G166" s="3">
+        <v>11063.94</v>
+      </c>
+      <c r="G166" s="1">
         <f>AVERAGE(E162:E166)</f>
         <v/>
       </c>
-      <c r="H166" s="3">
+      <c r="H166" s="1">
         <f>AVERAGE(E137:E166)</f>
         <v/>
       </c>
-      <c r="I166" s="3">
+      <c r="I166" s="1">
         <f>G166-H166</f>
         <v/>
       </c>
@@ -6295,26 +6289,26 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>10957.3</v>
+        <v>11087.86</v>
       </c>
       <c r="C167" t="n">
-        <v>11012.43</v>
+        <v>11097.11</v>
       </c>
       <c r="D167" t="n">
-        <v>10957.3</v>
+        <v>10952.85</v>
       </c>
       <c r="E167" t="n">
-        <v>11012.43</v>
-      </c>
-      <c r="G167" s="3">
+        <v>10964.22</v>
+      </c>
+      <c r="G167" s="1">
         <f>AVERAGE(E163:E167)</f>
         <v/>
       </c>
-      <c r="H167" s="3">
+      <c r="H167" s="1">
         <f>AVERAGE(E138:E167)</f>
         <v/>
       </c>
-      <c r="I167" s="3">
+      <c r="I167" s="1">
         <f>G167-H167</f>
         <v/>
       </c>
@@ -6324,26 +6318,26 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>10997.26</v>
+        <v>10981.39</v>
       </c>
       <c r="C168" t="n">
-        <v>11054.49</v>
+        <v>11028.27</v>
       </c>
       <c r="D168" t="n">
-        <v>10994.97</v>
+        <v>10956.49</v>
       </c>
       <c r="E168" t="n">
-        <v>11024.1</v>
-      </c>
-      <c r="G168" s="3">
+        <v>11021.38</v>
+      </c>
+      <c r="G168" s="1">
         <f>AVERAGE(E164:E168)</f>
         <v/>
       </c>
-      <c r="H168" s="3">
+      <c r="H168" s="1">
         <f>AVERAGE(E139:E168)</f>
         <v/>
       </c>
-      <c r="I168" s="3">
+      <c r="I168" s="1">
         <f>G168-H168</f>
         <v/>
       </c>
@@ -6353,26 +6347,26 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>11024.97</v>
+        <v>11042.41</v>
       </c>
       <c r="C169" t="n">
-        <v>11030.09</v>
+        <v>11058.06</v>
       </c>
       <c r="D169" t="n">
-        <v>10983.44</v>
+        <v>10989.93</v>
       </c>
       <c r="E169" t="n">
-        <v>10983.44</v>
-      </c>
-      <c r="G169" s="3">
+        <v>10995.13</v>
+      </c>
+      <c r="G169" s="1">
         <f>AVERAGE(E165:E169)</f>
         <v/>
       </c>
-      <c r="H169" s="3">
+      <c r="H169" s="1">
         <f>AVERAGE(E140:E169)</f>
         <v/>
       </c>
-      <c r="I169" s="3">
+      <c r="I169" s="1">
         <f>G169-H169</f>
         <v/>
       </c>
@@ -6382,26 +6376,26 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>11026.07</v>
+        <v>11016.92</v>
       </c>
       <c r="C170" t="n">
-        <v>11095.5</v>
+        <v>11016.92</v>
       </c>
       <c r="D170" t="n">
-        <v>11026.07</v>
+        <v>10905.34</v>
       </c>
       <c r="E170" t="n">
-        <v>11075.25</v>
-      </c>
-      <c r="G170" s="3">
+        <v>10924.3</v>
+      </c>
+      <c r="G170" s="1">
         <f>AVERAGE(E166:E170)</f>
         <v/>
       </c>
-      <c r="H170" s="3">
+      <c r="H170" s="1">
         <f>AVERAGE(E141:E170)</f>
         <v/>
       </c>
-      <c r="I170" s="3">
+      <c r="I170" s="1">
         <f>G170-H170</f>
         <v/>
       </c>
@@ -6411,26 +6405,26 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>11063.62</v>
+        <v>10922.55</v>
       </c>
       <c r="C171" t="n">
-        <v>11063.62</v>
+        <v>10922.55</v>
       </c>
       <c r="D171" t="n">
-        <v>11001.96</v>
+        <v>10807.56</v>
       </c>
       <c r="E171" t="n">
-        <v>11028.07</v>
-      </c>
-      <c r="G171" s="3">
+        <v>10846.99</v>
+      </c>
+      <c r="G171" s="1">
         <f>AVERAGE(E167:E171)</f>
         <v/>
       </c>
-      <c r="H171" s="3">
+      <c r="H171" s="1">
         <f>AVERAGE(E142:E171)</f>
         <v/>
       </c>
-      <c r="I171" s="3">
+      <c r="I171" s="1">
         <f>G171-H171</f>
         <v/>
       </c>
@@ -6440,26 +6434,26 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>11009.96</v>
+        <v>10869.8</v>
       </c>
       <c r="C172" t="n">
-        <v>11033.89</v>
+        <v>10877.72</v>
       </c>
       <c r="D172" t="n">
-        <v>10972.25</v>
+        <v>10689.29</v>
       </c>
       <c r="E172" t="n">
-        <v>10983.68</v>
-      </c>
-      <c r="G172" s="3">
+        <v>10725.8</v>
+      </c>
+      <c r="G172" s="1">
         <f>AVERAGE(E168:E172)</f>
         <v/>
       </c>
-      <c r="H172" s="3">
+      <c r="H172" s="1">
         <f>AVERAGE(E143:E172)</f>
         <v/>
       </c>
-      <c r="I172" s="3">
+      <c r="I172" s="1">
         <f>G172-H172</f>
         <v/>
       </c>
@@ -6469,26 +6463,26 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>10939.68</v>
+        <v>10723</v>
       </c>
       <c r="C173" t="n">
-        <v>10939.68</v>
+        <v>10765.42</v>
       </c>
       <c r="D173" t="n">
-        <v>10693.73</v>
+        <v>10669.59</v>
       </c>
       <c r="E173" t="n">
-        <v>10748.92</v>
-      </c>
-      <c r="G173" s="3">
+        <v>10752.3</v>
+      </c>
+      <c r="G173" s="1">
         <f>AVERAGE(E169:E173)</f>
         <v/>
       </c>
-      <c r="H173" s="3">
+      <c r="H173" s="1">
         <f>AVERAGE(E144:E173)</f>
         <v/>
       </c>
-      <c r="I173" s="3">
+      <c r="I173" s="1">
         <f>G173-H173</f>
         <v/>
       </c>
@@ -6498,26 +6492,26 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>10797.95</v>
+        <v>10762.91</v>
       </c>
       <c r="C174" t="n">
-        <v>10829.85</v>
+        <v>10779.93</v>
       </c>
       <c r="D174" t="n">
-        <v>10755.53</v>
+        <v>10667.25</v>
       </c>
       <c r="E174" t="n">
-        <v>10824.23</v>
-      </c>
-      <c r="G174" s="3">
+        <v>10722.57</v>
+      </c>
+      <c r="G174" s="1">
         <f>AVERAGE(E170:E174)</f>
         <v/>
       </c>
-      <c r="H174" s="3">
+      <c r="H174" s="1">
         <f>AVERAGE(E145:E174)</f>
         <v/>
       </c>
-      <c r="I174" s="3">
+      <c r="I174" s="1">
         <f>G174-H174</f>
         <v/>
       </c>
@@ -6527,26 +6521,26 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>10827.28</v>
+        <v>10726.67</v>
       </c>
       <c r="C175" t="n">
-        <v>10827.28</v>
+        <v>10758.84</v>
       </c>
       <c r="D175" t="n">
-        <v>10688.59</v>
+        <v>10701.25</v>
       </c>
       <c r="E175" t="n">
-        <v>10716.75</v>
-      </c>
-      <c r="G175" s="3">
+        <v>10727.23</v>
+      </c>
+      <c r="G175" s="1">
         <f>AVERAGE(E171:E175)</f>
         <v/>
       </c>
-      <c r="H175" s="3">
+      <c r="H175" s="1">
         <f>AVERAGE(E146:E175)</f>
         <v/>
       </c>
-      <c r="I175" s="3">
+      <c r="I175" s="1">
         <f>G175-H175</f>
         <v/>
       </c>
@@ -6556,26 +6550,26 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>10663.57</v>
+        <v>10776.53</v>
       </c>
       <c r="C176" t="n">
-        <v>10725.71</v>
+        <v>10882.04</v>
       </c>
       <c r="D176" t="n">
-        <v>10606.26</v>
+        <v>10770.47</v>
       </c>
       <c r="E176" t="n">
-        <v>10683.9</v>
-      </c>
-      <c r="G176" s="3">
+        <v>10868.14</v>
+      </c>
+      <c r="G176" s="1">
         <f>AVERAGE(E172:E176)</f>
         <v/>
       </c>
-      <c r="H176" s="3">
+      <c r="H176" s="1">
         <f>AVERAGE(E147:E176)</f>
         <v/>
       </c>
-      <c r="I176" s="3">
+      <c r="I176" s="1">
         <f>G176-H176</f>
         <v/>
       </c>
@@ -6585,26 +6579,26 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>10702.6</v>
+        <v>10881.78</v>
       </c>
       <c r="C177" t="n">
-        <v>10757.01</v>
+        <v>10883.98</v>
       </c>
       <c r="D177" t="n">
-        <v>10688.55</v>
+        <v>10806.73</v>
       </c>
       <c r="E177" t="n">
-        <v>10690.96</v>
-      </c>
-      <c r="G177" s="3">
+        <v>10828.61</v>
+      </c>
+      <c r="G177" s="1">
         <f>AVERAGE(E173:E177)</f>
         <v/>
       </c>
-      <c r="H177" s="3">
+      <c r="H177" s="1">
         <f>AVERAGE(E148:E177)</f>
         <v/>
       </c>
-      <c r="I177" s="3">
+      <c r="I177" s="1">
         <f>G177-H177</f>
         <v/>
       </c>
@@ -6614,26 +6608,26 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>10698.76</v>
+        <v>10794.22</v>
       </c>
       <c r="C178" t="n">
-        <v>10729.9</v>
+        <v>10806.56</v>
       </c>
       <c r="D178" t="n">
-        <v>10663.44</v>
+        <v>10750.81</v>
       </c>
       <c r="E178" t="n">
-        <v>10699.05</v>
-      </c>
-      <c r="G178" s="3">
+        <v>10760.21</v>
+      </c>
+      <c r="G178" s="1">
         <f>AVERAGE(E174:E178)</f>
         <v/>
       </c>
-      <c r="H178" s="3">
+      <c r="H178" s="1">
         <f>AVERAGE(E149:E178)</f>
         <v/>
       </c>
-      <c r="I178" s="3">
+      <c r="I178" s="1">
         <f>G178-H178</f>
         <v/>
       </c>
@@ -6643,26 +6637,26 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>10697.01</v>
+        <v>10808.5</v>
       </c>
       <c r="C179" t="n">
-        <v>10792.2</v>
+        <v>10882.75</v>
       </c>
       <c r="D179" t="n">
-        <v>10697.01</v>
+        <v>10808.5</v>
       </c>
       <c r="E179" t="n">
-        <v>10792.2</v>
-      </c>
-      <c r="G179" s="3">
+        <v>10857.27</v>
+      </c>
+      <c r="G179" s="1">
         <f>AVERAGE(E175:E179)</f>
         <v/>
       </c>
-      <c r="H179" s="3">
+      <c r="H179" s="1">
         <f>AVERAGE(E150:E179)</f>
         <v/>
       </c>
-      <c r="I179" s="3">
+      <c r="I179" s="1">
         <f>G179-H179</f>
         <v/>
       </c>
@@ -6672,26 +6666,26 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>10790.24</v>
+        <v>10886.19</v>
       </c>
       <c r="C180" t="n">
-        <v>10828.21</v>
+        <v>10908.36</v>
       </c>
       <c r="D180" t="n">
-        <v>10774.69</v>
+        <v>10814.54</v>
       </c>
       <c r="E180" t="n">
-        <v>10804.2</v>
-      </c>
-      <c r="G180" s="3">
+        <v>10831.41</v>
+      </c>
+      <c r="G180" s="1">
         <f>AVERAGE(E176:E180)</f>
         <v/>
       </c>
-      <c r="H180" s="3">
+      <c r="H180" s="1">
         <f>AVERAGE(E151:E180)</f>
         <v/>
       </c>
-      <c r="I180" s="3">
+      <c r="I180" s="1">
         <f>G180-H180</f>
         <v/>
       </c>
@@ -6701,26 +6695,26 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>10817.33</v>
+        <v>10857.1</v>
       </c>
       <c r="C181" t="n">
-        <v>10863.13</v>
+        <v>10972.41</v>
       </c>
       <c r="D181" t="n">
-        <v>10802.79</v>
+        <v>10835.84</v>
       </c>
       <c r="E181" t="n">
-        <v>10863.13</v>
-      </c>
-      <c r="G181" s="3">
+        <v>10972.41</v>
+      </c>
+      <c r="G181" s="1">
         <f>AVERAGE(E177:E181)</f>
         <v/>
       </c>
-      <c r="H181" s="3">
+      <c r="H181" s="1">
         <f>AVERAGE(E152:E181)</f>
         <v/>
       </c>
-      <c r="I181" s="3">
+      <c r="I181" s="1">
         <f>G181-H181</f>
         <v/>
       </c>
@@ -6730,26 +6724,26 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>10865.91</v>
+        <v>10959.56</v>
       </c>
       <c r="C182" t="n">
-        <v>10865.91</v>
+        <v>11003.49</v>
       </c>
       <c r="D182" t="n">
-        <v>10770.32</v>
+        <v>10941.77</v>
       </c>
       <c r="E182" t="n">
-        <v>10809.35</v>
-      </c>
-      <c r="G182" s="3">
+        <v>10978.85</v>
+      </c>
+      <c r="G182" s="1">
         <f>AVERAGE(E178:E182)</f>
         <v/>
       </c>
-      <c r="H182" s="3">
+      <c r="H182" s="1">
         <f>AVERAGE(E153:E182)</f>
         <v/>
       </c>
-      <c r="I182" s="3">
+      <c r="I182" s="1">
         <f>G182-H182</f>
         <v/>
       </c>
@@ -6759,26 +6753,26 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>10847.17</v>
+        <v>10974.08</v>
       </c>
       <c r="C183" t="n">
-        <v>10916.69</v>
+        <v>11007.35</v>
       </c>
       <c r="D183" t="n">
-        <v>10847.17</v>
+        <v>10947.29</v>
       </c>
       <c r="E183" t="n">
-        <v>10902.21</v>
-      </c>
-      <c r="G183" s="3">
+        <v>10974.19</v>
+      </c>
+      <c r="G183" s="1">
         <f>AVERAGE(E179:E183)</f>
         <v/>
       </c>
-      <c r="H183" s="3">
+      <c r="H183" s="1">
         <f>AVERAGE(E154:E183)</f>
         <v/>
       </c>
-      <c r="I183" s="3">
+      <c r="I183" s="1">
         <f>G183-H183</f>
         <v/>
       </c>
@@ -6788,26 +6782,26 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>10946.33</v>
+        <v>10973.77</v>
       </c>
       <c r="C184" t="n">
-        <v>11005.55</v>
+        <v>11051.09</v>
       </c>
       <c r="D184" t="n">
-        <v>10946.33</v>
+        <v>10961.27</v>
       </c>
       <c r="E184" t="n">
-        <v>10989.55</v>
-      </c>
-      <c r="G184" s="3">
+        <v>11034.19</v>
+      </c>
+      <c r="G184" s="1">
         <f>AVERAGE(E180:E184)</f>
         <v/>
       </c>
-      <c r="H184" s="3">
+      <c r="H184" s="1">
         <f>AVERAGE(E155:E184)</f>
         <v/>
       </c>
-      <c r="I184" s="3">
+      <c r="I184" s="1">
         <f>G184-H184</f>
         <v/>
       </c>
@@ -6817,26 +6811,26 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>11029.12</v>
+        <v>11050.09</v>
       </c>
       <c r="C185" t="n">
-        <v>11099.57</v>
+        <v>11073.95</v>
       </c>
       <c r="D185" t="n">
-        <v>11029.11</v>
+        <v>10966.96</v>
       </c>
       <c r="E185" t="n">
-        <v>11099.57</v>
-      </c>
-      <c r="G185" s="3">
+        <v>11006.34</v>
+      </c>
+      <c r="G185" s="1">
         <f>AVERAGE(E181:E185)</f>
         <v/>
       </c>
-      <c r="H185" s="3">
+      <c r="H185" s="1">
         <f>AVERAGE(E156:E185)</f>
         <v/>
       </c>
-      <c r="I185" s="3">
+      <c r="I185" s="1">
         <f>G185-H185</f>
         <v/>
       </c>
@@ -6846,26 +6840,26 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>11153.97</v>
+        <v>11014.19</v>
       </c>
       <c r="C186" t="n">
-        <v>11186.05</v>
+        <v>11062.43</v>
       </c>
       <c r="D186" t="n">
-        <v>11080.07</v>
+        <v>11012.95</v>
       </c>
       <c r="E186" t="n">
-        <v>11093.75</v>
-      </c>
-      <c r="G186" s="3">
+        <v>11051.8</v>
+      </c>
+      <c r="G186" s="1">
         <f>AVERAGE(E182:E186)</f>
         <v/>
       </c>
-      <c r="H186" s="3">
+      <c r="H186" s="1">
         <f>AVERAGE(E157:E186)</f>
         <v/>
       </c>
-      <c r="I186" s="3">
+      <c r="I186" s="1">
         <f>G186-H186</f>
         <v/>
       </c>
@@ -6875,26 +6869,26 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>11037.26</v>
+        <v>11048.89</v>
       </c>
       <c r="C187" t="n">
-        <v>11063.94</v>
+        <v>11064.34</v>
       </c>
       <c r="D187" t="n">
-        <v>10987.68</v>
+        <v>10906.42</v>
       </c>
       <c r="E187" t="n">
-        <v>11063.94</v>
-      </c>
-      <c r="G187" s="3">
+        <v>10919.63</v>
+      </c>
+      <c r="G187" s="1">
         <f>AVERAGE(E183:E187)</f>
         <v/>
       </c>
-      <c r="H187" s="3">
+      <c r="H187" s="1">
         <f>AVERAGE(E158:E187)</f>
         <v/>
       </c>
-      <c r="I187" s="3">
+      <c r="I187" s="1">
         <f>G187-H187</f>
         <v/>
       </c>
@@ -6904,26 +6898,26 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>11087.86</v>
+        <v>10918.74</v>
       </c>
       <c r="C188" t="n">
-        <v>11097.11</v>
+        <v>10926.73</v>
       </c>
       <c r="D188" t="n">
-        <v>10952.85</v>
+        <v>10839.46</v>
       </c>
       <c r="E188" t="n">
-        <v>10964.22</v>
-      </c>
-      <c r="G188" s="3">
+        <v>10863.94</v>
+      </c>
+      <c r="G188" s="1">
         <f>AVERAGE(E184:E188)</f>
         <v/>
       </c>
-      <c r="H188" s="3">
+      <c r="H188" s="1">
         <f>AVERAGE(E159:E188)</f>
         <v/>
       </c>
-      <c r="I188" s="3">
+      <c r="I188" s="1">
         <f>G188-H188</f>
         <v/>
       </c>
@@ -6933,26 +6927,26 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>10981.39</v>
+        <v>10826.19</v>
       </c>
       <c r="C189" t="n">
-        <v>11028.27</v>
+        <v>10826.19</v>
       </c>
       <c r="D189" t="n">
-        <v>10956.49</v>
+        <v>10707.76</v>
       </c>
       <c r="E189" t="n">
-        <v>11021.38</v>
-      </c>
-      <c r="G189" s="3">
+        <v>10718.91</v>
+      </c>
+      <c r="G189" s="1">
         <f>AVERAGE(E185:E189)</f>
         <v/>
       </c>
-      <c r="H189" s="3">
+      <c r="H189" s="1">
         <f>AVERAGE(E160:E189)</f>
         <v/>
       </c>
-      <c r="I189" s="3">
+      <c r="I189" s="1">
         <f>G189-H189</f>
         <v/>
       </c>
@@ -6962,26 +6956,26 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>11042.41</v>
+        <v>10665.29</v>
       </c>
       <c r="C190" t="n">
-        <v>11058.06</v>
+        <v>10669.63</v>
       </c>
       <c r="D190" t="n">
-        <v>10989.93</v>
+        <v>10446.94</v>
       </c>
       <c r="E190" t="n">
-        <v>10995.13</v>
-      </c>
-      <c r="G190" s="3">
+        <v>10517.12</v>
+      </c>
+      <c r="G190" s="1">
         <f>AVERAGE(E186:E190)</f>
         <v/>
       </c>
-      <c r="H190" s="3">
+      <c r="H190" s="1">
         <f>AVERAGE(E161:E190)</f>
         <v/>
       </c>
-      <c r="I190" s="3">
+      <c r="I190" s="1">
         <f>G190-H190</f>
         <v/>
       </c>
@@ -6991,26 +6985,26 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>11016.92</v>
+        <v>10467.85</v>
       </c>
       <c r="C191" t="n">
-        <v>11016.92</v>
+        <v>10507.83</v>
       </c>
       <c r="D191" t="n">
-        <v>10905.34</v>
+        <v>10403.13</v>
       </c>
       <c r="E191" t="n">
-        <v>10924.3</v>
-      </c>
-      <c r="G191" s="3">
+        <v>10455.93</v>
+      </c>
+      <c r="G191" s="1">
         <f>AVERAGE(E187:E191)</f>
         <v/>
       </c>
-      <c r="H191" s="3">
+      <c r="H191" s="1">
         <f>AVERAGE(E162:E191)</f>
         <v/>
       </c>
-      <c r="I191" s="3">
+      <c r="I191" s="1">
         <f>G191-H191</f>
         <v/>
       </c>
@@ -7020,26 +7014,26 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>10922.55</v>
+        <v>10464.39</v>
       </c>
       <c r="C192" t="n">
-        <v>10922.55</v>
+        <v>10503.1</v>
       </c>
       <c r="D192" t="n">
-        <v>10807.56</v>
+        <v>10428.97</v>
       </c>
       <c r="E192" t="n">
-        <v>10846.99</v>
-      </c>
-      <c r="G192" s="3">
+        <v>10466.83</v>
+      </c>
+      <c r="G192" s="1">
         <f>AVERAGE(E188:E192)</f>
         <v/>
       </c>
-      <c r="H192" s="3">
+      <c r="H192" s="1">
         <f>AVERAGE(E163:E192)</f>
         <v/>
       </c>
-      <c r="I192" s="3">
+      <c r="I192" s="1">
         <f>G192-H192</f>
         <v/>
       </c>
@@ -7049,26 +7043,26 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>10869.8</v>
+        <v>10272.04</v>
       </c>
       <c r="C193" t="n">
-        <v>10877.72</v>
+        <v>10272.04</v>
       </c>
       <c r="D193" t="n">
-        <v>10689.29</v>
+        <v>9797.93</v>
       </c>
       <c r="E193" t="n">
-        <v>10725.8</v>
-      </c>
-      <c r="G193" s="3">
+        <v>9806.110000000001</v>
+      </c>
+      <c r="G193" s="1">
         <f>AVERAGE(E189:E193)</f>
         <v/>
       </c>
-      <c r="H193" s="3">
+      <c r="H193" s="1">
         <f>AVERAGE(E164:E193)</f>
         <v/>
       </c>
-      <c r="I193" s="3">
+      <c r="I193" s="1">
         <f>G193-H193</f>
         <v/>
       </c>
@@ -7078,26 +7072,26 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>10723</v>
+        <v>9811.58</v>
       </c>
       <c r="C194" t="n">
-        <v>10765.42</v>
+        <v>10046.01</v>
       </c>
       <c r="D194" t="n">
-        <v>10669.59</v>
+        <v>9740.76</v>
       </c>
       <c r="E194" t="n">
-        <v>10752.3</v>
-      </c>
-      <c r="G194" s="3">
+        <v>10045.81</v>
+      </c>
+      <c r="G194" s="1">
         <f>AVERAGE(E190:E194)</f>
         <v/>
       </c>
-      <c r="H194" s="3">
+      <c r="H194" s="1">
         <f>AVERAGE(E165:E194)</f>
         <v/>
       </c>
-      <c r="I194" s="3">
+      <c r="I194" s="1">
         <f>G194-H194</f>
         <v/>
       </c>
@@ -7107,26 +7101,26 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>10762.91</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="C195" t="n">
-        <v>10779.93</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="D195" t="n">
-        <v>10667.25</v>
+        <v>9890.469999999999</v>
       </c>
       <c r="E195" t="n">
-        <v>10722.57</v>
-      </c>
-      <c r="G195" s="3">
+        <v>9901.120000000001</v>
+      </c>
+      <c r="G195" s="1">
         <f>AVERAGE(E191:E195)</f>
         <v/>
       </c>
-      <c r="H195" s="3">
+      <c r="H195" s="1">
         <f>AVERAGE(E166:E195)</f>
         <v/>
       </c>
-      <c r="I195" s="3">
+      <c r="I195" s="1">
         <f>G195-H195</f>
         <v/>
       </c>
@@ -7136,26 +7130,26 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>10726.67</v>
+        <v>9891.969999999999</v>
       </c>
       <c r="C196" t="n">
-        <v>10758.84</v>
+        <v>10011.19</v>
       </c>
       <c r="D196" t="n">
-        <v>10701.25</v>
+        <v>9888.73</v>
       </c>
       <c r="E196" t="n">
-        <v>10727.23</v>
-      </c>
-      <c r="G196" s="3">
+        <v>9981.1</v>
+      </c>
+      <c r="G196" s="1">
         <f>AVERAGE(E192:E196)</f>
         <v/>
       </c>
-      <c r="H196" s="3">
+      <c r="H196" s="1">
         <f>AVERAGE(E167:E196)</f>
         <v/>
       </c>
-      <c r="I196" s="3">
+      <c r="I196" s="1">
         <f>G196-H196</f>
         <v/>
       </c>
@@ -7165,26 +7159,26 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>10776.53</v>
+        <v>10048.43</v>
       </c>
       <c r="C197" t="n">
-        <v>10882.04</v>
+        <v>10127.01</v>
       </c>
       <c r="D197" t="n">
-        <v>10770.47</v>
+        <v>9978.25</v>
       </c>
       <c r="E197" t="n">
-        <v>10868.14</v>
-      </c>
-      <c r="G197" s="3">
+        <v>9979.139999999999</v>
+      </c>
+      <c r="G197" s="1">
         <f>AVERAGE(E193:E197)</f>
         <v/>
       </c>
-      <c r="H197" s="3">
+      <c r="H197" s="1">
         <f>AVERAGE(E168:E197)</f>
         <v/>
       </c>
-      <c r="I197" s="3">
+      <c r="I197" s="1">
         <f>G197-H197</f>
         <v/>
       </c>
@@ -7194,26 +7188,26 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>10881.78</v>
+        <v>9975.459999999999</v>
       </c>
       <c r="C198" t="n">
-        <v>10883.98</v>
+        <v>10019.5</v>
       </c>
       <c r="D198" t="n">
-        <v>10806.73</v>
+        <v>9919.790000000001</v>
       </c>
       <c r="E198" t="n">
-        <v>10828.61</v>
-      </c>
-      <c r="G198" s="3">
+        <v>9953.73</v>
+      </c>
+      <c r="G198" s="1">
         <f>AVERAGE(E194:E198)</f>
         <v/>
       </c>
-      <c r="H198" s="3">
+      <c r="H198" s="1">
         <f>AVERAGE(E169:E198)</f>
         <v/>
       </c>
-      <c r="I198" s="3">
+      <c r="I198" s="1">
         <f>G198-H198</f>
         <v/>
       </c>
@@ -7223,26 +7217,26 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>10794.22</v>
+        <v>9879.469999999999</v>
       </c>
       <c r="C199" t="n">
-        <v>10806.56</v>
+        <v>9919.26</v>
       </c>
       <c r="D199" t="n">
-        <v>10750.81</v>
+        <v>9762.91</v>
       </c>
       <c r="E199" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G199" s="3">
+        <v>9919.26</v>
+      </c>
+      <c r="G199" s="1">
         <f>AVERAGE(E195:E199)</f>
         <v/>
       </c>
-      <c r="H199" s="3">
+      <c r="H199" s="1">
         <f>AVERAGE(E170:E199)</f>
         <v/>
       </c>
-      <c r="I199" s="3">
+      <c r="I199" s="1">
         <f>G199-H199</f>
         <v/>
       </c>
@@ -7252,26 +7246,26 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>10808.5</v>
+        <v>9871.299999999999</v>
       </c>
       <c r="C200" t="n">
-        <v>10882.75</v>
+        <v>9984.15</v>
       </c>
       <c r="D200" t="n">
-        <v>10808.5</v>
+        <v>9822.15</v>
       </c>
       <c r="E200" t="n">
-        <v>10857.27</v>
-      </c>
-      <c r="G200" s="3">
+        <v>9974.280000000001</v>
+      </c>
+      <c r="G200" s="1">
         <f>AVERAGE(E196:E200)</f>
         <v/>
       </c>
-      <c r="H200" s="3">
+      <c r="H200" s="1">
         <f>AVERAGE(E171:E200)</f>
         <v/>
       </c>
-      <c r="I200" s="3">
+      <c r="I200" s="1">
         <f>G200-H200</f>
         <v/>
       </c>
@@ -7281,26 +7275,26 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>10886.19</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="C201" t="n">
-        <v>10908.36</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>10814.54</v>
+        <v>9775.200000000001</v>
       </c>
       <c r="E201" t="n">
-        <v>10831.41</v>
-      </c>
-      <c r="G201" s="3">
+        <v>9775.200000000001</v>
+      </c>
+      <c r="G201" s="1">
         <f>AVERAGE(E197:E201)</f>
         <v/>
       </c>
-      <c r="H201" s="3">
+      <c r="H201" s="1">
         <f>AVERAGE(E172:E201)</f>
         <v/>
       </c>
-      <c r="I201" s="3">
+      <c r="I201" s="1">
         <f>G201-H201</f>
         <v/>
       </c>
@@ -7310,26 +7304,26 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>10857.1</v>
+        <v>9774.290000000001</v>
       </c>
       <c r="C202" t="n">
-        <v>10972.41</v>
+        <v>9809.190000000001</v>
       </c>
       <c r="D202" t="n">
-        <v>10835.84</v>
+        <v>9667.85</v>
       </c>
       <c r="E202" t="n">
-        <v>10972.41</v>
-      </c>
-      <c r="G202" s="3">
+        <v>9759.4</v>
+      </c>
+      <c r="G202" s="1">
         <f>AVERAGE(E198:E202)</f>
         <v/>
       </c>
-      <c r="H202" s="3">
+      <c r="H202" s="1">
         <f>AVERAGE(E173:E202)</f>
         <v/>
       </c>
-      <c r="I202" s="3">
+      <c r="I202" s="1">
         <f>G202-H202</f>
         <v/>
       </c>
@@ -7339,26 +7333,26 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>10959.56</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="C203" t="n">
-        <v>11003.49</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="D203" t="n">
-        <v>10941.77</v>
+        <v>9475.610000000001</v>
       </c>
       <c r="E203" t="n">
-        <v>10978.85</v>
-      </c>
-      <c r="G203" s="3">
+        <v>9520.790000000001</v>
+      </c>
+      <c r="G203" s="1">
         <f>AVERAGE(E199:E203)</f>
         <v/>
       </c>
-      <c r="H203" s="3">
+      <c r="H203" s="1">
         <f>AVERAGE(E174:E203)</f>
         <v/>
       </c>
-      <c r="I203" s="3">
+      <c r="I203" s="1">
         <f>G203-H203</f>
         <v/>
       </c>
@@ -7368,26 +7362,26 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>10974.08</v>
+        <v>9570.190000000001</v>
       </c>
       <c r="C204" t="n">
-        <v>11007.35</v>
+        <v>9629.07</v>
       </c>
       <c r="D204" t="n">
-        <v>10947.29</v>
+        <v>9400.690000000001</v>
       </c>
       <c r="E204" t="n">
-        <v>10974.19</v>
-      </c>
-      <c r="G204" s="3">
+        <v>9489.18</v>
+      </c>
+      <c r="G204" s="1">
         <f>AVERAGE(E200:E204)</f>
         <v/>
       </c>
-      <c r="H204" s="3">
+      <c r="H204" s="1">
         <f>AVERAGE(E175:E204)</f>
         <v/>
       </c>
-      <c r="I204" s="3">
+      <c r="I204" s="1">
         <f>G204-H204</f>
         <v/>
       </c>
@@ -7397,26 +7391,26 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>10973.77</v>
+        <v>9515.43</v>
       </c>
       <c r="C205" t="n">
-        <v>11051.09</v>
+        <v>9554.35</v>
       </c>
       <c r="D205" t="n">
-        <v>10961.27</v>
+        <v>9459.120000000001</v>
       </c>
       <c r="E205" t="n">
-        <v>11034.19</v>
-      </c>
-      <c r="G205" s="3">
+        <v>9516.32</v>
+      </c>
+      <c r="G205" s="1">
         <f>AVERAGE(E201:E205)</f>
         <v/>
       </c>
-      <c r="H205" s="3">
+      <c r="H205" s="1">
         <f>AVERAGE(E176:E205)</f>
         <v/>
       </c>
-      <c r="I205" s="3">
+      <c r="I205" s="1">
         <f>G205-H205</f>
         <v/>
       </c>
@@ -7426,26 +7420,26 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>11050.09</v>
+        <v>9508.809999999999</v>
       </c>
       <c r="C206" t="n">
-        <v>11073.95</v>
+        <v>9574.83</v>
       </c>
       <c r="D206" t="n">
-        <v>10966.96</v>
+        <v>9481.66</v>
       </c>
       <c r="E206" t="n">
-        <v>11006.34</v>
-      </c>
-      <c r="G206" s="3">
+        <v>9526.110000000001</v>
+      </c>
+      <c r="G206" s="1">
         <f>AVERAGE(E202:E206)</f>
         <v/>
       </c>
-      <c r="H206" s="3">
+      <c r="H206" s="1">
         <f>AVERAGE(E177:E206)</f>
         <v/>
       </c>
-      <c r="I206" s="3">
+      <c r="I206" s="1">
         <f>G206-H206</f>
         <v/>
       </c>
@@ -7455,26 +7449,26 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>11014.19</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="C207" t="n">
-        <v>11062.43</v>
+        <v>9802.129999999999</v>
       </c>
       <c r="D207" t="n">
-        <v>11012.95</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="E207" t="n">
-        <v>11051.8</v>
-      </c>
-      <c r="G207" s="3">
+        <v>9802.129999999999</v>
+      </c>
+      <c r="G207" s="1">
         <f>AVERAGE(E203:E207)</f>
         <v/>
       </c>
-      <c r="H207" s="3">
+      <c r="H207" s="1">
         <f>AVERAGE(E178:E207)</f>
         <v/>
       </c>
-      <c r="I207" s="3">
+      <c r="I207" s="1">
         <f>G207-H207</f>
         <v/>
       </c>
@@ -7484,26 +7478,26 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>11048.89</v>
+        <v>9812.200000000001</v>
       </c>
       <c r="C208" t="n">
-        <v>11064.34</v>
+        <v>9869.59</v>
       </c>
       <c r="D208" t="n">
-        <v>10906.42</v>
+        <v>9742.610000000001</v>
       </c>
       <c r="E208" t="n">
-        <v>10919.63</v>
-      </c>
-      <c r="G208" s="3">
+        <v>9844.74</v>
+      </c>
+      <c r="G208" s="1">
         <f>AVERAGE(E204:E208)</f>
         <v/>
       </c>
-      <c r="H208" s="3">
+      <c r="H208" s="1">
         <f>AVERAGE(E179:E208)</f>
         <v/>
       </c>
-      <c r="I208" s="3">
+      <c r="I208" s="1">
         <f>G208-H208</f>
         <v/>
       </c>
@@ -7513,26 +7507,26 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>10918.74</v>
+        <v>9871.4</v>
       </c>
       <c r="C209" t="n">
-        <v>10926.73</v>
+        <v>9906.59</v>
       </c>
       <c r="D209" t="n">
-        <v>10839.46</v>
+        <v>9817.290000000001</v>
       </c>
       <c r="E209" t="n">
-        <v>10863.94</v>
-      </c>
-      <c r="G209" s="3">
+        <v>9906.59</v>
+      </c>
+      <c r="G209" s="1">
         <f>AVERAGE(E205:E209)</f>
         <v/>
       </c>
-      <c r="H209" s="3">
+      <c r="H209" s="1">
         <f>AVERAGE(E180:E209)</f>
         <v/>
       </c>
-      <c r="I209" s="3">
+      <c r="I209" s="1">
         <f>G209-H209</f>
         <v/>
       </c>
@@ -7542,26 +7536,26 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>10826.19</v>
+        <v>9856.85</v>
       </c>
       <c r="C210" t="n">
-        <v>10826.19</v>
+        <v>9889.809999999999</v>
       </c>
       <c r="D210" t="n">
-        <v>10707.76</v>
+        <v>9786.25</v>
       </c>
       <c r="E210" t="n">
-        <v>10718.91</v>
-      </c>
-      <c r="G210" s="3">
+        <v>9889.809999999999</v>
+      </c>
+      <c r="G210" s="1">
         <f>AVERAGE(E206:E210)</f>
         <v/>
       </c>
-      <c r="H210" s="3">
+      <c r="H210" s="1">
         <f>AVERAGE(E181:E210)</f>
         <v/>
       </c>
-      <c r="I210" s="3">
+      <c r="I210" s="1">
         <f>G210-H210</f>
         <v/>
       </c>
@@ -7571,26 +7565,26 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>10665.29</v>
+        <v>9888.41</v>
       </c>
       <c r="C211" t="n">
-        <v>10669.63</v>
+        <v>9899.969999999999</v>
       </c>
       <c r="D211" t="n">
-        <v>10446.94</v>
+        <v>9782.860000000001</v>
       </c>
       <c r="E211" t="n">
-        <v>10517.12</v>
-      </c>
-      <c r="G211" s="3">
+        <v>9824.950000000001</v>
+      </c>
+      <c r="G211" s="1">
         <f>AVERAGE(E207:E211)</f>
         <v/>
       </c>
-      <c r="H211" s="3">
+      <c r="H211" s="1">
         <f>AVERAGE(E182:E211)</f>
         <v/>
       </c>
-      <c r="I211" s="3">
+      <c r="I211" s="1">
         <f>G211-H211</f>
         <v/>
       </c>
@@ -7600,26 +7594,26 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>10467.85</v>
+        <v>9818.15</v>
       </c>
       <c r="C212" t="n">
-        <v>10507.83</v>
+        <v>9912.530000000001</v>
       </c>
       <c r="D212" t="n">
-        <v>10403.13</v>
+        <v>9817.950000000001</v>
       </c>
       <c r="E212" t="n">
-        <v>10455.93</v>
-      </c>
-      <c r="G212" s="3">
+        <v>9908.35</v>
+      </c>
+      <c r="G212" s="1">
         <f>AVERAGE(E208:E212)</f>
         <v/>
       </c>
-      <c r="H212" s="3">
+      <c r="H212" s="1">
         <f>AVERAGE(E183:E212)</f>
         <v/>
       </c>
-      <c r="I212" s="3">
+      <c r="I212" s="1">
         <f>G212-H212</f>
         <v/>
       </c>
@@ -7629,26 +7623,26 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>10464.39</v>
+        <v>9958.469999999999</v>
       </c>
       <c r="C213" t="n">
-        <v>10503.1</v>
+        <v>10014.42</v>
       </c>
       <c r="D213" t="n">
-        <v>10428.97</v>
+        <v>9938.549999999999</v>
       </c>
       <c r="E213" t="n">
-        <v>10466.83</v>
-      </c>
-      <c r="G213" s="3">
+        <v>9945.309999999999</v>
+      </c>
+      <c r="G213" s="1">
         <f>AVERAGE(E209:E213)</f>
         <v/>
       </c>
-      <c r="H213" s="3">
+      <c r="H213" s="1">
         <f>AVERAGE(E184:E213)</f>
         <v/>
       </c>
-      <c r="I213" s="3">
+      <c r="I213" s="1">
         <f>G213-H213</f>
         <v/>
       </c>
@@ -7658,26 +7652,26 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>10272.04</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="C214" t="n">
-        <v>10272.04</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="D214" t="n">
-        <v>9797.93</v>
+        <v>9798.450000000001</v>
       </c>
       <c r="E214" t="n">
-        <v>9806.110000000001</v>
-      </c>
-      <c r="G214" s="3">
+        <v>9830.01</v>
+      </c>
+      <c r="G214" s="1">
         <f>AVERAGE(E210:E214)</f>
         <v/>
       </c>
-      <c r="H214" s="3">
+      <c r="H214" s="1">
         <f>AVERAGE(E185:E214)</f>
         <v/>
       </c>
-      <c r="I214" s="3">
+      <c r="I214" s="1">
         <f>G214-H214</f>
         <v/>
       </c>
@@ -7687,26 +7681,26 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>9811.58</v>
+        <v>9806.799999999999</v>
       </c>
       <c r="C215" t="n">
-        <v>10046.01</v>
+        <v>9875.84</v>
       </c>
       <c r="D215" t="n">
-        <v>9740.76</v>
+        <v>9764.459999999999</v>
       </c>
       <c r="E215" t="n">
-        <v>10045.81</v>
-      </c>
-      <c r="G215" s="3">
+        <v>9831.209999999999</v>
+      </c>
+      <c r="G215" s="1">
         <f>AVERAGE(E211:E215)</f>
         <v/>
       </c>
-      <c r="H215" s="3">
+      <c r="H215" s="1">
         <f>AVERAGE(E186:E215)</f>
         <v/>
       </c>
-      <c r="I215" s="3">
+      <c r="I215" s="1">
         <f>G215-H215</f>
         <v/>
       </c>
@@ -7716,26 +7710,26 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>9989.629999999999</v>
+        <v>9727.17</v>
       </c>
       <c r="C216" t="n">
-        <v>9989.629999999999</v>
+        <v>9777.35</v>
       </c>
       <c r="D216" t="n">
-        <v>9890.469999999999</v>
+        <v>9616.16</v>
       </c>
       <c r="E216" t="n">
-        <v>9901.120000000001</v>
-      </c>
-      <c r="G216" s="3">
+        <v>9775.84</v>
+      </c>
+      <c r="G216" s="1">
         <f>AVERAGE(E212:E216)</f>
         <v/>
       </c>
-      <c r="H216" s="3">
+      <c r="H216" s="1">
         <f>AVERAGE(E187:E216)</f>
         <v/>
       </c>
-      <c r="I216" s="3">
+      <c r="I216" s="1">
         <f>G216-H216</f>
         <v/>
       </c>
@@ -7745,26 +7739,26 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>9891.969999999999</v>
+        <v>9799.690000000001</v>
       </c>
       <c r="C217" t="n">
-        <v>10011.19</v>
+        <v>9823.25</v>
       </c>
       <c r="D217" t="n">
-        <v>9888.73</v>
+        <v>9763.889999999999</v>
       </c>
       <c r="E217" t="n">
-        <v>9981.1</v>
-      </c>
-      <c r="G217" s="3">
+        <v>9791.879999999999</v>
+      </c>
+      <c r="G217" s="1">
         <f>AVERAGE(E213:E217)</f>
         <v/>
       </c>
-      <c r="H217" s="3">
+      <c r="H217" s="1">
         <f>AVERAGE(E188:E217)</f>
         <v/>
       </c>
-      <c r="I217" s="3">
+      <c r="I217" s="1">
         <f>G217-H217</f>
         <v/>
       </c>
@@ -7774,26 +7768,26 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>10048.43</v>
+        <v>9806.58</v>
       </c>
       <c r="C218" t="n">
-        <v>10127.01</v>
+        <v>9844.389999999999</v>
       </c>
       <c r="D218" t="n">
-        <v>9978.25</v>
+        <v>9755.120000000001</v>
       </c>
       <c r="E218" t="n">
-        <v>9979.139999999999</v>
-      </c>
-      <c r="G218" s="3">
+        <v>9826.459999999999</v>
+      </c>
+      <c r="G218" s="1">
         <f>AVERAGE(E214:E218)</f>
         <v/>
       </c>
-      <c r="H218" s="3">
+      <c r="H218" s="1">
         <f>AVERAGE(E189:E218)</f>
         <v/>
       </c>
-      <c r="I218" s="3">
+      <c r="I218" s="1">
         <f>G218-H218</f>
         <v/>
       </c>
@@ -7803,26 +7797,26 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>9975.459999999999</v>
+        <v>9819.049999999999</v>
       </c>
       <c r="C219" t="n">
-        <v>10019.5</v>
+        <v>9851.290000000001</v>
       </c>
       <c r="D219" t="n">
-        <v>9919.790000000001</v>
+        <v>9770.870000000001</v>
       </c>
       <c r="E219" t="n">
-        <v>9953.73</v>
-      </c>
-      <c r="G219" s="3">
+        <v>9797.09</v>
+      </c>
+      <c r="G219" s="1">
         <f>AVERAGE(E215:E219)</f>
         <v/>
       </c>
-      <c r="H219" s="3">
+      <c r="H219" s="1">
         <f>AVERAGE(E190:E219)</f>
         <v/>
       </c>
-      <c r="I219" s="3">
+      <c r="I219" s="1">
         <f>G219-H219</f>
         <v/>
       </c>
@@ -7832,26 +7826,26 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>9879.469999999999</v>
+        <v>9795.469999999999</v>
       </c>
       <c r="C220" t="n">
-        <v>9919.26</v>
+        <v>9836.02</v>
       </c>
       <c r="D220" t="n">
-        <v>9762.91</v>
+        <v>9779.4</v>
       </c>
       <c r="E220" t="n">
-        <v>9919.26</v>
-      </c>
-      <c r="G220" s="3">
+        <v>9828.690000000001</v>
+      </c>
+      <c r="G220" s="1">
         <f>AVERAGE(E216:E220)</f>
         <v/>
       </c>
-      <c r="H220" s="3">
+      <c r="H220" s="1">
         <f>AVERAGE(E191:E220)</f>
         <v/>
       </c>
-      <c r="I220" s="3">
+      <c r="I220" s="1">
         <f>G220-H220</f>
         <v/>
       </c>
@@ -7861,26 +7855,26 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>9871.299999999999</v>
+        <v>9788.950000000001</v>
       </c>
       <c r="C221" t="n">
-        <v>9984.15</v>
+        <v>9800.030000000001</v>
       </c>
       <c r="D221" t="n">
-        <v>9822.15</v>
+        <v>9726.799999999999</v>
       </c>
       <c r="E221" t="n">
-        <v>9974.280000000001</v>
-      </c>
-      <c r="G221" s="3">
+        <v>9743.99</v>
+      </c>
+      <c r="G221" s="1">
         <f>AVERAGE(E217:E221)</f>
         <v/>
       </c>
-      <c r="H221" s="3">
+      <c r="H221" s="1">
         <f>AVERAGE(E192:E221)</f>
         <v/>
       </c>
-      <c r="I221" s="3">
+      <c r="I221" s="1">
         <f>G221-H221</f>
         <v/>
       </c>
@@ -7890,26 +7884,26 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>9912.280000000001</v>
+        <v>9698.52</v>
       </c>
       <c r="C222" t="n">
-        <v>9912.280000000001</v>
+        <v>9753.690000000001</v>
       </c>
       <c r="D222" t="n">
-        <v>9775.200000000001</v>
+        <v>9632.469999999999</v>
       </c>
       <c r="E222" t="n">
-        <v>9775.200000000001</v>
-      </c>
-      <c r="G222" s="3">
+        <v>9741.52</v>
+      </c>
+      <c r="G222" s="1">
         <f>AVERAGE(E218:E222)</f>
         <v/>
       </c>
-      <c r="H222" s="3">
+      <c r="H222" s="1">
         <f>AVERAGE(E193:E222)</f>
         <v/>
       </c>
-      <c r="I222" s="3">
+      <c r="I222" s="1">
         <f>G222-H222</f>
         <v/>
       </c>
@@ -7919,26 +7913,26 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>9774.290000000001</v>
+        <v>9769.33</v>
       </c>
       <c r="C223" t="n">
-        <v>9809.190000000001</v>
+        <v>9792.99</v>
       </c>
       <c r="D223" t="n">
-        <v>9667.85</v>
+        <v>9702.77</v>
       </c>
       <c r="E223" t="n">
-        <v>9759.4</v>
-      </c>
-      <c r="G223" s="3">
+        <v>9714.709999999999</v>
+      </c>
+      <c r="G223" s="1">
         <f>AVERAGE(E219:E223)</f>
         <v/>
       </c>
-      <c r="H223" s="3">
+      <c r="H223" s="1">
         <f>AVERAGE(E194:E223)</f>
         <v/>
       </c>
-      <c r="I223" s="3">
+      <c r="I223" s="1">
         <f>G223-H223</f>
         <v/>
       </c>
@@ -7948,26 +7942,26 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>9622.950000000001</v>
+        <v>9730.639999999999</v>
       </c>
       <c r="C224" t="n">
-        <v>9622.950000000001</v>
+        <v>9738.799999999999</v>
       </c>
       <c r="D224" t="n">
-        <v>9475.610000000001</v>
+        <v>9654.91</v>
       </c>
       <c r="E224" t="n">
-        <v>9520.790000000001</v>
-      </c>
-      <c r="G224" s="3">
+        <v>9667.299999999999</v>
+      </c>
+      <c r="G224" s="1">
         <f>AVERAGE(E220:E224)</f>
         <v/>
       </c>
-      <c r="H224" s="3">
+      <c r="H224" s="1">
         <f>AVERAGE(E195:E224)</f>
         <v/>
       </c>
-      <c r="I224" s="3">
+      <c r="I224" s="1">
         <f>G224-H224</f>
         <v/>
       </c>
@@ -7977,26 +7971,26 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>9570.190000000001</v>
+        <v>9679.98</v>
       </c>
       <c r="C225" t="n">
-        <v>9629.07</v>
+        <v>9847.35</v>
       </c>
       <c r="D225" t="n">
-        <v>9400.690000000001</v>
+        <v>9679.98</v>
       </c>
       <c r="E225" t="n">
-        <v>9489.18</v>
-      </c>
-      <c r="G225" s="3">
+        <v>9765.360000000001</v>
+      </c>
+      <c r="G225" s="1">
         <f>AVERAGE(E221:E225)</f>
         <v/>
       </c>
-      <c r="H225" s="3">
+      <c r="H225" s="1">
         <f>AVERAGE(E196:E225)</f>
         <v/>
       </c>
-      <c r="I225" s="3">
+      <c r="I225" s="1">
         <f>G225-H225</f>
         <v/>
       </c>
@@ -8006,26 +8000,26 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>9515.43</v>
+        <v>9728.950000000001</v>
       </c>
       <c r="C226" t="n">
-        <v>9554.35</v>
+        <v>9781.4</v>
       </c>
       <c r="D226" t="n">
-        <v>9459.120000000001</v>
+        <v>9688.74</v>
       </c>
       <c r="E226" t="n">
-        <v>9516.32</v>
-      </c>
-      <c r="G226" s="3">
+        <v>9778.620000000001</v>
+      </c>
+      <c r="G226" s="1">
         <f>AVERAGE(E222:E226)</f>
         <v/>
       </c>
-      <c r="H226" s="3">
+      <c r="H226" s="1">
         <f>AVERAGE(E197:E226)</f>
         <v/>
       </c>
-      <c r="I226" s="3">
+      <c r="I226" s="1">
         <f>G226-H226</f>
         <v/>
       </c>
@@ -8035,26 +8029,26 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>9508.809999999999</v>
+        <v>9774.030000000001</v>
       </c>
       <c r="C227" t="n">
-        <v>9574.83</v>
+        <v>9890.889999999999</v>
       </c>
       <c r="D227" t="n">
-        <v>9481.66</v>
+        <v>9767.139999999999</v>
       </c>
       <c r="E227" t="n">
-        <v>9526.110000000001</v>
-      </c>
-      <c r="G227" s="3">
+        <v>9884.309999999999</v>
+      </c>
+      <c r="G227" s="1">
         <f>AVERAGE(E223:E227)</f>
         <v/>
       </c>
-      <c r="H227" s="3">
+      <c r="H227" s="1">
         <f>AVERAGE(E198:E227)</f>
         <v/>
       </c>
-      <c r="I227" s="3">
+      <c r="I227" s="1">
         <f>G227-H227</f>
         <v/>
       </c>
@@ -8064,26 +8058,26 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>9588.860000000001</v>
+        <v>9959.870000000001</v>
       </c>
       <c r="C228" t="n">
-        <v>9802.129999999999</v>
+        <v>10001.85</v>
       </c>
       <c r="D228" t="n">
-        <v>9588.860000000001</v>
+        <v>9885.360000000001</v>
       </c>
       <c r="E228" t="n">
-        <v>9802.129999999999</v>
-      </c>
-      <c r="G228" s="3">
+        <v>9885.360000000001</v>
+      </c>
+      <c r="G228" s="1">
         <f>AVERAGE(E224:E228)</f>
         <v/>
       </c>
-      <c r="H228" s="3">
+      <c r="H228" s="1">
         <f>AVERAGE(E199:E228)</f>
         <v/>
       </c>
-      <c r="I228" s="3">
+      <c r="I228" s="1">
         <f>G228-H228</f>
         <v/>
       </c>
@@ -8093,26 +8087,26 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>9812.200000000001</v>
+        <v>9899.24</v>
       </c>
       <c r="C229" t="n">
-        <v>9869.59</v>
+        <v>9957.629999999999</v>
       </c>
       <c r="D229" t="n">
-        <v>9742.610000000001</v>
+        <v>9888.030000000001</v>
       </c>
       <c r="E229" t="n">
-        <v>9844.74</v>
-      </c>
-      <c r="G229" s="3">
+        <v>9888.030000000001</v>
+      </c>
+      <c r="G229" s="1">
         <f>AVERAGE(E225:E229)</f>
         <v/>
       </c>
-      <c r="H229" s="3">
+      <c r="H229" s="1">
         <f>AVERAGE(E200:E229)</f>
         <v/>
       </c>
-      <c r="I229" s="3">
+      <c r="I229" s="1">
         <f>G229-H229</f>
         <v/>
       </c>
@@ -8122,26 +8116,26 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>9871.4</v>
+        <v>9979.209999999999</v>
       </c>
       <c r="C230" t="n">
-        <v>9906.59</v>
+        <v>10148.75</v>
       </c>
       <c r="D230" t="n">
-        <v>9817.290000000001</v>
+        <v>9979.209999999999</v>
       </c>
       <c r="E230" t="n">
-        <v>9906.59</v>
-      </c>
-      <c r="G230" s="3">
+        <v>10137.87</v>
+      </c>
+      <c r="G230" s="1">
         <f>AVERAGE(E226:E230)</f>
         <v/>
       </c>
-      <c r="H230" s="3">
+      <c r="H230" s="1">
         <f>AVERAGE(E201:E230)</f>
         <v/>
       </c>
-      <c r="I230" s="3">
+      <c r="I230" s="1">
         <f>G230-H230</f>
         <v/>
       </c>
@@ -8151,26 +8145,26 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>9856.85</v>
+        <v>10120.43</v>
       </c>
       <c r="C231" t="n">
-        <v>9889.809999999999</v>
+        <v>10126.02</v>
       </c>
       <c r="D231" t="n">
-        <v>9786.25</v>
+        <v>10061.7</v>
       </c>
       <c r="E231" t="n">
-        <v>9889.809999999999</v>
-      </c>
-      <c r="G231" s="3">
+        <v>10083.54</v>
+      </c>
+      <c r="G231" s="1">
         <f>AVERAGE(E227:E231)</f>
         <v/>
       </c>
-      <c r="H231" s="3">
+      <c r="H231" s="1">
         <f>AVERAGE(E202:E231)</f>
         <v/>
       </c>
-      <c r="I231" s="3">
+      <c r="I231" s="1">
         <f>G231-H231</f>
         <v/>
       </c>
@@ -8180,26 +8174,26 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>9888.41</v>
+        <v>9971.98</v>
       </c>
       <c r="C232" t="n">
-        <v>9899.969999999999</v>
+        <v>9971.98</v>
       </c>
       <c r="D232" t="n">
-        <v>9782.860000000001</v>
+        <v>9895.290000000001</v>
       </c>
       <c r="E232" t="n">
-        <v>9824.950000000001</v>
-      </c>
-      <c r="G232" s="3">
+        <v>9916.74</v>
+      </c>
+      <c r="G232" s="1">
         <f>AVERAGE(E228:E232)</f>
         <v/>
       </c>
-      <c r="H232" s="3">
+      <c r="H232" s="1">
         <f>AVERAGE(E203:E232)</f>
         <v/>
       </c>
-      <c r="I232" s="3">
+      <c r="I232" s="1">
         <f>G232-H232</f>
         <v/>
       </c>
@@ -8209,26 +8203,26 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>9818.15</v>
+        <v>9850.08</v>
       </c>
       <c r="C233" t="n">
-        <v>9912.530000000001</v>
+        <v>9850.08</v>
       </c>
       <c r="D233" t="n">
-        <v>9817.950000000001</v>
+        <v>9664.75</v>
       </c>
       <c r="E233" t="n">
-        <v>9908.35</v>
-      </c>
-      <c r="G233" s="3">
+        <v>9684.719999999999</v>
+      </c>
+      <c r="G233" s="1">
         <f>AVERAGE(E229:E233)</f>
         <v/>
       </c>
-      <c r="H233" s="3">
+      <c r="H233" s="1">
         <f>AVERAGE(E204:E233)</f>
         <v/>
       </c>
-      <c r="I233" s="3">
+      <c r="I233" s="1">
         <f>G233-H233</f>
         <v/>
       </c>
@@ -8238,26 +8232,26 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>9958.469999999999</v>
+        <v>9719.459999999999</v>
       </c>
       <c r="C234" t="n">
-        <v>10014.42</v>
+        <v>9785.200000000001</v>
       </c>
       <c r="D234" t="n">
-        <v>9938.549999999999</v>
+        <v>9719.459999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>9945.309999999999</v>
-      </c>
-      <c r="G234" s="3">
+        <v>9760.879999999999</v>
+      </c>
+      <c r="G234" s="1">
         <f>AVERAGE(E230:E234)</f>
         <v/>
       </c>
-      <c r="H234" s="3">
+      <c r="H234" s="1">
         <f>AVERAGE(E205:E234)</f>
         <v/>
       </c>
-      <c r="I234" s="3">
+      <c r="I234" s="1">
         <f>G234-H234</f>
         <v/>
       </c>
@@ -8267,26 +8261,26 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>9921.780000000001</v>
+        <v>9722.969999999999</v>
       </c>
       <c r="C235" t="n">
-        <v>9921.780000000001</v>
+        <v>9722.969999999999</v>
       </c>
       <c r="D235" t="n">
-        <v>9798.450000000001</v>
+        <v>9626.469999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>9830.01</v>
-      </c>
-      <c r="G235" s="3">
+        <v>9647.540000000001</v>
+      </c>
+      <c r="G235" s="1">
         <f>AVERAGE(E231:E235)</f>
         <v/>
       </c>
-      <c r="H235" s="3">
+      <c r="H235" s="1">
         <f>AVERAGE(E206:E235)</f>
         <v/>
       </c>
-      <c r="I235" s="3">
+      <c r="I235" s="1">
         <f>G235-H235</f>
         <v/>
       </c>
@@ -8296,26 +8290,26 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>9806.799999999999</v>
+        <v>9661.719999999999</v>
       </c>
       <c r="C236" t="n">
-        <v>9875.84</v>
+        <v>9720.959999999999</v>
       </c>
       <c r="D236" t="n">
-        <v>9764.459999999999</v>
+        <v>9661.719999999999</v>
       </c>
       <c r="E236" t="n">
-        <v>9831.209999999999</v>
-      </c>
-      <c r="G236" s="3">
+        <v>9707.040000000001</v>
+      </c>
+      <c r="G236" s="1">
         <f>AVERAGE(E232:E236)</f>
         <v/>
       </c>
-      <c r="H236" s="3">
+      <c r="H236" s="1">
         <f>AVERAGE(E207:E236)</f>
         <v/>
       </c>
-      <c r="I236" s="3">
+      <c r="I236" s="1">
         <f>G236-H236</f>
         <v/>
       </c>
@@ -8325,26 +8319,26 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>9727.17</v>
+        <v>9741.450000000001</v>
       </c>
       <c r="C237" t="n">
-        <v>9777.35</v>
+        <v>9835.559999999999</v>
       </c>
       <c r="D237" t="n">
-        <v>9616.16</v>
+        <v>9741.450000000001</v>
       </c>
       <c r="E237" t="n">
-        <v>9775.84</v>
-      </c>
-      <c r="G237" s="3">
+        <v>9816.450000000001</v>
+      </c>
+      <c r="G237" s="1">
         <f>AVERAGE(E233:E237)</f>
         <v/>
       </c>
-      <c r="H237" s="3">
+      <c r="H237" s="1">
         <f>AVERAGE(E208:E237)</f>
         <v/>
       </c>
-      <c r="I237" s="3">
+      <c r="I237" s="1">
         <f>G237-H237</f>
         <v/>
       </c>
@@ -8354,26 +8348,26 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>9799.690000000001</v>
+        <v>9827.32</v>
       </c>
       <c r="C238" t="n">
-        <v>9823.25</v>
+        <v>9871.959999999999</v>
       </c>
       <c r="D238" t="n">
-        <v>9763.889999999999</v>
+        <v>9815.5</v>
       </c>
       <c r="E238" t="n">
-        <v>9791.879999999999</v>
-      </c>
-      <c r="G238" s="3">
+        <v>9858.76</v>
+      </c>
+      <c r="G238" s="1">
         <f>AVERAGE(E234:E238)</f>
         <v/>
       </c>
-      <c r="H238" s="3">
+      <c r="H238" s="1">
         <f>AVERAGE(E209:E238)</f>
         <v/>
       </c>
-      <c r="I238" s="3">
+      <c r="I238" s="1">
         <f>G238-H238</f>
         <v/>
       </c>
@@ -8383,26 +8377,26 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>9806.58</v>
+        <v>9818.950000000001</v>
       </c>
       <c r="C239" t="n">
-        <v>9844.389999999999</v>
+        <v>9818.950000000001</v>
       </c>
       <c r="D239" t="n">
-        <v>9755.120000000001</v>
+        <v>9718.940000000001</v>
       </c>
       <c r="E239" t="n">
-        <v>9826.459999999999</v>
-      </c>
-      <c r="G239" s="3">
+        <v>9774.16</v>
+      </c>
+      <c r="G239" s="1">
         <f>AVERAGE(E235:E239)</f>
         <v/>
       </c>
-      <c r="H239" s="3">
+      <c r="H239" s="1">
         <f>AVERAGE(E210:E239)</f>
         <v/>
       </c>
-      <c r="I239" s="3">
+      <c r="I239" s="1">
         <f>G239-H239</f>
         <v/>
       </c>
@@ -8412,26 +8406,26 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>9819.049999999999</v>
+        <v>9762.49</v>
       </c>
       <c r="C240" t="n">
-        <v>9851.290000000001</v>
+        <v>9826.879999999999</v>
       </c>
       <c r="D240" t="n">
-        <v>9770.870000000001</v>
+        <v>9733.98</v>
       </c>
       <c r="E240" t="n">
-        <v>9797.09</v>
-      </c>
-      <c r="G240" s="3">
+        <v>9787.530000000001</v>
+      </c>
+      <c r="G240" s="1">
         <f>AVERAGE(E236:E240)</f>
         <v/>
       </c>
-      <c r="H240" s="3">
+      <c r="H240" s="1">
         <f>AVERAGE(E211:E240)</f>
         <v/>
       </c>
-      <c r="I240" s="3">
+      <c r="I240" s="1">
         <f>G240-H240</f>
         <v/>
       </c>
@@ -8441,26 +8435,26 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>9795.469999999999</v>
+        <v>9756.459999999999</v>
       </c>
       <c r="C241" t="n">
-        <v>9836.02</v>
+        <v>9756.67</v>
       </c>
       <c r="D241" t="n">
-        <v>9779.4</v>
+        <v>9701.1</v>
       </c>
       <c r="E241" t="n">
-        <v>9828.690000000001</v>
-      </c>
-      <c r="G241" s="3">
+        <v>9718.82</v>
+      </c>
+      <c r="G241" s="1">
         <f>AVERAGE(E237:E241)</f>
         <v/>
       </c>
-      <c r="H241" s="3">
+      <c r="H241" s="1">
         <f>AVERAGE(E212:E241)</f>
         <v/>
       </c>
-      <c r="I241" s="3">
+      <c r="I241" s="1">
         <f>G241-H241</f>
         <v/>
       </c>
@@ -8470,26 +8464,26 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>9788.950000000001</v>
+        <v>9720.92</v>
       </c>
       <c r="C242" t="n">
-        <v>9800.030000000001</v>
+        <v>9783.209999999999</v>
       </c>
       <c r="D242" t="n">
-        <v>9726.799999999999</v>
+        <v>9720.92</v>
       </c>
       <c r="E242" t="n">
-        <v>9743.99</v>
-      </c>
-      <c r="G242" s="3">
+        <v>9783.209999999999</v>
+      </c>
+      <c r="G242" s="1">
         <f>AVERAGE(E238:E242)</f>
         <v/>
       </c>
-      <c r="H242" s="3">
+      <c r="H242" s="1">
         <f>AVERAGE(E213:E242)</f>
         <v/>
       </c>
-      <c r="I242" s="3">
+      <c r="I242" s="1">
         <f>G242-H242</f>
         <v/>
       </c>
@@ -8499,26 +8493,26 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>9698.52</v>
+        <v>9729.290000000001</v>
       </c>
       <c r="C243" t="n">
-        <v>9753.690000000001</v>
+        <v>9741.549999999999</v>
       </c>
       <c r="D243" t="n">
-        <v>9632.469999999999</v>
+        <v>9658.5</v>
       </c>
       <c r="E243" t="n">
-        <v>9741.52</v>
-      </c>
-      <c r="G243" s="3">
+        <v>9674.52</v>
+      </c>
+      <c r="G243" s="1">
         <f>AVERAGE(E239:E243)</f>
         <v/>
       </c>
-      <c r="H243" s="3">
+      <c r="H243" s="1">
         <f>AVERAGE(E214:E243)</f>
         <v/>
       </c>
-      <c r="I243" s="3">
+      <c r="I243" s="1">
         <f>G243-H243</f>
         <v/>
       </c>
@@ -8528,26 +8522,26 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>9769.33</v>
+        <v>9648.98</v>
       </c>
       <c r="C244" t="n">
-        <v>9792.99</v>
+        <v>9683.950000000001</v>
       </c>
       <c r="D244" t="n">
-        <v>9702.77</v>
+        <v>9585.32</v>
       </c>
       <c r="E244" t="n">
-        <v>9714.709999999999</v>
-      </c>
-      <c r="G244" s="3">
+        <v>9676.67</v>
+      </c>
+      <c r="G244" s="1">
         <f>AVERAGE(E240:E244)</f>
         <v/>
       </c>
-      <c r="H244" s="3">
+      <c r="H244" s="1">
         <f>AVERAGE(E215:E244)</f>
         <v/>
       </c>
-      <c r="I244" s="3">
+      <c r="I244" s="1">
         <f>G244-H244</f>
         <v/>
       </c>
@@ -8557,26 +8551,26 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>9730.639999999999</v>
+        <v>9639.24</v>
       </c>
       <c r="C245" t="n">
-        <v>9738.799999999999</v>
+        <v>9652.190000000001</v>
       </c>
       <c r="D245" t="n">
-        <v>9654.91</v>
+        <v>9625.309999999999</v>
       </c>
       <c r="E245" t="n">
-        <v>9667.299999999999</v>
-      </c>
-      <c r="G245" s="3">
+        <v>9646.16</v>
+      </c>
+      <c r="G245" s="1">
         <f>AVERAGE(E241:E245)</f>
         <v/>
       </c>
-      <c r="H245" s="3">
+      <c r="H245" s="1">
         <f>AVERAGE(E216:E245)</f>
         <v/>
       </c>
-      <c r="I245" s="3">
+      <c r="I245" s="1">
         <f>G245-H245</f>
         <v/>
       </c>
@@ -8586,26 +8580,26 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>9679.98</v>
+        <v>9646.530000000001</v>
       </c>
       <c r="C246" t="n">
-        <v>9847.35</v>
+        <v>9658.950000000001</v>
       </c>
       <c r="D246" t="n">
-        <v>9679.98</v>
+        <v>9613.290000000001</v>
       </c>
       <c r="E246" t="n">
-        <v>9765.360000000001</v>
-      </c>
-      <c r="G246" s="3">
+        <v>9639.700000000001</v>
+      </c>
+      <c r="G246" s="1">
         <f>AVERAGE(E242:E246)</f>
         <v/>
       </c>
-      <c r="H246" s="3">
+      <c r="H246" s="1">
         <f>AVERAGE(E217:E246)</f>
         <v/>
       </c>
-      <c r="I246" s="3">
+      <c r="I246" s="1">
         <f>G246-H246</f>
         <v/>
       </c>
@@ -8615,26 +8609,26 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>9728.950000000001</v>
+        <v>9559.700000000001</v>
       </c>
       <c r="C247" t="n">
-        <v>9781.4</v>
+        <v>9559.700000000001</v>
       </c>
       <c r="D247" t="n">
-        <v>9688.74</v>
+        <v>9479.059999999999</v>
       </c>
       <c r="E247" t="n">
-        <v>9778.620000000001</v>
-      </c>
-      <c r="G247" s="3">
+        <v>9527.09</v>
+      </c>
+      <c r="G247" s="1">
         <f>AVERAGE(E243:E247)</f>
         <v/>
       </c>
-      <c r="H247" s="3">
+      <c r="H247" s="1">
         <f>AVERAGE(E218:E247)</f>
         <v/>
       </c>
-      <c r="I247" s="3">
+      <c r="I247" s="1">
         <f>G247-H247</f>
         <v/>
       </c>
@@ -8644,26 +8638,26 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>9774.030000000001</v>
+        <v>9544.870000000001</v>
       </c>
       <c r="C248" t="n">
-        <v>9890.889999999999</v>
+        <v>9591.91</v>
       </c>
       <c r="D248" t="n">
-        <v>9767.139999999999</v>
+        <v>9473.299999999999</v>
       </c>
       <c r="E248" t="n">
-        <v>9884.309999999999</v>
-      </c>
-      <c r="G248" s="3">
+        <v>9478.99</v>
+      </c>
+      <c r="G248" s="1">
         <f>AVERAGE(E244:E248)</f>
         <v/>
       </c>
-      <c r="H248" s="3">
+      <c r="H248" s="1">
         <f>AVERAGE(E219:E248)</f>
         <v/>
       </c>
-      <c r="I248" s="3">
+      <c r="I248" s="1">
         <f>G248-H248</f>
         <v/>
       </c>
@@ -8673,26 +8667,26 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>9959.870000000001</v>
+        <v>9555.01</v>
       </c>
       <c r="C249" t="n">
-        <v>10001.85</v>
+        <v>9670.969999999999</v>
       </c>
       <c r="D249" t="n">
-        <v>9885.360000000001</v>
+        <v>9555.01</v>
       </c>
       <c r="E249" t="n">
-        <v>9885.360000000001</v>
-      </c>
-      <c r="G249" s="3">
+        <v>9641.559999999999</v>
+      </c>
+      <c r="G249" s="1">
         <f>AVERAGE(E245:E249)</f>
         <v/>
       </c>
-      <c r="H249" s="3">
+      <c r="H249" s="1">
         <f>AVERAGE(E220:E249)</f>
         <v/>
       </c>
-      <c r="I249" s="3">
+      <c r="I249" s="1">
         <f>G249-H249</f>
         <v/>
       </c>
@@ -8702,26 +8696,26 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>9899.24</v>
+        <v>9649.969999999999</v>
       </c>
       <c r="C250" t="n">
-        <v>9957.629999999999</v>
+        <v>9727.41</v>
       </c>
       <c r="D250" t="n">
-        <v>9888.030000000001</v>
+        <v>9630.77</v>
       </c>
       <c r="E250" t="n">
-        <v>9888.030000000001</v>
-      </c>
-      <c r="G250" s="3">
+        <v>9727.41</v>
+      </c>
+      <c r="G250" s="1">
         <f>AVERAGE(E246:E250)</f>
         <v/>
       </c>
-      <c r="H250" s="3">
+      <c r="H250" s="1">
         <f>AVERAGE(E221:E250)</f>
         <v/>
       </c>
-      <c r="I250" s="3">
+      <c r="I250" s="1">
         <f>G250-H250</f>
         <v/>
       </c>
@@ -8731,26 +8725,26 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>9979.209999999999</v>
+        <v>9725.27</v>
       </c>
       <c r="C251" t="n">
-        <v>10148.75</v>
+        <v>9737.68</v>
       </c>
       <c r="D251" t="n">
-        <v>9979.209999999999</v>
+        <v>9542.52</v>
       </c>
       <c r="E251" t="n">
-        <v>10137.87</v>
-      </c>
-      <c r="G251" s="3">
+        <v>9554.139999999999</v>
+      </c>
+      <c r="G251" s="1">
         <f>AVERAGE(E247:E251)</f>
         <v/>
       </c>
-      <c r="H251" s="3">
+      <c r="H251" s="1">
         <f>AVERAGE(E222:E251)</f>
         <v/>
       </c>
-      <c r="I251" s="3">
+      <c r="I251" s="1">
         <f>G251-H251</f>
         <v/>
       </c>
@@ -8760,26 +8754,26 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>10120.43</v>
+        <v>9494.25</v>
       </c>
       <c r="C252" t="n">
-        <v>10126.02</v>
+        <v>9554.530000000001</v>
       </c>
       <c r="D252" t="n">
-        <v>10061.7</v>
+        <v>9474.469999999999</v>
       </c>
       <c r="E252" t="n">
-        <v>10083.54</v>
-      </c>
-      <c r="G252" s="3">
+        <v>9492.42</v>
+      </c>
+      <c r="G252" s="1">
         <f>AVERAGE(E248:E252)</f>
         <v/>
       </c>
-      <c r="H252" s="3">
+      <c r="H252" s="1">
         <f>AVERAGE(E223:E252)</f>
         <v/>
       </c>
-      <c r="I252" s="3">
+      <c r="I252" s="1">
         <f>G252-H252</f>
         <v/>
       </c>
@@ -8789,26 +8783,26 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>9971.98</v>
+        <v>9427.24</v>
       </c>
       <c r="C253" t="n">
-        <v>9971.98</v>
+        <v>9427.24</v>
       </c>
       <c r="D253" t="n">
-        <v>9895.290000000001</v>
+        <v>9319.280000000001</v>
       </c>
       <c r="E253" t="n">
-        <v>9916.74</v>
-      </c>
-      <c r="G253" s="3">
+        <v>9382.51</v>
+      </c>
+      <c r="G253" s="1">
         <f>AVERAGE(E249:E253)</f>
         <v/>
       </c>
-      <c r="H253" s="3">
+      <c r="H253" s="1">
         <f>AVERAGE(E224:E253)</f>
         <v/>
       </c>
-      <c r="I253" s="3">
+      <c r="I253" s="1">
         <f>G253-H253</f>
         <v/>
       </c>
@@ -8818,26 +8812,26 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>9850.08</v>
+        <v>9460.200000000001</v>
       </c>
       <c r="C254" t="n">
-        <v>9850.08</v>
+        <v>9596.35</v>
       </c>
       <c r="D254" t="n">
-        <v>9664.75</v>
+        <v>9460.200000000001</v>
       </c>
       <c r="E254" t="n">
-        <v>9684.719999999999</v>
-      </c>
-      <c r="G254" s="3">
+        <v>9590.299999999999</v>
+      </c>
+      <c r="G254" s="1">
         <f>AVERAGE(E250:E254)</f>
         <v/>
       </c>
-      <c r="H254" s="3">
+      <c r="H254" s="1">
         <f>AVERAGE(E225:E254)</f>
         <v/>
       </c>
-      <c r="I254" s="3">
+      <c r="I254" s="1">
         <f>G254-H254</f>
         <v/>
       </c>
@@ -8847,26 +8841,26 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>9719.459999999999</v>
+        <v>9591.559999999999</v>
       </c>
       <c r="C255" t="n">
-        <v>9785.200000000001</v>
+        <v>9600.940000000001</v>
       </c>
       <c r="D255" t="n">
-        <v>9719.459999999999</v>
+        <v>9547.629999999999</v>
       </c>
       <c r="E255" t="n">
-        <v>9760.879999999999</v>
-      </c>
-      <c r="G255" s="3">
+        <v>9563.6</v>
+      </c>
+      <c r="G255" s="1">
         <f>AVERAGE(E251:E255)</f>
         <v/>
       </c>
-      <c r="H255" s="3">
+      <c r="H255" s="1">
         <f>AVERAGE(E226:E255)</f>
         <v/>
       </c>
-      <c r="I255" s="3">
+      <c r="I255" s="1">
         <f>G255-H255</f>
         <v/>
       </c>
@@ -8876,26 +8870,26 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>9722.969999999999</v>
+        <v>9584.629999999999</v>
       </c>
       <c r="C256" t="n">
-        <v>9722.969999999999</v>
+        <v>9741.639999999999</v>
       </c>
       <c r="D256" t="n">
-        <v>9626.469999999999</v>
+        <v>9584.629999999999</v>
       </c>
       <c r="E256" t="n">
-        <v>9647.540000000001</v>
-      </c>
-      <c r="G256" s="3">
+        <v>9738.309999999999</v>
+      </c>
+      <c r="G256" s="1">
         <f>AVERAGE(E252:E256)</f>
         <v/>
       </c>
-      <c r="H256" s="3">
+      <c r="H256" s="1">
         <f>AVERAGE(E227:E256)</f>
         <v/>
       </c>
-      <c r="I256" s="3">
+      <c r="I256" s="1">
         <f>G256-H256</f>
         <v/>
       </c>
@@ -8905,26 +8899,26 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>9661.719999999999</v>
+        <v>9731.110000000001</v>
       </c>
       <c r="C257" t="n">
-        <v>9720.959999999999</v>
+        <v>9731.110000000001</v>
       </c>
       <c r="D257" t="n">
-        <v>9661.719999999999</v>
+        <v>9683.200000000001</v>
       </c>
       <c r="E257" t="n">
-        <v>9707.040000000001</v>
-      </c>
-      <c r="G257" s="3">
+        <v>9720.690000000001</v>
+      </c>
+      <c r="G257" s="1">
         <f>AVERAGE(E253:E257)</f>
         <v/>
       </c>
-      <c r="H257" s="3">
+      <c r="H257" s="1">
         <f>AVERAGE(E228:E257)</f>
         <v/>
       </c>
-      <c r="I257" s="3">
+      <c r="I257" s="1">
         <f>G257-H257</f>
         <v/>
       </c>
@@ -8934,26 +8928,26 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>9741.450000000001</v>
+        <v>9753.629999999999</v>
       </c>
       <c r="C258" t="n">
-        <v>9835.559999999999</v>
+        <v>9796.98</v>
       </c>
       <c r="D258" t="n">
-        <v>9741.450000000001</v>
+        <v>9736</v>
       </c>
       <c r="E258" t="n">
-        <v>9816.450000000001</v>
-      </c>
-      <c r="G258" s="3">
+        <v>9759.4</v>
+      </c>
+      <c r="G258" s="1">
         <f>AVERAGE(E254:E258)</f>
         <v/>
       </c>
-      <c r="H258" s="3">
+      <c r="H258" s="1">
         <f>AVERAGE(E229:E258)</f>
         <v/>
       </c>
-      <c r="I258" s="3">
+      <c r="I258" s="1">
         <f>G258-H258</f>
         <v/>
       </c>
@@ -8963,26 +8957,26 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>9827.32</v>
+        <v>9737.67</v>
       </c>
       <c r="C259" t="n">
-        <v>9871.959999999999</v>
+        <v>9762.370000000001</v>
       </c>
       <c r="D259" t="n">
-        <v>9815.5</v>
+        <v>9677.49</v>
       </c>
       <c r="E259" t="n">
-        <v>9858.76</v>
-      </c>
-      <c r="G259" s="3">
+        <v>9708.219999999999</v>
+      </c>
+      <c r="G259" s="1">
         <f>AVERAGE(E255:E259)</f>
         <v/>
       </c>
-      <c r="H259" s="3">
+      <c r="H259" s="1">
         <f>AVERAGE(E230:E259)</f>
         <v/>
       </c>
-      <c r="I259" s="3">
+      <c r="I259" s="1">
         <f>G259-H259</f>
         <v/>
       </c>
@@ -8992,26 +8986,26 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>9818.950000000001</v>
+        <v>9701.93</v>
       </c>
       <c r="C260" t="n">
-        <v>9818.950000000001</v>
+        <v>9806.040000000001</v>
       </c>
       <c r="D260" t="n">
-        <v>9718.940000000001</v>
+        <v>9701.93</v>
       </c>
       <c r="E260" t="n">
-        <v>9774.16</v>
-      </c>
-      <c r="G260" s="3">
+        <v>9806.040000000001</v>
+      </c>
+      <c r="G260" s="1">
         <f>AVERAGE(E256:E260)</f>
         <v/>
       </c>
-      <c r="H260" s="3">
+      <c r="H260" s="1">
         <f>AVERAGE(E231:E260)</f>
         <v/>
       </c>
-      <c r="I260" s="3">
+      <c r="I260" s="1">
         <f>G260-H260</f>
         <v/>
       </c>
@@ -9021,26 +9015,26 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>9762.49</v>
+        <v>9781.35</v>
       </c>
       <c r="C261" t="n">
-        <v>9826.879999999999</v>
+        <v>9803.99</v>
       </c>
       <c r="D261" t="n">
-        <v>9733.98</v>
+        <v>9763.809999999999</v>
       </c>
       <c r="E261" t="n">
-        <v>9787.530000000001</v>
-      </c>
-      <c r="G261" s="3">
+        <v>9763.809999999999</v>
+      </c>
+      <c r="G261" s="1">
         <f>AVERAGE(E257:E261)</f>
         <v/>
       </c>
-      <c r="H261" s="3">
+      <c r="H261" s="1">
         <f>AVERAGE(E232:E261)</f>
         <v/>
       </c>
-      <c r="I261" s="3">
+      <c r="I261" s="1">
         <f>G261-H261</f>
         <v/>
       </c>
@@ -9050,26 +9044,26 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>9756.459999999999</v>
+        <v>9773.309999999999</v>
       </c>
       <c r="C262" t="n">
-        <v>9756.67</v>
+        <v>9826.25</v>
       </c>
       <c r="D262" t="n">
-        <v>9701.1</v>
+        <v>9759.51</v>
       </c>
       <c r="E262" t="n">
-        <v>9718.82</v>
-      </c>
-      <c r="G262" s="3">
+        <v>9789.15</v>
+      </c>
+      <c r="G262" s="1">
         <f>AVERAGE(E258:E262)</f>
         <v/>
       </c>
-      <c r="H262" s="3">
+      <c r="H262" s="1">
         <f>AVERAGE(E233:E262)</f>
         <v/>
       </c>
-      <c r="I262" s="3">
+      <c r="I262" s="1">
         <f>G262-H262</f>
         <v/>
       </c>
@@ -9079,26 +9073,26 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>9720.92</v>
+        <v>9781.389999999999</v>
       </c>
       <c r="C263" t="n">
-        <v>9783.209999999999</v>
+        <v>9842.799999999999</v>
       </c>
       <c r="D263" t="n">
-        <v>9720.92</v>
+        <v>9771.15</v>
       </c>
       <c r="E263" t="n">
-        <v>9783.209999999999</v>
-      </c>
-      <c r="G263" s="3">
+        <v>9836.059999999999</v>
+      </c>
+      <c r="G263" s="1">
         <f>AVERAGE(E259:E263)</f>
         <v/>
       </c>
-      <c r="H263" s="3">
+      <c r="H263" s="1">
         <f>AVERAGE(E234:E263)</f>
         <v/>
       </c>
-      <c r="I263" s="3">
+      <c r="I263" s="1">
         <f>G263-H263</f>
         <v/>
       </c>
@@ -9108,26 +9102,26 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>9729.290000000001</v>
+        <v>9870.27</v>
       </c>
       <c r="C264" t="n">
-        <v>9741.549999999999</v>
+        <v>9919.940000000001</v>
       </c>
       <c r="D264" t="n">
-        <v>9658.5</v>
+        <v>9870.27</v>
       </c>
       <c r="E264" t="n">
-        <v>9674.52</v>
-      </c>
-      <c r="G264" s="3">
+        <v>9889.4</v>
+      </c>
+      <c r="G264" s="1">
         <f>AVERAGE(E260:E264)</f>
         <v/>
       </c>
-      <c r="H264" s="3">
+      <c r="H264" s="1">
         <f>AVERAGE(E235:E264)</f>
         <v/>
       </c>
-      <c r="I264" s="3">
+      <c r="I264" s="1">
         <f>G264-H264</f>
         <v/>
       </c>
@@ -9137,26 +9131,26 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>9648.98</v>
+        <v>9880.540000000001</v>
       </c>
       <c r="C265" t="n">
-        <v>9683.950000000001</v>
+        <v>9894.66</v>
       </c>
       <c r="D265" t="n">
-        <v>9585.32</v>
+        <v>9855.469999999999</v>
       </c>
       <c r="E265" t="n">
-        <v>9676.67</v>
-      </c>
-      <c r="G265" s="3">
+        <v>9894.66</v>
+      </c>
+      <c r="G265" s="1">
         <f>AVERAGE(E261:E265)</f>
         <v/>
       </c>
-      <c r="H265" s="3">
+      <c r="H265" s="1">
         <f>AVERAGE(E236:E265)</f>
         <v/>
       </c>
-      <c r="I265" s="3">
+      <c r="I265" s="1">
         <f>G265-H265</f>
         <v/>
       </c>
@@ -9166,26 +9160,26 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>9639.24</v>
+        <v>9869.540000000001</v>
       </c>
       <c r="C266" t="n">
-        <v>9652.190000000001</v>
+        <v>9873.389999999999</v>
       </c>
       <c r="D266" t="n">
-        <v>9625.309999999999</v>
+        <v>9828.030000000001</v>
       </c>
       <c r="E266" t="n">
-        <v>9646.16</v>
-      </c>
-      <c r="G266" s="3">
+        <v>9846.4</v>
+      </c>
+      <c r="G266" s="1">
         <f>AVERAGE(E262:E266)</f>
         <v/>
       </c>
-      <c r="H266" s="3">
+      <c r="H266" s="1">
         <f>AVERAGE(E237:E266)</f>
         <v/>
       </c>
-      <c r="I266" s="3">
+      <c r="I266" s="1">
         <f>G266-H266</f>
         <v/>
       </c>
@@ -9195,26 +9189,26 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>9646.530000000001</v>
+        <v>9865</v>
       </c>
       <c r="C267" t="n">
-        <v>9658.950000000001</v>
+        <v>9892.82</v>
       </c>
       <c r="D267" t="n">
-        <v>9613.290000000001</v>
+        <v>9847.32</v>
       </c>
       <c r="E267" t="n">
-        <v>9639.700000000001</v>
-      </c>
-      <c r="G267" s="3">
+        <v>9877.120000000001</v>
+      </c>
+      <c r="G267" s="1">
         <f>AVERAGE(E263:E267)</f>
         <v/>
       </c>
-      <c r="H267" s="3">
+      <c r="H267" s="1">
         <f>AVERAGE(E238:E267)</f>
         <v/>
       </c>
-      <c r="I267" s="3">
+      <c r="I267" s="1">
         <f>G267-H267</f>
         <v/>
       </c>
@@ -9224,26 +9218,26 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>9559.700000000001</v>
+        <v>9923.389999999999</v>
       </c>
       <c r="C268" t="n">
-        <v>9559.700000000001</v>
+        <v>9980.08</v>
       </c>
       <c r="D268" t="n">
-        <v>9479.059999999999</v>
+        <v>9918.209999999999</v>
       </c>
       <c r="E268" t="n">
-        <v>9527.09</v>
-      </c>
-      <c r="G268" s="3">
+        <v>9969.610000000001</v>
+      </c>
+      <c r="G268" s="1">
         <f>AVERAGE(E264:E268)</f>
         <v/>
       </c>
-      <c r="H268" s="3">
+      <c r="H268" s="1">
         <f>AVERAGE(E239:E268)</f>
         <v/>
       </c>
-      <c r="I268" s="3">
+      <c r="I268" s="1">
         <f>G268-H268</f>
         <v/>
       </c>
@@ -9253,26 +9247,26 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>9544.870000000001</v>
+        <v>10006.46</v>
       </c>
       <c r="C269" t="n">
-        <v>9591.91</v>
+        <v>10020.6</v>
       </c>
       <c r="D269" t="n">
-        <v>9473.299999999999</v>
+        <v>9990.07</v>
       </c>
       <c r="E269" t="n">
-        <v>9478.99</v>
-      </c>
-      <c r="G269" s="3">
+        <v>10013.33</v>
+      </c>
+      <c r="G269" s="1">
         <f>AVERAGE(E265:E269)</f>
         <v/>
       </c>
-      <c r="H269" s="3">
+      <c r="H269" s="1">
         <f>AVERAGE(E240:E269)</f>
         <v/>
       </c>
-      <c r="I269" s="3">
+      <c r="I269" s="1">
         <f>G269-H269</f>
         <v/>
       </c>
@@ -9282,26 +9276,26 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>9555.01</v>
+        <v>9944.709999999999</v>
       </c>
       <c r="C270" t="n">
-        <v>9670.969999999999</v>
+        <v>9952.34</v>
       </c>
       <c r="D270" t="n">
-        <v>9555.01</v>
+        <v>9893.959999999999</v>
       </c>
       <c r="E270" t="n">
-        <v>9641.559999999999</v>
-      </c>
-      <c r="G270" s="3">
+        <v>9931.59</v>
+      </c>
+      <c r="G270" s="1">
         <f>AVERAGE(E266:E270)</f>
         <v/>
       </c>
-      <c r="H270" s="3">
+      <c r="H270" s="1">
         <f>AVERAGE(E241:E270)</f>
         <v/>
       </c>
-      <c r="I270" s="3">
+      <c r="I270" s="1">
         <f>G270-H270</f>
         <v/>
       </c>
@@ -9311,26 +9305,26 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>9649.969999999999</v>
+        <v>9915.969999999999</v>
       </c>
       <c r="C271" t="n">
-        <v>9727.41</v>
+        <v>9959.030000000001</v>
       </c>
       <c r="D271" t="n">
-        <v>9630.77</v>
+        <v>9909.809999999999</v>
       </c>
       <c r="E271" t="n">
-        <v>9727.41</v>
-      </c>
-      <c r="G271" s="3">
+        <v>9932.26</v>
+      </c>
+      <c r="G271" s="1">
         <f>AVERAGE(E267:E271)</f>
         <v/>
       </c>
-      <c r="H271" s="3">
+      <c r="H271" s="1">
         <f>AVERAGE(E242:E271)</f>
         <v/>
       </c>
-      <c r="I271" s="3">
+      <c r="I271" s="1">
         <f>G271-H271</f>
         <v/>
       </c>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -40,45 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2017/12/28</t>
-  </si>
-  <si>
-    <t>2017/12/29</t>
-  </si>
-  <si>
-    <t>2018/01/02</t>
-  </si>
-  <si>
-    <t>2018/01/03</t>
-  </si>
-  <si>
-    <t>2018/01/04</t>
-  </si>
-  <si>
-    <t>2018/01/05</t>
-  </si>
-  <si>
-    <t>2018/01/08</t>
-  </si>
-  <si>
-    <t>2018/01/09</t>
-  </si>
-  <si>
-    <t>2018/01/10</t>
-  </si>
-  <si>
-    <t>2018/01/11</t>
-  </si>
-  <si>
-    <t>2018/01/12</t>
-  </si>
-  <si>
-    <t>2018/01/15</t>
-  </si>
-  <si>
-    <t>2018/01/16</t>
-  </si>
-  <si>
     <t>2018/01/17</t>
   </si>
   <si>
@@ -848,6 +809,45 @@
   </si>
   <si>
     <t>2019/01/30</t>
+  </si>
+  <si>
+    <t>2019/02/11</t>
+  </si>
+  <si>
+    <t>2019/02/12</t>
+  </si>
+  <si>
+    <t>2019/02/13</t>
+  </si>
+  <si>
+    <t>2019/02/14</t>
+  </si>
+  <si>
+    <t>2019/02/15</t>
+  </si>
+  <si>
+    <t>2019/02/18</t>
+  </si>
+  <si>
+    <t>2019/02/19</t>
+  </si>
+  <si>
+    <t>2019/02/20</t>
+  </si>
+  <si>
+    <t>2019/02/21</t>
+  </si>
+  <si>
+    <t>2019/02/22</t>
+  </si>
+  <si>
+    <t>2019/02/25</t>
+  </si>
+  <si>
+    <t>2019/02/26</t>
+  </si>
+  <si>
+    <t>2019/02/27</t>
   </si>
 </sst>
 </file>
@@ -1752,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10513.29</v>
+        <v>10976.13</v>
       </c>
       <c r="C2" t="n">
-        <v>10592.04</v>
+        <v>11030.22</v>
       </c>
       <c r="D2" t="n">
-        <v>10513.29</v>
+        <v>10942.95</v>
       </c>
       <c r="E2" t="n">
-        <v>10567.64</v>
+        <v>11004.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1769,16 +1769,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>10590.95</v>
+        <v>11048.06</v>
       </c>
       <c r="C3" t="n">
-        <v>10659.98</v>
+        <v>11122.82</v>
       </c>
       <c r="D3" t="n">
-        <v>10590.95</v>
+        <v>11048.06</v>
       </c>
       <c r="E3" t="n">
-        <v>10642.86</v>
+        <v>11071.57</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1786,16 +1786,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10664.82</v>
+        <v>11123.58</v>
       </c>
       <c r="C4" t="n">
-        <v>10710.73</v>
+        <v>11150.85</v>
       </c>
       <c r="D4" t="n">
-        <v>10650.77</v>
+        <v>11095.85</v>
       </c>
       <c r="E4" t="n">
-        <v>10710.73</v>
+        <v>11150.85</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1803,16 +1803,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>10759.61</v>
+        <v>11169.79</v>
       </c>
       <c r="C5" t="n">
-        <v>10813.16</v>
+        <v>11231.46</v>
       </c>
       <c r="D5" t="n">
-        <v>10759.61</v>
+        <v>11142.38</v>
       </c>
       <c r="E5" t="n">
-        <v>10801.57</v>
+        <v>11231.46</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1820,16 +1820,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>10834.58</v>
+        <v>11243.49</v>
       </c>
       <c r="C6" t="n">
-        <v>10853.46</v>
+        <v>11270.18</v>
       </c>
       <c r="D6" t="n">
-        <v>10794.25</v>
+        <v>11201.52</v>
       </c>
       <c r="E6" t="n">
-        <v>10848.63</v>
+        <v>11253.11</v>
       </c>
       <c r="G6" s="1">
         <f>AVERAGE(E2:E6)</f>
@@ -1841,16 +1841,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>10856.92</v>
+        <v>11228.71</v>
       </c>
       <c r="C7" t="n">
-        <v>10879.8</v>
+        <v>11228.71</v>
       </c>
       <c r="D7" t="n">
-        <v>10815.68</v>
+        <v>11107.32</v>
       </c>
       <c r="E7" t="n">
-        <v>10879.8</v>
+        <v>11152.16</v>
       </c>
       <c r="G7" s="1">
         <f>AVERAGE(E3:E7)</f>
@@ -1862,16 +1862,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10899.09</v>
+        <v>11154.36</v>
       </c>
       <c r="C8" t="n">
-        <v>10918.47</v>
+        <v>11268.61</v>
       </c>
       <c r="D8" t="n">
-        <v>10869.12</v>
+        <v>11131.85</v>
       </c>
       <c r="E8" t="n">
-        <v>10915.75</v>
+        <v>11165.95</v>
       </c>
       <c r="G8" s="1">
         <f>AVERAGE(E4:E8)</f>
@@ -1883,16 +1883,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>10922.35</v>
+        <v>11152.53</v>
       </c>
       <c r="C9" t="n">
-        <v>10931</v>
+        <v>11178.3</v>
       </c>
       <c r="D9" t="n">
-        <v>10860.77</v>
+        <v>11089.48</v>
       </c>
       <c r="E9" t="n">
-        <v>10914.89</v>
+        <v>11147.1</v>
       </c>
       <c r="G9" s="1">
         <f>AVERAGE(E5:E9)</f>
@@ -1904,16 +1904,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>10915.32</v>
+        <v>11202.27</v>
       </c>
       <c r="C10" t="n">
-        <v>10934.75</v>
+        <v>11246.18</v>
       </c>
       <c r="D10" t="n">
-        <v>10819.25</v>
+        <v>11161.83</v>
       </c>
       <c r="E10" t="n">
-        <v>10831.09</v>
+        <v>11221.81</v>
       </c>
       <c r="G10" s="1">
         <f>AVERAGE(E6:E10)</f>
@@ -1925,16 +1925,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>10824.54</v>
+        <v>11189.57</v>
       </c>
       <c r="C11" t="n">
-        <v>10844.08</v>
+        <v>11189.57</v>
       </c>
       <c r="D11" t="n">
-        <v>10770.1</v>
+        <v>11076.78</v>
       </c>
       <c r="E11" t="n">
-        <v>10810.06</v>
+        <v>11076.78</v>
       </c>
       <c r="G11" s="1">
         <f>AVERAGE(E7:E11)</f>
@@ -1946,16 +1946,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>10818.24</v>
+        <v>11054.36</v>
       </c>
       <c r="C12" t="n">
-        <v>10899.98</v>
+        <v>11158.29</v>
       </c>
       <c r="D12" t="n">
-        <v>10818.24</v>
+        <v>11007.89</v>
       </c>
       <c r="E12" t="n">
-        <v>10883.96</v>
+        <v>11103.79</v>
       </c>
       <c r="G12" s="1">
         <f>AVERAGE(E8:E12)</f>
@@ -1967,16 +1967,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>10932.37</v>
+        <v>11139.4</v>
       </c>
       <c r="C13" t="n">
-        <v>10962.55</v>
+        <v>11212.1</v>
       </c>
       <c r="D13" t="n">
-        <v>10911.89</v>
+        <v>11139.4</v>
       </c>
       <c r="E13" t="n">
-        <v>10956.31</v>
+        <v>11160.25</v>
       </c>
       <c r="G13" s="1">
         <f>AVERAGE(E9:E13)</f>
@@ -1988,16 +1988,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>10955.81</v>
+        <v>11151.65</v>
       </c>
       <c r="C14" t="n">
-        <v>10986.11</v>
+        <v>11153.32</v>
       </c>
       <c r="D14" t="n">
-        <v>10920.5</v>
+        <v>11070.43</v>
       </c>
       <c r="E14" t="n">
-        <v>10986.11</v>
+        <v>11126.23</v>
       </c>
       <c r="G14" s="1">
         <f>AVERAGE(E10:E14)</f>
@@ -2009,16 +2009,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>10976.13</v>
+        <v>10970.3</v>
       </c>
       <c r="C15" t="n">
-        <v>11030.22</v>
+        <v>10970.3</v>
       </c>
       <c r="D15" t="n">
-        <v>10942.95</v>
+        <v>10855.43</v>
       </c>
       <c r="E15" t="n">
-        <v>11004.8</v>
+        <v>10946.25</v>
       </c>
       <c r="G15" s="1">
         <f>AVERAGE(E11:E15)</f>
@@ -2030,16 +2030,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>11048.06</v>
+        <v>10761.01</v>
       </c>
       <c r="C16" t="n">
-        <v>11122.82</v>
+        <v>10761.01</v>
       </c>
       <c r="D16" t="n">
-        <v>11048.06</v>
+        <v>10300.4</v>
       </c>
       <c r="E16" t="n">
-        <v>11071.57</v>
+        <v>10404</v>
       </c>
       <c r="G16" s="1">
         <f>AVERAGE(E12:E16)</f>
@@ -2051,16 +2051,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>11123.58</v>
+        <v>10547.64</v>
       </c>
       <c r="C17" t="n">
-        <v>11150.85</v>
+        <v>10697.82</v>
       </c>
       <c r="D17" t="n">
-        <v>11095.85</v>
+        <v>10547.64</v>
       </c>
       <c r="E17" t="n">
-        <v>11150.85</v>
+        <v>10551.54</v>
       </c>
       <c r="G17" s="1">
         <f>AVERAGE(E13:E17)</f>
@@ -2072,16 +2072,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>11169.79</v>
+        <v>10559.44</v>
       </c>
       <c r="C18" t="n">
-        <v>11231.46</v>
+        <v>10609.5</v>
       </c>
       <c r="D18" t="n">
-        <v>11142.38</v>
+        <v>10512.93</v>
       </c>
       <c r="E18" t="n">
-        <v>11231.46</v>
+        <v>10528.52</v>
       </c>
       <c r="G18" s="1">
         <f>AVERAGE(E14:E18)</f>
@@ -2093,16 +2093,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>11243.49</v>
+        <v>10371.01</v>
       </c>
       <c r="C19" t="n">
-        <v>11270.18</v>
+        <v>10392.31</v>
       </c>
       <c r="D19" t="n">
-        <v>11201.52</v>
+        <v>10189.04</v>
       </c>
       <c r="E19" t="n">
-        <v>11253.11</v>
+        <v>10371.75</v>
       </c>
       <c r="G19" s="1">
         <f>AVERAGE(E15:E19)</f>
@@ -2114,16 +2114,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>11228.71</v>
+        <v>10429.09</v>
       </c>
       <c r="C20" t="n">
-        <v>11228.71</v>
+        <v>10473.51</v>
       </c>
       <c r="D20" t="n">
-        <v>11107.32</v>
+        <v>10416.01</v>
       </c>
       <c r="E20" t="n">
-        <v>11152.16</v>
+        <v>10421.09</v>
       </c>
       <c r="G20" s="1">
         <f>AVERAGE(E16:E20)</f>
@@ -2135,16 +2135,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>11154.36</v>
+        <v>10559.79</v>
       </c>
       <c r="C21" t="n">
-        <v>11268.61</v>
+        <v>10720.48</v>
       </c>
       <c r="D21" t="n">
-        <v>11131.85</v>
+        <v>10559.79</v>
       </c>
       <c r="E21" t="n">
-        <v>11165.95</v>
+        <v>10714.44</v>
       </c>
       <c r="G21" s="1">
         <f>AVERAGE(E17:E21)</f>
@@ -2156,16 +2156,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>11152.53</v>
+        <v>10698.47</v>
       </c>
       <c r="C22" t="n">
-        <v>11178.3</v>
+        <v>10698.47</v>
       </c>
       <c r="D22" t="n">
-        <v>11089.48</v>
+        <v>10620.8</v>
       </c>
       <c r="E22" t="n">
-        <v>11147.1</v>
+        <v>10662.38</v>
       </c>
       <c r="G22" s="1">
         <f>AVERAGE(E18:E22)</f>
@@ -2177,16 +2177,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>11202.27</v>
+        <v>10688.97</v>
       </c>
       <c r="C23" t="n">
-        <v>11246.18</v>
+        <v>10799.29</v>
       </c>
       <c r="D23" t="n">
-        <v>11161.83</v>
+        <v>10688.97</v>
       </c>
       <c r="E23" t="n">
-        <v>11221.81</v>
+        <v>10794.55</v>
       </c>
       <c r="G23" s="1">
         <f>AVERAGE(E19:E23)</f>
@@ -2198,16 +2198,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>11189.57</v>
+        <v>10827.98</v>
       </c>
       <c r="C24" t="n">
-        <v>11189.57</v>
+        <v>10890.69</v>
       </c>
       <c r="D24" t="n">
-        <v>11076.78</v>
+        <v>10827.98</v>
       </c>
       <c r="E24" t="n">
-        <v>11076.78</v>
+        <v>10836.7</v>
       </c>
       <c r="G24" s="1">
         <f>AVERAGE(E20:E24)</f>
@@ -2219,16 +2219,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>11054.36</v>
+        <v>10896.16</v>
       </c>
       <c r="C25" t="n">
-        <v>11158.29</v>
+        <v>10937.9</v>
       </c>
       <c r="D25" t="n">
-        <v>11007.89</v>
+        <v>10815.47</v>
       </c>
       <c r="E25" t="n">
-        <v>11103.79</v>
+        <v>10815.47</v>
       </c>
       <c r="G25" s="1">
         <f>AVERAGE(E21:E25)</f>
@@ -2240,16 +2240,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>11139.4</v>
+        <v>10779.1</v>
       </c>
       <c r="C26" t="n">
-        <v>11212.1</v>
+        <v>10805.55</v>
       </c>
       <c r="D26" t="n">
-        <v>11139.4</v>
+        <v>10709.69</v>
       </c>
       <c r="E26" t="n">
-        <v>11160.25</v>
+        <v>10785.79</v>
       </c>
       <c r="G26" s="1">
         <f>AVERAGE(E22:E26)</f>
@@ -2261,16 +2261,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>11151.65</v>
+        <v>10719.29</v>
       </c>
       <c r="C27" t="n">
-        <v>11153.32</v>
+        <v>10719.29</v>
       </c>
       <c r="D27" t="n">
-        <v>11070.43</v>
+        <v>10638.98</v>
       </c>
       <c r="E27" t="n">
-        <v>11126.23</v>
+        <v>10698.17</v>
       </c>
       <c r="G27" s="1">
         <f>AVERAGE(E23:E27)</f>
@@ -2282,16 +2282,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10970.3</v>
+        <v>10727.45</v>
       </c>
       <c r="C28" t="n">
-        <v>10970.3</v>
+        <v>10756.37</v>
       </c>
       <c r="D28" t="n">
-        <v>10855.43</v>
+        <v>10642.9</v>
       </c>
       <c r="E28" t="n">
-        <v>10946.25</v>
+        <v>10642.9</v>
       </c>
       <c r="G28" s="1">
         <f>AVERAGE(E24:E28)</f>
@@ -2303,16 +2303,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10761.01</v>
+        <v>10711.15</v>
       </c>
       <c r="C29" t="n">
-        <v>10761.01</v>
+        <v>10784.34</v>
       </c>
       <c r="D29" t="n">
-        <v>10300.4</v>
+        <v>10711.15</v>
       </c>
       <c r="E29" t="n">
-        <v>10404</v>
+        <v>10784.34</v>
       </c>
       <c r="G29" s="1">
         <f>AVERAGE(E25:E29)</f>
@@ -2324,16 +2324,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10547.64</v>
+        <v>10762.99</v>
       </c>
       <c r="C30" t="n">
-        <v>10697.82</v>
+        <v>10818.05</v>
       </c>
       <c r="D30" t="n">
-        <v>10547.64</v>
+        <v>10745.32</v>
       </c>
       <c r="E30" t="n">
-        <v>10551.54</v>
+        <v>10745.32</v>
       </c>
       <c r="G30" s="1">
         <f>AVERAGE(E26:E30)</f>
@@ -2345,16 +2345,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10559.44</v>
+        <v>10788.43</v>
       </c>
       <c r="C31" t="n">
-        <v>10609.5</v>
+        <v>10852.33</v>
       </c>
       <c r="D31" t="n">
-        <v>10512.93</v>
+        <v>10788.43</v>
       </c>
       <c r="E31" t="n">
-        <v>10528.52</v>
+        <v>10823.24</v>
       </c>
       <c r="G31" s="1">
         <f>AVERAGE(E27:E31)</f>
@@ -2374,16 +2374,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10371.01</v>
+        <v>10847.74</v>
       </c>
       <c r="C32" t="n">
-        <v>10392.31</v>
+        <v>10882.76</v>
       </c>
       <c r="D32" t="n">
-        <v>10189.04</v>
+        <v>10845.38</v>
       </c>
       <c r="E32" t="n">
-        <v>10371.75</v>
+        <v>10864.82</v>
       </c>
       <c r="G32" s="1">
         <f>AVERAGE(E28:E32)</f>
@@ -2403,16 +2403,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10429.09</v>
+        <v>10908.99</v>
       </c>
       <c r="C33" t="n">
-        <v>10473.51</v>
+        <v>11016.56</v>
       </c>
       <c r="D33" t="n">
-        <v>10416.01</v>
+        <v>10908.99</v>
       </c>
       <c r="E33" t="n">
-        <v>10421.09</v>
+        <v>11002.1</v>
       </c>
       <c r="G33" s="1">
         <f>AVERAGE(E29:E33)</f>
@@ -2432,16 +2432,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>10559.79</v>
+        <v>11022.15</v>
       </c>
       <c r="C34" t="n">
-        <v>10720.48</v>
+        <v>11095.63</v>
       </c>
       <c r="D34" t="n">
-        <v>10559.79</v>
+        <v>11014.87</v>
       </c>
       <c r="E34" t="n">
-        <v>10714.44</v>
+        <v>11095.63</v>
       </c>
       <c r="G34" s="1">
         <f>AVERAGE(E30:E34)</f>
@@ -2461,16 +2461,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10698.47</v>
+        <v>11063.73</v>
       </c>
       <c r="C35" t="n">
-        <v>10698.47</v>
+        <v>11070.29</v>
       </c>
       <c r="D35" t="n">
-        <v>10620.8</v>
+        <v>11015.47</v>
       </c>
       <c r="E35" t="n">
-        <v>10662.38</v>
+        <v>11038.8</v>
       </c>
       <c r="G35" s="1">
         <f>AVERAGE(E31:E35)</f>
@@ -2490,16 +2490,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10688.97</v>
+        <v>11039.6</v>
       </c>
       <c r="C36" t="n">
-        <v>10799.29</v>
+        <v>11052.11</v>
       </c>
       <c r="D36" t="n">
-        <v>10688.97</v>
+        <v>11008.18</v>
       </c>
       <c r="E36" t="n">
-        <v>10794.55</v>
+        <v>11018.45</v>
       </c>
       <c r="G36" s="1">
         <f>AVERAGE(E32:E36)</f>
@@ -2519,16 +2519,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>10827.98</v>
+        <v>11010.24</v>
       </c>
       <c r="C37" t="n">
-        <v>10890.69</v>
+        <v>11054.86</v>
       </c>
       <c r="D37" t="n">
-        <v>10827.98</v>
+        <v>10933.46</v>
       </c>
       <c r="E37" t="n">
-        <v>10836.7</v>
+        <v>11027.7</v>
       </c>
       <c r="G37" s="1">
         <f>AVERAGE(E33:E37)</f>
@@ -2548,16 +2548,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>10896.16</v>
+        <v>11004.81</v>
       </c>
       <c r="C38" t="n">
-        <v>10937.9</v>
+        <v>11066</v>
       </c>
       <c r="D38" t="n">
-        <v>10815.47</v>
+        <v>10983.25</v>
       </c>
       <c r="E38" t="n">
-        <v>10815.47</v>
+        <v>11046.9</v>
       </c>
       <c r="G38" s="1">
         <f>AVERAGE(E34:E38)</f>
@@ -2577,16 +2577,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10779.1</v>
+        <v>11016.85</v>
       </c>
       <c r="C39" t="n">
-        <v>10805.55</v>
+        <v>11020.78</v>
       </c>
       <c r="D39" t="n">
-        <v>10709.69</v>
+        <v>10981.04</v>
       </c>
       <c r="E39" t="n">
-        <v>10785.79</v>
+        <v>11010.84</v>
       </c>
       <c r="G39" s="1">
         <f>AVERAGE(E35:E39)</f>
@@ -2606,16 +2606,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>10719.29</v>
+        <v>11037.35</v>
       </c>
       <c r="C40" t="n">
-        <v>10719.29</v>
+        <v>11072.31</v>
       </c>
       <c r="D40" t="n">
-        <v>10638.98</v>
+        <v>11011.07</v>
       </c>
       <c r="E40" t="n">
-        <v>10698.17</v>
+        <v>11011.07</v>
       </c>
       <c r="G40" s="1">
         <f>AVERAGE(E36:E40)</f>
@@ -2635,16 +2635,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10727.45</v>
+        <v>11045.9</v>
       </c>
       <c r="C41" t="n">
-        <v>10756.37</v>
+        <v>11120.2</v>
       </c>
       <c r="D41" t="n">
-        <v>10642.9</v>
+        <v>10975.33</v>
       </c>
       <c r="E41" t="n">
-        <v>10642.9</v>
+        <v>11005.84</v>
       </c>
       <c r="G41" s="1">
         <f>AVERAGE(E37:E41)</f>
@@ -2664,16 +2664,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10711.15</v>
+        <v>10863.67</v>
       </c>
       <c r="C42" t="n">
-        <v>10784.34</v>
+        <v>10863.67</v>
       </c>
       <c r="D42" t="n">
-        <v>10711.15</v>
+        <v>10758.06</v>
       </c>
       <c r="E42" t="n">
-        <v>10784.34</v>
+        <v>10823.33</v>
       </c>
       <c r="G42" s="1">
         <f>AVERAGE(E38:E42)</f>
@@ -2693,16 +2693,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10762.99</v>
+        <v>10783.57</v>
       </c>
       <c r="C43" t="n">
-        <v>10818.05</v>
+        <v>10840.05</v>
       </c>
       <c r="D43" t="n">
-        <v>10745.32</v>
+        <v>10781.43</v>
       </c>
       <c r="E43" t="n">
-        <v>10745.32</v>
+        <v>10840.05</v>
       </c>
       <c r="G43" s="1">
         <f>AVERAGE(E39:E43)</f>
@@ -2722,16 +2722,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10788.43</v>
+        <v>10901.69</v>
       </c>
       <c r="C44" t="n">
-        <v>10852.33</v>
+        <v>10986.79</v>
       </c>
       <c r="D44" t="n">
-        <v>10788.43</v>
+        <v>10901.69</v>
       </c>
       <c r="E44" t="n">
-        <v>10823.24</v>
+        <v>10986.79</v>
       </c>
       <c r="G44" s="1">
         <f>AVERAGE(E40:E44)</f>
@@ -2751,16 +2751,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10847.74</v>
+        <v>10939.97</v>
       </c>
       <c r="C45" t="n">
-        <v>10882.76</v>
+        <v>10939.97</v>
       </c>
       <c r="D45" t="n">
-        <v>10845.38</v>
+        <v>10853.48</v>
       </c>
       <c r="E45" t="n">
-        <v>10864.82</v>
+        <v>10865.66</v>
       </c>
       <c r="G45" s="1">
         <f>AVERAGE(E41:E45)</f>
@@ -2780,16 +2780,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10908.99</v>
+        <v>10855.66</v>
       </c>
       <c r="C46" t="n">
-        <v>11016.56</v>
+        <v>10889.6</v>
       </c>
       <c r="D46" t="n">
-        <v>10908.99</v>
+        <v>10815.46</v>
       </c>
       <c r="E46" t="n">
-        <v>11002.1</v>
+        <v>10845.92</v>
       </c>
       <c r="G46" s="1">
         <f>AVERAGE(E42:E46)</f>
@@ -2809,16 +2809,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>11022.15</v>
+        <v>10905.3</v>
       </c>
       <c r="C47" t="n">
-        <v>11095.63</v>
+        <v>10969.22</v>
       </c>
       <c r="D47" t="n">
-        <v>11014.87</v>
+        <v>10905.3</v>
       </c>
       <c r="E47" t="n">
-        <v>11095.63</v>
+        <v>10906.22</v>
       </c>
       <c r="G47" s="1">
         <f>AVERAGE(E43:E47)</f>
@@ -2838,16 +2838,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>11063.73</v>
+        <v>10925.71</v>
       </c>
       <c r="C48" t="n">
-        <v>11070.29</v>
+        <v>10947.16</v>
       </c>
       <c r="D48" t="n">
-        <v>11015.47</v>
+        <v>10905.69</v>
       </c>
       <c r="E48" t="n">
-        <v>11038.8</v>
+        <v>10919.49</v>
       </c>
       <c r="G48" s="1">
         <f>AVERAGE(E44:E48)</f>
@@ -2867,16 +2867,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>11039.6</v>
+        <v>10936.26</v>
       </c>
       <c r="C49" t="n">
-        <v>11052.11</v>
+        <v>10969.88</v>
       </c>
       <c r="D49" t="n">
-        <v>11008.18</v>
+        <v>10882.05</v>
       </c>
       <c r="E49" t="n">
-        <v>11018.45</v>
+        <v>10888.27</v>
       </c>
       <c r="G49" s="1">
         <f>AVERAGE(E45:E49)</f>
@@ -2896,16 +2896,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>11010.24</v>
+        <v>10837.54</v>
       </c>
       <c r="C50" t="n">
-        <v>11054.86</v>
+        <v>10837.54</v>
       </c>
       <c r="D50" t="n">
-        <v>10933.46</v>
+        <v>10775.45</v>
       </c>
       <c r="E50" t="n">
-        <v>11027.7</v>
+        <v>10821.53</v>
       </c>
       <c r="G50" s="1">
         <f>AVERAGE(E46:E50)</f>
@@ -2925,16 +2925,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>11004.81</v>
+        <v>10880.14</v>
       </c>
       <c r="C51" t="n">
-        <v>11066</v>
+        <v>10904.75</v>
       </c>
       <c r="D51" t="n">
-        <v>10983.25</v>
+        <v>10829.02</v>
       </c>
       <c r="E51" t="n">
-        <v>11046.9</v>
+        <v>10893.53</v>
       </c>
       <c r="G51" s="1">
         <f>AVERAGE(E47:E51)</f>
@@ -2954,16 +2954,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>11016.85</v>
+        <v>10885.64</v>
       </c>
       <c r="C52" t="n">
-        <v>11020.78</v>
+        <v>10975.67</v>
       </c>
       <c r="D52" t="n">
-        <v>10981.04</v>
+        <v>10874.83</v>
       </c>
       <c r="E52" t="n">
-        <v>11010.84</v>
+        <v>10927.18</v>
       </c>
       <c r="G52" s="1">
         <f>AVERAGE(E48:E52)</f>
@@ -2983,16 +2983,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>11037.35</v>
+        <v>10961.7</v>
       </c>
       <c r="C53" t="n">
-        <v>11072.31</v>
+        <v>11016.35</v>
       </c>
       <c r="D53" t="n">
-        <v>11011.07</v>
+        <v>10953.31</v>
       </c>
       <c r="E53" t="n">
-        <v>11011.07</v>
+        <v>10974.02</v>
       </c>
       <c r="G53" s="1">
         <f>AVERAGE(E49:E53)</f>
@@ -3012,16 +3012,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>11045.9</v>
+        <v>10984.12</v>
       </c>
       <c r="C54" t="n">
-        <v>11120.2</v>
+        <v>11008.2</v>
       </c>
       <c r="D54" t="n">
-        <v>10975.33</v>
+        <v>10920.62</v>
       </c>
       <c r="E54" t="n">
-        <v>11005.84</v>
+        <v>10955.29</v>
       </c>
       <c r="G54" s="1">
         <f>AVERAGE(E50:E54)</f>
@@ -3041,16 +3041,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10863.67</v>
+        <v>10975.58</v>
       </c>
       <c r="C55" t="n">
-        <v>10863.67</v>
+        <v>10988.23</v>
       </c>
       <c r="D55" t="n">
-        <v>10758.06</v>
+        <v>10938.37</v>
       </c>
       <c r="E55" t="n">
-        <v>10823.33</v>
+        <v>10965.39</v>
       </c>
       <c r="G55" s="1">
         <f>AVERAGE(E51:E55)</f>
@@ -3070,16 +3070,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10783.57</v>
+        <v>10962.36</v>
       </c>
       <c r="C56" t="n">
-        <v>10840.05</v>
+        <v>10974.94</v>
       </c>
       <c r="D56" t="n">
-        <v>10781.43</v>
+        <v>10921.17</v>
       </c>
       <c r="E56" t="n">
-        <v>10840.05</v>
+        <v>10954.55</v>
       </c>
       <c r="G56" s="1">
         <f>AVERAGE(E52:E56)</f>
@@ -3099,16 +3099,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10901.69</v>
+        <v>10953.51</v>
       </c>
       <c r="C57" t="n">
-        <v>10986.79</v>
+        <v>10965.2</v>
       </c>
       <c r="D57" t="n">
-        <v>10901.69</v>
+        <v>10799.07</v>
       </c>
       <c r="E57" t="n">
-        <v>10986.79</v>
+        <v>10810.45</v>
       </c>
       <c r="G57" s="1">
         <f>AVERAGE(E53:E57)</f>
@@ -3128,16 +3128,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10939.97</v>
+        <v>10842.88</v>
       </c>
       <c r="C58" t="n">
-        <v>10939.97</v>
+        <v>10917.6</v>
       </c>
       <c r="D58" t="n">
-        <v>10853.48</v>
+        <v>10809.89</v>
       </c>
       <c r="E58" t="n">
-        <v>10865.66</v>
+        <v>10847.89</v>
       </c>
       <c r="G58" s="1">
         <f>AVERAGE(E54:E58)</f>
@@ -3157,16 +3157,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10855.66</v>
+        <v>10891.66</v>
       </c>
       <c r="C59" t="n">
-        <v>10889.6</v>
+        <v>10983.96</v>
       </c>
       <c r="D59" t="n">
-        <v>10815.46</v>
+        <v>10889.71</v>
       </c>
       <c r="E59" t="n">
-        <v>10845.92</v>
+        <v>10971.22</v>
       </c>
       <c r="G59" s="1">
         <f>AVERAGE(E55:E59)</f>
@@ -3186,16 +3186,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10905.3</v>
+        <v>10802.42</v>
       </c>
       <c r="C60" t="n">
-        <v>10969.22</v>
+        <v>10831.56</v>
       </c>
       <c r="D60" t="n">
-        <v>10905.3</v>
+        <v>10770.05</v>
       </c>
       <c r="E60" t="n">
-        <v>10906.22</v>
+        <v>10779.38</v>
       </c>
       <c r="G60" s="1">
         <f>AVERAGE(E56:E60)</f>
@@ -3215,16 +3215,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10925.71</v>
+        <v>10756.89</v>
       </c>
       <c r="C61" t="n">
-        <v>10947.16</v>
+        <v>10774.73</v>
       </c>
       <c r="D61" t="n">
-        <v>10905.69</v>
+        <v>10687.25</v>
       </c>
       <c r="E61" t="n">
-        <v>10919.49</v>
+        <v>10697.13</v>
       </c>
       <c r="G61" s="1">
         <f>AVERAGE(E57:E61)</f>
@@ -3244,16 +3244,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10936.26</v>
+        <v>10680.38</v>
       </c>
       <c r="C62" t="n">
-        <v>10969.88</v>
+        <v>10692.19</v>
       </c>
       <c r="D62" t="n">
-        <v>10882.05</v>
+        <v>10540.15</v>
       </c>
       <c r="E62" t="n">
-        <v>10888.27</v>
+        <v>10579.5</v>
       </c>
       <c r="G62" s="1">
         <f>AVERAGE(E58:E62)</f>
@@ -3273,16 +3273,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10837.54</v>
+        <v>10541.83</v>
       </c>
       <c r="C63" t="n">
-        <v>10837.54</v>
+        <v>10573.73</v>
       </c>
       <c r="D63" t="n">
-        <v>10775.45</v>
+        <v>10489.2</v>
       </c>
       <c r="E63" t="n">
-        <v>10821.53</v>
+        <v>10559.97</v>
       </c>
       <c r="G63" s="1">
         <f>AVERAGE(E59:E63)</f>
@@ -3302,16 +3302,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10880.14</v>
+        <v>10583.08</v>
       </c>
       <c r="C64" t="n">
-        <v>10904.75</v>
+        <v>10618.68</v>
       </c>
       <c r="D64" t="n">
-        <v>10829.02</v>
+        <v>10478.98</v>
       </c>
       <c r="E64" t="n">
-        <v>10893.53</v>
+        <v>10488.58</v>
       </c>
       <c r="G64" s="1">
         <f>AVERAGE(E60:E64)</f>
@@ -3331,16 +3331,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10885.64</v>
+        <v>10546.29</v>
       </c>
       <c r="C65" t="n">
-        <v>10975.67</v>
+        <v>10573.61</v>
       </c>
       <c r="D65" t="n">
-        <v>10874.83</v>
+        <v>10495.67</v>
       </c>
       <c r="E65" t="n">
-        <v>10927.18</v>
+        <v>10553.43</v>
       </c>
       <c r="G65" s="1">
         <f>AVERAGE(E61:E65)</f>
@@ -3360,16 +3360,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10961.7</v>
+        <v>10553.41</v>
       </c>
       <c r="C66" t="n">
-        <v>11016.35</v>
+        <v>10660.61</v>
       </c>
       <c r="D66" t="n">
-        <v>10953.31</v>
+        <v>10539.63</v>
       </c>
       <c r="E66" t="n">
-        <v>10974.02</v>
+        <v>10657.88</v>
       </c>
       <c r="G66" s="1">
         <f>AVERAGE(E62:E66)</f>
@@ -3389,16 +3389,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10984.12</v>
+        <v>10665.52</v>
       </c>
       <c r="C67" t="n">
-        <v>11008.2</v>
+        <v>10683.9</v>
       </c>
       <c r="D67" t="n">
-        <v>10920.62</v>
+        <v>10601.1</v>
       </c>
       <c r="E67" t="n">
-        <v>10955.29</v>
+        <v>10618.81</v>
       </c>
       <c r="G67" s="1">
         <f>AVERAGE(E63:E67)</f>
@@ -3418,16 +3418,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>10975.58</v>
+        <v>10578.98</v>
       </c>
       <c r="C68" t="n">
-        <v>10988.23</v>
+        <v>10578.98</v>
       </c>
       <c r="D68" t="n">
-        <v>10938.37</v>
+        <v>10509.03</v>
       </c>
       <c r="E68" t="n">
-        <v>10965.39</v>
+        <v>10514.18</v>
       </c>
       <c r="G68" s="1">
         <f>AVERAGE(E64:E68)</f>
@@ -3447,16 +3447,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>10962.36</v>
+        <v>10516.45</v>
       </c>
       <c r="C69" t="n">
-        <v>10974.94</v>
+        <v>10566.37</v>
       </c>
       <c r="D69" t="n">
-        <v>10921.17</v>
+        <v>10500.97</v>
       </c>
       <c r="E69" t="n">
-        <v>10954.55</v>
+        <v>10529.37</v>
       </c>
       <c r="G69" s="1">
         <f>AVERAGE(E65:E69)</f>
@@ -3476,16 +3476,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>10953.51</v>
+        <v>10581.78</v>
       </c>
       <c r="C70" t="n">
-        <v>10965.2</v>
+        <v>10632.62</v>
       </c>
       <c r="D70" t="n">
-        <v>10799.07</v>
+        <v>10555.56</v>
       </c>
       <c r="E70" t="n">
-        <v>10810.45</v>
+        <v>10604.91</v>
       </c>
       <c r="G70" s="1">
         <f>AVERAGE(E66:E70)</f>
@@ -3505,16 +3505,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>10842.88</v>
+        <v>10610.44</v>
       </c>
       <c r="C71" t="n">
-        <v>10917.6</v>
+        <v>10691.38</v>
       </c>
       <c r="D71" t="n">
-        <v>10809.89</v>
+        <v>10609.04</v>
       </c>
       <c r="E71" t="n">
-        <v>10847.89</v>
+        <v>10691.38</v>
       </c>
       <c r="G71" s="1">
         <f>AVERAGE(E67:E71)</f>
@@ -3534,16 +3534,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>10891.66</v>
+        <v>10692.89</v>
       </c>
       <c r="C72" t="n">
-        <v>10983.96</v>
+        <v>10748.6</v>
       </c>
       <c r="D72" t="n">
-        <v>10889.71</v>
+        <v>10689.81</v>
       </c>
       <c r="E72" t="n">
-        <v>10971.22</v>
+        <v>10703.35</v>
       </c>
       <c r="G72" s="1">
         <f>AVERAGE(E68:E72)</f>
@@ -3563,16 +3563,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>10802.42</v>
+        <v>10731.68</v>
       </c>
       <c r="C73" t="n">
-        <v>10831.56</v>
+        <v>10782.06</v>
       </c>
       <c r="D73" t="n">
-        <v>10770.05</v>
+        <v>10731.68</v>
       </c>
       <c r="E73" t="n">
-        <v>10779.38</v>
+        <v>10760.21</v>
       </c>
       <c r="G73" s="1">
         <f>AVERAGE(E69:E73)</f>
@@ -3592,16 +3592,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10756.89</v>
+        <v>10808.4</v>
       </c>
       <c r="C74" t="n">
-        <v>10774.73</v>
+        <v>10874.63</v>
       </c>
       <c r="D74" t="n">
-        <v>10687.25</v>
+        <v>10808.4</v>
       </c>
       <c r="E74" t="n">
-        <v>10697.13</v>
+        <v>10858.98</v>
       </c>
       <c r="G74" s="1">
         <f>AVERAGE(E70:E74)</f>
@@ -3621,16 +3621,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10680.38</v>
+        <v>10938.3</v>
       </c>
       <c r="C75" t="n">
-        <v>10692.19</v>
+        <v>10970.24</v>
       </c>
       <c r="D75" t="n">
-        <v>10540.15</v>
+        <v>10908.86</v>
       </c>
       <c r="E75" t="n">
-        <v>10579.5</v>
+        <v>10952.39</v>
       </c>
       <c r="G75" s="1">
         <f>AVERAGE(E71:E75)</f>
@@ -3650,16 +3650,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10541.83</v>
+        <v>10965.08</v>
       </c>
       <c r="C76" t="n">
-        <v>10573.73</v>
+        <v>10978.38</v>
       </c>
       <c r="D76" t="n">
-        <v>10489.2</v>
+        <v>10874.73</v>
       </c>
       <c r="E76" t="n">
-        <v>10559.97</v>
+        <v>10874.73</v>
       </c>
       <c r="G76" s="1">
         <f>AVERAGE(E72:E76)</f>
@@ -3679,16 +3679,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10583.08</v>
+        <v>10873.54</v>
       </c>
       <c r="C77" t="n">
-        <v>10618.68</v>
+        <v>10915.74</v>
       </c>
       <c r="D77" t="n">
-        <v>10478.98</v>
+        <v>10865.07</v>
       </c>
       <c r="E77" t="n">
-        <v>10488.58</v>
+        <v>10897.57</v>
       </c>
       <c r="G77" s="1">
         <f>AVERAGE(E73:E77)</f>
@@ -3708,16 +3708,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10546.29</v>
+        <v>10911.74</v>
       </c>
       <c r="C78" t="n">
-        <v>10573.61</v>
+        <v>10938.63</v>
       </c>
       <c r="D78" t="n">
-        <v>10495.67</v>
+        <v>10833.81</v>
       </c>
       <c r="E78" t="n">
-        <v>10553.43</v>
+        <v>10833.81</v>
       </c>
       <c r="G78" s="1">
         <f>AVERAGE(E74:E78)</f>
@@ -3737,16 +3737,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10553.41</v>
+        <v>10844.09</v>
       </c>
       <c r="C79" t="n">
-        <v>10660.61</v>
+        <v>10893.35</v>
       </c>
       <c r="D79" t="n">
-        <v>10539.63</v>
+        <v>10819.07</v>
       </c>
       <c r="E79" t="n">
-        <v>10657.88</v>
+        <v>10830.84</v>
       </c>
       <c r="G79" s="1">
         <f>AVERAGE(E75:E79)</f>
@@ -3766,16 +3766,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>10665.52</v>
+        <v>10861.66</v>
       </c>
       <c r="C80" t="n">
-        <v>10683.9</v>
+        <v>10979.1</v>
       </c>
       <c r="D80" t="n">
-        <v>10601.1</v>
+        <v>10861.66</v>
       </c>
       <c r="E80" t="n">
-        <v>10618.81</v>
+        <v>10966.2</v>
       </c>
       <c r="G80" s="1">
         <f>AVERAGE(E76:E80)</f>
@@ -3795,16 +3795,16 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10578.98</v>
+        <v>10986.77</v>
       </c>
       <c r="C81" t="n">
-        <v>10578.98</v>
+        <v>11034.12</v>
       </c>
       <c r="D81" t="n">
-        <v>10509.03</v>
+        <v>10938.73</v>
       </c>
       <c r="E81" t="n">
-        <v>10514.18</v>
+        <v>10938.73</v>
       </c>
       <c r="G81" s="1">
         <f>AVERAGE(E77:E81)</f>
@@ -3824,16 +3824,16 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10516.45</v>
+        <v>10974.52</v>
       </c>
       <c r="C82" t="n">
-        <v>10566.37</v>
+        <v>10991.86</v>
       </c>
       <c r="D82" t="n">
-        <v>10500.97</v>
+        <v>10886.18</v>
       </c>
       <c r="E82" t="n">
-        <v>10529.37</v>
+        <v>10886.18</v>
       </c>
       <c r="G82" s="1">
         <f>AVERAGE(E78:E82)</f>
@@ -3853,16 +3853,16 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10581.78</v>
+        <v>10910.61</v>
       </c>
       <c r="C83" t="n">
-        <v>10632.62</v>
+        <v>10942.64</v>
       </c>
       <c r="D83" t="n">
-        <v>10555.56</v>
+        <v>10883.52</v>
       </c>
       <c r="E83" t="n">
-        <v>10604.91</v>
+        <v>10936.93</v>
       </c>
       <c r="G83" s="1">
         <f>AVERAGE(E79:E83)</f>
@@ -3882,16 +3882,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10610.44</v>
+        <v>10946.62</v>
       </c>
       <c r="C84" t="n">
-        <v>10691.38</v>
+        <v>10977.81</v>
       </c>
       <c r="D84" t="n">
-        <v>10609.04</v>
+        <v>10918.12</v>
       </c>
       <c r="E84" t="n">
-        <v>10691.38</v>
+        <v>10942.3</v>
       </c>
       <c r="G84" s="1">
         <f>AVERAGE(E80:E84)</f>
@@ -3911,16 +3911,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10692.89</v>
+        <v>10976.49</v>
       </c>
       <c r="C85" t="n">
-        <v>10748.6</v>
+        <v>10999.43</v>
       </c>
       <c r="D85" t="n">
-        <v>10689.81</v>
+        <v>10965.18</v>
       </c>
       <c r="E85" t="n">
-        <v>10703.35</v>
+        <v>10987.77</v>
       </c>
       <c r="G85" s="1">
         <f>AVERAGE(E81:E85)</f>
@@ -3940,16 +3940,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10731.68</v>
+        <v>10979.68</v>
       </c>
       <c r="C86" t="n">
-        <v>10782.06</v>
+        <v>10986.53</v>
       </c>
       <c r="D86" t="n">
-        <v>10731.68</v>
+        <v>10929.56</v>
       </c>
       <c r="E86" t="n">
-        <v>10760.21</v>
+        <v>10964.12</v>
       </c>
       <c r="G86" s="1">
         <f>AVERAGE(E82:E86)</f>
@@ -3969,16 +3969,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10808.4</v>
+        <v>10925.21</v>
       </c>
       <c r="C87" t="n">
-        <v>10874.63</v>
+        <v>10925.21</v>
       </c>
       <c r="D87" t="n">
-        <v>10808.4</v>
+        <v>10799.75</v>
       </c>
       <c r="E87" t="n">
-        <v>10858.98</v>
+        <v>10821.17</v>
       </c>
       <c r="G87" s="1">
         <f>AVERAGE(E83:E87)</f>
@@ -3998,16 +3998,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10938.3</v>
+        <v>10856.03</v>
       </c>
       <c r="C88" t="n">
-        <v>10970.24</v>
+        <v>10909.61</v>
       </c>
       <c r="D88" t="n">
-        <v>10908.86</v>
+        <v>10853.65</v>
       </c>
       <c r="E88" t="n">
-        <v>10952.39</v>
+        <v>10874.96</v>
       </c>
       <c r="G88" s="1">
         <f>AVERAGE(E84:E88)</f>
@@ -4027,16 +4027,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>10965.08</v>
+        <v>10882.68</v>
       </c>
       <c r="C89" t="n">
-        <v>10978.38</v>
+        <v>10954.67</v>
       </c>
       <c r="D89" t="n">
-        <v>10874.73</v>
+        <v>10876.97</v>
       </c>
       <c r="E89" t="n">
-        <v>10874.73</v>
+        <v>10949.08</v>
       </c>
       <c r="G89" s="1">
         <f>AVERAGE(E85:E89)</f>
@@ -4056,16 +4056,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>10873.54</v>
+        <v>11002.15</v>
       </c>
       <c r="C90" t="n">
-        <v>10915.74</v>
+        <v>11109.5</v>
       </c>
       <c r="D90" t="n">
-        <v>10865.07</v>
+        <v>11002.15</v>
       </c>
       <c r="E90" t="n">
-        <v>10897.57</v>
+        <v>11109.5</v>
       </c>
       <c r="G90" s="1">
         <f>AVERAGE(E86:E90)</f>
@@ -4085,16 +4085,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>10911.74</v>
+        <v>11130.03</v>
       </c>
       <c r="C91" t="n">
-        <v>10938.63</v>
+        <v>11131.08</v>
       </c>
       <c r="D91" t="n">
-        <v>10833.81</v>
+        <v>11054.62</v>
       </c>
       <c r="E91" t="n">
-        <v>10833.81</v>
+        <v>11100.11</v>
       </c>
       <c r="G91" s="1">
         <f>AVERAGE(E87:E91)</f>
@@ -4114,16 +4114,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>10844.09</v>
+        <v>11111.14</v>
       </c>
       <c r="C92" t="n">
-        <v>10893.35</v>
+        <v>11207.15</v>
       </c>
       <c r="D92" t="n">
-        <v>10819.07</v>
+        <v>11111.14</v>
       </c>
       <c r="E92" t="n">
-        <v>10830.84</v>
+        <v>11201.83</v>
       </c>
       <c r="G92" s="1">
         <f>AVERAGE(E88:E92)</f>
@@ -4143,16 +4143,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>10861.66</v>
+        <v>11228.64</v>
       </c>
       <c r="C93" t="n">
-        <v>10979.1</v>
+        <v>11261.68</v>
       </c>
       <c r="D93" t="n">
-        <v>10861.66</v>
+        <v>11188.99</v>
       </c>
       <c r="E93" t="n">
-        <v>10966.2</v>
+        <v>11251.75</v>
       </c>
       <c r="G93" s="1">
         <f>AVERAGE(E89:E93)</f>
@@ -4172,16 +4172,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>10986.77</v>
+        <v>11243.59</v>
       </c>
       <c r="C94" t="n">
-        <v>11034.12</v>
+        <v>11243.59</v>
       </c>
       <c r="D94" t="n">
-        <v>10938.73</v>
+        <v>11122.98</v>
       </c>
       <c r="E94" t="n">
-        <v>10938.73</v>
+        <v>11156.42</v>
       </c>
       <c r="G94" s="1">
         <f>AVERAGE(E90:E94)</f>
@@ -4201,16 +4201,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>10974.52</v>
+        <v>11168.99</v>
       </c>
       <c r="C95" t="n">
-        <v>10991.86</v>
+        <v>11186.67</v>
       </c>
       <c r="D95" t="n">
-        <v>10886.18</v>
+        <v>11118.81</v>
       </c>
       <c r="E95" t="n">
-        <v>10886.18</v>
+        <v>11149.23</v>
       </c>
       <c r="G95" s="1">
         <f>AVERAGE(E91:E95)</f>
@@ -4230,16 +4230,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>10910.61</v>
+        <v>11140.02</v>
       </c>
       <c r="C96" t="n">
-        <v>10942.64</v>
+        <v>11160.05</v>
       </c>
       <c r="D96" t="n">
-        <v>10883.52</v>
+        <v>11088.53</v>
       </c>
       <c r="E96" t="n">
-        <v>10936.93</v>
+        <v>11144.79</v>
       </c>
       <c r="G96" s="1">
         <f>AVERAGE(E92:E96)</f>
@@ -4259,16 +4259,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10946.62</v>
+        <v>11153.2</v>
       </c>
       <c r="C97" t="n">
-        <v>10977.81</v>
+        <v>11188.01</v>
       </c>
       <c r="D97" t="n">
-        <v>10918.12</v>
+        <v>11119.24</v>
       </c>
       <c r="E97" t="n">
-        <v>10942.3</v>
+        <v>11173.21</v>
       </c>
       <c r="G97" s="1">
         <f>AVERAGE(E93:E97)</f>
@@ -4288,16 +4288,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10976.49</v>
+        <v>11143.04</v>
       </c>
       <c r="C98" t="n">
-        <v>10999.43</v>
+        <v>11143.04</v>
       </c>
       <c r="D98" t="n">
-        <v>10965.18</v>
+        <v>11013.98</v>
       </c>
       <c r="E98" t="n">
-        <v>10987.77</v>
+        <v>11013.98</v>
       </c>
       <c r="G98" s="1">
         <f>AVERAGE(E94:E98)</f>
@@ -4317,16 +4317,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10979.68</v>
+        <v>10998.2</v>
       </c>
       <c r="C99" t="n">
-        <v>10986.53</v>
+        <v>11087.47</v>
       </c>
       <c r="D99" t="n">
-        <v>10929.56</v>
+        <v>10981.61</v>
       </c>
       <c r="E99" t="n">
-        <v>10964.12</v>
+        <v>11087.47</v>
       </c>
       <c r="G99" s="1">
         <f>AVERAGE(E95:E99)</f>
@@ -4346,16 +4346,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10925.21</v>
+        <v>11008.77</v>
       </c>
       <c r="C100" t="n">
-        <v>10925.21</v>
+        <v>11008.77</v>
       </c>
       <c r="D100" t="n">
-        <v>10799.75</v>
+        <v>10904.19</v>
       </c>
       <c r="E100" t="n">
-        <v>10821.17</v>
+        <v>10904.19</v>
       </c>
       <c r="G100" s="1">
         <f>AVERAGE(E96:E100)</f>
@@ -4375,16 +4375,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10856.03</v>
+        <v>10904.8</v>
       </c>
       <c r="C101" t="n">
-        <v>10909.61</v>
+        <v>10969.2</v>
       </c>
       <c r="D101" t="n">
-        <v>10853.65</v>
+        <v>10842.56</v>
       </c>
       <c r="E101" t="n">
-        <v>10874.96</v>
+        <v>10927.44</v>
       </c>
       <c r="G101" s="1">
         <f>AVERAGE(E97:E101)</f>
@@ -4404,16 +4404,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10882.68</v>
+        <v>10949.85</v>
       </c>
       <c r="C102" t="n">
-        <v>10954.67</v>
+        <v>10992.31</v>
       </c>
       <c r="D102" t="n">
-        <v>10876.97</v>
+        <v>10941.07</v>
       </c>
       <c r="E102" t="n">
-        <v>10949.08</v>
+        <v>10941.07</v>
       </c>
       <c r="G102" s="1">
         <f>AVERAGE(E98:E102)</f>
@@ -4433,16 +4433,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>11002.15</v>
+        <v>10901.25</v>
       </c>
       <c r="C103" t="n">
-        <v>11109.5</v>
+        <v>10914.83</v>
       </c>
       <c r="D103" t="n">
-        <v>11002.15</v>
+        <v>10828.86</v>
       </c>
       <c r="E103" t="n">
-        <v>11109.5</v>
+        <v>10899.28</v>
       </c>
       <c r="G103" s="1">
         <f>AVERAGE(E99:E103)</f>
@@ -4462,16 +4462,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>11130.03</v>
+        <v>10834.07</v>
       </c>
       <c r="C104" t="n">
-        <v>11131.08</v>
+        <v>10851.16</v>
       </c>
       <c r="D104" t="n">
-        <v>11054.62</v>
+        <v>10786.46</v>
       </c>
       <c r="E104" t="n">
-        <v>11100.11</v>
+        <v>10786.46</v>
       </c>
       <c r="G104" s="1">
         <f>AVERAGE(E100:E104)</f>
@@ -4491,16 +4491,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>11111.14</v>
+        <v>10730.9</v>
       </c>
       <c r="C105" t="n">
-        <v>11207.15</v>
+        <v>10752.99</v>
       </c>
       <c r="D105" t="n">
-        <v>11111.14</v>
+        <v>10651.42</v>
       </c>
       <c r="E105" t="n">
-        <v>11201.83</v>
+        <v>10742.17</v>
       </c>
       <c r="G105" s="1">
         <f>AVERAGE(E101:E105)</f>
@@ -4520,16 +4520,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>11228.64</v>
+        <v>10766.88</v>
       </c>
       <c r="C106" t="n">
-        <v>11261.68</v>
+        <v>10800.34</v>
       </c>
       <c r="D106" t="n">
-        <v>11188.99</v>
+        <v>10701.03</v>
       </c>
       <c r="E106" t="n">
-        <v>11251.75</v>
+        <v>10701.03</v>
       </c>
       <c r="G106" s="1">
         <f>AVERAGE(E102:E106)</f>
@@ -4549,16 +4549,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>11243.59</v>
+        <v>10669.42</v>
       </c>
       <c r="C107" t="n">
-        <v>11243.59</v>
+        <v>10723.84</v>
       </c>
       <c r="D107" t="n">
-        <v>11122.98</v>
+        <v>10633.01</v>
       </c>
       <c r="E107" t="n">
-        <v>11156.42</v>
+        <v>10654.28</v>
       </c>
       <c r="G107" s="1">
         <f>AVERAGE(E103:E107)</f>
@@ -4578,16 +4578,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>11168.99</v>
+        <v>10667.64</v>
       </c>
       <c r="C108" t="n">
-        <v>11186.67</v>
+        <v>10836.91</v>
       </c>
       <c r="D108" t="n">
-        <v>11118.81</v>
+        <v>10667.64</v>
       </c>
       <c r="E108" t="n">
-        <v>11149.23</v>
+        <v>10836.91</v>
       </c>
       <c r="G108" s="1">
         <f>AVERAGE(E104:E108)</f>
@@ -4607,16 +4607,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>11140.02</v>
+        <v>10852.17</v>
       </c>
       <c r="C109" t="n">
-        <v>11160.05</v>
+        <v>10886.2</v>
       </c>
       <c r="D109" t="n">
-        <v>11088.53</v>
+        <v>10777.94</v>
       </c>
       <c r="E109" t="n">
-        <v>11144.79</v>
+        <v>10777.94</v>
       </c>
       <c r="G109" s="1">
         <f>AVERAGE(E105:E109)</f>
@@ -4636,16 +4636,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>11153.2</v>
+        <v>10802.88</v>
       </c>
       <c r="C110" t="n">
-        <v>11188.01</v>
+        <v>10873.48</v>
       </c>
       <c r="D110" t="n">
-        <v>11119.24</v>
+        <v>10707.68</v>
       </c>
       <c r="E110" t="n">
-        <v>11173.21</v>
+        <v>10715.72</v>
       </c>
       <c r="G110" s="1">
         <f>AVERAGE(E106:E110)</f>
@@ -4665,16 +4665,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>11143.04</v>
+        <v>10714.25</v>
       </c>
       <c r="C111" t="n">
-        <v>11143.04</v>
+        <v>10752.05</v>
       </c>
       <c r="D111" t="n">
-        <v>11013.98</v>
+        <v>10680.44</v>
       </c>
       <c r="E111" t="n">
-        <v>11013.98</v>
+        <v>10721.87</v>
       </c>
       <c r="G111" s="1">
         <f>AVERAGE(E107:E111)</f>
@@ -4694,16 +4694,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>10998.2</v>
+        <v>10690.91</v>
       </c>
       <c r="C112" t="n">
-        <v>11087.47</v>
+        <v>10709.8</v>
       </c>
       <c r="D112" t="n">
-        <v>10981.61</v>
+        <v>10585.27</v>
       </c>
       <c r="E112" t="n">
-        <v>11087.47</v>
+        <v>10611.81</v>
       </c>
       <c r="G112" s="1">
         <f>AVERAGE(E108:E112)</f>
@@ -4723,16 +4723,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>11008.77</v>
+        <v>10645.66</v>
       </c>
       <c r="C113" t="n">
-        <v>11008.77</v>
+        <v>10665.72</v>
       </c>
       <c r="D113" t="n">
-        <v>10904.19</v>
+        <v>10523.58</v>
       </c>
       <c r="E113" t="n">
-        <v>10904.19</v>
+        <v>10608.57</v>
       </c>
       <c r="G113" s="1">
         <f>AVERAGE(E109:E113)</f>
@@ -4752,16 +4752,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10904.8</v>
+        <v>10638.9</v>
       </c>
       <c r="C114" t="n">
-        <v>10969.2</v>
+        <v>10746.74</v>
       </c>
       <c r="D114" t="n">
-        <v>10842.56</v>
+        <v>10638.9</v>
       </c>
       <c r="E114" t="n">
-        <v>10927.44</v>
+        <v>10720.28</v>
       </c>
       <c r="G114" s="1">
         <f>AVERAGE(E110:E114)</f>
@@ -4781,16 +4781,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>10949.85</v>
+        <v>10737.62</v>
       </c>
       <c r="C115" t="n">
-        <v>10992.31</v>
+        <v>10776.47</v>
       </c>
       <c r="D115" t="n">
-        <v>10941.07</v>
+        <v>10728.24</v>
       </c>
       <c r="E115" t="n">
-        <v>10941.07</v>
+        <v>10756.89</v>
       </c>
       <c r="G115" s="1">
         <f>AVERAGE(E111:E115)</f>
@@ -4810,16 +4810,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>10901.25</v>
+        <v>10693.64</v>
       </c>
       <c r="C116" t="n">
-        <v>10914.83</v>
+        <v>10693.64</v>
       </c>
       <c r="D116" t="n">
-        <v>10828.86</v>
+        <v>10635.03</v>
       </c>
       <c r="E116" t="n">
-        <v>10899.28</v>
+        <v>10676.84</v>
       </c>
       <c r="G116" s="1">
         <f>AVERAGE(E112:E116)</f>
@@ -4839,16 +4839,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>10834.07</v>
+        <v>10644.91</v>
       </c>
       <c r="C117" t="n">
-        <v>10851.16</v>
+        <v>10752.57</v>
       </c>
       <c r="D117" t="n">
-        <v>10786.46</v>
+        <v>10643.65</v>
       </c>
       <c r="E117" t="n">
-        <v>10786.46</v>
+        <v>10738.38</v>
       </c>
       <c r="G117" s="1">
         <f>AVERAGE(E113:E117)</f>
@@ -4868,16 +4868,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>10730.9</v>
+        <v>10769.7</v>
       </c>
       <c r="C118" t="n">
-        <v>10752.99</v>
+        <v>10864.54</v>
       </c>
       <c r="D118" t="n">
-        <v>10651.42</v>
+        <v>10769.7</v>
       </c>
       <c r="E118" t="n">
-        <v>10742.17</v>
+        <v>10864.54</v>
       </c>
       <c r="G118" s="1">
         <f>AVERAGE(E114:E118)</f>
@@ -4897,16 +4897,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10766.88</v>
+        <v>10867.97</v>
       </c>
       <c r="C119" t="n">
-        <v>10800.34</v>
+        <v>10890.2</v>
       </c>
       <c r="D119" t="n">
-        <v>10701.03</v>
+        <v>10817.45</v>
       </c>
       <c r="E119" t="n">
-        <v>10701.03</v>
+        <v>10817.45</v>
       </c>
       <c r="G119" s="1">
         <f>AVERAGE(E115:E119)</f>
@@ -4926,16 +4926,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10669.42</v>
+        <v>10802.75</v>
       </c>
       <c r="C120" t="n">
-        <v>10723.84</v>
+        <v>10818.84</v>
       </c>
       <c r="D120" t="n">
-        <v>10633.01</v>
+        <v>10758.83</v>
       </c>
       <c r="E120" t="n">
-        <v>10654.28</v>
+        <v>10778.99</v>
       </c>
       <c r="G120" s="1">
         <f>AVERAGE(E116:E120)</f>
@@ -4955,16 +4955,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10667.64</v>
+        <v>10811.43</v>
       </c>
       <c r="C121" t="n">
-        <v>10836.91</v>
+        <v>10872.74</v>
       </c>
       <c r="D121" t="n">
-        <v>10667.64</v>
+        <v>10788.37</v>
       </c>
       <c r="E121" t="n">
-        <v>10836.91</v>
+        <v>10842.46</v>
       </c>
       <c r="G121" s="1">
         <f>AVERAGE(E117:E121)</f>
@@ -4984,16 +4984,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10852.17</v>
+        <v>10868.56</v>
       </c>
       <c r="C122" t="n">
-        <v>10886.2</v>
+        <v>10896.25</v>
       </c>
       <c r="D122" t="n">
-        <v>10777.94</v>
+        <v>10826.14</v>
       </c>
       <c r="E122" t="n">
-        <v>10777.94</v>
+        <v>10835.38</v>
       </c>
       <c r="G122" s="1">
         <f>AVERAGE(E118:E122)</f>
@@ -5013,16 +5013,16 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10802.88</v>
+        <v>10932.51</v>
       </c>
       <c r="C123" t="n">
-        <v>10873.48</v>
+        <v>10963.95</v>
       </c>
       <c r="D123" t="n">
-        <v>10707.68</v>
+        <v>10893.73</v>
       </c>
       <c r="E123" t="n">
-        <v>10715.72</v>
+        <v>10932.11</v>
       </c>
       <c r="G123" s="1">
         <f>AVERAGE(E119:E123)</f>
@@ -5042,16 +5042,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>10714.25</v>
+        <v>10929.46</v>
       </c>
       <c r="C124" t="n">
-        <v>10752.05</v>
+        <v>10984.84</v>
       </c>
       <c r="D124" t="n">
-        <v>10680.44</v>
+        <v>10901.75</v>
       </c>
       <c r="E124" t="n">
-        <v>10721.87</v>
+        <v>10946.89</v>
       </c>
       <c r="G124" s="1">
         <f>AVERAGE(E120:E124)</f>
@@ -5071,16 +5071,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>10690.91</v>
+        <v>10937.77</v>
       </c>
       <c r="C125" t="n">
-        <v>10709.8</v>
+        <v>10995.39</v>
       </c>
       <c r="D125" t="n">
-        <v>10585.27</v>
+        <v>10917.61</v>
       </c>
       <c r="E125" t="n">
-        <v>10611.81</v>
+        <v>10995.39</v>
       </c>
       <c r="G125" s="1">
         <f>AVERAGE(E121:E125)</f>
@@ -5100,16 +5100,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>10645.66</v>
+        <v>10957.66</v>
       </c>
       <c r="C126" t="n">
-        <v>10665.72</v>
+        <v>10992.29</v>
       </c>
       <c r="D126" t="n">
-        <v>10523.58</v>
+        <v>10956</v>
       </c>
       <c r="E126" t="n">
-        <v>10608.57</v>
+        <v>10965.79</v>
       </c>
       <c r="G126" s="1">
         <f>AVERAGE(E122:E126)</f>
@@ -5129,16 +5129,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>10638.9</v>
+        <v>10969.35</v>
       </c>
       <c r="C127" t="n">
-        <v>10746.74</v>
+        <v>11018.19</v>
       </c>
       <c r="D127" t="n">
-        <v>10638.9</v>
+        <v>10966.33</v>
       </c>
       <c r="E127" t="n">
-        <v>10720.28</v>
+        <v>11010.61</v>
       </c>
       <c r="G127" s="1">
         <f>AVERAGE(E123:E127)</f>
@@ -5158,16 +5158,16 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>10737.62</v>
+        <v>11023.07</v>
       </c>
       <c r="C128" t="n">
-        <v>10776.47</v>
+        <v>11075.78</v>
       </c>
       <c r="D128" t="n">
-        <v>10728.24</v>
+        <v>11009.16</v>
       </c>
       <c r="E128" t="n">
-        <v>10756.89</v>
+        <v>11075.78</v>
       </c>
       <c r="G128" s="1">
         <f>AVERAGE(E124:E128)</f>
@@ -5187,16 +5187,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>10693.64</v>
+        <v>11072.7</v>
       </c>
       <c r="C129" t="n">
-        <v>10693.64</v>
+        <v>11080.41</v>
       </c>
       <c r="D129" t="n">
-        <v>10635.03</v>
+        <v>11001.15</v>
       </c>
       <c r="E129" t="n">
-        <v>10676.84</v>
+        <v>11033.54</v>
       </c>
       <c r="G129" s="1">
         <f>AVERAGE(E125:E129)</f>
@@ -5216,16 +5216,16 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>10644.91</v>
+        <v>10997.73</v>
       </c>
       <c r="C130" t="n">
-        <v>10752.57</v>
+        <v>11057.51</v>
       </c>
       <c r="D130" t="n">
-        <v>10643.65</v>
+        <v>10976.46</v>
       </c>
       <c r="E130" t="n">
-        <v>10738.38</v>
+        <v>11057.51</v>
       </c>
       <c r="G130" s="1">
         <f>AVERAGE(E126:E130)</f>
@@ -5245,16 +5245,16 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>10769.7</v>
+        <v>11062.36</v>
       </c>
       <c r="C131" t="n">
-        <v>10864.54</v>
+        <v>11100.02</v>
       </c>
       <c r="D131" t="n">
-        <v>10769.7</v>
+        <v>11058.28</v>
       </c>
       <c r="E131" t="n">
-        <v>10864.54</v>
+        <v>11098.13</v>
       </c>
       <c r="G131" s="1">
         <f>AVERAGE(E127:E131)</f>
@@ -5274,16 +5274,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>10867.97</v>
+        <v>11095.67</v>
       </c>
       <c r="C132" t="n">
-        <v>10890.2</v>
+        <v>11095.67</v>
       </c>
       <c r="D132" t="n">
-        <v>10817.45</v>
+        <v>10919.13</v>
       </c>
       <c r="E132" t="n">
-        <v>10817.45</v>
+        <v>10929.77</v>
       </c>
       <c r="G132" s="1">
         <f>AVERAGE(E128:E132)</f>
@@ -5303,16 +5303,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>10802.75</v>
+        <v>10957.3</v>
       </c>
       <c r="C133" t="n">
-        <v>10818.84</v>
+        <v>11012.43</v>
       </c>
       <c r="D133" t="n">
-        <v>10758.83</v>
+        <v>10957.3</v>
       </c>
       <c r="E133" t="n">
-        <v>10778.99</v>
+        <v>11012.43</v>
       </c>
       <c r="G133" s="1">
         <f>AVERAGE(E129:E133)</f>
@@ -5332,16 +5332,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>10811.43</v>
+        <v>10997.26</v>
       </c>
       <c r="C134" t="n">
-        <v>10872.74</v>
+        <v>11054.49</v>
       </c>
       <c r="D134" t="n">
-        <v>10788.37</v>
+        <v>10994.97</v>
       </c>
       <c r="E134" t="n">
-        <v>10842.46</v>
+        <v>11024.1</v>
       </c>
       <c r="G134" s="1">
         <f>AVERAGE(E130:E134)</f>
@@ -5361,16 +5361,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>10868.56</v>
+        <v>11024.97</v>
       </c>
       <c r="C135" t="n">
-        <v>10896.25</v>
+        <v>11030.09</v>
       </c>
       <c r="D135" t="n">
-        <v>10826.14</v>
+        <v>10983.44</v>
       </c>
       <c r="E135" t="n">
-        <v>10835.38</v>
+        <v>10983.44</v>
       </c>
       <c r="G135" s="1">
         <f>AVERAGE(E131:E135)</f>
@@ -5390,16 +5390,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>10932.51</v>
+        <v>11026.07</v>
       </c>
       <c r="C136" t="n">
-        <v>10963.95</v>
+        <v>11095.5</v>
       </c>
       <c r="D136" t="n">
-        <v>10893.73</v>
+        <v>11026.07</v>
       </c>
       <c r="E136" t="n">
-        <v>10932.11</v>
+        <v>11075.25</v>
       </c>
       <c r="G136" s="1">
         <f>AVERAGE(E132:E136)</f>
@@ -5419,16 +5419,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>10929.46</v>
+        <v>11063.62</v>
       </c>
       <c r="C137" t="n">
-        <v>10984.84</v>
+        <v>11063.62</v>
       </c>
       <c r="D137" t="n">
-        <v>10901.75</v>
+        <v>11001.96</v>
       </c>
       <c r="E137" t="n">
-        <v>10946.89</v>
+        <v>11028.07</v>
       </c>
       <c r="G137" s="1">
         <f>AVERAGE(E133:E137)</f>
@@ -5448,16 +5448,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>10937.77</v>
+        <v>11009.96</v>
       </c>
       <c r="C138" t="n">
-        <v>10995.39</v>
+        <v>11033.89</v>
       </c>
       <c r="D138" t="n">
-        <v>10917.61</v>
+        <v>10972.25</v>
       </c>
       <c r="E138" t="n">
-        <v>10995.39</v>
+        <v>10983.68</v>
       </c>
       <c r="G138" s="1">
         <f>AVERAGE(E134:E138)</f>
@@ -5477,16 +5477,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10957.66</v>
+        <v>10939.68</v>
       </c>
       <c r="C139" t="n">
-        <v>10992.29</v>
+        <v>10939.68</v>
       </c>
       <c r="D139" t="n">
-        <v>10956</v>
+        <v>10693.73</v>
       </c>
       <c r="E139" t="n">
-        <v>10965.79</v>
+        <v>10748.92</v>
       </c>
       <c r="G139" s="1">
         <f>AVERAGE(E135:E139)</f>
@@ -5506,16 +5506,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10969.35</v>
+        <v>10797.95</v>
       </c>
       <c r="C140" t="n">
-        <v>11018.19</v>
+        <v>10829.85</v>
       </c>
       <c r="D140" t="n">
-        <v>10966.33</v>
+        <v>10755.53</v>
       </c>
       <c r="E140" t="n">
-        <v>11010.61</v>
+        <v>10824.23</v>
       </c>
       <c r="G140" s="1">
         <f>AVERAGE(E136:E140)</f>
@@ -5535,16 +5535,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>11023.07</v>
+        <v>10827.28</v>
       </c>
       <c r="C141" t="n">
-        <v>11075.78</v>
+        <v>10827.28</v>
       </c>
       <c r="D141" t="n">
-        <v>11009.16</v>
+        <v>10688.59</v>
       </c>
       <c r="E141" t="n">
-        <v>11075.78</v>
+        <v>10716.75</v>
       </c>
       <c r="G141" s="1">
         <f>AVERAGE(E137:E141)</f>
@@ -5564,16 +5564,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>11072.7</v>
+        <v>10663.57</v>
       </c>
       <c r="C142" t="n">
-        <v>11080.41</v>
+        <v>10725.71</v>
       </c>
       <c r="D142" t="n">
-        <v>11001.15</v>
+        <v>10606.26</v>
       </c>
       <c r="E142" t="n">
-        <v>11033.54</v>
+        <v>10683.9</v>
       </c>
       <c r="G142" s="1">
         <f>AVERAGE(E138:E142)</f>
@@ -5593,16 +5593,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10997.73</v>
+        <v>10702.6</v>
       </c>
       <c r="C143" t="n">
-        <v>11057.51</v>
+        <v>10757.01</v>
       </c>
       <c r="D143" t="n">
-        <v>10976.46</v>
+        <v>10688.55</v>
       </c>
       <c r="E143" t="n">
-        <v>11057.51</v>
+        <v>10690.96</v>
       </c>
       <c r="G143" s="1">
         <f>AVERAGE(E139:E143)</f>
@@ -5622,16 +5622,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>11062.36</v>
+        <v>10698.76</v>
       </c>
       <c r="C144" t="n">
-        <v>11100.02</v>
+        <v>10729.9</v>
       </c>
       <c r="D144" t="n">
-        <v>11058.28</v>
+        <v>10663.44</v>
       </c>
       <c r="E144" t="n">
-        <v>11098.13</v>
+        <v>10699.05</v>
       </c>
       <c r="G144" s="1">
         <f>AVERAGE(E140:E144)</f>
@@ -5651,16 +5651,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>11095.67</v>
+        <v>10697.01</v>
       </c>
       <c r="C145" t="n">
-        <v>11095.67</v>
+        <v>10792.2</v>
       </c>
       <c r="D145" t="n">
-        <v>10919.13</v>
+        <v>10697.01</v>
       </c>
       <c r="E145" t="n">
-        <v>10929.77</v>
+        <v>10792.2</v>
       </c>
       <c r="G145" s="1">
         <f>AVERAGE(E141:E145)</f>
@@ -5680,16 +5680,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>10957.3</v>
+        <v>10790.24</v>
       </c>
       <c r="C146" t="n">
-        <v>11012.43</v>
+        <v>10828.21</v>
       </c>
       <c r="D146" t="n">
-        <v>10957.3</v>
+        <v>10774.69</v>
       </c>
       <c r="E146" t="n">
-        <v>11012.43</v>
+        <v>10804.2</v>
       </c>
       <c r="G146" s="1">
         <f>AVERAGE(E142:E146)</f>
@@ -5709,16 +5709,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>10997.26</v>
+        <v>10817.33</v>
       </c>
       <c r="C147" t="n">
-        <v>11054.49</v>
+        <v>10863.13</v>
       </c>
       <c r="D147" t="n">
-        <v>10994.97</v>
+        <v>10802.79</v>
       </c>
       <c r="E147" t="n">
-        <v>11024.1</v>
+        <v>10863.13</v>
       </c>
       <c r="G147" s="1">
         <f>AVERAGE(E143:E147)</f>
@@ -5738,16 +5738,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>11024.97</v>
+        <v>10865.91</v>
       </c>
       <c r="C148" t="n">
-        <v>11030.09</v>
+        <v>10865.91</v>
       </c>
       <c r="D148" t="n">
-        <v>10983.44</v>
+        <v>10770.32</v>
       </c>
       <c r="E148" t="n">
-        <v>10983.44</v>
+        <v>10809.35</v>
       </c>
       <c r="G148" s="1">
         <f>AVERAGE(E144:E148)</f>
@@ -5767,16 +5767,16 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>11026.07</v>
+        <v>10847.17</v>
       </c>
       <c r="C149" t="n">
-        <v>11095.5</v>
+        <v>10916.69</v>
       </c>
       <c r="D149" t="n">
-        <v>11026.07</v>
+        <v>10847.17</v>
       </c>
       <c r="E149" t="n">
-        <v>11075.25</v>
+        <v>10902.21</v>
       </c>
       <c r="G149" s="1">
         <f>AVERAGE(E145:E149)</f>
@@ -5796,16 +5796,16 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>11063.62</v>
+        <v>10946.33</v>
       </c>
       <c r="C150" t="n">
-        <v>11063.62</v>
+        <v>11005.55</v>
       </c>
       <c r="D150" t="n">
-        <v>11001.96</v>
+        <v>10946.33</v>
       </c>
       <c r="E150" t="n">
-        <v>11028.07</v>
+        <v>10989.55</v>
       </c>
       <c r="G150" s="1">
         <f>AVERAGE(E146:E150)</f>
@@ -5825,16 +5825,16 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>11009.96</v>
+        <v>11029.12</v>
       </c>
       <c r="C151" t="n">
-        <v>11033.89</v>
+        <v>11099.57</v>
       </c>
       <c r="D151" t="n">
-        <v>10972.25</v>
+        <v>11029.11</v>
       </c>
       <c r="E151" t="n">
-        <v>10983.68</v>
+        <v>11099.57</v>
       </c>
       <c r="G151" s="1">
         <f>AVERAGE(E147:E151)</f>
@@ -5854,16 +5854,16 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>10939.68</v>
+        <v>11153.97</v>
       </c>
       <c r="C152" t="n">
-        <v>10939.68</v>
+        <v>11186.05</v>
       </c>
       <c r="D152" t="n">
-        <v>10693.73</v>
+        <v>11080.07</v>
       </c>
       <c r="E152" t="n">
-        <v>10748.92</v>
+        <v>11093.75</v>
       </c>
       <c r="G152" s="1">
         <f>AVERAGE(E148:E152)</f>
@@ -5883,16 +5883,16 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>10797.95</v>
+        <v>11037.26</v>
       </c>
       <c r="C153" t="n">
-        <v>10829.85</v>
+        <v>11063.94</v>
       </c>
       <c r="D153" t="n">
-        <v>10755.53</v>
+        <v>10987.68</v>
       </c>
       <c r="E153" t="n">
-        <v>10824.23</v>
+        <v>11063.94</v>
       </c>
       <c r="G153" s="1">
         <f>AVERAGE(E149:E153)</f>
@@ -5912,16 +5912,16 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>10827.28</v>
+        <v>11087.86</v>
       </c>
       <c r="C154" t="n">
-        <v>10827.28</v>
+        <v>11097.11</v>
       </c>
       <c r="D154" t="n">
-        <v>10688.59</v>
+        <v>10952.85</v>
       </c>
       <c r="E154" t="n">
-        <v>10716.75</v>
+        <v>10964.22</v>
       </c>
       <c r="G154" s="1">
         <f>AVERAGE(E150:E154)</f>
@@ -5941,16 +5941,16 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>10663.57</v>
+        <v>10981.39</v>
       </c>
       <c r="C155" t="n">
-        <v>10725.71</v>
+        <v>11028.27</v>
       </c>
       <c r="D155" t="n">
-        <v>10606.26</v>
+        <v>10956.49</v>
       </c>
       <c r="E155" t="n">
-        <v>10683.9</v>
+        <v>11021.38</v>
       </c>
       <c r="G155" s="1">
         <f>AVERAGE(E151:E155)</f>
@@ -5970,16 +5970,16 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>10702.6</v>
+        <v>11042.41</v>
       </c>
       <c r="C156" t="n">
-        <v>10757.01</v>
+        <v>11058.06</v>
       </c>
       <c r="D156" t="n">
-        <v>10688.55</v>
+        <v>10989.93</v>
       </c>
       <c r="E156" t="n">
-        <v>10690.96</v>
+        <v>10995.13</v>
       </c>
       <c r="G156" s="1">
         <f>AVERAGE(E152:E156)</f>
@@ -5999,16 +5999,16 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>10698.76</v>
+        <v>11016.92</v>
       </c>
       <c r="C157" t="n">
-        <v>10729.9</v>
+        <v>11016.92</v>
       </c>
       <c r="D157" t="n">
-        <v>10663.44</v>
+        <v>10905.34</v>
       </c>
       <c r="E157" t="n">
-        <v>10699.05</v>
+        <v>10924.3</v>
       </c>
       <c r="G157" s="1">
         <f>AVERAGE(E153:E157)</f>
@@ -6028,16 +6028,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10697.01</v>
+        <v>10922.55</v>
       </c>
       <c r="C158" t="n">
-        <v>10792.2</v>
+        <v>10922.55</v>
       </c>
       <c r="D158" t="n">
-        <v>10697.01</v>
+        <v>10807.56</v>
       </c>
       <c r="E158" t="n">
-        <v>10792.2</v>
+        <v>10846.99</v>
       </c>
       <c r="G158" s="1">
         <f>AVERAGE(E154:E158)</f>
@@ -6057,16 +6057,16 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10790.24</v>
+        <v>10869.8</v>
       </c>
       <c r="C159" t="n">
-        <v>10828.21</v>
+        <v>10877.72</v>
       </c>
       <c r="D159" t="n">
-        <v>10774.69</v>
+        <v>10689.29</v>
       </c>
       <c r="E159" t="n">
-        <v>10804.2</v>
+        <v>10725.8</v>
       </c>
       <c r="G159" s="1">
         <f>AVERAGE(E155:E159)</f>
@@ -6086,16 +6086,16 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10817.33</v>
+        <v>10723</v>
       </c>
       <c r="C160" t="n">
-        <v>10863.13</v>
+        <v>10765.42</v>
       </c>
       <c r="D160" t="n">
-        <v>10802.79</v>
+        <v>10669.59</v>
       </c>
       <c r="E160" t="n">
-        <v>10863.13</v>
+        <v>10752.3</v>
       </c>
       <c r="G160" s="1">
         <f>AVERAGE(E156:E160)</f>
@@ -6115,16 +6115,16 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10865.91</v>
+        <v>10762.91</v>
       </c>
       <c r="C161" t="n">
-        <v>10865.91</v>
+        <v>10779.93</v>
       </c>
       <c r="D161" t="n">
-        <v>10770.32</v>
+        <v>10667.25</v>
       </c>
       <c r="E161" t="n">
-        <v>10809.35</v>
+        <v>10722.57</v>
       </c>
       <c r="G161" s="1">
         <f>AVERAGE(E157:E161)</f>
@@ -6144,16 +6144,16 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>10847.17</v>
+        <v>10726.67</v>
       </c>
       <c r="C162" t="n">
-        <v>10916.69</v>
+        <v>10758.84</v>
       </c>
       <c r="D162" t="n">
-        <v>10847.17</v>
+        <v>10701.25</v>
       </c>
       <c r="E162" t="n">
-        <v>10902.21</v>
+        <v>10727.23</v>
       </c>
       <c r="G162" s="1">
         <f>AVERAGE(E158:E162)</f>
@@ -6173,16 +6173,16 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>10946.33</v>
+        <v>10776.53</v>
       </c>
       <c r="C163" t="n">
-        <v>11005.55</v>
+        <v>10882.04</v>
       </c>
       <c r="D163" t="n">
-        <v>10946.33</v>
+        <v>10770.47</v>
       </c>
       <c r="E163" t="n">
-        <v>10989.55</v>
+        <v>10868.14</v>
       </c>
       <c r="G163" s="1">
         <f>AVERAGE(E159:E163)</f>
@@ -6202,16 +6202,16 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>11029.12</v>
+        <v>10881.78</v>
       </c>
       <c r="C164" t="n">
-        <v>11099.57</v>
+        <v>10883.98</v>
       </c>
       <c r="D164" t="n">
-        <v>11029.11</v>
+        <v>10806.73</v>
       </c>
       <c r="E164" t="n">
-        <v>11099.57</v>
+        <v>10828.61</v>
       </c>
       <c r="G164" s="1">
         <f>AVERAGE(E160:E164)</f>
@@ -6231,16 +6231,16 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>11153.97</v>
+        <v>10794.22</v>
       </c>
       <c r="C165" t="n">
-        <v>11186.05</v>
+        <v>10806.56</v>
       </c>
       <c r="D165" t="n">
-        <v>11080.07</v>
+        <v>10750.81</v>
       </c>
       <c r="E165" t="n">
-        <v>11093.75</v>
+        <v>10760.21</v>
       </c>
       <c r="G165" s="1">
         <f>AVERAGE(E161:E165)</f>
@@ -6260,16 +6260,16 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>11037.26</v>
+        <v>10808.5</v>
       </c>
       <c r="C166" t="n">
-        <v>11063.94</v>
+        <v>10882.75</v>
       </c>
       <c r="D166" t="n">
-        <v>10987.68</v>
+        <v>10808.5</v>
       </c>
       <c r="E166" t="n">
-        <v>11063.94</v>
+        <v>10857.27</v>
       </c>
       <c r="G166" s="1">
         <f>AVERAGE(E162:E166)</f>
@@ -6289,16 +6289,16 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>11087.86</v>
+        <v>10886.19</v>
       </c>
       <c r="C167" t="n">
-        <v>11097.11</v>
+        <v>10908.36</v>
       </c>
       <c r="D167" t="n">
-        <v>10952.85</v>
+        <v>10814.54</v>
       </c>
       <c r="E167" t="n">
-        <v>10964.22</v>
+        <v>10831.41</v>
       </c>
       <c r="G167" s="1">
         <f>AVERAGE(E163:E167)</f>
@@ -6318,16 +6318,16 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>10981.39</v>
+        <v>10857.1</v>
       </c>
       <c r="C168" t="n">
-        <v>11028.27</v>
+        <v>10972.41</v>
       </c>
       <c r="D168" t="n">
-        <v>10956.49</v>
+        <v>10835.84</v>
       </c>
       <c r="E168" t="n">
-        <v>11021.38</v>
+        <v>10972.41</v>
       </c>
       <c r="G168" s="1">
         <f>AVERAGE(E164:E168)</f>
@@ -6347,16 +6347,16 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>11042.41</v>
+        <v>10959.56</v>
       </c>
       <c r="C169" t="n">
-        <v>11058.06</v>
+        <v>11003.49</v>
       </c>
       <c r="D169" t="n">
-        <v>10989.93</v>
+        <v>10941.77</v>
       </c>
       <c r="E169" t="n">
-        <v>10995.13</v>
+        <v>10978.85</v>
       </c>
       <c r="G169" s="1">
         <f>AVERAGE(E165:E169)</f>
@@ -6376,16 +6376,16 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>11016.92</v>
+        <v>10974.08</v>
       </c>
       <c r="C170" t="n">
-        <v>11016.92</v>
+        <v>11007.35</v>
       </c>
       <c r="D170" t="n">
-        <v>10905.34</v>
+        <v>10947.29</v>
       </c>
       <c r="E170" t="n">
-        <v>10924.3</v>
+        <v>10974.19</v>
       </c>
       <c r="G170" s="1">
         <f>AVERAGE(E166:E170)</f>
@@ -6405,16 +6405,16 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>10922.55</v>
+        <v>10973.77</v>
       </c>
       <c r="C171" t="n">
-        <v>10922.55</v>
+        <v>11051.09</v>
       </c>
       <c r="D171" t="n">
-        <v>10807.56</v>
+        <v>10961.27</v>
       </c>
       <c r="E171" t="n">
-        <v>10846.99</v>
+        <v>11034.19</v>
       </c>
       <c r="G171" s="1">
         <f>AVERAGE(E167:E171)</f>
@@ -6434,16 +6434,16 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>10869.8</v>
+        <v>11050.09</v>
       </c>
       <c r="C172" t="n">
-        <v>10877.72</v>
+        <v>11073.95</v>
       </c>
       <c r="D172" t="n">
-        <v>10689.29</v>
+        <v>10966.96</v>
       </c>
       <c r="E172" t="n">
-        <v>10725.8</v>
+        <v>11006.34</v>
       </c>
       <c r="G172" s="1">
         <f>AVERAGE(E168:E172)</f>
@@ -6463,16 +6463,16 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>10723</v>
+        <v>11014.19</v>
       </c>
       <c r="C173" t="n">
-        <v>10765.42</v>
+        <v>11062.43</v>
       </c>
       <c r="D173" t="n">
-        <v>10669.59</v>
+        <v>11012.95</v>
       </c>
       <c r="E173" t="n">
-        <v>10752.3</v>
+        <v>11051.8</v>
       </c>
       <c r="G173" s="1">
         <f>AVERAGE(E169:E173)</f>
@@ -6492,16 +6492,16 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>10762.91</v>
+        <v>11048.89</v>
       </c>
       <c r="C174" t="n">
-        <v>10779.93</v>
+        <v>11064.34</v>
       </c>
       <c r="D174" t="n">
-        <v>10667.25</v>
+        <v>10906.42</v>
       </c>
       <c r="E174" t="n">
-        <v>10722.57</v>
+        <v>10919.63</v>
       </c>
       <c r="G174" s="1">
         <f>AVERAGE(E170:E174)</f>
@@ -6521,16 +6521,16 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>10726.67</v>
+        <v>10918.74</v>
       </c>
       <c r="C175" t="n">
-        <v>10758.84</v>
+        <v>10926.73</v>
       </c>
       <c r="D175" t="n">
-        <v>10701.25</v>
+        <v>10839.46</v>
       </c>
       <c r="E175" t="n">
-        <v>10727.23</v>
+        <v>10863.94</v>
       </c>
       <c r="G175" s="1">
         <f>AVERAGE(E171:E175)</f>
@@ -6550,16 +6550,16 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>10776.53</v>
+        <v>10826.19</v>
       </c>
       <c r="C176" t="n">
-        <v>10882.04</v>
+        <v>10826.19</v>
       </c>
       <c r="D176" t="n">
-        <v>10770.47</v>
+        <v>10707.76</v>
       </c>
       <c r="E176" t="n">
-        <v>10868.14</v>
+        <v>10718.91</v>
       </c>
       <c r="G176" s="1">
         <f>AVERAGE(E172:E176)</f>
@@ -6579,16 +6579,16 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>10881.78</v>
+        <v>10665.29</v>
       </c>
       <c r="C177" t="n">
-        <v>10883.98</v>
+        <v>10669.63</v>
       </c>
       <c r="D177" t="n">
-        <v>10806.73</v>
+        <v>10446.94</v>
       </c>
       <c r="E177" t="n">
-        <v>10828.61</v>
+        <v>10517.12</v>
       </c>
       <c r="G177" s="1">
         <f>AVERAGE(E173:E177)</f>
@@ -6608,16 +6608,16 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>10794.22</v>
+        <v>10467.85</v>
       </c>
       <c r="C178" t="n">
-        <v>10806.56</v>
+        <v>10507.83</v>
       </c>
       <c r="D178" t="n">
-        <v>10750.81</v>
+        <v>10403.13</v>
       </c>
       <c r="E178" t="n">
-        <v>10760.21</v>
+        <v>10455.93</v>
       </c>
       <c r="G178" s="1">
         <f>AVERAGE(E174:E178)</f>
@@ -6637,16 +6637,16 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>10808.5</v>
+        <v>10464.39</v>
       </c>
       <c r="C179" t="n">
-        <v>10882.75</v>
+        <v>10503.1</v>
       </c>
       <c r="D179" t="n">
-        <v>10808.5</v>
+        <v>10428.97</v>
       </c>
       <c r="E179" t="n">
-        <v>10857.27</v>
+        <v>10466.83</v>
       </c>
       <c r="G179" s="1">
         <f>AVERAGE(E175:E179)</f>
@@ -6666,16 +6666,16 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>10886.19</v>
+        <v>10272.04</v>
       </c>
       <c r="C180" t="n">
-        <v>10908.36</v>
+        <v>10272.04</v>
       </c>
       <c r="D180" t="n">
-        <v>10814.54</v>
+        <v>9797.93</v>
       </c>
       <c r="E180" t="n">
-        <v>10831.41</v>
+        <v>9806.110000000001</v>
       </c>
       <c r="G180" s="1">
         <f>AVERAGE(E176:E180)</f>
@@ -6695,16 +6695,16 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>10857.1</v>
+        <v>9811.58</v>
       </c>
       <c r="C181" t="n">
-        <v>10972.41</v>
+        <v>10046.01</v>
       </c>
       <c r="D181" t="n">
-        <v>10835.84</v>
+        <v>9740.76</v>
       </c>
       <c r="E181" t="n">
-        <v>10972.41</v>
+        <v>10045.81</v>
       </c>
       <c r="G181" s="1">
         <f>AVERAGE(E177:E181)</f>
@@ -6724,16 +6724,16 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>10959.56</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>11003.49</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="D182" t="n">
-        <v>10941.77</v>
+        <v>9890.469999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>10978.85</v>
+        <v>9901.120000000001</v>
       </c>
       <c r="G182" s="1">
         <f>AVERAGE(E178:E182)</f>
@@ -6753,16 +6753,16 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>10974.08</v>
+        <v>9891.969999999999</v>
       </c>
       <c r="C183" t="n">
-        <v>11007.35</v>
+        <v>10011.19</v>
       </c>
       <c r="D183" t="n">
-        <v>10947.29</v>
+        <v>9888.73</v>
       </c>
       <c r="E183" t="n">
-        <v>10974.19</v>
+        <v>9981.1</v>
       </c>
       <c r="G183" s="1">
         <f>AVERAGE(E179:E183)</f>
@@ -6782,16 +6782,16 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>10973.77</v>
+        <v>10048.43</v>
       </c>
       <c r="C184" t="n">
-        <v>11051.09</v>
+        <v>10127.01</v>
       </c>
       <c r="D184" t="n">
-        <v>10961.27</v>
+        <v>9978.25</v>
       </c>
       <c r="E184" t="n">
-        <v>11034.19</v>
+        <v>9979.139999999999</v>
       </c>
       <c r="G184" s="1">
         <f>AVERAGE(E180:E184)</f>
@@ -6811,16 +6811,16 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>11050.09</v>
+        <v>9975.459999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>11073.95</v>
+        <v>10019.5</v>
       </c>
       <c r="D185" t="n">
-        <v>10966.96</v>
+        <v>9919.790000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>11006.34</v>
+        <v>9953.73</v>
       </c>
       <c r="G185" s="1">
         <f>AVERAGE(E181:E185)</f>
@@ -6840,16 +6840,16 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>11014.19</v>
+        <v>9879.469999999999</v>
       </c>
       <c r="C186" t="n">
-        <v>11062.43</v>
+        <v>9919.26</v>
       </c>
       <c r="D186" t="n">
-        <v>11012.95</v>
+        <v>9762.91</v>
       </c>
       <c r="E186" t="n">
-        <v>11051.8</v>
+        <v>9919.26</v>
       </c>
       <c r="G186" s="1">
         <f>AVERAGE(E182:E186)</f>
@@ -6869,16 +6869,16 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>11048.89</v>
+        <v>9871.299999999999</v>
       </c>
       <c r="C187" t="n">
-        <v>11064.34</v>
+        <v>9984.15</v>
       </c>
       <c r="D187" t="n">
-        <v>10906.42</v>
+        <v>9822.15</v>
       </c>
       <c r="E187" t="n">
-        <v>10919.63</v>
+        <v>9974.280000000001</v>
       </c>
       <c r="G187" s="1">
         <f>AVERAGE(E183:E187)</f>
@@ -6898,16 +6898,16 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>10918.74</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>10926.73</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="D188" t="n">
-        <v>10839.46</v>
+        <v>9775.200000000001</v>
       </c>
       <c r="E188" t="n">
-        <v>10863.94</v>
+        <v>9775.200000000001</v>
       </c>
       <c r="G188" s="1">
         <f>AVERAGE(E184:E188)</f>
@@ -6927,16 +6927,16 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>10826.19</v>
+        <v>9774.290000000001</v>
       </c>
       <c r="C189" t="n">
-        <v>10826.19</v>
+        <v>9809.190000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>10707.76</v>
+        <v>9667.85</v>
       </c>
       <c r="E189" t="n">
-        <v>10718.91</v>
+        <v>9759.4</v>
       </c>
       <c r="G189" s="1">
         <f>AVERAGE(E185:E189)</f>
@@ -6956,16 +6956,16 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>10665.29</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="C190" t="n">
-        <v>10669.63</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="D190" t="n">
-        <v>10446.94</v>
+        <v>9475.610000000001</v>
       </c>
       <c r="E190" t="n">
-        <v>10517.12</v>
+        <v>9520.790000000001</v>
       </c>
       <c r="G190" s="1">
         <f>AVERAGE(E186:E190)</f>
@@ -6985,16 +6985,16 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>10467.85</v>
+        <v>9570.190000000001</v>
       </c>
       <c r="C191" t="n">
-        <v>10507.83</v>
+        <v>9629.07</v>
       </c>
       <c r="D191" t="n">
-        <v>10403.13</v>
+        <v>9400.690000000001</v>
       </c>
       <c r="E191" t="n">
-        <v>10455.93</v>
+        <v>9489.18</v>
       </c>
       <c r="G191" s="1">
         <f>AVERAGE(E187:E191)</f>
@@ -7014,16 +7014,16 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>10464.39</v>
+        <v>9515.43</v>
       </c>
       <c r="C192" t="n">
-        <v>10503.1</v>
+        <v>9554.35</v>
       </c>
       <c r="D192" t="n">
-        <v>10428.97</v>
+        <v>9459.120000000001</v>
       </c>
       <c r="E192" t="n">
-        <v>10466.83</v>
+        <v>9516.32</v>
       </c>
       <c r="G192" s="1">
         <f>AVERAGE(E188:E192)</f>
@@ -7043,16 +7043,16 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>10272.04</v>
+        <v>9508.809999999999</v>
       </c>
       <c r="C193" t="n">
-        <v>10272.04</v>
+        <v>9574.83</v>
       </c>
       <c r="D193" t="n">
-        <v>9797.93</v>
+        <v>9481.66</v>
       </c>
       <c r="E193" t="n">
-        <v>9806.110000000001</v>
+        <v>9526.110000000001</v>
       </c>
       <c r="G193" s="1">
         <f>AVERAGE(E189:E193)</f>
@@ -7072,16 +7072,16 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>9811.58</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="C194" t="n">
-        <v>10046.01</v>
+        <v>9802.129999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>9740.76</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="E194" t="n">
-        <v>10045.81</v>
+        <v>9802.129999999999</v>
       </c>
       <c r="G194" s="1">
         <f>AVERAGE(E190:E194)</f>
@@ -7101,16 +7101,16 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>9989.629999999999</v>
+        <v>9812.200000000001</v>
       </c>
       <c r="C195" t="n">
-        <v>9989.629999999999</v>
+        <v>9869.59</v>
       </c>
       <c r="D195" t="n">
-        <v>9890.469999999999</v>
+        <v>9742.610000000001</v>
       </c>
       <c r="E195" t="n">
-        <v>9901.120000000001</v>
+        <v>9844.74</v>
       </c>
       <c r="G195" s="1">
         <f>AVERAGE(E191:E195)</f>
@@ -7130,16 +7130,16 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>9891.969999999999</v>
+        <v>9871.4</v>
       </c>
       <c r="C196" t="n">
-        <v>10011.19</v>
+        <v>9906.59</v>
       </c>
       <c r="D196" t="n">
-        <v>9888.73</v>
+        <v>9817.290000000001</v>
       </c>
       <c r="E196" t="n">
-        <v>9981.1</v>
+        <v>9906.59</v>
       </c>
       <c r="G196" s="1">
         <f>AVERAGE(E192:E196)</f>
@@ -7159,16 +7159,16 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>10048.43</v>
+        <v>9856.85</v>
       </c>
       <c r="C197" t="n">
-        <v>10127.01</v>
+        <v>9889.809999999999</v>
       </c>
       <c r="D197" t="n">
-        <v>9978.25</v>
+        <v>9786.25</v>
       </c>
       <c r="E197" t="n">
-        <v>9979.139999999999</v>
+        <v>9889.809999999999</v>
       </c>
       <c r="G197" s="1">
         <f>AVERAGE(E193:E197)</f>
@@ -7188,16 +7188,16 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>9975.459999999999</v>
+        <v>9888.41</v>
       </c>
       <c r="C198" t="n">
-        <v>10019.5</v>
+        <v>9899.969999999999</v>
       </c>
       <c r="D198" t="n">
-        <v>9919.790000000001</v>
+        <v>9782.860000000001</v>
       </c>
       <c r="E198" t="n">
-        <v>9953.73</v>
+        <v>9824.950000000001</v>
       </c>
       <c r="G198" s="1">
         <f>AVERAGE(E194:E198)</f>
@@ -7217,16 +7217,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>9879.469999999999</v>
+        <v>9818.15</v>
       </c>
       <c r="C199" t="n">
-        <v>9919.26</v>
+        <v>9912.530000000001</v>
       </c>
       <c r="D199" t="n">
-        <v>9762.91</v>
+        <v>9817.950000000001</v>
       </c>
       <c r="E199" t="n">
-        <v>9919.26</v>
+        <v>9908.35</v>
       </c>
       <c r="G199" s="1">
         <f>AVERAGE(E195:E199)</f>
@@ -7246,16 +7246,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>9871.299999999999</v>
+        <v>9958.469999999999</v>
       </c>
       <c r="C200" t="n">
-        <v>9984.15</v>
+        <v>10014.42</v>
       </c>
       <c r="D200" t="n">
-        <v>9822.15</v>
+        <v>9938.549999999999</v>
       </c>
       <c r="E200" t="n">
-        <v>9974.280000000001</v>
+        <v>9945.309999999999</v>
       </c>
       <c r="G200" s="1">
         <f>AVERAGE(E196:E200)</f>
@@ -7275,16 +7275,16 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>9912.280000000001</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="C201" t="n">
-        <v>9912.280000000001</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>9775.200000000001</v>
+        <v>9798.450000000001</v>
       </c>
       <c r="E201" t="n">
-        <v>9775.200000000001</v>
+        <v>9830.01</v>
       </c>
       <c r="G201" s="1">
         <f>AVERAGE(E197:E201)</f>
@@ -7304,16 +7304,16 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>9774.290000000001</v>
+        <v>9806.799999999999</v>
       </c>
       <c r="C202" t="n">
-        <v>9809.190000000001</v>
+        <v>9875.84</v>
       </c>
       <c r="D202" t="n">
-        <v>9667.85</v>
+        <v>9764.459999999999</v>
       </c>
       <c r="E202" t="n">
-        <v>9759.4</v>
+        <v>9831.209999999999</v>
       </c>
       <c r="G202" s="1">
         <f>AVERAGE(E198:E202)</f>
@@ -7333,16 +7333,16 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>9622.950000000001</v>
+        <v>9727.17</v>
       </c>
       <c r="C203" t="n">
-        <v>9622.950000000001</v>
+        <v>9777.35</v>
       </c>
       <c r="D203" t="n">
-        <v>9475.610000000001</v>
+        <v>9616.16</v>
       </c>
       <c r="E203" t="n">
-        <v>9520.790000000001</v>
+        <v>9775.84</v>
       </c>
       <c r="G203" s="1">
         <f>AVERAGE(E199:E203)</f>
@@ -7362,16 +7362,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>9570.190000000001</v>
+        <v>9799.690000000001</v>
       </c>
       <c r="C204" t="n">
-        <v>9629.07</v>
+        <v>9823.25</v>
       </c>
       <c r="D204" t="n">
-        <v>9400.690000000001</v>
+        <v>9763.889999999999</v>
       </c>
       <c r="E204" t="n">
-        <v>9489.18</v>
+        <v>9791.879999999999</v>
       </c>
       <c r="G204" s="1">
         <f>AVERAGE(E200:E204)</f>
@@ -7391,16 +7391,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>9515.43</v>
+        <v>9806.58</v>
       </c>
       <c r="C205" t="n">
-        <v>9554.35</v>
+        <v>9844.389999999999</v>
       </c>
       <c r="D205" t="n">
-        <v>9459.120000000001</v>
+        <v>9755.120000000001</v>
       </c>
       <c r="E205" t="n">
-        <v>9516.32</v>
+        <v>9826.459999999999</v>
       </c>
       <c r="G205" s="1">
         <f>AVERAGE(E201:E205)</f>
@@ -7420,16 +7420,16 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>9508.809999999999</v>
+        <v>9819.049999999999</v>
       </c>
       <c r="C206" t="n">
-        <v>9574.83</v>
+        <v>9851.290000000001</v>
       </c>
       <c r="D206" t="n">
-        <v>9481.66</v>
+        <v>9770.870000000001</v>
       </c>
       <c r="E206" t="n">
-        <v>9526.110000000001</v>
+        <v>9797.09</v>
       </c>
       <c r="G206" s="1">
         <f>AVERAGE(E202:E206)</f>
@@ -7449,16 +7449,16 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>9588.860000000001</v>
+        <v>9795.469999999999</v>
       </c>
       <c r="C207" t="n">
-        <v>9802.129999999999</v>
+        <v>9836.02</v>
       </c>
       <c r="D207" t="n">
-        <v>9588.860000000001</v>
+        <v>9779.4</v>
       </c>
       <c r="E207" t="n">
-        <v>9802.129999999999</v>
+        <v>9828.690000000001</v>
       </c>
       <c r="G207" s="1">
         <f>AVERAGE(E203:E207)</f>
@@ -7478,16 +7478,16 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>9812.200000000001</v>
+        <v>9788.950000000001</v>
       </c>
       <c r="C208" t="n">
-        <v>9869.59</v>
+        <v>9800.030000000001</v>
       </c>
       <c r="D208" t="n">
-        <v>9742.610000000001</v>
+        <v>9726.799999999999</v>
       </c>
       <c r="E208" t="n">
-        <v>9844.74</v>
+        <v>9743.99</v>
       </c>
       <c r="G208" s="1">
         <f>AVERAGE(E204:E208)</f>
@@ -7507,16 +7507,16 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>9871.4</v>
+        <v>9698.52</v>
       </c>
       <c r="C209" t="n">
-        <v>9906.59</v>
+        <v>9753.690000000001</v>
       </c>
       <c r="D209" t="n">
-        <v>9817.290000000001</v>
+        <v>9632.469999999999</v>
       </c>
       <c r="E209" t="n">
-        <v>9906.59</v>
+        <v>9741.52</v>
       </c>
       <c r="G209" s="1">
         <f>AVERAGE(E205:E209)</f>
@@ -7536,16 +7536,16 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>9856.85</v>
+        <v>9769.33</v>
       </c>
       <c r="C210" t="n">
-        <v>9889.809999999999</v>
+        <v>9792.99</v>
       </c>
       <c r="D210" t="n">
-        <v>9786.25</v>
+        <v>9702.77</v>
       </c>
       <c r="E210" t="n">
-        <v>9889.809999999999</v>
+        <v>9714.709999999999</v>
       </c>
       <c r="G210" s="1">
         <f>AVERAGE(E206:E210)</f>
@@ -7565,16 +7565,16 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>9888.41</v>
+        <v>9730.639999999999</v>
       </c>
       <c r="C211" t="n">
-        <v>9899.969999999999</v>
+        <v>9738.799999999999</v>
       </c>
       <c r="D211" t="n">
-        <v>9782.860000000001</v>
+        <v>9654.91</v>
       </c>
       <c r="E211" t="n">
-        <v>9824.950000000001</v>
+        <v>9667.299999999999</v>
       </c>
       <c r="G211" s="1">
         <f>AVERAGE(E207:E211)</f>
@@ -7594,16 +7594,16 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>9818.15</v>
+        <v>9679.98</v>
       </c>
       <c r="C212" t="n">
-        <v>9912.530000000001</v>
+        <v>9847.35</v>
       </c>
       <c r="D212" t="n">
-        <v>9817.950000000001</v>
+        <v>9679.98</v>
       </c>
       <c r="E212" t="n">
-        <v>9908.35</v>
+        <v>9765.360000000001</v>
       </c>
       <c r="G212" s="1">
         <f>AVERAGE(E208:E212)</f>
@@ -7623,16 +7623,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>9958.469999999999</v>
+        <v>9728.950000000001</v>
       </c>
       <c r="C213" t="n">
-        <v>10014.42</v>
+        <v>9781.4</v>
       </c>
       <c r="D213" t="n">
-        <v>9938.549999999999</v>
+        <v>9688.74</v>
       </c>
       <c r="E213" t="n">
-        <v>9945.309999999999</v>
+        <v>9778.620000000001</v>
       </c>
       <c r="G213" s="1">
         <f>AVERAGE(E209:E213)</f>
@@ -7652,16 +7652,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>9921.780000000001</v>
+        <v>9774.030000000001</v>
       </c>
       <c r="C214" t="n">
-        <v>9921.780000000001</v>
+        <v>9890.889999999999</v>
       </c>
       <c r="D214" t="n">
-        <v>9798.450000000001</v>
+        <v>9767.139999999999</v>
       </c>
       <c r="E214" t="n">
-        <v>9830.01</v>
+        <v>9884.309999999999</v>
       </c>
       <c r="G214" s="1">
         <f>AVERAGE(E210:E214)</f>
@@ -7681,16 +7681,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>9806.799999999999</v>
+        <v>9959.870000000001</v>
       </c>
       <c r="C215" t="n">
-        <v>9875.84</v>
+        <v>10001.85</v>
       </c>
       <c r="D215" t="n">
-        <v>9764.459999999999</v>
+        <v>9885.360000000001</v>
       </c>
       <c r="E215" t="n">
-        <v>9831.209999999999</v>
+        <v>9885.360000000001</v>
       </c>
       <c r="G215" s="1">
         <f>AVERAGE(E211:E215)</f>
@@ -7710,16 +7710,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>9727.17</v>
+        <v>9899.24</v>
       </c>
       <c r="C216" t="n">
-        <v>9777.35</v>
+        <v>9957.629999999999</v>
       </c>
       <c r="D216" t="n">
-        <v>9616.16</v>
+        <v>9888.030000000001</v>
       </c>
       <c r="E216" t="n">
-        <v>9775.84</v>
+        <v>9888.030000000001</v>
       </c>
       <c r="G216" s="1">
         <f>AVERAGE(E212:E216)</f>
@@ -7739,16 +7739,16 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>9799.690000000001</v>
+        <v>9979.209999999999</v>
       </c>
       <c r="C217" t="n">
-        <v>9823.25</v>
+        <v>10148.75</v>
       </c>
       <c r="D217" t="n">
-        <v>9763.889999999999</v>
+        <v>9979.209999999999</v>
       </c>
       <c r="E217" t="n">
-        <v>9791.879999999999</v>
+        <v>10137.87</v>
       </c>
       <c r="G217" s="1">
         <f>AVERAGE(E213:E217)</f>
@@ -7768,16 +7768,16 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>9806.58</v>
+        <v>10120.43</v>
       </c>
       <c r="C218" t="n">
-        <v>9844.389999999999</v>
+        <v>10126.02</v>
       </c>
       <c r="D218" t="n">
-        <v>9755.120000000001</v>
+        <v>10061.7</v>
       </c>
       <c r="E218" t="n">
-        <v>9826.459999999999</v>
+        <v>10083.54</v>
       </c>
       <c r="G218" s="1">
         <f>AVERAGE(E214:E218)</f>
@@ -7797,16 +7797,16 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>9819.049999999999</v>
+        <v>9971.98</v>
       </c>
       <c r="C219" t="n">
-        <v>9851.290000000001</v>
+        <v>9971.98</v>
       </c>
       <c r="D219" t="n">
-        <v>9770.870000000001</v>
+        <v>9895.290000000001</v>
       </c>
       <c r="E219" t="n">
-        <v>9797.09</v>
+        <v>9916.74</v>
       </c>
       <c r="G219" s="1">
         <f>AVERAGE(E215:E219)</f>
@@ -7826,16 +7826,16 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>9795.469999999999</v>
+        <v>9850.08</v>
       </c>
       <c r="C220" t="n">
-        <v>9836.02</v>
+        <v>9850.08</v>
       </c>
       <c r="D220" t="n">
-        <v>9779.4</v>
+        <v>9664.75</v>
       </c>
       <c r="E220" t="n">
-        <v>9828.690000000001</v>
+        <v>9684.719999999999</v>
       </c>
       <c r="G220" s="1">
         <f>AVERAGE(E216:E220)</f>
@@ -7855,16 +7855,16 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>9788.950000000001</v>
+        <v>9719.459999999999</v>
       </c>
       <c r="C221" t="n">
-        <v>9800.030000000001</v>
+        <v>9785.200000000001</v>
       </c>
       <c r="D221" t="n">
-        <v>9726.799999999999</v>
+        <v>9719.459999999999</v>
       </c>
       <c r="E221" t="n">
-        <v>9743.99</v>
+        <v>9760.879999999999</v>
       </c>
       <c r="G221" s="1">
         <f>AVERAGE(E217:E221)</f>
@@ -7884,16 +7884,16 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>9698.52</v>
+        <v>9722.969999999999</v>
       </c>
       <c r="C222" t="n">
-        <v>9753.690000000001</v>
+        <v>9722.969999999999</v>
       </c>
       <c r="D222" t="n">
-        <v>9632.469999999999</v>
+        <v>9626.469999999999</v>
       </c>
       <c r="E222" t="n">
-        <v>9741.52</v>
+        <v>9647.540000000001</v>
       </c>
       <c r="G222" s="1">
         <f>AVERAGE(E218:E222)</f>
@@ -7913,16 +7913,16 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>9769.33</v>
+        <v>9661.719999999999</v>
       </c>
       <c r="C223" t="n">
-        <v>9792.99</v>
+        <v>9720.959999999999</v>
       </c>
       <c r="D223" t="n">
-        <v>9702.77</v>
+        <v>9661.719999999999</v>
       </c>
       <c r="E223" t="n">
-        <v>9714.709999999999</v>
+        <v>9707.040000000001</v>
       </c>
       <c r="G223" s="1">
         <f>AVERAGE(E219:E223)</f>
@@ -7942,16 +7942,16 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>9730.639999999999</v>
+        <v>9741.450000000001</v>
       </c>
       <c r="C224" t="n">
-        <v>9738.799999999999</v>
+        <v>9835.559999999999</v>
       </c>
       <c r="D224" t="n">
-        <v>9654.91</v>
+        <v>9741.450000000001</v>
       </c>
       <c r="E224" t="n">
-        <v>9667.299999999999</v>
+        <v>9816.450000000001</v>
       </c>
       <c r="G224" s="1">
         <f>AVERAGE(E220:E224)</f>
@@ -7971,16 +7971,16 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>9679.98</v>
+        <v>9827.32</v>
       </c>
       <c r="C225" t="n">
-        <v>9847.35</v>
+        <v>9871.959999999999</v>
       </c>
       <c r="D225" t="n">
-        <v>9679.98</v>
+        <v>9815.5</v>
       </c>
       <c r="E225" t="n">
-        <v>9765.360000000001</v>
+        <v>9858.76</v>
       </c>
       <c r="G225" s="1">
         <f>AVERAGE(E221:E225)</f>
@@ -8000,16 +8000,16 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>9728.950000000001</v>
+        <v>9818.950000000001</v>
       </c>
       <c r="C226" t="n">
-        <v>9781.4</v>
+        <v>9818.950000000001</v>
       </c>
       <c r="D226" t="n">
-        <v>9688.74</v>
+        <v>9718.940000000001</v>
       </c>
       <c r="E226" t="n">
-        <v>9778.620000000001</v>
+        <v>9774.16</v>
       </c>
       <c r="G226" s="1">
         <f>AVERAGE(E222:E226)</f>
@@ -8029,16 +8029,16 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>9774.030000000001</v>
+        <v>9762.49</v>
       </c>
       <c r="C227" t="n">
-        <v>9890.889999999999</v>
+        <v>9826.879999999999</v>
       </c>
       <c r="D227" t="n">
-        <v>9767.139999999999</v>
+        <v>9733.98</v>
       </c>
       <c r="E227" t="n">
-        <v>9884.309999999999</v>
+        <v>9787.530000000001</v>
       </c>
       <c r="G227" s="1">
         <f>AVERAGE(E223:E227)</f>
@@ -8058,16 +8058,16 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>9959.870000000001</v>
+        <v>9756.459999999999</v>
       </c>
       <c r="C228" t="n">
-        <v>10001.85</v>
+        <v>9756.67</v>
       </c>
       <c r="D228" t="n">
-        <v>9885.360000000001</v>
+        <v>9701.1</v>
       </c>
       <c r="E228" t="n">
-        <v>9885.360000000001</v>
+        <v>9718.82</v>
       </c>
       <c r="G228" s="1">
         <f>AVERAGE(E224:E228)</f>
@@ -8087,16 +8087,16 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>9899.24</v>
+        <v>9720.92</v>
       </c>
       <c r="C229" t="n">
-        <v>9957.629999999999</v>
+        <v>9783.209999999999</v>
       </c>
       <c r="D229" t="n">
-        <v>9888.030000000001</v>
+        <v>9720.92</v>
       </c>
       <c r="E229" t="n">
-        <v>9888.030000000001</v>
+        <v>9783.209999999999</v>
       </c>
       <c r="G229" s="1">
         <f>AVERAGE(E225:E229)</f>
@@ -8116,16 +8116,16 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>9979.209999999999</v>
+        <v>9729.290000000001</v>
       </c>
       <c r="C230" t="n">
-        <v>10148.75</v>
+        <v>9741.549999999999</v>
       </c>
       <c r="D230" t="n">
-        <v>9979.209999999999</v>
+        <v>9658.5</v>
       </c>
       <c r="E230" t="n">
-        <v>10137.87</v>
+        <v>9674.52</v>
       </c>
       <c r="G230" s="1">
         <f>AVERAGE(E226:E230)</f>
@@ -8145,16 +8145,16 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>10120.43</v>
+        <v>9648.98</v>
       </c>
       <c r="C231" t="n">
-        <v>10126.02</v>
+        <v>9683.950000000001</v>
       </c>
       <c r="D231" t="n">
-        <v>10061.7</v>
+        <v>9585.32</v>
       </c>
       <c r="E231" t="n">
-        <v>10083.54</v>
+        <v>9676.67</v>
       </c>
       <c r="G231" s="1">
         <f>AVERAGE(E227:E231)</f>
@@ -8174,16 +8174,16 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>9971.98</v>
+        <v>9639.24</v>
       </c>
       <c r="C232" t="n">
-        <v>9971.98</v>
+        <v>9652.190000000001</v>
       </c>
       <c r="D232" t="n">
-        <v>9895.290000000001</v>
+        <v>9625.309999999999</v>
       </c>
       <c r="E232" t="n">
-        <v>9916.74</v>
+        <v>9646.16</v>
       </c>
       <c r="G232" s="1">
         <f>AVERAGE(E228:E232)</f>
@@ -8203,16 +8203,16 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>9850.08</v>
+        <v>9646.530000000001</v>
       </c>
       <c r="C233" t="n">
-        <v>9850.08</v>
+        <v>9658.950000000001</v>
       </c>
       <c r="D233" t="n">
-        <v>9664.75</v>
+        <v>9613.290000000001</v>
       </c>
       <c r="E233" t="n">
-        <v>9684.719999999999</v>
+        <v>9639.700000000001</v>
       </c>
       <c r="G233" s="1">
         <f>AVERAGE(E229:E233)</f>
@@ -8232,16 +8232,16 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>9719.459999999999</v>
+        <v>9559.700000000001</v>
       </c>
       <c r="C234" t="n">
-        <v>9785.200000000001</v>
+        <v>9559.700000000001</v>
       </c>
       <c r="D234" t="n">
-        <v>9719.459999999999</v>
+        <v>9479.059999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>9760.879999999999</v>
+        <v>9527.09</v>
       </c>
       <c r="G234" s="1">
         <f>AVERAGE(E230:E234)</f>
@@ -8261,16 +8261,16 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>9722.969999999999</v>
+        <v>9544.870000000001</v>
       </c>
       <c r="C235" t="n">
-        <v>9722.969999999999</v>
+        <v>9591.91</v>
       </c>
       <c r="D235" t="n">
-        <v>9626.469999999999</v>
+        <v>9473.299999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>9647.540000000001</v>
+        <v>9478.99</v>
       </c>
       <c r="G235" s="1">
         <f>AVERAGE(E231:E235)</f>
@@ -8290,16 +8290,16 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>9661.719999999999</v>
+        <v>9555.01</v>
       </c>
       <c r="C236" t="n">
-        <v>9720.959999999999</v>
+        <v>9670.969999999999</v>
       </c>
       <c r="D236" t="n">
-        <v>9661.719999999999</v>
+        <v>9555.01</v>
       </c>
       <c r="E236" t="n">
-        <v>9707.040000000001</v>
+        <v>9641.559999999999</v>
       </c>
       <c r="G236" s="1">
         <f>AVERAGE(E232:E236)</f>
@@ -8319,16 +8319,16 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>9741.450000000001</v>
+        <v>9649.969999999999</v>
       </c>
       <c r="C237" t="n">
-        <v>9835.559999999999</v>
+        <v>9727.41</v>
       </c>
       <c r="D237" t="n">
-        <v>9741.450000000001</v>
+        <v>9630.77</v>
       </c>
       <c r="E237" t="n">
-        <v>9816.450000000001</v>
+        <v>9727.41</v>
       </c>
       <c r="G237" s="1">
         <f>AVERAGE(E233:E237)</f>
@@ -8348,16 +8348,16 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>9827.32</v>
+        <v>9725.27</v>
       </c>
       <c r="C238" t="n">
-        <v>9871.959999999999</v>
+        <v>9737.68</v>
       </c>
       <c r="D238" t="n">
-        <v>9815.5</v>
+        <v>9542.52</v>
       </c>
       <c r="E238" t="n">
-        <v>9858.76</v>
+        <v>9554.139999999999</v>
       </c>
       <c r="G238" s="1">
         <f>AVERAGE(E234:E238)</f>
@@ -8377,16 +8377,16 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>9818.950000000001</v>
+        <v>9494.25</v>
       </c>
       <c r="C239" t="n">
-        <v>9818.950000000001</v>
+        <v>9554.530000000001</v>
       </c>
       <c r="D239" t="n">
-        <v>9718.940000000001</v>
+        <v>9474.469999999999</v>
       </c>
       <c r="E239" t="n">
-        <v>9774.16</v>
+        <v>9492.42</v>
       </c>
       <c r="G239" s="1">
         <f>AVERAGE(E235:E239)</f>
@@ -8406,16 +8406,16 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>9762.49</v>
+        <v>9427.24</v>
       </c>
       <c r="C240" t="n">
-        <v>9826.879999999999</v>
+        <v>9427.24</v>
       </c>
       <c r="D240" t="n">
-        <v>9733.98</v>
+        <v>9319.280000000001</v>
       </c>
       <c r="E240" t="n">
-        <v>9787.530000000001</v>
+        <v>9382.51</v>
       </c>
       <c r="G240" s="1">
         <f>AVERAGE(E236:E240)</f>
@@ -8435,16 +8435,16 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>9756.459999999999</v>
+        <v>9460.200000000001</v>
       </c>
       <c r="C241" t="n">
-        <v>9756.67</v>
+        <v>9596.35</v>
       </c>
       <c r="D241" t="n">
-        <v>9701.1</v>
+        <v>9460.200000000001</v>
       </c>
       <c r="E241" t="n">
-        <v>9718.82</v>
+        <v>9590.299999999999</v>
       </c>
       <c r="G241" s="1">
         <f>AVERAGE(E237:E241)</f>
@@ -8464,16 +8464,16 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>9720.92</v>
+        <v>9591.559999999999</v>
       </c>
       <c r="C242" t="n">
-        <v>9783.209999999999</v>
+        <v>9600.940000000001</v>
       </c>
       <c r="D242" t="n">
-        <v>9720.92</v>
+        <v>9547.629999999999</v>
       </c>
       <c r="E242" t="n">
-        <v>9783.209999999999</v>
+        <v>9563.6</v>
       </c>
       <c r="G242" s="1">
         <f>AVERAGE(E238:E242)</f>
@@ -8493,16 +8493,16 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>9729.290000000001</v>
+        <v>9584.629999999999</v>
       </c>
       <c r="C243" t="n">
-        <v>9741.549999999999</v>
+        <v>9741.639999999999</v>
       </c>
       <c r="D243" t="n">
-        <v>9658.5</v>
+        <v>9584.629999999999</v>
       </c>
       <c r="E243" t="n">
-        <v>9674.52</v>
+        <v>9738.309999999999</v>
       </c>
       <c r="G243" s="1">
         <f>AVERAGE(E239:E243)</f>
@@ -8522,16 +8522,16 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>9648.98</v>
+        <v>9731.110000000001</v>
       </c>
       <c r="C244" t="n">
-        <v>9683.950000000001</v>
+        <v>9731.110000000001</v>
       </c>
       <c r="D244" t="n">
-        <v>9585.32</v>
+        <v>9683.200000000001</v>
       </c>
       <c r="E244" t="n">
-        <v>9676.67</v>
+        <v>9720.690000000001</v>
       </c>
       <c r="G244" s="1">
         <f>AVERAGE(E240:E244)</f>
@@ -8551,16 +8551,16 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>9639.24</v>
+        <v>9753.629999999999</v>
       </c>
       <c r="C245" t="n">
-        <v>9652.190000000001</v>
+        <v>9796.98</v>
       </c>
       <c r="D245" t="n">
-        <v>9625.309999999999</v>
+        <v>9736</v>
       </c>
       <c r="E245" t="n">
-        <v>9646.16</v>
+        <v>9759.4</v>
       </c>
       <c r="G245" s="1">
         <f>AVERAGE(E241:E245)</f>
@@ -8580,16 +8580,16 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>9646.530000000001</v>
+        <v>9737.67</v>
       </c>
       <c r="C246" t="n">
-        <v>9658.950000000001</v>
+        <v>9762.370000000001</v>
       </c>
       <c r="D246" t="n">
-        <v>9613.290000000001</v>
+        <v>9677.49</v>
       </c>
       <c r="E246" t="n">
-        <v>9639.700000000001</v>
+        <v>9708.219999999999</v>
       </c>
       <c r="G246" s="1">
         <f>AVERAGE(E242:E246)</f>
@@ -8609,16 +8609,16 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>9559.700000000001</v>
+        <v>9701.93</v>
       </c>
       <c r="C247" t="n">
-        <v>9559.700000000001</v>
+        <v>9806.040000000001</v>
       </c>
       <c r="D247" t="n">
-        <v>9479.059999999999</v>
+        <v>9701.93</v>
       </c>
       <c r="E247" t="n">
-        <v>9527.09</v>
+        <v>9806.040000000001</v>
       </c>
       <c r="G247" s="1">
         <f>AVERAGE(E243:E247)</f>
@@ -8638,16 +8638,16 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>9544.870000000001</v>
+        <v>9781.35</v>
       </c>
       <c r="C248" t="n">
-        <v>9591.91</v>
+        <v>9803.99</v>
       </c>
       <c r="D248" t="n">
-        <v>9473.299999999999</v>
+        <v>9763.809999999999</v>
       </c>
       <c r="E248" t="n">
-        <v>9478.99</v>
+        <v>9763.809999999999</v>
       </c>
       <c r="G248" s="1">
         <f>AVERAGE(E244:E248)</f>
@@ -8667,16 +8667,16 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>9555.01</v>
+        <v>9773.309999999999</v>
       </c>
       <c r="C249" t="n">
-        <v>9670.969999999999</v>
+        <v>9826.25</v>
       </c>
       <c r="D249" t="n">
-        <v>9555.01</v>
+        <v>9759.51</v>
       </c>
       <c r="E249" t="n">
-        <v>9641.559999999999</v>
+        <v>9789.15</v>
       </c>
       <c r="G249" s="1">
         <f>AVERAGE(E245:E249)</f>
@@ -8696,16 +8696,16 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>9649.969999999999</v>
+        <v>9781.389999999999</v>
       </c>
       <c r="C250" t="n">
-        <v>9727.41</v>
+        <v>9842.799999999999</v>
       </c>
       <c r="D250" t="n">
-        <v>9630.77</v>
+        <v>9771.15</v>
       </c>
       <c r="E250" t="n">
-        <v>9727.41</v>
+        <v>9836.059999999999</v>
       </c>
       <c r="G250" s="1">
         <f>AVERAGE(E246:E250)</f>
@@ -8725,16 +8725,16 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>9725.27</v>
+        <v>9870.27</v>
       </c>
       <c r="C251" t="n">
-        <v>9737.68</v>
+        <v>9919.940000000001</v>
       </c>
       <c r="D251" t="n">
-        <v>9542.52</v>
+        <v>9870.27</v>
       </c>
       <c r="E251" t="n">
-        <v>9554.139999999999</v>
+        <v>9889.4</v>
       </c>
       <c r="G251" s="1">
         <f>AVERAGE(E247:E251)</f>
@@ -8754,16 +8754,16 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>9494.25</v>
+        <v>9880.540000000001</v>
       </c>
       <c r="C252" t="n">
-        <v>9554.530000000001</v>
+        <v>9894.66</v>
       </c>
       <c r="D252" t="n">
-        <v>9474.469999999999</v>
+        <v>9855.469999999999</v>
       </c>
       <c r="E252" t="n">
-        <v>9492.42</v>
+        <v>9894.66</v>
       </c>
       <c r="G252" s="1">
         <f>AVERAGE(E248:E252)</f>
@@ -8783,16 +8783,16 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>9427.24</v>
+        <v>9869.540000000001</v>
       </c>
       <c r="C253" t="n">
-        <v>9427.24</v>
+        <v>9873.389999999999</v>
       </c>
       <c r="D253" t="n">
-        <v>9319.280000000001</v>
+        <v>9828.030000000001</v>
       </c>
       <c r="E253" t="n">
-        <v>9382.51</v>
+        <v>9846.4</v>
       </c>
       <c r="G253" s="1">
         <f>AVERAGE(E249:E253)</f>
@@ -8812,16 +8812,16 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>9460.200000000001</v>
+        <v>9865</v>
       </c>
       <c r="C254" t="n">
-        <v>9596.35</v>
+        <v>9892.82</v>
       </c>
       <c r="D254" t="n">
-        <v>9460.200000000001</v>
+        <v>9847.32</v>
       </c>
       <c r="E254" t="n">
-        <v>9590.299999999999</v>
+        <v>9877.120000000001</v>
       </c>
       <c r="G254" s="1">
         <f>AVERAGE(E250:E254)</f>
@@ -8841,16 +8841,16 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>9591.559999999999</v>
+        <v>9923.389999999999</v>
       </c>
       <c r="C255" t="n">
-        <v>9600.940000000001</v>
+        <v>9980.08</v>
       </c>
       <c r="D255" t="n">
-        <v>9547.629999999999</v>
+        <v>9918.209999999999</v>
       </c>
       <c r="E255" t="n">
-        <v>9563.6</v>
+        <v>9969.610000000001</v>
       </c>
       <c r="G255" s="1">
         <f>AVERAGE(E251:E255)</f>
@@ -8870,16 +8870,16 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>9584.629999999999</v>
+        <v>10006.46</v>
       </c>
       <c r="C256" t="n">
-        <v>9741.639999999999</v>
+        <v>10020.6</v>
       </c>
       <c r="D256" t="n">
-        <v>9584.629999999999</v>
+        <v>9990.07</v>
       </c>
       <c r="E256" t="n">
-        <v>9738.309999999999</v>
+        <v>10013.33</v>
       </c>
       <c r="G256" s="1">
         <f>AVERAGE(E252:E256)</f>
@@ -8899,16 +8899,16 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>9731.110000000001</v>
+        <v>9944.709999999999</v>
       </c>
       <c r="C257" t="n">
-        <v>9731.110000000001</v>
+        <v>9952.34</v>
       </c>
       <c r="D257" t="n">
-        <v>9683.200000000001</v>
+        <v>9893.959999999999</v>
       </c>
       <c r="E257" t="n">
-        <v>9720.690000000001</v>
+        <v>9931.59</v>
       </c>
       <c r="G257" s="1">
         <f>AVERAGE(E253:E257)</f>
@@ -8928,16 +8928,16 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>9753.629999999999</v>
+        <v>9915.969999999999</v>
       </c>
       <c r="C258" t="n">
-        <v>9796.98</v>
+        <v>9959.030000000001</v>
       </c>
       <c r="D258" t="n">
-        <v>9736</v>
+        <v>9909.809999999999</v>
       </c>
       <c r="E258" t="n">
-        <v>9759.4</v>
+        <v>9932.26</v>
       </c>
       <c r="G258" s="1">
         <f>AVERAGE(E254:E258)</f>
@@ -8957,16 +8957,16 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>9737.67</v>
+        <v>10029.84</v>
       </c>
       <c r="C259" t="n">
-        <v>9762.370000000001</v>
+        <v>10065.52</v>
       </c>
       <c r="D259" t="n">
-        <v>9677.49</v>
+        <v>9988.83</v>
       </c>
       <c r="E259" t="n">
-        <v>9708.219999999999</v>
+        <v>10004.25</v>
       </c>
       <c r="G259" s="1">
         <f>AVERAGE(E255:E259)</f>
@@ -8986,16 +8986,16 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>9701.93</v>
+        <v>10032.08</v>
       </c>
       <c r="C260" t="n">
-        <v>9806.040000000001</v>
+        <v>10100.23</v>
       </c>
       <c r="D260" t="n">
-        <v>9701.93</v>
+        <v>10032.08</v>
       </c>
       <c r="E260" t="n">
-        <v>9806.040000000001</v>
+        <v>10097.74</v>
       </c>
       <c r="G260" s="1">
         <f>AVERAGE(E256:E260)</f>
@@ -9015,16 +9015,16 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>9781.35</v>
+        <v>10123.61</v>
       </c>
       <c r="C261" t="n">
-        <v>9803.99</v>
+        <v>10140.98</v>
       </c>
       <c r="D261" t="n">
-        <v>9763.809999999999</v>
+        <v>10074.34</v>
       </c>
       <c r="E261" t="n">
-        <v>9763.809999999999</v>
+        <v>10090.58</v>
       </c>
       <c r="G261" s="1">
         <f>AVERAGE(E257:E261)</f>
@@ -9044,16 +9044,16 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>9773.309999999999</v>
+        <v>10095.99</v>
       </c>
       <c r="C262" t="n">
-        <v>9826.25</v>
+        <v>10135.62</v>
       </c>
       <c r="D262" t="n">
-        <v>9759.51</v>
+        <v>10082</v>
       </c>
       <c r="E262" t="n">
-        <v>9789.15</v>
+        <v>10089.01</v>
       </c>
       <c r="G262" s="1">
         <f>AVERAGE(E258:E262)</f>
@@ -9073,16 +9073,16 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>9781.389999999999</v>
+        <v>10111.18</v>
       </c>
       <c r="C263" t="n">
-        <v>9842.799999999999</v>
+        <v>10135.16</v>
       </c>
       <c r="D263" t="n">
-        <v>9771.15</v>
+        <v>10055.5</v>
       </c>
       <c r="E263" t="n">
-        <v>9836.059999999999</v>
+        <v>10064.78</v>
       </c>
       <c r="G263" s="1">
         <f>AVERAGE(E259:E263)</f>
@@ -9102,16 +9102,16 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>9870.27</v>
+        <v>10096.94</v>
       </c>
       <c r="C264" t="n">
-        <v>9919.940000000001</v>
+        <v>10165.77</v>
       </c>
       <c r="D264" t="n">
-        <v>9870.27</v>
+        <v>10096.94</v>
       </c>
       <c r="E264" t="n">
-        <v>9889.4</v>
+        <v>10145.28</v>
       </c>
       <c r="G264" s="1">
         <f>AVERAGE(E260:E264)</f>
@@ -9131,16 +9131,16 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>9880.540000000001</v>
+        <v>10152.11</v>
       </c>
       <c r="C265" t="n">
-        <v>9894.66</v>
+        <v>10173.47</v>
       </c>
       <c r="D265" t="n">
-        <v>9855.469999999999</v>
+        <v>10143.15</v>
       </c>
       <c r="E265" t="n">
-        <v>9894.66</v>
+        <v>10152.26</v>
       </c>
       <c r="G265" s="1">
         <f>AVERAGE(E261:E265)</f>
@@ -9160,16 +9160,16 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>9869.540000000001</v>
+        <v>10181.94</v>
       </c>
       <c r="C266" t="n">
-        <v>9873.389999999999</v>
+        <v>10272.46</v>
       </c>
       <c r="D266" t="n">
-        <v>9828.030000000001</v>
+        <v>10181.94</v>
       </c>
       <c r="E266" t="n">
-        <v>9846.4</v>
+        <v>10272.46</v>
       </c>
       <c r="G266" s="1">
         <f>AVERAGE(E262:E266)</f>
@@ -9189,16 +9189,16 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>9865</v>
+        <v>10282.32</v>
       </c>
       <c r="C267" t="n">
-        <v>9892.82</v>
+        <v>10319.53</v>
       </c>
       <c r="D267" t="n">
-        <v>9847.32</v>
+        <v>10256.53</v>
       </c>
       <c r="E267" t="n">
-        <v>9877.120000000001</v>
+        <v>10319.53</v>
       </c>
       <c r="G267" s="1">
         <f>AVERAGE(E263:E267)</f>
@@ -9218,16 +9218,16 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>9923.389999999999</v>
+        <v>10309.02</v>
       </c>
       <c r="C268" t="n">
-        <v>9980.08</v>
+        <v>10322.92</v>
       </c>
       <c r="D268" t="n">
-        <v>9918.209999999999</v>
+        <v>10269.95</v>
       </c>
       <c r="E268" t="n">
-        <v>9969.610000000001</v>
+        <v>10322.92</v>
       </c>
       <c r="G268" s="1">
         <f>AVERAGE(E264:E268)</f>
@@ -9247,16 +9247,16 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>10006.46</v>
+        <v>10343.45</v>
       </c>
       <c r="C269" t="n">
-        <v>10020.6</v>
+        <v>10390.93</v>
       </c>
       <c r="D269" t="n">
-        <v>9990.07</v>
+        <v>10343.45</v>
       </c>
       <c r="E269" t="n">
-        <v>10013.33</v>
+        <v>10390.93</v>
       </c>
       <c r="G269" s="1">
         <f>AVERAGE(E265:E269)</f>
@@ -9276,16 +9276,16 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>9944.709999999999</v>
+        <v>10403.03</v>
       </c>
       <c r="C270" t="n">
-        <v>9952.34</v>
+        <v>10416.91</v>
       </c>
       <c r="D270" t="n">
-        <v>9893.959999999999</v>
+        <v>10368.86</v>
       </c>
       <c r="E270" t="n">
-        <v>9931.59</v>
+        <v>10391.55</v>
       </c>
       <c r="G270" s="1">
         <f>AVERAGE(E266:E270)</f>
@@ -9305,16 +9305,16 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>9915.969999999999</v>
+        <v>10385.81</v>
       </c>
       <c r="C271" t="n">
-        <v>9959.030000000001</v>
+        <v>10403.05</v>
       </c>
       <c r="D271" t="n">
-        <v>9909.809999999999</v>
+        <v>10343.56</v>
       </c>
       <c r="E271" t="n">
-        <v>9932.26</v>
+        <v>10389.17</v>
       </c>
       <c r="G271" s="1">
         <f>AVERAGE(E267:E271)</f>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TWSE_IDX" sheetId="1" state="visible" r:id="rId1"/>
@@ -40,66 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2018/01/17</t>
-  </si>
-  <si>
-    <t>2018/01/18</t>
-  </si>
-  <si>
-    <t>2018/01/19</t>
-  </si>
-  <si>
-    <t>2018/01/22</t>
-  </si>
-  <si>
-    <t>2018/01/23</t>
-  </si>
-  <si>
-    <t>2018/01/24</t>
-  </si>
-  <si>
-    <t>2018/01/25</t>
-  </si>
-  <si>
-    <t>2018/01/26</t>
-  </si>
-  <si>
-    <t>2018/01/29</t>
-  </si>
-  <si>
-    <t>2018/01/30</t>
-  </si>
-  <si>
-    <t>2018/01/31</t>
-  </si>
-  <si>
-    <t>2018/02/01</t>
-  </si>
-  <si>
-    <t>2018/02/02</t>
-  </si>
-  <si>
-    <t>2018/02/05</t>
-  </si>
-  <si>
-    <t>2018/02/06</t>
-  </si>
-  <si>
-    <t>2018/02/07</t>
-  </si>
-  <si>
-    <t>2018/02/08</t>
-  </si>
-  <si>
-    <t>2018/02/09</t>
-  </si>
-  <si>
-    <t>2018/02/12</t>
-  </si>
-  <si>
-    <t>2018/02/21</t>
-  </si>
-  <si>
     <t>2018/02/22</t>
   </si>
   <si>
@@ -848,15 +788,73 @@
   </si>
   <si>
     <t>2019/02/27</t>
+  </si>
+  <si>
+    <t>2019/03/04</t>
+  </si>
+  <si>
+    <t>2019/03/05</t>
+  </si>
+  <si>
+    <t>2019/03/06</t>
+  </si>
+  <si>
+    <t>2019/03/07</t>
+  </si>
+  <si>
+    <t>2019/03/08</t>
+  </si>
+  <si>
+    <t>2019/03/11</t>
+  </si>
+  <si>
+    <t>2019/03/12</t>
+  </si>
+  <si>
+    <t>2019/03/13</t>
+  </si>
+  <si>
+    <t>2019/03/14</t>
+  </si>
+  <si>
+    <t>2019/03/15</t>
+  </si>
+  <si>
+    <t>2019/03/18</t>
+  </si>
+  <si>
+    <t>2019/03/19</t>
+  </si>
+  <si>
+    <t>2019/03/20</t>
+  </si>
+  <si>
+    <t>2019/03/21</t>
+  </si>
+  <si>
+    <t>2019/03/22</t>
+  </si>
+  <si>
+    <t>2019/03/25</t>
+  </si>
+  <si>
+    <t>2019/03/26</t>
+  </si>
+  <si>
+    <t>2019/03/27</t>
+  </si>
+  <si>
+    <t>2019/03/28</t>
+  </si>
+  <si>
+    <t>2019/03/29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="0.00" numFmtId="164"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -907,12 +905,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1346,6 +1345,17 @@
         <axId val="10"/>
         <axId val="100"/>
       </stockChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
       <valAx>
         <axId val="20"/>
         <scaling>
@@ -1353,6 +1363,8 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
         <crosses val="max"/>
       </valAx>
@@ -1374,18 +1386,12 @@
             </rich>
           </tx>
         </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
         <crossAx val="10"/>
       </valAx>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
     </plotArea>
+    <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
 </chartSpace>
@@ -1717,7 +1723,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="15.7109375"/>
     <col customWidth="1" max="5" min="2" width="11.7109375"/>
-    <col customWidth="1" max="9" min="7" style="1" width="11.7109375"/>
+    <col customWidth="1" max="9" min="7" style="3" width="11.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1752,16 +1758,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10976.13</v>
+        <v>10698.47</v>
       </c>
       <c r="C2" t="n">
-        <v>11030.22</v>
+        <v>10698.47</v>
       </c>
       <c r="D2" t="n">
-        <v>10942.95</v>
+        <v>10620.8</v>
       </c>
       <c r="E2" t="n">
-        <v>11004.8</v>
+        <v>10662.38</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1769,16 +1775,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>11048.06</v>
+        <v>10688.97</v>
       </c>
       <c r="C3" t="n">
-        <v>11122.82</v>
+        <v>10799.29</v>
       </c>
       <c r="D3" t="n">
-        <v>11048.06</v>
+        <v>10688.97</v>
       </c>
       <c r="E3" t="n">
-        <v>11071.57</v>
+        <v>10794.55</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1786,16 +1792,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>11123.58</v>
+        <v>10827.98</v>
       </c>
       <c r="C4" t="n">
-        <v>11150.85</v>
+        <v>10890.69</v>
       </c>
       <c r="D4" t="n">
-        <v>11095.85</v>
+        <v>10827.98</v>
       </c>
       <c r="E4" t="n">
-        <v>11150.85</v>
+        <v>10836.7</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1803,16 +1809,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>11169.79</v>
+        <v>10896.16</v>
       </c>
       <c r="C5" t="n">
-        <v>11231.46</v>
+        <v>10937.9</v>
       </c>
       <c r="D5" t="n">
-        <v>11142.38</v>
+        <v>10815.47</v>
       </c>
       <c r="E5" t="n">
-        <v>11231.46</v>
+        <v>10815.47</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1820,18 +1826,18 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>11243.49</v>
+        <v>10779.1</v>
       </c>
       <c r="C6" t="n">
-        <v>11270.18</v>
+        <v>10805.55</v>
       </c>
       <c r="D6" t="n">
-        <v>11201.52</v>
+        <v>10709.69</v>
       </c>
       <c r="E6" t="n">
-        <v>11253.11</v>
-      </c>
-      <c r="G6" s="1">
+        <v>10785.79</v>
+      </c>
+      <c r="G6" s="3">
         <f>AVERAGE(E2:E6)</f>
         <v/>
       </c>
@@ -1841,18 +1847,18 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>11228.71</v>
+        <v>10719.29</v>
       </c>
       <c r="C7" t="n">
-        <v>11228.71</v>
+        <v>10719.29</v>
       </c>
       <c r="D7" t="n">
-        <v>11107.32</v>
+        <v>10638.98</v>
       </c>
       <c r="E7" t="n">
-        <v>11152.16</v>
-      </c>
-      <c r="G7" s="1">
+        <v>10698.17</v>
+      </c>
+      <c r="G7" s="3">
         <f>AVERAGE(E3:E7)</f>
         <v/>
       </c>
@@ -1862,18 +1868,18 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>11154.36</v>
+        <v>10727.45</v>
       </c>
       <c r="C8" t="n">
-        <v>11268.61</v>
+        <v>10756.37</v>
       </c>
       <c r="D8" t="n">
-        <v>11131.85</v>
+        <v>10642.9</v>
       </c>
       <c r="E8" t="n">
-        <v>11165.95</v>
-      </c>
-      <c r="G8" s="1">
+        <v>10642.9</v>
+      </c>
+      <c r="G8" s="3">
         <f>AVERAGE(E4:E8)</f>
         <v/>
       </c>
@@ -1883,18 +1889,18 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>11152.53</v>
+        <v>10711.15</v>
       </c>
       <c r="C9" t="n">
-        <v>11178.3</v>
+        <v>10784.34</v>
       </c>
       <c r="D9" t="n">
-        <v>11089.48</v>
+        <v>10711.15</v>
       </c>
       <c r="E9" t="n">
-        <v>11147.1</v>
-      </c>
-      <c r="G9" s="1">
+        <v>10784.34</v>
+      </c>
+      <c r="G9" s="3">
         <f>AVERAGE(E5:E9)</f>
         <v/>
       </c>
@@ -1904,18 +1910,18 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>11202.27</v>
+        <v>10762.99</v>
       </c>
       <c r="C10" t="n">
-        <v>11246.18</v>
+        <v>10818.05</v>
       </c>
       <c r="D10" t="n">
-        <v>11161.83</v>
+        <v>10745.32</v>
       </c>
       <c r="E10" t="n">
-        <v>11221.81</v>
-      </c>
-      <c r="G10" s="1">
+        <v>10745.32</v>
+      </c>
+      <c r="G10" s="3">
         <f>AVERAGE(E6:E10)</f>
         <v/>
       </c>
@@ -1925,18 +1931,18 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>11189.57</v>
+        <v>10788.43</v>
       </c>
       <c r="C11" t="n">
-        <v>11189.57</v>
+        <v>10852.33</v>
       </c>
       <c r="D11" t="n">
-        <v>11076.78</v>
+        <v>10788.43</v>
       </c>
       <c r="E11" t="n">
-        <v>11076.78</v>
-      </c>
-      <c r="G11" s="1">
+        <v>10823.24</v>
+      </c>
+      <c r="G11" s="3">
         <f>AVERAGE(E7:E11)</f>
         <v/>
       </c>
@@ -1946,18 +1952,18 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>11054.36</v>
+        <v>10847.74</v>
       </c>
       <c r="C12" t="n">
-        <v>11158.29</v>
+        <v>10882.76</v>
       </c>
       <c r="D12" t="n">
-        <v>11007.89</v>
+        <v>10845.38</v>
       </c>
       <c r="E12" t="n">
-        <v>11103.79</v>
-      </c>
-      <c r="G12" s="1">
+        <v>10864.82</v>
+      </c>
+      <c r="G12" s="3">
         <f>AVERAGE(E8:E12)</f>
         <v/>
       </c>
@@ -1967,18 +1973,18 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>11139.4</v>
+        <v>10908.99</v>
       </c>
       <c r="C13" t="n">
-        <v>11212.1</v>
+        <v>11016.56</v>
       </c>
       <c r="D13" t="n">
-        <v>11139.4</v>
+        <v>10908.99</v>
       </c>
       <c r="E13" t="n">
-        <v>11160.25</v>
-      </c>
-      <c r="G13" s="1">
+        <v>11002.1</v>
+      </c>
+      <c r="G13" s="3">
         <f>AVERAGE(E9:E13)</f>
         <v/>
       </c>
@@ -1988,18 +1994,18 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>11151.65</v>
+        <v>11022.15</v>
       </c>
       <c r="C14" t="n">
-        <v>11153.32</v>
+        <v>11095.63</v>
       </c>
       <c r="D14" t="n">
-        <v>11070.43</v>
+        <v>11014.87</v>
       </c>
       <c r="E14" t="n">
-        <v>11126.23</v>
-      </c>
-      <c r="G14" s="1">
+        <v>11095.63</v>
+      </c>
+      <c r="G14" s="3">
         <f>AVERAGE(E10:E14)</f>
         <v/>
       </c>
@@ -2009,18 +2015,18 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>10970.3</v>
+        <v>11063.73</v>
       </c>
       <c r="C15" t="n">
-        <v>10970.3</v>
+        <v>11070.29</v>
       </c>
       <c r="D15" t="n">
-        <v>10855.43</v>
+        <v>11015.47</v>
       </c>
       <c r="E15" t="n">
-        <v>10946.25</v>
-      </c>
-      <c r="G15" s="1">
+        <v>11038.8</v>
+      </c>
+      <c r="G15" s="3">
         <f>AVERAGE(E11:E15)</f>
         <v/>
       </c>
@@ -2030,18 +2036,18 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>10761.01</v>
+        <v>11039.6</v>
       </c>
       <c r="C16" t="n">
-        <v>10761.01</v>
+        <v>11052.11</v>
       </c>
       <c r="D16" t="n">
-        <v>10300.4</v>
+        <v>11008.18</v>
       </c>
       <c r="E16" t="n">
-        <v>10404</v>
-      </c>
-      <c r="G16" s="1">
+        <v>11018.45</v>
+      </c>
+      <c r="G16" s="3">
         <f>AVERAGE(E12:E16)</f>
         <v/>
       </c>
@@ -2051,18 +2057,18 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>10547.64</v>
+        <v>11010.24</v>
       </c>
       <c r="C17" t="n">
-        <v>10697.82</v>
+        <v>11054.86</v>
       </c>
       <c r="D17" t="n">
-        <v>10547.64</v>
+        <v>10933.46</v>
       </c>
       <c r="E17" t="n">
-        <v>10551.54</v>
-      </c>
-      <c r="G17" s="1">
+        <v>11027.7</v>
+      </c>
+      <c r="G17" s="3">
         <f>AVERAGE(E13:E17)</f>
         <v/>
       </c>
@@ -2072,18 +2078,18 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>10559.44</v>
+        <v>11004.81</v>
       </c>
       <c r="C18" t="n">
-        <v>10609.5</v>
+        <v>11066</v>
       </c>
       <c r="D18" t="n">
-        <v>10512.93</v>
+        <v>10983.25</v>
       </c>
       <c r="E18" t="n">
-        <v>10528.52</v>
-      </c>
-      <c r="G18" s="1">
+        <v>11046.9</v>
+      </c>
+      <c r="G18" s="3">
         <f>AVERAGE(E14:E18)</f>
         <v/>
       </c>
@@ -2093,18 +2099,18 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>10371.01</v>
+        <v>11016.85</v>
       </c>
       <c r="C19" t="n">
-        <v>10392.31</v>
+        <v>11020.78</v>
       </c>
       <c r="D19" t="n">
-        <v>10189.04</v>
+        <v>10981.04</v>
       </c>
       <c r="E19" t="n">
-        <v>10371.75</v>
-      </c>
-      <c r="G19" s="1">
+        <v>11010.84</v>
+      </c>
+      <c r="G19" s="3">
         <f>AVERAGE(E15:E19)</f>
         <v/>
       </c>
@@ -2114,18 +2120,18 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>10429.09</v>
+        <v>11037.35</v>
       </c>
       <c r="C20" t="n">
-        <v>10473.51</v>
+        <v>11072.31</v>
       </c>
       <c r="D20" t="n">
-        <v>10416.01</v>
+        <v>11011.07</v>
       </c>
       <c r="E20" t="n">
-        <v>10421.09</v>
-      </c>
-      <c r="G20" s="1">
+        <v>11011.07</v>
+      </c>
+      <c r="G20" s="3">
         <f>AVERAGE(E16:E20)</f>
         <v/>
       </c>
@@ -2135,18 +2141,18 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>10559.79</v>
+        <v>11045.9</v>
       </c>
       <c r="C21" t="n">
-        <v>10720.48</v>
+        <v>11120.2</v>
       </c>
       <c r="D21" t="n">
-        <v>10559.79</v>
+        <v>10975.33</v>
       </c>
       <c r="E21" t="n">
-        <v>10714.44</v>
-      </c>
-      <c r="G21" s="1">
+        <v>11005.84</v>
+      </c>
+      <c r="G21" s="3">
         <f>AVERAGE(E17:E21)</f>
         <v/>
       </c>
@@ -2156,18 +2162,18 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>10698.47</v>
+        <v>10863.67</v>
       </c>
       <c r="C22" t="n">
-        <v>10698.47</v>
+        <v>10863.67</v>
       </c>
       <c r="D22" t="n">
-        <v>10620.8</v>
+        <v>10758.06</v>
       </c>
       <c r="E22" t="n">
-        <v>10662.38</v>
-      </c>
-      <c r="G22" s="1">
+        <v>10823.33</v>
+      </c>
+      <c r="G22" s="3">
         <f>AVERAGE(E18:E22)</f>
         <v/>
       </c>
@@ -2177,18 +2183,18 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>10688.97</v>
+        <v>10783.57</v>
       </c>
       <c r="C23" t="n">
-        <v>10799.29</v>
+        <v>10840.05</v>
       </c>
       <c r="D23" t="n">
-        <v>10688.97</v>
+        <v>10781.43</v>
       </c>
       <c r="E23" t="n">
-        <v>10794.55</v>
-      </c>
-      <c r="G23" s="1">
+        <v>10840.05</v>
+      </c>
+      <c r="G23" s="3">
         <f>AVERAGE(E19:E23)</f>
         <v/>
       </c>
@@ -2198,18 +2204,18 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>10827.98</v>
+        <v>10901.69</v>
       </c>
       <c r="C24" t="n">
-        <v>10890.69</v>
+        <v>10986.79</v>
       </c>
       <c r="D24" t="n">
-        <v>10827.98</v>
+        <v>10901.69</v>
       </c>
       <c r="E24" t="n">
-        <v>10836.7</v>
-      </c>
-      <c r="G24" s="1">
+        <v>10986.79</v>
+      </c>
+      <c r="G24" s="3">
         <f>AVERAGE(E20:E24)</f>
         <v/>
       </c>
@@ -2219,18 +2225,18 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>10896.16</v>
+        <v>10939.97</v>
       </c>
       <c r="C25" t="n">
-        <v>10937.9</v>
+        <v>10939.97</v>
       </c>
       <c r="D25" t="n">
-        <v>10815.47</v>
+        <v>10853.48</v>
       </c>
       <c r="E25" t="n">
-        <v>10815.47</v>
-      </c>
-      <c r="G25" s="1">
+        <v>10865.66</v>
+      </c>
+      <c r="G25" s="3">
         <f>AVERAGE(E21:E25)</f>
         <v/>
       </c>
@@ -2240,18 +2246,18 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10779.1</v>
+        <v>10855.66</v>
       </c>
       <c r="C26" t="n">
-        <v>10805.55</v>
+        <v>10889.6</v>
       </c>
       <c r="D26" t="n">
-        <v>10709.69</v>
+        <v>10815.46</v>
       </c>
       <c r="E26" t="n">
-        <v>10785.79</v>
-      </c>
-      <c r="G26" s="1">
+        <v>10845.92</v>
+      </c>
+      <c r="G26" s="3">
         <f>AVERAGE(E22:E26)</f>
         <v/>
       </c>
@@ -2261,18 +2267,18 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>10719.29</v>
+        <v>10905.3</v>
       </c>
       <c r="C27" t="n">
-        <v>10719.29</v>
+        <v>10969.22</v>
       </c>
       <c r="D27" t="n">
-        <v>10638.98</v>
+        <v>10905.3</v>
       </c>
       <c r="E27" t="n">
-        <v>10698.17</v>
-      </c>
-      <c r="G27" s="1">
+        <v>10906.22</v>
+      </c>
+      <c r="G27" s="3">
         <f>AVERAGE(E23:E27)</f>
         <v/>
       </c>
@@ -2282,18 +2288,18 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10727.45</v>
+        <v>10925.71</v>
       </c>
       <c r="C28" t="n">
-        <v>10756.37</v>
+        <v>10947.16</v>
       </c>
       <c r="D28" t="n">
-        <v>10642.9</v>
+        <v>10905.69</v>
       </c>
       <c r="E28" t="n">
-        <v>10642.9</v>
-      </c>
-      <c r="G28" s="1">
+        <v>10919.49</v>
+      </c>
+      <c r="G28" s="3">
         <f>AVERAGE(E24:E28)</f>
         <v/>
       </c>
@@ -2303,18 +2309,18 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10711.15</v>
+        <v>10936.26</v>
       </c>
       <c r="C29" t="n">
-        <v>10784.34</v>
+        <v>10969.88</v>
       </c>
       <c r="D29" t="n">
-        <v>10711.15</v>
+        <v>10882.05</v>
       </c>
       <c r="E29" t="n">
-        <v>10784.34</v>
-      </c>
-      <c r="G29" s="1">
+        <v>10888.27</v>
+      </c>
+      <c r="G29" s="3">
         <f>AVERAGE(E25:E29)</f>
         <v/>
       </c>
@@ -2324,18 +2330,18 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10762.99</v>
+        <v>10837.54</v>
       </c>
       <c r="C30" t="n">
-        <v>10818.05</v>
+        <v>10837.54</v>
       </c>
       <c r="D30" t="n">
-        <v>10745.32</v>
+        <v>10775.45</v>
       </c>
       <c r="E30" t="n">
-        <v>10745.32</v>
-      </c>
-      <c r="G30" s="1">
+        <v>10821.53</v>
+      </c>
+      <c r="G30" s="3">
         <f>AVERAGE(E26:E30)</f>
         <v/>
       </c>
@@ -2345,26 +2351,26 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10788.43</v>
+        <v>10880.14</v>
       </c>
       <c r="C31" t="n">
-        <v>10852.33</v>
+        <v>10904.75</v>
       </c>
       <c r="D31" t="n">
-        <v>10788.43</v>
+        <v>10829.02</v>
       </c>
       <c r="E31" t="n">
-        <v>10823.24</v>
-      </c>
-      <c r="G31" s="1">
+        <v>10893.53</v>
+      </c>
+      <c r="G31" s="3">
         <f>AVERAGE(E27:E31)</f>
         <v/>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="3">
         <f>AVERAGE(E2:E31)</f>
         <v/>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="3">
         <f>G31-H31</f>
         <v/>
       </c>
@@ -2374,26 +2380,26 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10847.74</v>
+        <v>10885.64</v>
       </c>
       <c r="C32" t="n">
-        <v>10882.76</v>
+        <v>10975.67</v>
       </c>
       <c r="D32" t="n">
-        <v>10845.38</v>
+        <v>10874.83</v>
       </c>
       <c r="E32" t="n">
-        <v>10864.82</v>
-      </c>
-      <c r="G32" s="1">
+        <v>10927.18</v>
+      </c>
+      <c r="G32" s="3">
         <f>AVERAGE(E28:E32)</f>
         <v/>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="3">
         <f>AVERAGE(E3:E32)</f>
         <v/>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="3">
         <f>G32-H32</f>
         <v/>
       </c>
@@ -2403,26 +2409,26 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10908.99</v>
+        <v>10961.7</v>
       </c>
       <c r="C33" t="n">
-        <v>11016.56</v>
+        <v>11016.35</v>
       </c>
       <c r="D33" t="n">
-        <v>10908.99</v>
+        <v>10953.31</v>
       </c>
       <c r="E33" t="n">
-        <v>11002.1</v>
-      </c>
-      <c r="G33" s="1">
+        <v>10974.02</v>
+      </c>
+      <c r="G33" s="3">
         <f>AVERAGE(E29:E33)</f>
         <v/>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="3">
         <f>AVERAGE(E4:E33)</f>
         <v/>
       </c>
-      <c r="I33" s="1">
+      <c r="I33" s="3">
         <f>G33-H33</f>
         <v/>
       </c>
@@ -2432,26 +2438,26 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>11022.15</v>
+        <v>10984.12</v>
       </c>
       <c r="C34" t="n">
-        <v>11095.63</v>
+        <v>11008.2</v>
       </c>
       <c r="D34" t="n">
-        <v>11014.87</v>
+        <v>10920.62</v>
       </c>
       <c r="E34" t="n">
-        <v>11095.63</v>
-      </c>
-      <c r="G34" s="1">
+        <v>10955.29</v>
+      </c>
+      <c r="G34" s="3">
         <f>AVERAGE(E30:E34)</f>
         <v/>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="3">
         <f>AVERAGE(E5:E34)</f>
         <v/>
       </c>
-      <c r="I34" s="1">
+      <c r="I34" s="3">
         <f>G34-H34</f>
         <v/>
       </c>
@@ -2461,26 +2467,26 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>11063.73</v>
+        <v>10975.58</v>
       </c>
       <c r="C35" t="n">
-        <v>11070.29</v>
+        <v>10988.23</v>
       </c>
       <c r="D35" t="n">
-        <v>11015.47</v>
+        <v>10938.37</v>
       </c>
       <c r="E35" t="n">
-        <v>11038.8</v>
-      </c>
-      <c r="G35" s="1">
+        <v>10965.39</v>
+      </c>
+      <c r="G35" s="3">
         <f>AVERAGE(E31:E35)</f>
         <v/>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="3">
         <f>AVERAGE(E6:E35)</f>
         <v/>
       </c>
-      <c r="I35" s="1">
+      <c r="I35" s="3">
         <f>G35-H35</f>
         <v/>
       </c>
@@ -2490,26 +2496,26 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>11039.6</v>
+        <v>10962.36</v>
       </c>
       <c r="C36" t="n">
-        <v>11052.11</v>
+        <v>10974.94</v>
       </c>
       <c r="D36" t="n">
-        <v>11008.18</v>
+        <v>10921.17</v>
       </c>
       <c r="E36" t="n">
-        <v>11018.45</v>
-      </c>
-      <c r="G36" s="1">
+        <v>10954.55</v>
+      </c>
+      <c r="G36" s="3">
         <f>AVERAGE(E32:E36)</f>
         <v/>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="3">
         <f>AVERAGE(E7:E36)</f>
         <v/>
       </c>
-      <c r="I36" s="1">
+      <c r="I36" s="3">
         <f>G36-H36</f>
         <v/>
       </c>
@@ -2519,26 +2525,26 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>11010.24</v>
+        <v>10953.51</v>
       </c>
       <c r="C37" t="n">
-        <v>11054.86</v>
+        <v>10965.2</v>
       </c>
       <c r="D37" t="n">
-        <v>10933.46</v>
+        <v>10799.07</v>
       </c>
       <c r="E37" t="n">
-        <v>11027.7</v>
-      </c>
-      <c r="G37" s="1">
+        <v>10810.45</v>
+      </c>
+      <c r="G37" s="3">
         <f>AVERAGE(E33:E37)</f>
         <v/>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="3">
         <f>AVERAGE(E8:E37)</f>
         <v/>
       </c>
-      <c r="I37" s="1">
+      <c r="I37" s="3">
         <f>G37-H37</f>
         <v/>
       </c>
@@ -2548,26 +2554,26 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>11004.81</v>
+        <v>10842.88</v>
       </c>
       <c r="C38" t="n">
-        <v>11066</v>
+        <v>10917.6</v>
       </c>
       <c r="D38" t="n">
-        <v>10983.25</v>
+        <v>10809.89</v>
       </c>
       <c r="E38" t="n">
-        <v>11046.9</v>
-      </c>
-      <c r="G38" s="1">
+        <v>10847.89</v>
+      </c>
+      <c r="G38" s="3">
         <f>AVERAGE(E34:E38)</f>
         <v/>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="3">
         <f>AVERAGE(E9:E38)</f>
         <v/>
       </c>
-      <c r="I38" s="1">
+      <c r="I38" s="3">
         <f>G38-H38</f>
         <v/>
       </c>
@@ -2577,26 +2583,26 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>11016.85</v>
+        <v>10891.66</v>
       </c>
       <c r="C39" t="n">
-        <v>11020.78</v>
+        <v>10983.96</v>
       </c>
       <c r="D39" t="n">
-        <v>10981.04</v>
+        <v>10889.71</v>
       </c>
       <c r="E39" t="n">
-        <v>11010.84</v>
-      </c>
-      <c r="G39" s="1">
+        <v>10971.22</v>
+      </c>
+      <c r="G39" s="3">
         <f>AVERAGE(E35:E39)</f>
         <v/>
       </c>
-      <c r="H39" s="1">
+      <c r="H39" s="3">
         <f>AVERAGE(E10:E39)</f>
         <v/>
       </c>
-      <c r="I39" s="1">
+      <c r="I39" s="3">
         <f>G39-H39</f>
         <v/>
       </c>
@@ -2606,26 +2612,26 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>11037.35</v>
+        <v>10802.42</v>
       </c>
       <c r="C40" t="n">
-        <v>11072.31</v>
+        <v>10831.56</v>
       </c>
       <c r="D40" t="n">
-        <v>11011.07</v>
+        <v>10770.05</v>
       </c>
       <c r="E40" t="n">
-        <v>11011.07</v>
-      </c>
-      <c r="G40" s="1">
+        <v>10779.38</v>
+      </c>
+      <c r="G40" s="3">
         <f>AVERAGE(E36:E40)</f>
         <v/>
       </c>
-      <c r="H40" s="1">
+      <c r="H40" s="3">
         <f>AVERAGE(E11:E40)</f>
         <v/>
       </c>
-      <c r="I40" s="1">
+      <c r="I40" s="3">
         <f>G40-H40</f>
         <v/>
       </c>
@@ -2635,26 +2641,26 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>11045.9</v>
+        <v>10756.89</v>
       </c>
       <c r="C41" t="n">
-        <v>11120.2</v>
+        <v>10774.73</v>
       </c>
       <c r="D41" t="n">
-        <v>10975.33</v>
+        <v>10687.25</v>
       </c>
       <c r="E41" t="n">
-        <v>11005.84</v>
-      </c>
-      <c r="G41" s="1">
+        <v>10697.13</v>
+      </c>
+      <c r="G41" s="3">
         <f>AVERAGE(E37:E41)</f>
         <v/>
       </c>
-      <c r="H41" s="1">
+      <c r="H41" s="3">
         <f>AVERAGE(E12:E41)</f>
         <v/>
       </c>
-      <c r="I41" s="1">
+      <c r="I41" s="3">
         <f>G41-H41</f>
         <v/>
       </c>
@@ -2664,26 +2670,26 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10863.67</v>
+        <v>10680.38</v>
       </c>
       <c r="C42" t="n">
-        <v>10863.67</v>
+        <v>10692.19</v>
       </c>
       <c r="D42" t="n">
-        <v>10758.06</v>
+        <v>10540.15</v>
       </c>
       <c r="E42" t="n">
-        <v>10823.33</v>
-      </c>
-      <c r="G42" s="1">
+        <v>10579.5</v>
+      </c>
+      <c r="G42" s="3">
         <f>AVERAGE(E38:E42)</f>
         <v/>
       </c>
-      <c r="H42" s="1">
+      <c r="H42" s="3">
         <f>AVERAGE(E13:E42)</f>
         <v/>
       </c>
-      <c r="I42" s="1">
+      <c r="I42" s="3">
         <f>G42-H42</f>
         <v/>
       </c>
@@ -2693,26 +2699,26 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10783.57</v>
+        <v>10541.83</v>
       </c>
       <c r="C43" t="n">
-        <v>10840.05</v>
+        <v>10573.73</v>
       </c>
       <c r="D43" t="n">
-        <v>10781.43</v>
+        <v>10489.2</v>
       </c>
       <c r="E43" t="n">
-        <v>10840.05</v>
-      </c>
-      <c r="G43" s="1">
+        <v>10559.97</v>
+      </c>
+      <c r="G43" s="3">
         <f>AVERAGE(E39:E43)</f>
         <v/>
       </c>
-      <c r="H43" s="1">
+      <c r="H43" s="3">
         <f>AVERAGE(E14:E43)</f>
         <v/>
       </c>
-      <c r="I43" s="1">
+      <c r="I43" s="3">
         <f>G43-H43</f>
         <v/>
       </c>
@@ -2722,26 +2728,26 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10901.69</v>
+        <v>10583.08</v>
       </c>
       <c r="C44" t="n">
-        <v>10986.79</v>
+        <v>10618.68</v>
       </c>
       <c r="D44" t="n">
-        <v>10901.69</v>
+        <v>10478.98</v>
       </c>
       <c r="E44" t="n">
-        <v>10986.79</v>
-      </c>
-      <c r="G44" s="1">
+        <v>10488.58</v>
+      </c>
+      <c r="G44" s="3">
         <f>AVERAGE(E40:E44)</f>
         <v/>
       </c>
-      <c r="H44" s="1">
+      <c r="H44" s="3">
         <f>AVERAGE(E15:E44)</f>
         <v/>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="3">
         <f>G44-H44</f>
         <v/>
       </c>
@@ -2751,26 +2757,26 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10939.97</v>
+        <v>10546.29</v>
       </c>
       <c r="C45" t="n">
-        <v>10939.97</v>
+        <v>10573.61</v>
       </c>
       <c r="D45" t="n">
-        <v>10853.48</v>
+        <v>10495.67</v>
       </c>
       <c r="E45" t="n">
-        <v>10865.66</v>
-      </c>
-      <c r="G45" s="1">
+        <v>10553.43</v>
+      </c>
+      <c r="G45" s="3">
         <f>AVERAGE(E41:E45)</f>
         <v/>
       </c>
-      <c r="H45" s="1">
+      <c r="H45" s="3">
         <f>AVERAGE(E16:E45)</f>
         <v/>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="3">
         <f>G45-H45</f>
         <v/>
       </c>
@@ -2780,26 +2786,26 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10855.66</v>
+        <v>10553.41</v>
       </c>
       <c r="C46" t="n">
-        <v>10889.6</v>
+        <v>10660.61</v>
       </c>
       <c r="D46" t="n">
-        <v>10815.46</v>
+        <v>10539.63</v>
       </c>
       <c r="E46" t="n">
-        <v>10845.92</v>
-      </c>
-      <c r="G46" s="1">
+        <v>10657.88</v>
+      </c>
+      <c r="G46" s="3">
         <f>AVERAGE(E42:E46)</f>
         <v/>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="3">
         <f>AVERAGE(E17:E46)</f>
         <v/>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="3">
         <f>G46-H46</f>
         <v/>
       </c>
@@ -2809,26 +2815,26 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10905.3</v>
+        <v>10665.52</v>
       </c>
       <c r="C47" t="n">
-        <v>10969.22</v>
+        <v>10683.9</v>
       </c>
       <c r="D47" t="n">
-        <v>10905.3</v>
+        <v>10601.1</v>
       </c>
       <c r="E47" t="n">
-        <v>10906.22</v>
-      </c>
-      <c r="G47" s="1">
+        <v>10618.81</v>
+      </c>
+      <c r="G47" s="3">
         <f>AVERAGE(E43:E47)</f>
         <v/>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="3">
         <f>AVERAGE(E18:E47)</f>
         <v/>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="3">
         <f>G47-H47</f>
         <v/>
       </c>
@@ -2838,26 +2844,26 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>10925.71</v>
+        <v>10578.98</v>
       </c>
       <c r="C48" t="n">
-        <v>10947.16</v>
+        <v>10578.98</v>
       </c>
       <c r="D48" t="n">
-        <v>10905.69</v>
+        <v>10509.03</v>
       </c>
       <c r="E48" t="n">
-        <v>10919.49</v>
-      </c>
-      <c r="G48" s="1">
+        <v>10514.18</v>
+      </c>
+      <c r="G48" s="3">
         <f>AVERAGE(E44:E48)</f>
         <v/>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="3">
         <f>AVERAGE(E19:E48)</f>
         <v/>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="3">
         <f>G48-H48</f>
         <v/>
       </c>
@@ -2867,26 +2873,26 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10936.26</v>
+        <v>10516.45</v>
       </c>
       <c r="C49" t="n">
-        <v>10969.88</v>
+        <v>10566.37</v>
       </c>
       <c r="D49" t="n">
-        <v>10882.05</v>
+        <v>10500.97</v>
       </c>
       <c r="E49" t="n">
-        <v>10888.27</v>
-      </c>
-      <c r="G49" s="1">
+        <v>10529.37</v>
+      </c>
+      <c r="G49" s="3">
         <f>AVERAGE(E45:E49)</f>
         <v/>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="3">
         <f>AVERAGE(E20:E49)</f>
         <v/>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="3">
         <f>G49-H49</f>
         <v/>
       </c>
@@ -2896,26 +2902,26 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10837.54</v>
+        <v>10581.78</v>
       </c>
       <c r="C50" t="n">
-        <v>10837.54</v>
+        <v>10632.62</v>
       </c>
       <c r="D50" t="n">
-        <v>10775.45</v>
+        <v>10555.56</v>
       </c>
       <c r="E50" t="n">
-        <v>10821.53</v>
-      </c>
-      <c r="G50" s="1">
+        <v>10604.91</v>
+      </c>
+      <c r="G50" s="3">
         <f>AVERAGE(E46:E50)</f>
         <v/>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="3">
         <f>AVERAGE(E21:E50)</f>
         <v/>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="3">
         <f>G50-H50</f>
         <v/>
       </c>
@@ -2925,26 +2931,26 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10880.14</v>
+        <v>10610.44</v>
       </c>
       <c r="C51" t="n">
-        <v>10904.75</v>
+        <v>10691.38</v>
       </c>
       <c r="D51" t="n">
-        <v>10829.02</v>
+        <v>10609.04</v>
       </c>
       <c r="E51" t="n">
-        <v>10893.53</v>
-      </c>
-      <c r="G51" s="1">
+        <v>10691.38</v>
+      </c>
+      <c r="G51" s="3">
         <f>AVERAGE(E47:E51)</f>
         <v/>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="3">
         <f>AVERAGE(E22:E51)</f>
         <v/>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="3">
         <f>G51-H51</f>
         <v/>
       </c>
@@ -2954,26 +2960,26 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10885.64</v>
+        <v>10692.89</v>
       </c>
       <c r="C52" t="n">
-        <v>10975.67</v>
+        <v>10748.6</v>
       </c>
       <c r="D52" t="n">
-        <v>10874.83</v>
+        <v>10689.81</v>
       </c>
       <c r="E52" t="n">
-        <v>10927.18</v>
-      </c>
-      <c r="G52" s="1">
+        <v>10703.35</v>
+      </c>
+      <c r="G52" s="3">
         <f>AVERAGE(E48:E52)</f>
         <v/>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="3">
         <f>AVERAGE(E23:E52)</f>
         <v/>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="3">
         <f>G52-H52</f>
         <v/>
       </c>
@@ -2983,26 +2989,26 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10961.7</v>
+        <v>10731.68</v>
       </c>
       <c r="C53" t="n">
-        <v>11016.35</v>
+        <v>10782.06</v>
       </c>
       <c r="D53" t="n">
-        <v>10953.31</v>
+        <v>10731.68</v>
       </c>
       <c r="E53" t="n">
-        <v>10974.02</v>
-      </c>
-      <c r="G53" s="1">
+        <v>10760.21</v>
+      </c>
+      <c r="G53" s="3">
         <f>AVERAGE(E49:E53)</f>
         <v/>
       </c>
-      <c r="H53" s="1">
+      <c r="H53" s="3">
         <f>AVERAGE(E24:E53)</f>
         <v/>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="3">
         <f>G53-H53</f>
         <v/>
       </c>
@@ -3012,26 +3018,26 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10984.12</v>
+        <v>10808.4</v>
       </c>
       <c r="C54" t="n">
-        <v>11008.2</v>
+        <v>10874.63</v>
       </c>
       <c r="D54" t="n">
-        <v>10920.62</v>
+        <v>10808.4</v>
       </c>
       <c r="E54" t="n">
-        <v>10955.29</v>
-      </c>
-      <c r="G54" s="1">
+        <v>10858.98</v>
+      </c>
+      <c r="G54" s="3">
         <f>AVERAGE(E50:E54)</f>
         <v/>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="3">
         <f>AVERAGE(E25:E54)</f>
         <v/>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="3">
         <f>G54-H54</f>
         <v/>
       </c>
@@ -3041,26 +3047,26 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10975.58</v>
+        <v>10938.3</v>
       </c>
       <c r="C55" t="n">
-        <v>10988.23</v>
+        <v>10970.24</v>
       </c>
       <c r="D55" t="n">
-        <v>10938.37</v>
+        <v>10908.86</v>
       </c>
       <c r="E55" t="n">
-        <v>10965.39</v>
-      </c>
-      <c r="G55" s="1">
+        <v>10952.39</v>
+      </c>
+      <c r="G55" s="3">
         <f>AVERAGE(E51:E55)</f>
         <v/>
       </c>
-      <c r="H55" s="1">
+      <c r="H55" s="3">
         <f>AVERAGE(E26:E55)</f>
         <v/>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="3">
         <f>G55-H55</f>
         <v/>
       </c>
@@ -3070,26 +3076,26 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10962.36</v>
+        <v>10965.08</v>
       </c>
       <c r="C56" t="n">
-        <v>10974.94</v>
+        <v>10978.38</v>
       </c>
       <c r="D56" t="n">
-        <v>10921.17</v>
+        <v>10874.73</v>
       </c>
       <c r="E56" t="n">
-        <v>10954.55</v>
-      </c>
-      <c r="G56" s="1">
+        <v>10874.73</v>
+      </c>
+      <c r="G56" s="3">
         <f>AVERAGE(E52:E56)</f>
         <v/>
       </c>
-      <c r="H56" s="1">
+      <c r="H56" s="3">
         <f>AVERAGE(E27:E56)</f>
         <v/>
       </c>
-      <c r="I56" s="1">
+      <c r="I56" s="3">
         <f>G56-H56</f>
         <v/>
       </c>
@@ -3099,26 +3105,26 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10953.51</v>
+        <v>10873.54</v>
       </c>
       <c r="C57" t="n">
-        <v>10965.2</v>
+        <v>10915.74</v>
       </c>
       <c r="D57" t="n">
-        <v>10799.07</v>
+        <v>10865.07</v>
       </c>
       <c r="E57" t="n">
-        <v>10810.45</v>
-      </c>
-      <c r="G57" s="1">
+        <v>10897.57</v>
+      </c>
+      <c r="G57" s="3">
         <f>AVERAGE(E53:E57)</f>
         <v/>
       </c>
-      <c r="H57" s="1">
+      <c r="H57" s="3">
         <f>AVERAGE(E28:E57)</f>
         <v/>
       </c>
-      <c r="I57" s="1">
+      <c r="I57" s="3">
         <f>G57-H57</f>
         <v/>
       </c>
@@ -3128,26 +3134,26 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10842.88</v>
+        <v>10911.74</v>
       </c>
       <c r="C58" t="n">
-        <v>10917.6</v>
+        <v>10938.63</v>
       </c>
       <c r="D58" t="n">
-        <v>10809.89</v>
+        <v>10833.81</v>
       </c>
       <c r="E58" t="n">
-        <v>10847.89</v>
-      </c>
-      <c r="G58" s="1">
+        <v>10833.81</v>
+      </c>
+      <c r="G58" s="3">
         <f>AVERAGE(E54:E58)</f>
         <v/>
       </c>
-      <c r="H58" s="1">
+      <c r="H58" s="3">
         <f>AVERAGE(E29:E58)</f>
         <v/>
       </c>
-      <c r="I58" s="1">
+      <c r="I58" s="3">
         <f>G58-H58</f>
         <v/>
       </c>
@@ -3157,26 +3163,26 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10891.66</v>
+        <v>10844.09</v>
       </c>
       <c r="C59" t="n">
-        <v>10983.96</v>
+        <v>10893.35</v>
       </c>
       <c r="D59" t="n">
-        <v>10889.71</v>
+        <v>10819.07</v>
       </c>
       <c r="E59" t="n">
-        <v>10971.22</v>
-      </c>
-      <c r="G59" s="1">
+        <v>10830.84</v>
+      </c>
+      <c r="G59" s="3">
         <f>AVERAGE(E55:E59)</f>
         <v/>
       </c>
-      <c r="H59" s="1">
+      <c r="H59" s="3">
         <f>AVERAGE(E30:E59)</f>
         <v/>
       </c>
-      <c r="I59" s="1">
+      <c r="I59" s="3">
         <f>G59-H59</f>
         <v/>
       </c>
@@ -3186,26 +3192,26 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10802.42</v>
+        <v>10861.66</v>
       </c>
       <c r="C60" t="n">
-        <v>10831.56</v>
+        <v>10979.1</v>
       </c>
       <c r="D60" t="n">
-        <v>10770.05</v>
+        <v>10861.66</v>
       </c>
       <c r="E60" t="n">
-        <v>10779.38</v>
-      </c>
-      <c r="G60" s="1">
+        <v>10966.2</v>
+      </c>
+      <c r="G60" s="3">
         <f>AVERAGE(E56:E60)</f>
         <v/>
       </c>
-      <c r="H60" s="1">
+      <c r="H60" s="3">
         <f>AVERAGE(E31:E60)</f>
         <v/>
       </c>
-      <c r="I60" s="1">
+      <c r="I60" s="3">
         <f>G60-H60</f>
         <v/>
       </c>
@@ -3215,26 +3221,26 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10756.89</v>
+        <v>10986.77</v>
       </c>
       <c r="C61" t="n">
-        <v>10774.73</v>
+        <v>11034.12</v>
       </c>
       <c r="D61" t="n">
-        <v>10687.25</v>
+        <v>10938.73</v>
       </c>
       <c r="E61" t="n">
-        <v>10697.13</v>
-      </c>
-      <c r="G61" s="1">
+        <v>10938.73</v>
+      </c>
+      <c r="G61" s="3">
         <f>AVERAGE(E57:E61)</f>
         <v/>
       </c>
-      <c r="H61" s="1">
+      <c r="H61" s="3">
         <f>AVERAGE(E32:E61)</f>
         <v/>
       </c>
-      <c r="I61" s="1">
+      <c r="I61" s="3">
         <f>G61-H61</f>
         <v/>
       </c>
@@ -3244,26 +3250,26 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10680.38</v>
+        <v>10974.52</v>
       </c>
       <c r="C62" t="n">
-        <v>10692.19</v>
+        <v>10991.86</v>
       </c>
       <c r="D62" t="n">
-        <v>10540.15</v>
+        <v>10886.18</v>
       </c>
       <c r="E62" t="n">
-        <v>10579.5</v>
-      </c>
-      <c r="G62" s="1">
+        <v>10886.18</v>
+      </c>
+      <c r="G62" s="3">
         <f>AVERAGE(E58:E62)</f>
         <v/>
       </c>
-      <c r="H62" s="1">
+      <c r="H62" s="3">
         <f>AVERAGE(E33:E62)</f>
         <v/>
       </c>
-      <c r="I62" s="1">
+      <c r="I62" s="3">
         <f>G62-H62</f>
         <v/>
       </c>
@@ -3273,26 +3279,26 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10541.83</v>
+        <v>10910.61</v>
       </c>
       <c r="C63" t="n">
-        <v>10573.73</v>
+        <v>10942.64</v>
       </c>
       <c r="D63" t="n">
-        <v>10489.2</v>
+        <v>10883.52</v>
       </c>
       <c r="E63" t="n">
-        <v>10559.97</v>
-      </c>
-      <c r="G63" s="1">
+        <v>10936.93</v>
+      </c>
+      <c r="G63" s="3">
         <f>AVERAGE(E59:E63)</f>
         <v/>
       </c>
-      <c r="H63" s="1">
+      <c r="H63" s="3">
         <f>AVERAGE(E34:E63)</f>
         <v/>
       </c>
-      <c r="I63" s="1">
+      <c r="I63" s="3">
         <f>G63-H63</f>
         <v/>
       </c>
@@ -3302,26 +3308,26 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10583.08</v>
+        <v>10946.62</v>
       </c>
       <c r="C64" t="n">
-        <v>10618.68</v>
+        <v>10977.81</v>
       </c>
       <c r="D64" t="n">
-        <v>10478.98</v>
+        <v>10918.12</v>
       </c>
       <c r="E64" t="n">
-        <v>10488.58</v>
-      </c>
-      <c r="G64" s="1">
+        <v>10942.3</v>
+      </c>
+      <c r="G64" s="3">
         <f>AVERAGE(E60:E64)</f>
         <v/>
       </c>
-      <c r="H64" s="1">
+      <c r="H64" s="3">
         <f>AVERAGE(E35:E64)</f>
         <v/>
       </c>
-      <c r="I64" s="1">
+      <c r="I64" s="3">
         <f>G64-H64</f>
         <v/>
       </c>
@@ -3331,26 +3337,26 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10546.29</v>
+        <v>10976.49</v>
       </c>
       <c r="C65" t="n">
-        <v>10573.61</v>
+        <v>10999.43</v>
       </c>
       <c r="D65" t="n">
-        <v>10495.67</v>
+        <v>10965.18</v>
       </c>
       <c r="E65" t="n">
-        <v>10553.43</v>
-      </c>
-      <c r="G65" s="1">
+        <v>10987.77</v>
+      </c>
+      <c r="G65" s="3">
         <f>AVERAGE(E61:E65)</f>
         <v/>
       </c>
-      <c r="H65" s="1">
+      <c r="H65" s="3">
         <f>AVERAGE(E36:E65)</f>
         <v/>
       </c>
-      <c r="I65" s="1">
+      <c r="I65" s="3">
         <f>G65-H65</f>
         <v/>
       </c>
@@ -3360,26 +3366,26 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10553.41</v>
+        <v>10979.68</v>
       </c>
       <c r="C66" t="n">
-        <v>10660.61</v>
+        <v>10986.53</v>
       </c>
       <c r="D66" t="n">
-        <v>10539.63</v>
+        <v>10929.56</v>
       </c>
       <c r="E66" t="n">
-        <v>10657.88</v>
-      </c>
-      <c r="G66" s="1">
+        <v>10964.12</v>
+      </c>
+      <c r="G66" s="3">
         <f>AVERAGE(E62:E66)</f>
         <v/>
       </c>
-      <c r="H66" s="1">
+      <c r="H66" s="3">
         <f>AVERAGE(E37:E66)</f>
         <v/>
       </c>
-      <c r="I66" s="1">
+      <c r="I66" s="3">
         <f>G66-H66</f>
         <v/>
       </c>
@@ -3389,26 +3395,26 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10665.52</v>
+        <v>10925.21</v>
       </c>
       <c r="C67" t="n">
-        <v>10683.9</v>
+        <v>10925.21</v>
       </c>
       <c r="D67" t="n">
-        <v>10601.1</v>
+        <v>10799.75</v>
       </c>
       <c r="E67" t="n">
-        <v>10618.81</v>
-      </c>
-      <c r="G67" s="1">
+        <v>10821.17</v>
+      </c>
+      <c r="G67" s="3">
         <f>AVERAGE(E63:E67)</f>
         <v/>
       </c>
-      <c r="H67" s="1">
+      <c r="H67" s="3">
         <f>AVERAGE(E38:E67)</f>
         <v/>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="3">
         <f>G67-H67</f>
         <v/>
       </c>
@@ -3418,26 +3424,26 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>10578.98</v>
+        <v>10856.03</v>
       </c>
       <c r="C68" t="n">
-        <v>10578.98</v>
+        <v>10909.61</v>
       </c>
       <c r="D68" t="n">
-        <v>10509.03</v>
+        <v>10853.65</v>
       </c>
       <c r="E68" t="n">
-        <v>10514.18</v>
-      </c>
-      <c r="G68" s="1">
+        <v>10874.96</v>
+      </c>
+      <c r="G68" s="3">
         <f>AVERAGE(E64:E68)</f>
         <v/>
       </c>
-      <c r="H68" s="1">
+      <c r="H68" s="3">
         <f>AVERAGE(E39:E68)</f>
         <v/>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="3">
         <f>G68-H68</f>
         <v/>
       </c>
@@ -3447,26 +3453,26 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>10516.45</v>
+        <v>10882.68</v>
       </c>
       <c r="C69" t="n">
-        <v>10566.37</v>
+        <v>10954.67</v>
       </c>
       <c r="D69" t="n">
-        <v>10500.97</v>
+        <v>10876.97</v>
       </c>
       <c r="E69" t="n">
-        <v>10529.37</v>
-      </c>
-      <c r="G69" s="1">
+        <v>10949.08</v>
+      </c>
+      <c r="G69" s="3">
         <f>AVERAGE(E65:E69)</f>
         <v/>
       </c>
-      <c r="H69" s="1">
+      <c r="H69" s="3">
         <f>AVERAGE(E40:E69)</f>
         <v/>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="3">
         <f>G69-H69</f>
         <v/>
       </c>
@@ -3476,26 +3482,26 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>10581.78</v>
+        <v>11002.15</v>
       </c>
       <c r="C70" t="n">
-        <v>10632.62</v>
+        <v>11109.5</v>
       </c>
       <c r="D70" t="n">
-        <v>10555.56</v>
+        <v>11002.15</v>
       </c>
       <c r="E70" t="n">
-        <v>10604.91</v>
-      </c>
-      <c r="G70" s="1">
+        <v>11109.5</v>
+      </c>
+      <c r="G70" s="3">
         <f>AVERAGE(E66:E70)</f>
         <v/>
       </c>
-      <c r="H70" s="1">
+      <c r="H70" s="3">
         <f>AVERAGE(E41:E70)</f>
         <v/>
       </c>
-      <c r="I70" s="1">
+      <c r="I70" s="3">
         <f>G70-H70</f>
         <v/>
       </c>
@@ -3505,26 +3511,26 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>10610.44</v>
+        <v>11130.03</v>
       </c>
       <c r="C71" t="n">
-        <v>10691.38</v>
+        <v>11131.08</v>
       </c>
       <c r="D71" t="n">
-        <v>10609.04</v>
+        <v>11054.62</v>
       </c>
       <c r="E71" t="n">
-        <v>10691.38</v>
-      </c>
-      <c r="G71" s="1">
+        <v>11100.11</v>
+      </c>
+      <c r="G71" s="3">
         <f>AVERAGE(E67:E71)</f>
         <v/>
       </c>
-      <c r="H71" s="1">
+      <c r="H71" s="3">
         <f>AVERAGE(E42:E71)</f>
         <v/>
       </c>
-      <c r="I71" s="1">
+      <c r="I71" s="3">
         <f>G71-H71</f>
         <v/>
       </c>
@@ -3534,26 +3540,26 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>10692.89</v>
+        <v>11111.14</v>
       </c>
       <c r="C72" t="n">
-        <v>10748.6</v>
+        <v>11207.15</v>
       </c>
       <c r="D72" t="n">
-        <v>10689.81</v>
+        <v>11111.14</v>
       </c>
       <c r="E72" t="n">
-        <v>10703.35</v>
-      </c>
-      <c r="G72" s="1">
+        <v>11201.83</v>
+      </c>
+      <c r="G72" s="3">
         <f>AVERAGE(E68:E72)</f>
         <v/>
       </c>
-      <c r="H72" s="1">
+      <c r="H72" s="3">
         <f>AVERAGE(E43:E72)</f>
         <v/>
       </c>
-      <c r="I72" s="1">
+      <c r="I72" s="3">
         <f>G72-H72</f>
         <v/>
       </c>
@@ -3563,26 +3569,26 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>10731.68</v>
+        <v>11228.64</v>
       </c>
       <c r="C73" t="n">
-        <v>10782.06</v>
+        <v>11261.68</v>
       </c>
       <c r="D73" t="n">
-        <v>10731.68</v>
+        <v>11188.99</v>
       </c>
       <c r="E73" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G73" s="1">
+        <v>11251.75</v>
+      </c>
+      <c r="G73" s="3">
         <f>AVERAGE(E69:E73)</f>
         <v/>
       </c>
-      <c r="H73" s="1">
+      <c r="H73" s="3">
         <f>AVERAGE(E44:E73)</f>
         <v/>
       </c>
-      <c r="I73" s="1">
+      <c r="I73" s="3">
         <f>G73-H73</f>
         <v/>
       </c>
@@ -3592,26 +3598,26 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>10808.4</v>
+        <v>11243.59</v>
       </c>
       <c r="C74" t="n">
-        <v>10874.63</v>
+        <v>11243.59</v>
       </c>
       <c r="D74" t="n">
-        <v>10808.4</v>
+        <v>11122.98</v>
       </c>
       <c r="E74" t="n">
-        <v>10858.98</v>
-      </c>
-      <c r="G74" s="1">
+        <v>11156.42</v>
+      </c>
+      <c r="G74" s="3">
         <f>AVERAGE(E70:E74)</f>
         <v/>
       </c>
-      <c r="H74" s="1">
+      <c r="H74" s="3">
         <f>AVERAGE(E45:E74)</f>
         <v/>
       </c>
-      <c r="I74" s="1">
+      <c r="I74" s="3">
         <f>G74-H74</f>
         <v/>
       </c>
@@ -3621,26 +3627,26 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>10938.3</v>
+        <v>11168.99</v>
       </c>
       <c r="C75" t="n">
-        <v>10970.24</v>
+        <v>11186.67</v>
       </c>
       <c r="D75" t="n">
-        <v>10908.86</v>
+        <v>11118.81</v>
       </c>
       <c r="E75" t="n">
-        <v>10952.39</v>
-      </c>
-      <c r="G75" s="1">
+        <v>11149.23</v>
+      </c>
+      <c r="G75" s="3">
         <f>AVERAGE(E71:E75)</f>
         <v/>
       </c>
-      <c r="H75" s="1">
+      <c r="H75" s="3">
         <f>AVERAGE(E46:E75)</f>
         <v/>
       </c>
-      <c r="I75" s="1">
+      <c r="I75" s="3">
         <f>G75-H75</f>
         <v/>
       </c>
@@ -3650,26 +3656,26 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>10965.08</v>
+        <v>11140.02</v>
       </c>
       <c r="C76" t="n">
-        <v>10978.38</v>
+        <v>11160.05</v>
       </c>
       <c r="D76" t="n">
-        <v>10874.73</v>
+        <v>11088.53</v>
       </c>
       <c r="E76" t="n">
-        <v>10874.73</v>
-      </c>
-      <c r="G76" s="1">
+        <v>11144.79</v>
+      </c>
+      <c r="G76" s="3">
         <f>AVERAGE(E72:E76)</f>
         <v/>
       </c>
-      <c r="H76" s="1">
+      <c r="H76" s="3">
         <f>AVERAGE(E47:E76)</f>
         <v/>
       </c>
-      <c r="I76" s="1">
+      <c r="I76" s="3">
         <f>G76-H76</f>
         <v/>
       </c>
@@ -3679,26 +3685,26 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>10873.54</v>
+        <v>11153.2</v>
       </c>
       <c r="C77" t="n">
-        <v>10915.74</v>
+        <v>11188.01</v>
       </c>
       <c r="D77" t="n">
-        <v>10865.07</v>
+        <v>11119.24</v>
       </c>
       <c r="E77" t="n">
-        <v>10897.57</v>
-      </c>
-      <c r="G77" s="1">
+        <v>11173.21</v>
+      </c>
+      <c r="G77" s="3">
         <f>AVERAGE(E73:E77)</f>
         <v/>
       </c>
-      <c r="H77" s="1">
+      <c r="H77" s="3">
         <f>AVERAGE(E48:E77)</f>
         <v/>
       </c>
-      <c r="I77" s="1">
+      <c r="I77" s="3">
         <f>G77-H77</f>
         <v/>
       </c>
@@ -3708,26 +3714,26 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>10911.74</v>
+        <v>11143.04</v>
       </c>
       <c r="C78" t="n">
-        <v>10938.63</v>
+        <v>11143.04</v>
       </c>
       <c r="D78" t="n">
-        <v>10833.81</v>
+        <v>11013.98</v>
       </c>
       <c r="E78" t="n">
-        <v>10833.81</v>
-      </c>
-      <c r="G78" s="1">
+        <v>11013.98</v>
+      </c>
+      <c r="G78" s="3">
         <f>AVERAGE(E74:E78)</f>
         <v/>
       </c>
-      <c r="H78" s="1">
+      <c r="H78" s="3">
         <f>AVERAGE(E49:E78)</f>
         <v/>
       </c>
-      <c r="I78" s="1">
+      <c r="I78" s="3">
         <f>G78-H78</f>
         <v/>
       </c>
@@ -3737,26 +3743,26 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10844.09</v>
+        <v>10998.2</v>
       </c>
       <c r="C79" t="n">
-        <v>10893.35</v>
+        <v>11087.47</v>
       </c>
       <c r="D79" t="n">
-        <v>10819.07</v>
+        <v>10981.61</v>
       </c>
       <c r="E79" t="n">
-        <v>10830.84</v>
-      </c>
-      <c r="G79" s="1">
+        <v>11087.47</v>
+      </c>
+      <c r="G79" s="3">
         <f>AVERAGE(E75:E79)</f>
         <v/>
       </c>
-      <c r="H79" s="1">
+      <c r="H79" s="3">
         <f>AVERAGE(E50:E79)</f>
         <v/>
       </c>
-      <c r="I79" s="1">
+      <c r="I79" s="3">
         <f>G79-H79</f>
         <v/>
       </c>
@@ -3766,26 +3772,26 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>10861.66</v>
+        <v>11008.77</v>
       </c>
       <c r="C80" t="n">
-        <v>10979.1</v>
+        <v>11008.77</v>
       </c>
       <c r="D80" t="n">
-        <v>10861.66</v>
+        <v>10904.19</v>
       </c>
       <c r="E80" t="n">
-        <v>10966.2</v>
-      </c>
-      <c r="G80" s="1">
+        <v>10904.19</v>
+      </c>
+      <c r="G80" s="3">
         <f>AVERAGE(E76:E80)</f>
         <v/>
       </c>
-      <c r="H80" s="1">
+      <c r="H80" s="3">
         <f>AVERAGE(E51:E80)</f>
         <v/>
       </c>
-      <c r="I80" s="1">
+      <c r="I80" s="3">
         <f>G80-H80</f>
         <v/>
       </c>
@@ -3795,26 +3801,26 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10986.77</v>
+        <v>10904.8</v>
       </c>
       <c r="C81" t="n">
-        <v>11034.12</v>
+        <v>10969.2</v>
       </c>
       <c r="D81" t="n">
-        <v>10938.73</v>
+        <v>10842.56</v>
       </c>
       <c r="E81" t="n">
-        <v>10938.73</v>
-      </c>
-      <c r="G81" s="1">
+        <v>10927.44</v>
+      </c>
+      <c r="G81" s="3">
         <f>AVERAGE(E77:E81)</f>
         <v/>
       </c>
-      <c r="H81" s="1">
+      <c r="H81" s="3">
         <f>AVERAGE(E52:E81)</f>
         <v/>
       </c>
-      <c r="I81" s="1">
+      <c r="I81" s="3">
         <f>G81-H81</f>
         <v/>
       </c>
@@ -3824,26 +3830,26 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10974.52</v>
+        <v>10949.85</v>
       </c>
       <c r="C82" t="n">
-        <v>10991.86</v>
+        <v>10992.31</v>
       </c>
       <c r="D82" t="n">
-        <v>10886.18</v>
+        <v>10941.07</v>
       </c>
       <c r="E82" t="n">
-        <v>10886.18</v>
-      </c>
-      <c r="G82" s="1">
+        <v>10941.07</v>
+      </c>
+      <c r="G82" s="3">
         <f>AVERAGE(E78:E82)</f>
         <v/>
       </c>
-      <c r="H82" s="1">
+      <c r="H82" s="3">
         <f>AVERAGE(E53:E82)</f>
         <v/>
       </c>
-      <c r="I82" s="1">
+      <c r="I82" s="3">
         <f>G82-H82</f>
         <v/>
       </c>
@@ -3853,26 +3859,26 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10910.61</v>
+        <v>10901.25</v>
       </c>
       <c r="C83" t="n">
-        <v>10942.64</v>
+        <v>10914.83</v>
       </c>
       <c r="D83" t="n">
-        <v>10883.52</v>
+        <v>10828.86</v>
       </c>
       <c r="E83" t="n">
-        <v>10936.93</v>
-      </c>
-      <c r="G83" s="1">
+        <v>10899.28</v>
+      </c>
+      <c r="G83" s="3">
         <f>AVERAGE(E79:E83)</f>
         <v/>
       </c>
-      <c r="H83" s="1">
+      <c r="H83" s="3">
         <f>AVERAGE(E54:E83)</f>
         <v/>
       </c>
-      <c r="I83" s="1">
+      <c r="I83" s="3">
         <f>G83-H83</f>
         <v/>
       </c>
@@ -3882,26 +3888,26 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10946.62</v>
+        <v>10834.07</v>
       </c>
       <c r="C84" t="n">
-        <v>10977.81</v>
+        <v>10851.16</v>
       </c>
       <c r="D84" t="n">
-        <v>10918.12</v>
+        <v>10786.46</v>
       </c>
       <c r="E84" t="n">
-        <v>10942.3</v>
-      </c>
-      <c r="G84" s="1">
+        <v>10786.46</v>
+      </c>
+      <c r="G84" s="3">
         <f>AVERAGE(E80:E84)</f>
         <v/>
       </c>
-      <c r="H84" s="1">
+      <c r="H84" s="3">
         <f>AVERAGE(E55:E84)</f>
         <v/>
       </c>
-      <c r="I84" s="1">
+      <c r="I84" s="3">
         <f>G84-H84</f>
         <v/>
       </c>
@@ -3911,26 +3917,26 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10976.49</v>
+        <v>10730.9</v>
       </c>
       <c r="C85" t="n">
-        <v>10999.43</v>
+        <v>10752.99</v>
       </c>
       <c r="D85" t="n">
-        <v>10965.18</v>
+        <v>10651.42</v>
       </c>
       <c r="E85" t="n">
-        <v>10987.77</v>
-      </c>
-      <c r="G85" s="1">
+        <v>10742.17</v>
+      </c>
+      <c r="G85" s="3">
         <f>AVERAGE(E81:E85)</f>
         <v/>
       </c>
-      <c r="H85" s="1">
+      <c r="H85" s="3">
         <f>AVERAGE(E56:E85)</f>
         <v/>
       </c>
-      <c r="I85" s="1">
+      <c r="I85" s="3">
         <f>G85-H85</f>
         <v/>
       </c>
@@ -3940,26 +3946,26 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10979.68</v>
+        <v>10766.88</v>
       </c>
       <c r="C86" t="n">
-        <v>10986.53</v>
+        <v>10800.34</v>
       </c>
       <c r="D86" t="n">
-        <v>10929.56</v>
+        <v>10701.03</v>
       </c>
       <c r="E86" t="n">
-        <v>10964.12</v>
-      </c>
-      <c r="G86" s="1">
+        <v>10701.03</v>
+      </c>
+      <c r="G86" s="3">
         <f>AVERAGE(E82:E86)</f>
         <v/>
       </c>
-      <c r="H86" s="1">
+      <c r="H86" s="3">
         <f>AVERAGE(E57:E86)</f>
         <v/>
       </c>
-      <c r="I86" s="1">
+      <c r="I86" s="3">
         <f>G86-H86</f>
         <v/>
       </c>
@@ -3969,26 +3975,26 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10925.21</v>
+        <v>10669.42</v>
       </c>
       <c r="C87" t="n">
-        <v>10925.21</v>
+        <v>10723.84</v>
       </c>
       <c r="D87" t="n">
-        <v>10799.75</v>
+        <v>10633.01</v>
       </c>
       <c r="E87" t="n">
-        <v>10821.17</v>
-      </c>
-      <c r="G87" s="1">
+        <v>10654.28</v>
+      </c>
+      <c r="G87" s="3">
         <f>AVERAGE(E83:E87)</f>
         <v/>
       </c>
-      <c r="H87" s="1">
+      <c r="H87" s="3">
         <f>AVERAGE(E58:E87)</f>
         <v/>
       </c>
-      <c r="I87" s="1">
+      <c r="I87" s="3">
         <f>G87-H87</f>
         <v/>
       </c>
@@ -3998,26 +4004,26 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10856.03</v>
+        <v>10667.64</v>
       </c>
       <c r="C88" t="n">
-        <v>10909.61</v>
+        <v>10836.91</v>
       </c>
       <c r="D88" t="n">
-        <v>10853.65</v>
+        <v>10667.64</v>
       </c>
       <c r="E88" t="n">
-        <v>10874.96</v>
-      </c>
-      <c r="G88" s="1">
+        <v>10836.91</v>
+      </c>
+      <c r="G88" s="3">
         <f>AVERAGE(E84:E88)</f>
         <v/>
       </c>
-      <c r="H88" s="1">
+      <c r="H88" s="3">
         <f>AVERAGE(E59:E88)</f>
         <v/>
       </c>
-      <c r="I88" s="1">
+      <c r="I88" s="3">
         <f>G88-H88</f>
         <v/>
       </c>
@@ -4027,26 +4033,26 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>10882.68</v>
+        <v>10852.17</v>
       </c>
       <c r="C89" t="n">
-        <v>10954.67</v>
+        <v>10886.2</v>
       </c>
       <c r="D89" t="n">
-        <v>10876.97</v>
+        <v>10777.94</v>
       </c>
       <c r="E89" t="n">
-        <v>10949.08</v>
-      </c>
-      <c r="G89" s="1">
+        <v>10777.94</v>
+      </c>
+      <c r="G89" s="3">
         <f>AVERAGE(E85:E89)</f>
         <v/>
       </c>
-      <c r="H89" s="1">
+      <c r="H89" s="3">
         <f>AVERAGE(E60:E89)</f>
         <v/>
       </c>
-      <c r="I89" s="1">
+      <c r="I89" s="3">
         <f>G89-H89</f>
         <v/>
       </c>
@@ -4056,26 +4062,26 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>11002.15</v>
+        <v>10802.88</v>
       </c>
       <c r="C90" t="n">
-        <v>11109.5</v>
+        <v>10873.48</v>
       </c>
       <c r="D90" t="n">
-        <v>11002.15</v>
+        <v>10707.68</v>
       </c>
       <c r="E90" t="n">
-        <v>11109.5</v>
-      </c>
-      <c r="G90" s="1">
+        <v>10715.72</v>
+      </c>
+      <c r="G90" s="3">
         <f>AVERAGE(E86:E90)</f>
         <v/>
       </c>
-      <c r="H90" s="1">
+      <c r="H90" s="3">
         <f>AVERAGE(E61:E90)</f>
         <v/>
       </c>
-      <c r="I90" s="1">
+      <c r="I90" s="3">
         <f>G90-H90</f>
         <v/>
       </c>
@@ -4085,26 +4091,26 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>11130.03</v>
+        <v>10714.25</v>
       </c>
       <c r="C91" t="n">
-        <v>11131.08</v>
+        <v>10752.05</v>
       </c>
       <c r="D91" t="n">
-        <v>11054.62</v>
+        <v>10680.44</v>
       </c>
       <c r="E91" t="n">
-        <v>11100.11</v>
-      </c>
-      <c r="G91" s="1">
+        <v>10721.87</v>
+      </c>
+      <c r="G91" s="3">
         <f>AVERAGE(E87:E91)</f>
         <v/>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="3">
         <f>AVERAGE(E62:E91)</f>
         <v/>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="3">
         <f>G91-H91</f>
         <v/>
       </c>
@@ -4114,26 +4120,26 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>11111.14</v>
+        <v>10690.91</v>
       </c>
       <c r="C92" t="n">
-        <v>11207.15</v>
+        <v>10709.8</v>
       </c>
       <c r="D92" t="n">
-        <v>11111.14</v>
+        <v>10585.27</v>
       </c>
       <c r="E92" t="n">
-        <v>11201.83</v>
-      </c>
-      <c r="G92" s="1">
+        <v>10611.81</v>
+      </c>
+      <c r="G92" s="3">
         <f>AVERAGE(E88:E92)</f>
         <v/>
       </c>
-      <c r="H92" s="1">
+      <c r="H92" s="3">
         <f>AVERAGE(E63:E92)</f>
         <v/>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="3">
         <f>G92-H92</f>
         <v/>
       </c>
@@ -4143,26 +4149,26 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>11228.64</v>
+        <v>10645.66</v>
       </c>
       <c r="C93" t="n">
-        <v>11261.68</v>
+        <v>10665.72</v>
       </c>
       <c r="D93" t="n">
-        <v>11188.99</v>
+        <v>10523.58</v>
       </c>
       <c r="E93" t="n">
-        <v>11251.75</v>
-      </c>
-      <c r="G93" s="1">
+        <v>10608.57</v>
+      </c>
+      <c r="G93" s="3">
         <f>AVERAGE(E89:E93)</f>
         <v/>
       </c>
-      <c r="H93" s="1">
+      <c r="H93" s="3">
         <f>AVERAGE(E64:E93)</f>
         <v/>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="3">
         <f>G93-H93</f>
         <v/>
       </c>
@@ -4172,26 +4178,26 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>11243.59</v>
+        <v>10638.9</v>
       </c>
       <c r="C94" t="n">
-        <v>11243.59</v>
+        <v>10746.74</v>
       </c>
       <c r="D94" t="n">
-        <v>11122.98</v>
+        <v>10638.9</v>
       </c>
       <c r="E94" t="n">
-        <v>11156.42</v>
-      </c>
-      <c r="G94" s="1">
+        <v>10720.28</v>
+      </c>
+      <c r="G94" s="3">
         <f>AVERAGE(E90:E94)</f>
         <v/>
       </c>
-      <c r="H94" s="1">
+      <c r="H94" s="3">
         <f>AVERAGE(E65:E94)</f>
         <v/>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="3">
         <f>G94-H94</f>
         <v/>
       </c>
@@ -4201,26 +4207,26 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>11168.99</v>
+        <v>10737.62</v>
       </c>
       <c r="C95" t="n">
-        <v>11186.67</v>
+        <v>10776.47</v>
       </c>
       <c r="D95" t="n">
-        <v>11118.81</v>
+        <v>10728.24</v>
       </c>
       <c r="E95" t="n">
-        <v>11149.23</v>
-      </c>
-      <c r="G95" s="1">
+        <v>10756.89</v>
+      </c>
+      <c r="G95" s="3">
         <f>AVERAGE(E91:E95)</f>
         <v/>
       </c>
-      <c r="H95" s="1">
+      <c r="H95" s="3">
         <f>AVERAGE(E66:E95)</f>
         <v/>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="3">
         <f>G95-H95</f>
         <v/>
       </c>
@@ -4230,26 +4236,26 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>11140.02</v>
+        <v>10693.64</v>
       </c>
       <c r="C96" t="n">
-        <v>11160.05</v>
+        <v>10693.64</v>
       </c>
       <c r="D96" t="n">
-        <v>11088.53</v>
+        <v>10635.03</v>
       </c>
       <c r="E96" t="n">
-        <v>11144.79</v>
-      </c>
-      <c r="G96" s="1">
+        <v>10676.84</v>
+      </c>
+      <c r="G96" s="3">
         <f>AVERAGE(E92:E96)</f>
         <v/>
       </c>
-      <c r="H96" s="1">
+      <c r="H96" s="3">
         <f>AVERAGE(E67:E96)</f>
         <v/>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="3">
         <f>G96-H96</f>
         <v/>
       </c>
@@ -4259,26 +4265,26 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>11153.2</v>
+        <v>10644.91</v>
       </c>
       <c r="C97" t="n">
-        <v>11188.01</v>
+        <v>10752.57</v>
       </c>
       <c r="D97" t="n">
-        <v>11119.24</v>
+        <v>10643.65</v>
       </c>
       <c r="E97" t="n">
-        <v>11173.21</v>
-      </c>
-      <c r="G97" s="1">
+        <v>10738.38</v>
+      </c>
+      <c r="G97" s="3">
         <f>AVERAGE(E93:E97)</f>
         <v/>
       </c>
-      <c r="H97" s="1">
+      <c r="H97" s="3">
         <f>AVERAGE(E68:E97)</f>
         <v/>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="3">
         <f>G97-H97</f>
         <v/>
       </c>
@@ -4288,26 +4294,26 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>11143.04</v>
+        <v>10769.7</v>
       </c>
       <c r="C98" t="n">
-        <v>11143.04</v>
+        <v>10864.54</v>
       </c>
       <c r="D98" t="n">
-        <v>11013.98</v>
+        <v>10769.7</v>
       </c>
       <c r="E98" t="n">
-        <v>11013.98</v>
-      </c>
-      <c r="G98" s="1">
+        <v>10864.54</v>
+      </c>
+      <c r="G98" s="3">
         <f>AVERAGE(E94:E98)</f>
         <v/>
       </c>
-      <c r="H98" s="1">
+      <c r="H98" s="3">
         <f>AVERAGE(E69:E98)</f>
         <v/>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="3">
         <f>G98-H98</f>
         <v/>
       </c>
@@ -4317,26 +4323,26 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10998.2</v>
+        <v>10867.97</v>
       </c>
       <c r="C99" t="n">
-        <v>11087.47</v>
+        <v>10890.2</v>
       </c>
       <c r="D99" t="n">
-        <v>10981.61</v>
+        <v>10817.45</v>
       </c>
       <c r="E99" t="n">
-        <v>11087.47</v>
-      </c>
-      <c r="G99" s="1">
+        <v>10817.45</v>
+      </c>
+      <c r="G99" s="3">
         <f>AVERAGE(E95:E99)</f>
         <v/>
       </c>
-      <c r="H99" s="1">
+      <c r="H99" s="3">
         <f>AVERAGE(E70:E99)</f>
         <v/>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="3">
         <f>G99-H99</f>
         <v/>
       </c>
@@ -4346,26 +4352,26 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>11008.77</v>
+        <v>10802.75</v>
       </c>
       <c r="C100" t="n">
-        <v>11008.77</v>
+        <v>10818.84</v>
       </c>
       <c r="D100" t="n">
-        <v>10904.19</v>
+        <v>10758.83</v>
       </c>
       <c r="E100" t="n">
-        <v>10904.19</v>
-      </c>
-      <c r="G100" s="1">
+        <v>10778.99</v>
+      </c>
+      <c r="G100" s="3">
         <f>AVERAGE(E96:E100)</f>
         <v/>
       </c>
-      <c r="H100" s="1">
+      <c r="H100" s="3">
         <f>AVERAGE(E71:E100)</f>
         <v/>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="3">
         <f>G100-H100</f>
         <v/>
       </c>
@@ -4375,26 +4381,26 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10904.8</v>
+        <v>10811.43</v>
       </c>
       <c r="C101" t="n">
-        <v>10969.2</v>
+        <v>10872.74</v>
       </c>
       <c r="D101" t="n">
-        <v>10842.56</v>
+        <v>10788.37</v>
       </c>
       <c r="E101" t="n">
-        <v>10927.44</v>
-      </c>
-      <c r="G101" s="1">
+        <v>10842.46</v>
+      </c>
+      <c r="G101" s="3">
         <f>AVERAGE(E97:E101)</f>
         <v/>
       </c>
-      <c r="H101" s="1">
+      <c r="H101" s="3">
         <f>AVERAGE(E72:E101)</f>
         <v/>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="3">
         <f>G101-H101</f>
         <v/>
       </c>
@@ -4404,26 +4410,26 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10949.85</v>
+        <v>10868.56</v>
       </c>
       <c r="C102" t="n">
-        <v>10992.31</v>
+        <v>10896.25</v>
       </c>
       <c r="D102" t="n">
-        <v>10941.07</v>
+        <v>10826.14</v>
       </c>
       <c r="E102" t="n">
-        <v>10941.07</v>
-      </c>
-      <c r="G102" s="1">
+        <v>10835.38</v>
+      </c>
+      <c r="G102" s="3">
         <f>AVERAGE(E98:E102)</f>
         <v/>
       </c>
-      <c r="H102" s="1">
+      <c r="H102" s="3">
         <f>AVERAGE(E73:E102)</f>
         <v/>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="3">
         <f>G102-H102</f>
         <v/>
       </c>
@@ -4433,26 +4439,26 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>10901.25</v>
+        <v>10932.51</v>
       </c>
       <c r="C103" t="n">
-        <v>10914.83</v>
+        <v>10963.95</v>
       </c>
       <c r="D103" t="n">
-        <v>10828.86</v>
+        <v>10893.73</v>
       </c>
       <c r="E103" t="n">
-        <v>10899.28</v>
-      </c>
-      <c r="G103" s="1">
+        <v>10932.11</v>
+      </c>
+      <c r="G103" s="3">
         <f>AVERAGE(E99:E103)</f>
         <v/>
       </c>
-      <c r="H103" s="1">
+      <c r="H103" s="3">
         <f>AVERAGE(E74:E103)</f>
         <v/>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="3">
         <f>G103-H103</f>
         <v/>
       </c>
@@ -4462,26 +4468,26 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>10834.07</v>
+        <v>10929.46</v>
       </c>
       <c r="C104" t="n">
-        <v>10851.16</v>
+        <v>10984.84</v>
       </c>
       <c r="D104" t="n">
-        <v>10786.46</v>
+        <v>10901.75</v>
       </c>
       <c r="E104" t="n">
-        <v>10786.46</v>
-      </c>
-      <c r="G104" s="1">
+        <v>10946.89</v>
+      </c>
+      <c r="G104" s="3">
         <f>AVERAGE(E100:E104)</f>
         <v/>
       </c>
-      <c r="H104" s="1">
+      <c r="H104" s="3">
         <f>AVERAGE(E75:E104)</f>
         <v/>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="3">
         <f>G104-H104</f>
         <v/>
       </c>
@@ -4491,26 +4497,26 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>10730.9</v>
+        <v>10937.77</v>
       </c>
       <c r="C105" t="n">
-        <v>10752.99</v>
+        <v>10995.39</v>
       </c>
       <c r="D105" t="n">
-        <v>10651.42</v>
+        <v>10917.61</v>
       </c>
       <c r="E105" t="n">
-        <v>10742.17</v>
-      </c>
-      <c r="G105" s="1">
+        <v>10995.39</v>
+      </c>
+      <c r="G105" s="3">
         <f>AVERAGE(E101:E105)</f>
         <v/>
       </c>
-      <c r="H105" s="1">
+      <c r="H105" s="3">
         <f>AVERAGE(E76:E105)</f>
         <v/>
       </c>
-      <c r="I105" s="1">
+      <c r="I105" s="3">
         <f>G105-H105</f>
         <v/>
       </c>
@@ -4520,26 +4526,26 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>10766.88</v>
+        <v>10957.66</v>
       </c>
       <c r="C106" t="n">
-        <v>10800.34</v>
+        <v>10992.29</v>
       </c>
       <c r="D106" t="n">
-        <v>10701.03</v>
+        <v>10956</v>
       </c>
       <c r="E106" t="n">
-        <v>10701.03</v>
-      </c>
-      <c r="G106" s="1">
+        <v>10965.79</v>
+      </c>
+      <c r="G106" s="3">
         <f>AVERAGE(E102:E106)</f>
         <v/>
       </c>
-      <c r="H106" s="1">
+      <c r="H106" s="3">
         <f>AVERAGE(E77:E106)</f>
         <v/>
       </c>
-      <c r="I106" s="1">
+      <c r="I106" s="3">
         <f>G106-H106</f>
         <v/>
       </c>
@@ -4549,26 +4555,26 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>10669.42</v>
+        <v>10969.35</v>
       </c>
       <c r="C107" t="n">
-        <v>10723.84</v>
+        <v>11018.19</v>
       </c>
       <c r="D107" t="n">
-        <v>10633.01</v>
+        <v>10966.33</v>
       </c>
       <c r="E107" t="n">
-        <v>10654.28</v>
-      </c>
-      <c r="G107" s="1">
+        <v>11010.61</v>
+      </c>
+      <c r="G107" s="3">
         <f>AVERAGE(E103:E107)</f>
         <v/>
       </c>
-      <c r="H107" s="1">
+      <c r="H107" s="3">
         <f>AVERAGE(E78:E107)</f>
         <v/>
       </c>
-      <c r="I107" s="1">
+      <c r="I107" s="3">
         <f>G107-H107</f>
         <v/>
       </c>
@@ -4578,26 +4584,26 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>10667.64</v>
+        <v>11023.07</v>
       </c>
       <c r="C108" t="n">
-        <v>10836.91</v>
+        <v>11075.78</v>
       </c>
       <c r="D108" t="n">
-        <v>10667.64</v>
+        <v>11009.16</v>
       </c>
       <c r="E108" t="n">
-        <v>10836.91</v>
-      </c>
-      <c r="G108" s="1">
+        <v>11075.78</v>
+      </c>
+      <c r="G108" s="3">
         <f>AVERAGE(E104:E108)</f>
         <v/>
       </c>
-      <c r="H108" s="1">
+      <c r="H108" s="3">
         <f>AVERAGE(E79:E108)</f>
         <v/>
       </c>
-      <c r="I108" s="1">
+      <c r="I108" s="3">
         <f>G108-H108</f>
         <v/>
       </c>
@@ -4607,26 +4613,26 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>10852.17</v>
+        <v>11072.7</v>
       </c>
       <c r="C109" t="n">
-        <v>10886.2</v>
+        <v>11080.41</v>
       </c>
       <c r="D109" t="n">
-        <v>10777.94</v>
+        <v>11001.15</v>
       </c>
       <c r="E109" t="n">
-        <v>10777.94</v>
-      </c>
-      <c r="G109" s="1">
+        <v>11033.54</v>
+      </c>
+      <c r="G109" s="3">
         <f>AVERAGE(E105:E109)</f>
         <v/>
       </c>
-      <c r="H109" s="1">
+      <c r="H109" s="3">
         <f>AVERAGE(E80:E109)</f>
         <v/>
       </c>
-      <c r="I109" s="1">
+      <c r="I109" s="3">
         <f>G109-H109</f>
         <v/>
       </c>
@@ -4636,26 +4642,26 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>10802.88</v>
+        <v>10997.73</v>
       </c>
       <c r="C110" t="n">
-        <v>10873.48</v>
+        <v>11057.51</v>
       </c>
       <c r="D110" t="n">
-        <v>10707.68</v>
+        <v>10976.46</v>
       </c>
       <c r="E110" t="n">
-        <v>10715.72</v>
-      </c>
-      <c r="G110" s="1">
+        <v>11057.51</v>
+      </c>
+      <c r="G110" s="3">
         <f>AVERAGE(E106:E110)</f>
         <v/>
       </c>
-      <c r="H110" s="1">
+      <c r="H110" s="3">
         <f>AVERAGE(E81:E110)</f>
         <v/>
       </c>
-      <c r="I110" s="1">
+      <c r="I110" s="3">
         <f>G110-H110</f>
         <v/>
       </c>
@@ -4665,26 +4671,26 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>10714.25</v>
+        <v>11062.36</v>
       </c>
       <c r="C111" t="n">
-        <v>10752.05</v>
+        <v>11100.02</v>
       </c>
       <c r="D111" t="n">
-        <v>10680.44</v>
+        <v>11058.28</v>
       </c>
       <c r="E111" t="n">
-        <v>10721.87</v>
-      </c>
-      <c r="G111" s="1">
+        <v>11098.13</v>
+      </c>
+      <c r="G111" s="3">
         <f>AVERAGE(E107:E111)</f>
         <v/>
       </c>
-      <c r="H111" s="1">
+      <c r="H111" s="3">
         <f>AVERAGE(E82:E111)</f>
         <v/>
       </c>
-      <c r="I111" s="1">
+      <c r="I111" s="3">
         <f>G111-H111</f>
         <v/>
       </c>
@@ -4694,26 +4700,26 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>10690.91</v>
+        <v>11095.67</v>
       </c>
       <c r="C112" t="n">
-        <v>10709.8</v>
+        <v>11095.67</v>
       </c>
       <c r="D112" t="n">
-        <v>10585.27</v>
+        <v>10919.13</v>
       </c>
       <c r="E112" t="n">
-        <v>10611.81</v>
-      </c>
-      <c r="G112" s="1">
+        <v>10929.77</v>
+      </c>
+      <c r="G112" s="3">
         <f>AVERAGE(E108:E112)</f>
         <v/>
       </c>
-      <c r="H112" s="1">
+      <c r="H112" s="3">
         <f>AVERAGE(E83:E112)</f>
         <v/>
       </c>
-      <c r="I112" s="1">
+      <c r="I112" s="3">
         <f>G112-H112</f>
         <v/>
       </c>
@@ -4723,26 +4729,26 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>10645.66</v>
+        <v>10957.3</v>
       </c>
       <c r="C113" t="n">
-        <v>10665.72</v>
+        <v>11012.43</v>
       </c>
       <c r="D113" t="n">
-        <v>10523.58</v>
+        <v>10957.3</v>
       </c>
       <c r="E113" t="n">
-        <v>10608.57</v>
-      </c>
-      <c r="G113" s="1">
+        <v>11012.43</v>
+      </c>
+      <c r="G113" s="3">
         <f>AVERAGE(E109:E113)</f>
         <v/>
       </c>
-      <c r="H113" s="1">
+      <c r="H113" s="3">
         <f>AVERAGE(E84:E113)</f>
         <v/>
       </c>
-      <c r="I113" s="1">
+      <c r="I113" s="3">
         <f>G113-H113</f>
         <v/>
       </c>
@@ -4752,26 +4758,26 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10638.9</v>
+        <v>10997.26</v>
       </c>
       <c r="C114" t="n">
-        <v>10746.74</v>
+        <v>11054.49</v>
       </c>
       <c r="D114" t="n">
-        <v>10638.9</v>
+        <v>10994.97</v>
       </c>
       <c r="E114" t="n">
-        <v>10720.28</v>
-      </c>
-      <c r="G114" s="1">
+        <v>11024.1</v>
+      </c>
+      <c r="G114" s="3">
         <f>AVERAGE(E110:E114)</f>
         <v/>
       </c>
-      <c r="H114" s="1">
+      <c r="H114" s="3">
         <f>AVERAGE(E85:E114)</f>
         <v/>
       </c>
-      <c r="I114" s="1">
+      <c r="I114" s="3">
         <f>G114-H114</f>
         <v/>
       </c>
@@ -4781,26 +4787,26 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>10737.62</v>
+        <v>11024.97</v>
       </c>
       <c r="C115" t="n">
-        <v>10776.47</v>
+        <v>11030.09</v>
       </c>
       <c r="D115" t="n">
-        <v>10728.24</v>
+        <v>10983.44</v>
       </c>
       <c r="E115" t="n">
-        <v>10756.89</v>
-      </c>
-      <c r="G115" s="1">
+        <v>10983.44</v>
+      </c>
+      <c r="G115" s="3">
         <f>AVERAGE(E111:E115)</f>
         <v/>
       </c>
-      <c r="H115" s="1">
+      <c r="H115" s="3">
         <f>AVERAGE(E86:E115)</f>
         <v/>
       </c>
-      <c r="I115" s="1">
+      <c r="I115" s="3">
         <f>G115-H115</f>
         <v/>
       </c>
@@ -4810,26 +4816,26 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>10693.64</v>
+        <v>11026.07</v>
       </c>
       <c r="C116" t="n">
-        <v>10693.64</v>
+        <v>11095.5</v>
       </c>
       <c r="D116" t="n">
-        <v>10635.03</v>
+        <v>11026.07</v>
       </c>
       <c r="E116" t="n">
-        <v>10676.84</v>
-      </c>
-      <c r="G116" s="1">
+        <v>11075.25</v>
+      </c>
+      <c r="G116" s="3">
         <f>AVERAGE(E112:E116)</f>
         <v/>
       </c>
-      <c r="H116" s="1">
+      <c r="H116" s="3">
         <f>AVERAGE(E87:E116)</f>
         <v/>
       </c>
-      <c r="I116" s="1">
+      <c r="I116" s="3">
         <f>G116-H116</f>
         <v/>
       </c>
@@ -4839,26 +4845,26 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>10644.91</v>
+        <v>11063.62</v>
       </c>
       <c r="C117" t="n">
-        <v>10752.57</v>
+        <v>11063.62</v>
       </c>
       <c r="D117" t="n">
-        <v>10643.65</v>
+        <v>11001.96</v>
       </c>
       <c r="E117" t="n">
-        <v>10738.38</v>
-      </c>
-      <c r="G117" s="1">
+        <v>11028.07</v>
+      </c>
+      <c r="G117" s="3">
         <f>AVERAGE(E113:E117)</f>
         <v/>
       </c>
-      <c r="H117" s="1">
+      <c r="H117" s="3">
         <f>AVERAGE(E88:E117)</f>
         <v/>
       </c>
-      <c r="I117" s="1">
+      <c r="I117" s="3">
         <f>G117-H117</f>
         <v/>
       </c>
@@ -4868,26 +4874,26 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>10769.7</v>
+        <v>11009.96</v>
       </c>
       <c r="C118" t="n">
-        <v>10864.54</v>
+        <v>11033.89</v>
       </c>
       <c r="D118" t="n">
-        <v>10769.7</v>
+        <v>10972.25</v>
       </c>
       <c r="E118" t="n">
-        <v>10864.54</v>
-      </c>
-      <c r="G118" s="1">
+        <v>10983.68</v>
+      </c>
+      <c r="G118" s="3">
         <f>AVERAGE(E114:E118)</f>
         <v/>
       </c>
-      <c r="H118" s="1">
+      <c r="H118" s="3">
         <f>AVERAGE(E89:E118)</f>
         <v/>
       </c>
-      <c r="I118" s="1">
+      <c r="I118" s="3">
         <f>G118-H118</f>
         <v/>
       </c>
@@ -4897,26 +4903,26 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10867.97</v>
+        <v>10939.68</v>
       </c>
       <c r="C119" t="n">
-        <v>10890.2</v>
+        <v>10939.68</v>
       </c>
       <c r="D119" t="n">
-        <v>10817.45</v>
+        <v>10693.73</v>
       </c>
       <c r="E119" t="n">
-        <v>10817.45</v>
-      </c>
-      <c r="G119" s="1">
+        <v>10748.92</v>
+      </c>
+      <c r="G119" s="3">
         <f>AVERAGE(E115:E119)</f>
         <v/>
       </c>
-      <c r="H119" s="1">
+      <c r="H119" s="3">
         <f>AVERAGE(E90:E119)</f>
         <v/>
       </c>
-      <c r="I119" s="1">
+      <c r="I119" s="3">
         <f>G119-H119</f>
         <v/>
       </c>
@@ -4926,26 +4932,26 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10802.75</v>
+        <v>10797.95</v>
       </c>
       <c r="C120" t="n">
-        <v>10818.84</v>
+        <v>10829.85</v>
       </c>
       <c r="D120" t="n">
-        <v>10758.83</v>
+        <v>10755.53</v>
       </c>
       <c r="E120" t="n">
-        <v>10778.99</v>
-      </c>
-      <c r="G120" s="1">
+        <v>10824.23</v>
+      </c>
+      <c r="G120" s="3">
         <f>AVERAGE(E116:E120)</f>
         <v/>
       </c>
-      <c r="H120" s="1">
+      <c r="H120" s="3">
         <f>AVERAGE(E91:E120)</f>
         <v/>
       </c>
-      <c r="I120" s="1">
+      <c r="I120" s="3">
         <f>G120-H120</f>
         <v/>
       </c>
@@ -4955,26 +4961,26 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10811.43</v>
+        <v>10827.28</v>
       </c>
       <c r="C121" t="n">
-        <v>10872.74</v>
+        <v>10827.28</v>
       </c>
       <c r="D121" t="n">
-        <v>10788.37</v>
+        <v>10688.59</v>
       </c>
       <c r="E121" t="n">
-        <v>10842.46</v>
-      </c>
-      <c r="G121" s="1">
+        <v>10716.75</v>
+      </c>
+      <c r="G121" s="3">
         <f>AVERAGE(E117:E121)</f>
         <v/>
       </c>
-      <c r="H121" s="1">
+      <c r="H121" s="3">
         <f>AVERAGE(E92:E121)</f>
         <v/>
       </c>
-      <c r="I121" s="1">
+      <c r="I121" s="3">
         <f>G121-H121</f>
         <v/>
       </c>
@@ -4984,26 +4990,26 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10868.56</v>
+        <v>10663.57</v>
       </c>
       <c r="C122" t="n">
-        <v>10896.25</v>
+        <v>10725.71</v>
       </c>
       <c r="D122" t="n">
-        <v>10826.14</v>
+        <v>10606.26</v>
       </c>
       <c r="E122" t="n">
-        <v>10835.38</v>
-      </c>
-      <c r="G122" s="1">
+        <v>10683.9</v>
+      </c>
+      <c r="G122" s="3">
         <f>AVERAGE(E118:E122)</f>
         <v/>
       </c>
-      <c r="H122" s="1">
+      <c r="H122" s="3">
         <f>AVERAGE(E93:E122)</f>
         <v/>
       </c>
-      <c r="I122" s="1">
+      <c r="I122" s="3">
         <f>G122-H122</f>
         <v/>
       </c>
@@ -5013,26 +5019,26 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10932.51</v>
+        <v>10702.6</v>
       </c>
       <c r="C123" t="n">
-        <v>10963.95</v>
+        <v>10757.01</v>
       </c>
       <c r="D123" t="n">
-        <v>10893.73</v>
+        <v>10688.55</v>
       </c>
       <c r="E123" t="n">
-        <v>10932.11</v>
-      </c>
-      <c r="G123" s="1">
+        <v>10690.96</v>
+      </c>
+      <c r="G123" s="3">
         <f>AVERAGE(E119:E123)</f>
         <v/>
       </c>
-      <c r="H123" s="1">
+      <c r="H123" s="3">
         <f>AVERAGE(E94:E123)</f>
         <v/>
       </c>
-      <c r="I123" s="1">
+      <c r="I123" s="3">
         <f>G123-H123</f>
         <v/>
       </c>
@@ -5042,26 +5048,26 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>10929.46</v>
+        <v>10698.76</v>
       </c>
       <c r="C124" t="n">
-        <v>10984.84</v>
+        <v>10729.9</v>
       </c>
       <c r="D124" t="n">
-        <v>10901.75</v>
+        <v>10663.44</v>
       </c>
       <c r="E124" t="n">
-        <v>10946.89</v>
-      </c>
-      <c r="G124" s="1">
+        <v>10699.05</v>
+      </c>
+      <c r="G124" s="3">
         <f>AVERAGE(E120:E124)</f>
         <v/>
       </c>
-      <c r="H124" s="1">
+      <c r="H124" s="3">
         <f>AVERAGE(E95:E124)</f>
         <v/>
       </c>
-      <c r="I124" s="1">
+      <c r="I124" s="3">
         <f>G124-H124</f>
         <v/>
       </c>
@@ -5071,26 +5077,26 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>10937.77</v>
+        <v>10697.01</v>
       </c>
       <c r="C125" t="n">
-        <v>10995.39</v>
+        <v>10792.2</v>
       </c>
       <c r="D125" t="n">
-        <v>10917.61</v>
+        <v>10697.01</v>
       </c>
       <c r="E125" t="n">
-        <v>10995.39</v>
-      </c>
-      <c r="G125" s="1">
+        <v>10792.2</v>
+      </c>
+      <c r="G125" s="3">
         <f>AVERAGE(E121:E125)</f>
         <v/>
       </c>
-      <c r="H125" s="1">
+      <c r="H125" s="3">
         <f>AVERAGE(E96:E125)</f>
         <v/>
       </c>
-      <c r="I125" s="1">
+      <c r="I125" s="3">
         <f>G125-H125</f>
         <v/>
       </c>
@@ -5100,26 +5106,26 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>10957.66</v>
+        <v>10790.24</v>
       </c>
       <c r="C126" t="n">
-        <v>10992.29</v>
+        <v>10828.21</v>
       </c>
       <c r="D126" t="n">
-        <v>10956</v>
+        <v>10774.69</v>
       </c>
       <c r="E126" t="n">
-        <v>10965.79</v>
-      </c>
-      <c r="G126" s="1">
+        <v>10804.2</v>
+      </c>
+      <c r="G126" s="3">
         <f>AVERAGE(E122:E126)</f>
         <v/>
       </c>
-      <c r="H126" s="1">
+      <c r="H126" s="3">
         <f>AVERAGE(E97:E126)</f>
         <v/>
       </c>
-      <c r="I126" s="1">
+      <c r="I126" s="3">
         <f>G126-H126</f>
         <v/>
       </c>
@@ -5129,26 +5135,26 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>10969.35</v>
+        <v>10817.33</v>
       </c>
       <c r="C127" t="n">
-        <v>11018.19</v>
+        <v>10863.13</v>
       </c>
       <c r="D127" t="n">
-        <v>10966.33</v>
+        <v>10802.79</v>
       </c>
       <c r="E127" t="n">
-        <v>11010.61</v>
-      </c>
-      <c r="G127" s="1">
+        <v>10863.13</v>
+      </c>
+      <c r="G127" s="3">
         <f>AVERAGE(E123:E127)</f>
         <v/>
       </c>
-      <c r="H127" s="1">
+      <c r="H127" s="3">
         <f>AVERAGE(E98:E127)</f>
         <v/>
       </c>
-      <c r="I127" s="1">
+      <c r="I127" s="3">
         <f>G127-H127</f>
         <v/>
       </c>
@@ -5158,26 +5164,26 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>11023.07</v>
+        <v>10865.91</v>
       </c>
       <c r="C128" t="n">
-        <v>11075.78</v>
+        <v>10865.91</v>
       </c>
       <c r="D128" t="n">
-        <v>11009.16</v>
+        <v>10770.32</v>
       </c>
       <c r="E128" t="n">
-        <v>11075.78</v>
-      </c>
-      <c r="G128" s="1">
+        <v>10809.35</v>
+      </c>
+      <c r="G128" s="3">
         <f>AVERAGE(E124:E128)</f>
         <v/>
       </c>
-      <c r="H128" s="1">
+      <c r="H128" s="3">
         <f>AVERAGE(E99:E128)</f>
         <v/>
       </c>
-      <c r="I128" s="1">
+      <c r="I128" s="3">
         <f>G128-H128</f>
         <v/>
       </c>
@@ -5187,26 +5193,26 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>11072.7</v>
+        <v>10847.17</v>
       </c>
       <c r="C129" t="n">
-        <v>11080.41</v>
+        <v>10916.69</v>
       </c>
       <c r="D129" t="n">
-        <v>11001.15</v>
+        <v>10847.17</v>
       </c>
       <c r="E129" t="n">
-        <v>11033.54</v>
-      </c>
-      <c r="G129" s="1">
+        <v>10902.21</v>
+      </c>
+      <c r="G129" s="3">
         <f>AVERAGE(E125:E129)</f>
         <v/>
       </c>
-      <c r="H129" s="1">
+      <c r="H129" s="3">
         <f>AVERAGE(E100:E129)</f>
         <v/>
       </c>
-      <c r="I129" s="1">
+      <c r="I129" s="3">
         <f>G129-H129</f>
         <v/>
       </c>
@@ -5216,26 +5222,26 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>10997.73</v>
+        <v>10946.33</v>
       </c>
       <c r="C130" t="n">
-        <v>11057.51</v>
+        <v>11005.55</v>
       </c>
       <c r="D130" t="n">
-        <v>10976.46</v>
+        <v>10946.33</v>
       </c>
       <c r="E130" t="n">
-        <v>11057.51</v>
-      </c>
-      <c r="G130" s="1">
+        <v>10989.55</v>
+      </c>
+      <c r="G130" s="3">
         <f>AVERAGE(E126:E130)</f>
         <v/>
       </c>
-      <c r="H130" s="1">
+      <c r="H130" s="3">
         <f>AVERAGE(E101:E130)</f>
         <v/>
       </c>
-      <c r="I130" s="1">
+      <c r="I130" s="3">
         <f>G130-H130</f>
         <v/>
       </c>
@@ -5245,26 +5251,26 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>11062.36</v>
+        <v>11029.12</v>
       </c>
       <c r="C131" t="n">
-        <v>11100.02</v>
+        <v>11099.57</v>
       </c>
       <c r="D131" t="n">
-        <v>11058.28</v>
+        <v>11029.11</v>
       </c>
       <c r="E131" t="n">
-        <v>11098.13</v>
-      </c>
-      <c r="G131" s="1">
+        <v>11099.57</v>
+      </c>
+      <c r="G131" s="3">
         <f>AVERAGE(E127:E131)</f>
         <v/>
       </c>
-      <c r="H131" s="1">
+      <c r="H131" s="3">
         <f>AVERAGE(E102:E131)</f>
         <v/>
       </c>
-      <c r="I131" s="1">
+      <c r="I131" s="3">
         <f>G131-H131</f>
         <v/>
       </c>
@@ -5274,26 +5280,26 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>11095.67</v>
+        <v>11153.97</v>
       </c>
       <c r="C132" t="n">
-        <v>11095.67</v>
+        <v>11186.05</v>
       </c>
       <c r="D132" t="n">
-        <v>10919.13</v>
+        <v>11080.07</v>
       </c>
       <c r="E132" t="n">
-        <v>10929.77</v>
-      </c>
-      <c r="G132" s="1">
+        <v>11093.75</v>
+      </c>
+      <c r="G132" s="3">
         <f>AVERAGE(E128:E132)</f>
         <v/>
       </c>
-      <c r="H132" s="1">
+      <c r="H132" s="3">
         <f>AVERAGE(E103:E132)</f>
         <v/>
       </c>
-      <c r="I132" s="1">
+      <c r="I132" s="3">
         <f>G132-H132</f>
         <v/>
       </c>
@@ -5303,26 +5309,26 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>10957.3</v>
+        <v>11037.26</v>
       </c>
       <c r="C133" t="n">
-        <v>11012.43</v>
+        <v>11063.94</v>
       </c>
       <c r="D133" t="n">
-        <v>10957.3</v>
+        <v>10987.68</v>
       </c>
       <c r="E133" t="n">
-        <v>11012.43</v>
-      </c>
-      <c r="G133" s="1">
+        <v>11063.94</v>
+      </c>
+      <c r="G133" s="3">
         <f>AVERAGE(E129:E133)</f>
         <v/>
       </c>
-      <c r="H133" s="1">
+      <c r="H133" s="3">
         <f>AVERAGE(E104:E133)</f>
         <v/>
       </c>
-      <c r="I133" s="1">
+      <c r="I133" s="3">
         <f>G133-H133</f>
         <v/>
       </c>
@@ -5332,26 +5338,26 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>10997.26</v>
+        <v>11087.86</v>
       </c>
       <c r="C134" t="n">
-        <v>11054.49</v>
+        <v>11097.11</v>
       </c>
       <c r="D134" t="n">
-        <v>10994.97</v>
+        <v>10952.85</v>
       </c>
       <c r="E134" t="n">
-        <v>11024.1</v>
-      </c>
-      <c r="G134" s="1">
+        <v>10964.22</v>
+      </c>
+      <c r="G134" s="3">
         <f>AVERAGE(E130:E134)</f>
         <v/>
       </c>
-      <c r="H134" s="1">
+      <c r="H134" s="3">
         <f>AVERAGE(E105:E134)</f>
         <v/>
       </c>
-      <c r="I134" s="1">
+      <c r="I134" s="3">
         <f>G134-H134</f>
         <v/>
       </c>
@@ -5361,26 +5367,26 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>11024.97</v>
+        <v>10981.39</v>
       </c>
       <c r="C135" t="n">
-        <v>11030.09</v>
+        <v>11028.27</v>
       </c>
       <c r="D135" t="n">
-        <v>10983.44</v>
+        <v>10956.49</v>
       </c>
       <c r="E135" t="n">
-        <v>10983.44</v>
-      </c>
-      <c r="G135" s="1">
+        <v>11021.38</v>
+      </c>
+      <c r="G135" s="3">
         <f>AVERAGE(E131:E135)</f>
         <v/>
       </c>
-      <c r="H135" s="1">
+      <c r="H135" s="3">
         <f>AVERAGE(E106:E135)</f>
         <v/>
       </c>
-      <c r="I135" s="1">
+      <c r="I135" s="3">
         <f>G135-H135</f>
         <v/>
       </c>
@@ -5390,26 +5396,26 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>11026.07</v>
+        <v>11042.41</v>
       </c>
       <c r="C136" t="n">
-        <v>11095.5</v>
+        <v>11058.06</v>
       </c>
       <c r="D136" t="n">
-        <v>11026.07</v>
+        <v>10989.93</v>
       </c>
       <c r="E136" t="n">
-        <v>11075.25</v>
-      </c>
-      <c r="G136" s="1">
+        <v>10995.13</v>
+      </c>
+      <c r="G136" s="3">
         <f>AVERAGE(E132:E136)</f>
         <v/>
       </c>
-      <c r="H136" s="1">
+      <c r="H136" s="3">
         <f>AVERAGE(E107:E136)</f>
         <v/>
       </c>
-      <c r="I136" s="1">
+      <c r="I136" s="3">
         <f>G136-H136</f>
         <v/>
       </c>
@@ -5419,26 +5425,26 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>11063.62</v>
+        <v>11016.92</v>
       </c>
       <c r="C137" t="n">
-        <v>11063.62</v>
+        <v>11016.92</v>
       </c>
       <c r="D137" t="n">
-        <v>11001.96</v>
+        <v>10905.34</v>
       </c>
       <c r="E137" t="n">
-        <v>11028.07</v>
-      </c>
-      <c r="G137" s="1">
+        <v>10924.3</v>
+      </c>
+      <c r="G137" s="3">
         <f>AVERAGE(E133:E137)</f>
         <v/>
       </c>
-      <c r="H137" s="1">
+      <c r="H137" s="3">
         <f>AVERAGE(E108:E137)</f>
         <v/>
       </c>
-      <c r="I137" s="1">
+      <c r="I137" s="3">
         <f>G137-H137</f>
         <v/>
       </c>
@@ -5448,26 +5454,26 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>11009.96</v>
+        <v>10922.55</v>
       </c>
       <c r="C138" t="n">
-        <v>11033.89</v>
+        <v>10922.55</v>
       </c>
       <c r="D138" t="n">
-        <v>10972.25</v>
+        <v>10807.56</v>
       </c>
       <c r="E138" t="n">
-        <v>10983.68</v>
-      </c>
-      <c r="G138" s="1">
+        <v>10846.99</v>
+      </c>
+      <c r="G138" s="3">
         <f>AVERAGE(E134:E138)</f>
         <v/>
       </c>
-      <c r="H138" s="1">
+      <c r="H138" s="3">
         <f>AVERAGE(E109:E138)</f>
         <v/>
       </c>
-      <c r="I138" s="1">
+      <c r="I138" s="3">
         <f>G138-H138</f>
         <v/>
       </c>
@@ -5477,26 +5483,26 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10939.68</v>
+        <v>10869.8</v>
       </c>
       <c r="C139" t="n">
-        <v>10939.68</v>
+        <v>10877.72</v>
       </c>
       <c r="D139" t="n">
-        <v>10693.73</v>
+        <v>10689.29</v>
       </c>
       <c r="E139" t="n">
-        <v>10748.92</v>
-      </c>
-      <c r="G139" s="1">
+        <v>10725.8</v>
+      </c>
+      <c r="G139" s="3">
         <f>AVERAGE(E135:E139)</f>
         <v/>
       </c>
-      <c r="H139" s="1">
+      <c r="H139" s="3">
         <f>AVERAGE(E110:E139)</f>
         <v/>
       </c>
-      <c r="I139" s="1">
+      <c r="I139" s="3">
         <f>G139-H139</f>
         <v/>
       </c>
@@ -5506,26 +5512,26 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10797.95</v>
+        <v>10723</v>
       </c>
       <c r="C140" t="n">
-        <v>10829.85</v>
+        <v>10765.42</v>
       </c>
       <c r="D140" t="n">
-        <v>10755.53</v>
+        <v>10669.59</v>
       </c>
       <c r="E140" t="n">
-        <v>10824.23</v>
-      </c>
-      <c r="G140" s="1">
+        <v>10752.3</v>
+      </c>
+      <c r="G140" s="3">
         <f>AVERAGE(E136:E140)</f>
         <v/>
       </c>
-      <c r="H140" s="1">
+      <c r="H140" s="3">
         <f>AVERAGE(E111:E140)</f>
         <v/>
       </c>
-      <c r="I140" s="1">
+      <c r="I140" s="3">
         <f>G140-H140</f>
         <v/>
       </c>
@@ -5535,26 +5541,26 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10827.28</v>
+        <v>10762.91</v>
       </c>
       <c r="C141" t="n">
-        <v>10827.28</v>
+        <v>10779.93</v>
       </c>
       <c r="D141" t="n">
-        <v>10688.59</v>
+        <v>10667.25</v>
       </c>
       <c r="E141" t="n">
-        <v>10716.75</v>
-      </c>
-      <c r="G141" s="1">
+        <v>10722.57</v>
+      </c>
+      <c r="G141" s="3">
         <f>AVERAGE(E137:E141)</f>
         <v/>
       </c>
-      <c r="H141" s="1">
+      <c r="H141" s="3">
         <f>AVERAGE(E112:E141)</f>
         <v/>
       </c>
-      <c r="I141" s="1">
+      <c r="I141" s="3">
         <f>G141-H141</f>
         <v/>
       </c>
@@ -5564,26 +5570,26 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10663.57</v>
+        <v>10726.67</v>
       </c>
       <c r="C142" t="n">
-        <v>10725.71</v>
+        <v>10758.84</v>
       </c>
       <c r="D142" t="n">
-        <v>10606.26</v>
+        <v>10701.25</v>
       </c>
       <c r="E142" t="n">
-        <v>10683.9</v>
-      </c>
-      <c r="G142" s="1">
+        <v>10727.23</v>
+      </c>
+      <c r="G142" s="3">
         <f>AVERAGE(E138:E142)</f>
         <v/>
       </c>
-      <c r="H142" s="1">
+      <c r="H142" s="3">
         <f>AVERAGE(E113:E142)</f>
         <v/>
       </c>
-      <c r="I142" s="1">
+      <c r="I142" s="3">
         <f>G142-H142</f>
         <v/>
       </c>
@@ -5593,26 +5599,26 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10702.6</v>
+        <v>10776.53</v>
       </c>
       <c r="C143" t="n">
-        <v>10757.01</v>
+        <v>10882.04</v>
       </c>
       <c r="D143" t="n">
-        <v>10688.55</v>
+        <v>10770.47</v>
       </c>
       <c r="E143" t="n">
-        <v>10690.96</v>
-      </c>
-      <c r="G143" s="1">
+        <v>10868.14</v>
+      </c>
+      <c r="G143" s="3">
         <f>AVERAGE(E139:E143)</f>
         <v/>
       </c>
-      <c r="H143" s="1">
+      <c r="H143" s="3">
         <f>AVERAGE(E114:E143)</f>
         <v/>
       </c>
-      <c r="I143" s="1">
+      <c r="I143" s="3">
         <f>G143-H143</f>
         <v/>
       </c>
@@ -5622,26 +5628,26 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>10698.76</v>
+        <v>10881.78</v>
       </c>
       <c r="C144" t="n">
-        <v>10729.9</v>
+        <v>10883.98</v>
       </c>
       <c r="D144" t="n">
-        <v>10663.44</v>
+        <v>10806.73</v>
       </c>
       <c r="E144" t="n">
-        <v>10699.05</v>
-      </c>
-      <c r="G144" s="1">
+        <v>10828.61</v>
+      </c>
+      <c r="G144" s="3">
         <f>AVERAGE(E140:E144)</f>
         <v/>
       </c>
-      <c r="H144" s="1">
+      <c r="H144" s="3">
         <f>AVERAGE(E115:E144)</f>
         <v/>
       </c>
-      <c r="I144" s="1">
+      <c r="I144" s="3">
         <f>G144-H144</f>
         <v/>
       </c>
@@ -5651,26 +5657,26 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>10697.01</v>
+        <v>10794.22</v>
       </c>
       <c r="C145" t="n">
-        <v>10792.2</v>
+        <v>10806.56</v>
       </c>
       <c r="D145" t="n">
-        <v>10697.01</v>
+        <v>10750.81</v>
       </c>
       <c r="E145" t="n">
-        <v>10792.2</v>
-      </c>
-      <c r="G145" s="1">
+        <v>10760.21</v>
+      </c>
+      <c r="G145" s="3">
         <f>AVERAGE(E141:E145)</f>
         <v/>
       </c>
-      <c r="H145" s="1">
+      <c r="H145" s="3">
         <f>AVERAGE(E116:E145)</f>
         <v/>
       </c>
-      <c r="I145" s="1">
+      <c r="I145" s="3">
         <f>G145-H145</f>
         <v/>
       </c>
@@ -5680,26 +5686,26 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>10790.24</v>
+        <v>10808.5</v>
       </c>
       <c r="C146" t="n">
-        <v>10828.21</v>
+        <v>10882.75</v>
       </c>
       <c r="D146" t="n">
-        <v>10774.69</v>
+        <v>10808.5</v>
       </c>
       <c r="E146" t="n">
-        <v>10804.2</v>
-      </c>
-      <c r="G146" s="1">
+        <v>10857.27</v>
+      </c>
+      <c r="G146" s="3">
         <f>AVERAGE(E142:E146)</f>
         <v/>
       </c>
-      <c r="H146" s="1">
+      <c r="H146" s="3">
         <f>AVERAGE(E117:E146)</f>
         <v/>
       </c>
-      <c r="I146" s="1">
+      <c r="I146" s="3">
         <f>G146-H146</f>
         <v/>
       </c>
@@ -5709,26 +5715,26 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>10817.33</v>
+        <v>10886.19</v>
       </c>
       <c r="C147" t="n">
-        <v>10863.13</v>
+        <v>10908.36</v>
       </c>
       <c r="D147" t="n">
-        <v>10802.79</v>
+        <v>10814.54</v>
       </c>
       <c r="E147" t="n">
-        <v>10863.13</v>
-      </c>
-      <c r="G147" s="1">
+        <v>10831.41</v>
+      </c>
+      <c r="G147" s="3">
         <f>AVERAGE(E143:E147)</f>
         <v/>
       </c>
-      <c r="H147" s="1">
+      <c r="H147" s="3">
         <f>AVERAGE(E118:E147)</f>
         <v/>
       </c>
-      <c r="I147" s="1">
+      <c r="I147" s="3">
         <f>G147-H147</f>
         <v/>
       </c>
@@ -5738,26 +5744,26 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>10865.91</v>
+        <v>10857.1</v>
       </c>
       <c r="C148" t="n">
-        <v>10865.91</v>
+        <v>10972.41</v>
       </c>
       <c r="D148" t="n">
-        <v>10770.32</v>
+        <v>10835.84</v>
       </c>
       <c r="E148" t="n">
-        <v>10809.35</v>
-      </c>
-      <c r="G148" s="1">
+        <v>10972.41</v>
+      </c>
+      <c r="G148" s="3">
         <f>AVERAGE(E144:E148)</f>
         <v/>
       </c>
-      <c r="H148" s="1">
+      <c r="H148" s="3">
         <f>AVERAGE(E119:E148)</f>
         <v/>
       </c>
-      <c r="I148" s="1">
+      <c r="I148" s="3">
         <f>G148-H148</f>
         <v/>
       </c>
@@ -5767,26 +5773,26 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>10847.17</v>
+        <v>10959.56</v>
       </c>
       <c r="C149" t="n">
-        <v>10916.69</v>
+        <v>11003.49</v>
       </c>
       <c r="D149" t="n">
-        <v>10847.17</v>
+        <v>10941.77</v>
       </c>
       <c r="E149" t="n">
-        <v>10902.21</v>
-      </c>
-      <c r="G149" s="1">
+        <v>10978.85</v>
+      </c>
+      <c r="G149" s="3">
         <f>AVERAGE(E145:E149)</f>
         <v/>
       </c>
-      <c r="H149" s="1">
+      <c r="H149" s="3">
         <f>AVERAGE(E120:E149)</f>
         <v/>
       </c>
-      <c r="I149" s="1">
+      <c r="I149" s="3">
         <f>G149-H149</f>
         <v/>
       </c>
@@ -5796,26 +5802,26 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>10946.33</v>
+        <v>10974.08</v>
       </c>
       <c r="C150" t="n">
-        <v>11005.55</v>
+        <v>11007.35</v>
       </c>
       <c r="D150" t="n">
-        <v>10946.33</v>
+        <v>10947.29</v>
       </c>
       <c r="E150" t="n">
-        <v>10989.55</v>
-      </c>
-      <c r="G150" s="1">
+        <v>10974.19</v>
+      </c>
+      <c r="G150" s="3">
         <f>AVERAGE(E146:E150)</f>
         <v/>
       </c>
-      <c r="H150" s="1">
+      <c r="H150" s="3">
         <f>AVERAGE(E121:E150)</f>
         <v/>
       </c>
-      <c r="I150" s="1">
+      <c r="I150" s="3">
         <f>G150-H150</f>
         <v/>
       </c>
@@ -5825,26 +5831,26 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>11029.12</v>
+        <v>10973.77</v>
       </c>
       <c r="C151" t="n">
-        <v>11099.57</v>
+        <v>11051.09</v>
       </c>
       <c r="D151" t="n">
-        <v>11029.11</v>
+        <v>10961.27</v>
       </c>
       <c r="E151" t="n">
-        <v>11099.57</v>
-      </c>
-      <c r="G151" s="1">
+        <v>11034.19</v>
+      </c>
+      <c r="G151" s="3">
         <f>AVERAGE(E147:E151)</f>
         <v/>
       </c>
-      <c r="H151" s="1">
+      <c r="H151" s="3">
         <f>AVERAGE(E122:E151)</f>
         <v/>
       </c>
-      <c r="I151" s="1">
+      <c r="I151" s="3">
         <f>G151-H151</f>
         <v/>
       </c>
@@ -5854,26 +5860,26 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>11153.97</v>
+        <v>11050.09</v>
       </c>
       <c r="C152" t="n">
-        <v>11186.05</v>
+        <v>11073.95</v>
       </c>
       <c r="D152" t="n">
-        <v>11080.07</v>
+        <v>10966.96</v>
       </c>
       <c r="E152" t="n">
-        <v>11093.75</v>
-      </c>
-      <c r="G152" s="1">
+        <v>11006.34</v>
+      </c>
+      <c r="G152" s="3">
         <f>AVERAGE(E148:E152)</f>
         <v/>
       </c>
-      <c r="H152" s="1">
+      <c r="H152" s="3">
         <f>AVERAGE(E123:E152)</f>
         <v/>
       </c>
-      <c r="I152" s="1">
+      <c r="I152" s="3">
         <f>G152-H152</f>
         <v/>
       </c>
@@ -5883,26 +5889,26 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>11037.26</v>
+        <v>11014.19</v>
       </c>
       <c r="C153" t="n">
-        <v>11063.94</v>
+        <v>11062.43</v>
       </c>
       <c r="D153" t="n">
-        <v>10987.68</v>
+        <v>11012.95</v>
       </c>
       <c r="E153" t="n">
-        <v>11063.94</v>
-      </c>
-      <c r="G153" s="1">
+        <v>11051.8</v>
+      </c>
+      <c r="G153" s="3">
         <f>AVERAGE(E149:E153)</f>
         <v/>
       </c>
-      <c r="H153" s="1">
+      <c r="H153" s="3">
         <f>AVERAGE(E124:E153)</f>
         <v/>
       </c>
-      <c r="I153" s="1">
+      <c r="I153" s="3">
         <f>G153-H153</f>
         <v/>
       </c>
@@ -5912,26 +5918,26 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>11087.86</v>
+        <v>11048.89</v>
       </c>
       <c r="C154" t="n">
-        <v>11097.11</v>
+        <v>11064.34</v>
       </c>
       <c r="D154" t="n">
-        <v>10952.85</v>
+        <v>10906.42</v>
       </c>
       <c r="E154" t="n">
-        <v>10964.22</v>
-      </c>
-      <c r="G154" s="1">
+        <v>10919.63</v>
+      </c>
+      <c r="G154" s="3">
         <f>AVERAGE(E150:E154)</f>
         <v/>
       </c>
-      <c r="H154" s="1">
+      <c r="H154" s="3">
         <f>AVERAGE(E125:E154)</f>
         <v/>
       </c>
-      <c r="I154" s="1">
+      <c r="I154" s="3">
         <f>G154-H154</f>
         <v/>
       </c>
@@ -5941,26 +5947,26 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>10981.39</v>
+        <v>10918.74</v>
       </c>
       <c r="C155" t="n">
-        <v>11028.27</v>
+        <v>10926.73</v>
       </c>
       <c r="D155" t="n">
-        <v>10956.49</v>
+        <v>10839.46</v>
       </c>
       <c r="E155" t="n">
-        <v>11021.38</v>
-      </c>
-      <c r="G155" s="1">
+        <v>10863.94</v>
+      </c>
+      <c r="G155" s="3">
         <f>AVERAGE(E151:E155)</f>
         <v/>
       </c>
-      <c r="H155" s="1">
+      <c r="H155" s="3">
         <f>AVERAGE(E126:E155)</f>
         <v/>
       </c>
-      <c r="I155" s="1">
+      <c r="I155" s="3">
         <f>G155-H155</f>
         <v/>
       </c>
@@ -5970,26 +5976,26 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>11042.41</v>
+        <v>10826.19</v>
       </c>
       <c r="C156" t="n">
-        <v>11058.06</v>
+        <v>10826.19</v>
       </c>
       <c r="D156" t="n">
-        <v>10989.93</v>
+        <v>10707.76</v>
       </c>
       <c r="E156" t="n">
-        <v>10995.13</v>
-      </c>
-      <c r="G156" s="1">
+        <v>10718.91</v>
+      </c>
+      <c r="G156" s="3">
         <f>AVERAGE(E152:E156)</f>
         <v/>
       </c>
-      <c r="H156" s="1">
+      <c r="H156" s="3">
         <f>AVERAGE(E127:E156)</f>
         <v/>
       </c>
-      <c r="I156" s="1">
+      <c r="I156" s="3">
         <f>G156-H156</f>
         <v/>
       </c>
@@ -5999,26 +6005,26 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>11016.92</v>
+        <v>10665.29</v>
       </c>
       <c r="C157" t="n">
-        <v>11016.92</v>
+        <v>10669.63</v>
       </c>
       <c r="D157" t="n">
-        <v>10905.34</v>
+        <v>10446.94</v>
       </c>
       <c r="E157" t="n">
-        <v>10924.3</v>
-      </c>
-      <c r="G157" s="1">
+        <v>10517.12</v>
+      </c>
+      <c r="G157" s="3">
         <f>AVERAGE(E153:E157)</f>
         <v/>
       </c>
-      <c r="H157" s="1">
+      <c r="H157" s="3">
         <f>AVERAGE(E128:E157)</f>
         <v/>
       </c>
-      <c r="I157" s="1">
+      <c r="I157" s="3">
         <f>G157-H157</f>
         <v/>
       </c>
@@ -6028,26 +6034,26 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10922.55</v>
+        <v>10467.85</v>
       </c>
       <c r="C158" t="n">
-        <v>10922.55</v>
+        <v>10507.83</v>
       </c>
       <c r="D158" t="n">
-        <v>10807.56</v>
+        <v>10403.13</v>
       </c>
       <c r="E158" t="n">
-        <v>10846.99</v>
-      </c>
-      <c r="G158" s="1">
+        <v>10455.93</v>
+      </c>
+      <c r="G158" s="3">
         <f>AVERAGE(E154:E158)</f>
         <v/>
       </c>
-      <c r="H158" s="1">
+      <c r="H158" s="3">
         <f>AVERAGE(E129:E158)</f>
         <v/>
       </c>
-      <c r="I158" s="1">
+      <c r="I158" s="3">
         <f>G158-H158</f>
         <v/>
       </c>
@@ -6057,26 +6063,26 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10869.8</v>
+        <v>10464.39</v>
       </c>
       <c r="C159" t="n">
-        <v>10877.72</v>
+        <v>10503.1</v>
       </c>
       <c r="D159" t="n">
-        <v>10689.29</v>
+        <v>10428.97</v>
       </c>
       <c r="E159" t="n">
-        <v>10725.8</v>
-      </c>
-      <c r="G159" s="1">
+        <v>10466.83</v>
+      </c>
+      <c r="G159" s="3">
         <f>AVERAGE(E155:E159)</f>
         <v/>
       </c>
-      <c r="H159" s="1">
+      <c r="H159" s="3">
         <f>AVERAGE(E130:E159)</f>
         <v/>
       </c>
-      <c r="I159" s="1">
+      <c r="I159" s="3">
         <f>G159-H159</f>
         <v/>
       </c>
@@ -6086,26 +6092,26 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10723</v>
+        <v>10272.04</v>
       </c>
       <c r="C160" t="n">
-        <v>10765.42</v>
+        <v>10272.04</v>
       </c>
       <c r="D160" t="n">
-        <v>10669.59</v>
+        <v>9797.93</v>
       </c>
       <c r="E160" t="n">
-        <v>10752.3</v>
-      </c>
-      <c r="G160" s="1">
+        <v>9806.110000000001</v>
+      </c>
+      <c r="G160" s="3">
         <f>AVERAGE(E156:E160)</f>
         <v/>
       </c>
-      <c r="H160" s="1">
+      <c r="H160" s="3">
         <f>AVERAGE(E131:E160)</f>
         <v/>
       </c>
-      <c r="I160" s="1">
+      <c r="I160" s="3">
         <f>G160-H160</f>
         <v/>
       </c>
@@ -6115,26 +6121,26 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>10762.91</v>
+        <v>9811.58</v>
       </c>
       <c r="C161" t="n">
-        <v>10779.93</v>
+        <v>10046.01</v>
       </c>
       <c r="D161" t="n">
-        <v>10667.25</v>
+        <v>9740.76</v>
       </c>
       <c r="E161" t="n">
-        <v>10722.57</v>
-      </c>
-      <c r="G161" s="1">
+        <v>10045.81</v>
+      </c>
+      <c r="G161" s="3">
         <f>AVERAGE(E157:E161)</f>
         <v/>
       </c>
-      <c r="H161" s="1">
+      <c r="H161" s="3">
         <f>AVERAGE(E132:E161)</f>
         <v/>
       </c>
-      <c r="I161" s="1">
+      <c r="I161" s="3">
         <f>G161-H161</f>
         <v/>
       </c>
@@ -6144,26 +6150,26 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>10726.67</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>10758.84</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="D162" t="n">
-        <v>10701.25</v>
+        <v>9890.469999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>10727.23</v>
-      </c>
-      <c r="G162" s="1">
+        <v>9901.120000000001</v>
+      </c>
+      <c r="G162" s="3">
         <f>AVERAGE(E158:E162)</f>
         <v/>
       </c>
-      <c r="H162" s="1">
+      <c r="H162" s="3">
         <f>AVERAGE(E133:E162)</f>
         <v/>
       </c>
-      <c r="I162" s="1">
+      <c r="I162" s="3">
         <f>G162-H162</f>
         <v/>
       </c>
@@ -6173,26 +6179,26 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>10776.53</v>
+        <v>9891.969999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>10882.04</v>
+        <v>10011.19</v>
       </c>
       <c r="D163" t="n">
-        <v>10770.47</v>
+        <v>9888.73</v>
       </c>
       <c r="E163" t="n">
-        <v>10868.14</v>
-      </c>
-      <c r="G163" s="1">
+        <v>9981.1</v>
+      </c>
+      <c r="G163" s="3">
         <f>AVERAGE(E159:E163)</f>
         <v/>
       </c>
-      <c r="H163" s="1">
+      <c r="H163" s="3">
         <f>AVERAGE(E134:E163)</f>
         <v/>
       </c>
-      <c r="I163" s="1">
+      <c r="I163" s="3">
         <f>G163-H163</f>
         <v/>
       </c>
@@ -6202,26 +6208,26 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10881.78</v>
+        <v>10048.43</v>
       </c>
       <c r="C164" t="n">
-        <v>10883.98</v>
+        <v>10127.01</v>
       </c>
       <c r="D164" t="n">
-        <v>10806.73</v>
+        <v>9978.25</v>
       </c>
       <c r="E164" t="n">
-        <v>10828.61</v>
-      </c>
-      <c r="G164" s="1">
+        <v>9979.139999999999</v>
+      </c>
+      <c r="G164" s="3">
         <f>AVERAGE(E160:E164)</f>
         <v/>
       </c>
-      <c r="H164" s="1">
+      <c r="H164" s="3">
         <f>AVERAGE(E135:E164)</f>
         <v/>
       </c>
-      <c r="I164" s="1">
+      <c r="I164" s="3">
         <f>G164-H164</f>
         <v/>
       </c>
@@ -6231,26 +6237,26 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>10794.22</v>
+        <v>9975.459999999999</v>
       </c>
       <c r="C165" t="n">
-        <v>10806.56</v>
+        <v>10019.5</v>
       </c>
       <c r="D165" t="n">
-        <v>10750.81</v>
+        <v>9919.790000000001</v>
       </c>
       <c r="E165" t="n">
-        <v>10760.21</v>
-      </c>
-      <c r="G165" s="1">
+        <v>9953.73</v>
+      </c>
+      <c r="G165" s="3">
         <f>AVERAGE(E161:E165)</f>
         <v/>
       </c>
-      <c r="H165" s="1">
+      <c r="H165" s="3">
         <f>AVERAGE(E136:E165)</f>
         <v/>
       </c>
-      <c r="I165" s="1">
+      <c r="I165" s="3">
         <f>G165-H165</f>
         <v/>
       </c>
@@ -6260,26 +6266,26 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>10808.5</v>
+        <v>9879.469999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>10882.75</v>
+        <v>9919.26</v>
       </c>
       <c r="D166" t="n">
-        <v>10808.5</v>
+        <v>9762.91</v>
       </c>
       <c r="E166" t="n">
-        <v>10857.27</v>
-      </c>
-      <c r="G166" s="1">
+        <v>9919.26</v>
+      </c>
+      <c r="G166" s="3">
         <f>AVERAGE(E162:E166)</f>
         <v/>
       </c>
-      <c r="H166" s="1">
+      <c r="H166" s="3">
         <f>AVERAGE(E137:E166)</f>
         <v/>
       </c>
-      <c r="I166" s="1">
+      <c r="I166" s="3">
         <f>G166-H166</f>
         <v/>
       </c>
@@ -6289,26 +6295,26 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>10886.19</v>
+        <v>9871.299999999999</v>
       </c>
       <c r="C167" t="n">
-        <v>10908.36</v>
+        <v>9984.15</v>
       </c>
       <c r="D167" t="n">
-        <v>10814.54</v>
+        <v>9822.15</v>
       </c>
       <c r="E167" t="n">
-        <v>10831.41</v>
-      </c>
-      <c r="G167" s="1">
+        <v>9974.280000000001</v>
+      </c>
+      <c r="G167" s="3">
         <f>AVERAGE(E163:E167)</f>
         <v/>
       </c>
-      <c r="H167" s="1">
+      <c r="H167" s="3">
         <f>AVERAGE(E138:E167)</f>
         <v/>
       </c>
-      <c r="I167" s="1">
+      <c r="I167" s="3">
         <f>G167-H167</f>
         <v/>
       </c>
@@ -6318,26 +6324,26 @@
         <v>174</v>
       </c>
       <c r="B168" t="n">
-        <v>10857.1</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>10972.41</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="D168" t="n">
-        <v>10835.84</v>
+        <v>9775.200000000001</v>
       </c>
       <c r="E168" t="n">
-        <v>10972.41</v>
-      </c>
-      <c r="G168" s="1">
+        <v>9775.200000000001</v>
+      </c>
+      <c r="G168" s="3">
         <f>AVERAGE(E164:E168)</f>
         <v/>
       </c>
-      <c r="H168" s="1">
+      <c r="H168" s="3">
         <f>AVERAGE(E139:E168)</f>
         <v/>
       </c>
-      <c r="I168" s="1">
+      <c r="I168" s="3">
         <f>G168-H168</f>
         <v/>
       </c>
@@ -6347,26 +6353,26 @@
         <v>175</v>
       </c>
       <c r="B169" t="n">
-        <v>10959.56</v>
+        <v>9774.290000000001</v>
       </c>
       <c r="C169" t="n">
-        <v>11003.49</v>
+        <v>9809.190000000001</v>
       </c>
       <c r="D169" t="n">
-        <v>10941.77</v>
+        <v>9667.85</v>
       </c>
       <c r="E169" t="n">
-        <v>10978.85</v>
-      </c>
-      <c r="G169" s="1">
+        <v>9759.4</v>
+      </c>
+      <c r="G169" s="3">
         <f>AVERAGE(E165:E169)</f>
         <v/>
       </c>
-      <c r="H169" s="1">
+      <c r="H169" s="3">
         <f>AVERAGE(E140:E169)</f>
         <v/>
       </c>
-      <c r="I169" s="1">
+      <c r="I169" s="3">
         <f>G169-H169</f>
         <v/>
       </c>
@@ -6376,26 +6382,26 @@
         <v>176</v>
       </c>
       <c r="B170" t="n">
-        <v>10974.08</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="C170" t="n">
-        <v>11007.35</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="D170" t="n">
-        <v>10947.29</v>
+        <v>9475.610000000001</v>
       </c>
       <c r="E170" t="n">
-        <v>10974.19</v>
-      </c>
-      <c r="G170" s="1">
+        <v>9520.790000000001</v>
+      </c>
+      <c r="G170" s="3">
         <f>AVERAGE(E166:E170)</f>
         <v/>
       </c>
-      <c r="H170" s="1">
+      <c r="H170" s="3">
         <f>AVERAGE(E141:E170)</f>
         <v/>
       </c>
-      <c r="I170" s="1">
+      <c r="I170" s="3">
         <f>G170-H170</f>
         <v/>
       </c>
@@ -6405,26 +6411,26 @@
         <v>177</v>
       </c>
       <c r="B171" t="n">
-        <v>10973.77</v>
+        <v>9570.190000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>11051.09</v>
+        <v>9629.07</v>
       </c>
       <c r="D171" t="n">
-        <v>10961.27</v>
+        <v>9400.690000000001</v>
       </c>
       <c r="E171" t="n">
-        <v>11034.19</v>
-      </c>
-      <c r="G171" s="1">
+        <v>9489.18</v>
+      </c>
+      <c r="G171" s="3">
         <f>AVERAGE(E167:E171)</f>
         <v/>
       </c>
-      <c r="H171" s="1">
+      <c r="H171" s="3">
         <f>AVERAGE(E142:E171)</f>
         <v/>
       </c>
-      <c r="I171" s="1">
+      <c r="I171" s="3">
         <f>G171-H171</f>
         <v/>
       </c>
@@ -6434,26 +6440,26 @@
         <v>178</v>
       </c>
       <c r="B172" t="n">
-        <v>11050.09</v>
+        <v>9515.43</v>
       </c>
       <c r="C172" t="n">
-        <v>11073.95</v>
+        <v>9554.35</v>
       </c>
       <c r="D172" t="n">
-        <v>10966.96</v>
+        <v>9459.120000000001</v>
       </c>
       <c r="E172" t="n">
-        <v>11006.34</v>
-      </c>
-      <c r="G172" s="1">
+        <v>9516.32</v>
+      </c>
+      <c r="G172" s="3">
         <f>AVERAGE(E168:E172)</f>
         <v/>
       </c>
-      <c r="H172" s="1">
+      <c r="H172" s="3">
         <f>AVERAGE(E143:E172)</f>
         <v/>
       </c>
-      <c r="I172" s="1">
+      <c r="I172" s="3">
         <f>G172-H172</f>
         <v/>
       </c>
@@ -6463,26 +6469,26 @@
         <v>179</v>
       </c>
       <c r="B173" t="n">
-        <v>11014.19</v>
+        <v>9508.809999999999</v>
       </c>
       <c r="C173" t="n">
-        <v>11062.43</v>
+        <v>9574.83</v>
       </c>
       <c r="D173" t="n">
-        <v>11012.95</v>
+        <v>9481.66</v>
       </c>
       <c r="E173" t="n">
-        <v>11051.8</v>
-      </c>
-      <c r="G173" s="1">
+        <v>9526.110000000001</v>
+      </c>
+      <c r="G173" s="3">
         <f>AVERAGE(E169:E173)</f>
         <v/>
       </c>
-      <c r="H173" s="1">
+      <c r="H173" s="3">
         <f>AVERAGE(E144:E173)</f>
         <v/>
       </c>
-      <c r="I173" s="1">
+      <c r="I173" s="3">
         <f>G173-H173</f>
         <v/>
       </c>
@@ -6492,26 +6498,26 @@
         <v>180</v>
       </c>
       <c r="B174" t="n">
-        <v>11048.89</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>11064.34</v>
+        <v>9802.129999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>10906.42</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="E174" t="n">
-        <v>10919.63</v>
-      </c>
-      <c r="G174" s="1">
+        <v>9802.129999999999</v>
+      </c>
+      <c r="G174" s="3">
         <f>AVERAGE(E170:E174)</f>
         <v/>
       </c>
-      <c r="H174" s="1">
+      <c r="H174" s="3">
         <f>AVERAGE(E145:E174)</f>
         <v/>
       </c>
-      <c r="I174" s="1">
+      <c r="I174" s="3">
         <f>G174-H174</f>
         <v/>
       </c>
@@ -6521,26 +6527,26 @@
         <v>181</v>
       </c>
       <c r="B175" t="n">
-        <v>10918.74</v>
+        <v>9812.200000000001</v>
       </c>
       <c r="C175" t="n">
-        <v>10926.73</v>
+        <v>9869.59</v>
       </c>
       <c r="D175" t="n">
-        <v>10839.46</v>
+        <v>9742.610000000001</v>
       </c>
       <c r="E175" t="n">
-        <v>10863.94</v>
-      </c>
-      <c r="G175" s="1">
+        <v>9844.74</v>
+      </c>
+      <c r="G175" s="3">
         <f>AVERAGE(E171:E175)</f>
         <v/>
       </c>
-      <c r="H175" s="1">
+      <c r="H175" s="3">
         <f>AVERAGE(E146:E175)</f>
         <v/>
       </c>
-      <c r="I175" s="1">
+      <c r="I175" s="3">
         <f>G175-H175</f>
         <v/>
       </c>
@@ -6550,26 +6556,26 @@
         <v>182</v>
       </c>
       <c r="B176" t="n">
-        <v>10826.19</v>
+        <v>9871.4</v>
       </c>
       <c r="C176" t="n">
-        <v>10826.19</v>
+        <v>9906.59</v>
       </c>
       <c r="D176" t="n">
-        <v>10707.76</v>
+        <v>9817.290000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>10718.91</v>
-      </c>
-      <c r="G176" s="1">
+        <v>9906.59</v>
+      </c>
+      <c r="G176" s="3">
         <f>AVERAGE(E172:E176)</f>
         <v/>
       </c>
-      <c r="H176" s="1">
+      <c r="H176" s="3">
         <f>AVERAGE(E147:E176)</f>
         <v/>
       </c>
-      <c r="I176" s="1">
+      <c r="I176" s="3">
         <f>G176-H176</f>
         <v/>
       </c>
@@ -6579,26 +6585,26 @@
         <v>183</v>
       </c>
       <c r="B177" t="n">
-        <v>10665.29</v>
+        <v>9856.85</v>
       </c>
       <c r="C177" t="n">
-        <v>10669.63</v>
+        <v>9889.809999999999</v>
       </c>
       <c r="D177" t="n">
-        <v>10446.94</v>
+        <v>9786.25</v>
       </c>
       <c r="E177" t="n">
-        <v>10517.12</v>
-      </c>
-      <c r="G177" s="1">
+        <v>9889.809999999999</v>
+      </c>
+      <c r="G177" s="3">
         <f>AVERAGE(E173:E177)</f>
         <v/>
       </c>
-      <c r="H177" s="1">
+      <c r="H177" s="3">
         <f>AVERAGE(E148:E177)</f>
         <v/>
       </c>
-      <c r="I177" s="1">
+      <c r="I177" s="3">
         <f>G177-H177</f>
         <v/>
       </c>
@@ -6608,26 +6614,26 @@
         <v>184</v>
       </c>
       <c r="B178" t="n">
-        <v>10467.85</v>
+        <v>9888.41</v>
       </c>
       <c r="C178" t="n">
-        <v>10507.83</v>
+        <v>9899.969999999999</v>
       </c>
       <c r="D178" t="n">
-        <v>10403.13</v>
+        <v>9782.860000000001</v>
       </c>
       <c r="E178" t="n">
-        <v>10455.93</v>
-      </c>
-      <c r="G178" s="1">
+        <v>9824.950000000001</v>
+      </c>
+      <c r="G178" s="3">
         <f>AVERAGE(E174:E178)</f>
         <v/>
       </c>
-      <c r="H178" s="1">
+      <c r="H178" s="3">
         <f>AVERAGE(E149:E178)</f>
         <v/>
       </c>
-      <c r="I178" s="1">
+      <c r="I178" s="3">
         <f>G178-H178</f>
         <v/>
       </c>
@@ -6637,26 +6643,26 @@
         <v>185</v>
       </c>
       <c r="B179" t="n">
-        <v>10464.39</v>
+        <v>9818.15</v>
       </c>
       <c r="C179" t="n">
-        <v>10503.1</v>
+        <v>9912.530000000001</v>
       </c>
       <c r="D179" t="n">
-        <v>10428.97</v>
+        <v>9817.950000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>10466.83</v>
-      </c>
-      <c r="G179" s="1">
+        <v>9908.35</v>
+      </c>
+      <c r="G179" s="3">
         <f>AVERAGE(E175:E179)</f>
         <v/>
       </c>
-      <c r="H179" s="1">
+      <c r="H179" s="3">
         <f>AVERAGE(E150:E179)</f>
         <v/>
       </c>
-      <c r="I179" s="1">
+      <c r="I179" s="3">
         <f>G179-H179</f>
         <v/>
       </c>
@@ -6666,26 +6672,26 @@
         <v>186</v>
       </c>
       <c r="B180" t="n">
-        <v>10272.04</v>
+        <v>9958.469999999999</v>
       </c>
       <c r="C180" t="n">
-        <v>10272.04</v>
+        <v>10014.42</v>
       </c>
       <c r="D180" t="n">
-        <v>9797.93</v>
+        <v>9938.549999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>9806.110000000001</v>
-      </c>
-      <c r="G180" s="1">
+        <v>9945.309999999999</v>
+      </c>
+      <c r="G180" s="3">
         <f>AVERAGE(E176:E180)</f>
         <v/>
       </c>
-      <c r="H180" s="1">
+      <c r="H180" s="3">
         <f>AVERAGE(E151:E180)</f>
         <v/>
       </c>
-      <c r="I180" s="1">
+      <c r="I180" s="3">
         <f>G180-H180</f>
         <v/>
       </c>
@@ -6695,26 +6701,26 @@
         <v>187</v>
       </c>
       <c r="B181" t="n">
-        <v>9811.58</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="C181" t="n">
-        <v>10046.01</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="D181" t="n">
-        <v>9740.76</v>
+        <v>9798.450000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>10045.81</v>
-      </c>
-      <c r="G181" s="1">
+        <v>9830.01</v>
+      </c>
+      <c r="G181" s="3">
         <f>AVERAGE(E177:E181)</f>
         <v/>
       </c>
-      <c r="H181" s="1">
+      <c r="H181" s="3">
         <f>AVERAGE(E152:E181)</f>
         <v/>
       </c>
-      <c r="I181" s="1">
+      <c r="I181" s="3">
         <f>G181-H181</f>
         <v/>
       </c>
@@ -6724,26 +6730,26 @@
         <v>188</v>
       </c>
       <c r="B182" t="n">
-        <v>9989.629999999999</v>
+        <v>9806.799999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>9989.629999999999</v>
+        <v>9875.84</v>
       </c>
       <c r="D182" t="n">
-        <v>9890.469999999999</v>
+        <v>9764.459999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>9901.120000000001</v>
-      </c>
-      <c r="G182" s="1">
+        <v>9831.209999999999</v>
+      </c>
+      <c r="G182" s="3">
         <f>AVERAGE(E178:E182)</f>
         <v/>
       </c>
-      <c r="H182" s="1">
+      <c r="H182" s="3">
         <f>AVERAGE(E153:E182)</f>
         <v/>
       </c>
-      <c r="I182" s="1">
+      <c r="I182" s="3">
         <f>G182-H182</f>
         <v/>
       </c>
@@ -6753,26 +6759,26 @@
         <v>189</v>
       </c>
       <c r="B183" t="n">
-        <v>9891.969999999999</v>
+        <v>9727.17</v>
       </c>
       <c r="C183" t="n">
-        <v>10011.19</v>
+        <v>9777.35</v>
       </c>
       <c r="D183" t="n">
-        <v>9888.73</v>
+        <v>9616.16</v>
       </c>
       <c r="E183" t="n">
-        <v>9981.1</v>
-      </c>
-      <c r="G183" s="1">
+        <v>9775.84</v>
+      </c>
+      <c r="G183" s="3">
         <f>AVERAGE(E179:E183)</f>
         <v/>
       </c>
-      <c r="H183" s="1">
+      <c r="H183" s="3">
         <f>AVERAGE(E154:E183)</f>
         <v/>
       </c>
-      <c r="I183" s="1">
+      <c r="I183" s="3">
         <f>G183-H183</f>
         <v/>
       </c>
@@ -6782,26 +6788,26 @@
         <v>190</v>
       </c>
       <c r="B184" t="n">
-        <v>10048.43</v>
+        <v>9799.690000000001</v>
       </c>
       <c r="C184" t="n">
-        <v>10127.01</v>
+        <v>9823.25</v>
       </c>
       <c r="D184" t="n">
-        <v>9978.25</v>
+        <v>9763.889999999999</v>
       </c>
       <c r="E184" t="n">
-        <v>9979.139999999999</v>
-      </c>
-      <c r="G184" s="1">
+        <v>9791.879999999999</v>
+      </c>
+      <c r="G184" s="3">
         <f>AVERAGE(E180:E184)</f>
         <v/>
       </c>
-      <c r="H184" s="1">
+      <c r="H184" s="3">
         <f>AVERAGE(E155:E184)</f>
         <v/>
       </c>
-      <c r="I184" s="1">
+      <c r="I184" s="3">
         <f>G184-H184</f>
         <v/>
       </c>
@@ -6811,26 +6817,26 @@
         <v>191</v>
       </c>
       <c r="B185" t="n">
-        <v>9975.459999999999</v>
+        <v>9806.58</v>
       </c>
       <c r="C185" t="n">
-        <v>10019.5</v>
+        <v>9844.389999999999</v>
       </c>
       <c r="D185" t="n">
-        <v>9919.790000000001</v>
+        <v>9755.120000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>9953.73</v>
-      </c>
-      <c r="G185" s="1">
+        <v>9826.459999999999</v>
+      </c>
+      <c r="G185" s="3">
         <f>AVERAGE(E181:E185)</f>
         <v/>
       </c>
-      <c r="H185" s="1">
+      <c r="H185" s="3">
         <f>AVERAGE(E156:E185)</f>
         <v/>
       </c>
-      <c r="I185" s="1">
+      <c r="I185" s="3">
         <f>G185-H185</f>
         <v/>
       </c>
@@ -6840,26 +6846,26 @@
         <v>192</v>
       </c>
       <c r="B186" t="n">
-        <v>9879.469999999999</v>
+        <v>9819.049999999999</v>
       </c>
       <c r="C186" t="n">
-        <v>9919.26</v>
+        <v>9851.290000000001</v>
       </c>
       <c r="D186" t="n">
-        <v>9762.91</v>
+        <v>9770.870000000001</v>
       </c>
       <c r="E186" t="n">
-        <v>9919.26</v>
-      </c>
-      <c r="G186" s="1">
+        <v>9797.09</v>
+      </c>
+      <c r="G186" s="3">
         <f>AVERAGE(E182:E186)</f>
         <v/>
       </c>
-      <c r="H186" s="1">
+      <c r="H186" s="3">
         <f>AVERAGE(E157:E186)</f>
         <v/>
       </c>
-      <c r="I186" s="1">
+      <c r="I186" s="3">
         <f>G186-H186</f>
         <v/>
       </c>
@@ -6869,26 +6875,26 @@
         <v>193</v>
       </c>
       <c r="B187" t="n">
-        <v>9871.299999999999</v>
+        <v>9795.469999999999</v>
       </c>
       <c r="C187" t="n">
-        <v>9984.15</v>
+        <v>9836.02</v>
       </c>
       <c r="D187" t="n">
-        <v>9822.15</v>
+        <v>9779.4</v>
       </c>
       <c r="E187" t="n">
-        <v>9974.280000000001</v>
-      </c>
-      <c r="G187" s="1">
+        <v>9828.690000000001</v>
+      </c>
+      <c r="G187" s="3">
         <f>AVERAGE(E183:E187)</f>
         <v/>
       </c>
-      <c r="H187" s="1">
+      <c r="H187" s="3">
         <f>AVERAGE(E158:E187)</f>
         <v/>
       </c>
-      <c r="I187" s="1">
+      <c r="I187" s="3">
         <f>G187-H187</f>
         <v/>
       </c>
@@ -6898,26 +6904,26 @@
         <v>194</v>
       </c>
       <c r="B188" t="n">
-        <v>9912.280000000001</v>
+        <v>9788.950000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>9912.280000000001</v>
+        <v>9800.030000000001</v>
       </c>
       <c r="D188" t="n">
-        <v>9775.200000000001</v>
+        <v>9726.799999999999</v>
       </c>
       <c r="E188" t="n">
-        <v>9775.200000000001</v>
-      </c>
-      <c r="G188" s="1">
+        <v>9743.99</v>
+      </c>
+      <c r="G188" s="3">
         <f>AVERAGE(E184:E188)</f>
         <v/>
       </c>
-      <c r="H188" s="1">
+      <c r="H188" s="3">
         <f>AVERAGE(E159:E188)</f>
         <v/>
       </c>
-      <c r="I188" s="1">
+      <c r="I188" s="3">
         <f>G188-H188</f>
         <v/>
       </c>
@@ -6927,26 +6933,26 @@
         <v>195</v>
       </c>
       <c r="B189" t="n">
-        <v>9774.290000000001</v>
+        <v>9698.52</v>
       </c>
       <c r="C189" t="n">
-        <v>9809.190000000001</v>
+        <v>9753.690000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>9667.85</v>
+        <v>9632.469999999999</v>
       </c>
       <c r="E189" t="n">
-        <v>9759.4</v>
-      </c>
-      <c r="G189" s="1">
+        <v>9741.52</v>
+      </c>
+      <c r="G189" s="3">
         <f>AVERAGE(E185:E189)</f>
         <v/>
       </c>
-      <c r="H189" s="1">
+      <c r="H189" s="3">
         <f>AVERAGE(E160:E189)</f>
         <v/>
       </c>
-      <c r="I189" s="1">
+      <c r="I189" s="3">
         <f>G189-H189</f>
         <v/>
       </c>
@@ -6956,26 +6962,26 @@
         <v>196</v>
       </c>
       <c r="B190" t="n">
-        <v>9622.950000000001</v>
+        <v>9769.33</v>
       </c>
       <c r="C190" t="n">
-        <v>9622.950000000001</v>
+        <v>9792.99</v>
       </c>
       <c r="D190" t="n">
-        <v>9475.610000000001</v>
+        <v>9702.77</v>
       </c>
       <c r="E190" t="n">
-        <v>9520.790000000001</v>
-      </c>
-      <c r="G190" s="1">
+        <v>9714.709999999999</v>
+      </c>
+      <c r="G190" s="3">
         <f>AVERAGE(E186:E190)</f>
         <v/>
       </c>
-      <c r="H190" s="1">
+      <c r="H190" s="3">
         <f>AVERAGE(E161:E190)</f>
         <v/>
       </c>
-      <c r="I190" s="1">
+      <c r="I190" s="3">
         <f>G190-H190</f>
         <v/>
       </c>
@@ -6985,26 +6991,26 @@
         <v>197</v>
       </c>
       <c r="B191" t="n">
-        <v>9570.190000000001</v>
+        <v>9730.639999999999</v>
       </c>
       <c r="C191" t="n">
-        <v>9629.07</v>
+        <v>9738.799999999999</v>
       </c>
       <c r="D191" t="n">
-        <v>9400.690000000001</v>
+        <v>9654.91</v>
       </c>
       <c r="E191" t="n">
-        <v>9489.18</v>
-      </c>
-      <c r="G191" s="1">
+        <v>9667.299999999999</v>
+      </c>
+      <c r="G191" s="3">
         <f>AVERAGE(E187:E191)</f>
         <v/>
       </c>
-      <c r="H191" s="1">
+      <c r="H191" s="3">
         <f>AVERAGE(E162:E191)</f>
         <v/>
       </c>
-      <c r="I191" s="1">
+      <c r="I191" s="3">
         <f>G191-H191</f>
         <v/>
       </c>
@@ -7014,26 +7020,26 @@
         <v>198</v>
       </c>
       <c r="B192" t="n">
-        <v>9515.43</v>
+        <v>9679.98</v>
       </c>
       <c r="C192" t="n">
-        <v>9554.35</v>
+        <v>9847.35</v>
       </c>
       <c r="D192" t="n">
-        <v>9459.120000000001</v>
+        <v>9679.98</v>
       </c>
       <c r="E192" t="n">
-        <v>9516.32</v>
-      </c>
-      <c r="G192" s="1">
+        <v>9765.360000000001</v>
+      </c>
+      <c r="G192" s="3">
         <f>AVERAGE(E188:E192)</f>
         <v/>
       </c>
-      <c r="H192" s="1">
+      <c r="H192" s="3">
         <f>AVERAGE(E163:E192)</f>
         <v/>
       </c>
-      <c r="I192" s="1">
+      <c r="I192" s="3">
         <f>G192-H192</f>
         <v/>
       </c>
@@ -7043,26 +7049,26 @@
         <v>199</v>
       </c>
       <c r="B193" t="n">
-        <v>9508.809999999999</v>
+        <v>9728.950000000001</v>
       </c>
       <c r="C193" t="n">
-        <v>9574.83</v>
+        <v>9781.4</v>
       </c>
       <c r="D193" t="n">
-        <v>9481.66</v>
+        <v>9688.74</v>
       </c>
       <c r="E193" t="n">
-        <v>9526.110000000001</v>
-      </c>
-      <c r="G193" s="1">
+        <v>9778.620000000001</v>
+      </c>
+      <c r="G193" s="3">
         <f>AVERAGE(E189:E193)</f>
         <v/>
       </c>
-      <c r="H193" s="1">
+      <c r="H193" s="3">
         <f>AVERAGE(E164:E193)</f>
         <v/>
       </c>
-      <c r="I193" s="1">
+      <c r="I193" s="3">
         <f>G193-H193</f>
         <v/>
       </c>
@@ -7072,26 +7078,26 @@
         <v>200</v>
       </c>
       <c r="B194" t="n">
-        <v>9588.860000000001</v>
+        <v>9774.030000000001</v>
       </c>
       <c r="C194" t="n">
-        <v>9802.129999999999</v>
+        <v>9890.889999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>9588.860000000001</v>
+        <v>9767.139999999999</v>
       </c>
       <c r="E194" t="n">
-        <v>9802.129999999999</v>
-      </c>
-      <c r="G194" s="1">
+        <v>9884.309999999999</v>
+      </c>
+      <c r="G194" s="3">
         <f>AVERAGE(E190:E194)</f>
         <v/>
       </c>
-      <c r="H194" s="1">
+      <c r="H194" s="3">
         <f>AVERAGE(E165:E194)</f>
         <v/>
       </c>
-      <c r="I194" s="1">
+      <c r="I194" s="3">
         <f>G194-H194</f>
         <v/>
       </c>
@@ -7101,26 +7107,26 @@
         <v>201</v>
       </c>
       <c r="B195" t="n">
-        <v>9812.200000000001</v>
+        <v>9959.870000000001</v>
       </c>
       <c r="C195" t="n">
-        <v>9869.59</v>
+        <v>10001.85</v>
       </c>
       <c r="D195" t="n">
-        <v>9742.610000000001</v>
+        <v>9885.360000000001</v>
       </c>
       <c r="E195" t="n">
-        <v>9844.74</v>
-      </c>
-      <c r="G195" s="1">
+        <v>9885.360000000001</v>
+      </c>
+      <c r="G195" s="3">
         <f>AVERAGE(E191:E195)</f>
         <v/>
       </c>
-      <c r="H195" s="1">
+      <c r="H195" s="3">
         <f>AVERAGE(E166:E195)</f>
         <v/>
       </c>
-      <c r="I195" s="1">
+      <c r="I195" s="3">
         <f>G195-H195</f>
         <v/>
       </c>
@@ -7130,26 +7136,26 @@
         <v>202</v>
       </c>
       <c r="B196" t="n">
-        <v>9871.4</v>
+        <v>9899.24</v>
       </c>
       <c r="C196" t="n">
-        <v>9906.59</v>
+        <v>9957.629999999999</v>
       </c>
       <c r="D196" t="n">
-        <v>9817.290000000001</v>
+        <v>9888.030000000001</v>
       </c>
       <c r="E196" t="n">
-        <v>9906.59</v>
-      </c>
-      <c r="G196" s="1">
+        <v>9888.030000000001</v>
+      </c>
+      <c r="G196" s="3">
         <f>AVERAGE(E192:E196)</f>
         <v/>
       </c>
-      <c r="H196" s="1">
+      <c r="H196" s="3">
         <f>AVERAGE(E167:E196)</f>
         <v/>
       </c>
-      <c r="I196" s="1">
+      <c r="I196" s="3">
         <f>G196-H196</f>
         <v/>
       </c>
@@ -7159,26 +7165,26 @@
         <v>203</v>
       </c>
       <c r="B197" t="n">
-        <v>9856.85</v>
+        <v>9979.209999999999</v>
       </c>
       <c r="C197" t="n">
-        <v>9889.809999999999</v>
+        <v>10148.75</v>
       </c>
       <c r="D197" t="n">
-        <v>9786.25</v>
+        <v>9979.209999999999</v>
       </c>
       <c r="E197" t="n">
-        <v>9889.809999999999</v>
-      </c>
-      <c r="G197" s="1">
+        <v>10137.87</v>
+      </c>
+      <c r="G197" s="3">
         <f>AVERAGE(E193:E197)</f>
         <v/>
       </c>
-      <c r="H197" s="1">
+      <c r="H197" s="3">
         <f>AVERAGE(E168:E197)</f>
         <v/>
       </c>
-      <c r="I197" s="1">
+      <c r="I197" s="3">
         <f>G197-H197</f>
         <v/>
       </c>
@@ -7188,26 +7194,26 @@
         <v>204</v>
       </c>
       <c r="B198" t="n">
-        <v>9888.41</v>
+        <v>10120.43</v>
       </c>
       <c r="C198" t="n">
-        <v>9899.969999999999</v>
+        <v>10126.02</v>
       </c>
       <c r="D198" t="n">
-        <v>9782.860000000001</v>
+        <v>10061.7</v>
       </c>
       <c r="E198" t="n">
-        <v>9824.950000000001</v>
-      </c>
-      <c r="G198" s="1">
+        <v>10083.54</v>
+      </c>
+      <c r="G198" s="3">
         <f>AVERAGE(E194:E198)</f>
         <v/>
       </c>
-      <c r="H198" s="1">
+      <c r="H198" s="3">
         <f>AVERAGE(E169:E198)</f>
         <v/>
       </c>
-      <c r="I198" s="1">
+      <c r="I198" s="3">
         <f>G198-H198</f>
         <v/>
       </c>
@@ -7217,26 +7223,26 @@
         <v>205</v>
       </c>
       <c r="B199" t="n">
-        <v>9818.15</v>
+        <v>9971.98</v>
       </c>
       <c r="C199" t="n">
-        <v>9912.530000000001</v>
+        <v>9971.98</v>
       </c>
       <c r="D199" t="n">
-        <v>9817.950000000001</v>
+        <v>9895.290000000001</v>
       </c>
       <c r="E199" t="n">
-        <v>9908.35</v>
-      </c>
-      <c r="G199" s="1">
+        <v>9916.74</v>
+      </c>
+      <c r="G199" s="3">
         <f>AVERAGE(E195:E199)</f>
         <v/>
       </c>
-      <c r="H199" s="1">
+      <c r="H199" s="3">
         <f>AVERAGE(E170:E199)</f>
         <v/>
       </c>
-      <c r="I199" s="1">
+      <c r="I199" s="3">
         <f>G199-H199</f>
         <v/>
       </c>
@@ -7246,26 +7252,26 @@
         <v>206</v>
       </c>
       <c r="B200" t="n">
-        <v>9958.469999999999</v>
+        <v>9850.08</v>
       </c>
       <c r="C200" t="n">
-        <v>10014.42</v>
+        <v>9850.08</v>
       </c>
       <c r="D200" t="n">
-        <v>9938.549999999999</v>
+        <v>9664.75</v>
       </c>
       <c r="E200" t="n">
-        <v>9945.309999999999</v>
-      </c>
-      <c r="G200" s="1">
+        <v>9684.719999999999</v>
+      </c>
+      <c r="G200" s="3">
         <f>AVERAGE(E196:E200)</f>
         <v/>
       </c>
-      <c r="H200" s="1">
+      <c r="H200" s="3">
         <f>AVERAGE(E171:E200)</f>
         <v/>
       </c>
-      <c r="I200" s="1">
+      <c r="I200" s="3">
         <f>G200-H200</f>
         <v/>
       </c>
@@ -7275,26 +7281,26 @@
         <v>207</v>
       </c>
       <c r="B201" t="n">
-        <v>9921.780000000001</v>
+        <v>9719.459999999999</v>
       </c>
       <c r="C201" t="n">
-        <v>9921.780000000001</v>
+        <v>9785.200000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>9798.450000000001</v>
+        <v>9719.459999999999</v>
       </c>
       <c r="E201" t="n">
-        <v>9830.01</v>
-      </c>
-      <c r="G201" s="1">
+        <v>9760.879999999999</v>
+      </c>
+      <c r="G201" s="3">
         <f>AVERAGE(E197:E201)</f>
         <v/>
       </c>
-      <c r="H201" s="1">
+      <c r="H201" s="3">
         <f>AVERAGE(E172:E201)</f>
         <v/>
       </c>
-      <c r="I201" s="1">
+      <c r="I201" s="3">
         <f>G201-H201</f>
         <v/>
       </c>
@@ -7304,26 +7310,26 @@
         <v>208</v>
       </c>
       <c r="B202" t="n">
-        <v>9806.799999999999</v>
+        <v>9722.969999999999</v>
       </c>
       <c r="C202" t="n">
-        <v>9875.84</v>
+        <v>9722.969999999999</v>
       </c>
       <c r="D202" t="n">
-        <v>9764.459999999999</v>
+        <v>9626.469999999999</v>
       </c>
       <c r="E202" t="n">
-        <v>9831.209999999999</v>
-      </c>
-      <c r="G202" s="1">
+        <v>9647.540000000001</v>
+      </c>
+      <c r="G202" s="3">
         <f>AVERAGE(E198:E202)</f>
         <v/>
       </c>
-      <c r="H202" s="1">
+      <c r="H202" s="3">
         <f>AVERAGE(E173:E202)</f>
         <v/>
       </c>
-      <c r="I202" s="1">
+      <c r="I202" s="3">
         <f>G202-H202</f>
         <v/>
       </c>
@@ -7333,26 +7339,26 @@
         <v>209</v>
       </c>
       <c r="B203" t="n">
-        <v>9727.17</v>
+        <v>9661.719999999999</v>
       </c>
       <c r="C203" t="n">
-        <v>9777.35</v>
+        <v>9720.959999999999</v>
       </c>
       <c r="D203" t="n">
-        <v>9616.16</v>
+        <v>9661.719999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>9775.84</v>
-      </c>
-      <c r="G203" s="1">
+        <v>9707.040000000001</v>
+      </c>
+      <c r="G203" s="3">
         <f>AVERAGE(E199:E203)</f>
         <v/>
       </c>
-      <c r="H203" s="1">
+      <c r="H203" s="3">
         <f>AVERAGE(E174:E203)</f>
         <v/>
       </c>
-      <c r="I203" s="1">
+      <c r="I203" s="3">
         <f>G203-H203</f>
         <v/>
       </c>
@@ -7362,26 +7368,26 @@
         <v>210</v>
       </c>
       <c r="B204" t="n">
-        <v>9799.690000000001</v>
+        <v>9741.450000000001</v>
       </c>
       <c r="C204" t="n">
-        <v>9823.25</v>
+        <v>9835.559999999999</v>
       </c>
       <c r="D204" t="n">
-        <v>9763.889999999999</v>
+        <v>9741.450000000001</v>
       </c>
       <c r="E204" t="n">
-        <v>9791.879999999999</v>
-      </c>
-      <c r="G204" s="1">
+        <v>9816.450000000001</v>
+      </c>
+      <c r="G204" s="3">
         <f>AVERAGE(E200:E204)</f>
         <v/>
       </c>
-      <c r="H204" s="1">
+      <c r="H204" s="3">
         <f>AVERAGE(E175:E204)</f>
         <v/>
       </c>
-      <c r="I204" s="1">
+      <c r="I204" s="3">
         <f>G204-H204</f>
         <v/>
       </c>
@@ -7391,26 +7397,26 @@
         <v>211</v>
       </c>
       <c r="B205" t="n">
-        <v>9806.58</v>
+        <v>9827.32</v>
       </c>
       <c r="C205" t="n">
-        <v>9844.389999999999</v>
+        <v>9871.959999999999</v>
       </c>
       <c r="D205" t="n">
-        <v>9755.120000000001</v>
+        <v>9815.5</v>
       </c>
       <c r="E205" t="n">
-        <v>9826.459999999999</v>
-      </c>
-      <c r="G205" s="1">
+        <v>9858.76</v>
+      </c>
+      <c r="G205" s="3">
         <f>AVERAGE(E201:E205)</f>
         <v/>
       </c>
-      <c r="H205" s="1">
+      <c r="H205" s="3">
         <f>AVERAGE(E176:E205)</f>
         <v/>
       </c>
-      <c r="I205" s="1">
+      <c r="I205" s="3">
         <f>G205-H205</f>
         <v/>
       </c>
@@ -7420,26 +7426,26 @@
         <v>212</v>
       </c>
       <c r="B206" t="n">
-        <v>9819.049999999999</v>
+        <v>9818.950000000001</v>
       </c>
       <c r="C206" t="n">
-        <v>9851.290000000001</v>
+        <v>9818.950000000001</v>
       </c>
       <c r="D206" t="n">
-        <v>9770.870000000001</v>
+        <v>9718.940000000001</v>
       </c>
       <c r="E206" t="n">
-        <v>9797.09</v>
-      </c>
-      <c r="G206" s="1">
+        <v>9774.16</v>
+      </c>
+      <c r="G206" s="3">
         <f>AVERAGE(E202:E206)</f>
         <v/>
       </c>
-      <c r="H206" s="1">
+      <c r="H206" s="3">
         <f>AVERAGE(E177:E206)</f>
         <v/>
       </c>
-      <c r="I206" s="1">
+      <c r="I206" s="3">
         <f>G206-H206</f>
         <v/>
       </c>
@@ -7449,26 +7455,26 @@
         <v>213</v>
       </c>
       <c r="B207" t="n">
-        <v>9795.469999999999</v>
+        <v>9762.49</v>
       </c>
       <c r="C207" t="n">
-        <v>9836.02</v>
+        <v>9826.879999999999</v>
       </c>
       <c r="D207" t="n">
-        <v>9779.4</v>
+        <v>9733.98</v>
       </c>
       <c r="E207" t="n">
-        <v>9828.690000000001</v>
-      </c>
-      <c r="G207" s="1">
+        <v>9787.530000000001</v>
+      </c>
+      <c r="G207" s="3">
         <f>AVERAGE(E203:E207)</f>
         <v/>
       </c>
-      <c r="H207" s="1">
+      <c r="H207" s="3">
         <f>AVERAGE(E178:E207)</f>
         <v/>
       </c>
-      <c r="I207" s="1">
+      <c r="I207" s="3">
         <f>G207-H207</f>
         <v/>
       </c>
@@ -7478,26 +7484,26 @@
         <v>214</v>
       </c>
       <c r="B208" t="n">
-        <v>9788.950000000001</v>
+        <v>9756.459999999999</v>
       </c>
       <c r="C208" t="n">
-        <v>9800.030000000001</v>
+        <v>9756.67</v>
       </c>
       <c r="D208" t="n">
-        <v>9726.799999999999</v>
+        <v>9701.1</v>
       </c>
       <c r="E208" t="n">
-        <v>9743.99</v>
-      </c>
-      <c r="G208" s="1">
+        <v>9718.82</v>
+      </c>
+      <c r="G208" s="3">
         <f>AVERAGE(E204:E208)</f>
         <v/>
       </c>
-      <c r="H208" s="1">
+      <c r="H208" s="3">
         <f>AVERAGE(E179:E208)</f>
         <v/>
       </c>
-      <c r="I208" s="1">
+      <c r="I208" s="3">
         <f>G208-H208</f>
         <v/>
       </c>
@@ -7507,26 +7513,26 @@
         <v>215</v>
       </c>
       <c r="B209" t="n">
-        <v>9698.52</v>
+        <v>9720.92</v>
       </c>
       <c r="C209" t="n">
-        <v>9753.690000000001</v>
+        <v>9783.209999999999</v>
       </c>
       <c r="D209" t="n">
-        <v>9632.469999999999</v>
+        <v>9720.92</v>
       </c>
       <c r="E209" t="n">
-        <v>9741.52</v>
-      </c>
-      <c r="G209" s="1">
+        <v>9783.209999999999</v>
+      </c>
+      <c r="G209" s="3">
         <f>AVERAGE(E205:E209)</f>
         <v/>
       </c>
-      <c r="H209" s="1">
+      <c r="H209" s="3">
         <f>AVERAGE(E180:E209)</f>
         <v/>
       </c>
-      <c r="I209" s="1">
+      <c r="I209" s="3">
         <f>G209-H209</f>
         <v/>
       </c>
@@ -7536,26 +7542,26 @@
         <v>216</v>
       </c>
       <c r="B210" t="n">
-        <v>9769.33</v>
+        <v>9729.290000000001</v>
       </c>
       <c r="C210" t="n">
-        <v>9792.99</v>
+        <v>9741.549999999999</v>
       </c>
       <c r="D210" t="n">
-        <v>9702.77</v>
+        <v>9658.5</v>
       </c>
       <c r="E210" t="n">
-        <v>9714.709999999999</v>
-      </c>
-      <c r="G210" s="1">
+        <v>9674.52</v>
+      </c>
+      <c r="G210" s="3">
         <f>AVERAGE(E206:E210)</f>
         <v/>
       </c>
-      <c r="H210" s="1">
+      <c r="H210" s="3">
         <f>AVERAGE(E181:E210)</f>
         <v/>
       </c>
-      <c r="I210" s="1">
+      <c r="I210" s="3">
         <f>G210-H210</f>
         <v/>
       </c>
@@ -7565,26 +7571,26 @@
         <v>217</v>
       </c>
       <c r="B211" t="n">
-        <v>9730.639999999999</v>
+        <v>9648.98</v>
       </c>
       <c r="C211" t="n">
-        <v>9738.799999999999</v>
+        <v>9683.950000000001</v>
       </c>
       <c r="D211" t="n">
-        <v>9654.91</v>
+        <v>9585.32</v>
       </c>
       <c r="E211" t="n">
-        <v>9667.299999999999</v>
-      </c>
-      <c r="G211" s="1">
+        <v>9676.67</v>
+      </c>
+      <c r="G211" s="3">
         <f>AVERAGE(E207:E211)</f>
         <v/>
       </c>
-      <c r="H211" s="1">
+      <c r="H211" s="3">
         <f>AVERAGE(E182:E211)</f>
         <v/>
       </c>
-      <c r="I211" s="1">
+      <c r="I211" s="3">
         <f>G211-H211</f>
         <v/>
       </c>
@@ -7594,26 +7600,26 @@
         <v>218</v>
       </c>
       <c r="B212" t="n">
-        <v>9679.98</v>
+        <v>9639.24</v>
       </c>
       <c r="C212" t="n">
-        <v>9847.35</v>
+        <v>9652.190000000001</v>
       </c>
       <c r="D212" t="n">
-        <v>9679.98</v>
+        <v>9625.309999999999</v>
       </c>
       <c r="E212" t="n">
-        <v>9765.360000000001</v>
-      </c>
-      <c r="G212" s="1">
+        <v>9646.16</v>
+      </c>
+      <c r="G212" s="3">
         <f>AVERAGE(E208:E212)</f>
         <v/>
       </c>
-      <c r="H212" s="1">
+      <c r="H212" s="3">
         <f>AVERAGE(E183:E212)</f>
         <v/>
       </c>
-      <c r="I212" s="1">
+      <c r="I212" s="3">
         <f>G212-H212</f>
         <v/>
       </c>
@@ -7623,26 +7629,26 @@
         <v>219</v>
       </c>
       <c r="B213" t="n">
-        <v>9728.950000000001</v>
+        <v>9646.530000000001</v>
       </c>
       <c r="C213" t="n">
-        <v>9781.4</v>
+        <v>9658.950000000001</v>
       </c>
       <c r="D213" t="n">
-        <v>9688.74</v>
+        <v>9613.290000000001</v>
       </c>
       <c r="E213" t="n">
-        <v>9778.620000000001</v>
-      </c>
-      <c r="G213" s="1">
+        <v>9639.700000000001</v>
+      </c>
+      <c r="G213" s="3">
         <f>AVERAGE(E209:E213)</f>
         <v/>
       </c>
-      <c r="H213" s="1">
+      <c r="H213" s="3">
         <f>AVERAGE(E184:E213)</f>
         <v/>
       </c>
-      <c r="I213" s="1">
+      <c r="I213" s="3">
         <f>G213-H213</f>
         <v/>
       </c>
@@ -7652,26 +7658,26 @@
         <v>220</v>
       </c>
       <c r="B214" t="n">
-        <v>9774.030000000001</v>
+        <v>9559.700000000001</v>
       </c>
       <c r="C214" t="n">
-        <v>9890.889999999999</v>
+        <v>9559.700000000001</v>
       </c>
       <c r="D214" t="n">
-        <v>9767.139999999999</v>
+        <v>9479.059999999999</v>
       </c>
       <c r="E214" t="n">
-        <v>9884.309999999999</v>
-      </c>
-      <c r="G214" s="1">
+        <v>9527.09</v>
+      </c>
+      <c r="G214" s="3">
         <f>AVERAGE(E210:E214)</f>
         <v/>
       </c>
-      <c r="H214" s="1">
+      <c r="H214" s="3">
         <f>AVERAGE(E185:E214)</f>
         <v/>
       </c>
-      <c r="I214" s="1">
+      <c r="I214" s="3">
         <f>G214-H214</f>
         <v/>
       </c>
@@ -7681,26 +7687,26 @@
         <v>221</v>
       </c>
       <c r="B215" t="n">
-        <v>9959.870000000001</v>
+        <v>9544.870000000001</v>
       </c>
       <c r="C215" t="n">
-        <v>10001.85</v>
+        <v>9591.91</v>
       </c>
       <c r="D215" t="n">
-        <v>9885.360000000001</v>
+        <v>9473.299999999999</v>
       </c>
       <c r="E215" t="n">
-        <v>9885.360000000001</v>
-      </c>
-      <c r="G215" s="1">
+        <v>9478.99</v>
+      </c>
+      <c r="G215" s="3">
         <f>AVERAGE(E211:E215)</f>
         <v/>
       </c>
-      <c r="H215" s="1">
+      <c r="H215" s="3">
         <f>AVERAGE(E186:E215)</f>
         <v/>
       </c>
-      <c r="I215" s="1">
+      <c r="I215" s="3">
         <f>G215-H215</f>
         <v/>
       </c>
@@ -7710,26 +7716,26 @@
         <v>222</v>
       </c>
       <c r="B216" t="n">
-        <v>9899.24</v>
+        <v>9555.01</v>
       </c>
       <c r="C216" t="n">
-        <v>9957.629999999999</v>
+        <v>9670.969999999999</v>
       </c>
       <c r="D216" t="n">
-        <v>9888.030000000001</v>
+        <v>9555.01</v>
       </c>
       <c r="E216" t="n">
-        <v>9888.030000000001</v>
-      </c>
-      <c r="G216" s="1">
+        <v>9641.559999999999</v>
+      </c>
+      <c r="G216" s="3">
         <f>AVERAGE(E212:E216)</f>
         <v/>
       </c>
-      <c r="H216" s="1">
+      <c r="H216" s="3">
         <f>AVERAGE(E187:E216)</f>
         <v/>
       </c>
-      <c r="I216" s="1">
+      <c r="I216" s="3">
         <f>G216-H216</f>
         <v/>
       </c>
@@ -7739,26 +7745,26 @@
         <v>223</v>
       </c>
       <c r="B217" t="n">
-        <v>9979.209999999999</v>
+        <v>9649.969999999999</v>
       </c>
       <c r="C217" t="n">
-        <v>10148.75</v>
+        <v>9727.41</v>
       </c>
       <c r="D217" t="n">
-        <v>9979.209999999999</v>
+        <v>9630.77</v>
       </c>
       <c r="E217" t="n">
-        <v>10137.87</v>
-      </c>
-      <c r="G217" s="1">
+        <v>9727.41</v>
+      </c>
+      <c r="G217" s="3">
         <f>AVERAGE(E213:E217)</f>
         <v/>
       </c>
-      <c r="H217" s="1">
+      <c r="H217" s="3">
         <f>AVERAGE(E188:E217)</f>
         <v/>
       </c>
-      <c r="I217" s="1">
+      <c r="I217" s="3">
         <f>G217-H217</f>
         <v/>
       </c>
@@ -7768,26 +7774,26 @@
         <v>224</v>
       </c>
       <c r="B218" t="n">
-        <v>10120.43</v>
+        <v>9725.27</v>
       </c>
       <c r="C218" t="n">
-        <v>10126.02</v>
+        <v>9737.68</v>
       </c>
       <c r="D218" t="n">
-        <v>10061.7</v>
+        <v>9542.52</v>
       </c>
       <c r="E218" t="n">
-        <v>10083.54</v>
-      </c>
-      <c r="G218" s="1">
+        <v>9554.139999999999</v>
+      </c>
+      <c r="G218" s="3">
         <f>AVERAGE(E214:E218)</f>
         <v/>
       </c>
-      <c r="H218" s="1">
+      <c r="H218" s="3">
         <f>AVERAGE(E189:E218)</f>
         <v/>
       </c>
-      <c r="I218" s="1">
+      <c r="I218" s="3">
         <f>G218-H218</f>
         <v/>
       </c>
@@ -7797,26 +7803,26 @@
         <v>225</v>
       </c>
       <c r="B219" t="n">
-        <v>9971.98</v>
+        <v>9494.25</v>
       </c>
       <c r="C219" t="n">
-        <v>9971.98</v>
+        <v>9554.530000000001</v>
       </c>
       <c r="D219" t="n">
-        <v>9895.290000000001</v>
+        <v>9474.469999999999</v>
       </c>
       <c r="E219" t="n">
-        <v>9916.74</v>
-      </c>
-      <c r="G219" s="1">
+        <v>9492.42</v>
+      </c>
+      <c r="G219" s="3">
         <f>AVERAGE(E215:E219)</f>
         <v/>
       </c>
-      <c r="H219" s="1">
+      <c r="H219" s="3">
         <f>AVERAGE(E190:E219)</f>
         <v/>
       </c>
-      <c r="I219" s="1">
+      <c r="I219" s="3">
         <f>G219-H219</f>
         <v/>
       </c>
@@ -7826,26 +7832,26 @@
         <v>226</v>
       </c>
       <c r="B220" t="n">
-        <v>9850.08</v>
+        <v>9427.24</v>
       </c>
       <c r="C220" t="n">
-        <v>9850.08</v>
+        <v>9427.24</v>
       </c>
       <c r="D220" t="n">
-        <v>9664.75</v>
+        <v>9319.280000000001</v>
       </c>
       <c r="E220" t="n">
-        <v>9684.719999999999</v>
-      </c>
-      <c r="G220" s="1">
+        <v>9382.51</v>
+      </c>
+      <c r="G220" s="3">
         <f>AVERAGE(E216:E220)</f>
         <v/>
       </c>
-      <c r="H220" s="1">
+      <c r="H220" s="3">
         <f>AVERAGE(E191:E220)</f>
         <v/>
       </c>
-      <c r="I220" s="1">
+      <c r="I220" s="3">
         <f>G220-H220</f>
         <v/>
       </c>
@@ -7855,26 +7861,26 @@
         <v>227</v>
       </c>
       <c r="B221" t="n">
-        <v>9719.459999999999</v>
+        <v>9460.200000000001</v>
       </c>
       <c r="C221" t="n">
-        <v>9785.200000000001</v>
+        <v>9596.35</v>
       </c>
       <c r="D221" t="n">
-        <v>9719.459999999999</v>
+        <v>9460.200000000001</v>
       </c>
       <c r="E221" t="n">
-        <v>9760.879999999999</v>
-      </c>
-      <c r="G221" s="1">
+        <v>9590.299999999999</v>
+      </c>
+      <c r="G221" s="3">
         <f>AVERAGE(E217:E221)</f>
         <v/>
       </c>
-      <c r="H221" s="1">
+      <c r="H221" s="3">
         <f>AVERAGE(E192:E221)</f>
         <v/>
       </c>
-      <c r="I221" s="1">
+      <c r="I221" s="3">
         <f>G221-H221</f>
         <v/>
       </c>
@@ -7884,26 +7890,26 @@
         <v>228</v>
       </c>
       <c r="B222" t="n">
-        <v>9722.969999999999</v>
+        <v>9591.559999999999</v>
       </c>
       <c r="C222" t="n">
-        <v>9722.969999999999</v>
+        <v>9600.940000000001</v>
       </c>
       <c r="D222" t="n">
-        <v>9626.469999999999</v>
+        <v>9547.629999999999</v>
       </c>
       <c r="E222" t="n">
-        <v>9647.540000000001</v>
-      </c>
-      <c r="G222" s="1">
+        <v>9563.6</v>
+      </c>
+      <c r="G222" s="3">
         <f>AVERAGE(E218:E222)</f>
         <v/>
       </c>
-      <c r="H222" s="1">
+      <c r="H222" s="3">
         <f>AVERAGE(E193:E222)</f>
         <v/>
       </c>
-      <c r="I222" s="1">
+      <c r="I222" s="3">
         <f>G222-H222</f>
         <v/>
       </c>
@@ -7913,26 +7919,26 @@
         <v>229</v>
       </c>
       <c r="B223" t="n">
-        <v>9661.719999999999</v>
+        <v>9584.629999999999</v>
       </c>
       <c r="C223" t="n">
-        <v>9720.959999999999</v>
+        <v>9741.639999999999</v>
       </c>
       <c r="D223" t="n">
-        <v>9661.719999999999</v>
+        <v>9584.629999999999</v>
       </c>
       <c r="E223" t="n">
-        <v>9707.040000000001</v>
-      </c>
-      <c r="G223" s="1">
+        <v>9738.309999999999</v>
+      </c>
+      <c r="G223" s="3">
         <f>AVERAGE(E219:E223)</f>
         <v/>
       </c>
-      <c r="H223" s="1">
+      <c r="H223" s="3">
         <f>AVERAGE(E194:E223)</f>
         <v/>
       </c>
-      <c r="I223" s="1">
+      <c r="I223" s="3">
         <f>G223-H223</f>
         <v/>
       </c>
@@ -7942,26 +7948,26 @@
         <v>230</v>
       </c>
       <c r="B224" t="n">
-        <v>9741.450000000001</v>
+        <v>9731.110000000001</v>
       </c>
       <c r="C224" t="n">
-        <v>9835.559999999999</v>
+        <v>9731.110000000001</v>
       </c>
       <c r="D224" t="n">
-        <v>9741.450000000001</v>
+        <v>9683.200000000001</v>
       </c>
       <c r="E224" t="n">
-        <v>9816.450000000001</v>
-      </c>
-      <c r="G224" s="1">
+        <v>9720.690000000001</v>
+      </c>
+      <c r="G224" s="3">
         <f>AVERAGE(E220:E224)</f>
         <v/>
       </c>
-      <c r="H224" s="1">
+      <c r="H224" s="3">
         <f>AVERAGE(E195:E224)</f>
         <v/>
       </c>
-      <c r="I224" s="1">
+      <c r="I224" s="3">
         <f>G224-H224</f>
         <v/>
       </c>
@@ -7971,26 +7977,26 @@
         <v>231</v>
       </c>
       <c r="B225" t="n">
-        <v>9827.32</v>
+        <v>9753.629999999999</v>
       </c>
       <c r="C225" t="n">
-        <v>9871.959999999999</v>
+        <v>9796.98</v>
       </c>
       <c r="D225" t="n">
-        <v>9815.5</v>
+        <v>9736</v>
       </c>
       <c r="E225" t="n">
-        <v>9858.76</v>
-      </c>
-      <c r="G225" s="1">
+        <v>9759.4</v>
+      </c>
+      <c r="G225" s="3">
         <f>AVERAGE(E221:E225)</f>
         <v/>
       </c>
-      <c r="H225" s="1">
+      <c r="H225" s="3">
         <f>AVERAGE(E196:E225)</f>
         <v/>
       </c>
-      <c r="I225" s="1">
+      <c r="I225" s="3">
         <f>G225-H225</f>
         <v/>
       </c>
@@ -8000,26 +8006,26 @@
         <v>232</v>
       </c>
       <c r="B226" t="n">
-        <v>9818.950000000001</v>
+        <v>9737.67</v>
       </c>
       <c r="C226" t="n">
-        <v>9818.950000000001</v>
+        <v>9762.370000000001</v>
       </c>
       <c r="D226" t="n">
-        <v>9718.940000000001</v>
+        <v>9677.49</v>
       </c>
       <c r="E226" t="n">
-        <v>9774.16</v>
-      </c>
-      <c r="G226" s="1">
+        <v>9708.219999999999</v>
+      </c>
+      <c r="G226" s="3">
         <f>AVERAGE(E222:E226)</f>
         <v/>
       </c>
-      <c r="H226" s="1">
+      <c r="H226" s="3">
         <f>AVERAGE(E197:E226)</f>
         <v/>
       </c>
-      <c r="I226" s="1">
+      <c r="I226" s="3">
         <f>G226-H226</f>
         <v/>
       </c>
@@ -8029,26 +8035,26 @@
         <v>233</v>
       </c>
       <c r="B227" t="n">
-        <v>9762.49</v>
+        <v>9701.93</v>
       </c>
       <c r="C227" t="n">
-        <v>9826.879999999999</v>
+        <v>9806.040000000001</v>
       </c>
       <c r="D227" t="n">
-        <v>9733.98</v>
+        <v>9701.93</v>
       </c>
       <c r="E227" t="n">
-        <v>9787.530000000001</v>
-      </c>
-      <c r="G227" s="1">
+        <v>9806.040000000001</v>
+      </c>
+      <c r="G227" s="3">
         <f>AVERAGE(E223:E227)</f>
         <v/>
       </c>
-      <c r="H227" s="1">
+      <c r="H227" s="3">
         <f>AVERAGE(E198:E227)</f>
         <v/>
       </c>
-      <c r="I227" s="1">
+      <c r="I227" s="3">
         <f>G227-H227</f>
         <v/>
       </c>
@@ -8058,26 +8064,26 @@
         <v>234</v>
       </c>
       <c r="B228" t="n">
-        <v>9756.459999999999</v>
+        <v>9781.35</v>
       </c>
       <c r="C228" t="n">
-        <v>9756.67</v>
+        <v>9803.99</v>
       </c>
       <c r="D228" t="n">
-        <v>9701.1</v>
+        <v>9763.809999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>9718.82</v>
-      </c>
-      <c r="G228" s="1">
+        <v>9763.809999999999</v>
+      </c>
+      <c r="G228" s="3">
         <f>AVERAGE(E224:E228)</f>
         <v/>
       </c>
-      <c r="H228" s="1">
+      <c r="H228" s="3">
         <f>AVERAGE(E199:E228)</f>
         <v/>
       </c>
-      <c r="I228" s="1">
+      <c r="I228" s="3">
         <f>G228-H228</f>
         <v/>
       </c>
@@ -8087,26 +8093,26 @@
         <v>235</v>
       </c>
       <c r="B229" t="n">
-        <v>9720.92</v>
+        <v>9773.309999999999</v>
       </c>
       <c r="C229" t="n">
-        <v>9783.209999999999</v>
+        <v>9826.25</v>
       </c>
       <c r="D229" t="n">
-        <v>9720.92</v>
+        <v>9759.51</v>
       </c>
       <c r="E229" t="n">
-        <v>9783.209999999999</v>
-      </c>
-      <c r="G229" s="1">
+        <v>9789.15</v>
+      </c>
+      <c r="G229" s="3">
         <f>AVERAGE(E225:E229)</f>
         <v/>
       </c>
-      <c r="H229" s="1">
+      <c r="H229" s="3">
         <f>AVERAGE(E200:E229)</f>
         <v/>
       </c>
-      <c r="I229" s="1">
+      <c r="I229" s="3">
         <f>G229-H229</f>
         <v/>
       </c>
@@ -8116,26 +8122,26 @@
         <v>236</v>
       </c>
       <c r="B230" t="n">
-        <v>9729.290000000001</v>
+        <v>9781.389999999999</v>
       </c>
       <c r="C230" t="n">
-        <v>9741.549999999999</v>
+        <v>9842.799999999999</v>
       </c>
       <c r="D230" t="n">
-        <v>9658.5</v>
+        <v>9771.15</v>
       </c>
       <c r="E230" t="n">
-        <v>9674.52</v>
-      </c>
-      <c r="G230" s="1">
+        <v>9836.059999999999</v>
+      </c>
+      <c r="G230" s="3">
         <f>AVERAGE(E226:E230)</f>
         <v/>
       </c>
-      <c r="H230" s="1">
+      <c r="H230" s="3">
         <f>AVERAGE(E201:E230)</f>
         <v/>
       </c>
-      <c r="I230" s="1">
+      <c r="I230" s="3">
         <f>G230-H230</f>
         <v/>
       </c>
@@ -8145,26 +8151,26 @@
         <v>237</v>
       </c>
       <c r="B231" t="n">
-        <v>9648.98</v>
+        <v>9870.27</v>
       </c>
       <c r="C231" t="n">
-        <v>9683.950000000001</v>
+        <v>9919.940000000001</v>
       </c>
       <c r="D231" t="n">
-        <v>9585.32</v>
+        <v>9870.27</v>
       </c>
       <c r="E231" t="n">
-        <v>9676.67</v>
-      </c>
-      <c r="G231" s="1">
+        <v>9889.4</v>
+      </c>
+      <c r="G231" s="3">
         <f>AVERAGE(E227:E231)</f>
         <v/>
       </c>
-      <c r="H231" s="1">
+      <c r="H231" s="3">
         <f>AVERAGE(E202:E231)</f>
         <v/>
       </c>
-      <c r="I231" s="1">
+      <c r="I231" s="3">
         <f>G231-H231</f>
         <v/>
       </c>
@@ -8174,26 +8180,26 @@
         <v>238</v>
       </c>
       <c r="B232" t="n">
-        <v>9639.24</v>
+        <v>9880.540000000001</v>
       </c>
       <c r="C232" t="n">
-        <v>9652.190000000001</v>
+        <v>9894.66</v>
       </c>
       <c r="D232" t="n">
-        <v>9625.309999999999</v>
+        <v>9855.469999999999</v>
       </c>
       <c r="E232" t="n">
-        <v>9646.16</v>
-      </c>
-      <c r="G232" s="1">
+        <v>9894.66</v>
+      </c>
+      <c r="G232" s="3">
         <f>AVERAGE(E228:E232)</f>
         <v/>
       </c>
-      <c r="H232" s="1">
+      <c r="H232" s="3">
         <f>AVERAGE(E203:E232)</f>
         <v/>
       </c>
-      <c r="I232" s="1">
+      <c r="I232" s="3">
         <f>G232-H232</f>
         <v/>
       </c>
@@ -8203,26 +8209,26 @@
         <v>239</v>
       </c>
       <c r="B233" t="n">
-        <v>9646.530000000001</v>
+        <v>9869.540000000001</v>
       </c>
       <c r="C233" t="n">
-        <v>9658.950000000001</v>
+        <v>9873.389999999999</v>
       </c>
       <c r="D233" t="n">
-        <v>9613.290000000001</v>
+        <v>9828.030000000001</v>
       </c>
       <c r="E233" t="n">
-        <v>9639.700000000001</v>
-      </c>
-      <c r="G233" s="1">
+        <v>9846.4</v>
+      </c>
+      <c r="G233" s="3">
         <f>AVERAGE(E229:E233)</f>
         <v/>
       </c>
-      <c r="H233" s="1">
+      <c r="H233" s="3">
         <f>AVERAGE(E204:E233)</f>
         <v/>
       </c>
-      <c r="I233" s="1">
+      <c r="I233" s="3">
         <f>G233-H233</f>
         <v/>
       </c>
@@ -8232,26 +8238,26 @@
         <v>240</v>
       </c>
       <c r="B234" t="n">
-        <v>9559.700000000001</v>
+        <v>9865</v>
       </c>
       <c r="C234" t="n">
-        <v>9559.700000000001</v>
+        <v>9892.82</v>
       </c>
       <c r="D234" t="n">
-        <v>9479.059999999999</v>
+        <v>9847.32</v>
       </c>
       <c r="E234" t="n">
-        <v>9527.09</v>
-      </c>
-      <c r="G234" s="1">
+        <v>9877.120000000001</v>
+      </c>
+      <c r="G234" s="3">
         <f>AVERAGE(E230:E234)</f>
         <v/>
       </c>
-      <c r="H234" s="1">
+      <c r="H234" s="3">
         <f>AVERAGE(E205:E234)</f>
         <v/>
       </c>
-      <c r="I234" s="1">
+      <c r="I234" s="3">
         <f>G234-H234</f>
         <v/>
       </c>
@@ -8261,26 +8267,26 @@
         <v>241</v>
       </c>
       <c r="B235" t="n">
-        <v>9544.870000000001</v>
+        <v>9923.389999999999</v>
       </c>
       <c r="C235" t="n">
-        <v>9591.91</v>
+        <v>9980.08</v>
       </c>
       <c r="D235" t="n">
-        <v>9473.299999999999</v>
+        <v>9918.209999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>9478.99</v>
-      </c>
-      <c r="G235" s="1">
+        <v>9969.610000000001</v>
+      </c>
+      <c r="G235" s="3">
         <f>AVERAGE(E231:E235)</f>
         <v/>
       </c>
-      <c r="H235" s="1">
+      <c r="H235" s="3">
         <f>AVERAGE(E206:E235)</f>
         <v/>
       </c>
-      <c r="I235" s="1">
+      <c r="I235" s="3">
         <f>G235-H235</f>
         <v/>
       </c>
@@ -8290,26 +8296,26 @@
         <v>242</v>
       </c>
       <c r="B236" t="n">
-        <v>9555.01</v>
+        <v>10006.46</v>
       </c>
       <c r="C236" t="n">
-        <v>9670.969999999999</v>
+        <v>10020.6</v>
       </c>
       <c r="D236" t="n">
-        <v>9555.01</v>
+        <v>9990.07</v>
       </c>
       <c r="E236" t="n">
-        <v>9641.559999999999</v>
-      </c>
-      <c r="G236" s="1">
+        <v>10013.33</v>
+      </c>
+      <c r="G236" s="3">
         <f>AVERAGE(E232:E236)</f>
         <v/>
       </c>
-      <c r="H236" s="1">
+      <c r="H236" s="3">
         <f>AVERAGE(E207:E236)</f>
         <v/>
       </c>
-      <c r="I236" s="1">
+      <c r="I236" s="3">
         <f>G236-H236</f>
         <v/>
       </c>
@@ -8319,26 +8325,26 @@
         <v>243</v>
       </c>
       <c r="B237" t="n">
-        <v>9649.969999999999</v>
+        <v>9944.709999999999</v>
       </c>
       <c r="C237" t="n">
-        <v>9727.41</v>
+        <v>9952.34</v>
       </c>
       <c r="D237" t="n">
-        <v>9630.77</v>
+        <v>9893.959999999999</v>
       </c>
       <c r="E237" t="n">
-        <v>9727.41</v>
-      </c>
-      <c r="G237" s="1">
+        <v>9931.59</v>
+      </c>
+      <c r="G237" s="3">
         <f>AVERAGE(E233:E237)</f>
         <v/>
       </c>
-      <c r="H237" s="1">
+      <c r="H237" s="3">
         <f>AVERAGE(E208:E237)</f>
         <v/>
       </c>
-      <c r="I237" s="1">
+      <c r="I237" s="3">
         <f>G237-H237</f>
         <v/>
       </c>
@@ -8348,26 +8354,26 @@
         <v>244</v>
       </c>
       <c r="B238" t="n">
-        <v>9725.27</v>
+        <v>9915.969999999999</v>
       </c>
       <c r="C238" t="n">
-        <v>9737.68</v>
+        <v>9959.030000000001</v>
       </c>
       <c r="D238" t="n">
-        <v>9542.52</v>
+        <v>9909.809999999999</v>
       </c>
       <c r="E238" t="n">
-        <v>9554.139999999999</v>
-      </c>
-      <c r="G238" s="1">
+        <v>9932.26</v>
+      </c>
+      <c r="G238" s="3">
         <f>AVERAGE(E234:E238)</f>
         <v/>
       </c>
-      <c r="H238" s="1">
+      <c r="H238" s="3">
         <f>AVERAGE(E209:E238)</f>
         <v/>
       </c>
-      <c r="I238" s="1">
+      <c r="I238" s="3">
         <f>G238-H238</f>
         <v/>
       </c>
@@ -8377,26 +8383,26 @@
         <v>245</v>
       </c>
       <c r="B239" t="n">
-        <v>9494.25</v>
+        <v>10029.84</v>
       </c>
       <c r="C239" t="n">
-        <v>9554.530000000001</v>
+        <v>10065.52</v>
       </c>
       <c r="D239" t="n">
-        <v>9474.469999999999</v>
+        <v>9988.83</v>
       </c>
       <c r="E239" t="n">
-        <v>9492.42</v>
-      </c>
-      <c r="G239" s="1">
+        <v>10004.25</v>
+      </c>
+      <c r="G239" s="3">
         <f>AVERAGE(E235:E239)</f>
         <v/>
       </c>
-      <c r="H239" s="1">
+      <c r="H239" s="3">
         <f>AVERAGE(E210:E239)</f>
         <v/>
       </c>
-      <c r="I239" s="1">
+      <c r="I239" s="3">
         <f>G239-H239</f>
         <v/>
       </c>
@@ -8406,26 +8412,26 @@
         <v>246</v>
       </c>
       <c r="B240" t="n">
-        <v>9427.24</v>
+        <v>10032.08</v>
       </c>
       <c r="C240" t="n">
-        <v>9427.24</v>
+        <v>10100.23</v>
       </c>
       <c r="D240" t="n">
-        <v>9319.280000000001</v>
+        <v>10032.08</v>
       </c>
       <c r="E240" t="n">
-        <v>9382.51</v>
-      </c>
-      <c r="G240" s="1">
+        <v>10097.74</v>
+      </c>
+      <c r="G240" s="3">
         <f>AVERAGE(E236:E240)</f>
         <v/>
       </c>
-      <c r="H240" s="1">
+      <c r="H240" s="3">
         <f>AVERAGE(E211:E240)</f>
         <v/>
       </c>
-      <c r="I240" s="1">
+      <c r="I240" s="3">
         <f>G240-H240</f>
         <v/>
       </c>
@@ -8435,26 +8441,26 @@
         <v>247</v>
       </c>
       <c r="B241" t="n">
-        <v>9460.200000000001</v>
+        <v>10123.61</v>
       </c>
       <c r="C241" t="n">
-        <v>9596.35</v>
+        <v>10140.98</v>
       </c>
       <c r="D241" t="n">
-        <v>9460.200000000001</v>
+        <v>10074.34</v>
       </c>
       <c r="E241" t="n">
-        <v>9590.299999999999</v>
-      </c>
-      <c r="G241" s="1">
+        <v>10090.58</v>
+      </c>
+      <c r="G241" s="3">
         <f>AVERAGE(E237:E241)</f>
         <v/>
       </c>
-      <c r="H241" s="1">
+      <c r="H241" s="3">
         <f>AVERAGE(E212:E241)</f>
         <v/>
       </c>
-      <c r="I241" s="1">
+      <c r="I241" s="3">
         <f>G241-H241</f>
         <v/>
       </c>
@@ -8464,26 +8470,26 @@
         <v>248</v>
       </c>
       <c r="B242" t="n">
-        <v>9591.559999999999</v>
+        <v>10095.99</v>
       </c>
       <c r="C242" t="n">
-        <v>9600.940000000001</v>
+        <v>10135.62</v>
       </c>
       <c r="D242" t="n">
-        <v>9547.629999999999</v>
+        <v>10082</v>
       </c>
       <c r="E242" t="n">
-        <v>9563.6</v>
-      </c>
-      <c r="G242" s="1">
+        <v>10089.01</v>
+      </c>
+      <c r="G242" s="3">
         <f>AVERAGE(E238:E242)</f>
         <v/>
       </c>
-      <c r="H242" s="1">
+      <c r="H242" s="3">
         <f>AVERAGE(E213:E242)</f>
         <v/>
       </c>
-      <c r="I242" s="1">
+      <c r="I242" s="3">
         <f>G242-H242</f>
         <v/>
       </c>
@@ -8493,26 +8499,26 @@
         <v>249</v>
       </c>
       <c r="B243" t="n">
-        <v>9584.629999999999</v>
+        <v>10111.18</v>
       </c>
       <c r="C243" t="n">
-        <v>9741.639999999999</v>
+        <v>10135.16</v>
       </c>
       <c r="D243" t="n">
-        <v>9584.629999999999</v>
+        <v>10055.5</v>
       </c>
       <c r="E243" t="n">
-        <v>9738.309999999999</v>
-      </c>
-      <c r="G243" s="1">
+        <v>10064.78</v>
+      </c>
+      <c r="G243" s="3">
         <f>AVERAGE(E239:E243)</f>
         <v/>
       </c>
-      <c r="H243" s="1">
+      <c r="H243" s="3">
         <f>AVERAGE(E214:E243)</f>
         <v/>
       </c>
-      <c r="I243" s="1">
+      <c r="I243" s="3">
         <f>G243-H243</f>
         <v/>
       </c>
@@ -8522,26 +8528,26 @@
         <v>250</v>
       </c>
       <c r="B244" t="n">
-        <v>9731.110000000001</v>
+        <v>10096.94</v>
       </c>
       <c r="C244" t="n">
-        <v>9731.110000000001</v>
+        <v>10165.77</v>
       </c>
       <c r="D244" t="n">
-        <v>9683.200000000001</v>
+        <v>10096.94</v>
       </c>
       <c r="E244" t="n">
-        <v>9720.690000000001</v>
-      </c>
-      <c r="G244" s="1">
+        <v>10145.28</v>
+      </c>
+      <c r="G244" s="3">
         <f>AVERAGE(E240:E244)</f>
         <v/>
       </c>
-      <c r="H244" s="1">
+      <c r="H244" s="3">
         <f>AVERAGE(E215:E244)</f>
         <v/>
       </c>
-      <c r="I244" s="1">
+      <c r="I244" s="3">
         <f>G244-H244</f>
         <v/>
       </c>
@@ -8551,26 +8557,26 @@
         <v>251</v>
       </c>
       <c r="B245" t="n">
-        <v>9753.629999999999</v>
+        <v>10152.11</v>
       </c>
       <c r="C245" t="n">
-        <v>9796.98</v>
+        <v>10173.47</v>
       </c>
       <c r="D245" t="n">
-        <v>9736</v>
+        <v>10143.15</v>
       </c>
       <c r="E245" t="n">
-        <v>9759.4</v>
-      </c>
-      <c r="G245" s="1">
+        <v>10152.26</v>
+      </c>
+      <c r="G245" s="3">
         <f>AVERAGE(E241:E245)</f>
         <v/>
       </c>
-      <c r="H245" s="1">
+      <c r="H245" s="3">
         <f>AVERAGE(E216:E245)</f>
         <v/>
       </c>
-      <c r="I245" s="1">
+      <c r="I245" s="3">
         <f>G245-H245</f>
         <v/>
       </c>
@@ -8580,26 +8586,26 @@
         <v>252</v>
       </c>
       <c r="B246" t="n">
-        <v>9737.67</v>
+        <v>10181.94</v>
       </c>
       <c r="C246" t="n">
-        <v>9762.370000000001</v>
+        <v>10272.46</v>
       </c>
       <c r="D246" t="n">
-        <v>9677.49</v>
+        <v>10181.94</v>
       </c>
       <c r="E246" t="n">
-        <v>9708.219999999999</v>
-      </c>
-      <c r="G246" s="1">
+        <v>10272.46</v>
+      </c>
+      <c r="G246" s="3">
         <f>AVERAGE(E242:E246)</f>
         <v/>
       </c>
-      <c r="H246" s="1">
+      <c r="H246" s="3">
         <f>AVERAGE(E217:E246)</f>
         <v/>
       </c>
-      <c r="I246" s="1">
+      <c r="I246" s="3">
         <f>G246-H246</f>
         <v/>
       </c>
@@ -8609,26 +8615,26 @@
         <v>253</v>
       </c>
       <c r="B247" t="n">
-        <v>9701.93</v>
+        <v>10282.32</v>
       </c>
       <c r="C247" t="n">
-        <v>9806.040000000001</v>
+        <v>10319.53</v>
       </c>
       <c r="D247" t="n">
-        <v>9701.93</v>
+        <v>10256.53</v>
       </c>
       <c r="E247" t="n">
-        <v>9806.040000000001</v>
-      </c>
-      <c r="G247" s="1">
+        <v>10319.53</v>
+      </c>
+      <c r="G247" s="3">
         <f>AVERAGE(E243:E247)</f>
         <v/>
       </c>
-      <c r="H247" s="1">
+      <c r="H247" s="3">
         <f>AVERAGE(E218:E247)</f>
         <v/>
       </c>
-      <c r="I247" s="1">
+      <c r="I247" s="3">
         <f>G247-H247</f>
         <v/>
       </c>
@@ -8638,26 +8644,26 @@
         <v>254</v>
       </c>
       <c r="B248" t="n">
-        <v>9781.35</v>
+        <v>10309.02</v>
       </c>
       <c r="C248" t="n">
-        <v>9803.99</v>
+        <v>10322.92</v>
       </c>
       <c r="D248" t="n">
-        <v>9763.809999999999</v>
+        <v>10269.95</v>
       </c>
       <c r="E248" t="n">
-        <v>9763.809999999999</v>
-      </c>
-      <c r="G248" s="1">
+        <v>10322.92</v>
+      </c>
+      <c r="G248" s="3">
         <f>AVERAGE(E244:E248)</f>
         <v/>
       </c>
-      <c r="H248" s="1">
+      <c r="H248" s="3">
         <f>AVERAGE(E219:E248)</f>
         <v/>
       </c>
-      <c r="I248" s="1">
+      <c r="I248" s="3">
         <f>G248-H248</f>
         <v/>
       </c>
@@ -8667,26 +8673,26 @@
         <v>255</v>
       </c>
       <c r="B249" t="n">
-        <v>9773.309999999999</v>
+        <v>10343.45</v>
       </c>
       <c r="C249" t="n">
-        <v>9826.25</v>
+        <v>10390.93</v>
       </c>
       <c r="D249" t="n">
-        <v>9759.51</v>
+        <v>10343.45</v>
       </c>
       <c r="E249" t="n">
-        <v>9789.15</v>
-      </c>
-      <c r="G249" s="1">
+        <v>10390.93</v>
+      </c>
+      <c r="G249" s="3">
         <f>AVERAGE(E245:E249)</f>
         <v/>
       </c>
-      <c r="H249" s="1">
+      <c r="H249" s="3">
         <f>AVERAGE(E220:E249)</f>
         <v/>
       </c>
-      <c r="I249" s="1">
+      <c r="I249" s="3">
         <f>G249-H249</f>
         <v/>
       </c>
@@ -8696,26 +8702,26 @@
         <v>256</v>
       </c>
       <c r="B250" t="n">
-        <v>9781.389999999999</v>
+        <v>10403.03</v>
       </c>
       <c r="C250" t="n">
-        <v>9842.799999999999</v>
+        <v>10416.91</v>
       </c>
       <c r="D250" t="n">
-        <v>9771.15</v>
+        <v>10368.86</v>
       </c>
       <c r="E250" t="n">
-        <v>9836.059999999999</v>
-      </c>
-      <c r="G250" s="1">
+        <v>10391.55</v>
+      </c>
+      <c r="G250" s="3">
         <f>AVERAGE(E246:E250)</f>
         <v/>
       </c>
-      <c r="H250" s="1">
+      <c r="H250" s="3">
         <f>AVERAGE(E221:E250)</f>
         <v/>
       </c>
-      <c r="I250" s="1">
+      <c r="I250" s="3">
         <f>G250-H250</f>
         <v/>
       </c>
@@ -8725,26 +8731,26 @@
         <v>257</v>
       </c>
       <c r="B251" t="n">
-        <v>9870.27</v>
+        <v>10385.81</v>
       </c>
       <c r="C251" t="n">
-        <v>9919.940000000001</v>
+        <v>10403.05</v>
       </c>
       <c r="D251" t="n">
-        <v>9870.27</v>
+        <v>10343.56</v>
       </c>
       <c r="E251" t="n">
-        <v>9889.4</v>
-      </c>
-      <c r="G251" s="1">
+        <v>10389.17</v>
+      </c>
+      <c r="G251" s="3">
         <f>AVERAGE(E247:E251)</f>
         <v/>
       </c>
-      <c r="H251" s="1">
+      <c r="H251" s="3">
         <f>AVERAGE(E222:E251)</f>
         <v/>
       </c>
-      <c r="I251" s="1">
+      <c r="I251" s="3">
         <f>G251-H251</f>
         <v/>
       </c>
@@ -8754,26 +8760,26 @@
         <v>258</v>
       </c>
       <c r="B252" t="n">
-        <v>9880.540000000001</v>
+        <v>10385.25</v>
       </c>
       <c r="C252" t="n">
-        <v>9894.66</v>
+        <v>10402.39</v>
       </c>
       <c r="D252" t="n">
-        <v>9855.469999999999</v>
+        <v>10313.18</v>
       </c>
       <c r="E252" t="n">
-        <v>9894.66</v>
-      </c>
-      <c r="G252" s="1">
+        <v>10349.88</v>
+      </c>
+      <c r="G252" s="3">
         <f>AVERAGE(E248:E252)</f>
         <v/>
       </c>
-      <c r="H252" s="1">
+      <c r="H252" s="3">
         <f>AVERAGE(E223:E252)</f>
         <v/>
       </c>
-      <c r="I252" s="1">
+      <c r="I252" s="3">
         <f>G252-H252</f>
         <v/>
       </c>
@@ -8783,26 +8789,26 @@
         <v>259</v>
       </c>
       <c r="B253" t="n">
-        <v>9869.540000000001</v>
+        <v>10323.25</v>
       </c>
       <c r="C253" t="n">
-        <v>9873.389999999999</v>
+        <v>10334.34</v>
       </c>
       <c r="D253" t="n">
-        <v>9828.030000000001</v>
+        <v>10295.44</v>
       </c>
       <c r="E253" t="n">
-        <v>9846.4</v>
-      </c>
-      <c r="G253" s="1">
+        <v>10305.26</v>
+      </c>
+      <c r="G253" s="3">
         <f>AVERAGE(E249:E253)</f>
         <v/>
       </c>
-      <c r="H253" s="1">
+      <c r="H253" s="3">
         <f>AVERAGE(E224:E253)</f>
         <v/>
       </c>
-      <c r="I253" s="1">
+      <c r="I253" s="3">
         <f>G253-H253</f>
         <v/>
       </c>
@@ -8812,26 +8818,26 @@
         <v>260</v>
       </c>
       <c r="B254" t="n">
-        <v>9865</v>
+        <v>10328.18</v>
       </c>
       <c r="C254" t="n">
-        <v>9892.82</v>
+        <v>10359.12</v>
       </c>
       <c r="D254" t="n">
-        <v>9847.32</v>
+        <v>10327.9</v>
       </c>
       <c r="E254" t="n">
-        <v>9877.120000000001</v>
-      </c>
-      <c r="G254" s="1">
+        <v>10357.15</v>
+      </c>
+      <c r="G254" s="3">
         <f>AVERAGE(E250:E254)</f>
         <v/>
       </c>
-      <c r="H254" s="1">
+      <c r="H254" s="3">
         <f>AVERAGE(E225:E254)</f>
         <v/>
       </c>
-      <c r="I254" s="1">
+      <c r="I254" s="3">
         <f>G254-H254</f>
         <v/>
       </c>
@@ -8841,26 +8847,26 @@
         <v>261</v>
       </c>
       <c r="B255" t="n">
-        <v>9923.389999999999</v>
+        <v>10359.47</v>
       </c>
       <c r="C255" t="n">
-        <v>9980.08</v>
+        <v>10367.98</v>
       </c>
       <c r="D255" t="n">
-        <v>9918.209999999999</v>
+        <v>10299.46</v>
       </c>
       <c r="E255" t="n">
-        <v>9969.610000000001</v>
-      </c>
-      <c r="G255" s="1">
+        <v>10311.68</v>
+      </c>
+      <c r="G255" s="3">
         <f>AVERAGE(E251:E255)</f>
         <v/>
       </c>
-      <c r="H255" s="1">
+      <c r="H255" s="3">
         <f>AVERAGE(E226:E255)</f>
         <v/>
       </c>
-      <c r="I255" s="1">
+      <c r="I255" s="3">
         <f>G255-H255</f>
         <v/>
       </c>
@@ -8870,26 +8876,26 @@
         <v>262</v>
       </c>
       <c r="B256" t="n">
-        <v>10006.46</v>
+        <v>10274.28</v>
       </c>
       <c r="C256" t="n">
-        <v>10020.6</v>
+        <v>10274.28</v>
       </c>
       <c r="D256" t="n">
-        <v>9990.07</v>
+        <v>10204.21</v>
       </c>
       <c r="E256" t="n">
-        <v>10013.33</v>
-      </c>
-      <c r="G256" s="1">
+        <v>10241.75</v>
+      </c>
+      <c r="G256" s="3">
         <f>AVERAGE(E252:E256)</f>
         <v/>
       </c>
-      <c r="H256" s="1">
+      <c r="H256" s="3">
         <f>AVERAGE(E227:E256)</f>
         <v/>
       </c>
-      <c r="I256" s="1">
+      <c r="I256" s="3">
         <f>G256-H256</f>
         <v/>
       </c>
@@ -8899,26 +8905,26 @@
         <v>263</v>
       </c>
       <c r="B257" t="n">
-        <v>9944.709999999999</v>
+        <v>10224.27</v>
       </c>
       <c r="C257" t="n">
-        <v>9952.34</v>
+        <v>10269.3</v>
       </c>
       <c r="D257" t="n">
-        <v>9893.959999999999</v>
+        <v>10214.02</v>
       </c>
       <c r="E257" t="n">
-        <v>9931.59</v>
-      </c>
-      <c r="G257" s="1">
+        <v>10250.28</v>
+      </c>
+      <c r="G257" s="3">
         <f>AVERAGE(E253:E257)</f>
         <v/>
       </c>
-      <c r="H257" s="1">
+      <c r="H257" s="3">
         <f>AVERAGE(E228:E257)</f>
         <v/>
       </c>
-      <c r="I257" s="1">
+      <c r="I257" s="3">
         <f>G257-H257</f>
         <v/>
       </c>
@@ -8928,26 +8934,26 @@
         <v>264</v>
       </c>
       <c r="B258" t="n">
-        <v>9915.969999999999</v>
+        <v>10294.37</v>
       </c>
       <c r="C258" t="n">
-        <v>9959.030000000001</v>
+        <v>10382.12</v>
       </c>
       <c r="D258" t="n">
-        <v>9909.809999999999</v>
+        <v>10294.37</v>
       </c>
       <c r="E258" t="n">
-        <v>9932.26</v>
-      </c>
-      <c r="G258" s="1">
+        <v>10343.33</v>
+      </c>
+      <c r="G258" s="3">
         <f>AVERAGE(E254:E258)</f>
         <v/>
       </c>
-      <c r="H258" s="1">
+      <c r="H258" s="3">
         <f>AVERAGE(E229:E258)</f>
         <v/>
       </c>
-      <c r="I258" s="1">
+      <c r="I258" s="3">
         <f>G258-H258</f>
         <v/>
       </c>
@@ -8957,26 +8963,26 @@
         <v>265</v>
       </c>
       <c r="B259" t="n">
-        <v>10029.84</v>
+        <v>10331.27</v>
       </c>
       <c r="C259" t="n">
-        <v>10065.52</v>
+        <v>10373.32</v>
       </c>
       <c r="D259" t="n">
-        <v>9988.83</v>
+        <v>10331.27</v>
       </c>
       <c r="E259" t="n">
-        <v>10004.25</v>
-      </c>
-      <c r="G259" s="1">
+        <v>10373.32</v>
+      </c>
+      <c r="G259" s="3">
         <f>AVERAGE(E255:E259)</f>
         <v/>
       </c>
-      <c r="H259" s="1">
+      <c r="H259" s="3">
         <f>AVERAGE(E230:E259)</f>
         <v/>
       </c>
-      <c r="I259" s="1">
+      <c r="I259" s="3">
         <f>G259-H259</f>
         <v/>
       </c>
@@ -8986,26 +8992,26 @@
         <v>266</v>
       </c>
       <c r="B260" t="n">
-        <v>10032.08</v>
+        <v>10391.3</v>
       </c>
       <c r="C260" t="n">
-        <v>10100.23</v>
+        <v>10407.27</v>
       </c>
       <c r="D260" t="n">
-        <v>10032.08</v>
+        <v>10339.64</v>
       </c>
       <c r="E260" t="n">
-        <v>10097.74</v>
-      </c>
-      <c r="G260" s="1">
+        <v>10348.65</v>
+      </c>
+      <c r="G260" s="3">
         <f>AVERAGE(E256:E260)</f>
         <v/>
       </c>
-      <c r="H260" s="1">
+      <c r="H260" s="3">
         <f>AVERAGE(E231:E260)</f>
         <v/>
       </c>
-      <c r="I260" s="1">
+      <c r="I260" s="3">
         <f>G260-H260</f>
         <v/>
       </c>
@@ -9015,26 +9021,26 @@
         <v>267</v>
       </c>
       <c r="B261" t="n">
-        <v>10123.61</v>
+        <v>10374.66</v>
       </c>
       <c r="C261" t="n">
-        <v>10140.98</v>
+        <v>10439.24</v>
       </c>
       <c r="D261" t="n">
-        <v>10074.34</v>
+        <v>10370</v>
       </c>
       <c r="E261" t="n">
-        <v>10090.58</v>
-      </c>
-      <c r="G261" s="1">
+        <v>10439.24</v>
+      </c>
+      <c r="G261" s="3">
         <f>AVERAGE(E257:E261)</f>
         <v/>
       </c>
-      <c r="H261" s="1">
+      <c r="H261" s="3">
         <f>AVERAGE(E232:E261)</f>
         <v/>
       </c>
-      <c r="I261" s="1">
+      <c r="I261" s="3">
         <f>G261-H261</f>
         <v/>
       </c>
@@ -9044,26 +9050,26 @@
         <v>268</v>
       </c>
       <c r="B262" t="n">
-        <v>10095.99</v>
+        <v>10455.19</v>
       </c>
       <c r="C262" t="n">
-        <v>10135.62</v>
+        <v>10512.7</v>
       </c>
       <c r="D262" t="n">
-        <v>10082</v>
+        <v>10445.74</v>
       </c>
       <c r="E262" t="n">
-        <v>10089.01</v>
-      </c>
-      <c r="G262" s="1">
+        <v>10512.7</v>
+      </c>
+      <c r="G262" s="3">
         <f>AVERAGE(E258:E262)</f>
         <v/>
       </c>
-      <c r="H262" s="1">
+      <c r="H262" s="3">
         <f>AVERAGE(E233:E262)</f>
         <v/>
       </c>
-      <c r="I262" s="1">
+      <c r="I262" s="3">
         <f>G262-H262</f>
         <v/>
       </c>
@@ -9073,26 +9079,26 @@
         <v>269</v>
       </c>
       <c r="B263" t="n">
-        <v>10111.18</v>
+        <v>10497.4</v>
       </c>
       <c r="C263" t="n">
-        <v>10135.16</v>
+        <v>10525.6</v>
       </c>
       <c r="D263" t="n">
-        <v>10055.5</v>
+        <v>10484.69</v>
       </c>
       <c r="E263" t="n">
-        <v>10064.78</v>
-      </c>
-      <c r="G263" s="1">
+        <v>10512.32</v>
+      </c>
+      <c r="G263" s="3">
         <f>AVERAGE(E259:E263)</f>
         <v/>
       </c>
-      <c r="H263" s="1">
+      <c r="H263" s="3">
         <f>AVERAGE(E234:E263)</f>
         <v/>
       </c>
-      <c r="I263" s="1">
+      <c r="I263" s="3">
         <f>G263-H263</f>
         <v/>
       </c>
@@ -9102,26 +9108,26 @@
         <v>270</v>
       </c>
       <c r="B264" t="n">
-        <v>10096.94</v>
+        <v>10529.3</v>
       </c>
       <c r="C264" t="n">
-        <v>10165.77</v>
+        <v>10556.81</v>
       </c>
       <c r="D264" t="n">
-        <v>10096.94</v>
+        <v>10506.96</v>
       </c>
       <c r="E264" t="n">
-        <v>10145.28</v>
-      </c>
-      <c r="G264" s="1">
+        <v>10551.56</v>
+      </c>
+      <c r="G264" s="3">
         <f>AVERAGE(E260:E264)</f>
         <v/>
       </c>
-      <c r="H264" s="1">
+      <c r="H264" s="3">
         <f>AVERAGE(E235:E264)</f>
         <v/>
       </c>
-      <c r="I264" s="1">
+      <c r="I264" s="3">
         <f>G264-H264</f>
         <v/>
       </c>
@@ -9131,26 +9137,26 @@
         <v>271</v>
       </c>
       <c r="B265" t="n">
-        <v>10152.11</v>
+        <v>10563.93</v>
       </c>
       <c r="C265" t="n">
-        <v>10173.47</v>
+        <v>10612.34</v>
       </c>
       <c r="D265" t="n">
-        <v>10143.15</v>
+        <v>10551.67</v>
       </c>
       <c r="E265" t="n">
-        <v>10152.26</v>
-      </c>
-      <c r="G265" s="1">
+        <v>10609.55</v>
+      </c>
+      <c r="G265" s="3">
         <f>AVERAGE(E261:E265)</f>
         <v/>
       </c>
-      <c r="H265" s="1">
+      <c r="H265" s="3">
         <f>AVERAGE(E236:E265)</f>
         <v/>
       </c>
-      <c r="I265" s="1">
+      <c r="I265" s="3">
         <f>G265-H265</f>
         <v/>
       </c>
@@ -9160,26 +9166,26 @@
         <v>272</v>
       </c>
       <c r="B266" t="n">
-        <v>10181.94</v>
+        <v>10642.57</v>
       </c>
       <c r="C266" t="n">
-        <v>10272.46</v>
+        <v>10667.94</v>
       </c>
       <c r="D266" t="n">
-        <v>10181.94</v>
+        <v>10589.47</v>
       </c>
       <c r="E266" t="n">
-        <v>10272.46</v>
-      </c>
-      <c r="G266" s="1">
+        <v>10639.07</v>
+      </c>
+      <c r="G266" s="3">
         <f>AVERAGE(E262:E266)</f>
         <v/>
       </c>
-      <c r="H266" s="1">
+      <c r="H266" s="3">
         <f>AVERAGE(E237:E266)</f>
         <v/>
       </c>
-      <c r="I266" s="1">
+      <c r="I266" s="3">
         <f>G266-H266</f>
         <v/>
       </c>
@@ -9189,26 +9195,26 @@
         <v>273</v>
       </c>
       <c r="B267" t="n">
-        <v>10282.32</v>
+        <v>10535.12</v>
       </c>
       <c r="C267" t="n">
-        <v>10319.53</v>
+        <v>10535.12</v>
       </c>
       <c r="D267" t="n">
-        <v>10256.53</v>
+        <v>10458.79</v>
       </c>
       <c r="E267" t="n">
-        <v>10319.53</v>
-      </c>
-      <c r="G267" s="1">
+        <v>10479.48</v>
+      </c>
+      <c r="G267" s="3">
         <f>AVERAGE(E263:E267)</f>
         <v/>
       </c>
-      <c r="H267" s="1">
+      <c r="H267" s="3">
         <f>AVERAGE(E238:E267)</f>
         <v/>
       </c>
-      <c r="I267" s="1">
+      <c r="I267" s="3">
         <f>G267-H267</f>
         <v/>
       </c>
@@ -9218,26 +9224,26 @@
         <v>274</v>
       </c>
       <c r="B268" t="n">
-        <v>10309.02</v>
+        <v>10506.68</v>
       </c>
       <c r="C268" t="n">
-        <v>10322.92</v>
+        <v>10559.2</v>
       </c>
       <c r="D268" t="n">
-        <v>10269.95</v>
+        <v>10506.68</v>
       </c>
       <c r="E268" t="n">
-        <v>10322.92</v>
-      </c>
-      <c r="G268" s="1">
+        <v>10559.2</v>
+      </c>
+      <c r="G268" s="3">
         <f>AVERAGE(E264:E268)</f>
         <v/>
       </c>
-      <c r="H268" s="1">
+      <c r="H268" s="3">
         <f>AVERAGE(E239:E268)</f>
         <v/>
       </c>
-      <c r="I268" s="1">
+      <c r="I268" s="3">
         <f>G268-H268</f>
         <v/>
       </c>
@@ -9247,26 +9253,26 @@
         <v>275</v>
       </c>
       <c r="B269" t="n">
-        <v>10343.45</v>
+        <v>10542.68</v>
       </c>
       <c r="C269" t="n">
-        <v>10390.93</v>
+        <v>10556.75</v>
       </c>
       <c r="D269" t="n">
-        <v>10343.45</v>
+        <v>10515.86</v>
       </c>
       <c r="E269" t="n">
-        <v>10390.93</v>
-      </c>
-      <c r="G269" s="1">
+        <v>10542.7</v>
+      </c>
+      <c r="G269" s="3">
         <f>AVERAGE(E265:E269)</f>
         <v/>
       </c>
-      <c r="H269" s="1">
+      <c r="H269" s="3">
         <f>AVERAGE(E240:E269)</f>
         <v/>
       </c>
-      <c r="I269" s="1">
+      <c r="I269" s="3">
         <f>G269-H269</f>
         <v/>
       </c>
@@ -9276,26 +9282,26 @@
         <v>276</v>
       </c>
       <c r="B270" t="n">
-        <v>10403.03</v>
+        <v>10529.02</v>
       </c>
       <c r="C270" t="n">
-        <v>10416.91</v>
+        <v>10536.26</v>
       </c>
       <c r="D270" t="n">
-        <v>10368.86</v>
+        <v>10499.29</v>
       </c>
       <c r="E270" t="n">
-        <v>10391.55</v>
-      </c>
-      <c r="G270" s="1">
+        <v>10536.26</v>
+      </c>
+      <c r="G270" s="3">
         <f>AVERAGE(E266:E270)</f>
         <v/>
       </c>
-      <c r="H270" s="1">
+      <c r="H270" s="3">
         <f>AVERAGE(E241:E270)</f>
         <v/>
       </c>
-      <c r="I270" s="1">
+      <c r="I270" s="3">
         <f>G270-H270</f>
         <v/>
       </c>
@@ -9305,26 +9311,26 @@
         <v>277</v>
       </c>
       <c r="B271" t="n">
-        <v>10385.81</v>
+        <v>10551.99</v>
       </c>
       <c r="C271" t="n">
-        <v>10403.05</v>
+        <v>10641.04</v>
       </c>
       <c r="D271" t="n">
-        <v>10343.56</v>
+        <v>10525.27</v>
       </c>
       <c r="E271" t="n">
-        <v>10389.17</v>
-      </c>
-      <c r="G271" s="1">
+        <v>10641.04</v>
+      </c>
+      <c r="G271" s="3">
         <f>AVERAGE(E267:E271)</f>
         <v/>
       </c>
-      <c r="H271" s="1">
+      <c r="H271" s="3">
         <f>AVERAGE(E242:E271)</f>
         <v/>
       </c>
-      <c r="I271" s="1">
+      <c r="I271" s="3">
         <f>G271-H271</f>
         <v/>
       </c>

--- a/twse_momentum_table.xlsx
+++ b/twse_momentum_table.xlsx
@@ -40,189 +40,6 @@
     <t>5MA-30MA</t>
   </si>
   <si>
-    <t>2018/02/22</t>
-  </si>
-  <si>
-    <t>2018/02/23</t>
-  </si>
-  <si>
-    <t>2018/02/26</t>
-  </si>
-  <si>
-    <t>2018/02/27</t>
-  </si>
-  <si>
-    <t>2018/03/01</t>
-  </si>
-  <si>
-    <t>2018/03/02</t>
-  </si>
-  <si>
-    <t>2018/03/05</t>
-  </si>
-  <si>
-    <t>2018/03/06</t>
-  </si>
-  <si>
-    <t>2018/03/07</t>
-  </si>
-  <si>
-    <t>2018/03/08</t>
-  </si>
-  <si>
-    <t>2018/03/09</t>
-  </si>
-  <si>
-    <t>2018/03/12</t>
-  </si>
-  <si>
-    <t>2018/03/13</t>
-  </si>
-  <si>
-    <t>2018/03/14</t>
-  </si>
-  <si>
-    <t>2018/03/15</t>
-  </si>
-  <si>
-    <t>2018/03/16</t>
-  </si>
-  <si>
-    <t>2018/03/19</t>
-  </si>
-  <si>
-    <t>2018/03/20</t>
-  </si>
-  <si>
-    <t>2018/03/21</t>
-  </si>
-  <si>
-    <t>2018/03/22</t>
-  </si>
-  <si>
-    <t>2018/03/23</t>
-  </si>
-  <si>
-    <t>2018/03/26</t>
-  </si>
-  <si>
-    <t>2018/03/27</t>
-  </si>
-  <si>
-    <t>2018/03/28</t>
-  </si>
-  <si>
-    <t>2018/03/29</t>
-  </si>
-  <si>
-    <t>2018/03/30</t>
-  </si>
-  <si>
-    <t>2018/03/31</t>
-  </si>
-  <si>
-    <t>2018/04/02</t>
-  </si>
-  <si>
-    <t>2018/04/03</t>
-  </si>
-  <si>
-    <t>2018/04/09</t>
-  </si>
-  <si>
-    <t>2018/04/10</t>
-  </si>
-  <si>
-    <t>2018/04/11</t>
-  </si>
-  <si>
-    <t>2018/04/12</t>
-  </si>
-  <si>
-    <t>2018/04/13</t>
-  </si>
-  <si>
-    <t>2018/04/16</t>
-  </si>
-  <si>
-    <t>2018/04/17</t>
-  </si>
-  <si>
-    <t>2018/04/18</t>
-  </si>
-  <si>
-    <t>2018/04/19</t>
-  </si>
-  <si>
-    <t>2018/04/20</t>
-  </si>
-  <si>
-    <t>2018/04/23</t>
-  </si>
-  <si>
-    <t>2018/04/24</t>
-  </si>
-  <si>
-    <t>2018/04/25</t>
-  </si>
-  <si>
-    <t>2018/04/26</t>
-  </si>
-  <si>
-    <t>2018/04/27</t>
-  </si>
-  <si>
-    <t>2018/04/30</t>
-  </si>
-  <si>
-    <t>2018/05/02</t>
-  </si>
-  <si>
-    <t>2018/05/03</t>
-  </si>
-  <si>
-    <t>2018/05/04</t>
-  </si>
-  <si>
-    <t>2018/05/07</t>
-  </si>
-  <si>
-    <t>2018/05/08</t>
-  </si>
-  <si>
-    <t>2018/05/09</t>
-  </si>
-  <si>
-    <t>2018/05/10</t>
-  </si>
-  <si>
-    <t>2018/05/11</t>
-  </si>
-  <si>
-    <t>2018/05/14</t>
-  </si>
-  <si>
-    <t>2018/05/15</t>
-  </si>
-  <si>
-    <t>2018/05/16</t>
-  </si>
-  <si>
-    <t>2018/05/17</t>
-  </si>
-  <si>
-    <t>2018/05/18</t>
-  </si>
-  <si>
-    <t>2018/05/21</t>
-  </si>
-  <si>
-    <t>2018/05/22</t>
-  </si>
-  <si>
-    <t>2018/05/23</t>
-  </si>
-  <si>
     <t>2018/05/24</t>
   </si>
   <si>
@@ -848,6 +665,189 @@
   </si>
   <si>
     <t>2019/03/29</t>
+  </si>
+  <si>
+    <t>2019/04/01</t>
+  </si>
+  <si>
+    <t>2019/04/02</t>
+  </si>
+  <si>
+    <t>2019/04/03</t>
+  </si>
+  <si>
+    <t>2019/04/08</t>
+  </si>
+  <si>
+    <t>2019/04/09</t>
+  </si>
+  <si>
+    <t>2019/04/10</t>
+  </si>
+  <si>
+    <t>2019/04/11</t>
+  </si>
+  <si>
+    <t>2019/04/12</t>
+  </si>
+  <si>
+    <t>2019/04/15</t>
+  </si>
+  <si>
+    <t>2019/04/16</t>
+  </si>
+  <si>
+    <t>2019/04/17</t>
+  </si>
+  <si>
+    <t>2019/04/18</t>
+  </si>
+  <si>
+    <t>2019/04/19</t>
+  </si>
+  <si>
+    <t>2019/04/22</t>
+  </si>
+  <si>
+    <t>2019/04/23</t>
+  </si>
+  <si>
+    <t>2019/04/24</t>
+  </si>
+  <si>
+    <t>2019/04/25</t>
+  </si>
+  <si>
+    <t>2019/04/26</t>
+  </si>
+  <si>
+    <t>2019/04/29</t>
+  </si>
+  <si>
+    <t>2019/04/30</t>
+  </si>
+  <si>
+    <t>2019/05/02</t>
+  </si>
+  <si>
+    <t>2019/05/03</t>
+  </si>
+  <si>
+    <t>2019/05/06</t>
+  </si>
+  <si>
+    <t>2019/05/07</t>
+  </si>
+  <si>
+    <t>2019/05/08</t>
+  </si>
+  <si>
+    <t>2019/05/09</t>
+  </si>
+  <si>
+    <t>2019/05/10</t>
+  </si>
+  <si>
+    <t>2019/05/13</t>
+  </si>
+  <si>
+    <t>2019/05/14</t>
+  </si>
+  <si>
+    <t>2019/05/15</t>
+  </si>
+  <si>
+    <t>2019/05/16</t>
+  </si>
+  <si>
+    <t>2019/05/17</t>
+  </si>
+  <si>
+    <t>2019/05/20</t>
+  </si>
+  <si>
+    <t>2019/05/21</t>
+  </si>
+  <si>
+    <t>2019/05/22</t>
+  </si>
+  <si>
+    <t>2019/05/23</t>
+  </si>
+  <si>
+    <t>2019/05/24</t>
+  </si>
+  <si>
+    <t>2019/05/27</t>
+  </si>
+  <si>
+    <t>2019/05/28</t>
+  </si>
+  <si>
+    <t>2019/05/29</t>
+  </si>
+  <si>
+    <t>2019/05/30</t>
+  </si>
+  <si>
+    <t>2019/05/31</t>
+  </si>
+  <si>
+    <t>2019/06/03</t>
+  </si>
+  <si>
+    <t>2019/06/04</t>
+  </si>
+  <si>
+    <t>2019/06/05</t>
+  </si>
+  <si>
+    <t>2019/06/06</t>
+  </si>
+  <si>
+    <t>2019/06/10</t>
+  </si>
+  <si>
+    <t>2019/06/11</t>
+  </si>
+  <si>
+    <t>2019/06/12</t>
+  </si>
+  <si>
+    <t>2019/06/13</t>
+  </si>
+  <si>
+    <t>2019/06/14</t>
+  </si>
+  <si>
+    <t>2019/06/17</t>
+  </si>
+  <si>
+    <t>2019/06/18</t>
+  </si>
+  <si>
+    <t>2019/06/19</t>
+  </si>
+  <si>
+    <t>2019/06/20</t>
+  </si>
+  <si>
+    <t>2019/06/21</t>
+  </si>
+  <si>
+    <t>2019/06/24</t>
+  </si>
+  <si>
+    <t>2019/06/25</t>
+  </si>
+  <si>
+    <t>2019/06/26</t>
+  </si>
+  <si>
+    <t>2019/06/27</t>
+  </si>
+  <si>
+    <t>2019/06/28</t>
   </si>
 </sst>
 </file>
@@ -1758,16 +1758,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>10698.47</v>
+        <v>10910.61</v>
       </c>
       <c r="C2" t="n">
-        <v>10698.47</v>
+        <v>10942.64</v>
       </c>
       <c r="D2" t="n">
-        <v>10620.8</v>
+        <v>10883.52</v>
       </c>
       <c r="E2" t="n">
-        <v>10662.38</v>
+        <v>10936.93</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1775,16 +1775,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>10688.97</v>
+        <v>10946.62</v>
       </c>
       <c r="C3" t="n">
-        <v>10799.29</v>
+        <v>10977.81</v>
       </c>
       <c r="D3" t="n">
-        <v>10688.97</v>
+        <v>10918.12</v>
       </c>
       <c r="E3" t="n">
-        <v>10794.55</v>
+        <v>10942.3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1792,16 +1792,16 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>10827.98</v>
+        <v>10976.49</v>
       </c>
       <c r="C4" t="n">
-        <v>10890.69</v>
+        <v>10999.43</v>
       </c>
       <c r="D4" t="n">
-        <v>10827.98</v>
+        <v>10965.18</v>
       </c>
       <c r="E4" t="n">
-        <v>10836.7</v>
+        <v>10987.77</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1809,16 +1809,16 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>10896.16</v>
+        <v>10979.68</v>
       </c>
       <c r="C5" t="n">
-        <v>10937.9</v>
+        <v>10986.53</v>
       </c>
       <c r="D5" t="n">
-        <v>10815.47</v>
+        <v>10929.56</v>
       </c>
       <c r="E5" t="n">
-        <v>10815.47</v>
+        <v>10964.12</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1826,16 +1826,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>10779.1</v>
+        <v>10925.21</v>
       </c>
       <c r="C6" t="n">
-        <v>10805.55</v>
+        <v>10925.21</v>
       </c>
       <c r="D6" t="n">
-        <v>10709.69</v>
+        <v>10799.75</v>
       </c>
       <c r="E6" t="n">
-        <v>10785.79</v>
+        <v>10821.17</v>
       </c>
       <c r="G6" s="3">
         <f>AVERAGE(E2:E6)</f>
@@ -1847,16 +1847,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>10719.29</v>
+        <v>10856.03</v>
       </c>
       <c r="C7" t="n">
-        <v>10719.29</v>
+        <v>10909.61</v>
       </c>
       <c r="D7" t="n">
-        <v>10638.98</v>
+        <v>10853.65</v>
       </c>
       <c r="E7" t="n">
-        <v>10698.17</v>
+        <v>10874.96</v>
       </c>
       <c r="G7" s="3">
         <f>AVERAGE(E3:E7)</f>
@@ -1868,16 +1868,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>10727.45</v>
+        <v>10882.68</v>
       </c>
       <c r="C8" t="n">
-        <v>10756.37</v>
+        <v>10954.67</v>
       </c>
       <c r="D8" t="n">
-        <v>10642.9</v>
+        <v>10876.97</v>
       </c>
       <c r="E8" t="n">
-        <v>10642.9</v>
+        <v>10949.08</v>
       </c>
       <c r="G8" s="3">
         <f>AVERAGE(E4:E8)</f>
@@ -1889,16 +1889,16 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>10711.15</v>
+        <v>11002.15</v>
       </c>
       <c r="C9" t="n">
-        <v>10784.34</v>
+        <v>11109.5</v>
       </c>
       <c r="D9" t="n">
-        <v>10711.15</v>
+        <v>11002.15</v>
       </c>
       <c r="E9" t="n">
-        <v>10784.34</v>
+        <v>11109.5</v>
       </c>
       <c r="G9" s="3">
         <f>AVERAGE(E5:E9)</f>
@@ -1910,16 +1910,16 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>10762.99</v>
+        <v>11130.03</v>
       </c>
       <c r="C10" t="n">
-        <v>10818.05</v>
+        <v>11131.08</v>
       </c>
       <c r="D10" t="n">
-        <v>10745.32</v>
+        <v>11054.62</v>
       </c>
       <c r="E10" t="n">
-        <v>10745.32</v>
+        <v>11100.11</v>
       </c>
       <c r="G10" s="3">
         <f>AVERAGE(E6:E10)</f>
@@ -1931,16 +1931,16 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>10788.43</v>
+        <v>11111.14</v>
       </c>
       <c r="C11" t="n">
-        <v>10852.33</v>
+        <v>11207.15</v>
       </c>
       <c r="D11" t="n">
-        <v>10788.43</v>
+        <v>11111.14</v>
       </c>
       <c r="E11" t="n">
-        <v>10823.24</v>
+        <v>11201.83</v>
       </c>
       <c r="G11" s="3">
         <f>AVERAGE(E7:E11)</f>
@@ -1952,16 +1952,16 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>10847.74</v>
+        <v>11228.64</v>
       </c>
       <c r="C12" t="n">
-        <v>10882.76</v>
+        <v>11261.68</v>
       </c>
       <c r="D12" t="n">
-        <v>10845.38</v>
+        <v>11188.99</v>
       </c>
       <c r="E12" t="n">
-        <v>10864.82</v>
+        <v>11251.75</v>
       </c>
       <c r="G12" s="3">
         <f>AVERAGE(E8:E12)</f>
@@ -1973,16 +1973,16 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>10908.99</v>
+        <v>11243.59</v>
       </c>
       <c r="C13" t="n">
-        <v>11016.56</v>
+        <v>11243.59</v>
       </c>
       <c r="D13" t="n">
-        <v>10908.99</v>
+        <v>11122.98</v>
       </c>
       <c r="E13" t="n">
-        <v>11002.1</v>
+        <v>11156.42</v>
       </c>
       <c r="G13" s="3">
         <f>AVERAGE(E9:E13)</f>
@@ -1994,16 +1994,16 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>11022.15</v>
+        <v>11168.99</v>
       </c>
       <c r="C14" t="n">
-        <v>11095.63</v>
+        <v>11186.67</v>
       </c>
       <c r="D14" t="n">
-        <v>11014.87</v>
+        <v>11118.81</v>
       </c>
       <c r="E14" t="n">
-        <v>11095.63</v>
+        <v>11149.23</v>
       </c>
       <c r="G14" s="3">
         <f>AVERAGE(E10:E14)</f>
@@ -2015,16 +2015,16 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>11063.73</v>
+        <v>11140.02</v>
       </c>
       <c r="C15" t="n">
-        <v>11070.29</v>
+        <v>11160.05</v>
       </c>
       <c r="D15" t="n">
-        <v>11015.47</v>
+        <v>11088.53</v>
       </c>
       <c r="E15" t="n">
-        <v>11038.8</v>
+        <v>11144.79</v>
       </c>
       <c r="G15" s="3">
         <f>AVERAGE(E11:E15)</f>
@@ -2036,16 +2036,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>11039.6</v>
+        <v>11153.2</v>
       </c>
       <c r="C16" t="n">
-        <v>11052.11</v>
+        <v>11188.01</v>
       </c>
       <c r="D16" t="n">
-        <v>11008.18</v>
+        <v>11119.24</v>
       </c>
       <c r="E16" t="n">
-        <v>11018.45</v>
+        <v>11173.21</v>
       </c>
       <c r="G16" s="3">
         <f>AVERAGE(E12:E16)</f>
@@ -2057,16 +2057,16 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>11010.24</v>
+        <v>11143.04</v>
       </c>
       <c r="C17" t="n">
-        <v>11054.86</v>
+        <v>11143.04</v>
       </c>
       <c r="D17" t="n">
-        <v>10933.46</v>
+        <v>11013.98</v>
       </c>
       <c r="E17" t="n">
-        <v>11027.7</v>
+        <v>11013.98</v>
       </c>
       <c r="G17" s="3">
         <f>AVERAGE(E13:E17)</f>
@@ -2078,16 +2078,16 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>11004.81</v>
+        <v>10998.2</v>
       </c>
       <c r="C18" t="n">
-        <v>11066</v>
+        <v>11087.47</v>
       </c>
       <c r="D18" t="n">
-        <v>10983.25</v>
+        <v>10981.61</v>
       </c>
       <c r="E18" t="n">
-        <v>11046.9</v>
+        <v>11087.47</v>
       </c>
       <c r="G18" s="3">
         <f>AVERAGE(E14:E18)</f>
@@ -2099,16 +2099,16 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>11016.85</v>
+        <v>11008.77</v>
       </c>
       <c r="C19" t="n">
-        <v>11020.78</v>
+        <v>11008.77</v>
       </c>
       <c r="D19" t="n">
-        <v>10981.04</v>
+        <v>10904.19</v>
       </c>
       <c r="E19" t="n">
-        <v>11010.84</v>
+        <v>10904.19</v>
       </c>
       <c r="G19" s="3">
         <f>AVERAGE(E15:E19)</f>
@@ -2120,16 +2120,16 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>11037.35</v>
+        <v>10904.8</v>
       </c>
       <c r="C20" t="n">
-        <v>11072.31</v>
+        <v>10969.2</v>
       </c>
       <c r="D20" t="n">
-        <v>11011.07</v>
+        <v>10842.56</v>
       </c>
       <c r="E20" t="n">
-        <v>11011.07</v>
+        <v>10927.44</v>
       </c>
       <c r="G20" s="3">
         <f>AVERAGE(E16:E20)</f>
@@ -2141,16 +2141,16 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>11045.9</v>
+        <v>10949.85</v>
       </c>
       <c r="C21" t="n">
-        <v>11120.2</v>
+        <v>10992.31</v>
       </c>
       <c r="D21" t="n">
-        <v>10975.33</v>
+        <v>10941.07</v>
       </c>
       <c r="E21" t="n">
-        <v>11005.84</v>
+        <v>10941.07</v>
       </c>
       <c r="G21" s="3">
         <f>AVERAGE(E17:E21)</f>
@@ -2162,16 +2162,16 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>10863.67</v>
+        <v>10901.25</v>
       </c>
       <c r="C22" t="n">
-        <v>10863.67</v>
+        <v>10914.83</v>
       </c>
       <c r="D22" t="n">
-        <v>10758.06</v>
+        <v>10828.86</v>
       </c>
       <c r="E22" t="n">
-        <v>10823.33</v>
+        <v>10899.28</v>
       </c>
       <c r="G22" s="3">
         <f>AVERAGE(E18:E22)</f>
@@ -2183,16 +2183,16 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>10783.57</v>
+        <v>10834.07</v>
       </c>
       <c r="C23" t="n">
-        <v>10840.05</v>
+        <v>10851.16</v>
       </c>
       <c r="D23" t="n">
-        <v>10781.43</v>
+        <v>10786.46</v>
       </c>
       <c r="E23" t="n">
-        <v>10840.05</v>
+        <v>10786.46</v>
       </c>
       <c r="G23" s="3">
         <f>AVERAGE(E19:E23)</f>
@@ -2204,16 +2204,16 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>10901.69</v>
+        <v>10730.9</v>
       </c>
       <c r="C24" t="n">
-        <v>10986.79</v>
+        <v>10752.99</v>
       </c>
       <c r="D24" t="n">
-        <v>10901.69</v>
+        <v>10651.42</v>
       </c>
       <c r="E24" t="n">
-        <v>10986.79</v>
+        <v>10742.17</v>
       </c>
       <c r="G24" s="3">
         <f>AVERAGE(E20:E24)</f>
@@ -2225,16 +2225,16 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>10939.97</v>
+        <v>10766.88</v>
       </c>
       <c r="C25" t="n">
-        <v>10939.97</v>
+        <v>10800.34</v>
       </c>
       <c r="D25" t="n">
-        <v>10853.48</v>
+        <v>10701.03</v>
       </c>
       <c r="E25" t="n">
-        <v>10865.66</v>
+        <v>10701.03</v>
       </c>
       <c r="G25" s="3">
         <f>AVERAGE(E21:E25)</f>
@@ -2246,16 +2246,16 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>10855.66</v>
+        <v>10669.42</v>
       </c>
       <c r="C26" t="n">
-        <v>10889.6</v>
+        <v>10723.84</v>
       </c>
       <c r="D26" t="n">
-        <v>10815.46</v>
+        <v>10633.01</v>
       </c>
       <c r="E26" t="n">
-        <v>10845.92</v>
+        <v>10654.28</v>
       </c>
       <c r="G26" s="3">
         <f>AVERAGE(E22:E26)</f>
@@ -2267,16 +2267,16 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>10905.3</v>
+        <v>10667.64</v>
       </c>
       <c r="C27" t="n">
-        <v>10969.22</v>
+        <v>10836.91</v>
       </c>
       <c r="D27" t="n">
-        <v>10905.3</v>
+        <v>10667.64</v>
       </c>
       <c r="E27" t="n">
-        <v>10906.22</v>
+        <v>10836.91</v>
       </c>
       <c r="G27" s="3">
         <f>AVERAGE(E23:E27)</f>
@@ -2288,16 +2288,16 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>10925.71</v>
+        <v>10852.17</v>
       </c>
       <c r="C28" t="n">
-        <v>10947.16</v>
+        <v>10886.2</v>
       </c>
       <c r="D28" t="n">
-        <v>10905.69</v>
+        <v>10777.94</v>
       </c>
       <c r="E28" t="n">
-        <v>10919.49</v>
+        <v>10777.94</v>
       </c>
       <c r="G28" s="3">
         <f>AVERAGE(E24:E28)</f>
@@ -2309,16 +2309,16 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>10936.26</v>
+        <v>10802.88</v>
       </c>
       <c r="C29" t="n">
-        <v>10969.88</v>
+        <v>10873.48</v>
       </c>
       <c r="D29" t="n">
-        <v>10882.05</v>
+        <v>10707.68</v>
       </c>
       <c r="E29" t="n">
-        <v>10888.27</v>
+        <v>10715.72</v>
       </c>
       <c r="G29" s="3">
         <f>AVERAGE(E25:E29)</f>
@@ -2330,16 +2330,16 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>10837.54</v>
+        <v>10714.25</v>
       </c>
       <c r="C30" t="n">
-        <v>10837.54</v>
+        <v>10752.05</v>
       </c>
       <c r="D30" t="n">
-        <v>10775.45</v>
+        <v>10680.44</v>
       </c>
       <c r="E30" t="n">
-        <v>10821.53</v>
+        <v>10721.87</v>
       </c>
       <c r="G30" s="3">
         <f>AVERAGE(E26:E30)</f>
@@ -2351,16 +2351,16 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10880.14</v>
+        <v>10690.91</v>
       </c>
       <c r="C31" t="n">
-        <v>10904.75</v>
+        <v>10709.8</v>
       </c>
       <c r="D31" t="n">
-        <v>10829.02</v>
+        <v>10585.27</v>
       </c>
       <c r="E31" t="n">
-        <v>10893.53</v>
+        <v>10611.81</v>
       </c>
       <c r="G31" s="3">
         <f>AVERAGE(E27:E31)</f>
@@ -2380,16 +2380,16 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>10885.64</v>
+        <v>10645.66</v>
       </c>
       <c r="C32" t="n">
-        <v>10975.67</v>
+        <v>10665.72</v>
       </c>
       <c r="D32" t="n">
-        <v>10874.83</v>
+        <v>10523.58</v>
       </c>
       <c r="E32" t="n">
-        <v>10927.18</v>
+        <v>10608.57</v>
       </c>
       <c r="G32" s="3">
         <f>AVERAGE(E28:E32)</f>
@@ -2409,16 +2409,16 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>10961.7</v>
+        <v>10638.9</v>
       </c>
       <c r="C33" t="n">
-        <v>11016.35</v>
+        <v>10746.74</v>
       </c>
       <c r="D33" t="n">
-        <v>10953.31</v>
+        <v>10638.9</v>
       </c>
       <c r="E33" t="n">
-        <v>10974.02</v>
+        <v>10720.28</v>
       </c>
       <c r="G33" s="3">
         <f>AVERAGE(E29:E33)</f>
@@ -2438,16 +2438,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>10984.12</v>
+        <v>10737.62</v>
       </c>
       <c r="C34" t="n">
-        <v>11008.2</v>
+        <v>10776.47</v>
       </c>
       <c r="D34" t="n">
-        <v>10920.62</v>
+        <v>10728.24</v>
       </c>
       <c r="E34" t="n">
-        <v>10955.29</v>
+        <v>10756.89</v>
       </c>
       <c r="G34" s="3">
         <f>AVERAGE(E30:E34)</f>
@@ -2467,16 +2467,16 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>10975.58</v>
+        <v>10693.64</v>
       </c>
       <c r="C35" t="n">
-        <v>10988.23</v>
+        <v>10693.64</v>
       </c>
       <c r="D35" t="n">
-        <v>10938.37</v>
+        <v>10635.03</v>
       </c>
       <c r="E35" t="n">
-        <v>10965.39</v>
+        <v>10676.84</v>
       </c>
       <c r="G35" s="3">
         <f>AVERAGE(E31:E35)</f>
@@ -2496,16 +2496,16 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10962.36</v>
+        <v>10644.91</v>
       </c>
       <c r="C36" t="n">
-        <v>10974.94</v>
+        <v>10752.57</v>
       </c>
       <c r="D36" t="n">
-        <v>10921.17</v>
+        <v>10643.65</v>
       </c>
       <c r="E36" t="n">
-        <v>10954.55</v>
+        <v>10738.38</v>
       </c>
       <c r="G36" s="3">
         <f>AVERAGE(E32:E36)</f>
@@ -2525,16 +2525,16 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>10953.51</v>
+        <v>10769.7</v>
       </c>
       <c r="C37" t="n">
-        <v>10965.2</v>
+        <v>10864.54</v>
       </c>
       <c r="D37" t="n">
-        <v>10799.07</v>
+        <v>10769.7</v>
       </c>
       <c r="E37" t="n">
-        <v>10810.45</v>
+        <v>10864.54</v>
       </c>
       <c r="G37" s="3">
         <f>AVERAGE(E33:E37)</f>
@@ -2554,16 +2554,16 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>10842.88</v>
+        <v>10867.97</v>
       </c>
       <c r="C38" t="n">
-        <v>10917.6</v>
+        <v>10890.2</v>
       </c>
       <c r="D38" t="n">
-        <v>10809.89</v>
+        <v>10817.45</v>
       </c>
       <c r="E38" t="n">
-        <v>10847.89</v>
+        <v>10817.45</v>
       </c>
       <c r="G38" s="3">
         <f>AVERAGE(E34:E38)</f>
@@ -2583,16 +2583,16 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>10891.66</v>
+        <v>10802.75</v>
       </c>
       <c r="C39" t="n">
-        <v>10983.96</v>
+        <v>10818.84</v>
       </c>
       <c r="D39" t="n">
-        <v>10889.71</v>
+        <v>10758.83</v>
       </c>
       <c r="E39" t="n">
-        <v>10971.22</v>
+        <v>10778.99</v>
       </c>
       <c r="G39" s="3">
         <f>AVERAGE(E35:E39)</f>
@@ -2612,16 +2612,16 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>10802.42</v>
+        <v>10811.43</v>
       </c>
       <c r="C40" t="n">
-        <v>10831.56</v>
+        <v>10872.74</v>
       </c>
       <c r="D40" t="n">
-        <v>10770.05</v>
+        <v>10788.37</v>
       </c>
       <c r="E40" t="n">
-        <v>10779.38</v>
+        <v>10842.46</v>
       </c>
       <c r="G40" s="3">
         <f>AVERAGE(E36:E40)</f>
@@ -2641,16 +2641,16 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10756.89</v>
+        <v>10868.56</v>
       </c>
       <c r="C41" t="n">
-        <v>10774.73</v>
+        <v>10896.25</v>
       </c>
       <c r="D41" t="n">
-        <v>10687.25</v>
+        <v>10826.14</v>
       </c>
       <c r="E41" t="n">
-        <v>10697.13</v>
+        <v>10835.38</v>
       </c>
       <c r="G41" s="3">
         <f>AVERAGE(E37:E41)</f>
@@ -2670,16 +2670,16 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>10680.38</v>
+        <v>10932.51</v>
       </c>
       <c r="C42" t="n">
-        <v>10692.19</v>
+        <v>10963.95</v>
       </c>
       <c r="D42" t="n">
-        <v>10540.15</v>
+        <v>10893.73</v>
       </c>
       <c r="E42" t="n">
-        <v>10579.5</v>
+        <v>10932.11</v>
       </c>
       <c r="G42" s="3">
         <f>AVERAGE(E38:E42)</f>
@@ -2699,16 +2699,16 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>10541.83</v>
+        <v>10929.46</v>
       </c>
       <c r="C43" t="n">
-        <v>10573.73</v>
+        <v>10984.84</v>
       </c>
       <c r="D43" t="n">
-        <v>10489.2</v>
+        <v>10901.75</v>
       </c>
       <c r="E43" t="n">
-        <v>10559.97</v>
+        <v>10946.89</v>
       </c>
       <c r="G43" s="3">
         <f>AVERAGE(E39:E43)</f>
@@ -2728,16 +2728,16 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>10583.08</v>
+        <v>10937.77</v>
       </c>
       <c r="C44" t="n">
-        <v>10618.68</v>
+        <v>10995.39</v>
       </c>
       <c r="D44" t="n">
-        <v>10478.98</v>
+        <v>10917.61</v>
       </c>
       <c r="E44" t="n">
-        <v>10488.58</v>
+        <v>10995.39</v>
       </c>
       <c r="G44" s="3">
         <f>AVERAGE(E40:E44)</f>
@@ -2757,16 +2757,16 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>10546.29</v>
+        <v>10957.66</v>
       </c>
       <c r="C45" t="n">
-        <v>10573.61</v>
+        <v>10992.29</v>
       </c>
       <c r="D45" t="n">
-        <v>10495.67</v>
+        <v>10956</v>
       </c>
       <c r="E45" t="n">
-        <v>10553.43</v>
+        <v>10965.79</v>
       </c>
       <c r="G45" s="3">
         <f>AVERAGE(E41:E45)</f>
@@ -2786,16 +2786,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>10553.41</v>
+        <v>10969.35</v>
       </c>
       <c r="C46" t="n">
-        <v>10660.61</v>
+        <v>11018.19</v>
       </c>
       <c r="D46" t="n">
-        <v>10539.63</v>
+        <v>10966.33</v>
       </c>
       <c r="E46" t="n">
-        <v>10657.88</v>
+        <v>11010.61</v>
       </c>
       <c r="G46" s="3">
         <f>AVERAGE(E42:E46)</f>
@@ -2815,16 +2815,16 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>10665.52</v>
+        <v>11023.07</v>
       </c>
       <c r="C47" t="n">
-        <v>10683.9</v>
+        <v>11075.78</v>
       </c>
       <c r="D47" t="n">
-        <v>10601.1</v>
+        <v>11009.16</v>
       </c>
       <c r="E47" t="n">
-        <v>10618.81</v>
+        <v>11075.78</v>
       </c>
       <c r="G47" s="3">
         <f>AVERAGE(E43:E47)</f>
@@ -2844,16 +2844,16 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>10578.98</v>
+        <v>11072.7</v>
       </c>
       <c r="C48" t="n">
-        <v>10578.98</v>
+        <v>11080.41</v>
       </c>
       <c r="D48" t="n">
-        <v>10509.03</v>
+        <v>11001.15</v>
       </c>
       <c r="E48" t="n">
-        <v>10514.18</v>
+        <v>11033.54</v>
       </c>
       <c r="G48" s="3">
         <f>AVERAGE(E44:E48)</f>
@@ -2873,16 +2873,16 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10516.45</v>
+        <v>10997.73</v>
       </c>
       <c r="C49" t="n">
-        <v>10566.37</v>
+        <v>11057.51</v>
       </c>
       <c r="D49" t="n">
-        <v>10500.97</v>
+        <v>10976.46</v>
       </c>
       <c r="E49" t="n">
-        <v>10529.37</v>
+        <v>11057.51</v>
       </c>
       <c r="G49" s="3">
         <f>AVERAGE(E45:E49)</f>
@@ -2902,16 +2902,16 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>10581.78</v>
+        <v>11062.36</v>
       </c>
       <c r="C50" t="n">
-        <v>10632.62</v>
+        <v>11100.02</v>
       </c>
       <c r="D50" t="n">
-        <v>10555.56</v>
+        <v>11058.28</v>
       </c>
       <c r="E50" t="n">
-        <v>10604.91</v>
+        <v>11098.13</v>
       </c>
       <c r="G50" s="3">
         <f>AVERAGE(E46:E50)</f>
@@ -2931,16 +2931,16 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>10610.44</v>
+        <v>11095.67</v>
       </c>
       <c r="C51" t="n">
-        <v>10691.38</v>
+        <v>11095.67</v>
       </c>
       <c r="D51" t="n">
-        <v>10609.04</v>
+        <v>10919.13</v>
       </c>
       <c r="E51" t="n">
-        <v>10691.38</v>
+        <v>10929.77</v>
       </c>
       <c r="G51" s="3">
         <f>AVERAGE(E47:E51)</f>
@@ -2960,16 +2960,16 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>10692.89</v>
+        <v>10957.3</v>
       </c>
       <c r="C52" t="n">
-        <v>10748.6</v>
+        <v>11012.43</v>
       </c>
       <c r="D52" t="n">
-        <v>10689.81</v>
+        <v>10957.3</v>
       </c>
       <c r="E52" t="n">
-        <v>10703.35</v>
+        <v>11012.43</v>
       </c>
       <c r="G52" s="3">
         <f>AVERAGE(E48:E52)</f>
@@ -2989,16 +2989,16 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>10731.68</v>
+        <v>10997.26</v>
       </c>
       <c r="C53" t="n">
-        <v>10782.06</v>
+        <v>11054.49</v>
       </c>
       <c r="D53" t="n">
-        <v>10731.68</v>
+        <v>10994.97</v>
       </c>
       <c r="E53" t="n">
-        <v>10760.21</v>
+        <v>11024.1</v>
       </c>
       <c r="G53" s="3">
         <f>AVERAGE(E49:E53)</f>
@@ -3018,16 +3018,16 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>10808.4</v>
+        <v>11024.97</v>
       </c>
       <c r="C54" t="n">
-        <v>10874.63</v>
+        <v>11030.09</v>
       </c>
       <c r="D54" t="n">
-        <v>10808.4</v>
+        <v>10983.44</v>
       </c>
       <c r="E54" t="n">
-        <v>10858.98</v>
+        <v>10983.44</v>
       </c>
       <c r="G54" s="3">
         <f>AVERAGE(E50:E54)</f>
@@ -3047,16 +3047,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>10938.3</v>
+        <v>11026.07</v>
       </c>
       <c r="C55" t="n">
-        <v>10970.24</v>
+        <v>11095.5</v>
       </c>
       <c r="D55" t="n">
-        <v>10908.86</v>
+        <v>11026.07</v>
       </c>
       <c r="E55" t="n">
-        <v>10952.39</v>
+        <v>11075.25</v>
       </c>
       <c r="G55" s="3">
         <f>AVERAGE(E51:E55)</f>
@@ -3076,16 +3076,16 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>10965.08</v>
+        <v>11063.62</v>
       </c>
       <c r="C56" t="n">
-        <v>10978.38</v>
+        <v>11063.62</v>
       </c>
       <c r="D56" t="n">
-        <v>10874.73</v>
+        <v>11001.96</v>
       </c>
       <c r="E56" t="n">
-        <v>10874.73</v>
+        <v>11028.07</v>
       </c>
       <c r="G56" s="3">
         <f>AVERAGE(E52:E56)</f>
@@ -3105,16 +3105,16 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>10873.54</v>
+        <v>11009.96</v>
       </c>
       <c r="C57" t="n">
-        <v>10915.74</v>
+        <v>11033.89</v>
       </c>
       <c r="D57" t="n">
-        <v>10865.07</v>
+        <v>10972.25</v>
       </c>
       <c r="E57" t="n">
-        <v>10897.57</v>
+        <v>10983.68</v>
       </c>
       <c r="G57" s="3">
         <f>AVERAGE(E53:E57)</f>
@@ -3134,16 +3134,16 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>10911.74</v>
+        <v>10939.68</v>
       </c>
       <c r="C58" t="n">
-        <v>10938.63</v>
+        <v>10939.68</v>
       </c>
       <c r="D58" t="n">
-        <v>10833.81</v>
+        <v>10693.73</v>
       </c>
       <c r="E58" t="n">
-        <v>10833.81</v>
+        <v>10748.92</v>
       </c>
       <c r="G58" s="3">
         <f>AVERAGE(E54:E58)</f>
@@ -3163,16 +3163,16 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>10844.09</v>
+        <v>10797.95</v>
       </c>
       <c r="C59" t="n">
-        <v>10893.35</v>
+        <v>10829.85</v>
       </c>
       <c r="D59" t="n">
-        <v>10819.07</v>
+        <v>10755.53</v>
       </c>
       <c r="E59" t="n">
-        <v>10830.84</v>
+        <v>10824.23</v>
       </c>
       <c r="G59" s="3">
         <f>AVERAGE(E55:E59)</f>
@@ -3192,16 +3192,16 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>10861.66</v>
+        <v>10827.28</v>
       </c>
       <c r="C60" t="n">
-        <v>10979.1</v>
+        <v>10827.28</v>
       </c>
       <c r="D60" t="n">
-        <v>10861.66</v>
+        <v>10688.59</v>
       </c>
       <c r="E60" t="n">
-        <v>10966.2</v>
+        <v>10716.75</v>
       </c>
       <c r="G60" s="3">
         <f>AVERAGE(E56:E60)</f>
@@ -3221,16 +3221,16 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10986.77</v>
+        <v>10663.57</v>
       </c>
       <c r="C61" t="n">
-        <v>11034.12</v>
+        <v>10725.71</v>
       </c>
       <c r="D61" t="n">
-        <v>10938.73</v>
+        <v>10606.26</v>
       </c>
       <c r="E61" t="n">
-        <v>10938.73</v>
+        <v>10683.9</v>
       </c>
       <c r="G61" s="3">
         <f>AVERAGE(E57:E61)</f>
@@ -3250,16 +3250,16 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>10974.52</v>
+        <v>10702.6</v>
       </c>
       <c r="C62" t="n">
-        <v>10991.86</v>
+        <v>10757.01</v>
       </c>
       <c r="D62" t="n">
-        <v>10886.18</v>
+        <v>10688.55</v>
       </c>
       <c r="E62" t="n">
-        <v>10886.18</v>
+        <v>10690.96</v>
       </c>
       <c r="G62" s="3">
         <f>AVERAGE(E58:E62)</f>
@@ -3279,16 +3279,16 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>10910.61</v>
+        <v>10698.76</v>
       </c>
       <c r="C63" t="n">
-        <v>10942.64</v>
+        <v>10729.9</v>
       </c>
       <c r="D63" t="n">
-        <v>10883.52</v>
+        <v>10663.44</v>
       </c>
       <c r="E63" t="n">
-        <v>10936.93</v>
+        <v>10699.05</v>
       </c>
       <c r="G63" s="3">
         <f>AVERAGE(E59:E63)</f>
@@ -3308,16 +3308,16 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>10946.62</v>
+        <v>10697.01</v>
       </c>
       <c r="C64" t="n">
-        <v>10977.81</v>
+        <v>10792.2</v>
       </c>
       <c r="D64" t="n">
-        <v>10918.12</v>
+        <v>10697.01</v>
       </c>
       <c r="E64" t="n">
-        <v>10942.3</v>
+        <v>10792.2</v>
       </c>
       <c r="G64" s="3">
         <f>AVERAGE(E60:E64)</f>
@@ -3337,16 +3337,16 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>10976.49</v>
+        <v>10790.24</v>
       </c>
       <c r="C65" t="n">
-        <v>10999.43</v>
+        <v>10828.21</v>
       </c>
       <c r="D65" t="n">
-        <v>10965.18</v>
+        <v>10774.69</v>
       </c>
       <c r="E65" t="n">
-        <v>10987.77</v>
+        <v>10804.2</v>
       </c>
       <c r="G65" s="3">
         <f>AVERAGE(E61:E65)</f>
@@ -3366,16 +3366,16 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>10979.68</v>
+        <v>10817.33</v>
       </c>
       <c r="C66" t="n">
-        <v>10986.53</v>
+        <v>10863.13</v>
       </c>
       <c r="D66" t="n">
-        <v>10929.56</v>
+        <v>10802.79</v>
       </c>
       <c r="E66" t="n">
-        <v>10964.12</v>
+        <v>10863.13</v>
       </c>
       <c r="G66" s="3">
         <f>AVERAGE(E62:E66)</f>
@@ -3395,16 +3395,16 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>10925.21</v>
+        <v>10865.91</v>
       </c>
       <c r="C67" t="n">
-        <v>10925.21</v>
+        <v>10865.91</v>
       </c>
       <c r="D67" t="n">
-        <v>10799.75</v>
+        <v>10770.32</v>
       </c>
       <c r="E67" t="n">
-        <v>10821.17</v>
+        <v>10809.35</v>
       </c>
       <c r="G67" s="3">
         <f>AVERAGE(E63:E67)</f>
@@ -3424,16 +3424,16 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>10856.03</v>
+        <v>10847.17</v>
       </c>
       <c r="C68" t="n">
-        <v>10909.61</v>
+        <v>10916.69</v>
       </c>
       <c r="D68" t="n">
-        <v>10853.65</v>
+        <v>10847.17</v>
       </c>
       <c r="E68" t="n">
-        <v>10874.96</v>
+        <v>10902.21</v>
       </c>
       <c r="G68" s="3">
         <f>AVERAGE(E64:E68)</f>
@@ -3453,16 +3453,16 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>10882.68</v>
+        <v>10946.33</v>
       </c>
       <c r="C69" t="n">
-        <v>10954.67</v>
+        <v>11005.55</v>
       </c>
       <c r="D69" t="n">
-        <v>10876.97</v>
+        <v>10946.33</v>
       </c>
       <c r="E69" t="n">
-        <v>10949.08</v>
+        <v>10989.55</v>
       </c>
       <c r="G69" s="3">
         <f>AVERAGE(E65:E69)</f>
@@ -3482,16 +3482,16 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>11002.15</v>
+        <v>11029.12</v>
       </c>
       <c r="C70" t="n">
-        <v>11109.5</v>
+        <v>11099.57</v>
       </c>
       <c r="D70" t="n">
-        <v>11002.15</v>
+        <v>11029.11</v>
       </c>
       <c r="E70" t="n">
-        <v>11109.5</v>
+        <v>11099.57</v>
       </c>
       <c r="G70" s="3">
         <f>AVERAGE(E66:E70)</f>
@@ -3511,16 +3511,16 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>11130.03</v>
+        <v>11153.97</v>
       </c>
       <c r="C71" t="n">
-        <v>11131.08</v>
+        <v>11186.05</v>
       </c>
       <c r="D71" t="n">
-        <v>11054.62</v>
+        <v>11080.07</v>
       </c>
       <c r="E71" t="n">
-        <v>11100.11</v>
+        <v>11093.75</v>
       </c>
       <c r="G71" s="3">
         <f>AVERAGE(E67:E71)</f>
@@ -3540,16 +3540,16 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>11111.14</v>
+        <v>11037.26</v>
       </c>
       <c r="C72" t="n">
-        <v>11207.15</v>
+        <v>11063.94</v>
       </c>
       <c r="D72" t="n">
-        <v>11111.14</v>
+        <v>10987.68</v>
       </c>
       <c r="E72" t="n">
-        <v>11201.83</v>
+        <v>11063.94</v>
       </c>
       <c r="G72" s="3">
         <f>AVERAGE(E68:E72)</f>
@@ -3569,16 +3569,16 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>11228.64</v>
+        <v>11087.86</v>
       </c>
       <c r="C73" t="n">
-        <v>11261.68</v>
+        <v>11097.11</v>
       </c>
       <c r="D73" t="n">
-        <v>11188.99</v>
+        <v>10952.85</v>
       </c>
       <c r="E73" t="n">
-        <v>11251.75</v>
+        <v>10964.22</v>
       </c>
       <c r="G73" s="3">
         <f>AVERAGE(E69:E73)</f>
@@ -3598,16 +3598,16 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>11243.59</v>
+        <v>10981.39</v>
       </c>
       <c r="C74" t="n">
-        <v>11243.59</v>
+        <v>11028.27</v>
       </c>
       <c r="D74" t="n">
-        <v>11122.98</v>
+        <v>10956.49</v>
       </c>
       <c r="E74" t="n">
-        <v>11156.42</v>
+        <v>11021.38</v>
       </c>
       <c r="G74" s="3">
         <f>AVERAGE(E70:E74)</f>
@@ -3627,16 +3627,16 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>11168.99</v>
+        <v>11042.41</v>
       </c>
       <c r="C75" t="n">
-        <v>11186.67</v>
+        <v>11058.06</v>
       </c>
       <c r="D75" t="n">
-        <v>11118.81</v>
+        <v>10989.93</v>
       </c>
       <c r="E75" t="n">
-        <v>11149.23</v>
+        <v>10995.13</v>
       </c>
       <c r="G75" s="3">
         <f>AVERAGE(E71:E75)</f>
@@ -3656,16 +3656,16 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>11140.02</v>
+        <v>11016.92</v>
       </c>
       <c r="C76" t="n">
-        <v>11160.05</v>
+        <v>11016.92</v>
       </c>
       <c r="D76" t="n">
-        <v>11088.53</v>
+        <v>10905.34</v>
       </c>
       <c r="E76" t="n">
-        <v>11144.79</v>
+        <v>10924.3</v>
       </c>
       <c r="G76" s="3">
         <f>AVERAGE(E72:E76)</f>
@@ -3685,16 +3685,16 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>11153.2</v>
+        <v>10922.55</v>
       </c>
       <c r="C77" t="n">
-        <v>11188.01</v>
+        <v>10922.55</v>
       </c>
       <c r="D77" t="n">
-        <v>11119.24</v>
+        <v>10807.56</v>
       </c>
       <c r="E77" t="n">
-        <v>11173.21</v>
+        <v>10846.99</v>
       </c>
       <c r="G77" s="3">
         <f>AVERAGE(E73:E77)</f>
@@ -3714,16 +3714,16 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>11143.04</v>
+        <v>10869.8</v>
       </c>
       <c r="C78" t="n">
-        <v>11143.04</v>
+        <v>10877.72</v>
       </c>
       <c r="D78" t="n">
-        <v>11013.98</v>
+        <v>10689.29</v>
       </c>
       <c r="E78" t="n">
-        <v>11013.98</v>
+        <v>10725.8</v>
       </c>
       <c r="G78" s="3">
         <f>AVERAGE(E74:E78)</f>
@@ -3743,16 +3743,16 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>10998.2</v>
+        <v>10723</v>
       </c>
       <c r="C79" t="n">
-        <v>11087.47</v>
+        <v>10765.42</v>
       </c>
       <c r="D79" t="n">
-        <v>10981.61</v>
+        <v>10669.59</v>
       </c>
       <c r="E79" t="n">
-        <v>11087.47</v>
+        <v>10752.3</v>
       </c>
       <c r="G79" s="3">
         <f>AVERAGE(E75:E79)</f>
@@ -3772,16 +3772,16 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>11008.77</v>
+        <v>10762.91</v>
       </c>
       <c r="C80" t="n">
-        <v>11008.77</v>
+        <v>10779.93</v>
       </c>
       <c r="D80" t="n">
-        <v>10904.19</v>
+        <v>10667.25</v>
       </c>
       <c r="E80" t="n">
-        <v>10904.19</v>
+        <v>10722.57</v>
       </c>
       <c r="G80" s="3">
         <f>AVERAGE(E76:E80)</f>
@@ -3801,16 +3801,16 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>10904.8</v>
+        <v>10726.67</v>
       </c>
       <c r="C81" t="n">
-        <v>10969.2</v>
+        <v>10758.84</v>
       </c>
       <c r="D81" t="n">
-        <v>10842.56</v>
+        <v>10701.25</v>
       </c>
       <c r="E81" t="n">
-        <v>10927.44</v>
+        <v>10727.23</v>
       </c>
       <c r="G81" s="3">
         <f>AVERAGE(E77:E81)</f>
@@ -3830,16 +3830,16 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>10949.85</v>
+        <v>10776.53</v>
       </c>
       <c r="C82" t="n">
-        <v>10992.31</v>
+        <v>10882.04</v>
       </c>
       <c r="D82" t="n">
-        <v>10941.07</v>
+        <v>10770.47</v>
       </c>
       <c r="E82" t="n">
-        <v>10941.07</v>
+        <v>10868.14</v>
       </c>
       <c r="G82" s="3">
         <f>AVERAGE(E78:E82)</f>
@@ -3859,16 +3859,16 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>10901.25</v>
+        <v>10881.78</v>
       </c>
       <c r="C83" t="n">
-        <v>10914.83</v>
+        <v>10883.98</v>
       </c>
       <c r="D83" t="n">
-        <v>10828.86</v>
+        <v>10806.73</v>
       </c>
       <c r="E83" t="n">
-        <v>10899.28</v>
+        <v>10828.61</v>
       </c>
       <c r="G83" s="3">
         <f>AVERAGE(E79:E83)</f>
@@ -3888,16 +3888,16 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>10834.07</v>
+        <v>10794.22</v>
       </c>
       <c r="C84" t="n">
-        <v>10851.16</v>
+        <v>10806.56</v>
       </c>
       <c r="D84" t="n">
-        <v>10786.46</v>
+        <v>10750.81</v>
       </c>
       <c r="E84" t="n">
-        <v>10786.46</v>
+        <v>10760.21</v>
       </c>
       <c r="G84" s="3">
         <f>AVERAGE(E80:E84)</f>
@@ -3917,16 +3917,16 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>10730.9</v>
+        <v>10808.5</v>
       </c>
       <c r="C85" t="n">
-        <v>10752.99</v>
+        <v>10882.75</v>
       </c>
       <c r="D85" t="n">
-        <v>10651.42</v>
+        <v>10808.5</v>
       </c>
       <c r="E85" t="n">
-        <v>10742.17</v>
+        <v>10857.27</v>
       </c>
       <c r="G85" s="3">
         <f>AVERAGE(E81:E85)</f>
@@ -3946,16 +3946,16 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>10766.88</v>
+        <v>10886.19</v>
       </c>
       <c r="C86" t="n">
-        <v>10800.34</v>
+        <v>10908.36</v>
       </c>
       <c r="D86" t="n">
-        <v>10701.03</v>
+        <v>10814.54</v>
       </c>
       <c r="E86" t="n">
-        <v>10701.03</v>
+        <v>10831.41</v>
       </c>
       <c r="G86" s="3">
         <f>AVERAGE(E82:E86)</f>
@@ -3975,16 +3975,16 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>10669.42</v>
+        <v>10857.1</v>
       </c>
       <c r="C87" t="n">
-        <v>10723.84</v>
+        <v>10972.41</v>
       </c>
       <c r="D87" t="n">
-        <v>10633.01</v>
+        <v>10835.84</v>
       </c>
       <c r="E87" t="n">
-        <v>10654.28</v>
+        <v>10972.41</v>
       </c>
       <c r="G87" s="3">
         <f>AVERAGE(E83:E87)</f>
@@ -4004,16 +4004,16 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>10667.64</v>
+        <v>10959.56</v>
       </c>
       <c r="C88" t="n">
-        <v>10836.91</v>
+        <v>11003.49</v>
       </c>
       <c r="D88" t="n">
-        <v>10667.64</v>
+        <v>10941.77</v>
       </c>
       <c r="E88" t="n">
-        <v>10836.91</v>
+        <v>10978.85</v>
       </c>
       <c r="G88" s="3">
         <f>AVERAGE(E84:E88)</f>
@@ -4033,16 +4033,16 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>10852.17</v>
+        <v>10974.08</v>
       </c>
       <c r="C89" t="n">
-        <v>10886.2</v>
+        <v>11007.35</v>
       </c>
       <c r="D89" t="n">
-        <v>10777.94</v>
+        <v>10947.29</v>
       </c>
       <c r="E89" t="n">
-        <v>10777.94</v>
+        <v>10974.19</v>
       </c>
       <c r="G89" s="3">
         <f>AVERAGE(E85:E89)</f>
@@ -4062,16 +4062,16 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>10802.88</v>
+        <v>10973.77</v>
       </c>
       <c r="C90" t="n">
-        <v>10873.48</v>
+        <v>11051.09</v>
       </c>
       <c r="D90" t="n">
-        <v>10707.68</v>
+        <v>10961.27</v>
       </c>
       <c r="E90" t="n">
-        <v>10715.72</v>
+        <v>11034.19</v>
       </c>
       <c r="G90" s="3">
         <f>AVERAGE(E86:E90)</f>
@@ -4091,16 +4091,16 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
-        <v>10714.25</v>
+        <v>11050.09</v>
       </c>
       <c r="C91" t="n">
-        <v>10752.05</v>
+        <v>11073.95</v>
       </c>
       <c r="D91" t="n">
-        <v>10680.44</v>
+        <v>10966.96</v>
       </c>
       <c r="E91" t="n">
-        <v>10721.87</v>
+        <v>11006.34</v>
       </c>
       <c r="G91" s="3">
         <f>AVERAGE(E87:E91)</f>
@@ -4120,16 +4120,16 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>10690.91</v>
+        <v>11014.19</v>
       </c>
       <c r="C92" t="n">
-        <v>10709.8</v>
+        <v>11062.43</v>
       </c>
       <c r="D92" t="n">
-        <v>10585.27</v>
+        <v>11012.95</v>
       </c>
       <c r="E92" t="n">
-        <v>10611.81</v>
+        <v>11051.8</v>
       </c>
       <c r="G92" s="3">
         <f>AVERAGE(E88:E92)</f>
@@ -4149,16 +4149,16 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>10645.66</v>
+        <v>11048.89</v>
       </c>
       <c r="C93" t="n">
-        <v>10665.72</v>
+        <v>11064.34</v>
       </c>
       <c r="D93" t="n">
-        <v>10523.58</v>
+        <v>10906.42</v>
       </c>
       <c r="E93" t="n">
-        <v>10608.57</v>
+        <v>10919.63</v>
       </c>
       <c r="G93" s="3">
         <f>AVERAGE(E89:E93)</f>
@@ -4178,16 +4178,16 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>10638.9</v>
+        <v>10918.74</v>
       </c>
       <c r="C94" t="n">
-        <v>10746.74</v>
+        <v>10926.73</v>
       </c>
       <c r="D94" t="n">
-        <v>10638.9</v>
+        <v>10839.46</v>
       </c>
       <c r="E94" t="n">
-        <v>10720.28</v>
+        <v>10863.94</v>
       </c>
       <c r="G94" s="3">
         <f>AVERAGE(E90:E94)</f>
@@ -4207,16 +4207,16 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>10737.62</v>
+        <v>10826.19</v>
       </c>
       <c r="C95" t="n">
-        <v>10776.47</v>
+        <v>10826.19</v>
       </c>
       <c r="D95" t="n">
-        <v>10728.24</v>
+        <v>10707.76</v>
       </c>
       <c r="E95" t="n">
-        <v>10756.89</v>
+        <v>10718.91</v>
       </c>
       <c r="G95" s="3">
         <f>AVERAGE(E91:E95)</f>
@@ -4236,16 +4236,16 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>10693.64</v>
+        <v>10665.29</v>
       </c>
       <c r="C96" t="n">
-        <v>10693.64</v>
+        <v>10669.63</v>
       </c>
       <c r="D96" t="n">
-        <v>10635.03</v>
+        <v>10446.94</v>
       </c>
       <c r="E96" t="n">
-        <v>10676.84</v>
+        <v>10517.12</v>
       </c>
       <c r="G96" s="3">
         <f>AVERAGE(E92:E96)</f>
@@ -4265,16 +4265,16 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>10644.91</v>
+        <v>10467.85</v>
       </c>
       <c r="C97" t="n">
-        <v>10752.57</v>
+        <v>10507.83</v>
       </c>
       <c r="D97" t="n">
-        <v>10643.65</v>
+        <v>10403.13</v>
       </c>
       <c r="E97" t="n">
-        <v>10738.38</v>
+        <v>10455.93</v>
       </c>
       <c r="G97" s="3">
         <f>AVERAGE(E93:E97)</f>
@@ -4294,16 +4294,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>10769.7</v>
+        <v>10464.39</v>
       </c>
       <c r="C98" t="n">
-        <v>10864.54</v>
+        <v>10503.1</v>
       </c>
       <c r="D98" t="n">
-        <v>10769.7</v>
+        <v>10428.97</v>
       </c>
       <c r="E98" t="n">
-        <v>10864.54</v>
+        <v>10466.83</v>
       </c>
       <c r="G98" s="3">
         <f>AVERAGE(E94:E98)</f>
@@ -4323,16 +4323,16 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>10867.97</v>
+        <v>10272.04</v>
       </c>
       <c r="C99" t="n">
-        <v>10890.2</v>
+        <v>10272.04</v>
       </c>
       <c r="D99" t="n">
-        <v>10817.45</v>
+        <v>9797.93</v>
       </c>
       <c r="E99" t="n">
-        <v>10817.45</v>
+        <v>9806.110000000001</v>
       </c>
       <c r="G99" s="3">
         <f>AVERAGE(E95:E99)</f>
@@ -4352,16 +4352,16 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>10802.75</v>
+        <v>9811.58</v>
       </c>
       <c r="C100" t="n">
-        <v>10818.84</v>
+        <v>10046.01</v>
       </c>
       <c r="D100" t="n">
-        <v>10758.83</v>
+        <v>9740.76</v>
       </c>
       <c r="E100" t="n">
-        <v>10778.99</v>
+        <v>10045.81</v>
       </c>
       <c r="G100" s="3">
         <f>AVERAGE(E96:E100)</f>
@@ -4381,16 +4381,16 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>10811.43</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>10872.74</v>
+        <v>9989.629999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>10788.37</v>
+        <v>9890.469999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>10842.46</v>
+        <v>9901.120000000001</v>
       </c>
       <c r="G101" s="3">
         <f>AVERAGE(E97:E101)</f>
@@ -4410,16 +4410,16 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>10868.56</v>
+        <v>9891.969999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>10896.25</v>
+        <v>10011.19</v>
       </c>
       <c r="D102" t="n">
-        <v>10826.14</v>
+        <v>9888.73</v>
       </c>
       <c r="E102" t="n">
-        <v>10835.38</v>
+        <v>9981.1</v>
       </c>
       <c r="G102" s="3">
         <f>AVERAGE(E98:E102)</f>
@@ -4439,16 +4439,16 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>10932.51</v>
+        <v>10048.43</v>
       </c>
       <c r="C103" t="n">
-        <v>10963.95</v>
+        <v>10127.01</v>
       </c>
       <c r="D103" t="n">
-        <v>10893.73</v>
+        <v>9978.25</v>
       </c>
       <c r="E103" t="n">
-        <v>10932.11</v>
+        <v>9979.139999999999</v>
       </c>
       <c r="G103" s="3">
         <f>AVERAGE(E99:E103)</f>
@@ -4468,16 +4468,16 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>10929.46</v>
+        <v>9975.459999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>10984.84</v>
+        <v>10019.5</v>
       </c>
       <c r="D104" t="n">
-        <v>10901.75</v>
+        <v>9919.790000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>10946.89</v>
+        <v>9953.73</v>
       </c>
       <c r="G104" s="3">
         <f>AVERAGE(E100:E104)</f>
@@ -4497,16 +4497,16 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>10937.77</v>
+        <v>9879.469999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>10995.39</v>
+        <v>9919.26</v>
       </c>
       <c r="D105" t="n">
-        <v>10917.61</v>
+        <v>9762.91</v>
       </c>
       <c r="E105" t="n">
-        <v>10995.39</v>
+        <v>9919.26</v>
       </c>
       <c r="G105" s="3">
         <f>AVERAGE(E101:E105)</f>
@@ -4526,16 +4526,16 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>10957.66</v>
+        <v>9871.299999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>10992.29</v>
+        <v>9984.15</v>
       </c>
       <c r="D106" t="n">
-        <v>10956</v>
+        <v>9822.15</v>
       </c>
       <c r="E106" t="n">
-        <v>10965.79</v>
+        <v>9974.280000000001</v>
       </c>
       <c r="G106" s="3">
         <f>AVERAGE(E102:E106)</f>
@@ -4555,16 +4555,16 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>10969.35</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>11018.19</v>
+        <v>9912.280000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>10966.33</v>
+        <v>9775.200000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>11010.61</v>
+        <v>9775.200000000001</v>
       </c>
       <c r="G107" s="3">
         <f>AVERAGE(E103:E107)</f>
@@ -4584,16 +4584,16 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>11023.07</v>
+        <v>9774.290000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>11075.78</v>
+        <v>9809.190000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>11009.16</v>
+        <v>9667.85</v>
       </c>
       <c r="E108" t="n">
-        <v>11075.78</v>
+        <v>9759.4</v>
       </c>
       <c r="G108" s="3">
         <f>AVERAGE(E104:E108)</f>
@@ -4613,16 +4613,16 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>11072.7</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>11080.41</v>
+        <v>9622.950000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>11001.15</v>
+        <v>9475.610000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>11033.54</v>
+        <v>9520.790000000001</v>
       </c>
       <c r="G109" s="3">
         <f>AVERAGE(E105:E109)</f>
@@ -4642,16 +4642,16 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>10997.73</v>
+        <v>9570.190000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>11057.51</v>
+        <v>9629.07</v>
       </c>
       <c r="D110" t="n">
-        <v>10976.46</v>
+        <v>9400.690000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>11057.51</v>
+        <v>9489.18</v>
       </c>
       <c r="G110" s="3">
         <f>AVERAGE(E106:E110)</f>
@@ -4671,16 +4671,16 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>11062.36</v>
+        <v>9515.43</v>
       </c>
       <c r="C111" t="n">
-        <v>11100.02</v>
+        <v>9554.35</v>
       </c>
       <c r="D111" t="n">
-        <v>11058.28</v>
+        <v>9459.120000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>11098.13</v>
+        <v>9516.32</v>
       </c>
       <c r="G111" s="3">
         <f>AVERAGE(E107:E111)</f>
@@ -4700,16 +4700,16 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>11095.67</v>
+        <v>9508.809999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>11095.67</v>
+        <v>9574.83</v>
       </c>
       <c r="D112" t="n">
-        <v>10919.13</v>
+        <v>9481.66</v>
       </c>
       <c r="E112" t="n">
-        <v>10929.77</v>
+        <v>9526.110000000001</v>
       </c>
       <c r="G112" s="3">
         <f>AVERAGE(E108:E112)</f>
@@ -4729,16 +4729,16 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>10957.3</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>11012.43</v>
+        <v>9802.129999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>10957.3</v>
+        <v>9588.860000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>11012.43</v>
+        <v>9802.129999999999</v>
       </c>
       <c r="G113" s="3">
         <f>AVERAGE(E109:E113)</f>
@@ -4758,16 +4758,16 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>10997.26</v>
+        <v>9812.200000000001</v>
       </c>
       <c r="C114" t="n">
-        <v>11054.49</v>
+        <v>9869.59</v>
       </c>
       <c r="D114" t="n">
-        <v>10994.97</v>
+        <v>9742.610000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>11024.1</v>
+        <v>9844.74</v>
       </c>
       <c r="G114" s="3">
         <f>AVERAGE(E110:E114)</f>
@@ -4787,16 +4787,16 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>11024.97</v>
+        <v>9871.4</v>
       </c>
       <c r="C115" t="n">
-        <v>11030.09</v>
+        <v>9906.59</v>
       </c>
       <c r="D115" t="n">
-        <v>10983.44</v>
+        <v>9817.290000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>10983.44</v>
+        <v>9906.59</v>
       </c>
       <c r="G115" s="3">
         <f>AVERAGE(E111:E115)</f>
@@ -4816,16 +4816,16 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>11026.07</v>
+        <v>9856.85</v>
       </c>
       <c r="C116" t="n">
-        <v>11095.5</v>
+        <v>9889.809999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>11026.07</v>
+        <v>9786.25</v>
       </c>
       <c r="E116" t="n">
-        <v>11075.25</v>
+        <v>9889.809999999999</v>
       </c>
       <c r="G116" s="3">
         <f>AVERAGE(E112:E116)</f>
@@ -4845,16 +4845,16 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>11063.62</v>
+        <v>9888.41</v>
       </c>
       <c r="C117" t="n">
-        <v>11063.62</v>
+        <v>9899.969999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>11001.96</v>
+        <v>9782.860000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>11028.07</v>
+        <v>9824.950000000001</v>
       </c>
       <c r="G117" s="3">
         <f>AVERAGE(E113:E117)</f>
@@ -4874,16 +4874,16 @@
         <v>124</v>
       </c>
       <c r="B118" t="n">
-        <v>11009.96</v>
+        <v>9818.15</v>
       </c>
       <c r="C118" t="n">
-        <v>11033.89</v>
+        <v>9912.530000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>10972.25</v>
+        <v>9817.950000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>10983.68</v>
+        <v>9908.35</v>
       </c>
       <c r="G118" s="3">
         <f>AVERAGE(E114:E118)</f>
@@ -4903,16 +4903,16 @@
         <v>125</v>
       </c>
       <c r="B119" t="n">
-        <v>10939.68</v>
+        <v>9958.469999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>10939.68</v>
+        <v>10014.42</v>
       </c>
       <c r="D119" t="n">
-        <v>10693.73</v>
+        <v>9938.549999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>10748.92</v>
+        <v>9945.309999999999</v>
       </c>
       <c r="G119" s="3">
         <f>AVERAGE(E115:E119)</f>
@@ -4932,16 +4932,16 @@
         <v>126</v>
       </c>
       <c r="B120" t="n">
-        <v>10797.95</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>10829.85</v>
+        <v>9921.780000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>10755.53</v>
+        <v>9798.450000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>10824.23</v>
+        <v>9830.01</v>
       </c>
       <c r="G120" s="3">
         <f>AVERAGE(E116:E120)</f>
@@ -4961,16 +4961,16 @@
         <v>127</v>
       </c>
       <c r="B121" t="n">
-        <v>10827.28</v>
+        <v>9806.799999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>10827.28</v>
+        <v>9875.84</v>
       </c>
       <c r="D121" t="n">
-        <v>10688.59</v>
+        <v>9764.459999999999</v>
       </c>
       <c r="E121" t="n">
-        <v>10716.75</v>
+        <v>9831.209999999999</v>
       </c>
       <c r="G121" s="3">
         <f>AVERAGE(E117:E121)</f>
@@ -4990,16 +4990,16 @@
         <v>128</v>
       </c>
       <c r="B122" t="n">
-        <v>10663.57</v>
+        <v>9727.17</v>
       </c>
       <c r="C122" t="n">
-        <v>10725.71</v>
+        <v>9777.35</v>
       </c>
       <c r="D122" t="n">
-        <v>10606.26</v>
+        <v>9616.16</v>
       </c>
       <c r="E122" t="n">
-        <v>10683.9</v>
+        <v>9775.84</v>
       </c>
       <c r="G122" s="3">
         <f>AVERAGE(E118:E122)</f>
@@ -5019,16 +5019,16 @@
         <v>129</v>
       </c>
       <c r="B123" t="n">
-        <v>10702.6</v>
+        <v>9799.690000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>10757.01</v>
+        <v>9823.25</v>
       </c>
       <c r="D123" t="n">
-        <v>10688.55</v>
+        <v>9763.889999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>10690.96</v>
+        <v>9791.879999999999</v>
       </c>
       <c r="G123" s="3">
         <f>AVERAGE(E119:E123)</f>
@@ -5048,16 +5048,16 @@
         <v>130</v>
       </c>
       <c r="B124" t="n">
-        <v>10698.76</v>
+        <v>9806.58</v>
       </c>
       <c r="C124" t="n">
-        <v>10729.9</v>
+        <v>9844.389999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>10663.44</v>
+        <v>9755.120000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>10699.05</v>
+        <v>9826.459999999999</v>
       </c>
       <c r="G124" s="3">
         <f>AVERAGE(E120:E124)</f>
@@ -5077,16 +5077,16 @@
         <v>131</v>
       </c>
       <c r="B125" t="n">
-        <v>10697.01</v>
+        <v>9819.049999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>10792.2</v>
+        <v>9851.290000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>10697.01</v>
+        <v>9770.870000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>10792.2</v>
+        <v>9797.09</v>
       </c>
       <c r="G125" s="3">
         <f>AVERAGE(E121:E125)</f>
@@ -5106,16 +5106,16 @@
         <v>132</v>
       </c>
       <c r="B126" t="n">
-        <v>10790.24</v>
+        <v>9795.469999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>10828.21</v>
+        <v>9836.02</v>
       </c>
       <c r="D126" t="n">
-        <v>10774.69</v>
+        <v>9779.4</v>
       </c>
       <c r="E126" t="n">
-        <v>10804.2</v>
+        <v>9828.690000000001</v>
       </c>
       <c r="G126" s="3">
         <f>AVERAGE(E122:E126)</f>
@@ -5135,16 +5135,16 @@
         <v>133</v>
       </c>
       <c r="B127" t="n">
-        <v>10817.33</v>
+        <v>9788.950000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>10863.13</v>
+        <v>9800.030000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>10802.79</v>
+        <v>9726.799999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>10863.13</v>
+        <v>9743.99</v>
       </c>
       <c r="G127" s="3">
         <f>AVERAGE(E123:E127)</f>
@@ -5164,16 +5164,16 @@
         <v>134</v>
       </c>
       <c r="B128" t="n">
-        <v>10865.91</v>
+        <v>9698.52</v>
       </c>
       <c r="C128" t="n">
-        <v>10865.91</v>
+        <v>9753.690000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>10770.32</v>
+        <v>9632.469999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>10809.35</v>
+        <v>9741.52</v>
       </c>
       <c r="G128" s="3">
         <f>AVERAGE(E124:E128)</f>
@@ -5193,16 +5193,16 @@
         <v>135</v>
       </c>
       <c r="B129" t="n">
-        <v>10847.17</v>
+        <v>9769.33</v>
       </c>
       <c r="C129" t="n">
-        <v>10916.69</v>
+        <v>9792.99</v>
       </c>
       <c r="D129" t="n">
-        <v>10847.17</v>
+        <v>9702.77</v>
       </c>
       <c r="E129" t="n">
-        <v>10902.21</v>
+        <v>9714.709999999999</v>
       </c>
       <c r="G129" s="3">
         <f>AVERAGE(E125:E129)</f>
@@ -5222,16 +5222,16 @@
         <v>136</v>
       </c>
       <c r="B130" t="n">
-        <v>10946.33</v>
+        <v>9730.639999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>11005.55</v>
+        <v>9738.799999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>10946.33</v>
+        <v>9654.91</v>
       </c>
       <c r="E130" t="n">
-        <v>10989.55</v>
+        <v>9667.299999999999</v>
       </c>
       <c r="G130" s="3">
         <f>AVERAGE(E126:E130)</f>
@@ -5251,16 +5251,16 @@
         <v>137</v>
       </c>
       <c r="B131" t="n">
-        <v>11029.12</v>
+        <v>9679.98</v>
       </c>
       <c r="C131" t="n">
-        <v>11099.57</v>
+        <v>9847.35</v>
       </c>
       <c r="D131" t="n">
-        <v>11029.11</v>
+        <v>9679.98</v>
       </c>
       <c r="E131" t="n">
-        <v>11099.57</v>
+        <v>9765.360000000001</v>
       </c>
       <c r="G131" s="3">
         <f>AVERAGE(E127:E131)</f>
@@ -5280,16 +5280,16 @@
         <v>138</v>
       </c>
       <c r="B132" t="n">
-        <v>11153.97</v>
+        <v>9728.950000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>11186.05</v>
+        <v>9781.4</v>
       </c>
       <c r="D132" t="n">
-        <v>11080.07</v>
+        <v>9688.74</v>
       </c>
       <c r="E132" t="n">
-        <v>11093.75</v>
+        <v>9778.620000000001</v>
       </c>
       <c r="G132" s="3">
         <f>AVERAGE(E128:E132)</f>
@@ -5309,16 +5309,16 @@
         <v>139</v>
       </c>
       <c r="B133" t="n">
-        <v>11037.26</v>
+        <v>9774.030000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>11063.94</v>
+        <v>9890.889999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>10987.68</v>
+        <v>9767.139999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>11063.94</v>
+        <v>9884.309999999999</v>
       </c>
       <c r="G133" s="3">
         <f>AVERAGE(E129:E133)</f>
@@ -5338,16 +5338,16 @@
         <v>140</v>
       </c>
       <c r="B134" t="n">
-        <v>11087.86</v>
+        <v>9959.870000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>11097.11</v>
+        <v>10001.85</v>
       </c>
       <c r="D134" t="n">
-        <v>10952.85</v>
+        <v>9885.360000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>10964.22</v>
+        <v>9885.360000000001</v>
       </c>
       <c r="G134" s="3">
         <f>AVERAGE(E130:E134)</f>
@@ -5367,16 +5367,16 @@
         <v>141</v>
       </c>
       <c r="B135" t="n">
-        <v>10981.39</v>
+        <v>9899.24</v>
       </c>
       <c r="C135" t="n">
-        <v>11028.27</v>
+        <v>9957.629999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>10956.49</v>
+        <v>9888.030000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>11021.38</v>
+        <v>9888.030000000001</v>
       </c>
       <c r="G135" s="3">
         <f>AVERAGE(E131:E135)</f>
@@ -5396,16 +5396,16 @@
         <v>142</v>
       </c>
       <c r="B136" t="n">
-        <v>11042.41</v>
+        <v>9979.209999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>11058.06</v>
+        <v>10148.75</v>
       </c>
       <c r="D136" t="n">
-        <v>10989.93</v>
+        <v>9979.209999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>10995.13</v>
+        <v>10137.87</v>
       </c>
       <c r="G136" s="3">
         <f>AVERAGE(E132:E136)</f>
@@ -5425,16 +5425,16 @@
         <v>143</v>
       </c>
       <c r="B137" t="n">
-        <v>11016.92</v>
+        <v>10120.43</v>
       </c>
       <c r="C137" t="n">
-        <v>11016.92</v>
+        <v>10126.02</v>
       </c>
       <c r="D137" t="n">
-        <v>10905.34</v>
+        <v>10061.7</v>
       </c>
       <c r="E137" t="n">
-        <v>10924.3</v>
+        <v>10083.54</v>
       </c>
       <c r="G137" s="3">
         <f>AVERAGE(E133:E137)</f>
@@ -5454,16 +5454,16 @@
         <v>144</v>
       </c>
       <c r="B138" t="n">
-        <v>10922.55</v>
+        <v>9971.98</v>
       </c>
       <c r="C138" t="n">
-        <v>10922.55</v>
+        <v>9971.98</v>
       </c>
       <c r="D138" t="n">
-        <v>10807.56</v>
+        <v>9895.290000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>10846.99</v>
+        <v>9916.74</v>
       </c>
       <c r="G138" s="3">
         <f>AVERAGE(E134:E138)</f>
@@ -5483,16 +5483,16 @@
         <v>145</v>
       </c>
       <c r="B139" t="n">
-        <v>10869.8</v>
+        <v>9850.08</v>
       </c>
       <c r="C139" t="n">
-        <v>10877.72</v>
+        <v>9850.08</v>
       </c>
       <c r="D139" t="n">
-        <v>10689.29</v>
+        <v>9664.75</v>
       </c>
       <c r="E139" t="n">
-        <v>10725.8</v>
+        <v>9684.719999999999</v>
       </c>
       <c r="G139" s="3">
         <f>AVERAGE(E135:E139)</f>
@@ -5512,16 +5512,16 @@
         <v>146</v>
       </c>
       <c r="B140" t="n">
-        <v>10723</v>
+        <v>9719.459999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>10765.42</v>
+        <v>9785.200000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>10669.59</v>
+        <v>9719.459999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>10752.3</v>
+        <v>9760.879999999999</v>
       </c>
       <c r="G140" s="3">
         <f>AVERAGE(E136:E140)</f>
@@ -5541,16 +5541,16 @@
         <v>147</v>
       </c>
       <c r="B141" t="n">
-        <v>10762.91</v>
+        <v>9722.969999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>10779.93</v>
+        <v>9722.969999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>10667.25</v>
+        <v>9626.469999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>10722.57</v>
+        <v>9647.540000000001</v>
       </c>
       <c r="G141" s="3">
         <f>AVERAGE(E137:E141)</f>
@@ -5570,16 +5570,16 @@
         <v>148</v>
       </c>
       <c r="B142" t="n">
-        <v>10726.67</v>
+        <v>9661.719999999999</v>
       </c>
       <c r="C142" t="n">
-        <v>10758.84</v>
+        <v>9720.959999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>10701.25</v>
+        <v>9661.719999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>10727.23</v>
+        <v>9707.040000000001</v>
       </c>
       <c r="G142" s="3">
         <f>AVERAGE(E138:E142)</f>
@@ -5599,16 +5599,16 @@
         <v>149</v>
       </c>
       <c r="B143" t="n">
-        <v>10776.53</v>
+        <v>9741.450000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>10882.04</v>
+        <v>9835.559999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>10770.47</v>
+        <v>9741.450000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>10868.14</v>
+        <v>9816.450000000001</v>
       </c>
       <c r="G143" s="3">
         <f>AVERAGE(E139:E143)</f>
@@ -5628,16 +5628,16 @@
         <v>150</v>
       </c>
       <c r="B144" t="n">
-        <v>10881.78</v>
+        <v>9827.32</v>
       </c>
       <c r="C144" t="n">
-        <v>10883.98</v>
+        <v>9871.959999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>10806.73</v>
+        <v>9815.5</v>
       </c>
       <c r="E144" t="n">
-        <v>10828.61</v>
+        <v>9858.76</v>
       </c>
       <c r="G144" s="3">
         <f>AVERAGE(E140:E144)</f>
@@ -5657,16 +5657,16 @@
         <v>151</v>
       </c>
       <c r="B145" t="n">
-        <v>10794.22</v>
+        <v>9818.950000000001</v>
       </c>
       <c r="C145" t="n">
-        <v>10806.56</v>
+        <v>9818.950000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>10750.81</v>
+        <v>9718.940000000001</v>
       </c>
       <c r="E145" t="n">
-        <v>10760.21</v>
+        <v>9774.16</v>
       </c>
       <c r="G145" s="3">
         <f>AVERAGE(E141:E145)</f>
@@ -5686,16 +5686,16 @@
         <v>152</v>
       </c>
       <c r="B146" t="n">
-        <v>10808.5</v>
+        <v>9762.49</v>
       </c>
       <c r="C146" t="n">
-        <v>10882.75</v>
+        <v>9826.879999999999</v>
       </c>
       <c r="D146" t="n">
-        <v>10808.5</v>
+        <v>9733.98</v>
       </c>
       <c r="E146" t="n">
-        <v>10857.27</v>
+        <v>9787.530000000001</v>
       </c>
       <c r="G146" s="3">
         <f>AVERAGE(E142:E146)</f>
@@ -5715,16 +5715,16 @@
         <v>153</v>
       </c>
       <c r="B147" t="n">
-        <v>10886.19</v>
+        <v>9756.459999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>10908.36</v>
+        <v>9756.67</v>
       </c>
       <c r="D147" t="n">
-        <v>10814.54</v>
+        <v>9701.1</v>
       </c>
       <c r="E147" t="n">
-        <v>10831.41</v>
+        <v>9718.82</v>
       </c>
       <c r="G147" s="3">
         <f>AVERAGE(E143:E147)</f>
@@ -5744,16 +5744,16 @@
         <v>154</v>
       </c>
       <c r="B148" t="n">
-        <v>10857.1</v>
+        <v>9720.92</v>
       </c>
       <c r="C148" t="n">
-        <v>10972.41</v>
+        <v>9783.209999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>10835.84</v>
+        <v>9720.92</v>
       </c>
       <c r="E148" t="n">
-        <v>10972.41</v>
+        <v>9783.209999999999</v>
       </c>
       <c r="G148" s="3">
         <f>AVERAGE(E144:E148)</f>
@@ -5773,16 +5773,16 @@
         <v>155</v>
       </c>
       <c r="B149" t="n">
-        <v>10959.56</v>
+        <v>9729.290000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>11003.49</v>
+        <v>9741.549999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>10941.77</v>
+        <v>9658.5</v>
       </c>
       <c r="E149" t="n">
-        <v>10978.85</v>
+        <v>9674.52</v>
       </c>
       <c r="G149" s="3">
         <f>AVERAGE(E145:E149)</f>
@@ -5802,16 +5802,16 @@
         <v>156</v>
       </c>
       <c r="B150" t="n">
-        <v>10974.08</v>
+        <v>9648.98</v>
       </c>
       <c r="C150" t="n">
-        <v>11007.35</v>
+        <v>9683.950000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>10947.29</v>
+        <v>9585.32</v>
       </c>
       <c r="E150" t="n">
-        <v>10974.19</v>
+        <v>9676.67</v>
       </c>
       <c r="G150" s="3">
         <f>AVERAGE(E146:E150)</f>
@@ -5831,16 +5831,16 @@
         <v>157</v>
       </c>
       <c r="B151" t="n">
-        <v>10973.77</v>
+        <v>9639.24</v>
       </c>
       <c r="C151" t="n">
-        <v>11051.09</v>
+        <v>9652.190000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>10961.27</v>
+        <v>9625.309999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>11034.19</v>
+        <v>9646.16</v>
       </c>
       <c r="G151" s="3">
         <f>AVERAGE(E147:E151)</f>
@@ -5860,16 +5860,16 @@
         <v>158</v>
       </c>
       <c r="B152" t="n">
-        <v>11050.09</v>
+        <v>9646.530000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>11073.95</v>
+        <v>9658.950000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>10966.96</v>
+        <v>9613.290000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>11006.34</v>
+        <v>9639.700000000001</v>
       </c>
       <c r="G152" s="3">
         <f>AVERAGE(E148:E152)</f>
@@ -5889,16 +5889,16 @@
         <v>159</v>
       </c>
       <c r="B153" t="n">
-        <v>11014.19</v>
+        <v>9559.700000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>11062.43</v>
+        <v>9559.700000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>11012.95</v>
+        <v>9479.059999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>11051.8</v>
+        <v>9527.09</v>
       </c>
       <c r="G153" s="3">
         <f>AVERAGE(E149:E153)</f>
@@ -5918,16 +5918,16 @@
         <v>160</v>
       </c>
       <c r="B154" t="n">
-        <v>11048.89</v>
+        <v>9544.870000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>11064.34</v>
+        <v>9591.91</v>
       </c>
       <c r="D154" t="n">
-        <v>10906.42</v>
+        <v>9473.299999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>10919.63</v>
+        <v>9478.99</v>
       </c>
       <c r="G154" s="3">
         <f>AVERAGE(E150:E154)</f>
@@ -5947,16 +5947,16 @@
         <v>161</v>
       </c>
       <c r="B155" t="n">
-        <v>10918.74</v>
+        <v>9555.01</v>
       </c>
       <c r="C155" t="n">
-        <v>10926.73</v>
+        <v>9670.969999999999</v>
       </c>
       <c r="D155" t="n">
-        <v>10839.46</v>
+        <v>9555.01</v>
       </c>
       <c r="E155" t="n">
-        <v>10863.94</v>
+        <v>9641.559999999999</v>
       </c>
       <c r="G155" s="3">
         <f>AVERAGE(E151:E155)</f>
@@ -5976,16 +5976,16 @@
         <v>162</v>
       </c>
       <c r="B156" t="n">
-        <v>10826.19</v>
+        <v>9649.969999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>10826.19</v>
+        <v>9727.41</v>
       </c>
       <c r="D156" t="n">
-        <v>10707.76</v>
+        <v>9630.77</v>
       </c>
       <c r="E156" t="n">
-        <v>10718.91</v>
+        <v>9727.41</v>
       </c>
       <c r="G156" s="3">
         <f>AVERAGE(E152:E156)</f>
@@ -6005,16 +6005,16 @@
         <v>163</v>
       </c>
       <c r="B157" t="n">
-        <v>10665.29</v>
+        <v>9725.27</v>
       </c>
       <c r="C157" t="n">
-        <v>10669.63</v>
+        <v>9737.68</v>
       </c>
       <c r="D157" t="n">
-        <v>10446.94</v>
+        <v>9542.52</v>
       </c>
       <c r="E157" t="n">
-        <v>10517.12</v>
+        <v>9554.139999999999</v>
       </c>
       <c r="G157" s="3">
         <f>AVERAGE(E153:E157)</f>
@@ -6034,16 +6034,16 @@
         <v>164</v>
       </c>
       <c r="B158" t="n">
-        <v>10467.85</v>
+        <v>9494.25</v>
       </c>
       <c r="C158" t="n">
-        <v>10507.83</v>
+        <v>9554.530000000001</v>
       </c>
       <c r="D158" t="n">
-        <v>10403.13</v>
+        <v>9474.469999999999</v>
       </c>
       <c r="E158" t="n">
-        <v>10455.93</v>
+        <v>9492.42</v>
       </c>
       <c r="G158" s="3">
         <f>AVERAGE(E154:E158)</f>
@@ -6063,16 +6063,16 @@
         <v>165</v>
       </c>
       <c r="B159" t="n">
-        <v>10464.39</v>
+        <v>9427.24</v>
       </c>
       <c r="C159" t="n">
-        <v>10503.1</v>
+        <v>9427.24</v>
       </c>
       <c r="D159" t="n">
-        <v>10428.97</v>
+        <v>9319.280000000001</v>
       </c>
       <c r="E159" t="n">
-        <v>10466.83</v>
+        <v>9382.51</v>
       </c>
       <c r="G159" s="3">
         <f>AVERAGE(E155:E159)</f>
@@ -6092,16 +6092,16 @@
         <v>166</v>
       </c>
       <c r="B160" t="n">
-        <v>10272.04</v>
+        <v>9460.200000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>10272.04</v>
+        <v>9596.35</v>
       </c>
       <c r="D160" t="n">
-        <v>9797.93</v>
+        <v>9460.200000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>9806.110000000001</v>
+        <v>9590.299999999999</v>
       </c>
       <c r="G160" s="3">
         <f>AVERAGE(E156:E160)</f>
@@ -6121,16 +6121,16 @@
         <v>167</v>
       </c>
       <c r="B161" t="n">
-        <v>9811.58</v>
+        <v>9591.559999999999</v>
       </c>
       <c r="C161" t="n">
-        <v>10046.01</v>
+        <v>9600.940000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>9740.76</v>
+        <v>9547.629999999999</v>
       </c>
       <c r="E161" t="n">
-        <v>10045.81</v>
+        <v>9563.6</v>
       </c>
       <c r="G161" s="3">
         <f>AVERAGE(E157:E161)</f>
@@ -6150,16 +6150,16 @@
         <v>168</v>
       </c>
       <c r="B162" t="n">
-        <v>9989.629999999999</v>
+        <v>9584.629999999999</v>
       </c>
       <c r="C162" t="n">
-        <v>9989.629999999999</v>
+        <v>9741.639999999999</v>
       </c>
       <c r="D162" t="n">
-        <v>9890.469999999999</v>
+        <v>9584.629999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>9901.120000000001</v>
+        <v>9738.309999999999</v>
       </c>
       <c r="G162" s="3">
         <f>AVERAGE(E158:E162)</f>
@@ -6179,16 +6179,16 @@
         <v>169</v>
       </c>
       <c r="B163" t="n">
-        <v>9891.969999999999</v>
+        <v>9731.110000000001</v>
       </c>
       <c r="C163" t="n">
-        <v>10011.19</v>
+        <v>9731.110000000001</v>
       </c>
       <c r="D163" t="n">
-        <v>9888.73</v>
+        <v>9683.200000000001</v>
       </c>
       <c r="E163" t="n">
-        <v>9981.1</v>
+        <v>9720.690000000001</v>
       </c>
       <c r="G163" s="3">
         <f>AVERAGE(E159:E163)</f>
@@ -6208,16 +6208,16 @@
         <v>170</v>
       </c>
       <c r="B164" t="n">
-        <v>10048.43</v>
+        <v>9753.629999999999</v>
       </c>
       <c r="C164" t="n">
-        <v>10127.01</v>
+        <v>9796.98</v>
       </c>
       <c r="D164" t="n">
-        <v>9978.25</v>
+        <v>9736</v>
       </c>
       <c r="E164" t="n">
-        <v>9979.139999999999</v>
+        <v>9759.4</v>
       </c>
       <c r="G164" s="3">
         <f>AVERAGE(E160:E164)</f>
@@ -6237,16 +6237,16 @@
         <v>171</v>
       </c>
       <c r="B165" t="n">
-        <v>9975.459999999999</v>
+        <v>9737.67</v>
       </c>
       <c r="C165" t="n">
-        <v>10019.5</v>
+        <v>9762.370000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>9919.790000000001</v>
+        <v>9677.49</v>
       </c>
       <c r="E165" t="n">
-        <v>9953.73</v>
+        <v>9708.219999999999</v>
       </c>
       <c r="G165" s="3">
         <f>AVERAGE(E161:E165)</f>
@@ -6266,16 +6266,16 @@
         <v>172</v>
       </c>
       <c r="B166" t="n">
-        <v>9879.469999999999</v>
+        <v>9701.93</v>
       </c>
       <c r="C166" t="n">
-        <v>9919.26</v>
+        <v>9806.040000000001</v>
       </c>
       <c r="D166" t="n">
-        <v>9762.91</v>
+        <v>9701.93</v>
       </c>
       <c r="E166" t="n">
-        <v>9919.26</v>
+        <v>9806.040000000001</v>
       </c>
       <c r="G166" s="3">
         <f>AVERAGE(E162:E166)</f>
@@ -6295,16 +6295,16 @@
         <v>173</v>
       </c>
       <c r="B167" t="n">
-        <v>9871.299999999999